--- a/data/02_intermediate/cleaned_BOOBA_songs.xlsx
+++ b/data/02_intermediate/cleaned_BOOBA_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C474"/>
+  <dimension ref="A1:C441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mwaka Moon</t>
+          <t>Amnésie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Discographie - Damso Album Studio - 20160708 Damso - Batterie faible - 20170428 Damso - Ipséité - 20180615 Damso - Lithopédion - 20200918 Damso - QALF - 20210429 Damso - QALF infinity Mixtape - 20140829 Damso - Salle d'attente Compilation - 20181214 Damso - Intégrale - 20190809 Damso - Ipséité Lithopédion Single - 20120328 Damso - Freestyle Portes Ouvertes FPO - 20121001 Damso - Brouillard - 20140308 Damso - EGO - 20140328 Damso - Publie Partage Promo - 20140818 Damso - On n'est jamais mieux compris que par soi-même - 20140829 Damso - Le talent ne suffit pas - 20140928 Damso - IVG - 20141220 Damso - Tout oublier - 20141220 Damso - BANG BANG - 20150808 Damso - Comment faire un tube - 20151118 Damso - Ma putain - 20151119 Damso - Colis - 20151120 Damso - Poséidon - 20151217 Damso - Mi Amor - 20160122 Damso - Débrouillard - 20160427 Damso - Autotune - 20160527 Damso - BruxellesVie - 20160621 Damso - Peur d'être sobre - 20160624 Damso - Périscope - 20160708 Damso - Graine de sablier - 20160718 Damso - Paris c'est loin - 20161107 Damso - Amnésie - 20160919 Damso - Débrouillard Remix - 20160928 Damso - Freestyle Deezr - 20170118 Damso - Smeagol - 20170220 Damso - CQFD - 20170403 Damso - Mort - 20170428 Damso - N. J Respect R - 20170428 Damso - . Nwaar Is Th New Black - 20170525 Damso - TieksVie - 20170706 Damso - . Macarena - 20170714 Damso - Quotidien de baisé - 20170901 Damso - Mucho Dinero - 20170903 Damso - C'est toujours Dems Le vrai - 20171027 Damso - Seultou - 20171027 Damso - Fais-moi un Vie - 20171110 Damso - Je nous mens - 20171201 Damso - Tueurs - 20180316 Damso - . Mosaïque solitaire - 20180428 Damso - Ipséité - 20180605 Damso - . Ouzbek - 20180613 Damso - Smog - 20180801 Damso - Surcôté - 20200124 Damso - veillé - 20200328 Damso - - 20210107 Damso - 911 - 20210406 Damso - J'avais juste envie décrire - 20221218 Damso - Cur de pirate Featuring - 2008 Dolfa - Cyclone - 20151112 LeBoy Krisy'B - Studio Remix - 20151204 Booba - Pinocchio - 2016 Siboy - Paradis - 20160410 Krisy - Real - 20160611 Booba - Freestyle Couvre Feu OKLM - 20160624 Hamza - Slow - 20170120 Vald - Vitrine - 20170331 Benash - Ivre - 20170630 Siboy - Mobali - 20171006 Kalash - Mwaka Moon - 20171117 Lacrim - Noche - 20171201 Booba - 113 - 20171213 Kalash - Mwaka Moon Felckin Remix - 20180518 Kalash - Mwaka Moon Sfera Ebbasta Remix - 20181114 OrelSan - Rêves bizarres - 20181207 404Billy - RVRE - 20190606 Nekfeu - Tricheur - 20190628 D.A.V - ParoVie - 20190712 Vegedream - Personne - 20190726 Kalash - JTC - 20190726 Kalash - Praliné - 20190927 Ikaz Boi - SOLITERRIEN - 20191118 Dadju - Robe - 20191219 Hamza - God Bless - 20200307 Ninho - Promo - 20201015 Innoss'B - Best - 20201016 Kalash Criminel - But en or - 20210305 ElGrandeToto - Étranger - 20210702 Dinos - Du mal à te dire - 20210716 Laylow - R9R-LINE - 20211203 Angèle - Démons - 20220301 Angèle - Démons Live Orchestral - 20220309 Aya Nakamura - Dégaine - 20220317 Disiz - RENCONTRE - 20220325 Selah Sue - Wanted You to Know - 20220429 Kalash - I Love You - 20220429 Kobo - .FUMÉE.ÉPAISSE - 20220701 Gazo - BODIES - 20220923 Kalash - Malpolis - 20221111 Lous and The Yakuza - Lubie - 20230217 Hamza - Nocif Discographie complémentaire - Discographie - OPG</t>
+          <t>Deux-deux-neuf, ma ville, 385i Unikat, ja, Habibi Nimo, ja, ja, ja-ja Weil ein Adler nicht mit Tauben fliegt, Ekho Weil ein Adler nicht mit Tauben fliegt, Ekho Weil ein Adler nicht mit Tauben fliegt, Ekho, Ekho, Ekho Geh du weiter mit deiner Mama Mandalas mal'n Yeah Ich mach' Urlaub mit Brüdern auf Antalya Check Nehm' Big-Bootys anal und ess' Köfte Kebab Alles easy Easy, zieh' viel Beaz im Hamam Ja Lieg' mit Kahbas am Strand, die im Penthouse Jacuzzi blow'n Gutes Koks auf ihre Pussy, ich bin skrupellos Du Hurensohn Ja, weil ein Adler nicht mit Tauben fliegt Prince of Persia, Casanova, weil ich Fraun betrüg' Ja, ja, ja, ja Hey, was babbelst du von Champagne? Meine Hase-Pappfresse spül' ich mit Heineken Ja-hah Ya-yo, lege Bretter auf WC, ja, es ist besser, wenn du gehst Wenn du die Zeile nicht verstehst Ne, ne, ne, ne, ne, ne Oui, si, yes, ja, okay, Habibi, extra for me, hält deine Schwestern ihn hin She's a Big-Booty-Queen Queen Boombaclat Bio Amnesie, lass sie mal zieh'n Hah, yeah Leg' mein'n Schwanz in ihre Hand, lehn' mich zurück und genieß' es Weil ein Adler nicht mit Tauben fliegt, unterscheide ich mich von euch In jeder Hinsicht, mache Business bis die Mill da ist, läuft All diese Bilder sind neu, Ekho, mein Leben wird bunt Wenn du mit mir reden willst, nimm ein'n Orbit, du hast Mundgeruch Rein theoretisch spiel' ich mit Weibern nur Tetris Verstelle und verschiebe sie auf ewig Yeah, weil ein Adler nicht mit Tauben fliegt Yeah Was? Weil ein Adler nicht mit Tauben fliegt Du Pisser, machst dich zum Clown, alles wegen Aufmerksamkeit Yeah Trägst scheußliche Nikes, dazu läufst du zu breit Triffst dich ab und zu mit einem käuflichen Weib Doch mein Schwanz wurd vom Mund deiner Freundin gesignt Ja, ja, ja, ja Du sitzst heulend daheim Suchst Stress auf Flex per SMS, doch bereust es dann gleich Denn auch zur heutigen Zeit werden Fäuste verteilt Dann gibt es kein Tut mir leid und Ich hab's anders gemeint Nein, nein, nein, nein, nein, nein, nein Nein, zeig mir deine Freunde und ich sag' dir, wer du bist Zeig ma' Aber zeigst du mir dein Arsch, dann ist mir klar, du bist 'ne Bitch Denn ich erkenne einen Schlitz, wenn du deine Leggings hochziehst Trink ein Becher, rauch ein Bubatz, du bist stoned wie O.G., Ekho, überfall dich im Mondlicht Ja-ja Und du wirst nicht mal vermisst, wenn du tot bist Nah, nah, nah, nah Du babbelst, dass du groß tickst, Blender, alles Blöff Nimo, Gruß an den Haftrichter, deux-deux-neuf Weil ein Adler nicht mit Tauben fliegt, unterscheide ich mich von euch In jeder Hinsicht, mache Business bis die Mill da ist, läuft All diese Bilder sind neu, Ekho, mein Leben wird bunt Wenn du mit mir reden willst, nimm ein'n Orbit, du hast Mundgeruch Rein theoretisch spiel' ich mit Weibern nur Tetris Verstelle und verschiebe sie auf ewig Yeah, weil ein Adler nicht mit Tauben fliegt Was? Weil ein Adler nicht mit Tauben fliegt Weil ein Adler nicht mit Tauben fliegt Weil ein Adler nicht mit Tauben fliegt Rein theoretisch spiel' ich mit Weibern nur Tetris Verstelle und verschiebe sie auf ewig Yeah, weil ein Adler nicht mit Tauben fliegt Was? Weil ein Adler nicht mit Tauben fliegt1</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amnésie</t>
+          <t>92i Veyron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Deux-deux-neuf, ma ville, 385i Unikat, ja, Habibi Nimo, ja, ja, ja-ja Weil ein Adler nicht mit Tauben fliegt, Ekho Weil ein Adler nicht mit Tauben fliegt, Ekho Weil ein Adler nicht mit Tauben fliegt, Ekho, Ekho, Ekho Geh du weiter mit deiner Mama Mandalas mal'n Yeah Ich mach' Urlaub mit Brüdern auf Antalya Check Nehm' Big-Bootys anal und ess' Köfte Kebab Alles easy Easy, zieh' viel Beaz im Hamam Ja Lieg' mit Kahbas am Strand, die im Penthouse Jacuzzi blow'n Gutes Koks auf ihre Pussy, ich bin skrupellos Du Hurensohn Ja, weil ein Adler nicht mit Tauben fliegt Prince of Persia, Casanova, weil ich Fraun betrüg' Ja, ja, ja, ja Hey, was babbelst du von Champagne? Meine Hase-Pappfresse spül' ich mit Heineken Ja-hah Ya-yo, lege Bretter auf WC, ja, es ist besser, wenn du gehst Wenn du die Zeile nicht verstehst Ne, ne, ne, ne, ne, ne Oui, si, yes, ja, okay, Habibi, extra for me, hält deine Schwestern ihn hin She's a Big-Booty-Queen Queen Boombaclat Bio Amnesie, lass sie mal zieh'n Hah, yeah Leg' mein'n Schwanz in ihre Hand, lehn' mich zurück und genieß' es Weil ein Adler nicht mit Tauben fliegt, unterscheide ich mich von euch In jeder Hinsicht, mache Business bis die Mill da ist, läuft All diese Bilder sind neu, Ekho, mein Leben wird bunt Wenn du mit mir reden willst, nimm ein'n Orbit, du hast Mundgeruch Rein theoretisch spiel' ich mit Weibern nur Tetris Verstelle und verschiebe sie auf ewig Yeah, weil ein Adler nicht mit Tauben fliegt Yeah Was? Weil ein Adler nicht mit Tauben fliegt Du Pisser, machst dich zum Clown, alles wegen Aufmerksamkeit Yeah Trägst scheußliche Nikes, dazu läufst du zu breit Triffst dich ab und zu mit einem käuflichen Weib Doch mein Schwanz wurd vom Mund deiner Freundin gesignt Ja, ja, ja, ja Du sitzst heulend daheim Suchst Stress auf Flex per SMS, doch bereust es dann gleich Denn auch zur heutigen Zeit werden Fäuste verteilt Dann gibt es kein Tut mir leid und Ich hab's anders gemeint Nein, nein, nein, nein, nein, nein, nein Nein, zeig mir deine Freunde und ich sag' dir, wer du bist Zeig ma' Aber zeigst du mir dein Arsch, dann ist mir klar, du bist 'ne Bitch Denn ich erkenne einen Schlitz, wenn du deine Leggings hochziehst Trink ein Becher, rauch ein Bubatz, du bist stoned wie O.G., Ekho, überfall dich im Mondlicht Ja-ja Und du wirst nicht mal vermisst, wenn du tot bist Nah, nah, nah, nah Du babbelst, dass du groß tickst, Blender, alles Blöff Nimo, Gruß an den Haftrichter, deux-deux-neuf Weil ein Adler nicht mit Tauben fliegt, unterscheide ich mich von euch In jeder Hinsicht, mache Business bis die Mill da ist, läuft All diese Bilder sind neu, Ekho, mein Leben wird bunt Wenn du mit mir reden willst, nimm ein'n Orbit, du hast Mundgeruch Rein theoretisch spiel' ich mit Weibern nur Tetris Verstelle und verschiebe sie auf ewig Yeah, weil ein Adler nicht mit Tauben fliegt Was? Weil ein Adler nicht mit Tauben fliegt Weil ein Adler nicht mit Tauben fliegt Weil ein Adler nicht mit Tauben fliegt Rein theoretisch spiel' ich mit Weibern nur Tetris Verstelle und verschiebe sie auf ewig Yeah, weil ein Adler nicht mit Tauben fliegt Was? Weil ein Adler nicht mit Tauben fliegt1</t>
+          <t>Personne, personne Personne, personne Nouveau riche, ma Lamborghini a pris quelques dos-d'âne J'fais ni la queue au Ritz, ni au McDonald's Si c'est eux qui ont raison, je n'suis pas raisonnable La rafale dans ton salon s'ra sûrement désagréable Nouveau riche, ma Lamborghini a pris quelques dos-d'âne J'fais ni la queue au Ritz, ni au McDonald's Si c'est eux qui ont raison, je n'suis pas raisonnable La rafale dans ton salon s'ra sûrement désagréable On trinque à nos balafres, à nos crochets tous les soirs Noir c'est noir, ont-ils dit, y a donc vraiment plus d'espoir Les vainqueurs l'écrivent, les vaincus racontent l'histoire Les vainqueurs l'écrivent, les vaincus racontent l'histoire Personne dans le monde ne marche du même pas Leurs règles ont toutes une tombe, c'est ça qu'ils n'comprennent pas Des allers-retours en prison, certains n'en reviennent pas J'ai une kalash et des mouftons, tous sous le même toit Toujours d'humeur à les lever, que l'avenir suce mon troisième doigt Non, moi je n't'aime pas, ni c'lui qui est avec toi Y a que quand tu baises ta daronne que j'suis de tout cur avec toi T'as même pas de quoi me faire fumer, qu'est-ce que j'vais faire avec toi ? J'parle de rue car j'y ai baigné, même si j'y suis beaucoup moins J't'écris du block avec G.A.T.O B.A.T.O, boug an mwen Y a du son, d'la chatte, du shit, y a le Nueve-2i dans le coin Grosse bite dans la chatte du SMIC, coup d'pied retourné dans le groin Bombe nucléaire sur le game, il n'restera que moi et les rats Quand j'monterai dans la Veyron, jamais tu n'me reverras Inspiré par la musique de ces descendants d'esclaves Ils achètent négros sur place publique, pour eux rien n'est grave J'ai couronne sur la tête, pourtant c'est le voisin qu'a eu la fève Il n'y aura jamais de trêve m'ont dit mes khos du 93 Braisé poulet, locos, bananes, le rap c'est haram Génocide sur ces négros, j'vais les Boko Haram Ne fais pas trop de bien, ou tu seras cloué sur une croix La rafale dans ta grand-mère arrivera plus tôt que tu n'crois La race humaine me dégoûte, j'allume gros pilon au chalumeau Nique ta fondation de merde, j'préfère sauver les animaux On trinque à nos balafres, à nos crochets tous les soirs Noir c'est noir, ont-ils dit, y a donc vraiment plus d'espoir Les vainqueurs l'écrivent, les vaincus racontent l'histoire Les vainqueurs l'écrivent, les vaincus racontent l'histoire Personne dans le monde ne marche du même pas Leurs règles ont toutes une tombe, c'est ça qu'ils n'comprennent pas Des allers-retours en prison, certains n'en reviennent pas J'ai une kalash et des mouftons, tous sous le même toit Toujours d'humeur à les lever, que l'avenir suce mon troisième doigt Non, moi je n't'aime pas ni c'lui qui est avec toi Y a que quand tu baises ta daronne que j'suis de tout cur avec toi T'as même pas de quoi me faire fumer, qu'est-ce que j'vais faire avec toi ?46</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>92i Veyron</t>
+          <t>Kalash</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Personne, personne Personne, personne Nouveau riche, ma Lamborghini a pris quelques dos-d'âne J'fais ni la queue au Ritz, ni au McDonald's Si c'est eux qui ont raison, je n'suis pas raisonnable La rafale dans ton salon s'ra sûrement désagréable Nouveau riche, ma Lamborghini a pris quelques dos-d'âne J'fais ni la queue au Ritz, ni au McDonald's Si c'est eux qui ont raison, je n'suis pas raisonnable La rafale dans ton salon s'ra sûrement désagréable On trinque à nos balafres, à nos crochets tous les soirs Noir c'est noir, ont-ils dit, y a donc vraiment plus d'espoir Les vainqueurs l'écrivent, les vaincus racontent l'histoire Les vainqueurs l'écrivent, les vaincus racontent l'histoire Personne dans le monde ne marche du même pas Leurs règles ont toutes une tombe, c'est ça qu'ils n'comprennent pas Des allers-retours en prison, certains n'en reviennent pas J'ai une kalash et des mouftons, tous sous le même toit Toujours d'humeur à les lever, que l'avenir suce mon troisième doigt Non, moi je n't'aime pas, ni c'lui qui est avec toi Y a que quand tu baises ta daronne que j'suis de tout cur avec toi T'as même pas de quoi me faire fumer, qu'est-ce que j'vais faire avec toi ? J'parle de rue car j'y ai baigné, même si j'y suis beaucoup moins J't'écris du block avec G.A.T.O B.A.T.O, boug an mwen Y a du son, d'la chatte, du shit, y a le Nueve-2i dans le coin Grosse bite dans la chatte du SMIC, coup d'pied retourné dans le groin Bombe nucléaire sur le game, il n'restera que moi et les rats Quand j'monterai dans la Veyron, jamais tu n'me reverras Inspiré par la musique de ces descendants d'esclaves Ils achètent négros sur place publique, pour eux rien n'est grave J'ai couronne sur la tête, pourtant c'est le voisin qu'a eu la fève Il n'y aura jamais de trêve m'ont dit mes khos du 93 Braisé poulet, locos, bananes, le rap c'est haram Génocide sur ces négros, j'vais les Boko Haram Ne fais pas trop de bien, ou tu seras cloué sur une croix La rafale dans ta grand-mère arrivera plus tôt que tu n'crois La race humaine me dégoûte, j'allume gros pilon au chalumeau Nique ta fondation de merde, j'préfère sauver les animaux On trinque à nos balafres, à nos crochets tous les soirs Noir c'est noir, ont-ils dit, y a donc vraiment plus d'espoir Les vainqueurs l'écrivent, les vaincus racontent l'histoire Les vainqueurs l'écrivent, les vaincus racontent l'histoire Personne dans le monde ne marche du même pas Leurs règles ont toutes une tombe, c'est ça qu'ils n'comprennent pas Des allers-retours en prison, certains n'en reviennent pas J'ai une kalash et des mouftons, tous sous le même toit Toujours d'humeur à les lever, que l'avenir suce mon troisième doigt Non, moi je n't'aime pas ni c'lui qui est avec toi Y a que quand tu baises ta daronne que j'suis de tout cur avec toi T'as même pas de quoi me faire fumer, qu'est-ce que j'vais faire avec toi ?46</t>
+          <t>Sors les Kalash' comme à Marseille Bah ouais, Morray Izi Tes négros n'ont pas d'oseille, dans la street tout se monnaye Les vrais savent, on se connaît, anti-hess, on se connecte J'ai des gros bras, la chatte à Popeye, crache-moi d'ssus, j'te lance une bouteille Difficilement je trouve le sommeil, menton pointé vers le soleil M.O.L.O.T.O.V cocktail, j'te baise, j'te laisse à l'hôtel J'passe au Lamborghini, Maybach, Phantom, tu restes à l'Opel J'suis dans l'textile Sonia Rykiel, j'gère l'biz à l'américaine J'me taperais bien une Dominicaine, j'la mettrais ien-b tout le week-end J'la mettrais ienb' tout le week-end, downtown, j'ai vue sur Brickell WAllah j'suis frais, j'suis nickel, tirelire est pleine, j'ai haine habituelle J'parle d'homme à romanichel, t'as l'swag à Sacha Distel Fortuné tah Elf Aquitaine, t'es sur le banc, j'suis capitaine Montre en diamants, lunettes de soleil Sors les Kalash' comme à Marseille Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? Moi et mes kheys on part sur la Lune, amuse-toi bien en Meurthe-et-Moselle Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? Kaaris J'vais faire de tout cet oseille ? Kaaris Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? Orh Click 2.7.0 toujours plus haut, la République me suce le tuyau Monsieur l'agent jt'enfonce le triangle Sevran !, et le gilet fluo J'veux faire des sous mais j'suis paresseux, j'aime pas ta gueule, j'te baise ta reu-ssu J'n'ai qu'confiance qu'en mon Desert Eagle et en Zizou dans les arrêts d'jeu Elle est dans la chambre, elle est sous les draps uh-hum, j'ai des jambes à la place des bras Elle pense que j'suis en train d'la doigter uh-hum, j'lui mets mon gros doigt d'pied Mes deux questions préférées qu'est-ce j'vais faire de tous ces deniers ? Si j'te fends le crâne en deux, quel il va s'fermer le premier ? Continue à glousser, j'te fume et j'roule un trois feuilles Tes ongles continuent à pousser tu pourras griffer ton cercueil 2.7 J'ai la prose qui tue et, même ton corps reconstitué On n'sait toujours pas qui tu es, ta grand-mère la prostituée Montre en diamants, lunettes de soleil Sors les Kalash' comme à Marseille Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? Moi et mes kheys on part sur la Lune, amuse-toi bien en Meurthe-et-Moselle Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? J'ramasse deux-trois galériennes, partie de jambes en l'air Punchline anti-aérienne, si j'lâche des paroles en l'air Laisse tomber morray, c'est la guerre, le motif du crime, c'est la 'sère Nique sa mère, même une sexagénaire, la juge m'a dit que jexagère Mais nique sa mère là-celle aussi, son arrière grand-mère aussi Rien à envier à ces hommes, leur meuf est bonne, la mienne aussi Scène du crime c'est moi l'reur-ti, j'suis en couleur, t'es mal sorti J'suis Marlo Stanfield, ta mère la hyène, t'es McNulty J'te nique ta life gratuit, y a pas d'quoi, j'suis l'meilleur, cela va d'soi B.2.O.B.A. escroc mafieux comme Cha-arles Pasqua Vulgaires fautes de grammaire, sirote du Jack, de grosses mamelles J'voyage en jet, prends l'Eurotunnel, j'me sens comme dans la chatte à ta mère Montre en diamants, lunettes de soleil Sors les Kalash' comme à Marseille Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? Moi et mes kheys on part sur la Lune, amuse-toi bien en Meurthe-et-Moselle Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? Ma question préférée qu'est-ce j'vais faire de tout cet oseille, huh ? Back to the Future56</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kalash</t>
+          <t>DKR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sors les Kalash' comme à Marseille Bah ouais, Morray Izi Tes négros n'ont pas d'oseille, dans la street tout se monnaye Les vrais savent, on se connaît, anti-hess, on se connecte J'ai des gros bras, la chatte à Popeye, crache-moi d'ssus, j'te lance une bouteille Difficilement je trouve le sommeil, menton pointé vers le soleil M.O.L.O.T.O.V cocktail, j'te baise, j'te laisse à l'hôtel J'passe au Lamborghini, Maybach, Phantom, tu restes à l'Opel J'suis dans l'textile Sonia Rykiel, j'gère l'biz à l'américaine J'me taperais bien une Dominicaine, j'la mettrais ien-b tout le week-end J'la mettrais ienb' tout le week-end, downtown, j'ai vue sur Brickell WAllah j'suis frais, j'suis nickel, tirelire est pleine, j'ai haine habituelle J'parle d'homme à romanichel, t'as l'swag à Sacha Distel Fortuné tah Elf Aquitaine, t'es sur le banc, j'suis capitaine Montre en diamants, lunettes de soleil Sors les Kalash' comme à Marseille Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? Moi et mes kheys on part sur la Lune, amuse-toi bien en Meurthe-et-Moselle Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? Kaaris J'vais faire de tout cet oseille ? Kaaris Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? Orh Click 2.7.0 toujours plus haut, la République me suce le tuyau Monsieur l'agent jt'enfonce le triangle Sevran !, et le gilet fluo J'veux faire des sous mais j'suis paresseux, j'aime pas ta gueule, j'te baise ta reu-ssu J'n'ai qu'confiance qu'en mon Desert Eagle et en Zizou dans les arrêts d'jeu Elle est dans la chambre, elle est sous les draps uh-hum, j'ai des jambes à la place des bras Elle pense que j'suis en train d'la doigter uh-hum, j'lui mets mon gros doigt d'pied Mes deux questions préférées qu'est-ce j'vais faire de tous ces deniers ? Si j'te fends le crâne en deux, quel il va s'fermer le premier ? Continue à glousser, j'te fume et j'roule un trois feuilles Tes ongles continuent à pousser tu pourras griffer ton cercueil 2.7 J'ai la prose qui tue et, même ton corps reconstitué On n'sait toujours pas qui tu es, ta grand-mère la prostituée Montre en diamants, lunettes de soleil Sors les Kalash' comme à Marseille Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? Moi et mes kheys on part sur la Lune, amuse-toi bien en Meurthe-et-Moselle Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? J'ramasse deux-trois galériennes, partie de jambes en l'air Punchline anti-aérienne, si j'lâche des paroles en l'air Laisse tomber morray, c'est la guerre, le motif du crime, c'est la 'sère Nique sa mère, même une sexagénaire, la juge m'a dit que jexagère Mais nique sa mère là-celle aussi, son arrière grand-mère aussi Rien à envier à ces hommes, leur meuf est bonne, la mienne aussi Scène du crime c'est moi l'reur-ti, j'suis en couleur, t'es mal sorti J'suis Marlo Stanfield, ta mère la hyène, t'es McNulty J'te nique ta life gratuit, y a pas d'quoi, j'suis l'meilleur, cela va d'soi B.2.O.B.A. escroc mafieux comme Cha-arles Pasqua Vulgaires fautes de grammaire, sirote du Jack, de grosses mamelles J'voyage en jet, prends l'Eurotunnel, j'me sens comme dans la chatte à ta mère Montre en diamants, lunettes de soleil Sors les Kalash' comme à Marseille Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? Moi et mes kheys on part sur la Lune, amuse-toi bien en Meurthe-et-Moselle Ma question préférée qu'est-ce j'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? J'vais faire de tout cet oseille ? Ma question préférée qu'est-ce j'vais faire de tout cet oseille, huh ? Back to the Future56</t>
+          <t>C'est pas le quartier qui me quitte C'est moi j'quitte le quartier J'ai maillé, maillé, maillé, déjà J'ai pas bâillé, bâillé, fait des dégâts Tyson, Gris Bordeaux, Bombardier J'vais te casser le dos, pas te marier Me tiens pas la main, ça va parler J'ai déjà l'Balmain baissé sur le palier Comme Audrey Tcheuméo, j'suis médaillé Vámonos, négro, allez dalé La cuenta fut très très salée Ta halal j'vais la faire chialer Africa, tu n'as pas d'âge Ils veulent te marier, marier, marier Ton nom d'famille sera prise d'otage À quoi sert d'être lion en cage ? Envoie le hasch', les millions cash Faut mailler, mailler, mailler Madame la juge, élan de rage J'ai mitraillé comme un sauvage C'est pas le quartier qui me quitte C'est moi j'quitte le quartier J'ai maillé, maillé, maillé, déjà J'ai bataillé-taillé, fait des dégâts Je n'entends pas toutes ces hyènes J'suis devant un plat de tiep bou dienn Même noir j'pourrais rougir de haine Esclave n'a pas d'remise de peine Ceux qui n'veulent pas faire de business Je vous en prie descendez là Le cours de ta schneck est en baisse Sers-moi un shot de Mandela Africa, tu n'as pas d'âge Ils veulent te marier, marier, marier Ton nom d'famille sera prise d'otage À quoi sert d'être lion en cage ? Envoie le hasch', les millions cash Faut mailler, mailler, mailler Madame la juge, élan de rage J'ai mitraillé comme un sauvage Lion de la Teranga, y'a R j'ai fait c'qu'il fallait, fallait Sénégal, DKR, Génération Boul Falé, Falé Il aimait l'Afrique mais la mula l'a poussé à tailler, tailler Passe-moi les massa, mamakossa, F.L.O, Mara Salvatrucha Négro, n'a pas vraiment de chatte Le boule est plat, tu ne fais pas vraiment de squats Pour toi j'ai formule adéquate uppercut gauche droite Tyson, Gris Bordeaux, Bombardier, j'vais te casser le dos Il l'a branchée, a trop accéléré elle a gâté le kho Pour mieux roue-arriérer des mères, j'ai changé le pot Je suis pirate donc loup de mer, je peux te montrer les crocs19</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DKR</t>
+          <t>Scarface</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C'est pas le quartier qui me quitte C'est moi j'quitte le quartier J'ai maillé, maillé, maillé, déjà J'ai pas bâillé, bâillé, fait des dégâts Tyson, Gris Bordeaux, Bombardier J'vais te casser le dos, pas te marier Me tiens pas la main, ça va parler J'ai déjà l'Balmain baissé sur le palier Comme Audrey Tcheuméo, j'suis médaillé Vámonos, négro, allez dalé La cuenta fut très très salée Ta halal j'vais la faire chialer Africa, tu n'as pas d'âge Ils veulent te marier, marier, marier Ton nom d'famille sera prise d'otage À quoi sert d'être lion en cage ? Envoie le hasch', les millions cash Faut mailler, mailler, mailler Madame la juge, élan de rage J'ai mitraillé comme un sauvage C'est pas le quartier qui me quitte C'est moi j'quitte le quartier J'ai maillé, maillé, maillé, déjà J'ai bataillé-taillé, fait des dégâts Je n'entends pas toutes ces hyènes J'suis devant un plat de tiep bou dienn Même noir j'pourrais rougir de haine Esclave n'a pas d'remise de peine Ceux qui n'veulent pas faire de business Je vous en prie descendez là Le cours de ta schneck est en baisse Sers-moi un shot de Mandela Africa, tu n'as pas d'âge Ils veulent te marier, marier, marier Ton nom d'famille sera prise d'otage À quoi sert d'être lion en cage ? Envoie le hasch', les millions cash Faut mailler, mailler, mailler Madame la juge, élan de rage J'ai mitraillé comme un sauvage Lion de la Teranga, y'a R j'ai fait c'qu'il fallait, fallait Sénégal, DKR, Génération Boul Falé, Falé Il aimait l'Afrique mais la mula l'a poussé à tailler, tailler Passe-moi les massa, mamakossa, F.L.O, Mara Salvatrucha Négro, n'a pas vraiment de chatte Le boule est plat, tu ne fais pas vraiment de squats Pour toi j'ai formule adéquate uppercut gauche droite Tyson, Gris Bordeaux, Bombardier, j'vais te casser le dos Il l'a branchée, a trop accéléré elle a gâté le kho Pour mieux roue-arriérer des mères, j'ai changé le pot Je suis pirate donc loup de mer, je peux te montrer les crocs19</t>
+          <t>Morray j'suis grillé ou quoi ?! Dès que j'parle à une meuf Ceci, cela, tu fais ci, t'as plein d'meufs.. On t'a vu là, j'connais elle.. wesh ?! Scarface, Scarface Scarface, Scarface J'lui ai dit qu'j'suis dans le textile Elle me regarde de haut en bas Elle me dit Arrête de me prendre pour une imbécile J'dois rejoindre mes copines on s'en va J'lui dis attends un peu laisse-moi ton code PIN on s'revoit Elle me répond que de toute façon négro comme moi ne l'intéresse pas Qu'un gars comme moi l'utilisera, lui fera la misère et la délaissera Je... Je ne comprends pas Pourquoi elle me dit ça j'vais pas lui faire à la DSK J'ai même pas la gueule de l'emploi Laisse-moi te prouver le contraire Donne-moi l'heure et l'endroit Comment j'vais faire Pour qu'elle oublie tous mes travers Bijoux tatouages et mon univers Si le monde est à moi, le monde est à nous Scarface Les autres en face sont jaloux Pas de fraîche T'es pas bonne si t'as pas de fesses t'as walou Mon petit cur tombe en panne sèche Mais en dehors de ça Au-delà du fait que tu es bonne Je veux le coffre-fort de ton cur Je veux tous les codes entrer dans ton cerveau Sans effraction Te faire aimer mauvais garçon Donc je l'ai revue Quel bluff j'vais lui sortir La meuf est encore plus fraîche en plein jour J'arrête pas de mater son cul J'y plongerais 25 fois par jour jusqu'à ce que la go appelle au secours Jusqu'à ce qu'elle en peuve plus Puis je la sauverais, la réanimerais pour qu'elle ne me quitte plus Mais elle ne veut rien savoir Me dit qu'elle me veut juste en ami Que j'ai plus de vices que Deux flics à Miami, oh ! Pourtant je suis sérieux Mon statut me fait passer pour un mytho pour un mec mystérieux Dois-je abandonner ? Dois-je abandonner ? Je n'ai plus grand chose à dire man je crois que c'est plié Si le monde est à moi, le monde est à nous Scarface Les autres en face sont jaloux Pas de fraîche T'es pas bonne si t'as pas de fesses t'as walou Mon petit cur tombe en panne sèche Mais en dehors de ça Au-delà du fait que tu es bonne Je veux le coffre fort de ton cur Je veux tous les codes entrer dans ton cerveau Sans effraction Te faire aimer mauvais garçon Il réussit car il le devait De l'argent comme s'il en pleuvait Parle d'amour comme s'il en rêvait Vit sa vie comme s'il en crevait Je vais l'oublier, je vais l'oublier T'es fraîche t'es bonne et tout Mais je vais retourner à mes billets Thug de la tête aux pieds elle ne pensera jamais le contraire Verbal Kint, flow Keyser Söze que de la frappe comme à Nanterre Laisse passer les experts Caillera cherche meuf en tailleur Louis Vuitton, Dior, Louboutin Marre de défourailler des putains d'ailleurs Je comptais sur toi pour me changer la vie T'impressionner, te faire rire ne te fera pas changer d'avis Si le monde est à moi, le monde est à nous Scarface Les autres en face sont jaloux Pas de fraîche T'es pas bonne si t'as pas de fesses t'as walou Mon petit cur tombe en panne sèche Mais en dehors de ça Au-delà du fait que tu es bonne Je veux le coffre fort de ton cur Je veux tous les codes entrer dans ton cerveau Sans effraction Te faire aimer mauvais garçon19</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Scarface</t>
+          <t>A.C. Milan</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Morray j'suis grillé ou quoi ?! Dès que j'parle à une meuf Ceci, cela, tu fais ci, t'as plein d'meufs.. On t'a vu là, j'connais elle.. wesh ?! Scarface, Scarface Scarface, Scarface J'lui ai dit qu'j'suis dans le textile Elle me regarde de haut en bas Elle me dit Arrête de me prendre pour une imbécile J'dois rejoindre mes copines on s'en va J'lui dis attends un peu laisse-moi ton code PIN on s'revoit Elle me répond que de toute façon négro comme moi ne l'intéresse pas Qu'un gars comme moi l'utilisera, lui fera la misère et la délaissera Je... Je ne comprends pas Pourquoi elle me dit ça j'vais pas lui faire à la DSK J'ai même pas la gueule de l'emploi Laisse-moi te prouver le contraire Donne-moi l'heure et l'endroit Comment j'vais faire Pour qu'elle oublie tous mes travers Bijoux tatouages et mon univers Si le monde est à moi, le monde est à nous Scarface Les autres en face sont jaloux Pas de fraîche T'es pas bonne si t'as pas de fesses t'as walou Mon petit cur tombe en panne sèche Mais en dehors de ça Au-delà du fait que tu es bonne Je veux le coffre-fort de ton cur Je veux tous les codes entrer dans ton cerveau Sans effraction Te faire aimer mauvais garçon Donc je l'ai revue Quel bluff j'vais lui sortir La meuf est encore plus fraîche en plein jour J'arrête pas de mater son cul J'y plongerais 25 fois par jour jusqu'à ce que la go appelle au secours Jusqu'à ce qu'elle en peuve plus Puis je la sauverais, la réanimerais pour qu'elle ne me quitte plus Mais elle ne veut rien savoir Me dit qu'elle me veut juste en ami Que j'ai plus de vices que Deux flics à Miami, oh ! Pourtant je suis sérieux Mon statut me fait passer pour un mytho pour un mec mystérieux Dois-je abandonner ? Dois-je abandonner ? Je n'ai plus grand chose à dire man je crois que c'est plié Si le monde est à moi, le monde est à nous Scarface Les autres en face sont jaloux Pas de fraîche T'es pas bonne si t'as pas de fesses t'as walou Mon petit cur tombe en panne sèche Mais en dehors de ça Au-delà du fait que tu es bonne Je veux le coffre fort de ton cur Je veux tous les codes entrer dans ton cerveau Sans effraction Te faire aimer mauvais garçon Il réussit car il le devait De l'argent comme s'il en pleuvait Parle d'amour comme s'il en rêvait Vit sa vie comme s'il en crevait Je vais l'oublier, je vais l'oublier T'es fraîche t'es bonne et tout Mais je vais retourner à mes billets Thug de la tête aux pieds elle ne pensera jamais le contraire Verbal Kint, flow Keyser Söze que de la frappe comme à Nanterre Laisse passer les experts Caillera cherche meuf en tailleur Louis Vuitton, Dior, Louboutin Marre de défourailler des putains d'ailleurs Je comptais sur toi pour me changer la vie T'impressionner, te faire rire ne te fera pas changer d'avis Si le monde est à moi, le monde est à nous Scarface Les autres en face sont jaloux Pas de fraîche T'es pas bonne si t'as pas de fesses t'as walou Mon petit cur tombe en panne sèche Mais en dehors de ça Au-delà du fait que tu es bonne Je veux le coffre fort de ton cur Je veux tous les codes entrer dans ton cerveau Sans effraction Te faire aimer mauvais garçon19</t>
+          <t>Back to the Future Pour eux y'a plus d'espoir, rouge-noir Kopp A.C. Milan, j'fais le bilan Plus violent qu'du MMA Qu'une double frappe de Benzema Tu croyais quoi, me baiser moi ? J'suis dans l'tur-fu, oublie-moi Mais qui es-tu ? N'intéresses personne Ni LCI, ni 92izi Personne te respecte ici J'te l'dis, j'te l'redis J'ai une bad bitch sur ma bite'zère De vendredi à vendredi, si-si M'attaquer, vous n'auriez jamais dû Détrôner le Duc restera du jamais vu Qui vous met en hass ? Grand Sénégalais au sexe long R.O.H.2fesses, tu n'peux braquer qu'ton petit frelon J'attaque quand tu ne m'attends pas Mi-homme, mi-attentat TLF ton O.V.N.I. crame Chez nous personne vous aime, ni homme ni femme Vous n'vendez aucun disque, ne bicravez pas d'milligrammes Vos lyrics se résument à pouèt pouèt, prout prout, bam bilibam Bienvenue en 2013, Kopp A.C. Milan, j'fais le bilan J'suis venu mettre les tibias sur les i, craint comme l'Iran Chez nous on fait ça bien, tu sauras pas d'où ça vient Missile, boloss, anti-aérien cela ne mène à rien Il n'en restera qu'un, il n'en restera qu'un Il n'en restera qu'un, négro il n'en restera qu'un à la fin Izi, izi, biff, izi, izi, biff hé Il n'en restera qu'un Izi, izi, beef, izi, izi, beef Ils ont insulté ma mère, elle qui a tant souffert Je n'leur pardonnerai jamais, même quand ils seront six pieds sous terre Moi j'suis frais, j'suis rezefaitzait jusqu'à la fin du siècle Et les vrais négros le savent bien, donc eux, ils ne savent rien Rafale en Kawasaki, eux n'feront nada, klaoui Bienvenue sur Tataouine, vous êtes à sec, clique Sahraoui Oui oui, je win win, tu refuses de monter sur l'ring ring Ni couilles, ni bling-bling On t'fait les poches, ça ne fait que gling-gling FFHOR, t'es grave en chien, comme Émile Louis Laounizi Le premier rappeur pointeur, double Uzi pour mes ennemis Ikbal t'étais au habs, tu m'envoyais des paquets d'pâtes Aujourd'hui tu parles mal, wallaye bilaye ne t'inquiète pas Il parle français, dit de la merde, peut-on dire qu'il est bilingue ? En tout cas il est vilain, oh mon Dieu, qu'il est vilain Ça joue les criminels, ça braque des foufounes oh non ! La Fouine n'as-tu pas honte ? Agression sexuelle sur enfant Le savoir est une arme, j'suis calibré, j'lis pas d'bouquin J'ai des pics sur le cur comme sur une paire de Louboutin Si le rap n'était que vous deux, il n'serait vraiment qu'une grosse putain Pas d'diplôme, mais j'suis heureux, fuck les zéros sur mon bulletin Chez nous on fait ça bien, tu sauras pas d'où ça vient Missile, boloss, anti-aérien cela ne mène à rien Il n'en restera qu'un, il n'en restera qu'un Il n'en restera qu'un, négro il n'en restera qu'un à la fin Izi, izi, biff, izi, izi, biff hé Il n'en restera qu'un Izi, izi, beef, izi, izi, beef, hey - C'est Laouni Mouhid, né le 25 du 12 en 81 à Trappes ? - Ouais, ouais, il est super connu. Et une menace avec arme blanche, dégradation de bien privé, encore un recel, une extorsion de fonds. Agression sexuelle sur mineur. Bah bravo Morray ! - Outrage à personne chargée d'une mission de service, une atteinte sexuelle, deux violences volontaires. Sale pointeur ! ÉmileLouisLaounizi R.O.H.2fesses, Housni Couilles-de-bois, Zoulette Empire Izi, il n'en restera qu'un Morray, t'vois j'veux dire ou pas ? 92izon dans la maison29</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A.C. Milan</t>
+          <t>Petite fille</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Back to the Future Pour eux y'a plus d'espoir, rouge-noir Kopp A.C. Milan, j'fais le bilan Plus violent qu'du MMA Qu'une double frappe de Benzema Tu croyais quoi, me baiser moi ? J'suis dans l'tur-fu, oublie-moi Mais qui es-tu ? N'intéresses personne Ni LCI, ni 92izi Personne te respecte ici J'te l'dis, j'te l'redis J'ai une bad bitch sur ma bite'zère De vendredi à vendredi, si-si M'attaquer, vous n'auriez jamais dû Détrôner le Duc restera du jamais vu Qui vous met en hass ? Grand Sénégalais au sexe long R.O.H.2fesses, tu n'peux braquer qu'ton petit frelon J'attaque quand tu ne m'attends pas Mi-homme, mi-attentat TLF ton O.V.N.I. crame Chez nous personne vous aime, ni homme ni femme Vous n'vendez aucun disque, ne bicravez pas d'milligrammes Vos lyrics se résument à pouèt pouèt, prout prout, bam bilibam Bienvenue en 2013, Kopp A.C. Milan, j'fais le bilan J'suis venu mettre les tibias sur les i, craint comme l'Iran Chez nous on fait ça bien, tu sauras pas d'où ça vient Missile, boloss, anti-aérien cela ne mène à rien Il n'en restera qu'un, il n'en restera qu'un Il n'en restera qu'un, négro il n'en restera qu'un à la fin Izi, izi, biff, izi, izi, biff hé Il n'en restera qu'un Izi, izi, beef, izi, izi, beef Ils ont insulté ma mère, elle qui a tant souffert Je n'leur pardonnerai jamais, même quand ils seront six pieds sous terre Moi j'suis frais, j'suis rezefaitzait jusqu'à la fin du siècle Et les vrais négros le savent bien, donc eux, ils ne savent rien Rafale en Kawasaki, eux n'feront nada, klaoui Bienvenue sur Tataouine, vous êtes à sec, clique Sahraoui Oui oui, je win win, tu refuses de monter sur l'ring ring Ni couilles, ni bling-bling On t'fait les poches, ça ne fait que gling-gling FFHOR, t'es grave en chien, comme Émile Louis Laounizi Le premier rappeur pointeur, double Uzi pour mes ennemis Ikbal t'étais au habs, tu m'envoyais des paquets d'pâtes Aujourd'hui tu parles mal, wallaye bilaye ne t'inquiète pas Il parle français, dit de la merde, peut-on dire qu'il est bilingue ? En tout cas il est vilain, oh mon Dieu, qu'il est vilain Ça joue les criminels, ça braque des foufounes oh non ! La Fouine n'as-tu pas honte ? Agression sexuelle sur enfant Le savoir est une arme, j'suis calibré, j'lis pas d'bouquin J'ai des pics sur le cur comme sur une paire de Louboutin Si le rap n'était que vous deux, il n'serait vraiment qu'une grosse putain Pas d'diplôme, mais j'suis heureux, fuck les zéros sur mon bulletin Chez nous on fait ça bien, tu sauras pas d'où ça vient Missile, boloss, anti-aérien cela ne mène à rien Il n'en restera qu'un, il n'en restera qu'un Il n'en restera qu'un, négro il n'en restera qu'un à la fin Izi, izi, biff, izi, izi, biff hé Il n'en restera qu'un Izi, izi, beef, izi, izi, beef, hey - C'est Laouni Mouhid, né le 25 du 12 en 81 à Trappes ? - Ouais, ouais, il est super connu. Et une menace avec arme blanche, dégradation de bien privé, encore un recel, une extorsion de fonds. Agression sexuelle sur mineur. Bah bravo Morray ! - Outrage à personne chargée d'une mission de service, une atteinte sexuelle, deux violences volontaires. Sale pointeur ! ÉmileLouisLaounizi R.O.H.2fesses, Housni Couilles-de-bois, Zoulette Empire Izi, il n'en restera qu'un Morray, t'vois j'veux dire ou pas ? 92izon dans la maison29</t>
+          <t>Izi La vie mais pas mon rêve, y'a qu'ça qu'tu m'enlèveras Il n'y a qu'ma petite fille qui me court dans les bras Si j'te vends mon âme, j'te la vends dans l'état La vie n'est qu'une escale, fils de pute, envole-toi Avant qu't'appelles au secours, l'honneur on t'l'enlèvera Il n'y a qu'ma petite fille qui me court dans les bras Brochette mouton, thé noir, Place Jemaa el-Fna Y'a pas d'piston, t'es noir, sors le Beretta Elles sont faites contre nous donc on enfreint les lois Conférence sur les balances, ils n'ont fait qu'parler d'toi Portes sont fermées, chat noir passera par les toits En France comme dans la schneckzer, nègre est à l'étroit Si tu fais des marmots, pense à être là Sinon crache dans leur mama, pense fort à l'Etat Libérez-moi ces bitchs, pendez leurs maîtres à l'entrejambe C'est pas la taille d'ma bite, c'est le 9 millimètres, bang, bang, bang T'es bonne d'la tête aux pieds en vrai, j'm'arrête à la schneck L'argent n'fait pas l'bonheur, bonheur remplit pas l'assiette La vie mais pas mon rêve, y'a qu'ça qu'tu m'enlèveras Il n'y a qu'ma petite fille qui me court dans les bras J'rappe comme Bruce Lee manie l'schlass Blanche reste ma paire de Stanislas Bâtard tu es quoi qu'tu fasses, Dieu n't'a pas attribué de race Boulbi and Miami Vice J'suis tellement loin, dans l'VIP, j'suis même pas confortable Réputé insortable, 800 mètres carrés habitables Bitch, dab avec le Diable, j'suis Kopp Corleone Felipe On s'tire dessus, n'donnent plus de jab, niquer des daronnes, c'est l'idée Ils pensent Afrique, ils pensent soleil, j'pense aux nègres sur Amistad Mais petite fille, vivre à ton époque est une époque formidable T'as beau tappeler Tony M, Manny lui met dans le terma Coupé-décalé, tchétchène, armes d'Ukraine, sur la poitrine un Ü L.U.N.A, ma petite fille À masseoir sur un banc En tenant dans ma main tes petits doigts de femme Tu me laisses croire que Dieu est grand J'tomberai pour toi, plus jamais pour des kilogrammes J'n'ai plus de love pour aucune Fuck toutes ces biatchs, je sais qu'tu en fumeras plus d'une Ton rire ouvre la mer en deux Repeint l'quartier d'un Blood en bleu, tu es ma lune, eh Demain tout ira bien, bien Demain tout ira bien Car sans eux, je n'suis rien, rien Sans eux, je n'suis rien Je n'suis là que pour elle Rien d'autre, le reste vaut pas la peine Je perdrais tout pour lui Ne passerai jamais d'l'amour à la haine25</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Petite fille</t>
+          <t>Caramel</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Izi La vie mais pas mon rêve, y'a qu'ça qu'tu m'enlèveras Il n'y a qu'ma petite fille qui me court dans les bras Si j'te vends mon âme, j'te la vends dans l'état La vie n'est qu'une escale, fils de pute, envole-toi Avant qu't'appelles au secours, l'honneur on t'l'enlèvera Il n'y a qu'ma petite fille qui me court dans les bras Brochette mouton, thé noir, Place Jemaa el-Fna Y'a pas d'piston, t'es noir, sors le Beretta Elles sont faites contre nous donc on enfreint les lois Conférence sur les balances, ils n'ont fait qu'parler d'toi Portes sont fermées, chat noir passera par les toits En France comme dans la schneckzer, nègre est à l'étroit Si tu fais des marmots, pense à être là Sinon crache dans leur mama, pense fort à l'Etat Libérez-moi ces bitchs, pendez leurs maîtres à l'entrejambe C'est pas la taille d'ma bite, c'est le 9 millimètres, bang, bang, bang T'es bonne d'la tête aux pieds en vrai, j'm'arrête à la schneck L'argent n'fait pas l'bonheur, bonheur remplit pas l'assiette La vie mais pas mon rêve, y'a qu'ça qu'tu m'enlèveras Il n'y a qu'ma petite fille qui me court dans les bras J'rappe comme Bruce Lee manie l'schlass Blanche reste ma paire de Stanislas Bâtard tu es quoi qu'tu fasses, Dieu n't'a pas attribué de race Boulbi and Miami Vice J'suis tellement loin, dans l'VIP, j'suis même pas confortable Réputé insortable, 800 mètres carrés habitables Bitch, dab avec le Diable, j'suis Kopp Corleone Felipe On s'tire dessus, n'donnent plus de jab, niquer des daronnes, c'est l'idée Ils pensent Afrique, ils pensent soleil, j'pense aux nègres sur Amistad Mais petite fille, vivre à ton époque est une époque formidable T'as beau tappeler Tony M, Manny lui met dans le terma Coupé-décalé, tchétchène, armes d'Ukraine, sur la poitrine un Ü L.U.N.A, ma petite fille À masseoir sur un banc En tenant dans ma main tes petits doigts de femme Tu me laisses croire que Dieu est grand J'tomberai pour toi, plus jamais pour des kilogrammes J'n'ai plus de love pour aucune Fuck toutes ces biatchs, je sais qu'tu en fumeras plus d'une Ton rire ouvre la mer en deux Repeint l'quartier d'un Blood en bleu, tu es ma lune, eh Demain tout ira bien, bien Demain tout ira bien Car sans eux, je n'suis rien, rien Sans eux, je n'suis rien Je n'suis là que pour elle Rien d'autre, le reste vaut pas la peine Je perdrais tout pour lui Ne passerai jamais d'l'amour à la haine25</t>
+          <t>Instinct animal basique IcePick NiceBitch B.2.O.B.A, Boulbi, South Beach L'argent est gagné salement, les sommes sont colossales Chevaux noirs dans moteur allemand, ma rage est coloniale On t'aura à coups de billets, fais pas la belle J'ai de la fraîche, de la mula, du caramel J'suis dans j'suis dans les airs t'es dans les bouchons Le game est sur ma bite'zer à califourchon T'as un portefeuille à damier mais t'as rien à damer J'suis plus dangereux qu'un camé armé, qu'un Kaméhamé 92i, Lunatic tu peux rien faire de mieux J'suis De Niro dans Heat sauf qu'à la fin j'pars sans la feumeu C'est pas hallal, tout ça c'est pas hallal J'dois faire du biff, de la mula, du caramel Du caramel C'est pas hallal, tout ça c'est pas hallal J'dois faire du biff, de la mula, du caramel Du caramel J'ai fait un rêve, beaucoup de raclis KoppMartinLutherKing Tu l'as dans ton pe-cli, je l'ai dans mon parking Sans caramel je fous quoi ? J'suis à la barre, j'suis coupable Tu lâches ton number ou quoi ? Hein ?! Tu veux baiser ou pas ? Ma-ma-mafé, tiéboudiéne plus du ment-pi Little Haïti j'mange du lambi Larmes de Jack au sol pour mes soces morts Leur cur bat dans mes ceaux-mor D.E.M.O.N, je vis la nuit, j'n'ai que des frères j'n'ai pas d'amis Brazza soldat 92i, heureux-malheureux je pense à lui, je pense à lui Je pense à Daouda, Harouna, je pense à Will Dans les rues du 92 izi, musique à fond je pense à kill C'est pas hallal, tout ça c'est pas hallal J'dois faire du biff, de la mula, du caramel Du caramel C'est pas hallal, tout ça c'est pas hallal J'dois faire du biff, de la mula, du caramel Du caramel O.G Kush, j'parfume le cohiba J'suis number one, premier d'la classe donc je ne copie pas Gros chèques malgré échec scolaire Pour monter au septième ciel dois-je baiser une hotêsse de l'air ? Ou deux... ? Ou trois ?! T'es Amour, Gloire Beauté J'suis Haine, Victoire Colère Moi j'suis tah les anciens, le rap c'était pas mieux avant J'm'en fous d'un magnum à ma table j'l'aime mieux dans ma boîte à gants La concurrence BEH ! Booba m'a tué disent-ils en mourrant Coup de rein est légendaire, ta baby mama est au courant Vous êtes comme Kenny d'South Park, chaque épisode vous mourrez J'aime bien les préliminaires, j'préfère les échauffourées C'est pas hallal, tout ça c'est pas hallal J'dois faire du biff, de la mula, du caramel Du caramel C'est pas hallal, tout ça c'est pas hallal J'dois faire du biff, de la mula, du caramel Du caramel8</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Caramel</t>
+          <t>Pinocchio</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Instinct animal basique IcePick NiceBitch B.2.O.B.A, Boulbi, South Beach L'argent est gagné salement, les sommes sont colossales Chevaux noirs dans moteur allemand, ma rage est coloniale On t'aura à coups de billets, fais pas la belle J'ai de la fraîche, de la mula, du caramel J'suis dans j'suis dans les airs t'es dans les bouchons Le game est sur ma bite'zer à califourchon T'as un portefeuille à damier mais t'as rien à damer J'suis plus dangereux qu'un camé armé, qu'un Kaméhamé 92i, Lunatic tu peux rien faire de mieux J'suis De Niro dans Heat sauf qu'à la fin j'pars sans la feumeu C'est pas hallal, tout ça c'est pas hallal J'dois faire du biff, de la mula, du caramel Du caramel C'est pas hallal, tout ça c'est pas hallal J'dois faire du biff, de la mula, du caramel Du caramel J'ai fait un rêve, beaucoup de raclis KoppMartinLutherKing Tu l'as dans ton pe-cli, je l'ai dans mon parking Sans caramel je fous quoi ? J'suis à la barre, j'suis coupable Tu lâches ton number ou quoi ? Hein ?! Tu veux baiser ou pas ? Ma-ma-mafé, tiéboudiéne plus du ment-pi Little Haïti j'mange du lambi Larmes de Jack au sol pour mes soces morts Leur cur bat dans mes ceaux-mor D.E.M.O.N, je vis la nuit, j'n'ai que des frères j'n'ai pas d'amis Brazza soldat 92i, heureux-malheureux je pense à lui, je pense à lui Je pense à Daouda, Harouna, je pense à Will Dans les rues du 92 izi, musique à fond je pense à kill C'est pas hallal, tout ça c'est pas hallal J'dois faire du biff, de la mula, du caramel Du caramel C'est pas hallal, tout ça c'est pas hallal J'dois faire du biff, de la mula, du caramel Du caramel O.G Kush, j'parfume le cohiba J'suis number one, premier d'la classe donc je ne copie pas Gros chèques malgré échec scolaire Pour monter au septième ciel dois-je baiser une hotêsse de l'air ? Ou deux... ? Ou trois ?! T'es Amour, Gloire Beauté J'suis Haine, Victoire Colère Moi j'suis tah les anciens, le rap c'était pas mieux avant J'm'en fous d'un magnum à ma table j'l'aime mieux dans ma boîte à gants La concurrence BEH ! Booba m'a tué disent-ils en mourrant Coup de rein est légendaire, ta baby mama est au courant Vous êtes comme Kenny d'South Park, chaque épisode vous mourrez J'aime bien les préliminaires, j'préfère les échauffourées C'est pas hallal, tout ça c'est pas hallal J'dois faire du biff, de la mula, du caramel Du caramel C'est pas hallal, tout ça c'est pas hallal J'dois faire du biff, de la mula, du caramel Du caramel8</t>
+          <t>R-R-R-R-R-R-R Beats... Si j'te fume, c'est pour ton bien, c'est pour qu'tu n'recommences pas J'ai fait du game une dictature, pour ça qu'on me récompense pas Si t'es une michto, viens m'voir, du cash, j'en ai Pas b'soin de pilule du lendemain, j'te crache dans l'nez Fais-moi à manger, Papa est fatigué, j'ai vendu d'la C toute la journée T'es au bord du suicide, j'suis au bord de mer Te tuer si tu les touches, c'est mon rôle de père Moi aussi, j'sais en faire de la trap de merde, brûle billets verts, en Enfer, j'vais rien en faire Éjac' faciale sur âme en peine, j'suis hala Madrid, t'es Valenciennes J'leur fais toujours à l'envers, j'mets d'l'harissa dans leur camembert Y a dû y avoir un quiproquo, j'mens dans ta chatte comme Pinocchio Quand j'aurai fini d'te casser l'dos, va t'faire hara-kiri à Kyoto Paye-moi tout de suite, donne-moi money cash Négro, t'allais bien mieux avant les clashs En maison de disque, rappeurs on les castre Dans la rue, j'paye pas d'impôts, j'suis monégasque Tu fumes que de la com', t'alimentes que chez Lidl J'suis sur OKLM.com, ta daronne est sur Gleeden Si t'esquives l'uppercut, tu vas t'grailler le middle brr, brr Tester l'92i, interdit, prohibido, c'est forbidden Ouais, sur l'bitume, agenouillée sous le fut, j'prends du recul pour mieux t'enculer, pute Fuck ton cigare, j'ai ma OG Kush, j'broie du noir quand j'ressors de tes sses'-f Elle suce pas très bien, n'a pas profonde gorge, la trap française, moi, j'l'éjacule sur le torse Salope, ferme ta gueule, pour le prix d'un, j'te mets deux doigts, connexion Bruxelles jusqu'à Aulnay-Sous-Bois Hey, pute, on est où là ? J'te baise comme une chienne pourtant, tu portes le foulard Avec des si j's'rais intouchable comme Omar, Capitol 92i, nouveau flow noir J'pointe devant gros cul, tu pointes au chômage, le rap game n'a plus d'kérosène pour l'décollage Mon flow prend le large le tiens prend de l'âge, pour déstresser j'fais des prises d'otages De la CC dans du cellophane, la lessive dans tes clips, tu dis qu'c'est de la came Tu m'fais chier comme un mec qui te conseille à la salle, j'te nique sur le ring et sur l'instrumentale T'es passé partout comme la chatte de Shy'm, j'sais pas si c'est vrai mais j'la baiserais au calme J'ai matière grise, t'as matière fécale, t'as micro-pénis, donc tu n'es pas de taille Damso Tu fumes que de la com', t'alimentes que chez Lidl J'suis sur OKLM.com, ta daronne est sur Gleeden Si t'esquives l'uppercut, tu vas t'grailler le middle brr, brr Tester l'92i, interdit, prohibido, c'est forbidden Blan cocaïne fè lajan Passé la vim nan on bando Pa ka konté konbyen patne Pa vle sonje konbyen soldats Jwèt la pi danje ke manchèt yo chofe Pico nap boulé ak lanmò nou marye S.W.A.T team vini frapem atè banm kou d'pye Zam nan figim dim montre'l koté li e Ki sa w'ap di la nou pa vann préci la Yo di y'ap veyem pou plis prèske twa mwa Yo di yo gen fotom sou kamera Pou chak fwa yo vini yo pa jwen anyen la Zam yo kache, machandiz la sere Rele K-9, sa pa mache Yo arretem chaje mwen ak trespassing Pa fem de jou, jij la lagem Neg yo konnen ke mwen pap janm fout chanje Lè m'ap voyé sou bouzin yo delivre Patne mouri si l'te konnen li tap rete Domi, li soti yo assassine'l Twa jou passe ou pa tande sak pasé Yo jwen twa kadav decoupe bo koté Pirati mwen li tro fon wap koule Sèl sa nou konnen se dezod met dife Anmwé Tu fumes que de la com', t'alimentes que chez Lidl J'suis sur OKLM.com, ta daronne est sur Gleeden Si t'esquives l'uppercut, tu vas t'grailler le middle Tester l'92i, interdit, prohibido, c'est forbidden16</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pinocchio</t>
+          <t>OKLM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>R-R-R-R-R-R-R Beats... Si j'te fume, c'est pour ton bien, c'est pour qu'tu n'recommences pas J'ai fait du game une dictature, pour ça qu'on me récompense pas Si t'es une michto, viens m'voir, du cash, j'en ai Pas b'soin de pilule du lendemain, j'te crache dans l'nez Fais-moi à manger, Papa est fatigué, j'ai vendu d'la C toute la journée T'es au bord du suicide, j'suis au bord de mer Te tuer si tu les touches, c'est mon rôle de père Moi aussi, j'sais en faire de la trap de merde, brûle billets verts, en Enfer, j'vais rien en faire Éjac' faciale sur âme en peine, j'suis hala Madrid, t'es Valenciennes J'leur fais toujours à l'envers, j'mets d'l'harissa dans leur camembert Y a dû y avoir un quiproquo, j'mens dans ta chatte comme Pinocchio Quand j'aurai fini d'te casser l'dos, va t'faire hara-kiri à Kyoto Paye-moi tout de suite, donne-moi money cash Négro, t'allais bien mieux avant les clashs En maison de disque, rappeurs on les castre Dans la rue, j'paye pas d'impôts, j'suis monégasque Tu fumes que de la com', t'alimentes que chez Lidl J'suis sur OKLM.com, ta daronne est sur Gleeden Si t'esquives l'uppercut, tu vas t'grailler le middle brr, brr Tester l'92i, interdit, prohibido, c'est forbidden Ouais, sur l'bitume, agenouillée sous le fut, j'prends du recul pour mieux t'enculer, pute Fuck ton cigare, j'ai ma OG Kush, j'broie du noir quand j'ressors de tes sses'-f Elle suce pas très bien, n'a pas profonde gorge, la trap française, moi, j'l'éjacule sur le torse Salope, ferme ta gueule, pour le prix d'un, j'te mets deux doigts, connexion Bruxelles jusqu'à Aulnay-Sous-Bois Hey, pute, on est où là ? J'te baise comme une chienne pourtant, tu portes le foulard Avec des si j's'rais intouchable comme Omar, Capitol 92i, nouveau flow noir J'pointe devant gros cul, tu pointes au chômage, le rap game n'a plus d'kérosène pour l'décollage Mon flow prend le large le tiens prend de l'âge, pour déstresser j'fais des prises d'otages De la CC dans du cellophane, la lessive dans tes clips, tu dis qu'c'est de la came Tu m'fais chier comme un mec qui te conseille à la salle, j'te nique sur le ring et sur l'instrumentale T'es passé partout comme la chatte de Shy'm, j'sais pas si c'est vrai mais j'la baiserais au calme J'ai matière grise, t'as matière fécale, t'as micro-pénis, donc tu n'es pas de taille Damso Tu fumes que de la com', t'alimentes que chez Lidl J'suis sur OKLM.com, ta daronne est sur Gleeden Si t'esquives l'uppercut, tu vas t'grailler le middle brr, brr Tester l'92i, interdit, prohibido, c'est forbidden Blan cocaïne fè lajan Passé la vim nan on bando Pa ka konté konbyen patne Pa vle sonje konbyen soldats Jwèt la pi danje ke manchèt yo chofe Pico nap boulé ak lanmò nou marye S.W.A.T team vini frapem atè banm kou d'pye Zam nan figim dim montre'l koté li e Ki sa w'ap di la nou pa vann préci la Yo di y'ap veyem pou plis prèske twa mwa Yo di yo gen fotom sou kamera Pou chak fwa yo vini yo pa jwen anyen la Zam yo kache, machandiz la sere Rele K-9, sa pa mache Yo arretem chaje mwen ak trespassing Pa fem de jou, jij la lagem Neg yo konnen ke mwen pap janm fout chanje Lè m'ap voyé sou bouzin yo delivre Patne mouri si l'te konnen li tap rete Domi, li soti yo assassine'l Twa jou passe ou pa tande sak pasé Yo jwen twa kadav decoupe bo koté Pirati mwen li tro fon wap koule Sèl sa nou konnen se dezod met dife Anmwé Tu fumes que de la com', t'alimentes que chez Lidl J'suis sur OKLM.com, ta daronne est sur Gleeden Si t'esquives l'uppercut, tu vas t'grailler le middle Tester l'92i, interdit, prohibido, c'est forbidden16</t>
+          <t>Sou-Sou-Sou-Souleyman to beat 92izi, à coups d'fusil se régla la querelle Je ne fais ni dans la fantaisie ni dans la quenelle Jt'aurai demain ou après demain, c'est du pareil au même J'suis la branche Al-Qaïda du game, j'les fais sauter eux-mêmes J'suis la branche Al-Qaïda du game, j'les fais sauter eux-mêmes Luna, ma go sûre sous les bras, béni soit ce qu'elle devienne J'ai tout eu, même ce que je ne voulais pas, j'aime être c'que vous n'êtes pas J'ai rien vu, j'ai rien entendu, mais j'sais que vous n'y êtes pas Sueur de taureau sous les draps, nique ta mère on t'y aidera Vous jactez car vous n'assumez pas tous ces millions sous mes pas Non, négro je n'te connais pas si crime tu ne commets pas Drapeau pirate sous les bras on se reconnaîtra Ma carrière est incroyable Si j'vais en Enfer j'paie le voyage Tu peux m'atteindre mais j'suis injoignable La haine'zer que je traine'zer est insoignable J'suis pas le nègre idéal, nan Prison, drogue, sexe, idéalement J'ai quitté le ter-ter, au volant du RR Loup de la casse, j'suis un expert, t'as aimé sucer, j'ai aimé Césaire Au calme, au calme Au calme, au calme Au calme, au calme Au calme, au calme J'contrôle la zone jusqu'en Guyana J'ai posé l'trône sur l'Fujiyama Si je l'attrape... pauvre Rihanna ! J'vais la découper sur place comme à Benihana J't'la mets dans le uc'zer en cas de ragnagna Négro armé jamais vaincu sur la boîte'zer de Banania On te trouvera dans une chicha, t'es qu'un sale rapiat Tu vas faire ci, tu vas faire ça arrête ton charabia J'me suis juré d'être loyal J'suis jnouné, couronné c'est ça d'être royal Mords à l'hameçon ou c'est la noyade Je reste incompris, ma carrière est incroyable Ma carrière est incroyable Si j'vais en Enfer j'paie le voyage Tu peux m'atteindre mais j'suis injoignable La haine'zer que je traine'zer est insoignable J'suis pas le nègre idéal, nan Prison, drogue, sexe, idéalement J'ai quitté le ter-ter, au volant du RR Loup de la casse, j'suis un expert, t'as aimé sucer, j'ai aimé Césaire Au calme, au calme Au calme, au calme Au calme, au calme Au calme, au calme81</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>OKLM</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sou-Sou-Sou-Souleyman to beat 92izi, à coups d'fusil se régla la querelle Je ne fais ni dans la fantaisie ni dans la quenelle Jt'aurai demain ou après demain, c'est du pareil au même J'suis la branche Al-Qaïda du game, j'les fais sauter eux-mêmes J'suis la branche Al-Qaïda du game, j'les fais sauter eux-mêmes Luna, ma go sûre sous les bras, béni soit ce qu'elle devienne J'ai tout eu, même ce que je ne voulais pas, j'aime être c'que vous n'êtes pas J'ai rien vu, j'ai rien entendu, mais j'sais que vous n'y êtes pas Sueur de taureau sous les draps, nique ta mère on t'y aidera Vous jactez car vous n'assumez pas tous ces millions sous mes pas Non, négro je n'te connais pas si crime tu ne commets pas Drapeau pirate sous les bras on se reconnaîtra Ma carrière est incroyable Si j'vais en Enfer j'paie le voyage Tu peux m'atteindre mais j'suis injoignable La haine'zer que je traine'zer est insoignable J'suis pas le nègre idéal, nan Prison, drogue, sexe, idéalement J'ai quitté le ter-ter, au volant du RR Loup de la casse, j'suis un expert, t'as aimé sucer, j'ai aimé Césaire Au calme, au calme Au calme, au calme Au calme, au calme Au calme, au calme J'contrôle la zone jusqu'en Guyana J'ai posé l'trône sur l'Fujiyama Si je l'attrape... pauvre Rihanna ! J'vais la découper sur place comme à Benihana J't'la mets dans le uc'zer en cas de ragnagna Négro armé jamais vaincu sur la boîte'zer de Banania On te trouvera dans une chicha, t'es qu'un sale rapiat Tu vas faire ci, tu vas faire ça arrête ton charabia J'me suis juré d'être loyal J'suis jnouné, couronné c'est ça d'être royal Mords à l'hameçon ou c'est la noyade Je reste incompris, ma carrière est incroyable Ma carrière est incroyable Si j'vais en Enfer j'paie le voyage Tu peux m'atteindre mais j'suis injoignable La haine'zer que je traine'zer est insoignable J'suis pas le nègre idéal, nan Prison, drogue, sexe, idéalement J'ai quitté le ter-ter, au volant du RR Loup de la casse, j'suis un expert, t'as aimé sucer, j'ai aimé Césaire Au calme, au calme Au calme, au calme Au calme, au calme Au calme, au calme81</t>
+          <t>Comme ça qu'on les réveille Réveil au son d'une Kalash' Hey On les réveille au son d'la Kalash', les dorsaux remplis de schlass J'serai au moins dans l'cul d'ta connasse quand j'aurai pris le coup de grâce Passent les gos, passent les euros, passent les années Passent les clashs, guerres, ma carrière est cellophanée Le Ford Mondeo te dira j'ai commis crimes j'en suis pas fier J'suis avec Théo, on fuck les schmitts, j'rôde avec mon slip en fer Méprise le game, maîtrise le game depuis des années Route pavée de pétales, fleur du mal n'a jamais fané La Vierge Marie et Jésus Christ m'regardent de travers J'charbonne tout l'été, j'charbonne tout l'hiver, j'fais que du sal-zer L'arme de guerre chargée dans le coffre n'est qu'un détail Million d'euros pour moi, le roro n'est qu'un métal J'ai foi en peu mais pas en rien lui dis-je dans la champagne room J'vis-ser tous ces fils de putes, leur santé j'm'en bats les couilles Allez les Bleus, allez les Lions, moi je suis un peu des deux Tous les baiser nous devons, demande à D2R2 Tous les jours négro, c'est Friday S soixante-cinco, je ridais, flow sénégalais Gros salaire de l'Atlético comme jamain J'ai fait ce qu'il fallait Tous les jours négro, c'est Friday S soixante-cinco, je ridais, flow sénégalais Gros salaire de l'Atlético comme jamain J'ai fait ce qu'il fallait T'es plein de wesh la mif', salam cousin, c'est quoi les bails? Ta tronche d'enfant de putain ne me dit rien qui vaille J'ai du mal avec les humains car instinct animal J'ai craché, garde la pêche, pute, il va falloir qu't'y ailles Chez toi y'a anguille sous roche, chez moi y'a kalash sous l'drap Quand la roue tourne que je t'encule, j'appelle ça le Karmasutra T'as beau faire du MMA, j'vais t'faire bouffer ton RSA Tu nies les faits mais j'étais là, t'as 6 étoiles dans GTA Ça prend des 10 piges, K.O debout passe aux assises La justice a deux vitesses, le Lamborghini en a six Quand j'étais minot, beaucoup de négros corde au cou Vénus de Milo, anus de J-Lo, je veux tout J'ai foi en peu mais pas en rien lui dis-je dans la champagne room J'vis-ser tous ces fils de putes, leur santé j'm'en bats les couilles Allez les Bleus, allez les Lions, moi je suis un peu des deux Tous les baiser nous devons, demande à D2R2 Tous les jours négro, c'est Friday S soixante-cinco, je ridais, flow sénégalais Gros salaire de l'Atlético comme jamain J'ai fait ce qu'il fallait Tous les jours négro, c'est Friday S soixante-cinco, je ridais, flow sénégalais Gros salaire de l'Atlético comme jamain J'ai fait ce qu'il fallait14</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BruxellesVie</t>
+          <t>Parlons peu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Discographie - Damso Album Studio - 20160708 Damso - Batterie faible - 20170428 Damso - Ipséité - 20180615 Damso - Lithopédion - 20200918 Damso - QALF - 20210429 Damso - QALF infinity Mixtape - 20140829 Damso - Salle d'attente Compilation - 20181214 Damso - Intégrale - 20190809 Damso - Ipséité Lithopédion Single - 20120328 Damso - Freestyle Portes Ouvertes FPO - 20121001 Damso - Brouillard - 20140308 Damso - EGO - 20140328 Damso - Publie Partage Promo - 20140818 Damso - On n'est jamais mieux compris que par soi-même - 20140829 Damso - Le talent ne suffit pas - 20140928 Damso - IVG - 20141220 Damso - Tout oublier - 20141220 Damso - BANG BANG - 20150808 Damso - Comment faire un tube - 20151118 Damso - Ma putain - 20151119 Damso - Colis - 20151120 Damso - Poséidon - 20151217 Damso - Mi Amor - 20160122 Damso - Débrouillard - 20160427 Damso - Autotune - 20160527 Damso - BruxellesVie - 20160621 Damso - Peur d'être sobre - 20160624 Damso - Périscope - 20160708 Damso - Graine de sablier - 20160718 Damso - Paris c'est loin - 20161107 Damso - Amnésie - 20160919 Damso - Débrouillard Remix - 20160928 Damso - Freestyle Deezr - 20170118 Damso - Smeagol - 20170220 Damso - CQFD - 20170403 Damso - Mort - 20170428 Damso - N. J Respect R - 20170428 Damso - . Nwaar Is Th New Black - 20170525 Damso - TieksVie - 20170706 Damso - . Macarena - 20170714 Damso - Quotidien de baisé - 20170901 Damso - Mucho Dinero - 20170903 Damso - C'est toujours Dems Le vrai - 20171027 Damso - Seultou - 20171027 Damso - Fais-moi un Vie - 20171110 Damso - Je nous mens - 20171201 Damso - Tueurs - 20180316 Damso - . Mosaïque solitaire - 20180428 Damso - Ipséité - 20180605 Damso - . Ouzbek - 20180613 Damso - Smog - 20180801 Damso - Surcôté - 20200124 Damso - veillé - 20200328 Damso - - 20210107 Damso - 911 - 20210406 Damso - J'avais juste envie décrire - 20221218 Damso - Cur de pirate Featuring - 2008 Dolfa - Cyclone - 20151112 LeBoy Krisy'B - Studio Remix - 20151204 Booba - Pinocchio - 2016 Siboy - Paradis - 20160410 Krisy - Real - 20160611 Booba - Freestyle Couvre Feu OKLM - 20160624 Hamza - Slow - 20170120 Vald - Vitrine - 20170331 Benash - Ivre - 20170630 Siboy - Mobali - 20171006 Kalash - Mwaka Moon - 20171117 Lacrim - Noche - 20171201 Booba - 113 - 20171213 Kalash - Mwaka Moon Felckin Remix - 20180518 Kalash - Mwaka Moon Sfera Ebbasta Remix - 20181114 OrelSan - Rêves bizarres - 20181207 404Billy - RVRE - 20190606 Nekfeu - Tricheur - 20190628 D.A.V - ParoVie - 20190712 Vegedream - Personne - 20190726 Kalash - JTC - 20190726 Kalash - Praliné - 20190927 Ikaz Boi - SOLITERRIEN - 20191118 Dadju - Robe - 20191219 Hamza - God Bless - 20200307 Ninho - Promo - 20201015 Innoss'B - Best - 20201016 Kalash Criminel - But en or - 20210305 ElGrandeToto - Étranger - 20210702 Dinos - Du mal à te dire - 20210716 Laylow - R9R-LINE - 20211203 Angèle - Démons - 20220301 Angèle - Démons Live Orchestral - 20220309 Aya Nakamura - Dégaine - 20220317 Disiz - RENCONTRE - 20220325 Selah Sue - Wanted You to Know - 20220429 Kalash - I Love You - 20220429 Kobo - .FUMÉE.ÉPAISSE - 20220701 Gazo - BODIES - 20220923 Kalash - Malpolis - 20221111 Lous and The Yakuza - Lubie - 20230217 Hamza - Nocif Discographie complémentaire - Discographie - OPG</t>
+          <t>En direct du Vaisseau Mèzère Hughze Hezefnezer B.2O.B.A, 92i J'suis Hugh Hefner, t'es la playmate Toi tu l'effleures, je la pénètre Ma clique'zer n'est pas très nette J'suis sur Izer, c'est ma planète Tu n'existes que sur internet Moi j'encule Sky, j'peux m'le permettre J'suis une menace demande à Pernel J'vais être en hess devant l'Éternel Que du Ünkut dans l'container Number One, sont trop vénères Je n'écris que dans la violence Tous mes négros sur la potence Tous coupables, rien à foutre'zer Double Uzi dans les fougères J'suis dans l'espace, j'mets que des Nike Air Pas de messes basses j'te nique ta mère T'es une putain j'suis proxénète J'suis juste en chien de hassanats Dur en amour, j'ai cur de pierre Dans les artères, j'ai que du calcaire J'bois au goulot, pas d'verre J'suis Cobra, viens faire un bras d'fer Fight Club BradPitt T'as une cke-schnè, t'as pas de bite'zer Si j'atteins le paradis, c'est dans un train d'enfer Crackers, veux-tu du crack ? Je suis en train d'en faire ! Tu veux détrôner le Duc'zer ? Mauvaise idée J'suis dans les faits divers pas au journal télévisé Parlons bif, oseille, bif parlons peu 2Pac, Malcolm X, King parlons d'eux Grosse villa sur la corniche ce que le daron veut Donc parlons bif, oseille, bif parlons peu J'ai rêvé qu'j'étais Escobar, que j'baisais Kim en mieux J'ai du bon shit dans mon tier-quar' qui n'en veut ? J'ai tellement de disques de platine qu'il en pleut Si t'es trop fine je n'te baise pas Karembeu Dakatine sur mes tartines ça rend boeuf Mets-moi sur ton listing on est 42 42, Talentueux Les vrais négros marchent en silence, les haineux parlent entre eux Tu parles beaucoup, tu aboies, mais tu n'es pas dangereux J'suis trop loin pour ces tards-bâ, il n'y a pas d'enjeux ! J'suis un Mac t'es un PC, tu n'es pas dans l'jeu Ma clique, ma clique, ma clique t'ouvre le crâne en deux Si j'atteins le paradis, c'est dans un train d'enfer Crackers, veux-tu du crack ? Je suis en train d'en faire ! Tu veux détrôner le Duc'zer ? Mauvaise idée J'suis dans les faits divers pas au journal télévisé Parlons bif, oseille, bif parlons peu 2Pac, Malcolm X, King parlons d'eux Grosse villa sur la corniche ce que le daron veut Donc parlons bif, oseille, bif parlons peu 18 numbers dans la soirée J'crois qu'c'est l'heure de se barrer Bouteille offerte par la zon-mai 200 euros pour le valet Baise la Police Saïd Égorge MC Aïd Leur compte en banque Aride Y'a que Wati-B qui pèse Akhi C'est pour Fleury, c'est pour les Baumettes Bill Gates c'est mon roommate J'ai mon CL AMG'zer Les Antilles AiméCésaire Impôts trop chers François nique ta reum'zer On débarque en hélicoptère 47'zer fait le nécessaire59</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Comme ça qu'on les réveille Réveil au son d'une Kalash' Hey On les réveille au son d'la Kalash', les dorsaux remplis de schlass J'serai au moins dans l'cul d'ta connasse quand j'aurai pris le coup de grâce Passent les gos, passent les euros, passent les années Passent les clashs, guerres, ma carrière est cellophanée Le Ford Mondeo te dira j'ai commis crimes j'en suis pas fier J'suis avec Théo, on fuck les schmitts, j'rôde avec mon slip en fer Méprise le game, maîtrise le game depuis des années Route pavée de pétales, fleur du mal n'a jamais fané La Vierge Marie et Jésus Christ m'regardent de travers J'charbonne tout l'été, j'charbonne tout l'hiver, j'fais que du sal-zer L'arme de guerre chargée dans le coffre n'est qu'un détail Million d'euros pour moi, le roro n'est qu'un métal J'ai foi en peu mais pas en rien lui dis-je dans la champagne room J'vis-ser tous ces fils de putes, leur santé j'm'en bats les couilles Allez les Bleus, allez les Lions, moi je suis un peu des deux Tous les baiser nous devons, demande à D2R2 Tous les jours négro, c'est Friday S soixante-cinco, je ridais, flow sénégalais Gros salaire de l'Atlético comme jamain J'ai fait ce qu'il fallait Tous les jours négro, c'est Friday S soixante-cinco, je ridais, flow sénégalais Gros salaire de l'Atlético comme jamain J'ai fait ce qu'il fallait T'es plein de wesh la mif', salam cousin, c'est quoi les bails? Ta tronche d'enfant de putain ne me dit rien qui vaille J'ai du mal avec les humains car instinct animal J'ai craché, garde la pêche, pute, il va falloir qu't'y ailles Chez toi y'a anguille sous roche, chez moi y'a kalash sous l'drap Quand la roue tourne que je t'encule, j'appelle ça le Karmasutra T'as beau faire du MMA, j'vais t'faire bouffer ton RSA Tu nies les faits mais j'étais là, t'as 6 étoiles dans GTA Ça prend des 10 piges, K.O debout passe aux assises La justice a deux vitesses, le Lamborghini en a six Quand j'étais minot, beaucoup de négros corde au cou Vénus de Milo, anus de J-Lo, je veux tout J'ai foi en peu mais pas en rien lui dis-je dans la champagne room J'vis-ser tous ces fils de putes, leur santé j'm'en bats les couilles Allez les Bleus, allez les Lions, moi je suis un peu des deux Tous les baiser nous devons, demande à D2R2 Tous les jours négro, c'est Friday S soixante-cinco, je ridais, flow sénégalais Gros salaire de l'Atlético comme jamain J'ai fait ce qu'il fallait Tous les jours négro, c'est Friday S soixante-cinco, je ridais, flow sénégalais Gros salaire de l'Atlético comme jamain J'ai fait ce qu'il fallait14</t>
+          <t>On a l'klawi juice Oh, oh, oh Twinsmatic Y'en a pas besef qui font le millier, toi non plus Donne-leur ce qu'ils veulent, ils reviendront plus Tu cuisines, tu bibi rien du tout, tu n'as pas de klawi juice Zehma tu cuisines, tu bibi rien du tout, tu n'as pas de klawi juice On débarque à 113 sur vous bang comme à Camille Groult Le niquage de mère, c'est tout droit négro, y'a pas mille routes J'n'ai jamais cru qu'ils étaient cha-vauds Ils m'ont même pas mis l'doute J'suis 92i, produit du hall, diplômé des meilleures firmes J'ai toujours le mauvais rôle mais je joue que les meilleurs films Pirates, pirates, pirates, savent ce que je n'révèle pas J'préfère ne pas dormir, imagine j'me réveille pas J'vais t'mettre un coup d'pare-choc Tu vas prendre le taureau par les cornes Le Lambo a tellement de chevaux Coup d'première, j'tombe dans les pommes Vingt hippodromes sous le capot La concurrence che-mo comme jamain La concurrence che-mo comme jamain J'fais des claquettes dans un braco Ouais, ouais, ouais, ouais, ouais Zehma tu baises, tu bibi rien du tout, tu n'as pas de klawi juice On débarque à 113 sur toi bang comme à Camille Groult Laisse un peu d'baggy dans ton slim Gros, tu dis qu'elle est bonne, j'dis qu'elle est mineure, aïe aïe aïe Si j'étais dans Fugees, j'aurais d'jà ken Lauryn Hill Mal à l'aise comme sein de putain qui allaite entre deux clients 'teille de Duc sur fils de pute, ça commence bien Tu rappes dans l'tieks, en vain, t'as pas d'flow donc tu fais l'ancien Pure bitch, j'veux t'ken, discrètement, brusquement, vite fait, j'bande, bouge sur l'gland, j'gicle d'dans Glisse tout l'gland, sur téton, sans pression, sans raison dans l'ivresse du désir, plus d'weed Fume tout l'pax en pers, marche dans l'tieks, rappe sans def', Damso, Dem's, c'est le blaze Plane sur une trompette de jazz, cur fragile qu'elle écrase avec rage Majeur en l'air, sans commentaire, elle m'tournait le dos, j'ai tourné la page Parle de rue, mais rue n't'a pas crédité, j't'ai baisée, j't'ai quittée, je n'sais même pas qui t'es De-De-De-Dem's Ouais, ouais, ouais Zehma tu cuisines, tu bibi rien du tout, tu n'as pas de klawi juice On débarque à 113 sur vous comme à Camille Groult Le niquage de mère, c'est tout droit négro, y a pas mille routes J'n'ai jamais cru qu'ils étaient chauds-bouillants Ils m'ont même pas mis l'doute J'suis 92i, produit du hall, diplômé des meilleures firmes J'ai toujours le mauvais rôle mais je joue que les meilleurs films...19</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parlons peu</t>
+          <t>Paris c’est loin</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>En direct du Vaisseau Mèzère Hughze Hezefnezer B.2O.B.A, 92i J'suis Hugh Hefner, t'es la playmate Toi tu l'effleures, je la pénètre Ma clique'zer n'est pas très nette J'suis sur Izer, c'est ma planète Tu n'existes que sur internet Moi j'encule Sky, j'peux m'le permettre J'suis une menace demande à Pernel J'vais être en hess devant l'Éternel Que du Ünkut dans l'container Number One, sont trop vénères Je n'écris que dans la violence Tous mes négros sur la potence Tous coupables, rien à foutre'zer Double Uzi dans les fougères J'suis dans l'espace, j'mets que des Nike Air Pas de messes basses j'te nique ta mère T'es une putain j'suis proxénète J'suis juste en chien de hassanats Dur en amour, j'ai cur de pierre Dans les artères, j'ai que du calcaire J'bois au goulot, pas d'verre J'suis Cobra, viens faire un bras d'fer Fight Club BradPitt T'as une cke-schnè, t'as pas de bite'zer Si j'atteins le paradis, c'est dans un train d'enfer Crackers, veux-tu du crack ? Je suis en train d'en faire ! Tu veux détrôner le Duc'zer ? Mauvaise idée J'suis dans les faits divers pas au journal télévisé Parlons bif, oseille, bif parlons peu 2Pac, Malcolm X, King parlons d'eux Grosse villa sur la corniche ce que le daron veut Donc parlons bif, oseille, bif parlons peu J'ai rêvé qu'j'étais Escobar, que j'baisais Kim en mieux J'ai du bon shit dans mon tier-quar' qui n'en veut ? J'ai tellement de disques de platine qu'il en pleut Si t'es trop fine je n'te baise pas Karembeu Dakatine sur mes tartines ça rend boeuf Mets-moi sur ton listing on est 42 42, Talentueux Les vrais négros marchent en silence, les haineux parlent entre eux Tu parles beaucoup, tu aboies, mais tu n'es pas dangereux J'suis trop loin pour ces tards-bâ, il n'y a pas d'enjeux ! J'suis un Mac t'es un PC, tu n'es pas dans l'jeu Ma clique, ma clique, ma clique t'ouvre le crâne en deux Si j'atteins le paradis, c'est dans un train d'enfer Crackers, veux-tu du crack ? Je suis en train d'en faire ! Tu veux détrôner le Duc'zer ? Mauvaise idée J'suis dans les faits divers pas au journal télévisé Parlons bif, oseille, bif parlons peu 2Pac, Malcolm X, King parlons d'eux Grosse villa sur la corniche ce que le daron veut Donc parlons bif, oseille, bif parlons peu 18 numbers dans la soirée J'crois qu'c'est l'heure de se barrer Bouteille offerte par la zon-mai 200 euros pour le valet Baise la Police Saïd Égorge MC Aïd Leur compte en banque Aride Y'a que Wati-B qui pèse Akhi C'est pour Fleury, c'est pour les Baumettes Bill Gates c'est mon roommate J'ai mon CL AMG'zer Les Antilles AiméCésaire Impôts trop chers François nique ta reum'zer On débarque en hélicoptère 47'zer fait le nécessaire59</t>
+          <t>Paris, c'est loin De la Fuentes, ah, ah Paris, c'est loin J'ai pas cru en toi depuis ton premier show jusqu'à c'que je vois Bercy Paris, c'est loin d'ici J'te jalousais trop, je t'aime t'a dit ma go, tu lui as répondu merci Paris, c'est loin J'voulais te voir en fumée à chaque fois que je fumais mon joint Tu n'peux pas percer car, Paris, c'est loin, d'ici Paris, c'est loin d'ici, si-si Paris, c'est loin J'ai pas cru en toi depuis ton premier show jusqu'à c'que je vois Bercy Paris, c'est loin, d'ici J'te jalousais trop, je t'aime t'a dit ma go, tu lui as répondu merci Paris, c'est loin J'voulais te voir en fumée à chaque fois que je fumais mon joint Tu n'peux pas percer car, Paris, c'est loin, d'ici Paris, c'est loin, d'ici, eh Les jaloux se reconnaissent entre eux, beaucoup d'haineux, beaucoup d'envieux La réussite entraîne la frustration des Hommes, confond travailleur avec chanceux Des nuits blanches à broyer du noir car l'angoisse de la page blanche a fait que je voyais rouge J'en ai vu de toutes les couleurs, ma plume a souvent dû changer d'épouse Amis et frères, y a pas plus dangereux mais moins qu'une femme qui te ment dans les yeux, ça fait partie du jeu J'éternue souvent pour faire un maximum de vux Je fus découvert par B2O, d'insultes, j'fus couvert pour quelques mots, la rime du foulard entre autres J'suis responsable de c'que j'écris, pas de c'que tu comprends du flow, no D.A.M.S.O, qui m'aime me like ou me follow, ça fait partie du flow Vulgaires sont les mots, j'me perds sur les réseaux, à Snapper mon bédo Mon cur est en détresse, peux tout niquer en express Je fais succès mais Paris, c'est loin, d'ici, si-si Batterie Faible Veuillez la recharger Coup d'poing dans la vie à la Badr Hari Négro, Paris, c'est loin sauf en La Ferrari Front kabyle sur poitrine de Materazzi, mes spermes ont des moteurs de Maserati J'n'ai que des billets violets pour elle, meurs si tu poses la main J'ai quatre-vingt dix-neuf problèmes mais une tchoin n'en est pas un Je n'comprendrai jamais pourquoi ils friment, négros comme eux meurent au début du film Rate-pi énervé, j'ai au bout du fil, tu passes par la porte à la Oncle Phil Biatch, tu passes par la porte à la Oncle Phil J'fais passer mallette comme à Libreville J'te conseille de tracer un chemin plus court, le nez d'Amy Whinehouse sait de quoi je parle La cloison nasale à feu et à sang, séchée, rosée comme un jambon de Parme Très tôt déjà, j'ai connu le racisme en primaire Valérie avait peur du Noir Mais ne parlait pas de lumière, les mots sont des lames qui aiguisent haine et colère Liberté d'expression est plus efficace que censure, humoriste traqué par C.R.S, rappeur flingué dans une voiture 2Pac Forces de l'ordre font bavures, texte résiste aux ratures Solidaire comme Dame Nature, dans mon cercueil, ils me chanteront On n'est pas tout seul de Gradur Ma fille, des fois, j'aimerais voler tes yeux, pour voir le monde tel qu'il ne l'est pas Les souvenirs de naissance en nonante-deux, quatre-vingt douze, pour Français qui n'y étaient pas Dans la vie, contrairement aux échecs, la partie continue après échec et mat, disait-il aussi Je fais succès mais bon, Paris, c'est loin, d'ici, si-si Coup d'poing dans la vie à la Badr Hari Négro, Paris, c'est loin sauf en La Ferrari Front kabyle sur poitrine de Materazzi, mes spermes ont des moteurs de Maserati J'n'ai que des billets violets pour elle, meurs si tu poses la main J'ai quatre-vingt dix-neuf problèmes mais une tchoin n'en est pas un Je n'comprendrai jamais pourquoi ils friment, négros comme eux meurent au début du film Rat-pi énervé, j'ai au bout du fil, tu passes par la porte à la Uncle Phil Biatch, tu passes par la porte à la Uncle Phil J'fais passer mallette comme à Libreville Paris, c'est loin, Paris, c'est loin, d'ici Paris, c'est loin, Paris, c'est loin, d'ici, si-si25</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>Pitbull</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>On a l'klawi juice Oh, oh, oh Twinsmatic Y'en a pas besef qui font le millier, toi non plus Donne-leur ce qu'ils veulent, ils reviendront plus Tu cuisines, tu bibi rien du tout, tu n'as pas de klawi juice Zehma tu cuisines, tu bibi rien du tout, tu n'as pas de klawi juice On débarque à 113 sur vous bang comme à Camille Groult Le niquage de mère, c'est tout droit négro, y'a pas mille routes J'n'ai jamais cru qu'ils étaient cha-vauds Ils m'ont même pas mis l'doute J'suis 92i, produit du hall, diplômé des meilleures firmes J'ai toujours le mauvais rôle mais je joue que les meilleurs films Pirates, pirates, pirates, savent ce que je n'révèle pas J'préfère ne pas dormir, imagine j'me réveille pas J'vais t'mettre un coup d'pare-choc Tu vas prendre le taureau par les cornes Le Lambo a tellement de chevaux Coup d'première, j'tombe dans les pommes Vingt hippodromes sous le capot La concurrence che-mo comme jamain La concurrence che-mo comme jamain J'fais des claquettes dans un braco Ouais, ouais, ouais, ouais, ouais Zehma tu baises, tu bibi rien du tout, tu n'as pas de klawi juice On débarque à 113 sur toi bang comme à Camille Groult Laisse un peu d'baggy dans ton slim Gros, tu dis qu'elle est bonne, j'dis qu'elle est mineure, aïe aïe aïe Si j'étais dans Fugees, j'aurais d'jà ken Lauryn Hill Mal à l'aise comme sein de putain qui allaite entre deux clients 'teille de Duc sur fils de pute, ça commence bien Tu rappes dans l'tieks, en vain, t'as pas d'flow donc tu fais l'ancien Pure bitch, j'veux t'ken, discrètement, brusquement, vite fait, j'bande, bouge sur l'gland, j'gicle d'dans Glisse tout l'gland, sur téton, sans pression, sans raison dans l'ivresse du désir, plus d'weed Fume tout l'pax en pers, marche dans l'tieks, rappe sans def', Damso, Dem's, c'est le blaze Plane sur une trompette de jazz, cur fragile qu'elle écrase avec rage Majeur en l'air, sans commentaire, elle m'tournait le dos, j'ai tourné la page Parle de rue, mais rue n't'a pas crédité, j't'ai baisée, j't'ai quittée, je n'sais même pas qui t'es De-De-De-Dem's Ouais, ouais, ouais Zehma tu cuisines, tu bibi rien du tout, tu n'as pas de klawi juice On débarque à 113 sur vous comme à Camille Groult Le niquage de mère, c'est tout droit négro, y a pas mille routes J'n'ai jamais cru qu'ils étaient chauds-bouillants Ils m'ont même pas mis l'doute J'suis 92i, produit du hall, diplômé des meilleures firmes J'ai toujours le mauvais rôle mais je joue que les meilleurs films...19</t>
+          <t>Venu extraire Excalibur de son enclume En 6.45 j'suis l'bitume avec une plume Tout commence dans la cour de récréation Malabar, Choco BN, sale noir !, ma génération Enfant seul, sans problème sauf à la maison J'ai pris la vie par derrière sans m'poser d'questions J'aime une femme, elle m'a donné le sein M'a appris à m'tenir, à différencier l'Homme et le chien On m'a dit tu as la rage, dégage ou je te pique Femelle en chaleur reste pas dans les parages ou je te nique J'ai grandi, j'suis mort en silence Crucifié sur une caravelle sous lil éternel d'une étoile filante Dans ce capharnaüm, derniers seront les vainqueurs Mes rimes te touchent au cur, en plein sternum La vie d'un homme, la mort d'un enfant Du sang royal dans les veines, premier en sport et en chant Bras levés, tête haute, j'ai rêvé qu'j'mourrais au combat J'veux pas mourir sur scène Le ciel sait que l'on saigne sous nos cagoules Comment ne pas être un pitbull quand la vie est une chienne ? Bras levés, tête haute, j'ai rêvé qu'j'mourrais au combat J'veux pas mourir sur scène Le ciel sait que l'on saigne sous nos cagoules Comment ne pas être un pitbull quand la vie est une chienne ? Mon premier spliff, ma première bouteille La richesse est dans nos curs, mon cul ! Moi j'veux de l'oseille Pour en obtenir des fois c'est l'hécatombe Peu importe, si la daronne veut faire le tour du monde Petit la race humaine est méchante Je suis venu, j'ai vu, j'ai vaincu ces chiens, la queue entre les jambes Et j'ai toujours la larme à lil, le cur engourdi Dis-leur qu'j'suis noir et blanc, 100 bountykiller Talentueux mais tu s'ras jamais dans ma poule Sur le plus haut trône du monde, on n'est jamais assis que sur son boule Des fois j'me dope comme un coureur cycliste Quand se réveillent mes cicatrices, j'me sens si seul et si triste Lyriciste agréé, pour ça qu'Dieu m'a créé Sisi, ambiance pendu, ambiance Mississippi J'me déchaîne, au microphone c'est l'Amazonie Des indigènes dans les chromosomes, les cités d'or, ma terre promise Bras levés, tête haute, j'ai rêvé qu'j'mourrais au combat J'veux pas mourir sur scène Le ciel sait que l'on saigne sous nos cagoules Comment ne pas être un pitbull quand la vie est une chienne ? Bras levés, tête haute, j'ai rêvé qu'j'mourrais au combat J'veux pas mourir sur scène Le ciel sait que l'on saigne sous nos cagoules Comment ne pas être un pitbull quand la vie est une chienne ? J'en suis où j'en suis, malgré tellement d'erreurs J'suis trop en avance pour leur demander l'heure Pas à pas, de pied ferme, sans savoir où j'vais J'ai souvent cherché la merde, je l'ai toujours trouvée Devant les profs j'faisais des grimaces en tirant sur mon oinj Car on m'a dit en classe que l'Homme venait du singe B2OBA Ma vie, Pitbull Ah-ha, ah-ha21</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ipséité</t>
+          <t>Génération Assassin</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Dewolph x Sawmal - The Adventures of Huile Smith FatMan Blue SUPERMAGENTA - 0501 Luni - Noir 0601 Crime TEAm - Carmin - 0601 Biffty DJ Weedim - La Réincarnation du Turn up 2 0701 Beozedzed - Sept - 0801 Le2s - Inconnu - 1001 Maes - Réelle vie 1601 Nasme - Spécial Guest Vol.2 1901 Le Hu - Hustler - 2001 Barack Adama La Propagande Saison 1 - 2001 Demi Portion 2 Chez Moi - 2001 Take A Mic - Bipolaire - 2001 Vald - Agartha 2501 Louvar - Zénith 2701 Bigty - Christrip Vol.2 TEM 2701 Bizon Gbz - Le silence des agneaux 2701 Escobar Macson - Mr. Punchlines - 2701 KeBlack - Premier Étage - 2701 Sofiane - JeSuisPasséChezSo 2801 Six - La salle du temps - 2901 Ozkar Zulu - Orée artificielle 3101 Franc Parler BLT Tape Février - 0202 T.I.S DJ Cross-Y - Gotham City Kids Épisode 2 0302 Bazoo Nordinomouk - Jupiter 0302 Féfé Bess Sek Ibrahimovich - Amistad 0302 Mike Lucazz - Soleil Gelé 0302 Tonio Mc - Déstresse 0502 Euphonik - Inconnu Mais Reconnu II - 0602 Scoop J.Keuz - Maestria - 1002 Flaco - Mundo - 1002 Heskis - GG Allin EP 1202 Ou2s - La Machine Vol.2 - 1202 Yaska Dawan - 5 AM 1302 Sons Of Melody - La route est longue - 1302 Spider ZED - Mes ex - 1402 Krisy - Paradis d'amour - 1502 4keus Gang - Vois t'as vu 1502 Dawa O Mic - La Galette Mixtape 1602 Akissa - Opium - EP - 1702 Abou Debeing - Debeinguerie - 1702 Aladin 135 - Indigo 1702 Le Bon Nob - Ptit Con - 1702 Féfé - Mauve 1702 H3RY LÜCK - FORCE 2 - 1702 Hayce Lemsi - Électron Libre 2 1702 La Massfa - Frères d'armes - 1702 Nusky Vaati - BLUH 1702 Segä - Nos Futurs - 1702 Zaho - Le monde à l'envers 2202 JMK - Love Loyalty - 2402 A2H - Les hommes pleurent en hiver Winter Tape - 2402 Jok'Air - Big Daddy Jok - 2402 Médine - Prose Elite - 2402 O'Trak ChriStorm - Sublime abomination - 2402 Sianna - Diamant Noir - 2802 Pink Tee - Période des 16 Mars - 0103 Sameer Ahmad - Jovontae EP 0303 AlTarba - La nuit se lève 0303 GLK - Murder Réédition - 0303 Ghetto Phénomène - La Vida Loca - 0303 IAM - Rêvolution 0303 Ixzo - L'Ennemi - 0303 Jayel - Laboratoire - 0303 Rim'K - Fantôme - 0303 Stupeflip - Stup Virus - 0303 Lord Esperanza Majeur Mineur - Drapeau Noir 0403 Nosfer - BHD - 0503 So'Clock - Saut de l'ange 0603 Iron Sy - Amadou Malick chapitre 1 0603 Skreally Boy - 0703 Nedoua - 420 - 0803 Elh Kmer - Indépendant - 1003 Booba - Autopsie 0 1003 Daouf - Après coups 1003 Eklips - Lips Beat box album 1003 Fadah - Cet Art - 1003 Gen Zu Clan - Rois De Lunderground - 1003 Hooss - Temps plein - 1003 Phénomène Bizness - Pharaon - 1003 Sneazzy - Dieu bénisse Supersound Vol. 2 - 1203 Yaruki Records - Satori - 1503 Scars - Je suis comme ça 1703 Artiste multiples - Bendo - 1703 Dandyguel - Trophée - 1703 Deen Burbigo - Grand Cru - 1703 Djadja Dinaz - Dans L'Arène - 1703 Homi - Au-delà des Alpes 1703 Original Tonio - Monologue Social - 1703 Roméo Elvis Le Motel - Morale 2 1703 TRZ - La Rue tappelle - 2003 Jul - Album Gratuit Vol. 3 - 2003 Triplego - 2020 2103 Euphonik - Dieu est une Femme 2103 ODT - La marque de la bête 2403 Le 3eme il - Les 20 Ans - 2403 Les Sages Poètes de la Rue - Art Contemporain - 2503 T.I.S - 001 - 2703 Patee Gee - Basilic - 3003 Vîrus - Les Soliloques du Pauvre 3103 Babarr - Les 7 péchés kapitaux - 3103 Benash - CDG - 3103 Kekra - Vréel 2 - 3103 Lacrim - Force honneur - 3103 Scylla - Masque de chair - 3103 Slimka - No Bad Vol.1 Avril - 0204 Lasco - Le blood - 0604 Luni - Rose - 0704 Falcko - Manny 0704 Ideal Jim - Hannah - 0704 Le Dé - Napalm 0704 Andy Luidje - 404 0704 T-Nord - Persona non grata - 0704 Take A Mic - Boîte noire 1004 Baek - 2016 1004 Guy2Bezbar - Jungle vol.2 1404 AkaperA - Loup 1404 Majster - Le cur dans les mains 1404 DJ Erise - Rizer - 1404 FK - Purple Kemet 2 - 1404 Gaël Faye - Rythmes Botanique - 1404 Jorrdee - Avant - 1404 L.O.A.S - Tout me fait rire - 1604 Beeby - MALA 800 ORION 1704 Napo - NAPOlogie Vol.1 - 2004 Grems - P.O.M - 2104 Columbine - Enfants Terribles - 2104 Isha - La Vie Augmente Vol.1 - 2104 Mac Tyer - Banger 3 2104 Robse - Colibri - 2104 Veerus - Mercure - 2204 Meyso - MiseAJour 2404 Euphonik - Dieu est une Femme 2 2404 Mairo - 365 2504 La Prune - Reine Claude - 2704 Assy Youv Dee - Beta test - 2804 Damso - Ipséité 2804 Dolfa - Dolfa is the New Black - 2804 Don Choa - EP - 2804 Loud - New Phone - 2804 Wit. - Dawa 3004 Nelick - Load 22 - 3004 T.I.S DJ Cross-Y - Gotham City Kids Épisode 3 Mai 0105 Bazoo - B-T2PE 2 0205 Poupa Lost - Incantations - 0305 L'Or du Commun - Zeppelin 0305 Sirsy - Avant Yaro - 0505 Eddie Hyde - La malédiction du Nord - 0505 Elams - Réussir et mourir - 0505 Hooss - Première Presse 0505 Marlo Flexxx - Jeune Pimp 0505 Numbers - Femmes Ennemis - 0505 Sch - Deo Favente - 0605 Lonepsi - Les premiers sons du reste de ma vie 0905 Freeman - Sous la mine - 1005 Di-Meh - Focus Part. 1 1005 El Matador - Mâle Dominant - 1105 Nelick - LOAD 57 - 1205 Caballero JeanJass - Double Hélice 2 - 1205 Hartigan - Purgatoire 1205 Kamikaz - L'Outsider - 1205 Le Club - Hors série 1205 Quincy - Évolution - 1205 Sofiane - Bandit Saleté 1205 Supernova - Immortel 1305 Rochdi Krystal - Mélodies de la cave 1405 Nelick - LOAD 94 - 1505 Jorrdee - Belle de jour - 1505 Tengo John Ocho - NUV - 1705 A Little Rooster, Hash24 Sanka - Chanson pour les oreilles 1805 Massa Moon - Fréquences - 1905 Beny - Pepito est grand - 1905 Cenza - Les prophéties d'une plume 1905 Coyote Jo Bastard - L'Enfer avant le Paradis - 1905 DTF - Sans rêve - 1905 Kalash Criminel - Oyoki - 1905 LTF - 2014 - 1905 Lucio Bukowski Soulchildren - SIMORGH - 1905 Mister V - Double V - 1905 Naps - Pochon Bleu - 2405 Zeno - Beurre Sucre 2505 Emotion Lafolie - Dopamine 2605 Bradley - Askia 2605 Baka - Guêpier Paris - 2605 Cheu-B - Welcome To Skyland - 2605 Le Club - Série 97 2605 Les 10' - Artefacts Vol.1 Les 10 - 2605 Nov - Evo 2 - 2605 Panama Bende - ADN 2805 Akrapovic - Havana Devil Juin - 0106 Retro X - DIGI - 0106 Taipan - Parlons Beuh 0206 Stensy - Rotations 0206 Casse-Croute - Éléphant rose 0206 Driver - Maintenant j'suis chaud - 0206 Keny Arkana - Lesquisse 3 - 0206 La Fouine - Capitale Du Crime Censuré - 0206 Ladea - Alpha Leonis - 0206 Larry Kid - Contrôle - 0206 Les Alchimistes - Danslaloge 0406 Lil Taï Z - TAÏZ 0406 Bitu - No more lemon - 0506 Eden Dillinger - Olaf 0706 Nedoua - Septième étage - 0906 Disiz La Peste - Pacifique - 0906 Infinit' - NSMLM - 0906 Josman - 000 0906 La Canaille - 11.08.73 0906 Rekta - Hustle life - 0906 USKY - Outsider 1506 Bhati - OULYPO - 1506 Grems - Ep 1506 Fossoyeur Ékékil - Collision - 1606 Biffty DJ Weedim - Souyegod - 1606 Fixpen Sill - A4637 - 1606 Jok'Air - Je suis Big Daddy 1606 Nikkfurie Young Zee - Ignorez l'annonce 1606 TiTo Prince - Poetic justice 1606 Youssef Swatt's - Vers l'infini et au-delà 1905 Chich - Chich Volume 2 1906 La Caillasse - Pantheism 2106 L'Hexaler O.B.L. - Au nom de l'indépendance - 2306 Biffty DJ Weedim - Mega bonus - 2306 Bigflo Oli - La vraie vie - 2306 Dehmo - Ethologie - 2306 Georgio - Héra réédition - 2306 GLGV - S6MPLE SCHOOL - 2306 Makala - Gun Love Fiction - 2506 Lucci Lpee - PL1106 - 2606 GaT.Taca - ECG 2606 Ockney - Stand de tir 2806 Korohima - Ajna 3006 Alpha 5.20 - Blood Le Sang des Martyrs - 3006 Jul - Je ne me vois pas briller - 3006 Lomepal - Flip - 3006 Lucio Bukowski - Aucun potentiel commercial - 3006 Siboy - Spécial - 3006 T.I.S DJ Cross-Y - Gotham City Kids Épisode 4 Juillet 0107 LK de l'Hotel Moscou - Rose de Jéricho - 0507 Laylow - Digitalova - 0707 Alkpote - Les Marches de l'Empereur 0707 ALP - Épilogue - 0707 Ash Kidd - Mila 809 - 0707 Taïro - Summer Tape - 0707 Niro - OX7 - 0707 Fally Ipupa - Tokooos 1307 Royal - Orion - 1407 Multi-interprètes - Afrotrap Volume 1 - 1707 Barack Adama La Propagande Saison 2 - 1707 Lartiste - Projet 000 1707 Royal - Osiris - 1808 GaT.Taca - ÉPINEUSEMUSIQUE 1807 The S and Layon - Plein soleil - 2107 A2H - Summer Stories Kushtape Volume 3 2107 Matatix - Néant - 2107 Niro - M8RE 2307 Keustee - Le Bouquet Final 2307 Kokoro Lee - Osaleeka 2807 La Mannschaft - Indépendant des autres Août 0108 Sauveur Eloheem - L'Enfer 0208 Lacraps - Bootleg Vol. 1 0508 Faktiss - POV 1008 Dr Bériz - Popcorn 1108 YW - YW 1208 Hotel Paradisio - Reveri 1408 Euphonik - Dieu est une Femme 3 1608 DF Cerk - Chorus - 1808 Leo Roi - Meteo canicule - 2508 Alonzo - 100 Septembre - 0109 Soprano - L'Everest EP - 0809 Ninho - Comme prévu - 0809 PLK - Ténébreux - 1109 Freeze Corleone TheHashClique - THC - 1309 Blaiz - Jungle Bibi - 1309 LK de l'Hotel Moscou - Xanadu - 1409 Luni - Orange - 1509 Jul - Album Gratuit Vol. 4 1509 L'Affreux Jojo - Portraits gâchés - 1509 Naps - En équipe Vol. 1 - 1509 Sadek - Vulgaire, Violent et Ravi Dêtre Là 2009 SelaS - Algorithme - 2109 Népal - 445e nuit - 2109 Various Artists - Paris L.A. Bruxelles - 2209 Hugo TSR - Tant qu'on est là - 2209 Lefa - Visionnaire 2209 L-Kaïss - Razzia - 2209 Niska - Commando - 2209 Nov - Babe Tape 2209 TonyToxik - Infini - 2309 Jok'Air - Jok' Pololo 2509 Bizon Gbz - Iki 2809 L'Hexaler - Cuatro Estaciones - 2909 4keus Gang - Hors série 2909 Bastard Prod - 100 comme un chien 2909 Dernier Pro - Dans les yeux - 2909 Hornet La Frappe - Nous-mêmes - 2909 Hyacinthe - Sarah - 2909 Naza - Incroyable - 2909 Still Fresh - Cur noir Octobre - 0110 Beeby - Quatre saisons Vol. 3 0110 B-Biface - M. Personne - 0110 7 Jaws - Nautilus - 0310 VII - Les matins sous la lune - 0610 Ghetto Phénomène - En catimini 0610 Hesytap Squad - Pression - 0610 Jayel - Sens Interdit 0610 Nefaste - Dans mon monde - 0610 Sneazzy - Dieu bénisse Supersound Vol. 3 - 0910 Django - Anthracite - 1210 Assassam - Les Heures Perdues - 1310 Jarod - Attitude - 1310 Kalash - Mwaka Moon - 1310 Klub des Loosers - Le chat et autres histoires - 1310 Maska - Akhal Téke - 1610 Sully - PUBG 1910 Petrodollars - Outre Monde 2010 EX-ILE - Direction Est 2010 Katana - LÉpée II justice - 2010 OrelSan - La fête est finie 2010 P-dro - Jardin Noir 2410 Wit. - ONYX - 2510 Spider ZED - Figurine 2710 Flaco - La Fafa 2710 Godié - NUBE - 2710 Hamza - 1994 - 2710 Kennedy - Valar morghulis - 2710 Lord Esperanza - Polaroïd - 2710 Loud - Une année record - 2710 VSO Maxenss - Southcoaster - 2910 Jorrdee - D-A-VELLI Version rouge 3110 Artistes multiples - O'Trak présente Les Sons de la Crypte Novembre - 0311 Bigflo Oli - La Vraie Vie Version Deluxe - 0311 Davodka - Accusé de réflexion - 0311 Doums - Pilote - 0311 Kaaris - Dozo 0311 Keros-N - Bipolaire - 0311 MC Solaar - Géopoétique - 0311 Verso - Colère calme 0411 Kaki Montana - Bullet Proof Vol. 1 0611 Eli MC - Manque moi - 1011 Chilla - Karma - 1011 Dooz Kawa - Contes cruels - 1011 Franglish - Signature 1011 Geule Blansh - J'raconte - 1011 High Five Crew - Joli rouge 1011 Korohima - Antidote - 1011 L'Ordre du Périph - Vogue Merry 1011 Ménélik - Qlassiks Vol. 1 - 1011 MMZ - N'DA - 1011 XV - 404 Error - 1111 Lombre - Eau trouble 1111 Theorem de Gama - Ingressum - 1711 Azuul Smith - L'argent suffira - 1711 Black M - Éternel Insatisfait Réédition 1711 Freez - Les minutes vides - 1711 Lacrim - R.I.P.R.O, Vol. 3 1711 Passi - Les Tentations Édition collector 1997-2017 - 1711 Pumpkin Vin's da Cuero - Persona Non Gratis - 1711 Sinik - Drone - 2011 T.I.S - 002 2111 Baek - Baek - 2311 Kekra - Vréel 3 - 2411 Dadju - Gentleman 2.0 - 2411 Ichon - Il suffit de le faire 2411 KPoint - Trap'n'Roll - 2411 Lucio Bukowski - RequiemNativité 2411 Pejmaxx - Pejmaxx 2411 Slim Lessio - Fruit de paix - 2411 Sopico - Ëpisode 1 3011 2Spee Gonzales - City Light 3011 Elpea - Coucher de soleil Décembre - 0112 Booba - Trône - 0112 Clément Dumoulin - B.O. Tueurs - 0112 Furax Barbarossa Jeff Le Nerf - Dernier Manuscrit - 0112 Guizmo - Amicalement vôtre - 0112 Haristone - Off 0112 Hiro - De la Haine à l'Amour - 0112 Jul - La tête dans les nuages - 0112 Lomepal - Flip Deluxe 0212 Royal - Exodia 0312 Convok Mistral - Haschtag - EP - 0412 Butter Bullets - Air Mès et Hermax 0512 Namils - Oeil Noir - 0812 Astro 90 - PHANTOM 0812 Hache-P - Before - 0812 Hayce Lemsi - Eurêka 0812 I2H - Échantillons - 0812 Nixon - Tout se passe comme prévu - 0912 Jorrdee - D-A-VELLI version extra rouge BEFORE REHAB - 1312 Jorrdee - LESS 1512 La Main Gauche - Ni le même, Ni un autre 1512 Néochrome - Compilation Rap de banlieusard, Vol. 4 - 1512 Youv Dee - Gear 2 - 1812 Lutce - Pulsions 2012 Joe Cross - Artefacts Vol.3 2212 Green Money - Gnosis 2212 Majster - Je n'ai rien fait d'autre que mon travail, Mr Simba... 2212 Skreally Boy - Lo3 - 2412 T.I.S Nehr - Aller Simple volume 4 - Lost beats, last words 2512 La Prune - Eau de vie 2712 Orus - Lumière froide 3112 Lil Sheitan - Sur mon bateau pirate Autres Du 0809 au XXXX Sofiane - Rentre dans le cercle - Du 2403 au 1606 Bavoog Avers - Les logorrhées Du 0412 au XXXX Alkpote - Les Marches de l'Empereur Saison 310</t>
+          <t>Geah J'vais à la chicha, à la chicha Yo ho ho ho ho ! Yoo ho ho ho ho ! Je n'peux pas, j'vais à la chicha Geah J'vais à la chicha qu'pour les beurettes, si tu vois l'négro à g'noux, c'est qu'j'ai pris haja dans l'appui-tête J'nique des mères à toute vitesse, ma queue a l'syndrome de la Tourette Je suis l'cauchemar d'Édouard à la tirette, j't'allume ta mère de la tourelle Si t'as un gros cul, t'as tout c'que j'aime, si t'as un gros cul, t'as tout c'que j'aime Tu n'baises pas la première fois ? Moi je ne baise pas la deuxième Dans l'sang humain si je dois m'noyer, mon jean Balmain coûte un mois de loyer Transformation, quai de grenelle, Féfé kasher, Patrick Bruel L'chemin d'mon cur est sombre ruelle Yoo ho ho ho ho !, je n'fais que dans l'conflictuel G.L.O.C.K fait la loi, G.A.T.O, tout est noir Tu manges à la gamelle, j'creuse des tunnels, flow du cartel Sinaloa Génération Assassin, Ideal J, Mama Lova J'lui mets dans l'cul, Uber s'en va, j'bronze aux UV d'supernova J'm'en fous de tes simagrées, de qui t'as marbré Vroum, vroum, j'fais des roues arrières dans l'cul d'ta madre On peut même pas dire qu't'as mal joué, car t'as pas joué Rafale dans les lombaires pour t'amadouer Beaucoup nous ont lâché, nombreux sont là Rate-pis très bre-som sont ceux-là, sombre convoi Parait qu'tu es un méchant, c'que je conçois, 2 heures du mat' sur l'parking d'Auchan, faudrait qu'on s'voie Qu'on règle ça une fois pour toutes comme Jo Lopez Ce négro m'a pris pour une pute donc je le baise Niquer des mamans c'est ma lutte, j'ai toutes les thèses Mon plan j'vais toutes les baiser et toutes les tèj' Trop près du mal, trop loin du haj Yoo ho ho ho ho ! Vive vivement l'été pourvu qu'il neige14</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Paris c’est loin</t>
+          <t>Infréquentables</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Paris, c'est loin De la Fuentes, ah, ah Paris, c'est loin J'ai pas cru en toi depuis ton premier show jusqu'à c'que je vois Bercy Paris, c'est loin d'ici J'te jalousais trop, je t'aime t'a dit ma go, tu lui as répondu merci Paris, c'est loin J'voulais te voir en fumée à chaque fois que je fumais mon joint Tu n'peux pas percer car, Paris, c'est loin, d'ici Paris, c'est loin d'ici, si-si Paris, c'est loin J'ai pas cru en toi depuis ton premier show jusqu'à c'que je vois Bercy Paris, c'est loin, d'ici J'te jalousais trop, je t'aime t'a dit ma go, tu lui as répondu merci Paris, c'est loin J'voulais te voir en fumée à chaque fois que je fumais mon joint Tu n'peux pas percer car, Paris, c'est loin, d'ici Paris, c'est loin, d'ici, eh Les jaloux se reconnaissent entre eux, beaucoup d'haineux, beaucoup d'envieux La réussite entraîne la frustration des Hommes, confond travailleur avec chanceux Des nuits blanches à broyer du noir car l'angoisse de la page blanche a fait que je voyais rouge J'en ai vu de toutes les couleurs, ma plume a souvent dû changer d'épouse Amis et frères, y a pas plus dangereux mais moins qu'une femme qui te ment dans les yeux, ça fait partie du jeu J'éternue souvent pour faire un maximum de vux Je fus découvert par B2O, d'insultes, j'fus couvert pour quelques mots, la rime du foulard entre autres J'suis responsable de c'que j'écris, pas de c'que tu comprends du flow, no D.A.M.S.O, qui m'aime me like ou me follow, ça fait partie du flow Vulgaires sont les mots, j'me perds sur les réseaux, à Snapper mon bédo Mon cur est en détresse, peux tout niquer en express Je fais succès mais Paris, c'est loin, d'ici, si-si Batterie Faible Veuillez la recharger Coup d'poing dans la vie à la Badr Hari Négro, Paris, c'est loin sauf en La Ferrari Front kabyle sur poitrine de Materazzi, mes spermes ont des moteurs de Maserati J'n'ai que des billets violets pour elle, meurs si tu poses la main J'ai quatre-vingt dix-neuf problèmes mais une tchoin n'en est pas un Je n'comprendrai jamais pourquoi ils friment, négros comme eux meurent au début du film Rate-pi énervé, j'ai au bout du fil, tu passes par la porte à la Oncle Phil Biatch, tu passes par la porte à la Oncle Phil J'fais passer mallette comme à Libreville J'te conseille de tracer un chemin plus court, le nez d'Amy Whinehouse sait de quoi je parle La cloison nasale à feu et à sang, séchée, rosée comme un jambon de Parme Très tôt déjà, j'ai connu le racisme en primaire Valérie avait peur du Noir Mais ne parlait pas de lumière, les mots sont des lames qui aiguisent haine et colère Liberté d'expression est plus efficace que censure, humoriste traqué par C.R.S, rappeur flingué dans une voiture 2Pac Forces de l'ordre font bavures, texte résiste aux ratures Solidaire comme Dame Nature, dans mon cercueil, ils me chanteront On n'est pas tout seul de Gradur Ma fille, des fois, j'aimerais voler tes yeux, pour voir le monde tel qu'il ne l'est pas Les souvenirs de naissance en nonante-deux, quatre-vingt douze, pour Français qui n'y étaient pas Dans la vie, contrairement aux échecs, la partie continue après échec et mat, disait-il aussi Je fais succès mais bon, Paris, c'est loin, d'ici, si-si Coup d'poing dans la vie à la Badr Hari Négro, Paris, c'est loin sauf en La Ferrari Front kabyle sur poitrine de Materazzi, mes spermes ont des moteurs de Maserati J'n'ai que des billets violets pour elle, meurs si tu poses la main J'ai quatre-vingt dix-neuf problèmes mais une tchoin n'en est pas un Je n'comprendrai jamais pourquoi ils friment, négros comme eux meurent au début du film Rat-pi énervé, j'ai au bout du fil, tu passes par la porte à la Uncle Phil Biatch, tu passes par la porte à la Uncle Phil J'fais passer mallette comme à Libreville Paris, c'est loin, Paris, c'est loin, d'ici Paris, c'est loin, Paris, c'est loin, d'ici, si-si25</t>
+          <t>Je complexe les hommes comme la taille d'leur eu-eu-eu-eu-que Je conteste les ordres, ouais, je m'en bats les yeu-eu-eu-eu-ks Je bug sur son gros uc' et sa voix mielleu-eu-eu-euse Donc je gué-lar tout mon uj', j'lui en mets plein les yeu-eu-eu-euz Lossa, j'reste concentré comme liasse de mille en billets de dix Je pense aux quatre sorties de pot, j'pense aux quatre roues directrices Toute ton équipe se demande What the fuck ? Mais qui est ce type ? Lossa, je brille de mille feux donc fuck ce game d'épileptiques Glock sous ceinture Hermès pour les fumer tout en ayant du style Tu tapes des impros dans les kermesses pendant que je suis en showcase au Crystal Si tu veux m'faire faut pas t'louper Je reviens du ciel, les étoiles entres elles, ne parlent que de mes derniers couplets Hola chica ! Pam-pam-pam-pam J'veux être blindé comme les chichas les soirs d'ram'dam-dam J'dis pas que vos mères sont qu'une bande de putes J'dis juste que quand elles m'matent elles ont les yeux qui sentent le uc' Je suis l'infréquentable, l'infréquentable Je suis au volant du cab', y'a mes caille-ra qui cabrent Je suis l'infréquentable, l'infréquentable infréquentable Pieds sous la table, y'a toute la boîte qui dab dab dab dab bitch Je suis l'infréquentable, je suis l'infréquentable Je suis l'infréquentable-table-table-table J'dis pas que vos mères sont qu'une bande de putes J'dis juste que quand elles m'matent elles ont les yeux qui sentent le uc' Je suis l'infréquentable pourtant j'ai des millions de followers millions Impraticable est mon terrain, Bugatti Veyron me donne chaud au cur J'arrive en avance, j'les baise à l'heure, kiss prématurément bitch, à t'à l'heure Peut-être, si j'me souviens de toi, si tu me suces comme la dernière fois Je retrouverai ta page sur Internet, un H sur le sac, c'est ça qu'elles cherchent Un grand coup de bite, UberPop, c'est pour Luna les sacs Hermès J'me rappelle pas d'ta schneck de tête, négros n'me veulent pas que du bien Poste ton cul sur Instagram, tes yeux ne me rappellent rien Klawi, nada, walou, peanuts, hass, la peau de mes yeuks passe le big up, wesh Je suis bankable, infréquentable Qué rico ! me dit ma go de Coral Gables J'te fume en fumant un bédo, mon ADN sur le mégot, jamais Flingue dans la gueule c'est bon pour la négo', années de placard à ma table, négro Je suis l'infréquentable, l'infréquentable Je suis au volant du cab', y'a mes caille-ra qui cabrent Je suis l'infréquentable, l'infréquentable infréquentable Pieds sous la table, y'a toute la boîte qui dab dab dab dab bitch Je suis l'infréquentable, je suis l'infréquentable Je suis l'infréquentable-table-table-table J'dis pas que vos mères sont qu'une bande de putes J'dis juste que quand elles m'matent elles ont les yeux qui sentent le uc' Je suis beau comme un diable, doux comme un jab Je sais pas pourquoi tu jactes, personne te regarde, t'es comme une chaine du câble J'ai toujours gardé le cap, jamais sucé, jamais passé de pacte J'me suis mis à bibi au départ, j'estimais avoir mangé assez de pâtes À mon propre enterrement, j'serai en retard Juste pour prouver au monde qu'j'suis bel et bien différent de ces bâtards Gamos, r-cui, lunettes, tout est noir Sauf les traces de cocaïne dans l'Tupperware Je suis l'infréquentable, l'infréquentable Je suis au volant du cab', y'a mes caille-ra qui cabrent Je suis l'infréquentable, l'infréquentable infréquentable Pieds sous la table, y'a toute la boîte qui dab dab dab dab bitch Je suis l'infréquentable, je suis l'infréquentable Je suis l'infréquentable-table-table-table J'dis pas que vos mères sont qu'une bande de putes J'dis juste que quand elles m'matent elles ont les yeux qui sentent le uc' Yeah, assis-toi à notre table infréquentable Les infréquentables infréquentables Yuri K.O.2P6</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pitbull</t>
+          <t>3G</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Venu extraire Excalibur de son enclume En 6.45 j'suis l'bitume avec une plume Tout commence dans la cour de récréation Malabar, Choco BN, sale noir !, ma génération Enfant seul, sans problème sauf à la maison J'ai pris la vie par derrière sans m'poser d'questions J'aime une femme, elle m'a donné le sein M'a appris à m'tenir, à différencier l'Homme et le chien On m'a dit tu as la rage, dégage ou je te pique Femelle en chaleur reste pas dans les parages ou je te nique J'ai grandi, j'suis mort en silence Crucifié sur une caravelle sous lil éternel d'une étoile filante Dans ce capharnaüm, derniers seront les vainqueurs Mes rimes te touchent au cur, en plein sternum La vie d'un homme, la mort d'un enfant Du sang royal dans les veines, premier en sport et en chant Bras levés, tête haute, j'ai rêvé qu'j'mourrais au combat J'veux pas mourir sur scène Le ciel sait que l'on saigne sous nos cagoules Comment ne pas être un pitbull quand la vie est une chienne ? Bras levés, tête haute, j'ai rêvé qu'j'mourrais au combat J'veux pas mourir sur scène Le ciel sait que l'on saigne sous nos cagoules Comment ne pas être un pitbull quand la vie est une chienne ? Mon premier spliff, ma première bouteille La richesse est dans nos curs, mon cul ! Moi j'veux de l'oseille Pour en obtenir des fois c'est l'hécatombe Peu importe, si la daronne veut faire le tour du monde Petit la race humaine est méchante Je suis venu, j'ai vu, j'ai vaincu ces chiens, la queue entre les jambes Et j'ai toujours la larme à lil, le cur engourdi Dis-leur qu'j'suis noir et blanc, 100 bountykiller Talentueux mais tu s'ras jamais dans ma poule Sur le plus haut trône du monde, on n'est jamais assis que sur son boule Des fois j'me dope comme un coureur cycliste Quand se réveillent mes cicatrices, j'me sens si seul et si triste Lyriciste agréé, pour ça qu'Dieu m'a créé Sisi, ambiance pendu, ambiance Mississippi J'me déchaîne, au microphone c'est l'Amazonie Des indigènes dans les chromosomes, les cités d'or, ma terre promise Bras levés, tête haute, j'ai rêvé qu'j'mourrais au combat J'veux pas mourir sur scène Le ciel sait que l'on saigne sous nos cagoules Comment ne pas être un pitbull quand la vie est une chienne ? Bras levés, tête haute, j'ai rêvé qu'j'mourrais au combat J'veux pas mourir sur scène Le ciel sait que l'on saigne sous nos cagoules Comment ne pas être un pitbull quand la vie est une chienne ? J'en suis où j'en suis, malgré tellement d'erreurs J'suis trop en avance pour leur demander l'heure Pas à pas, de pied ferme, sans savoir où j'vais J'ai souvent cherché la merde, je l'ai toujours trouvée Devant les profs j'faisais des grimaces en tirant sur mon oinj Car on m'a dit en classe que l'Homme venait du singe B2OBA Ma vie, Pitbull Ah-ha, ah-ha21</t>
+          <t>Izi D.U.C J'éclate tout, sa mère l'économie IG, tu follow me Fellation, bouche pleine de calomnies, Tariq Raclaoui Le fion rempli de saloperies, Saïd Taghmaoui Sac mortuaire Ünkut ta panoplie Biatch, swallow me Pendant qu'ils font belhani de n'avoir rien compris Pas de don pour le buzz, parlons peu de nos uvres Révolution de lover, tu n'as que 3 followers Impuissant face à l'horreur, les gouvernements sont des tueurs Je milite pour mes proches, au moins eux je peux les sauver Je laisse la tâche à Dieu, de dire qui est bon qui est mauvais Pour dénoncer atrocités, j'attends pas qu'ça passe à la télé Ma life est d'humeur palestinienne, bien avant toi, d'puis Destinée Mon rap va à Costa del Sol, coffre chargé prêt à gouacher Seul dans un linceul écarlate, en portant mes couilles j'aurai marché Reste derrière ton PC, à refaire le monde et à rager Je me suis fait dans la rue, qui va m'arrêter ? Pas la 3G Je n'fais la guerre qu'aux rappeurs, ne cautionne la mort d'aucun enfant Je suis Lion de la Teranga fuck la souris, fuck l'éléphant Je suis pro-banlieusard Bakel City, arme de guerre dans mon placard Fuck Mozart, mélodie noire, comme à Grand Dakar Les tonneaux vides font plus de bruit, négro cest ce que lon dit Livraisons, Lamborghini, Allô Monsieur Mariotti J'décompresse au K.O.D, tu finis tes raviolis D'puis qu'j'suis dans le game, ton MC préféré passe sa vie au lit Quand je leur dis de niquer leur mère, négro crois-moi je suis poli Mon dernier single, dans un char, tourne dans les rues de Tripoli Je n'fais jamais semblant, aussi réel que l'avenir est sanglant Paroles de paix et de haine enterrent mon cur dans un drap blanc Mon rap va à Costa del Sol, coffre chargé prêt à gouacher Seul dans un linceul écarlate, en portant mes couilles j'aurai marché Reste derrière ton PC, à refaire le monde et à rager Je me suis fait dans la rue, qui va m'arrêter ? Pas la 3G Hmm 3G67</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Génération Assassin</t>
+          <t>Rouge et bleu</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Geah J'vais à la chicha, à la chicha Yo ho ho ho ho ! Yoo ho ho ho ho ! Je n'peux pas, j'vais à la chicha Geah J'vais à la chicha qu'pour les beurettes, si tu vois l'négro à g'noux, c'est qu'j'ai pris haja dans l'appui-tête J'nique des mères à toute vitesse, ma queue a l'syndrome de la Tourette Je suis l'cauchemar d'Édouard à la tirette, j't'allume ta mère de la tourelle Si t'as un gros cul, t'as tout c'que j'aime, si t'as un gros cul, t'as tout c'que j'aime Tu n'baises pas la première fois ? Moi je ne baise pas la deuxième Dans l'sang humain si je dois m'noyer, mon jean Balmain coûte un mois de loyer Transformation, quai de grenelle, Féfé kasher, Patrick Bruel L'chemin d'mon cur est sombre ruelle Yoo ho ho ho ho !, je n'fais que dans l'conflictuel G.L.O.C.K fait la loi, G.A.T.O, tout est noir Tu manges à la gamelle, j'creuse des tunnels, flow du cartel Sinaloa Génération Assassin, Ideal J, Mama Lova J'lui mets dans l'cul, Uber s'en va, j'bronze aux UV d'supernova J'm'en fous de tes simagrées, de qui t'as marbré Vroum, vroum, j'fais des roues arrières dans l'cul d'ta madre On peut même pas dire qu't'as mal joué, car t'as pas joué Rafale dans les lombaires pour t'amadouer Beaucoup nous ont lâché, nombreux sont là Rate-pis très bre-som sont ceux-là, sombre convoi Parait qu'tu es un méchant, c'que je conçois, 2 heures du mat' sur l'parking d'Auchan, faudrait qu'on s'voie Qu'on règle ça une fois pour toutes comme Jo Lopez Ce négro m'a pris pour une pute donc je le baise Niquer des mamans c'est ma lutte, j'ai toutes les thèses Mon plan j'vais toutes les baiser et toutes les tèj' Trop près du mal, trop loin du haj Yoo ho ho ho ho ! Vive vivement l'été pourvu qu'il neige14</t>
+          <t>J'en ai vu de toutes les couleurs Surtout des rouges et des bleues gyropharelove J'avalerai pas leurs couleuvres Fuck les maths et Napoléon, j'préfère rouler ma beuh J'suis marié à la street'zer, la vie est plus belle à deux DKR, Madinina y'a R, mon négro, y'a nous et y'a eux Rarissime comme un négro oscarisé J'vais les traumatiser, dans la tête lumière tamisée J'arrive à viser, premier bracelet gris métallisé majeur, public avisé Laisse-les tapiner, s'auto-valider Y'a qu'à Disney que les rats sont animés Tout est noir dans mon calumet Rafale de AK pour l'allumer Rude boi dem know, dem cyah test we no no Dem cyah test we no no Rude boi dem know, dem cyah test we no no Général K-L-H pour te saluer J'en ai vu de toutes les couleurs Surtout des rouges et des bleues gyropharelove J'avalerai pas leurs couleuvres Fuck les maths et Napoléon, j'préfère rouler ma beuh J'suis marié à la street'zer, la vie est plus belle à deux DKR, Madinina y'a R, mon négro, y'a nous et y'a eux J'me sens aimé quand j'ai des ennemis Quand c'est leur go qui gémit Bien-sûr elles crient au génie, rastafari je suis béni J'monte sur Paris, j'prends mes euros J'suis trop frais c'est un délit T'es pas dans le bando, t'es sur le banc comme Balotelli Ne viens pas dans mon secteur, tu peux y laisser ta peau Dans ton cul comme un chercheur, tu repars sans le magot Real rude boi, we ah run di place Ils seront toujours number two Tu t'demandes encore qui sont les best 92i, Général Crew J'rentre dans le club, j'ai les yeux blancs comme Belly Laissez passer, saluez le real don Chaque phrase à la patate comme Elie Dans ton belly jentends hotta faya bun dem Depuis Bando, ta femme tombe amoureuse de mon accent Qu'il est frais, quil est fort, quil est puissant Rambo kanambo comme Kartel que de bons combos Eh bombo, dans le tombeau J'en ai vu de toutes les couleurs Surtout des rouges et des bleues gyropharelove J'avalerai pas leurs couleuvres Fuck les maths et Napoléon, j'préfère rouler ma beuh J'suis marié à la street'zer, la vie est plus belle à deux DKR, Madinina y'a R, mon négro, y'a nous et y'a eux Déterminé cest la routine, le booking cest dix mille Si jsuis blanc jsuis lcoquillage sur les vanilles En disant rien on a tout dit Ouloulou Général Crew, le bando jétudie Jleur met dans lcul vite fait à larrache Le savoir est une arme jtourne les pages de ma kalash J'aime une pute quand elle est nymph' Mes victoires sont des chèques, mes échecs sont des chefs duvre Chefs d'uvre, chefs d'uvre Mes victoires sont des chèques, mes échecs sont des chefs duvre Ouloulou J'en ai vu de toutes les couleurs Surtout des rouges et des bleues gyropharelove J'avalerai pas leurs couleuvres Fuck les maths et Napoléon, j'préfère rouler ma beuh J'suis marié à la street'zer, la vie est plus belle à deux DKR, Madinina y'a R, mon négro, y'a nous et y'a eux Mada, General 92izi, rouge et bleu Rouge et bleu Rouge et bleu Shawn ! ah ! Ouloulou7</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Infréquentables</t>
+          <t>RTC</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Je complexe les hommes comme la taille d'leur eu-eu-eu-eu-que Je conteste les ordres, ouais, je m'en bats les yeu-eu-eu-eu-ks Je bug sur son gros uc' et sa voix mielleu-eu-eu-euse Donc je gué-lar tout mon uj', j'lui en mets plein les yeu-eu-eu-euz Lossa, j'reste concentré comme liasse de mille en billets de dix Je pense aux quatre sorties de pot, j'pense aux quatre roues directrices Toute ton équipe se demande What the fuck ? Mais qui est ce type ? Lossa, je brille de mille feux donc fuck ce game d'épileptiques Glock sous ceinture Hermès pour les fumer tout en ayant du style Tu tapes des impros dans les kermesses pendant que je suis en showcase au Crystal Si tu veux m'faire faut pas t'louper Je reviens du ciel, les étoiles entres elles, ne parlent que de mes derniers couplets Hola chica ! Pam-pam-pam-pam J'veux être blindé comme les chichas les soirs d'ram'dam-dam J'dis pas que vos mères sont qu'une bande de putes J'dis juste que quand elles m'matent elles ont les yeux qui sentent le uc' Je suis l'infréquentable, l'infréquentable Je suis au volant du cab', y'a mes caille-ra qui cabrent Je suis l'infréquentable, l'infréquentable infréquentable Pieds sous la table, y'a toute la boîte qui dab dab dab dab bitch Je suis l'infréquentable, je suis l'infréquentable Je suis l'infréquentable-table-table-table J'dis pas que vos mères sont qu'une bande de putes J'dis juste que quand elles m'matent elles ont les yeux qui sentent le uc' Je suis l'infréquentable pourtant j'ai des millions de followers millions Impraticable est mon terrain, Bugatti Veyron me donne chaud au cur J'arrive en avance, j'les baise à l'heure, kiss prématurément bitch, à t'à l'heure Peut-être, si j'me souviens de toi, si tu me suces comme la dernière fois Je retrouverai ta page sur Internet, un H sur le sac, c'est ça qu'elles cherchent Un grand coup de bite, UberPop, c'est pour Luna les sacs Hermès J'me rappelle pas d'ta schneck de tête, négros n'me veulent pas que du bien Poste ton cul sur Instagram, tes yeux ne me rappellent rien Klawi, nada, walou, peanuts, hass, la peau de mes yeuks passe le big up, wesh Je suis bankable, infréquentable Qué rico ! me dit ma go de Coral Gables J'te fume en fumant un bédo, mon ADN sur le mégot, jamais Flingue dans la gueule c'est bon pour la négo', années de placard à ma table, négro Je suis l'infréquentable, l'infréquentable Je suis au volant du cab', y'a mes caille-ra qui cabrent Je suis l'infréquentable, l'infréquentable infréquentable Pieds sous la table, y'a toute la boîte qui dab dab dab dab bitch Je suis l'infréquentable, je suis l'infréquentable Je suis l'infréquentable-table-table-table J'dis pas que vos mères sont qu'une bande de putes J'dis juste que quand elles m'matent elles ont les yeux qui sentent le uc' Je suis beau comme un diable, doux comme un jab Je sais pas pourquoi tu jactes, personne te regarde, t'es comme une chaine du câble J'ai toujours gardé le cap, jamais sucé, jamais passé de pacte J'me suis mis à bibi au départ, j'estimais avoir mangé assez de pâtes À mon propre enterrement, j'serai en retard Juste pour prouver au monde qu'j'suis bel et bien différent de ces bâtards Gamos, r-cui, lunettes, tout est noir Sauf les traces de cocaïne dans l'Tupperware Je suis l'infréquentable, l'infréquentable Je suis au volant du cab', y'a mes caille-ra qui cabrent Je suis l'infréquentable, l'infréquentable infréquentable Pieds sous la table, y'a toute la boîte qui dab dab dab dab bitch Je suis l'infréquentable, je suis l'infréquentable Je suis l'infréquentable-table-table-table J'dis pas que vos mères sont qu'une bande de putes J'dis juste que quand elles m'matent elles ont les yeux qui sentent le uc' Yeah, assis-toi à notre table infréquentable Les infréquentables infréquentables Yuri K.O.2P6</t>
+          <t>J'fais des millions, j'fais des millions J'suis riche tristement célèbre 92izi, Hauts-de-Seizeines, filet mignon Young Chop on the beat J'suis riche tristement célèbre, riche tristement célèbre 92izon dans la maison J'sors jamais sans mon fusil, jamais sans ma black card Le premier qui pète un fusible, c'est l'premier qu'on va hagar Les billets sont dans le fourgon, les pieds dans le goudron Mes prières vont à Brazza, mange pas d'pierres comme à Gaza J'suis riche tristement célèbre, riche tristement célèbre Riche tristement célèbre, riche tristement célèbre J'suis riche tristement célèbre, riche tristement célèbre Riche tristement célèbre, j'suis riche tristement célèbre Qu'est-c'j'vais faire de tous ces billets ? 92izi tout est plié Y'a qu'ma mère qui peut me marcher dessus car le paradis est sous ses pieds Le temps c'est de l'argent, j'ai mis de la coke dans le sablier J'suis allongé où tu n'as pas pieds, calibre sur la tempe car tu n'as pas pigé Mes réunionnais, mes antillais, tous les banlieusards qui en ont chié Haineux n'sortiront pas entiers, sur la tête de mon canon scié Maintenant tu as peur, tu veux négocier ? Bite dans la bouche tu vas t'égosiller Armes de guerre dans mon cocotier Trois pitbulls pour t'autopsier Viens me sucer, j'te paye ton billet, bananes plantains, poisson grillé En téflon est mon nouveau gilet, kalash à la main, comme un yougo, j'y vais J'y vais J'suis riche tristement célèbre, riche tristement célèbre J'sors jamais sans mon fusil, jamais sans ma black card Le premier qui pète un fusible, c'est l'premier qu'on va hagar Les billets sont dans le fourgon, les pieds dans le goudron Mes prières vont à Brazza, mange pas d'pierres comme à Gaza J'suis riche tristement célèbre, riche tristement célèbre Riche tristement célèbre, riche tristement célèbre J'suis riche tristement célèbre, riche tristement célèbre Riche tristement célèbre, j'suis riche tristement célèbre À quoi sert de vivre sans briller ? Amsterdam dans le cendrier J'ai liké des gros tarpés sur Instagram j'me suis fait griller Des meufs shab les calendriers, tous avons braqué ou dealé Le rap conscient, qu'il nique sa mère pendant que son père mange du sanglier Jamais en gardav' sans nier, j'commettais des crimes pour pas m'ennuyer J'pars en vacances quand bon me semble, nik ommok le mois de juillet Nik ommok aussi le mois de août, le compte en banque c'est tah les oufs La vérité sort de nos bouches, fuck, de quoi ils parlent tous ? J'ai craché donc va t'habiller, premier round, elle est rassasiée Rap français est quadrillé, 92i l'a assassiné J'suis plus cagoule que tablier, Ibrahim on t'a pas oublié J'suis à Kaboul, à Sarajevo, RPG, jolis souliers J'sors jamais sans mon fusil, jamais sans ma black card Le premier qui pète un fusible, c'est l'premier qu'on va hagar Les billets sont dans le fourgon, les pieds dans le goudron Mes prières vont à Brazza, mange pas d'pierres comme à Gaza J'suis riche tristement célèbre, riche tristement célèbre Riche tristement célèbre, riche tristement célèbre J'suis riche tristement célèbre, riche tristement célèbre Riche tristement célèbre, j'suis riche tristement célèbre21</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3G</t>
+          <t>É.L.É.P.H.A.N.T (Bonus Track)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Izi D.U.C J'éclate tout, sa mère l'économie IG, tu follow me Fellation, bouche pleine de calomnies, Tariq Raclaoui Le fion rempli de saloperies, Saïd Taghmaoui Sac mortuaire Ünkut ta panoplie Biatch, swallow me Pendant qu'ils font belhani de n'avoir rien compris Pas de don pour le buzz, parlons peu de nos uvres Révolution de lover, tu n'as que 3 followers Impuissant face à l'horreur, les gouvernements sont des tueurs Je milite pour mes proches, au moins eux je peux les sauver Je laisse la tâche à Dieu, de dire qui est bon qui est mauvais Pour dénoncer atrocités, j'attends pas qu'ça passe à la télé Ma life est d'humeur palestinienne, bien avant toi, d'puis Destinée Mon rap va à Costa del Sol, coffre chargé prêt à gouacher Seul dans un linceul écarlate, en portant mes couilles j'aurai marché Reste derrière ton PC, à refaire le monde et à rager Je me suis fait dans la rue, qui va m'arrêter ? Pas la 3G Je n'fais la guerre qu'aux rappeurs, ne cautionne la mort d'aucun enfant Je suis Lion de la Teranga fuck la souris, fuck l'éléphant Je suis pro-banlieusard Bakel City, arme de guerre dans mon placard Fuck Mozart, mélodie noire, comme à Grand Dakar Les tonneaux vides font plus de bruit, négro cest ce que lon dit Livraisons, Lamborghini, Allô Monsieur Mariotti J'décompresse au K.O.D, tu finis tes raviolis D'puis qu'j'suis dans le game, ton MC préféré passe sa vie au lit Quand je leur dis de niquer leur mère, négro crois-moi je suis poli Mon dernier single, dans un char, tourne dans les rues de Tripoli Je n'fais jamais semblant, aussi réel que l'avenir est sanglant Paroles de paix et de haine enterrent mon cur dans un drap blanc Mon rap va à Costa del Sol, coffre chargé prêt à gouacher Seul dans un linceul écarlate, en portant mes couilles j'aurai marché Reste derrière ton PC, à refaire le monde et à rager Je me suis fait dans la rue, qui va m'arrêter ? Pas la 3G Hmm 3G67</t>
+          <t>Bamboula va faire de la mula Doucement mais salement Avant de te séduire, je serai très élégant À aboyer sans mordre, tu vas te casser les dents Avant de les détruire, je laisse parler les gens J'n'aurai jamais d'tour d'ivoire, je n'tue pas l'éléphant Les mieux armés, Kalash, Uzi, sont les mieux lotis J'ai queue qui trempe dans l'eau, je pisse du piloti Train de vie très noir, donc sombre mélodie UKT pour rentrer en cérémonie Fonce-dé j'suis un peu parano, j'mets l'pompe dans l'jacuzzi On t'fait parler à la tronçonneuse, kho, dans le monde à Tony Carla Bruni joue de la gratte à Sarkozy Petite Marocaine se tape Berlusconi izi J'suis connu en Inde, à Champigny Ta dinde veut faire un tour d'Lamborghini En niquant beaucoup d'mères, on s'bonifie Tirs d'obus sur fils de shmeh' s'intensifient Dans sa merde, si on y est bien, on y vit Mon département aime blanche de Bolivie La cocaïne est plutôt bonne ici Mental de fer, tout le monde a fait d'la taule ici On dit jamais c'qu'on fait, mais on fait toujours c'qu'on a dit Tu vas savoir qui j'suis, j'rentre dans ta schneck, j'sors mon ID Si t'as pas la mula, toi Bamboula bouge la pute elle m'dit Bouge pas, allô, Vincent, moi vouloir argent Vivendi Qui affronte le DUC court à une fin tragique Nique ta mère la pute sur ma carte de visite Six Jordan sous terre c'est résolu Les hommes comme toi font qu'personne évolue Qui sont-ils vraiment ? Je m'interroge J'fais Sept À Huit, mes ennemis sont devant la téloche Nwarmalement au Camp des Loges Quand j'ferai l'Parc des Princes, Armand sera dans ses loges Oulala, Bamboula va faire de la mula Oulala Oulala, Bamboula va faire de la mula Oulala Oulala, oula-oula-oulala Oulala, Bamboula va faire de la mula Oulala, oula-oula-oulala Oulala, Bamboula va faire de la mula26</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Rouge et bleu</t>
+          <t>LVMH</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>J'en ai vu de toutes les couleurs Surtout des rouges et des bleues gyropharelove J'avalerai pas leurs couleuvres Fuck les maths et Napoléon, j'préfère rouler ma beuh J'suis marié à la street'zer, la vie est plus belle à deux DKR, Madinina y'a R, mon négro, y'a nous et y'a eux Rarissime comme un négro oscarisé J'vais les traumatiser, dans la tête lumière tamisée J'arrive à viser, premier bracelet gris métallisé majeur, public avisé Laisse-les tapiner, s'auto-valider Y'a qu'à Disney que les rats sont animés Tout est noir dans mon calumet Rafale de AK pour l'allumer Rude boi dem know, dem cyah test we no no Dem cyah test we no no Rude boi dem know, dem cyah test we no no Général K-L-H pour te saluer J'en ai vu de toutes les couleurs Surtout des rouges et des bleues gyropharelove J'avalerai pas leurs couleuvres Fuck les maths et Napoléon, j'préfère rouler ma beuh J'suis marié à la street'zer, la vie est plus belle à deux DKR, Madinina y'a R, mon négro, y'a nous et y'a eux J'me sens aimé quand j'ai des ennemis Quand c'est leur go qui gémit Bien-sûr elles crient au génie, rastafari je suis béni J'monte sur Paris, j'prends mes euros J'suis trop frais c'est un délit T'es pas dans le bando, t'es sur le banc comme Balotelli Ne viens pas dans mon secteur, tu peux y laisser ta peau Dans ton cul comme un chercheur, tu repars sans le magot Real rude boi, we ah run di place Ils seront toujours number two Tu t'demandes encore qui sont les best 92i, Général Crew J'rentre dans le club, j'ai les yeux blancs comme Belly Laissez passer, saluez le real don Chaque phrase à la patate comme Elie Dans ton belly jentends hotta faya bun dem Depuis Bando, ta femme tombe amoureuse de mon accent Qu'il est frais, quil est fort, quil est puissant Rambo kanambo comme Kartel que de bons combos Eh bombo, dans le tombeau J'en ai vu de toutes les couleurs Surtout des rouges et des bleues gyropharelove J'avalerai pas leurs couleuvres Fuck les maths et Napoléon, j'préfère rouler ma beuh J'suis marié à la street'zer, la vie est plus belle à deux DKR, Madinina y'a R, mon négro, y'a nous et y'a eux Déterminé cest la routine, le booking cest dix mille Si jsuis blanc jsuis lcoquillage sur les vanilles En disant rien on a tout dit Ouloulou Général Crew, le bando jétudie Jleur met dans lcul vite fait à larrache Le savoir est une arme jtourne les pages de ma kalash J'aime une pute quand elle est nymph' Mes victoires sont des chèques, mes échecs sont des chefs duvre Chefs d'uvre, chefs d'uvre Mes victoires sont des chèques, mes échecs sont des chefs duvre Ouloulou J'en ai vu de toutes les couleurs Surtout des rouges et des bleues gyropharelove J'avalerai pas leurs couleuvres Fuck les maths et Napoléon, j'préfère rouler ma beuh J'suis marié à la street'zer, la vie est plus belle à deux DKR, Madinina y'a R, mon négro, y'a nous et y'a eux Mada, General 92izi, rouge et bleu Rouge et bleu Rouge et bleu Shawn ! ah ! Ouloulou7</t>
+          <t>Avant de toucher ma tite-pe Il faudra me tuer peu importe la douleur Tony, Sosa, Larry Hoover Le double R est bi-couleur Mon négro, mon négro Le double R est bi-couleur Mon négro, mon négro Je ne coopère pas sous la douleur J'suis tellement loin, dans les bails noirs, très noirs, tah illuminati J'te la mets jusqu'à la ge-gor comme si j'baisais Mimie Mathy Sont tous des collabos dans l'industrie, moi j'suis dans le maquis J'ai l'06 à John Rambo, mon char d'assaut au valet parking Ils vont brûler des cierges, ils vont brûler des cierges Moi j'allume un cigare, gros J'vais les fumer, les fumer, les fumer Comme dans les rues de Chicago J'ai la formule, leurs pupilles se dilatent Pas besoin d'aller chez Trivago J'ai caché mon magot de pirate Entre Key West et Key Largo Tu crèves ou tu marches Bats les couilles de monter les marches Mon équipe laisse tomber les masses Balle dans les quilles pour faire tomber les masques LVMH, LVMH Nard-Bé Arnault, mucho dinero, yo, te amo J'ai Al Pacino à mon derrière Mets les sacs dans le Merco et monte derrière Tu crois qu'c'est un jeu ? C'est la gue-guerre La première parole, sera la dernière J'en serais pas là sans tous mes négros J'te fume de-spee comme 100 000 euros Ma spécialité leur glisser dans le cul mieux que Candeloro Le game j'l'ai niqué... On l'entend moins, sa grande gueule J'ai perdu mon kho sûr au combat, je n'en ferai jamais le deuil Brazza, mon négro, mon négro, mon négro, mon négro LVMH, rien à foutre de monter les marches Mon négro, mon négro, mon négro, mon négro Nard-Bé Arnault, mucho dinero, yo, te amo On porte nos couilles, toi tu portes l'oeil Ma liasse de billets n'tient pas dans un porte-feuille J'l'emporterai pas dans mon cercueil Neuf millimétré quand je ferme l'oeil En Ferragamo dans le dernier gamos Jet privé au Mexique pour un tacos Ils ne remplissent que le Bataclan Leur fan base tient dans la boîte à gants J'ai Al Pacino à mon derrière Mets les sacs dans le Merco et monte derrière Où y a le plus de négros, c'est la Terre-Mère Ma première parole, sera la dernière J'ai perdu des khos et l'ûdu J'pèse comme les 6 chiffres du Loto Quelques négros à terre, il n'a fallu qu'une seule moto J'suis un braquo t'es délit mineur A qui j'fais la guerre faudra qu'il meure J'suis paro comme Teddy Riner J'suis sous ton balcon comme Val Kilmer Faudra me tuer Il faudra, il faudra me tuer Il faudra me tuer, faudra me tuer Il faudra me tuer, il faudra me tuer, il faudra me tuer... Nard-Bé Arnault, mucho dinero, yo, te amo56</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RTC</t>
+          <t>Attila</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>J'fais des millions, j'fais des millions J'suis riche tristement célèbre 92izi, Hauts-de-Seizeines, filet mignon Young Chop on the beat J'suis riche tristement célèbre, riche tristement célèbre 92izon dans la maison J'sors jamais sans mon fusil, jamais sans ma black card Le premier qui pète un fusible, c'est l'premier qu'on va hagar Les billets sont dans le fourgon, les pieds dans le goudron Mes prières vont à Brazza, mange pas d'pierres comme à Gaza J'suis riche tristement célèbre, riche tristement célèbre Riche tristement célèbre, riche tristement célèbre J'suis riche tristement célèbre, riche tristement célèbre Riche tristement célèbre, j'suis riche tristement célèbre Qu'est-c'j'vais faire de tous ces billets ? 92izi tout est plié Y'a qu'ma mère qui peut me marcher dessus car le paradis est sous ses pieds Le temps c'est de l'argent, j'ai mis de la coke dans le sablier J'suis allongé où tu n'as pas pieds, calibre sur la tempe car tu n'as pas pigé Mes réunionnais, mes antillais, tous les banlieusards qui en ont chié Haineux n'sortiront pas entiers, sur la tête de mon canon scié Maintenant tu as peur, tu veux négocier ? Bite dans la bouche tu vas t'égosiller Armes de guerre dans mon cocotier Trois pitbulls pour t'autopsier Viens me sucer, j'te paye ton billet, bananes plantains, poisson grillé En téflon est mon nouveau gilet, kalash à la main, comme un yougo, j'y vais J'y vais J'suis riche tristement célèbre, riche tristement célèbre J'sors jamais sans mon fusil, jamais sans ma black card Le premier qui pète un fusible, c'est l'premier qu'on va hagar Les billets sont dans le fourgon, les pieds dans le goudron Mes prières vont à Brazza, mange pas d'pierres comme à Gaza J'suis riche tristement célèbre, riche tristement célèbre Riche tristement célèbre, riche tristement célèbre J'suis riche tristement célèbre, riche tristement célèbre Riche tristement célèbre, j'suis riche tristement célèbre À quoi sert de vivre sans briller ? Amsterdam dans le cendrier J'ai liké des gros tarpés sur Instagram j'me suis fait griller Des meufs shab les calendriers, tous avons braqué ou dealé Le rap conscient, qu'il nique sa mère pendant que son père mange du sanglier Jamais en gardav' sans nier, j'commettais des crimes pour pas m'ennuyer J'pars en vacances quand bon me semble, nik ommok le mois de juillet Nik ommok aussi le mois de août, le compte en banque c'est tah les oufs La vérité sort de nos bouches, fuck, de quoi ils parlent tous ? J'ai craché donc va t'habiller, premier round, elle est rassasiée Rap français est quadrillé, 92i l'a assassiné J'suis plus cagoule que tablier, Ibrahim on t'a pas oublié J'suis à Kaboul, à Sarajevo, RPG, jolis souliers J'sors jamais sans mon fusil, jamais sans ma black card Le premier qui pète un fusible, c'est l'premier qu'on va hagar Les billets sont dans le fourgon, les pieds dans le goudron Mes prières vont à Brazza, mange pas d'pierres comme à Gaza J'suis riche tristement célèbre, riche tristement célèbre Riche tristement célèbre, riche tristement célèbre J'suis riche tristement célèbre, riche tristement célèbre Riche tristement célèbre, j'suis riche tristement célèbre21</t>
+          <t>Tu bois du lean Tu fais des lignes de pure de Medellín Je n'ai qu'un seul gang, D.U.C Je n'ai qu'un seul gang 92i Fuck le yang, fuck le yin T'es bonne en cuisine, t'es bonne en legging J'suis né dans les grands vins, t'es mort dans les vignes Défier le Duc à mains nues, on évite Plomb dans les vitres, à la barre on est huit Kilos de shit, Audi A8 Tes petites fuites, des délits de fuite Tu dors dans nos hôtels, dans la petite suite J'aime ni le grand flic, ni la petite schmitt 10 ans en centrale, ça passera vite 10 ans en centrale, ça passera vite T'as inventé la pipe, tu me suces la bite J'ai main de gorille, tu vas te manger la gifle Je fuck la pauvre et je fuck la riche Si tu cherches l'échec, tu demandes à Kaaris AK-47 dans ma boite à malices J'm'en bats les couilles d'tout, c'est mahlich Avant d'manger tes morts, tu vas t'manger la vitre Noire est la liste, noir est l'artiste J'viens d'passer la Suisse, j'viens de passer l'A6 D.U.C, je confirme on a touché la cible D.U.C, je confirme on a touché la cible Je les encule, les encule et ainsi de suite T'es pas sur OKLM, il faut changer de site Éclat de métal dans fibre optique Mes compatriotes ont arme patriotique Quelques likes, tu t'es senti bionique J'vais t'tirer d'ssus, arrête les antibiotiques Le A-R n'a que faire de l'acoustique Début de carrière dans l'arrière-boutique Siliconée, pas besoin de soutif J'les vois agoniser, pas besoin de sous-titres Neuf-millimétré car c'est préconisé Kunta Kinté, terrorisé Le rap français Calogeroïsé Biatch, on va t'Claudia Sampedroiser Seul, négro, j'vais te coloniser T'as zéro swag'zer on va te Olomider Première dose gratos, le bolosse est fidélisé Vatos Locos, un por todos, Athéna me suce à Mykonos Sur ma table, y a une pute qui danse debout, y a ma paire de cojones La prochaine fois que tu veux m'ver-soule, hassoul, envoie des voyous qui s'y connaissent Cherche pas les clés d'mon cur, j'ai que les clés d'la Lambo J'suis à Key Largo, niquer des mères c'est le scénario Pirates, pirates Niquer des mères c'est le scénario Pirates, pirates, pirates Niquer des mères c'est le scénario Y a mon ze-bla dans l'enquête, compte en banque aux Maldives Attila mon ancêtre, AK-47 fait toujours la diff' Y a mon ze-bla dans l'enquête, compte en banque aux Maldives Attila mon ancêtre, AK-47 fait toujours la diff' Attila mon ancêtre30</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>É.L.É.P.H.A.N.T (Bonus Track)</t>
+          <t>Oh bah oui</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Bamboula va faire de la mula Doucement mais salement Avant de te séduire, je serai très élégant À aboyer sans mordre, tu vas te casser les dents Avant de les détruire, je laisse parler les gens J'n'aurai jamais d'tour d'ivoire, je n'tue pas l'éléphant Les mieux armés, Kalash, Uzi, sont les mieux lotis J'ai queue qui trempe dans l'eau, je pisse du piloti Train de vie très noir, donc sombre mélodie UKT pour rentrer en cérémonie Fonce-dé j'suis un peu parano, j'mets l'pompe dans l'jacuzzi On t'fait parler à la tronçonneuse, kho, dans le monde à Tony Carla Bruni joue de la gratte à Sarkozy Petite Marocaine se tape Berlusconi izi J'suis connu en Inde, à Champigny Ta dinde veut faire un tour d'Lamborghini En niquant beaucoup d'mères, on s'bonifie Tirs d'obus sur fils de shmeh' s'intensifient Dans sa merde, si on y est bien, on y vit Mon département aime blanche de Bolivie La cocaïne est plutôt bonne ici Mental de fer, tout le monde a fait d'la taule ici On dit jamais c'qu'on fait, mais on fait toujours c'qu'on a dit Tu vas savoir qui j'suis, j'rentre dans ta schneck, j'sors mon ID Si t'as pas la mula, toi Bamboula bouge la pute elle m'dit Bouge pas, allô, Vincent, moi vouloir argent Vivendi Qui affronte le DUC court à une fin tragique Nique ta mère la pute sur ma carte de visite Six Jordan sous terre c'est résolu Les hommes comme toi font qu'personne évolue Qui sont-ils vraiment ? Je m'interroge J'fais Sept À Huit, mes ennemis sont devant la téloche Nwarmalement au Camp des Loges Quand j'ferai l'Parc des Princes, Armand sera dans ses loges Oulala, Bamboula va faire de la mula Oulala Oulala, Bamboula va faire de la mula Oulala Oulala, oula-oula-oulala Oulala, Bamboula va faire de la mula Oulala, oula-oula-oulala Oulala, Bamboula va faire de la mula26</t>
+          <t>J'me suis souvenu qu'les blessures du cur faisaient mal Et que les larmes avaient le goût de la mer La patience, une vertu, j'la garde pour mes gosses Ferme pas d'travers, on va te niquer ta mère J'connais des rappeurs, c'est comme des nymphs Pour une bite, ils iraient baisser leur robe Sale fils de pute, j'suis en connexion avec des hommes Susceptibles d'alimenter l'Europe Un gang de malades, de malades, de malades 3 heures du mat' dans l'cimetière, j'me balade J'me réveillais j'avais la vue sur le T2 Là j'me lève, j'ai la vue sur tout Paname On rase les clubs, ils rasent des teubs' Lacrim au placard, ne sait que faire des tubes Crois-moi sur parole, ce qui rend fou l'homme Ça n'est pas le doute mais c'est la certitude Jeune menotté, prisonnier sans diplôme J'me démerde, dès 16 ans j'roule dans un p'tit cône J'ai l'habitude des larmes, on communique par tél' satellite Pour cent kils, y'a pas d'émoticones La vie c'est dur mon frère, et l'argent c'est facile Y'a la coke pour m'acheter mes dix hectares sur la côte Zéro degré, j'fais chauffer ma piscine J'tape la pose, prends la tof', des condés sur mes côtes Force, force à tous ceux qui rêveraient d'me tuer Ah la rafale bug, miraculé, il suffit d'une erreur pour t'enculer Force, force, j'suis dans ma cité, j'fume un pilon Va niquer ta mère, on fait des millions Cent kilos d'beuh-er dans l'pavillon Pah, pah, pah ! Oh bah oui, si tu manges mon pain Qu'on en vienne aux mains, ça ne sert à rien Pah, pah ! Oh bah oui, même s'ils sont pleins C'est des être-humains et mes frères sont mille, hein J'enseigne le sale, pas les Beaux-Arts J'pèse comme un trafiquant mort, Kopp El Chapo Mendoza J'aurais tué pour poignées de dollars Audemars au poignet de Omar J'vendais d'la frappe, j'vendais pas de marrons Ils me demanderont c'qu'ils ont fait aux Noirs Dans un appart de mac Avenue Mac-Mahon Sur grand écran je leur ferai voir De nôtre côté, personne cédera Avant d'être D.U.C. j'fus bon galérien Porte tes couilles, personne t'aidera Grosses douilles tah les oufs pour couper les liens Sale fils de pute, t'es walou, t'es rien Comme Jamel Debbouze qui te serre dans ses bras J'suis pas dans ta sphère, fuck un Terrien On va t'niquer ta mère, tu l'sais très bien J'pénètre leur espace aérien oui Dès que j'suis sorti du placard J'crache sur la pelouse comme un Algérien Benzo L'herbe y sera plus verte bâtard J'suis dans l'tur-fu, j'suis raëlien Sortez les nains, y'a Patrice qui vient J'suis un Glock israélien dans la mano d'un Palestinien Force, force, à tous ceux qui rêveraient d'me tuer Ah la rafale bug, miraculé, il suffit d'une erreur pour t'enculer Force, force, j'suis dans ma cité, j'fume un pilon Va niquer ta mère, on fait des millions Cent kilos d'beuh-er dans l'pavillon Pah, pah, pah ! Oh bah oui, si tu manges mon pain Qu'on en vienne aux mains, ça ne sert à rien Pah, pah ! Oh bah oui, même s'ils sont pleins C'est des être-humains et mes frères sont mille, hein35</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LVMH</t>
+          <t>Futur</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Avant de toucher ma tite-pe Il faudra me tuer peu importe la douleur Tony, Sosa, Larry Hoover Le double R est bi-couleur Mon négro, mon négro Le double R est bi-couleur Mon négro, mon négro Je ne coopère pas sous la douleur J'suis tellement loin, dans les bails noirs, très noirs, tah illuminati J'te la mets jusqu'à la ge-gor comme si j'baisais Mimie Mathy Sont tous des collabos dans l'industrie, moi j'suis dans le maquis J'ai l'06 à John Rambo, mon char d'assaut au valet parking Ils vont brûler des cierges, ils vont brûler des cierges Moi j'allume un cigare, gros J'vais les fumer, les fumer, les fumer Comme dans les rues de Chicago J'ai la formule, leurs pupilles se dilatent Pas besoin d'aller chez Trivago J'ai caché mon magot de pirate Entre Key West et Key Largo Tu crèves ou tu marches Bats les couilles de monter les marches Mon équipe laisse tomber les masses Balle dans les quilles pour faire tomber les masques LVMH, LVMH Nard-Bé Arnault, mucho dinero, yo, te amo J'ai Al Pacino à mon derrière Mets les sacs dans le Merco et monte derrière Tu crois qu'c'est un jeu ? C'est la gue-guerre La première parole, sera la dernière J'en serais pas là sans tous mes négros J'te fume de-spee comme 100 000 euros Ma spécialité leur glisser dans le cul mieux que Candeloro Le game j'l'ai niqué... On l'entend moins, sa grande gueule J'ai perdu mon kho sûr au combat, je n'en ferai jamais le deuil Brazza, mon négro, mon négro, mon négro, mon négro LVMH, rien à foutre de monter les marches Mon négro, mon négro, mon négro, mon négro Nard-Bé Arnault, mucho dinero, yo, te amo On porte nos couilles, toi tu portes l'oeil Ma liasse de billets n'tient pas dans un porte-feuille J'l'emporterai pas dans mon cercueil Neuf millimétré quand je ferme l'oeil En Ferragamo dans le dernier gamos Jet privé au Mexique pour un tacos Ils ne remplissent que le Bataclan Leur fan base tient dans la boîte à gants J'ai Al Pacino à mon derrière Mets les sacs dans le Merco et monte derrière Où y a le plus de négros, c'est la Terre-Mère Ma première parole, sera la dernière J'ai perdu des khos et l'ûdu J'pèse comme les 6 chiffres du Loto Quelques négros à terre, il n'a fallu qu'une seule moto J'suis un braquo t'es délit mineur A qui j'fais la guerre faudra qu'il meure J'suis paro comme Teddy Riner J'suis sous ton balcon comme Val Kilmer Faudra me tuer Il faudra, il faudra me tuer Il faudra me tuer, faudra me tuer Il faudra me tuer, il faudra me tuer, il faudra me tuer... Nard-Bé Arnault, mucho dinero, yo, te amo56</t>
+          <t>Souvent été déçu, j'ai quelques blessures J'ai toujours été sûr d'avoir ces fils de putes à l'usure Monte dans la Delo', j'vais dans le futur On ne touche que le gros lot, négro c'est la coutume Traverse constellations, envoie MC's en congélation J'dois toujours revenir dur car ils n'retiennent jamais la leçon Dans le futur j'suis loin des murs, des murs de prison Contrôlé à coup sûr, arrestation, interpellation Fuck la justice française, baise procs et juges en brochettes Laisse-moi vendre mon crack, parle à mon fiac ou à ma chaussette B2OBA, 92i, Mauvais garçon Diplômé de la street, mention Bsahtek, Félicitations Retrouve mon nouveau clip en exclu sur Générations Citoyen du monde, j'aime toutes les couleurs, toutes les nations Et s'ils ne m'aiment pas, j'les baise de toutes les façons J'avance, je vends mes disques, mes sapes, au pire de l'écaille de poisson La chance, je n'y crois pas, je crois aux coups durs, avec mes khos, j'ai fait le plus dur Normal tu me vois pas, j'suis dans le futur Le futur, là où ces bâtards n'iront pas Dos au mur, j'leur prendrai même ce qu'ils n'ont pas Rage dans mes yeux depuis la poussette Fixés vers les cieux, préfère Phucket que l'Massachusetts Ricoche dans l'espace comme dans ton corps, la balle à ailettes Marche sans garde du corps, t'crois que c'est la fête, mais faut faire belek J'n'ai jamais su ce que j'allais devenir Aujourd'hui j'suis tellement loin, négro j'ai peur de n'jamais revenir Mais le kho n'est plus là donc peu importe si j'arrête de vivre On avance têtes baissées pour qu'il soit fier du 92i Mon échec sera ma fin, pour l'instant j'vole à Mach 1 Au dessus d'une foule de fils de putes, il ne peuvent rien, mon but est atteint Passeport, attaque comme lion, croque à la ge-gor J'tape fort comme quand les keufs frappent à la te-por Boobs le météore là d'où je viens, là où je survis J'ai fait le bien, le mal, je sais très bien que je n'ai qu'une vie Gravé dans les astres, son nom en rouge pavé de rubis Je n'oublierai jamais, grâce à eux, à lui, je sais qui je suis La chance, je n'y crois pas, je crois aux coups durs, avec mes khos, j'ai fait le plus dur Normal tu me vois pas, j'suis dans le futur Le futur, là où ces bâtards n'iront pas Dos au mur, j'leur prendrai même ce qu'ils n'ont pas13</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Attila</t>
+          <t>La mort leur va si bien</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tu bois du lean Tu fais des lignes de pure de Medellín Je n'ai qu'un seul gang, D.U.C Je n'ai qu'un seul gang 92i Fuck le yang, fuck le yin T'es bonne en cuisine, t'es bonne en legging J'suis né dans les grands vins, t'es mort dans les vignes Défier le Duc à mains nues, on évite Plomb dans les vitres, à la barre on est huit Kilos de shit, Audi A8 Tes petites fuites, des délits de fuite Tu dors dans nos hôtels, dans la petite suite J'aime ni le grand flic, ni la petite schmitt 10 ans en centrale, ça passera vite 10 ans en centrale, ça passera vite T'as inventé la pipe, tu me suces la bite J'ai main de gorille, tu vas te manger la gifle Je fuck la pauvre et je fuck la riche Si tu cherches l'échec, tu demandes à Kaaris AK-47 dans ma boite à malices J'm'en bats les couilles d'tout, c'est mahlich Avant d'manger tes morts, tu vas t'manger la vitre Noire est la liste, noir est l'artiste J'viens d'passer la Suisse, j'viens de passer l'A6 D.U.C, je confirme on a touché la cible D.U.C, je confirme on a touché la cible Je les encule, les encule et ainsi de suite T'es pas sur OKLM, il faut changer de site Éclat de métal dans fibre optique Mes compatriotes ont arme patriotique Quelques likes, tu t'es senti bionique J'vais t'tirer d'ssus, arrête les antibiotiques Le A-R n'a que faire de l'acoustique Début de carrière dans l'arrière-boutique Siliconée, pas besoin de soutif J'les vois agoniser, pas besoin de sous-titres Neuf-millimétré car c'est préconisé Kunta Kinté, terrorisé Le rap français Calogeroïsé Biatch, on va t'Claudia Sampedroiser Seul, négro, j'vais te coloniser T'as zéro swag'zer on va te Olomider Première dose gratos, le bolosse est fidélisé Vatos Locos, un por todos, Athéna me suce à Mykonos Sur ma table, y a une pute qui danse debout, y a ma paire de cojones La prochaine fois que tu veux m'ver-soule, hassoul, envoie des voyous qui s'y connaissent Cherche pas les clés d'mon cur, j'ai que les clés d'la Lambo J'suis à Key Largo, niquer des mères c'est le scénario Pirates, pirates Niquer des mères c'est le scénario Pirates, pirates, pirates Niquer des mères c'est le scénario Y a mon ze-bla dans l'enquête, compte en banque aux Maldives Attila mon ancêtre, AK-47 fait toujours la diff' Y a mon ze-bla dans l'enquête, compte en banque aux Maldives Attila mon ancêtre, AK-47 fait toujours la diff' Attila mon ancêtre30</t>
+          <t>T'as j'veux dire ou t'as pas j'veux dire Morray ? Eh-eh Eh, eh Izi Izi Jamais invisible, même dans le Phantom dans le Phantom Autour d'chez toi les keufs mettent des bandes jaunes bandes jaunes Banlieue Ouest, grande zone Chaque phrase commence par wesh eh B2O, j'suis dans les grandes eaux Avant de tuer, j'commence par iéch' par iéch' La muerte leur va si bien Minimum cinq chiffres si j'viens Tous mes vux de malheurs, kiffe bien T'es l'stade du tier-quar, j'suis la Ligue 1 C'est la BO du Parrain, armes chimiques dans leurs grand-mères On va les ser-do au sarin Ton parfum c'est le sapin J'vois rouge comme le dessous d'ses escarpins Bienvenue chez 92i izi, réunion d'scar-la eh Un million par-ci izi, un million par là là Leurs carrières, leurs classiques, dans deux ans on en r'parl'ra J'vais tous les mettre au SMIC, wAllah, et on en restera là Tu veux du sale'zer, mets-toi là, oh Oh Came'zer me voilà Flow du Niger, de Douala J't'encule sur conseil de Yahia Tu veux du sale'zer, mets-toi là au Oh Calme'zer, me voilà Flow du Niger, de Douala J't'encule sur conseil de Yahia Izi, izi izi La muerte leur va si bien Minimum cinq chiffres si j'viens Tous mes vux de malheurs, kiffe bien T'es l'stade du tier-quar, j'suis la Ligue 1 C'est la BO du Parrain, armes chimiques dans leurs grand-mères On va les ser-do au sarin Ton parfum c'est le sapin J'vois rouge comme le dessous d'ses escarpins Izi, izi izi Berretta dans la bouche, tu vas me remettre Il n'y a que Brazza que je regrette que je regrette J'braque pas les schneck'zer, que les recettes que les recettes Si j'lui passe la bague au doigt, elle est refaite elle est refaite, izi Le rap français j'le baise en brochette Le son c'est haram, n'y mélange pas l'Islam et son prophète Nom-nom-nombreux tirs de roquettes Miami Vice, Kopp Jonhson, Sonny Crockett Yeah, lunettes noires izi, Chino Ünkut, paire de Cortez Négros armés comme au Tchad dans tout le cortège Comme dirait l'vieux, t'es plein de foutaises J'ai Dieu, double-uzi qui me protège Mon concert t'y étais, c'est le bordel Si la merde rajeunissait, t's'rais immortel La France, j'lui ai mise dans l'cavu, j'l'ai mise hors d'elle Quand j'dis qu'j'suis numéro uno, je suis formel125</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Oh bah oui</t>
+          <t>Pirates</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>J'me suis souvenu qu'les blessures du cur faisaient mal Et que les larmes avaient le goût de la mer La patience, une vertu, j'la garde pour mes gosses Ferme pas d'travers, on va te niquer ta mère J'connais des rappeurs, c'est comme des nymphs Pour une bite, ils iraient baisser leur robe Sale fils de pute, j'suis en connexion avec des hommes Susceptibles d'alimenter l'Europe Un gang de malades, de malades, de malades 3 heures du mat' dans l'cimetière, j'me balade J'me réveillais j'avais la vue sur le T2 Là j'me lève, j'ai la vue sur tout Paname On rase les clubs, ils rasent des teubs' Lacrim au placard, ne sait que faire des tubes Crois-moi sur parole, ce qui rend fou l'homme Ça n'est pas le doute mais c'est la certitude Jeune menotté, prisonnier sans diplôme J'me démerde, dès 16 ans j'roule dans un p'tit cône J'ai l'habitude des larmes, on communique par tél' satellite Pour cent kils, y'a pas d'émoticones La vie c'est dur mon frère, et l'argent c'est facile Y'a la coke pour m'acheter mes dix hectares sur la côte Zéro degré, j'fais chauffer ma piscine J'tape la pose, prends la tof', des condés sur mes côtes Force, force à tous ceux qui rêveraient d'me tuer Ah la rafale bug, miraculé, il suffit d'une erreur pour t'enculer Force, force, j'suis dans ma cité, j'fume un pilon Va niquer ta mère, on fait des millions Cent kilos d'beuh-er dans l'pavillon Pah, pah, pah ! Oh bah oui, si tu manges mon pain Qu'on en vienne aux mains, ça ne sert à rien Pah, pah ! Oh bah oui, même s'ils sont pleins C'est des être-humains et mes frères sont mille, hein J'enseigne le sale, pas les Beaux-Arts J'pèse comme un trafiquant mort, Kopp El Chapo Mendoza J'aurais tué pour poignées de dollars Audemars au poignet de Omar J'vendais d'la frappe, j'vendais pas de marrons Ils me demanderont c'qu'ils ont fait aux Noirs Dans un appart de mac Avenue Mac-Mahon Sur grand écran je leur ferai voir De nôtre côté, personne cédera Avant d'être D.U.C. j'fus bon galérien Porte tes couilles, personne t'aidera Grosses douilles tah les oufs pour couper les liens Sale fils de pute, t'es walou, t'es rien Comme Jamel Debbouze qui te serre dans ses bras J'suis pas dans ta sphère, fuck un Terrien On va t'niquer ta mère, tu l'sais très bien J'pénètre leur espace aérien oui Dès que j'suis sorti du placard J'crache sur la pelouse comme un Algérien Benzo L'herbe y sera plus verte bâtard J'suis dans l'tur-fu, j'suis raëlien Sortez les nains, y'a Patrice qui vient J'suis un Glock israélien dans la mano d'un Palestinien Force, force, à tous ceux qui rêveraient d'me tuer Ah la rafale bug, miraculé, il suffit d'une erreur pour t'enculer Force, force, j'suis dans ma cité, j'fume un pilon Va niquer ta mère, on fait des millions Cent kilos d'beuh-er dans l'pavillon Pah, pah, pah ! Oh bah oui, si tu manges mon pain Qu'on en vienne aux mains, ça ne sert à rien Pah, pah ! Oh bah oui, même s'ils sont pleins C'est des être-humains et mes frères sont mille, hein35</t>
+          <t>Brazza M Ozzo Double R Alpha Yankee 18 gamos, grosses villas, 92i sur l'corbillard Dans tous les trafics bizarres, j'connais mes classiques biatch Négro on vit large, B.A.K.E.L village Quand tu m'regardes, tu vois le best, numéro 7 sur l'visage Le rap français, j'arrête pas d'le ken Abusé, moi Steven Spielberg, toi Pat Le Guen En chien de chez chien, battu et sale dégaine J'suis à Bercy pendant que ta carrière se coupe les veines Toujours en guerre, affronte l'équipe, essuie de sales défaites Hamilton me tweete, tu mythonnes à la salle des fêtes Brrr Brrr! Hier t'es frais, demain ton swag dessèche Doggy style passe toujours crème même si t'es en hass des fesses La concurrence existe peu, crois pas qu'le DUC est lésé J'ai des rappeurs flingués à tuer, des putes à baiser .45 Auto, cagoule en cas de pépin Poto j'disparais dans la foule, comme un rat de Pékin Menotté au radiateur, je ne sais que nier Pirate n'a jamais mal au cur sur océan de billets J'n'ai qu'une vitesse, c'est la marche avant, enculé Une seule parole, une seule vie, 92izi immatriculé 23, Chicago Bulls, testo de taureau DerrickRose Grand-mère tatouée sur les pectoraux, bite d'cco-Ro Le rap français est une salope donc elle n'a pas de mari Juste un mac, B2O Kopp 92i Vitres noires, SLR, riche, noir et célèbre Gallardo, M3, M6, Séverine Ferrer J'm'élève comme roue arrière en CR, Diolas, Peuls et Sérères J'suis pété d'thunes, pas PTDR, sa mère Calibré comme un Hells Angel J'veux faire long feu comme Johnny Hallyday, rien qu'j'encaisse On parle peu, clic, blah, pas d'grands gestes Des numéros d'tass rien qu't'en ramasses, rien qu'j'en jette La concurrence existe peu, crois pas qu'le DUC est lésé J'ai des rappeurs flingués à tuer, des putes à baiser .45 Auto, cagoule en cas de pépin Poto j'disparais dans la foule, comme un rat de Pékin Menotté au radiateur, je ne sais que nier Pirate n'a jamais mal au cur sur océan de billets J'n'ai qu'une vitesse, c'est la marche avant, enculé Une seule parole, une seule vie, 92izi immatriculé Paire de deux, couilles sur la ble-ta All-in J'leur apprend l'français mes putes d'ici savent dire Oh oui Super star comme MC Solaar Caroline Kri-Krilin swag contre Vilain swag Shaolin Si t'as un problème, y'a pas de problème on règle ça Cabriolet sera ta boite crânienne, on aime ça Dix ans ferme plus remises de peine, 6 piges Ouest Side, Converse aux pieds, ensemble Dickies Bitches, vous n'passerez pas la nuit J'les baise sur siège éjectable, c'est ça la vie ! Combien ont voulu me dénoncer, m'arrêter dans ma lancée Car on sait qu'j'pèse comme fiancé de Beyoncé Izi, que des pirates ici Billaye, billaye Que des pirates dans le 9.2. Izi Izi12</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Futur</t>
+          <t>Salside</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Souvent été déçu, j'ai quelques blessures J'ai toujours été sûr d'avoir ces fils de putes à l'usure Monte dans la Delo', j'vais dans le futur On ne touche que le gros lot, négro c'est la coutume Traverse constellations, envoie MC's en congélation J'dois toujours revenir dur car ils n'retiennent jamais la leçon Dans le futur j'suis loin des murs, des murs de prison Contrôlé à coup sûr, arrestation, interpellation Fuck la justice française, baise procs et juges en brochettes Laisse-moi vendre mon crack, parle à mon fiac ou à ma chaussette B2OBA, 92i, Mauvais garçon Diplômé de la street, mention Bsahtek, Félicitations Retrouve mon nouveau clip en exclu sur Générations Citoyen du monde, j'aime toutes les couleurs, toutes les nations Et s'ils ne m'aiment pas, j'les baise de toutes les façons J'avance, je vends mes disques, mes sapes, au pire de l'écaille de poisson La chance, je n'y crois pas, je crois aux coups durs, avec mes khos, j'ai fait le plus dur Normal tu me vois pas, j'suis dans le futur Le futur, là où ces bâtards n'iront pas Dos au mur, j'leur prendrai même ce qu'ils n'ont pas Rage dans mes yeux depuis la poussette Fixés vers les cieux, préfère Phucket que l'Massachusetts Ricoche dans l'espace comme dans ton corps, la balle à ailettes Marche sans garde du corps, t'crois que c'est la fête, mais faut faire belek J'n'ai jamais su ce que j'allais devenir Aujourd'hui j'suis tellement loin, négro j'ai peur de n'jamais revenir Mais le kho n'est plus là donc peu importe si j'arrête de vivre On avance têtes baissées pour qu'il soit fier du 92i Mon échec sera ma fin, pour l'instant j'vole à Mach 1 Au dessus d'une foule de fils de putes, il ne peuvent rien, mon but est atteint Passeport, attaque comme lion, croque à la ge-gor J'tape fort comme quand les keufs frappent à la te-por Boobs le météore là d'où je viens, là où je survis J'ai fait le bien, le mal, je sais très bien que je n'ai qu'une vie Gravé dans les astres, son nom en rouge pavé de rubis Je n'oublierai jamais, grâce à eux, à lui, je sais qui je suis La chance, je n'y crois pas, je crois aux coups durs, avec mes khos, j'ai fait le plus dur Normal tu me vois pas, j'suis dans le futur Le futur, là où ces bâtards n'iront pas Dos au mur, j'leur prendrai même ce qu'ils n'ont pas13</t>
+          <t>Salside Welcome, welcome To the S.A.L, zer Ouloulou, ouloulou Même à travers fumée d'chicha, j'y vois net J'y vais pour Niafous, Beurettes, Antoinette Rendez-nous nos 200 filles, rendez-moi mon Ouloulou J'suis au téléphone sans fil'zer, au couvre souloulou Qui a niqué sa carrière bêtement en clashant ? Hassoul-ouloul, hassoul-ouloul, à vous d'juger Au QG je retire cagoul-ouloule Toute ta carrière elle est bidon Tu m'as vu à la télévision sur ma télévision Paie-moi tout en amont ou finis momie Toutankhamon Après le show les plus canons finissent dans le camion Mon super-héros c'Chaka Zulu, c'pas Belmondo Tu suces pour un Ouloulou, tu quittes le bando On t'a jamais vu, comme la go à Columbo Nique ta grand-mère d'côté d'ta mère avec la bite à Mutombo La bite'zer à Mutombo, Muto-Mutombo, ouloulou, ouloulou J'faisais d'l'oseille comme s'il en pleut Avant qu'mes anges ne naissent Si je vois la vie en bleu c'est comme un Crips d'Los Angeles Ouloulou, gros culs elles avaient, sales négros elles ameutèrent 13, bonheur ou malheur, kalashé sur La Canebière Étoile du Nord comme Alonzo, sur l'terter sans Ballon d'Or J'suis au Pérou, café noir, à l'écart d'tout Malongo Unis pour le sale, que faux négros se blessent Je parle fort pour pas qu'la France d'en haut se baisse Sur la vie d'mon jnoun, j'pars pas sans l'or au cou Tu vaux rien comme un selfie d'la chatte à Laure Manaudou Perdu dans un harem, méchante cuite, je tiens debout Cinq ma, cinq mathusalems de suite, ouloulou !16</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>La mort leur va si bien</t>
+          <t>Ridin’</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>T'as j'veux dire ou t'as pas j'veux dire Morray ? Eh-eh Eh, eh Izi Izi Jamais invisible, même dans le Phantom dans le Phantom Autour d'chez toi les keufs mettent des bandes jaunes bandes jaunes Banlieue Ouest, grande zone Chaque phrase commence par wesh eh B2O, j'suis dans les grandes eaux Avant de tuer, j'commence par iéch' par iéch' La muerte leur va si bien Minimum cinq chiffres si j'viens Tous mes vux de malheurs, kiffe bien T'es l'stade du tier-quar, j'suis la Ligue 1 C'est la BO du Parrain, armes chimiques dans leurs grand-mères On va les ser-do au sarin Ton parfum c'est le sapin J'vois rouge comme le dessous d'ses escarpins Bienvenue chez 92i izi, réunion d'scar-la eh Un million par-ci izi, un million par là là Leurs carrières, leurs classiques, dans deux ans on en r'parl'ra J'vais tous les mettre au SMIC, wAllah, et on en restera là Tu veux du sale'zer, mets-toi là, oh Oh Came'zer me voilà Flow du Niger, de Douala J't'encule sur conseil de Yahia Tu veux du sale'zer, mets-toi là au Oh Calme'zer, me voilà Flow du Niger, de Douala J't'encule sur conseil de Yahia Izi, izi izi La muerte leur va si bien Minimum cinq chiffres si j'viens Tous mes vux de malheurs, kiffe bien T'es l'stade du tier-quar, j'suis la Ligue 1 C'est la BO du Parrain, armes chimiques dans leurs grand-mères On va les ser-do au sarin Ton parfum c'est le sapin J'vois rouge comme le dessous d'ses escarpins Izi, izi izi Berretta dans la bouche, tu vas me remettre Il n'y a que Brazza que je regrette que je regrette J'braque pas les schneck'zer, que les recettes que les recettes Si j'lui passe la bague au doigt, elle est refaite elle est refaite, izi Le rap français j'le baise en brochette Le son c'est haram, n'y mélange pas l'Islam et son prophète Nom-nom-nombreux tirs de roquettes Miami Vice, Kopp Jonhson, Sonny Crockett Yeah, lunettes noires izi, Chino Ünkut, paire de Cortez Négros armés comme au Tchad dans tout le cortège Comme dirait l'vieux, t'es plein de foutaises J'ai Dieu, double-uzi qui me protège Mon concert t'y étais, c'est le bordel Si la merde rajeunissait, t's'rais immortel La France, j'lui ai mise dans l'cavu, j'l'ai mise hors d'elle Quand j'dis qu'j'suis numéro uno, je suis formel125</t>
+          <t>I'm ridin', ridin', ridin' Twinsmatic Pour elle j'prends la prochaine exit, grâce à elle je fuckin' existe Propre sur moi, poches pleines de khaliss, j'aime pas qu'ces putes me résistent Appelle-moi misogyne ou sexiste Tu feras pas la belle longtemps, tu lâches num' quand t'entends le V10 Ennemis assis sur l'obélisque, quand ça rer-ti, ils obéissent La piraterie n'est jamais finie, 9.2, Dakar, Paname, BX Jette nous dans la Seine, pour qu'on s'assainisse L'Huracán fuck ton CX, on fait le bien, que Dieu nous bénisse Mmmh J'me suis évadé J'ai creusé tunnel dans son cur, j'me suis évadé J'fais dans la perf' pas dans la longueur, vous le savez J'ai creusé tunnel dans son cur, j'me suis évadé Ridin', ridin' Wooh wooh wooh Ridin', ridin' Tu veux visiter Jamaica, t'as juste à goûter ma beuh Tu veux voir c'que c'est Africa, t'as juste à m'sucer la queue Elle veut le faire toute la nuit, la coquine a gobé un xeu Elle s'demande pourquoi elle a mal, en vrai elle s'en rappelle un peu Rail de CC sur ma euq-zer, j'suis MJ, 23, at the buzzer Hollywood money, Warner Brothers, j'pèse des millions motherfucker J'parle au monde pas à l'inspecteur, Harry, Hooker sont des tueurs Homard, lobster, heavy butter, Anelka quand j'parle à l'entraineur Izi J'me suis évadé J'ai creusé tunnel dans son cur, j'me suis évadé J'fais dans la perf' pas dans la longueur, vous le savez J'ai creusé tunnel dans son cur, j'me suis évadé Ridin', ridin' Wooh wooh wooh Ridin', ridin' J'ai fait des erreurs, dans la vie rien ne s'efface J'suis fait pour une seule femme, pour plusieurs pétasses J'assume mes crimes, mes péchés, transporte ma peine comme Jason Statham Quand j'prends la haine, j'blâme pas le sheitan Rien ne s'efface J'suis fait pour une seule femme, pour plusieurs pétasses J'assume mes crimes, mes péchés, transporte ma peine et l'poids des médailles Quand j'prends la haine, j'blâme pas le sheitan, non, non, non J'me suis évadé J'ai creusé tunnel dans son cur, j'me suis évadé J'fais dans la perf' pas dans la longueur, vous le savez J'ai creusé tunnel dans son cur, j'me suis évadé Ridin', ridin' Wooh wooh wooh Ridin', ridin' Ridin', ridin', ridin' Ridin', ridin', ridin' Ridin', ridin', ridin'5</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pirates</t>
+          <t>Paname</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Brazza M Ozzo Double R Alpha Yankee 18 gamos, grosses villas, 92i sur l'corbillard Dans tous les trafics bizarres, j'connais mes classiques biatch Négro on vit large, B.A.K.E.L village Quand tu m'regardes, tu vois le best, numéro 7 sur l'visage Le rap français, j'arrête pas d'le ken Abusé, moi Steven Spielberg, toi Pat Le Guen En chien de chez chien, battu et sale dégaine J'suis à Bercy pendant que ta carrière se coupe les veines Toujours en guerre, affronte l'équipe, essuie de sales défaites Hamilton me tweete, tu mythonnes à la salle des fêtes Brrr Brrr! Hier t'es frais, demain ton swag dessèche Doggy style passe toujours crème même si t'es en hass des fesses La concurrence existe peu, crois pas qu'le DUC est lésé J'ai des rappeurs flingués à tuer, des putes à baiser .45 Auto, cagoule en cas de pépin Poto j'disparais dans la foule, comme un rat de Pékin Menotté au radiateur, je ne sais que nier Pirate n'a jamais mal au cur sur océan de billets J'n'ai qu'une vitesse, c'est la marche avant, enculé Une seule parole, une seule vie, 92izi immatriculé 23, Chicago Bulls, testo de taureau DerrickRose Grand-mère tatouée sur les pectoraux, bite d'cco-Ro Le rap français est une salope donc elle n'a pas de mari Juste un mac, B2O Kopp 92i Vitres noires, SLR, riche, noir et célèbre Gallardo, M3, M6, Séverine Ferrer J'm'élève comme roue arrière en CR, Diolas, Peuls et Sérères J'suis pété d'thunes, pas PTDR, sa mère Calibré comme un Hells Angel J'veux faire long feu comme Johnny Hallyday, rien qu'j'encaisse On parle peu, clic, blah, pas d'grands gestes Des numéros d'tass rien qu't'en ramasses, rien qu'j'en jette La concurrence existe peu, crois pas qu'le DUC est lésé J'ai des rappeurs flingués à tuer, des putes à baiser .45 Auto, cagoule en cas de pépin Poto j'disparais dans la foule, comme un rat de Pékin Menotté au radiateur, je ne sais que nier Pirate n'a jamais mal au cur sur océan de billets J'n'ai qu'une vitesse, c'est la marche avant, enculé Une seule parole, une seule vie, 92izi immatriculé Paire de deux, couilles sur la ble-ta All-in J'leur apprend l'français mes putes d'ici savent dire Oh oui Super star comme MC Solaar Caroline Kri-Krilin swag contre Vilain swag Shaolin Si t'as un problème, y'a pas de problème on règle ça Cabriolet sera ta boite crânienne, on aime ça Dix ans ferme plus remises de peine, 6 piges Ouest Side, Converse aux pieds, ensemble Dickies Bitches, vous n'passerez pas la nuit J'les baise sur siège éjectable, c'est ça la vie ! Combien ont voulu me dénoncer, m'arrêter dans ma lancée Car on sait qu'j'pèse comme fiancé de Beyoncé Izi, que des pirates ici Billaye, billaye Que des pirates dans le 9.2. Izi Izi12</t>
+          <t>Therapizi, 92izi Ici c'est Paris 100 moins ocho dans le building PSG Parc des Princes Boulbi Porte de Clicli Tu vois c'que j'veux dire ou pas? Jécoute la dio-ra ils jouent banane sur banane Jme fait per-pom le dard je suis en Panamera sur Paname Quand j'suis en prison c'est le seul moment où je n'ai pas d'armes Je vais crever comme un chien jmonte pas au ciel car je nai pas dâme A jamais sur le bitume, j'prends thunes sur le macadam J'arrête les carrières à mon actif j'ai deux trois cadavres Nombreux sur ma liste Rappeurs, producteurs et quelques journalistes Jsuis là pour le khalis demande à Kaaris Rien négale notre charisme négro ici cest Paris à risque Cest la guerre chez nous cest pas Peace, Bagdad cest la isme Le rap français ma target practice 92 tout est vrai, rien nest factice Plusieurs balles pour faux négro car il en cache dix Jaurais voulu être un artiste modifier le synopsis Mais tout est tracé comme le parcours d'un kilo de shit Paname Paname Les criminels te passent le salam Moi cest Saddam Saddam Marine Le Pen cest toi la racaille Moi je fais le halla halla Pure comme la blanche du Guatemala Mon pays va mal va mal Compte pas sur nous pour tirer lalarme 92 Empire négro impérialiste Si j'étais une feumeu je serais une salope matérialiste Jmarrête au feu rouge, MC ne me fais pas la vitre Mon âme est morte cest pas dans les gros titres jai le regard vitreux Ma puissance de feu, nombreux sont ceux qui la fuient Si t'arrives Yahia me demande wesh Morray cest qui là-uic' Drive-by dans ta grand-mère lendemain je m'en rappelle plus T'es die enfin devenu, Jedi je ne m'arrête plus Vos projets ne m'intéressent pas je n'y vois pas de billets verts Mon crochet vient de l'espace je t'attends de pied ferme Loin du shtar jy pense en faisant du ski-nautique Jte prends matin midi et soir biatch comme un antibiotique, MO Click Le crime est banal, le gen-ar pas très halal On bougera plus même tappelles lONU, Kofi Annan On rap de ouf, tu rappes pas mal, Gamos chargé de foufs Pèse comme gros dealer de chnouf, j'monte sur Paname Paname Paname Les criminels te passent le salam Moi cest Saddam Saddam Marine Le Pen cest toi la racaille Moi je fais le halla halla Pure comme la blanche du Guatemala Mon pays va mal va mal Compte pas sur nous pour tirer lalarme J'rappe depuis les étoiles constellation du grizzly Distribue galette de 0.9 comme des frisbee Tête dans les nuages, bite sur les épaules 2-3 connasses un joint de culasse et je sé-po Jrappe so easily, Hauts-de-Seine aux Yvelines Je me glisse dans chienne à cheveux lisses Parle mal et rafales de balles t'ensevelissent Medhi lance le mix dans les yeux de mes frères danse le vice On boit l'eau du bled dans verres de cristal Rappelle-toi 88.2 Time Bomb killer freestyle Temps de guerre bombarde aéroport mitraille hôpital J'pars avant tout le monde j'bats des records j'suis grave official Aujourdhui voudraient tous nous avoir Armé jusquau cou jai grave du savoir Trouve-moi au tier-quar ou à Pointe-Noire, au Buddha Bar Avec Ibou Amar, jencule le peuple comme Mouammar, Izi Money Paname Paname Les criminels te passent le salam Moi cest Saddam Saddam Marine Le Pen cest toi la racaille Moi je fais le halla halla Pure comme la blanche du Guatemala Mon pays va mal va mal Compte pas sur nous pour tirer lalarme Paname Paname Moi cest Saddam Saddam Moi je fais le halla halla Mon pays va mal va mal10</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Salside</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Salside Welcome, welcome To the S.A.L, zer Ouloulou, ouloulou Même à travers fumée d'chicha, j'y vois net J'y vais pour Niafous, Beurettes, Antoinette Rendez-nous nos 200 filles, rendez-moi mon Ouloulou J'suis au téléphone sans fil'zer, au couvre souloulou Qui a niqué sa carrière bêtement en clashant ? Hassoul-ouloul, hassoul-ouloul, à vous d'juger Au QG je retire cagoul-ouloule Toute ta carrière elle est bidon Tu m'as vu à la télévision sur ma télévision Paie-moi tout en amont ou finis momie Toutankhamon Après le show les plus canons finissent dans le camion Mon super-héros c'Chaka Zulu, c'pas Belmondo Tu suces pour un Ouloulou, tu quittes le bando On t'a jamais vu, comme la go à Columbo Nique ta grand-mère d'côté d'ta mère avec la bite à Mutombo La bite'zer à Mutombo, Muto-Mutombo, ouloulou, ouloulou J'faisais d'l'oseille comme s'il en pleut Avant qu'mes anges ne naissent Si je vois la vie en bleu c'est comme un Crips d'Los Angeles Ouloulou, gros culs elles avaient, sales négros elles ameutèrent 13, bonheur ou malheur, kalashé sur La Canebière Étoile du Nord comme Alonzo, sur l'terter sans Ballon d'Or J'suis au Pérou, café noir, à l'écart d'tout Malongo Unis pour le sale, que faux négros se blessent Je parle fort pour pas qu'la France d'en haut se baisse Sur la vie d'mon jnoun, j'pars pas sans l'or au cou Tu vaux rien comme un selfie d'la chatte à Laure Manaudou Perdu dans un harem, méchante cuite, je tiens debout Cinq ma, cinq mathusalems de suite, ouloulou !16</t>
+          <t>Hé Pétasse à ma droite, j'monte sur Paris T'as j'veux dire ou c'est comment ? The Punisher! Yeah Le prix de la cargaison varie, les Louboutin match la Ferrari J'suis pas ton reuf, y'a pas d'akhi Pour la guerre j'suis Russkov, pour l'shopping j'suis Qatari J'veux le flow de ta chatte, j'veux les fonds d'Jacques Attali J'lui ai dit j'veux t'la mettre, elle m'a dit j'veux mettre du Cavalli Grise est la matière, noire est la manie Me sucera-t-elle pour du Armani ? Ces négros sont huit mais ces négros sont weak Moi et la gloire meilleurs amis Tout est permis dans ma fédération Les déflagrations sont des célébrations J'ai bien r'tenu la leçon, ségrégation cour de récréation J'vais t'niquer ta mère, ils vont repasser l'action M-A-D-M-A-X génération J'suis un selfie, t'es l'photomaton J'ai des amis flics et des potos matons Non pas par gentillesse, pour faire rentrer des iPhone 6S Non pas par gentillesse, pour faire rentrer des iPhone 6S Dans l'tur-fu j'dois appeler Houston en cas d'problème Le 11.43 mieux qu'la lutte grecquo-romaine J'ai des trois W j'possède plusieurs noms d'domaines J'ai des McLaren, fuck une BMW Qui es-tu fils de pute ? C'est la question que je pose La simplicité, c'est de tuer qui s'oppose Les clients ont eu leur dose Mes diamants sont dans l'or rose J'défends l'terrain comme Emerson J'ai l'million d'Benjamin, t'as des liasses de Jefferson Ils appellent ça l'horreur T'as plus d'follower, t'es plus personne Street comme OG Maco J'préfère jouer à la Play qu'en D2 à Sochaux J'ai envie d'poster ma queue, sodomiser tous les réseaux sociaux Sombre rate-pi jusqu'à Alger, qui va m'arrêter ? Pas la 4G Négro tu veux pas perdre faut pas jouer Si j'pars, tu pars aussi, ah bah ouais Le rap français bat d'l'aile, j'ai changé le pot J'étais dans l'cul d'ta hlel just a week ago J'effrite le H, j'fais des passes déc' Ces fils de lâche sont en basse déf' Six dans le barillet, j'vais bien finir par y arriver Mental Léonidas, niquer des grands-mères y a qu'ça qui marche Vaffanculo de toute l'Italie J'vais t'sortir du game comme un Coulibaly Demande à des loups d'faire preuve d'humanisme J'suis prêt à jurer qu'j'ai connu Manny Z'ont été conçus par le fion On a pris l'dessus par le fond Touche ta SACEM, y a pas 30 balles Personne te r'garde comme le handball J'te traite comme négro dans plantation 400 ans d'fouet, t'as pas retenu la leçon ? Ferme ta gueule et prends tes ronds J'dépense encore d'l'argent de Panthéon Étiquette blanche sur gros orteil T'auras jamais la carte vermeille Numéro un je suis formel Monts et merveilles se trouvent loin de Montfermeil Dans l'tur-fu j'dois appeler Houston en cas d'problème Le 11.43 mieux qu'la lutte grecquo-romaine J'ai des trois W j'possède plusieurs noms d'domaines J'ai des McLaren, fuck une BMW Turfu !13</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ridin’</t>
+          <t>Maître Yoda</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>I'm ridin', ridin', ridin' Twinsmatic Pour elle j'prends la prochaine exit, grâce à elle je fuckin' existe Propre sur moi, poches pleines de khaliss, j'aime pas qu'ces putes me résistent Appelle-moi misogyne ou sexiste Tu feras pas la belle longtemps, tu lâches num' quand t'entends le V10 Ennemis assis sur l'obélisque, quand ça rer-ti, ils obéissent La piraterie n'est jamais finie, 9.2, Dakar, Paname, BX Jette nous dans la Seine, pour qu'on s'assainisse L'Huracán fuck ton CX, on fait le bien, que Dieu nous bénisse Mmmh J'me suis évadé J'ai creusé tunnel dans son cur, j'me suis évadé J'fais dans la perf' pas dans la longueur, vous le savez J'ai creusé tunnel dans son cur, j'me suis évadé Ridin', ridin' Wooh wooh wooh Ridin', ridin' Tu veux visiter Jamaica, t'as juste à goûter ma beuh Tu veux voir c'que c'est Africa, t'as juste à m'sucer la queue Elle veut le faire toute la nuit, la coquine a gobé un xeu Elle s'demande pourquoi elle a mal, en vrai elle s'en rappelle un peu Rail de CC sur ma euq-zer, j'suis MJ, 23, at the buzzer Hollywood money, Warner Brothers, j'pèse des millions motherfucker J'parle au monde pas à l'inspecteur, Harry, Hooker sont des tueurs Homard, lobster, heavy butter, Anelka quand j'parle à l'entraineur Izi J'me suis évadé J'ai creusé tunnel dans son cur, j'me suis évadé J'fais dans la perf' pas dans la longueur, vous le savez J'ai creusé tunnel dans son cur, j'me suis évadé Ridin', ridin' Wooh wooh wooh Ridin', ridin' J'ai fait des erreurs, dans la vie rien ne s'efface J'suis fait pour une seule femme, pour plusieurs pétasses J'assume mes crimes, mes péchés, transporte ma peine comme Jason Statham Quand j'prends la haine, j'blâme pas le sheitan Rien ne s'efface J'suis fait pour une seule femme, pour plusieurs pétasses J'assume mes crimes, mes péchés, transporte ma peine et l'poids des médailles Quand j'prends la haine, j'blâme pas le sheitan, non, non, non J'me suis évadé J'ai creusé tunnel dans son cur, j'me suis évadé J'fais dans la perf' pas dans la longueur, vous le savez J'ai creusé tunnel dans son cur, j'me suis évadé Ridin', ridin' Wooh wooh wooh Ridin', ridin' Ridin', ridin', ridin' Ridin', ridin', ridin' Ridin', ridin', ridin'5</t>
+          <t>Donne la force aux chiens de la casse MaîtreYoda Numéro sse-di, j'mouille le illot-ma Si j'dois sauver la ronne-da, j'suis Maître Yoda Plutôt quer-bra que de rouler en Honda Dou-double Poney swag, suce mon anaconda J'rejoins le 9-2i, au four en ï-Tha Viens pécho chez ous-n, sinon t'auras de la ille-ca La morale nique sa mère, direct on vend de la me-ca Toujours une liasse à gauche pour khalass l'avocat J'ai peur de Dieu, j'ai peur du ble-dia Pas peur des hommes, j'écris à la ille-pa sur feuille de coca La dalle à Tony Montana, callate la boca! On s'vengera comme victime de l'esclavage et de la Shoah Il y a rien de Fonky ici, pas de Don Choa Mon vécu prend le dessus, en vrai c'est que du pe-ra Respecte les femmes, même celles qu'on dévierge dans la ve-ca J'remonte avec une che-ta, près de ma liasse de sh-ca All In, Carré d'As Pirates armés dans bolide, marée basse Maître Yoda, Maître Yoda Donne la force aux chiens de la casse MaîtreYoda On sort de maison d'arrêt, taureau sur le carénage Eux, ils viennent du Marais, nous, des marécages Maître Yoda, Maître Yoda Pur comme celle de Caracas Mes meilleurs années quand j'trainais avec Bram's et Mala sur l'allée Ces jours sont loin, allez on remballe, timal an nou alé Si ça n'parle pas d'oseille, ne viens pas nous parler Deux personnes me sourient toujours mon banquier, mon joaillier Un seul Kopp dans l'poulailler Quand t'as notre côte, sors toujours enfouraillé Même dans la merde jamais découragé Ribéry m'envoie Zahia pour m'soulager Hé ! B2O Bomayé Putes de l'espace, gamos de fou à lier Souhaite-moi longue vie, me souhaite pas bonne année J'ai parloir avec une blonde, j'fais 200 pompes quand faut y aller Ces rappeurs mentent, ce n'est pas c'que vous croyez C'est la fin des alokos, kho j'vais tous les foudroyer Supplément merguez, j'me suis embourgeoisé Comme la chatte à ma go, négro j'vais tout raser All In, Carré d'As Pirates armés dans bolide, marée basse Maître Yoda, Maître Yoda Donne la force aux chiens de la casse MaîtreYoda On sort de maison d'arrêt, taureau sur le carénage Eux, ils viennent du Marais, nous, des marécages Maître Yoda, Maître Yoda Pur comme celle de Caracas MaîtreYoda5</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Paname</t>
+          <t>JAUNÉ</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Therapizi, 92izi Ici c'est Paris 100 moins ocho dans le building PSG Parc des Princes Boulbi Porte de Clicli Tu vois c'que j'veux dire ou pas? Jécoute la dio-ra ils jouent banane sur banane Jme fait per-pom le dard je suis en Panamera sur Paname Quand j'suis en prison c'est le seul moment où je n'ai pas d'armes Je vais crever comme un chien jmonte pas au ciel car je nai pas dâme A jamais sur le bitume, j'prends thunes sur le macadam J'arrête les carrières à mon actif j'ai deux trois cadavres Nombreux sur ma liste Rappeurs, producteurs et quelques journalistes Jsuis là pour le khalis demande à Kaaris Rien négale notre charisme négro ici cest Paris à risque Cest la guerre chez nous cest pas Peace, Bagdad cest la isme Le rap français ma target practice 92 tout est vrai, rien nest factice Plusieurs balles pour faux négro car il en cache dix Jaurais voulu être un artiste modifier le synopsis Mais tout est tracé comme le parcours d'un kilo de shit Paname Paname Les criminels te passent le salam Moi cest Saddam Saddam Marine Le Pen cest toi la racaille Moi je fais le halla halla Pure comme la blanche du Guatemala Mon pays va mal va mal Compte pas sur nous pour tirer lalarme 92 Empire négro impérialiste Si j'étais une feumeu je serais une salope matérialiste Jmarrête au feu rouge, MC ne me fais pas la vitre Mon âme est morte cest pas dans les gros titres jai le regard vitreux Ma puissance de feu, nombreux sont ceux qui la fuient Si t'arrives Yahia me demande wesh Morray cest qui là-uic' Drive-by dans ta grand-mère lendemain je m'en rappelle plus T'es die enfin devenu, Jedi je ne m'arrête plus Vos projets ne m'intéressent pas je n'y vois pas de billets verts Mon crochet vient de l'espace je t'attends de pied ferme Loin du shtar jy pense en faisant du ski-nautique Jte prends matin midi et soir biatch comme un antibiotique, MO Click Le crime est banal, le gen-ar pas très halal On bougera plus même tappelles lONU, Kofi Annan On rap de ouf, tu rappes pas mal, Gamos chargé de foufs Pèse comme gros dealer de chnouf, j'monte sur Paname Paname Paname Les criminels te passent le salam Moi cest Saddam Saddam Marine Le Pen cest toi la racaille Moi je fais le halla halla Pure comme la blanche du Guatemala Mon pays va mal va mal Compte pas sur nous pour tirer lalarme J'rappe depuis les étoiles constellation du grizzly Distribue galette de 0.9 comme des frisbee Tête dans les nuages, bite sur les épaules 2-3 connasses un joint de culasse et je sé-po Jrappe so easily, Hauts-de-Seine aux Yvelines Je me glisse dans chienne à cheveux lisses Parle mal et rafales de balles t'ensevelissent Medhi lance le mix dans les yeux de mes frères danse le vice On boit l'eau du bled dans verres de cristal Rappelle-toi 88.2 Time Bomb killer freestyle Temps de guerre bombarde aéroport mitraille hôpital J'pars avant tout le monde j'bats des records j'suis grave official Aujourdhui voudraient tous nous avoir Armé jusquau cou jai grave du savoir Trouve-moi au tier-quar ou à Pointe-Noire, au Buddha Bar Avec Ibou Amar, jencule le peuple comme Mouammar, Izi Money Paname Paname Les criminels te passent le salam Moi cest Saddam Saddam Marine Le Pen cest toi la racaille Moi je fais le halla halla Pure comme la blanche du Guatemala Mon pays va mal va mal Compte pas sur nous pour tirer lalarme Paname Paname Moi cest Saddam Saddam Moi je fais le halla halla Mon pays va mal va mal10</t>
+          <t>Ouais, ouais, ouais, ouais Ouais Gros joint d'ne-jau dans la suite, l'alarme s'est déclenchée Mon salut jamais dans la fuite, avant d'm'éteindre, faut m'débrancher J'aime le parfum qu'elle met tout l'temps, j'aime bien son déhanché J'vais créer une appli' pour la niquer, j'vais l'auto-financer Gros joint d'ne-jau dans la suite, l'alarme s'est déclenchée Mon salut jamais dans la fuite, avant d'm'éteindre, faut m'débrancher J'aime le parfum qu'elle met tout l'temps, j'aime bien son déhanché J'vais créer une appli' pour la niquer, j'vais l'auto-financer Je vais arrêter de jaqueter soixante, un, deux, trois, partez Y a des poucaves dans l'appart', on va devoir les attacher, les tarter hey Les mecs du PU sont de sortie hey, fallait pas nous laisser sortir Ça sent la H et la beuh, ça vient du S et du E, bâtiment 4 et le 2 Ah, balaise, le négro est balaise, la me-ar est balaise, le chargeur est balaise Le renoi est mauvais, le rebeu est mauvais, la bagarre en challenge La bonbonne est dée-blin, le gérant est dé-blin, le produit n'est pas lég' Juste un faux pas et j'te fais l'théorème de Thalès brr, j'te fais la marque sur le visage bang Les mecs d'la cité n'oublient pas nan, la vie de Boyka, de Zidane On va t'auto-financer mais jamais t'fiancer, moi, sans bâton dans les roues, j'n'arrive plus à avancer Gros joint d'ne-jau dans la suite, l'alarme s'est déclenchée Mon salut jamais dans la fuite, avant d'm'éteindre, faut m'débrancher J'aime le parfum qu'elle met tout l'temps, j'aime bien son déhanché J'vais créer une appli' pour la niquer, j'vais l'auto-financer Gros joint d'ne-jau dans la suite, l'alarme s'est déclenchée Mon salut jamais dans la fuite, avant d'm'éteindre, faut m'débrancher J'aime le parfum qu'elle met tout l'temps, j'aime bien son déhanché J'vais créer une appli' pour la niquer, j'vais l'auto-financer J'aime le parfum qu'elle met tout l'temps donc j'lui mets ça mais j'l'embrasse pas Si tu fais trop d'boucan brr, ra-ta-ta, on n'en parle pas Elle a un doigt dans l'cul, le film a à peine commencé Ici, tout est vrai, ma gueule, c'est juste un peu romancé J'suis confiné comme à Nanterre, comme à ry-Fleu, comme un tit-pe Ils m'ont sauté mon IG, zebi, y a l'oiseau bleu J'avais cinq millions d'followers, c'était ma vie d'avant Toi, t'es célibataire, j'suis single de diamant J'fais des p'tits pas, j'fais des p'tits pas, petit à p'tit, j'investis Mon avocat porte la kippa, deux heures d'garde à v' et je signe C'que tu n'dis pas, ne m'le dis pas, t'as cru qu'j'étais imbécile Tu parles sur moi dès qu'je ti-par, gros, j'vais t'mettre des penaltys Tout l'monde sait que le chemin est long sait que le chemin est long Tranquille, vu que le bras, il est long tranquille vu que le bras, il est long Tout l'monde sait que le DJ est bon hey, sale Parle pas chinois comme Kim Jong-un Kim Jong, Kim Jong, Kim Jong-un, binks Gros joint d'ne-jau dans la suite, l'alarme s'est déclenchée Mon salut jamais dans la fuite, avant d'm'éteindre, faut m'débrancher J'aime le parfum qu'elle met tout l'temps, j'aime bien son déhanché J'vais créer une appli' pour la niquer, j'vais l'auto-financer Gros joint d'ne-jau dans la suite, l'alarme s'est déclenchée Mon salut jamais dans la fuite, avant d'm'éteindre, faut m'débrancher J'aime le parfum qu'elle met tout l'temps, j'aime bien son déhanché J'vais créer une appli' pour la niquer, j'vais l'auto-financer L'alarme s'est déclenchée Avant d'm'éteindre, faut m'débrancher J'aime le parfum qu'elle met tout l'temps Oh, oh7</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>Drapeau noir</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Hé Pétasse à ma droite, j'monte sur Paris T'as j'veux dire ou c'est comment ? The Punisher! Yeah Le prix de la cargaison varie, les Louboutin match la Ferrari J'suis pas ton reuf, y'a pas d'akhi Pour la guerre j'suis Russkov, pour l'shopping j'suis Qatari J'veux le flow de ta chatte, j'veux les fonds d'Jacques Attali J'lui ai dit j'veux t'la mettre, elle m'a dit j'veux mettre du Cavalli Grise est la matière, noire est la manie Me sucera-t-elle pour du Armani ? Ces négros sont huit mais ces négros sont weak Moi et la gloire meilleurs amis Tout est permis dans ma fédération Les déflagrations sont des célébrations J'ai bien r'tenu la leçon, ségrégation cour de récréation J'vais t'niquer ta mère, ils vont repasser l'action M-A-D-M-A-X génération J'suis un selfie, t'es l'photomaton J'ai des amis flics et des potos matons Non pas par gentillesse, pour faire rentrer des iPhone 6S Non pas par gentillesse, pour faire rentrer des iPhone 6S Dans l'tur-fu j'dois appeler Houston en cas d'problème Le 11.43 mieux qu'la lutte grecquo-romaine J'ai des trois W j'possède plusieurs noms d'domaines J'ai des McLaren, fuck une BMW Qui es-tu fils de pute ? C'est la question que je pose La simplicité, c'est de tuer qui s'oppose Les clients ont eu leur dose Mes diamants sont dans l'or rose J'défends l'terrain comme Emerson J'ai l'million d'Benjamin, t'as des liasses de Jefferson Ils appellent ça l'horreur T'as plus d'follower, t'es plus personne Street comme OG Maco J'préfère jouer à la Play qu'en D2 à Sochaux J'ai envie d'poster ma queue, sodomiser tous les réseaux sociaux Sombre rate-pi jusqu'à Alger, qui va m'arrêter ? Pas la 4G Négro tu veux pas perdre faut pas jouer Si j'pars, tu pars aussi, ah bah ouais Le rap français bat d'l'aile, j'ai changé le pot J'étais dans l'cul d'ta hlel just a week ago J'effrite le H, j'fais des passes déc' Ces fils de lâche sont en basse déf' Six dans le barillet, j'vais bien finir par y arriver Mental Léonidas, niquer des grands-mères y a qu'ça qui marche Vaffanculo de toute l'Italie J'vais t'sortir du game comme un Coulibaly Demande à des loups d'faire preuve d'humanisme J'suis prêt à jurer qu'j'ai connu Manny Z'ont été conçus par le fion On a pris l'dessus par le fond Touche ta SACEM, y a pas 30 balles Personne te r'garde comme le handball J'te traite comme négro dans plantation 400 ans d'fouet, t'as pas retenu la leçon ? Ferme ta gueule et prends tes ronds J'dépense encore d'l'argent de Panthéon Étiquette blanche sur gros orteil T'auras jamais la carte vermeille Numéro un je suis formel Monts et merveilles se trouvent loin de Montfermeil Dans l'tur-fu j'dois appeler Houston en cas d'problème Le 11.43 mieux qu'la lutte grecquo-romaine J'ai des trois W j'possède plusieurs noms d'domaines J'ai des McLaren, fuck une BMW Turfu !13</t>
+          <t>Twinsmatic J'fais un peu peur à la voisine J'ai du calcaire dans la poitrine Y'a tes empreintes sur la vitrine Montré du doigt par la victime Un noir pendu dans ma rétine Du sang d'esclave sur ma tétine La baraka vient de Pikine Y'a du cool-al dans ta cyprine La sauce tomate vient de Sicile On va voir qui est l'imbécile MC viens me livrer ma pizza J'suis au Plazza comme un kingpin Deux cent mille euros en liquide Mamacita dans la cuisine Sombre bédouin cherche bédouine Tu t'fais baiser, c'est un win-win J'suis le Mayer Metro Goldwyn Y a que Bobby qui m'embobine J'suis un macaque selon Darwin J'ai une grosse bite selon Marine Génération Ovomaltine T'es qu'un haineux, j'suis aux Maldives J'suis dans l'histoire comme un jésuite Je ne parle pas à un V8 Jusqu'ici tout va bien, plus rien n'm'étonne J'ai pas l'parcours d'Brandon, le biff de Denzel Washington Si j'tue un fils de pute, y a pas mort d'homme Le drapeau est noir car l'blanc est pour ceux qui abandonnent D'abord, nique ta mère, c'est Dieu qui donne Mafia n'oublie pas mais j'te pardonne Que je sois foudroyé si je mythonne Le drapeau est noir car l'blanc est pour ceux qui abandonnent J'lui ai attaché les mains, c'est ses fesses qui applaudissent T'es un teur-poin c'est pas moi qui l'dit, c'est la police D.U.C., pas de l'eau, ne tombe pas dans l'alcoolisme Izi, quand un shrab est chelou, j'ai un shrabbisme Ça fait boum bang chez les voisins L'arme d'Ukraine n'est pas loin Depuis Wu-Tang, j'suis le parrain Je suis Bruce Wayne, t'es le pingouin J'vais tout baiser, je n'ai qu'une vie J'ai une bonne fée, c'est ma p'tite fille J'vise des carrières, tireur d'élite Sombre pirate s'identifie J'ai avocat israélite oui J'suis dans l'tur-fu, je vais très vite J'étais au D4, là sur C8 Tu bouffes des chattes, je bouffe des huîtres J'traverse Little Havana État d'ivresse, marijuana J'suis allé à un showcase à l'Iguana J'ai des ratpis jusqu'à Douala J'ai des grosses gammes sur le parking Y a des grosses dames dans ta piscine AMG pour le babouin G.L.O.C.K. dans le Balmain G.L.O.C.K. dans le Balmain Oh yeah, oh yeah, izi Jusqu'ici tout va bien, plus rien n'm'étonne J'ai pas l'parcours d'Brandon, le biff de Denzel Washington Si j'tue un fils de pute, y a pas mort d'homme Le drapeau est noir car l'blanc est pour ceux qui abandonnent D'abord, nique ta mère, c'est Dieu qui donne Mafia n'oublie pas mais j'te pardonne Que je sois foudroyé si je mythonne Le drapeau est noir car l'blanc est pour ceux qui abandonnent7</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Maître Yoda</t>
+          <t>Comme une étoile</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Donne la force aux chiens de la casse MaîtreYoda Numéro sse-di, j'mouille le illot-ma Si j'dois sauver la ronne-da, j'suis Maître Yoda Plutôt quer-bra que de rouler en Honda Dou-double Poney swag, suce mon anaconda J'rejoins le 9-2i, au four en ï-Tha Viens pécho chez ous-n, sinon t'auras de la ille-ca La morale nique sa mère, direct on vend de la me-ca Toujours une liasse à gauche pour khalass l'avocat J'ai peur de Dieu, j'ai peur du ble-dia Pas peur des hommes, j'écris à la ille-pa sur feuille de coca La dalle à Tony Montana, callate la boca! On s'vengera comme victime de l'esclavage et de la Shoah Il y a rien de Fonky ici, pas de Don Choa Mon vécu prend le dessus, en vrai c'est que du pe-ra Respecte les femmes, même celles qu'on dévierge dans la ve-ca J'remonte avec une che-ta, près de ma liasse de sh-ca All In, Carré d'As Pirates armés dans bolide, marée basse Maître Yoda, Maître Yoda Donne la force aux chiens de la casse MaîtreYoda On sort de maison d'arrêt, taureau sur le carénage Eux, ils viennent du Marais, nous, des marécages Maître Yoda, Maître Yoda Pur comme celle de Caracas Mes meilleurs années quand j'trainais avec Bram's et Mala sur l'allée Ces jours sont loin, allez on remballe, timal an nou alé Si ça n'parle pas d'oseille, ne viens pas nous parler Deux personnes me sourient toujours mon banquier, mon joaillier Un seul Kopp dans l'poulailler Quand t'as notre côte, sors toujours enfouraillé Même dans la merde jamais découragé Ribéry m'envoie Zahia pour m'soulager Hé ! B2O Bomayé Putes de l'espace, gamos de fou à lier Souhaite-moi longue vie, me souhaite pas bonne année J'ai parloir avec une blonde, j'fais 200 pompes quand faut y aller Ces rappeurs mentent, ce n'est pas c'que vous croyez C'est la fin des alokos, kho j'vais tous les foudroyer Supplément merguez, j'me suis embourgeoisé Comme la chatte à ma go, négro j'vais tout raser All In, Carré d'As Pirates armés dans bolide, marée basse Maître Yoda, Maître Yoda Donne la force aux chiens de la casse MaîtreYoda On sort de maison d'arrêt, taureau sur le carénage Eux, ils viennent du Marais, nous, des marécages Maître Yoda, Maître Yoda Pur comme celle de Caracas MaîtreYoda5</t>
+          <t>Je veux juste briller comme une étoile Jai toujours dû, su me débrouiller, la vie nest quune escale Et si je dois plier, cest sous limpact des balles Mais tu ne mentendras pas crier car jai un gilet pare-balles Enculé, je serai rapatrié, enterré au Sénégal Enfin je pourrai trouver le calme, je serai seul comme une étoile Comme une étoile jai disparu depuis longtemps Mais tu me vois toujours briller, toujours scintiller Jai pris les petits sentiers, quitté le chantier Hauts-de-Seine, obscène, Africain comme un Antillais Libéré de mes entraves, me venger comme un droit Jai couru comme un esclave pour marcher comme un roi Malheureusement, je nai pas su marcher très droit Jai gardé mon automatique et mes amis près de moi Tu trouves que la Terre est belle ? Elle est plus belle, vue de là-haut Un nègre est un bon nègre quand il est dead sur le carreau Jéclaire cellule, scie les barreaux Sur ces notes de piano, regrette lépoque du Rat Luciano Aigle royal, dernier voyage Fais péter le son dans la gov, rends-moi hommage Jai tout ce que je mérite, trouve pas ça dommage Ni putes, ni soumises vont se réjouir ces sales conasses Banlieusard dans le sang, peu importe ce que Sarko fasse 92 sur le sarcophage Et le piano mendort, Terminator est mon mentor Récupérer mon or, jen rêve encore Je veux juste briller comme une étoile Jai toujours dû, su me débrouiller, la vie nest quune escale Et si je dois plier, cest sous limpact des balles Mais tu ne mentendras pas crier car jai un gilet pare-balles Enculé, je serai rapatrié, enterré au Sénégal Enfin je pourrai trouver le calme, je serai seul comme une étoile On ne mentendra plus, on ne me verra plus Regarde vers les nuages, tu verras voler ma plume B2O, 100-8 Zoo, on contrôle la zone Si je ne fais pas face à ces négros, leur lame se plantera dans mon dos Tu crois que je vais mal, que je ne dors plus, tu voudrais sécher mes larmes Mais il y a bien longtemps que je ne pleure plus, messieurs et mesdames23</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>JAUNÉ</t>
+          <t>T.L.T</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ouais, ouais, ouais, ouais Ouais Gros joint d'ne-jau dans la suite, l'alarme s'est déclenchée Mon salut jamais dans la fuite, avant d'm'éteindre, faut m'débrancher J'aime le parfum qu'elle met tout l'temps, j'aime bien son déhanché J'vais créer une appli' pour la niquer, j'vais l'auto-financer Gros joint d'ne-jau dans la suite, l'alarme s'est déclenchée Mon salut jamais dans la fuite, avant d'm'éteindre, faut m'débrancher J'aime le parfum qu'elle met tout l'temps, j'aime bien son déhanché J'vais créer une appli' pour la niquer, j'vais l'auto-financer Je vais arrêter de jaqueter soixante, un, deux, trois, partez Y a des poucaves dans l'appart', on va devoir les attacher, les tarter hey Les mecs du PU sont de sortie hey, fallait pas nous laisser sortir Ça sent la H et la beuh, ça vient du S et du E, bâtiment 4 et le 2 Ah, balaise, le négro est balaise, la me-ar est balaise, le chargeur est balaise Le renoi est mauvais, le rebeu est mauvais, la bagarre en challenge La bonbonne est dée-blin, le gérant est dé-blin, le produit n'est pas lég' Juste un faux pas et j'te fais l'théorème de Thalès brr, j'te fais la marque sur le visage bang Les mecs d'la cité n'oublient pas nan, la vie de Boyka, de Zidane On va t'auto-financer mais jamais t'fiancer, moi, sans bâton dans les roues, j'n'arrive plus à avancer Gros joint d'ne-jau dans la suite, l'alarme s'est déclenchée Mon salut jamais dans la fuite, avant d'm'éteindre, faut m'débrancher J'aime le parfum qu'elle met tout l'temps, j'aime bien son déhanché J'vais créer une appli' pour la niquer, j'vais l'auto-financer Gros joint d'ne-jau dans la suite, l'alarme s'est déclenchée Mon salut jamais dans la fuite, avant d'm'éteindre, faut m'débrancher J'aime le parfum qu'elle met tout l'temps, j'aime bien son déhanché J'vais créer une appli' pour la niquer, j'vais l'auto-financer J'aime le parfum qu'elle met tout l'temps donc j'lui mets ça mais j'l'embrasse pas Si tu fais trop d'boucan brr, ra-ta-ta, on n'en parle pas Elle a un doigt dans l'cul, le film a à peine commencé Ici, tout est vrai, ma gueule, c'est juste un peu romancé J'suis confiné comme à Nanterre, comme à ry-Fleu, comme un tit-pe Ils m'ont sauté mon IG, zebi, y a l'oiseau bleu J'avais cinq millions d'followers, c'était ma vie d'avant Toi, t'es célibataire, j'suis single de diamant J'fais des p'tits pas, j'fais des p'tits pas, petit à p'tit, j'investis Mon avocat porte la kippa, deux heures d'garde à v' et je signe C'que tu n'dis pas, ne m'le dis pas, t'as cru qu'j'étais imbécile Tu parles sur moi dès qu'je ti-par, gros, j'vais t'mettre des penaltys Tout l'monde sait que le chemin est long sait que le chemin est long Tranquille, vu que le bras, il est long tranquille vu que le bras, il est long Tout l'monde sait que le DJ est bon hey, sale Parle pas chinois comme Kim Jong-un Kim Jong, Kim Jong, Kim Jong-un, binks Gros joint d'ne-jau dans la suite, l'alarme s'est déclenchée Mon salut jamais dans la fuite, avant d'm'éteindre, faut m'débrancher J'aime le parfum qu'elle met tout l'temps, j'aime bien son déhanché J'vais créer une appli' pour la niquer, j'vais l'auto-financer Gros joint d'ne-jau dans la suite, l'alarme s'est déclenchée Mon salut jamais dans la fuite, avant d'm'éteindre, faut m'débrancher J'aime le parfum qu'elle met tout l'temps, j'aime bien son déhanché J'vais créer une appli' pour la niquer, j'vais l'auto-financer L'alarme s'est déclenchée Avant d'm'éteindre, faut m'débrancher J'aime le parfum qu'elle met tout l'temps Oh, oh7</t>
+          <t>Back to the Ffuture Mesdames, messieurs, bienvenue B2OBA, 92izi, Saddam Hauts-de-Seine Le Météorite, Sénégal versus Emile Louis Laounizi ROH2Hass, TLF disqualifié T'es menteur, pointeur... ÉMILE ! Restez en Hous' Il n'en restera qu'un ! Le King reste le King, on vous baise tous J'fais un intro, outro Tu fais intro Outreau Sale teur-poin ! Trop longtemps que j'dors sous la couronne, écoute ces vauriens qui se plaignent J'ai transformé le trône en California King Bed Émile, tu es vaincu Comme le bout de ta barbichette... tu es pointu Wesh, mon frère ?! Qu'est-ce que qu'est-ce que tu comptes faire ?! Ton casier dit que t'es un teur-poin donc t'en es un jusqu'à preuve du contraire L'autre co-vaurien fait feats à 2e Jena Lee, Lumidee Alerte au rappeur pointeur à damier Émile Louis Vui' Vois-tu, j'remplis Bercy les doigts dans le cul Choppe ta fille à l'heure au collège, ou Fouiny Babe lui mettra dans l'cul Tu sors d'un concours Skyrock, dois-je te le rappeler ? Tu t'appelles La Fouine, normal que tu veuilles manger à tous les râteliers Pour vous jamais ça n'ira mieux fuyez, sauve qui peut Ta barbichette te sert à mieux chatouiller les tites-pe Tu es la honte des Yvelines, on devrait t'écarteler Guerre sans relâche comme Pyramides contre les Tarterêts Je n'ai pas de marche arrière, je ne pourrai donc pas reculer La voix de mes pères, de mes grands frères me dit Tue-les, tue-les ! Tue-les tous, tue-les, tue-les, tue-les tous Tue-les, tue-les tous, tue-les, tue-les, tue-les ! Je n'ai pas de marche arrière, je ne pourrai donc pas reculer La voix de mes pères, de mes grands frères me dit Tue-les, tue-les ! Tue-les tous, tue-les, tue-les, tue-les tous Tue-les, tue-les tous, tue-les, tue-les, tue-les ! Dans les veines j'ai du poulet braisé, 47-AK pour tous les traîtres Trop de meufs pour toutes les baiser, trop de baskets pour toutes les mettre Après celui-ci, pourront-ils se relever ? Au top là ou je suis.. Dans le tur-fu là ou je vais J'suis l'Boss du Rap Game, t'es qu'un PDRG Bakel City Gang rêve de te dé-vi-er-ger Couilles de bois, serait-ce même du contre-plaqué ? Parait que tu me cherche boloss, viens donc me braquer L.O.L., Smiley Face'zer TLF, Rohff, Emile... Argh ! j'ai envie d'ber-ger Si tu n'protèges pas tes arrières, tu devrais B2O, j'arrête les carrières, pour de vrai ! Tu veux r'gagner ton public d'élèves de CPPN ? Enlève ta fausse chico, renfile ta paire de TN 10 ans qut'envoie des piques, c'est l'heure de s'faire fumer bêtement J'vais t'faire une fleur, j'vais même pas parler d'ta marque de vêtements Je n'ai pas de marche arrière, je ne pourrai donc pas reculer La voix de mes pères, de mes grands frères me dit Tue-les, tue-les ! Tue-les tous, tue-les, tue-les, tue-les tous Tue-les, tue-les tous, tue-les, tue-les, tue-les ! 6 dans le barillet Ils comprendront Quand un drap blanc va les habiller Ils comprendront Je me demande quand est-ce Qu'ils comprendront Chicos par terre, carrières six pieds sous terre, la vie de ma mère Ils comprendront Au lieu de violer des petites, sucer des bites, suce mon revolver Dans mon veau-cer je suis en feat avec de petits hommes verts Je fais la loi dans le carré VIP, avec des renois tah les clips Fouiny Pointu-R Louis, t'as le bonjour de mon équipe Je fais que des hits, pas la peine de discuter Tirons-nous dessus tout de suite, on va pas se disputer 3.5.7 chargé pour faire passer le message Chez nous les happy-endings n'existent qu'au salon de massage Je n'ai pas de marche arrière, je ne pourrai donc pas reculer La voix de mes pères, de mes grands frères me dit Tue-les, tue-les ! Tue-les tous, tue-les, tue-les, tue-les tous Tue-les, tue-les tous, tue-les, tue-les, tue-les !13</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Drapeau noir</t>
+          <t>La lettre</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Twinsmatic J'fais un peu peur à la voisine J'ai du calcaire dans la poitrine Y'a tes empreintes sur la vitrine Montré du doigt par la victime Un noir pendu dans ma rétine Du sang d'esclave sur ma tétine La baraka vient de Pikine Y'a du cool-al dans ta cyprine La sauce tomate vient de Sicile On va voir qui est l'imbécile MC viens me livrer ma pizza J'suis au Plazza comme un kingpin Deux cent mille euros en liquide Mamacita dans la cuisine Sombre bédouin cherche bédouine Tu t'fais baiser, c'est un win-win J'suis le Mayer Metro Goldwyn Y a que Bobby qui m'embobine J'suis un macaque selon Darwin J'ai une grosse bite selon Marine Génération Ovomaltine T'es qu'un haineux, j'suis aux Maldives J'suis dans l'histoire comme un jésuite Je ne parle pas à un V8 Jusqu'ici tout va bien, plus rien n'm'étonne J'ai pas l'parcours d'Brandon, le biff de Denzel Washington Si j'tue un fils de pute, y a pas mort d'homme Le drapeau est noir car l'blanc est pour ceux qui abandonnent D'abord, nique ta mère, c'est Dieu qui donne Mafia n'oublie pas mais j'te pardonne Que je sois foudroyé si je mythonne Le drapeau est noir car l'blanc est pour ceux qui abandonnent J'lui ai attaché les mains, c'est ses fesses qui applaudissent T'es un teur-poin c'est pas moi qui l'dit, c'est la police D.U.C., pas de l'eau, ne tombe pas dans l'alcoolisme Izi, quand un shrab est chelou, j'ai un shrabbisme Ça fait boum bang chez les voisins L'arme d'Ukraine n'est pas loin Depuis Wu-Tang, j'suis le parrain Je suis Bruce Wayne, t'es le pingouin J'vais tout baiser, je n'ai qu'une vie J'ai une bonne fée, c'est ma p'tite fille J'vise des carrières, tireur d'élite Sombre pirate s'identifie J'ai avocat israélite oui J'suis dans l'tur-fu, je vais très vite J'étais au D4, là sur C8 Tu bouffes des chattes, je bouffe des huîtres J'traverse Little Havana État d'ivresse, marijuana J'suis allé à un showcase à l'Iguana J'ai des ratpis jusqu'à Douala J'ai des grosses gammes sur le parking Y a des grosses dames dans ta piscine AMG pour le babouin G.L.O.C.K. dans le Balmain G.L.O.C.K. dans le Balmain Oh yeah, oh yeah, izi Jusqu'ici tout va bien, plus rien n'm'étonne J'ai pas l'parcours d'Brandon, le biff de Denzel Washington Si j'tue un fils de pute, y a pas mort d'homme Le drapeau est noir car l'blanc est pour ceux qui abandonnent D'abord, nique ta mère, c'est Dieu qui donne Mafia n'oublie pas mais j'te pardonne Que je sois foudroyé si je mythonne Le drapeau est noir car l'blanc est pour ceux qui abandonnent7</t>
+          <t>J'fais beaucoup d'boucan Tu vois bien que je lis peu d'bouquin J'suis pas anarchiste Ton rap c'est de l'art, moi j'suis pas un artiste Comme à l'armée, j'charge et j'tire Dur comme le stahr, j'serai jamais star Pas d'paparazzi d'vant mes stores Lunatic Mon rap c'est dard J'suis die Ma clik c'est d'or Fermé c'est dur B.O, Banlieue Ouest, négro Des holsters avec des micros, ils croient qu'Paris c'est Sarajevo Pourquoi ça gaze autant ? Chez nous y a pas l'OTAN Alors si y a la guerre, ça va durer longtemps Je suis là pour représenter les gars qu'ont pas le temps de plaisanter Ali, Bram's, Mala, je paie la marijuana One five one, dingue est la dinde Kho, c'est du béton, c'est de la jungle Yahia, j'dois niqué darwa, un sous-marin Gerardo Maro 5 ou 6 barres et ça démarre 18 août '98, dans cette putain de maison darrêt Ils me disent que je sors bientôt, à ce qui paraît Je suis pas Snoop, je rappe ils sen foutent, tu sais ce qu'ils mont dit ? Faut que je travaille pour que la pute me donne la condi' Khami la sère-mi comme passer les fêtes au tard-mi Je gamberge et sans mon zoula, impossible de dormir Ecoute Ali, ça va bientôt sarranger, enfin je crois Je tourne avec deux-trois gars du 9-3 Chez nos ennemis ya plus de monde, ils menvoient pas de mandat Pourquoi jécris des textes de ouf, ils se demandent Au fait, paraît que lindustrie du disque a saigné Et que les négros arrêtent pas de signer Jai vu les autres au parloir, paraît que ça papote Bien sûr toujours les mêmes putes, ça sent la douille, ma couille Maintenant je me tiens à carreau, parce quau mitard ça sent la civière Et je rêve de baiser linfirmière, négro Je suis tombé si bas, que pour en parler faudrait que je me fasse mal au dos Putain quelle rime de bâtard ! Bref, quand je sors, ramène-moi une petite pute, bête, sans but Je la ferai crier du bout de ma longue bite Quand on va kick' ça va être tragique, panique à la clinique Magique, cest du 1143 ma 'zique Sinon dans ma cellule, je fais des pompes, jécris des textes, je taffe Et sur les murs jai des photos de 'tasses Et le maton me guette, porte-clefs à perpétuité Si, si, leurs mamans sont des prostituées Maintenant je sais je peux compter sur qui Merci de ton aide, je vais survivre, cest pas le bled ou la Turquie La taule cest la pression, nourrit linstinct de révolution Donc nique sa mère la réinsertion Ils savent pas si jaurais dû naître Quils aillent se faire baiser, moi je veux devenir ce que jaurais dû être Encore des semaines en solo, baise la FM seul Tous comme des hyènes en chien de chiennes derrière des chaînes Cest cheum quon en arrive là Pour que joublie viens samedi quon reparle de cette vie-là Dis bien aux dirigeants, et à leurs mômes Quon a les mains chromées, yeux vert dollar, gun pour pas que les flics chôment Clique, technique de barbare, sse-lai Jharcèle la juge, bientôt jarrache les barbelés On a du boulot, je suis en manque de boule et de goulot Hé tonton ! Jte ferai goûter les pâtes au thon On veut le roro, seulement si Dieu veut on laura Pour linstant je déchire mes draps pour faire des yo-yos Salue les man, lami, paix à ton âme, la vie Continue, envoie de la fraîche que je cantine</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>B. #QuedusaalVie</t>
+          <t>Daniel Sam</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sorties de janvierDjadja Dinaz - Souviens-toi KeBlack - Premier étage Marwa Loud - Temps perdu Sofiane - Tout l'monde s'en fout Vald - Vitrine ft. Damso Vegedream - La fuite ft. DJ Leska Sorties de févrierAbou Debeing - Tombé sur elle ft. Dadju Dadju - Déjà trouvé Dadju - Intuition Djadja Dinaz - Déstabilisé Kalash - Friendzone ft. Still Fresh Lacrim - Grande armée Lacrim - Traîtres MHD - Afro Trap, Pt. 8 Never Médine - Grand Paris ft. Alivor, Lartiste, Lino, Ninho, Seth Gueko, Sofiane Youssoupha Ridsa - Avancer Sorties de marsAlonzo - Feu d'artifice ft. MHD Benash - Ghetto ft. Booba Benash - Ivre ft. Damso Shay Dadju - J'ai dit non Deen Burbigo - Tu rêves ft. Nekfeu Djadja Dinaz - C'est la même Djadja Dinaz - Catalogués bandits Djadja Dinaz - Dans la cité Djadja Dinaz - Mauvais comportement Lacrim - 20 bouteilles Lacrim - 2Pac Lacrim - Colonel Carrillo Lacrim - La dolce vita Lacrim - Oh bah oui ft. Booba Lacrim - Tristi ft. Ghali Lorenzo - Le son qui fait plaiz Naza - La Débauche Niska - B.O.C KeDuSal 1 Ridsa - Mamamia Roméo Elvis - Drôle de question Roméo Elvis - J'ai vu ft. Angèle Sadek - Petit prince Scridge - Pour Walou Sorties d'avrilBMYE - Pourquoi Chérie Ft. DJ Myst, Hiro, Jaymax, KeBlack, Naza Youssoupha Columbine - Temps électrique DTF - 100 Rêves Damso - . Nwaar Is The New Black Damso - B. QuedusaalVie Damso - . Dieu ne ment jamais Damso - . Signaler Damso - . Gova Damso - . Peur dêtre père ft. Youri Botterman Damso - . Kin la belle Damso - . Noob Saibot Damso - N. J Respect R Damso - . Mosaïque solitaire Damso - . Macarena Damso - . Lové Damso - . Une âme pour deux Damso - . Kietu Mister V - Top Album Ninho - Roro Niska - Chasse à lhomme Niska - Jsuis dans lbaye KeDuSal 1.5Sofiane - Mon p'tit loup Sofiane - Toka Sorties de maiBigflo Oli - Alors alors Dadju - Reine Kalash Criminel - Je ne comprends pas ft. JuL Kalash Criminel - Piano sombre L'Algérino - Les menottes Lartiste - Pardonner Mister V - Space Jam ft. Hayce Lemsi Volts Face Naps - Ciao Naps - Elvira Naps - Vroum vroum Naps - À part ça Naza - A Gogo SCH - Comme si SCH - J'attends SCH - Mac 11 SCH - Poupée russe Sadek - Dans la lune Sofiane - Marion Maréchal Still Fresh - Collision Sorties de juinAsh Kidd - Lolita Bigflo Oli - Dommage Bigflo Oli - Papa ft. Fabian Ordonez Bigflo Oli - Personne DJ Hamida - C'est une frappe ft. Lartiste DJ Sem - Mi Corazón ft. Marwa Loud Eddy de Pretto - Fête de trop Fally Ipupa - Bad Boy ft. Aya Nakamura JuL - Ma jolie Lomepal - 70 Lomepal - Bécane ft. Superpoze Lomepal - Danse ft. Camélia Jordana Lomepal - Palpal Lomepal - Yeux disent Siboy - Mobali ft. Benash Damso Sorties de juilletAlonzo - Bagarre Alonzo - Suis-moi Booba - Nougat Djadja Dinaz - Maléfique ft. DJ Babs Jordan Dosseh - PDCV Pas dans cette vie Hornet La Frappe - Je pense à toi Lacrim - Ce soir ne sors pas ft. Gims MMZ - Ma bulle Naza - MMM Ninho - Mamacita Niro - Sors de ma tête Niska - Réseaux Sadek - En leuleu ft. Niska Timal - Vatos Sorties d'aoûtAlonzo - Papa Allo Lorenzo - Fume à fond Ninho - Chino Sadek - La vache Sorties de septembre4Keus - O'Kartier C'est La Hess Hornet La Frappe - Dead ça Hornet La Frappe - Maghrébin JuL - Drôle de dame Lacrim - Judy Moncada MC Solaar - Sonotone Marwa Loud - Mehdi Naza - Sac à dos Ninho - Caramelo Ninho - Carbozo Ninho - Ce soir ft. Alonzo Ninho - Comme prévu Ninho - De l'autre côté ft. Nekfeu Ninho - Dita ft. Hös Copperfield Ninho - Elle m'a eu Ninho - HLM ou Palace Ninho - Laisse pas traîner ton fils ft. Sofiane Ninho - Lové ft. Gradur Ninho - Pourquoi Ninho - Rose Niska - Ah bon ? Niska - Amour X Niska - Favelas ft. Skaodi Niska - HM Niska - La wewer Niska - Medellín Niska - Salé Niska - Snapchat Niska - Story X Niska - Tuba Life ft. Booba Niska - Twerk dans l'binks Niska - Versus ft. MHD OrelSan - Basique Sadek - Madre Mia ft. Ninho Soprano - Mon précieux Vald - Trophée Sorties d'octobreEddy de Pretto - Fête de trop Dadju - Ma fierté ft. Alonzo Gims Hamza - Life Hamza - Vibes JuL - La tête dans les nuages Kaaris - Je suis gninnin, je suis bien Kalash - Koussi koussa ft. Niska Kalash - Mwaka Moon ft. Damso Lacrim - Tous les mêmes Lartiste - Catchu catchu OrelSan - Bonne meuf OrelSan - Christophe ft. Gims OrelSan - Dans ma ville, on traîne OrelSan - Défaite de famille OrelSan - La fête est finie OrelSan - La lumière OrelSan - La pluie ft. Stromae OrelSan - Notes pour trop tard ft. Ibeyi OrelSan - Paradis OrelSan - Quand est-ce que ça s'arrête OrelSan - San OrelSan - Tout va bien OrelSan - Zone ft. Dizzee Rascal Nekfeu Sorties de novembreAbou Debeing - C'est pas bon ft. Dadju Columbine - Pierre, feuille, papier, ciseaux Dadju - Bob Marley Dadju - Comme si de rien n'était Dadju - Django ft. Franglish Dadju - Intuition Dadju - Oublie-le Dadju - Par amour ft. Gims Dadju - Seconde chance Dadju - Sous contrôle ft. Niska JuL - Henrico Kaaris - Bling bling ft. Kalash Criminel Sofiane Kaaris - Diarabi Lacrim - Gericault Lacrim - Intocable ft. Mister You Lacrim - Noche ft. Damso Lacrim - Veux-tu ? ft. Ninho Lomepal - Club Sorties de décembreBooba - 113 ft. Damso Booba - Bouyon ft. Gato Booba - Centurion Booba - Drapeau noir Booba - Friday Booba - Magnifique Booba - Petite fille Booba - Ridin' Booba - Terrain Booba - Trône Booba - À la folie Booba - Ça va aller ft. Niska Sidiki Diabaté Dadju - Par amour Ft. Gims Dadju - Lionne Damso - Tueurs Gims - Caméléon Hayce Lemsi - Havana JuL - Délicieuse JuL - Je vais t'oublier ft. Marwa Loud Marwa Loud - Fallait pas</t>
+          <t>Fais comme ces demoiselles, elles savent c'qu'on attend d'elles Couche-toi t'as l'bonjour du KTM brrr tiotou ndem Fais comme ces demoiselles, elles savent c'qu'on attend d'elles Couche-toi t'as l'bonjour du KTM brrr tiotou ndem Izi Le niquage de mère est journalier Un seul coq'zer dans le poulailler J'ai niqué leur go mais c'est normal j'ai tout payé J'reste numero uno comme ça on peut pas m'oublier J'ai pris le jet, l'A7 est embouteillée Ta carrière de chien ne vaut même pas mon mobilier Ma voiture préférée, en vrai c'est la voiture bélier J'ai niqué leur go mais c'est normal j'ai tout payé Je peux reprendre ton flow, c'est papa qui t'l'a donné Aussi rincé qu'tu sois, j'te passe sur OKLM TV B2O Bogota, j'pèse 3 millions d'kilos d'C Allah facilite, moi j'mets en difficulté J'nique des mères à 40 piges fuck un accident d'jeunesse Boulbi, Aulnay-sous, Charo comme l'Essonnegeles Omar est PNL, B2O est de la banlieue Ouest La go attend son halal, rate-pi veut pute de l'Est Aucune infraction dans ton CV J'mets pas de beuh de ma chicha, collage à droite OCB Année du dragon négro est né J'n'épargne aucune maman sauf celles qui ont du henné Noumou démé Zongo Bozo tu es pardonné Tu t'es pris pour le Calife à un moment donné Ce sont des choses qui arrivent petite tchoin que tu es Si j'en suis là, Zongo, c'est parce que j'ai charbonné Gato da Bato, zo out deja fout' konin J'suis dans airs, pas dans bouchons, moi pas connaître klaxonner Ton casier est vierge même pas une peine aménagée Moïse ouvra la Mer en deux, perso j'y serais jamais allé J'lâcherai pas le steak, encore moins la chicken wings Le matin devant le miroir j'ai la muerte tout comme Vinz Rafale de 11.43, rares sont ceux qui l'esquivent Le F.L.O.W n'est pas clair, demande à Darki et Steeve Le niquage de mère est journalier Un seul coq'zer dans le poulailler J'ai niqué leur go mais c'est normal j'ai tout payé J'reste numero uno comme ça on peut pas m'oublier J'insulte pas les mères sauf celle de Patrice Quarteron la tchoin Daniel Sam t'a sodomisé j'étais aux States je roulais mon joint J'insulte pas les mères sauf celle de Patrice Quarteron la tchoin Daniel Sam t'a sodomisé j'étais aux States je roulais mon joint La piraterie n'est jamais finie La piraterie n'est jamais finie Ta carrière est tombée du nid Je ne fête plus quand j'fais le milli' Je ne suis pas de ceux qu'on humilie La piraterie n'est jamais finie, piraterie n'est jamais finie Le niquage de mère est journalier15</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Freestyle Couvre Feu (OKLM)</t>
+          <t>Blanche</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Réalité hollywoodienne chez moi putain c'est chaud Certains attendent que la mort vienne demain ou même plus tôt Le ciel est rouge, il pleut des larmes de sang Maman m'a dit qu'à l'époque les gens vivaient bien plus longtemps Réveillé dans la stupeur, un nouveau nom dans le vent Certains diront que c'est super, en pleurant à l'enterrement Que j'm'en souvienne, beaucoup n'ont pas vu le printemps J'en verse une à la tienne, de temps en temps Everyday a mama cry Everyday a mama cry Innocent ou criminal Enterrement et tribunal Everyday, everyday Everyday, everyday Everyday a mama cry Everyday a... Un coup d'fil anonyme dans ta tess Donne deux trois indices, j'ai ton adresse J'prends le plus p'tit vaillant qui sors du hebs Il t'liquide ta mère, j'paye ses vacances Allô, j'décroche mon bigo, la sur d'un rappeur veut de la tendresse Oh, complètement barjo, j'ai baisé sa mère par maladresse Coro des coro Tavares, j'veux l'feat avec Selena Gomez Tout est noir comme chez les Gomis, j'suis congolais comme Georges N'goma Martinique, Gwadada, Guyana, des criminels comme mon gars Sam Pas d'camarades, j'suis pas Zoumana, j'suis capitaine, je veux mon brassard J'suis dans le Biz J'te vois pas dans nos célébrations ni aux enterrements Tu galères pour nous compter, negro on est tellement T'as voulu t'imposer, tu t'es fait étaler bêtement Y'a des charos, des généraux, pirates depuis longtemps Qui pourra stopper la street'zer ? Banlieusards forts et fiers Bénis soient les miens Rebelles depuis le sein Rebelles depuis le sein Bénis soient les miens Je n'ai qu'un seul gang 92i Fuck le yang, fuck le yin T'es bonne en cuisine, t'es bonne en legging J'suis né dans les grands vins, t'es mort dans les vignes Défier le Duc à mains nues, on évite Plomb dans les vitres, à la barre on est huit Kilos de shit, Audi A8 Tes petites fuites, des délits de fuite Tu dors dans nos hôtels t'as la petite suite J'aime ni le grand flic, ni la petite schmitt 10 ans en centrale ça passera vite, 10 ans en centrale ça passera vite T'as inventé la pipe, tu me suces la bite J'ai main de gorille, tu vas te manger la gifle Je fuck la pauvre et je fuck la riche Si tu cherches l'oseille, tu demandes à Kaaris AK-47 dans ma boite à malices J'm'en bats les couilles de tout, c'est mahlich Avant d'manger tes morts, tu vas t'manger la vitre Noire est la liste, noir est l'artiste J'viens d'passer la Suisse, j'viens de passer l'A6 D.U.C, je confirme on a touché la cible D.U.C, je confirme on a tou... Je les encule, les encule et ainsi de suite T'es pas sur OKLM, il faut changer de site Éclat de métal dans fibre optique Mes compatriotes ont arme patriotique Quelques likes tu t'es senti bionique J'vais t'tirer d'ssus, arrête les antibiotiques Le A-R n'a que faire de l'acoustique Début de carrière dans l'arrière-boutique Siliconée, pas besoin de soutif J'les vois agoniser, pas besoin de sous-titres Neuf-millimètré car c'est préconisé Kunta Kinté, terrorisé Le rap français Calogeroisé Biatch, on va t'Claudia Sampedro-iser Sale, négro, j'vais te coloniser T'as zéro swag'zer on va te Olomider Première dose gratos, le bolosse est fidélisé Vatos Locos, un por todos, Athéna me suce à Mykonos Sur ma table, y'a une pute qui danse debout, y'a ma paire de cojones La prochaine fois que tu veux m'ver-soule, hassoul, envoie des voyous qui s'y connaissent Cherche pas les clés d'mon cur, j'ai que les clés d'la Lambo J'suis à Key Largo, niquer des mères c'est le scénario Niska, Damso Niquer des mères c'est le scénario KLH, B2O Niquer des mères c'est le scénario Dams-OPG dans le block Belgium vie MarcWilmots 92i big up à Kopp J'fais que du sale sur Périscope Fruity Loops noires sont les notes J'la baise dans l'cul j'paye pas la dot Dans mes pes-cli j'fume d'la drogue Je ne ris que sous protoxyde d'azote Mon maître majeur dans sa te-chat, c'est la noyade J'suis suspecté comme si j'venais d'sortir d'chez Jawad J'n'ai pas l'temps pour les tchoins, sauf si j'te fuck gratuitement Négro allume un joint, on n'fume pas d'clope dans l'appartement Toujours caleçon à l'air, mon bas-fesses est impeccable Par derrière, comme passagère sur ma bécane J'filmerai tous sur les réseaux oui oui ta chatte sera ruiné J'vais t'cramer au monde entier, grillé, j'vais te Serge Aurier Damso, yeah Charo, Ouais! Ça pète C'est chaud aujourd'hui ma gueule Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Quand j'la monte en l'air je n'calcule pas le reste J'suis dans le fond du binks j'ressens mes démons Si je t'allume au fer t'auras la COTOREP Le 3-5-7 frotte ma quéquette.. PULL UP PULL UP Une fois, deux fois, trois fois, autant d'fois qu'il le faudra ROULEZ ! Ok on repart ma gueule, comme jamais Charo, Pirate ! Elle a mal aux reins.. Elle a mal aux reins.. Elle a mal aux reins.. Elle a mal aux reins... Elle a mal aux reins quand je la démonte Quand j'la monte en l'air Elle a mal aux reins quand je la démonte Quand j'la monte en l'air je n'calcule pas le reste J'suis dans le fond du binks, j'ressens mes démons Si je t'allume au fer t'auras la COTOREP Le 3-5-7 frotte ma quéquette Le frère de Djeba frotte la bavette Oh, j'dois faire des pépettes J'veux pas finir d'vant la cafet' J'suis dans l'truc, j'suis dans l'tieks 2016, y'a plus de tête à tête Chez nous, c'est balles à tête J'te l'répète, chez nous c'est balles à tête Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Quand j'la monte en l'air je n'calcule pas le reste Nueve nueve uno Nueve nueve uno Nueve nueve uno Nueve nueve uno 92i Prr prr, fly like a bird La ni yin ki badman, la pa ti ni pon bleu Bon chinese, black man ek rebeu Yinki business sal, son sal, yeah allimé la beuh T'as un magnum j'en ai deux Yeah man j'en ai deux un noir, un bleu J'allume le feu sur celui qui veut, à côté des enfants se ploter la queue Ils parlent mais feront-ils mieux, feront-ils mieux, feront-ils mieux que mon équipe de feu ? Vrai négro, je n'ai peur que de Dieu Lord have mercy, je connais ma Bible Même sans maille, pas d'faille, j'me taillade aux bailles traversés dans un canot à feu Où sont ces boeufs, boeufs, boeufs, boeufs ? Couvre feu ! Gunshot inna belly sé on déli Moun la ka mô fen mè kay yo ka anbéli Jet privé ka atéri adan on péyi Difé konbyen moun ka péri Lesklavaj aboli yo pa lé moli Lé kontrolé nou kon koli Sé on koneri pou fè money Boum bang kon montana tony Gunshot inna belly sé on déli Moun la ka mô fen mè kay yo ka anbéli Jet privé ka atéri adan on péyi Difé konbyen moun ka péri Lesklavaj aboli yo pa lé moli Lé kontrolé nou kon koli Sé on koneri pou fè money Couvre feu ! C'est l'heure du crime, les pédales se cachent 9 millimètres sur un corps de lâche Salam la nourrice du 9ème étage Salam Aux frérots déters, qui butent dans la cage Cerruti, Cerruti O'Bla La Maserati O'Bla Chaussures assorties O'Bla C'est moi qui conduit, ok ! Ouais j'ai la dalle comme si j'sortais d'la DASS Tu joues les gros bras mais ta sur fait la tass Les ennemies, je les écrase Je fais des showcases, je brasse et je brasse Comme un Charo, j'te met K.O comme Pacquiao J'fonce en X6, pas dans le panneau DJ Bellek gère le piano J'manie les mots et la mélo' Papier panier piano Je donne l'heure et ciao ! Comme les grossistes donnent les taros Grossistes donnent les taros Grossistes donnent les taros Yo lé testé mè yo pa de tay Yo ni pou flexé douvan lé rude boy Bad a Bad Man ka brilé pussy-Boy Bad a Bad Man ka kill a batty-boy Yo lé testé mè yo pa de tay Yo ni pou flexé douvan lé rude boy Bad a Bad Man ka brilé pussy-Boy Bad a Bad Man ka kill a batty-boy Perdu dans ma tête mais je pète les plombs Fais le BCBG mais j'ai baisé que des thons J'ai que bonasse, connasse, grognasse, pétasse, j'en passe, j'm'en lasse Putain bref, ok laisse ber-tom Putain je crane tous seul, parle tous seul Peu de monologue, poto d'homologues, j'ai peu de dialogue J'deviens de ceux, qui s'en soucient Se saoulent seul, en plus de ça je perd des sous C'est bête moi je subit tout, me ruine au subito C'qui fait qu't'as mal quand t'évites ceux qui trainent trop J'suis paresseux, j'perd la raison et ça ça paraît fou Parce que j'ai la tête du gars qui n'a pas ce genre de défaut Mais damn, ma vie bascule Du bonheur que quand j'éjacule J'vais péter pendant ce son je flatule Faut remettre les clics au dessus des pendules J'rêve de partir loin dans une capsule Évidemment que j'manie le mic' comme un pyromane Demande my men, à chaque fois que j'les ken l'enfer se déchaîne Mes ennemis s'entrainent, voudraient que je saigne Remuent terre et ciel, mais bon j'ai des guns One again comme Hurricane je les goums dès le premier round Le peura me défoule mais souvent me saoule quand ça parle d'embrouille Et de vos rappeurs brouillons qui ont aucune couille veulent parler de douilles mais crient Hallelujah quand ça pars en couille Allez fuck ! Nouveau riche, ma Lamborghini a pris quelques dos-d'âne J'fais ni la queue au Ritz.. Selecta poulop poulop poulop! Pardon Kopp, obligé d'te couper Une fois, deux fois, trois fois, autant d'fois qu'il le faudra J'ai nommé 92i veyron, exclusivité Couvre Feu Pas la peine d'aller chercher ailleurs, c'est ici qu'ça s'passe Hé, mr Kopp dans la maison, Kalash dans la maison, Niska dans la maison, Damso dans la maison Couvre Feu, couvrez vous ! Nouveau riche, ma Lamborghini a pris quelques dos-d'âne J'fais ni la queue au Ritz, ni au McDonald's Si c'est eux qui ont raison, je n'suis pas raisonnable La rafale dans ton salon sera sûrement désagréable Nouveau riche, ma Lamborghini a pris quelques dos-d'âne J'fais ni la queue au Ritz, ni au McDonald's Si c'est eux qui ont raison, je n'suis pas raisonnable La rafale dans ton salon sera sûrement désagréable On trinque à nos balafres, à nos crochets tous les soirs Noir c'est noir, ont-ils dit, y'a donc vraiment plus d'espoir Les vainqueurs l'écrivent, les vaincus racontent l'histoire Les vainqueurs l'écrivent, les vaincus racontent l'histoire Personne dans le monde ne marche du même pas ...C'est ça qu'ils n'comprennent pas Des allers-retours en prison, certains n'en reviennent pas J'ai une kalash et des mouftons, tous sous le même toit Toujours d'humeur à les lever, que l'avenir suce mon troisième doigt Non, je n't'aime pas, ni celui qui est avec toi Y'a que quand tu baises ta daronne que j'suis de tout cur avec toi T'as même pas de quoi me faire fumer, qu'est-ce que j'vais faire avec toi ? Je parle de rue car j'y ai baigné, même si j'y suis beaucoup moins ...T.O B.A.T.O, boug an mwen Violences illicites, comptes débités Pacsons, bruits de shit, contrôle évité Vie de prises de risques, dinfidélités Pute veut faire la bise mais pute a déjà sucé Parle de rue mais rue ne t'as pas créditée Prend mon dû, par vues et textes rédigés Viens au dessus, la vue est mieux en V.I.P J't'ai baisé, j't'ai quitté, j'sais même pas qui t'es Du Louis, Gucci sur la table, j'ai fais d'mon mieux Quelle vie vit-on quand on a pas la vie qu'on veux Ta mère j'l'ai niqué sur la chatte à ton vieux Croyant car même le diable à déjà cru en Dieu On t'as jamais vu, comme le vrai cul de Kim Kardashian Nwar Gaule affamée quand j'la vois sur l'allée, depuis la chambre du bâtiment Les haineux disent que t'es ma bitch se mentent entre eux Trait d'union J'ai la gauloise en plein Zénith, elle donne heure et direction Un bon bédo par ici la défonce C'est marqué vu mais toujours pas de réponse Tou sa mwen ni men goumé bay An pa jen ouvè pon la pot' ba pon sheitan Préci kon dealè ka van shit au détail An ka posé son la an ni frisson ka pran mwen mè an pa ka moli Chak fraz sé on rime An pa biswen ba la dime pou Papa la fè mwen signe ! Monté, démonté Jounou a tè ki ka konté Ja ni lontan manman di mwen pa ay fly la y pani Bondyé Aah aah Préci kon dealè ka van shit au détail Aah aah Préci.. Adan 4 croisées an paka tremblé Bondyé sel an ka doué A pa diab a yo ké fe'm tombé Lajen paka fe'm chanjé Kouté mwen ! Adan 4 croisées an paka tremblé Big up Gato de Bato tout l'temps, déja fout koné Ok, ahah, Zifukoro, de la B, comme jamain Depuis que je perce.. Tu sais ce que les ti-peu m'ont dit, depuis que je perce ? Tu sais ce que les ti-peu m'ont dit, depuis que je perce ? Tu sais ce que les ti-peu m'ont dit ? Tu sais ce que les ti-peu m'ont dit, depuis que je perce, y'a plus de ... ouais Tu sais ce que les ti-peu m'ont.. OK ! Tu sais ce que les ti-peu m'ont dit, depuis que je perce y'a plus de consommateurs Le marron devient même du yellow je suis magicien je suis un transformateur Le charo ne parle pas beaucoup et tte-ma le boug, le sujet est maitrisé Dîner sur les Champs-Elysées avec mon président je ne peux pas refuser Je suis dans la fusée des fusées je contrôle la ne-zo, comme la NASA Les pauvres ils sont trop dégoûtés même dans leurs showcases je pète les caissons Rapper pour moi c'est trop facile, comme un colombien qui cuisine la résine Si demain je sens la perquis' y a pas de soucis je dors chez la voisine Allo, t'es où ? Oh seigneur t'es là ! Bango ba zo lela nazo ko sepela J'ai trop le truc à la 2Pac et Biggie, ce genre de beat me fait bouger J'écris mes textes dans un buggy je vais te sortir mon flingue tu vas buguer pay pay Je vais te sortir mon flingue tu vas buguer Je vais te sortir mon flingue tu vas buguer Je vais te sortir mon flingue tu vas buguer, Commando ! Comman, comman ! Real badman n'agit pas comme un drag queen Gyal viens m'voir j'ai le bras long comme Dalsim Y'a que des real rude boi présents dans le casting Mes négros ne parlent pas ils agissent en sourdine Nou pa té ni pon combine épi pon pussyroll ting Yo sé real fish, yo tout' la ka mèt' string Et y'a beaucoup d'imposta, badman en ballerines Infama sera tué à la pleine lune T'entends les han-han, han-han, before me start kill Comme Kartel ils veulent m'enfermer pour crime Mais j'ai des avocats plus bad que la police en civil Je manie les mots... Dem no bad like me, général à l'armée Général comme à l'armée Dem no bad like me, même s'ils sont armés J'tue les soundboy toute l'année Dem no bad like me, général à l'armée Général comme à l'armée Dem no bad like me, même s'ils sont armés J'tue les soundboy toute... watcha watcha, hey hey J'avance tranquille toute l'année Je connais des real toxicos et des fumeurs d'amné' Les gyal sont rough quand elles wine leur body A base de han-han han-han que des fat puna' Hey yo mi gangsta DJ pla-pla-pla-play Pas de fake nigga présent dans mon armée Real général ne fait pas de quartier Nous on laisse brûler, lighter in the air Shalalalala Like Buju Banton boom bang Pull up! Eeh, Poulop ! Eh que d'la boucherie, eh on fait pas les choses au minimum ici, que au maximum T'entends pas ou quoi yeah, on est au max de la maxance Dj Fax on est ready ? Eh on perd pas d'temps, roulez ! KLH, madinina, 972 Oh, Welcome to the trés trés sale Gato da Bato OKLM radio, couvre feu .. Même à travers fumée d'chicha, j'y vois net J'y vais pour Niafous, Beurettes, Antoinette Poulop ! Attends, attends ! Dj Fax, remets ça calmement Eh dans la maison y'a Monsieur Kalash, y'a Monsieur Niska, y'a Monsieur Damso, y'a Monsieur Kopp! En live du couvre feu, pas la peine d'aller chercher ailleurs, c'est ici qu'ca c'passe T'entends pas ou quoi ? Couvre Feu, Bah oui c'est d'la lourdeur Kopp ready ? Roulez ! Ok... welcome, welcome Welcome to the sal... 92i, Charo life, KLH dans la maison Jacky Brown, Neg'Marrons Même à travers fumée d'chicha, j'y vois net J'y vais pour Niafous, Beurettes, Antoinette Rendez-nous nos 200 filles, rendez-moi mon Ouloulou J'suis au téléphone sans fil'zer, au couvre souloulou Qui a niqué sa carrière bêtement en clashant ? Hassoul-ouloul, hassoul-ouloul, à vous d'juger Au QG je retire cagoul-ouloule Toute ta carrière elle est bidon Tu m'as vu à la télévision sur ma télévision Paie-moi tout en amont ou finis momie Toutankhamon Après le show les plus canons finissent dans le camion Mon super-héros c'Chaka Zulu, c'pas Belmondo Tu suces pour un Ouloulou, tu quittes le bando On t'a jamais vu, comme la go à Columbo Nique ta grand-mère d'côté d'ta mère avec la bite à Mutombo La bite'zer à Mutombo, Muto-Mutombo, ouloulou, ouloulou J'faisais d'l'oseille comme s'il en pleut Avant qu'mes anges ne naissent Si je vois la vie en bleu c'est comme un Crips d'Los Angeles Ouloulou, gros culs elles avaient, sales négros elles ameutèrent 13, bonheur ou malheur, kalashé sur La Canebière Étoile du Nord comme Alonzo, sur l'terter sans Ballon d'Or J'suis au Pérou, café noir, à l'écart d'tout Malongo Unis pour le sale, que faux négros se blessent Je parle fort pour pas qu'la France d'en haut se baisse Sur la vie d'mon jnoun, j'pars pas sans l'or au cou Tu vaux rien comme un selfie d'la chatte à Laure Manaudou Perdu dans un harem, méchante cuite, je tiens debout Cinq ma, cinq Mathusalems de suite, ouloulou Give some Hennessy, j'm'arrache en soundsystem Selecta pull up ! Sound system, c'est couvre feu, c'est comme ça Tous les samedis, 20h-22h on leur mets ça bien OKLM radio ROULEZ ! Welcome to Couvre Feu Xelcome to the S.A.M, comme jamais Mada, gwada, Réunion, Haiti, Guyana Dem no bad like bomboclat Give some Hennessy, j'm'arrache en soundsystem Je sens qu'ce soir c'est la bonne Nuage de fumée convoi exceptionnel Tout est sous contrôle ! Mes yeux sont red, je vois la vie en red Mes yeux sont red, Charo tell 'em J'suis sur les Antilles mes gavas sont locksés Tête énervée comme Dark Vador, sabre laser comme Anakin Counia manmanw je vous encule bang ! bang ! bang ! Jungle jungle jungle, les petits ne veulent plus qu'on les vire qu'on les engueule Ils nous respectent car savent qu'on a fait du leum Bacodji-Bacodjicoroni, poto, poto, Niarry Talli gang J'enfile des gants pour t'enlever la vie, et quand je le fais je le fais par hygiène Je coupe et j'emballe et tu inhales Dans le couloir de la mort il n'y a qu'une allée Je bouge mes épaules comme au funaná Et même en été je vis sous la neige J'entends des Alala bullet-let, bullet-let, poli-lice Non non ne paniques pas ce n'est que le C'est l'état qui m'nique, c'est le people au coeur du more fire Y'en a qui mili-li-lite chaque minu-nu-nute Allument des bédos dynami-ni-nite, mi-ni-nite And I feel-eel-eel, feel-eel-eel, so real-eal-eal So real-eal-eal, so real-eal-eal J'suis pas débile-ile-ile-ile-ile, je kill-ill-ill-ill-ill Visant le mile-ile-ile-ile-ile, perds pas mon fil-il-il-il-il Tranquille-ille-ille-ille-ille, j'explose la mine-ine-ine-ine-ine Un battement de cil-il-il-il-il suffit pour alerter toute La ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille Pull up!7</t>
+          <t>Unprediktable Denza Gérald got that fire, boy Très loin dêtre parfait mais tinquiète pas, ça ira Au ciel, on va aller, j'vais laisser mes biens en bas Toutes mes années dgalère où jme disais ça ira Fais un pas de travers, une bécane, tu ten iras Jv'-esqui le parquet, cest soit Bercy soit du ferme Jsuis dans le carré, loin dBois-dArcy, jai mon fer Jbarode dans la ville, sept cents chevaux Ferrari Tu connais ltarif, fais pas lgrossiste pour un kil' Jbicrave à pas dheure, jvends la moula dans le bendo Douze heures à douze heures, jfais partir trois kilos daya Ta go' veut un marmot, moi, jvoulais juste la ken Te-shi m'rend paro, jme rappelle plus dla veille J'visser la night, elle va s'en remettre, si tu savais Blanche ou caramel, j'ai son remède J'visser la night, elle va s'en remettre, si tu savais Blanche ou caramel, j'ai son remède Nous restâmes sur le bateau, jamais il ne chavira Je devais voir Anne-So', au final, jai vu Samira Passe-moi à travers, jamais tu nme graviras Tu nas pas de valeur, jamais on nse ralliera Je nconnais pas le banc à part celui de la G.A.V Drapeau est noir et blanc, je reste devant, je préfère être à lattaque Si j'nai plus dlimite, je marrête où ? Jpends mon linge sale devant personne, je rachète tout Je ne demande quà taimer, te montrer mon Makélélé Le Versace, le DG, elle est trop bonne, wallaye, c'est B Je vais lemmener à létranger, peut-être sur place, jvais léchanger Faire le hlel ou létrangler, jsuis quen léger, que la CB Jdrague à la Momo Henni, beaucoup de cash, je la séduis On m'tire dessus, jentends des bruits, même en réserve, je la détruis Jviens du 9.2, la quality, tu connais djà létat desprit Elle m'a d'mandé combien ça coûte comme si javais regardé lprix J'visser la night, elle va s'en remettre, si tu savais Blanche ou caramel, j'ai son remède J'visser la night, elle va s'en remettre, si tu savais Blanche ou caramel, j'ai son remède Nous restâmes sur le bateau, jamais il ne chavira Je devais voir Anne-So', au final, jai vu Samira Passe-moi à travers, jamais tu nme graviras Tu nas pas de valeur, jamais on nse ralliera Oh, oh, oh Oh, oh, oh Oh, oh, oh Oh, oh, oh Elle va sen remettre, si tu savais Blanche ou caramel, j'ai son remède Elle va sen remettre, si tu savais4</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Comme une étoile</t>
+          <t>PGP</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Je veux juste briller comme une étoile Jai toujours dû, su me débrouiller, la vie nest quune escale Et si je dois plier, cest sous limpact des balles Mais tu ne mentendras pas crier car jai un gilet pare-balles Enculé, je serai rapatrié, enterré au Sénégal Enfin je pourrai trouver le calme, je serai seul comme une étoile Comme une étoile jai disparu depuis longtemps Mais tu me vois toujours briller, toujours scintiller Jai pris les petits sentiers, quitté le chantier Hauts-de-Seine, obscène, Africain comme un Antillais Libéré de mes entraves, me venger comme un droit Jai couru comme un esclave pour marcher comme un roi Malheureusement, je nai pas su marcher très droit Jai gardé mon automatique et mes amis près de moi Tu trouves que la Terre est belle ? Elle est plus belle, vue de là-haut Un nègre est un bon nègre quand il est dead sur le carreau Jéclaire cellule, scie les barreaux Sur ces notes de piano, regrette lépoque du Rat Luciano Aigle royal, dernier voyage Fais péter le son dans la gov, rends-moi hommage Jai tout ce que je mérite, trouve pas ça dommage Ni putes, ni soumises vont se réjouir ces sales conasses Banlieusard dans le sang, peu importe ce que Sarko fasse 92 sur le sarcophage Et le piano mendort, Terminator est mon mentor Récupérer mon or, jen rêve encore Je veux juste briller comme une étoile Jai toujours dû, su me débrouiller, la vie nest quune escale Et si je dois plier, cest sous limpact des balles Mais tu ne mentendras pas crier car jai un gilet pare-balles Enculé, je serai rapatrié, enterré au Sénégal Enfin je pourrai trouver le calme, je serai seul comme une étoile On ne mentendra plus, on ne me verra plus Regarde vers les nuages, tu verras voler ma plume B2O, 100-8 Zoo, on contrôle la zone Si je ne fais pas face à ces négros, leur lame se plantera dans mon dos Tu crois que je vais mal, que je ne dors plus, tu voudrais sécher mes larmes Mais il y a bien longtemps que je ne pleure plus, messieurs et mesdames23</t>
+          <t>Izi izi PGP branché, la ne-zo est quadrillée est quadrillée C'est un peu plus cher au zoo mais c'est d'la qualité d'la qualité Le flic tueur d'Adama Traoré s'ra acquitté acquitté Maes m'a dit Kopp, la madrina veut s'marier marier Toujours prêt à niquer des mères, j'tenais à l'souligner souligner Les gamos, les mansions, les grosses tchoins, tout y est J't'l'ai mise dans l'cul sur un son de cain-ri, je n'peux plus t'oublier oublier Pour avoir un gros billet, j'me mets dans bourbier dans bourbier Tu parles chinois d'puis la maternité maternité C'est bien d'avoir les grenades mais sais-tu dégoupiller ? J'veux les funérailles de MLK, pas d'Johnny Hallyday Johnny Hallyday Nique ta mère par le cul, les rates-pi n't'ont pas validé pas validé PGP branché, 9 milli pour t'saccager pour t'saccager Pose tes fesses sur mon son, j's'rai obligé d'te partager te partager J'ai signé avec Dieu mais Iblis veut me manager manager Je vais te faire les contours mais j'vais t'les faire à la craie faire à la craie Si tu parles mal d'la bouche, la violence va escalader 'calader Say hello to my little friend, bataradé bataradé J'suis sorti calibré, j'écoute Train de vie d'Koba LaD Koba LaD J'suis Captain Africa, vert-jaune-rouge sur l'bouclier Sa mère ne m'aime pas, elle dit qu'j'dis trop d'obscénités d'obscénités J'viens d'acheter deux sons-mai avec l'argent d'Ipséité Ipséité Va me faire à manger, parle pas d'mes infidélités 'délités Si t'es son ennemi, tes le mien, y'a pas d'ambiguïté 'biguité PGP branché, jnoun de gauche sous l'canapé sous l'canapé J'ai commandé le dernier AMG blanc nacré blanc nacré Comme tous les mecs d'la B.A.C., j'pas fait la F.A.C pas fait la F.A.C Elle veut qu'jlui mette la B.A.G., je trouve ça déplacé trouve ça déplacé Ça fait longtemps qu'tu cherches, la sentence va pas tarder pas tarder Say hello to my little friend, bataradé bataradé J'vais venir avec haine, repartir avec M Ramène pas ta brésilienne ou j'repars avec elle avec elle PGP branché, j'roule des joints dans l'escalier joints dans l'escalier, l'escalier24</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>T.L.T</t>
+          <t>Boulbi</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Back to the Ffuture Mesdames, messieurs, bienvenue B2OBA, 92izi, Saddam Hauts-de-Seine Le Météorite, Sénégal versus Emile Louis Laounizi ROH2Hass, TLF disqualifié T'es menteur, pointeur... ÉMILE ! Restez en Hous' Il n'en restera qu'un ! Le King reste le King, on vous baise tous J'fais un intro, outro Tu fais intro Outreau Sale teur-poin ! Trop longtemps que j'dors sous la couronne, écoute ces vauriens qui se plaignent J'ai transformé le trône en California King Bed Émile, tu es vaincu Comme le bout de ta barbichette... tu es pointu Wesh, mon frère ?! Qu'est-ce que qu'est-ce que tu comptes faire ?! Ton casier dit que t'es un teur-poin donc t'en es un jusqu'à preuve du contraire L'autre co-vaurien fait feats à 2e Jena Lee, Lumidee Alerte au rappeur pointeur à damier Émile Louis Vui' Vois-tu, j'remplis Bercy les doigts dans le cul Choppe ta fille à l'heure au collège, ou Fouiny Babe lui mettra dans l'cul Tu sors d'un concours Skyrock, dois-je te le rappeler ? Tu t'appelles La Fouine, normal que tu veuilles manger à tous les râteliers Pour vous jamais ça n'ira mieux fuyez, sauve qui peut Ta barbichette te sert à mieux chatouiller les tites-pe Tu es la honte des Yvelines, on devrait t'écarteler Guerre sans relâche comme Pyramides contre les Tarterêts Je n'ai pas de marche arrière, je ne pourrai donc pas reculer La voix de mes pères, de mes grands frères me dit Tue-les, tue-les ! Tue-les tous, tue-les, tue-les, tue-les tous Tue-les, tue-les tous, tue-les, tue-les, tue-les ! Je n'ai pas de marche arrière, je ne pourrai donc pas reculer La voix de mes pères, de mes grands frères me dit Tue-les, tue-les ! Tue-les tous, tue-les, tue-les, tue-les tous Tue-les, tue-les tous, tue-les, tue-les, tue-les ! Dans les veines j'ai du poulet braisé, 47-AK pour tous les traîtres Trop de meufs pour toutes les baiser, trop de baskets pour toutes les mettre Après celui-ci, pourront-ils se relever ? Au top là ou je suis.. Dans le tur-fu là ou je vais J'suis l'Boss du Rap Game, t'es qu'un PDRG Bakel City Gang rêve de te dé-vi-er-ger Couilles de bois, serait-ce même du contre-plaqué ? Parait que tu me cherche boloss, viens donc me braquer L.O.L., Smiley Face'zer TLF, Rohff, Emile... Argh ! j'ai envie d'ber-ger Si tu n'protèges pas tes arrières, tu devrais B2O, j'arrête les carrières, pour de vrai ! Tu veux r'gagner ton public d'élèves de CPPN ? Enlève ta fausse chico, renfile ta paire de TN 10 ans qut'envoie des piques, c'est l'heure de s'faire fumer bêtement J'vais t'faire une fleur, j'vais même pas parler d'ta marque de vêtements Je n'ai pas de marche arrière, je ne pourrai donc pas reculer La voix de mes pères, de mes grands frères me dit Tue-les, tue-les ! Tue-les tous, tue-les, tue-les, tue-les tous Tue-les, tue-les tous, tue-les, tue-les, tue-les ! 6 dans le barillet Ils comprendront Quand un drap blanc va les habiller Ils comprendront Je me demande quand est-ce Qu'ils comprendront Chicos par terre, carrières six pieds sous terre, la vie de ma mère Ils comprendront Au lieu de violer des petites, sucer des bites, suce mon revolver Dans mon veau-cer je suis en feat avec de petits hommes verts Je fais la loi dans le carré VIP, avec des renois tah les clips Fouiny Pointu-R Louis, t'as le bonjour de mon équipe Je fais que des hits, pas la peine de discuter Tirons-nous dessus tout de suite, on va pas se disputer 3.5.7 chargé pour faire passer le message Chez nous les happy-endings n'existent qu'au salon de massage Je n'ai pas de marche arrière, je ne pourrai donc pas reculer La voix de mes pères, de mes grands frères me dit Tue-les, tue-les ! Tue-les tous, tue-les, tue-les, tue-les tous Tue-les, tue-les tous, tue-les, tue-les, tue-les !13</t>
+          <t>Boulouloubi, Boulouloubi Bordel, quand on rentre sur la piste On est venus tiser, claquer du biff Pas d'embrouilles man, pas de litiges Sinon ça va saigner est-ce que tu piges ? Hauts-de-Seine, majeur en l'air sur la piste MCs gardez la pêche, vous n'êtes pas sur la liste C'est pas la rue mais l'être humain qui m'attriste Comment leur faire confiance, ils ont tué le Christ Les rappeurs m'envient, sont tous en galère Un jour de mon salaire c'est leur assurance vie, oh J'suis pas dans le game pour les ta-tasses J'suis là depuis Adidas frais comme Ilie Nastase En plein blizzard avec mon BEP vente J'suis condamné au mic, à la vente de substances bizarres Manque de pot j'ai pris la vie dans mes bras, ah Je l'ai serrée si fort je lui ai cassé le dos, oh Devinez qui mène la barre ? J'suis rodave, mon rap s'est laissé pousser la barbe Faites du bruit pour le rap, sa mise à mort B.O. en chair et en os, en chaîne et en or Bordel, quand on rentre sur la piste On est venus tiser, claquer du biff Pas d'embrouille man, pas de litiges Sinon ça va saigner est-ce que tu piges ? À l'aise, j'prends deux, trois, quatre 06 On va t'péter le coccyx à 3 parc'que t'es trop balaise C'est le bon son de Boulbi Mythomanes sont les fans, accroupies sont les groupies Ceci n'est pas pour les mineurs J'arrive de l'ouest en C.L.S, des morceaux d'fesses de C.R.S sous les spinners Déposé dans la street par une cigogne J'en ai déjà la trique, venez me test que je rigole Muet comme un rat mort, libéré à tort, petit prince du hardcore J'démarre au quart comme un Raptor J'suis tatoué, j'vais mourir avec Un flingue dans la cervelle, j'me nourris avec LÉtat fait tout pour nous oublier Si j'traîne en bas de chez toi, j'fais chuter le prix de l'immobilier Ouais mec, bidon d'essence, allumettes J'y vois pas clair sans mon fusil à lunette J'fais plus de biff qu'au tiercé Caliméro se plaint moins, la coquille percée Crack, musique, grosse dose dès le départ MC, toi et moi, trop d'choses qui nous séparent Bordel, quand on rentre sur la piste On est venus tiser, claquer du biff Pas d'embrouille man, pas de litiges Sinon ça va saigner est-ce que tu piges ? À l'aise, j'prends deux, trois, quatre 06 On va t'péter le coccyx à 3 parc'que t'es trop balaise C'est le bon son de Boulbi Mythomanes sont les fans, accroupies sont les groupies Boulogne, Aubervilliers, Garges-lès-Gonesse Grillé les flics et les putains me reconnaissent Ne me tente pas, j'aime trop l'oseille pour être honnête J'suis venu vous gifler, dédicace à Bertrand Cantat Viens faire un tour dans mon gamos gamos 22 pouces, chrome, vamos vamos Millionnaire, comme dirait Abdel Hakim Il n'y a qu'un pas entre le concessionnaire et le car-jacking Majeur en l'air sur la piste MCs gardez la pêche, vous n'êtes pas sur la liste C'est pas la rue mais l'être humain qui m'attriste Comment leur faire confiance, ils ont tué le Christ Bordel, quand on rentre sur la piste On est venus tiser, claquer du biff Pas d'embrouille man, pas de litiges Sinon ça va saigner est-ce que tu piges ? À l'aise, j'prends deux, trois, quatre 06 On va t'péter le coccyx à 3 parc'que t'es trop balaise C'est le bon son de Boulbi Mythomanes sont les fans, accroupies sont les groupies Bordel Bordel10</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>La lettre</t>
+          <t>Comme les autres</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>J'fais beaucoup d'boucan Tu vois bien que je lis peu d'bouquin J'suis pas anarchiste Ton rap c'est de l'art, moi j'suis pas un artiste Comme à l'armée, j'charge et j'tire Dur comme le stahr, j'serai jamais star Pas d'paparazzi d'vant mes stores Lunatic Mon rap c'est dard J'suis die Ma clik c'est d'or Fermé c'est dur B.O, Banlieue Ouest, négro Des holsters avec des micros, ils croient qu'Paris c'est Sarajevo Pourquoi ça gaze autant ? Chez nous y a pas l'OTAN Alors si y a la guerre, ça va durer longtemps Je suis là pour représenter les gars qu'ont pas le temps de plaisanter Ali, Bram's, Mala, je paie la marijuana One five one, dingue est la dinde Kho, c'est du béton, c'est de la jungle Yahia, j'dois niqué darwa, un sous-marin Gerardo Maro 5 ou 6 barres et ça démarre 18 août '98, dans cette putain de maison darrêt Ils me disent que je sors bientôt, à ce qui paraît Je suis pas Snoop, je rappe ils sen foutent, tu sais ce qu'ils mont dit ? Faut que je travaille pour que la pute me donne la condi' Khami la sère-mi comme passer les fêtes au tard-mi Je gamberge et sans mon zoula, impossible de dormir Ecoute Ali, ça va bientôt sarranger, enfin je crois Je tourne avec deux-trois gars du 9-3 Chez nos ennemis ya plus de monde, ils menvoient pas de mandat Pourquoi jécris des textes de ouf, ils se demandent Au fait, paraît que lindustrie du disque a saigné Et que les négros arrêtent pas de signer Jai vu les autres au parloir, paraît que ça papote Bien sûr toujours les mêmes putes, ça sent la douille, ma couille Maintenant je me tiens à carreau, parce quau mitard ça sent la civière Et je rêve de baiser linfirmière, négro Je suis tombé si bas, que pour en parler faudrait que je me fasse mal au dos Putain quelle rime de bâtard ! Bref, quand je sors, ramène-moi une petite pute, bête, sans but Je la ferai crier du bout de ma longue bite Quand on va kick' ça va être tragique, panique à la clinique Magique, cest du 1143 ma 'zique Sinon dans ma cellule, je fais des pompes, jécris des textes, je taffe Et sur les murs jai des photos de 'tasses Et le maton me guette, porte-clefs à perpétuité Si, si, leurs mamans sont des prostituées Maintenant je sais je peux compter sur qui Merci de ton aide, je vais survivre, cest pas le bled ou la Turquie La taule cest la pression, nourrit linstinct de révolution Donc nique sa mère la réinsertion Ils savent pas si jaurais dû naître Quils aillent se faire baiser, moi je veux devenir ce que jaurais dû être Encore des semaines en solo, baise la FM seul Tous comme des hyènes en chien de chiennes derrière des chaînes Cest cheum quon en arrive là Pour que joublie viens samedi quon reparle de cette vie-là Dis bien aux dirigeants, et à leurs mômes Quon a les mains chromées, yeux vert dollar, gun pour pas que les flics chôment Clique, technique de barbare, sse-lai Jharcèle la juge, bientôt jarrache les barbelés On a du boulot, je suis en manque de boule et de goulot Hé tonton ! Jte ferai goûter les pâtes au thon On veut le roro, seulement si Dieu veut on laura Pour linstant je déchire mes draps pour faire des yo-yos Salue les man, lami, paix à ton âme, la vie Continue, envoie de la fraîche que je cantine</t>
+          <t>Sombres négros et Sarrasins, S-NES Izi J'écris mes textes à l'encre d'Afrique et menotté Jean baissé je peux pas mettre de high-kick, 38 chargé sur le coté Le vigile me suit dans le magasin, il a raison il me connait Sinistre négro et Sarrasins boule à zéro sous le bonnet Izi Le malheur est dans le béton, le bonheur est dans le pré Ces cafards ont l'nez dans le Baygon, la 0.9 zer est dans le trait J'boxe avec les mots, Muhammad Ali m'a couronné J'suis dans, l'suis dans l'turfu, j'suis ni de Miami ni d'Boulonnais Mon ciel est noir j'vais demander à Bolloré d'le colorer Quelques boutiques des USA, à rue du Faubourg-Saint-Honoré T'es stringué j'suis culotté J'suis une tonne de bédo, t'es un kilo d'thé Si t'es un avion de chasse, on va s'crasher, c'est sûr, j'sais pas piloter Claque sur le boule elle me suce quand elle roule Cagoule sur le jnoun, c'pas du Michaël Youn Que Dieu me punisse d'être comme les autres Que Dieu me punisse Comme les autres D'être comme les autres Que Dieu me punisse d'être comme les autres Comme les autres Brochettes de rappeurs has-been pour le Mechwi Y a qu'ton arrière-grand-mère la pute qui sait pas qui j'suis Qué pasó, hijo de puto? Qu'est-ce qui se passe? Wesh t'as une petite mine Fais pas le fou sur IG, sur Snap Fais pas le fou sur Twitter je te Meek Mill Je suis né quand les colons ont marché sur Pikine L'union fait la force, d'mande aux victimes Je n'tue pas les marmots, j'suis un chic type Que des numero uno, mon équipe-type Barbe noire, digne corsaire Cours de promenade, hélicoptère Duo armé sur le Hornet Niggas affamés sur le corner Vitesse lumière sur la voie 7 J'aime mes re-frés, pas mon prochain Fais le fou avec moi, dors à Cochin J'suis OKLM sur la croisette Izi Trouve-moi dans le tur-fu je n'suis pas de ce monde J'passe de 0 à 100, en moins de 4 secondes Y a même plus de rre-ba tellement elle est haute Que Dieu me punisse d'être comme les autres Tu suces toute la nuit, t'as ragnagnas T'es fraîche comme la meuf à Sagna Chargeur en forme de banana J'vis comme s'il n'y avait pas de mañana Que Dieu me punisse d'être comme les autres Que Dieu me punisse Comme les autres D'être comme les autres Comme les autres Que Dieu me punisse d'être comme les autres Comme les autres Que Dieu me punisse d'être comme les autres Je vais rentrer dans leur boule, pas dans leur moule Comme l'aurait souhaité Brazza, Allah y rahmou Heaven seven, heaven seven, heaven seven Que Dieu me punisse Qu'il me punisse, me punisse, d'être comme, comme eux Qu'il me punisse, punisse d'être comme les autres Que Dieu me punisse, que Dieu me punisse D'être comme eux, comme les autres Non, non, que Dieu me punisse Que Dieu me punisse d'être comme les autres Qu'il me punisse, me punisse, d'être comme eux, d'être comme eux, qu'il me punisse D'être comme les autres, oh, d'être comme eux Que Dieu me punisse Brochettes de rappeurs has-been pour le Mechwi Que Dieu me punisse Y a qu'ton arrière-grand-mère la pute qui sait pas qui j'suis17</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Daniel Sam</t>
+          <t>D.U.C</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fais comme ces demoiselles, elles savent c'qu'on attend d'elles Couche-toi t'as l'bonjour du KTM brrr tiotou ndem Fais comme ces demoiselles, elles savent c'qu'on attend d'elles Couche-toi t'as l'bonjour du KTM brrr tiotou ndem Izi Le niquage de mère est journalier Un seul coq'zer dans le poulailler J'ai niqué leur go mais c'est normal j'ai tout payé J'reste numero uno comme ça on peut pas m'oublier J'ai pris le jet, l'A7 est embouteillée Ta carrière de chien ne vaut même pas mon mobilier Ma voiture préférée, en vrai c'est la voiture bélier J'ai niqué leur go mais c'est normal j'ai tout payé Je peux reprendre ton flow, c'est papa qui t'l'a donné Aussi rincé qu'tu sois, j'te passe sur OKLM TV B2O Bogota, j'pèse 3 millions d'kilos d'C Allah facilite, moi j'mets en difficulté J'nique des mères à 40 piges fuck un accident d'jeunesse Boulbi, Aulnay-sous, Charo comme l'Essonnegeles Omar est PNL, B2O est de la banlieue Ouest La go attend son halal, rate-pi veut pute de l'Est Aucune infraction dans ton CV J'mets pas de beuh de ma chicha, collage à droite OCB Année du dragon négro est né J'n'épargne aucune maman sauf celles qui ont du henné Noumou démé Zongo Bozo tu es pardonné Tu t'es pris pour le Calife à un moment donné Ce sont des choses qui arrivent petite tchoin que tu es Si j'en suis là, Zongo, c'est parce que j'ai charbonné Gato da Bato, zo out deja fout' konin J'suis dans airs, pas dans bouchons, moi pas connaître klaxonner Ton casier est vierge même pas une peine aménagée Moïse ouvra la Mer en deux, perso j'y serais jamais allé J'lâcherai pas le steak, encore moins la chicken wings Le matin devant le miroir j'ai la muerte tout comme Vinz Rafale de 11.43, rares sont ceux qui l'esquivent Le F.L.O.W n'est pas clair, demande à Darki et Steeve Le niquage de mère est journalier Un seul coq'zer dans le poulailler J'ai niqué leur go mais c'est normal j'ai tout payé J'reste numero uno comme ça on peut pas m'oublier J'insulte pas les mères sauf celle de Patrice Quarteron la tchoin Daniel Sam t'a sodomisé j'étais aux States je roulais mon joint J'insulte pas les mères sauf celle de Patrice Quarteron la tchoin Daniel Sam t'a sodomisé j'étais aux States je roulais mon joint La piraterie n'est jamais finie La piraterie n'est jamais finie Ta carrière est tombée du nid Je ne fête plus quand j'fais le milli' Je ne suis pas de ceux qu'on humilie La piraterie n'est jamais finie, piraterie n'est jamais finie Le niquage de mère est journalier15</t>
+          <t>Étoiles et constellations D.U.C Ne fais pas semblant 92i D.U.C à l'entrée du domaine, retiens ces lettres de noblesse J'suis en no sleep toute la semaine, t'es en topless pour pas finir homeless Tous les ratepis nous connaissent, Quartiers nord de Marseille, Garges-lès-Gonesse L.A.M.B.O, no stress, Est-ce le dernier modèle baby ? Oh yes ! Semelles rouges, c'est pas Louboutin c'est le sang de l'adversaire Est-ce que mon fils est un gosse de riche si j'l'ai conçu dans le RR ? Fartas, pas de brushing, L.U.N.A ma go sûre Pas de terma, pas de fucking, le crime je l'ai appris sans la brochure J'dois faire du ffre-chi ffre-chi, liasse longue comme le bre-chi B.2O.B.A De Vinci, je n'ai pas deux poumons, j'ai deux blocs de teshi D.U.C descend armé du bananier très mal accompagné Plusieurs fois condamné, j'me souviens plus de toi, négro, j'fume trop d'amné' De l'opium sur mon tablier, cocaïne dans nos sabliers L'argent les fait oublier, je les baise sur des planches à billets J'aurai bientôt assez de biff'zer pour acheter le Costes A force de sucer, de mettre du gloss, mon négro, tu vas rater le coche O.G. Kush, tout le monde veut gratter le boss Je viens d'Afrique comme Ebola, je ne vais pas lâcher le poste Je suis un boss, un pirate, je ne peux voter pour personne Sors les Magnum, c'est moi qui règle, Benjamin Franklin c'est ma biatch Je n'ai fait que rouler ma bosse, pourquoi tu veux trouer ma poche ? Pocahontas, pétasse, pétasse, Avenue Foch J'fais trop d'oseille, mon négro, j'fais trop d'oseille, je vais devoir changer de coffre Rien à foutre de ma Rolls, couilles modifiées, dures comme balles de golf D.U.C descend armé du bananier très mal accompagné Plusieurs fois condamné, j'me souviens plus de toi, négro, j'fume trop d'amné' De l'opium sur mon tablier, cocaïne dans nos sabliers L'argent les fait oublier, je les baise sur des planches à billets Étoiles et constellation, faites que Omar Yaffa devienne céleste Dur de s'entendre des fois, donc le bazooka passe le salam Tu rêves de fusils mitrailleurs, j'dors sur un gisement de R-1 J'suis sur un terrain glissant, t'es sur un glissement de terrain Sergueï, soldat, bégaye pas, jamais, jamais Renoi, billaye, n'essaie pas, jamais, jamais Jouez-leur du Nique Ta Mère, jouez-leur Le Monde de Demain Si le Ciel ne veut pas que je tombe, qu'il écarte ces chiens de mon chemin C'est pas la street mon idole, mais fuck le strict minimum Si t'as la coupe, c'est du bol, de la chatte, sous le diamant c'est du gold Insulte pas mon ignorance, j'les couvre d'or et de semence Y'a que Dieu qui fait clémence, on va te fumer pour voir si tu recommences Beaucoup de connaissances, très peu de vrais amis Les négros bé-tom le vendredi, les balances sortent le samedi25</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Blanche</t>
+          <t>Nougat</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Unprediktable Denza Gérald got that fire, boy Très loin dêtre parfait mais tinquiète pas, ça ira Au ciel, on va aller, j'vais laisser mes biens en bas Toutes mes années dgalère où jme disais ça ira Fais un pas de travers, une bécane, tu ten iras Jv'-esqui le parquet, cest soit Bercy soit du ferme Jsuis dans le carré, loin dBois-dArcy, jai mon fer Jbarode dans la ville, sept cents chevaux Ferrari Tu connais ltarif, fais pas lgrossiste pour un kil' Jbicrave à pas dheure, jvends la moula dans le bendo Douze heures à douze heures, jfais partir trois kilos daya Ta go' veut un marmot, moi, jvoulais juste la ken Te-shi m'rend paro, jme rappelle plus dla veille J'visser la night, elle va s'en remettre, si tu savais Blanche ou caramel, j'ai son remède J'visser la night, elle va s'en remettre, si tu savais Blanche ou caramel, j'ai son remède Nous restâmes sur le bateau, jamais il ne chavira Je devais voir Anne-So', au final, jai vu Samira Passe-moi à travers, jamais tu nme graviras Tu nas pas de valeur, jamais on nse ralliera Je nconnais pas le banc à part celui de la G.A.V Drapeau est noir et blanc, je reste devant, je préfère être à lattaque Si j'nai plus dlimite, je marrête où ? Jpends mon linge sale devant personne, je rachète tout Je ne demande quà taimer, te montrer mon Makélélé Le Versace, le DG, elle est trop bonne, wallaye, c'est B Je vais lemmener à létranger, peut-être sur place, jvais léchanger Faire le hlel ou létrangler, jsuis quen léger, que la CB Jdrague à la Momo Henni, beaucoup de cash, je la séduis On m'tire dessus, jentends des bruits, même en réserve, je la détruis Jviens du 9.2, la quality, tu connais djà létat desprit Elle m'a d'mandé combien ça coûte comme si javais regardé lprix J'visser la night, elle va s'en remettre, si tu savais Blanche ou caramel, j'ai son remède J'visser la night, elle va s'en remettre, si tu savais Blanche ou caramel, j'ai son remède Nous restâmes sur le bateau, jamais il ne chavira Je devais voir Anne-So', au final, jai vu Samira Passe-moi à travers, jamais tu nme graviras Tu nas pas de valeur, jamais on nse ralliera Oh, oh, oh Oh, oh, oh Oh, oh, oh Oh, oh, oh Elle va sen remettre, si tu savais Blanche ou caramel, j'ai son remède Elle va sen remettre, si tu savais4</t>
+          <t>Kela' Ces pédés d'condés ne me questionnent plus J'ai trop baisé, beautés ne mimpressionnent plus J'envoie du gaz, il y a plus d'ONU Dans l'XVI, dans la rue, j'suis le plus connu Que des indigènes dans le BM bang Que des strings ficelles dans les DM bang Pas de je t'aime que des dèmes non, non Les cojones pleines d'OGM bang J'baise vétérans et les rookies hey J'nique tout, les naines et les rouquines ouh 92 izi, the cocaine is cooking J'rentre d'un footing avec Vladimir Poutine T'embrouilles l'pirate, on te soulève, hein Tu pues d'la chatte, on te Febreze, hein J'crois j'peux arrêter l'pe-ra après c'couplet Je vais lui ruiner tte-cha dans le coupé Gamos est pimpé, pute est modifiée Les vues sont pipées, mort j'serai momifié Mais j'suis D.U.C, fuck un pharaon Pute est médusée, suce le macaron J'n'ai plus d'besoins que des envies, hein Le noir est méchant, l'blanc est gentil, hein J'repeins de blanc l'cul d'Ashanti C'ui qui dit qu'il est meilleur, il a menti ouh La juge m'a dit Pourquoi t'as fait ça ? pourquoi ? Ounga, ounga, ounga, ounga ouh Caramel, mula, le nougat Voilà pourquoi, madre puta Tous mes méfaits sont relatés Et tous ces négros sont frelatés Elle aime mon teint chocolaté Chibre épais l'a fait comater Bonne nuit, tchoin Biatch, dors Kalachnikov sur le mirador Trésor enterré à Ziguinchor Bateau pirate vient de rentrer au port Sur la falaise, j'passe ma vie au bord Taureau sur capot baise le Minotaure B2OBA dans le Billboard Jack Sparrow, Willy le Borgne La juge m'a dit Pourquoi t'as fait ça ? pourquoi ? Ounga, ounga, ounga, ounga Caramel, mula, le nougat izi Voilà pourquoi, madre puta Tellement d'écus, j'ai pas b'soin d'être beau Elle m'donnerait son cul même si j'étais gros Le zer de Nicki s'est affaissé, oh Vitesse lumière dans le GT, oh J'suis dans politique, dans tous les coins J'ramène des tchoins pour le maire-adjoint Assis dans Porsche Panamera, loin Le game ne s'est pas gagné aux points Elle m'a dit baise-moi comme un animal Donc je n'ai pas embrassé la go J'laisse carte aux trésors si je finis mal Pour nous, par nous, gravé sous la peau Ma carrière a l'voile, la tienne a les bzez à l'air La main sur le gun, l'autre sur un implant mammaire Mon prof' m'a dit tu finiras à Nanterre Je n'voulais pas réussir de toute manière Dos argenté vient d'sortir du zoo oh Flics alcoolos dans le Berlingo ouloulou Chérie coco, j'ai pris la GoPro Le cul sur OKLM, ça clique à gogo Ensuite on fait comme les Kardashian Toi montrer chatte, on fait plein d'argent Sur OG Kush, jeffrite de l'afghan Ton Uber est là, pute, qu'est-ce que t'attends ? La juge m'a dit Pourquoi t'as fait ça ? Ounga, ounga, ounga, ounga Caramel, mula, le nougat izi Voilà pourquoi, madre puta20</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PGP</t>
+          <t>C’est la vie</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Izi izi PGP branché, la ne-zo est quadrillée est quadrillée C'est un peu plus cher au zoo mais c'est d'la qualité d'la qualité Le flic tueur d'Adama Traoré s'ra acquitté acquitté Maes m'a dit Kopp, la madrina veut s'marier marier Toujours prêt à niquer des mères, j'tenais à l'souligner souligner Les gamos, les mansions, les grosses tchoins, tout y est J't'l'ai mise dans l'cul sur un son de cain-ri, je n'peux plus t'oublier oublier Pour avoir un gros billet, j'me mets dans bourbier dans bourbier Tu parles chinois d'puis la maternité maternité C'est bien d'avoir les grenades mais sais-tu dégoupiller ? J'veux les funérailles de MLK, pas d'Johnny Hallyday Johnny Hallyday Nique ta mère par le cul, les rates-pi n't'ont pas validé pas validé PGP branché, 9 milli pour t'saccager pour t'saccager Pose tes fesses sur mon son, j's'rai obligé d'te partager te partager J'ai signé avec Dieu mais Iblis veut me manager manager Je vais te faire les contours mais j'vais t'les faire à la craie faire à la craie Si tu parles mal d'la bouche, la violence va escalader 'calader Say hello to my little friend, bataradé bataradé J'suis sorti calibré, j'écoute Train de vie d'Koba LaD Koba LaD J'suis Captain Africa, vert-jaune-rouge sur l'bouclier Sa mère ne m'aime pas, elle dit qu'j'dis trop d'obscénités d'obscénités J'viens d'acheter deux sons-mai avec l'argent d'Ipséité Ipséité Va me faire à manger, parle pas d'mes infidélités 'délités Si t'es son ennemi, tes le mien, y'a pas d'ambiguïté 'biguité PGP branché, jnoun de gauche sous l'canapé sous l'canapé J'ai commandé le dernier AMG blanc nacré blanc nacré Comme tous les mecs d'la B.A.C., j'pas fait la F.A.C pas fait la F.A.C Elle veut qu'jlui mette la B.A.G., je trouve ça déplacé trouve ça déplacé Ça fait longtemps qu'tu cherches, la sentence va pas tarder pas tarder Say hello to my little friend, bataradé bataradé J'vais venir avec haine, repartir avec M Ramène pas ta brésilienne ou j'repars avec elle avec elle PGP branché, j'roule des joints dans l'escalier joints dans l'escalier, l'escalier24</t>
+          <t>Back to the Future Tu veux savoir c'que j'ai dans la tête ? Compte en sse-Sui, Merco Benz Lamborghini, J-Lo Beyoncé Biatch !, Jack, bédo J'suis défoncé, Deux couilles, un cerveau pour m'en sortir Izer, dans l'building izer j'monte un empire Tu parles sur moi, j'ai eu des ouï-dires Haha, j'compte les bolosses pour m'endormir Nouvelle paire de Five, pèse comme 200 braquo Glock seventeen, kala-kalashnikov draco 2Chainz dans le building, mon Lambo sort de l'usine J'suis dans le paiement cash négro t'es dans le leasing Trop d'gos, j'choisis laquelle ? Bad boy, on est àl man B2O vient de Bakel, j'suis noir, mat, j'suis comme Batman Lion indomptable j'croyais qu'j'étais gal-Sèn, mais en fait je suis Camer Compte jusqu'à 5 renoi, va niquer ta mère J'contrôle la zone j'suis en enquête, Or jaune comme les ancêtres Noir, blanc, j'suis la Juve, je ne mens que chez la juge 140 kilogrammes, 10 reps J'veux une meuf matérialiste comme ça j'suis sur d'la baiser direct D'puis le bac à sable on te hagar... C'est la vie ! 340 flashé au radar... C'est la vie ! J'p-J'pèse comme au Qatar... C'est la vie ! Fais-toi une raison petit bâtard... C'est la vie ! Euros, euros, euros Euros, euros, euros Euros, euros... izi Petit bâtard... C'est la vie ! I'm strapped up and I'm violent, 'bout to start a riot See this chick, take her to the bathroom and I fucked her on the toilet Live life, get right Get wrong, click clack, and I shoot your ass, it'll be goodnight Wake up, good luck, I'm riding 'round with my top down Ride around, all eyez on me, so I ride around 2Pac now Causing mass hysteria, France to America Nobody comparin' us Every line is angel dust, that means it's dope nigga You can get high, on one of my quotes nigga B.O.A.T.S. nigga. That's based on a true story Fuck around and get two burst, stack my money high like two storey Hey baby, are you okay baby? I'll buy you so many purses you will be a bag lady My swag crazy, and my cash crazy Two hundred on the dash, I'm doing 180 D'puis le bac à sable on te hagar... C'est la vie ! 340 flashé au radar... C'est la vie ! J'p-J'pèse comme au Qatar... C'est la vie ! Fais-toi une raison petit bâtard... C'est la vie ! Euros, euros, euros Euros, euros, euros Euros, euros... izi Petit bâtard... C'est la vie ! Tous les soirs c'est le four, tous les soirs c'est le halla Love pour tous mes vautours, Brazza tu n'es pas là Yahia, Poulos, Lourd-Lourd, Ibou, Mala Longue vie à nous inch'Allah, longue vie à vous inch'Allah Rate-pi, violent, Rap Game sanguinolent Bakel City Gang, fume de la François Hollande Passe-toi la chatte au carwash, va m'faire un kahwa Punchline, K1, gamos est de Allemagne AMG, Brabus, t'as no swag LaurentFabius Ünkut nouvelle collec', zéro heures zéro sur ma Rolex MC désespéré, sans selle sur le Solex Poulos m'a dit Vas-y molo avec ces boloss Mode piranha sur l'BPM Renoi bouge pas, j'crois que Rihanna me BBM Comme toi elle voudrait goûter au Bakel City Gang Le rap français vient d'se faire shooter, izi izi, bang bang D'puis le bac à sable on te hagar... C'est la vie ! 340 flashé au radar... C'est la vie ! J'p-J'pèse comme au Qatar... C'est la vie ! Fais-toi une raison petit bâtard... C'est la vie ! Euros, euros, euros Euros, euros, euros Euros, euros... izi Petit bâtard... C'est la vie !6</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Boulbi</t>
+          <t>Temps mort 2.0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Boulouloubi, Boulouloubi Bordel, quand on rentre sur la piste On est venus tiser, claquer du biff Pas d'embrouilles man, pas de litiges Sinon ça va saigner est-ce que tu piges ? Hauts-de-Seine, majeur en l'air sur la piste MCs gardez la pêche, vous n'êtes pas sur la liste C'est pas la rue mais l'être humain qui m'attriste Comment leur faire confiance, ils ont tué le Christ Les rappeurs m'envient, sont tous en galère Un jour de mon salaire c'est leur assurance vie, oh J'suis pas dans le game pour les ta-tasses J'suis là depuis Adidas frais comme Ilie Nastase En plein blizzard avec mon BEP vente J'suis condamné au mic, à la vente de substances bizarres Manque de pot j'ai pris la vie dans mes bras, ah Je l'ai serrée si fort je lui ai cassé le dos, oh Devinez qui mène la barre ? J'suis rodave, mon rap s'est laissé pousser la barbe Faites du bruit pour le rap, sa mise à mort B.O. en chair et en os, en chaîne et en or Bordel, quand on rentre sur la piste On est venus tiser, claquer du biff Pas d'embrouille man, pas de litiges Sinon ça va saigner est-ce que tu piges ? À l'aise, j'prends deux, trois, quatre 06 On va t'péter le coccyx à 3 parc'que t'es trop balaise C'est le bon son de Boulbi Mythomanes sont les fans, accroupies sont les groupies Ceci n'est pas pour les mineurs J'arrive de l'ouest en C.L.S, des morceaux d'fesses de C.R.S sous les spinners Déposé dans la street par une cigogne J'en ai déjà la trique, venez me test que je rigole Muet comme un rat mort, libéré à tort, petit prince du hardcore J'démarre au quart comme un Raptor J'suis tatoué, j'vais mourir avec Un flingue dans la cervelle, j'me nourris avec LÉtat fait tout pour nous oublier Si j'traîne en bas de chez toi, j'fais chuter le prix de l'immobilier Ouais mec, bidon d'essence, allumettes J'y vois pas clair sans mon fusil à lunette J'fais plus de biff qu'au tiercé Caliméro se plaint moins, la coquille percée Crack, musique, grosse dose dès le départ MC, toi et moi, trop d'choses qui nous séparent Bordel, quand on rentre sur la piste On est venus tiser, claquer du biff Pas d'embrouille man, pas de litiges Sinon ça va saigner est-ce que tu piges ? À l'aise, j'prends deux, trois, quatre 06 On va t'péter le coccyx à 3 parc'que t'es trop balaise C'est le bon son de Boulbi Mythomanes sont les fans, accroupies sont les groupies Boulogne, Aubervilliers, Garges-lès-Gonesse Grillé les flics et les putains me reconnaissent Ne me tente pas, j'aime trop l'oseille pour être honnête J'suis venu vous gifler, dédicace à Bertrand Cantat Viens faire un tour dans mon gamos gamos 22 pouces, chrome, vamos vamos Millionnaire, comme dirait Abdel Hakim Il n'y a qu'un pas entre le concessionnaire et le car-jacking Majeur en l'air sur la piste MCs gardez la pêche, vous n'êtes pas sur la liste C'est pas la rue mais l'être humain qui m'attriste Comment leur faire confiance, ils ont tué le Christ Bordel, quand on rentre sur la piste On est venus tiser, claquer du biff Pas d'embrouille man, pas de litiges Sinon ça va saigner est-ce que tu piges ? À l'aise, j'prends deux, trois, quatre 06 On va t'péter le coccyx à 3 parc'que t'es trop balaise C'est le bon son de Boulbi Mythomanes sont les fans, accroupies sont les groupies Bordel Bordel10</t>
+          <t>J'parle de botanique, de crime et d'arnaque Nègre, complet noir, faucheuse, comme le Dark Knight Couplet sale, violent jusqu'à la moelle osseuse Nos vers c'est la grande versus la p'tite bosseuse Picasso sous crack, image défigurée Gros Kamasutra, le cul du rap est fissuré J'ai l'arme en rut cette pute a envie d'tirer J'ai perdu l'âme en route, par l'vide attiré Musique émasculée prise dans la masse de tubes Comme quand Edward aux mains d'argent s'masturbe J'suis miraculé, j'rappe, j'sais d'où j'viens, où j'vais Le soleil pionce, la lune devient ma lampe de chevet Jaune, violet, vert mon côté militant est sceptique Dans ma tête c'est les Lakers contre les Celtics Toujours personne après nous, là j'm'écarte d'la norme J'fais l'contrôle des naissances au .44 Magnum Compris l'message ? On est d'la même race Fusée noire, Jesse Owens face au troisième Reich Des grands j'ai l'étoffe, j'ai l'cran, aux appels d'offre J'réponds. J't'écrase des verres sur l'crâne Mazel Tov ! J'chante, tu crames, la masse proteste... J'ai foiré tous mes examens, j'réussis l'alcootest Le monde est d'jà mien, t'es sur une fausse piste Tu veux que j'passe la main mais y a plus qu'des puceaux avec la chaude pisse Tch, Tch Sont personne au quartier, j'ai fait le tour de leur tess J'arrive chez eux, six heures du mat, avec la tête de leur chef Même pour acheter du plaqué t'attends que le cours de l'or baisse Ils veulent rivaliser négro, ils font, ils font de leur best Rien à gratter sauf maladie, j'ai fait le tour de leurs fesses S.E.G.P.A for life, j'ai fait le tour de leurs textes Si je les mets pas à poil ils vont retourner leur veste Les ratpis vont t'allumer, n'vont pas regretter leur geste J'vais tellement t'enculer tu vas détester le sexe Le négro nous a quitté je me suis fait tatouer le 7 Je suis sur OKLM pendant que vous lisez l'Express J'tire sur les fils de pute, toi tu veux sauver l'espèce Il en restait beaucoup trop la dernière fois que j'ai check Fuck être un lyriciste négro, j'suis là qu'pour ramener les chèques On s'attaque pas aux convoyeurs avec un 504 break Dans The Wire t'es Method Man, j'suis le grec Glock dans la bouche, j'm'en vais pas sans la malette J'suis dans les nique ta mère t'es dans les salamalecs Petit coup d'crosse derrière la tête quand t'arrives pas à yer-p Tu peux pas me mettre à sec même si t'es Salma Hayek J'parle wolof touti rek, jappellerai pas à l'aide Diokhma khaliss ou handek, je tire quand j'ai pas à lekk J'suis Secteur Ä, j'suis Time Bomb, c'est Athéna qui m'allaite Je vais les baiser E-R c'est pas Omar qui m'a ué-t Turfu !42</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Comme les autres</t>
+          <t>Bakel City Gang</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sombres négros et Sarrasins, S-NES Izi J'écris mes textes à l'encre d'Afrique et menotté Jean baissé je peux pas mettre de high-kick, 38 chargé sur le coté Le vigile me suit dans le magasin, il a raison il me connait Sinistre négro et Sarrasins boule à zéro sous le bonnet Izi Le malheur est dans le béton, le bonheur est dans le pré Ces cafards ont l'nez dans le Baygon, la 0.9 zer est dans le trait J'boxe avec les mots, Muhammad Ali m'a couronné J'suis dans, l'suis dans l'turfu, j'suis ni de Miami ni d'Boulonnais Mon ciel est noir j'vais demander à Bolloré d'le colorer Quelques boutiques des USA, à rue du Faubourg-Saint-Honoré T'es stringué j'suis culotté J'suis une tonne de bédo, t'es un kilo d'thé Si t'es un avion de chasse, on va s'crasher, c'est sûr, j'sais pas piloter Claque sur le boule elle me suce quand elle roule Cagoule sur le jnoun, c'pas du Michaël Youn Que Dieu me punisse d'être comme les autres Que Dieu me punisse Comme les autres D'être comme les autres Que Dieu me punisse d'être comme les autres Comme les autres Brochettes de rappeurs has-been pour le Mechwi Y a qu'ton arrière-grand-mère la pute qui sait pas qui j'suis Qué pasó, hijo de puto? Qu'est-ce qui se passe? Wesh t'as une petite mine Fais pas le fou sur IG, sur Snap Fais pas le fou sur Twitter je te Meek Mill Je suis né quand les colons ont marché sur Pikine L'union fait la force, d'mande aux victimes Je n'tue pas les marmots, j'suis un chic type Que des numero uno, mon équipe-type Barbe noire, digne corsaire Cours de promenade, hélicoptère Duo armé sur le Hornet Niggas affamés sur le corner Vitesse lumière sur la voie 7 J'aime mes re-frés, pas mon prochain Fais le fou avec moi, dors à Cochin J'suis OKLM sur la croisette Izi Trouve-moi dans le tur-fu je n'suis pas de ce monde J'passe de 0 à 100, en moins de 4 secondes Y a même plus de rre-ba tellement elle est haute Que Dieu me punisse d'être comme les autres Tu suces toute la nuit, t'as ragnagnas T'es fraîche comme la meuf à Sagna Chargeur en forme de banana J'vis comme s'il n'y avait pas de mañana Que Dieu me punisse d'être comme les autres Que Dieu me punisse Comme les autres D'être comme les autres Comme les autres Que Dieu me punisse d'être comme les autres Comme les autres Que Dieu me punisse d'être comme les autres Je vais rentrer dans leur boule, pas dans leur moule Comme l'aurait souhaité Brazza, Allah y rahmou Heaven seven, heaven seven, heaven seven Que Dieu me punisse Qu'il me punisse, me punisse, d'être comme, comme eux Qu'il me punisse, punisse d'être comme les autres Que Dieu me punisse, que Dieu me punisse D'être comme eux, comme les autres Non, non, que Dieu me punisse Que Dieu me punisse d'être comme les autres Qu'il me punisse, me punisse, d'être comme eux, d'être comme eux, qu'il me punisse D'être comme les autres, oh, d'être comme eux Que Dieu me punisse Brochettes de rappeurs has-been pour le Mechwi Que Dieu me punisse Y a qu'ton arrière-grand-mère la pute qui sait pas qui j'suis17</t>
+          <t>A4 2093 92izère Sénégal DKR Bakel City Gangster Mon meilleur srab est mort jsuis blasé de la life Les démons sortent la nuit négro jsuis guerrier de la night Ici que de la frappe, du bif et de la chatte Laisse-les jouer des maracas Gorilla Thug, chien de la casse 92 pas de fioritures, jveux pussy, gamos, nourriture Le reste jle laisse aux bolosses hein, jles laisse la couler dur Le vice est àl bien vi-ser, la haine est viscérale Vaisseau mère faucon mili, flow intersidéral Lève ta main si tas du Jack, des gros culs à ta ble-ta Nos meufs sont trop malades, les négros pètent un ble-ca Toujours plus haut je grimpe, plus dur je vais tomber Le savoir est une arme jsuis calibré donc jsuis pas te-bé Un grec après minuit, salut ma clique de Gremlins Euro, Dollars US, Izi Livre Sterling La banlieue devient mahboul, Kopp olympique, Swagg Brahim Asloum Bim Bam Boom la chatte à Mac Doom Jai jamais été suicidaire même avec rien dans lfrigidaire Jpréfère niquer des mères sur lrainté mode paramilitaire Jdéfouraille lui ou elle, criminel depuis le minitel Vole de mes propres ailes B.A.K.E.L. City Gang Gang Gang Gang Gang B.A.K.E.L. City Gang Gang Gang Gang Gang B.A.K.E.L. City Gang Face à ton équipe, tinquiètes un seul homme sadapte Dis-leur de rester tranquille, personne va sodom Saddam Saddam Hauts-de-Seine, Bakel City Gangster Guinée Conakry, Clamart cest àl que jveux quon menterre On a perdu meilleur soldat, jsuis blasé de la life Jte tire dessus comme Cobra brrah j'danse plus la hype La vie nest pas un rêve dailleurs jen fais des cauchemars Ü sur le polo, Versace sur le costard Fais pas dbizz avec mes négros si tu peux pas les yép Ma force de frappe est militaire tu parles en coup dtête balayette Allez, nique ta mère! j'tire dans le crâne, j'vise pas dans les ieps Si tu les ap joue pas le gangster dans la street fallait y être Moi jai rien à prouver, mon casier parle en ma défaveur Eux ils ont des godes, nous on est des godfathers Izi train de vizie soucizi calvitizie gros bre-chi par icizie Dans Oz jsuis Adebisi Izi, izi, izi Jai jamais été suicidaire même avec rien dans lfrigidaire Jpréfère niquer des mères sur lrainté mode paramilitaire Jdéfouraille lui ou elle, criminel depuis le minitel Vole de mes propres ailes B.A.K.E.L. City Gang Gang Gang Gang Gang B.A.K.E.L. City Gang Gang Gang Gang Gang B.A.K.E.L. City Gang Rajoute des 0 pour quon conclue, barbu comme Carlos Boozer Cétait juste moi dans ton cul, tas cru quon était plusieurs Jdis pas ce que jfais ni à ma pute, ni sur Twitter Jfinirais en taule avait prédit mon instituteur Pas besoin dêtre marabout pour savoir que jtournais mal Pas besoin dallumer ta radio à tous les feux rouges on est àl Jai fait mes classes à la ZUP, quand jaboie ça chuchote La France d'en haut, porte mini-jupe, donc je vois sa culotte Les keufs te questionnent rappelles-toi quand on ta dit chut Aulnay-Sous-Bois lASB te tombent dessus pas le temps de dire zut Mon kho était le meilleur, jsuis blasé de la life Tous plus intelligents que lplus haut-gradé de la BAC Souvent jpense à la téss man jai pas vraiment la pêche Les putes passent à la caisse que des vrais négros dans la pièce Souvent jpense à la téss man jai pas vraiment la pêche Les putes passent à la caisse que des vrais négros dans la pièce Jai jamais été suicidaire même avec rien dans lfrigidaire Jpréfère niquer des mères sur lrainté mode paramilitaire Jdéfouraille lui ou elle, criminel depuis le minitel Vole de mes propres ailes B.A.K.E.L. City Gang Gang Gang Gang Gang B.A.K.E.L. City Gang Gang Gang Gang Gang B.A.K.E.L. City Gang7</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>D.U.C</t>
+          <t>Mona Lisa</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Étoiles et constellations D.U.C Ne fais pas semblant 92i D.U.C à l'entrée du domaine, retiens ces lettres de noblesse J'suis en no sleep toute la semaine, t'es en topless pour pas finir homeless Tous les ratepis nous connaissent, Quartiers nord de Marseille, Garges-lès-Gonesse L.A.M.B.O, no stress, Est-ce le dernier modèle baby ? Oh yes ! Semelles rouges, c'est pas Louboutin c'est le sang de l'adversaire Est-ce que mon fils est un gosse de riche si j'l'ai conçu dans le RR ? Fartas, pas de brushing, L.U.N.A ma go sûre Pas de terma, pas de fucking, le crime je l'ai appris sans la brochure J'dois faire du ffre-chi ffre-chi, liasse longue comme le bre-chi B.2O.B.A De Vinci, je n'ai pas deux poumons, j'ai deux blocs de teshi D.U.C descend armé du bananier très mal accompagné Plusieurs fois condamné, j'me souviens plus de toi, négro, j'fume trop d'amné' De l'opium sur mon tablier, cocaïne dans nos sabliers L'argent les fait oublier, je les baise sur des planches à billets J'aurai bientôt assez de biff'zer pour acheter le Costes A force de sucer, de mettre du gloss, mon négro, tu vas rater le coche O.G. Kush, tout le monde veut gratter le boss Je viens d'Afrique comme Ebola, je ne vais pas lâcher le poste Je suis un boss, un pirate, je ne peux voter pour personne Sors les Magnum, c'est moi qui règle, Benjamin Franklin c'est ma biatch Je n'ai fait que rouler ma bosse, pourquoi tu veux trouer ma poche ? Pocahontas, pétasse, pétasse, Avenue Foch J'fais trop d'oseille, mon négro, j'fais trop d'oseille, je vais devoir changer de coffre Rien à foutre de ma Rolls, couilles modifiées, dures comme balles de golf D.U.C descend armé du bananier très mal accompagné Plusieurs fois condamné, j'me souviens plus de toi, négro, j'fume trop d'amné' De l'opium sur mon tablier, cocaïne dans nos sabliers L'argent les fait oublier, je les baise sur des planches à billets Étoiles et constellation, faites que Omar Yaffa devienne céleste Dur de s'entendre des fois, donc le bazooka passe le salam Tu rêves de fusils mitrailleurs, j'dors sur un gisement de R-1 J'suis sur un terrain glissant, t'es sur un glissement de terrain Sergueï, soldat, bégaye pas, jamais, jamais Renoi, billaye, n'essaie pas, jamais, jamais Jouez-leur du Nique Ta Mère, jouez-leur Le Monde de Demain Si le Ciel ne veut pas que je tombe, qu'il écarte ces chiens de mon chemin C'est pas la street mon idole, mais fuck le strict minimum Si t'as la coupe, c'est du bol, de la chatte, sous le diamant c'est du gold Insulte pas mon ignorance, j'les couvre d'or et de semence Y'a que Dieu qui fait clémence, on va te fumer pour voir si tu recommences Beaucoup de connaissances, très peu de vrais amis Les négros bé-tom le vendredi, les balances sortent le samedi25</t>
+          <t>Ouais Ouais Ouais J'suis tellement loin, l'futur est derrière moi derrière moi, derrière moi, derrière moi J'ai tous les contacts, allons leur prendre de l'oseille Le canon est froid, il veut te parler à l'oreille J'espère que je serai prêt le jour où ça va chier J'ai perdu des amis, des vrais, de nombreux anges m'ont lâché Avec la horde, flingue à la main, d'vant la fête Je vais m'endormir à la morgue, m'réveiller d'une balle dans la tête J'me suis fait piquer comme un veau, combien vaut mon futur ? J'sais pas Laissez-nous voir nos fils, nous dire qu'ils sont papas La hagra, ça paye pas, apparemment si J'ai l'impression que ça va pas, j'ai coupé l'canon à la scie Tu honores le mauvais drapeau, ton étendard t'a menti Pablo Escobar sous la peau, tu ressors faire un ient-cli Saint-Martin, côté hollandais, paquets flottants, cocaina Un cheat code pour la crypto', mettez-moi deux Mona Lisa Faudra les fumer avant ou ça va tourner au drame Diallo m'a pris 200 eu' pour un grigri contre les balles J'suis tellement loin, l'futur est derrière oi-m J'vois tout en mauve, en PayPal, mi-négro, mi-Néandertal Pas d'sang, pas d'révolution, que des sans issue au sommaire Comme dans chaque exécution On remonte la te-rou surchargés, ça envoie l'bédo à mes timals Que du cash dans le réseau, mettez-moi deux Mona Lisa Faudra les fumer avant ou ça va tourner au drame Zizou m'a dit Descends-les, ça va nous rapporter des balles C'qu'on a commencé, on l'achèvera, tu peux demander à Ibou On allume ton bout-mara poh, poh tant que le Ciel est avec nous Parler, ne m'intéresse pas, j'préfère tous les mettre à genoux hey, hey Papote avec mon 12 coups, p't-être que tu l'intéresseras pah, pah La hagra, ça paye pas, pourtant, j'ai grossi La honda, JSX, numéro 10, Maradona On a fumé l'espoir, faut toucher du bois pah, pah Fuck ton abus d'pouvoir, chez moi, c'est les balles qui font la loi Saint-Martin, côté hollandais, paquets flottants, cocaina Un cheat code pour la crypto', mettez-moi deux Mona Lisa Faudra les fumer avant ou ça va tourner au drame Diallo m'a pris 200 eu' pour un grigri contre les balles J'suis tellement loin, l'futur est derrière oi-m J'vois tout en mauve, en PayPal, mi-négro, mi-Néandertal Pas d'sang, pas d'révolution, que des sans issue au sommaire Comme dans chaque exécution Paquet flottant, cocaina9</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Nougat</t>
+          <t>Terrain</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Kela' Ces pédés d'condés ne me questionnent plus J'ai trop baisé, beautés ne mimpressionnent plus J'envoie du gaz, il y a plus d'ONU Dans l'XVI, dans la rue, j'suis le plus connu Que des indigènes dans le BM bang Que des strings ficelles dans les DM bang Pas de je t'aime que des dèmes non, non Les cojones pleines d'OGM bang J'baise vétérans et les rookies hey J'nique tout, les naines et les rouquines ouh 92 izi, the cocaine is cooking J'rentre d'un footing avec Vladimir Poutine T'embrouilles l'pirate, on te soulève, hein Tu pues d'la chatte, on te Febreze, hein J'crois j'peux arrêter l'pe-ra après c'couplet Je vais lui ruiner tte-cha dans le coupé Gamos est pimpé, pute est modifiée Les vues sont pipées, mort j'serai momifié Mais j'suis D.U.C, fuck un pharaon Pute est médusée, suce le macaron J'n'ai plus d'besoins que des envies, hein Le noir est méchant, l'blanc est gentil, hein J'repeins de blanc l'cul d'Ashanti C'ui qui dit qu'il est meilleur, il a menti ouh La juge m'a dit Pourquoi t'as fait ça ? pourquoi ? Ounga, ounga, ounga, ounga ouh Caramel, mula, le nougat Voilà pourquoi, madre puta Tous mes méfaits sont relatés Et tous ces négros sont frelatés Elle aime mon teint chocolaté Chibre épais l'a fait comater Bonne nuit, tchoin Biatch, dors Kalachnikov sur le mirador Trésor enterré à Ziguinchor Bateau pirate vient de rentrer au port Sur la falaise, j'passe ma vie au bord Taureau sur capot baise le Minotaure B2OBA dans le Billboard Jack Sparrow, Willy le Borgne La juge m'a dit Pourquoi t'as fait ça ? pourquoi ? Ounga, ounga, ounga, ounga Caramel, mula, le nougat izi Voilà pourquoi, madre puta Tellement d'écus, j'ai pas b'soin d'être beau Elle m'donnerait son cul même si j'étais gros Le zer de Nicki s'est affaissé, oh Vitesse lumière dans le GT, oh J'suis dans politique, dans tous les coins J'ramène des tchoins pour le maire-adjoint Assis dans Porsche Panamera, loin Le game ne s'est pas gagné aux points Elle m'a dit baise-moi comme un animal Donc je n'ai pas embrassé la go J'laisse carte aux trésors si je finis mal Pour nous, par nous, gravé sous la peau Ma carrière a l'voile, la tienne a les bzez à l'air La main sur le gun, l'autre sur un implant mammaire Mon prof' m'a dit tu finiras à Nanterre Je n'voulais pas réussir de toute manière Dos argenté vient d'sortir du zoo oh Flics alcoolos dans le Berlingo ouloulou Chérie coco, j'ai pris la GoPro Le cul sur OKLM, ça clique à gogo Ensuite on fait comme les Kardashian Toi montrer chatte, on fait plein d'argent Sur OG Kush, jeffrite de l'afghan Ton Uber est là, pute, qu'est-ce que t'attends ? La juge m'a dit Pourquoi t'as fait ça ? Ounga, ounga, ounga, ounga Caramel, mula, le nougat izi Voilà pourquoi, madre puta20</t>
+          <t>Vas-y Beaucoup trop d'banlieusards au shtar, le responsable c'est leur bigo J'vais m'faire péter chez un koffar, décapsuler 70 gos Dans l'rap, B2O c'est un cauchemar, 92 parle en kilos Comme la police, t'arrives trop tard, sur le trône à jamais amigo Coup d'coude dans ta mère, coup d'coude dans ta mère sur Tchikita J'espère régner aussi longtemps qu'Abdelaziz Bouteflika Faut battre le fer quand il est chaud, abattre le frère quand il est faux J'ai visé le groin et le buste comme Niska, j'suis dans le truc Trop de blabla sur azerty, va pas trop loin, j't'ai averti On était apprentis leur-dea pendant qu'ils tiraient des birdies Il faudra m'avoir sur le terrain, il faudra m'avoir sur le terrain Il faudra m'avoir sur le terrain, il faudra m'avoir sur le terrain C'est toujours la même histoire devant les tenues bleues marines Tout c'qui te donne de l'espoir, c'est le trafic de cocaïne Parole d'Attila le Hun, je n'sais qu'affronter mes peurs J'n'arrive pas à m'poser avec un pain, je préfère les croissants au beurre Marine cul plein de margarine, cent mille personnes à Mawazine À Sean Diddy Combs je m'avoisine, éradique game à la racine Rat-pi prépare le killing, j'mets nuage de lait dans darjeeling J'allume un teh, plus d'adversaire en vie, toute ma carrière en I Beaucoup trop d'banlieusards au shtar, le responsable c'est leur bigo Allô J'vais m'faire péter chez un koffar, décapsuler 70 gos Dans l'rap B2O c'est un cauchemar, 92 parle en kilos Comme la police t'arrives trop tard, sur le trône à jamais amigo Viols de nouveau-nés au Congo, le monde est déshumanisé Petit, je regardais Mickey, rêvais de crime organisé Canon scié sur les genoux, j'attends Luna et son fiancé J'suis peut-être un vieux con, oublie pas j'ai mangé pâtes au thon bâtiment C Tu t'es anéanti comme un grand, j'ai rien eu à manigancer J'suis venu te défenestrer le cul, j'suis pas venu m'ambiancer J'suis métissé mon frère, j'ai du Mamadou, du Jean-Édouard Corsaire d'une autre sphère, j'trouve la lumière quand tout est noir Beaucoup trop d'banlieusards au shtar, le responsable c'est leur bigo J'vais m'faire péter chez un koffar, décapsuler 70 gos Dans l'rap B2O c'est un cauchemar, 92 parle en kilos Comme la police, t'arrives trop tard, sur le trône à jamais amigo6</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>C’est la vie</t>
+          <t>N°10</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Back to the Future Tu veux savoir c'que j'ai dans la tête ? Compte en sse-Sui, Merco Benz Lamborghini, J-Lo Beyoncé Biatch !, Jack, bédo J'suis défoncé, Deux couilles, un cerveau pour m'en sortir Izer, dans l'building izer j'monte un empire Tu parles sur moi, j'ai eu des ouï-dires Haha, j'compte les bolosses pour m'endormir Nouvelle paire de Five, pèse comme 200 braquo Glock seventeen, kala-kalashnikov draco 2Chainz dans le building, mon Lambo sort de l'usine J'suis dans le paiement cash négro t'es dans le leasing Trop d'gos, j'choisis laquelle ? Bad boy, on est àl man B2O vient de Bakel, j'suis noir, mat, j'suis comme Batman Lion indomptable j'croyais qu'j'étais gal-Sèn, mais en fait je suis Camer Compte jusqu'à 5 renoi, va niquer ta mère J'contrôle la zone j'suis en enquête, Or jaune comme les ancêtres Noir, blanc, j'suis la Juve, je ne mens que chez la juge 140 kilogrammes, 10 reps J'veux une meuf matérialiste comme ça j'suis sur d'la baiser direct D'puis le bac à sable on te hagar... C'est la vie ! 340 flashé au radar... C'est la vie ! J'p-J'pèse comme au Qatar... C'est la vie ! Fais-toi une raison petit bâtard... C'est la vie ! Euros, euros, euros Euros, euros, euros Euros, euros... izi Petit bâtard... C'est la vie ! I'm strapped up and I'm violent, 'bout to start a riot See this chick, take her to the bathroom and I fucked her on the toilet Live life, get right Get wrong, click clack, and I shoot your ass, it'll be goodnight Wake up, good luck, I'm riding 'round with my top down Ride around, all eyez on me, so I ride around 2Pac now Causing mass hysteria, France to America Nobody comparin' us Every line is angel dust, that means it's dope nigga You can get high, on one of my quotes nigga B.O.A.T.S. nigga. That's based on a true story Fuck around and get two burst, stack my money high like two storey Hey baby, are you okay baby? I'll buy you so many purses you will be a bag lady My swag crazy, and my cash crazy Two hundred on the dash, I'm doing 180 D'puis le bac à sable on te hagar... C'est la vie ! 340 flashé au radar... C'est la vie ! J'p-J'pèse comme au Qatar... C'est la vie ! Fais-toi une raison petit bâtard... C'est la vie ! Euros, euros, euros Euros, euros, euros Euros, euros... izi Petit bâtard... C'est la vie ! Tous les soirs c'est le four, tous les soirs c'est le halla Love pour tous mes vautours, Brazza tu n'es pas là Yahia, Poulos, Lourd-Lourd, Ibou, Mala Longue vie à nous inch'Allah, longue vie à vous inch'Allah Rate-pi, violent, Rap Game sanguinolent Bakel City Gang, fume de la François Hollande Passe-toi la chatte au carwash, va m'faire un kahwa Punchline, K1, gamos est de Allemagne AMG, Brabus, t'as no swag LaurentFabius Ünkut nouvelle collec', zéro heures zéro sur ma Rolex MC désespéré, sans selle sur le Solex Poulos m'a dit Vas-y molo avec ces boloss Mode piranha sur l'BPM Renoi bouge pas, j'crois que Rihanna me BBM Comme toi elle voudrait goûter au Bakel City Gang Le rap français vient d'se faire shooter, izi izi, bang bang D'puis le bac à sable on te hagar... C'est la vie ! 340 flashé au radar... C'est la vie ! J'p-J'pèse comme au Qatar... C'est la vie ! Fais-toi une raison petit bâtard... C'est la vie ! Euros, euros, euros Euros, euros, euros Euros, euros... izi Petit bâtard... C'est la vie !6</t>
+          <t>Que des Numéros 10 dans ma team, négro J'attends pas qu'ça tombe du ciel Si t'es pas N10 à Paname, t'es la banane du siècle Là où j'opère, nombreuses seront les victimes Que des N10 dans ma team Moins sage que nos pères, j'me sers et j'observe Imprime nos rimes sur le ring au bulldozer Là où j'opère, nombreuses seront les victimes Que des numéros 10 dans ma team J'ai beaucoup de mal à obéir aux Hommes Même si mes paroles ont les menottes, sont plaquées au sol T'en bats pas les couilles d'avoir de bonne notes, peu d'élus dans mon milieu Des attaquants, peu d'ailiers dans ma banlieue Mes lyrics sont d'humeur maussade, j'tenais à l'dire J'm'en fous d'y passer si il m'reste quelques millions d'euros à tenir Mon drapeau blanc est toujours au sale, brolic bien au chaud Avant d'affronter l'équipe, trempe tes couilles dans l'eau chaude Des fois j'veux la fermer, mais y'a c'putain d'rap à la con Alors j'carbure à la ke-skun et mon skeud part à la fonte J'rêve peu, j'préfère agir mais j'ai un temps d'vie minimal Donc forcément l'infini, ça finit mal Si j'atteins l'argent ou l'bronze, c'est que l'or m'aura échappé Alors j'serai d'ceux qui faut remettre en zonz' Renoi, tu t'demanderas après qu'ma clique te kill Mais comment font-ils pour avoir ce style ? Fusil à pompes dans les mains, carafes d'eau dans les pupilles Petit que des numéros 10 dans ma team Pas juste pour la frime... J'attends pas qu'ça tombe du ciel Si t'es pas N10 à Paname, t'es la banane du siècle Là où j'opère, nombreuses seront les victimes Que des N10 dans ma team Moins sage que nos pères, j'me sers et j'observe Imprime nos rimes sur le ring au bulldozer Là où j'opère, nombreuses seront les victimes Que des numéros 10 dans ma team Dans l'rap j'écris et produis, j'suis chauffeur-livreur Beaucoup d'fleurs à mon enterrement, entouré d'chiffreurs Négro on plaisante pas avec le bif au Q.G Kho c'est les euros, entrons dans le vif du sujet Banlieusard, j'mords à l'hameçon juste pour faire la teuf Ce matin un lapin a fumé un keuf Blanche, marron et bingo ! On nous parle cul et argent, dehors on devient dingue bingo, département du lingot MC en Occident par accident dur à assumer Mais courageux, on s'suicide pas, on s'fait fumer ! Hi trop de-spi nos réputations craignent L'étalon Noir kiffe les chiennes aux strings, talons Sont sans repères, crapuleux dans l'sang Moi et mes compères on fout l'feu, nique sa mère et son père On a le son qui déclasse, beaucoup sont dans le moule Mais ont le boule qui dépasse, se croient dans le mouv' Font du rap sans calories ni fibres Trop cheum, innovent en pompant, ils ont pas vu la taille du chibre B2OBA, numéro 10, rien à craindre J'suis destiné à briller ou à m'éteindre J'attends pas qu'ça tombe du ciel Si t'es pas N10 à Paname, t'es la banane du siècle Là où j'opère, nombreuses seront les victimes Que des N10 dans ma team Moins sage que nos pères, j'me sers et j'observe Imprime nos rimes sur le ring au bulldozer Là où j'opère, nombreuses seront les victimes Que des numéros 10 dans ma team Tu rêves d'être numéro 10, comme nous Que la rue t'applaudisse, très peu rugissent comme nous Ballon d'or grâce à mes tacles à la gorge, mes crochets, Ok J'fais mes dièses, roi du mont de Tallac j'te baise Fuck la loi, son arbitrage, ses cartons Dis-leur ici, c'est nous les patrons, sucez nous pendant qu'on bicrave Souvent la came est trop douce Trop guèze, trop lège', pas dans le 92 Alors des fois je fume, je plane et je perds Au lieu de prendre des thunes et de gagner du pèse Là où j'opère nombreuses seront les victimes Que des numéros 10 dans ma team9</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>60 années</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sorties de janvierDry - Tant pis ft. Dadju Eddy de Pretto - Random Vald - Désaccordé Sofiane - Lundi Sofiane - Longue vie ft. Ninho Hornet la Frappe Soolking - Milano Vegedream - Marchand de sable part. 4 Du saal Sorties de févrierLartiste - Mafiosa ft. Caroliina Lorenzo - Bizarre ft. Vald Lorenzo - Tu le C Marwa Lourd - Bad boy Marwa Loud - Billet Moha la Squale - Bandolero Naps - Recherché SKG - Casa de papel Soolking - Guerilla Vald - Dragon ft. Sofiane Vald - Gris Sorties de marsBooba - Gotham Damso - Tieksvie Djadja Dinaz - J'souris DJ Kayz - Jour J ft. Wassila Scridge Gims - Corazón ft. French Montana Lil Wayne Gims - La même ft. Vianney Gims - Le pire Gims - Loup Garou ft. Sofiane Gims - Tu ne le vois pas ft. Dadju L'Algérino - Va bene Marwa Loud - Qu'est-ce que t'as ? Naps - Favela ft. Soolking Ninho - 44 ft. Yaro Ninho - Bavard Ninho - Boîte auto Ninho - Coffrer Ninho - Fendi Ninho - Mama No Cry Ninho - M.I.L.S 2.0 Ninho - Pavé Ninho - Un poco Ninho - Vrais Timal - Arrivant Vald - Eurotrap Sorties d'avrilAlonzo - Santana Aya Nakamura - Djadja Keblack - Complètement sonné Damso - Ipséité Lefa - Paradise ft. Lomepal Niska - Country RK - Tierquar Timal - Maria 4Keus - Mignon Garçon ft. Naza Dry Vald - Megadose Lacrim - Intocable Sorties de maiDosseh - Habitué Koba LaD - Ténébreux 1 Moha La Squale - Luna Naestro - Bella ciao ft. Gims, Slimane, Vitaa Dadju Naza - Ptain de mrde S.Pri Noir - Juste pour voir ft. Nekfeu Yaro - Bucci Night ft. Ninho Sorties de juin4Keus Gang - Midi dans le ghetto ft. Ninho Bigflo Oli x Petit Biscuit - Demain Damso - 60 années Damso - Baltringue Damso - Dix leurres Damso - Feu de bois Damso - Julien Damso - Silence ft. Angèle Damso - Smog DJ Babs - Tout est bon ft. 4 Keus JuL - Bwo JuL - Toto et Ninetta Koba LaD - Train de vie L'Algérino - Adios ft. Soolking PNL - À l'ammoniaque Vegedream - Mama he Sorties de juilletColumbine - Cache-Cache Dadju - Christina Dosseh - À chaque jour... Hornet la frappe - Taga KPoint - Ma 6t a craqué ft. Ninho Maes - Billets verts MHD - Bella ft. Wizkid Sofiane - Woah ft. Vald, Mac Tyer, Sadek, Soolking, Heuss L'enfoiré, Kalash Criminel Rim'K - Air Max ft. Ninho Still Fresh - Elle m'a dit ft. Haristone Sorties d'août4Keus Gang - Le temps passe Aya Nakamura - Copines Koba LaD - La C Niska - W.L.G PNL - 91's SCH - Otto Sorties de septembreColumbine - Adieu bientôt Hornet la frappe - Rolls ft. Lacrim Hornet la frappe - Sheitana ft. Ninho Josman - J'aime bien! Josman - XS Koba LaD - Chambre 122 Lomepal - 1000C ft. Roméo Elvis MHD - Bébé ft. Dadju RK - Bae Soolking - Dalida Soprano - À la vie à l'amour Suprême NTM - Sur le drapeau ft. Sofiane Sorties d'octobreBooba - BB Dadju - Jaloux Dadju - Trouvez-la moi ft. Keblack Fally Ipupa Maes - Madrina ft. Booba Maes - Avenue Montaigne PLK - Hier ft. SCH PLK - Monégasque SCH - Le code SCH - Prêt à partir ft. Ninho Zola - Ouais ouais Sorties de novembreAya Nakamura - Pookie Aya Nakamura - La dot Aya Nakamura - Whine Up Bigflo Oli - Plus tard Bigflo Oli - Sur la lune Bramsito - Sale mood ft. Booba GLK - Mauvais ft. Ninho Heuss L'enfoiré - L'enfoiré Imen Es - Attentat Maes - Mama Médine - KYLL ft. Booba OrelSan - Rêves bizarres ft. Damso Soprano - Le coach ft. Vincenzo Thérapie Taxi - Salope Sorties de décembreHeuss L'enfoiré - Les méchants JuL - Ma che beauté Lomepal - Beau la folie Lomepal - Évidemment Lomepal - La vérité ft. OrelSan Lomepal - Le vrai moi Lomepal - Ma cousin Lomepal - Mômes Lomepal - Ne me ramène pas Lomepal - Plus de larmes Lomepal - Trop beau Lomepal - X-Men ft. JeanJass</t>
+          <t>Des migrants, des Amazones et pas de Jésus, voilà où on en est Jpeux même pas dire que j'suis déçu, j'm'en bats les couilles en vrai Demande à Shay les insultes des boloss ne me font plus d'effet plus d'effet J'ai le casier des gens, j'aime bien avoir les faits avoir les faits Quand le jeu dure trop longtemps, c'n'est plus un jeu J'suis d'une autre spèce animale, c'est pas blssé qu'j'suis l'plus dangereux Un roi, j'ai jamais vu une fève coupée en deux coupée en deux Te méprends pas, rapper comme ça, j'le fais quand j'veux Peu importe l'ampleur des dégâts, mama ne baisse jamais les bras Mais Françafrique, Chine-Afrique, on a clairement perdu, les gars perdu, les gars Chargez les canons, prendre d'la mer, devient inévitable La facture de la vie, c'est pas celle de Numericable Numericable J'suis dans l'vaisseau spatial, carré, y a qu'un bouton un bouton Ton vote vaut rien, mouton, devant la loi martiale 2020, je mets le Pape et Nabilla sur l'même tableau Pas d'photo du corps d'Oussama, les G.I. l'ont jeté à l'eau Qui va m'arrêter ? P't-être la 5G la 5G Traqué, ces enculés savent tout c'que j'fais tout c'que j'fais Faut plus braquer, faut encoder faut encoder Moi, j'vais encoder rien du tout, j'ai l'BEP j'ai l'BEP En gros, c'est cuit, la seule issue la Piraterie la Piraterie On vide les coffres, on s'réfugie comme Ben Ali comme Ben Ali Moi, j'sais qui j'suis, j'suis pas Kouachi, j'suis pas Charlie j'suis pas Charlie Que des frères, j'ai pas l'esprit d'camaraderie d'camaraderie La chance dit qu'elle arrive, elle est même pas partie pas partie Personne ne m'ensorcèle, c'est pas comme ça la vie pas comme ça la vie B.A.K.E.L, d'mande à Seydou, d'mande à Ladj Ly d'mande à Ladj Ly Tu m'vois le jour mais je ne prends vie que la nuit Le cordonnier pas forcément le mieux chaussé Moi, tes proverbes, j'm'en bats les couilles, j'ai ma paire d'Gucci aux pieds, c'est tout c'que j'sais c'est tout c'que j'sais Deux enfants, mes cojones, c'est tout c'que j'ai c'est tout c'que j'ai Sur l'formulaire, nique sa mère, j'ai tout coché j'ai tout coché 92i, c'est la famille, faut pas toucher faut pas toucher Pistolet en l'air, y a pas d'droitier, y a pas d'gaucher y a pas d'gaucher Mauvais joueur, j'ai vite fait de tout lâcher de tout lâcher T'as capté ? On baise tout, on s'fait pas chier on s'fait pas chier T'vois la tchoin d'hier soir, qui veut revenir, annihile-la annihile-la Ils ont allumé l'projecteur, quelque chose me dit qu'c'est la moula c'est la moula Pas d'bail de dromadaire, ça stream sans Maluma sans Maluma C'est gros salaire, c'est grosse audience, c'est Hanouna c'est Hanouna Qui va m'arrêter ? P't-être la 5G p't-être la 5G Traqué, ces enculés savent tout c'que j'fais tout c'que j'fais9</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Temps mort 2.0</t>
+          <t>Jour de paye</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>J'parle de botanique, de crime et d'arnaque Nègre, complet noir, faucheuse, comme le Dark Knight Couplet sale, violent jusqu'à la moelle osseuse Nos vers c'est la grande versus la p'tite bosseuse Picasso sous crack, image défigurée Gros Kamasutra, le cul du rap est fissuré J'ai l'arme en rut cette pute a envie d'tirer J'ai perdu l'âme en route, par l'vide attiré Musique émasculée prise dans la masse de tubes Comme quand Edward aux mains d'argent s'masturbe J'suis miraculé, j'rappe, j'sais d'où j'viens, où j'vais Le soleil pionce, la lune devient ma lampe de chevet Jaune, violet, vert mon côté militant est sceptique Dans ma tête c'est les Lakers contre les Celtics Toujours personne après nous, là j'm'écarte d'la norme J'fais l'contrôle des naissances au .44 Magnum Compris l'message ? On est d'la même race Fusée noire, Jesse Owens face au troisième Reich Des grands j'ai l'étoffe, j'ai l'cran, aux appels d'offre J'réponds. J't'écrase des verres sur l'crâne Mazel Tov ! J'chante, tu crames, la masse proteste... J'ai foiré tous mes examens, j'réussis l'alcootest Le monde est d'jà mien, t'es sur une fausse piste Tu veux que j'passe la main mais y a plus qu'des puceaux avec la chaude pisse Tch, Tch Sont personne au quartier, j'ai fait le tour de leur tess J'arrive chez eux, six heures du mat, avec la tête de leur chef Même pour acheter du plaqué t'attends que le cours de l'or baisse Ils veulent rivaliser négro, ils font, ils font de leur best Rien à gratter sauf maladie, j'ai fait le tour de leurs fesses S.E.G.P.A for life, j'ai fait le tour de leurs textes Si je les mets pas à poil ils vont retourner leur veste Les ratpis vont t'allumer, n'vont pas regretter leur geste J'vais tellement t'enculer tu vas détester le sexe Le négro nous a quitté je me suis fait tatouer le 7 Je suis sur OKLM pendant que vous lisez l'Express J'tire sur les fils de pute, toi tu veux sauver l'espèce Il en restait beaucoup trop la dernière fois que j'ai check Fuck être un lyriciste négro, j'suis là qu'pour ramener les chèques On s'attaque pas aux convoyeurs avec un 504 break Dans The Wire t'es Method Man, j'suis le grec Glock dans la bouche, j'm'en vais pas sans la malette J'suis dans les nique ta mère t'es dans les salamalecs Petit coup d'crosse derrière la tête quand t'arrives pas à yer-p Tu peux pas me mettre à sec même si t'es Salma Hayek J'parle wolof touti rek, jappellerai pas à l'aide Diokhma khaliss ou handek, je tire quand j'ai pas à lekk J'suis Secteur Ä, j'suis Time Bomb, c'est Athéna qui m'allaite Je vais les baiser E-R c'est pas Omar qui m'a ué-t Turfu !42</t>
+          <t>Moi j'ai fait la guerre pour habiter Rue de la Paix Je n'manque jamais à l'appel quand c'est le jour de la paye Moi j'ai fait la guerre pour habiter Rue de la Paix I.Z.I. Je n'manque jamais à l'appel quand c'est le jour de la paye Yeah Bêta Oméga, Oméga Bêta Alpha J'suis trop haut pour les clashs renoi, tu crois que j'vais péta Alpha J'ai la coke à Sosa, kho, la classe à Al Pach Quatre pattes j'connais ap', même complètement rhabat Si y'a des bitches partout, c'est que j'suis dans la boîte Si ça fait mal, que tu cries, que tu jouis, c'est que j'suis dans ta chatte Les MC's font les caddies à Carrefour, Atac Avec 92i, j'ai saigné l'asphalte comme un spartiate Arrête tes salades, je ne mange que de la barbac Nique sa mère, villa sur la mer, j'suis à la Barbade Mitraillette, semi-auto à la baraque Passement de jambes, frappe d'enculé à la Chamakh Tu votes FN, tu votes à gauche, tu votes à droite Moi j'encule lÉtat, j'ai l'cul à l'air sur un hamac Au comico, on ferme notre gueule car on sait ap' Balance nous fils de pute, on sort le 47 AK Viens dans mon département Faire de l'argent facile, pourquoi faire autrement ? Viens dans mon département Faire de l'argent facile, pourquoi faire autrement ? Moi j'ai fait la guerre pour habiter Rue de la Paix Je n'manque jamais à l'appel quand c'est le jour de la paye Moi j'ai fait la guerre pour habiter Rue de la Paix Je n'manque jamais à l'appel quand c'est le jour de la paye Pas de milieu aisé, grandi au zoo Des négros fauchés essaient de me baiser, veulent ma peauzo J'suis un film d'horreur, t'es qu'un affreux jojo Que des ceintures noires, black étalon dans mon dojo J'suis dans les fourneaux, dans les journaux Sabre laser à Skywalker est dans mon fourreau Grand comme un Avatar, négro j'suis imbattable Que des bonbons dans mon cartable, années placard à ma table Je fais que des sons incroyables, des trucs de malades Cette année, j'vais tout baiser sur la chatte à Rama Yade Les O.G's nous connaissent, savent qu'on tient nos promesses Demain si j'ai pas de toit, j'serais pas en chien, j'serais au habs J'ai P-E-R-cé, saigné le RER C Dieu merci la street m'a re-M-E-R-cié Si tu m'vois enculer ta dinde, ne crois pas que je fête Noël Dangereux banlieusards, ici c'est Paris, fuck l'OM Viens dans mon département Faire de l'argent facile, pourquoi faire autrement ? Viens dans mon département Faire de l'argent facile, pourquoi faire autrement ? Moi j'ai fait la guerre pour habiter Rue de la Paix Je n'manque jamais à l'appel quand c'est le jour de la paye Moi j'ai fait la guerre pour habiter Rue de la Paix Je n'manque jamais à l'appel quand c'est le jour de la paye Cette go, j'ai la somme qui lui faut, n'aie pas le seum Haineux, tu veux me faire la peau, kho, t'es pas le seul Nouvelles Jordan aux pieds, j'aimerais toucher le ciel Pitbull en rut à l'affût d'un lâché de chiennes J'fais que du lourd, meilleur album, j'sais pas c'est lequel Ma vie manquait de goût, la street m'a passé le sel Crème de la crème, au bled on crève de la grippe J'suis là où règne la haine, car saigne l'Afrique Oublié, j'essaye, trouve-moi aux Seychelles J'fais rien, j'm'en bats les couilles, une Colombienne fait ma vaisselle J'suis au-dessus de la normale, Féfé Enzo J'arrive dans l'game, comme une tornade Ils n'oublieront pas, ils se souviendront de nous Je vais régner assis négro, je vais mourir debout Sur le podium, il n'y a que nous Tu veux t'asseoir sur le trône ? Faudra t'asseoir sur mes genoux Viens dans mon département Faire de l'argent facile, pourquoi faire autrement ? Moi j'ai fait la guerre pour habiter Rue de la Paix Je n'manque jamais à l'appel quand c'est le jour de la paye3</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Bakel City Gang</t>
+          <t>Paradis</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>A4 2093 92izère Sénégal DKR Bakel City Gangster Mon meilleur srab est mort jsuis blasé de la life Les démons sortent la nuit négro jsuis guerrier de la night Ici que de la frappe, du bif et de la chatte Laisse-les jouer des maracas Gorilla Thug, chien de la casse 92 pas de fioritures, jveux pussy, gamos, nourriture Le reste jle laisse aux bolosses hein, jles laisse la couler dur Le vice est àl bien vi-ser, la haine est viscérale Vaisseau mère faucon mili, flow intersidéral Lève ta main si tas du Jack, des gros culs à ta ble-ta Nos meufs sont trop malades, les négros pètent un ble-ca Toujours plus haut je grimpe, plus dur je vais tomber Le savoir est une arme jsuis calibré donc jsuis pas te-bé Un grec après minuit, salut ma clique de Gremlins Euro, Dollars US, Izi Livre Sterling La banlieue devient mahboul, Kopp olympique, Swagg Brahim Asloum Bim Bam Boom la chatte à Mac Doom Jai jamais été suicidaire même avec rien dans lfrigidaire Jpréfère niquer des mères sur lrainté mode paramilitaire Jdéfouraille lui ou elle, criminel depuis le minitel Vole de mes propres ailes B.A.K.E.L. City Gang Gang Gang Gang Gang B.A.K.E.L. City Gang Gang Gang Gang Gang B.A.K.E.L. City Gang Face à ton équipe, tinquiètes un seul homme sadapte Dis-leur de rester tranquille, personne va sodom Saddam Saddam Hauts-de-Seine, Bakel City Gangster Guinée Conakry, Clamart cest àl que jveux quon menterre On a perdu meilleur soldat, jsuis blasé de la life Jte tire dessus comme Cobra brrah j'danse plus la hype La vie nest pas un rêve dailleurs jen fais des cauchemars Ü sur le polo, Versace sur le costard Fais pas dbizz avec mes négros si tu peux pas les yép Ma force de frappe est militaire tu parles en coup dtête balayette Allez, nique ta mère! j'tire dans le crâne, j'vise pas dans les ieps Si tu les ap joue pas le gangster dans la street fallait y être Moi jai rien à prouver, mon casier parle en ma défaveur Eux ils ont des godes, nous on est des godfathers Izi train de vizie soucizi calvitizie gros bre-chi par icizie Dans Oz jsuis Adebisi Izi, izi, izi Jai jamais été suicidaire même avec rien dans lfrigidaire Jpréfère niquer des mères sur lrainté mode paramilitaire Jdéfouraille lui ou elle, criminel depuis le minitel Vole de mes propres ailes B.A.K.E.L. City Gang Gang Gang Gang Gang B.A.K.E.L. City Gang Gang Gang Gang Gang B.A.K.E.L. City Gang Rajoute des 0 pour quon conclue, barbu comme Carlos Boozer Cétait juste moi dans ton cul, tas cru quon était plusieurs Jdis pas ce que jfais ni à ma pute, ni sur Twitter Jfinirais en taule avait prédit mon instituteur Pas besoin dêtre marabout pour savoir que jtournais mal Pas besoin dallumer ta radio à tous les feux rouges on est àl Jai fait mes classes à la ZUP, quand jaboie ça chuchote La France d'en haut, porte mini-jupe, donc je vois sa culotte Les keufs te questionnent rappelles-toi quand on ta dit chut Aulnay-Sous-Bois lASB te tombent dessus pas le temps de dire zut Mon kho était le meilleur, jsuis blasé de la life Tous plus intelligents que lplus haut-gradé de la BAC Souvent jpense à la téss man jai pas vraiment la pêche Les putes passent à la caisse que des vrais négros dans la pièce Souvent jpense à la téss man jai pas vraiment la pêche Les putes passent à la caisse que des vrais négros dans la pièce Jai jamais été suicidaire même avec rien dans lfrigidaire Jpréfère niquer des mères sur lrainté mode paramilitaire Jdéfouraille lui ou elle, criminel depuis le minitel Vole de mes propres ailes B.A.K.E.L. City Gang Gang Gang Gang Gang B.A.K.E.L. City Gang Gang Gang Gang Gang B.A.K.E.L. City Gang7</t>
+          <t>S2KEYZ Le jour de gloire est arrivé, enfants de la patrie Kalachnikov chargée, toujours de la partie Mais la patrie n'aime pas les négros, ça on n'me l'a pas dit Alors je crache mon venin sur la basse et la batterie N'aie pas peur de la vitesse, quand c'est moi l' conducteur Ma tristesse au fond du chargeur et au fond du cur Parce que j' pense qu'a crâner, j' vais sûrement cramer Peu importe où j'irai, je serai thug à jamais J'affronte les péripéties, intempéries, de la vie J'en suis ravi, tant que mes proches sont à l'abri Promettez moi, qu'ils iront tous au paradis Soldat 92i 92ème compagnie Mon rap a été crucifié à en devenir christ christ Vivre à en crever, rire à en devenir triste Fuck le samedi, le lundi, le mardi Sautons sans parapluie, allons au paradis N'écoute pas B2O, ne fais pas c'que Mala dit Génération Mad Max, armés sous la gabardine Taffer de 9 à 5, pour moi c'est pas la vie Tuez moi tout d' suite, emmenez-moi au paradis Élevé parmi les drogués, les bandits, les malfrats J'ai grandi sur du Bob, Sugar Hill Gang et du Alpha J'ai fait le tour de cette salope de planète earth En manque d'affection j'ai fourré putes à 600 eur's J'ai fait du trafic, de substances chimiques J'ai créé Lunatic, j'ai fait de la musique Ennemi public, j'ai fait dans l'illicite S'ont cramé mon équipe, ma clique est magnifique Mon sort j'm'en bats les reins, pourvu qu'les miens s'en sortent J'préfère mourir à se-l'ai, que vivre en galérien Je n'emporterai nada, j'le sais mais peu importe J' vais leur faire le hala avant d'claquer la porte Mon rap a été crucifié à en devenir christ christ Vivre à en crever, rire à en devenir triste Fuck le samedi, le lundi, le mardi Sautons sans parapluie, allons au paradis N'écoute pas B2O, ne fais pas c'que Mala dit Génération Mad Max, armés sous la gabardine Taffer de 9 à 5, pour moi c'est pas la vie Tuez moi tout d' suite, emmenez-moi au paradis N'écoute pas B2O ne fais pas c'que Mala dit J'viens d'acheter en enfer un petit coin de paradis Ça investit à Dubaï, Abu Dhabi J'aime moins me battre depuis qu' j'ai des nouveaux habits Peau d'serpent sur les chaussures, sang d'porc collé au schlass Rapper toute cette haine, gros, c'est comme frapper au sac Viens pas vendre ta 0.9, ici coupée au plâtre Négro fut pharaon se fit sucer par Cléopâtre Je l'ai serrée si fort je lui ai cassé le dos Brisé les omoplates, 500e l'ostéopathe Qu'est-ce que sait faire mon peuple à part grimper aux arbres Te racketter à la récré et être appeler aux armes Mon rap a été crucifié à en devenir christ christ Vivre à en crever, rire à en devenir triste Fuck le samedi, le lundi, le mardi Sautons sans parapluie, allons au paradis N'écoute pas B2O, ne fais pas c'que Mala dit Génération Mad Max, armés sous la gabardine Taffer de 9 à 5, pour moi c'est pas la vie Tuez moi tout d' suite, emmenez-moi au paradis16</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mona Lisa</t>
+          <t>2PAC</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ouais Ouais Ouais J'suis tellement loin, l'futur est derrière moi derrière moi, derrière moi, derrière moi J'ai tous les contacts, allons leur prendre de l'oseille Le canon est froid, il veut te parler à l'oreille J'espère que je serai prêt le jour où ça va chier J'ai perdu des amis, des vrais, de nombreux anges m'ont lâché Avec la horde, flingue à la main, d'vant la fête Je vais m'endormir à la morgue, m'réveiller d'une balle dans la tête J'me suis fait piquer comme un veau, combien vaut mon futur ? J'sais pas Laissez-nous voir nos fils, nous dire qu'ils sont papas La hagra, ça paye pas, apparemment si J'ai l'impression que ça va pas, j'ai coupé l'canon à la scie Tu honores le mauvais drapeau, ton étendard t'a menti Pablo Escobar sous la peau, tu ressors faire un ient-cli Saint-Martin, côté hollandais, paquets flottants, cocaina Un cheat code pour la crypto', mettez-moi deux Mona Lisa Faudra les fumer avant ou ça va tourner au drame Diallo m'a pris 200 eu' pour un grigri contre les balles J'suis tellement loin, l'futur est derrière oi-m J'vois tout en mauve, en PayPal, mi-négro, mi-Néandertal Pas d'sang, pas d'révolution, que des sans issue au sommaire Comme dans chaque exécution On remonte la te-rou surchargés, ça envoie l'bédo à mes timals Que du cash dans le réseau, mettez-moi deux Mona Lisa Faudra les fumer avant ou ça va tourner au drame Zizou m'a dit Descends-les, ça va nous rapporter des balles C'qu'on a commencé, on l'achèvera, tu peux demander à Ibou On allume ton bout-mara poh, poh tant que le Ciel est avec nous Parler, ne m'intéresse pas, j'préfère tous les mettre à genoux hey, hey Papote avec mon 12 coups, p't-être que tu l'intéresseras pah, pah La hagra, ça paye pas, pourtant, j'ai grossi La honda, JSX, numéro 10, Maradona On a fumé l'espoir, faut toucher du bois pah, pah Fuck ton abus d'pouvoir, chez moi, c'est les balles qui font la loi Saint-Martin, côté hollandais, paquets flottants, cocaina Un cheat code pour la crypto', mettez-moi deux Mona Lisa Faudra les fumer avant ou ça va tourner au drame Diallo m'a pris 200 eu' pour un grigri contre les balles J'suis tellement loin, l'futur est derrière oi-m J'vois tout en mauve, en PayPal, mi-négro, mi-Néandertal Pas d'sang, pas d'révolution, que des sans issue au sommaire Comme dans chaque exécution Paquet flottant, cocaina9</t>
+          <t>Beta-Rogers-Alpha-Zebra 2 fois-Alpha, Izi Life La vie est pleine de surprises, des bonnes, des mauvaises C'est plus du Scorsese que Tavares et Gomez Baby, tu ressembles plus à Jenifer qu'à Lopez On baise les putes qui nous plaisent, aucun fils de pute ne nous baise À l'école, on m'demandait juste de me taire Juste un négro de plus, Q.I d'une pomme de terre Au fond d'la classe, seulement là pour niquer des mères Soldat 92izi, armes de guerre Terminator, Black et déter J'arrive à poil du futur, j'suis comme Schwarzenegger Laisse-moi faire mon business Joint dans la bouche, verre à la main, j'passe les vitesses 92 V12, pirates de la street-zer Rien qu'on leur fait la misère Délinquant juvénile, on n'correspondait pas aux critères Tu viens d'à gauche, à droite, tu niques ta mère, j'suis prioritaire J'en ai grave dans les soupapes, j'fais grave des sous man Mon cur est noir comme Doumam', pèse comme joueurs de Fulham Présumé coupable, ancien taulard Autour de moi, mieux vaut qu'ta pute porte le foulard J'connais Pablo... Mollah Omar Le vrai Mollah Omar, il est minuit sur la Audemars La chaîne est custom, toute black J'rappe comme personne, j'rappe comme 2Pac Pas d'récession sur le ter-ter, chez nous pas d'crise monétaire À la mémoire de mon frère, j'vais tous me les faire Je n'te reverrai plus, je n't'aurai plus au phone-tel Puisque la vie n'est qu'une pute, je vais la traiter comme telle Disque de platine, sans rien connaître au solfège Plus criminel que rappeur, tu dirigeais le cortège On pense à toi à chaque seconde Du mal à croire que tu n'es plus de ce monde On me dit qu'avec le temps, j'irai mieux Sombre est l'équipe, mais ta lumière éclaire les cieux Dans nos rêves, bien sûr ça terminait mieux Je ne te vois plus nulle part, sauf quand je ferme les yeux Cambriolage, virée nocturne Garde à vue, fusillade, gue-dro, course aux grosses thunes Revêtu tous les costumes, on a tout fait Pour finir des hassanettes, ta meilleure fortune J'en ai grave dans les soupapes, j'fais grave des sous man Mon cur est noir comme Doumam', pèse comme joueurs de Fulham Présumé coupable, ancien taulard Autour de moi, mieux vaut qu'ta pute porte le foulard J'connais Pablo... Mollah Omar Le vrai Mollah Omar, il est minuit sur la Audemars La chaîne est custom, toute black J'rappe comme personne, j'rappe comme 2Pac Une bague de guerrier, frère, à chaque doigts Ces pédés vont rien faire, tu m'le disais à chaque fois Rage dans le cur, dans les intestins Boulogne-Billancourt, Sarcelles à Stains, criminel instinct Lions d'la Teranga, dans l'camp adverse j'vois que des gnous Génération Mad Max, négro, personne n'est meilleur que nous On s'est rencontrés, j'étais gamin J'aurai le sourire quand la Faucheuse me tendra la main Grosses cojones, négro, mes couilles pendent J'ai ceci, j'ai ceci cela tous mentent Caillera de luxe, y'a pas mon name dans la tournante Hit sur hit, laisse le game dans la tourmente Et j'n'ai pas fini, ce n'est que le début C'que tu entends dans mes textes, petit, c'n'est que du vécu Maître de guerre, décoré comme un sapin Je n'suis plus dans la merde, sauf quand j'encule un tapin Izi life Beta-Rogers-Alpha-Zebra 2 fois-Alpha, izi soldat See you de l'autre coté renoi si si10</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Terrain</t>
+          <t>Double Poney</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Vas-y Beaucoup trop d'banlieusards au shtar, le responsable c'est leur bigo J'vais m'faire péter chez un koffar, décapsuler 70 gos Dans l'rap, B2O c'est un cauchemar, 92 parle en kilos Comme la police, t'arrives trop tard, sur le trône à jamais amigo Coup d'coude dans ta mère, coup d'coude dans ta mère sur Tchikita J'espère régner aussi longtemps qu'Abdelaziz Bouteflika Faut battre le fer quand il est chaud, abattre le frère quand il est faux J'ai visé le groin et le buste comme Niska, j'suis dans le truc Trop de blabla sur azerty, va pas trop loin, j't'ai averti On était apprentis leur-dea pendant qu'ils tiraient des birdies Il faudra m'avoir sur le terrain, il faudra m'avoir sur le terrain Il faudra m'avoir sur le terrain, il faudra m'avoir sur le terrain C'est toujours la même histoire devant les tenues bleues marines Tout c'qui te donne de l'espoir, c'est le trafic de cocaïne Parole d'Attila le Hun, je n'sais qu'affronter mes peurs J'n'arrive pas à m'poser avec un pain, je préfère les croissants au beurre Marine cul plein de margarine, cent mille personnes à Mawazine À Sean Diddy Combs je m'avoisine, éradique game à la racine Rat-pi prépare le killing, j'mets nuage de lait dans darjeeling J'allume un teh, plus d'adversaire en vie, toute ma carrière en I Beaucoup trop d'banlieusards au shtar, le responsable c'est leur bigo Allô J'vais m'faire péter chez un koffar, décapsuler 70 gos Dans l'rap B2O c'est un cauchemar, 92 parle en kilos Comme la police t'arrives trop tard, sur le trône à jamais amigo Viols de nouveau-nés au Congo, le monde est déshumanisé Petit, je regardais Mickey, rêvais de crime organisé Canon scié sur les genoux, j'attends Luna et son fiancé J'suis peut-être un vieux con, oublie pas j'ai mangé pâtes au thon bâtiment C Tu t'es anéanti comme un grand, j'ai rien eu à manigancer J'suis venu te défenestrer le cul, j'suis pas venu m'ambiancer J'suis métissé mon frère, j'ai du Mamadou, du Jean-Édouard Corsaire d'une autre sphère, j'trouve la lumière quand tout est noir Beaucoup trop d'banlieusards au shtar, le responsable c'est leur bigo J'vais m'faire péter chez un koffar, décapsuler 70 gos Dans l'rap B2O c'est un cauchemar, 92 parle en kilos Comme la police, t'arrives trop tard, sur le trône à jamais amigo6</t>
+          <t>Des hormones de dos argenté, constatent les analyses Les rappeurs français découpés, des kilos de hess dans la valise Je tiens toujours mes bails, en temps de crise, de pénurie Jsuis rentré dans la matrice, esquive les balles comme Keanu Reeves Tes nouveau dans lbiz, jsuis là depuis Wu-Tang Killa Beez Mon hobby mtaper au sabre avec Obi Wan Kenobi Infos dispos sur le site man, premier sur le shit man U tréma sur le sweat, 56 000 euros le feat On connaît djà le générique, tes là à nous parler dton titre On a vidé les douilles dton chargeur, scié les chicots dton pit Un faux mouv', on te recherche, te traque dans toute la ville On tnique ta mère et ta grand-mère, si elle est toujours en vie Six heures du mat en cage ces pédés dcondés me questionnent Bien entendu je nie, je nreconnais personne Qui a honte dêtre un négro à part Michael Jackson ? Shoota Babylon à bord dune Martin Aston Lunettes noires, vitres baissées, cest moi dans la Benzo On cruise à 20 à lheure comme dans les rues de Crenshaw Compère peu fréquentable, insolent comme sonne-per Négro crois pas quon perd, la chatte à ton père Mais déjà dis moi doù tu mconnais ? Parle moi en billets violets Dou-double poney, jfais izi money Doù tu mconnais ? Parle moi en billets violets Dou-double poney, jfais izi money Tu crois qujai perdu le nord, que jme suis éparpillé Flingue dans la bouche, yeux écarquillés, je nles laisse pas crier Jencule le système français, oui je suis expatrié Seul un peu doseille pourrait me rapatrier Bien sur jcontinue lson pour faire du halal billet Musculation, Rice and Beans, ba-banane grillée Je viens du Sénégal, le soir observe les kalash briller Bakel city dans la place, retrouve ton palace pillé Ici bas jai rien à faire à part acheter des gros apparts Va dire au chauffeur que jpose mon cul où jveux, comme Rosa Parks Alerte au météorite, putain de gros impact Tu dis partout qu'tes une terreur, chez nous on ttrouve super sympa Jai le gauche droite gauche dun boxeur cubain Tes pas frais, tu monte sur ne-scè comme pour aller acheter du pain Et nous sommes les meilleurs, les vrais négros le savent Concert à guichet fermé sur bateau desclaves Lunettes noires, vitres baissées, cest moi dans la Benzo On cruise à 20 à lheure comme dans les rues de Crenshaw Compère peu fréquentable, insolent comme sonne-per Négro crois pas quon perd, la chatte à ton père Mais déjà dis moi doù tu mconnais ? Parle moi en billets violets Dou-double poney, jfais izi money Doù tu mconnais ? Parle moi en billets violets Dou-double poney, jfais izi money Quelques mauvais conseils, des trafics pas nets Grace à ça jpaye ma bouteille, tu payes ta canette Tu tfais des casse-croûtes, jme fais des restos Jenvoie des diamants à ma go, tenvoies des textos Pourquoi frime til autant, pourquoi est-il si méchant? Largent pourrit les gens, met du chrome sur mes jantes Quand jserai grand jserai président, jai besoin quon mpistonne Jveux jouer du saxo, mfaire sucer comme Bill Clinton Tas autant dstyle quun bas dsurvet avec une paire de Weston Qui a plus de flow que B.2.O ? Personne Burlington, paire de Stan Smith, Smith Wesson 20 janvier 09, jmarrache à Washington Jusquici tout va bien, négro plus rien ne métonne Mon uzi pèse une tonne, je nviens que pour des grosses sommes Jsuis dans mon living room, room, jvends des ringtones La concurrence prend dans le cavu, comme Elton John Lunettes noires, vitres baissées, cest moi dans la Benzo On cruise à 20 à lheure comme dans les rues de Crenshaw Compère peu fréquentable, insolent comme sonne-per Négro crois pas quon perd, la chatte à ton père Mais déjà dis moi doù tu mconnais ? Parle moi en billets violets Dou-double poney, jfais izi money Doù tu mconnais ? Parle moi en billets violets Dou-double poney, jfais izi money11</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>N°10</t>
+          <t>Mové Lang</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Que des Numéros 10 dans ma team, négro J'attends pas qu'ça tombe du ciel Si t'es pas N10 à Paname, t'es la banane du siècle Là où j'opère, nombreuses seront les victimes Que des N10 dans ma team Moins sage que nos pères, j'me sers et j'observe Imprime nos rimes sur le ring au bulldozer Là où j'opère, nombreuses seront les victimes Que des numéros 10 dans ma team J'ai beaucoup de mal à obéir aux Hommes Même si mes paroles ont les menottes, sont plaquées au sol T'en bats pas les couilles d'avoir de bonne notes, peu d'élus dans mon milieu Des attaquants, peu d'ailiers dans ma banlieue Mes lyrics sont d'humeur maussade, j'tenais à l'dire J'm'en fous d'y passer si il m'reste quelques millions d'euros à tenir Mon drapeau blanc est toujours au sale, brolic bien au chaud Avant d'affronter l'équipe, trempe tes couilles dans l'eau chaude Des fois j'veux la fermer, mais y'a c'putain d'rap à la con Alors j'carbure à la ke-skun et mon skeud part à la fonte J'rêve peu, j'préfère agir mais j'ai un temps d'vie minimal Donc forcément l'infini, ça finit mal Si j'atteins l'argent ou l'bronze, c'est que l'or m'aura échappé Alors j'serai d'ceux qui faut remettre en zonz' Renoi, tu t'demanderas après qu'ma clique te kill Mais comment font-ils pour avoir ce style ? Fusil à pompes dans les mains, carafes d'eau dans les pupilles Petit que des numéros 10 dans ma team Pas juste pour la frime... J'attends pas qu'ça tombe du ciel Si t'es pas N10 à Paname, t'es la banane du siècle Là où j'opère, nombreuses seront les victimes Que des N10 dans ma team Moins sage que nos pères, j'me sers et j'observe Imprime nos rimes sur le ring au bulldozer Là où j'opère, nombreuses seront les victimes Que des numéros 10 dans ma team Dans l'rap j'écris et produis, j'suis chauffeur-livreur Beaucoup d'fleurs à mon enterrement, entouré d'chiffreurs Négro on plaisante pas avec le bif au Q.G Kho c'est les euros, entrons dans le vif du sujet Banlieusard, j'mords à l'hameçon juste pour faire la teuf Ce matin un lapin a fumé un keuf Blanche, marron et bingo ! On nous parle cul et argent, dehors on devient dingue bingo, département du lingot MC en Occident par accident dur à assumer Mais courageux, on s'suicide pas, on s'fait fumer ! Hi trop de-spi nos réputations craignent L'étalon Noir kiffe les chiennes aux strings, talons Sont sans repères, crapuleux dans l'sang Moi et mes compères on fout l'feu, nique sa mère et son père On a le son qui déclasse, beaucoup sont dans le moule Mais ont le boule qui dépasse, se croient dans le mouv' Font du rap sans calories ni fibres Trop cheum, innovent en pompant, ils ont pas vu la taille du chibre B2OBA, numéro 10, rien à craindre J'suis destiné à briller ou à m'éteindre J'attends pas qu'ça tombe du ciel Si t'es pas N10 à Paname, t'es la banane du siècle Là où j'opère, nombreuses seront les victimes Que des N10 dans ma team Moins sage que nos pères, j'me sers et j'observe Imprime nos rimes sur le ring au bulldozer Là où j'opère, nombreuses seront les victimes Que des numéros 10 dans ma team Tu rêves d'être numéro 10, comme nous Que la rue t'applaudisse, très peu rugissent comme nous Ballon d'or grâce à mes tacles à la gorge, mes crochets, Ok J'fais mes dièses, roi du mont de Tallac j'te baise Fuck la loi, son arbitrage, ses cartons Dis-leur ici, c'est nous les patrons, sucez nous pendant qu'on bicrave Souvent la came est trop douce Trop guèze, trop lège', pas dans le 92 Alors des fois je fume, je plane et je perds Au lieu de prendre des thunes et de gagner du pèse Là où j'opère nombreuses seront les victimes Que des numéros 10 dans ma team9</t>
+          <t>Mové lang, mové lang Mové lang, mové lang mem Zot pé mô 10 fwa 20 fwa 30 fwa Rien à fout' négro ke zot kay mô Si ou cho, vini vwè nou Awthing vini vwè nou Haters vini vwè nou Nou cho nou, vini vwè nou Mové lang, mové lang Mové lang, mové lang mem Zot pé mô 10 fwa 20 fwa 30 fwa Rien à fout' négro ke zot kay mô Si zo cho, vini vwè nou Déter', vini vwè nou Kay mod zot, vini vwè nou Égri nou, vini vwè nou Vini vwè nou si zot égri Vrai négro soti 92i Awthing con Gato et belvi Boutey la lokal alcoolisés nou été Arme la paré an nou allé Nou ké vwè sa i ké palé Pani ni biff si pa ni drogué Troké lé cam et lé drogué AK Ghetto youth pa pè la muerte 47 AK yo paré pou pe fè la rre-gue L.S Shitos Gang, 92 à se-l'ai Lang an nou nwè, bitch an nou nwè, drapo la lévé Mové lang, mové lang, mové lang Langue de pute paré fè putrie Nèg soti gwadloup Négro fuck zot tout Nou ti ni zouti Gro gamos, gro billets, gro tarpé Nou paré fé des gro dinguerie Fèmé guel a zot, vini èvè nou Vini joui la vi Mové lang, mové lang Mové lang, mové lang mem Zot pé mô 10 fwa 20 fwa 30 fwa Rien à fout' négro ke zot kay mô Si ou cho, vini vwè nou Awthing vini vwè nou Haters vini vwè nou Nou cho nou, vini vwè nou Mové lang, mové lang Mové lang, mové lang mem Zot pé mô 10 fwa 20 fwa 30 fwa Rien à fout' négro ke zot kay mô Si zo cho, vini vwè nou Déter', vini vwè nou Kay mod zot, vini vwè nou Égri nou, vini vwè nou Rate-pi je n'ai pas de main gauche, j'ai un crochet Le prix du featuring à la hausse je vois que des négros fauchés Izi gang, Izi gang, si tu veux du meu-se viens nous voir nous Dans leurs clips ils font du ffic-tra sse-lia, mos-ga, mais la vie de ma mère il y'a walou La vie de ma mère le rap game il est dedans, ma mère que j'aime tant Je suis busy mais je vais trouver le temps pour niquer la tienne et la sienne en même temps Gwada, Fontamara, Bakel, tant de médisants Le savoir est une arme, trois calibres sur moi Je suis très intelligent On braque leurs diligences, famille au chaud dans une résidence Koba, César, 40000 Gang est la résistance Mové lang, mové lang, Gato izi monnaie gang, hein Toujours sur mon 31 c'est même pas le Nouvel An, Nouvel An Mové lang, mové lang Mové lang, mové lang mem Zot pé mô 10 fwa 20 fwa 30 fwa Rien à fout' négro ke zot kay mô Si ou cho, vini vwè nou Awthing vini vwè nou Haters vini vwè nou Nou cho nou, vini vwè nou Mové lang, mové lang Mové lang, mové lang mem Zot pé mô 10 fwa 20 fwa 30 fwa Rien à fout' négro ke zot kay mô Si zo cho, vini vwè nou Déter', vini vwè nou Kay mod zot, vini vwè nou Égri nou, vini vwè nou Vini jwenn nou si ou bezwen li lajan machandiz ak bouzin Malé Boulogne sé là m'pozé, m'dessann Sarcelles kot Dikos pou m'al brasé Kalashnikov mwen déchajé, bouzin santi yo fout tombé Nèg yo pansé mwen tap kampé jamè jamè patnè map kontinwe Koko rat pussy yo blessé Lè gwoz am chxxx ap tiré M'panse w'tap kouri Pa fout gen story Mentré mothafucker mwen kasé mwen brizé Little Haïti Zoe Land , Port-au-Prince m'reprezenté Nèg yo fout pè , tèt yo à tè lè pirat yap pasé Mové Lang Mové Lang Mové Lang Bakel City nou tout vini Mwen sot Haïti , mentré Miami mpap fout vinn fè zanmi Lajanm sal, Fuzim sal, manjém gen toujou bien bouyi Wap palé kaka nan mové lang sa wap fout pèdi la viw Mové lang, mové lang Mové lang, mové lang mem Zot pé mô 10 fwa 20 fwa 30 fwa Rien à fout' négro ke zot kay mô Si ou cho, vini vwè nou Awthing vini vwè nou Haters vini vwè nou Nou cho nou, vini vwè nou Mové lang, mové lang Mové lang, mové lang mem Zot pé mô 10 fwa 20 fwa 30 fwa Rien à fout' négro ke zot kay mô Si zo cho, vini vwè nou Déter', vini vwè nou Kay mod zot, vini vwè nou Égri nou, vini vwè nou9</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>G-Love</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Des migrants, des Amazones et pas de Jésus, voilà où on en est Jpeux même pas dire que j'suis déçu, j'm'en bats les couilles en vrai Demande à Shay les insultes des boloss ne me font plus d'effet plus d'effet J'ai le casier des gens, j'aime bien avoir les faits avoir les faits Quand le jeu dure trop longtemps, c'n'est plus un jeu J'suis d'une autre spèce animale, c'est pas blssé qu'j'suis l'plus dangereux Un roi, j'ai jamais vu une fève coupée en deux coupée en deux Te méprends pas, rapper comme ça, j'le fais quand j'veux Peu importe l'ampleur des dégâts, mama ne baisse jamais les bras Mais Françafrique, Chine-Afrique, on a clairement perdu, les gars perdu, les gars Chargez les canons, prendre d'la mer, devient inévitable La facture de la vie, c'est pas celle de Numericable Numericable J'suis dans l'vaisseau spatial, carré, y a qu'un bouton un bouton Ton vote vaut rien, mouton, devant la loi martiale 2020, je mets le Pape et Nabilla sur l'même tableau Pas d'photo du corps d'Oussama, les G.I. l'ont jeté à l'eau Qui va m'arrêter ? P't-être la 5G la 5G Traqué, ces enculés savent tout c'que j'fais tout c'que j'fais Faut plus braquer, faut encoder faut encoder Moi, j'vais encoder rien du tout, j'ai l'BEP j'ai l'BEP En gros, c'est cuit, la seule issue la Piraterie la Piraterie On vide les coffres, on s'réfugie comme Ben Ali comme Ben Ali Moi, j'sais qui j'suis, j'suis pas Kouachi, j'suis pas Charlie j'suis pas Charlie Que des frères, j'ai pas l'esprit d'camaraderie d'camaraderie La chance dit qu'elle arrive, elle est même pas partie pas partie Personne ne m'ensorcèle, c'est pas comme ça la vie pas comme ça la vie B.A.K.E.L, d'mande à Seydou, d'mande à Ladj Ly d'mande à Ladj Ly Tu m'vois le jour mais je ne prends vie que la nuit Le cordonnier pas forcément le mieux chaussé Moi, tes proverbes, j'm'en bats les couilles, j'ai ma paire d'Gucci aux pieds, c'est tout c'que j'sais c'est tout c'que j'sais Deux enfants, mes cojones, c'est tout c'que j'ai c'est tout c'que j'ai Sur l'formulaire, nique sa mère, j'ai tout coché j'ai tout coché 92i, c'est la famille, faut pas toucher faut pas toucher Pistolet en l'air, y a pas d'droitier, y a pas d'gaucher y a pas d'gaucher Mauvais joueur, j'ai vite fait de tout lâcher de tout lâcher T'as capté ? On baise tout, on s'fait pas chier on s'fait pas chier T'vois la tchoin d'hier soir, qui veut revenir, annihile-la annihile-la Ils ont allumé l'projecteur, quelque chose me dit qu'c'est la moula c'est la moula Pas d'bail de dromadaire, ça stream sans Maluma sans Maluma C'est gros salaire, c'est grosse audience, c'est Hanouna c'est Hanouna Qui va m'arrêter ? P't-être la 5G p't-être la 5G Traqué, ces enculés savent tout c'que j'fais tout c'que j'fais9</t>
+          <t>Sirili-woh-woh-woh, sirili-woh-woh-woh For you, my lova Farruko lanzai Booba Eh-eh-eh-eh Celui qui veut tester qu'il vienne, personne ne va tirer dans mon dos Avec quoi je vais frimer ce week-end, la Ferrari ou la Lambo' ? J'ai fait trop d'oseille cette semaine, calibré pour être sûr que tout est réglo' Qui vais-je baiser la mienne ou la tienne ? Je rappe depuis le ciel et les étoiles entre elles ne parlent que de elles La Terre ne parle que de haine Elle ferait changer un homme, il ne serait plus jamais le même G-Love Au pieu, j'répète jamais la même scène, j'innove Peine et amour, amour et douleur Si ça vaut le coup je souffrirai comme gens de couleur Mon cur, souvent de mauvaise humeur Si tu es la bonne je ne serai plus un killer Tranquila, tú andas conmigo, y yo aquí controlo cómodo Si quieres te quedas el weekend y usas el Ferrari o el Lambo Pide lo que tú quieras, ma', lo que sea que yo hago el arreglo Y si quieres nos vamos de vacaciones y viajamos todo el año Dime qué tengo que hacer para complacerte Ven, ven, bebecita Qué es lo que tengo que hacer? Qué es lo más que tú quieres, que tú necesitas? Pídeme lo que desees, que yo te lo compro Quieres Gucci, Louis Vuitton o de Versace un bolso? Todo lo que me digas, bebé, lo que tú pidas Tú sabes, mi cielo, que por ti yo doy la vida Te ofrezco algo de beber, dime qué te place Eh Dom Peri o Moët quizá te complace Eh Busca el traje de baño que nos vamo' en el yate De mi socio Booba, por todo el Caribe y amanecemo' en Aruba Wuh Amigo, amigo, mon yacht s'appellera All Eyez on Me Je suis comme Ronaldo à Rio Tellement d'oseille, ça sent la franc-maçonnerie Celui qui veut tester qu'il vienne, personne ne va tirer dans mon dos Avec quoi je vais frimer ce week-end, la Ferrari ou la Lambo' ? J'ai fait trop d'oseille cette semaine, calibré pour être sûr que tout est réglo' Qui vais-je baiser la mienne ou la tienne ? 92i sur le maillot Eyez on me Eyez on me Oh For you, my lova Eyez on me Farruko, Booba15</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jour de paye</t>
+          <t>Maki Sall Music</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Moi j'ai fait la guerre pour habiter Rue de la Paix Je n'manque jamais à l'appel quand c'est le jour de la paye Moi j'ai fait la guerre pour habiter Rue de la Paix I.Z.I. Je n'manque jamais à l'appel quand c'est le jour de la paye Yeah Bêta Oméga, Oméga Bêta Alpha J'suis trop haut pour les clashs renoi, tu crois que j'vais péta Alpha J'ai la coke à Sosa, kho, la classe à Al Pach Quatre pattes j'connais ap', même complètement rhabat Si y'a des bitches partout, c'est que j'suis dans la boîte Si ça fait mal, que tu cries, que tu jouis, c'est que j'suis dans ta chatte Les MC's font les caddies à Carrefour, Atac Avec 92i, j'ai saigné l'asphalte comme un spartiate Arrête tes salades, je ne mange que de la barbac Nique sa mère, villa sur la mer, j'suis à la Barbade Mitraillette, semi-auto à la baraque Passement de jambes, frappe d'enculé à la Chamakh Tu votes FN, tu votes à gauche, tu votes à droite Moi j'encule lÉtat, j'ai l'cul à l'air sur un hamac Au comico, on ferme notre gueule car on sait ap' Balance nous fils de pute, on sort le 47 AK Viens dans mon département Faire de l'argent facile, pourquoi faire autrement ? Viens dans mon département Faire de l'argent facile, pourquoi faire autrement ? Moi j'ai fait la guerre pour habiter Rue de la Paix Je n'manque jamais à l'appel quand c'est le jour de la paye Moi j'ai fait la guerre pour habiter Rue de la Paix Je n'manque jamais à l'appel quand c'est le jour de la paye Pas de milieu aisé, grandi au zoo Des négros fauchés essaient de me baiser, veulent ma peauzo J'suis un film d'horreur, t'es qu'un affreux jojo Que des ceintures noires, black étalon dans mon dojo J'suis dans les fourneaux, dans les journaux Sabre laser à Skywalker est dans mon fourreau Grand comme un Avatar, négro j'suis imbattable Que des bonbons dans mon cartable, années placard à ma table Je fais que des sons incroyables, des trucs de malades Cette année, j'vais tout baiser sur la chatte à Rama Yade Les O.G's nous connaissent, savent qu'on tient nos promesses Demain si j'ai pas de toit, j'serais pas en chien, j'serais au habs J'ai P-E-R-cé, saigné le RER C Dieu merci la street m'a re-M-E-R-cié Si tu m'vois enculer ta dinde, ne crois pas que je fête Noël Dangereux banlieusards, ici c'est Paris, fuck l'OM Viens dans mon département Faire de l'argent facile, pourquoi faire autrement ? Viens dans mon département Faire de l'argent facile, pourquoi faire autrement ? Moi j'ai fait la guerre pour habiter Rue de la Paix Je n'manque jamais à l'appel quand c'est le jour de la paye Moi j'ai fait la guerre pour habiter Rue de la Paix Je n'manque jamais à l'appel quand c'est le jour de la paye Cette go, j'ai la somme qui lui faut, n'aie pas le seum Haineux, tu veux me faire la peau, kho, t'es pas le seul Nouvelles Jordan aux pieds, j'aimerais toucher le ciel Pitbull en rut à l'affût d'un lâché de chiennes J'fais que du lourd, meilleur album, j'sais pas c'est lequel Ma vie manquait de goût, la street m'a passé le sel Crème de la crème, au bled on crève de la grippe J'suis là où règne la haine, car saigne l'Afrique Oublié, j'essaye, trouve-moi aux Seychelles J'fais rien, j'm'en bats les couilles, une Colombienne fait ma vaisselle J'suis au-dessus de la normale, Féfé Enzo J'arrive dans l'game, comme une tornade Ils n'oublieront pas, ils se souviendront de nous Je vais régner assis négro, je vais mourir debout Sur le podium, il n'y a que nous Tu veux t'asseoir sur le trône ? Faudra t'asseoir sur mes genoux Viens dans mon département Faire de l'argent facile, pourquoi faire autrement ? Moi j'ai fait la guerre pour habiter Rue de la Paix Je n'manque jamais à l'appel quand c'est le jour de la paye3</t>
+          <t>OK Soninké Yankee Alpha Fox-deux-fois Alpha Back to the Future 92i dans la maison Demande à Macky Sall du sale, c'que nous faisons On en a rien à foutre, on vit c'que nous disons Plus armé qu'toi, j'ai toujours raison Izi Tir de roque-que-quette, grosse qué-qué-qué-quette 9.2 y'a que du seum, on t'laisse la moque-que-quette One-two one-two, mic che-che-che-check Rabza, renoi, babtou, grosse pocke-cke-cket J'ai tout vu, j'ai fait du mitard, frôlé la muerte Prise d'otages, flow bateau-esclave pour mieux les fouetter Paris-Saint-Germain, Miami Heat Cinq négros armés sur cinq R1, ma carte de visite Gros culs, roue arrière 125 centimètres cube, fous la merde Si j'vends plus d'disques, l'économie sera parallèle J'dois faire du biff, de la moula, du caramel J'n'ai pas d'idole, j'ai sucé sonne-per Même quand j'avais pas dix doll', au-dessus des lois j'ai fait des sauts pér' Avec quelques soldats, comme ça que j'opère Orienté par l'argent, négro j'ai quelques euro-pères On en serre des bonnes, t'en serres des moches C'est nous les boss, sur la tête des gosses Sors un album, double album, je n'ai pas la pression Vont-ils rivaliser un jour ? J'n'en ai pas l'impression 92i dans la maison Demande à Macky Sall du sale, c'que nous faisons On en a rien à foutre, on vit c'que nous disons Plus armé qu'toi, j'ai toujours raison Ceux qui ne parlent pas, je n'me méfie que de eux Terrain à 80.000e, schlags à la queue leu leu Rester fidèle au bitume, je n'ai rien fait de mieux Ramène qui tu veux bâtard, je n'ai peur que de Dieu Brazza Avec du biff, je me sens libre, je fais ce que je veux Des MC, j'en encule le plus possible, je fais ce que je peux Tu m'as vu en chien ? C'est qu't'as veu-rê ! Bling-bling demande pas l'heure, j'vais t'aveugler L'swag est américain, le cur vient du deu-blé J'suis pour de vrai, frais de loin ou de près Encore de la route pour boucler la boucle Nahel bouk, j'suis plus pro que ton MacBook Take One, K.O.D Criminel Swag, sombre mélodie T'es qu'une merde, le système m'a dit Depuis j'ai grave la haine, j'vais dead en treillis kaki On en serre des bonnes, t'en serres des moches C'est nous les boss, sur la tête des gosses Sors un album, double album, je n'ai pas la pression Vont-ils rivaliser un jour ? J'n'en ai pas l'impression 92i dans la maison Demande à Macky Sall du sale, c'que nous faisons On en a rien à foutre, on vit c'que nous disons Plus armé qu'toi, j'ai toujours raison Geah, négro fiché dans le cortège Vatos Locos, Dickies black, paire de Cortez Baisé du crâne, âme avec une prothèse J'suis farhan avec une arme, j'suis dans les gros dièses S.O.S, t'as mal aux fesses, aux fesses J'suis so fresh, t'es grotesque, grotesque Regarde-moi de haut en bas, à tes risques ! J'suis tombé dedans quand j'étais tit-pe Astérix 100 moins ocho, guette les dorsaux Grand-mère sait faire un bon mafé, j'l'ai sur le torse gros 92 carats, j'vais t'montrer ma bague Quelques milliers d'euros, dans le Ü tréma bag Fuck TF1, CNN j'avale pas leurs salades Fuck les marines, fuck Oussama, fuck Islamabad Hustler, je hustle hard à toutes les saisons Paname, Hauts-de-Seine, RER C fait la liaison On en serre des bonnes, t'en serres des moches C'est nous les boss, sur la tête des gosses Sors un album, double album, je n'ai pas la pression Vont-ils rivaliser un jour ? J'n'en ai pas l'impression 92i dans la maison Demande à Macky Sall du sale, c'que nous faisons On en a rien à foutre, on vit c'que nous disons Plus armé qu'toi, j'ai toujours raison4</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Paradis</t>
+          <t>Longueur d’avance</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>S2KEYZ Le jour de gloire est arrivé, enfants de la patrie Kalachnikov chargée, toujours de la partie Mais la patrie n'aime pas les négros, ça on n'me l'a pas dit Alors je crache mon venin sur la basse et la batterie N'aie pas peur de la vitesse, quand c'est moi l' conducteur Ma tristesse au fond du chargeur et au fond du cur Parce que j' pense qu'a crâner, j' vais sûrement cramer Peu importe où j'irai, je serai thug à jamais J'affronte les péripéties, intempéries, de la vie J'en suis ravi, tant que mes proches sont à l'abri Promettez moi, qu'ils iront tous au paradis Soldat 92i 92ème compagnie Mon rap a été crucifié à en devenir christ christ Vivre à en crever, rire à en devenir triste Fuck le samedi, le lundi, le mardi Sautons sans parapluie, allons au paradis N'écoute pas B2O, ne fais pas c'que Mala dit Génération Mad Max, armés sous la gabardine Taffer de 9 à 5, pour moi c'est pas la vie Tuez moi tout d' suite, emmenez-moi au paradis Élevé parmi les drogués, les bandits, les malfrats J'ai grandi sur du Bob, Sugar Hill Gang et du Alpha J'ai fait le tour de cette salope de planète earth En manque d'affection j'ai fourré putes à 600 eur's J'ai fait du trafic, de substances chimiques J'ai créé Lunatic, j'ai fait de la musique Ennemi public, j'ai fait dans l'illicite S'ont cramé mon équipe, ma clique est magnifique Mon sort j'm'en bats les reins, pourvu qu'les miens s'en sortent J'préfère mourir à se-l'ai, que vivre en galérien Je n'emporterai nada, j'le sais mais peu importe J' vais leur faire le hala avant d'claquer la porte Mon rap a été crucifié à en devenir christ christ Vivre à en crever, rire à en devenir triste Fuck le samedi, le lundi, le mardi Sautons sans parapluie, allons au paradis N'écoute pas B2O, ne fais pas c'que Mala dit Génération Mad Max, armés sous la gabardine Taffer de 9 à 5, pour moi c'est pas la vie Tuez moi tout d' suite, emmenez-moi au paradis N'écoute pas B2O ne fais pas c'que Mala dit J'viens d'acheter en enfer un petit coin de paradis Ça investit à Dubaï, Abu Dhabi J'aime moins me battre depuis qu' j'ai des nouveaux habits Peau d'serpent sur les chaussures, sang d'porc collé au schlass Rapper toute cette haine, gros, c'est comme frapper au sac Viens pas vendre ta 0.9, ici coupée au plâtre Négro fut pharaon se fit sucer par Cléopâtre Je l'ai serrée si fort je lui ai cassé le dos Brisé les omoplates, 500e l'ostéopathe Qu'est-ce que sait faire mon peuple à part grimper aux arbres Te racketter à la récré et être appeler aux armes Mon rap a été crucifié à en devenir christ christ Vivre à en crever, rire à en devenir triste Fuck le samedi, le lundi, le mardi Sautons sans parapluie, allons au paradis N'écoute pas B2O, ne fais pas c'que Mala dit Génération Mad Max, armés sous la gabardine Taffer de 9 à 5, pour moi c'est pas la vie Tuez moi tout d' suite, emmenez-moi au paradis16</t>
+          <t>Back to the Future Devenir saint un jour, je n'y ai pas renoncé Le ciel ne répond pas, j'suis busy, je n'l'ai pas relancé Je reste dos au mur, j'regarde le mal danser Je n'parle qu'en numéros, j'n'aurai jamais le bac français Zéros sur mes chèques, zéro point sur mon permis Collectionne les schnecks et les félonies Pour le 92i, tellement facile dôter une vie Ne te trompe pas d'ennemi Toujours une longueur d'avance Marié à la blanche, je nattirais que la malchance Diamants de sang sur mon alliance Six pieds sous terre seront mes vacances Seul, je navigue, je suis l'ombre de ma vie Plus rien n'me fait rire, ce soir je mets les voiles Eeeh, eeeh J'ai sauté dans le vide, et je n'cesse de tomber Eeeh, eeeh J'ai sauté dans le vide et je tombe Eh, eh Je peux te décrocher la Lune, j'n'ai que du vice dans les paluches 99 galères, mais une bitch n'en est pas une Tombé plusieurs fois, j'suis relevé, j'suis de la O.S V.A.T.O.S, poing levé comme Jesse Owens Aller plus haut comme Tina Arena J'observe la foule derrière mes Carrera Ma vie, ses aléas, plus frais que tous ces boloss devant la caméra Pas toujours simple mais grâce a léquipe ça ira On a choisi cette vie-là, 9 Zedou Car c'est la seule qui a voulu de nous J'veux mourir dans la villa d'Elvira Ressusciter dans l'slip de Shakira Seul, je navigue, je suis l'ombre de ma vie Plus rien n'me fait rire, ce soir je mets les voiles Eeeh, eeeh J'ai sauté dans le vide, et je n'cesse de tomber Eeeh, eeeh J'ai sauté dans le vide et je tombe Eh, eh J'ai sauté depuis des années, mais j'n'ai toujours pas atterri Je n'fais que représenter, représenter Je ne sens plus les coups, comme un négro à Moscou On évolue dans le zoo, ne taffe que des gros sons, ne tchatche que de gros sous Eeeh, eeeh Eeeh, eeeh, eh, eh Eeeh, eeeh Eeeh, eeeh, eh Seul, je navigue, je suis l'ombre de ma vie Plus rien n'me fait rire, ce soir je mets les voiles Eeeh, eeeh J'ai sauté dans le vide, et je n'cesse de tomber Eeeh, eeeh J'ai sauté dans le vide et je tombe Eh, eh19</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2PAC</t>
+          <t>Arc-en-ciel</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Beta-Rogers-Alpha-Zebra 2 fois-Alpha, Izi Life La vie est pleine de surprises, des bonnes, des mauvaises C'est plus du Scorsese que Tavares et Gomez Baby, tu ressembles plus à Jenifer qu'à Lopez On baise les putes qui nous plaisent, aucun fils de pute ne nous baise À l'école, on m'demandait juste de me taire Juste un négro de plus, Q.I d'une pomme de terre Au fond d'la classe, seulement là pour niquer des mères Soldat 92izi, armes de guerre Terminator, Black et déter J'arrive à poil du futur, j'suis comme Schwarzenegger Laisse-moi faire mon business Joint dans la bouche, verre à la main, j'passe les vitesses 92 V12, pirates de la street-zer Rien qu'on leur fait la misère Délinquant juvénile, on n'correspondait pas aux critères Tu viens d'à gauche, à droite, tu niques ta mère, j'suis prioritaire J'en ai grave dans les soupapes, j'fais grave des sous man Mon cur est noir comme Doumam', pèse comme joueurs de Fulham Présumé coupable, ancien taulard Autour de moi, mieux vaut qu'ta pute porte le foulard J'connais Pablo... Mollah Omar Le vrai Mollah Omar, il est minuit sur la Audemars La chaîne est custom, toute black J'rappe comme personne, j'rappe comme 2Pac Pas d'récession sur le ter-ter, chez nous pas d'crise monétaire À la mémoire de mon frère, j'vais tous me les faire Je n'te reverrai plus, je n't'aurai plus au phone-tel Puisque la vie n'est qu'une pute, je vais la traiter comme telle Disque de platine, sans rien connaître au solfège Plus criminel que rappeur, tu dirigeais le cortège On pense à toi à chaque seconde Du mal à croire que tu n'es plus de ce monde On me dit qu'avec le temps, j'irai mieux Sombre est l'équipe, mais ta lumière éclaire les cieux Dans nos rêves, bien sûr ça terminait mieux Je ne te vois plus nulle part, sauf quand je ferme les yeux Cambriolage, virée nocturne Garde à vue, fusillade, gue-dro, course aux grosses thunes Revêtu tous les costumes, on a tout fait Pour finir des hassanettes, ta meilleure fortune J'en ai grave dans les soupapes, j'fais grave des sous man Mon cur est noir comme Doumam', pèse comme joueurs de Fulham Présumé coupable, ancien taulard Autour de moi, mieux vaut qu'ta pute porte le foulard J'connais Pablo... Mollah Omar Le vrai Mollah Omar, il est minuit sur la Audemars La chaîne est custom, toute black J'rappe comme personne, j'rappe comme 2Pac Une bague de guerrier, frère, à chaque doigts Ces pédés vont rien faire, tu m'le disais à chaque fois Rage dans le cur, dans les intestins Boulogne-Billancourt, Sarcelles à Stains, criminel instinct Lions d'la Teranga, dans l'camp adverse j'vois que des gnous Génération Mad Max, négro, personne n'est meilleur que nous On s'est rencontrés, j'étais gamin J'aurai le sourire quand la Faucheuse me tendra la main Grosses cojones, négro, mes couilles pendent J'ai ceci, j'ai ceci cela tous mentent Caillera de luxe, y'a pas mon name dans la tournante Hit sur hit, laisse le game dans la tourmente Et j'n'ai pas fini, ce n'est que le début C'que tu entends dans mes textes, petit, c'n'est que du vécu Maître de guerre, décoré comme un sapin Je n'suis plus dans la merde, sauf quand j'encule un tapin Izi life Beta-Rogers-Alpha-Zebra 2 fois-Alpha, izi soldat See you de l'autre coté renoi si si10</t>
+          <t>Le temps est compté, ne brisons pas nos curs Pas l'temps de faire les lovers Dis-moi cque tu veux vite, décide-toi, dessine-moi, dessine-moi Je suis de toutes les couleurs Le temps est compté, ne brisons pas nos curs Pas l'temps de faire les lovers Dis-moi c'que tu veux vite, décide-toi, dessine-moi, dessine-moi Je suis de toutes les couleurs Lorage est fini, tu me souris, tu sais que je n'suis plus très loin Bébé, je t'amène un souvenir de l'infini Ton arc-en-ciel est en chemin Je n's'rai pas là longtemps, non Juste après la pluie, le temps d'un rayon de soleil Profitons-en Je n'prendrai ni ton temps, ni ton cur, ni ton oseille Je nsrai pas là longtemps, non Juste après la pluie, le temps d'un rayon de soleil Profitons-en, profitons-en, oh On va limiter la casse, pas de réparation Aucune attache, pas de séparation On sest connus, on s'est promus sur une application Je partirai comme j'suis venu sans une explication Souffrir de l'amour nest pas une obligation Tu en trouveras une mieux, tu es si joli garçon Toutes ces couleurs à mon arc, tellement d'imagination Pour ce monde, j'ai trop de défauts de fabrication L'orage est fini, tu me souris, tu sais que je n'suis plus très loin Bébé, je t'amène un souvenir de l'infini Ton arc-en-ciel est en chemin Je n's'rai pas là longtemps, non Juste après la pluie, le temps d'un rayon de soleil Profitons-en Je n'prendrai ni ton temps, ni ton cur, ni ton oseille Je n's'rai pas là longtemps, non Juste après la pluie, le temps d'un rayon de soleil Profitons-en, profitons-en, oh11</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Double Poney</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Des hormones de dos argenté, constatent les analyses Les rappeurs français découpés, des kilos de hess dans la valise Je tiens toujours mes bails, en temps de crise, de pénurie Jsuis rentré dans la matrice, esquive les balles comme Keanu Reeves Tes nouveau dans lbiz, jsuis là depuis Wu-Tang Killa Beez Mon hobby mtaper au sabre avec Obi Wan Kenobi Infos dispos sur le site man, premier sur le shit man U tréma sur le sweat, 56 000 euros le feat On connaît djà le générique, tes là à nous parler dton titre On a vidé les douilles dton chargeur, scié les chicots dton pit Un faux mouv', on te recherche, te traque dans toute la ville On tnique ta mère et ta grand-mère, si elle est toujours en vie Six heures du mat en cage ces pédés dcondés me questionnent Bien entendu je nie, je nreconnais personne Qui a honte dêtre un négro à part Michael Jackson ? Shoota Babylon à bord dune Martin Aston Lunettes noires, vitres baissées, cest moi dans la Benzo On cruise à 20 à lheure comme dans les rues de Crenshaw Compère peu fréquentable, insolent comme sonne-per Négro crois pas quon perd, la chatte à ton père Mais déjà dis moi doù tu mconnais ? Parle moi en billets violets Dou-double poney, jfais izi money Doù tu mconnais ? Parle moi en billets violets Dou-double poney, jfais izi money Tu crois qujai perdu le nord, que jme suis éparpillé Flingue dans la bouche, yeux écarquillés, je nles laisse pas crier Jencule le système français, oui je suis expatrié Seul un peu doseille pourrait me rapatrier Bien sur jcontinue lson pour faire du halal billet Musculation, Rice and Beans, ba-banane grillée Je viens du Sénégal, le soir observe les kalash briller Bakel city dans la place, retrouve ton palace pillé Ici bas jai rien à faire à part acheter des gros apparts Va dire au chauffeur que jpose mon cul où jveux, comme Rosa Parks Alerte au météorite, putain de gros impact Tu dis partout qu'tes une terreur, chez nous on ttrouve super sympa Jai le gauche droite gauche dun boxeur cubain Tes pas frais, tu monte sur ne-scè comme pour aller acheter du pain Et nous sommes les meilleurs, les vrais négros le savent Concert à guichet fermé sur bateau desclaves Lunettes noires, vitres baissées, cest moi dans la Benzo On cruise à 20 à lheure comme dans les rues de Crenshaw Compère peu fréquentable, insolent comme sonne-per Négro crois pas quon perd, la chatte à ton père Mais déjà dis moi doù tu mconnais ? Parle moi en billets violets Dou-double poney, jfais izi money Doù tu mconnais ? Parle moi en billets violets Dou-double poney, jfais izi money Quelques mauvais conseils, des trafics pas nets Grace à ça jpaye ma bouteille, tu payes ta canette Tu tfais des casse-croûtes, jme fais des restos Jenvoie des diamants à ma go, tenvoies des textos Pourquoi frime til autant, pourquoi est-il si méchant? Largent pourrit les gens, met du chrome sur mes jantes Quand jserai grand jserai président, jai besoin quon mpistonne Jveux jouer du saxo, mfaire sucer comme Bill Clinton Tas autant dstyle quun bas dsurvet avec une paire de Weston Qui a plus de flow que B.2.O ? Personne Burlington, paire de Stan Smith, Smith Wesson 20 janvier 09, jmarrache à Washington Jusquici tout va bien, négro plus rien ne métonne Mon uzi pèse une tonne, je nviens que pour des grosses sommes Jsuis dans mon living room, room, jvends des ringtones La concurrence prend dans le cavu, comme Elton John Lunettes noires, vitres baissées, cest moi dans la Benzo On cruise à 20 à lheure comme dans les rues de Crenshaw Compère peu fréquentable, insolent comme sonne-per Négro crois pas quon perd, la chatte à ton père Mais déjà dis moi doù tu mconnais ? Parle moi en billets violets Dou-double poney, jfais izi money Doù tu mconnais ? Parle moi en billets violets Dou-double poney, jfais izi money11</t>
+          <t>Morray, c'est-à-dire... La guerre c'est pour la vie, avec nous c'est jamais fini Trouve moi à soixante piges en bas de chez toi avec un Uzi Personne n'a les yeux bleus chez nous, à part un husky Colombie 92i, y'a qu'sur la blanche qu'on fait du ski On fait tout c'qui est violent, j'aime, ta clique fait du violoncelle, du violoncelle Clic, bam ! Un colon saigne bang, bang ! Je la fais moi-même, fuck leur justice Charognards comme des hyènes, fast, je n'ai qu'une vie J'ai la dégaine et je dégaine J't'attends à l'aéroport comme dans Taken pendant qu'je dégraine Fils ! Je n'lache jamais l'affaire-zer, bien au fond pour la faire taire Glock'zer dans le RR, mains en l'air ! J'ai trop de haineux sur les côtes, je ne veux pas en venir aux mains Je sors le kalash direct, très coléreux sont les nôtres VVS1 sont mes diamants, peu onéreux sont les vôtres J'donne tellement d'amour aux miens, je n'en ai plus pour les autres Bleu blanc rouge sur leur insigne, j'leur ris au nez Bateau d'esclaves n'est jamais cambriolé Petit tu viens juste d'embryonner 92i ne fait pas de prisonniers Balle dans la tête ! Squelette, squelette ! J'ai du pain sur la planche à billets, elle est violette, violette J'suis Maître Renard, t'es belette, belette J'suis plus AK 7-4 russian que Skyroulette, roulette U.K.T. sur le crewneck, crewneck J'peux reprendre ton flow, c'est moi qui te l'ai donné 2.7 ! 2.7 ! Bang ! Bang ! Un peu de haine Un peu de banlieue, un peu de Jack dans les veines, un peu de chiennes AMG dit le CL 65 Pas de caprice ici, pas de femme enceinte Jack Da', cul sec, cul sec J'suis dans le G5 au-dessus d'ta tête, t'es dans le Q7 Q7 J'ai trop de haineux sur les côtes, je ne veux pas en venir aux mains Je sors le kalash direct, très coléreux sont les nôtres VVS1 sont mes diamants, peu onéreux sont les vôtres J'donne tellement d'amour aux miens, je n'en ai plus pour les autres Bleu blanc rouge sur leur insigne, j'leur ris au nez Bateau d'esclaves n'est jamais cambriolé Petit tu viens juste d'embryonner 92i ne fait pas de prisonniers OCB, 2 heures du mat', shopping Sidi IBrahim J'fume, khod, armes de guerre, j'vais faire pire que t'imagines M.C. j'vous laisse jacter, honneur aux dames Nique sa mère courir pour être à l'heure au taf' Régler ses comptes sur le net, j'préfère te mettre un coup d'schlass Ça fume trop de zeb'zer, j'ai la toux grasse À part la mort, tout passe Même en charentaises j'pourrais t'mettre un coup de grâce Déconseillé comme Caracas Y'a un grand vide et juste le bruit d'ta carcasse Mon flingue sur ta tempe, si ça c'est pas la classe J'suis là pour briser des tchoins, non pas la glace J'ai trop de haineux sur les côtes, je ne veux pas en venir aux mains Je sors le kalash direct, très coléreux sont les nôtres VVS1 sont mes diamants, peu onéreux sont les vôtres J'donne tellement d'amour aux miens, je n'en ai plus pour les autres Bleu blanc rouge sur leur insigne, j'leur ris au nez Bateau d'esclaves n'est jamais cambriolé Petit tu viens juste d'embryonner 92i ne fait pas de prisonniers45</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mové Lang</t>
+          <t>O.G.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Mové lang, mové lang Mové lang, mové lang mem Zot pé mô 10 fwa 20 fwa 30 fwa Rien à fout' négro ke zot kay mô Si ou cho, vini vwè nou Awthing vini vwè nou Haters vini vwè nou Nou cho nou, vini vwè nou Mové lang, mové lang Mové lang, mové lang mem Zot pé mô 10 fwa 20 fwa 30 fwa Rien à fout' négro ke zot kay mô Si zo cho, vini vwè nou Déter', vini vwè nou Kay mod zot, vini vwè nou Égri nou, vini vwè nou Vini vwè nou si zot égri Vrai négro soti 92i Awthing con Gato et belvi Boutey la lokal alcoolisés nou été Arme la paré an nou allé Nou ké vwè sa i ké palé Pani ni biff si pa ni drogué Troké lé cam et lé drogué AK Ghetto youth pa pè la muerte 47 AK yo paré pou pe fè la rre-gue L.S Shitos Gang, 92 à se-l'ai Lang an nou nwè, bitch an nou nwè, drapo la lévé Mové lang, mové lang, mové lang Langue de pute paré fè putrie Nèg soti gwadloup Négro fuck zot tout Nou ti ni zouti Gro gamos, gro billets, gro tarpé Nou paré fé des gro dinguerie Fèmé guel a zot, vini èvè nou Vini joui la vi Mové lang, mové lang Mové lang, mové lang mem Zot pé mô 10 fwa 20 fwa 30 fwa Rien à fout' négro ke zot kay mô Si ou cho, vini vwè nou Awthing vini vwè nou Haters vini vwè nou Nou cho nou, vini vwè nou Mové lang, mové lang Mové lang, mové lang mem Zot pé mô 10 fwa 20 fwa 30 fwa Rien à fout' négro ke zot kay mô Si zo cho, vini vwè nou Déter', vini vwè nou Kay mod zot, vini vwè nou Égri nou, vini vwè nou Rate-pi je n'ai pas de main gauche, j'ai un crochet Le prix du featuring à la hausse je vois que des négros fauchés Izi gang, Izi gang, si tu veux du meu-se viens nous voir nous Dans leurs clips ils font du ffic-tra sse-lia, mos-ga, mais la vie de ma mère il y'a walou La vie de ma mère le rap game il est dedans, ma mère que j'aime tant Je suis busy mais je vais trouver le temps pour niquer la tienne et la sienne en même temps Gwada, Fontamara, Bakel, tant de médisants Le savoir est une arme, trois calibres sur moi Je suis très intelligent On braque leurs diligences, famille au chaud dans une résidence Koba, César, 40000 Gang est la résistance Mové lang, mové lang, Gato izi monnaie gang, hein Toujours sur mon 31 c'est même pas le Nouvel An, Nouvel An Mové lang, mové lang Mové lang, mové lang mem Zot pé mô 10 fwa 20 fwa 30 fwa Rien à fout' négro ke zot kay mô Si ou cho, vini vwè nou Awthing vini vwè nou Haters vini vwè nou Nou cho nou, vini vwè nou Mové lang, mové lang Mové lang, mové lang mem Zot pé mô 10 fwa 20 fwa 30 fwa Rien à fout' négro ke zot kay mô Si zo cho, vini vwè nou Déter', vini vwè nou Kay mod zot, vini vwè nou Égri nou, vini vwè nou Vini jwenn nou si ou bezwen li lajan machandiz ak bouzin Malé Boulogne sé là m'pozé, m'dessann Sarcelles kot Dikos pou m'al brasé Kalashnikov mwen déchajé, bouzin santi yo fout tombé Nèg yo pansé mwen tap kampé jamè jamè patnè map kontinwe Koko rat pussy yo blessé Lè gwoz am chxxx ap tiré M'panse w'tap kouri Pa fout gen story Mentré mothafucker mwen kasé mwen brizé Little Haïti Zoe Land , Port-au-Prince m'reprezenté Nèg yo fout pè , tèt yo à tè lè pirat yap pasé Mové Lang Mové Lang Mové Lang Bakel City nou tout vini Mwen sot Haïti , mentré Miami mpap fout vinn fè zanmi Lajanm sal, Fuzim sal, manjém gen toujou bien bouyi Wap palé kaka nan mové lang sa wap fout pèdi la viw Mové lang, mové lang Mové lang, mové lang mem Zot pé mô 10 fwa 20 fwa 30 fwa Rien à fout' négro ke zot kay mô Si ou cho, vini vwè nou Awthing vini vwè nou Haters vini vwè nou Nou cho nou, vini vwè nou Mové lang, mové lang Mové lang, mové lang mem Zot pé mô 10 fwa 20 fwa 30 fwa Rien à fout' négro ke zot kay mô Si zo cho, vini vwè nou Déter', vini vwè nou Kay mod zot, vini vwè nou Égri nou, vini vwè nou9</t>
+          <t>Yeah T'as j'veux dire ou t'as pas j'veux dire Morray ? T'as pas j'veux dire, écoute, ferme ta gueule Back to the Future Izi Mes négros vous êtes où ? Boulbi, Aulnay-sous Bientôt la fin du monde, jmen fous tant que je fais des sous Ta clique a le point rouge sur le front, on dirait des dou-ins La rue ça use tu touches le fond, obligé de fumer des joints Violemment comme dans Oz, comme ça quon fait les choses Grosse bouteille à la main, comme ça quon fait les shows Tu te prétends meilleur que oi-m, négro comment tu oses ? J'vois que du jaune, vert, mauve, tu ne vois que du rose Niary Tally, Bakel City, rues de Mermoz 0.9 dans le stash house, les négros meurent doverdose Tu parles de swag en boucle, tes juste un genre de plouc Jsuis dans le textile fuck un salaire de joueur de foot Izi Criminologie, Boulbi 92i, Don Miloudzi O.G., O.G O.G., O.G R8 Audi Ah ha ! Avec mon shab Obi-Wan Kenobi au K.O.D Oh ! O.G. O.G., O.G O.G. Izi Geezee ! O.G. O.G., O.G C'est l'modus operandi, modus vivendi O.G., c'est pour la vie, 92izi Olympie Gangster, tout le monde mains en l'air, B2O, Don Miloudzi sont dans la plaaace Monopole O.G., mon apologie Pourtant ça vit dans le luxe, mais j'en peux plus, puisque j'te l'dis rien ne va plus Ça dort même plus, mange même plus, bois, fume, psychote en plus Rien ne va plus, rien ne va plus, poids d'un crime, sur les O.G Sur les O.G. O.G., O.G., Ozo Geezee ! Kho, c'est izi, busy, physique ici physique ici Oh oui, oh oui la weed on nique ici O.G. Le jour viendra où, des O.G. O.G., tu te souviendras O.G. Tous ces rats, mon élite, on est là On est là ! Criminologie Ah ha !..., Boulbi 92i, Don Miloudzi Woah ! O.G., O.G O.G., O.G R8 Audi Avec mon shab Obi-Wan Kenobi au K.O.D O.G. O.G., O.G O.G. O.G. O.G.... Jsuis meilleur que toi, va le dire à ta mère Jai du poulet yassa, de la me-ca dans le Tupperware Jsuis bon quà faire la guerre, la paix cest pour les shmetta Calibré, chemise hawaïenne Sénégal police dEtat 400 ans desclavage, aucun payback cest pas logique On te nique ta grand-mère, nique ton arbre généalogique Si tu me tends la main, tends moi celle de Maradona Mangeons bien mangeons armé, jsuis calibré au MacDonald's Jsuis heavyweight, tes super léger Quand je pense France, concurrence, je pense à baiser Pendant quon tient la hass en laisse, des bites combien ten lèches Tu crois qutu viens de serrer une bombe tes juste en train de baiser mon ex Criminologie, Boulbi 92i, Don Miloudzi O.G., O.G O.G., O.G R8 Audi Avec mon shab Obi-Wan Kenobi au K.O.D O.G. O.G., O.G O.G. O.G. O.G., O.G6</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>G-Love</t>
+          <t>Billets verts</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sirili-woh-woh-woh, sirili-woh-woh-woh For you, my lova Farruko lanzai Booba Eh-eh-eh-eh Celui qui veut tester qu'il vienne, personne ne va tirer dans mon dos Avec quoi je vais frimer ce week-end, la Ferrari ou la Lambo' ? J'ai fait trop d'oseille cette semaine, calibré pour être sûr que tout est réglo' Qui vais-je baiser la mienne ou la tienne ? Je rappe depuis le ciel et les étoiles entre elles ne parlent que de elles La Terre ne parle que de haine Elle ferait changer un homme, il ne serait plus jamais le même G-Love Au pieu, j'répète jamais la même scène, j'innove Peine et amour, amour et douleur Si ça vaut le coup je souffrirai comme gens de couleur Mon cur, souvent de mauvaise humeur Si tu es la bonne je ne serai plus un killer Tranquila, tú andas conmigo, y yo aquí controlo cómodo Si quieres te quedas el weekend y usas el Ferrari o el Lambo Pide lo que tú quieras, ma', lo que sea que yo hago el arreglo Y si quieres nos vamos de vacaciones y viajamos todo el año Dime qué tengo que hacer para complacerte Ven, ven, bebecita Qué es lo que tengo que hacer? Qué es lo más que tú quieres, que tú necesitas? Pídeme lo que desees, que yo te lo compro Quieres Gucci, Louis Vuitton o de Versace un bolso? Todo lo que me digas, bebé, lo que tú pidas Tú sabes, mi cielo, que por ti yo doy la vida Te ofrezco algo de beber, dime qué te place Eh Dom Peri o Moët quizá te complace Eh Busca el traje de baño que nos vamo' en el yate De mi socio Booba, por todo el Caribe y amanecemo' en Aruba Wuh Amigo, amigo, mon yacht s'appellera All Eyez on Me Je suis comme Ronaldo à Rio Tellement d'oseille, ça sent la franc-maçonnerie Celui qui veut tester qu'il vienne, personne ne va tirer dans mon dos Avec quoi je vais frimer ce week-end, la Ferrari ou la Lambo' ? J'ai fait trop d'oseille cette semaine, calibré pour être sûr que tout est réglo' Qui vais-je baiser la mienne ou la tienne ? 92i sur le maillot Eyez on me Eyez on me Oh For you, my lova Eyez on me Farruko, Booba15</t>
+          <t>Back to the Future Izi Derniers gamos, dernières tes-pu, dernières pes-sa MC tu donnes ton cul, ta monnaie pue d'la tte-cha Brrr! Machine à billets, billets verts Tout, tout pour la monnaie Brrr! Brrr! Billets verts J'suis sûr de gagner, comme Barça-Lorient Mon flow est kalashé, swag Moyen-Orient mieux que Kanye Très courtes relations, j'n'aime pas qu'les putes me questionnent Violente est ma narration, rempli de haine, j'n'ai que de l'amour pour quelques personnes Apprécie le bling, te demande pas combien ça a coûté Salopes en string autour de moi, ces putes sont maraboutées J'suis B.O.S.S. donc j'baise la patronne Où je me trouve ? Dans l'coeur des youvs, dans l'cul d'la matonne La mafia n'oublie pas, mais elle te pardonne Gallardo noire tout en carbone 92i, on parle d'eux de M.I.A à Montigny Fuck les stups du 9.2, fuck la crim' de Bobigny Trop de lances-ba mais tout se paie, on the rocks mon Hennessy Quand on n'sait pas on se tait, quand on sait on s'tait aussi Oui, oui monsieur j'fume que du meu-se Si le game ou un rappeur me recherche dis lui qu'j'suis sûrement dans l'cul d'sa reu-se J'vais cracher, ouvre la che-bou Négro parano, calibré même sous la che-dou Balaise comme Shrek il m'faut ma Fiona, 2-3 chèques puis petit sauna T'as ceci, t'as ceci-cela donc l'équipe te saucissonne Pas toujours l'temps d'faire de la promo Bakel dans les chromosomes, 0 à 100 en 3 secondes chrono Zoome sur mon flag, impacts de balles forment mon logo Zoome sur mon flag, impacts de balles forment mon logo B2o Derniers gamos, dernières tes-pu, dernières pes-sa MC tu donnes ton cul, ta monnaie pue d'la tte-cha Brrr! Machine à billets, billets verts Tout, tout pour la monnaie Brrr! Brrr! Billets verts13</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Maki Sall Music</t>
+          <t>GLAIVE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>OK Soninké Yankee Alpha Fox-deux-fois Alpha Back to the Future 92i dans la maison Demande à Macky Sall du sale, c'que nous faisons On en a rien à foutre, on vit c'que nous disons Plus armé qu'toi, j'ai toujours raison Izi Tir de roque-que-quette, grosse qué-qué-qué-quette 9.2 y'a que du seum, on t'laisse la moque-que-quette One-two one-two, mic che-che-che-check Rabza, renoi, babtou, grosse pocke-cke-cket J'ai tout vu, j'ai fait du mitard, frôlé la muerte Prise d'otages, flow bateau-esclave pour mieux les fouetter Paris-Saint-Germain, Miami Heat Cinq négros armés sur cinq R1, ma carte de visite Gros culs, roue arrière 125 centimètres cube, fous la merde Si j'vends plus d'disques, l'économie sera parallèle J'dois faire du biff, de la moula, du caramel J'n'ai pas d'idole, j'ai sucé sonne-per Même quand j'avais pas dix doll', au-dessus des lois j'ai fait des sauts pér' Avec quelques soldats, comme ça que j'opère Orienté par l'argent, négro j'ai quelques euro-pères On en serre des bonnes, t'en serres des moches C'est nous les boss, sur la tête des gosses Sors un album, double album, je n'ai pas la pression Vont-ils rivaliser un jour ? J'n'en ai pas l'impression 92i dans la maison Demande à Macky Sall du sale, c'que nous faisons On en a rien à foutre, on vit c'que nous disons Plus armé qu'toi, j'ai toujours raison Ceux qui ne parlent pas, je n'me méfie que de eux Terrain à 80.000e, schlags à la queue leu leu Rester fidèle au bitume, je n'ai rien fait de mieux Ramène qui tu veux bâtard, je n'ai peur que de Dieu Brazza Avec du biff, je me sens libre, je fais ce que je veux Des MC, j'en encule le plus possible, je fais ce que je peux Tu m'as vu en chien ? C'est qu't'as veu-rê ! Bling-bling demande pas l'heure, j'vais t'aveugler L'swag est américain, le cur vient du deu-blé J'suis pour de vrai, frais de loin ou de près Encore de la route pour boucler la boucle Nahel bouk, j'suis plus pro que ton MacBook Take One, K.O.D Criminel Swag, sombre mélodie T'es qu'une merde, le système m'a dit Depuis j'ai grave la haine, j'vais dead en treillis kaki On en serre des bonnes, t'en serres des moches C'est nous les boss, sur la tête des gosses Sors un album, double album, je n'ai pas la pression Vont-ils rivaliser un jour ? J'n'en ai pas l'impression 92i dans la maison Demande à Macky Sall du sale, c'que nous faisons On en a rien à foutre, on vit c'que nous disons Plus armé qu'toi, j'ai toujours raison Geah, négro fiché dans le cortège Vatos Locos, Dickies black, paire de Cortez Baisé du crâne, âme avec une prothèse J'suis farhan avec une arme, j'suis dans les gros dièses S.O.S, t'as mal aux fesses, aux fesses J'suis so fresh, t'es grotesque, grotesque Regarde-moi de haut en bas, à tes risques ! J'suis tombé dedans quand j'étais tit-pe Astérix 100 moins ocho, guette les dorsaux Grand-mère sait faire un bon mafé, j'l'ai sur le torse gros 92 carats, j'vais t'montrer ma bague Quelques milliers d'euros, dans le Ü tréma bag Fuck TF1, CNN j'avale pas leurs salades Fuck les marines, fuck Oussama, fuck Islamabad Hustler, je hustle hard à toutes les saisons Paname, Hauts-de-Seine, RER C fait la liaison On en serre des bonnes, t'en serres des moches C'est nous les boss, sur la tête des gosses Sors un album, double album, je n'ai pas la pression Vont-ils rivaliser un jour ? J'n'en ai pas l'impression 92i dans la maison Demande à Macky Sall du sale, c'que nous faisons On en a rien à foutre, on vit c'que nous disons Plus armé qu'toi, j'ai toujours raison4</t>
+          <t>Ne crois-tu pas qu'je sais c'que j'fais? Ne crois-tu pas quje sais cque jfais? Tellement longtemps que jfais la guerre Le prochain cest Damso, mfais pas jurer la vie dma mère Chacun sa croix, chacun sa Elvira La paix sra toute nouvelle, peut-être quon lappréciera Je crois en Dieu à ma manière, sûrement pas Jésus qui me guide Un demi-siècle qujsuis au pouvoir, peut-on parler de génocide ? Tu préfères le raconter, moi, je préfère le vivre Jai du réécrire tous ces livres, jdois faire le plein pour faire le vide 9.2, cest lélite, pas dur découler tous ces litres Je nsrai jamais un mythe, jai bien griffonné tous ces titres Liasses de billets si hautes, wallaye bilaye, jperds léquilibre Sur écoute à droite à gauche, jai dû faire sauter toutes les lignes Elle ma cherché dans tout létage, elle a frappé à toutes les suites Y a quDidier quon n'aime pas, jpasse le salam à toute léquipe Trop d'argent, je ne rêve plus mais hamdoullah, j'ai tout Elle dit que je l'ai niquée, Hassoul, j'l'ai pas chée-tou Sept zéros sur les chèques, poto, j'ai plus vingt ans Vide la caisse et vite, salope, le changement, c'est maintenant La paix n'tiendra pas longtemps si rate-pi n'fait pas son chiffre Ient-cli n'a pas son fixe, t'es au tard-mi, t'as pas ton shit Tout peut sombrer si vite, ici, rien ne reste sans suite J'suis au placard, j'vois pas mes mômes mais même Drake voit pas son fils Ce n'est qu'un au revoir, see you de l'autre côté des lois J'passais une commande Uber Eats pendant qu'j'lui mettais des doigts Je sais qu'tu vas la retourner donc j't'ai mis ta veste à l'envers Espèce d'enculé drequin, j'vais t'mettre dans un bocal en fer Y a ceux qui ont sorti le glaive, y a ceux qu'ont pas gé-bou L'alcool sur la table, c'est pour les tchoins, j'suis pas rré-bou J'ai trop d'argent, je ne rêve plus mais hamdoullah, j'ai tout Elle dit que je l'ai niquée, Hassoul, j'l'ai pas chée-tou7</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Longueur d’avance</t>
+          <t>Madrina</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Back to the Future Devenir saint un jour, je n'y ai pas renoncé Le ciel ne répond pas, j'suis busy, je n'l'ai pas relancé Je reste dos au mur, j'regarde le mal danser Je n'parle qu'en numéros, j'n'aurai jamais le bac français Zéros sur mes chèques, zéro point sur mon permis Collectionne les schnecks et les félonies Pour le 92i, tellement facile dôter une vie Ne te trompe pas d'ennemi Toujours une longueur d'avance Marié à la blanche, je nattirais que la malchance Diamants de sang sur mon alliance Six pieds sous terre seront mes vacances Seul, je navigue, je suis l'ombre de ma vie Plus rien n'me fait rire, ce soir je mets les voiles Eeeh, eeeh J'ai sauté dans le vide, et je n'cesse de tomber Eeeh, eeeh J'ai sauté dans le vide et je tombe Eh, eh Je peux te décrocher la Lune, j'n'ai que du vice dans les paluches 99 galères, mais une bitch n'en est pas une Tombé plusieurs fois, j'suis relevé, j'suis de la O.S V.A.T.O.S, poing levé comme Jesse Owens Aller plus haut comme Tina Arena J'observe la foule derrière mes Carrera Ma vie, ses aléas, plus frais que tous ces boloss devant la caméra Pas toujours simple mais grâce a léquipe ça ira On a choisi cette vie-là, 9 Zedou Car c'est la seule qui a voulu de nous J'veux mourir dans la villa d'Elvira Ressusciter dans l'slip de Shakira Seul, je navigue, je suis l'ombre de ma vie Plus rien n'me fait rire, ce soir je mets les voiles Eeeh, eeeh J'ai sauté dans le vide, et je n'cesse de tomber Eeeh, eeeh J'ai sauté dans le vide et je tombe Eh, eh J'ai sauté depuis des années, mais j'n'ai toujours pas atterri Je n'fais que représenter, représenter Je ne sens plus les coups, comme un négro à Moscou On évolue dans le zoo, ne taffe que des gros sons, ne tchatche que de gros sous Eeeh, eeeh Eeeh, eeeh, eh, eh Eeeh, eeeh Eeeh, eeeh, eh Seul, je navigue, je suis l'ombre de ma vie Plus rien n'me fait rire, ce soir je mets les voiles Eeeh, eeeh J'ai sauté dans le vide, et je n'cesse de tomber Eeeh, eeeh J'ai sauté dans le vide et je tombe Eh, eh19</t>
+          <t>J'suis toujours au quartier, mula cellophanée J'récupère le rrain-té, j'ai ves-qui les condés Armé comme à Palerme, dangereux, j'en n'ai pas l'air Combien manquent à l'appel quand j'repense à ma peine ? Envoie-moi la mallette, que des billets violets Ketama inhalée, ne-jau pour me calmer Non personne te connaît han, connaît han Personne te connait han, han, personne La madrina voudrait la bague au doigt, la madrina voudrait la bague au doigt La madrina voudrait la bague au doigt, la madrina voudrait la bague au doigt Les flics au cul, j'cours dans la tess, j'ai fait des caddies pour la pièce Jvendrais de la 'ess ou quoi ou quest-ce, au revoir, merci, Madame la hess J'suis dans ma nouvelle caisse, j'suis dans ma nouvelle kehba J'suis dans ma nouvelle guerre, j'suis dans de nouvelles lères-ga Je roule en Ferrari, j'ai pas besoin d'guer-dra J'suis très mauvais mari, j'ai l'cur à Bagheera Le monde est à moi comme l'ami de Many Je garde mon sang-froid comme rate-pi du Mali Les coups d'feu sont partis sans aucune empathie Je crois qu'j'vais tout casser, j'n'aime pas c'qu'ils ont bâti J'n'aime pas c'qu'ils ont bâti, non J'n'aime pas c'qu'ils ont bâti, non La madrina voudrait la bague au doigt, la madrina voudrait la bague au doigt La madrina voudrait la bague au doigt, la madrina voudrait la bague au doigt Je roule enfouraillé, ce joint de marocain Sur les réseaux, t'es un mannequin, faux, chez nous, t'es un tapin Le gamos est Allemand, le produit de Sevran Les porcs ne m'auront plus, j'suis dehors avant le soleil levant Tous les jours en-bas du bloc, c'est moi qui ferme le four Ça bibi, ça bibi, ça vide le stock Tous les jours en-bas du bloc, c'est moi qui ferme le four Ça bibi, ça bibi, ça vide le stock La madrina voudrait la bague au doigt, la madrina voudrait la bague au doigt La madrina voudrait la bague au doigt, la madrina voudrait la bague au doigt Les flics au cul, j'cours dans la tess, j'ai fait des caddies pour la pièce Jvendrais de la 'ess ou quoi ou quest-ce, au revoir, merci, Madame la hess J'suis dans ma nouvelle caisse, j'suis dans ma nouvelle kehba J'suis dans ma nouvelle guerre, j'suis dans de nouvelles lères-ga8</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Arc-en-ciel</t>
+          <t>Jimmy</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Le temps est compté, ne brisons pas nos curs Pas l'temps de faire les lovers Dis-moi cque tu veux vite, décide-toi, dessine-moi, dessine-moi Je suis de toutes les couleurs Le temps est compté, ne brisons pas nos curs Pas l'temps de faire les lovers Dis-moi c'que tu veux vite, décide-toi, dessine-moi, dessine-moi Je suis de toutes les couleurs Lorage est fini, tu me souris, tu sais que je n'suis plus très loin Bébé, je t'amène un souvenir de l'infini Ton arc-en-ciel est en chemin Je n's'rai pas là longtemps, non Juste après la pluie, le temps d'un rayon de soleil Profitons-en Je n'prendrai ni ton temps, ni ton cur, ni ton oseille Je nsrai pas là longtemps, non Juste après la pluie, le temps d'un rayon de soleil Profitons-en, profitons-en, oh On va limiter la casse, pas de réparation Aucune attache, pas de séparation On sest connus, on s'est promus sur une application Je partirai comme j'suis venu sans une explication Souffrir de l'amour nest pas une obligation Tu en trouveras une mieux, tu es si joli garçon Toutes ces couleurs à mon arc, tellement d'imagination Pour ce monde, j'ai trop de défauts de fabrication L'orage est fini, tu me souris, tu sais que je n'suis plus très loin Bébé, je t'amène un souvenir de l'infini Ton arc-en-ciel est en chemin Je n's'rai pas là longtemps, non Juste après la pluie, le temps d'un rayon de soleil Profitons-en Je n'prendrai ni ton temps, ni ton cur, ni ton oseille Je n's'rai pas là longtemps, non Juste après la pluie, le temps d'un rayon de soleil Profitons-en, profitons-en, oh11</t>
+          <t>Sénégal, D.K.R Jimmy Bakel City gangster Jimmy est arrivé en France croyant trouver Liberté égalité, mais en réalité Contrôles d'identité, violences policières Jimmy a tout d'suite pigé qu'il faudrait niquer les mères Chez lui il n'y a que Jésus qui tend l'autre joue Donc Jimmy prend son revolver, survit au jour le jour Il apprend que dans la vie, pour y arriver faut prendre des risques Que lorsqu'on s'appelle Jimmy, on a rarement c'que l'on mérite La force est la souffrance des pères, de ça que l'on hérite Il n'verra pas la fin du film, ne sera pas dans l'générique Mais Jimmy ne sera jamais démuni Préfère la prison à vie comme aux États-Unis Jimmy veut être le meilleur qu'on ne puisse pas rivaliser Il vit le crime en musique, malhonnêtement équalisé Jimmy n'a pas peur du shérif, il est de l'autre côté De l'autre côté du périph', ses jours comptés, numérotés Jimmy veut qu'on le paye cash et comptant Sinon il coupera la musique, te fumera en chantant Il n'éteindra pas en sortant, Jimmy ne vivra pas longtemps Mais Jimmy vient du bled, ventre plein, nègre content C'est Jimmy, ohohohoh Jimmy Jimmy a ses raisons, que la raison ne connaît pas Il ne respecte pas la loi, la loi ne le respecte pas C'est Jimmy, ohohohoh Jimmy Jimmy a ses raisons, que la raison ne connaît pas Il ne respecte pas la loi, la loi ne le respecte pas Ohohohoh Jimmy, Jimmy10</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Morray, c'est-à-dire... La guerre c'est pour la vie, avec nous c'est jamais fini Trouve moi à soixante piges en bas de chez toi avec un Uzi Personne n'a les yeux bleus chez nous, à part un husky Colombie 92i, y'a qu'sur la blanche qu'on fait du ski On fait tout c'qui est violent, j'aime, ta clique fait du violoncelle, du violoncelle Clic, bam ! Un colon saigne bang, bang ! Je la fais moi-même, fuck leur justice Charognards comme des hyènes, fast, je n'ai qu'une vie J'ai la dégaine et je dégaine J't'attends à l'aéroport comme dans Taken pendant qu'je dégraine Fils ! Je n'lache jamais l'affaire-zer, bien au fond pour la faire taire Glock'zer dans le RR, mains en l'air ! J'ai trop de haineux sur les côtes, je ne veux pas en venir aux mains Je sors le kalash direct, très coléreux sont les nôtres VVS1 sont mes diamants, peu onéreux sont les vôtres J'donne tellement d'amour aux miens, je n'en ai plus pour les autres Bleu blanc rouge sur leur insigne, j'leur ris au nez Bateau d'esclaves n'est jamais cambriolé Petit tu viens juste d'embryonner 92i ne fait pas de prisonniers Balle dans la tête ! Squelette, squelette ! J'ai du pain sur la planche à billets, elle est violette, violette J'suis Maître Renard, t'es belette, belette J'suis plus AK 7-4 russian que Skyroulette, roulette U.K.T. sur le crewneck, crewneck J'peux reprendre ton flow, c'est moi qui te l'ai donné 2.7 ! 2.7 ! Bang ! Bang ! Un peu de haine Un peu de banlieue, un peu de Jack dans les veines, un peu de chiennes AMG dit le CL 65 Pas de caprice ici, pas de femme enceinte Jack Da', cul sec, cul sec J'suis dans le G5 au-dessus d'ta tête, t'es dans le Q7 Q7 J'ai trop de haineux sur les côtes, je ne veux pas en venir aux mains Je sors le kalash direct, très coléreux sont les nôtres VVS1 sont mes diamants, peu onéreux sont les vôtres J'donne tellement d'amour aux miens, je n'en ai plus pour les autres Bleu blanc rouge sur leur insigne, j'leur ris au nez Bateau d'esclaves n'est jamais cambriolé Petit tu viens juste d'embryonner 92i ne fait pas de prisonniers OCB, 2 heures du mat', shopping Sidi IBrahim J'fume, khod, armes de guerre, j'vais faire pire que t'imagines M.C. j'vous laisse jacter, honneur aux dames Nique sa mère courir pour être à l'heure au taf' Régler ses comptes sur le net, j'préfère te mettre un coup d'schlass Ça fume trop de zeb'zer, j'ai la toux grasse À part la mort, tout passe Même en charentaises j'pourrais t'mettre un coup de grâce Déconseillé comme Caracas Y'a un grand vide et juste le bruit d'ta carcasse Mon flingue sur ta tempe, si ça c'est pas la classe J'suis là pour briser des tchoins, non pas la glace J'ai trop de haineux sur les côtes, je ne veux pas en venir aux mains Je sors le kalash direct, très coléreux sont les nôtres VVS1 sont mes diamants, peu onéreux sont les vôtres J'donne tellement d'amour aux miens, je n'en ai plus pour les autres Bleu blanc rouge sur leur insigne, j'leur ris au nez Bateau d'esclaves n'est jamais cambriolé Petit tu viens juste d'embryonner 92i ne fait pas de prisonniers45</t>
+          <t>Geah ! Nouvelle Rolls Royce sur du 22, Hallelujah! Saza-laza-m'alikoum à tous mes khoya J'écris défoncé au shit'zer j'suis Émile Zoula Tu veux sucer aucune bite'zer qu'est-ce que tu fous là ? Mes adversaires sur une civière, que la mort les soulage La street'zer, la misère j'en connais tous les rouages Tu veux affronter mon gang, j'te souhaite bien du courage Numéro 7 sur l'visage, Uzi vers les nuages Bakel City Gangster MohamedLucas Ils ne savent pas quand s'taire, on leur casse le joint de culasse Pour mes Boubacar, mes Galsens, mes Ramatoulaye Tête de mort sur le drakkar on les baise sur la tête de oim wAllaye billaye J'suis dans l'club, debout sur la banquette J'recherche le plus gros boulard, j'enquête Sonne-per, sonne-per, c'est ma compète Défilé d'Moët, Ünkut sur la languette J'suis tellement loin, j'suis tellement loin J'suis tellement loin, que personne en est témoin J'suis tellement loin, j'suis tellement loin J'suis tellement loin, que personne en est témoin Elle a pas baissé son... j'ai déjà sorti mon truc Mon co-détenu fume du shit, qui sort de mon uc' Crosse de Magnum dépasse de mon fut' Baissez le pont levis, laissez entrer le Duc Chris a l'image dans le viseur, haineux counia mamanw Ma montre n'affiche pas l'heure, mais elle est pleine de diamants VVS évidemment Rien de marrant dans la street quand on part avant nos grands-parents J'suis dans l'club, debout sur la banquette J'recherche le plus gros boulard, j'enquête Sonne-per, sonne-per, c'est ma compète Défilé d'Moët, Ünkut sur la languette J'suis tellement loin, j'suis tellement loin J'suis tellement loin, que personne en est témoin J'suis tellement loin, j'suis tellement loin J'suis tellement loin, que personne en est témoin J'suis dans l'club ! Izi17</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>O.G.</t>
+          <t>Ma définition</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Yeah T'as j'veux dire ou t'as pas j'veux dire Morray ? T'as pas j'veux dire, écoute, ferme ta gueule Back to the Future Izi Mes négros vous êtes où ? Boulbi, Aulnay-sous Bientôt la fin du monde, jmen fous tant que je fais des sous Ta clique a le point rouge sur le front, on dirait des dou-ins La rue ça use tu touches le fond, obligé de fumer des joints Violemment comme dans Oz, comme ça quon fait les choses Grosse bouteille à la main, comme ça quon fait les shows Tu te prétends meilleur que oi-m, négro comment tu oses ? J'vois que du jaune, vert, mauve, tu ne vois que du rose Niary Tally, Bakel City, rues de Mermoz 0.9 dans le stash house, les négros meurent doverdose Tu parles de swag en boucle, tes juste un genre de plouc Jsuis dans le textile fuck un salaire de joueur de foot Izi Criminologie, Boulbi 92i, Don Miloudzi O.G., O.G O.G., O.G R8 Audi Ah ha ! Avec mon shab Obi-Wan Kenobi au K.O.D Oh ! O.G. O.G., O.G O.G. Izi Geezee ! O.G. O.G., O.G C'est l'modus operandi, modus vivendi O.G., c'est pour la vie, 92izi Olympie Gangster, tout le monde mains en l'air, B2O, Don Miloudzi sont dans la plaaace Monopole O.G., mon apologie Pourtant ça vit dans le luxe, mais j'en peux plus, puisque j'te l'dis rien ne va plus Ça dort même plus, mange même plus, bois, fume, psychote en plus Rien ne va plus, rien ne va plus, poids d'un crime, sur les O.G Sur les O.G. O.G., O.G., Ozo Geezee ! Kho, c'est izi, busy, physique ici physique ici Oh oui, oh oui la weed on nique ici O.G. Le jour viendra où, des O.G. O.G., tu te souviendras O.G. Tous ces rats, mon élite, on est là On est là ! Criminologie Ah ha !..., Boulbi 92i, Don Miloudzi Woah ! O.G., O.G O.G., O.G R8 Audi Avec mon shab Obi-Wan Kenobi au K.O.D O.G. O.G., O.G O.G. O.G. O.G.... Jsuis meilleur que toi, va le dire à ta mère Jai du poulet yassa, de la me-ca dans le Tupperware Jsuis bon quà faire la guerre, la paix cest pour les shmetta Calibré, chemise hawaïenne Sénégal police dEtat 400 ans desclavage, aucun payback cest pas logique On te nique ta grand-mère, nique ton arbre généalogique Si tu me tends la main, tends moi celle de Maradona Mangeons bien mangeons armé, jsuis calibré au MacDonald's Jsuis heavyweight, tes super léger Quand je pense France, concurrence, je pense à baiser Pendant quon tient la hass en laisse, des bites combien ten lèches Tu crois qutu viens de serrer une bombe tes juste en train de baiser mon ex Criminologie, Boulbi 92i, Don Miloudzi O.G., O.G O.G., O.G R8 Audi Avec mon shab Obi-Wan Kenobi au K.O.D O.G. O.G., O.G O.G. O.G. O.G., O.G6</t>
+          <t>On y pousse un peu dtravers Skate, BMX puis nique la RATP, tout ça rythmé de rap music Ma jeunesse a la couleur des trains, RER C Pendant ltrajet jrêvais de percer. Fier den être un On cultive sa haine anti-flics ou gendarmes Alors on devient des boss du maniement darmes Mon peuple anéanti Temporaire seulement jusquà la rébellion de lAfrique et des Antilles C'est neuf ze-dou nous On est ptits, on veut niquer Paris, on connaît rien nous Et ya plein dtrucs à prendre, et puis tapprends vite avec les coups Reviens avec tes couilles, tes potes frappent avec les coudes Cest pousser comme une ortie parmi les roses Et ils sont trop alors jappelle mes khos les ronces Cest un état desprit, ne plie que si les pissenlits jbouffe Ne reçois dordres ni des keufs, ni des profs Haineux, de chez nous vient le mot vénéneux La rue conseille, la juge te console souvent Drogue douce ou cest le bug, la rue télève et te tue Alors laisse-moi tirer qujmassomme au teuh-teuh Grillé mais je nie, ici les hyènes ont une insigne Et jespère qucest pas lun dnous qui servira de gnou La folie, le sang, la mélancolie, du rap, du fil rouge Des risques et du son ma définition Jviens des Hauts dSeine, obscène est mon style, mon comportement Jsuis instable au micro, et dans la rue jvis nimporte comment Jmen bats la race sauf des potes, la famille et lcash Y faut dla maille, plein dsky, faut qujgraille, non ? Écoute, goûte mon flow, fils, car jai pas bsoin dsponsor Le rap, mon crew et lvice, cest comme ça qujmen sors Connu pour tuer les M.I.C. dici à NYC Du sang, des risques et du son ma définition Ma définition, jen veux toujours plus Jattends pas leur putain dpaye ou leur putain dbus Insoumis, jfais des sous bêtement Parce que jveux voir cpays en sous-vêtements Jvoulais savoir pourquoi lAfrique vit malement Du CP à la seconde ils mparlent dla Joconde et des Allemands Ici le diable racole, fuis son rodéo Tattache dans lhall avec d'la coke, pisse sur ton auréole Delabel, Sony ou Virgin Vous comprenez, mon style na pas besoin d'vigiles Des plaques et des plaques, si cporc dChirac était black J'suis obscur, dors dun il comme un missile scud Jsuis pas le bienvenu, mais jsuis là Reprends cquon ma enlevé, jsuis venu manger et chier là Plongé dans la tourmente quand les fonds manquent À force de mplaindre, jattends plus largent, jvais lprendre Dérivé trop jeune, jpeux plus redescendre Et jessaie d'pas dêtre en chien djanvier à décembre Ou jte fais jouir ou jte fais mal, cest très simple Ma définition avec des textes à prendre à 1 degré 5 Jviens des Hauts dSeine, obscène est mon style, mon comportement Jsuis instable au micro, et dans la rue jvis nimporte comment Jmen bats la race sauf des potes, la famille et lcash Y faut dla maille, plein dsky, faut qujgraille, non ? Écoute, goûte mon flow, fils, car jai pas bsoin dsponsor Le rap, mon crew et lvice, cest comme ça qujmen sors Connu pour tuer les M.I.C. dici à NYC Du sang, des risques et du son ma définition Jviens des Hauts dSeine, obscène est mon style, mon comportement Jsuis instable au micro, et dans la rue jvis nimporte comment Jmen bats la race sauf des potes, la famille et lcash Y faut dla maille, plein dsky, faut qujgraille, non ? Écoute, goûte mon flow, fils, car jai pas bsoin dsponsor Le rap, mon crew et lvice, cest comme ça qujmen sors Connu pour tuer les M.I.C. dici à NYC Du sang, des risques et du son ma définition17</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Billets verts</t>
+          <t>Mon pays</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Back to the Future Izi Derniers gamos, dernières tes-pu, dernières pes-sa MC tu donnes ton cul, ta monnaie pue d'la tte-cha Brrr! Machine à billets, billets verts Tout, tout pour la monnaie Brrr! Brrr! Billets verts J'suis sûr de gagner, comme Barça-Lorient Mon flow est kalashé, swag Moyen-Orient mieux que Kanye Très courtes relations, j'n'aime pas qu'les putes me questionnent Violente est ma narration, rempli de haine, j'n'ai que de l'amour pour quelques personnes Apprécie le bling, te demande pas combien ça a coûté Salopes en string autour de moi, ces putes sont maraboutées J'suis B.O.S.S. donc j'baise la patronne Où je me trouve ? Dans l'coeur des youvs, dans l'cul d'la matonne La mafia n'oublie pas, mais elle te pardonne Gallardo noire tout en carbone 92i, on parle d'eux de M.I.A à Montigny Fuck les stups du 9.2, fuck la crim' de Bobigny Trop de lances-ba mais tout se paie, on the rocks mon Hennessy Quand on n'sait pas on se tait, quand on sait on s'tait aussi Oui, oui monsieur j'fume que du meu-se Si le game ou un rappeur me recherche dis lui qu'j'suis sûrement dans l'cul d'sa reu-se J'vais cracher, ouvre la che-bou Négro parano, calibré même sous la che-dou Balaise comme Shrek il m'faut ma Fiona, 2-3 chèques puis petit sauna T'as ceci, t'as ceci-cela donc l'équipe te saucissonne Pas toujours l'temps d'faire de la promo Bakel dans les chromosomes, 0 à 100 en 3 secondes chrono Zoome sur mon flag, impacts de balles forment mon logo Zoome sur mon flag, impacts de balles forment mon logo B2o Derniers gamos, dernières tes-pu, dernières pes-sa MC tu donnes ton cul, ta monnaie pue d'la tte-cha Brrr! Machine à billets, billets verts Tout, tout pour la monnaie Brrr! Brrr! Billets verts13</t>
+          <t>Bakel City, Bakel City DKR, Izi Adieu mon pays Châtelet Les Halles, le parvis Je rôde en R8 à Boulbi Loin est le temps du Silence n'est pas un oubli Adieu mon pays 92i sur le treillis Tous les jours au charbon, on vieillit J'suis en Ligue des Champions contre Chelsea J'prends des millions, tu prends des selfies La suite la plus hami, mets-moi celle-ci J'suis en guerre, mais j'ai la belle vie SIG Sauer, missile sol-air, on apprécie Adieu mon pays, izi Adieu mon pays, izi Bakel City, Bakel City Adieu mon pays Bakel City, Bakel City Adieu mon pays Même loin, j'crierai toujours Allez Paris ! Cousin, j'y trouverai jamais Halle Berry Adieu Gorée, et le mépris À les détester je me détruis À coups de fusil je reconstruis J'veux me venger, décrocher le premier prix Les retours zombies de boîtes de nuit Perdu dans l'cul d'une Ghanéenne'zer de la rue Saint-Denis J'suis diamant d'Anvers t'es Swarowski Mon amour pour cette Terre n'est pas plus grand que Sarkozy J'pars libre, je suis l'élite des sales négros Mets-toi dans l'cul ton Vélib', hasta luego Adieu mon pays, izi Adieu mon pays, izi Bakel City, Bakel City Adieu mon pays Bakel City, Bakel City Adieu mon pays Adieu mon pays Adieu mon pays15</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GLAIVE</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ne crois-tu pas qu'je sais c'que j'fais? Ne crois-tu pas quje sais cque jfais? Tellement longtemps que jfais la guerre Le prochain cest Damso, mfais pas jurer la vie dma mère Chacun sa croix, chacun sa Elvira La paix sra toute nouvelle, peut-être quon lappréciera Je crois en Dieu à ma manière, sûrement pas Jésus qui me guide Un demi-siècle qujsuis au pouvoir, peut-on parler de génocide ? Tu préfères le raconter, moi, je préfère le vivre Jai du réécrire tous ces livres, jdois faire le plein pour faire le vide 9.2, cest lélite, pas dur découler tous ces litres Je nsrai jamais un mythe, jai bien griffonné tous ces titres Liasses de billets si hautes, wallaye bilaye, jperds léquilibre Sur écoute à droite à gauche, jai dû faire sauter toutes les lignes Elle ma cherché dans tout létage, elle a frappé à toutes les suites Y a quDidier quon n'aime pas, jpasse le salam à toute léquipe Trop d'argent, je ne rêve plus mais hamdoullah, j'ai tout Elle dit que je l'ai niquée, Hassoul, j'l'ai pas chée-tou Sept zéros sur les chèques, poto, j'ai plus vingt ans Vide la caisse et vite, salope, le changement, c'est maintenant La paix n'tiendra pas longtemps si rate-pi n'fait pas son chiffre Ient-cli n'a pas son fixe, t'es au tard-mi, t'as pas ton shit Tout peut sombrer si vite, ici, rien ne reste sans suite J'suis au placard, j'vois pas mes mômes mais même Drake voit pas son fils Ce n'est qu'un au revoir, see you de l'autre côté des lois J'passais une commande Uber Eats pendant qu'j'lui mettais des doigts Je sais qu'tu vas la retourner donc j't'ai mis ta veste à l'envers Espèce d'enculé drequin, j'vais t'mettre dans un bocal en fer Y a ceux qui ont sorti le glaive, y a ceux qu'ont pas gé-bou L'alcool sur la table, c'est pour les tchoins, j'suis pas rré-bou J'ai trop d'argent, je ne rêve plus mais hamdoullah, j'ai tout Elle dit que je l'ai niquée, Hassoul, j'l'ai pas chée-tou7</t>
+          <t>Izi Y'a jamais de pénurie, j'fume le hasch de mon ceinturon Tout est noir dans mon écurie, sur la tête de mon Amex Centurion J'les baise mais pas sans leurs talons, passe le mot à Cendrillon Bien longtemps qu'j'regarde plus l'prix du gallon, j'm'arrêterai pas à cent millions Moi et ta putain nous en allons, elle va souffler dans le ballon Couilles de buffles de daron, la concurrence vend des marrons Sale fils de pute, tu respectes rien, on avait dit pas les parents Quand s'en viendra l'AR-15, il faudra pas parler allemand Faudra parler tout doucement, articuler pour qu'j'comprenne bien Répéter plusieurs fois, j'suis fonce-dé, il s'peut que j'comprenne rien Les carrières se font doucement, s'arrêtent vite comme hache de guerre Ces fils de putes portent l'il, j'ai teinté les vitres du double R Revanche, colère, échec scolaire, dis leur y'a R à Baudelaire, à Molière Y'a euro, patate, whisky, khabat, j'vais arrêter l'rap, gros ça pue d'la chatte Ça paie plus les loyers j'dépense trop de mula, tu l'ouvres trop c'est fin de toi du sang sur les vingt doigts Si t'enlèves Élie Yaffa, t'enlèves un roi2</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Madrina</t>
+          <t>Killer</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>J'suis toujours au quartier, mula cellophanée J'récupère le rrain-té, j'ai ves-qui les condés Armé comme à Palerme, dangereux, j'en n'ai pas l'air Combien manquent à l'appel quand j'repense à ma peine ? Envoie-moi la mallette, que des billets violets Ketama inhalée, ne-jau pour me calmer Non personne te connaît han, connaît han Personne te connait han, han, personne La madrina voudrait la bague au doigt, la madrina voudrait la bague au doigt La madrina voudrait la bague au doigt, la madrina voudrait la bague au doigt Les flics au cul, j'cours dans la tess, j'ai fait des caddies pour la pièce Jvendrais de la 'ess ou quoi ou quest-ce, au revoir, merci, Madame la hess J'suis dans ma nouvelle caisse, j'suis dans ma nouvelle kehba J'suis dans ma nouvelle guerre, j'suis dans de nouvelles lères-ga Je roule en Ferrari, j'ai pas besoin d'guer-dra J'suis très mauvais mari, j'ai l'cur à Bagheera Le monde est à moi comme l'ami de Many Je garde mon sang-froid comme rate-pi du Mali Les coups d'feu sont partis sans aucune empathie Je crois qu'j'vais tout casser, j'n'aime pas c'qu'ils ont bâti J'n'aime pas c'qu'ils ont bâti, non J'n'aime pas c'qu'ils ont bâti, non La madrina voudrait la bague au doigt, la madrina voudrait la bague au doigt La madrina voudrait la bague au doigt, la madrina voudrait la bague au doigt Je roule enfouraillé, ce joint de marocain Sur les réseaux, t'es un mannequin, faux, chez nous, t'es un tapin Le gamos est Allemand, le produit de Sevran Les porcs ne m'auront plus, j'suis dehors avant le soleil levant Tous les jours en-bas du bloc, c'est moi qui ferme le four Ça bibi, ça bibi, ça vide le stock Tous les jours en-bas du bloc, c'est moi qui ferme le four Ça bibi, ça bibi, ça vide le stock La madrina voudrait la bague au doigt, la madrina voudrait la bague au doigt La madrina voudrait la bague au doigt, la madrina voudrait la bague au doigt Les flics au cul, j'cours dans la tess, j'ai fait des caddies pour la pièce Jvendrais de la 'ess ou quoi ou quest-ce, au revoir, merci, Madame la hess J'suis dans ma nouvelle caisse, j'suis dans ma nouvelle kehba J'suis dans ma nouvelle guerre, j'suis dans de nouvelles lères-ga8</t>
+          <t>Hey Tu vois c'que j'veux dire ou pas ? Font mal à la tête mon frère... Ah ouais, mais bon, tu connais... Elle me casse le cerveau, je crois bien qu'elle est folle Elle doute de B2O, sans cesse elle checke mon téléphone C'est vrai j'ai plus de succès depuis Nouvelle École J'me dis que je vais la tej' mais wAllah qu'est-ce qu'elle est bonne ! Alors je ferme les yeux, je plane Traverse nuage de fumée, seul dans ma fusée Pour me faire craquer elle est vraiment adroite Personne n'y peut rien, même pas mon collage à droite Elle me dit que je suis un salaud, que je finirai en solo Toujours avec les khos à vouloir me faire des couilles en ro-ro Eh ma grosse tu crois quoi ? Rien n'est jamais acquis Au lieu de mettre une pote-ca, je préfère mettre mon treillis kaki Partir au charbon, connexion jusqu'au Gabon Elle en a rien à foutre, j'pense qu'à ma gueule j'suis qu'un sale con Je ne veux pas que tu bad tripes, je ne veux pas que tu partes Mais elle ne comprend as-p, je suis dans la street je fais du rap Tu m'as tapé dans lil, je t'ai mise sur le côté T'approches pas de mon cur, girl tu vas sauter J'suis un killer Girl j'suis un killer killer killer Ici y'a pas de loosers, j'serai dans l'quatre-vingt douze Vers les coups de douze heures J'suis un killer Boy j'suis un killer killer killer Go j'aime le challenge, rarement je me mélange Esquive je me déhanche sang ennemi sur les phalanges Je fais tout ça pour nous, pour payer la nounou En joue Glock dans la bouche, ils savent que je ne fais pas joujou Arrête de me péter la tête, je traine plus en bas des tours Je fais du biff', pas la fête, les groupies je m'en bats les couilles J'ai d'autres objectifs, mais tu persistes Tu crois que je baise tout ce qui bouge de Boulogne Pont de Sèvres à Pierrefitte Ferme un peu ta gueule, va me faire un steak-frites Tu m'as fait mal au crâne, je suis à deux doigts de te court-circuite J'aime les festins pas les piques-niques Mets la main sur mon cur, ressens les secousses sismiques J'ai fait des trucs sombres, limite immondes Personne marche du même pas demande à Philip Drummond Sale négro je suis, jamais patte blanche ne se montre Même pour trente secondes, je veux être un grand de ce monde Tu m'as tapé dans lil, je t'ai mise sur le côté T'approches pas de mon cur, girl tu vas sauter J'suis un killer Girl j'suis un killer killer killer Ici y'a pas de loosers, j'serai dans l'quatre-vingt douze Vers les coups de douze heures J'suis un killer Boy j'suis un killer killer killer Haut de gamme, chien de la sse-ca J'ai pris à la daronne une BM, un Teum-Teum et du sh-ca Y'a pas que toi dans ma life, hachek me rend pas ouf J'ai besoin d'aller vite, je me fais flasher sur toute la route Alors que je me faisais sucer, je pensais à mon futur Je fais partie de l'élite, je remplis Bercy, le Zénith Mais quelle trace je vais laisser si je ne fais pas de marmots ? Puis je crachas dans la gorge de cette pute à cent cinquante euros Trace de rouge à lèvres sur mon polo Gucci Gangster et gentleman jusqu'à ma dernière bougie J'ai peut-être laissé ma femme passer Si je roule à deux à l'heure je regarde surement un gros cul passer Tu m'as tapé dans lil, je t'ai mise sur le côté T'approches pas de mon cur, girl tu vas sauter J'suis un killer Girl j'suis un killer killer killer Ici y'a pas de loosers, j'serai dans l'quatre-vingt douze Vers les coups de douze heures J'suis un killer Boy j'suis un killer killer killer1</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Jimmy</t>
+          <t>Le Duc de Boulogne</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Sénégal, D.K.R Jimmy Bakel City gangster Jimmy est arrivé en France croyant trouver Liberté égalité, mais en réalité Contrôles d'identité, violences policières Jimmy a tout d'suite pigé qu'il faudrait niquer les mères Chez lui il n'y a que Jésus qui tend l'autre joue Donc Jimmy prend son revolver, survit au jour le jour Il apprend que dans la vie, pour y arriver faut prendre des risques Que lorsqu'on s'appelle Jimmy, on a rarement c'que l'on mérite La force est la souffrance des pères, de ça que l'on hérite Il n'verra pas la fin du film, ne sera pas dans l'générique Mais Jimmy ne sera jamais démuni Préfère la prison à vie comme aux États-Unis Jimmy veut être le meilleur qu'on ne puisse pas rivaliser Il vit le crime en musique, malhonnêtement équalisé Jimmy n'a pas peur du shérif, il est de l'autre côté De l'autre côté du périph', ses jours comptés, numérotés Jimmy veut qu'on le paye cash et comptant Sinon il coupera la musique, te fumera en chantant Il n'éteindra pas en sortant, Jimmy ne vivra pas longtemps Mais Jimmy vient du bled, ventre plein, nègre content C'est Jimmy, ohohohoh Jimmy Jimmy a ses raisons, que la raison ne connaît pas Il ne respecte pas la loi, la loi ne le respecte pas C'est Jimmy, ohohohoh Jimmy Jimmy a ses raisons, que la raison ne connaît pas Il ne respecte pas la loi, la loi ne le respecte pas Ohohohoh Jimmy, Jimmy10</t>
+          <t>Izi, izi Izi, izi 92i kho 92i kho OK OK, OK Viens pas mettre le nez dans mes affaires Mon rap prend de la protéine, soulève v'là les haltères Je fais des dons d'urine pour que la France entière se désaltère L'Afrique c'est la terre, à leur santé je déblatère Portuaire est larrivage, le paysage est mortuaire En banlieue Mesdames, Messieurs on fait dans la came et le sportswear On me duplique au marché Malik, me clique sur internet Ce son c'est ma manière de t'dire d'aller niquer ta mère Des mc's en millions de pixels le soir sur XXL T'es assis négro, ça va du 4 X au 6 XL Tu voudrais nous chier dessus, devenir officiel Tes grosses merdes se coupent en deux, essaye sans ton string ficelle Tu peux pas rivaliser, on va te dévaliser Te dé déraciner, te décalciner Tu peux pas rivaliser, on va te dévaliser Man Te dé déraciner, te décalciner OK, OK Un bon joint du 92, direct, ma libido est brusquée J'compose un numéro, glisse entre une paire de cuisses musclées Ici on est tranquille, loin de tout parasite Baby, fais-moi la bise puis suce-moi la bite ! OK, je suis vulgaire les bourges en chopent des ulcères Quand ils écoutent ce qui sort de ma bouche, c'est le son dangereux du ter-ter Sono à fond, intérieur cuir noir, boite séquentielle Pour écrire il m'faut du shiznit, la drogue m'est essentielle On est venu cracher notre haine fuck la SDRM Hauts-de-Seine ça vend du seum car c'est le cash qu'elles aiment J'étais là bien avant Break Street sans limites comme dans GTA J'représente la banlieue comme un grec-frites Du, du, du biff' rien n'change à part mon bling bling O.P j'suis dans le coin V.I.P du coin V.I.P J'pose en Unküt sur les couvs clack-clack 92 C'est pour les loups, les louves, les oufs et les youv Tu peux pas rivaliser, on va te dévaliser Te dé déraciner, te décalciner Tu peux pas rivaliser, on va te dévaliser Man Te dé déraciner, te décalciner OK, OK Fumer mes confrères, je n'ai que ça à faire Les humilier, balayer, ravager, tabasser, voyager en classe affaire Toute l'équipe à Sarko, j'la ferais bien tapiner Au micro, j'suis un des négros les plus raffinés J'fais du son à la Kurt Cobain, son à fond dans la Merco-Benz Pour toi c'est fini d'mande à Yékini, j'te, j'te, j'te baise Les clochards vendent des copies de mon nouvel opus Prennent le bus pour aller sucer, au marché aux puces C'est pour les enfants terribles qui ne font aucun effort Au parcours comme une queue d'négro long et pénible Que le prochain fils de lâche qui veut me clash vienne me le dire en face B2OBArme, drogue et cash, personne ne le remplace Tu peux pas rivaliser, on va te dévaliser Te dé déraciner, te décalciner Tu peux pas rivaliser, on va te dévaliser Man Te dé déraciner, te décalciner OK, OK15</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.8.7</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Geah ! Nouvelle Rolls Royce sur du 22, Hallelujah! Saza-laza-m'alikoum à tous mes khoya J'écris défoncé au shit'zer j'suis Émile Zoula Tu veux sucer aucune bite'zer qu'est-ce que tu fous là ? Mes adversaires sur une civière, que la mort les soulage La street'zer, la misère j'en connais tous les rouages Tu veux affronter mon gang, j'te souhaite bien du courage Numéro 7 sur l'visage, Uzi vers les nuages Bakel City Gangster MohamedLucas Ils ne savent pas quand s'taire, on leur casse le joint de culasse Pour mes Boubacar, mes Galsens, mes Ramatoulaye Tête de mort sur le drakkar on les baise sur la tête de oim wAllaye billaye J'suis dans l'club, debout sur la banquette J'recherche le plus gros boulard, j'enquête Sonne-per, sonne-per, c'est ma compète Défilé d'Moët, Ünkut sur la languette J'suis tellement loin, j'suis tellement loin J'suis tellement loin, que personne en est témoin J'suis tellement loin, j'suis tellement loin J'suis tellement loin, que personne en est témoin Elle a pas baissé son... j'ai déjà sorti mon truc Mon co-détenu fume du shit, qui sort de mon uc' Crosse de Magnum dépasse de mon fut' Baissez le pont levis, laissez entrer le Duc Chris a l'image dans le viseur, haineux counia mamanw Ma montre n'affiche pas l'heure, mais elle est pleine de diamants VVS évidemment Rien de marrant dans la street quand on part avant nos grands-parents J'suis dans l'club, debout sur la banquette J'recherche le plus gros boulard, j'enquête Sonne-per, sonne-per, c'est ma compète Défilé d'Moët, Ünkut sur la languette J'suis tellement loin, j'suis tellement loin J'suis tellement loin, que personne en est témoin J'suis tellement loin, j'suis tellement loin J'suis tellement loin, que personne en est témoin J'suis dans l'club ! Izi17</t>
+          <t>It's global This worldwide right here From London, Africa D.U.C renoi, U.S Booba! Izi, Back to the Future Rozay! Ugh! On entend tout là-haut Need the money on a scale baby Real niggas worldwide you heard me? It's all we know, yeah J'suis sur la Lune, sont au Moyen-Âge V-12, sans rancune dit le carénage D'puis Beat de Boul c'est le carnage Paraît qu'j'suis Juif ? J't'enfonce une grosse bite ashkénaze Carré d'as, VIP dans marécage Brazamizi R.I.P. Malekal Alerte aux rappeurs français, v'là les nazes Combien font rap de poucaves v'là les blazes J'suis posé, tranquille au calme Un mètre quatre-vingt douze, 102 kilogrammes J'peux toutes les quer-ni, j'suis polygame Ici c'est Tallac, fuck Sony, fuck PolyGram Y a qu'dans la rue qu'j'ai eu du piston, c'est dommage Aller-retour en prison, c'est normal Remonte l'avenue des Champs en DeLorean Ma source de revenus dans du cellophane On a perdu des frères, on ne s'en est jamais remis Si peu d'adversaires, tellement d'ennemis Hache, kalash, négro, bougnoules sur la mélodie Crack, shit, rap, renoi pour nous c'est la belle vie La belle vie, la belle vie Uzi, mitraillettes, code 1.8.7 sur la mélodie Bouteille en l'ai-ai-ai-air ! T'attends qu'Jésus revienne on prend du biff on refait nos vies Gangster shit Les royalties c'est mieux qu'la cess J'vais plus au habs, mon studio c'est mon Classe S- 600, Lorinser puissant Après-skis sur mon terrain, terrain glissant Sénégalais personne peut m'égaler Sur un million d'euros mon négro j'aime bien m'étaler J'aime faire la guerre demande à mes alliés Ma mère est fière j'suis tellement médaillé La drogue c'est compliqué donc je l'ai détaillée Criminel en stage enfermé dans cages d'escalier J'suis chaud comme le premier août Ding-ding bâtard t'es KO premier round La jeunesse en dé-T-R-esse En France qui roule en CLS, attire les CRS Rebelle comme Casamançais Mendy, Gomis Nos flingues sont plus gros qu'ceux d'la police On a perdu des frères, on ne s'en est jamais remis Si peu d'adversaires, tellement d'ennemis Hache, kalash, négro, bougnoules sur la mélodie Crack, shit, rap, renoi pour nous c'est la belle vie La belle vie, la belle vie Uzi, mitraillettes, code 1.8.7 sur la mélodie Bouteille en l'ai-ai-ai-air ! T'attends qu'Jésus revienne, nous on prend du biff, on refait nos vies Gangster shit Maybach Music I ride for my dawgz and I swear to God From a scrub on the corner, webs on the wall I used to be that youngin' on a air mattress Now it's Panameras, fly private to Paris Niggas on the sideline wanna see me touch I wanna see their faces when that trigger bust All them boys I ran with, they gave 'em ten and up When I made forty mil I tatted live it up We glorify the niggas who done did time Homies love you and they hate you at the same time Gold Cuban Linx with the Benz sign Club photographs throwin' gang signs Niggas sound spiteful when you livin' right Michael Tyson money winnin' is a sacrifice Don King nigga, milli on the ring Boss It's Ricky Rozay, Booba do your thing Maybach Music On a perdu des frères, on ne s'en est jamais remis Si peu d'adversaires, tellement d'ennemis Hache, kalash, négro, bougnoules sur la mélodie Crack, shit, rap, renoi pour nous c'est la belle vie La belle vie, la belle vie Uzi, mitraillettes, code 1.8.7 sur la mélodie Bouteille en l'ai-ai-ai-air ! T'attends qu'Jésus revienne, nous on prend du biff, on refait nos vies2</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ma définition</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>On y pousse un peu dtravers Skate, BMX puis nique la RATP, tout ça rythmé de rap music Ma jeunesse a la couleur des trains, RER C Pendant ltrajet jrêvais de percer. Fier den être un On cultive sa haine anti-flics ou gendarmes Alors on devient des boss du maniement darmes Mon peuple anéanti Temporaire seulement jusquà la rébellion de lAfrique et des Antilles C'est neuf ze-dou nous On est ptits, on veut niquer Paris, on connaît rien nous Et ya plein dtrucs à prendre, et puis tapprends vite avec les coups Reviens avec tes couilles, tes potes frappent avec les coudes Cest pousser comme une ortie parmi les roses Et ils sont trop alors jappelle mes khos les ronces Cest un état desprit, ne plie que si les pissenlits jbouffe Ne reçois dordres ni des keufs, ni des profs Haineux, de chez nous vient le mot vénéneux La rue conseille, la juge te console souvent Drogue douce ou cest le bug, la rue télève et te tue Alors laisse-moi tirer qujmassomme au teuh-teuh Grillé mais je nie, ici les hyènes ont une insigne Et jespère qucest pas lun dnous qui servira de gnou La folie, le sang, la mélancolie, du rap, du fil rouge Des risques et du son ma définition Jviens des Hauts dSeine, obscène est mon style, mon comportement Jsuis instable au micro, et dans la rue jvis nimporte comment Jmen bats la race sauf des potes, la famille et lcash Y faut dla maille, plein dsky, faut qujgraille, non ? Écoute, goûte mon flow, fils, car jai pas bsoin dsponsor Le rap, mon crew et lvice, cest comme ça qujmen sors Connu pour tuer les M.I.C. dici à NYC Du sang, des risques et du son ma définition Ma définition, jen veux toujours plus Jattends pas leur putain dpaye ou leur putain dbus Insoumis, jfais des sous bêtement Parce que jveux voir cpays en sous-vêtements Jvoulais savoir pourquoi lAfrique vit malement Du CP à la seconde ils mparlent dla Joconde et des Allemands Ici le diable racole, fuis son rodéo Tattache dans lhall avec d'la coke, pisse sur ton auréole Delabel, Sony ou Virgin Vous comprenez, mon style na pas besoin d'vigiles Des plaques et des plaques, si cporc dChirac était black J'suis obscur, dors dun il comme un missile scud Jsuis pas le bienvenu, mais jsuis là Reprends cquon ma enlevé, jsuis venu manger et chier là Plongé dans la tourmente quand les fonds manquent À force de mplaindre, jattends plus largent, jvais lprendre Dérivé trop jeune, jpeux plus redescendre Et jessaie d'pas dêtre en chien djanvier à décembre Ou jte fais jouir ou jte fais mal, cest très simple Ma définition avec des textes à prendre à 1 degré 5 Jviens des Hauts dSeine, obscène est mon style, mon comportement Jsuis instable au micro, et dans la rue jvis nimporte comment Jmen bats la race sauf des potes, la famille et lcash Y faut dla maille, plein dsky, faut qujgraille, non ? Écoute, goûte mon flow, fils, car jai pas bsoin dsponsor Le rap, mon crew et lvice, cest comme ça qujmen sors Connu pour tuer les M.I.C. dici à NYC Du sang, des risques et du son ma définition Jviens des Hauts dSeine, obscène est mon style, mon comportement Jsuis instable au micro, et dans la rue jvis nimporte comment Jmen bats la race sauf des potes, la famille et lcash Y faut dla maille, plein dsky, faut qujgraille, non ? Écoute, goûte mon flow, fils, car jai pas bsoin dsponsor Le rap, mon crew et lvice, cest comme ça qujmen sors Connu pour tuer les M.I.C. dici à NYC Du sang, des risques et du son ma définition17</t>
+          <t>Ils ne nous passent pas dans leurs radios, non They know qu'on va pirater l'antenne, tout est écrit dans l'ciel Si j'te tue pas, j'espère qu'tu mourras de mort accidentelle Je vous présente ma Colombienne, toute pleine de collagène, baby Elle vient d'atterrir d'Carthagène Au lit, c'est super, le reste du temps, j'suis au phone-tel' Qu'est c'que j'vais faire d'elle ? J'la connais ni d'Adam, ni d'Eve Me parle pas de sang de la veine, j'vais la faire déposer en Uber J'vais la faire déposer en Uber aux portes de l'Enfer Train d'vie d'traficante On m'a retrouvé, j'étais cassé, baby Y a quelques bricoles à faire La carapace est intacte, le cur est accidenté Zéro nuance de gris Tout est noir, je les hais, de loin ou de près Prends ton MD, laisse-toi aller Bébé, viens voir la vie en vrai Ils m'ont envoyé la Financière S'ont trouvé ma pièce d'identité sur un bateau corsaire Est-ce-que jvais redevenir poussière ? Du coup, l'amour, la haine, j'sais plus trop à quoi ça sert Le réchauffement climatique, c'est dû à la chatte à ta mère, avec l'effet de serre J'dois faire attention quand je sors Zarma, tout l'monde me connait, je n'vois aucun problème Le matin quand tu t'réveilles, petit part au charbon Rallume pas l'joint de la veille et tu sais très bien que je saigne Mais baby, on récolte c'que l'on sème Train d'vie d'traficante On m'a retrouvé, j'étais cassé, baby Y a quelques bricoles à faire La carapace est intacte, le cur est accidenté Zéro nuance de gris Tout est noir, je les hais, de loin ou de près Prends ton MD, laisse-toi aller Bébé, viens voir la vie en vrai viens voir la vie en vrai6</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Mon pays</t>
+          <t>À la folie</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Bakel City, Bakel City DKR, Izi Adieu mon pays Châtelet Les Halles, le parvis Je rôde en R8 à Boulbi Loin est le temps du Silence n'est pas un oubli Adieu mon pays 92i sur le treillis Tous les jours au charbon, on vieillit J'suis en Ligue des Champions contre Chelsea J'prends des millions, tu prends des selfies La suite la plus hami, mets-moi celle-ci J'suis en guerre, mais j'ai la belle vie SIG Sauer, missile sol-air, on apprécie Adieu mon pays, izi Adieu mon pays, izi Bakel City, Bakel City Adieu mon pays Bakel City, Bakel City Adieu mon pays Même loin, j'crierai toujours Allez Paris ! Cousin, j'y trouverai jamais Halle Berry Adieu Gorée, et le mépris À les détester je me détruis À coups de fusil je reconstruis J'veux me venger, décrocher le premier prix Les retours zombies de boîtes de nuit Perdu dans l'cul d'une Ghanéenne'zer de la rue Saint-Denis J'suis diamant d'Anvers t'es Swarowski Mon amour pour cette Terre n'est pas plus grand que Sarkozy J'pars libre, je suis l'élite des sales négros Mets-toi dans l'cul ton Vélib', hasta luego Adieu mon pays, izi Adieu mon pays, izi Bakel City, Bakel City Adieu mon pays Bakel City, Bakel City Adieu mon pays Adieu mon pays Adieu mon pays15</t>
+          <t>Je n'arrive pas à m'attacher Je n'arrive pas à m'attacher C'est un problème C'est un gros, gros problème C'est un problème C'est un très gros problème Je n'arrive pas à m'attacher Je vais encore tout gâcher Dès qu'jai craché, j'vais tout lâcher salut Salut, elle croit que j'vais tout lui acheter, t'as vu Meskina, meskina, cours loin de moi Cours loin de moi Ratpi navigue en solo Les sentiments jetés en mer La Patek Philippe a le chrono J'voulais juste m'envoyer en l'air Je n't'aime pas à la folie Je n't'aime pas à la folie, non Je n't'aime pas à la folie Je n't'aime pas à la folie, pardon Dulcinée veut aller au ciné J'vais lui péter le dos, elle ira juste chez le kiné Dulcinée veut aller au ciné J'vais lui péter le dos, elle ira juste chez le kiné Malgré tout, j'les respecte toutes Tu l'sais si t'as croisé ma route Malgré tout, j'les respecte toutes Tu l'sais si t'as croisé ma route Elle a cru au Père-Noël Aux sacs Chanel, aux Zanotti Elle veut le hlel, la panoplie Ma liberté n'a pas de prix Ma mère m'a dit Sois un bonhomme Allez, y en a marre que tu les dégages Tu étais peut-être la bonne Mais j'en déjà une qui passe le balais à tous les étages Je n't'aime pas à la folie Je n't'aime pas à la folie, non Je n't'aime pas à la folie Je n't'aime pas à la folie, pardon Dulcinée veut aller au ciné J'vais lui péter le dos, elle ira juste chez le kiné Dulcinée veut aller au ciné J'vais lui péter le dos, elle ira juste chez le kiné Meskina, meskina, cours loin de moi Cours loin de moi Ratpi navigue en solo Je n't'aime pas à la folie À la folie, ah non Je n't'aime pas à la folie, non, non Je n't'aime pas à la folie Je n't'aime pas à la folie, non Je n't'aime pas à la folie Je n't'aime pas à la folie, bah non4</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Talion</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Izi Y'a jamais de pénurie, j'fume le hasch de mon ceinturon Tout est noir dans mon écurie, sur la tête de mon Amex Centurion J'les baise mais pas sans leurs talons, passe le mot à Cendrillon Bien longtemps qu'j'regarde plus l'prix du gallon, j'm'arrêterai pas à cent millions Moi et ta putain nous en allons, elle va souffler dans le ballon Couilles de buffles de daron, la concurrence vend des marrons Sale fils de pute, tu respectes rien, on avait dit pas les parents Quand s'en viendra l'AR-15, il faudra pas parler allemand Faudra parler tout doucement, articuler pour qu'j'comprenne bien Répéter plusieurs fois, j'suis fonce-dé, il s'peut que j'comprenne rien Les carrières se font doucement, s'arrêtent vite comme hache de guerre Ces fils de putes portent l'il, j'ai teinté les vitres du double R Revanche, colère, échec scolaire, dis leur y'a R à Baudelaire, à Molière Y'a euro, patate, whisky, khabat, j'vais arrêter l'rap, gros ça pue d'la chatte Ça paie plus les loyers j'dépense trop de mula, tu l'ouvres trop c'est fin de toi du sang sur les vingt doigts Si t'enlèves Élie Yaffa, t'enlèves un roi2</t>
+          <t>Capo dei capi 720 chevaux sous le capot, j'décapite Ta mère la tain-pu t'a fait à la va-vite Te-vi aif', soupe à l'ennemi dans la marmite Tu parles sur moi j'te réponds En même temps je cherche ton adresse Dis pas nos noms si tu bé-tom Porte tes couilles, fais ta calèche La mort c'est la sur de la paresse J'ai niqué des mamans de mamans J'ai presque honte du palmarès T'as une Formule 1 Mais t'as l'syndrome de la charrette Crucifiez-les tous comme Jésus Le Duc arrive à Nazareth La France accepte les chèques Elle n'accepte pas les hassanets J'reprends le contrôle des choses sérieuses Réinvestis tout le bénef' J'attaque en premier, pas d'loi du Talion Si je vends au tail-dé, j'ferais jamais le million J'parle de faire pognon sans éducation Pas de Féfé pas chère tombée du camion On dirait l'Afrique en bas du Galion Numéro magique sur le médaillon Dubaï nous gagnons, tu bailles, nous maillons Plus loin nous voyons, salam nous taillons Ça rappe, ça parle de rue, sombre est le nombre de vues Deux bastos dans la cabeza pour extérioriser ce que j'ai vu Je les baise une fois, deux fois, les rappelle plus Qu'est ce que ça fait d'être fauché ? Je n'm'en rappelle plus Quitte notre océan, y'a trop de rates-pi loss' et iatches-bi Pour être un thug y'a pas d'appli L'accoudoir du R mon seul appui Contre la pluie j'ai Rihanna, j'demande à Benzé son umbrella J'ai passé mon adolescence comme dans GTA San Andreas La Guardia Civil est au péage Vitesse au volant, pas d'embrayage Contrôle fiscal, j'pèse des millions La suspicion coule sur leur visage J'suis N.W.A, t'es Alliage 92 Injection comme dans l'tard-pé d'Nicki Minaj Ta carrière dans l'avion d'Aaliyah J'crache peut-être sur Skyrock Mais je crache pas dans la harira J'attaque en premier, pas d'loi du Talion Si je vends au tail-dé, j'ferais jamais le million J'parle de faire pognon sans éducation Pas de Féfé pas chère tombée du camion On dirait l'Afrique en bas du Galion Numéro magique sur le médaillon Dubaï nous gagnons, tu bailles, nous maillons Plus loin nous voyons, salam nous taillons Ça rappe, ça parle de rue, sombre est le nombre de vues Deux bastos dans la cabeza pour extérioriser ce que j'ai vu Je les baise une fois, deux fois, les rappelle plus Qu'est ce que ça fait d'être fauché ? Je n'm'en rappelle plus J'étais dans le crime en CDI Ratpi est souvent écroué J'roulais ma weed dans le GTI Sergio Tacchini troué À l'école de la rue j'ai fait Harvard Balle dans le cul t'es moins bavard À part à Chelsea y'a pas de Hazard Le nombre de victimes est élevé Sévère comme dans l'Ohio Si t'entends un CR, vois un numéro 7 C'pas Cristiano Ronaldo J'suis avec Anne-So et Delphine J'pense qu'à leur fourrer le muffin J'ai enfin eu mon premier rôle au ma-né-ci C'est parce qu'on produit le me-fil D'un ler-dea j'en ai tous les symptômes J'voulais des affaires place Vendôme Tout ce que j'ai pris c'est des mois fermes Le game a eu que parloir fantôme Ça rappe, ça parle de rue, sombre est le nombre de vues Deux bastos dans la cabeza pour extérioriser ce que j'ai vu Je les baise une fois, deux fois, les rappelle plus Qu'est ce que ça fait d'être fauché ? Je n'm'en rappelle plus5</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Killer</t>
+          <t>Billets violets</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Hey Tu vois c'que j'veux dire ou pas ? Font mal à la tête mon frère... Ah ouais, mais bon, tu connais... Elle me casse le cerveau, je crois bien qu'elle est folle Elle doute de B2O, sans cesse elle checke mon téléphone C'est vrai j'ai plus de succès depuis Nouvelle École J'me dis que je vais la tej' mais wAllah qu'est-ce qu'elle est bonne ! Alors je ferme les yeux, je plane Traverse nuage de fumée, seul dans ma fusée Pour me faire craquer elle est vraiment adroite Personne n'y peut rien, même pas mon collage à droite Elle me dit que je suis un salaud, que je finirai en solo Toujours avec les khos à vouloir me faire des couilles en ro-ro Eh ma grosse tu crois quoi ? Rien n'est jamais acquis Au lieu de mettre une pote-ca, je préfère mettre mon treillis kaki Partir au charbon, connexion jusqu'au Gabon Elle en a rien à foutre, j'pense qu'à ma gueule j'suis qu'un sale con Je ne veux pas que tu bad tripes, je ne veux pas que tu partes Mais elle ne comprend as-p, je suis dans la street je fais du rap Tu m'as tapé dans lil, je t'ai mise sur le côté T'approches pas de mon cur, girl tu vas sauter J'suis un killer Girl j'suis un killer killer killer Ici y'a pas de loosers, j'serai dans l'quatre-vingt douze Vers les coups de douze heures J'suis un killer Boy j'suis un killer killer killer Go j'aime le challenge, rarement je me mélange Esquive je me déhanche sang ennemi sur les phalanges Je fais tout ça pour nous, pour payer la nounou En joue Glock dans la bouche, ils savent que je ne fais pas joujou Arrête de me péter la tête, je traine plus en bas des tours Je fais du biff', pas la fête, les groupies je m'en bats les couilles J'ai d'autres objectifs, mais tu persistes Tu crois que je baise tout ce qui bouge de Boulogne Pont de Sèvres à Pierrefitte Ferme un peu ta gueule, va me faire un steak-frites Tu m'as fait mal au crâne, je suis à deux doigts de te court-circuite J'aime les festins pas les piques-niques Mets la main sur mon cur, ressens les secousses sismiques J'ai fait des trucs sombres, limite immondes Personne marche du même pas demande à Philip Drummond Sale négro je suis, jamais patte blanche ne se montre Même pour trente secondes, je veux être un grand de ce monde Tu m'as tapé dans lil, je t'ai mise sur le côté T'approches pas de mon cur, girl tu vas sauter J'suis un killer Girl j'suis un killer killer killer Ici y'a pas de loosers, j'serai dans l'quatre-vingt douze Vers les coups de douze heures J'suis un killer Boy j'suis un killer killer killer Haut de gamme, chien de la sse-ca J'ai pris à la daronne une BM, un Teum-Teum et du sh-ca Y'a pas que toi dans ma life, hachek me rend pas ouf J'ai besoin d'aller vite, je me fais flasher sur toute la route Alors que je me faisais sucer, je pensais à mon futur Je fais partie de l'élite, je remplis Bercy, le Zénith Mais quelle trace je vais laisser si je ne fais pas de marmots ? Puis je crachas dans la gorge de cette pute à cent cinquante euros Trace de rouge à lèvres sur mon polo Gucci Gangster et gentleman jusqu'à ma dernière bougie J'ai peut-être laissé ma femme passer Si je roule à deux à l'heure je regarde surement un gros cul passer Tu m'as tapé dans lil, je t'ai mise sur le côté T'approches pas de mon cur, girl tu vas sauter J'suis un killer Girl j'suis un killer killer killer Ici y'a pas de loosers, j'serai dans l'quatre-vingt douze Vers les coups de douze heures J'suis un killer Boy j'suis un killer killer killer1</t>
+          <t>Je n'ai pas de chance... Non... Je n'ai pas de chance... Non... J'fais du sale mais j'ai plus la rage Il y'a ton ADN d'enfant d'putain, sous mes Huarache Mélange de hyène et de Souleymane Je ne serai pas à la cathédrale j'suis toujours sous les balles Tu cherches ta salope elle est sous mes hanches Avec ta maternelle j'ai toutes mes chances Tu tombes pour multiples incohérences Sale type je n'ai que très peu de tolérance Très loin d'nos sous, vu ce que l'on dépense Ça vient de partout, dans tous les sens Dans mon équipe personne ne joue en défense J'suis busy si tu veux une guerre va falloir qu'tu la déclenches Toi arbre très solide mais toi pas de branches J'travaille dur pour me remplir la panse, je n'ai pas de chance Donc je la provoque Appelle-moi Kopp Mayweather, le plus grand de tous les temps Tu veux une leçon de rap ? Je vais t'en donner une forte, billets violets ouvrent 1001 portes Le trafic vient d'Afrique en 1001 sortes, Bugatti vaut mieux que 1001 Porsches J'fais de l'argent et du sport, t'es en gars d'avant, t'es en El Matador Frérot je n'peux pas t'aider si tu dors, Faucon Millénium fuck une Aventador Langues de putain veulent me lécher le corps, bateau Pirate vient de quitter le port Bruit et l'odeur JacquesChirac, double moteur Jack, pirates Vitesse lumière au compteur, j'ai petit selfie de la chatte à ta sur J'ai sombre selfie de ta grand mère aussi, ne devient pas mafieux qui mange cannellonis, Izi Billets violets, billets violets Billets violets, billets violets Billets violets, billets violets Billets violets, billets violets Billets violets, billets violets Billets violets, billets violets Billets violets, billets violets Billets violets, billets violets30</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Le Duc de Boulogne</t>
+          <t>M.L.C</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Izi, izi Izi, izi 92i kho 92i kho OK OK, OK Viens pas mettre le nez dans mes affaires Mon rap prend de la protéine, soulève v'là les haltères Je fais des dons d'urine pour que la France entière se désaltère L'Afrique c'est la terre, à leur santé je déblatère Portuaire est larrivage, le paysage est mortuaire En banlieue Mesdames, Messieurs on fait dans la came et le sportswear On me duplique au marché Malik, me clique sur internet Ce son c'est ma manière de t'dire d'aller niquer ta mère Des mc's en millions de pixels le soir sur XXL T'es assis négro, ça va du 4 X au 6 XL Tu voudrais nous chier dessus, devenir officiel Tes grosses merdes se coupent en deux, essaye sans ton string ficelle Tu peux pas rivaliser, on va te dévaliser Te dé déraciner, te décalciner Tu peux pas rivaliser, on va te dévaliser Man Te dé déraciner, te décalciner OK, OK Un bon joint du 92, direct, ma libido est brusquée J'compose un numéro, glisse entre une paire de cuisses musclées Ici on est tranquille, loin de tout parasite Baby, fais-moi la bise puis suce-moi la bite ! OK, je suis vulgaire les bourges en chopent des ulcères Quand ils écoutent ce qui sort de ma bouche, c'est le son dangereux du ter-ter Sono à fond, intérieur cuir noir, boite séquentielle Pour écrire il m'faut du shiznit, la drogue m'est essentielle On est venu cracher notre haine fuck la SDRM Hauts-de-Seine ça vend du seum car c'est le cash qu'elles aiment J'étais là bien avant Break Street sans limites comme dans GTA J'représente la banlieue comme un grec-frites Du, du, du biff' rien n'change à part mon bling bling O.P j'suis dans le coin V.I.P du coin V.I.P J'pose en Unküt sur les couvs clack-clack 92 C'est pour les loups, les louves, les oufs et les youv Tu peux pas rivaliser, on va te dévaliser Te dé déraciner, te décalciner Tu peux pas rivaliser, on va te dévaliser Man Te dé déraciner, te décalciner OK, OK Fumer mes confrères, je n'ai que ça à faire Les humilier, balayer, ravager, tabasser, voyager en classe affaire Toute l'équipe à Sarko, j'la ferais bien tapiner Au micro, j'suis un des négros les plus raffinés J'fais du son à la Kurt Cobain, son à fond dans la Merco-Benz Pour toi c'est fini d'mande à Yékini, j'te, j'te, j'te baise Les clochards vendent des copies de mon nouvel opus Prennent le bus pour aller sucer, au marché aux puces C'est pour les enfants terribles qui ne font aucun effort Au parcours comme une queue d'négro long et pénible Que le prochain fils de lâche qui veut me clash vienne me le dire en face B2OBArme, drogue et cash, personne ne le remplace Tu peux pas rivaliser, on va te dévaliser Te dé déraciner, te décalciner Tu peux pas rivaliser, on va te dévaliser Man Te dé déraciner, te décalciner OK, OK15</t>
+          <t>DJ Bellek gère le piano Welcome to the sal Bendo bendo, bendo na bendo Welcome, welcome Bendo bendo, bendo na bendo Ouloulou Igo, je déploie mes ailes comme un charo Tu vas finir sur le carreau Ces chard-clo sont complètement paros Ils sont pas carrés, ils n'ont pas un rond Oh Manu Le Coq, oh Manu Le Coq Pourquoi j'ai vendu la coke ? Boulbi, Champtier du Coq, mon état d'esprit est glauque Je n'peux pas baisser mon froc, je vais faire tomber mon Glock Je n'peux pas baisser mon froc, je vais faire tomber mon Glock J'suis discret comme appel anonyme, violent comme papa alcoolique Ce genre de morceau va les terroriser, Charlie Hebdo fera la chronique Le dentiste a capté les bails, ce fils de poucave a un palais d'justice C'est bien si le brolique est vrai mais à quoi bon faire si les couilles sont factices J'suis dans l'dur, c'est sûr, depuis l'époque du mur, on vend la pure Accro à la violence, oh my God ! J'dois faire une cure Gros j'ai charbonné, personne m'a rien donné, je n'sais pas chanter, je sais que fredonner Toi qui t'as parlé ? Mais qui t'as klaxonné ? Sapés comme jamain, toi personne te connait Euro, dollar, on veut du luxe, j'm'en fous de lui, il a pas d'argent Ça sent l'poisson, dégage de là et sors du lit, va mettre du savon Alors mes garçons, ouais ça va ou ça vend ? Le savoir est une arme, j'ai braqué un savant Et si jour tout ça se savait, y'a pas que Willy qu'il faudra sauver Igo, je déploie mes ailes comme un charo Tu vas finir sur le carreau Ces chard-clo sont complètement paros Ils sont pas carrés, ils n'ont pas un rond Oh Manu Le Coq, oh Manu Le Coq Pourquoi j'ai vendu la coke ? Boulbi, Champtier du Coq, mon état d'esprit est glauque Je n'peux pas baisser mon froc, je vais faire tomber mon Glock Je n'peux pas baisser mon froc, je vais faire tomber mon Glock Meilleur came, meilleur taro Bif, bif, bif, j'tire dans la cabeza, bonne chance pour le garrot J'suis batte de baseball, t'es bébé phoque, Brigitte, Brigitte Bardot J'me suis fait dans le hall, j'cachais mon joint devant Monsieur Diallo Allo ? J'vais t'faire la peau petit connard Beaucoup ont essayé de me mettre à l'eau, j'suis encore là 20 ans plus tard Fuck ta go, semence de pirate dans son plumard Le Bruit et l'Odeur c'est moi, demande à Jacques Chirac Penchak-Silat dans leurs mères, fions se dilatent J'ai baisé des mexicaines, demande à Pierre Gignac Fuck le salaire à Verratti, fuck la FAC J'rentre chez Bugatti, mettez-moi une de chaque Igo, je déploie mes ailes comme un charo Tu vas finir sur le carreau Ces char-clos sont complètement paros Ils sont pas carrés, ils n'ont pas un rond Oh Manu Le Coq, oh Manu Le Coq Pourquoi j'ai vendu la coke ? Boulbi, Champtier du Coq, mon état d'esprit est glauque Je n'peux pas baisser mon froc, je vais faire tomber mon Glock Je n'peux pas baisser mon froc, je vais faire tomber mon Glock Tes règles dans le couscous Bendo, Baby I love you Paa C'est moi contre vous tous, c'est moi contre eux nigga Ne joue pas le voyou, ça paie pas le loyer Et j'ferais du sale, juste pour les nettoyer Faudra pas cramer les dièses, ne parle pas au phone, cala a boca Hello Bitch, donne ton numéro, hello Bitch, donne ton numéro Oh my God, je suis deep, igo jvois en rouge comme un Cripz Sacrifice égale bénéfice, j'veux ma plus grosse bitch dans un heetch Raquette dans les fesses et revers, coups droits YannickNoah J'suis dans l'fond du bail avec mes loups on vend la dope J't'attends sur ton parking, ce soir j'vais t'faire baliser Et si j'dois t'allumer, c'est pas Johnny qui a l'idée Igo, je déploie mes ailes comme un charo Tu vas finir sur le carreau Ces char-clos sont complètement paros Ils sont pas carrés, ils n'ont pas un rond Oh Manu Le Coq, oh Manu Le Coq Pourquoi j'ai vendu la coke ? Boulbi, Champtier du Coq, mon état d'esprit est glauque Je n'peux pas baisser mon froc, je vais faire tomber mon Glock Je n'peux pas baisser mon froc, je vais faire tomber mon Glock13</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1.8.7</t>
+          <t>Pas l’temps pour les regrets</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>It's global This worldwide right here From London, Africa D.U.C renoi, U.S Booba! Izi, Back to the Future Rozay! Ugh! On entend tout là-haut Need the money on a scale baby Real niggas worldwide you heard me? It's all we know, yeah J'suis sur la Lune, sont au Moyen-Âge V-12, sans rancune dit le carénage D'puis Beat de Boul c'est le carnage Paraît qu'j'suis Juif ? J't'enfonce une grosse bite ashkénaze Carré d'as, VIP dans marécage Brazamizi R.I.P. Malekal Alerte aux rappeurs français, v'là les nazes Combien font rap de poucaves v'là les blazes J'suis posé, tranquille au calme Un mètre quatre-vingt douze, 102 kilogrammes J'peux toutes les quer-ni, j'suis polygame Ici c'est Tallac, fuck Sony, fuck PolyGram Y a qu'dans la rue qu'j'ai eu du piston, c'est dommage Aller-retour en prison, c'est normal Remonte l'avenue des Champs en DeLorean Ma source de revenus dans du cellophane On a perdu des frères, on ne s'en est jamais remis Si peu d'adversaires, tellement d'ennemis Hache, kalash, négro, bougnoules sur la mélodie Crack, shit, rap, renoi pour nous c'est la belle vie La belle vie, la belle vie Uzi, mitraillettes, code 1.8.7 sur la mélodie Bouteille en l'ai-ai-ai-air ! T'attends qu'Jésus revienne on prend du biff on refait nos vies Gangster shit Les royalties c'est mieux qu'la cess J'vais plus au habs, mon studio c'est mon Classe S- 600, Lorinser puissant Après-skis sur mon terrain, terrain glissant Sénégalais personne peut m'égaler Sur un million d'euros mon négro j'aime bien m'étaler J'aime faire la guerre demande à mes alliés Ma mère est fière j'suis tellement médaillé La drogue c'est compliqué donc je l'ai détaillée Criminel en stage enfermé dans cages d'escalier J'suis chaud comme le premier août Ding-ding bâtard t'es KO premier round La jeunesse en dé-T-R-esse En France qui roule en CLS, attire les CRS Rebelle comme Casamançais Mendy, Gomis Nos flingues sont plus gros qu'ceux d'la police On a perdu des frères, on ne s'en est jamais remis Si peu d'adversaires, tellement d'ennemis Hache, kalash, négro, bougnoules sur la mélodie Crack, shit, rap, renoi pour nous c'est la belle vie La belle vie, la belle vie Uzi, mitraillettes, code 1.8.7 sur la mélodie Bouteille en l'ai-ai-ai-air ! T'attends qu'Jésus revienne, nous on prend du biff, on refait nos vies Gangster shit Maybach Music I ride for my dawgz and I swear to God From a scrub on the corner, webs on the wall I used to be that youngin' on a air mattress Now it's Panameras, fly private to Paris Niggas on the sideline wanna see me touch I wanna see their faces when that trigger bust All them boys I ran with, they gave 'em ten and up When I made forty mil I tatted live it up We glorify the niggas who done did time Homies love you and they hate you at the same time Gold Cuban Linx with the Benz sign Club photographs throwin' gang signs Niggas sound spiteful when you livin' right Michael Tyson money winnin' is a sacrifice Don King nigga, milli on the ring Boss It's Ricky Rozay, Booba do your thing Maybach Music On a perdu des frères, on ne s'en est jamais remis Si peu d'adversaires, tellement d'ennemis Hache, kalash, négro, bougnoules sur la mélodie Crack, shit, rap, renoi pour nous c'est la belle vie La belle vie, la belle vie Uzi, mitraillettes, code 1.8.7 sur la mélodie Bouteille en l'ai-ai-ai-air ! T'attends qu'Jésus revienne, nous on prend du biff, on refait nos vies2</t>
+          <t>2000Pas l'temps pour les regrets Lunatic2002Repose en paix Strass et paillettes ft. Ali2004N10 Baby ft. Nessbeal Avant de partir ft. Léya Masry2005Banlieue Rim'K ft. Booba On sait l'faire 113 ft. Booba Le Rat Luciano FF2006Mauvais Garçon Garde la pêche Boulbi Pitbull Au bout des rêves ft. Trade Union Rudy2008B2Oba Illégal Game Over Salade tomates oignons ft. Djé Marche ou crève2009Double Poney On contrôle la zone ft. 92I Rats des villes2010Ftus Caesar Palace ft. Diddy Ma couleur Jour de paye2011Abracadabra Saddam Hauts-de-Seine Killer Comme une étoile Fast Life, mini-film avec Ryan Leslie Bakel City Gang Paname Vaisseau mère Corner Gato Da Bato ft. Booba Philly Doe2012Scarface A4 Congo, web-série Film pour la nuit blanche, de Mohamed Bourouissa Caramel Tombé pour elle Kalash ft. Kaaris2013Maître Yoda Jimmy Turfu Pirates RTC Parlons peu2014Une vie OKLM 3G2015Billets Violets Tony Sosa LVMH Mové Lang Mon Pays Attila Validée ft. Benash 4G201692i Veyron Comme les autres Habibi Walabok Salside Pinocchio DKR2017Friday2018À la folie Trône Gotham Petite fille2019PGP GLAIVE7</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>Bouyon</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ils ne nous passent pas dans leurs radios, non They know qu'on va pirater l'antenne, tout est écrit dans l'ciel Si j'te tue pas, j'espère qu'tu mourras de mort accidentelle Je vous présente ma Colombienne, toute pleine de collagène, baby Elle vient d'atterrir d'Carthagène Au lit, c'est super, le reste du temps, j'suis au phone-tel' Qu'est c'que j'vais faire d'elle ? J'la connais ni d'Adam, ni d'Eve Me parle pas de sang de la veine, j'vais la faire déposer en Uber J'vais la faire déposer en Uber aux portes de l'Enfer Train d'vie d'traficante On m'a retrouvé, j'étais cassé, baby Y a quelques bricoles à faire La carapace est intacte, le cur est accidenté Zéro nuance de gris Tout est noir, je les hais, de loin ou de près Prends ton MD, laisse-toi aller Bébé, viens voir la vie en vrai Ils m'ont envoyé la Financière S'ont trouvé ma pièce d'identité sur un bateau corsaire Est-ce-que jvais redevenir poussière ? Du coup, l'amour, la haine, j'sais plus trop à quoi ça sert Le réchauffement climatique, c'est dû à la chatte à ta mère, avec l'effet de serre J'dois faire attention quand je sors Zarma, tout l'monde me connait, je n'vois aucun problème Le matin quand tu t'réveilles, petit part au charbon Rallume pas l'joint de la veille et tu sais très bien que je saigne Mais baby, on récolte c'que l'on sème Train d'vie d'traficante On m'a retrouvé, j'étais cassé, baby Y a quelques bricoles à faire La carapace est intacte, le cur est accidenté Zéro nuance de gris Tout est noir, je les hais, de loin ou de près Prends ton MD, laisse-toi aller Bébé, viens voir la vie en vrai viens voir la vie en vrai6</t>
+          <t>Tu vas épicer ma vie, baby j'te mets dans le bouyon Vais te donner tellement de mula, tu me prendras pour un couillon Laisse-moi t'baiser tout de suite, j'te prendrais pas pour un souillon Si tu racontes de la merde, c'est dans ton fion que nous fouillons Si t'entends pa ! pa ! pa !, négro c'est pas des bouchons J'arrache le cou du coq comme vagabond, haïtien poushon On boit plus qu'du D.U.C., jéroboam nous les offrons Y'a qu'le shit au parloir que nous coffrons, il ne va jamais très profond Sénégalais toujours au front, passe-moi le yoff et le citron Tu dis kilo, je dis litron, tu dis J-Lo, j'dis ton daron Nique lui sa mère, c'est bien fiston, nique ton employeur, tiens un bifton J'suis Chicago, t'es les Detroits Pistons, entre rat-pis nous agissons J'ai la dalle d'un petit blédard, négro j'ai l'flow blédaryton Cette pute a osé me demander ça Quand se marie-t-on ? Mais le Duc ne fait que du sale, pute a pris peur donc elle a dit non Ma longévité dans ce game en dit long, ta carrière en nylon Mes seules barrières sont de corail, j'suis un Benzema à Lyon Tu vas épicer ma vie, baby j'te mets dans le bouyon Vais te donner tellement de mula, tu me prendras pour un couillon Laisse-moi t'baiser tout de suite, j'te prendrai pas pour un souillon Si tu racontes de la merde, c'est dans ton fion que nous fouillons 18 trous, j'parle pas de golf, tu as pris pirate pour un bouffon Je n'vois que de l'or, négro c'est tout c'que nous touchons On tirera des coups de canons, jusqu'à c'que nous coulions Des putes, la drogue, des armes, coño c'est tout c'que nous voulions Yo vle fè gè men neg yo pa gen kè, kaka voyé motherfuckers yo pè Onz-è e demi Booba deja fout konnen, se lè pou nale niquer des mères Manchèt mwen file, lavi-m an danje, chef detat konn non-m, manman-m di-m poze Pussy yo fache yo paka touche-m, tande gon komplo pou neg yo fizyie-m Police ap veye-m konn kile mwen soti, ki kote male yo konn chak fwa m-antre Twa fwa pa semènn map chanje telefòn, pou mwen, my nigga, son nesesite La vie dun pirate son lavi ki thrill, li te mèt tèt anba pou nou se nòmal Glock, MAC-11, AK se nòmal, gon lajan sal nan bounda-m se nòmal Pikliz nan bouyon-m pou mwen se nòmal, ju sitron glase pou desann li sal Tande yo di Gato li se un ouf, langyet manman-w bouzen, I am the truth Te konn chita nan on kay m-ap vann kokayin, map veye chak machinn kap pase nan on twou Pa janm limen okenn limyè nan kay la, chita nan fè nwa map vann neg yo poud Anmwe ! Tu vas épicer ma vie, baby j'te mets dans le bouyon Vais te donner tellement de mula, tu me prendras pour un couillon Laisse-moi t'baiser tout de suite, j'te prendrai pas pour un souillon Si tu racontes de la mierda bah c'est dans ton fion que nous fouillons 18 trous, j'parle pas de golf, tu as pris pirate pour un bouffon Je n'vois que de l'or, négro c'est tout c'que nous touchons On tirera des coups de canons, jusqu'à c'que nous coulions Des putes, la drogue, des armes, coño c'est tout c'que nous voulions4</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>À la folie</t>
+          <t>Habibi</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Je n'arrive pas à m'attacher Je n'arrive pas à m'attacher C'est un problème C'est un gros, gros problème C'est un problème C'est un très gros problème Je n'arrive pas à m'attacher Je vais encore tout gâcher Dès qu'jai craché, j'vais tout lâcher salut Salut, elle croit que j'vais tout lui acheter, t'as vu Meskina, meskina, cours loin de moi Cours loin de moi Ratpi navigue en solo Les sentiments jetés en mer La Patek Philippe a le chrono J'voulais juste m'envoyer en l'air Je n't'aime pas à la folie Je n't'aime pas à la folie, non Je n't'aime pas à la folie Je n't'aime pas à la folie, pardon Dulcinée veut aller au ciné J'vais lui péter le dos, elle ira juste chez le kiné Dulcinée veut aller au ciné J'vais lui péter le dos, elle ira juste chez le kiné Malgré tout, j'les respecte toutes Tu l'sais si t'as croisé ma route Malgré tout, j'les respecte toutes Tu l'sais si t'as croisé ma route Elle a cru au Père-Noël Aux sacs Chanel, aux Zanotti Elle veut le hlel, la panoplie Ma liberté n'a pas de prix Ma mère m'a dit Sois un bonhomme Allez, y en a marre que tu les dégages Tu étais peut-être la bonne Mais j'en déjà une qui passe le balais à tous les étages Je n't'aime pas à la folie Je n't'aime pas à la folie, non Je n't'aime pas à la folie Je n't'aime pas à la folie, pardon Dulcinée veut aller au ciné J'vais lui péter le dos, elle ira juste chez le kiné Dulcinée veut aller au ciné J'vais lui péter le dos, elle ira juste chez le kiné Meskina, meskina, cours loin de moi Cours loin de moi Ratpi navigue en solo Je n't'aime pas à la folie À la folie, ah non Je n't'aime pas à la folie, non, non Je n't'aime pas à la folie Je n't'aime pas à la folie, non Je n't'aime pas à la folie Je n't'aime pas à la folie, bah non4</t>
+          <t>Habibi Habibi 92i Ton crew pèse des millions, il n'en a pas l'air hein Tu crois toucher le Duc, le Duc s'en bat les reins Je te l'ai mis au fond, car tu le valais bien Enterre-moi à Bakel, pas au Mont Valerien Avant moi dans le game, tout allait bien No Pain No Gain, vous le savez bien Je n'ai plus de larmes, je ne pleure même pas souvent Arme à la main, je sors du toit-ouvrant Babylonien, pourquoi tu mens tout le temps ? Tripoli gang, y'a des crânes humains sous l'tank À part l'oseille, rien de très ragoûtant Sa mère, Laurent Ruquier contre L'Orang-Outan Le rap est une chatte, j'ai la queue dedans Je ne manque de rien, je ne manque que de temps Ça bibi ça bibi, Habibi Habibi Sur le rain-té à midi, je baisais la juge mon alibi Ça bibi ça bibi, habibi habibi Sur le rain-té à midi, je baisais la juge mon alibi Premier qu'en sport et en chant, fuck les autres matières J'veux pas réussir d'toute manière Ça trafique de la cire dans tout Asnières Ton cercueil ton nouvel habitat Je n'viendrai pas à ta crémaillère Al Pacino, Scarface J'habite là, morsure d'chicot ennemi sur chevalière T'as ci, t'as ça, jure sur la vie d'ta mère Personne te croit, renoi, dis wAllah, jure sur la vie d'ta mère Liasse de 500 eu', partout, Glock sur l'étagère Ennemi talentueux, avoue, toute ta famille est couchée par terre Jamais au garde-à-vous, j'nique tout, rien n'est classé par thème Noir est l'arc-en-ciel, qui l'a peint c'est l'Archangel En tout cas c'est pas moi, beaucoup d'ennemis sont de l'histoire ancienne En tout cas c'est pas moi, beaucoup d'ennemis sont de l'histoire ancienne Ça bibi ça bibi, Habibi Habibi Sur le rain-té à midi, je baisais la juge mon alibi Ça bibi ça bibi, Habibi Habibi Sur le rain-té à midi, je baisais la juge mon alibi Hé La boîte est pleine, le Supercharger est garé devant Sûrement millimétré donc ne me critique pas en m'insultant J'parle lingots d'or avec le Pape'zer, au Vatican Jésus dit de tendre la joue mais je n'suis pas pratiquant Méfie-toi même des petits, car il n'y a plus de grands Il te reste peut-être tes glewi, mais tu n'as plus de dents Mon camp c'est le règne animal, là où il n'y a plus de gens J'veux aller plus haut qu'le sommet de la montagne Là où il n'y a plus de vent Ça bibi ça bibi, Habibi Habibi Sur le rain-té à midi, je baisais la juge mon alibi Ça bibi ça bibi, Habibi Habibi Sur le rain-té à midi, je baisais la juge mon alibi6</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Talion</t>
+          <t>Médicament</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Capo dei capi 720 chevaux sous le capot, j'décapite Ta mère la tain-pu t'a fait à la va-vite Te-vi aif', soupe à l'ennemi dans la marmite Tu parles sur moi j'te réponds En même temps je cherche ton adresse Dis pas nos noms si tu bé-tom Porte tes couilles, fais ta calèche La mort c'est la sur de la paresse J'ai niqué des mamans de mamans J'ai presque honte du palmarès T'as une Formule 1 Mais t'as l'syndrome de la charrette Crucifiez-les tous comme Jésus Le Duc arrive à Nazareth La France accepte les chèques Elle n'accepte pas les hassanets J'reprends le contrôle des choses sérieuses Réinvestis tout le bénef' J'attaque en premier, pas d'loi du Talion Si je vends au tail-dé, j'ferais jamais le million J'parle de faire pognon sans éducation Pas de Féfé pas chère tombée du camion On dirait l'Afrique en bas du Galion Numéro magique sur le médaillon Dubaï nous gagnons, tu bailles, nous maillons Plus loin nous voyons, salam nous taillons Ça rappe, ça parle de rue, sombre est le nombre de vues Deux bastos dans la cabeza pour extérioriser ce que j'ai vu Je les baise une fois, deux fois, les rappelle plus Qu'est ce que ça fait d'être fauché ? Je n'm'en rappelle plus Quitte notre océan, y'a trop de rates-pi loss' et iatches-bi Pour être un thug y'a pas d'appli L'accoudoir du R mon seul appui Contre la pluie j'ai Rihanna, j'demande à Benzé son umbrella J'ai passé mon adolescence comme dans GTA San Andreas La Guardia Civil est au péage Vitesse au volant, pas d'embrayage Contrôle fiscal, j'pèse des millions La suspicion coule sur leur visage J'suis N.W.A, t'es Alliage 92 Injection comme dans l'tard-pé d'Nicki Minaj Ta carrière dans l'avion d'Aaliyah J'crache peut-être sur Skyrock Mais je crache pas dans la harira J'attaque en premier, pas d'loi du Talion Si je vends au tail-dé, j'ferais jamais le million J'parle de faire pognon sans éducation Pas de Féfé pas chère tombée du camion On dirait l'Afrique en bas du Galion Numéro magique sur le médaillon Dubaï nous gagnons, tu bailles, nous maillons Plus loin nous voyons, salam nous taillons Ça rappe, ça parle de rue, sombre est le nombre de vues Deux bastos dans la cabeza pour extérioriser ce que j'ai vu Je les baise une fois, deux fois, les rappelle plus Qu'est ce que ça fait d'être fauché ? Je n'm'en rappelle plus J'étais dans le crime en CDI Ratpi est souvent écroué J'roulais ma weed dans le GTI Sergio Tacchini troué À l'école de la rue j'ai fait Harvard Balle dans le cul t'es moins bavard À part à Chelsea y'a pas de Hazard Le nombre de victimes est élevé Sévère comme dans l'Ohio Si t'entends un CR, vois un numéro 7 C'pas Cristiano Ronaldo J'suis avec Anne-So et Delphine J'pense qu'à leur fourrer le muffin J'ai enfin eu mon premier rôle au ma-né-ci C'est parce qu'on produit le me-fil D'un ler-dea j'en ai tous les symptômes J'voulais des affaires place Vendôme Tout ce que j'ai pris c'est des mois fermes Le game a eu que parloir fantôme Ça rappe, ça parle de rue, sombre est le nombre de vues Deux bastos dans la cabeza pour extérioriser ce que j'ai vu Je les baise une fois, deux fois, les rappelle plus Qu'est ce que ça fait d'être fauché ? Je n'm'en rappelle plus5</t>
+          <t>Ba-bay, ba-ba-bay, elle a du rouge sous ses talons Elle me dit qu'elle a mal, elle veut quj'sois son médicament Elle veut connaître mes secrets la nuit, j'dors près du canon Mais dites-moi, jdois faire comment ? J'suis encore dans le sale Je suis venu dans l'inconnu, j'repartirai inoubliable Baby mama est trop têtue, elle veut des bisous pas des chaussures Mais dites-moi c'que j'ai pas fait ? J'lui ai acheté des Giuseppe Mais la petite n'est plus teubée, elle veut des sorties comme au début Ba-bay, ba-ba-bay, elle a du rouge sous ses talons Elle me dit quelle a mal, elle veut quj'sois son médicament Elle me dit quelle a mal, elle me dit qu'elle a mal Elle me dit qu'elle a mal, elle veut qu'jsois son médicament Shakulu, Shakulu, Shaku' C'est la life, t'façon, c'est chacun son chacun C'est la life Shakulu, Shakulu, Shaku' C'est la life, t'façon, c'est chacun son chacun C'est la life Elle me dit de quitter le bloc, quitter le cartel de Sinaloa Elle me dit qu'elle va jeter mon Glock, mademoiselle veut faire la loi Elle est restée plantée à-l, à attendre que j'demande Pardon J'ai sauté sur mon ch'val, la chicha n's'allume pas sans charbon Cabeza de mort sur le blason à l'audition Ce soir, j'vais lui faire du dirty, c'est normal que j'paye l'addition Le chauffeur est en bas, j'te ramène pas, c'est trop la mission Mais tu n'm'en voudras pas, je suis un chakal, t'avais raison Tu dis qu'j'n'ai pas de cur, je dis qu'c'est juste une mauvaise gestion Quand j't'ai montré le bail, tu as dit Aïe sans poser d'question Ba-bay, ba-ba-bay, elle a du rouge sous ses talons Elle me dit qu'elle a mal, elle veut qu'j'sois son médicament Elle me dit qu'elle a mal, elle me dit qu'elle a mal Elle me dit qu'elle a mal, elle veut qu'j'sois son médicament Shakulu, Shakulu, Shaku' C'est la life, t'façon, c'est chacun son chacun C'est la life Shakulu, Shakulu, Shaku' C'est la life, t'façon, c'est chacun son chacun C'est la life Elle me dit de quitter le bloc, quitter le cartel de Sinaloa Elle me dit qu'elle va jeter mon Glock, mademoiselle veut faire la loi Shakulu, Shakulu, Shaku' C'est la life, t'façon, c'est chacun son chacun C'est la life Shakulu, Shakulu, Shaku' C'est la life, t'façon, c'est chacun son chacun C'est la life Elle me dit de quitter le bloc, quitter le cartel de Sinaloa Elle me dit qu'elle va jeter mon Glock, mademoiselle veut faire la loi Mauvaise, mauvaise langue, baby mama veut des enfants Elle veut connaître mes secrets la nuit ,j'dors près du canon Près du canon Mais dites-moi, j'dois faire comment ? J'dois faire comment ? Mais dites-moi, j'peux faire comment ?2</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Billets violets</t>
+          <t>Rolex</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Je n'ai pas de chance... Non... Je n'ai pas de chance... Non... J'fais du sale mais j'ai plus la rage Il y'a ton ADN d'enfant d'putain, sous mes Huarache Mélange de hyène et de Souleymane Je ne serai pas à la cathédrale j'suis toujours sous les balles Tu cherches ta salope elle est sous mes hanches Avec ta maternelle j'ai toutes mes chances Tu tombes pour multiples incohérences Sale type je n'ai que très peu de tolérance Très loin d'nos sous, vu ce que l'on dépense Ça vient de partout, dans tous les sens Dans mon équipe personne ne joue en défense J'suis busy si tu veux une guerre va falloir qu'tu la déclenches Toi arbre très solide mais toi pas de branches J'travaille dur pour me remplir la panse, je n'ai pas de chance Donc je la provoque Appelle-moi Kopp Mayweather, le plus grand de tous les temps Tu veux une leçon de rap ? Je vais t'en donner une forte, billets violets ouvrent 1001 portes Le trafic vient d'Afrique en 1001 sortes, Bugatti vaut mieux que 1001 Porsches J'fais de l'argent et du sport, t'es en gars d'avant, t'es en El Matador Frérot je n'peux pas t'aider si tu dors, Faucon Millénium fuck une Aventador Langues de putain veulent me lécher le corps, bateau Pirate vient de quitter le port Bruit et l'odeur JacquesChirac, double moteur Jack, pirates Vitesse lumière au compteur, j'ai petit selfie de la chatte à ta sur J'ai sombre selfie de ta grand mère aussi, ne devient pas mafieux qui mange cannellonis, Izi Billets violets, billets violets Billets violets, billets violets Billets violets, billets violets Billets violets, billets violets Billets violets, billets violets Billets violets, billets violets Billets violets, billets violets Billets violets, billets violets30</t>
+          <t>Izi Back to the Future Awn!Ouais ! Ou deja fout' konnen! Ouais ! Diamants noirs sur le cur Awn!, diamants noirs sur la Rolex 12 coups il est l'heure, enfante leurs mères qu'ils te reconnaissent Oui! 12 coups il est l'heure Oui!, 12 coups il est l'heure Oui! Beurre, argent du beurre, né honnête, j'vais crever malhonnête Awn! Passe-moi de la monnaie, casse-moi pas les couilles Yeah! Sniffe ma 0.9 tu la connais, tu sentiras pas les coups Oui! Superman dans l'putain d'building, snapback sur le crane Awn! Fuck les membres du jury, 92i gravé sur le Graal Ouais ! Drogue, putes et liqueur Awn!, fuck la loi en vigueur J'avance droit comme minuit et demi, ennemis dans l'rétroviseur Awn! La Rue j'la connais par cur Oui! C'est marche ou crève, assume ta peine ou ferme ta gueule Mister Officer, ici personne n'a peur des coups d'Taser 1 négro 2 négros 3 négros dans l'cul d'ta sur OK! Yoda m'a dit Domine ta peur, comme Jeezy j'suis devenu trapper Oui! Rap fusil mitrailleur, le bitume a l'goût d'ma sueur On meurt jeunes, on meurt célèbre Ouais ! Criblés d'balles, en Mercedes Awn! Bon qu'à faire de l'espèce Illégal, on persévère Anmwé! Tiens les putes en laisse J'fume un joint, je quitte la Terre Ouais ! La street, tout ce qu'il en reste Ouais ! On est la street, tout ce qu'il en reste Izi My niggas told me Gato get your lajan, fuck a bouzen santi Awn! Focus on the Ünkut, let us handle all the crime scenes Me I'm so foolish, I still pull up with my full clip Got a show the next day, I'm still on that hood shit Awn! Post up by the liquor store, up the block from 8 to 4 My little nigga selling dope, his GPA a 4.0 Yeah! My Spanish bouzen bagging coke, she never call me When she do, I know it's time to bake some more Down in Briko, they love blow Awn!, Little Haiti, they gon' know Oui! Throw it up, bring that bitch Bang!, big guns with a red beam Criminals in my Zoe team Awn!, 92izi run the city, Bakel City O.G Yeah! Fontamara overseas, easy money fuck peace Awn! Fuck boy, that's what I'm touching, ho nigga, that's what you missing Oui! All I need is one good reason to bring out my gold stick Ouais ! 24 karats on the chopper, laid out for them Zoe bricks Awn! I'm counting Euros, when I finish I'll be Zoe rich On meurt jeunes, on meurt célèbre Ouais ! Criblés d'balles, en Mercedes Awn! Bon qu'à faire de l'espèce Illégal, on persévère Anmwé! Tiens les putes en laisse J'fume un joint, je quitte la Terre Ouais ! La street, tout ce qu'il en reste Ouais ! On est la street, tout ce qu'il en reste Izi J'brûle un joint d'me-seu, j'les laisse brûler des cierges Awn! B2O 2 au final j'débarque à 16 Oui! Vrais reconnaissent vrais, numéro 7 repose en paix Oui! J'fais le halla, au-dessus des lois, rien n'm'en empêche Anmwé! Got my niggas out in Paris that will kill you for the poisson All they know is gettin' money, we just call it lajan Anmwé! Mala get them choppers, Ibou bring out the bazooka 92izi in the building, Bakel City Gangsters Ouais ! Marche ou crève Awn!, chrome de Frank Lucas Oui! À mes khos je n'écris pas Oui!, à mes khos j'envoie du cash Awn! Izer, 600 chevaux quand j'accélère Oui! Anakin j'lui nique sa mère, j'suis en vale-ca interstellaire Anmwé! Yo, Kopp, fuck these niggas, gimme the word so I kill these niggas Awn! I pull up in my little bucket, hop out have them niggas duckin' Oui! No love, fuck the other side Awn!, force for the homicide Hit em' in the head with the white bouzen have to die On meurt jeunes, on meurt célèbre Ouais ! Criblés d'balles, en Mercedes Awn! Bon qu'à faire de l'espèce Illégal, on persévère Anmwé! Tiens les putes en laisse J'fume un joint, je quitte la Terre Ouais ! La street, tout ce qu'il en reste Ouais ! On est la street, tout ce qu'il en reste Izi4</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>M.L.C</t>
+          <t>Au bout des rêves</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DJ Bellek gère le piano Welcome to the sal Bendo bendo, bendo na bendo Welcome, welcome Bendo bendo, bendo na bendo Ouloulou Igo, je déploie mes ailes comme un charo Tu vas finir sur le carreau Ces chard-clo sont complètement paros Ils sont pas carrés, ils n'ont pas un rond Oh Manu Le Coq, oh Manu Le Coq Pourquoi j'ai vendu la coke ? Boulbi, Champtier du Coq, mon état d'esprit est glauque Je n'peux pas baisser mon froc, je vais faire tomber mon Glock Je n'peux pas baisser mon froc, je vais faire tomber mon Glock J'suis discret comme appel anonyme, violent comme papa alcoolique Ce genre de morceau va les terroriser, Charlie Hebdo fera la chronique Le dentiste a capté les bails, ce fils de poucave a un palais d'justice C'est bien si le brolique est vrai mais à quoi bon faire si les couilles sont factices J'suis dans l'dur, c'est sûr, depuis l'époque du mur, on vend la pure Accro à la violence, oh my God ! J'dois faire une cure Gros j'ai charbonné, personne m'a rien donné, je n'sais pas chanter, je sais que fredonner Toi qui t'as parlé ? Mais qui t'as klaxonné ? Sapés comme jamain, toi personne te connait Euro, dollar, on veut du luxe, j'm'en fous de lui, il a pas d'argent Ça sent l'poisson, dégage de là et sors du lit, va mettre du savon Alors mes garçons, ouais ça va ou ça vend ? Le savoir est une arme, j'ai braqué un savant Et si jour tout ça se savait, y'a pas que Willy qu'il faudra sauver Igo, je déploie mes ailes comme un charo Tu vas finir sur le carreau Ces chard-clo sont complètement paros Ils sont pas carrés, ils n'ont pas un rond Oh Manu Le Coq, oh Manu Le Coq Pourquoi j'ai vendu la coke ? Boulbi, Champtier du Coq, mon état d'esprit est glauque Je n'peux pas baisser mon froc, je vais faire tomber mon Glock Je n'peux pas baisser mon froc, je vais faire tomber mon Glock Meilleur came, meilleur taro Bif, bif, bif, j'tire dans la cabeza, bonne chance pour le garrot J'suis batte de baseball, t'es bébé phoque, Brigitte, Brigitte Bardot J'me suis fait dans le hall, j'cachais mon joint devant Monsieur Diallo Allo ? J'vais t'faire la peau petit connard Beaucoup ont essayé de me mettre à l'eau, j'suis encore là 20 ans plus tard Fuck ta go, semence de pirate dans son plumard Le Bruit et l'Odeur c'est moi, demande à Jacques Chirac Penchak-Silat dans leurs mères, fions se dilatent J'ai baisé des mexicaines, demande à Pierre Gignac Fuck le salaire à Verratti, fuck la FAC J'rentre chez Bugatti, mettez-moi une de chaque Igo, je déploie mes ailes comme un charo Tu vas finir sur le carreau Ces char-clos sont complètement paros Ils sont pas carrés, ils n'ont pas un rond Oh Manu Le Coq, oh Manu Le Coq Pourquoi j'ai vendu la coke ? Boulbi, Champtier du Coq, mon état d'esprit est glauque Je n'peux pas baisser mon froc, je vais faire tomber mon Glock Je n'peux pas baisser mon froc, je vais faire tomber mon Glock Tes règles dans le couscous Bendo, Baby I love you Paa C'est moi contre vous tous, c'est moi contre eux nigga Ne joue pas le voyou, ça paie pas le loyer Et j'ferais du sale, juste pour les nettoyer Faudra pas cramer les dièses, ne parle pas au phone, cala a boca Hello Bitch, donne ton numéro, hello Bitch, donne ton numéro Oh my God, je suis deep, igo jvois en rouge comme un Cripz Sacrifice égale bénéfice, j'veux ma plus grosse bitch dans un heetch Raquette dans les fesses et revers, coups droits YannickNoah J'suis dans l'fond du bail avec mes loups on vend la dope J't'attends sur ton parking, ce soir j'vais t'faire baliser Et si j'dois t'allumer, c'est pas Johnny qui a l'idée Igo, je déploie mes ailes comme un charo Tu vas finir sur le carreau Ces char-clos sont complètement paros Ils sont pas carrés, ils n'ont pas un rond Oh Manu Le Coq, oh Manu Le Coq Pourquoi j'ai vendu la coke ? Boulbi, Champtier du Coq, mon état d'esprit est glauque Je n'peux pas baisser mon froc, je vais faire tomber mon Glock Je n'peux pas baisser mon froc, je vais faire tomber mon Glock13</t>
+          <t>Trade Union! Booba! He he! Alright you na, bring a ting! Massive on di rider Si, si Massive on di rider, gimme di signal! Signal! Come in! Appeler au secours n'est pas mon genre, ça va sans dire J'ai jamais bossé, la chaussée m'a vu grandir J'ai toujours osé, posé mes tripes sur la musique Plutôt crever que taffer à l'usine La luxure m'aura à l'usure peut être J'suis jamais cuit même quand les poulets m'cuisinent, moi j'veux devenir c'que j'aurais dû être J'ai jamais su c'qu'étais mon rôle dans la vie A part être riche, avoir une piaule à Miami beach Aider sa mère et l'aimer avec un coeur éternel Ne pas prendre perpète comme Pernell J'veux déployer mes ailes, foncer contre-courant cornes baissées Cerveau blessé, paumes vers le ciel Dites bonjour aux banlieusards fidèles au poste Demande à la SACEM, qui est le boss ? Si mon parcours n'a rien d'héroïque Ma clique est sous contrat, la tienne sous héroïne À quoi ça sert d'être célèbre, sans le mériter ? J'ai toujours la vérité au bout des lèvres Et le passé me suit, de jour comme de nuit Pourrais-je y arriver, au bout d'mes rêves ? Hey yo j'débarque dans la place, Air Force neuves, pas d'Adidas Alerte au bling bling, bibibibi-biatch B2Zoo chef de gang sur bateau d'esclaves Laquelle de ces rappeurs veut test un M.C de Bakel ? Ici j'suis en visite, le roi en visu J'arrive en Ville-zi, brille-zi repart en vie-zi Ca capitule dans l'industrie, c'est la crise J'm'arrête au feu, les emcees lavent mon pare-brise Ni deux ni une, aucune apparition sans hémoglobine T'es à la fin de ton film, remballe et rembobine J'défraie pas la chronique, je la fume Si j'avais la thune à Beckham sa femme serait ma boniche Mon fils, à l'école tu seras imbattable Si tu échoues et que je pars avant toi, prends mes sous, jette ton cartable Et j'm'imagine en train de fé-ta À 2.50 sur le droit chemin voiture pée-ta À quoi ça sert d'être célèbre, sans le mériter ? J'ai toujours la vérité au bout des lèvres Et le passé me suit, de jour comme de nuit Pourrais-je y arriver, au bout d'mes rêves ? Ah ha! Bout d'mes rêves 'Member dat! B2OBA Reality! Trade Union Brop! Brop! Si, si À quoi ça sert d'être célèbre, sans le mériter ? J'ai toujours la vérité pendue aux bouts des lèvres Et le passé me suit, de jour comme de nuit J'sais pas dans quel état j'vais arriver au bout de mes rêves J'ai le coeur solide, j'ai les mains pleines Quand elles seront vides me diras-tu que tu m'aimes ? Votre système je n'y crois pas Non sans phares à xénon, moi, je m'y vois pas À quoi ça sert d'être célèbre, sans le mériter ? J'ai toujours la vérité au bout des lèvres Et le passé me suit, de jour comme de nuit Pourrais-je y arriver, au bout d'mes rêves ? À quoi ça sert d'être célèbre, sans le mériter ? J'ai toujours la vérité au bout des lèvres Et le passé me suit, de jour comme de nuit Pourrais-je y arriver, au bout d'mes rêves ?4</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Pas l’temps pour les regrets</t>
+          <t>Bellucci</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2000Pas l'temps pour les regrets Lunatic2002Repose en paix Strass et paillettes ft. Ali2004N10 Baby ft. Nessbeal Avant de partir ft. Léya Masry2005Banlieue Rim'K ft. Booba On sait l'faire 113 ft. Booba Le Rat Luciano FF2006Mauvais Garçon Garde la pêche Boulbi Pitbull Au bout des rêves ft. Trade Union Rudy2008B2Oba Illégal Game Over Salade tomates oignons ft. Djé Marche ou crève2009Double Poney On contrôle la zone ft. 92I Rats des villes2010Ftus Caesar Palace ft. Diddy Ma couleur Jour de paye2011Abracadabra Saddam Hauts-de-Seine Killer Comme une étoile Fast Life, mini-film avec Ryan Leslie Bakel City Gang Paname Vaisseau mère Corner Gato Da Bato ft. Booba Philly Doe2012Scarface A4 Congo, web-série Film pour la nuit blanche, de Mohamed Bourouissa Caramel Tombé pour elle Kalash ft. Kaaris2013Maître Yoda Jimmy Turfu Pirates RTC Parlons peu2014Une vie OKLM 3G2015Billets Violets Tony Sosa LVMH Mové Lang Mon Pays Attila Validée ft. Benash 4G201692i Veyron Comme les autres Habibi Walabok Salside Pinocchio DKR2017Friday2018À la folie Trône Gotham Petite fille2019PGP GLAIVE7</t>
+          <t>Mothefucker, wheres my nigga? Assis sur un tas de pierres... Booba, yeah my nigga! Toujours frais, je reste à la surface Comme les glaçons dans mon Chivas C'est pas du henné sur mon visage Prêt à enchainer sur le rivage J'ai le AR, j'ai le ski mask Chaînes en O-R sur le primate J'suis la Stan Smith chez Adidas J'monte à 300 Léonidas Ta vie ne tient qu'à un coup de fil Ta hlel ne tient qu'à un coup de bite Sergent Kopp'zer dans le cockpit Trop de bling'zer pour le portique J'suis sur le net'zer, dans la rue Marié à la haine comme Bellucci Négro, tu es faux comme tes Gucci Je sais plus quoi mettre, je suis trop bien loti Je t'en prie, marche sur mes Zanotti C'est le poids des armes, pas des mots, qui m'alourdit C'est pas la branlette mais la roquette qui t'assourdit Quelle marque de merde porte Matuidi Thats right Chez nous en disant rien, on a tout dit Toujours en live du vaisseau mère J'eus Alzheimer quand ils me questionnèrent Quand j'pense à toi, je pense missionnaire, pas légionnaire J'suis en poster dans la chambre à ta mère Dans le bureau du commissaire J'suis cocaïne, t'es somnifère Mon Dieu, comment autant de faux négros prolifèrent J'ai le meilleur flow de l'univers Mon Glock ma première femme, j'ai donc laissé Lucie faire J'gagne à la loterie, fume 20 oin-j sisi J'voyage salement comme un lo-ki dans le va-ing Quand ils minterrogent, le harki parle à trois singes J'te tire une balle gros comme un gnocchi dans le larynx Toujours frais, je reste à la surface Comme les glaçons dans mon Chivas C'est pas du henné sur mon visage Prêt à enchainer sur le rivage J'ai le AR, j'ai le ski mask Chaînes en O-R sur le primate J'suis la Stan Smith chez Adidas J'monte à 300 Léonidas Ta vie ne tient qu'à un coup de fil Ta hlel ne tient qu'à un coup de bite Sergent Kopp'zer dans le cockpit Trop de bling'zer pour le portique It's murder for hire I put coke in the tires I got dope on the flight Theres birds on the Phantom Burning money like Cam'ron Coming straight out the gutter Drinking that dirty Sprite syrup I fuck all your kids and your mother Me and young Booba, we bosses Down in Miami we flossin' I just be tripping with flavor They call like, Where is the sauce? I got a kilo and bought me a kilo Tony Montana and I got the yayo These bitches be loving a nigga from here to little Haiti Shit, this Future Hendrix let me have my moment No condolences to my enemy Bagging up, selling these coca leaves Then I go take me a shopping spree I want a brand new AR with a 100-round drum on it That money really make her cum, bitch Then go put your tongue on it That bitch really yours, nigga? You better put alarm on it I aint go to Harvard, nigga Thats word to my momma, nigga I put that presidential Rollie on that bitch And then she mine, my nigga I grind and I shine, my nigga I ain't wasting no time, my nigga Im smashing your freak on the passenger seat Shoot at you niggas, saying, Fuck all the beef! I got ammo for days Run around in the Caymans Mac-11 in the Bentley And I ride for my real niggas Only God can judge me When you live like a field nigga When you dont feel niggas Sometimes you gotta kill niggas Word up to my motherfucking riders, ya heard me? Everybody getting sprayed up right now I cant keep out these hoes at ease nigga They might turn on me, mo'fucker Im bout to got a blue story nigga Shit bout to get real uncomfortable for you niggas, ya heard? Booba! Bellucci! Freebandz! Freebandz! Freebandz! Wooh18</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Bouyon</t>
+          <t>Mula</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Tu vas épicer ma vie, baby j'te mets dans le bouyon Vais te donner tellement de mula, tu me prendras pour un couillon Laisse-moi t'baiser tout de suite, j'te prendrais pas pour un souillon Si tu racontes de la merde, c'est dans ton fion que nous fouillons Si t'entends pa ! pa ! pa !, négro c'est pas des bouchons J'arrache le cou du coq comme vagabond, haïtien poushon On boit plus qu'du D.U.C., jéroboam nous les offrons Y'a qu'le shit au parloir que nous coffrons, il ne va jamais très profond Sénégalais toujours au front, passe-moi le yoff et le citron Tu dis kilo, je dis litron, tu dis J-Lo, j'dis ton daron Nique lui sa mère, c'est bien fiston, nique ton employeur, tiens un bifton J'suis Chicago, t'es les Detroits Pistons, entre rat-pis nous agissons J'ai la dalle d'un petit blédard, négro j'ai l'flow blédaryton Cette pute a osé me demander ça Quand se marie-t-on ? Mais le Duc ne fait que du sale, pute a pris peur donc elle a dit non Ma longévité dans ce game en dit long, ta carrière en nylon Mes seules barrières sont de corail, j'suis un Benzema à Lyon Tu vas épicer ma vie, baby j'te mets dans le bouyon Vais te donner tellement de mula, tu me prendras pour un couillon Laisse-moi t'baiser tout de suite, j'te prendrai pas pour un souillon Si tu racontes de la merde, c'est dans ton fion que nous fouillons 18 trous, j'parle pas de golf, tu as pris pirate pour un bouffon Je n'vois que de l'or, négro c'est tout c'que nous touchons On tirera des coups de canons, jusqu'à c'que nous coulions Des putes, la drogue, des armes, coño c'est tout c'que nous voulions Yo vle fè gè men neg yo pa gen kè, kaka voyé motherfuckers yo pè Onz-è e demi Booba deja fout konnen, se lè pou nale niquer des mères Manchèt mwen file, lavi-m an danje, chef detat konn non-m, manman-m di-m poze Pussy yo fache yo paka touche-m, tande gon komplo pou neg yo fizyie-m Police ap veye-m konn kile mwen soti, ki kote male yo konn chak fwa m-antre Twa fwa pa semènn map chanje telefòn, pou mwen, my nigga, son nesesite La vie dun pirate son lavi ki thrill, li te mèt tèt anba pou nou se nòmal Glock, MAC-11, AK se nòmal, gon lajan sal nan bounda-m se nòmal Pikliz nan bouyon-m pou mwen se nòmal, ju sitron glase pou desann li sal Tande yo di Gato li se un ouf, langyet manman-w bouzen, I am the truth Te konn chita nan on kay m-ap vann kokayin, map veye chak machinn kap pase nan on twou Pa janm limen okenn limyè nan kay la, chita nan fè nwa map vann neg yo poud Anmwe ! Tu vas épicer ma vie, baby j'te mets dans le bouyon Vais te donner tellement de mula, tu me prendras pour un couillon Laisse-moi t'baiser tout de suite, j'te prendrai pas pour un souillon Si tu racontes de la mierda bah c'est dans ton fion que nous fouillons 18 trous, j'parle pas de golf, tu as pris pirate pour un bouffon Je n'vois que de l'or, négro c'est tout c'que nous touchons On tirera des coups de canons, jusqu'à c'que nous coulions Des putes, la drogue, des armes, coño c'est tout c'que nous voulions4</t>
+          <t>Skrt Ouh lou-lou Ouh lou-lou Skrt Ah-ah Ouh, ouh, ouh Premier ring Moula, moula Ouh, ouh, ouh Okay Tout est noir, demande à Alex Ouais, ingé' bre-som, Rue des Prairies Prairies, yeah, j'ai pas feater Nan mais j'ai baisé Katy Perry Brr J'écoute beaucoup d'Alain Souchon Skrt, cagoulé avec des chaussons Okay J'fais plus du trap mais du poison, c'est pas que j't'aime plus mais disons qu't'étais plus bonne auparavant Okay Salope Sache-le, skrt, c'est dans ta chatte que ma queue va se baigner Tu vas chier, si tu peux pas te raser la chatte, au moins, va la peigner Rah 92i dans le trou noir de leur mères, être gentil, je l'étais avant-hier Sors Tu parles beaucoup, on a qu'une parole Sors, on t'calcule pas comme un pays sans pétrole Sors, sors, sors Fils en larmes, papa eu charbon Skrt, te faire confiance, ça sent pas bon Ouh Tu dis qu't'es fort, on répond Ah bon ? Ouh, j'te tape pas sans qu't'aies ton pardon Ouh, ouh De l'univers, les meilleures gestuelles Gestuelles, la curiosité crée des homosexuels Homosexuels Ils cherchent la guerre mais ils ont guère de talent, j'arrive en retard car ils ont perdu d'avance La moula, moula La moula, moula, la moula, moula La moula, moula La moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula, moula La moula, moula La moula, moula, la moula, moula La moula, moula La moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula moula Faut d'la moula, moula Skrt, moula, moula, d'la moula, moula Skrt, moula, moula D'la moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula, moula Faut d'la moula, moula Skrt, d'la moula, moula Skrt, pas de maladresse D'la moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula, moula Art de rue comme la FF Ouh, ouh, ouh, Ferrari F12, week-end à Marrakech Week-end à Marrakech Pas de maladresse, tu bouges, tu meurs, donne-moi la caisse Me d'mande pas comment je vais, ne vois-tu pas ? Ennemi n'peut pas se relever Skrt, dia-diamant, Cuban Link'zer, plaqué sur col V Ils m'ouvrent la porte, j'ai déjà cassé la tre-vi Gang, une rotule au sol, j'fais les lacets d'mon se-fil Gang D.U.C, Siboy, pas de maladresse, tu cherches l'échec, tu sais qui a l'adresse Brah J'baise une pute d'Château Rouge, je lui crache dans les tresses Tresses, j't'allumerai négro avec allégresse 'gresse T'es sur les Buttes Chaumont avec Jena Lee Lee, j'suis sur mont de Tallac avec grizzli Ouh, ouh, ouh Faut d'la moula, moula Ouh, d'la moula, moula Ouh Ils n'aiment pas le mafé, ils n'aiment pas la burqa, fier de mes origines comme la bouille à Luna J'ai cru voir un rappeur twerker chez Hanouna, on a décelé cocaïne dans ta khanouna Laisse-les croire que je n'sais dire que Ounga ounga, feuille de marijuana dans le gloubi-boulga, tout est noir, noir La moula, moula La moula, moula, la moula, moula La moula, moula La moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula, moula La moula, moula La moula, moula, la moula, moula La moula, moula La moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula moula Faut d'la moula, moula Skrt, moula, moula, d'la moula, moula Skrt, moula, moula D'la moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula, moula Faut d'la moula, moula Skrt, d'la moula, moula Pas de maladresse D'la moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula, moula D'aucune pitié, je m'sens saisi Kopp, je les encule avec plaisir Ban-ban-ban-bang Fuck les flagrants délits, ferme-la et peut-être, ta mort va s'embellir Ra-pa-pa-pah, sache-le Tu pousses cent kil' en salle, tu meurs d'une balle de quelques grammes Pas de maladresse J'suis sorti capuché le soir, j'suis d'humeur à baiser quelques dames Bitch, rah J'suis comme la mort Skrt, j'peux surprendre au prochain carrefour Sale, sale, sale, sale, sale, laisse-moi faire mon parcours, ta vie s'ra le Darfour Yeah Faut qu'tu saches petit nègre, t'es ma proie Petit nègre, tu m'suceras jusqu'à en perdre la voix Petit nègre Faut qu'j'te vois négro pour que j'te crois Petit nègre, faut qu'j'te croise pétasse pour que j'te broie Salope C'qui est fait est fait Skrt, négro, fuck les regrets Ouh, ouh, ouh, regarde-moi bien si tu veux voir ta mort d'plus près, O.G Ouh, ouh, ouh Négro, c'est terrible Négro, c'est pas les tuer mais cacher l'corps qui est pénible Sache-le J'suis que de passage O.G, j'vais les dresser comme enfants de bas âge Poufiasse La moula, moula La moula, moula, la moula, moula La moula, moula La moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula, moula La moula, moula La moula, moula, la moula, moula La moula, moula La moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula moula Faut d'la moula, moula Skrt, moula, moula, d'la moula, moula Skrt, moula, moula D'la moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula, moula Faut d'la moula, moula Skrt, d'la moula, moula Pas de maladresse D'la moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula, moula D'la moula, moula D'la moula, moula, d'la moula, moula D'la moula, moula9</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Habibi</t>
+          <t>Ma couleur</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Habibi Habibi 92i Ton crew pèse des millions, il n'en a pas l'air hein Tu crois toucher le Duc, le Duc s'en bat les reins Je te l'ai mis au fond, car tu le valais bien Enterre-moi à Bakel, pas au Mont Valerien Avant moi dans le game, tout allait bien No Pain No Gain, vous le savez bien Je n'ai plus de larmes, je ne pleure même pas souvent Arme à la main, je sors du toit-ouvrant Babylonien, pourquoi tu mens tout le temps ? Tripoli gang, y'a des crânes humains sous l'tank À part l'oseille, rien de très ragoûtant Sa mère, Laurent Ruquier contre L'Orang-Outan Le rap est une chatte, j'ai la queue dedans Je ne manque de rien, je ne manque que de temps Ça bibi ça bibi, Habibi Habibi Sur le rain-té à midi, je baisais la juge mon alibi Ça bibi ça bibi, habibi habibi Sur le rain-té à midi, je baisais la juge mon alibi Premier qu'en sport et en chant, fuck les autres matières J'veux pas réussir d'toute manière Ça trafique de la cire dans tout Asnières Ton cercueil ton nouvel habitat Je n'viendrai pas à ta crémaillère Al Pacino, Scarface J'habite là, morsure d'chicot ennemi sur chevalière T'as ci, t'as ça, jure sur la vie d'ta mère Personne te croit, renoi, dis wAllah, jure sur la vie d'ta mère Liasse de 500 eu', partout, Glock sur l'étagère Ennemi talentueux, avoue, toute ta famille est couchée par terre Jamais au garde-à-vous, j'nique tout, rien n'est classé par thème Noir est l'arc-en-ciel, qui l'a peint c'est l'Archangel En tout cas c'est pas moi, beaucoup d'ennemis sont de l'histoire ancienne En tout cas c'est pas moi, beaucoup d'ennemis sont de l'histoire ancienne Ça bibi ça bibi, Habibi Habibi Sur le rain-té à midi, je baisais la juge mon alibi Ça bibi ça bibi, Habibi Habibi Sur le rain-té à midi, je baisais la juge mon alibi Hé La boîte est pleine, le Supercharger est garé devant Sûrement millimétré donc ne me critique pas en m'insultant J'parle lingots d'or avec le Pape'zer, au Vatican Jésus dit de tendre la joue mais je n'suis pas pratiquant Méfie-toi même des petits, car il n'y a plus de grands Il te reste peut-être tes glewi, mais tu n'as plus de dents Mon camp c'est le règne animal, là où il n'y a plus de gens J'veux aller plus haut qu'le sommet de la montagne Là où il n'y a plus de vent Ça bibi ça bibi, Habibi Habibi Sur le rain-té à midi, je baisais la juge mon alibi Ça bibi ça bibi, Habibi Habibi Sur le rain-té à midi, je baisais la juge mon alibi6</t>
+          <t>Jugé à cause de ma couleur Jai fait les choses dans la douleur Mais jai fait les choses à ma couleur Négro dis-leur, dis-leur Jaime quand la pluie commence à tomber Car on ne voit plus tes larmes Jai toujours eu un manque à combler Je dois tout à une femme Surveillé par les douaniers Féfé sur le poignet, je traîne seul ou mal accompagné Jai commencé plus bas que terre, super-welter Juste un revolver, quelques poids et altères À cause des préjugés, pense à tout ce que tas raté Malgré tes diplômes, personne ne ta jamais rappelé Jai dû me faire seul-tout, suivre mon mektoub Pour avoir les mêmes chances que les autres, jai dû faire le double Ronce du bitume, je ne fane pas Quand jy vais, j'y vais dur, je ne blague pas Jn'ai pas atteint mon but, je ne trinque pas Ne bouge pas, ne craque pas, ne doute pas, ne parle pas, ne plie pas, ne pars pas, ne lâche pas Jugé à cause de ma couleur Jai fait les choses dans la douleur Mais jai fait les choses à ma couleur Négro dis-leur, dis-leur Jaime quand la pluie commence à tomber Car on ne voit plus tes larmes Jai toujours eu un manque à combler Je dois tout à une femme Jamais au premier rang, toujours dans les embrouilles Au lieu de partir en cours je suis parti en couille Jsuis peut être fou mais je ne donnerai pas mon biff au psychiatre Après dix Jacks, ma soirée sera paradisiaque Jai su me tirer daffaire, ils ont voulu ma peau Crapaud devenu prince, cheval cabré sur le capot Jai repeint le monde à ma couleur En vert, en jaune, en violet, pour apaiser ma douleur Qui va croire en toi dis-moi si tu ne le fais pas ? Miséricorde envers mes ennemis je ne lai pas Négros une haine venue dailleurs guide mes pas Vrais reconnaissent vrais, je sais qui lest, qui ne lest pas Et si tu te demandes pourquoi... Jugé à cause de ma couleur Jai fait les choses dans la douleur Mais jai fait les choses à ma couleur Négro dis-leur, dis-leur Jaime quand la pluie commence à tomber Car on ne voit plus tes larmes Jai toujours eu un manque à combler Je dois tout à une femme La terre de Bakel sous les semelles Pas darrachage de sacs car je ne mattaque pas aux femelles Bisous sur la bouche avec la langue dès la maternelle Élevé par une lionne, pas eu besoin dun paternel Moins javais doseille plus jétais dangereux et cruel Sang sur les chicots, reflets violets dans les prunelles Jai été bon, jai été mauvais Violences urbaines, jai toujours payé ce que je devais Pour linstant je suis dans le son, la suite on verra Des fois le peu-ra, jen ai ras la New Era Dakar R D C jfais mes dièses propres Jamais la tête baissée pour ceux qui connaissent Kopp' Bakel City Gang Jugé à cause de ma couleur Jai fait les choses dans la douleur Mais jai fait les choses à ma couleur Négro dis-leur, dis-leur Jaime quand la pluie commence à tomber Car on ne voit plus tes larmes Jai toujours eu un manque à combler Je dois tout à une femme Jugé à cause de ma couleur Jai fait les choses dans la douleur Mais jai fait les choses à ma couleur Négro dis-leur, dis-leur Jaime quand la pluie commence à tomber Car on ne voit plus tes larmes Jai toujours eu un manque à combler Je dois tout à une femme5</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Médicament</t>
+          <t>Si tu kiffes pas...</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ba-bay, ba-ba-bay, elle a du rouge sous ses talons Elle me dit qu'elle a mal, elle veut quj'sois son médicament Elle veut connaître mes secrets la nuit, j'dors près du canon Mais dites-moi, jdois faire comment ? J'suis encore dans le sale Je suis venu dans l'inconnu, j'repartirai inoubliable Baby mama est trop têtue, elle veut des bisous pas des chaussures Mais dites-moi c'que j'ai pas fait ? J'lui ai acheté des Giuseppe Mais la petite n'est plus teubée, elle veut des sorties comme au début Ba-bay, ba-ba-bay, elle a du rouge sous ses talons Elle me dit quelle a mal, elle veut quj'sois son médicament Elle me dit quelle a mal, elle me dit qu'elle a mal Elle me dit qu'elle a mal, elle veut qu'jsois son médicament Shakulu, Shakulu, Shaku' C'est la life, t'façon, c'est chacun son chacun C'est la life Shakulu, Shakulu, Shaku' C'est la life, t'façon, c'est chacun son chacun C'est la life Elle me dit de quitter le bloc, quitter le cartel de Sinaloa Elle me dit qu'elle va jeter mon Glock, mademoiselle veut faire la loi Elle est restée plantée à-l, à attendre que j'demande Pardon J'ai sauté sur mon ch'val, la chicha n's'allume pas sans charbon Cabeza de mort sur le blason à l'audition Ce soir, j'vais lui faire du dirty, c'est normal que j'paye l'addition Le chauffeur est en bas, j'te ramène pas, c'est trop la mission Mais tu n'm'en voudras pas, je suis un chakal, t'avais raison Tu dis qu'j'n'ai pas de cur, je dis qu'c'est juste une mauvaise gestion Quand j't'ai montré le bail, tu as dit Aïe sans poser d'question Ba-bay, ba-ba-bay, elle a du rouge sous ses talons Elle me dit qu'elle a mal, elle veut qu'j'sois son médicament Elle me dit qu'elle a mal, elle me dit qu'elle a mal Elle me dit qu'elle a mal, elle veut qu'j'sois son médicament Shakulu, Shakulu, Shaku' C'est la life, t'façon, c'est chacun son chacun C'est la life Shakulu, Shakulu, Shaku' C'est la life, t'façon, c'est chacun son chacun C'est la life Elle me dit de quitter le bloc, quitter le cartel de Sinaloa Elle me dit qu'elle va jeter mon Glock, mademoiselle veut faire la loi Shakulu, Shakulu, Shaku' C'est la life, t'façon, c'est chacun son chacun C'est la life Shakulu, Shakulu, Shaku' C'est la life, t'façon, c'est chacun son chacun C'est la life Elle me dit de quitter le bloc, quitter le cartel de Sinaloa Elle me dit qu'elle va jeter mon Glock, mademoiselle veut faire la loi Mauvaise, mauvaise langue, baby mama veut des enfants Elle veut connaître mes secrets la nuit ,j'dors près du canon Près du canon Mais dites-moi, j'dois faire comment ? J'dois faire comment ? Mais dites-moi, j'peux faire comment ?2</t>
+          <t>Je suis content quand j'ai du bon shit ou de la bonne zeb Avec les shnecks, j'aime être défoncé quand je baise Et quand mes frères sortent de taule, nique les tragédies pour 10G En cage du vendredi au jeudi Textes au zetla J'aime voir des CRS morts, dégoûté quand mes ennemis restent là J'aime les pin-pon, suivis d'explosions et des pompiers Et les histoires de fusils à pompe Y a d'la joie, y a d'la hiya Des tonnes de billets, de la sape tah l'mia, je rappe pour les miens À chaque mot ça pue la censure Nos raps c'est pour tous ceux qui habitent au 15ème sans ascenseur J'aime voir du sang sur le FN Et quand ma famille va bien, j'aime voir des billes comme Fabien J'aime un keuf quand son slip jaunit Qui dit oh non, Lunatic au microphone c'est l'Amazonie Je kiffe le succès, les procès sans proc' et les gros seins Et les balances quand ils se font crosser Ceux qui la ferment quand y a du sautage, des prises d'otages Quand c'est de la bombe pas de boycottage T'aimes ou t'aimes pas, dis-moi, toi qui sais tout Si tu kiffes pas renoi t'écoutes pas et puis c'est tout J'aime pas les dictons, ma tronche sur les biftons J'aimerais bien être le parrain et t'appeler fiston Bien ou quoi, dis-moi, toi qui sais tout Si tu kiffes pas t'écoutes pas et puis c'est tout Kho, j'aime les défis, la course, un rallye faut qu'on s'allie Parce qu'on a trop sali Booba Ali Prône la paix pour les nôtres, la France nest pas territoire neutre De ceux que les patrouilles aiment fouiller De la mâchoire aux couilles et faire asseoir avant les coups Tout paraît calme devant les dépôts du 92 Jaime la foi, celle qui nous maintient debout Et quon garde à ses côtés pendant lsommeil Comme une épouse, mental Muay Thaï Kick jusquà épuisement, cest Haïti Éric, Tidiani Songhaï Et puis les esprits tragiques comme une vie sans espoir Jaime laisser croire Que Lunatic cest mort et voir qui en sourit Si tu kiffes pas renoi t'écoutes pas et puis c'est tout Jaime les Houris, aux parpaings jnourris les mecs pourris Soirée dbanlieue un joint, une crêpe, un tapin La vérité que mrevienne cque jmérite et irriter lÉtat Jaime lutter, lété au bled et lthé Lafricaine mafia Et faire crier ma fouf Le mafé, l'yassa, 92 et les partouzes Jaimes les 'tasses mais jveux pas dire à mes gosses que Elles aiment les grosses voitures et les grosses queues Le ring et les strings, jaime quon soit soudés chez nous Même les culs-de-jatte donnent des coups dgenou T'aimes ou t'aimes pas, dis-moi, toi qui sais tout Si tu kiffes pas renoi t'écoutes pas et puis c'est tout J'aime pas les dictons, ma tronche sur les biftons J'aimerais bien être le parrain et t'appeler fiston Bien ou quoi, dis-moi, toi qui sais tout Si tu kiffes pas t'écoutes pas et puis c'est tout Kho, j'aime les défis, la course, un rallye faut qu'on s'allie Parce qu'on a trop sali Booba Ali Jaime la Lumière, de moi-même donner le meilleur Quand la nuit atteint son dernier tiers Que mes négros soient fiers de nous et quand pour eux la roue tourne Jkiffe la vie, chaque minute même dans la routine Parler de retourner sur la terre de nos pères Motive à apprendre que des ogives Tombent là où sont permises les orgies Quand les prisons passent sous le contrôle dinsurgés Jaime me préparer pour le jour J, celui du jugement Le passé chargé de péchés Nempêche pas de prêcher la vertu, averti Lexistence nest pas quamusement Si tu kiffes pas renoi garde tes distances Mes pensées, celles dun Lunatic rien na changé Au microphone Booba Ali cest toujours danger Laisser la rivalité déçue Stupide mon hip-hop nest pas fait pour stopper Jaime mes gens du Pont dSèvres et dIssy Profite de leur présence car trop vite arrive un décès Soumis à la Vérité, la plus haute autorité Grâce à qui mon cur bat, me permet daimer T'aimes ou t'aimes pas, dis-moi, toi qui sais tout Si tu kiffes pas renoi t'écoutes pas et puis c'est tout J'aime pas les dictons, ma tronche sur les biftons J'aimerais bien être le parrain et t'appeler fiston Bien ou quoi, dis-moi, toi qui sais tout Si tu kiffes pas t'écoutes pas et puis c'est tout Kho, j'aime les défis, la course, un rallye faut qu'on s'allie Parce qu'on a trop sali Booba Ali</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Rolex</t>
+          <t>Bando</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Izi Back to the Future Awn!Ouais ! Ou deja fout' konnen! Ouais ! Diamants noirs sur le cur Awn!, diamants noirs sur la Rolex 12 coups il est l'heure, enfante leurs mères qu'ils te reconnaissent Oui! 12 coups il est l'heure Oui!, 12 coups il est l'heure Oui! Beurre, argent du beurre, né honnête, j'vais crever malhonnête Awn! Passe-moi de la monnaie, casse-moi pas les couilles Yeah! Sniffe ma 0.9 tu la connais, tu sentiras pas les coups Oui! Superman dans l'putain d'building, snapback sur le crane Awn! Fuck les membres du jury, 92i gravé sur le Graal Ouais ! Drogue, putes et liqueur Awn!, fuck la loi en vigueur J'avance droit comme minuit et demi, ennemis dans l'rétroviseur Awn! La Rue j'la connais par cur Oui! C'est marche ou crève, assume ta peine ou ferme ta gueule Mister Officer, ici personne n'a peur des coups d'Taser 1 négro 2 négros 3 négros dans l'cul d'ta sur OK! Yoda m'a dit Domine ta peur, comme Jeezy j'suis devenu trapper Oui! Rap fusil mitrailleur, le bitume a l'goût d'ma sueur On meurt jeunes, on meurt célèbre Ouais ! Criblés d'balles, en Mercedes Awn! Bon qu'à faire de l'espèce Illégal, on persévère Anmwé! Tiens les putes en laisse J'fume un joint, je quitte la Terre Ouais ! La street, tout ce qu'il en reste Ouais ! On est la street, tout ce qu'il en reste Izi My niggas told me Gato get your lajan, fuck a bouzen santi Awn! Focus on the Ünkut, let us handle all the crime scenes Me I'm so foolish, I still pull up with my full clip Got a show the next day, I'm still on that hood shit Awn! Post up by the liquor store, up the block from 8 to 4 My little nigga selling dope, his GPA a 4.0 Yeah! My Spanish bouzen bagging coke, she never call me When she do, I know it's time to bake some more Down in Briko, they love blow Awn!, Little Haiti, they gon' know Oui! Throw it up, bring that bitch Bang!, big guns with a red beam Criminals in my Zoe team Awn!, 92izi run the city, Bakel City O.G Yeah! Fontamara overseas, easy money fuck peace Awn! Fuck boy, that's what I'm touching, ho nigga, that's what you missing Oui! All I need is one good reason to bring out my gold stick Ouais ! 24 karats on the chopper, laid out for them Zoe bricks Awn! I'm counting Euros, when I finish I'll be Zoe rich On meurt jeunes, on meurt célèbre Ouais ! Criblés d'balles, en Mercedes Awn! Bon qu'à faire de l'espèce Illégal, on persévère Anmwé! Tiens les putes en laisse J'fume un joint, je quitte la Terre Ouais ! La street, tout ce qu'il en reste Ouais ! On est la street, tout ce qu'il en reste Izi J'brûle un joint d'me-seu, j'les laisse brûler des cierges Awn! B2O 2 au final j'débarque à 16 Oui! Vrais reconnaissent vrais, numéro 7 repose en paix Oui! J'fais le halla, au-dessus des lois, rien n'm'en empêche Anmwé! Got my niggas out in Paris that will kill you for the poisson All they know is gettin' money, we just call it lajan Anmwé! Mala get them choppers, Ibou bring out the bazooka 92izi in the building, Bakel City Gangsters Ouais ! Marche ou crève Awn!, chrome de Frank Lucas Oui! À mes khos je n'écris pas Oui!, à mes khos j'envoie du cash Awn! Izer, 600 chevaux quand j'accélère Oui! Anakin j'lui nique sa mère, j'suis en vale-ca interstellaire Anmwé! Yo, Kopp, fuck these niggas, gimme the word so I kill these niggas Awn! I pull up in my little bucket, hop out have them niggas duckin' Oui! No love, fuck the other side Awn!, force for the homicide Hit em' in the head with the white bouzen have to die On meurt jeunes, on meurt célèbre Ouais ! Criblés d'balles, en Mercedes Awn! Bon qu'à faire de l'espèce Illégal, on persévère Anmwé! Tiens les putes en laisse J'fume un joint, je quitte la Terre Ouais ! La street, tout ce qu'il en reste Ouais ! On est la street, tout ce qu'il en reste Izi4</t>
+          <t>Naa-naa-naa-nana-nana naa-naa-na-na-na-na-naa Mixaa mulle codeine, mixaa mulle leani Pull uppaan sun blockii spinnataa sun koko tiimi Jos sul on mun kaa ongelmaa lupaan sul se ei oo easy Active aamust iltaa, kytät haluu catchaa kiinni Mixaa mulle codeine, mixaa mulle leani Pull uppaan sun blokkii spinnataa sun koko tiimi Jos sul on mun kaa ongelmaa lupaan sul se ei oo easy Active aamust iltaa, kytät haluu catchaa kiinni Messissä nina, ay Ootsä valmiina, ay Meijä bando boomaa gelato cocainal, ay Vaik mä en tunne mitää, ay Poltan silti lisää, ay Miks nää veijat koittaa päästä bäkkäreitte sisään, ay Vaik mä alan shinaa, mä silti jatkan wildaa Bämät phonee slidaa, koittaa öisit mut raidaa Mut emmä niitä haluu, mä needin only one Se, ketä jatkaa supportaamist, ku mä strugglaan Miks ku näytän rakkaut veijat heittää shadee? Miks ku mä oon mulkku ne kutsuu mua babyks? Miks ku alotin musiikki mut kutsuttiin crazyks? Nyt ne samat äijät sanoo Huligan you made it Mixaa mulle codeine, mixaa mulle leani Pull uppaan sun blockkii spinnataa sun koko tiimi Jos sul on munkaa onglmaa lupaan sul se ei oo easy Activ aamust iltaa, kytät haluu catchaa kiinni Mixaa mulle codeine mixaa mulle leani Pull uppaan sun blockii spinnataa sun koko tiimi Jos sul on munkaa ongelmaa lupaan sul se ei oo easy Active aamust iltaa kytät, haluu catchaa kiinni Mixaa mulle codeine bro, mixaa mulle vaa leani, ah Pääs paljo ongelmii, siks cally palaa mun spliffis, ah Ne sanoo nege on muuttunu, mut vielki mul on sama fiilis, ah Ja huomen neget on suuttunu, kosk minä ja Huli ollaa winning, ah Annoin negel paljo, mut en ikin kuule vaa kiitosta Fuck kaikki noi neget mua ei vittuukaa voi kiinnostaa Me ei tulla ikin floppaa, cro shinattii jo listoil, huh Jos sä koitat meit stoppaa, bro säki palat mun rizloissa Still the same nigga mitä olin sillo vuos sit Leikittii vaa pihal, ei ollu midii huolii Nykyää käyn vaa hitaal mietin antaaks ne mul luodist Broidit day ones, keihin mä vaa luotin Naa-na-na-naa Mixaa mulle codeine, mixaa mulle leani Pull uppaan sun blokkii spinnataa sun koko tiimi Jos sul on munkaa ongelmaa lupaan sul se ei oo easy Active aamust iltaa, kytät haluu catchaa kiinni Mixaa mulle codeine, mixaa mulle leani Pull uppaan sun blockii spinnataa sun koko tiimi Jos sul on munkaa ongelmaa lupaan sul se ei oo easy Active aamust iltaa, kytät haluu catchaa kiinni Naa-na-na-na Naa-na-na-na Naa-na-na-na Naa-na-na-na Naa-na-na-na Naa-na-na-na Naa-na-na-na Naa-na-na-na</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Au bout des rêves</t>
+          <t>Les meilleurs</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Trade Union! Booba! He he! Alright you na, bring a ting! Massive on di rider Si, si Massive on di rider, gimme di signal! Signal! Come in! Appeler au secours n'est pas mon genre, ça va sans dire J'ai jamais bossé, la chaussée m'a vu grandir J'ai toujours osé, posé mes tripes sur la musique Plutôt crever que taffer à l'usine La luxure m'aura à l'usure peut être J'suis jamais cuit même quand les poulets m'cuisinent, moi j'veux devenir c'que j'aurais dû être J'ai jamais su c'qu'étais mon rôle dans la vie A part être riche, avoir une piaule à Miami beach Aider sa mère et l'aimer avec un coeur éternel Ne pas prendre perpète comme Pernell J'veux déployer mes ailes, foncer contre-courant cornes baissées Cerveau blessé, paumes vers le ciel Dites bonjour aux banlieusards fidèles au poste Demande à la SACEM, qui est le boss ? Si mon parcours n'a rien d'héroïque Ma clique est sous contrat, la tienne sous héroïne À quoi ça sert d'être célèbre, sans le mériter ? J'ai toujours la vérité au bout des lèvres Et le passé me suit, de jour comme de nuit Pourrais-je y arriver, au bout d'mes rêves ? Hey yo j'débarque dans la place, Air Force neuves, pas d'Adidas Alerte au bling bling, bibibibi-biatch B2Zoo chef de gang sur bateau d'esclaves Laquelle de ces rappeurs veut test un M.C de Bakel ? Ici j'suis en visite, le roi en visu J'arrive en Ville-zi, brille-zi repart en vie-zi Ca capitule dans l'industrie, c'est la crise J'm'arrête au feu, les emcees lavent mon pare-brise Ni deux ni une, aucune apparition sans hémoglobine T'es à la fin de ton film, remballe et rembobine J'défraie pas la chronique, je la fume Si j'avais la thune à Beckham sa femme serait ma boniche Mon fils, à l'école tu seras imbattable Si tu échoues et que je pars avant toi, prends mes sous, jette ton cartable Et j'm'imagine en train de fé-ta À 2.50 sur le droit chemin voiture pée-ta À quoi ça sert d'être célèbre, sans le mériter ? J'ai toujours la vérité au bout des lèvres Et le passé me suit, de jour comme de nuit Pourrais-je y arriver, au bout d'mes rêves ? Ah ha! Bout d'mes rêves 'Member dat! B2OBA Reality! Trade Union Brop! Brop! Si, si À quoi ça sert d'être célèbre, sans le mériter ? J'ai toujours la vérité pendue aux bouts des lèvres Et le passé me suit, de jour comme de nuit J'sais pas dans quel état j'vais arriver au bout de mes rêves J'ai le coeur solide, j'ai les mains pleines Quand elles seront vides me diras-tu que tu m'aimes ? Votre système je n'y crois pas Non sans phares à xénon, moi, je m'y vois pas À quoi ça sert d'être célèbre, sans le mériter ? J'ai toujours la vérité au bout des lèvres Et le passé me suit, de jour comme de nuit Pourrais-je y arriver, au bout d'mes rêves ? À quoi ça sert d'être célèbre, sans le mériter ? J'ai toujours la vérité au bout des lèvres Et le passé me suit, de jour comme de nuit Pourrais-je y arriver, au bout d'mes rêves ?4</t>
+          <t>Le monde est un flic africain, il est corrompu La vie n'a plus de valeur, l'argent n'a pas d'odeur, moi non plus On les défonce, leur laisse quelques deniers Donc elles ont toujours envie Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Pourquoi suis-je toujours en vie ? Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Si les meilleurs partent en premiers Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? R.A.S, je confirme on est les best Rap français je lui mets sa dose au fond des fesses L'argent n'a pas d'odeur mais a une saveur Si les meilleurs partent en premiers Qu'est-ce que je fous dans ce monde, mon Seigneur ? Bang bang, autour de moi j'compte plus les victimes J'ai la mentale de Poutine, Ruskov dans le cur, Camer' d'origine Ce sont les balles qui parlent, les hommes se taisent Et nos problèmes se règlent Très peu ont cru en moi je les baise fort fort Tellement fort qu'ils n'ont plus leurs règles Rosa Parks m'a dit Donne pas ta place parce que t'es nègre Colonisé par des porcs, mon peuple a perdu toutes ses terres K-mer tue les tous, spécialisé pour niquer des mères Pirate 92i, on part à la guerre jusqu'à notre perte Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Pourquoi suis-je toujours en vie ? Le monde est un flic africain, il est corrompu La vie n'a plus de valeur, l'argent n'a pas d'odeur, moi non plus On les défonce, leur laisse quelques deniers Donc elles ont toujours envie Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Je ne traîne qu'avec des pirates, j'vis en communauté Qu'est-ce que je pense ? Baisez vos mères, mon communiqué À chaque post Instagram, vous polémiquez Dans le game je suis comme à Walt Disney, comme si j'avais connu Mickey J'ai plutôt connu Minnie Évidemment j'ai le milli' Tu m'attaques ça m'fait des guillis Toute ma vie en i comme à Phili 40 milli' Gang, 40 milli' Gang Ne fais pas le héros couche-toi, lâche le dividende Banlieue Ouest de Paris Je suis au commissariat, quand je mens Ai-je une gueule à m'appeler Charlie ? Réponds-moi franchement T'as mal parlé, tu t'es fait plomber C'est ça la rue c'est ça les tranchées Leur plafond c'est mon plancher Ton plan A c'est mon plan B Le monde est un flic africain, il est corrompu La vie n'a plus de valeur, l'argent n'a pas d'odeur, moi non plus On les défonce, leur laisse quelques deniers Donc elles ont toujours envie Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Pourquoi, pourquoi, suis-je toujours en vie ? Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Si les meilleurs partent en premiers Si les meilleurs partent en premiers Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? J'ai plus de putes que Hugh Hefner Je suis posé avec une kalash' devant les portes de l'Enfer C'est la guerre, Boulbi re-Squa, c'est la guerre J'suis en Rockets sous la raquette Je leur casse les reins comme James Harden Conquérant comme Alexandre le Grand J'suis un gladiateur, U tréma, t'as la dégaine de Peter Pan Mon jus de bagarre est mon élixir Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Bang, comme Douk Saga j'suis boucantier Je suis devenu casanier depuis qu'chez moi traînent des billets Fight, fight, fight, c'est le bruit de mon cur L'argent n'a pas d'odeur mais sait sentir les profiteurs Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Pourquoi suis-je toujours en vie ? Non non, pourquoi pourquoi Dis-moi, pourquoi suis-je toujours en vie Si les meilleurs partent en premiers Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ?9</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Bellucci</t>
+          <t>Ça va aller</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Mothefucker, wheres my nigga? Assis sur un tas de pierres... Booba, yeah my nigga! Toujours frais, je reste à la surface Comme les glaçons dans mon Chivas C'est pas du henné sur mon visage Prêt à enchainer sur le rivage J'ai le AR, j'ai le ski mask Chaînes en O-R sur le primate J'suis la Stan Smith chez Adidas J'monte à 300 Léonidas Ta vie ne tient qu'à un coup de fil Ta hlel ne tient qu'à un coup de bite Sergent Kopp'zer dans le cockpit Trop de bling'zer pour le portique J'suis sur le net'zer, dans la rue Marié à la haine comme Bellucci Négro, tu es faux comme tes Gucci Je sais plus quoi mettre, je suis trop bien loti Je t'en prie, marche sur mes Zanotti C'est le poids des armes, pas des mots, qui m'alourdit C'est pas la branlette mais la roquette qui t'assourdit Quelle marque de merde porte Matuidi Thats right Chez nous en disant rien, on a tout dit Toujours en live du vaisseau mère J'eus Alzheimer quand ils me questionnèrent Quand j'pense à toi, je pense missionnaire, pas légionnaire J'suis en poster dans la chambre à ta mère Dans le bureau du commissaire J'suis cocaïne, t'es somnifère Mon Dieu, comment autant de faux négros prolifèrent J'ai le meilleur flow de l'univers Mon Glock ma première femme, j'ai donc laissé Lucie faire J'gagne à la loterie, fume 20 oin-j sisi J'voyage salement comme un lo-ki dans le va-ing Quand ils minterrogent, le harki parle à trois singes J'te tire une balle gros comme un gnocchi dans le larynx Toujours frais, je reste à la surface Comme les glaçons dans mon Chivas C'est pas du henné sur mon visage Prêt à enchainer sur le rivage J'ai le AR, j'ai le ski mask Chaînes en O-R sur le primate J'suis la Stan Smith chez Adidas J'monte à 300 Léonidas Ta vie ne tient qu'à un coup de fil Ta hlel ne tient qu'à un coup de bite Sergent Kopp'zer dans le cockpit Trop de bling'zer pour le portique It's murder for hire I put coke in the tires I got dope on the flight Theres birds on the Phantom Burning money like Cam'ron Coming straight out the gutter Drinking that dirty Sprite syrup I fuck all your kids and your mother Me and young Booba, we bosses Down in Miami we flossin' I just be tripping with flavor They call like, Where is the sauce? I got a kilo and bought me a kilo Tony Montana and I got the yayo These bitches be loving a nigga from here to little Haiti Shit, this Future Hendrix let me have my moment No condolences to my enemy Bagging up, selling these coca leaves Then I go take me a shopping spree I want a brand new AR with a 100-round drum on it That money really make her cum, bitch Then go put your tongue on it That bitch really yours, nigga? You better put alarm on it I aint go to Harvard, nigga Thats word to my momma, nigga I put that presidential Rollie on that bitch And then she mine, my nigga I grind and I shine, my nigga I ain't wasting no time, my nigga Im smashing your freak on the passenger seat Shoot at you niggas, saying, Fuck all the beef! I got ammo for days Run around in the Caymans Mac-11 in the Bentley And I ride for my real niggas Only God can judge me When you live like a field nigga When you dont feel niggas Sometimes you gotta kill niggas Word up to my motherfucking riders, ya heard me? Everybody getting sprayed up right now I cant keep out these hoes at ease nigga They might turn on me, mo'fucker Im bout to got a blue story nigga Shit bout to get real uncomfortable for you niggas, ya heard? Booba! Bellucci! Freebandz! Freebandz! Freebandz! Wooh18</t>
+          <t>Diabatéba Music Charo piraterie Yeah, yeah Ça va aller petit, ça va aller, oui ! Ça va aller, ça va aller Ça va aller ça va aller Ça va aller, alhamdulillah, négro, ça va aller ça va aller Ça va aller, ça va aller Ça va aller ça va aller Ça va aller, alhamdulillah, négro, ça va aller ça va aller Ça va aller mon petit, ça va aller On salue le drapeau pirate comme à l'armée Ils n'ont toujours pas fait Bercy, bataradé Tu parles beaucoup mais t'agis pas, t'es pas taré Elle veut pas qu'j'lui crache dans la face ah bon ? Comment veux-tu que l'on fasse ah bon ? Pas bon du tout, j'vais lui glisser un MD ça va aller Mon oseille au coffre, mon honneur sur la gachette Bang, bang, bang J'lui ai cassé le dos, j'ai pas pris son 07 garde la pêche À coup de D.U.C. billets la tchoin cèdera Souhaite-nous santé, bonheur, le reste on l'achètera Booba, échec, j'n'ai pas trouvé de lien Parler de mes défaites, c'est ne parler de rien Fuck la retraite et je ne regrette rien J'ai fait ma recette et je le mérite bien Il manque deux cent mille E, ça va pas aller Je vais lui refaire mañana, dale Pas d'âge pour acheter un 22 Long Rifle Donc y'a pas d'âge pour t'rafaler Ça va aller, ça va aller Ça va aller ça va aller Ça va aller, alhamdulillah, négro, ça va aller ça va aller Ça va aller, ça va aller Ça va aller ça va aller Ça va aller, alhamdulillah, négro, ça va aller ça va aller Ça va aller, c'est qui qui veut parler ? alhamdulillah J'ai bataillé, donne la maille, j'suis là pour grailler ça va aller Ça va aller, la SACEM est tombée alhamdulillah Biatch, y'a ton Uber, t'attends quoi pour t'en aller ? ça va aller Aujourd'hui, j'suis pas broliqué nan Je n'vais pas gâcher la fête jamain Ramène les cuisses on va beta ramène Faut pas me prendre la tête imbécile Zifu', arrête tes bêtises, tu vas les violer voilà ! Pantalon baissé comme Kopp Où sont les ttes-chas ? J'vais les faire miauler Attends, attends, attends, attends hein ? On veut mougou, pan pan Ounga, ounga, ounga, ounga tiens, orang-outan Fouka-fouka, fouka-fouka Décalé chinois dans l'bendo bendo na bendo, ça va aller Ariana Grande, Ariana Grande, Ariana Grande ça va aller Ça va aller, ça va aller ça va aller Ça va aller, alhamdulillah, négro, ça va aller ça va aller Ça va aller, ça va aller Ça va aller ça va aller Ça va aller, alhamdulillah, négro, ça va aller ça va aller Alhamdulillah Ça va aller Alhamdulillah4</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Mula</t>
+          <t>Garde la pêche</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Skrt Ouh lou-lou Ouh lou-lou Skrt Ah-ah Ouh, ouh, ouh Premier ring Moula, moula Ouh, ouh, ouh Okay Tout est noir, demande à Alex Ouais, ingé' bre-som, Rue des Prairies Prairies, yeah, j'ai pas feater Nan mais j'ai baisé Katy Perry Brr J'écoute beaucoup d'Alain Souchon Skrt, cagoulé avec des chaussons Okay J'fais plus du trap mais du poison, c'est pas que j't'aime plus mais disons qu't'étais plus bonne auparavant Okay Salope Sache-le, skrt, c'est dans ta chatte que ma queue va se baigner Tu vas chier, si tu peux pas te raser la chatte, au moins, va la peigner Rah 92i dans le trou noir de leur mères, être gentil, je l'étais avant-hier Sors Tu parles beaucoup, on a qu'une parole Sors, on t'calcule pas comme un pays sans pétrole Sors, sors, sors Fils en larmes, papa eu charbon Skrt, te faire confiance, ça sent pas bon Ouh Tu dis qu't'es fort, on répond Ah bon ? Ouh, j'te tape pas sans qu't'aies ton pardon Ouh, ouh De l'univers, les meilleures gestuelles Gestuelles, la curiosité crée des homosexuels Homosexuels Ils cherchent la guerre mais ils ont guère de talent, j'arrive en retard car ils ont perdu d'avance La moula, moula La moula, moula, la moula, moula La moula, moula La moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula, moula La moula, moula La moula, moula, la moula, moula La moula, moula La moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula moula Faut d'la moula, moula Skrt, moula, moula, d'la moula, moula Skrt, moula, moula D'la moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula, moula Faut d'la moula, moula Skrt, d'la moula, moula Skrt, pas de maladresse D'la moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula, moula Art de rue comme la FF Ouh, ouh, ouh, Ferrari F12, week-end à Marrakech Week-end à Marrakech Pas de maladresse, tu bouges, tu meurs, donne-moi la caisse Me d'mande pas comment je vais, ne vois-tu pas ? Ennemi n'peut pas se relever Skrt, dia-diamant, Cuban Link'zer, plaqué sur col V Ils m'ouvrent la porte, j'ai déjà cassé la tre-vi Gang, une rotule au sol, j'fais les lacets d'mon se-fil Gang D.U.C, Siboy, pas de maladresse, tu cherches l'échec, tu sais qui a l'adresse Brah J'baise une pute d'Château Rouge, je lui crache dans les tresses Tresses, j't'allumerai négro avec allégresse 'gresse T'es sur les Buttes Chaumont avec Jena Lee Lee, j'suis sur mont de Tallac avec grizzli Ouh, ouh, ouh Faut d'la moula, moula Ouh, d'la moula, moula Ouh Ils n'aiment pas le mafé, ils n'aiment pas la burqa, fier de mes origines comme la bouille à Luna J'ai cru voir un rappeur twerker chez Hanouna, on a décelé cocaïne dans ta khanouna Laisse-les croire que je n'sais dire que Ounga ounga, feuille de marijuana dans le gloubi-boulga, tout est noir, noir La moula, moula La moula, moula, la moula, moula La moula, moula La moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula, moula La moula, moula La moula, moula, la moula, moula La moula, moula La moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula moula Faut d'la moula, moula Skrt, moula, moula, d'la moula, moula Skrt, moula, moula D'la moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula, moula Faut d'la moula, moula Skrt, d'la moula, moula Pas de maladresse D'la moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula, moula D'aucune pitié, je m'sens saisi Kopp, je les encule avec plaisir Ban-ban-ban-bang Fuck les flagrants délits, ferme-la et peut-être, ta mort va s'embellir Ra-pa-pa-pah, sache-le Tu pousses cent kil' en salle, tu meurs d'une balle de quelques grammes Pas de maladresse J'suis sorti capuché le soir, j'suis d'humeur à baiser quelques dames Bitch, rah J'suis comme la mort Skrt, j'peux surprendre au prochain carrefour Sale, sale, sale, sale, sale, laisse-moi faire mon parcours, ta vie s'ra le Darfour Yeah Faut qu'tu saches petit nègre, t'es ma proie Petit nègre, tu m'suceras jusqu'à en perdre la voix Petit nègre Faut qu'j'te vois négro pour que j'te crois Petit nègre, faut qu'j'te croise pétasse pour que j'te broie Salope C'qui est fait est fait Skrt, négro, fuck les regrets Ouh, ouh, ouh, regarde-moi bien si tu veux voir ta mort d'plus près, O.G Ouh, ouh, ouh Négro, c'est terrible Négro, c'est pas les tuer mais cacher l'corps qui est pénible Sache-le J'suis que de passage O.G, j'vais les dresser comme enfants de bas âge Poufiasse La moula, moula La moula, moula, la moula, moula La moula, moula La moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula, moula La moula, moula La moula, moula, la moula, moula La moula, moula La moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula moula Faut d'la moula, moula Skrt, moula, moula, d'la moula, moula Skrt, moula, moula D'la moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula, moula Faut d'la moula, moula Skrt, d'la moula, moula Pas de maladresse D'la moula, moula, taga dans les poumons, faut qu'on ffe-ta, ffe-ta pour cette moula, moula D'la moula, moula D'la moula, moula, d'la moula, moula D'la moula, moula9</t>
+          <t>Garde la pêche ! Les MCs sont fauchés, prisonniers dans leur rôle Négro cherche pas à savoir combien j'pèse en euros Personne je ne vénère, le bédo calme mes nerfs Les rappeurs ont l'cul gercé depuis que j'exerce On a percé tous seuls moi et mes partenaires Le Rap Français a trouvé son flow par terre Nos chicots rayent le parquet, otage, rançon, hélicoptère J'ai du calcaire dans les artères, un cur de pierre Tu peux pas stopper la musique, c'est elle qui m'a écarté de l'illicite, 92i-roshima J'suis un sérum de vérité, les menteurs m'empoisonnent J'suis armé, alcoolisé, je m'arrache au Coliseum Fusil à pompe, baïonnette, bien dans mes pompes, malhonnête LÉtat, c'est Geppeto, j'suis une ghetto marionnette La street, mon baromètre, t'es K.O, t'es mort mec Essaye pas de clasher, tu vas pas t'en remettre Tu veux frimer, tu veux test ? Garde la pêche ! Depuis le crime paie zéro défaite, garde la pêche ! Tu veux que j'vienne rapper gratos ? Garde la pêche ! Ici c'est Los Haramos, garde la pêche ! Le destin fait la loi, sélection naturelle Ma mère c'est mon père, j'suis number one pour elle L'argent, le pouvoir, c'est le nerf de la guerre J'vais la faire, la gagner pour la chair de ma chair Je n'veux pas qu'on m'enterre au Père Lachaise Doré est le trône, électrique est la chaise Gorée c'est ma terre, l'égalité c'est ma lutte Je combats contre moi-même, je perds c'est ma chute Si t'es sérieuse t'es ma meuf, sinon t'es ma pute Périlleuse est la street, j'ai un gun dans mon fut' J'ai crié mon avis, maquillé mes pratiques Aquatiques sont les MCs, Paris n'est pas si magique T'es sur écoute tu veux mon phone ? Garde la pêche ! Tu veux baiser sans sucer bouffonne ? Garde la pêche ! Au lieu d'la vendre tu la sniffes garde la pêche ! Tu voudrais que j'taffe pour le SMIC ? Garde la pêche ! Sans diplôme, sais dire que wesh-wesh ? Garde la pêche ! T'as pas d'mandat t'es au hebs .. Garde la pêche ! Tu veux monter sur le ring ? Garde la pêche ! Tu veux faire un featuring ? Garde la pêche ! J'voyage en première, mes disques d'or dans la soute Le Rap Français le Hip-hop, j'en ai rien à foutre J'suis meilleur que Molière, tatoué sans muselière J'prend mon biff, m'arracher, changer d'fuseau horaire J'ai commencé au départ, je ne valais rien Si tu nous veux, tu nous payes, on s'en bat les reins T'as vu ou tu verras mon blaze dans une garde à vue Retenu, détenu, rien n'se passe comme prévu J'fais des tubes pépère, j'suis tellement côté p'tite pute Que tu veux test B2O pour te faire de la pub Quand ça tire, tu cavales, avale quand j'éjacule Il serait mieux pour tout le monde que mes troupes se reculent1</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ma couleur</t>
+          <t>Perplexe</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Jugé à cause de ma couleur Jai fait les choses dans la douleur Mais jai fait les choses à ma couleur Négro dis-leur, dis-leur Jaime quand la pluie commence à tomber Car on ne voit plus tes larmes Jai toujours eu un manque à combler Je dois tout à une femme Surveillé par les douaniers Féfé sur le poignet, je traîne seul ou mal accompagné Jai commencé plus bas que terre, super-welter Juste un revolver, quelques poids et altères À cause des préjugés, pense à tout ce que tas raté Malgré tes diplômes, personne ne ta jamais rappelé Jai dû me faire seul-tout, suivre mon mektoub Pour avoir les mêmes chances que les autres, jai dû faire le double Ronce du bitume, je ne fane pas Quand jy vais, j'y vais dur, je ne blague pas Jn'ai pas atteint mon but, je ne trinque pas Ne bouge pas, ne craque pas, ne doute pas, ne parle pas, ne plie pas, ne pars pas, ne lâche pas Jugé à cause de ma couleur Jai fait les choses dans la douleur Mais jai fait les choses à ma couleur Négro dis-leur, dis-leur Jaime quand la pluie commence à tomber Car on ne voit plus tes larmes Jai toujours eu un manque à combler Je dois tout à une femme Jamais au premier rang, toujours dans les embrouilles Au lieu de partir en cours je suis parti en couille Jsuis peut être fou mais je ne donnerai pas mon biff au psychiatre Après dix Jacks, ma soirée sera paradisiaque Jai su me tirer daffaire, ils ont voulu ma peau Crapaud devenu prince, cheval cabré sur le capot Jai repeint le monde à ma couleur En vert, en jaune, en violet, pour apaiser ma douleur Qui va croire en toi dis-moi si tu ne le fais pas ? Miséricorde envers mes ennemis je ne lai pas Négros une haine venue dailleurs guide mes pas Vrais reconnaissent vrais, je sais qui lest, qui ne lest pas Et si tu te demandes pourquoi... Jugé à cause de ma couleur Jai fait les choses dans la douleur Mais jai fait les choses à ma couleur Négro dis-leur, dis-leur Jaime quand la pluie commence à tomber Car on ne voit plus tes larmes Jai toujours eu un manque à combler Je dois tout à une femme La terre de Bakel sous les semelles Pas darrachage de sacs car je ne mattaque pas aux femelles Bisous sur la bouche avec la langue dès la maternelle Élevé par une lionne, pas eu besoin dun paternel Moins javais doseille plus jétais dangereux et cruel Sang sur les chicots, reflets violets dans les prunelles Jai été bon, jai été mauvais Violences urbaines, jai toujours payé ce que je devais Pour linstant je suis dans le son, la suite on verra Des fois le peu-ra, jen ai ras la New Era Dakar R D C jfais mes dièses propres Jamais la tête baissée pour ceux qui connaissent Kopp' Bakel City Gang Jugé à cause de ma couleur Jai fait les choses dans la douleur Mais jai fait les choses à ma couleur Négro dis-leur, dis-leur Jaime quand la pluie commence à tomber Car on ne voit plus tes larmes Jai toujours eu un manque à combler Je dois tout à une femme Jugé à cause de ma couleur Jai fait les choses dans la douleur Mais jai fait les choses à ma couleur Négro dis-leur, dis-leur Jaime quand la pluie commence à tomber Car on ne voit plus tes larmes Jai toujours eu un manque à combler Je dois tout à une femme5</t>
+          <t>Yeah, yeah Grünt 33, BXL, toute l'équipe yo Ça dit quoi les amis ? Grünt 33, fume des blunts dans l'noir Oui, oui, oui je trouve Trump zinzin Mais pas plus que mon seize dans la Grünt 25 Ok, ok, ok, tu veux qu'on ressuscite l'âge d'or Désolé pas moyen là j'dors J'arrive avec une armée d'hommes saouls Bouffeur d'MCs et t'aimes ça Bientôt tous disque d'or à la Damso Le thème c'est essayer de vivre heureux Malheureusement pour ça j'dois faire livres, euros, yens et dollars C'est un délire, on s'fait baiser que d'la douleur pour oublier viens on s'en fume un peu 't'à l'heure Dédicace le dealeur, grâce à lui j'vous tolère Mon cerveau rend jaloux l'trou noir dans Interstellar Wesh qu'est c'qui s'passe ? J'baise Beyoncé dès que Jay-Z s'casse J'suis le chef des mongoles à la Gengis Khan Tout l'monde veut être ferrarisé mais pour ça faut un diplôme dans la sacoche pas un bout d'shit ni un fer à lisser Faut s'faire à l'idée C'est nous les boss on ouvre les portes on fout les porcs à terre, on nique tout on glisse le bras et toute l'épaule Si tu m'écoutes un peu trop tu vas finir quelques mois dans le plâtre B.I.G ça c'est moi en black J'entends l'écho des jaloux sonner Où ça ? Dans le vide de mon indifférence désolé J'ai le titre et pleins d'hypers grandes listes remplies dors et déjà du nom des filles que j'irai voir en secret à la Mitterand Roméo fait parler ces hommes bêtes, ils connaissent quand même nos textes Ils aimeraient faire le bordel, c'est juste de l'envie Ils aimeraient faire le same job il manquera toujours que'que chose Arrête la scène boy je t'explose mais tu restes en vie Car je suis bon et juste, ça reste mon excuse préférée quand je plombe ces putes mais je les laisses respirer Les gars qui crachent de haine sur mon rap de belge et mon jeune âge sont des sacs poubelles remplis d'un jus dégueulasse 150 par semaine, reparti par semées j'parle de djonko et j'suis à fond quand je joue à ce game Laisse faire ta cousine dégueulasse acquiesce frère Promis, elle aime quand j'prends le cro-mi et que j'fais du rap Veux plus qu'la réussite Ouais maintenant, je passe les pubs j'regarde ma vie en plein écran J'te parle de taffs j'en tire quatre, cinq et j'le fais Nan je lâcherai pas sale baltringue j'fais c'que j'aime On a connu des années de galères Ouais trop merdique si y'a d'la strawberry bah j'ramène ma fraise On fait parti des acteurs non pas du décor Essaie pas de raisonner un pote qu'a bu, c'est mort J'compte laisser une trace impérissable J'me suis p't-être caché mais dans mes sons j'montre mon vrai visage Garde toujours en tête le respect des autres On lâchera pas pour la fierté des nôtres C'est Senamo et sur ma tête que j'ai jamais fait d'judo et pour les mettre au sol sur ma ive j'ai pas maté d'tuto Moi j'étais tranquille j'ai jamais rien d'mandé à sonne-per Et bordel, j'veux des Rolex avant mes obsèques Et j'le mérite plus qu'toi, ta famille et ta chienne J'rêve de faire la sieste, yo, 1 000 tenders dans mon assiette J'suis trop loin comme Orion 2017 J'pisse du néo-codion et compare la hyène au lion nan, nan J'vois les p'tits frères qui smokent des clopes et pensent qu'à rentrer tard Le soleil se lève sur ma ville et j'm'explose et fume un grand pétard Sujet répétitif nos vies répondent au vide On met un pied dehors les démons sont d'sortis Et j'suis sous lean quand ça va pas, j'aime pas les putes qui claquent la came ces enfoirés de fils à papa, j'crois pas qu't'évitera la tate-pa nan, nan Avec toi j'suis antipathique j'crois qu'j'les dérange quand j'vis ma vie j'pense qu'j'vais finir en psychiatrie Et même dehors les gens sont fous, au taff un père entend mon son pendant qu'sa fille m'envoie son boule ça craint J'ai beau crier face au néant, j'pourrai empiler tous mes textes ce s'rait qu'une goutte dans l'océan Eh fils de pute, ici tu dors si tu parles trop Jeune Uchiwa, j'veux tout plier moi j'suis mi-homme mi-Susanoo Pas besoin d'tes farandoles, les meilleurs choses ne durent qu'un temps ça changera pas grand chose Même si l'humain s'réveille maintenant ouais Dans cette allée, la misère te court après mais tu ne l'entends pas car elle te suit sur les talons On aimerait tous détaler, d'la merde sur les talons, j'écris avec la haine car l'amour s'en est allé donc je marche au talent Face à la feuille, poursuivre la réussite c'est compliqué si t'as pas l'endurance de l'étalon P'tit arrête de jouer au samouraï avec ta lame Stop tes conneries ou tu tomberas pour vol à l'étalage Ouais arrête ça là, trouve-toi une belle bombe et pose toi Mais pas l'style à cet enfoiré d'Salah Ils veulent me mettre à l'amende, j'abaisserai pas mon pantalon même si d'nos jours c'est devenu à la mode Le système s'alarme, j'crame mes poumons avec la salamandre, la mère pleure fais tout pour effacer sa larme L'ambiance est froide ici et pas que quand c'est l'hiver perdu dans le désespoir j'vois certains passer à l'acte J'me renferme dans mes pensées diverses, c'est pas parce qu'on est herbivore qu'on pourra gober toutes ces salades Tu peux trouver ça louche, mais pense à nos res-frè en détresse qui sous l'averse sur le trottoir sallongent De même tu peux trouver ça lâche, mais des fois j'me casse sur la Lune pour m'éloigner d'ces fils de putes qui causent trop fort Dans ma fusée à pleine allure j'm'enferme à double tour j'ai développé des tendances claustrophobes J'veux pas d'leurs trophées, eh, pour mes frères et moi-même j'ai fait tout c'qu'il fallait De toute façon on finira tous rafalés, j'avance même si c'est dur de prendre du recul au bord de la falaise Paname tu m'aimes tu ne peux nier, je suis ton meilleur belge avec Meunier Allonge les deniers, j'arrive lourd comme les implants de Kim C'est vrai et j'ai fait toutes les cascades dans le film J'suis au bureau y'a qu'des gros culs dans la salle d'attente Nique le dab maintenant je fais le move du gars qui sale la viande J'ai tout ce qu'ils veulent, oui, blunt, weed, ça défonce comme mon couplet dans la Grünt 8 J'ai des amis, beaucoup d'amis comme Zuckerberg Ce soir c'est sûr que j'mets mes highs mais c'est pas sûr que j'baise Je ne chasse plus j'ai vendu mon tableau, elle et moi c'est tata et Pablo R.E.P le respect, R.E.P la santé, R.E.P l'orthographe, R.E.P la banquise Messieurs asseyez-vous et parlons chiffre, parlons grand chiffre, insh'allah qu'on me transfère en Chine Dou, double J Dans la vie y'a ceux qui rident et ceux qui regardent les autres rider Certains die d'un drive-by moi j'couche mon âme sur le cahier J'suis plutôt calé mes potes s'butent à Budokaï et graillent des tailles Moi y'a un bail j'ai quitté l'canapé Merde, qu'en est-il des loves, qu'en est-il de l'avenir et qu'est ce qu'il offre comme perspective pour les gosses J'regardais Ghost Dog avec ma grande sur à l'époque Maintenant faut qu'j'bosse et qu'j'renvoie lascenseur J'veux mettre du beurre dans mes épinards donc j'fais gaffe j'évite les gardav' et la pillave La plupart des jeunes, gaspillent leurs dollars en habillage, les ptites niars font les biatchs et leur gadjo jouent les hussler Mais moi c'est pas c'qu'j'voulais pour ma life c'est pas qu'je suis malhabile mais tous ces ballafres me rendent malade J'ai tiré la sonnette d'alarme, il est grand temps que j'parte en balade et qu'j'm'éloigne de Babylone La pleine Lune me glace le sang, me donne des frissons au volant d'ma seule amie Devant moi la route est encore longue J'ouvre la boite à gants un coup de tonnerre retenti comme si le monde était pris d'un coup de couteau dans le ventre, l'odeur des pots d'échappement Se mêle au murs, la ville endormie veille sous le soleil blanc de minuit trente J'ai déserté mon lit, ma chambre d'auberge, de toute façon rien ne pourra plus troubler mon sommeil L'atmosphère est dense, je dois me remplir le gosier Je rêve d'un festin d'opulences quand je clos les yeux J'ai le potentiel du colosse de Rhodes, un brin de force, un peu de folie aussi quelques chances de croquer dans la pomme Dès l'aube j'ai trempé mon croissant dans l'eau de vie, c'était une mauvaise idée mais vos histoires donnent envie de vomir Jespérais pas vos courriers, j'ai mis tous mes billets dans un Levis-Strauss et dans une paire de soulier Ma ville, mes textes et me reste-t-il du temps ? Avant de parler j'adorais déjà le goût du sample, le goût du sample Hey, hey, l'or du commun dans la place Eh barman, sers-moi un verre de scotch J'suis venu m'buter et discuter avec mes potes Deux, trois histoires, les embrouilles avec des toxs' C'est la racaille, des voyous avec des locs Mon frère pleure parce que sa meuf l'a quitté Mais on sait tous que c'est parce qu'il est fauché C'est un bon gars, mais, il est fauché Mais en tout cas, moi, j'suis défoncé Toujours les mêmes requiem Mais il faut qu'ça nous ramène des billets J'suis pas fait pour une bonne hygiène de vie L'impression d'être né pour niquer ma chienne de vie Quelques angoisses, renoi, faut qu'j'achève mon disque Mais ça m'détend quand j'passe du temps avec mon fils Faut qu'j'arrête de lui faire des bisous sur la bouche Incursion dans la vie d'un troubadour Yeah, j'espère qu'on va réussir Nan, le ciel nous a réuni J'ai fait des choses, des bonnes et des mauvaises Si la rue m'a laissé vivre, c'est parce qu'elle connaissait mon rêve Rapper gangsta, shit, tripoter des gonzesses Porter de belles jackets avec des épaulettes Yeah, j'la tiens du marocain du coin Anh, tu crois qu'j'l'ai acheté chez colette ? Nan, toi tu connais pas les codes Ouais, mon frère, on est pas des potes Yeah, toi tu connais pas l'école J'te mets en confiance puis j't'encule comme dans Le Dernier Roi d'Écosse Yeah, univers de saligot On mange comme des animaux Avant je rappais dans des caves Maintenant je chante dans des chapiteaux Avant je rappais dans des caves Maintenant je chante dans des chapiteaux Avant on rappait dans des caves Maintenant on chante dans des chapiteaux Colérique est l'écriture, y'a peu de belles histoires qui durent J'suis au tieks avec des hyènes, ça sent l'shit et la friture Pour cet opus fallait du temps, on vient pas pour faire le buzz Qui m'aime me suce j'reste vrai j'les laisse parler tant qu'ils le peuvent Rien à voir avec eux, moi, j'commence à me faire vieux, j'reste silencieux j'n'me confie qu'à Dieu Cinq sur sept je charbonne, si t'es bonne je m'abonne, j'n'ai confiance en personne que mon ex me pardonne J'étais à deux doigts de la life qu'i'm'fallait maintenant j'ai les deux doigts dans la chatte d'une salope Absinthe dans le palais, khey, à cinq dans l'salon, faut l'appart et l'salaire, la chatte à sa mère Parle pas, tu vois qu'la sale ambiance est palpable fait pas l'Pablo j'ai des lyrics tranchants dans mon calepin J'ai pas le time pour tes conneries moi j'déballe ma haine mais tu connais l'palmarès J'suis ni arbitre ni un paria mais m'invite pas pour l'mariage Égaré j'suis carré j'veux un feat avec Mariah Qu'ma rime brille, qu'elle s'imprime dans ta carcasse et j't'invite ma caille tu vas kiffer la cascade ah couz' fais pas l'fou Punchline qui traîne j'suis l'gourou du bois de Quat'sous Wesh que pasa ? J'suis venu péter le bazar j'ai glissé mes doigts dans les cheveux d'Esmeralda La prod est Band Maker ça pue les meurtres, les pleures Fuck, un jour je serai le meilleur dresseur J'ai pas d'kilos mais ça roule suave et quand j'colle en soirée c'est pas J. Lo et Ja Rule Les pupilles s'écarquillent la 'teille est déjà vide, mégots, bédos d'weed et oui c'est compliqué la vie On connait le prix d'l'effort, chez nous la rime est d'or, retires toi d'la route je tape ma res avec Riz et G.O.R S'ils ne me ... est-ce un pur hasard ? Quand je serai heureux toi tu croiras que je te mens ou que je me vante Ce n'est qu'une histoire de confiance ,bon sang, ça ne me tuera pas Au micro je dis tout, je regarde mes proches et je vois l'heure qui tourne, ne pas faire demi-tour C'est connu, on fume du semi-mou parce que la vérité est trop dure Père Horus et jamais ne se trouve rare, je prends mon temps, traverse le couloir Ce monde est grotesque, je ris en relisant ma phrase Quand on cherche des problèmes il n'y en a pas Les mots n'ont plus de sens, pas grave, il nous faut préparer la bataille sur le champ Et nous sommes tous égaux, derrière le microphone dis-moi qui fait douter l'autre ? Chez moi les jeunes rêvent d'un destin trépidant Sûrs d'eux, ils disent qu'juste en l'méritant ça peut l'faire Des sous de côté, souvent les projets manquent de pertinence, d'huile de coude et on ne respecte plus ce qu'on se promet Mes reufs se matent les rush de nos vieilles années rien qu'un peu plus de barbe et quelques séquelles mais j'ai l'air d'aller bien Ma mère me traite de cul béni c'est pas le cas de Daniel, ces partiels étaient pourtant prometteurs et soignés Le bonheur un exercice quotidien Dans des choses simples peut-être j'espère un jour élever mes gosses sans trop de craintes, j'veux pas qu'un matin clair les volets crissent de bonne heure et qu'on ait peur de tout c'que les journaux écrivent Le sang-froid, la hache de guerre et toute la vie devant soi boy Grünt, yeah, l'Or du commun, Roméo Mais c'est pour finir en tête comme Cambadélis Ou comme le mec qui emballe des miss Avec l'assurance de Michel Drucker J'envois des missiles, tu sais sur quelle Weed j'tire, parce-que l'odeur depuis mille mètres, tu flaires Les gens connaissent la formule, un Petit peu de sport pur Petit peu de drogue douce Appuie sur le champignon comme Hamilton je vole, une Fois de plus le trône Dégoûter les gens qui n'ont pas validé J'amène une touche fraîche Et la OG Kush frère, extra polie Les mecs applaudissent à la Kouchner Bébé fais moi confiance C'est vrai des fois on s'ment, mais bon... C'est une question de bon sens De toute façon je conçois la vie telle Une bouteille d'eau moitié remplie de mystères Moitié remplie de toutes les autres choses que j'ai envie d'faire Bébé j'suis inconscient mais des fois j'ai le truc ... J'ai oublié mon texte et c'est pas grave je passe à Loxley, et c'est pas grave je passe à Loxley Ça va bientôt faire dix ans qu'j'écris par amour du risque Afou tu piges j'ai jamais fait ça en trichant J'ai passé toute la semaine à rien foutre à me gratter les couilles en fait j'suis seul à scalper l'herbe qu'y a sous ma s'melle C'est fou de l'admettre et d'rien faire pour qu'ça change J'ai toutes mes chances mais ai-je toute ma tête ? J'vis ma vie comme j'l'entends ainsi soit-il Moi j'dis faut bien être dans sa peau, la ive ça file Faut rependre le bien On s'ressemble si t'essaies d'bâtir un empire pour qu'tes proches ne manquent de rien T'es pas terrible bâtard, envoie ton genkidama Ok je l'arrête à deux doigts comme Beerus-sama Aussi vendu que Sepp Blatter, n'arrête pas de faire l'acteur, parle avec cet air flatteur mais ne te respecte pas J'évite ce genre de mecs, j'ai des choses à faire ailleurs, je ne suis pas spectateur s'ils se donnent en spectacle La ville est mon terrain d'jeux, j'en connais des peintures, des teintes Je connais toutes les rues de la grande ceinture J'voudrais faire un seul vu Autour de moi j'ai plein de gens, je suis tellement fier d'être l'un d'eux Cinq jeunes qui font le job à plein temps on manie la matière Sur ta carrière je parie pas même un cheveux Je maîtrise quelques atouts, oui les jaloux maigrissent car nos écrits valent tous les régimes minceurs On a connu quelques succès, on joue le jeu depuis nos 20 ans, pas maintenant qu'on laisse à ceux qui succèdent Le truc c'est qu'on enregistre en plein centre On représente Bruxelles, l'O.D.C nouvel album au printemps Hey, l'or du commun dans la place yeah Six heures du mat' et j'suis encore sur cette fin d'couplet Un nouveau matin se profile sous son voile noir Et crois moi j'suis pas si productif mais quand j'm'y mets j'écris des parpaings tous les trois mois J'fais pas vanter mon mode de vie, ma femme reproche d'aimer ma routine, freestyle roue libre, speed life, wood crise Tomber, s'lever incessamment comme en street fight J'ai soit le choix, entre faire semblant et graver mes peines par millier Devant mes feuilles quadrillées je vois mes rêves en grand Kingsize Merde, qui nous comprendras à part nos soss ? Les frelons qui squattent, boivent et se déploient l'soir Modes de vie paradoxaux On veut le farniente et l'argent avec Chacun voudrait que les choses changent et qu'le temps s'arrête Comment j'suis sensé faire pour garder les choses en mains en m'prenant la tête ? J'suis du genre à faire les choses propres, les choses biens Qu'on parle XXX, j'essaie d'être au top, en vain J'me développe et bosse dur comme un boxeur Tape ton sac de frappe et taffe ta posture, j'suis un bosseur donc j'postule et surtout j'compte pas les heures L'avenir est obscur pour ceux qui n'ont pas l'goût du labeur Remettre à tout à l'heure est une bêtise Putain ça urge on n'a qu'une vie et le temps file à toute allure J'ai déjà 23 piges, dans moins de 10 ans j'aurai des gosses insha'allah, donc... j'ai nada en poche Donc j'ai pas le choix en quelque sorte faut qu'j'me bouge fils Et fissa faut que j'redouble d'efforts vu que j'viens pas d'une famille d'nobles Et en gros faut qu'j'arrête de jouer aux billes Que j'trouve un poste et de quoi payer les bills et la tournée d'Pills aux res-frè C'est triste, merde, s'il suffisait d'avoir des skills y'a longtemps qu'Elvis et Swing seraient milliardaires J'ai tout donné sans reprendre, cousin c'est sans rancune Y'a des gens, des choses qui manquent, j'y ai laissé quelques plumes Mon énergie, ma sueur, mon sang, son numéro de portable J'ai les yeux fermés mais je n'rêve pas, je n'dors pas Couplet égaré, ma vie de couple est son ego frère Ma fierté s'est barrée, on est cool et j'en ai gros sur le cur Et des barreaux l'ont verrouillé sous écrous J'suis double al' et je les baise J'sais pas où j'serai sans mes couilles Parait qu'le temps c'est du fric Et on s'perd à vouloir en faire Plus tu bosses plus t'es proche d'là où on t'enterre Un pas vers le fort, on a tous une direction merde Mais on a peur et direct on perd le nord Y'a rien d'tel que la santé mais on la maltraite Mais on a tout à perdre quand celle-ci vient à sabsenter Le temps, lorgueil, l'amour, la haine, la vertu J'avais la fougue, la vraie, mais frère j'l'ai perdue Pour arrondir ses fins d'mois Petrouchka gagne des ronds-ronds sous les lampadaires la nuit lorsque la ronne-da ronronne Il vend d'la dope à ses kho-kho À chaque coin d'rue il fait des rondes et prends la fuite quand s'rapplique les fédéraux Il prend des risques Et s'applique pour n'pas faire d'erreur, à la dérive la vie lui mettra le revers à la Federer Et il le sait ça, c'est sûr, pourtant il compte percer, avoir sa place sur le trône comme Jules César Déçu des aléas d'la rue il s'réconforte au lit À l'aide de trois, quatre femmes dénudées Il compte la maille Passé pour s'faire la malle mec, son portefeuille à mal sa vie aussi car il la malmène Et tous les soirs, la ville embrasse ce mec seul saoulé sous le saule Qui use ses semelles sur le sol Observons le soleil, qui le ciel embrase tous les soirs Souliers sous le seuil, voir le monde d'en bas oui ça fout le seum Bonté divine, je balance bombes et missiles Je voudrais faire de ma vie un movie où je compte les milli Rapapap, plombe le riddim, le beat est bon Mais ces cons ne vont pas succomber Juste raconter que j'ai pompé Drizzy Retourne voir tes références, ok Je met plus de cartouches que Bruce Willis Pogo dans un bordel Bienvenue dans mon élément, observe La maîtrise du flow est élégante et là... Hé garçon ! J'ai taché la chemise Sous mon trois-quart en cuir avec du foie gras L'ennui, c'est que j'ai un voyage en Suisse Donc arrête de faire autre chose Amène de l'eau chaude et nettoie là ensuite Je parle encore de la chemise en fait... J'ai oublié comment on faisait, mais Rapper comme une Winchester, oui j'sais l'faire J'sais pas comment faire la pute Mais cramer de la weed chez Seize, oui j'sais l'faire On m'appelle Artur ou Arturo Mais vaut mieux qu'on m'appelle pas Je regarde Naruto sur mon MacBook Pro Entre dans mon monde, mets toi à mes côtés Prend un selfie et bouge, cette vie est cool Mes G's avec une fiole dans le Dickies Repartent avec le biff d'une fiotte en jeans slim Cette vie est violentissime, trash comme tes 16 foireux Je vaux tout les rappeurs que tu aimes fois deux Caballero hein ! Faites pas les gangs' genre vous sortez les calicos Ça gratte des pièces puis ça finit dans l'caniveau Font tous les best mais pour moi z'ont pas l'niveau C'est quand on baise qu'on voit qu'on est des animaux F pour fuck L pour lean O pour ow shit Dès qu'j'fous l'zbeul, frère j'oublie toutes mes conneries Personne pour casser les couilles dans le périmètre Donc ma belle on s'la fait cool série, baise Ouais j'suis dans l'truc hein, pas dans les faits divers Ça bouge la nuque depuis Fifty Many Men Ouais restez là, j'suis pété grave Tu trouves une chienne plus besoin d'appeler la S.P.A Ouais j'tiens ta femme, elle veut graille mes boules Car sur Snapchat, elle m'envoie des nudes Je m'voyais dans l'espace Être libre, manger tard, être riche J'l'savais cette musique ne se vendait pas Pas un kopeck, ma copine veut qu'on emménage Faut qu'j'assure hein, elle en vaut la peine J'attends vos appels, une grosse affaire Sinon j'vais bien, j'ai de quoi m'plaindre, j'ai d'quoi vivre Est-ce suffisant ? Laisse moi rire C'est pas c'que j'veux et tu sais c'qu'on dit Il en faut peu pour être malheureux Viens qu'on parle d'avant, tise avec moi Santé !, on va se rafraîchir la mémoire Je m'rappelle mon premier quinze mesures et demi C'était un mercredi, ouais j't'l'dis Y'a plus d'dix ans, je quitterai le rap comme j'y suis venu furtivement Sans armes, ni haine, ni violence comme dans ce foutu film Merde, devrais-je y dédier toute une vie ? Non mon gars Fuck j'ai des soucis, un globe à découvrir, des proches à faire sourire Et quitter Charlouze, j'pense à mon père j'ai pas fait l'dixième de son parcours Et quitter Charlouze, j'pense à mon père, j'ai pas fait l'dixième de son parcours Le type du lâcheur version mytho Mais t'as donné trop d'confiance, un mec comme moi ça parle Ça picole, ensuite ça va tromper sa copine avec une cigogne Elle t'a laissé un bébé ?!, d'ailleurs celle-là aussi faudra la larguer Mais j'ai usé de beaucoup trop de ruses, elle pensait qu'on allait s'marier J'ai dit qu'j'étais au stud', genre rendez-vous important J'ai changé de num' et puis j'ai plus jamais rappelé J'aime pas vraiment le confort apparemment Du moins j'aime pas trop c'qui est conforme auparavant J'avais la patience et le time pour Maintenant j'veux éviter les parcours je t'ai déjà dit Pars avant Tu aimes me voir hésiter ça te laisse croire que j'ai encore envie alors que j'ai la haine De toute façon j'étais au studio, eh De toute façon j'étais au studio, oh De toute façon j'étais au studio, eh De toute façon j'étais au studio, oh J'suis tué par la drogue J'fais des culs secs à la cod' Senamo, La Smala a.k.a l'super saiyan god Wesh mon médecin m'a pas prescrit d'néocodion Tu vas chialer si tu t'occupes de nos oignons J't'ai pas attendu pour savoir qu'la vie filait J'entends encore Max qui crie Agi Bilel Pas à la plage, j'suis à BX ça caille sa race Gars La Smala c'est en une droite comme Saïtama Ici dans l'tram ça dévisage, ça peut partir en débiz Un joint deux joints j'ai faim, j'pars à place Liedts au Emirda J'fournis d'la vraie technique, j'bousille ma tête c'est triste Qu'est-ce t'as mon grand ? J'ai pas ton temps J'souris qu'avec des grilz J'connais des gens biens, des anciens Des frangins un peu sanguin qu'ils veulent plus être en chien Des meufs qui rêvent d'être enceinte, d'avoir des bambins Elles collectionnent les conquêtes mais au fond ça change rien Là j'suis dans l'train j'pense à cette fille qui m'rend dingue J'ai été trop gentil, elle m'a pris pour un pantin J'ai insulté cette grognasse, là maintenant j'me sens bien Recommencer à écrire, Robert m'a remis dans l'bain Rien à foutre de Versace, Louis Vi' ou Lanvin Mon peuple a le dos tourné, ça peut m'servir de tremplin Des fois mes frères avaient plein d'plans mais c'était sans un franc Donc j'écrivais des rimes avec des rires de clampin La galère en groupe ça va mais tout seul c'est moins marrant Je dirais même que c'est navrant Ça n'a pas d'chance la malchance Maintenant je sais qu'on a pas l'temps, c'est argent On est samedi, 5h, les sardines sont en boîte Quand les talkies signalent un assassinat sordide à l'extincteur Sur place, l'inspecteur est perplexe Et ces deux loubards la mettent en sourdine Face au sphincter du beluga Déposition complexe à table Les malins disent que c'est le Doc Loch Ness le responsable Toujours avec son baffle il porte locks et veste Hornets C'est forcément des sornettes! Le sergent Merlan pète un câble J'en ai plus qu'assez des crustacés qui s'prennent pour les bonhommes de Bikini Bottom puis restent tous cachés dans le Grand Bleu! Son phone sonne, ses nerfs lui tremblent Au-dessus des cils et prennent de l'épaisseur Car le pêcheur le nargue au bout du fil Bonsoir, j'appelle pour une mise à l'amende Moi, membre du cartel des salamandres Avertis qu'à la moindre voiture en filature on tire En quête d'une trace de poudre d'escampette Le poisson chat Blacksad enquête Le poisson chat Blacksad enquête yeah Mille fois j'ai retourné l'thème Dur de rester docile, la tête est vide La 'teille aussi ça y est la coupe est pleine Té-ma la Lune est belle Le ciel est triste et cherche une éclaircie Une étincelle pour pas qu'ma plume s'éteigne J'ai tout hérité d'elle L'espoir, j'y crois à peine ma foi J'ai peine à croire que la vérité paye Et j'compte faire taire la poisse avant que j'perde ma voix On a du savoir faire et on va l'faire savoir J'connais les cris, les remords Le noir, le prix d'l'effort J'te mens pas, le temps passe et rien que j'grille des clopes Entends-tu le cri des gosses ? La jeunesse brise les portes Seyté, c'est cliché, putain quelle triste époque J'sais qu'ils ont tué l'rap, c'est irrécupérable y'a maldonne aller rendez moi tout j'redistribue les cartes La certitude est rare, puis l'amertume fait rage Eh gros ne joue pas les héros nul n'est invulnérable Et nan, j'gratte ce texte le sourire aiguisé J'attends pas qu'le ciel assouvisse mes idées On patiente sagement Le jour venu on prendra c'qui nous est dû et on laissera le reste aux braves gens Comme ça et pas autrement Tant qu'la brioche se mange entre potes faut pas avoir les yeux plus gros qu'le ventre Vivre entièrement d'la naissance à l'enterrement Fier même dans l'échec, laissez ramper les serpents Té-Sey La Smala Entre les paroles et les actes, ya comme un écart Oui la dégaine est impeccable, ça parle mais ça fait que dalle La première averse et les façades se lézardent C'est dans la difficulté qu'on voit les vrais visages Ça joue les gosses, ça joue les gosses beaux Pour des biatchs ça fait l'costaud Ces mecs sont aussi mégalo que Kuzco c'est minable En terme de dope, ils se disent cuistots Pour un like ils même iraient plus bas que Jacques-Yves Cousteau Bitch, lean, coke dans les backstages Vous faites les durs à cuire mais vous êtes tendres comme du nougatine En team à tout prix vous recherchez la street cred en faisant les youx-voi Funga kinwa, vous êtes comme tous ces blancs qui disent nigga La vie que jai, je laime en tout cas Je joue pas dflûte, jdis pas dsalades Rapper ma vie au stud, jsuis bon quà faire ctruc, cest pas la Peine de faire la ricain version beta Remettons la musique au centre du débat Sorry j'ai dépensé mon fric en Hollande Une mollie d'folie m'a vaincu Solitaire, j'fume un pure solide comme un conifère Au volant d'un bolide volé sous l'emprise de drogues on est polyvalent La morale dit que c'est désolant Il n'y a que des olives dans ma balance Merde je fume de l'herbe depuis l'âge de trois, deux, un Je connais tous les mélanges, je fumais des sticks quand ma daronne changeait mes langes Sens tu la coca ? La télé, le téléphone est coupé Je fais l'effort de goûter tout ce qui me passe devant, jamais je n'suis dégoûté L'amnésie me frôle Je sens les syndromes de paranoïa Les poulets me voulaient, je voulais du poulet putain dans ma tête c'est paradoxal Mon cerveau sature, je me sens comme sur Saturne, je me soulage avec des factures roulées Dans l'regard des hommes, je croise la haine et j'vois que des cendres Ils veulent gravir les sommets Certains rêvent d't'descendre, d'autres de brasser des sommets Y'a pas d'confiance même Morphée peut t'baiser durant ton sommeil Quel paradoxe, crois pas qu'sur Terre c'est l'paradis Alors j'm'enferme vite avant qu'on m'compare à d'autres Faut pas t'en faire fils À ce qu'il parait la vie est un long fleuve tranquille crois moi c'est dur quand t'as pas d'radeau Pour exaucer les vux d'ma mère je cherche les boules de cristal en pleine ville pour échapper à cette vie C'est dur quand t'as pas d'radar On manque de rien car on partage tout c'qu'on a Demande à Nener ici on connait pas d'radin J'suis tombé sur l'mauvais sort J'crame le soleil lorsque j'rejoins la Lune à bord de mon vaisseau J'connais un tas de p'tits qui jouent aux mauvais hommes Mais quand il arrive ils attendent que le Lord donne les ordres Dans ma tête c'est l'boxon ouais les pas résonnent Mes neurones me traumatisent eh Je sais qu'j'ai pas raison comme ce shlag qui s'tue qui aime trop la tise Quand les faux frères appelleront à l'aide je n'aurai pas d'réseau Dehors ça s'tape dur pour des barres d'résine Les frelons finissent en sang les poumons en cendre J'ai ouïe dire que la vie te baise en bas résilles G.S.D, Bruksel'R jusqu'à la mort nous on finit ensemble Parait qu'j'perds mon temps Donc j'passe en coup d'vent comme d'hab J'suis pas constant c'est pas un come-back En fait il faut surtout que j'bouffe et qu'j'dépasse tous ces obstacles, ouais tous ces obstacles Yeah, ok t'as compris, j'vais pas m'éterniser Pourquoi viser la Lune ? Il faut d'abord trouver la surface Mamène ça pue l'cramé Ça fait longtemps et personne l'assume Même si tout le monde en paie la facture Donc j'ai pris d'l'H sans avoir pris d'l'âge Et vu l'prix d'l'art j'balance des projectiles Mon objectif faire que les projets paient Pour passer pro faut même pas d'progrès Mais y'a que l'son qui nous fait bouger C'est pas comme ça qu'on va combler nos mères Tu creuses ton trou pensant qu'la tombe est offerte Mais dans peu d'temps ils vont sonder nos têtes Frère, j'suis comme oit après une journée d'taff, j'ai les balls moites J'm'en vais faire du son dans mon appart, là où mes potes squattent J'suis pas dans la vague, j'avance à contre courant Si l'game c'est une descente, bah moi j'la remonte en courant Maître Riz' est à la barre, t'as reconnu l'bide et la barde Une ture-voir, une vodka, on s'capte sur un faux radar Ton concert est annulé, clochard, bah c'est la merde Tu dis qu'ton crew va tout niqué, tocard, moi c'est la même La Smaly s'malle mal mais tu connais la chanson On organise des dons pour les rappeurs à la pension Y'a plus qu'des putes qui s'la ramènent, donc gare aux mythomanes On est les Poutine du rap belge, on a d'la bombe atomique au mic' On a d'la bombe atomique au mic' Je faisais mes courses aux Petits Riens car j'avais peu d'argent Et j'avais peur, laissant mes ennuis pousser comme du chiendent Mon père se coulait quelques bières dès le matin N'tenant pas ses promesses d'hier Et c'était pareil depuis mes 15 ans Mes voisins qui logeaient dans les bâtiments désolés Entre eux, patatata... désolé, patatata... Senamo est dans la place, Shawn-h est dans la place Eh yo les gars j'vous ai écrit c'texte Seul dans ma chambre à mi-chemin entre pensées joyeuses et tristesse Big remerciement à ceux qui m'ont soutenu Aider à franchir des paliers un peu plus facilement J'vous oublie pas nan, nan Même sans les signes de vie, les prises de têtes Frère moi j'ressers pas les cartes Même si j'comprends qu'avec des sentiments c'est dur de pas faire face Est-ce que parfois couper la poire en deux revient à shooter de face La spirale infernale me teste Ok j'te hais, bah ouais c'est à cause de toi que trop d'affaires datent Oui j'suis lassé d'ça, j'fais qu'dormir faut qu'j'm'active, m'applique, puise tout mon courage pour gagner l'match J'sais qu'j'en suis capable À la mi-temps je reviens avec des ressorts dans les jambes Luffy Mugiwara Bout d'shit, sous tise ouais j'oublie tout J'mets un masque donc évite de croire que quand j'souris ça marche C'est nuancé quand j'dis que j'gratte des pages J'en demande à personne c'est juste pour concurrencer Mes frères qui avancent à une vitesse hallucinante Incomparables aux wacks et leurs quatre phases abrutissantes Comme les médias, moi j'dis faut les sélectionner si on veut pas sombrer, écouter ou regarder n'importe quoi Besoin d'espace, moi j'en ai marre d'la ville j'm'en vais loin d'la rive, naviguer vers ma redline Mer</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Si tu kiffes pas...</t>
+          <t>Temps mort</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Je suis content quand j'ai du bon shit ou de la bonne zeb Avec les shnecks, j'aime être défoncé quand je baise Et quand mes frères sortent de taule, nique les tragédies pour 10G En cage du vendredi au jeudi Textes au zetla J'aime voir des CRS morts, dégoûté quand mes ennemis restent là J'aime les pin-pon, suivis d'explosions et des pompiers Et les histoires de fusils à pompe Y a d'la joie, y a d'la hiya Des tonnes de billets, de la sape tah l'mia, je rappe pour les miens À chaque mot ça pue la censure Nos raps c'est pour tous ceux qui habitent au 15ème sans ascenseur J'aime voir du sang sur le FN Et quand ma famille va bien, j'aime voir des billes comme Fabien J'aime un keuf quand son slip jaunit Qui dit oh non, Lunatic au microphone c'est l'Amazonie Je kiffe le succès, les procès sans proc' et les gros seins Et les balances quand ils se font crosser Ceux qui la ferment quand y a du sautage, des prises d'otages Quand c'est de la bombe pas de boycottage T'aimes ou t'aimes pas, dis-moi, toi qui sais tout Si tu kiffes pas renoi t'écoutes pas et puis c'est tout J'aime pas les dictons, ma tronche sur les biftons J'aimerais bien être le parrain et t'appeler fiston Bien ou quoi, dis-moi, toi qui sais tout Si tu kiffes pas t'écoutes pas et puis c'est tout Kho, j'aime les défis, la course, un rallye faut qu'on s'allie Parce qu'on a trop sali Booba Ali Prône la paix pour les nôtres, la France nest pas territoire neutre De ceux que les patrouilles aiment fouiller De la mâchoire aux couilles et faire asseoir avant les coups Tout paraît calme devant les dépôts du 92 Jaime la foi, celle qui nous maintient debout Et quon garde à ses côtés pendant lsommeil Comme une épouse, mental Muay Thaï Kick jusquà épuisement, cest Haïti Éric, Tidiani Songhaï Et puis les esprits tragiques comme une vie sans espoir Jaime laisser croire Que Lunatic cest mort et voir qui en sourit Si tu kiffes pas renoi t'écoutes pas et puis c'est tout Jaime les Houris, aux parpaings jnourris les mecs pourris Soirée dbanlieue un joint, une crêpe, un tapin La vérité que mrevienne cque jmérite et irriter lÉtat Jaime lutter, lété au bled et lthé Lafricaine mafia Et faire crier ma fouf Le mafé, l'yassa, 92 et les partouzes Jaimes les 'tasses mais jveux pas dire à mes gosses que Elles aiment les grosses voitures et les grosses queues Le ring et les strings, jaime quon soit soudés chez nous Même les culs-de-jatte donnent des coups dgenou T'aimes ou t'aimes pas, dis-moi, toi qui sais tout Si tu kiffes pas renoi t'écoutes pas et puis c'est tout J'aime pas les dictons, ma tronche sur les biftons J'aimerais bien être le parrain et t'appeler fiston Bien ou quoi, dis-moi, toi qui sais tout Si tu kiffes pas t'écoutes pas et puis c'est tout Kho, j'aime les défis, la course, un rallye faut qu'on s'allie Parce qu'on a trop sali Booba Ali Jaime la Lumière, de moi-même donner le meilleur Quand la nuit atteint son dernier tiers Que mes négros soient fiers de nous et quand pour eux la roue tourne Jkiffe la vie, chaque minute même dans la routine Parler de retourner sur la terre de nos pères Motive à apprendre que des ogives Tombent là où sont permises les orgies Quand les prisons passent sous le contrôle dinsurgés Jaime me préparer pour le jour J, celui du jugement Le passé chargé de péchés Nempêche pas de prêcher la vertu, averti Lexistence nest pas quamusement Si tu kiffes pas renoi garde tes distances Mes pensées, celles dun Lunatic rien na changé Au microphone Booba Ali cest toujours danger Laisser la rivalité déçue Stupide mon hip-hop nest pas fait pour stopper Jaime mes gens du Pont dSèvres et dIssy Profite de leur présence car trop vite arrive un décès Soumis à la Vérité, la plus haute autorité Grâce à qui mon cur bat, me permet daimer T'aimes ou t'aimes pas, dis-moi, toi qui sais tout Si tu kiffes pas renoi t'écoutes pas et puis c'est tout J'aime pas les dictons, ma tronche sur les biftons J'aimerais bien être le parrain et t'appeler fiston Bien ou quoi, dis-moi, toi qui sais tout Si tu kiffes pas t'écoutes pas et puis c'est tout Kho, j'aime les défis, la course, un rallye faut qu'on s'allie Parce qu'on a trop sali Booba Ali</t>
+          <t>B.O., 100-8 Zoo, B2O Kho, check, hein, Injection Une putain d'époque mon pote, ici il faut des putains de dorsaux Un putain de morceau et tous les blocs ont leurs Glocks Sous les doudounes, poc poc ! Boulogne mon putain de dôme Chouf, un putain dhomme-singe, un putain de gun et un chauve Un putain doinj, enlève ta putain de lingerie Venu pour tout baiser, et les keuchs, cest pas un euj Moi je suis pas inscrit à leur putain délectorat Mon putain de quartier, une balle dans le thorax cest ce que tauras Sans ma putain de weed, jaurais pas le style que tentends Tricher pour être riche avant 30 piges Tonton écoute mon air, mes nerfs et mon son, putain de merde ! 9.2. moi je kick, relâche ma haine chienne Putain de crew, cous, douze putains drounds 100-8 Zoo, you know mon putain d92 Alors je demande un temps mort parce quon se fait niquer au score Un flow de porc, je suis là pour ouvrir dautres portes Booba, 45 Rien n'a changé à part le change, j'demande un temps mort C'est malheureux je reviens cest dangereux Écoute, écoute ça, écoute un peu ma banlieue Temps mort, temps mort, encore nous, c'est dangereux Rien n'a changé à part le change, j'demande un temps mort C'est malheureux je reviens c'est dangereux Écoute, écoute ça, écoute un peu ma banlieue Temps mort, temps mort, encore nous, c'est dangereux9</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Bando</t>
+          <t>Monde</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Naa-naa-naa-nana-nana naa-naa-na-na-na-na-naa Mixaa mulle codeine, mixaa mulle leani Pull uppaan sun blockii spinnataa sun koko tiimi Jos sul on mun kaa ongelmaa lupaan sul se ei oo easy Active aamust iltaa, kytät haluu catchaa kiinni Mixaa mulle codeine, mixaa mulle leani Pull uppaan sun blokkii spinnataa sun koko tiimi Jos sul on mun kaa ongelmaa lupaan sul se ei oo easy Active aamust iltaa, kytät haluu catchaa kiinni Messissä nina, ay Ootsä valmiina, ay Meijä bando boomaa gelato cocainal, ay Vaik mä en tunne mitää, ay Poltan silti lisää, ay Miks nää veijat koittaa päästä bäkkäreitte sisään, ay Vaik mä alan shinaa, mä silti jatkan wildaa Bämät phonee slidaa, koittaa öisit mut raidaa Mut emmä niitä haluu, mä needin only one Se, ketä jatkaa supportaamist, ku mä strugglaan Miks ku näytän rakkaut veijat heittää shadee? Miks ku mä oon mulkku ne kutsuu mua babyks? Miks ku alotin musiikki mut kutsuttiin crazyks? Nyt ne samat äijät sanoo Huligan you made it Mixaa mulle codeine, mixaa mulle leani Pull uppaan sun blockkii spinnataa sun koko tiimi Jos sul on munkaa onglmaa lupaan sul se ei oo easy Activ aamust iltaa, kytät haluu catchaa kiinni Mixaa mulle codeine mixaa mulle leani Pull uppaan sun blockii spinnataa sun koko tiimi Jos sul on munkaa ongelmaa lupaan sul se ei oo easy Active aamust iltaa kytät, haluu catchaa kiinni Mixaa mulle codeine bro, mixaa mulle vaa leani, ah Pääs paljo ongelmii, siks cally palaa mun spliffis, ah Ne sanoo nege on muuttunu, mut vielki mul on sama fiilis, ah Ja huomen neget on suuttunu, kosk minä ja Huli ollaa winning, ah Annoin negel paljo, mut en ikin kuule vaa kiitosta Fuck kaikki noi neget mua ei vittuukaa voi kiinnostaa Me ei tulla ikin floppaa, cro shinattii jo listoil, huh Jos sä koitat meit stoppaa, bro säki palat mun rizloissa Still the same nigga mitä olin sillo vuos sit Leikittii vaa pihal, ei ollu midii huolii Nykyää käyn vaa hitaal mietin antaaks ne mul luodist Broidit day ones, keihin mä vaa luotin Naa-na-na-naa Mixaa mulle codeine, mixaa mulle leani Pull uppaan sun blokkii spinnataa sun koko tiimi Jos sul on munkaa ongelmaa lupaan sul se ei oo easy Active aamust iltaa, kytät haluu catchaa kiinni Mixaa mulle codeine, mixaa mulle leani Pull uppaan sun blockii spinnataa sun koko tiimi Jos sul on munkaa ongelmaa lupaan sul se ei oo easy Active aamust iltaa, kytät haluu catchaa kiinni Naa-na-na-na Naa-na-na-na Naa-na-na-na Naa-na-na-na Naa-na-na-na Naa-na-na-na Naa-na-na-na Naa-na-na-na</t>
+          <t>Petit prince, ton mouton est prisonnier des ronces J'ai tout observé du haut de ma branche Aucune délivrance, privé d'oxygène et sans réponse Il ne vit que pour être découpé en tranches Piégé dans les halls, moins de haut que de bas Et ça n'en doute pas, mais j'ai vu tout ça depuis l'époque de Batistuta J'me demande comment, moi maman, j'me demande plus pourquoi On se voit peu mais crois pas que mon coeur ne bat plus pour toi Non, c'est juste que j'ai un plan On est tellement derrière qu'on croit tout le temps qu'on est devant Posté sur le ter-ter, 3-4 grammes dans le sang Car on roulera pas en R.R. en restant dans le rang Et tout ce gâchis, ça me répugne Dans le zoo, c'est retournée acrobatique sur l'bitume Dans Paris, nos voix s'échappent de tous types de véhicules Nos chanteurs niquent la mère à Lara Fabian sur iTunes Fiston, tu vois tous ces anciens sans chicots Ils vendaient la A1 Perico C'est pas du pipot, mais tôt ou tard, on se fait éclater Du plus petit pion à El Chapo Les petites sont locas Elles savent ce qu'il y a sous le capot, si c'est un pack ou une prépa On les bluffe pas Elles sont fans de Uzi et de motos, de Verrati, de Thiago Motta Elles sniffent la muerte avec les res-sta Elle sortent le soir danser dans le dos de Papa Fuerte Elles sautent dessus direct, elles abandonnent leurs pines-co Elle est bien loin l'époque de la Super Nintendo Ça joue perso et on a bien raison Y a tellement de traîtres que ça en boucherait l'horizon Tu m'empoisonnes, zehma, tu cherches la guérison Est-ce que j'vais même m'en sortir, l'avenir joue à ni-oui-ni-non J'veux des millions, j'ai le cur brisé, immunisé Je n'ai pas de secteur préféré, tant que c'est bien rémunéré Et qu'j'ai peu de chance d'être déféré ou de voir mes fantômes déterrés Car désirer, c'est chavirer et j'suis loin de la ligne d'arrivée Parisien pas paresseux, tu cherches un truc, passe par ici Hein, même si tout ça, c'est pas une vie Hein, non on est pas des affamés J'apparais, j'disparais toute la nuit Je n'ai qu'une parole, j'écoute que la daronne Donc à chaque fois qu'elle parle, je lui réponds Si patronne Fidèle comme Limon, comme Fifty devant Eminem J'aime pas trop les interviews, j'essaye de la jouer comme Mylène J'suis dans le game, j'suis dangereux Rien à perdre, j'ai les deux pieds dans le feu J'suis dans le VIP, t'es dans le faux Trop de bouteilles, j'vois plus les glaçons dans le seau Plein de bouteilles, on peut rentrer en crampons Hein, ils savent qu'on est des gens bons Explosé, j'fais la bise au patron Hein, il sent qu'j'suis un champion Hein, j'suis tellement loin, je sais même plus quand j'ai tort À un point où je sais même plus quand j'ai peur J'suis sûr d'un truc, c'est qu'on aura pas la même mort Et qu'y ait Rolex ou pas, on a tous la même heure Hein, j'suis la cause, les conséquences Damné dans l'errance, quand on tombe, les condés dansent Si on, si on, si on comptait ce qu'on dépense Au lieu de le mettre à la planque juste pour rattraper le manque Bah, on remplirait la pièce Et le 206 du petit serait un Classe E La putain de sa race, grossier personnage J'ai le gland qui chatouille leur sophage sous un ciel orageux Moi, quand j'ouvre les yeux, tout est mauve Le rouge, ça va, j'ai ma dose Non non, j'prends pas de pause Me sauver en vrai t'as autant de chance que de faire un brushing à un chauve Houss, S, tu regardes la porte et moi la fenêtre Lossa, j'veux voir leur tête quand j'vais apparaître J'allume dans le tas direct, j'me prends pas la tête Mes anciens potes complotent, ça me brise le cur La nuit, j'entends des voix qui me disent de les fumer ou de minimum les ruiner Y a plus de pitié quand y a plus de peut-être y a plus de peut-être J'préfère partager mille dîners avec deux prostituées jnounées Que vous m'offriez une cigarette, bah ouais les mecs Eh eh, bah ouais les mecs, promis demain j'arrête Mais tu connais la règle, j'gagne, j'passe pas la manette Prends-toi une canette, moi deux bouteilles de Jack Et avec la monnaie, rajoute des cacahuètes Et j'ai du mal à kiffer James Bond Il m'rappele que l'occident tue des enfants et encule des mères dans le tiers-monde Bombardé par des drones Déchiqueté par ceux qui tiennent le monde dans leurs paumes Frappe chirurgicale, y a plus une âme dans la zone Et le roi des fils de pute pose ses fesses sur le trône sur le trône Des explosions et des cris Des centaines de corps empilés à la déchetterie Imagine ton petit déj' devant des F16 et des tanks Et t'aurais moins de mal à comprendre Pourquoi ils ont quitté la Syrie, le Pakistan et l'Irak Et que chaque feu rouge de Paname ressemble à la cour des miracles Et la compassion est morte elle est morte Oh putain, qu'est-ce qu'elle me manque me manque Oh putain, qu'est-ce qu'elle me manque Je l'ai vue se faire crucifier sur une planche à billets de banque Et alors, petit prince, veux-tu devenir un roi ? Ou bien rester une pince et suivre toutes leurs lois Il est temps de faire un choix, veux-tu te faire une place ? Si tu veux te faire une place, tu laisses ton âme chez toi Tu monteras sur l'G.P., tourneras dans le ghetto Tu joueras les kékés et tu voudras les euros Tu perdras ta gaieté quand tu fumeras sur le bédo Ton innocence sera découpée avec une scie à métaux Quand tu toucheras la coco, clientèle de bobos Tu goûteras Giuseppe, P.P. et Valentino Les hôtels et les restos, les voitures et les tasses-pé Jusqu'à ce qu'ils défoncent ta porte et qu'ils te passent les bracelets Et ça te fait même pas peur la prison, non au contraire, ça te fait rigoler Ce trou du cul de maton sait pas que t'es déjà habitué à un lit superposé Et t'aimerais passer tous les barrages Mais ces fils de pute veulent mettre des péages dans les nuages Tu voudrais juste changer ton image Mais ils te verront toujours comme une limace Han, et tout le monde tombe aux prisonniers des ronces J'ai tout observé du haut de ma branche Trouve-toi un refuge Fais tes valises, allez vas-y bouge avant de finir découpé en tranche C'est pas pour toi les halls, pourquoi jouer un rôle, t'es pas si cruel Même si je sais que t'es livré à toi-même Parmi les hyènes, tu passerais pas la semaine T'as rien à voir avec l'espèce humaine Petit prince Petit prince Petit prince Petit prince Petit prince Peti prince Petit prince Qu'est-ce t'en penses ? Petit prince Qu'est-ce t'en penses petit prince ? Petit prince, petit prince Qu'est-ce t'en penses petit prince ? Petit prince, petit prince Petit prince, petit prince Petit prince, petit prince7</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Les meilleurs</t>
+          <t>Lunatic</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Le monde est un flic africain, il est corrompu La vie n'a plus de valeur, l'argent n'a pas d'odeur, moi non plus On les défonce, leur laisse quelques deniers Donc elles ont toujours envie Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Pourquoi suis-je toujours en vie ? Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Si les meilleurs partent en premiers Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? R.A.S, je confirme on est les best Rap français je lui mets sa dose au fond des fesses L'argent n'a pas d'odeur mais a une saveur Si les meilleurs partent en premiers Qu'est-ce que je fous dans ce monde, mon Seigneur ? Bang bang, autour de moi j'compte plus les victimes J'ai la mentale de Poutine, Ruskov dans le cur, Camer' d'origine Ce sont les balles qui parlent, les hommes se taisent Et nos problèmes se règlent Très peu ont cru en moi je les baise fort fort Tellement fort qu'ils n'ont plus leurs règles Rosa Parks m'a dit Donne pas ta place parce que t'es nègre Colonisé par des porcs, mon peuple a perdu toutes ses terres K-mer tue les tous, spécialisé pour niquer des mères Pirate 92i, on part à la guerre jusqu'à notre perte Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Pourquoi suis-je toujours en vie ? Le monde est un flic africain, il est corrompu La vie n'a plus de valeur, l'argent n'a pas d'odeur, moi non plus On les défonce, leur laisse quelques deniers Donc elles ont toujours envie Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Je ne traîne qu'avec des pirates, j'vis en communauté Qu'est-ce que je pense ? Baisez vos mères, mon communiqué À chaque post Instagram, vous polémiquez Dans le game je suis comme à Walt Disney, comme si j'avais connu Mickey J'ai plutôt connu Minnie Évidemment j'ai le milli' Tu m'attaques ça m'fait des guillis Toute ma vie en i comme à Phili 40 milli' Gang, 40 milli' Gang Ne fais pas le héros couche-toi, lâche le dividende Banlieue Ouest de Paris Je suis au commissariat, quand je mens Ai-je une gueule à m'appeler Charlie ? Réponds-moi franchement T'as mal parlé, tu t'es fait plomber C'est ça la rue c'est ça les tranchées Leur plafond c'est mon plancher Ton plan A c'est mon plan B Le monde est un flic africain, il est corrompu La vie n'a plus de valeur, l'argent n'a pas d'odeur, moi non plus On les défonce, leur laisse quelques deniers Donc elles ont toujours envie Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Pourquoi, pourquoi, suis-je toujours en vie ? Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Si les meilleurs partent en premiers Si les meilleurs partent en premiers Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? J'ai plus de putes que Hugh Hefner Je suis posé avec une kalash' devant les portes de l'Enfer C'est la guerre, Boulbi re-Squa, c'est la guerre J'suis en Rockets sous la raquette Je leur casse les reins comme James Harden Conquérant comme Alexandre le Grand J'suis un gladiateur, U tréma, t'as la dégaine de Peter Pan Mon jus de bagarre est mon élixir Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Bang, comme Douk Saga j'suis boucantier Je suis devenu casanier depuis qu'chez moi traînent des billets Fight, fight, fight, c'est le bruit de mon cur L'argent n'a pas d'odeur mais sait sentir les profiteurs Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ? Pourquoi suis-je toujours en vie ? Non non, pourquoi pourquoi Dis-moi, pourquoi suis-je toujours en vie Si les meilleurs partent en premiers Si les meilleurs partent en premiers Pourquoi suis-je toujours en vie ?9</t>
+          <t>18 août 98 B2OBA locked up dans le 78 Lunatic depuis la naissance A.L.I. tu as toute ma reconnaissance Vivre en guerre, mourir en paix Jécris mes punchs en cellule, quartier jeune, Bâtiment B Je fais des pompes comme à la légion 30 mois fermes dans les chicots, je suis au hebs comme à la maison Condamné pour vol aggravé Premier album de la FF, Ärsenik maide à gratter Quelques rapports, un peu de mitard Jvendrais père et mère pour paire de nibards Le zoo me manque, je saurai plus tard Qui est qui, tous mont oublié pour la plupart Laisse-les croire que jirai nulle part Crapaud deviendra prince, nique sa mère mon nénuphar I stay untouchable when I roll up Chest wide open and I ain't gone hide Raised in the streets, don't care to know ya Cause that's how many niggas lose their lives Cause I'm a lunatic, a lunatic The type of nigga that don't let beef fry I'm telling you now, it ain't nothing to load up And blast you monkass bright daylight, yeah 2000 enfin libre, Hauts-de-Seine mon équilibre La main sur le cur, lautre sur le calibre Mauvais il sera un classique Lunatic, 92i le nom de ma clique Disque d'or en indé, premiers à le faire Je ne suis pas chevalier car fallait mettre genou à terre La street ne nous lâche pas Skyrock etc. ne nous passent pas Ils veulent quon change nos propos, allez casse-toi Jai grosse voiture, grosse biatch, écran plasma Jai l'argent clean, l'argent sale Ils veulent nous boycott, nous détruire, mais j'ai la mentale Je pense à quitter la France, Ho's down, G's up Je prends la route même si la malchance me heurte Toujours avec le crime je flirte Réincarcéré pour tentative de meurtre I stay untouchable when I roll up Chest wide open and I ain't gone hide Raised in the streets, don't care to know ya Cause that's how many niggas lose their lives Cause I'm a lunatic, a lunatic The type of nigga that don't let beef fry I'm telling you now, it ain't nothing to load up And blast you monkass bright daylight, yeah Je re-ressors de taule Jai eu chaud au cul, Yann Lebras tas mon big up Jai un gros S sur mon T-shirt Pour Sénégal, armes de l'Est dans mon pick-up Mon label me préoccupe Sombre avenir, rat des villes, je quitte le navire Autant de vices quun mec du Luth Jai le short de Hulk, la force de Luke Seul je dois mener ma lutte Jai hache de guerre, viens pas perquisitionner ma hutte Pont de Sèvres est la ruche Si le ghetto a une queue, cest pour que le commissaire la suce Il est temps que je fasse du gros biff' En provisoire, il est temps que je fasse des modifs Je suis dans ma diaspora, shit dur, terrifique Sens-moi dans ta cage thoracique, Tallac Records I stay untouchable when I roll up Chest wide open and I ain't gone hide Raised in the streets, don't care to know ya Cause that's how many niggas lose their lives Cause I'm a lunatic, a lunatic The type of nigga that don't let beef fry I'm telling you now, it ain't nothing to load up And blast you monkass bright daylight, yeah2</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ça va aller</t>
+          <t>Gotham</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Diabatéba Music Charo piraterie Yeah, yeah Ça va aller petit, ça va aller, oui ! Ça va aller, ça va aller Ça va aller ça va aller Ça va aller, alhamdulillah, négro, ça va aller ça va aller Ça va aller, ça va aller Ça va aller ça va aller Ça va aller, alhamdulillah, négro, ça va aller ça va aller Ça va aller mon petit, ça va aller On salue le drapeau pirate comme à l'armée Ils n'ont toujours pas fait Bercy, bataradé Tu parles beaucoup mais t'agis pas, t'es pas taré Elle veut pas qu'j'lui crache dans la face ah bon ? Comment veux-tu que l'on fasse ah bon ? Pas bon du tout, j'vais lui glisser un MD ça va aller Mon oseille au coffre, mon honneur sur la gachette Bang, bang, bang J'lui ai cassé le dos, j'ai pas pris son 07 garde la pêche À coup de D.U.C. billets la tchoin cèdera Souhaite-nous santé, bonheur, le reste on l'achètera Booba, échec, j'n'ai pas trouvé de lien Parler de mes défaites, c'est ne parler de rien Fuck la retraite et je ne regrette rien J'ai fait ma recette et je le mérite bien Il manque deux cent mille E, ça va pas aller Je vais lui refaire mañana, dale Pas d'âge pour acheter un 22 Long Rifle Donc y'a pas d'âge pour t'rafaler Ça va aller, ça va aller Ça va aller ça va aller Ça va aller, alhamdulillah, négro, ça va aller ça va aller Ça va aller, ça va aller Ça va aller ça va aller Ça va aller, alhamdulillah, négro, ça va aller ça va aller Ça va aller, c'est qui qui veut parler ? alhamdulillah J'ai bataillé, donne la maille, j'suis là pour grailler ça va aller Ça va aller, la SACEM est tombée alhamdulillah Biatch, y'a ton Uber, t'attends quoi pour t'en aller ? ça va aller Aujourd'hui, j'suis pas broliqué nan Je n'vais pas gâcher la fête jamain Ramène les cuisses on va beta ramène Faut pas me prendre la tête imbécile Zifu', arrête tes bêtises, tu vas les violer voilà ! Pantalon baissé comme Kopp Où sont les ttes-chas ? J'vais les faire miauler Attends, attends, attends, attends hein ? On veut mougou, pan pan Ounga, ounga, ounga, ounga tiens, orang-outan Fouka-fouka, fouka-fouka Décalé chinois dans l'bendo bendo na bendo, ça va aller Ariana Grande, Ariana Grande, Ariana Grande ça va aller Ça va aller, ça va aller ça va aller Ça va aller, alhamdulillah, négro, ça va aller ça va aller Ça va aller, ça va aller Ça va aller ça va aller Ça va aller, alhamdulillah, négro, ça va aller ça va aller Alhamdulillah Ça va aller Alhamdulillah4</t>
+          <t>Twinsmatic Ils ont allumé l'projecteur, tout est noir par ici J'ai d'la pure de Bogota, j'monte sur Gotham, Gotham City J'monte sur Gotham City Toujours en ce-for comme Rocco dans cul de pucelle Omniprésent fort comme congolais dans rue de Bruxelles Faites monter ma plus grosse bouteille et la petite et magnez-la J'l'ai vue en bas, porte-jarretelles, j'avais langue pendue comme Valbuena Il n'y en a qu'un donc tout l'monde reconnaît l'Duc Vrais soldats reconnaissent putains Vraies stos-ba reconnaissent uc' Je brise des vies mais j'en répare Frenchy, elles préfèrent ma bite que mon accent car j'n'en ai pas Droite d'Anthony Joshua t'ferme la boca L'argent de la me-ca paie l'avocat J'suis réel comme Rocinha, carioca J'te présente Jimmy deux fois, Ray Liotta Ils ont allumé l'projecteur, tout est noir par ici J'ai d'la pure de Bogota, j'monte sur Gotham, Gotham City Tout est noir par ici Ils ont allumé l'projecteur, tout est noir par ici J'ai d'la pure de Bogota, j'monte sur Gotham, Gotham City Tout est noir par ici Le boule'zer est de compétition J'obtiendrai la paix par démolition T'prendre en missionnaire ma mission T'es bonne, c'est normal nous choisissons filet mignon J'leur mets au calme, j'paye l'addition À tous les rates-pi de la région Monte à bord, t'es à la maison Ici, beaucoup d'mères nous baisons Beaucoup de mères de familles nombreuses, hélas Ici bas, j'me suis permis beaucoup d'écarts Les putes viennent en bas, non, cherche pas dans les étages Même plus de haine envers toi, t'es tellement naze Jveux me gratter le davos mais tellement large GSXR à ta portière, tu viens de quitter le bal J'suis dans l'DM à ta sorcière, elle a validé le bail J'me fait sucer par une beauté divine au volant d'une Mercedes J'lui ai dit qu'j'aimais les gros culs donc elle veut s'refaire les fesses J'vais l'envoyer en Colombie, Gonzalez va la refaire en S On a des plugs un peu partout, Russie, Bondy, Los Angeles Ils ont allumé l'projecteur, tout est noir par ici J'ai d'la pure de Bogota, j'monte sur Gotham, Gotham City Tout est noir par ici Ils ont allumé l'projecteur, tout est noir par ici J'ai d'la pure de Bogota, j'monte sur Gotham, Gotham City Tout est noir par ici13</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Garde la pêche</t>
+          <t>Abracadabra</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Garde la pêche ! Les MCs sont fauchés, prisonniers dans leur rôle Négro cherche pas à savoir combien j'pèse en euros Personne je ne vénère, le bédo calme mes nerfs Les rappeurs ont l'cul gercé depuis que j'exerce On a percé tous seuls moi et mes partenaires Le Rap Français a trouvé son flow par terre Nos chicots rayent le parquet, otage, rançon, hélicoptère J'ai du calcaire dans les artères, un cur de pierre Tu peux pas stopper la musique, c'est elle qui m'a écarté de l'illicite, 92i-roshima J'suis un sérum de vérité, les menteurs m'empoisonnent J'suis armé, alcoolisé, je m'arrache au Coliseum Fusil à pompe, baïonnette, bien dans mes pompes, malhonnête LÉtat, c'est Geppeto, j'suis une ghetto marionnette La street, mon baromètre, t'es K.O, t'es mort mec Essaye pas de clasher, tu vas pas t'en remettre Tu veux frimer, tu veux test ? Garde la pêche ! Depuis le crime paie zéro défaite, garde la pêche ! Tu veux que j'vienne rapper gratos ? Garde la pêche ! Ici c'est Los Haramos, garde la pêche ! Le destin fait la loi, sélection naturelle Ma mère c'est mon père, j'suis number one pour elle L'argent, le pouvoir, c'est le nerf de la guerre J'vais la faire, la gagner pour la chair de ma chair Je n'veux pas qu'on m'enterre au Père Lachaise Doré est le trône, électrique est la chaise Gorée c'est ma terre, l'égalité c'est ma lutte Je combats contre moi-même, je perds c'est ma chute Si t'es sérieuse t'es ma meuf, sinon t'es ma pute Périlleuse est la street, j'ai un gun dans mon fut' J'ai crié mon avis, maquillé mes pratiques Aquatiques sont les MCs, Paris n'est pas si magique T'es sur écoute tu veux mon phone ? Garde la pêche ! Tu veux baiser sans sucer bouffonne ? Garde la pêche ! Au lieu d'la vendre tu la sniffes garde la pêche ! Tu voudrais que j'taffe pour le SMIC ? Garde la pêche ! Sans diplôme, sais dire que wesh-wesh ? Garde la pêche ! T'as pas d'mandat t'es au hebs .. Garde la pêche ! Tu veux monter sur le ring ? Garde la pêche ! Tu veux faire un featuring ? Garde la pêche ! J'voyage en première, mes disques d'or dans la soute Le Rap Français le Hip-hop, j'en ai rien à foutre J'suis meilleur que Molière, tatoué sans muselière J'prend mon biff, m'arracher, changer d'fuseau horaire J'ai commencé au départ, je ne valais rien Si tu nous veux, tu nous payes, on s'en bat les reins T'as vu ou tu verras mon blaze dans une garde à vue Retenu, détenu, rien n'se passe comme prévu J'fais des tubes pépère, j'suis tellement côté p'tite pute Que tu veux test B2O pour te faire de la pub Quand ça tire, tu cavales, avale quand j'éjacule Il serait mieux pour tout le monde que mes troupes se reculent1</t>
+          <t>Hé, hé, Martians Productions Esclave musique, izi Pas de fils de putes, ni enfants de putains sur ma guest list Pour mendormir, je compte les diamants sur ma Breitling Dans mon équipe, y'a pas de fumistes Le gang est unique, sunnite, cest 9.2.I. pas G-Unit Izi monnaie, izi life Oui, tu nous connais, frais, izi nice Je voyage beaucoup, Flying Blue, jai des Miles Boss du rap game, jveux le cheese à Mickey Mouse La France est archi bonne Mon âme toujours au tier-quar comme un taxiphone Jraconte beaucoup de de-mer comme un tas divrognes Trop, trop de punchlines, le rap à Parkinson Tu veux de la 0.9, des pilules ? OK Jai les chicots qui rayent le bitume, OK Rien à envier à Rocco, laisse, laisse Pourquoi tu me regardes mal poto, wesh, wesh ? Ici cest meilleure side, cest la Ouest, Ouest Ferme ta gueule ou Desert Eagle te blesse, blesse Puis-je toffrir un ice cream pour que tu lèches, lèches ? Depuis tout à lheure, je regarde ton boule, jtrouve que tes fraîche, fraîche Dans lestomac jai des MCs, des juges, des cuisses de pollos Coke pas de Pepsi veulent bolosses et fils de bolosses Ils nous écoutent jamais quand on frappe à leur porte Obligés dêtre violents, on na pas le choix mon pote Atteindre mon niveau nest même pas une possibilité Tas rien dans le cerveau comme la police de proximité Là doù je viens, on choisit la facilité Comme dans GTA, code crédit illimité Du shit pour quon tienne, jrappe sans thème Rêvant des billets verts et violets par centaines Mademoiselle cest pour ton cul, ta chatte quon taime B.2.O.B.A. jai plus de flow quune femme fontaine Tu veux de la 0.9, des pilules ? OK Jai les chicots qui rayent le bitume, OK Rien à envier à Rocco, laisse, laisse Pourquoi tu me regardes mal poto, wesh, wesh ? Ici cest meilleure side, cest la Ouest, Ouest Ferme ta gueule ou Desert Eagle te blesse, blesse Puis-je toffrir un ice cream pour que tu lèches, lèches ? Depuis tout à lheure, je regarde ton boule, jtrouve que tes fraîche, fraîche Je sais ce que jai à faire, tinquiète pas frère Jbosse comme un Chinois, jfais que des affaires Jécoute la concurrence, cest à se rouler par terre Mon son, cest Nino Brown à la cité Carter Mon inspi, mon flow, je les trouve dans la kush Pas encore de marmots car je crache dans la bouche Faire du trafic, mes négros demandent que ça Te faire voyager en éco, bonbonnes dhéro dans la tte-cha Tas lesprit serré comme une schneck de Thaï Tu connais rien au son comme Fred de Sky Lindustrie me fait rire, ha ha ha ha Garcimore revient sévir, abracadabra !5</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Perplexe</t>
+          <t>Magnifique</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Yeah, yeah Grünt 33, BXL, toute l'équipe yo Ça dit quoi les amis ? Grünt 33, fume des blunts dans l'noir Oui, oui, oui je trouve Trump zinzin Mais pas plus que mon seize dans la Grünt 25 Ok, ok, ok, tu veux qu'on ressuscite l'âge d'or Désolé pas moyen là j'dors J'arrive avec une armée d'hommes saouls Bouffeur d'MCs et t'aimes ça Bientôt tous disque d'or à la Damso Le thème c'est essayer de vivre heureux Malheureusement pour ça j'dois faire livres, euros, yens et dollars C'est un délire, on s'fait baiser que d'la douleur pour oublier viens on s'en fume un peu 't'à l'heure Dédicace le dealeur, grâce à lui j'vous tolère Mon cerveau rend jaloux l'trou noir dans Interstellar Wesh qu'est c'qui s'passe ? J'baise Beyoncé dès que Jay-Z s'casse J'suis le chef des mongoles à la Gengis Khan Tout l'monde veut être ferrarisé mais pour ça faut un diplôme dans la sacoche pas un bout d'shit ni un fer à lisser Faut s'faire à l'idée C'est nous les boss on ouvre les portes on fout les porcs à terre, on nique tout on glisse le bras et toute l'épaule Si tu m'écoutes un peu trop tu vas finir quelques mois dans le plâtre B.I.G ça c'est moi en black J'entends l'écho des jaloux sonner Où ça ? Dans le vide de mon indifférence désolé J'ai le titre et pleins d'hypers grandes listes remplies dors et déjà du nom des filles que j'irai voir en secret à la Mitterand Roméo fait parler ces hommes bêtes, ils connaissent quand même nos textes Ils aimeraient faire le bordel, c'est juste de l'envie Ils aimeraient faire le same job il manquera toujours que'que chose Arrête la scène boy je t'explose mais tu restes en vie Car je suis bon et juste, ça reste mon excuse préférée quand je plombe ces putes mais je les laisses respirer Les gars qui crachent de haine sur mon rap de belge et mon jeune âge sont des sacs poubelles remplis d'un jus dégueulasse 150 par semaine, reparti par semées j'parle de djonko et j'suis à fond quand je joue à ce game Laisse faire ta cousine dégueulasse acquiesce frère Promis, elle aime quand j'prends le cro-mi et que j'fais du rap Veux plus qu'la réussite Ouais maintenant, je passe les pubs j'regarde ma vie en plein écran J'te parle de taffs j'en tire quatre, cinq et j'le fais Nan je lâcherai pas sale baltringue j'fais c'que j'aime On a connu des années de galères Ouais trop merdique si y'a d'la strawberry bah j'ramène ma fraise On fait parti des acteurs non pas du décor Essaie pas de raisonner un pote qu'a bu, c'est mort J'compte laisser une trace impérissable J'me suis p't-être caché mais dans mes sons j'montre mon vrai visage Garde toujours en tête le respect des autres On lâchera pas pour la fierté des nôtres C'est Senamo et sur ma tête que j'ai jamais fait d'judo et pour les mettre au sol sur ma ive j'ai pas maté d'tuto Moi j'étais tranquille j'ai jamais rien d'mandé à sonne-per Et bordel, j'veux des Rolex avant mes obsèques Et j'le mérite plus qu'toi, ta famille et ta chienne J'rêve de faire la sieste, yo, 1 000 tenders dans mon assiette J'suis trop loin comme Orion 2017 J'pisse du néo-codion et compare la hyène au lion nan, nan J'vois les p'tits frères qui smokent des clopes et pensent qu'à rentrer tard Le soleil se lève sur ma ville et j'm'explose et fume un grand pétard Sujet répétitif nos vies répondent au vide On met un pied dehors les démons sont d'sortis Et j'suis sous lean quand ça va pas, j'aime pas les putes qui claquent la came ces enfoirés de fils à papa, j'crois pas qu't'évitera la tate-pa nan, nan Avec toi j'suis antipathique j'crois qu'j'les dérange quand j'vis ma vie j'pense qu'j'vais finir en psychiatrie Et même dehors les gens sont fous, au taff un père entend mon son pendant qu'sa fille m'envoie son boule ça craint J'ai beau crier face au néant, j'pourrai empiler tous mes textes ce s'rait qu'une goutte dans l'océan Eh fils de pute, ici tu dors si tu parles trop Jeune Uchiwa, j'veux tout plier moi j'suis mi-homme mi-Susanoo Pas besoin d'tes farandoles, les meilleurs choses ne durent qu'un temps ça changera pas grand chose Même si l'humain s'réveille maintenant ouais Dans cette allée, la misère te court après mais tu ne l'entends pas car elle te suit sur les talons On aimerait tous détaler, d'la merde sur les talons, j'écris avec la haine car l'amour s'en est allé donc je marche au talent Face à la feuille, poursuivre la réussite c'est compliqué si t'as pas l'endurance de l'étalon P'tit arrête de jouer au samouraï avec ta lame Stop tes conneries ou tu tomberas pour vol à l'étalage Ouais arrête ça là, trouve-toi une belle bombe et pose toi Mais pas l'style à cet enfoiré d'Salah Ils veulent me mettre à l'amende, j'abaisserai pas mon pantalon même si d'nos jours c'est devenu à la mode Le système s'alarme, j'crame mes poumons avec la salamandre, la mère pleure fais tout pour effacer sa larme L'ambiance est froide ici et pas que quand c'est l'hiver perdu dans le désespoir j'vois certains passer à l'acte J'me renferme dans mes pensées diverses, c'est pas parce qu'on est herbivore qu'on pourra gober toutes ces salades Tu peux trouver ça louche, mais pense à nos res-frè en détresse qui sous l'averse sur le trottoir sallongent De même tu peux trouver ça lâche, mais des fois j'me casse sur la Lune pour m'éloigner d'ces fils de putes qui causent trop fort Dans ma fusée à pleine allure j'm'enferme à double tour j'ai développé des tendances claustrophobes J'veux pas d'leurs trophées, eh, pour mes frères et moi-même j'ai fait tout c'qu'il fallait De toute façon on finira tous rafalés, j'avance même si c'est dur de prendre du recul au bord de la falaise Paname tu m'aimes tu ne peux nier, je suis ton meilleur belge avec Meunier Allonge les deniers, j'arrive lourd comme les implants de Kim C'est vrai et j'ai fait toutes les cascades dans le film J'suis au bureau y'a qu'des gros culs dans la salle d'attente Nique le dab maintenant je fais le move du gars qui sale la viande J'ai tout ce qu'ils veulent, oui, blunt, weed, ça défonce comme mon couplet dans la Grünt 8 J'ai des amis, beaucoup d'amis comme Zuckerberg Ce soir c'est sûr que j'mets mes highs mais c'est pas sûr que j'baise Je ne chasse plus j'ai vendu mon tableau, elle et moi c'est tata et Pablo R.E.P le respect, R.E.P la santé, R.E.P l'orthographe, R.E.P la banquise Messieurs asseyez-vous et parlons chiffre, parlons grand chiffre, insh'allah qu'on me transfère en Chine Dou, double J Dans la vie y'a ceux qui rident et ceux qui regardent les autres rider Certains die d'un drive-by moi j'couche mon âme sur le cahier J'suis plutôt calé mes potes s'butent à Budokaï et graillent des tailles Moi y'a un bail j'ai quitté l'canapé Merde, qu'en est-il des loves, qu'en est-il de l'avenir et qu'est ce qu'il offre comme perspective pour les gosses J'regardais Ghost Dog avec ma grande sur à l'époque Maintenant faut qu'j'bosse et qu'j'renvoie lascenseur J'veux mettre du beurre dans mes épinards donc j'fais gaffe j'évite les gardav' et la pillave La plupart des jeunes, gaspillent leurs dollars en habillage, les ptites niars font les biatchs et leur gadjo jouent les hussler Mais moi c'est pas c'qu'j'voulais pour ma life c'est pas qu'je suis malhabile mais tous ces ballafres me rendent malade J'ai tiré la sonnette d'alarme, il est grand temps que j'parte en balade et qu'j'm'éloigne de Babylone La pleine Lune me glace le sang, me donne des frissons au volant d'ma seule amie Devant moi la route est encore longue J'ouvre la boite à gants un coup de tonnerre retenti comme si le monde était pris d'un coup de couteau dans le ventre, l'odeur des pots d'échappement Se mêle au murs, la ville endormie veille sous le soleil blanc de minuit trente J'ai déserté mon lit, ma chambre d'auberge, de toute façon rien ne pourra plus troubler mon sommeil L'atmosphère est dense, je dois me remplir le gosier Je rêve d'un festin d'opulences quand je clos les yeux J'ai le potentiel du colosse de Rhodes, un brin de force, un peu de folie aussi quelques chances de croquer dans la pomme Dès l'aube j'ai trempé mon croissant dans l'eau de vie, c'était une mauvaise idée mais vos histoires donnent envie de vomir Jespérais pas vos courriers, j'ai mis tous mes billets dans un Levis-Strauss et dans une paire de soulier Ma ville, mes textes et me reste-t-il du temps ? Avant de parler j'adorais déjà le goût du sample, le goût du sample Hey, hey, l'or du commun dans la place Eh barman, sers-moi un verre de scotch J'suis venu m'buter et discuter avec mes potes Deux, trois histoires, les embrouilles avec des toxs' C'est la racaille, des voyous avec des locs Mon frère pleure parce que sa meuf l'a quitté Mais on sait tous que c'est parce qu'il est fauché C'est un bon gars, mais, il est fauché Mais en tout cas, moi, j'suis défoncé Toujours les mêmes requiem Mais il faut qu'ça nous ramène des billets J'suis pas fait pour une bonne hygiène de vie L'impression d'être né pour niquer ma chienne de vie Quelques angoisses, renoi, faut qu'j'achève mon disque Mais ça m'détend quand j'passe du temps avec mon fils Faut qu'j'arrête de lui faire des bisous sur la bouche Incursion dans la vie d'un troubadour Yeah, j'espère qu'on va réussir Nan, le ciel nous a réuni J'ai fait des choses, des bonnes et des mauvaises Si la rue m'a laissé vivre, c'est parce qu'elle connaissait mon rêve Rapper gangsta, shit, tripoter des gonzesses Porter de belles jackets avec des épaulettes Yeah, j'la tiens du marocain du coin Anh, tu crois qu'j'l'ai acheté chez colette ? Nan, toi tu connais pas les codes Ouais, mon frère, on est pas des potes Yeah, toi tu connais pas l'école J'te mets en confiance puis j't'encule comme dans Le Dernier Roi d'Écosse Yeah, univers de saligot On mange comme des animaux Avant je rappais dans des caves Maintenant je chante dans des chapiteaux Avant je rappais dans des caves Maintenant je chante dans des chapiteaux Avant on rappait dans des caves Maintenant on chante dans des chapiteaux Colérique est l'écriture, y'a peu de belles histoires qui durent J'suis au tieks avec des hyènes, ça sent l'shit et la friture Pour cet opus fallait du temps, on vient pas pour faire le buzz Qui m'aime me suce j'reste vrai j'les laisse parler tant qu'ils le peuvent Rien à voir avec eux, moi, j'commence à me faire vieux, j'reste silencieux j'n'me confie qu'à Dieu Cinq sur sept je charbonne, si t'es bonne je m'abonne, j'n'ai confiance en personne que mon ex me pardonne J'étais à deux doigts de la life qu'i'm'fallait maintenant j'ai les deux doigts dans la chatte d'une salope Absinthe dans le palais, khey, à cinq dans l'salon, faut l'appart et l'salaire, la chatte à sa mère Parle pas, tu vois qu'la sale ambiance est palpable fait pas l'Pablo j'ai des lyrics tranchants dans mon calepin J'ai pas le time pour tes conneries moi j'déballe ma haine mais tu connais l'palmarès J'suis ni arbitre ni un paria mais m'invite pas pour l'mariage Égaré j'suis carré j'veux un feat avec Mariah Qu'ma rime brille, qu'elle s'imprime dans ta carcasse et j't'invite ma caille tu vas kiffer la cascade ah couz' fais pas l'fou Punchline qui traîne j'suis l'gourou du bois de Quat'sous Wesh que pasa ? J'suis venu péter le bazar j'ai glissé mes doigts dans les cheveux d'Esmeralda La prod est Band Maker ça pue les meurtres, les pleures Fuck, un jour je serai le meilleur dresseur J'ai pas d'kilos mais ça roule suave et quand j'colle en soirée c'est pas J. Lo et Ja Rule Les pupilles s'écarquillent la 'teille est déjà vide, mégots, bédos d'weed et oui c'est compliqué la vie On connait le prix d'l'effort, chez nous la rime est d'or, retires toi d'la route je tape ma res avec Riz et G.O.R S'ils ne me ... est-ce un pur hasard ? Quand je serai heureux toi tu croiras que je te mens ou que je me vante Ce n'est qu'une histoire de confiance ,bon sang, ça ne me tuera pas Au micro je dis tout, je regarde mes proches et je vois l'heure qui tourne, ne pas faire demi-tour C'est connu, on fume du semi-mou parce que la vérité est trop dure Père Horus et jamais ne se trouve rare, je prends mon temps, traverse le couloir Ce monde est grotesque, je ris en relisant ma phrase Quand on cherche des problèmes il n'y en a pas Les mots n'ont plus de sens, pas grave, il nous faut préparer la bataille sur le champ Et nous sommes tous égaux, derrière le microphone dis-moi qui fait douter l'autre ? Chez moi les jeunes rêvent d'un destin trépidant Sûrs d'eux, ils disent qu'juste en l'méritant ça peut l'faire Des sous de côté, souvent les projets manquent de pertinence, d'huile de coude et on ne respecte plus ce qu'on se promet Mes reufs se matent les rush de nos vieilles années rien qu'un peu plus de barbe et quelques séquelles mais j'ai l'air d'aller bien Ma mère me traite de cul béni c'est pas le cas de Daniel, ces partiels étaient pourtant prometteurs et soignés Le bonheur un exercice quotidien Dans des choses simples peut-être j'espère un jour élever mes gosses sans trop de craintes, j'veux pas qu'un matin clair les volets crissent de bonne heure et qu'on ait peur de tout c'que les journaux écrivent Le sang-froid, la hache de guerre et toute la vie devant soi boy Grünt, yeah, l'Or du commun, Roméo Mais c'est pour finir en tête comme Cambadélis Ou comme le mec qui emballe des miss Avec l'assurance de Michel Drucker J'envois des missiles, tu sais sur quelle Weed j'tire, parce-que l'odeur depuis mille mètres, tu flaires Les gens connaissent la formule, un Petit peu de sport pur Petit peu de drogue douce Appuie sur le champignon comme Hamilton je vole, une Fois de plus le trône Dégoûter les gens qui n'ont pas validé J'amène une touche fraîche Et la OG Kush frère, extra polie Les mecs applaudissent à la Kouchner Bébé fais moi confiance C'est vrai des fois on s'ment, mais bon... C'est une question de bon sens De toute façon je conçois la vie telle Une bouteille d'eau moitié remplie de mystères Moitié remplie de toutes les autres choses que j'ai envie d'faire Bébé j'suis inconscient mais des fois j'ai le truc ... J'ai oublié mon texte et c'est pas grave je passe à Loxley, et c'est pas grave je passe à Loxley Ça va bientôt faire dix ans qu'j'écris par amour du risque Afou tu piges j'ai jamais fait ça en trichant J'ai passé toute la semaine à rien foutre à me gratter les couilles en fait j'suis seul à scalper l'herbe qu'y a sous ma s'melle C'est fou de l'admettre et d'rien faire pour qu'ça change J'ai toutes mes chances mais ai-je toute ma tête ? J'vis ma vie comme j'l'entends ainsi soit-il Moi j'dis faut bien être dans sa peau, la ive ça file Faut rependre le bien On s'ressemble si t'essaies d'bâtir un empire pour qu'tes proches ne manquent de rien T'es pas terrible bâtard, envoie ton genkidama Ok je l'arrête à deux doigts comme Beerus-sama Aussi vendu que Sepp Blatter, n'arrête pas de faire l'acteur, parle avec cet air flatteur mais ne te respecte pas J'évite ce genre de mecs, j'ai des choses à faire ailleurs, je ne suis pas spectateur s'ils se donnent en spectacle La ville est mon terrain d'jeux, j'en connais des peintures, des teintes Je connais toutes les rues de la grande ceinture J'voudrais faire un seul vu Autour de moi j'ai plein de gens, je suis tellement fier d'être l'un d'eux Cinq jeunes qui font le job à plein temps on manie la matière Sur ta carrière je parie pas même un cheveux Je maîtrise quelques atouts, oui les jaloux maigrissent car nos écrits valent tous les régimes minceurs On a connu quelques succès, on joue le jeu depuis nos 20 ans, pas maintenant qu'on laisse à ceux qui succèdent Le truc c'est qu'on enregistre en plein centre On représente Bruxelles, l'O.D.C nouvel album au printemps Hey, l'or du commun dans la place yeah Six heures du mat' et j'suis encore sur cette fin d'couplet Un nouveau matin se profile sous son voile noir Et crois moi j'suis pas si productif mais quand j'm'y mets j'écris des parpaings tous les trois mois J'fais pas vanter mon mode de vie, ma femme reproche d'aimer ma routine, freestyle roue libre, speed life, wood crise Tomber, s'lever incessamment comme en street fight J'ai soit le choix, entre faire semblant et graver mes peines par millier Devant mes feuilles quadrillées je vois mes rêves en grand Kingsize Merde, qui nous comprendras à part nos soss ? Les frelons qui squattent, boivent et se déploient l'soir Modes de vie paradoxaux On veut le farniente et l'argent avec Chacun voudrait que les choses changent et qu'le temps s'arrête Comment j'suis sensé faire pour garder les choses en mains en m'prenant la tête ? J'suis du genre à faire les choses propres, les choses biens Qu'on parle XXX, j'essaie d'être au top, en vain J'me développe et bosse dur comme un boxeur Tape ton sac de frappe et taffe ta posture, j'suis un bosseur donc j'postule et surtout j'compte pas les heures L'avenir est obscur pour ceux qui n'ont pas l'goût du labeur Remettre à tout à l'heure est une bêtise Putain ça urge on n'a qu'une vie et le temps file à toute allure J'ai déjà 23 piges, dans moins de 10 ans j'aurai des gosses insha'allah, donc... j'ai nada en poche Donc j'ai pas le choix en quelque sorte faut qu'j'me bouge fils Et fissa faut que j'redouble d'efforts vu que j'viens pas d'une famille d'nobles Et en gros faut qu'j'arrête de jouer aux billes Que j'trouve un poste et de quoi payer les bills et la tournée d'Pills aux res-frè C'est triste, merde, s'il suffisait d'avoir des skills y'a longtemps qu'Elvis et Swing seraient milliardaires J'ai tout donné sans reprendre, cousin c'est sans rancune Y'a des gens, des choses qui manquent, j'y ai laissé quelques plumes Mon énergie, ma sueur, mon sang, son numéro de portable J'ai les yeux fermés mais je n'rêve pas, je n'dors pas Couplet égaré, ma vie de couple est son ego frère Ma fierté s'est barrée, on est cool et j'en ai gros sur le cur Et des barreaux l'ont verrouillé sous écrous J'suis double al' et je les baise J'sais pas où j'serai sans mes couilles Parait qu'le temps c'est du fric Et on s'perd à vouloir en faire Plus tu bosses plus t'es proche d'là où on t'enterre Un pas vers le fort, on a tous une direction merde Mais on a peur et direct on perd le nord Y'a rien d'tel que la santé mais on la maltraite Mais on a tout à perdre quand celle-ci vient à sabsenter Le temps, lorgueil, l'amour, la haine, la vertu J'avais la fougue, la vraie, mais frère j'l'ai perdue Pour arrondir ses fins d'mois Petrouchka gagne des ronds-ronds sous les lampadaires la nuit lorsque la ronne-da ronronne Il vend d'la dope à ses kho-kho À chaque coin d'rue il fait des rondes et prends la fuite quand s'rapplique les fédéraux Il prend des risques Et s'applique pour n'pas faire d'erreur, à la dérive la vie lui mettra le revers à la Federer Et il le sait ça, c'est sûr, pourtant il compte percer, avoir sa place sur le trône comme Jules César Déçu des aléas d'la rue il s'réconforte au lit À l'aide de trois, quatre femmes dénudées Il compte la maille Passé pour s'faire la malle mec, son portefeuille à mal sa vie aussi car il la malmène Et tous les soirs, la ville embrasse ce mec seul saoulé sous le saule Qui use ses semelles sur le sol Observons le soleil, qui le ciel embrase tous les soirs Souliers sous le seuil, voir le monde d'en bas oui ça fout le seum Bonté divine, je balance bombes et missiles Je voudrais faire de ma vie un movie où je compte les milli Rapapap, plombe le riddim, le beat est bon Mais ces cons ne vont pas succomber Juste raconter que j'ai pompé Drizzy Retourne voir tes références, ok Je met plus de cartouches que Bruce Willis Pogo dans un bordel Bienvenue dans mon élément, observe La maîtrise du flow est élégante et là... Hé garçon ! J'ai taché la chemise Sous mon trois-quart en cuir avec du foie gras L'ennui, c'est que j'ai un voyage en Suisse Donc arrête de faire autre chose Amène de l'eau chaude et nettoie là ensuite Je parle encore de la chemise en fait... J'ai oublié comment on faisait, mais Rapper comme une Winchester, oui j'sais l'faire J'sais pas comment faire la pute Mais cramer de la weed chez Seize, oui j'sais l'faire On m'appelle Artur ou Arturo Mais vaut mieux qu'on m'appelle pas Je regarde Naruto sur mon MacBook Pro Entre dans mon monde, mets toi à mes côtés Prend un selfie et bouge, cette vie est cool Mes G's avec une fiole dans le Dickies Repartent avec le biff d'une fiotte en jeans slim Cette vie est violentissime, trash comme tes 16 foireux Je vaux tout les rappeurs que tu aimes fois deux Caballero hein ! Faites pas les gangs' genre vous sortez les calicos Ça gratte des pièces puis ça finit dans l'caniveau Font tous les best mais pour moi z'ont pas l'niveau C'est quand on baise qu'on voit qu'on est des animaux F pour fuck L pour lean O pour ow shit Dès qu'j'fous l'zbeul, frère j'oublie toutes mes conneries Personne pour casser les couilles dans le périmètre Donc ma belle on s'la fait cool série, baise Ouais j'suis dans l'truc hein, pas dans les faits divers Ça bouge la nuque depuis Fifty Many Men Ouais restez là, j'suis pété grave Tu trouves une chienne plus besoin d'appeler la S.P.A Ouais j'tiens ta femme, elle veut graille mes boules Car sur Snapchat, elle m'envoie des nudes Je m'voyais dans l'espace Être libre, manger tard, être riche J'l'savais cette musique ne se vendait pas Pas un kopeck, ma copine veut qu'on emménage Faut qu'j'assure hein, elle en vaut la peine J'attends vos appels, une grosse affaire Sinon j'vais bien, j'ai de quoi m'plaindre, j'ai d'quoi vivre Est-ce suffisant ? Laisse moi rire C'est pas c'que j'veux et tu sais c'qu'on dit Il en faut peu pour être malheureux Viens qu'on parle d'avant, tise avec moi Santé !, on va se rafraîchir la mémoire Je m'rappelle mon premier quinze mesures et demi C'était un mercredi, ouais j't'l'dis Y'a plus d'dix ans, je quitterai le rap comme j'y suis venu furtivement Sans armes, ni haine, ni violence comme dans ce foutu film Merde, devrais-je y dédier toute une vie ? Non mon gars Fuck j'ai des soucis, un globe à découvrir, des proches à faire sourire Et quitter Charlouze, j'pense à mon père j'ai pas fait l'dixième de son parcours Et quitter Charlouze, j'pense à mon père, j'ai pas fait l'dixième de son parcours Le type du lâcheur version mytho Mais t'as donné trop d'confiance, un mec comme moi ça parle Ça picole, ensuite ça va tromper sa copine avec une cigogne Elle t'a laissé un bébé ?!, d'ailleurs celle-là aussi faudra la larguer Mais j'ai usé de beaucoup trop de ruses, elle pensait qu'on allait s'marier J'ai dit qu'j'étais au stud', genre rendez-vous important J'ai changé de num' et puis j'ai plus jamais rappelé J'aime pas vraiment le confort apparemment Du moins j'aime pas trop c'qui est conforme auparavant J'avais la patience et le time pour Maintenant j'veux éviter les parcours je t'ai déjà dit Pars avant Tu aimes me voir hésiter ça te laisse croire que j'ai encore envie alors que j'ai la haine De toute façon j'étais au studio, eh De toute façon j'étais au studio, oh De toute façon j'étais au studio, eh De toute façon j'étais au studio, oh J'suis tué par la drogue J'fais des culs secs à la cod' Senamo, La Smala a.k.a l'super saiyan god Wesh mon médecin m'a pas prescrit d'néocodion Tu vas chialer si tu t'occupes de nos oignons J't'ai pas attendu pour savoir qu'la vie filait J'entends encore Max qui crie Agi Bilel Pas à la plage, j'suis à BX ça caille sa race Gars La Smala c'est en une droite comme Saïtama Ici dans l'tram ça dévisage, ça peut partir en débiz Un joint deux joints j'ai faim, j'pars à place Liedts au Emirda J'fournis d'la vraie technique, j'bousille ma tête c'est triste Qu'est-ce t'as mon grand ? J'ai pas ton temps J'souris qu'avec des grilz J'connais des gens biens, des anciens Des frangins un peu sanguin qu'ils veulent plus être en chien Des meufs qui rêvent d'être enceinte, d'avoir des bambins Elles collectionnent les conquêtes mais au fond ça change rien Là j'suis dans l'train j'pense à cette fille qui m'rend dingue J'ai été trop gentil, elle m'a pris pour un pantin J'ai insulté cette grognasse, là maintenant j'me sens bien Recommencer à écrire, Robert m'a remis dans l'bain Rien à foutre de Versace, Louis Vi' ou Lanvin Mon peuple a le dos tourné, ça peut m'servir de tremplin Des fois mes frères avaient plein d'plans mais c'était sans un franc Donc j'écrivais des rimes avec des rires de clampin La galère en groupe ça va mais tout seul c'est moins marrant Je dirais même que c'est navrant Ça n'a pas d'chance la malchance Maintenant je sais qu'on a pas l'temps, c'est argent On est samedi, 5h, les sardines sont en boîte Quand les talkies signalent un assassinat sordide à l'extincteur Sur place, l'inspecteur est perplexe Et ces deux loubards la mettent en sourdine Face au sphincter du beluga Déposition complexe à table Les malins disent que c'est le Doc Loch Ness le responsable Toujours avec son baffle il porte locks et veste Hornets C'est forcément des sornettes! Le sergent Merlan pète un câble J'en ai plus qu'assez des crustacés qui s'prennent pour les bonhommes de Bikini Bottom puis restent tous cachés dans le Grand Bleu! Son phone sonne, ses nerfs lui tremblent Au-dessus des cils et prennent de l'épaisseur Car le pêcheur le nargue au bout du fil Bonsoir, j'appelle pour une mise à l'amende Moi, membre du cartel des salamandres Avertis qu'à la moindre voiture en filature on tire En quête d'une trace de poudre d'escampette Le poisson chat Blacksad enquête Le poisson chat Blacksad enquête yeah Mille fois j'ai retourné l'thème Dur de rester docile, la tête est vide La 'teille aussi ça y est la coupe est pleine Té-ma la Lune est belle Le ciel est triste et cherche une éclaircie Une étincelle pour pas qu'ma plume s'éteigne J'ai tout hérité d'elle L'espoir, j'y crois à peine ma foi J'ai peine à croire que la vérité paye Et j'compte faire taire la poisse avant que j'perde ma voix On a du savoir faire et on va l'faire savoir J'connais les cris, les remords Le noir, le prix d'l'effort J'te mens pas, le temps passe et rien que j'grille des clopes Entends-tu le cri des gosses ? La jeunesse brise les portes Seyté, c'est cliché, putain quelle triste époque J'sais qu'ils ont tué l'rap, c'est irrécupérable y'a maldonne aller rendez moi tout j'redistribue les cartes La certitude est rare, puis l'amertume fait rage Eh gros ne joue pas les héros nul n'est invulnérable Et nan, j'gratte ce texte le sourire aiguisé J'attends pas qu'le ciel assouvisse mes idées On patiente sagement Le jour venu on prendra c'qui nous est dû et on laissera le reste aux braves gens Comme ça et pas autrement Tant qu'la brioche se mange entre potes faut pas avoir les yeux plus gros qu'le ventre Vivre entièrement d'la naissance à l'enterrement Fier même dans l'échec, laissez ramper les serpents Té-Sey La Smala Entre les paroles et les actes, ya comme un écart Oui la dégaine est impeccable, ça parle mais ça fait que dalle La première averse et les façades se lézardent C'est dans la difficulté qu'on voit les vrais visages Ça joue les gosses, ça joue les gosses beaux Pour des biatchs ça fait l'costaud Ces mecs sont aussi mégalo que Kuzco c'est minable En terme de dope, ils se disent cuistots Pour un like ils même iraient plus bas que Jacques-Yves Cousteau Bitch, lean, coke dans les backstages Vous faites les durs à cuire mais vous êtes tendres comme du nougatine En team à tout prix vous recherchez la street cred en faisant les youx-voi Funga kinwa, vous êtes comme tous ces blancs qui disent nigga La vie que jai, je laime en tout cas Je joue pas dflûte, jdis pas dsalades Rapper ma vie au stud, jsuis bon quà faire ctruc, cest pas la Peine de faire la ricain version beta Remettons la musique au centre du débat Sorry j'ai dépensé mon fric en Hollande Une mollie d'folie m'a vaincu Solitaire, j'fume un pure solide comme un conifère Au volant d'un bolide volé sous l'emprise de drogues on est polyvalent La morale dit que c'est désolant Il n'y a que des olives dans ma balance Merde je fume de l'herbe depuis l'âge de trois, deux, un Je connais tous les mélanges, je fumais des sticks quand ma daronne changeait mes langes Sens tu la coca ? La télé, le téléphone est coupé Je fais l'effort de goûter tout ce qui me passe devant, jamais je n'suis dégoûté L'amnésie me frôle Je sens les syndromes de paranoïa Les poulets me voulaient, je voulais du poulet putain dans ma tête c'est paradoxal Mon cerveau sature, je me sens comme sur Saturne, je me soulage avec des factures roulées Dans l'regard des hommes, je croise la haine et j'vois que des cendres Ils veulent gravir les sommets Certains rêvent d't'descendre, d'autres de brasser des sommets Y'a pas d'confiance même Morphée peut t'baiser durant ton sommeil Quel paradoxe, crois pas qu'sur Terre c'est l'paradis Alors j'm'enferme vite avant qu'on m'compare à d'autres Faut pas t'en faire fils À ce qu'il parait la vie est un long fleuve tranquille crois moi c'est dur quand t'as pas d'radeau Pour exaucer les vux d'ma mère je cherche les boules de cristal en pleine ville pour échapper à cette vie C'est dur quand t'as pas d'radar On manque de rien car on partage tout c'qu'on a Demande à Nener ici on connait pas d'radin J'suis tombé sur l'mauvais sort J'crame le soleil lorsque j'rejoins la Lune à bord de mon vaisseau J'connais un tas de p'tits qui jouent aux mauvais hommes Mais quand il arrive ils attendent que le Lord donne les ordres Dans ma tête c'est l'boxon ouais les pas résonnent Mes neurones me traumatisent eh Je sais qu'j'ai pas raison comme ce shlag qui s'tue qui aime trop la tise Quand les faux frères appelleront à l'aide je n'aurai pas d'réseau Dehors ça s'tape dur pour des barres d'résine Les frelons finissent en sang les poumons en cendre J'ai ouïe dire que la vie te baise en bas résilles G.S.D, Bruksel'R jusqu'à la mort nous on finit ensemble Parait qu'j'perds mon temps Donc j'passe en coup d'vent comme d'hab J'suis pas constant c'est pas un come-back En fait il faut surtout que j'bouffe et qu'j'dépasse tous ces obstacles, ouais tous ces obstacles Yeah, ok t'as compris, j'vais pas m'éterniser Pourquoi viser la Lune ? Il faut d'abord trouver la surface Mamène ça pue l'cramé Ça fait longtemps et personne l'assume Même si tout le monde en paie la facture Donc j'ai pris d'l'H sans avoir pris d'l'âge Et vu l'prix d'l'art j'balance des projectiles Mon objectif faire que les projets paient Pour passer pro faut même pas d'progrès Mais y'a que l'son qui nous fait bouger C'est pas comme ça qu'on va combler nos mères Tu creuses ton trou pensant qu'la tombe est offerte Mais dans peu d'temps ils vont sonder nos têtes Frère, j'suis comme oit après une journée d'taff, j'ai les balls moites J'm'en vais faire du son dans mon appart, là où mes potes squattent J'suis pas dans la vague, j'avance à contre courant Si l'game c'est une descente, bah moi j'la remonte en courant Maître Riz' est à la barre, t'as reconnu l'bide et la barde Une ture-voir, une vodka, on s'capte sur un faux radar Ton concert est annulé, clochard, bah c'est la merde Tu dis qu'ton crew va tout niqué, tocard, moi c'est la même La Smaly s'malle mal mais tu connais la chanson On organise des dons pour les rappeurs à la pension Y'a plus qu'des putes qui s'la ramènent, donc gare aux mythomanes On est les Poutine du rap belge, on a d'la bombe atomique au mic' On a d'la bombe atomique au mic' Je faisais mes courses aux Petits Riens car j'avais peu d'argent Et j'avais peur, laissant mes ennuis pousser comme du chiendent Mon père se coulait quelques bières dès le matin N'tenant pas ses promesses d'hier Et c'était pareil depuis mes 15 ans Mes voisins qui logeaient dans les bâtiments désolés Entre eux, patatata... désolé, patatata... Senamo est dans la place, Shawn-h est dans la place Eh yo les gars j'vous ai écrit c'texte Seul dans ma chambre à mi-chemin entre pensées joyeuses et tristesse Big remerciement à ceux qui m'ont soutenu Aider à franchir des paliers un peu plus facilement J'vous oublie pas nan, nan Même sans les signes de vie, les prises de têtes Frère moi j'ressers pas les cartes Même si j'comprends qu'avec des sentiments c'est dur de pas faire face Est-ce que parfois couper la poire en deux revient à shooter de face La spirale infernale me teste Ok j'te hais, bah ouais c'est à cause de toi que trop d'affaires datent Oui j'suis lassé d'ça, j'fais qu'dormir faut qu'j'm'active, m'applique, puise tout mon courage pour gagner l'match J'sais qu'j'en suis capable À la mi-temps je reviens avec des ressorts dans les jambes Luffy Mugiwara Bout d'shit, sous tise ouais j'oublie tout J'mets un masque donc évite de croire que quand j'souris ça marche C'est nuancé quand j'dis que j'gratte des pages J'en demande à personne c'est juste pour concurrencer Mes frères qui avancent à une vitesse hallucinante Incomparables aux wacks et leurs quatre phases abrutissantes Comme les médias, moi j'dis faut les sélectionner si on veut pas sombrer, écouter ou regarder n'importe quoi Besoin d'espace, moi j'en ai marre d'la ville j'm'en vais loin d'la rive, naviguer vers ma redline Mer</t>
+          <t>Magnifique Elle sait pas que j'suis magnifique Magnifique Un nouveau jour se lève, avec lui, les problèmes qu'il enferme Quitte à prendre du ferme Hey, un nouveau jour se lève, avec lui, les problèmes qu'il enferme Quitte à prendre du ferme, tu t'dis qu'tu vas brasser à long terme Tu as toujours survécu dans l'ombre, solitude en toi a fait salle comble Tu veux braquer les comptes et les acomptes, C'est la hess, crie l'fusil à pompe Tu veux partir pour voir le monde, tu t'dis qu'tu peux même plus perdre une seconde Mais vu les thunes que ça d'mande, ça va crosser, mettre de-mon à l'amende Autour de toi, l'amour s'efface, mais tu n'y penses pas, faut qu'les choses se passent C'est vrai, t'as la vie dure, la chance, elle te crache à la figure Mais à quoi bon se plaindre ? C'est pas comme ça qu'on paie ses factures C'client n'arrête pas de geindre, tu t'es dit qu'il mérite ses fractures Y'a cette fille, tu la regardes de loin, en souriant, tu t'dis qu'c'est un problème de moins Tu penses à elle mais t'as pas l'temps d'la serrer, rien n'est hlel, ange incarcéré Tu fais juste c'que t'as à faire, 'teille de D.U.C. n'est pas à la mer Tu fais all-in à chaque paire, tu n'peux que gagner quand t'as rien à perdre Magnifique Magnifique, magnifique Mula, vous êtes si belle, chaque soir, je rêve de vous J'ai craché sur ton sol, j'n'y mettrai jamais l'genou Vivement que le gong sonne, on verra qui reste debout Magnifique Magnifique, magnifique J'essaie d'viser au-d'ssus des abdominaux, charbon comme un cheminot J'défends l'rrain-te comme Geronimo, rafale transperce ton Dunlopillo Jour et nuit, on pense au dinero, toi, H24 tu veux la go On sait où t'as garé ton Alfa Romeo, kho, on va t'trouer la peau Tout simplement comme les négros s'enlèvent la vie à Chicago Niquer des mères de famille, oh, malheureusement, c'est le scénario C'est le scénario, c'est le scénario Izi, yeah Magnifique Magnifique, magnifique Mula, vous êtes si belle, chaque soir, je rêve de vous J'ai craché sur ton sol, j'n'y mettrai jamais l'genou Vivement que le gong sonne, on verra qui reste debout Magnifique Magnifique, magnifique Magni-magni-magni-magni Magni-magni-magni-magni Magnifique Magni-magni-magnifique Magni-magnifique Magni-magnifique Magni-magni-magnifique1</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Temps mort</t>
+          <t>Le crime paie</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>B.O., 100-8 Zoo, B2O Kho, check, hein, Injection Une putain d'époque mon pote, ici il faut des putains de dorsaux Un putain de morceau et tous les blocs ont leurs Glocks Sous les doudounes, poc poc ! Boulogne mon putain de dôme Chouf, un putain dhomme-singe, un putain de gun et un chauve Un putain doinj, enlève ta putain de lingerie Venu pour tout baiser, et les keuchs, cest pas un euj Moi je suis pas inscrit à leur putain délectorat Mon putain de quartier, une balle dans le thorax cest ce que tauras Sans ma putain de weed, jaurais pas le style que tentends Tricher pour être riche avant 30 piges Tonton écoute mon air, mes nerfs et mon son, putain de merde ! 9.2. moi je kick, relâche ma haine chienne Putain de crew, cous, douze putains drounds 100-8 Zoo, you know mon putain d92 Alors je demande un temps mort parce quon se fait niquer au score Un flow de porc, je suis là pour ouvrir dautres portes Booba, 45 Rien n'a changé à part le change, j'demande un temps mort C'est malheureux je reviens cest dangereux Écoute, écoute ça, écoute un peu ma banlieue Temps mort, temps mort, encore nous, c'est dangereux Rien n'a changé à part le change, j'demande un temps mort C'est malheureux je reviens c'est dangereux Écoute, écoute ça, écoute un peu ma banlieue Temps mort, temps mort, encore nous, c'est dangereux9</t>
+          <t>Wesh wesh yo Écoute fils Voici l'métis café crème, lMC cappuccino Criminel au M.I.C, si tes pas d'chez nous, cest Nique le taf, le biz' fait briller les Gs Les beaufs claquent, mon style craque, reflète une ZAC Dans mon quartier, les frères ont le même emploi Seul le crime paie et la nuit, ils se déploient Mais quest-ce que tu croyais ? Quon allait rester là à s'laisser noyer ? Voyons, ici chacun avance selon ses moyens Une grosse capuche recouvre ma tête grillée Pour 2 ou 3 billets, le chrome je fais briller Danger, le Lunatic vise, tire les dé-kiss T'as pas besoin d'dessin, pas besoin d'une putain d'esquisse Frappe, j'les mets à poil comme en garde à vue, enlève tes lacets Tes chaussures, ton jean, ton pull, ton bracelet Le biz fait tomber les liasses quelle que soit la saison Souvent la prison au bout du tunnel, mais le réseau S'élargit de jour en jour de nouveaux venus A.L.I, B.2.O.B.A, j't'aurai prévenu Le crime paie Le crime paie Seul le crime paie, aucun remord pour mes pêchés Tu m'connais, j'suis assez bestial pour de la monnaie et N'aimant que manier l'acier pour des billets Ici t'entends des click click, seul le crime paie Seul le crime paie, aucun remord pour mes pêchés Tu m'connais, j'suis assez bestial pour de la monnaie et N'aimant que manier l'acier pour des billets Ici t'entends des click click, seul le crime paie Seul le crime paie, si t'as pas de vice repose en paix Je suis hors-la-loi, devant elle j'veux pas ramper Je m'introduis la nuit, quand les gens sont endormis Le code de la rue est rude, pas besoin de permis M'parle plus d'école, je sais qu'les re-frés déconnent Préfèrent fumer d'l'herbe et emmerder la B.R.B Braquer un petit con avec un 3.5.7 Python Puisqu'on est jeunes, profitons Puis ton gun devient une boule, un vice roulant Eh yo yo yo dis moi fils, paraît qu'tu roules en Merco Les narcotiques payent gros en cash flow B.2.O.B haschisch, un phat flow J'ai déterré la hache, enterré la colombe Regarde le biz de hasch, de Boulogne jusqu'à Colombes Je suis trop pourri, quand je rentre ça sent le moisi On reconnaît mon haleine de Fleury jusqu'à Noisy J'ai choisi mon chemin, non je crois qu'c'est mon destin Et si tu as un 'blème, je te plante dans l'intestin C'est le festin des deux Lunatic, tu veux en teste un Si tu en tues un, protège ton dos ! Il en reste un Seul le crime paie, aucun remord pour mes pêchés Tu m'connais, j'suis assez bestial pour de la monnaie et N'aimant que manier l'acier pour des billets Ici t'entends des click click, seul le crime paie Seul le crime paie, aucun remord pour mes pêchés Tu m'connais, j'suis assez bestial pour de la monnaie et N'aimant que manier l'acier pour des billets Ici t'entends des click click, seul le crime paie Seul le crime paie, si t'es pas d'chez nous, t'as rien appris Les vrais re-frés savent bien comment l'argent se fait Décidés à miser tout dans le biz et Passer au-dessus des lois et ça sans visa Vise la dégaine de ceux qui ont traîné leurs semelles plus d'une fois sur le bitume Tout comme le veut la coutume de ceux qui n'ont rien Wesh wesh yo Wesh yo Tu sais, le crime paie protège tes seufs chef tes fesses Et les méfaits n'cessent, regarde c'qu'on aiff Un leur-dea sort une savonnette et les ients-ients bavent Honnêtement les négros savent comment faire d'l'argent bêtement Easy, du cash à la Sugar Hill AZ Mon rap, un poème sans poésie Et puis quoi, ça fait quoi, dis-moi toi qui sais tout Si tu kiffes pas renoi t'écoutes pas et puis c'est tout Seul le crime paie dans les villes du neuf ze-dou Face à face, que des regards froids, y'a pas d'z'yeux doux Protège ton dos, les couteaux sont aiguisés Les frères déguisés pour des thunes peuvent te briser Comment mépriser l'argent quand tu n'en as pas ? Le crime est un piège, mon Dieu, j'ai mordu l'appât Seul le crime paie Seul le crime paie, aucun remord pour mes pêchés Tu m'connais, j'suis assez bestial pour de la monnaie et N'aimant que manier l'acier pour des billets Ici t'entends des click click, seul le crime paie Seul le crime paie, aucun remord pour mes pêchés Tu m'connais, j'suis assez bestial pour de la monnaie et N'aimant que manier l'acier pour des billets Ici t'entends des click click, seul le crime paie Seul le crime paie, aucun remord pour mes pêchés Tu m'connais, j'suis assez bestial pour de la monnaie et N'aimant que manier l'acier pour des billets Ici t'entends des click click, seul le crime paie Seul le crime paie, aucun remord pour mes pêchés Tu m'connais, j'suis assez bestial pour de la monnaie et N'aimant que manier l'acier pour des billets Ici t'entends des click click, seul le crime paie10</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Monde</t>
+          <t>Beautiful</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Petit prince, ton mouton est prisonnier des ronces J'ai tout observé du haut de ma branche Aucune délivrance, privé d'oxygène et sans réponse Il ne vit que pour être découpé en tranches Piégé dans les halls, moins de haut que de bas Et ça n'en doute pas, mais j'ai vu tout ça depuis l'époque de Batistuta J'me demande comment, moi maman, j'me demande plus pourquoi On se voit peu mais crois pas que mon coeur ne bat plus pour toi Non, c'est juste que j'ai un plan On est tellement derrière qu'on croit tout le temps qu'on est devant Posté sur le ter-ter, 3-4 grammes dans le sang Car on roulera pas en R.R. en restant dans le rang Et tout ce gâchis, ça me répugne Dans le zoo, c'est retournée acrobatique sur l'bitume Dans Paris, nos voix s'échappent de tous types de véhicules Nos chanteurs niquent la mère à Lara Fabian sur iTunes Fiston, tu vois tous ces anciens sans chicots Ils vendaient la A1 Perico C'est pas du pipot, mais tôt ou tard, on se fait éclater Du plus petit pion à El Chapo Les petites sont locas Elles savent ce qu'il y a sous le capot, si c'est un pack ou une prépa On les bluffe pas Elles sont fans de Uzi et de motos, de Verrati, de Thiago Motta Elles sniffent la muerte avec les res-sta Elle sortent le soir danser dans le dos de Papa Fuerte Elles sautent dessus direct, elles abandonnent leurs pines-co Elle est bien loin l'époque de la Super Nintendo Ça joue perso et on a bien raison Y a tellement de traîtres que ça en boucherait l'horizon Tu m'empoisonnes, zehma, tu cherches la guérison Est-ce que j'vais même m'en sortir, l'avenir joue à ni-oui-ni-non J'veux des millions, j'ai le cur brisé, immunisé Je n'ai pas de secteur préféré, tant que c'est bien rémunéré Et qu'j'ai peu de chance d'être déféré ou de voir mes fantômes déterrés Car désirer, c'est chavirer et j'suis loin de la ligne d'arrivée Parisien pas paresseux, tu cherches un truc, passe par ici Hein, même si tout ça, c'est pas une vie Hein, non on est pas des affamés J'apparais, j'disparais toute la nuit Je n'ai qu'une parole, j'écoute que la daronne Donc à chaque fois qu'elle parle, je lui réponds Si patronne Fidèle comme Limon, comme Fifty devant Eminem J'aime pas trop les interviews, j'essaye de la jouer comme Mylène J'suis dans le game, j'suis dangereux Rien à perdre, j'ai les deux pieds dans le feu J'suis dans le VIP, t'es dans le faux Trop de bouteilles, j'vois plus les glaçons dans le seau Plein de bouteilles, on peut rentrer en crampons Hein, ils savent qu'on est des gens bons Explosé, j'fais la bise au patron Hein, il sent qu'j'suis un champion Hein, j'suis tellement loin, je sais même plus quand j'ai tort À un point où je sais même plus quand j'ai peur J'suis sûr d'un truc, c'est qu'on aura pas la même mort Et qu'y ait Rolex ou pas, on a tous la même heure Hein, j'suis la cause, les conséquences Damné dans l'errance, quand on tombe, les condés dansent Si on, si on, si on comptait ce qu'on dépense Au lieu de le mettre à la planque juste pour rattraper le manque Bah, on remplirait la pièce Et le 206 du petit serait un Classe E La putain de sa race, grossier personnage J'ai le gland qui chatouille leur sophage sous un ciel orageux Moi, quand j'ouvre les yeux, tout est mauve Le rouge, ça va, j'ai ma dose Non non, j'prends pas de pause Me sauver en vrai t'as autant de chance que de faire un brushing à un chauve Houss, S, tu regardes la porte et moi la fenêtre Lossa, j'veux voir leur tête quand j'vais apparaître J'allume dans le tas direct, j'me prends pas la tête Mes anciens potes complotent, ça me brise le cur La nuit, j'entends des voix qui me disent de les fumer ou de minimum les ruiner Y a plus de pitié quand y a plus de peut-être y a plus de peut-être J'préfère partager mille dîners avec deux prostituées jnounées Que vous m'offriez une cigarette, bah ouais les mecs Eh eh, bah ouais les mecs, promis demain j'arrête Mais tu connais la règle, j'gagne, j'passe pas la manette Prends-toi une canette, moi deux bouteilles de Jack Et avec la monnaie, rajoute des cacahuètes Et j'ai du mal à kiffer James Bond Il m'rappele que l'occident tue des enfants et encule des mères dans le tiers-monde Bombardé par des drones Déchiqueté par ceux qui tiennent le monde dans leurs paumes Frappe chirurgicale, y a plus une âme dans la zone Et le roi des fils de pute pose ses fesses sur le trône sur le trône Des explosions et des cris Des centaines de corps empilés à la déchetterie Imagine ton petit déj' devant des F16 et des tanks Et t'aurais moins de mal à comprendre Pourquoi ils ont quitté la Syrie, le Pakistan et l'Irak Et que chaque feu rouge de Paname ressemble à la cour des miracles Et la compassion est morte elle est morte Oh putain, qu'est-ce qu'elle me manque me manque Oh putain, qu'est-ce qu'elle me manque Je l'ai vue se faire crucifier sur une planche à billets de banque Et alors, petit prince, veux-tu devenir un roi ? Ou bien rester une pince et suivre toutes leurs lois Il est temps de faire un choix, veux-tu te faire une place ? Si tu veux te faire une place, tu laisses ton âme chez toi Tu monteras sur l'G.P., tourneras dans le ghetto Tu joueras les kékés et tu voudras les euros Tu perdras ta gaieté quand tu fumeras sur le bédo Ton innocence sera découpée avec une scie à métaux Quand tu toucheras la coco, clientèle de bobos Tu goûteras Giuseppe, P.P. et Valentino Les hôtels et les restos, les voitures et les tasses-pé Jusqu'à ce qu'ils défoncent ta porte et qu'ils te passent les bracelets Et ça te fait même pas peur la prison, non au contraire, ça te fait rigoler Ce trou du cul de maton sait pas que t'es déjà habitué à un lit superposé Et t'aimerais passer tous les barrages Mais ces fils de pute veulent mettre des péages dans les nuages Tu voudrais juste changer ton image Mais ils te verront toujours comme une limace Han, et tout le monde tombe aux prisonniers des ronces J'ai tout observé du haut de ma branche Trouve-toi un refuge Fais tes valises, allez vas-y bouge avant de finir découpé en tranche C'est pas pour toi les halls, pourquoi jouer un rôle, t'es pas si cruel Même si je sais que t'es livré à toi-même Parmi les hyènes, tu passerais pas la semaine T'as rien à voir avec l'espèce humaine Petit prince Petit prince Petit prince Petit prince Petit prince Peti prince Petit prince Qu'est-ce t'en penses ? Petit prince Qu'est-ce t'en penses petit prince ? Petit prince, petit prince Qu'est-ce t'en penses petit prince ? Petit prince, petit prince Petit prince, petit prince Petit prince, petit prince7</t>
+          <t>Maybe you're smarter than me, Or maybe you just know how much your worth? Or maybe you don't need anyone to tell you you're beautiful Cause you already knew that the day you came out the womb Maybe you know too much, or maybe you just expect the worst Or maybe you aint trying to be nobody's baby unless he speaks with your dad first Maybe you're saving yourself for heaven cause you can't stand this earth Maybe you're saving yourself from hell, Iblis and the ones who are cursed Maybe you see past dception, maybe this world is a lie Mayb we're like in the matrix, but you're unplugged and you can fly Maybe you just wanna go back home so you stare at the sky Maybe you know the difference between living and just being alive Maybe you are a slice of this life's ultimate prize Cause maybe your mind has been divinely designed But maybe it's just me or maybe its maybeline Or maybe I should do a better job at lowering my gaze but honestly you're amazing And I treat you like a queen cause you give me no choice My sister in deen it is time to rejoice, For you who believe and work righteous deeds, There is a garden of bliss, for all of eternity If only you would believe what your eyes could not see Which begs the question what is beauty? Maybe it's the way her body's shaped or the way she's dressed? But if the whole world was blind, how many people would you impress The best couldn't care less for tight jeans or a short dress Or those shirts that expose what God told you to protect And I don't mean to sound rude, but how could you approve of any dude Who doesn't mind sharing the whole world with you? And he don't think you're beautiful, he think your booty full Glossed lips with make up on every single cuticle, and it aint cute at all Cause if those shoes hurt your feet, why don't you just take them off Some girls think that pain equals sexy, and if you got it show it off But nobody even looks happy with those plastic smiles on And those magazines are wrong, forget men and their songs Love yourself first before you take anyone else on, And to love yourself is to love the one whom which all love belongs There is beauty in creation, but creator really got it going on There is something seriously wrong, with pre-teens in thongs And middle aged moms who cant see life move on So they tell wrinkles to be gone, buy hair to make it long You cant keep it real, cause you dont even know who you are You women are oppressed, forced to flaunt your thighs and chest And before puberty, you already on a diet Promoting nudity, like it's some kind of natural science But you're a diamond, I shouldn't even see past the glass cage unless I'm buying But if you have no shame than do as you please Cause what is beauty, but an extension of modesty? So maybe she's right, maybe she does deserve respect Maybe she walks around feeling like a superhero with that scarf dangling from her neck Maybe nobody is forcing her to wear it, Maybe she would never leave home without it, And maybe she don't care what people think, cause most opinions aint even valid Maybe she feels free maybe she has peace of mind And maybe she'll give you a piece of her mind if you step out of line, Maybe she isn't perfect, but maybe she's trying Maybe she is just taking things one day at a time Maybe she laughs and maybe she cries And maybe you would be surprised at everything she keeps inside Maybe she hears every single word said by those cowards Maybe she has no problem defying all those who doubt her Maybe she is a warrior and the silence is getting louder Maybe she wears that shield cause every single day is a battle Maybe she is more than the skin she is in, Maybe we should start learning how to love what's within Maybe God only knows all the places she has been But maybe she comes back to him, again and again Maybe she's not afraid to die, just afraid not to live Maybe I am not worthy of everything she can give Maybe she is kind, sweet, pure, gentle and suitable And maybe, just maybe she is beautiful</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Lunatic</t>
+          <t>Ghetto</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>18 août 98 B2OBA locked up dans le 78 Lunatic depuis la naissance A.L.I. tu as toute ma reconnaissance Vivre en guerre, mourir en paix Jécris mes punchs en cellule, quartier jeune, Bâtiment B Je fais des pompes comme à la légion 30 mois fermes dans les chicots, je suis au hebs comme à la maison Condamné pour vol aggravé Premier album de la FF, Ärsenik maide à gratter Quelques rapports, un peu de mitard Jvendrais père et mère pour paire de nibards Le zoo me manque, je saurai plus tard Qui est qui, tous mont oublié pour la plupart Laisse-les croire que jirai nulle part Crapaud deviendra prince, nique sa mère mon nénuphar I stay untouchable when I roll up Chest wide open and I ain't gone hide Raised in the streets, don't care to know ya Cause that's how many niggas lose their lives Cause I'm a lunatic, a lunatic The type of nigga that don't let beef fry I'm telling you now, it ain't nothing to load up And blast you monkass bright daylight, yeah 2000 enfin libre, Hauts-de-Seine mon équilibre La main sur le cur, lautre sur le calibre Mauvais il sera un classique Lunatic, 92i le nom de ma clique Disque d'or en indé, premiers à le faire Je ne suis pas chevalier car fallait mettre genou à terre La street ne nous lâche pas Skyrock etc. ne nous passent pas Ils veulent quon change nos propos, allez casse-toi Jai grosse voiture, grosse biatch, écran plasma Jai l'argent clean, l'argent sale Ils veulent nous boycott, nous détruire, mais j'ai la mentale Je pense à quitter la France, Ho's down, G's up Je prends la route même si la malchance me heurte Toujours avec le crime je flirte Réincarcéré pour tentative de meurtre I stay untouchable when I roll up Chest wide open and I ain't gone hide Raised in the streets, don't care to know ya Cause that's how many niggas lose their lives Cause I'm a lunatic, a lunatic The type of nigga that don't let beef fry I'm telling you now, it ain't nothing to load up And blast you monkass bright daylight, yeah Je re-ressors de taule Jai eu chaud au cul, Yann Lebras tas mon big up Jai un gros S sur mon T-shirt Pour Sénégal, armes de l'Est dans mon pick-up Mon label me préoccupe Sombre avenir, rat des villes, je quitte le navire Autant de vices quun mec du Luth Jai le short de Hulk, la force de Luke Seul je dois mener ma lutte Jai hache de guerre, viens pas perquisitionner ma hutte Pont de Sèvres est la ruche Si le ghetto a une queue, cest pour que le commissaire la suce Il est temps que je fasse du gros biff' En provisoire, il est temps que je fasse des modifs Je suis dans ma diaspora, shit dur, terrifique Sens-moi dans ta cage thoracique, Tallac Records I stay untouchable when I roll up Chest wide open and I ain't gone hide Raised in the streets, don't care to know ya Cause that's how many niggas lose their lives Cause I'm a lunatic, a lunatic The type of nigga that don't let beef fry I'm telling you now, it ain't nothing to load up And blast you monkass bright daylight, yeah2</t>
+          <t>Oh oh oh, dans le ghetto Oh oh oh, dans le ghetto Oh oh oh, dans le ghetto Oh oh oh, dans le ghetto Ghetto J'roule un blunt, blunt, blunt aérien Ghetto Triple fuck, fuck, fuck bats les reins Ghetto J'sors le gun, gun, gun pour un rien Ghetto J'suis dans l'binks, binks, binks tout va bien Ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto Ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto J'me demande où va le monde Personne me répond donc je reste au quartier J'coupe la racine, j'attends pas que ça tombe J'vais réussir moi avant que vous partiez Impuissant, j'ai dû te voir galérer Trafic et crime, j'ai de suite adhéré J'vendrai cocaïne à Marine Fuck intérim', j'préfère Mesrine Pour les Colombiens, j'suis qu'un gringo Cigare au bec dans l'hélico' Personne dénonce dans ma team, no Coupe narcotique dans le bendo J'suis toujours au fond de la tess' Jus de bagarre pour garder la pêche Ghetto J'roule un blunt, blunt, blunt aérien Ghetto Triple fuck, fuck, fuck bats les reins Ghetto J'sors le gun, gun, gun pour un rien Ghetto J'suis dans l'binks, binks, binks tout va bien Ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto Ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto J'suis toujours au fond de la tess' Jus de bagarre pour garder la pêche Le cuatro siete vient de Bucarest Caresse gâchette, ennemis disparaissent Ça bicrave déter' comme au Gros Saule J'peux tout avoir en nayant rien J'libère mon peuple, Charles de Gaulle Personne empiète sur mon terrain J'suis toujours au fond de la tess' Jus de bagarre pour garder la pêche Ghetto J'roule un blunt, blunt, blunt aérien Ghetto Triple fuck, fuck, fuck bats les reins Ghetto J'sors le gun, gun, gun pour un rien Ghetto J'suis dans l'binks, binks, binks tout va bien Ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto Ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto J'suis dans l'ghetto J'suis dans l'ghetto J'suis dans l'ghetto J'suis dans l'ghetto J'suis dans l'ghetto J'suis dans l'ghetto J'suis dans l'ghetto J'suis dans l'ghetto J'suis dans l'ghetto J'suis dans l'ghetto J'suis dans l'ghetto7</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Gotham</t>
+          <t>JDC</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Twinsmatic Ils ont allumé l'projecteur, tout est noir par ici J'ai d'la pure de Bogota, j'monte sur Gotham, Gotham City J'monte sur Gotham City Toujours en ce-for comme Rocco dans cul de pucelle Omniprésent fort comme congolais dans rue de Bruxelles Faites monter ma plus grosse bouteille et la petite et magnez-la J'l'ai vue en bas, porte-jarretelles, j'avais langue pendue comme Valbuena Il n'y en a qu'un donc tout l'monde reconnaît l'Duc Vrais soldats reconnaissent putains Vraies stos-ba reconnaissent uc' Je brise des vies mais j'en répare Frenchy, elles préfèrent ma bite que mon accent car j'n'en ai pas Droite d'Anthony Joshua t'ferme la boca L'argent de la me-ca paie l'avocat J'suis réel comme Rocinha, carioca J'te présente Jimmy deux fois, Ray Liotta Ils ont allumé l'projecteur, tout est noir par ici J'ai d'la pure de Bogota, j'monte sur Gotham, Gotham City Tout est noir par ici Ils ont allumé l'projecteur, tout est noir par ici J'ai d'la pure de Bogota, j'monte sur Gotham, Gotham City Tout est noir par ici Le boule'zer est de compétition J'obtiendrai la paix par démolition T'prendre en missionnaire ma mission T'es bonne, c'est normal nous choisissons filet mignon J'leur mets au calme, j'paye l'addition À tous les rates-pi de la région Monte à bord, t'es à la maison Ici, beaucoup d'mères nous baisons Beaucoup de mères de familles nombreuses, hélas Ici bas, j'me suis permis beaucoup d'écarts Les putes viennent en bas, non, cherche pas dans les étages Même plus de haine envers toi, t'es tellement naze Jveux me gratter le davos mais tellement large GSXR à ta portière, tu viens de quitter le bal J'suis dans l'DM à ta sorcière, elle a validé le bail J'me fait sucer par une beauté divine au volant d'une Mercedes J'lui ai dit qu'j'aimais les gros culs donc elle veut s'refaire les fesses J'vais l'envoyer en Colombie, Gonzalez va la refaire en S On a des plugs un peu partout, Russie, Bondy, Los Angeles Ils ont allumé l'projecteur, tout est noir par ici J'ai d'la pure de Bogota, j'monte sur Gotham, Gotham City Tout est noir par ici Ils ont allumé l'projecteur, tout est noir par ici J'ai d'la pure de Bogota, j'monte sur Gotham, Gotham City Tout est noir par ici13</t>
+          <t>Welcome to the sal, Izi Skuuurt geah Ici tout est noir c'est la Talibé Pas comme dans l'lit d'Johnny Hallyday La pute à ma gauche écoute Validée La pute à ma droite est cocaïnée Aucune d'entre elles ne sera câlinée Les deux vont sucer fort, c'est ça l'idée Du premier au dernier, j'ferai d'la qualité MDMA dans l'Cuba Libre Sombre combat que l'on doit livrer Je mourrai debout, je serai calibré J'te tire dans la boca pour t'taquiner Tu sors de Skyrock, t'as bien tapiné Planté dans leur cul, j'suis déraciné Jacques a dit, a dit de t'assassiner Tu l'as truqué, je l'ai machiné Ma réalité, j'l'ai imaginée T'auras b'soin d'une luge si tu viens au Luth Mon monument enfant de pute Shadowboxing dans l'utérus Mon avocat est juif, ma pute est russe Maudit soit l'couloir de bus Comment faire un milliard au plus Nostradamus, c'connard, vit juste Kopp Mayweather, Cesar Julius Elle m'demande Combien d'languages do you speak ? En tout cas j'parle pas chinois J'suis Miloevi in this bitch Elle m'demande Combien d'languages do you speak ? Biatch j'parle pas chinois J'suis Miloevi in this bitch J'arrête des carrières pour de vrai J'arrête des carrières pour de vrai J'arrête des carrières pour de vrai J'arrête des carrières pour de vrai 2-7 2-7 Pour de vrai Skuuurt J'arrête des carrières pour de vrai Ewa J'récupère le double R au valet Mon litron de me-sper vient d'être avalé Proche d'1 franc 6 sous je n'pensais qu'à mailler L'or rien à tre-fou, j'n'ai jamais travaillé Pour Noël j'veux un pistolet Tu veux acheter villa, j'veux cambrioler Elle t'aime mais j'la baise, elle t'a mythonné Cur de pierre, l'intérieur est capitonné La rue, la seule pute qui m'a pistonnée Je sais réaliser, tu sais fictionner Film de cul 'vec ta mère j'viens de visionner Sénégal, DKR, Bakel City, yeah Mon bulletin comportement odieux Beaucoup trop montré du doigt Ils disent ne craindre que Dieu Mais ils craignent la fin du mois J'mange de la harira, j'gère mes finances Au commissariat dans l'plus grand des silences Tu vendrais ta mère pour bout de pain Tu m'envoies des piques que j'mets sur mes Louboutin Succès, j'vais t'niquer ta mère Si tu continues à m'ignorer En roue arrière sur l'droit chemin J'vois pas c'que j'pourrais améliorer Elle m'demande Combien d'languages do you speak ? En tout cas j'parle pas chinois J'suis Miloevi in this bitch Elle m'demande Combien d'languages do you speak ? Biatch j'parle pas chinois J'suis Miloevi in this bitch J'arrête des carrières pour de vrai J'arrête des carrières pour de vrai J'arrête des carrières pour de vrai J'arrête des carrières pour de vrai 2-7 2-7 Pour de vrai Skuuurt J'arrête des carrières pour de vrai Ewa On encule moult grands-mères mucho Dans l'turfu sans propulseur oui J'enterre tellement d'négros dans c'game'zer La Faucheuse c'est comme une sur Fuck ce que l'avenir me réserve J'suis pas acteur, j'suis producteur Le thème éradiquer fils de pute 24 carats l'fil conducteur Quoi de mieux qu'un négro 200 arabica ? J'ai rêvé qu'Mère Teresa avait la tte-cha à Nabilla J'vais tourner c'clip avec Chris Macari de Madinina Même ton Glock sur la tempe, jamais tu ne m'intimideras J'y vais armé s'ils me détestent, j'ai pas peur de marcher là J'préfère ma paire de cojones à ma paire de Margiela Il mourra car il me douilla Sa putain de mère s'agenouilla Si sa tribut, chikungunya J'suis plus allez khouya qu'alléluhia 2-7, 2-7 Skuuurt E wa Ouais ouais ouais13</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Abracadabra</t>
+          <t>KYLL</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Hé, hé, Martians Productions Esclave musique, izi Pas de fils de putes, ni enfants de putains sur ma guest list Pour mendormir, je compte les diamants sur ma Breitling Dans mon équipe, y'a pas de fumistes Le gang est unique, sunnite, cest 9.2.I. pas G-Unit Izi monnaie, izi life Oui, tu nous connais, frais, izi nice Je voyage beaucoup, Flying Blue, jai des Miles Boss du rap game, jveux le cheese à Mickey Mouse La France est archi bonne Mon âme toujours au tier-quar comme un taxiphone Jraconte beaucoup de de-mer comme un tas divrognes Trop, trop de punchlines, le rap à Parkinson Tu veux de la 0.9, des pilules ? OK Jai les chicots qui rayent le bitume, OK Rien à envier à Rocco, laisse, laisse Pourquoi tu me regardes mal poto, wesh, wesh ? Ici cest meilleure side, cest la Ouest, Ouest Ferme ta gueule ou Desert Eagle te blesse, blesse Puis-je toffrir un ice cream pour que tu lèches, lèches ? Depuis tout à lheure, je regarde ton boule, jtrouve que tes fraîche, fraîche Dans lestomac jai des MCs, des juges, des cuisses de pollos Coke pas de Pepsi veulent bolosses et fils de bolosses Ils nous écoutent jamais quand on frappe à leur porte Obligés dêtre violents, on na pas le choix mon pote Atteindre mon niveau nest même pas une possibilité Tas rien dans le cerveau comme la police de proximité Là doù je viens, on choisit la facilité Comme dans GTA, code crédit illimité Du shit pour quon tienne, jrappe sans thème Rêvant des billets verts et violets par centaines Mademoiselle cest pour ton cul, ta chatte quon taime B.2.O.B.A. jai plus de flow quune femme fontaine Tu veux de la 0.9, des pilules ? OK Jai les chicots qui rayent le bitume, OK Rien à envier à Rocco, laisse, laisse Pourquoi tu me regardes mal poto, wesh, wesh ? Ici cest meilleure side, cest la Ouest, Ouest Ferme ta gueule ou Desert Eagle te blesse, blesse Puis-je toffrir un ice cream pour que tu lèches, lèches ? Depuis tout à lheure, je regarde ton boule, jtrouve que tes fraîche, fraîche Je sais ce que jai à faire, tinquiète pas frère Jbosse comme un Chinois, jfais que des affaires Jécoute la concurrence, cest à se rouler par terre Mon son, cest Nino Brown à la cité Carter Mon inspi, mon flow, je les trouve dans la kush Pas encore de marmots car je crache dans la bouche Faire du trafic, mes négros demandent que ça Te faire voyager en éco, bonbonnes dhéro dans la tte-cha Tas lesprit serré comme une schneck de Thaï Tu connais rien au son comme Fred de Sky Lindustrie me fait rire, ha ha ha ha Garcimore revient sévir, abracadabra !5</t>
+          <t>Je les aime tous, aucun ne m'aime Je les aime tous, aucun ne maime Je les aime tous, aucun ne m'aime, du coup, j'veux tous les tuer Les autres sont partis à la mer, moi, jai bibi tout l'été Mama, piétine-moi, le paradis est sous tes pieds Tu parleras couramment chinois quand j'vais t'menotter sous l'évier Check Ils maudissent le Diable en public n3al Sheitan mais lui obéissent en privé La France n'est qu'une petite Amérique c'est la Gaule ou bien cest juste un grand quartier Marseille a ses palmiers en plastique 13 mais des armes bel et bien en acier Massilia Jm'en bats les steaks de leurs articles bats les c, bats les c' et d'leurs vérités photoshoppées Rebeu nouveau et renoi moderne, en showcase devant la brigade mondaine Les bras en croix comme étoile de mer, mon couplet tagué sur une toile de maître Maestro J'fais des fautes dorthographe même à l'oral, j'ai des fous rires nerveux dans nos mémorials Dans cent cinquante mètres carrés habitables, j'rappe pour casser leur structure pyramidale, oh J'ai plus confiance en l'Homme depuis que je prends de l'âge depuis, depuis Ils apprennent aux perroquets à prononcer le mot cage J'apprends des critiques, pas des louanges, Franco-Algérien, démon-ange DZ Volcan fait de magma et de glace, Duc'zer et panthère dans l'club house Je les aime tous, aucun ne m'aime, du coup, j'veux tous les tuer Les autres sont partis à la mer, moi, j'ai bibi tout l'été Mama, piétine-moi, le paradis est sous tes pieds Tu parleras couramment chinois quand j'vais t'menotter sous l'évier Y'avait des mères à niquer, vous auriez dû m'appeler Du nègre, de l'Algérien font du Kylian Mbappé Nombreux coups échangés mais j'n'ai jamais baissé la garde J'ai peut-être changé même si j'ai pas rasé la barbe Omar, le Khan la mif, Massoud, Mekka, Luna mieux qu'ça Mbappé Kylian Mbappé, Alger, Dakar, c'est la Oummah Est-c'que tu crois est-c'que ? en la justice et ses loas ? Frère, moi, je n'crois je n'crois qu'aux honoraires de mon avocat But prosternation sur la p'louse, pousse la radio pour couvrir leurs écoutes Coupe la tête du coq et il court toujours, le 9 février au Zénith, ce s'ra full, ah 3amar Jamais je n'bats en retrait jamain, j'ai une carrière que même l'Enfer rejetterait Une polémique par mois mais j'reste jovial, j'fais plus d'audimat que le mariage royal Pour le birthday de ma niña, j'commande Marine en piñata Un peu de selecto dans un bol de Banania J'n'ai pas rasé ma barbe en mémoire de mes ancêtres Il paraît qu'les grands peintres ont observé les grands maîtres Je les aime tous, aucun ne m'aime, du coup, j'veux tous les tuer Les autres sont partis à la mer, moi, j'ai bibi tout l'été Mama, piétine-moi, le paradis est sous tes pieds Tu parleras couramment chinois quand j'vais t'menotter sous l'évier Y'avait des mères à niquer, vous auriez dû m'appeler Du nègre, de l'Algérien font du Kylian Mbappé Nombreux coups échangés mais j'n'ai jamais baissé la garde J'ai peut-être changé même si j'ai pas rasé la barbe5</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Magnifique</t>
+          <t>Sale mood</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Magnifique Elle sait pas que j'suis magnifique Magnifique Un nouveau jour se lève, avec lui, les problèmes qu'il enferme Quitte à prendre du ferme Hey, un nouveau jour se lève, avec lui, les problèmes qu'il enferme Quitte à prendre du ferme, tu t'dis qu'tu vas brasser à long terme Tu as toujours survécu dans l'ombre, solitude en toi a fait salle comble Tu veux braquer les comptes et les acomptes, C'est la hess, crie l'fusil à pompe Tu veux partir pour voir le monde, tu t'dis qu'tu peux même plus perdre une seconde Mais vu les thunes que ça d'mande, ça va crosser, mettre de-mon à l'amende Autour de toi, l'amour s'efface, mais tu n'y penses pas, faut qu'les choses se passent C'est vrai, t'as la vie dure, la chance, elle te crache à la figure Mais à quoi bon se plaindre ? C'est pas comme ça qu'on paie ses factures C'client n'arrête pas de geindre, tu t'es dit qu'il mérite ses fractures Y'a cette fille, tu la regardes de loin, en souriant, tu t'dis qu'c'est un problème de moins Tu penses à elle mais t'as pas l'temps d'la serrer, rien n'est hlel, ange incarcéré Tu fais juste c'que t'as à faire, 'teille de D.U.C. n'est pas à la mer Tu fais all-in à chaque paire, tu n'peux que gagner quand t'as rien à perdre Magnifique Magnifique, magnifique Mula, vous êtes si belle, chaque soir, je rêve de vous J'ai craché sur ton sol, j'n'y mettrai jamais l'genou Vivement que le gong sonne, on verra qui reste debout Magnifique Magnifique, magnifique J'essaie d'viser au-d'ssus des abdominaux, charbon comme un cheminot J'défends l'rrain-te comme Geronimo, rafale transperce ton Dunlopillo Jour et nuit, on pense au dinero, toi, H24 tu veux la go On sait où t'as garé ton Alfa Romeo, kho, on va t'trouer la peau Tout simplement comme les négros s'enlèvent la vie à Chicago Niquer des mères de famille, oh, malheureusement, c'est le scénario C'est le scénario, c'est le scénario Izi, yeah Magnifique Magnifique, magnifique Mula, vous êtes si belle, chaque soir, je rêve de vous J'ai craché sur ton sol, j'n'y mettrai jamais l'genou Vivement que le gong sonne, on verra qui reste debout Magnifique Magnifique, magnifique Magni-magni-magni-magni Magni-magni-magni-magni Magnifique Magni-magni-magnifique Magni-magnifique Magni-magnifique Magni-magni-magnifique1</t>
+          <t>Ahah, ah Ahah, ah Ah, ahah, ah Wills Productions LosaNalosa Te demande pas à qui j'suis affilié jsuis affilié Mon train de vie ici-bas n'est pas assuré pas assuré Des fleuves de larmes couleront à la mer à la mer Tout est si beau, les roses poussent dans la merde skurt, skurt Lueur d'espoir méclaire mais j'suis mal luné skurt, skurt Ce cur de pierre finira par tout ruiner ouh Amour et guerre, souvent, n'font pas la paire skurt, skurt Mes ennemis, sur la place, veulent me lapider J'suis en lunette Cartier posé dans le quartier T'attends que j'te rappelle ce soir, nan, j'vais pas rentrer J'dois surveiller lcartel y a plus rien dans lsachet et les grosses têtes vont s'fâcher Ahah, ahah, ah Me parle plus damour même si t'es une bad girl car j'ai un sale mood sale mood Ahah, ahah, ahah, ah Me parle plus d'amour même si tes une bad girl car j'ai un sale mood sale mood Ahah, ahah, ah T'étais ma bad girl bad girl Ahah, ahah, ah T'étais ma bad girl waow, waow, waow Eh ouais, ma bad gi-irl Ahah, ahah, ah Mais j'ai un sale mood sale mood Tu m'aimes c'est ton problème, ce n'est pas le mien J'suis garé sur les Champs, j'claque 20 milles chez Balmain J'ai signé pour le niquage, j'ai rempli le bon N'hausse pas le ton, négro, ne fais pas le con On s'est croisé à Orly Ouest, personne n'a pris l'avion Mois d'août en hess au D4, j'ai bien retiendu la leçon J'ai vu l'ennemi en Veyron, hallucination Faut à tout prix que j'me retire, sapériodedovulation J'suis en lunette Cartier posé dans le quartier T'attends que j'te rappelle ce soir, nan, j'vais pas rentrer J'dois surveiller l'Cartel y a plus rien dans l'sachet et les grosses têtes vont s'fâcher Ahah, ahah, ah Me parle plus d'amour même si t'es une bad girl car j'ai un sale mood sale mood Ahah, ahah, ahah, ah Me parle plus d'amour même si t'es une bad girl car j'ai un sale mood sale mood Ahah, ahah, ah T'étais ma bad girl bad girl Ahah, ahah, ah T'étais ma bad girl waow, waow, waow Eh ouais, ma bad gi-irl Ahah, ahah, ah Mais j'ai un sale mood sale mood Si j'pars en vrille désolé, je fais le vide désolé Que l'mépris pour m'épauler, plus aucune envie désormais Si j'pars en vrille désolé, je fais le vide désolé Que l'mépris pour m'épauler, plus aucune envie désormais Ahah, ahah, ah Me parle plus d'amour même si t'es une bad girl car j'ai un sale mood sale mood Ahah, ahah, ahah, ah Me parle plus d'amour même si t'es une bad girl car j'ai un sale mood sale mood Ahah, ahah, ah T'étais ma bad girl bad girl Ahah, ahah, ah T'étais ma bad girl waow, waow, waow Eh ouais, ma bad gi-irl Ahah, ahah, ah Mais j'ai un sale mood sale mood Mais j'ai un sale mood sale mood Mama yé ha...6</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Le crime paie</t>
+          <t>Balti</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Wesh wesh yo Écoute fils Voici l'métis café crème, lMC cappuccino Criminel au M.I.C, si tes pas d'chez nous, cest Nique le taf, le biz' fait briller les Gs Les beaufs claquent, mon style craque, reflète une ZAC Dans mon quartier, les frères ont le même emploi Seul le crime paie et la nuit, ils se déploient Mais quest-ce que tu croyais ? Quon allait rester là à s'laisser noyer ? Voyons, ici chacun avance selon ses moyens Une grosse capuche recouvre ma tête grillée Pour 2 ou 3 billets, le chrome je fais briller Danger, le Lunatic vise, tire les dé-kiss T'as pas besoin d'dessin, pas besoin d'une putain d'esquisse Frappe, j'les mets à poil comme en garde à vue, enlève tes lacets Tes chaussures, ton jean, ton pull, ton bracelet Le biz fait tomber les liasses quelle que soit la saison Souvent la prison au bout du tunnel, mais le réseau S'élargit de jour en jour de nouveaux venus A.L.I, B.2.O.B.A, j't'aurai prévenu Le crime paie Le crime paie Seul le crime paie, aucun remord pour mes pêchés Tu m'connais, j'suis assez bestial pour de la monnaie et N'aimant que manier l'acier pour des billets Ici t'entends des click click, seul le crime paie Seul le crime paie, aucun remord pour mes pêchés Tu m'connais, j'suis assez bestial pour de la monnaie et N'aimant que manier l'acier pour des billets Ici t'entends des click click, seul le crime paie Seul le crime paie, si t'as pas de vice repose en paix Je suis hors-la-loi, devant elle j'veux pas ramper Je m'introduis la nuit, quand les gens sont endormis Le code de la rue est rude, pas besoin de permis M'parle plus d'école, je sais qu'les re-frés déconnent Préfèrent fumer d'l'herbe et emmerder la B.R.B Braquer un petit con avec un 3.5.7 Python Puisqu'on est jeunes, profitons Puis ton gun devient une boule, un vice roulant Eh yo yo yo dis moi fils, paraît qu'tu roules en Merco Les narcotiques payent gros en cash flow B.2.O.B haschisch, un phat flow J'ai déterré la hache, enterré la colombe Regarde le biz de hasch, de Boulogne jusqu'à Colombes Je suis trop pourri, quand je rentre ça sent le moisi On reconnaît mon haleine de Fleury jusqu'à Noisy J'ai choisi mon chemin, non je crois qu'c'est mon destin Et si tu as un 'blème, je te plante dans l'intestin C'est le festin des deux Lunatic, tu veux en teste un Si tu en tues un, protège ton dos ! Il en reste un Seul le crime paie, aucun remord pour mes pêchés Tu m'connais, j'suis assez bestial pour de la monnaie et N'aimant que manier l'acier pour des billets Ici t'entends des click click, seul le crime paie Seul le crime paie, aucun remord pour mes pêchés Tu m'connais, j'suis assez bestial pour de la monnaie et N'aimant que manier l'acier pour des billets Ici t'entends des click click, seul le crime paie Seul le crime paie, si t'es pas d'chez nous, t'as rien appris Les vrais re-frés savent bien comment l'argent se fait Décidés à miser tout dans le biz et Passer au-dessus des lois et ça sans visa Vise la dégaine de ceux qui ont traîné leurs semelles plus d'une fois sur le bitume Tout comme le veut la coutume de ceux qui n'ont rien Wesh wesh yo Wesh yo Tu sais, le crime paie protège tes seufs chef tes fesses Et les méfaits n'cessent, regarde c'qu'on aiff Un leur-dea sort une savonnette et les ients-ients bavent Honnêtement les négros savent comment faire d'l'argent bêtement Easy, du cash à la Sugar Hill AZ Mon rap, un poème sans poésie Et puis quoi, ça fait quoi, dis-moi toi qui sais tout Si tu kiffes pas renoi t'écoutes pas et puis c'est tout Seul le crime paie dans les villes du neuf ze-dou Face à face, que des regards froids, y'a pas d'z'yeux doux Protège ton dos, les couteaux sont aiguisés Les frères déguisés pour des thunes peuvent te briser Comment mépriser l'argent quand tu n'en as pas ? Le crime est un piège, mon Dieu, j'ai mordu l'appât Seul le crime paie Seul le crime paie, aucun remord pour mes pêchés Tu m'connais, j'suis assez bestial pour de la monnaie et N'aimant que manier l'acier pour des billets Ici t'entends des click click, seul le crime paie Seul le crime paie, aucun remord pour mes pêchés Tu m'connais, j'suis assez bestial pour de la monnaie et N'aimant que manier l'acier pour des billets Ici t'entends des click click, seul le crime paie Seul le crime paie, aucun remord pour mes pêchés Tu m'connais, j'suis assez bestial pour de la monnaie et N'aimant que manier l'acier pour des billets Ici t'entends des click click, seul le crime paie Seul le crime paie, aucun remord pour mes pêchés Tu m'connais, j'suis assez bestial pour de la monnaie et N'aimant que manier l'acier pour des billets Ici t'entends des click click, seul le crime paie10</t>
+          <t>Le-le-le Mâle ! Geah Boulbi, Lille'zer Billets verts, violets Geah, izi Bicrave et détaille dans l'four Bicrave et détaille dans l'four Ça bibi, ça détaille, ça bibi, ça détaille Ça bicrave et détaille dans l'four, wouh Bicrave et détaille dans l'four Bicrave et détaille dans l'four Comme Marlo on enquille les ients-cli sur Balti Et McNulty devient fou Elle est bonne, elle est bonne, alors fais-lui un gosse Tèj-la si l'bébé est moche Nique sa mère les chèques et les schneks, j'ai d'la drogue Y'a pas qu'sur la tête qu'il faut placer un bob J'fais trois showcases par semaine Remballe ton salaire de merde Et crève en Enfer Dans l'cul d'un trav' à Phuket On s'pavane dans l'5-9, de Compton à Harlem Bataille comme Jon Jones et Crixus dans l'arène Les rappeurs nous craignent et les groupies nous aiment L'oiseau ne suce pas et vole de ses ailes On s'est mis dans l'rap pour déconner On a fumé de l'herbe pour décoller Aujourd'hui, j'prends l'avion avec dans l'slip du shit cellophané Les ennemis, les soucis, les groupies s'accumulent Ça tombe bien, en c'moment mon Glock s'ennuie Comme Marlo on ré-ti sur Carlo dans l'buffet Si l'un d'ces salauds veut nous nuire Comment vous dire ? J'suis paranoïaque J'ai coupé la C avec de l'ammoniaque Allez pétasse, mets-moi de l'huile J'veux entendre le bruit du canon quand il jacte Bicrave et détaille dans l'four izi Bicrave et détaille dans l'four ça bibi, ça bibi Ça bibi, ça détaille, ça bibi, ça détaille Ça bicrave et détaille dans l'four, wouh Bicrave et détaille dans l'four bibi Bicrave et détaille dans l'four Comme Marlo on enquille les ients-cli sur Balti Et McNulty devient fou GradurOfficiel mon sheguey Même si j'me suis désabonné Squad Nanterre, Bois d'Arcy, La Santé Merci, mais j'ai déjà donné Ça bicravait fort dans le reze-fouzou Pilon moins rentable que la dreze-pouzou La chatte à la greffière, la chatte à la greffière Fusil d'assaut sur la tempe à la caissière On attend pas leurs salaires Armés en i, n'entends-tu pas le CR ? Enfouraillés comme section K, CLR J'suis leur père et j'suis sévère J'suis dans les bails de construction de mansion 60 ges-pi sur un yacht on les aime jeunes Sur ton mur de trophées j'retiens qu'les godes À 100 ans j'serai numéro un comme MacLeod J'fais pas l'apologie du crime J'fais celle des sommes à dix chiffres Sombre rate-pi s'arrêtera-t-il ? Tu lèves un doigt, tu prends dix gifles Qu'est-c'que j'vais dire aux petits gars ? Assumez les délits qu'vous commettez J'lis faits divers, j'me fais sucer la pinga J'sirote mon café con leche Bicrave et détaille dans l'four Bicrave et détaille dans l'four izi Ça bibi, ça détaille, ça bibi, ça détaille Ça bicrave et détaille dans l'four ça bibi, ça bibi Bicrave et détaille dans l'four Bicrave et détaille dans l'four izi Comme Marlo on enquille les ients-cli sur Balti Et McNulty devient fou Entrée dévastrice dans l'game comme SIDA Comme Mobutu je viens foutre le désordre Le cauchemar des rappeurs sans cinoche On les pousse à la retraite comme Seedorf Si la guerre est une forme de violence J'vais la manier de manière méthodique Comme un virus j'vais répandre ma mélodie Dans tous les taudis, du Peugeot au Audi Des tonnes de ients-cli, business à Balti Tellement baisé elle veut même plus repartir Beuh-beuh dans l'calcif', visser les camés On fait plus de biff' que tes MC, va l'dire à McNulty Omar dans la ne-zo, d'la coke dans les naseaux Armé comme un nazi, attaque au char d'assaut Une prise de la Bastille, du plomb dans mon plastic Du 5-9 au 9-2, que des putains d'classiques J'vais lui bouffer la tte-cha, arracher son string Avant d'crever comme c't'enculé d'Stringer Bibi toute l'année, fuck les lois en vigueur Y'a d'la beuh, y'a du Jack, y'a d'la 'tasse et d'la liqueur Sheguey, j'suis trop chaud dis-moi qui peut m'tester ? Et on vient prendre le contrôle, fais gaffe à tes fesses De la coke dans vos vestes, AK venue de l'Est Et de la rue, la tess KO2P GPS Bicrave et détaille dans l'four geah Bicrave et détaille dans l'four izi Ça bibi, ça détaille, ça bibi, ça détaille Ça bicrave et détaille dans l'four ça bibi, ça bibi Bicrave et détaille dans l'four Bicrave et détaille dans l'four izi Comme Marlo on enquille les ients-cli sur Balti Et McNulty devient fou geah7</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Beautiful</t>
+          <t>Azerty</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Maybe you're smarter than me, Or maybe you just know how much your worth? Or maybe you don't need anyone to tell you you're beautiful Cause you already knew that the day you came out the womb Maybe you know too much, or maybe you just expect the worst Or maybe you aint trying to be nobody's baby unless he speaks with your dad first Maybe you're saving yourself for heaven cause you can't stand this earth Maybe you're saving yourself from hell, Iblis and the ones who are cursed Maybe you see past dception, maybe this world is a lie Mayb we're like in the matrix, but you're unplugged and you can fly Maybe you just wanna go back home so you stare at the sky Maybe you know the difference between living and just being alive Maybe you are a slice of this life's ultimate prize Cause maybe your mind has been divinely designed But maybe it's just me or maybe its maybeline Or maybe I should do a better job at lowering my gaze but honestly you're amazing And I treat you like a queen cause you give me no choice My sister in deen it is time to rejoice, For you who believe and work righteous deeds, There is a garden of bliss, for all of eternity If only you would believe what your eyes could not see Which begs the question what is beauty? Maybe it's the way her body's shaped or the way she's dressed? But if the whole world was blind, how many people would you impress The best couldn't care less for tight jeans or a short dress Or those shirts that expose what God told you to protect And I don't mean to sound rude, but how could you approve of any dude Who doesn't mind sharing the whole world with you? And he don't think you're beautiful, he think your booty full Glossed lips with make up on every single cuticle, and it aint cute at all Cause if those shoes hurt your feet, why don't you just take them off Some girls think that pain equals sexy, and if you got it show it off But nobody even looks happy with those plastic smiles on And those magazines are wrong, forget men and their songs Love yourself first before you take anyone else on, And to love yourself is to love the one whom which all love belongs There is beauty in creation, but creator really got it going on There is something seriously wrong, with pre-teens in thongs And middle aged moms who cant see life move on So they tell wrinkles to be gone, buy hair to make it long You cant keep it real, cause you dont even know who you are You women are oppressed, forced to flaunt your thighs and chest And before puberty, you already on a diet Promoting nudity, like it's some kind of natural science But you're a diamond, I shouldn't even see past the glass cage unless I'm buying But if you have no shame than do as you please Cause what is beauty, but an extension of modesty? So maybe she's right, maybe she does deserve respect Maybe she walks around feeling like a superhero with that scarf dangling from her neck Maybe nobody is forcing her to wear it, Maybe she would never leave home without it, And maybe she don't care what people think, cause most opinions aint even valid Maybe she feels free maybe she has peace of mind And maybe she'll give you a piece of her mind if you step out of line, Maybe she isn't perfect, but maybe she's trying Maybe she is just taking things one day at a time Maybe she laughs and maybe she cries And maybe you would be surprised at everything she keeps inside Maybe she hears every single word said by those cowards Maybe she has no problem defying all those who doubt her Maybe she is a warrior and the silence is getting louder Maybe she wears that shield cause every single day is a battle Maybe she is more than the skin she is in, Maybe we should start learning how to love what's within Maybe God only knows all the places she has been But maybe she comes back to him, again and again Maybe she's not afraid to die, just afraid not to live Maybe I am not worthy of everything she can give Maybe she is kind, sweet, pure, gentle and suitable And maybe, just maybe she is beautiful</t>
+          <t>Sku Oh, oh, oh, oh, oh Sayen Sayen Est-ce qu'on peut s'appeler ? Est-ce qu'on peut s'appeler un orchestre si on joue tous de la guitare ? Est-ce qu'on peut s'appeler un orchestre si on joue tous de la guitare ? Casque intégral sur mon dragon, je me souviens du Nord On reconnaît la frappe au tampon, ou si le client est mort Toujours honorer le drapeau, personne n'a prêté allégeance Le GPS confirme ta présence, pas vu, pas pris dit la légende Humble dans mon arrogance, je sais que d'autres ont fait bien mieux C'est chacun sa chance chacun, à un moment, faut dire adieu Il régna d'une main de fer, transforma tous ces rats en souris Ils s'éteignirent comme des bougies, moi, comme un feu de Californie J'aimerais avoir petits-enfants, leur dire c'qu'il s'est passé à Orly Leur dire que c'était nous les bons, c'soir-là, hamdoulah, j'ai bien dormi Ils ont des machines à neutron, j'ai une canette, un triangle au thon En vrai, j'suis grave yomb de la planète, mon iPhone, c'est comme un illeton Fini l'heure de la mijote fini, les carottes sont cuites, fuck AZERTY fuck AZERTY Bill dit qu'il a l'antidote, Vladimir dit que le thé est servi Fini l'heure de la mijote, les carottes sont cuites, fuck AZERTY fuck AZERTY Bill dit qu'il a l'antidote ouais, Vladimir dit que le thé est servi Les citoyens passifs en sueur, un afflux massif de menteurs Niquer des mères, j'le fais d'bon cur, j'ai pas besoin d'un influenceur Vie sur personne, pas de prince de la trap Tu f'rais mieux d'arrêter ton cinéma et de tendre la patte Pauvre Marie était vierge, elle m'a snapé les doigts dans la chatte Fuck étudier, moi, j'ai Google, en deux heures, je passe à la barre Tu voulais pas perdre, fallait pas jouer, j'ai tenu comme Yasser Arafat Le nouveau guetteur s'est fait tatouer 22, akha, y a la BAC L'ambiance n'est pas à la fête, j'aurais dû viser la tête la tête, oh, oh L'ambiance n'est pas à la fête, j'aurais dû viser la tête la tête, oh, oh Fini l'heure de la mijote fini, les carottes sont cuites, fuck AZERTY fuck AZERTY Bill dit qu'il a l'antidote, Vladimir dit que le thé est servi Fini l'heure de la mijote, les carottes sont cuites, fuck AZERTY Bill dit qu'il a l'antidote, Vladimir dit que le thé est servi Tu fais l'ancien, t'es déficitaire Ouais, ouais L'ambiance n'est pas à la fête, j'aurais dû viser la tête, oh, oh L'ambiance n'est pas à la fête, j'aurais dû viser la tête, oh, oh4</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ghetto</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Oh oh oh, dans le ghetto Oh oh oh, dans le ghetto Oh oh oh, dans le ghetto Oh oh oh, dans le ghetto Ghetto J'roule un blunt, blunt, blunt aérien Ghetto Triple fuck, fuck, fuck bats les reins Ghetto J'sors le gun, gun, gun pour un rien Ghetto J'suis dans l'binks, binks, binks tout va bien Ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto Ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto J'me demande où va le monde Personne me répond donc je reste au quartier J'coupe la racine, j'attends pas que ça tombe J'vais réussir moi avant que vous partiez Impuissant, j'ai dû te voir galérer Trafic et crime, j'ai de suite adhéré J'vendrai cocaïne à Marine Fuck intérim', j'préfère Mesrine Pour les Colombiens, j'suis qu'un gringo Cigare au bec dans l'hélico' Personne dénonce dans ma team, no Coupe narcotique dans le bendo J'suis toujours au fond de la tess' Jus de bagarre pour garder la pêche Ghetto J'roule un blunt, blunt, blunt aérien Ghetto Triple fuck, fuck, fuck bats les reins Ghetto J'sors le gun, gun, gun pour un rien Ghetto J'suis dans l'binks, binks, binks tout va bien Ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto Ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto J'suis toujours au fond de la tess' Jus de bagarre pour garder la pêche Le cuatro siete vient de Bucarest Caresse gâchette, ennemis disparaissent Ça bicrave déter' comme au Gros Saule J'peux tout avoir en nayant rien J'libère mon peuple, Charles de Gaulle Personne empiète sur mon terrain J'suis toujours au fond de la tess' Jus de bagarre pour garder la pêche Ghetto J'roule un blunt, blunt, blunt aérien Ghetto Triple fuck, fuck, fuck bats les reins Ghetto J'sors le gun, gun, gun pour un rien Ghetto J'suis dans l'binks, binks, binks tout va bien Ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto Ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto, ghetto J'suis dans l'ghetto J'suis dans l'ghetto J'suis dans l'ghetto J'suis dans l'ghetto J'suis dans l'ghetto J'suis dans l'ghetto J'suis dans l'ghetto J'suis dans l'ghetto J'suis dans l'ghetto J'suis dans l'ghetto J'suis dans l'ghetto J'suis dans l'ghetto7</t>
+          <t>Izi, calibré chemise hawaienne J'ai pas la moyenne, quoi ? J'm'en bats les couilles J'suis sur le block j'suis sur Youtube Fuck you pay me, a-salamalikoum J'vais t'qué-bra si j'touche le RMI Priez pour moi j'prie pour mes ennemis U trema sur l'habillage J'aime la cherma sur ma biatch Casse-nous pas trop les illes-cou, on va t'rouer de coups Demande à Don Miloud, Hood comme dans Boyz in the hood Ice Cube J'encule vous tous ma pute prépare le couscous Uzi dans chaque main donc j'suis sur Bluetooth Général de guerre contre fantassins Traine avec hommes d'affaires et des assassins J'pèse des tonnes, des demi kill's J'perds ni à l'extérieur ni à domicile Ford péta pour un rodéo 3 visages pales dans la Mondéo grillés J'suis black white comme un Oréo Fucked up, no limit LittleRoméo Eternel délit de faciès MC où es-tu comme Princesse Anies ? J'te fume en pleine messe la chatte à ta nièce Ma pute en Hermès la tienne en Airness Izi, calibré chemise hawaienne J'ai pas la moyenne, quoi ? J'm'en bats les couilles J'suis sur le block j'suis sur Youtube Fuck you pay me, a-salamalikoum J'vais t'qué-bra si j'touche le RMI Priez pour moi j'prie pour mes ennemis U trema sur l'habillage J'aime la cherma sur ma biatch4</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>JDC</t>
+          <t>L.E.F</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Welcome to the sal, Izi Skuuurt geah Ici tout est noir c'est la Talibé Pas comme dans l'lit d'Johnny Hallyday La pute à ma gauche écoute Validée La pute à ma droite est cocaïnée Aucune d'entre elles ne sera câlinée Les deux vont sucer fort, c'est ça l'idée Du premier au dernier, j'ferai d'la qualité MDMA dans l'Cuba Libre Sombre combat que l'on doit livrer Je mourrai debout, je serai calibré J'te tire dans la boca pour t'taquiner Tu sors de Skyrock, t'as bien tapiné Planté dans leur cul, j'suis déraciné Jacques a dit, a dit de t'assassiner Tu l'as truqué, je l'ai machiné Ma réalité, j'l'ai imaginée T'auras b'soin d'une luge si tu viens au Luth Mon monument enfant de pute Shadowboxing dans l'utérus Mon avocat est juif, ma pute est russe Maudit soit l'couloir de bus Comment faire un milliard au plus Nostradamus, c'connard, vit juste Kopp Mayweather, Cesar Julius Elle m'demande Combien d'languages do you speak ? En tout cas j'parle pas chinois J'suis Miloevi in this bitch Elle m'demande Combien d'languages do you speak ? Biatch j'parle pas chinois J'suis Miloevi in this bitch J'arrête des carrières pour de vrai J'arrête des carrières pour de vrai J'arrête des carrières pour de vrai J'arrête des carrières pour de vrai 2-7 2-7 Pour de vrai Skuuurt J'arrête des carrières pour de vrai Ewa J'récupère le double R au valet Mon litron de me-sper vient d'être avalé Proche d'1 franc 6 sous je n'pensais qu'à mailler L'or rien à tre-fou, j'n'ai jamais travaillé Pour Noël j'veux un pistolet Tu veux acheter villa, j'veux cambrioler Elle t'aime mais j'la baise, elle t'a mythonné Cur de pierre, l'intérieur est capitonné La rue, la seule pute qui m'a pistonnée Je sais réaliser, tu sais fictionner Film de cul 'vec ta mère j'viens de visionner Sénégal, DKR, Bakel City, yeah Mon bulletin comportement odieux Beaucoup trop montré du doigt Ils disent ne craindre que Dieu Mais ils craignent la fin du mois J'mange de la harira, j'gère mes finances Au commissariat dans l'plus grand des silences Tu vendrais ta mère pour bout de pain Tu m'envoies des piques que j'mets sur mes Louboutin Succès, j'vais t'niquer ta mère Si tu continues à m'ignorer En roue arrière sur l'droit chemin J'vois pas c'que j'pourrais améliorer Elle m'demande Combien d'languages do you speak ? En tout cas j'parle pas chinois J'suis Miloevi in this bitch Elle m'demande Combien d'languages do you speak ? Biatch j'parle pas chinois J'suis Miloevi in this bitch J'arrête des carrières pour de vrai J'arrête des carrières pour de vrai J'arrête des carrières pour de vrai J'arrête des carrières pour de vrai 2-7 2-7 Pour de vrai Skuuurt J'arrête des carrières pour de vrai Ewa On encule moult grands-mères mucho Dans l'turfu sans propulseur oui J'enterre tellement d'négros dans c'game'zer La Faucheuse c'est comme une sur Fuck ce que l'avenir me réserve J'suis pas acteur, j'suis producteur Le thème éradiquer fils de pute 24 carats l'fil conducteur Quoi de mieux qu'un négro 200 arabica ? J'ai rêvé qu'Mère Teresa avait la tte-cha à Nabilla J'vais tourner c'clip avec Chris Macari de Madinina Même ton Glock sur la tempe, jamais tu ne m'intimideras J'y vais armé s'ils me détestent, j'ai pas peur de marcher là J'préfère ma paire de cojones à ma paire de Margiela Il mourra car il me douilla Sa putain de mère s'agenouilla Si sa tribut, chikungunya J'suis plus allez khouya qu'alléluhia 2-7, 2-7 Skuuurt E wa Ouais ouais ouais13</t>
+          <t>Eh-eh Eh-eh Eh-eh-eh Liberté, égalité Back to the Future, faudra m'indiquer AK-47 fait du nettoyage de qualité Mais tu n'en as pas idée On ne s'arrêtera pas tant que le chargeur n'sera pas vidé, l'rap décapité Izi J'crois que j'ai assez d'amour dans l'coeur pour vous faire la guerre J'crois qu'il y a même pas assez de sang dans vos veines pour remplir mon verre Je vais venir, j'vais voir, j'vais vaincre en dépit de votre aide Construire mon empire avec les débris du World Trade J'ai surfé sur la vague du crime sans faire la ola J'écris mieux que Zola et je n'suis qu'un jeune mollah Que personne ne m'en veuille si j'suis pas poli, me piéger comme un colis J'te le dis, à ma décharge je plaiderai la folie J'arrive comme un virus, non détecté par Curie De mon écurie sort une tuerie sur les traces de l'étoile de Sirius Hy-hydrodynamique, du coffre à la calandre Juste en leur parlant faut qu'ils jouissent, juste en leur calant entre les cuisses Figure osseuse, la faucheuse est enchantée GP 100 sur mains gantées, yeux rouges comme un soleil ensanglanté Cur de ciment j'parle up', j'vais faire comme le Duc J'vais pas les prendre par les sentiments, j'vais les prendre par le uc' Liberté, égalité, faudra m'indiquer AK-47 fait du nettoyage de qualité Mais tu n'en as pas idée Orh Click On ne s'arrêtera pas tant que le chargeur n'sera pas vidé, l'rap décapité Tous mes rates-pi sont validés Kaaris J'ai parloir au premier tour, j'suis un soldat dès le premier jour Peu importe c'qui va m'arriver Linceul blanc tâché de sang quand je partirai Kaaris On m'a dit ils te rejettent alors domine-les 2.7.0 parce que ce système n'est qu'une grosse tapette gominée Sans âme, nos corps ne sont qu'de la viande auxquels on retire tout le sel J'sais pas où j'vais mourir mais j'sais qu'j'suis né quelque part sous le ciel J'farcis de balles pour les enterrer, j'noircis des pages pour les éclairer Les anges muets ont un cri, je sais que même les rêves ont un prix Ce bas-monde est un wagon sans freins en direction des enfers J'hésite entre les horaires du train et les horaires des prières On me dit de freiner Mais le pompe veut leur faire un trou si large dans l'ventre qu'on va savoir ce qu'ils ont mangé au petit-déjeuner Je sais que j'dois m'élever, oui, je sais mais j'aime la rue Oui, je sais qu'la force d'un homme peut raser une montagne si elle gêne la vue-vue Jeune mollah, adoubé Parce que le Guide a été touché le jour où Carla a accouché Dans mon crâne y'a du magma, je ronge ma plaie c'est Madmax Dans mes sons je suis lade-ma, et mon cur éponge le plasma Liberté, égalité, faudra m'indiquer AK-47 fait du nettoyage de qualité Mais tu n'en as pas idée On ne s'arrêtera pas tant que le chargeur n'sera pas vidé, l'rap décapité Tous mes rates-pi sont validés J'ai parloir au premier tour, j'suis un soldat dès le premier jour Peu importe c'qui va m'arriver Linceul blanc tâché de sang quand je partirai 2.7.0 92i 4124 Kaaris, Kaaris Orh Click, Click9</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>KYLL</t>
+          <t>Destinée</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Je les aime tous, aucun ne m'aime Je les aime tous, aucun ne maime Je les aime tous, aucun ne m'aime, du coup, j'veux tous les tuer Les autres sont partis à la mer, moi, jai bibi tout l'été Mama, piétine-moi, le paradis est sous tes pieds Tu parleras couramment chinois quand j'vais t'menotter sous l'évier Check Ils maudissent le Diable en public n3al Sheitan mais lui obéissent en privé La France n'est qu'une petite Amérique c'est la Gaule ou bien cest juste un grand quartier Marseille a ses palmiers en plastique 13 mais des armes bel et bien en acier Massilia Jm'en bats les steaks de leurs articles bats les c, bats les c' et d'leurs vérités photoshoppées Rebeu nouveau et renoi moderne, en showcase devant la brigade mondaine Les bras en croix comme étoile de mer, mon couplet tagué sur une toile de maître Maestro J'fais des fautes dorthographe même à l'oral, j'ai des fous rires nerveux dans nos mémorials Dans cent cinquante mètres carrés habitables, j'rappe pour casser leur structure pyramidale, oh J'ai plus confiance en l'Homme depuis que je prends de l'âge depuis, depuis Ils apprennent aux perroquets à prononcer le mot cage J'apprends des critiques, pas des louanges, Franco-Algérien, démon-ange DZ Volcan fait de magma et de glace, Duc'zer et panthère dans l'club house Je les aime tous, aucun ne m'aime, du coup, j'veux tous les tuer Les autres sont partis à la mer, moi, j'ai bibi tout l'été Mama, piétine-moi, le paradis est sous tes pieds Tu parleras couramment chinois quand j'vais t'menotter sous l'évier Y'avait des mères à niquer, vous auriez dû m'appeler Du nègre, de l'Algérien font du Kylian Mbappé Nombreux coups échangés mais j'n'ai jamais baissé la garde J'ai peut-être changé même si j'ai pas rasé la barbe Omar, le Khan la mif, Massoud, Mekka, Luna mieux qu'ça Mbappé Kylian Mbappé, Alger, Dakar, c'est la Oummah Est-c'que tu crois est-c'que ? en la justice et ses loas ? Frère, moi, je n'crois je n'crois qu'aux honoraires de mon avocat But prosternation sur la p'louse, pousse la radio pour couvrir leurs écoutes Coupe la tête du coq et il court toujours, le 9 février au Zénith, ce s'ra full, ah 3amar Jamais je n'bats en retrait jamain, j'ai une carrière que même l'Enfer rejetterait Une polémique par mois mais j'reste jovial, j'fais plus d'audimat que le mariage royal Pour le birthday de ma niña, j'commande Marine en piñata Un peu de selecto dans un bol de Banania J'n'ai pas rasé ma barbe en mémoire de mes ancêtres Il paraît qu'les grands peintres ont observé les grands maîtres Je les aime tous, aucun ne m'aime, du coup, j'veux tous les tuer Les autres sont partis à la mer, moi, j'ai bibi tout l'été Mama, piétine-moi, le paradis est sous tes pieds Tu parleras couramment chinois quand j'vais t'menotter sous l'évier Y'avait des mères à niquer, vous auriez dû m'appeler Du nègre, de l'Algérien font du Kylian Mbappé Nombreux coups échangés mais j'n'ai jamais baissé la garde J'ai peut-être changé même si j'ai pas rasé la barbe5</t>
+          <t>J'ai abrégé les études pour sortir des disques J'ai vite appris le huitième art dans les rangs du béton armé Trucs de ouf, pas toujours aisé, rude, malfrat par habitude Docteur, j'fais une fausse couche parce que la rue m'a baisé Si on assure ? À l'aise, 92 trop balèze couz' Arrête avant qu'les schmitts viennent à la rescousse Brave, j'défraie la chronique Tant qu'j'serais dans la street, le groove sera grave, cocu, Brigitte sera dans la cave Eh beleck, c'est du haut d'gamme pas d'amalgame gamin Mon son ramène sur Neptune mon amertume Mon crew mène, combat la race humaine Si tu t'en tires avec des prothèses, c'est qu'Dieu te protège Et si un jour on m'entend plus sur le disque Ce sera à cause de ceux qui sucent, trahissent juste pour le biff Tu parles de femmes, de voitures, de biz et tout Mais tes royalties 5 ou 6 Royal Cheese, c'est tout Tu peux pas contrôler ma destinée C'est pas la peine, c'est pas la peine Tu peux pas imiter, sois pas dégoûté N'aie pas la haine, n'aie pas la haine Ben alors ! on veut m'empêcher d'exercer, me faire passer les pinces Rouge sang sont mes versets, des nègres ont des chattes et des seins Comment ça j'suis pire que JoeyStarr, dans les journaux Coupables, voilà les titres, 22 voilà les chtars, 92 voilà l'équipe J't'explique la scène, qui veut ma peau perdra la sienne, kho Froids sont les repas dans nos assiettes Allo c'est B2O encore en chien d'chiennes Les hyènes ressentent la tumeur, et moi je suis d'humeur palestinienne Des gouttes de sang et pas d'francs malheureusement, et yo J'ai pris des cartons, j'ai trop tiré la vie par le maillot J'ramasse avis et conseils à la pelle Qui veut la paix, prépare la guerre, j'te l'rappelle Mes khos auront mon soutien jusqu'à c'que j'rende l'âme D'où j'viens, pour un gramme ça finit en drame Kho écoute bien, la vie c'est qu'une seule mi-temps Trop de plombs dans l'autopsie, les MC meurent en imitant le 9.2.I Tu peux pas contrôler ma destinée C'est pas la peine, c'est pas la peine Tu peux pas imiter, sois pas dégoûté N'aie pas la haine, n'aie pas la haine J'suis là d'bout, j'trouve pas l'sommeil J'y arrive pas mais pourtant j'essaye Seule ce soir face à cette feuille blanche J'y vais cash, j'me dis que la vie est trash J'maudis toutes ces fois où j'prends sur moi Les coups sont durs mais j'reste droite Et j'me relève avec plus de rage au ventre Et sur mes lèvres, et je sais le mal qu'ils nous veulent Et c'est la merde mec tant qu'tu m'portes le mauvais il Tu peux pas contrôler ma destinée C'est pas la peine, c'est pas la peine Tu peux pas imiter, sois pas dégoûté N'aie pas la haine, n'aie pas la haine Tu peux pas contrôler ma destinée C'est pas la peine, c'est pas la peine Tu peux pas imiter, sois pas dégoûté N'aie pas la haine, n'aie pas la haine Tu peux pas imiter Sois pas dégouté 9.27</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Sale mood</t>
+          <t>Charbon</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ahah, ah Ahah, ah Ah, ahah, ah Wills Productions LosaNalosa Te demande pas à qui j'suis affilié jsuis affilié Mon train de vie ici-bas n'est pas assuré pas assuré Des fleuves de larmes couleront à la mer à la mer Tout est si beau, les roses poussent dans la merde skurt, skurt Lueur d'espoir méclaire mais j'suis mal luné skurt, skurt Ce cur de pierre finira par tout ruiner ouh Amour et guerre, souvent, n'font pas la paire skurt, skurt Mes ennemis, sur la place, veulent me lapider J'suis en lunette Cartier posé dans le quartier T'attends que j'te rappelle ce soir, nan, j'vais pas rentrer J'dois surveiller lcartel y a plus rien dans lsachet et les grosses têtes vont s'fâcher Ahah, ahah, ah Me parle plus damour même si t'es une bad girl car j'ai un sale mood sale mood Ahah, ahah, ahah, ah Me parle plus d'amour même si tes une bad girl car j'ai un sale mood sale mood Ahah, ahah, ah T'étais ma bad girl bad girl Ahah, ahah, ah T'étais ma bad girl waow, waow, waow Eh ouais, ma bad gi-irl Ahah, ahah, ah Mais j'ai un sale mood sale mood Tu m'aimes c'est ton problème, ce n'est pas le mien J'suis garé sur les Champs, j'claque 20 milles chez Balmain J'ai signé pour le niquage, j'ai rempli le bon N'hausse pas le ton, négro, ne fais pas le con On s'est croisé à Orly Ouest, personne n'a pris l'avion Mois d'août en hess au D4, j'ai bien retiendu la leçon J'ai vu l'ennemi en Veyron, hallucination Faut à tout prix que j'me retire, sapériodedovulation J'suis en lunette Cartier posé dans le quartier T'attends que j'te rappelle ce soir, nan, j'vais pas rentrer J'dois surveiller l'Cartel y a plus rien dans l'sachet et les grosses têtes vont s'fâcher Ahah, ahah, ah Me parle plus d'amour même si t'es une bad girl car j'ai un sale mood sale mood Ahah, ahah, ahah, ah Me parle plus d'amour même si t'es une bad girl car j'ai un sale mood sale mood Ahah, ahah, ah T'étais ma bad girl bad girl Ahah, ahah, ah T'étais ma bad girl waow, waow, waow Eh ouais, ma bad gi-irl Ahah, ahah, ah Mais j'ai un sale mood sale mood Si j'pars en vrille désolé, je fais le vide désolé Que l'mépris pour m'épauler, plus aucune envie désormais Si j'pars en vrille désolé, je fais le vide désolé Que l'mépris pour m'épauler, plus aucune envie désormais Ahah, ahah, ah Me parle plus d'amour même si t'es une bad girl car j'ai un sale mood sale mood Ahah, ahah, ahah, ah Me parle plus d'amour même si t'es une bad girl car j'ai un sale mood sale mood Ahah, ahah, ah T'étais ma bad girl bad girl Ahah, ahah, ah T'étais ma bad girl waow, waow, waow Eh ouais, ma bad gi-irl Ahah, ahah, ah Mais j'ai un sale mood sale mood Mais j'ai un sale mood sale mood Mama yé ha...6</t>
+          <t>CashMoneyAP! 3.6.5 Tu veux ta mula ? 3.6.5, C.H.A.R.B.O.N 3.6.5 Tu veux ta mula ? Juste ça Juste ça, juste ça Toute la journée dans la street Tu fais ta mula, tu t'en fous du reste T'as réussi, personne te félicite Les geush veulent de la kush Les porcs en bleu cherchent leur souche La mule avale ses bonbonnes, goût du latex sur la bouche Fume le middleman, multiplie l'bénef' à la source Tu l'as à la ceinture H, leur arme est dans la housse Ton arme est dans la Goose Accroupi aux arrivants, tu tousses Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Taureau sur le capot, peu d'négros sont dans la course Tu fais dans la coco, personne a l'temps pour la douce Pas l'time pour masoko, aucune chatte cotée en bourse Pétasse bring mon Jack, passe-moi l'4.7 AK en douce Laisse-les compter les roubles, tu coupes du kush, tu fais le double Coup d'spray pas assassinat, devant toi, il a fait le bougre Glock, cocaïna, les deux font parler la poudre Mental Totò Riina, loin du commandant Massoud Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Tu viens d'sortir du placard, négro l'rrain-té bat de l'aile Armé, jus de bagarre, bang bang bang, refais le game Ta mère a bien compris que son fils s'rait plus le même Dans l'crime comme Joaquín, verras-tu le bout du tunnel ? L'emprisonnement est réel, liberté conditionnelle Tu peux t'faire fumer demain, tu pars d'un prévisionnel Regarder derrière sur l'terrain, c'est ça être visionnaire Prendre en levrette, missionnaire, le commissaire divisionnaire Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Charbonner, charbonner 3.6.5 Charbonner, charbonner C.H.A.R.B.O.N, 3.6.5 Tu fais ta mula Rien d'autre Juste ça, juste ça5</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Balti</t>
+          <t>Dolce Camara</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Le-le-le Mâle ! Geah Boulbi, Lille'zer Billets verts, violets Geah, izi Bicrave et détaille dans l'four Bicrave et détaille dans l'four Ça bibi, ça détaille, ça bibi, ça détaille Ça bicrave et détaille dans l'four, wouh Bicrave et détaille dans l'four Bicrave et détaille dans l'four Comme Marlo on enquille les ients-cli sur Balti Et McNulty devient fou Elle est bonne, elle est bonne, alors fais-lui un gosse Tèj-la si l'bébé est moche Nique sa mère les chèques et les schneks, j'ai d'la drogue Y'a pas qu'sur la tête qu'il faut placer un bob J'fais trois showcases par semaine Remballe ton salaire de merde Et crève en Enfer Dans l'cul d'un trav' à Phuket On s'pavane dans l'5-9, de Compton à Harlem Bataille comme Jon Jones et Crixus dans l'arène Les rappeurs nous craignent et les groupies nous aiment L'oiseau ne suce pas et vole de ses ailes On s'est mis dans l'rap pour déconner On a fumé de l'herbe pour décoller Aujourd'hui, j'prends l'avion avec dans l'slip du shit cellophané Les ennemis, les soucis, les groupies s'accumulent Ça tombe bien, en c'moment mon Glock s'ennuie Comme Marlo on ré-ti sur Carlo dans l'buffet Si l'un d'ces salauds veut nous nuire Comment vous dire ? J'suis paranoïaque J'ai coupé la C avec de l'ammoniaque Allez pétasse, mets-moi de l'huile J'veux entendre le bruit du canon quand il jacte Bicrave et détaille dans l'four izi Bicrave et détaille dans l'four ça bibi, ça bibi Ça bibi, ça détaille, ça bibi, ça détaille Ça bicrave et détaille dans l'four, wouh Bicrave et détaille dans l'four bibi Bicrave et détaille dans l'four Comme Marlo on enquille les ients-cli sur Balti Et McNulty devient fou GradurOfficiel mon sheguey Même si j'me suis désabonné Squad Nanterre, Bois d'Arcy, La Santé Merci, mais j'ai déjà donné Ça bicravait fort dans le reze-fouzou Pilon moins rentable que la dreze-pouzou La chatte à la greffière, la chatte à la greffière Fusil d'assaut sur la tempe à la caissière On attend pas leurs salaires Armés en i, n'entends-tu pas le CR ? Enfouraillés comme section K, CLR J'suis leur père et j'suis sévère J'suis dans les bails de construction de mansion 60 ges-pi sur un yacht on les aime jeunes Sur ton mur de trophées j'retiens qu'les godes À 100 ans j'serai numéro un comme MacLeod J'fais pas l'apologie du crime J'fais celle des sommes à dix chiffres Sombre rate-pi s'arrêtera-t-il ? Tu lèves un doigt, tu prends dix gifles Qu'est-c'que j'vais dire aux petits gars ? Assumez les délits qu'vous commettez J'lis faits divers, j'me fais sucer la pinga J'sirote mon café con leche Bicrave et détaille dans l'four Bicrave et détaille dans l'four izi Ça bibi, ça détaille, ça bibi, ça détaille Ça bicrave et détaille dans l'four ça bibi, ça bibi Bicrave et détaille dans l'four Bicrave et détaille dans l'four izi Comme Marlo on enquille les ients-cli sur Balti Et McNulty devient fou Entrée dévastrice dans l'game comme SIDA Comme Mobutu je viens foutre le désordre Le cauchemar des rappeurs sans cinoche On les pousse à la retraite comme Seedorf Si la guerre est une forme de violence J'vais la manier de manière méthodique Comme un virus j'vais répandre ma mélodie Dans tous les taudis, du Peugeot au Audi Des tonnes de ients-cli, business à Balti Tellement baisé elle veut même plus repartir Beuh-beuh dans l'calcif', visser les camés On fait plus de biff' que tes MC, va l'dire à McNulty Omar dans la ne-zo, d'la coke dans les naseaux Armé comme un nazi, attaque au char d'assaut Une prise de la Bastille, du plomb dans mon plastic Du 5-9 au 9-2, que des putains d'classiques J'vais lui bouffer la tte-cha, arracher son string Avant d'crever comme c't'enculé d'Stringer Bibi toute l'année, fuck les lois en vigueur Y'a d'la beuh, y'a du Jack, y'a d'la 'tasse et d'la liqueur Sheguey, j'suis trop chaud dis-moi qui peut m'tester ? Et on vient prendre le contrôle, fais gaffe à tes fesses De la coke dans vos vestes, AK venue de l'Est Et de la rue, la tess KO2P GPS Bicrave et détaille dans l'four geah Bicrave et détaille dans l'four izi Ça bibi, ça détaille, ça bibi, ça détaille Ça bicrave et détaille dans l'four ça bibi, ça bibi Bicrave et détaille dans l'four Bicrave et détaille dans l'four izi Comme Marlo on enquille les ients-cli sur Balti Et McNulty devient fou geah7</t>
+          <t>C'est ça qu'ils veulent Mip-mip Ouh, ouais C'est ça qu'ils veulent I-Z-I, ouh, ouais On va leur donner Ouh, ouais C'est ça qu'ils veulent Ouh, ouais Okay J'ai pas besoin d'parler, j'suis grand séducteur Le shit c'est du filtré, la coke c'est du beurre J'arrive plus à m'projeter, j'vois que le M-U-R Sa mère, il est D-U-R J'vais m'poser dans l'maki Sale, okay Enterrer sous terre tous mes cellulaires Piscine à débordement Okay, pizza aux fruits de mer J'aide les miens, ceux qui ont un crochet, fuck mon prochain Avant d'prendre l'uppercut, tout l'monde a un projet, et puis tout s'éteint Pour combattre l'empire, il m'faut R2-D2 France rime avec chance, j'crois en aucun des deux Elle veut mon WhatsApp, mon numéro de chambre J'ai la main dans ses cheveux, je tire, elle se cambre J'finis sur son dos, précis comme Rondo, riche comme un Bongo, bang-bang On les aime fraiches, bien michtos, qui savent accueillir comme Demdem Plus on étouffe, plus c'est la ville, plus on est d'fous, plus c'est l'asile À peine fini d'forniquer, j'me rhabille, les larmes sont halal, le sourire est kabyle J'suis de l'ancienne fédé, sans enseigne piégée OG BG, OG BG Faites entrer toutes les caméras Je suis beau, j'suis en Dolce Camara J'suis de l'ancienne fédé, sans enseigne piégée OG BG, OG BG Faites entrer toutes les caméras Je suis beau, j'suis en Dolce Camara Eh Ocho, Ocho J'descends du singe, j'les visser juste en bas d'la cité Devant moi, t'es mimi, prends ton phone, insulte moi Gros, c'est réel La technique à Ronnie, la ce-for à Seedorf C'qu'ils font en dix années, bah, moi, ça m'prend six mois Ouais, gros, c'est réel Cigare en che-bou quand j'arrive sur scène La saga, la cité, Douk Saga en chef, ça dyab Saga la cité Poto, ne crois même pas qu'on chôme, ça jobbe La cité, la cité Y a d'la che-blan, d'la verte et du jaune, ça vend Gros, c'est réel Le business est carré, la BAC fait des rondes Ouh On encaisse, on rit aux nez des fédéraux You-ouh-ouh-ouh La mère à Riolo, le père à Riolo Ouh J'arrive en affranchi Ouh, ouh, BG comme Liotta En Dolce Camara J'fais la taille d'un yéti, l'argent du re-four, ouvre business en ïe-Tha Gros, c'est réel Solo, j'paie dix 'teilles, les biatchs ont soif 92i, gros En Dolce Camara, dans costume en soie Ocho Ils nous aiment pas mais sont obligés d'faire avec Gang La ce-for des choses donne la vue aux aveugles Yeah On est entourés d'faux, le 92i reste vrai Bouh Le serveur met du D.U.C dans mon verre D'la nouvelle géné comme USKY et Greenzer OG BG, OG BG Faites entrer toutes les caméras Ouais, ouais, ouais Je suis beau, j'suis en Dolce Camara Arriba, arriba, 92izi J'suis de l'ancienne fédé, sans enseigne piégée OG BG, OG BG Ocho Faites entrer toutes les caméras Je suis beau, j'suis en Dolce Camara J'suis de l'ancienne fédé, sans enseigne piégée OG BG, OG BG Saddam, Hauts de Seine Faites entrer toutes les caméras Je suis beau, j'suis en Dolce Camara IZI Okay Bouh1</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Azerty</t>
+          <t>Saddam Hauts-de-Seine</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Sku Oh, oh, oh, oh, oh Sayen Sayen Est-ce qu'on peut s'appeler ? Est-ce qu'on peut s'appeler un orchestre si on joue tous de la guitare ? Est-ce qu'on peut s'appeler un orchestre si on joue tous de la guitare ? Casque intégral sur mon dragon, je me souviens du Nord On reconnaît la frappe au tampon, ou si le client est mort Toujours honorer le drapeau, personne n'a prêté allégeance Le GPS confirme ta présence, pas vu, pas pris dit la légende Humble dans mon arrogance, je sais que d'autres ont fait bien mieux C'est chacun sa chance chacun, à un moment, faut dire adieu Il régna d'une main de fer, transforma tous ces rats en souris Ils s'éteignirent comme des bougies, moi, comme un feu de Californie J'aimerais avoir petits-enfants, leur dire c'qu'il s'est passé à Orly Leur dire que c'était nous les bons, c'soir-là, hamdoulah, j'ai bien dormi Ils ont des machines à neutron, j'ai une canette, un triangle au thon En vrai, j'suis grave yomb de la planète, mon iPhone, c'est comme un illeton Fini l'heure de la mijote fini, les carottes sont cuites, fuck AZERTY fuck AZERTY Bill dit qu'il a l'antidote, Vladimir dit que le thé est servi Fini l'heure de la mijote, les carottes sont cuites, fuck AZERTY fuck AZERTY Bill dit qu'il a l'antidote ouais, Vladimir dit que le thé est servi Les citoyens passifs en sueur, un afflux massif de menteurs Niquer des mères, j'le fais d'bon cur, j'ai pas besoin d'un influenceur Vie sur personne, pas de prince de la trap Tu f'rais mieux d'arrêter ton cinéma et de tendre la patte Pauvre Marie était vierge, elle m'a snapé les doigts dans la chatte Fuck étudier, moi, j'ai Google, en deux heures, je passe à la barre Tu voulais pas perdre, fallait pas jouer, j'ai tenu comme Yasser Arafat Le nouveau guetteur s'est fait tatouer 22, akha, y a la BAC L'ambiance n'est pas à la fête, j'aurais dû viser la tête la tête, oh, oh L'ambiance n'est pas à la fête, j'aurais dû viser la tête la tête, oh, oh Fini l'heure de la mijote fini, les carottes sont cuites, fuck AZERTY fuck AZERTY Bill dit qu'il a l'antidote, Vladimir dit que le thé est servi Fini l'heure de la mijote, les carottes sont cuites, fuck AZERTY Bill dit qu'il a l'antidote, Vladimir dit que le thé est servi Tu fais l'ancien, t'es déficitaire Ouais, ouais L'ambiance n'est pas à la fête, j'aurais dû viser la tête, oh, oh L'ambiance n'est pas à la fête, j'aurais dû viser la tête, oh, oh4</t>
+          <t>La puissance ne respecte que la puissance, kho Saddam Hauts-de-Seine, Bakel City Gang Jsuis pas né pour faire la plonge comme dans Scarface Négro quand tu mattaques, je L.O.L. smiley face Mets tes warnings, lance un S.O.S Convoi exceptionnel, écarte les F.E.S Je rappe depuis le ciel et les étoiles entre elles Ne parlent que de moi, disent que je suis frais comme à lancienne Je les baise comme des chiennes, à chaque fois elles reviennent Esclave, javais des chaînes, cest tout ce quils retiennent Les cojones vides mais jai les poches pleines Rappeur préféré des khôs qui purgent des grosses peines Main de gorille sur le Bic, flow de Gal-sén Tyrannie sur le beat, cest Saddam Hauts-de-Seine Je suis arrivé en baissant les yeux, je vais les gifler en partant Je veux peser comme Depardieu, gagner dès le premier quart temps Jai vue sur la mer, tu te plains du sale temps Faire du biz avec toi kho, jai pas le temps Je pense quà faire de largent, je pense quà faire de largent Je pense quà faire de largent, je pense quà faire de largent Bakel City Gang, Saddam Hauts-de-Seine Bakel City Gang, Saddam Hauts-de-Seine Les négros sont cuits, veulent détrôner le Duc Kalash dans son étui, lont bien profond dans le ul-c Ma parole est de platine, ton silence est de lor Je glisse en boîte, je patine, gros haineux, tes resté dehors Viens à mes concerts, y a grave de la chatte Des fois ça part en couille, ça fait ratatata Moi jai pas fait la FAC comme les mecs de la BAC Cest soit largent du rap ou soit largent du crack Mon président est black, ma carte bleue est black Pourquoi tu jactes ? Si tu kiffes as-p, técoutes as-p Écrit en blanc et black comme sur la bouteille de Jack Trop de biatchs dans la Maybach, je capte mal, call me back Je suis arrivé en baissant les yeux, je vais les gifler en partant Je veux peser comme Depardieu, gagner dès le premier quart temps Jai vue sur la mer, tu te plains du sale temps Faire du biz avec toi kho, jai pas le temps Je pense quà faire de largent, je pense quà faire de largent Je pense quà faire de largent, je pense quà faire de largent Bakel City Gang, Saddam Hauts-de-Seine Bakel City Gang, Saddam Hauts-de-Seine Jai mon fusil mitrailleur, jai pas besoin de ton aide Je le porte dans mon cur donc partout je suis dans mon bled Gravé sur mon glaive, Bakel City Gang Gros tapin, 6 heures du mat, la queue raide je suis dans mon bed Rappeur de haut niveau, whisky dans le Gatorade Tirer sur le physio, cest de ça que le ghetto rêve Mon frère, jai beau tout faire, personne ne me recrute Centre de Lucifer, tête et but de Belzébuth Fuck avoir un père, je préfère quun gangster méduque Aigle du désert, discute avec ces fils de putes Rats des villes en Nike Air, swagg sur air de flûte Aucun de mon espèce ny arrive sans faire de chute Je suis arrivé en baissant les yeux, je vais les gifler en partant Je veux peser comme Depardieu, gagner dès le premier quart temps Jai vue sur la mer, tu te plains du sale temps Faire du biz avec toi kho, jai pas le temps Je pense quà faire de largent, je pense quà faire de largent Je pense quà faire de largent, je pense quà faire de largent Bakel City Gang, Saddam Hauts-de-Seine Bakel City Gang, Saddam Hauts-de-Seine</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>Aux paradis</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Izi, calibré chemise hawaienne J'ai pas la moyenne, quoi ? J'm'en bats les couilles J'suis sur le block j'suis sur Youtube Fuck you pay me, a-salamalikoum J'vais t'qué-bra si j'touche le RMI Priez pour moi j'prie pour mes ennemis U trema sur l'habillage J'aime la cherma sur ma biatch Casse-nous pas trop les illes-cou, on va t'rouer de coups Demande à Don Miloud, Hood comme dans Boyz in the hood Ice Cube J'encule vous tous ma pute prépare le couscous Uzi dans chaque main donc j'suis sur Bluetooth Général de guerre contre fantassins Traine avec hommes d'affaires et des assassins J'pèse des tonnes, des demi kill's J'perds ni à l'extérieur ni à domicile Ford péta pour un rodéo 3 visages pales dans la Mondéo grillés J'suis black white comme un Oréo Fucked up, no limit LittleRoméo Eternel délit de faciès MC où es-tu comme Princesse Anies ? J'te fume en pleine messe la chatte à ta nièce Ma pute en Hermès la tienne en Airness Izi, calibré chemise hawaienne J'ai pas la moyenne, quoi ? J'm'en bats les couilles J'suis sur le block j'suis sur Youtube Fuck you pay me, a-salamalikoum J'vais t'qué-bra si j'touche le RMI Priez pour moi j'prie pour mes ennemis U trema sur l'habillage J'aime la cherma sur ma biatch4</t>
+          <t>Respecte les gouts et les couleurs Dans la cour, jsuis quune couleuvre Jsuis un peu fou, j'attends mon heure Mauvaise augure ou jleurs fait peur Tu fais trop le fou on te retrouve Momo cest doom pour le zeillo Eux cest des fous, ils se mettent à genoux Cest le retour du faucon farouche Jai commencé le rap pour vanner un pote Cest parti si loin pour si peu Depuis jmnfume avec de la buh Bizarre, depuis ma vie pue la crotte Dans la vie jsuis stressé, jai la bougeotte Comme les petit chinois mon avenir je le tricote La punch est pas tricky , arrêtons le boycotte A ta place je risquerai pas ça Zéro yeuks ni même de cabeza Comme un mec de Sevran qui veut feat avec Riska Booba tenverra au paradis à tes risques et périls Le coq a perdu sa crête dans loisellerie Désormais, il picore les insectes dans ses storys Tik tok ou instagram, ta peine tu las choisi Ils sont effrayé, leur petit navire à pris la pisse Rappeurs ont pointé, les naïves ont pris la bite Mes heures sont comptés, Momo a pointé Mes peurs jles ai domptées, Mohrall est cinglé Pas dargent frère, jassume et je suis fière Je taff pour un maigre salaire Tas pas de flow ni de technique ni de rimes Cest pas pour rien que timites Mesrine Ils font les gangster avec des petits canifs Cest fils de ienf à peine sénerve sortent les canines Ya que la testostérones qui les animent On a pas le même pedigree, SO la race canine On a pas le même pedigree, SO la race canine Respecte les gouts et les couleurs Dans la cour, jsuis quune couleuvre Jsuis un peu fou, j'attends mon heure Mauvaise augure ou jleurs fait peur Tu fais trop le fou on te retrouve Momo cest doom pour le zeillo Eux cest des fous, ils se mettent à genoux Cest le retour du faucon farouche</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>L.E.F</t>
+          <t>Le silence n’est pas un oubli</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Eh-eh Eh-eh Eh-eh-eh Liberté, égalité Back to the Future, faudra m'indiquer AK-47 fait du nettoyage de qualité Mais tu n'en as pas idée On ne s'arrêtera pas tant que le chargeur n'sera pas vidé, l'rap décapité Izi J'crois que j'ai assez d'amour dans l'coeur pour vous faire la guerre J'crois qu'il y a même pas assez de sang dans vos veines pour remplir mon verre Je vais venir, j'vais voir, j'vais vaincre en dépit de votre aide Construire mon empire avec les débris du World Trade J'ai surfé sur la vague du crime sans faire la ola J'écris mieux que Zola et je n'suis qu'un jeune mollah Que personne ne m'en veuille si j'suis pas poli, me piéger comme un colis J'te le dis, à ma décharge je plaiderai la folie J'arrive comme un virus, non détecté par Curie De mon écurie sort une tuerie sur les traces de l'étoile de Sirius Hy-hydrodynamique, du coffre à la calandre Juste en leur parlant faut qu'ils jouissent, juste en leur calant entre les cuisses Figure osseuse, la faucheuse est enchantée GP 100 sur mains gantées, yeux rouges comme un soleil ensanglanté Cur de ciment j'parle up', j'vais faire comme le Duc J'vais pas les prendre par les sentiments, j'vais les prendre par le uc' Liberté, égalité, faudra m'indiquer AK-47 fait du nettoyage de qualité Mais tu n'en as pas idée Orh Click On ne s'arrêtera pas tant que le chargeur n'sera pas vidé, l'rap décapité Tous mes rates-pi sont validés Kaaris J'ai parloir au premier tour, j'suis un soldat dès le premier jour Peu importe c'qui va m'arriver Linceul blanc tâché de sang quand je partirai Kaaris On m'a dit ils te rejettent alors domine-les 2.7.0 parce que ce système n'est qu'une grosse tapette gominée Sans âme, nos corps ne sont qu'de la viande auxquels on retire tout le sel J'sais pas où j'vais mourir mais j'sais qu'j'suis né quelque part sous le ciel J'farcis de balles pour les enterrer, j'noircis des pages pour les éclairer Les anges muets ont un cri, je sais que même les rêves ont un prix Ce bas-monde est un wagon sans freins en direction des enfers J'hésite entre les horaires du train et les horaires des prières On me dit de freiner Mais le pompe veut leur faire un trou si large dans l'ventre qu'on va savoir ce qu'ils ont mangé au petit-déjeuner Je sais que j'dois m'élever, oui, je sais mais j'aime la rue Oui, je sais qu'la force d'un homme peut raser une montagne si elle gêne la vue-vue Jeune mollah, adoubé Parce que le Guide a été touché le jour où Carla a accouché Dans mon crâne y'a du magma, je ronge ma plaie c'est Madmax Dans mes sons je suis lade-ma, et mon cur éponge le plasma Liberté, égalité, faudra m'indiquer AK-47 fait du nettoyage de qualité Mais tu n'en as pas idée On ne s'arrêtera pas tant que le chargeur n'sera pas vidé, l'rap décapité Tous mes rates-pi sont validés J'ai parloir au premier tour, j'suis un soldat dès le premier jour Peu importe c'qui va m'arriver Linceul blanc tâché de sang quand je partirai 2.7.0 92i 4124 Kaaris, Kaaris Orh Click, Click9</t>
+          <t>Je perds mon temps à rester immobile, pendant que la Terre tourne Et que le Très-Haut nous contemple tous Squatter les dépôts pour les mêmes causes et mobiles Menottes argentées sur peaux dor Que la BAC tâte sans pudeur Inégalité pour mot dordre, ici ya rien de sûr Je perds mon temps à me dire que je finirais bien par leur tirer dessus Mater les murs de Boulogne et dIssy Voir le matin remplacer laube et ainsi de suite Je perds mon temps à écouter que ça insiste Lunatic dans la violence incite Trop de jeunes sen battent que le monde leur appartient Continuent de ronfler quand le soleil atteint le zénith Vrai, chaque minute est précieuse On en dépense à trop rêver Combat sans trêve pour accéder à ce qui nous est permis Des heures endormis sur des feuilles blanches Mais lunatiques, à tout moment se déclenchent nos freestyles avalanches Des instants gâchés à perdre ses illusions Du sang et des proches, sa raison et puis le contrôle Je perds mon temps comme un assassin en cavale vivant caché Comme un innocent en taule Comme un dealer à qui personne na acheté Comme un gars dans un hôtel sale Qui parle damour à un tapin qui ne vit que pour sa gueule Je perds mon temps, comme ceux qui attendent la paix au Moyen-Orient Salam et Shalom, la même, mais prononcé en décalage Ça devient Uzi opposé à Kalash Israîl Donne respect à ton aîné Ismaîl Les menottes me serrent et les minutes me tuent Je vois trop de thunes alors je me sers On parle peu, jai lair troublé devant leurs toubibs Mais le silence n'est pas un oubli Jaspire le temps, les yeux plissés Je rappe et je dérape souvent, tant pis si le sang doit pisser Le style pète, cest bête et méchant Trop de temps à lutter, à essayer dêtre riche en trichant Je perds mon temps, loin des miens, déchiré au chanvre indien Taxi que si je paye avec mes Air Max et Jai le fou rire quand je mens, pourtant je dis Bismillah quand je mange Tu veux que je te dise franchement Jai un ange à chaque épaule mais celui de gauche parle trop fort Écouter le droit cest ce que je suis censé faire Mon temps avec des petites schneks Noyer léchec dans du sky sec, à goûter les variétés de shit Rien que du mauvais, sils savaient ce que javais Sils pouvaient me dire quelle maladie jai Cest dans mes gênes ou quoi ? Tu crois quils cherchent, tu rêves ou quoi ! Je perds mon temps, jusquà ce que je perde mon teint Je perds mon temps, sans métier, tête baissée à regarder mes pieds À rêver que je pèse et à regretter Je nique mon temps dans le vice, je veux pas finir dans le feu Mais jai du mal, cest ce que je texplique dans le disque Je perds mon temps à acheter à vendre, à emprunter à rendre À rien apprendre sauf que les porcs sont à pendre Le monde fait flipper, mec tu sais plus rien ne matteint Et plus je connais les hommes plus jaime mon chien Je perds mon temps, attendant que le monde souvre Et je nique tout car tout le monde souffre Mon temps, à chercher de la maille, il men faut Jen perds mon temps, mon sang et mon flow B2OBA kho, trop haut Et je perds mon temps depuis le préau Les menottes me serrent et les minutes me tuent Je vois trop de thunes alors je me sers On parle peu, jai lair troublé devant leurs toubibs Mais le silence n'est pas un oubli Jaspire le temps, les yeux plissés Je rappe et je dérape souvent, tant pis si le sang doit pisser Le style pète, cest bête et méchant Trop de temps à lutter, à essayer dêtre riche en trichant Je perds mon temps dans quoi que ce soit, pour quoi que ce soit, et je vois que cest La maille et les tasses, la caille-ra par la police vexée Tout le temps le même rentre-dedans Tire dedans, attends, lui casse deux dents Bref, la même, je perds mon temps et jai autre chose à faire Comme batailler pour tailler tant quà faire Avancer dans le sens inverse de lenfer Frère, même si à mon service il manque de maille, pour linstant je braille et Je perds mon temps, vois que cest les frères, les mêmes têtes qui dans la merde senfoncent tout le temps Je me dis que faut que je tue le temps Mais cest le temps qui me tue, je lâche pas laffaire, jai la foi convaincu Brave de cur, je perds mon temps Pour des gars quont peur de vaincre, fais couler lencre Vie dambition, mettrais du goudron Sur la terre de mes pères, mes ancêtres Je sais que dans ce pays ils pensent être au-dessus de nous, on met leurs femmes sans dessous Au-dessus, je perds mon temps devant la lettre A de mon bâtiment Démonte les joints de hiya, accélère le châtiment Et cest la Mrabta du soir qui revient me torcher moi En dessous du porche de chez moi Mais attention ya tension quand ya un porc chez moi Je perds mon temps, faut que je le rattrape Cette vie me trompe, quand avec elle tes partenaire, on a lau-delà pour nous maintenir Donc peu importe que tu temportes, ici on na rien à perdre, préviens ta troupe Les menottes me serrent et les minutes me tuent Je vois trop de thunes alors je me sers On parle peu, jai lair troublé devant leurs toubibs Mais le silence n'est pas un oubli Jaspire le temps, les yeux plissés Je rappe et je dérape souvent, tant pis si le sang doit pisser Le style pète, cest bête et méchant Trop de temps à lutter, à essayer dêtre riche en trichant8</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Destinée</t>
+          <t>#FélixEboué</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>J'ai abrégé les études pour sortir des disques J'ai vite appris le huitième art dans les rangs du béton armé Trucs de ouf, pas toujours aisé, rude, malfrat par habitude Docteur, j'fais une fausse couche parce que la rue m'a baisé Si on assure ? À l'aise, 92 trop balèze couz' Arrête avant qu'les schmitts viennent à la rescousse Brave, j'défraie la chronique Tant qu'j'serais dans la street, le groove sera grave, cocu, Brigitte sera dans la cave Eh beleck, c'est du haut d'gamme pas d'amalgame gamin Mon son ramène sur Neptune mon amertume Mon crew mène, combat la race humaine Si tu t'en tires avec des prothèses, c'est qu'Dieu te protège Et si un jour on m'entend plus sur le disque Ce sera à cause de ceux qui sucent, trahissent juste pour le biff Tu parles de femmes, de voitures, de biz et tout Mais tes royalties 5 ou 6 Royal Cheese, c'est tout Tu peux pas contrôler ma destinée C'est pas la peine, c'est pas la peine Tu peux pas imiter, sois pas dégoûté N'aie pas la haine, n'aie pas la haine Ben alors ! on veut m'empêcher d'exercer, me faire passer les pinces Rouge sang sont mes versets, des nègres ont des chattes et des seins Comment ça j'suis pire que JoeyStarr, dans les journaux Coupables, voilà les titres, 22 voilà les chtars, 92 voilà l'équipe J't'explique la scène, qui veut ma peau perdra la sienne, kho Froids sont les repas dans nos assiettes Allo c'est B2O encore en chien d'chiennes Les hyènes ressentent la tumeur, et moi je suis d'humeur palestinienne Des gouttes de sang et pas d'francs malheureusement, et yo J'ai pris des cartons, j'ai trop tiré la vie par le maillot J'ramasse avis et conseils à la pelle Qui veut la paix, prépare la guerre, j'te l'rappelle Mes khos auront mon soutien jusqu'à c'que j'rende l'âme D'où j'viens, pour un gramme ça finit en drame Kho écoute bien, la vie c'est qu'une seule mi-temps Trop de plombs dans l'autopsie, les MC meurent en imitant le 9.2.I Tu peux pas contrôler ma destinée C'est pas la peine, c'est pas la peine Tu peux pas imiter, sois pas dégoûté N'aie pas la haine, n'aie pas la haine J'suis là d'bout, j'trouve pas l'sommeil J'y arrive pas mais pourtant j'essaye Seule ce soir face à cette feuille blanche J'y vais cash, j'me dis que la vie est trash J'maudis toutes ces fois où j'prends sur moi Les coups sont durs mais j'reste droite Et j'me relève avec plus de rage au ventre Et sur mes lèvres, et je sais le mal qu'ils nous veulent Et c'est la merde mec tant qu'tu m'portes le mauvais il Tu peux pas contrôler ma destinée C'est pas la peine, c'est pas la peine Tu peux pas imiter, sois pas dégoûté N'aie pas la haine, n'aie pas la haine Tu peux pas contrôler ma destinée C'est pas la peine, c'est pas la peine Tu peux pas imiter, sois pas dégoûté N'aie pas la haine, n'aie pas la haine Tu peux pas imiter Sois pas dégouté 9.27</t>
+          <t>Si je me mets à genoux c'est pour prendre un coup d'épée Tu m'as mis un seul coup dans le flou, t'en as parlé tout l'été J'vais te retweeter ta grand-mère, boîte crânienne sous Giuseppe J'suis sur un transat, moitié khabat, j'pense à toi du bout des pieds J'mets des gants pour faire la vaisselle, AK-47 sous l'évier Sénégalo-BC, geah, DKR Noumou Démé Faut être armé baraka, taffer dur, c'pas tout d'être doué Surinamien, Balata, 9.7.3, Félix Éboué Zerma tu rentres seul dans les tess sans aucun souci Mais t'es une dizaine à la boutique, pends-toi avec ma ceinture Gucci Koppbiwan-Kenobi, j'devrais pas combattre l'être humain Lâche comme un terroriste, plus d'dix ans, zéro hit ou moins Nero Nemesis sur le hiéroglyphe cousin Quand nous on va te mêler, c'sera pas l'Stade Toulousain Frère, t'es une blague, les plus courtes sont les meilleures Fuck la misère, thug depuis mineur Money bags tombent toutes les demi-heure On fume la noire, tu sniffes l'albinos On rendra ni les armes, ni l'flow à Migos, ouais, ouais, ouais On fume la noire, tu sniffes l'albinos On rendra ni les armes, ni l'flow à Migos Un peu d'argent du trafic, le terrain n'est plus c'qu'il était Numéro 1 dans la street, trop d'neige en hiver, je skie l'été J'achète ici, va louer là-bas Piste bre-som, chalet noir, reine de Saba Slalom dans leurs mères, ouais nous ça va Ta carrière au fond d'la mer comme Oussama22</t>
         </is>
       </c>
     </row>
@@ -2430,12 +2430,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Charbon</t>
+          <t>Le bitume avec une plume</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CashMoneyAP! 3.6.5 Tu veux ta mula ? 3.6.5, C.H.A.R.B.O.N 3.6.5 Tu veux ta mula ? Juste ça Juste ça, juste ça Toute la journée dans la street Tu fais ta mula, tu t'en fous du reste T'as réussi, personne te félicite Les geush veulent de la kush Les porcs en bleu cherchent leur souche La mule avale ses bonbonnes, goût du latex sur la bouche Fume le middleman, multiplie l'bénef' à la source Tu l'as à la ceinture H, leur arme est dans la housse Ton arme est dans la Goose Accroupi aux arrivants, tu tousses Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Taureau sur le capot, peu d'négros sont dans la course Tu fais dans la coco, personne a l'temps pour la douce Pas l'time pour masoko, aucune chatte cotée en bourse Pétasse bring mon Jack, passe-moi l'4.7 AK en douce Laisse-les compter les roubles, tu coupes du kush, tu fais le double Coup d'spray pas assassinat, devant toi, il a fait le bougre Glock, cocaïna, les deux font parler la poudre Mental Totò Riina, loin du commandant Massoud Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Tu viens d'sortir du placard, négro l'rrain-té bat de l'aile Armé, jus de bagarre, bang bang bang, refais le game Ta mère a bien compris que son fils s'rait plus le même Dans l'crime comme Joaquín, verras-tu le bout du tunnel ? L'emprisonnement est réel, liberté conditionnelle Tu peux t'faire fumer demain, tu pars d'un prévisionnel Regarder derrière sur l'terrain, c'est ça être visionnaire Prendre en levrette, missionnaire, le commissaire divisionnaire Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Charbonner, charbonner 3.6.5 Charbonner, charbonner C.H.A.R.B.O.N, 3.6.5 Tu fais ta mula Rien d'autre Juste ça, juste ça5</t>
+          <t>Mon frère j'voulais la gloire J'ai eu la guerre, j'l'ai faite, y en aura d'autres C'est la merde, chiez dans vos toubeïs car tout se paye Donne-moi la bouteille et j'tousse pas M'touche pas, du 9.2 c'est de là qu'tout part Lil de Rocky, les couilles à Rocco Grand Cherokee et trop d'popo dans les propos Douze dans la nane-ba, tous dans la tate-pa Et c'est trop tard pour foutre du mascara sur un cocard J'parle mal, et j'ai la rétine assassine Le mal par le mal, son pour les man Trop de soucis aussi on mincit et c'est pas nouveau, Ici y'a que des putes on serre la main qu'à des canons sciés N'aimant que manier l'acier pour des biffetons Micro 3.5.7 python, violent Depuis les chaînes et les bateaux j'rame T'inquiète, aucune marque dans le dos man, j'les ai dans le crâne J'suis arrivé dans le son, retrace la guerre dans mes morceaux Et si j'me fais caner, pas besoin d'en faire une chanson Mon stylo dans la terre, j't'aurais sans rançon Sois sans rancune j'suis l'bitume avec une plume Je retrace la guerre dans mes morceaux Et si j'me fais caner pas besoin d'en faire une chanson Mon stylo dans la mer, vers le cap sud J'te résume j'suis l'bitume avec une plume J'suis mort de faim, rap F1 pour tous mes défunts La routine, le she-ca, la chevrotine, roule en chette-ca Du popo, un stylo dans mon jean, sans millésime J'suis dégoûté comme quand j'ai ché-cra Rap à l'usine, contrôlé plus à l'urine J'fais du 0 à 100 en 1'10'' quand j'vois mes khos en sang J'dors sans la fiole, démarre sans fuel Quand j'vois la France les jambes écartées j'l'encule sans huile J'arrive en ville, brille, repars en vie Si t'aimes les représailles tire en l'air ou dans mes Nike Air J'me lève à 15 h, me couche à 6' du mat Et veux du Moët c'est la patate, ouais Au mic c'est Platoon et ça r'tourne Car j'ai appris quand y avait pas de thune Alors que tourne la roue, nos rues des fours Laisse-moi rouler ma niaks, ma tasse et ma liasse Un bon Q.I., du courage, un peu d'vice et les poulets rôtissent Dans ma team que des numéros 10 J'retrace la guerre dans mes morceaux Et si j'me fais caner, pas besoin d'en faire une chanson Mon stylo dans la terre, j't'aurais sans rançon 500 rancunes, J'suis l'bitume avec une plume J'veux pas rapper avec les pinces, écrire mon nom sur l'banc Sous écrou longtemps, mes empreintes de doigt sur l'gland Je veux peser, baiser, me reposer B20BA j'roule avec OCB 3, 4, 5, 6 tass' à la s'maine Ici ça pue l'cash de la casquette à la s'melle J'suis qu'un missile, guidé par 45 Dopé au shit, à la Soul, au riz, à la s'moule C'est ça gars ! On sort pas du chapa d'une chaga Et à chaque album, une autre époque de chacal J'suis c'macaque avec une plume Ne sent plus la douleur et leur tumeur a la couleur de c'que j'fume Mon régime à la résine J'te résume, j'suis l'bitume avec une plume Et si j'me fais caner, pas besoin d'en faire une chanson Mon stylo dans la mer, vers le cap sud J'te résume j'suis l'bitume avec une plume J'retrace la guerre dans mes morceaux Et si j'me fais caner, pas besoin d'en faire une chanson Mon stylo dans la terre, j't'aurais sans rançon 500 rancunes, j'suis l'bitume avec une plume J'retrace la guerre dans mes morceaux Et si j'me fais caner, pas besoin d'en faire une chanson Mon stylo dans la mer, vers le cap sud J'te résume j'suis l'bitume avec une plume J'retrace la guerre dans mes morceaux Et si j'me fais caner, pas besoin d'en faire une chanson Bitume, plume, bitume, plume Bitume, plume, bitume, plume Bitume, plume, bitume, plume Bitume, plume, bitume, plume Bitume, plume, bitume, plume Animal, Animalsons J'suis l'bitume avec une plume J'suis l'bitume avec une plume J'suis l'bitume avec une plume9</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Dolce Camara</t>
+          <t>RST</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>C'est ça qu'ils veulent Mip-mip Ouh, ouais C'est ça qu'ils veulent I-Z-I, ouh, ouais On va leur donner Ouh, ouais C'est ça qu'ils veulent Ouh, ouais Okay J'ai pas besoin d'parler, j'suis grand séducteur Le shit c'est du filtré, la coke c'est du beurre J'arrive plus à m'projeter, j'vois que le M-U-R Sa mère, il est D-U-R J'vais m'poser dans l'maki Sale, okay Enterrer sous terre tous mes cellulaires Piscine à débordement Okay, pizza aux fruits de mer J'aide les miens, ceux qui ont un crochet, fuck mon prochain Avant d'prendre l'uppercut, tout l'monde a un projet, et puis tout s'éteint Pour combattre l'empire, il m'faut R2-D2 France rime avec chance, j'crois en aucun des deux Elle veut mon WhatsApp, mon numéro de chambre J'ai la main dans ses cheveux, je tire, elle se cambre J'finis sur son dos, précis comme Rondo, riche comme un Bongo, bang-bang On les aime fraiches, bien michtos, qui savent accueillir comme Demdem Plus on étouffe, plus c'est la ville, plus on est d'fous, plus c'est l'asile À peine fini d'forniquer, j'me rhabille, les larmes sont halal, le sourire est kabyle J'suis de l'ancienne fédé, sans enseigne piégée OG BG, OG BG Faites entrer toutes les caméras Je suis beau, j'suis en Dolce Camara J'suis de l'ancienne fédé, sans enseigne piégée OG BG, OG BG Faites entrer toutes les caméras Je suis beau, j'suis en Dolce Camara Eh Ocho, Ocho J'descends du singe, j'les visser juste en bas d'la cité Devant moi, t'es mimi, prends ton phone, insulte moi Gros, c'est réel La technique à Ronnie, la ce-for à Seedorf C'qu'ils font en dix années, bah, moi, ça m'prend six mois Ouais, gros, c'est réel Cigare en che-bou quand j'arrive sur scène La saga, la cité, Douk Saga en chef, ça dyab Saga la cité Poto, ne crois même pas qu'on chôme, ça jobbe La cité, la cité Y a d'la che-blan, d'la verte et du jaune, ça vend Gros, c'est réel Le business est carré, la BAC fait des rondes Ouh On encaisse, on rit aux nez des fédéraux You-ouh-ouh-ouh La mère à Riolo, le père à Riolo Ouh J'arrive en affranchi Ouh, ouh, BG comme Liotta En Dolce Camara J'fais la taille d'un yéti, l'argent du re-four, ouvre business en ïe-Tha Gros, c'est réel Solo, j'paie dix 'teilles, les biatchs ont soif 92i, gros En Dolce Camara, dans costume en soie Ocho Ils nous aiment pas mais sont obligés d'faire avec Gang La ce-for des choses donne la vue aux aveugles Yeah On est entourés d'faux, le 92i reste vrai Bouh Le serveur met du D.U.C dans mon verre D'la nouvelle géné comme USKY et Greenzer OG BG, OG BG Faites entrer toutes les caméras Ouais, ouais, ouais Je suis beau, j'suis en Dolce Camara Arriba, arriba, 92izi J'suis de l'ancienne fédé, sans enseigne piégée OG BG, OG BG Ocho Faites entrer toutes les caméras Je suis beau, j'suis en Dolce Camara J'suis de l'ancienne fédé, sans enseigne piégée OG BG, OG BG Saddam, Hauts de Seine Faites entrer toutes les caméras Je suis beau, j'suis en Dolce Camara IZI Okay Bouh1</t>
+          <t>On ira où tu voudras Quand j'aurai qu'ça à foutre On ira où tu voudras Ça sent l'appel à la civière, c'est quoi les bails, en fait ? Si on s'embrouille, il faut qu'tu considères le AK-47 Un roi sans couronne, c'est mieux qu'un roi sans tête Ne vous méprenez pas c'est A.L.I, le 667 On n'est plus humains, on s'pécho sur le net Pas d'shopping, je l'ai niquée, elle avait rien à s'mettre J'ai l'bras tendu, j'attends du bédo, yoyo à la f'nêtre Des fois, j'aimerais juste leur faire tout le mal qu'ils nous souhaitent Le crime ne paie pas, on m'a dit, j'ai bibi sous le nez des porcs J'n'ai que deux personnes dans la vie, le reste, ce n'est que du décor J'suis disponible qu'après minuit, tu es très jolie Mais y aura pas d'p'tit déj' au lit, comme ça, c'est dit J'prie pas mais j'oublie pas d'dire Hamdoullah quand j'passe entre les gouttes On ira où tu voudras quand j'aurai qu'ça à foutre 9 millimètres au bout du bras si tu t'mets sur ma route Pasta d'Colombie dans sa tte-cha, Louis Vuitton dans la soute J'prie pas mais j'oublie pas d'dire Hamdoullah quand j'passe entre les gouttes On ira où tu voudras quand j'aurai qu'ça a foutre 9 millimètres au bout du bras si tu t'mets sur ma route Pasta d'Colombie dans sa tte-cha, Louis Vuitton dans la soute Elle m'a d'mandé C'est quoi ton Snap' ? pour m'envoyer sa chatte J'suis trop vieux pour Snapchat, envoie-moi sur WhatsApp Toka' chargé, j'regarde à gauche à droite, comme un suricate Avant le show, Jack au goulot, comme ça, j'ai pas le trac Elles ont fait trop de squats, pas une que j'dévisage Pourquoi c'toujours un négro dans l'train d'atterrissage ? J'suis dans les bails de penthouse, de dernier étage Elle veut mon cur, mon héritage sans faire le ménage T'as l'air pulpeuse donc épluche-toi, Uber t'ouvre pas la porte Donc moi non plus, manquerait plus qu'ça, y a pas qu'toi qu'a la cote Crois-moi, la vie de rêve, c'est surcoté de fou Elle croit qu'elle est belle pour de vrai, la go' se fout de nous J'prie pas mais j'oublie pas d'dire Hamdoullah quand j'passe entre les gouttes On ira où tu voudras quand j'aurai qu'ça à foutre 9 millimètres au bout du bras si tu t'mets sur ma route Pasta d'Colombie dans sa tte-cha, Louis Vuitton dans la soute J'prie pas mais j'oublie pas d'dire Hamdoullah quand j'passe entre les gouttes On ira où tu voudras quand j'aurai qu'ça a foutre 9 millimètres au bout du bras si tu t'mets sur ma route Pasta d'Colombie dans sa tte-cha, Louis Vuitton dans la soute Il paraît qu'l'Enfer est sur Terre, si c'est ça, je prends Bague au pinky, pas à l'annulaire, je n'ai pas le temps4</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Saddam Hauts-de-Seine</t>
+          <t>Mr. Kopp</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>La puissance ne respecte que la puissance, kho Saddam Hauts-de-Seine, Bakel City Gang Jsuis pas né pour faire la plonge comme dans Scarface Négro quand tu mattaques, je L.O.L. smiley face Mets tes warnings, lance un S.O.S Convoi exceptionnel, écarte les F.E.S Je rappe depuis le ciel et les étoiles entre elles Ne parlent que de moi, disent que je suis frais comme à lancienne Je les baise comme des chiennes, à chaque fois elles reviennent Esclave, javais des chaînes, cest tout ce quils retiennent Les cojones vides mais jai les poches pleines Rappeur préféré des khôs qui purgent des grosses peines Main de gorille sur le Bic, flow de Gal-sén Tyrannie sur le beat, cest Saddam Hauts-de-Seine Je suis arrivé en baissant les yeux, je vais les gifler en partant Je veux peser comme Depardieu, gagner dès le premier quart temps Jai vue sur la mer, tu te plains du sale temps Faire du biz avec toi kho, jai pas le temps Je pense quà faire de largent, je pense quà faire de largent Je pense quà faire de largent, je pense quà faire de largent Bakel City Gang, Saddam Hauts-de-Seine Bakel City Gang, Saddam Hauts-de-Seine Les négros sont cuits, veulent détrôner le Duc Kalash dans son étui, lont bien profond dans le ul-c Ma parole est de platine, ton silence est de lor Je glisse en boîte, je patine, gros haineux, tes resté dehors Viens à mes concerts, y a grave de la chatte Des fois ça part en couille, ça fait ratatata Moi jai pas fait la FAC comme les mecs de la BAC Cest soit largent du rap ou soit largent du crack Mon président est black, ma carte bleue est black Pourquoi tu jactes ? Si tu kiffes as-p, técoutes as-p Écrit en blanc et black comme sur la bouteille de Jack Trop de biatchs dans la Maybach, je capte mal, call me back Je suis arrivé en baissant les yeux, je vais les gifler en partant Je veux peser comme Depardieu, gagner dès le premier quart temps Jai vue sur la mer, tu te plains du sale temps Faire du biz avec toi kho, jai pas le temps Je pense quà faire de largent, je pense quà faire de largent Je pense quà faire de largent, je pense quà faire de largent Bakel City Gang, Saddam Hauts-de-Seine Bakel City Gang, Saddam Hauts-de-Seine Jai mon fusil mitrailleur, jai pas besoin de ton aide Je le porte dans mon cur donc partout je suis dans mon bled Gravé sur mon glaive, Bakel City Gang Gros tapin, 6 heures du mat, la queue raide je suis dans mon bed Rappeur de haut niveau, whisky dans le Gatorade Tirer sur le physio, cest de ça que le ghetto rêve Mon frère, jai beau tout faire, personne ne me recrute Centre de Lucifer, tête et but de Belzébuth Fuck avoir un père, je préfère quun gangster méduque Aigle du désert, discute avec ces fils de putes Rats des villes en Nike Air, swagg sur air de flûte Aucun de mon espèce ny arrive sans faire de chute Je suis arrivé en baissant les yeux, je vais les gifler en partant Je veux peser comme Depardieu, gagner dès le premier quart temps Jai vue sur la mer, tu te plains du sale temps Faire du biz avec toi kho, jai pas le temps Je pense quà faire de largent, je pense quà faire de largent Je pense quà faire de largent, je pense quà faire de largent Bakel City Gang, Saddam Hauts-de-Seine Bakel City Gang, Saddam Hauts-de-Seine</t>
+          <t>Si j'étais en hess, MC j'insulterais ta mère, j'te ferais la 'sère Ta meuf c'est toi qui l'aimes, c'est moi qui la gère Mister Kopp, hello Si je parle chocolat, je parle kilos de shit, pas Rafaello Viens dans mon tiek's en Porsche, repars à vélo Chérie, oui oui je t'aime, viens m'voir à tel-l'hô Frais, les couilles vides, je n'ai aucune date limite Voyage de boule en boule, mon crack vient de la Martinique Izi biff, izi money J'en ai gros dans l'slip, sur la patate double poney Commissariat, tout l'monde nous connaît Boulogne à Aulnay j'te promets, j'te promets Parti d'en bas j'avais tout à gagner, rien à perdre On part en couille'zer, dans la street y'a rien à faire Argent facile, pute facile, négro fragile Clique de gorilles, Paname à Lilles, brigade canine Fais comme au cinéma Embrasse le danger quand il est là Messieurs les jurés pardonnez-moi Si je me crois au-dessus des lois Si j'étais plus clair, je serais président de la République Bien sûr je ferais la guerre, bouton rouge, deux trois putes de tchèque République J'abuse des filles car elles sont fragiles, armé je frime en ville Balle dans la tête, ton talon dAchille, bang Mister Kopp, j'vais t'mettre la pastille Les bleus j'les prends dans tous les sens comme les gueux ont pris la Bastille, ouais ouais ouais Crosse qui dépasse, croit que c'est un jouet ouais ouais T'es dead comme Sinik bah bah bah ouais ouais ouais Calvaire, ouh la la ! Danse sous les impacts de balle, renoi c'est pas du Funaná Cap-Vert Viril comme Alain Delon J'ai l'bras long, j'ai la queue longue, banlieusard comme Alain 2 l'Ombre Parti d'en bas j'avais tout à gagner, rien à perdre On part en couille'zer, dans la street y'a rien à faire Argent facile, pute facile, négro fragile Clique de gorilles, Paname à Lilles, brigade canine Fais comme au cinéma Embrasse le danger quand il est là Messieurs les jurés pardonnez-moi Si je me crois au-dessus des lois16</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Aux paradis</t>
+          <t>Here (Remix)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Respecte les gouts et les couleurs Dans la cour, jsuis quune couleuvre Jsuis un peu fou, j'attends mon heure Mauvaise augure ou jleurs fait peur Tu fais trop le fou on te retrouve Momo cest doom pour le zeillo Eux cest des fous, ils se mettent à genoux Cest le retour du faucon farouche Jai commencé le rap pour vanner un pote Cest parti si loin pour si peu Depuis jmnfume avec de la buh Bizarre, depuis ma vie pue la crotte Dans la vie jsuis stressé, jai la bougeotte Comme les petit chinois mon avenir je le tricote La punch est pas tricky , arrêtons le boycotte A ta place je risquerai pas ça Zéro yeuks ni même de cabeza Comme un mec de Sevran qui veut feat avec Riska Booba tenverra au paradis à tes risques et périls Le coq a perdu sa crête dans loisellerie Désormais, il picore les insectes dans ses storys Tik tok ou instagram, ta peine tu las choisi Ils sont effrayé, leur petit navire à pris la pisse Rappeurs ont pointé, les naïves ont pris la bite Mes heures sont comptés, Momo a pointé Mes peurs jles ai domptées, Mohrall est cinglé Pas dargent frère, jassume et je suis fière Je taff pour un maigre salaire Tas pas de flow ni de technique ni de rimes Cest pas pour rien que timites Mesrine Ils font les gangster avec des petits canifs Cest fils de ienf à peine sénerve sortent les canines Ya que la testostérones qui les animent On a pas le même pedigree, SO la race canine On a pas le même pedigree, SO la race canine Respecte les gouts et les couleurs Dans la cour, jsuis quune couleuvre Jsuis un peu fou, j'attends mon heure Mauvaise augure ou jleurs fait peur Tu fais trop le fou on te retrouve Momo cest doom pour le zeillo Eux cest des fous, ils se mettent à genoux Cest le retour du faucon farouche</t>
+          <t>Here is where everything happened Ce que je voudrais raconter Reste en pays étranger Here is where everything happened Sur mon dos marqué d'une croix Pose ta main, souviens-toi Here, here, here Here, here, here Here is where everything happened A force-force de lutter Je ne suis que géométrie Here is where everything happened Et mon curieux visage est né Des débris du grand incendie Here, here, here Here, here, here Don't let anything be lost La mémoire est un animal Don't let anything be lost Silence mat, réveil brutal 70 000 euros en poche Avenue de la Précarité, je roule en Porsche On va rafaler ta Ford Escort On s'en bat les couilles qu't'aies des amis en Corse Je suis le Duc, j'commence par il J'ai le cur noir couleur baril J'aurais aimé qu'Africa manque de fesses J'suis tous les jours à ses obsèques J'suis le CAC 40, t'es le SMIC de Grèce Le crâne ouvert à même le sec Tout le monde y passe, personne ne reste T'es un téton machouillé qu'personne ne lèche Même si je coule ma fille me pêche Donne pas ton cul pour quelques J'aime J'aurais sûrement à fumer quelques hyènes Toujours de quoi remplir quelques zen' M16 dans le pickup truck J'ai tapin chez les Ch'tis elle m'dit Laquelle que t'aimes ? 16 ans j'voulais braquer une poste 16 ans mon fils a commandé une Rolls Si tu m'as dans la main je suis une cloque Quand Dieu a créé la vie, il fumait une clope Si tu m'as dans la main je suis une cloque Quand Dieu a créé la vie, il fumait une clope Here, here, here Here, here, here15</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Le silence n’est pas un oubli</t>
+          <t>Criminelle League</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Je perds mon temps à rester immobile, pendant que la Terre tourne Et que le Très-Haut nous contemple tous Squatter les dépôts pour les mêmes causes et mobiles Menottes argentées sur peaux dor Que la BAC tâte sans pudeur Inégalité pour mot dordre, ici ya rien de sûr Je perds mon temps à me dire que je finirais bien par leur tirer dessus Mater les murs de Boulogne et dIssy Voir le matin remplacer laube et ainsi de suite Je perds mon temps à écouter que ça insiste Lunatic dans la violence incite Trop de jeunes sen battent que le monde leur appartient Continuent de ronfler quand le soleil atteint le zénith Vrai, chaque minute est précieuse On en dépense à trop rêver Combat sans trêve pour accéder à ce qui nous est permis Des heures endormis sur des feuilles blanches Mais lunatiques, à tout moment se déclenchent nos freestyles avalanches Des instants gâchés à perdre ses illusions Du sang et des proches, sa raison et puis le contrôle Je perds mon temps comme un assassin en cavale vivant caché Comme un innocent en taule Comme un dealer à qui personne na acheté Comme un gars dans un hôtel sale Qui parle damour à un tapin qui ne vit que pour sa gueule Je perds mon temps, comme ceux qui attendent la paix au Moyen-Orient Salam et Shalom, la même, mais prononcé en décalage Ça devient Uzi opposé à Kalash Israîl Donne respect à ton aîné Ismaîl Les menottes me serrent et les minutes me tuent Je vois trop de thunes alors je me sers On parle peu, jai lair troublé devant leurs toubibs Mais le silence n'est pas un oubli Jaspire le temps, les yeux plissés Je rappe et je dérape souvent, tant pis si le sang doit pisser Le style pète, cest bête et méchant Trop de temps à lutter, à essayer dêtre riche en trichant Je perds mon temps, loin des miens, déchiré au chanvre indien Taxi que si je paye avec mes Air Max et Jai le fou rire quand je mens, pourtant je dis Bismillah quand je mange Tu veux que je te dise franchement Jai un ange à chaque épaule mais celui de gauche parle trop fort Écouter le droit cest ce que je suis censé faire Mon temps avec des petites schneks Noyer léchec dans du sky sec, à goûter les variétés de shit Rien que du mauvais, sils savaient ce que javais Sils pouvaient me dire quelle maladie jai Cest dans mes gênes ou quoi ? Tu crois quils cherchent, tu rêves ou quoi ! Je perds mon temps, jusquà ce que je perde mon teint Je perds mon temps, sans métier, tête baissée à regarder mes pieds À rêver que je pèse et à regretter Je nique mon temps dans le vice, je veux pas finir dans le feu Mais jai du mal, cest ce que je texplique dans le disque Je perds mon temps à acheter à vendre, à emprunter à rendre À rien apprendre sauf que les porcs sont à pendre Le monde fait flipper, mec tu sais plus rien ne matteint Et plus je connais les hommes plus jaime mon chien Je perds mon temps, attendant que le monde souvre Et je nique tout car tout le monde souffre Mon temps, à chercher de la maille, il men faut Jen perds mon temps, mon sang et mon flow B2OBA kho, trop haut Et je perds mon temps depuis le préau Les menottes me serrent et les minutes me tuent Je vois trop de thunes alors je me sers On parle peu, jai lair troublé devant leurs toubibs Mais le silence n'est pas un oubli Jaspire le temps, les yeux plissés Je rappe et je dérape souvent, tant pis si le sang doit pisser Le style pète, cest bête et méchant Trop de temps à lutter, à essayer dêtre riche en trichant Je perds mon temps dans quoi que ce soit, pour quoi que ce soit, et je vois que cest La maille et les tasses, la caille-ra par la police vexée Tout le temps le même rentre-dedans Tire dedans, attends, lui casse deux dents Bref, la même, je perds mon temps et jai autre chose à faire Comme batailler pour tailler tant quà faire Avancer dans le sens inverse de lenfer Frère, même si à mon service il manque de maille, pour linstant je braille et Je perds mon temps, vois que cest les frères, les mêmes têtes qui dans la merde senfoncent tout le temps Je me dis que faut que je tue le temps Mais cest le temps qui me tue, je lâche pas laffaire, jai la foi convaincu Brave de cur, je perds mon temps Pour des gars quont peur de vaincre, fais couler lencre Vie dambition, mettrais du goudron Sur la terre de mes pères, mes ancêtres Je sais que dans ce pays ils pensent être au-dessus de nous, on met leurs femmes sans dessous Au-dessus, je perds mon temps devant la lettre A de mon bâtiment Démonte les joints de hiya, accélère le châtiment Et cest la Mrabta du soir qui revient me torcher moi En dessous du porche de chez moi Mais attention ya tension quand ya un porc chez moi Je perds mon temps, faut que je le rattrape Cette vie me trompe, quand avec elle tes partenaire, on a lau-delà pour nous maintenir Donc peu importe que tu temportes, ici on na rien à perdre, préviens ta troupe Les menottes me serrent et les minutes me tuent Je vois trop de thunes alors je me sers On parle peu, jai lair troublé devant leurs toubibs Mais le silence n'est pas un oubli Jaspire le temps, les yeux plissés Je rappe et je dérape souvent, tant pis si le sang doit pisser Le style pète, cest bête et méchant Trop de temps à lutter, à essayer dêtre riche en trichant8</t>
+          <t>Kaaris, Kaaris Seine-Saint-Denis, Hauts-de-Seine, Hauts-de-Seine 92, 93 2-2-2-2-2.7 Z.E.R.O 100 moins ocho dans le building Izi, Yeah, yeah Vécu trop moche, du sang dans les po-poches Trop morche, l'instru vient de Boboche Fuck bobonne et les histoires de gloss En gros la réussite n'est qu'une histoire de fo-orce Beaucoup de soucis, on s'pavane sur le bloc La ceinture Gucci ne vient pas avec le Glock Wesh renoi prêt à faire la re-guer Le client n'est pas roi ici le client est un drogué Vendre de la came, Dieu merci j'ai meilleurs projets J'leur ai mise ici, j'leur ai mis là demande à Roger La putain de ta sur, ton blaze donne la nausée Mauvais migiliswigidi swagg José Bové Pas facile à vivre, dur à élever Fermé comme un livre, difficile à suivre, dur à aimer Alcool brun dans mon rre-ve Si tu me vois à terre je ne vais peut-être pas me relever La rue choisit ceux qu'elle guide, fuck un frigidaire vide Mains en l'air tout le monde à terre, vous êtes priés de faire vite Pour tous les gangsters enfermés, pour tous les criminels libres Terrain, séquelles, D1, CL, Criminelle League Criminelle League, Criminelle League La chatte à l'ANPE, fuck un frigidaire vide Pour tous les gangsters enfermés, pour tous les criminels libres Terrain, séquelles, D1, CL, Criminelle League J'vais rentrer par effraction pendant qu'ils copulent, dans l'écran de radar de recul L'industrie en monokini, tu nous reconnais ou tu nies Ton équipe de garce est morte sous la Lamborghini C'est Garcimore featuring Houdini 2.7 Z.E.R.O, Sevran On effrite charass et teu-teu, que les flics et les casques bleus viennent nous lé-bran Oui monsieur le maire, j'suis à l'usine comme à la cuisine ça va vendre du ke-cra Ton père aurait du se retirer de la chatte à ta mère avant de ché-cra Chronique de Riddick sorti d'un chambre magmatique J'laisse une feuille de blunt royale avec de la beuh dedans Sur argent sale bandana avec un peu de sang Oui j'suis l'animal du Botswana avec la queue devant Orh Clique, remplit comme mes couplets Ton trou d'balle affiche complet et j'fais la guerre pendant la trêve Tes chances de m'vaincre sont comme tes armes, de la même matière que tes rêves Y'a pas d'secrets, 2.0.80 Zetrei La rue choisit ceux qu'elle guide, fuck un frigidaire vide Mains en l'air tout le monde à terre, vous êtes priés de faire vite Pour tous les gangsters enfermés, pour tous les criminels libres Terrain, séquelles, D1, CL, Criminelle League Criminelle League, Criminelle League La chatte à l'ANPE, fuck un frigidaire vide Pour tous les gangsters enfermés, pour tous les criminels libres Terrain, séquelles, D1, CL, Criminelle League Criminelle League, on taf pour personne, on écoute sonne-per la France qu'elle y reste B2OBA, K2ARIS, Paris West, Far West vran-Se wesh Trou d'boulette dans l'pare-bullet veste Baise poulettes fraiches Next! Pour un terrain tu ter-sau Vol au dessus d'un nid de feze-chnouzou, faucon millenium vaisseau Fais le plein chez Mollah pas chez Esso J'vais t'la mettre dans l'cul j'me ver-sau, biatch ne me rappelle pas j'ai plus de réseau Il me faut du liquide et des tonnes d'acide Trouve-nous au four en train de ftour, bah oui, on va pas te liquider l'estomac vide Micro-uzi biélorusse ou RPG pour les chorus C'est Actarus avec des Nike Air Pegasus J'arracherai pagnes et collants quand j'serai riche et bête Bi-turbo 500 chevaux avec un âne au volant 93, 92i tu veux faire la prodada like me Armés dans les eaux internationales comme les soldats de l'AQMI La rue choisit ceux qu'elle guide, fuck un frigidaire vide Mains en l'air tout le monde à terre, vous êtes priés de faire vite Pour tous les gangsters enfermés, pour tous les criminels libres Terrain, séquelles, D1, CL, Criminelle League Criminelle League, Criminelle League La chatte à l'ANPE, fuck un frigidaire vide Pour tous les gangsters enfermés, pour tous les criminels libres Terrain, séquelles, D1, CL, Criminelle League Criminelle League T'as j'veux dire ? T'as pas j'veux dire ? Wesh ! Ha ha ha ha</t>
         </is>
       </c>
     </row>
@@ -2515,12 +2515,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Koussi Koussa</t>
+          <t>Porsche Panamera</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Sorties de janvierDjadja Dinaz - Souviens-toi KeBlack - Premier étage Marwa Loud - Temps perdu Sofiane - Tout l'monde s'en fout Vald - Vitrine ft. Damso Vegedream - La fuite ft. DJ Leska Sorties de févrierAbou Debeing - Tombé sur elle ft. Dadju Dadju - Déjà trouvé Dadju - Intuition Djadja Dinaz - Déstabilisé Kalash - Friendzone ft. Still Fresh Lacrim - Grande armée Lacrim - Traîtres MHD - Afro Trap, Pt. 8 Never Médine - Grand Paris ft. Alivor, Lartiste, Lino, Ninho, Seth Gueko, Sofiane Youssoupha Ridsa - Avancer Sorties de marsAlonzo - Feu d'artifice ft. MHD Benash - Ghetto ft. Booba Benash - Ivre ft. Damso Shay Dadju - J'ai dit non Deen Burbigo - Tu rêves ft. Nekfeu Djadja Dinaz - C'est la même Djadja Dinaz - Catalogués bandits Djadja Dinaz - Dans la cité Djadja Dinaz - Mauvais comportement Lacrim - 20 bouteilles Lacrim - 2Pac Lacrim - Colonel Carrillo Lacrim - La dolce vita Lacrim - Oh bah oui ft. Booba Lacrim - Tristi ft. Ghali Lorenzo - Le son qui fait plaiz Naza - La Débauche Niska - B.O.C KeDuSal 1 Ridsa - Mamamia Roméo Elvis - Drôle de question Roméo Elvis - J'ai vu ft. Angèle Sadek - Petit prince Scridge - Pour Walou Sorties d'avrilBMYE - Pourquoi Chérie Ft. DJ Myst, Hiro, Jaymax, KeBlack, Naza Youssoupha Columbine - Temps électrique DTF - 100 Rêves Damso - . Nwaar Is The New Black Damso - B. QuedusaalVie Damso - . Dieu ne ment jamais Damso - . Signaler Damso - . Gova Damso - . Peur dêtre père ft. Youri Botterman Damso - . Kin la belle Damso - . Noob Saibot Damso - N. J Respect R Damso - . Mosaïque solitaire Damso - . Macarena Damso - . Lové Damso - . Une âme pour deux Damso - . Kietu Mister V - Top Album Ninho - Roro Niska - Chasse à lhomme Niska - Jsuis dans lbaye KeDuSal 1.5Sofiane - Mon p'tit loup Sofiane - Toka Sorties de maiBigflo Oli - Alors alors Dadju - Reine Kalash Criminel - Je ne comprends pas ft. JuL Kalash Criminel - Piano sombre L'Algérino - Les menottes Lartiste - Pardonner Mister V - Space Jam ft. Hayce Lemsi Volts Face Naps - Ciao Naps - Elvira Naps - Vroum vroum Naps - À part ça Naza - A Gogo SCH - Comme si SCH - J'attends SCH - Mac 11 SCH - Poupée russe Sadek - Dans la lune Sofiane - Marion Maréchal Still Fresh - Collision Sorties de juinAsh Kidd - Lolita Bigflo Oli - Dommage Bigflo Oli - Papa ft. Fabian Ordonez Bigflo Oli - Personne DJ Hamida - C'est une frappe ft. Lartiste DJ Sem - Mi Corazón ft. Marwa Loud Eddy de Pretto - Fête de trop Fally Ipupa - Bad Boy ft. Aya Nakamura JuL - Ma jolie Lomepal - 70 Lomepal - Bécane ft. Superpoze Lomepal - Danse ft. Camélia Jordana Lomepal - Palpal Lomepal - Yeux disent Siboy - Mobali ft. Benash Damso Sorties de juilletAlonzo - Bagarre Alonzo - Suis-moi Booba - Nougat Djadja Dinaz - Maléfique ft. DJ Babs Jordan Dosseh - PDCV Pas dans cette vie Hornet La Frappe - Je pense à toi Lacrim - Ce soir ne sors pas ft. Gims MMZ - Ma bulle Naza - MMM Ninho - Mamacita Niro - Sors de ma tête Niska - Réseaux Sadek - En leuleu ft. Niska Timal - Vatos Sorties d'aoûtAlonzo - Papa Allo Lorenzo - Fume à fond Ninho - Chino Sadek - La vache Sorties de septembre4Keus - O'Kartier C'est La Hess Hornet La Frappe - Dead ça Hornet La Frappe - Maghrébin JuL - Drôle de dame Lacrim - Judy Moncada MC Solaar - Sonotone Marwa Loud - Mehdi Naza - Sac à dos Ninho - Caramelo Ninho - Carbozo Ninho - Ce soir ft. Alonzo Ninho - Comme prévu Ninho - De l'autre côté ft. Nekfeu Ninho - Dita ft. Hös Copperfield Ninho - Elle m'a eu Ninho - HLM ou Palace Ninho - Laisse pas traîner ton fils ft. Sofiane Ninho - Lové ft. Gradur Ninho - Pourquoi Ninho - Rose Niska - Ah bon ? Niska - Amour X Niska - Favelas ft. Skaodi Niska - HM Niska - La wewer Niska - Medellín Niska - Salé Niska - Snapchat Niska - Story X Niska - Tuba Life ft. Booba Niska - Twerk dans l'binks Niska - Versus ft. MHD OrelSan - Basique Sadek - Madre Mia ft. Ninho Soprano - Mon précieux Vald - Trophée Sorties d'octobreEddy de Pretto - Fête de trop Dadju - Ma fierté ft. Alonzo Gims Hamza - Life Hamza - Vibes JuL - La tête dans les nuages Kaaris - Je suis gninnin, je suis bien Kalash - Koussi koussa ft. Niska Kalash - Mwaka Moon ft. Damso Lacrim - Tous les mêmes Lartiste - Catchu catchu OrelSan - Bonne meuf OrelSan - Christophe ft. Gims OrelSan - Dans ma ville, on traîne OrelSan - Défaite de famille OrelSan - La fête est finie OrelSan - La lumière OrelSan - La pluie ft. Stromae OrelSan - Notes pour trop tard ft. Ibeyi OrelSan - Paradis OrelSan - Quand est-ce que ça s'arrête OrelSan - San OrelSan - Tout va bien OrelSan - Zone ft. Dizzee Rascal Nekfeu Sorties de novembreAbou Debeing - C'est pas bon ft. Dadju Columbine - Pierre, feuille, papier, ciseaux Dadju - Bob Marley Dadju - Comme si de rien n'était Dadju - Django ft. Franglish Dadju - Intuition Dadju - Oublie-le Dadju - Par amour ft. Gims Dadju - Seconde chance Dadju - Sous contrôle ft. Niska JuL - Henrico Kaaris - Bling bling ft. Kalash Criminel Sofiane Kaaris - Diarabi Lacrim - Gericault Lacrim - Intocable ft. Mister You Lacrim - Noche ft. Damso Lacrim - Veux-tu ? ft. Ninho Lomepal - Club Sorties de décembreBooba - 113 ft. Damso Booba - Bouyon ft. Gato Booba - Centurion Booba - Drapeau noir Booba - Friday Booba - Magnifique Booba - Petite fille Booba - Ridin' Booba - Terrain Booba - Trône Booba - À la folie Booba - Ça va aller ft. Niska Sidiki Diabaté Dadju - Par amour Ft. Gims Dadju - Lionne Damso - Tueurs Gims - Caméléon Hayce Lemsi - Havana JuL - Délicieuse JuL - Je vais t'oublier ft. Marwa Loud Marwa Loud - Fallait pas</t>
+          <t>Porsche Panamera, Porsche Panamera Aveugle ou pas, qui vivra verra Porsche Panamera, Porsche Panamera On canarde tout pour une cause MohamedMerah Porsche Panamera, Porsche Panamera Badème, Killer, Uzi prêt en cas de 7aja Porsche Panamera, Porsche Panamera Conduite sportive, demande à 2Lat, trap, musique, flow, gros tout est re-noi Ils ne savent rien, mais ils font que parler, on va leur casser la voix Si la vie ne tient qu'à un fil, moi j'm'attache à une corde S.D.H.S. Family, Hauts-de-seine, pour mettre un peu d'ordre Le savoir est une arme, je suis armé, je veux rien savoir non, non Si je bé-tom, je sais qui viendra me voir au parloir oui, oui Jus de bagarre, jus de bagarre, ramènes-nous à boire Mec du Los, réussir est un devoir L'argent facile à toujours un prix Cassez-vous de là bandes de poucaves, Sultan, Fababy J'vois tout en kilos, j'crois que j'suis en excès Allah y Rahmo, car seul le crime paie Porsche Panamera, Porsche Panamera Aveugle ou pas, qui vivra verra Porsche Panamera, Porsche Panamera On canarde tout pour une cause MohamedMerah Porsche Panamera, Porsche Panamera Aveugle ou pas, qui vivra verra Porsche Panamera, Porsche Panamera On canarde tout pour une cause MohamedMerah Porsche Panamera, Cap Canaveral 192 de Q.I sous la nouvelle Era Négro j'suis au quartier avec 40 Thiaga Polo Ü.K.T, Baskets Balenciaga On s'feras péter sur le ter-ter et tu me balanceras Oseille, biff, oseille, le reste on s'en bat la ce-ra Si j'suis pas dans un bourbier, j'suis à la salle T'es dans les mondes oubliés, t'es sur Thalassa T'as voulu crier, faire du bruit, et on te kalasha Pas eu l'temps d'faire le 18 qu'on te caillassa Tu es à la vente, je suis à l'achat Solide comme Fidel Castro Guantanamera Cain-Fri, Refais, Roloto, on à jamais té-Gra Mes rates-Pi te rafalent au semi-auto ne vont pas te ter-ra L'avenir est dans le luxe, pas l'temps de qué-cra Direct dans le uc', pas l'temps de gué-dra ! Porsche Panamera, Porsche Panamera Aveugle ou pas, qui vivra verra Porsche Panamera, Porsche Panamera On canarde tout pour une cause MohamedMerah Porsche Panamera, Porsche Panamera Aveugle ou pas, qui vivra verra Porsche Panamera, Porsche Panamera On canarde tout pour une cause MohamedMerah Porsche Panamera, équipe de malade, Boulbi re-squa Grosse tapette tu veux test mes soldats, t'es pas prêt Vas-y vas-y vas-y casses toi ! Tous mes voyous veulent niquer la grosse, la grosse chatte à Rine-Ma Toujours dans le QG, avec tout mes re-noi ! Pas de iatch-bi dans l'équipe, que des rates-pi, tête-tête mé-cra SDH prêt pour la rre-gué, on à gé-char les balles pour les né-ca Bang Bang dans vos têtes, on vous rafale on a l'seum comme Merah Bandes de gratteurs vous aurez rien, restez en chien cassez vous d'là ! Voitures de re-spo, Cayenne, R8, Panamera On est anti lance-ba, bouches serrées comme les menottes des re-shta Elle me fait du bon riz tout les soirs ma jolie Karaba Elle ne prendra pas la pillule, j'vais la ken sans pote-ca Leur pauvres yous-voi sont à bout, t'inquiètes re-noi ça bouge pas Gros bangala dans les gênes 237 certifié Douala Qué te pasa ? on les rre-ba Appelles le 92i Wallay Billay si y'a draah ! Porsche Panamera, Porsche Panamera Aveugle ou pas, qui vivra verra Porsche Panamera, Porsche Panamera On canarde tout pour une cause MohamedMerah Porsche Panamera, Porsche Panamera Aveugle ou pas, qui vivra verra Porsche Panamera, Porsche Panamera On canarde tout pour une cause MohamedMerah29</t>
         </is>
       </c>
     </row>
@@ -2532,12 +2532,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>#FélixEboué</t>
+          <t>Repose en paix</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Si je me mets à genoux c'est pour prendre un coup d'épée Tu m'as mis un seul coup dans le flou, t'en as parlé tout l'été J'vais te retweeter ta grand-mère, boîte crânienne sous Giuseppe J'suis sur un transat, moitié khabat, j'pense à toi du bout des pieds J'mets des gants pour faire la vaisselle, AK-47 sous l'évier Sénégalo-BC, geah, DKR Noumou Démé Faut être armé baraka, taffer dur, c'pas tout d'être doué Surinamien, Balata, 9.7.3, Félix Éboué Zerma tu rentres seul dans les tess sans aucun souci Mais t'es une dizaine à la boutique, pends-toi avec ma ceinture Gucci Koppbiwan-Kenobi, j'devrais pas combattre l'être humain Lâche comme un terroriste, plus d'dix ans, zéro hit ou moins Nero Nemesis sur le hiéroglyphe cousin Quand nous on va te mêler, c'sera pas l'Stade Toulousain Frère, t'es une blague, les plus courtes sont les meilleures Fuck la misère, thug depuis mineur Money bags tombent toutes les demi-heure On fume la noire, tu sniffes l'albinos On rendra ni les armes, ni l'flow à Migos, ouais, ouais, ouais On fume la noire, tu sniffes l'albinos On rendra ni les armes, ni l'flow à Migos Un peu d'argent du trafic, le terrain n'est plus c'qu'il était Numéro 1 dans la street, trop d'neige en hiver, je skie l'été J'achète ici, va louer là-bas Piste bre-som, chalet noir, reine de Saba Slalom dans leurs mères, ouais nous ça va Ta carrière au fond d'la mer comme Oussama22</t>
+          <t>B.O Banlieue Ouest, négro Ouais Hein, hein Repose en paix, kho Hauts-de-Seine, hein J'dois marquer mon territoire, on veut m'empêcher de pisser J'arrive sur toi plus vite que les ragots, mon argot sous un garrot Derrière des barreaux, les poils hérissés Négro j'vais foutre la merde et j'vais me barrer comme au lycée Ici y a qu'une marée et elle est noire foncée Que le hip-hop français repose en paix Mesdames, messieurs ! Ici-bas pour représenter On roule tous à 200, certains ont pété l'essieu J'ai pas prêté mon style aux salopes Mon crew au top, équipé arch' et je baise les garces avec un hard-top FAUX, débranche Pé-sa en noir avec une faux, je contourne les MC à la craie blanche Le résultat d'une blanche et d'un nègre Un coup d'hanche et c'est le ravin, fais pas ton nid sur la branche d'un aigle J't'ai montré l'Hexagone du doigt, du shit sous un ongle J'suis la belle vie sous un autre angle, faut pas t'inquiéter Le monde est nôtre, un satellite pour défourailler le beat 92, petit, j'te le répète, faut pas t'inquiéter LUNATIC, y a que la moitié, attends ! Arrache-toi des baffles ou ressors de boîte en boitant Toujours là avec mes culs-de-jatte et mes khos BM, Merco, paraît que le métro ça a changé Ça fera pas de nous des héros, je m'en bats les reins, négro J'ai les crocs, j'ai faim du bled et de mon terrain J'suis venu marquer mon temps malgré mon teint Ni bluff, ni simagrées, c'est bien des noirs et des maghrébins C'était juste un puzzle de mots et de pensées Que le hip-hop français repose en paix Ils veulent rivaliser, leur truc c'est nul On est trop haut, négro, eux, ils sont petits comme une cellule Pourtant je suis qu'une petite vedette, toujours anti-deps Insolent contre les agents, les médailles d'argent On est venus cracher notre haine moi et ceux d'derrière Ma première parole sera la dernière Depuis mon arrivée, le string du move est trempé Que le hip-hop français repose en paix Sir Doum's, ALI, Nessbeal Que le hip-hop français repose en paix B2O, Lunatic, Malekal Morte Que le hip-hop français repose en paix Mo'vez Lang, Moussa, ckey-Jo, chauds bouillants, kho Que le hip-hop français repose en paix 92 Injection, JP-Shit, Géraldo, JB Que le hip-hop français repose en paix Ouais, ouais, ouais4</t>
         </is>
       </c>
     </row>
@@ -2549,12 +2549,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Le bitume avec une plume</t>
+          <t>Jimmy deux fois</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Mon frère j'voulais la gloire J'ai eu la guerre, j'l'ai faite, y en aura d'autres C'est la merde, chiez dans vos toubeïs car tout se paye Donne-moi la bouteille et j'tousse pas M'touche pas, du 9.2 c'est de là qu'tout part Lil de Rocky, les couilles à Rocco Grand Cherokee et trop d'popo dans les propos Douze dans la nane-ba, tous dans la tate-pa Et c'est trop tard pour foutre du mascara sur un cocard J'parle mal, et j'ai la rétine assassine Le mal par le mal, son pour les man Trop de soucis aussi on mincit et c'est pas nouveau, Ici y'a que des putes on serre la main qu'à des canons sciés N'aimant que manier l'acier pour des biffetons Micro 3.5.7 python, violent Depuis les chaînes et les bateaux j'rame T'inquiète, aucune marque dans le dos man, j'les ai dans le crâne J'suis arrivé dans le son, retrace la guerre dans mes morceaux Et si j'me fais caner, pas besoin d'en faire une chanson Mon stylo dans la terre, j't'aurais sans rançon Sois sans rancune j'suis l'bitume avec une plume Je retrace la guerre dans mes morceaux Et si j'me fais caner pas besoin d'en faire une chanson Mon stylo dans la mer, vers le cap sud J'te résume j'suis l'bitume avec une plume J'suis mort de faim, rap F1 pour tous mes défunts La routine, le she-ca, la chevrotine, roule en chette-ca Du popo, un stylo dans mon jean, sans millésime J'suis dégoûté comme quand j'ai ché-cra Rap à l'usine, contrôlé plus à l'urine J'fais du 0 à 100 en 1'10'' quand j'vois mes khos en sang J'dors sans la fiole, démarre sans fuel Quand j'vois la France les jambes écartées j'l'encule sans huile J'arrive en ville, brille, repars en vie Si t'aimes les représailles tire en l'air ou dans mes Nike Air J'me lève à 15 h, me couche à 6' du mat Et veux du Moët c'est la patate, ouais Au mic c'est Platoon et ça r'tourne Car j'ai appris quand y avait pas de thune Alors que tourne la roue, nos rues des fours Laisse-moi rouler ma niaks, ma tasse et ma liasse Un bon Q.I., du courage, un peu d'vice et les poulets rôtissent Dans ma team que des numéros 10 J'retrace la guerre dans mes morceaux Et si j'me fais caner, pas besoin d'en faire une chanson Mon stylo dans la terre, j't'aurais sans rançon 500 rancunes, J'suis l'bitume avec une plume J'veux pas rapper avec les pinces, écrire mon nom sur l'banc Sous écrou longtemps, mes empreintes de doigt sur l'gland Je veux peser, baiser, me reposer B20BA j'roule avec OCB 3, 4, 5, 6 tass' à la s'maine Ici ça pue l'cash de la casquette à la s'melle J'suis qu'un missile, guidé par 45 Dopé au shit, à la Soul, au riz, à la s'moule C'est ça gars ! On sort pas du chapa d'une chaga Et à chaque album, une autre époque de chacal J'suis c'macaque avec une plume Ne sent plus la douleur et leur tumeur a la couleur de c'que j'fume Mon régime à la résine J'te résume, j'suis l'bitume avec une plume Et si j'me fais caner, pas besoin d'en faire une chanson Mon stylo dans la mer, vers le cap sud J'te résume j'suis l'bitume avec une plume J'retrace la guerre dans mes morceaux Et si j'me fais caner, pas besoin d'en faire une chanson Mon stylo dans la terre, j't'aurais sans rançon 500 rancunes, j'suis l'bitume avec une plume J'retrace la guerre dans mes morceaux Et si j'me fais caner, pas besoin d'en faire une chanson Mon stylo dans la mer, vers le cap sud J'te résume j'suis l'bitume avec une plume J'retrace la guerre dans mes morceaux Et si j'me fais caner, pas besoin d'en faire une chanson Bitume, plume, bitume, plume Bitume, plume, bitume, plume Bitume, plume, bitume, plume Bitume, plume, bitume, plume Bitume, plume, bitume, plume Animal, Animalsons J'suis l'bitume avec une plume J'suis l'bitume avec une plume J'suis l'bitume avec une plume9</t>
+          <t>Jimmy deux fois, quon avait surnommé comme ça parce quil répétait tout deux fois - Jvais chercher des clopes, jvais chercher des clopes Wesh re-noi ? Jimmy deux fois Ouest Side C'est izi, izi, ça se passe ici, ici C'est lourd ? Oui, oui, oui, oui, Bakel City, City Une à une mes cases s'allument comme dans Billie, Billie Jean, millionnaire en euros, milli, milli Mes dernières vidéos en Wi-Fi, Wi-Fi J'aime les défis, défis, les fans mimis, mimis J'suis le meilleur, j'te mets fanny, t'es fini, nini Ridicule en mode aplati, t'es un panini, ni Je suis venu, j'ai vu, j'ai vici, vici Trop de vlots-tra dans ce game comme à Clichy, Clichy Parle à ma secrétaire, j'suis busy, busy Ou bien va niquer ta mère comme dirait Fouiny, Fouiny Je swagg sur la gauche, je swagg sur la droite Automatique sur les genoux, bouteille de Jack sur la table Premier samedi du mois en décrypté sur la 4 Gros décolleté, 9.2.I. tatoué sur la chatte Je vais chercher des clopes, je vais chercher des clopes J'suis Super Mario, t'es Luigi, Luigi T'emmènes ta go dans l'Ontario, moi aux Fidji, Fidji J'aime les gros culs, pas les gos skinny, skinny Les meufs des îles bien dodues, j'leur dis vini, vini Mon expression est directe, demande à Weedy J'veux la chatte à Fatoumata, la chatte à Windy B.2.O. ours, grizzly, grizzly Négros pendus aux arbres dans le Mississippi J'suis traumatisé depuis, depuis À la 0.9 aromatisé, j'suis de-spee, de-spee Homme d'affaires, j'ai ralenti le te-shi, te-shi Avoir les idées claires, laisser le pe-ra en sursis, sursis Je swagg sur la gauche, je swagg sur la droite Automatique sur les genoux, bouteille de Jack sur la table Premier samedi du mois en décrypté sur la 4 Gros décolleté, 9.2.I. tatoué sur la chatte Je vais chercher des clopes, je vais chercher des clopes Fondant au chocolat au dessert, mi-cuit, mi-cuit Le rap français est sur le grizill, j'fais méchoui, méchoui J'suis dans le strip club, j'suis airy, airy J'suis pas au Pink Paradise, j'suis à Miami Avec mon pote l'affranchizi Jimmy, Jimmy Minimum 4 zéros en poche, pas moins de 10 000, 10 000 Malekal Morte est sur tes pas, chacun est suivi, suivi Donc si tu aimes quelqu'un, dis-lui, dis-lui1</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Quotidien de baisé</t>
+          <t>Pigeons</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Discographie - Damso Album Studio - 20160708 Damso - Batterie faible - 20170428 Damso - Ipséité - 20180615 Damso - Lithopédion - 20200918 Damso - QALF - 20210429 Damso - QALF infinity Mixtape - 20140829 Damso - Salle d'attente Compilation - 20181214 Damso - Intégrale - 20190809 Damso - Ipséité Lithopédion Single - 20120328 Damso - Freestyle Portes Ouvertes FPO - 20121001 Damso - Brouillard - 20140308 Damso - EGO - 20140328 Damso - Publie Partage Promo - 20140818 Damso - On n'est jamais mieux compris que par soi-même - 20140829 Damso - Le talent ne suffit pas - 20140928 Damso - IVG - 20141220 Damso - Tout oublier - 20141220 Damso - BANG BANG - 20150808 Damso - Comment faire un tube - 20151118 Damso - Ma putain - 20151119 Damso - Colis - 20151120 Damso - Poséidon - 20151217 Damso - Mi Amor - 20160122 Damso - Débrouillard - 20160427 Damso - Autotune - 20160527 Damso - BruxellesVie - 20160621 Damso - Peur d'être sobre - 20160624 Damso - Périscope - 20160708 Damso - Graine de sablier - 20160718 Damso - Paris c'est loin - 20161107 Damso - Amnésie - 20160919 Damso - Débrouillard Remix - 20160928 Damso - Freestyle Deezr - 20170118 Damso - Smeagol - 20170220 Damso - CQFD - 20170403 Damso - Mort - 20170428 Damso - N. J Respect R - 20170428 Damso - . Nwaar Is Th New Black - 20170525 Damso - TieksVie - 20170706 Damso - . Macarena - 20170714 Damso - Quotidien de baisé - 20170901 Damso - Mucho Dinero - 20170903 Damso - C'est toujours Dems Le vrai - 20171027 Damso - Seultou - 20171027 Damso - Fais-moi un Vie - 20171110 Damso - Je nous mens - 20171201 Damso - Tueurs - 20180316 Damso - . Mosaïque solitaire - 20180428 Damso - Ipséité - 20180605 Damso - . Ouzbek - 20180613 Damso - Smog - 20180801 Damso - Surcôté - 20200124 Damso - veillé - 20200328 Damso - - 20210107 Damso - 911 - 20210406 Damso - J'avais juste envie décrire - 20221218 Damso - Cur de pirate Featuring - 2008 Dolfa - Cyclone - 20151112 LeBoy Krisy'B - Studio Remix - 20151204 Booba - Pinocchio - 2016 Siboy - Paradis - 20160410 Krisy - Real - 20160611 Booba - Freestyle Couvre Feu OKLM - 20160624 Hamza - Slow - 20170120 Vald - Vitrine - 20170331 Benash - Ivre - 20170630 Siboy - Mobali - 20171006 Kalash - Mwaka Moon - 20171117 Lacrim - Noche - 20171201 Booba - 113 - 20171213 Kalash - Mwaka Moon Felckin Remix - 20180518 Kalash - Mwaka Moon Sfera Ebbasta Remix - 20181114 OrelSan - Rêves bizarres - 20181207 404Billy - RVRE - 20190606 Nekfeu - Tricheur - 20190628 D.A.V - ParoVie - 20190712 Vegedream - Personne - 20190726 Kalash - JTC - 20190726 Kalash - Praliné - 20190927 Ikaz Boi - SOLITERRIEN - 20191118 Dadju - Robe - 20191219 Hamza - God Bless - 20200307 Ninho - Promo - 20201015 Innoss'B - Best - 20201016 Kalash Criminel - But en or - 20210305 ElGrandeToto - Étranger - 20210702 Dinos - Du mal à te dire - 20210716 Laylow - R9R-LINE - 20211203 Angèle - Démons - 20220301 Angèle - Démons Live Orchestral - 20220309 Aya Nakamura - Dégaine - 20220317 Disiz - RENCONTRE - 20220325 Selah Sue - Wanted You to Know - 20220429 Kalash - I Love You - 20220429 Kobo - .FUMÉE.ÉPAISSE - 20220701 Gazo - BODIES - 20220923 Kalash - Malpolis - 20221111 Lous and The Yakuza - Lubie - 20230217 Hamza - Nocif Discographie complémentaire - Discographie - OPG</t>
+          <t>C'est pas qu'j'aime pas me mélanger, mais disons... C'est pas qu'j'aime pas me mélanger, mais disons... C'est pas qu'j'aime pas me mélanger, mais disons Simplement qu'les aigles ne volent pas avec les pigeons, pigeons ! Salam Alikoum, bonjour à tous, buenos días J'sais pas pour vous mais moi, j'ai envie d'une grosse biatch Cruise le son à fond dans la voiture, peu-sa haute couture J'crie c'que tu murmures, j'rappe dans le futur J'bois J.A.C.K, le champagne, Grey Goose m'écurent Juste besoin d'un contrat, d'un flow, d'un beatmaker C'est pas pour nous mais pour nos ennemis qu'j'ai peur J'veux l'swag à Mamadou, la carrière à Mick Jagger Prod de Histakes tournent dans mon lecteur Backstage, j'prépare la guerre dans mon secteur Crime et chant, j'ai fait mon choix depuis longtemps Ma vie tu l'écoutes et moi je la vis comme je l'entends C'est pas qu'j'aime pas me mélanger, mais disons... C'est pas qu'j'aime pas me mélanger, mais disons... C'est pas qu'j'aime pas me mélanger, mais disons Simplement qu'les aigles ne volent pas avec les pigeons, pigeons ! Les balances en rappeurs sont déguisées Donne-moi un truc à tiser, j'vais rapper jusqu'à m'épuiser Izi Izi Izi le nom d'mon crew, Medi Med c'est mon DJ U tréma sur le tricot, diamants sur les chicots Si tu me la mets, j'finirai sûrement D.P.S On retrouvera ta race la pute où que tu ailles, sans GPS Premier en rap sale, en crime, en EPS Khey, magic braquemart, Cialis au pays des merveilles C'est chaud comme à Liberty City, chaud comme à Montfermeil Dope coupée en lamelles, Dom P' dans la gamelle Brigade anti-zamels, diabolique Swag, mode Gargamel Tatoué d'partout, graffitis sur enveloppe charnelle C'est pas qu'j'aime pas me mélanger, mais disons... C'est pas qu'j'aime pas me mélanger, mais disons... C'est pas qu'j'aime pas me mélanger, mais disons Simplement qu'les aigles ne volent pas avec les pigeons, pigeons ! Ennemi juré du système, j'veux voir son string ficelle Sa chatte en Haute déf', 92 millions d'pixels J'veux des gros flingues, baiser des vidéos Vixen Toute la nuit, Duracell, Magnum XXL Elles disent qu'on est des salauds, sauf quand faut faire un chèque Mieux vaut avoir une bite dans l'cerveau, que le cerveau dans la schneck Mon son tourne au deu-blé, dans l'Seize et à la tess J'ai du tabac couleur Shrek pour oublier quand c'est la hass Kojak, fhartass, pilote faucon millénium Chaque sortie d'album, platine c'est l'minimum Entouré d'bombes Latines, pas besoin debaratiner Juste à sortir le bling bling, so fresh, so clean ! C'est pas qu'j'aime pas me mélanger, mais disons... C'est pas qu'j'aime pas me mélanger, mais disons... C'est pas qu'j'aime pas me mélanger, mais disons Simplement qu'les aigles ne volent pas avec les pigeons, pigeons ! C'est pas qu'j'aime pas me mélanger, mais disons... C'est pas qu'j'aime pas me mélanger, mais disons... C'est pas qu'j'aime pas me mélanger, mais disons Simplement qu'les aigles ne volent pas avec les pigeons, pigeons !3</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>RST</t>
+          <t>Illégal</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>On ira où tu voudras Quand j'aurai qu'ça à foutre On ira où tu voudras Ça sent l'appel à la civière, c'est quoi les bails, en fait ? Si on s'embrouille, il faut qu'tu considères le AK-47 Un roi sans couronne, c'est mieux qu'un roi sans tête Ne vous méprenez pas c'est A.L.I, le 667 On n'est plus humains, on s'pécho sur le net Pas d'shopping, je l'ai niquée, elle avait rien à s'mettre J'ai l'bras tendu, j'attends du bédo, yoyo à la f'nêtre Des fois, j'aimerais juste leur faire tout le mal qu'ils nous souhaitent Le crime ne paie pas, on m'a dit, j'ai bibi sous le nez des porcs J'n'ai que deux personnes dans la vie, le reste, ce n'est que du décor J'suis disponible qu'après minuit, tu es très jolie Mais y aura pas d'p'tit déj' au lit, comme ça, c'est dit J'prie pas mais j'oublie pas d'dire Hamdoullah quand j'passe entre les gouttes On ira où tu voudras quand j'aurai qu'ça à foutre 9 millimètres au bout du bras si tu t'mets sur ma route Pasta d'Colombie dans sa tte-cha, Louis Vuitton dans la soute J'prie pas mais j'oublie pas d'dire Hamdoullah quand j'passe entre les gouttes On ira où tu voudras quand j'aurai qu'ça a foutre 9 millimètres au bout du bras si tu t'mets sur ma route Pasta d'Colombie dans sa tte-cha, Louis Vuitton dans la soute Elle m'a d'mandé C'est quoi ton Snap' ? pour m'envoyer sa chatte J'suis trop vieux pour Snapchat, envoie-moi sur WhatsApp Toka' chargé, j'regarde à gauche à droite, comme un suricate Avant le show, Jack au goulot, comme ça, j'ai pas le trac Elles ont fait trop de squats, pas une que j'dévisage Pourquoi c'toujours un négro dans l'train d'atterrissage ? J'suis dans les bails de penthouse, de dernier étage Elle veut mon cur, mon héritage sans faire le ménage T'as l'air pulpeuse donc épluche-toi, Uber t'ouvre pas la porte Donc moi non plus, manquerait plus qu'ça, y a pas qu'toi qu'a la cote Crois-moi, la vie de rêve, c'est surcoté de fou Elle croit qu'elle est belle pour de vrai, la go' se fout de nous J'prie pas mais j'oublie pas d'dire Hamdoullah quand j'passe entre les gouttes On ira où tu voudras quand j'aurai qu'ça à foutre 9 millimètres au bout du bras si tu t'mets sur ma route Pasta d'Colombie dans sa tte-cha, Louis Vuitton dans la soute J'prie pas mais j'oublie pas d'dire Hamdoullah quand j'passe entre les gouttes On ira où tu voudras quand j'aurai qu'ça a foutre 9 millimètres au bout du bras si tu t'mets sur ma route Pasta d'Colombie dans sa tte-cha, Louis Vuitton dans la soute Il paraît qu'l'Enfer est sur Terre, si c'est ça, je prends Bague au pinky, pas à l'annulaire, je n'ai pas le temps4</t>
+          <t>J'me lave le pénis à l'eau bénite J'vais rentrer au pays, marier 4 grognasses qui m'obéissent Avant d'avoir le net, j'ai surfe sur un bizz J'ai été, j'suis malhonnête, ramène tes seufs sur la piste 92 soupapes dans le moteur, un peu de weed Dévasté par la mort de 2Pac, Malcolm, Apollo Creed Ma biche, c'est du lourd comme Bernard-Henri Lévy, bitch Bien sûr je parle anglais, je suis heavy, je suis rich Pour me battre, m'égaler il faudra que tu triches Sénégalais, j'ai plus d'une corde à mon arc, tu piges ?! J'vais t'présenter des fêlés qui eux n'passent pas à la télé Pour être dans le 92i, faut en avoir une grosse comme Makélélé Benny.B dit 92izi, dans le V.I.P, be happy Secoues ton bou-oule, ce soir j'suis B.I.G Tu veux détrôner le D.U.C, tu as trop d'imagination Regardes mon gun, j'suis fashion, sur YouTube, Dailymotion Je tourne en rond, je fume, je roule en ture-voi Pour trouver le sommeil Ma prof m'a dit Qu'est-ce tu veux faire quand tu seras grand renoi ? - Rien, je veux faire de l'oseille Toujours un peu plus difficile vu mon profil J'veux être le prince de la ville Malgré ça je fais mon possible, B2O il est àl Chiffrer, se lever le plus tard possible, réglo ou illégal Tu piges ? Chaque problème a sa solution, j'roule en 4x4, rien à foutre d'la pollution Le coût de la vie t'enlève goût de la vie, tu traines en meute, deviens loup de la ville Des chiffres et des chiffres, fuck les lettres et Patrice Laffont à fond Musique à fond, liasses d'oseille jusqu'au plafond Je suis prêt, j'ai les brevets, frais à en crever, viens chez moi, GHB dans ton revé 38 Spécial, Smith et Wesson, gilets par-balle si tu penses à me lever Bleus sont les gyros, rouges sont mes yeux, blanche est la colomb', Jack est mon sirop Personne est réglo, tous le monde se crève, où est le Maghreb, où sont mes négros ?! Ne me dis pas que je n'ai pas le droit, je dois m'en sortir man je n'ai pas le choix Je te prends en levrette, laisse moi mettre le doigt, Perpèt'? j'connais pas car j'ai Maître Lebras Mon cur est une bouteille de gaz J'm'endors sur du Wu-Tang 'avec une douzaine de tass Tous les jours c'est le week-end, moi j'traine avec Mala et Brams Négro j'te l'ai déjà dit j'suis pas une racaille de base Fais l'malin avec mon blé, j't'envoie une rafale de baffes J'ai pas le time de t'écouter moi j'ai des montagnes de taf Je tourne en rond, je fume, je roule en ture-voi Pour trouver le sommeil Ma prof m'a dit Qu'est-ce tu veux faire quand tu seras grand renoi ? - Rien, je veux faire de l'oseille Toujours un peu plus difficile vu mon profil J'veux être le prince de la ville Malgré ça je fais mon possible, B2O il est àl Chiffrer, se lever le plus tard possible, réglo ou illégal Tu sais où sont les mâles, on rentre dans la boite Tu cherches ma table, c'est celle où y a l'plus de Jack M.C. ! Protège mon back, j'suis un peu, paranoïaque Fais pas le frais derrière ta meuf, man fais-leur mal Bouteilles à moitié-pleines, à moitié-vides, les grosses coupures c'est ma devise Fous-toi des fiches de paye au cul, mes khos n'arrêteront pas le business Laisse-moi être B.O.S.S Accomplir mes rêves de G.O.S.S Je tourne en rond, je fume, je roule en ture-voi Pour trouver le sommeil Ma prof m'a dit Qu'est-ce tu veux faire quand tu seras grand renoi ? - Rien, je veux faire de l'oseille Toujours un peu plus difficile vu mon profil J'veux être le prince de la ville Malgré ça je fais mon possible, B2O il est àl Chiffrer, se lever le plus tard possible, réglo ou illégal4</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Mr. Kopp</t>
+          <t>Tallac</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Si j'étais en hess, MC j'insulterais ta mère, j'te ferais la 'sère Ta meuf c'est toi qui l'aimes, c'est moi qui la gère Mister Kopp, hello Si je parle chocolat, je parle kilos de shit, pas Rafaello Viens dans mon tiek's en Porsche, repars à vélo Chérie, oui oui je t'aime, viens m'voir à tel-l'hô Frais, les couilles vides, je n'ai aucune date limite Voyage de boule en boule, mon crack vient de la Martinique Izi biff, izi money J'en ai gros dans l'slip, sur la patate double poney Commissariat, tout l'monde nous connaît Boulogne à Aulnay j'te promets, j'te promets Parti d'en bas j'avais tout à gagner, rien à perdre On part en couille'zer, dans la street y'a rien à faire Argent facile, pute facile, négro fragile Clique de gorilles, Paname à Lilles, brigade canine Fais comme au cinéma Embrasse le danger quand il est là Messieurs les jurés pardonnez-moi Si je me crois au-dessus des lois Si j'étais plus clair, je serais président de la République Bien sûr je ferais la guerre, bouton rouge, deux trois putes de tchèque République J'abuse des filles car elles sont fragiles, armé je frime en ville Balle dans la tête, ton talon dAchille, bang Mister Kopp, j'vais t'mettre la pastille Les bleus j'les prends dans tous les sens comme les gueux ont pris la Bastille, ouais ouais ouais Crosse qui dépasse, croit que c'est un jouet ouais ouais T'es dead comme Sinik bah bah bah ouais ouais ouais Calvaire, ouh la la ! Danse sous les impacts de balle, renoi c'est pas du Funaná Cap-Vert Viril comme Alain Delon J'ai l'bras long, j'ai la queue longue, banlieusard comme Alain 2 l'Ombre Parti d'en bas j'avais tout à gagner, rien à perdre On part en couille'zer, dans la street y'a rien à faire Argent facile, pute facile, négro fragile Clique de gorilles, Paname à Lilles, brigade canine Fais comme au cinéma Embrasse le danger quand il est là Messieurs les jurés pardonnez-moi Si je me crois au-dessus des lois16</t>
+          <t>Bouba ! Bouba ! Heureusement des kilos d'shit' viennent de la côte Chez nous on dort plus, chez nous le marchand d'sable snif de la coke J'dépense mes dollars en sapes, me ballade en cab' Dépense mes dollars en chatte et renvoie ces connards d'MCs en stage Bientôt on s'tèj' à la plage du bled Faut pas fumer la pipe et la neige à la place du blunt Dire qu't'es du 9.2 à raconter que d'la merde, peul peul Ouvre grand tes oreilles et ferme ta gueule J'me mêle de mes millions, j'ai 30 millions d'ennemis Le taux de haine est fort, reste mignon, c'est B2O sur le sillon Demande à L.I.M. l'ovni est c'qu'il aime, les beats d'Animalsons Pisser sur les shmits du balcon C'est B2O t'as bien retenu la leçon, le son qui met la pression garçon On mord à tous les hameçons, fait notre gent-ar de n'importe quelle façon Les keufs, la taule passons, j'm'en bats les couilles d't'façon Passe moi la zeb et la boisson Négro nous énerve pas khro trop Lourde est la pression, ça fume à s'péter l'cerveau O.K, j'éclate mon bif' tant qu'il est al Pas d'idole, j'ai la zik', le 'zness comme idéal Des hauteurs du 100-8 zoo, auteur interprète Représente le bruit et l'odeur, flow condamné à perpette Moi, j'ai des piranhas dans l'bocal J'ai pas besoin d'un psy' mais d'un avocat Moi j'suis un griot, amateur d'voitures allemandes N'essaie pas d'mettre à l'amende, ou tu vas chier par un tuyau Imprévisible ma génération J'ai le verset qui bouleverse, ma diction est malédiction Le poids du bled sur les épaules déférés au parquet, j'suis en concert au dépôt, 9.2I kho J'arrive en balle sans péridurale j'fais mal Kiffe le son reste tranquille, fais pas le fan mythomane 9.2 I kho, t'auras pas d'bif' sans B2O J'casse les enceintes, passe du 45 au 6.35 Ouais gros c'est la B.S, B.O. et bim-bim T'as vu que les impacts éblouis par le bling bling Pont de Sèvres pour le cul le bif on s'lève On le tue le bif', on crève Négro, ou bien on rêve derrière des barreaux Du sang d'encre entre les carreaux À part, senti trahi dès le départ, une discipline un seul maître J'ai bicrave, j'ai forniqué j'suis un rat seul Dieu m'jugera, allez tous vous faire mettre Allez tous vous faire niquer d'abord Sur le bateau, personne ne va crier à bord Maintenant représente que nos codes postaux La vie nous tacle boom tchak j'envoie ton rap à l'hosto Et j'me suis mis à chanter B2O gravé en or sur mon dos argenté Le grand manitou a créé les animaux du mont de Tallac en leur donnant des formes différentes, et si on prend les ours par exemple, certains sont énormes mais se régalent en mangeant des fruits et du miel, alors que d'autres sont des bêtes féroces qui déciment les troupeaux... Si Bouba appartient au deuxième groupe, celui des bêtes féroces, il continuera à attaquer les troupeaux jusqu'à la fin de ses jours c'est certain, alors la seule chance pour lui de rester en vie c'est de s'exiler dans un endroit où les Hommes ne vont jamais et où il ne risquera pas d'être abattu comme une bête malfaisante7</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Here (Remix)</t>
+          <t>Jack Da</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Here is where everything happened Ce que je voudrais raconter Reste en pays étranger Here is where everything happened Sur mon dos marqué d'une croix Pose ta main, souviens-toi Here, here, here Here, here, here Here is where everything happened A force-force de lutter Je ne suis que géométrie Here is where everything happened Et mon curieux visage est né Des débris du grand incendie Here, here, here Here, here, here Don't let anything be lost La mémoire est un animal Don't let anything be lost Silence mat, réveil brutal 70 000 euros en poche Avenue de la Précarité, je roule en Porsche On va rafaler ta Ford Escort On s'en bat les couilles qu't'aies des amis en Corse Je suis le Duc, j'commence par il J'ai le cur noir couleur baril J'aurais aimé qu'Africa manque de fesses J'suis tous les jours à ses obsèques J'suis le CAC 40, t'es le SMIC de Grèce Le crâne ouvert à même le sec Tout le monde y passe, personne ne reste T'es un téton machouillé qu'personne ne lèche Même si je coule ma fille me pêche Donne pas ton cul pour quelques J'aime J'aurais sûrement à fumer quelques hyènes Toujours de quoi remplir quelques zen' M16 dans le pickup truck J'ai tapin chez les Ch'tis elle m'dit Laquelle que t'aimes ? 16 ans j'voulais braquer une poste 16 ans mon fils a commandé une Rolls Si tu m'as dans la main je suis une cloque Quand Dieu a créé la vie, il fumait une clope Si tu m'as dans la main je suis une cloque Quand Dieu a créé la vie, il fumait une clope Here, here, here Here, here, here15</t>
+          <t>Verre en plastique, Jack Da', tu vois ce que je veux dire ou pas ? Film en streaming toi et moi, tu vois où je veux en venir ou pas ? Souverain dans mes souvenirs, j'ai bien taillé la barbe Le coup de rein la fera revenir, laisse tomber ta garde Jolie plastique tu as, tu vois ce que je veux dire ou pas ? Crois-moi, je suis pas ton négro lambda... Trop de fragiles, renoi tu vois ce que je veux dire ou pas ? Automatique, soldats, tu vois où je veux en venir ou pas ? Mais je m'en bats les couilles, j'en ai rien à foutre Talons de 22 kilomètres, jupe beaucoup trop courte ras la fouf J'ai juste envie de... Juste envie de... Jolie plastique tu as, tu vois ce que je veux dire ou pas ? Crois-moi, je suis pas ton négro lambda... J'ai juste envie de te posséder, faire de toi ma chienne toute la soirée Mon poto me dit que t'es cheum, mais j'suis alcoolisé Tu lâches ton number ou quoi, tu veux baiser ou pas ? Tout ce qui est petit est mignon, rien de mignon chez moi Tu rentres à pied comme Cendrillon de ma maison à 200 Millions Je rentre dans le club enfouraillé comme Léon, envoyez le Dom Pérignon ! Jolie plastique tu as, tu vois ce que je veux dire ou pas ? Crois-moi, je suis pas ton négro lambda... Jolie plastique tu as, tu vois ce que je veux dire ou pas ? Crois-moi, je suis pas ton négro lambda...10</t>
         </is>
       </c>
     </row>
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Criminelle League</t>
+          <t>Kiname</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Kaaris, Kaaris Seine-Saint-Denis, Hauts-de-Seine, Hauts-de-Seine 92, 93 2-2-2-2-2.7 Z.E.R.O 100 moins ocho dans le building Izi, Yeah, yeah Vécu trop moche, du sang dans les po-poches Trop morche, l'instru vient de Boboche Fuck bobonne et les histoires de gloss En gros la réussite n'est qu'une histoire de fo-orce Beaucoup de soucis, on s'pavane sur le bloc La ceinture Gucci ne vient pas avec le Glock Wesh renoi prêt à faire la re-guer Le client n'est pas roi ici le client est un drogué Vendre de la came, Dieu merci j'ai meilleurs projets J'leur ai mise ici, j'leur ai mis là demande à Roger La putain de ta sur, ton blaze donne la nausée Mauvais migiliswigidi swagg José Bové Pas facile à vivre, dur à élever Fermé comme un livre, difficile à suivre, dur à aimer Alcool brun dans mon rre-ve Si tu me vois à terre je ne vais peut-être pas me relever La rue choisit ceux qu'elle guide, fuck un frigidaire vide Mains en l'air tout le monde à terre, vous êtes priés de faire vite Pour tous les gangsters enfermés, pour tous les criminels libres Terrain, séquelles, D1, CL, Criminelle League Criminelle League, Criminelle League La chatte à l'ANPE, fuck un frigidaire vide Pour tous les gangsters enfermés, pour tous les criminels libres Terrain, séquelles, D1, CL, Criminelle League J'vais rentrer par effraction pendant qu'ils copulent, dans l'écran de radar de recul L'industrie en monokini, tu nous reconnais ou tu nies Ton équipe de garce est morte sous la Lamborghini C'est Garcimore featuring Houdini 2.7 Z.E.R.O, Sevran On effrite charass et teu-teu, que les flics et les casques bleus viennent nous lé-bran Oui monsieur le maire, j'suis à l'usine comme à la cuisine ça va vendre du ke-cra Ton père aurait du se retirer de la chatte à ta mère avant de ché-cra Chronique de Riddick sorti d'un chambre magmatique J'laisse une feuille de blunt royale avec de la beuh dedans Sur argent sale bandana avec un peu de sang Oui j'suis l'animal du Botswana avec la queue devant Orh Clique, remplit comme mes couplets Ton trou d'balle affiche complet et j'fais la guerre pendant la trêve Tes chances de m'vaincre sont comme tes armes, de la même matière que tes rêves Y'a pas d'secrets, 2.0.80 Zetrei La rue choisit ceux qu'elle guide, fuck un frigidaire vide Mains en l'air tout le monde à terre, vous êtes priés de faire vite Pour tous les gangsters enfermés, pour tous les criminels libres Terrain, séquelles, D1, CL, Criminelle League Criminelle League, Criminelle League La chatte à l'ANPE, fuck un frigidaire vide Pour tous les gangsters enfermés, pour tous les criminels libres Terrain, séquelles, D1, CL, Criminelle League Criminelle League, on taf pour personne, on écoute sonne-per la France qu'elle y reste B2OBA, K2ARIS, Paris West, Far West vran-Se wesh Trou d'boulette dans l'pare-bullet veste Baise poulettes fraiches Next! Pour un terrain tu ter-sau Vol au dessus d'un nid de feze-chnouzou, faucon millenium vaisseau Fais le plein chez Mollah pas chez Esso J'vais t'la mettre dans l'cul j'me ver-sau, biatch ne me rappelle pas j'ai plus de réseau Il me faut du liquide et des tonnes d'acide Trouve-nous au four en train de ftour, bah oui, on va pas te liquider l'estomac vide Micro-uzi biélorusse ou RPG pour les chorus C'est Actarus avec des Nike Air Pegasus J'arracherai pagnes et collants quand j'serai riche et bête Bi-turbo 500 chevaux avec un âne au volant 93, 92i tu veux faire la prodada like me Armés dans les eaux internationales comme les soldats de l'AQMI La rue choisit ceux qu'elle guide, fuck un frigidaire vide Mains en l'air tout le monde à terre, vous êtes priés de faire vite Pour tous les gangsters enfermés, pour tous les criminels libres Terrain, séquelles, D1, CL, Criminelle League Criminelle League, Criminelle League La chatte à l'ANPE, fuck un frigidaire vide Pour tous les gangsters enfermés, pour tous les criminels libres Terrain, séquelles, D1, CL, Criminelle League Criminelle League T'as j'veux dire ? T'as pas j'veux dire ? Wesh ! Ha ha ha ha</t>
+          <t>Paris, Paris Paris, Paris Paris, Paris Paris, Paris Paris dort plus la nuit, on fait bouger la capitale La bonne musique africaine, on reste original J'ai des filles sexy assises à ma table Ce soir on s'enjaille, elles m'ont validé On dépense sans compter, on n'vit qu'une seule fois Sortez vos billets, les filles faut danser On dépense sans compter, on n'vit qu'une seule fois Sortez vos billets, les filles faut danser On est là pour faire danser tout Paname, tout Paname Y'a des femmes, du champagne Ici c'est Paname, c'est Paname On est venus faire danser tout Paname, tout Paname On est partis pour toute la night Je pose ma Kalash', je la fixe en insistant Elle aime que j'lui mette en l'insultant Coupé-décalé, Afghanistan, je frappe Respecte-moi c'est pas une affaire de rap Je serrerai pas Kim K. si je roule en Lada Si t'as pas de boule, t'as walou, nada quitte là-bas Il faudra tout avaler, ça va aller Piraterie ne s'arrêtera jamais Balle dans la tête n'est pas la meilleure répartie Mais la plus efficace Paris je t'aime, Zlatan est parti quand même J'ai pas eu ma dédicace Balle dans la tête n'est pas la meilleure répartie Mais la plus efficace Paris je t'aime, Zlatan est parti quand même J'ai pas eu ma dédicace On est là pour faire danser tout Paname, tout Paname Y'a des femmes, du champagne Ici c'est Paname, c'est Paname On est venus faire danser tout Paname, tout Paname On est partis pour toute la night Hum mama yeah hustler Hum mama yeah hustler Elengi eleki ngai mingi nazo tanga soyi Elengi eleki nga mingi nazo ganga kaka oh epasuka Balle dans la tête n'est pas la meilleure répartie Mais la plus efficace Paris je t'aime, Zlatan est parti quand même J'ai pas eu ma dédicace Balle dans la tête n'est pas la meilleure répartie Mais la plus efficace Paris je t'aime, Zlatan est parti quand même J'ai pas eu ma dédicace On est là pour faire danser tout Paname, tout Paname Y'a des femmes, du champagne Ici c'est Paname, c'est Paname On est venus faire danser tout Paname, tout Paname On est partis pour toute la night On est là pour faire danser tout Paname, tout Paname Y'a des femmes, du champagne Ici c'est Paname, c'est Paname On est venus faire danser tout Paname, tout Paname On est partis pour toute la night Paris, Paris Paris, Paris On vient de loin Na Kinshasa malebo Paris, Paris Paris, Paris El Mara appelle le Duc B2O2</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Porsche Panamera</t>
+          <t>Jusqu’ici tout va bien</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Porsche Panamera, Porsche Panamera Aveugle ou pas, qui vivra verra Porsche Panamera, Porsche Panamera On canarde tout pour une cause MohamedMerah Porsche Panamera, Porsche Panamera Badème, Killer, Uzi prêt en cas de 7aja Porsche Panamera, Porsche Panamera Conduite sportive, demande à 2Lat, trap, musique, flow, gros tout est re-noi Ils ne savent rien, mais ils font que parler, on va leur casser la voix Si la vie ne tient qu'à un fil, moi j'm'attache à une corde S.D.H.S. Family, Hauts-de-seine, pour mettre un peu d'ordre Le savoir est une arme, je suis armé, je veux rien savoir non, non Si je bé-tom, je sais qui viendra me voir au parloir oui, oui Jus de bagarre, jus de bagarre, ramènes-nous à boire Mec du Los, réussir est un devoir L'argent facile à toujours un prix Cassez-vous de là bandes de poucaves, Sultan, Fababy J'vois tout en kilos, j'crois que j'suis en excès Allah y Rahmo, car seul le crime paie Porsche Panamera, Porsche Panamera Aveugle ou pas, qui vivra verra Porsche Panamera, Porsche Panamera On canarde tout pour une cause MohamedMerah Porsche Panamera, Porsche Panamera Aveugle ou pas, qui vivra verra Porsche Panamera, Porsche Panamera On canarde tout pour une cause MohamedMerah Porsche Panamera, Cap Canaveral 192 de Q.I sous la nouvelle Era Négro j'suis au quartier avec 40 Thiaga Polo Ü.K.T, Baskets Balenciaga On s'feras péter sur le ter-ter et tu me balanceras Oseille, biff, oseille, le reste on s'en bat la ce-ra Si j'suis pas dans un bourbier, j'suis à la salle T'es dans les mondes oubliés, t'es sur Thalassa T'as voulu crier, faire du bruit, et on te kalasha Pas eu l'temps d'faire le 18 qu'on te caillassa Tu es à la vente, je suis à l'achat Solide comme Fidel Castro Guantanamera Cain-Fri, Refais, Roloto, on à jamais té-Gra Mes rates-Pi te rafalent au semi-auto ne vont pas te ter-ra L'avenir est dans le luxe, pas l'temps de qué-cra Direct dans le uc', pas l'temps de gué-dra ! Porsche Panamera, Porsche Panamera Aveugle ou pas, qui vivra verra Porsche Panamera, Porsche Panamera On canarde tout pour une cause MohamedMerah Porsche Panamera, Porsche Panamera Aveugle ou pas, qui vivra verra Porsche Panamera, Porsche Panamera On canarde tout pour une cause MohamedMerah Porsche Panamera, équipe de malade, Boulbi re-squa Grosse tapette tu veux test mes soldats, t'es pas prêt Vas-y vas-y vas-y casses toi ! Tous mes voyous veulent niquer la grosse, la grosse chatte à Rine-Ma Toujours dans le QG, avec tout mes re-noi ! Pas de iatch-bi dans l'équipe, que des rates-pi, tête-tête mé-cra SDH prêt pour la rre-gué, on à gé-char les balles pour les né-ca Bang Bang dans vos têtes, on vous rafale on a l'seum comme Merah Bandes de gratteurs vous aurez rien, restez en chien cassez vous d'là ! Voitures de re-spo, Cayenne, R8, Panamera On est anti lance-ba, bouches serrées comme les menottes des re-shta Elle me fait du bon riz tout les soirs ma jolie Karaba Elle ne prendra pas la pillule, j'vais la ken sans pote-ca Leur pauvres yous-voi sont à bout, t'inquiètes re-noi ça bouge pas Gros bangala dans les gênes 237 certifié Douala Qué te pasa ? on les rre-ba Appelles le 92i Wallay Billay si y'a draah ! Porsche Panamera, Porsche Panamera Aveugle ou pas, qui vivra verra Porsche Panamera, Porsche Panamera On canarde tout pour une cause MohamedMerah Porsche Panamera, Porsche Panamera Aveugle ou pas, qui vivra verra Porsche Panamera, Porsche Panamera On canarde tout pour une cause MohamedMerah29</t>
+          <t>Je suis pas là pour te faire un bouss, mec, ni faire un boost Rien à foutre que tous craignent, je suis né à 2 km doù je traîne Lyrical coup de crosse, coup bas Écoute Booba, donne-nous la patte, on tarrache tout le bras Je bosse pour mon peuple comme Hi-Fi, terrifie Crois-nous, va dans la rue, vérifie Ici les mêmes scènes, mêmes squats, même shit, les mêmes frites 2, 3 chiennes et 150 chaînes Jsuis dans leur mac, mais dans le coin dangereux Black Dangereuses taffes, pas de blagues, gars, dangereux tagga Moi je veux quon me paye moi écoute-moi 6 000 balles pour travailler tout le mois je men bats les couilles, moi Moi, je suis un rat comme Luciano Degré de parano rare comme un noir qui joue du piano Va dire aux porcs dalerter les autorités Moi je suis obligé dacheter ma liberté La vie cest dur mais, ici on sen remet Plus rien ne métonne jusquici tout va bien Je déconne, je sais, changer jessaie Plus rien ne métonne jusquici tout va bien Lor et les 'tasses fréquentent peu de gens clean Plus rien ne métonne jusquici tout va bien Les grosses bastos, négro, le crack lhéroïne Plus rien ne métonne jusquici tout va bien Mes négros en ont rien à chier, tous sont fichés Touche du bois, de lacier, fume tout, bois de la 16 Fais de la scène, pas de zèle, pas là si pas de zeb Aucun ninsiste je combats le 6.6.6 Tunique treillis khaki, unique MC Acquis la rime grâce au crew, sinon à qui ? 92 i, du son pour mes gens, du plomb dans les jambes Négro, du chrome sur les jantes, je brille Jai rien vu, rien entendu Les portes fermées, mon destin est propre à lautoprod Et si ya Mala, avec toute la smala, ya pas de hasard Cest qu'tout seul jy arriverais pas Je répète, tentends pas bien ou quoi ? Plus rien ne métonne jusquici tout va bien La vie cest dur mais, ici on sen remet Plus rien ne métonne jusquici tout va bien Je déconne, je sais, changer jessaie Plus rien ne métonne jusquici tout va bien Lor et les 'tasses fréquentent peu de gens clean Plus rien ne métonne jusquici tout va bien Les grosses bastos, négro, le crack lhéroïne Plus rien ne métonne jusquici tout va bien Tinquiète, bientôt on se barre Aux States ou en Tunisie ou autre part, dès quy aura de la thune ici Jamais affaibli, à New York, El Hadj, Arrach et Billy Cognac Alizé, beuh dans les Phillies Et tas réalisé que cétait fini Mon crew cest pur, violent, bizarre, indéfini MC's navrants, niveau trop bas Je crois que jvais me mettre à rapper avec le style davant Dans ce monde je respecte ceux qui my ont mis Regarde lÉtat dans quel état on la mis, mon ami Cest pas fini donc mets ta tenue verte, marron et beige On fait nos dièses, on sen bat les couilles, on les baise Tout baigne de pisse dans leur toubeï Leur vue baisse et je vois des couches dans leurs poubelles Précis, bouteille alcool avec un chiffon À fond en V6, du whisky dans la vessie L.U.N.A.T.I.C., ça sent la té-ci La paix ?! Ah, vas-y, on fait pas de manifs ici, sisi La vie cest dur mais, ici on sen remet Je déconne, je sais, changer jessaie Plus rien ne métonne jusquici tout va bien Lor et les 'tasses fréquentent peu de gens clean Les grosses bastos, négro, le crack lhéroïne Plus rien ne métonne jusquici tout va bien La vie cest dur mais, ici on sen remet Plus rien ne métonne jusquici tout va bien Je déconne, je sais, changer jessaie Plus rien ne métonne jusquici tout va bien Lor et les 'tasses fréquentent peu de gens clean Plus rien ne métonne jusquici tout va bien Les grosses bastos, négro, le crack lhéroïne Plus rien ne métonne jusquici tout va bien Wesh Omar, finis les cauchemars Je vis dans l'abus, dans ma bulle La vie cest dur mais, ici on sen remet Plus rien ne métonne jusquici tout va bien 924</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Repose en paix</t>
+          <t>Loin d’ici</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>B.O Banlieue Ouest, négro Ouais Hein, hein Repose en paix, kho Hauts-de-Seine, hein J'dois marquer mon territoire, on veut m'empêcher de pisser J'arrive sur toi plus vite que les ragots, mon argot sous un garrot Derrière des barreaux, les poils hérissés Négro j'vais foutre la merde et j'vais me barrer comme au lycée Ici y a qu'une marée et elle est noire foncée Que le hip-hop français repose en paix Mesdames, messieurs ! Ici-bas pour représenter On roule tous à 200, certains ont pété l'essieu J'ai pas prêté mon style aux salopes Mon crew au top, équipé arch' et je baise les garces avec un hard-top FAUX, débranche Pé-sa en noir avec une faux, je contourne les MC à la craie blanche Le résultat d'une blanche et d'un nègre Un coup d'hanche et c'est le ravin, fais pas ton nid sur la branche d'un aigle J't'ai montré l'Hexagone du doigt, du shit sous un ongle J'suis la belle vie sous un autre angle, faut pas t'inquiéter Le monde est nôtre, un satellite pour défourailler le beat 92, petit, j'te le répète, faut pas t'inquiéter LUNATIC, y a que la moitié, attends ! Arrache-toi des baffles ou ressors de boîte en boitant Toujours là avec mes culs-de-jatte et mes khos BM, Merco, paraît que le métro ça a changé Ça fera pas de nous des héros, je m'en bats les reins, négro J'ai les crocs, j'ai faim du bled et de mon terrain J'suis venu marquer mon temps malgré mon teint Ni bluff, ni simagrées, c'est bien des noirs et des maghrébins C'était juste un puzzle de mots et de pensées Que le hip-hop français repose en paix Ils veulent rivaliser, leur truc c'est nul On est trop haut, négro, eux, ils sont petits comme une cellule Pourtant je suis qu'une petite vedette, toujours anti-deps Insolent contre les agents, les médailles d'argent On est venus cracher notre haine moi et ceux d'derrière Ma première parole sera la dernière Depuis mon arrivée, le string du move est trempé Que le hip-hop français repose en paix Sir Doum's, ALI, Nessbeal Que le hip-hop français repose en paix B2O, Lunatic, Malekal Morte Que le hip-hop français repose en paix Mo'vez Lang, Moussa, ckey-Jo, chauds bouillants, kho Que le hip-hop français repose en paix 92 Injection, JP-Shit, Géraldo, JB Que le hip-hop français repose en paix Ouais, ouais, ouais4</t>
+          <t>Partir, partir loin d'ici, partir loin d'ici Je me souviens, de partir loin d'ici, d'ici, d'ici... Le rap français est coupé en deux comme Porsche GT dans un tronc d'arbre J'suis sur Pluton, t'es sur France 2, fuck un greffier, fuck un gendarme Déployez plan épervier, je suis un gangster, fuck un vandale 92izi faut te méfier, j'ai un Uzi, fuck un Van Damme C'est l'histoire qui m'a choisi, m'a choisi Contre le désespoir un gros pétard, un Bacardi J'suis un Zlatan, un Qatari T'es qu'un tahan abâtardi, allez Paris ! Héééé, oui oui Partir loin d'ici, partir loin d'ici Oui oui, je ne le regretterai pas, pas Je ne le regretterai pas, je le sais déjà Non, je ne le regretterai pas J'aime toutes mes cicatrices J'fais de l'oseille, j'suis pas un artiste Mon parfum c'est anarchiste À mon déclin personne n'assiste Clic, clac, personne n'insiste Gros oid c'est mon insigne On a or noir comme on a l'shit Change de trottoir, c'est mieux ainsi C'est l'histoire qui m'a choisi, m'a choisi Contre le désespoir un gros pétard, un Bacardi J'suis un Zlatan, un Qatari T'es qu'un tahan abâtardi, allez Paris ! Héééé Partir loin d'ici, partir loin d'ici Oui oui, je ne le regretterai pas, je le sais déjà Non, je ne le regretterai pas, non, non, non C'est l'histoire qui m'a choisi, m'a choisi Contre le désespoir un gros pétard, un Bacardi J'suis un Zlatan, un Qatari T'es qu'un tahan abâtardi, allez Paris ! Je te comprends Partons loin d'ici Fais-moi souffrir pour qu'j'me souvienne Fais-moi souffrir pour qu'j'me souvienne Fais-moi souffrir pour qu'j'me souvienne Fais-moi souffrir pour qu'j'me souvienne Je vais partir loin d'ici Je ne le regretterai pas, non non Je veux partir loin d'ici, oui oui, si Je veux partir, je veux partir loin d'ici Oui oui, je vais partir loin16</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Jimmy deux fois</t>
+          <t>Indépendants</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Jimmy deux fois, quon avait surnommé comme ça parce quil répétait tout deux fois - Jvais chercher des clopes, jvais chercher des clopes Wesh re-noi ? Jimmy deux fois Ouest Side C'est izi, izi, ça se passe ici, ici C'est lourd ? Oui, oui, oui, oui, Bakel City, City Une à une mes cases s'allument comme dans Billie, Billie Jean, millionnaire en euros, milli, milli Mes dernières vidéos en Wi-Fi, Wi-Fi J'aime les défis, défis, les fans mimis, mimis J'suis le meilleur, j'te mets fanny, t'es fini, nini Ridicule en mode aplati, t'es un panini, ni Je suis venu, j'ai vu, j'ai vici, vici Trop de vlots-tra dans ce game comme à Clichy, Clichy Parle à ma secrétaire, j'suis busy, busy Ou bien va niquer ta mère comme dirait Fouiny, Fouiny Je swagg sur la gauche, je swagg sur la droite Automatique sur les genoux, bouteille de Jack sur la table Premier samedi du mois en décrypté sur la 4 Gros décolleté, 9.2.I. tatoué sur la chatte Je vais chercher des clopes, je vais chercher des clopes J'suis Super Mario, t'es Luigi, Luigi T'emmènes ta go dans l'Ontario, moi aux Fidji, Fidji J'aime les gros culs, pas les gos skinny, skinny Les meufs des îles bien dodues, j'leur dis vini, vini Mon expression est directe, demande à Weedy J'veux la chatte à Fatoumata, la chatte à Windy B.2.O. ours, grizzly, grizzly Négros pendus aux arbres dans le Mississippi J'suis traumatisé depuis, depuis À la 0.9 aromatisé, j'suis de-spee, de-spee Homme d'affaires, j'ai ralenti le te-shi, te-shi Avoir les idées claires, laisser le pe-ra en sursis, sursis Je swagg sur la gauche, je swagg sur la droite Automatique sur les genoux, bouteille de Jack sur la table Premier samedi du mois en décrypté sur la 4 Gros décolleté, 9.2.I. tatoué sur la chatte Je vais chercher des clopes, je vais chercher des clopes Fondant au chocolat au dessert, mi-cuit, mi-cuit Le rap français est sur le grizill, j'fais méchoui, méchoui J'suis dans le strip club, j'suis airy, airy J'suis pas au Pink Paradise, j'suis à Miami Avec mon pote l'affranchizi Jimmy, Jimmy Minimum 4 zéros en poche, pas moins de 10 000, 10 000 Malekal Morte est sur tes pas, chacun est suivi, suivi Donc si tu aimes quelqu'un, dis-lui, dis-lui1</t>
+          <t>Donne-moi mon cash, kho De-spee, donne moi mon cash, kho Vite, donne-moi mon cash, kho Y a la vie, ses bons côtés, moi j'suis sur l'autre berge, boy J'suis en écoute à la Fnac et chez les RG Danger parce que j'l'ai fait en indé J'men bats la race de rentrer aux bains, négro j'suis blindé Au DD dès le début, mes conflits parentals dans l'cartable C'est l'EPO qu'on donne aux bébés Et dans le cartel on peut mourir wanted, criblés de balles Mais crédibles pour que tu t'rappelles Ma clique, pour elle que j'm'applique Et si j'hésite c'est qu'une boulette bloque l'automatique J'ai bu la Seine et tous ses cadavres Petit t'as les nouvelles Air Max fais pas d'garrot avec les lacets Pour eux, si t'es black, d'une cité ou d'une baraque T'iras pas loin, c'est vends du crack ou tir à 3 points J'ai vu l'passé kidnapper l'avenir Le présent sucer des bites et tous mes négros sur un navire Ah ouais ! Tu parles comme ça ? Alors avec une entaille dans les entrailles 3atay, tu pars comme ça On l'a fait tout seul, du sous-sol au toit sans boussole De la caresse au doigt dans l'boule Ça vient de Boulogne, tu vois la fougue dans nos yeux se lit Nourris au pes-stu, illicites jusqu'au pe-sli, du biz Autant d'morale qu'Adebisi, les vrais savent J'ai que mes tripes, mon hip hop et quelques principes Tu piges, ça fait huit piges, et les mythos pèsent crèvent aussitôt J'remplis les lyrical hôpitaux Quoi ? J'ai de la peine quand j'té-ma ce siècle Où les rafales de bastos réchauffent le climat Tu vois, c'est l'son des you-vois, timal Aujourd'hui j'suis àl, hier j'suis mort de 41 balles Trop coloré comme un faux scal-pa Génération Mad Max née dans le magma Ici on déjeune avec du shit, on meurt jeune Mauvais il, mauvaises ondes planent dans ma zone J'ai cru réussir On m'a dit qu'mon sous-marin venait d'Russie, qu'ici y avait du R'n'B d'rue J'ai besoin d'un casse-dalle, un clitoris, un pare-balle Trop d'pédés dans l'rap parlent mal Kho, check mon numéro 9.2 J'fais mal à part ça rien d'neuf que dalle On marque toujours des buts, shoot en lucarne, loupe Si j'te pardonne, écris les jours d'pleine lune Ma tribu s'couche à l'heure où tu taffes On est tous sur le terrain, d'une Vite arrache ton cul des tribunes deux, vas-y roule un gramme de beuh Tu connais ma ville j'ai vu ta plaque au bois d'Boulogne Bonhomme, on peut pas s'replier Deux trucs faux chez nous les puces SFR et les billets Envoie les MC 6 pieds sous terre Quand les lumières s'éteignent, c'est du Wu-Tang M'ont sous-estimé, temps d'sortir le méchant team Musique et crime pour les centimes J'crée l'émeute, mon feutre imbibé d'sang Pédé, j'te descends, du rouge à lèvres sur la beute Et c'est bandant d'être indépendant6</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Pigeons</t>
+          <t>Gangster</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>C'est pas qu'j'aime pas me mélanger, mais disons... C'est pas qu'j'aime pas me mélanger, mais disons... C'est pas qu'j'aime pas me mélanger, mais disons Simplement qu'les aigles ne volent pas avec les pigeons, pigeons ! Salam Alikoum, bonjour à tous, buenos días J'sais pas pour vous mais moi, j'ai envie d'une grosse biatch Cruise le son à fond dans la voiture, peu-sa haute couture J'crie c'que tu murmures, j'rappe dans le futur J'bois J.A.C.K, le champagne, Grey Goose m'écurent Juste besoin d'un contrat, d'un flow, d'un beatmaker C'est pas pour nous mais pour nos ennemis qu'j'ai peur J'veux l'swag à Mamadou, la carrière à Mick Jagger Prod de Histakes tournent dans mon lecteur Backstage, j'prépare la guerre dans mon secteur Crime et chant, j'ai fait mon choix depuis longtemps Ma vie tu l'écoutes et moi je la vis comme je l'entends C'est pas qu'j'aime pas me mélanger, mais disons... C'est pas qu'j'aime pas me mélanger, mais disons... C'est pas qu'j'aime pas me mélanger, mais disons Simplement qu'les aigles ne volent pas avec les pigeons, pigeons ! Les balances en rappeurs sont déguisées Donne-moi un truc à tiser, j'vais rapper jusqu'à m'épuiser Izi Izi Izi le nom d'mon crew, Medi Med c'est mon DJ U tréma sur le tricot, diamants sur les chicots Si tu me la mets, j'finirai sûrement D.P.S On retrouvera ta race la pute où que tu ailles, sans GPS Premier en rap sale, en crime, en EPS Khey, magic braquemart, Cialis au pays des merveilles C'est chaud comme à Liberty City, chaud comme à Montfermeil Dope coupée en lamelles, Dom P' dans la gamelle Brigade anti-zamels, diabolique Swag, mode Gargamel Tatoué d'partout, graffitis sur enveloppe charnelle C'est pas qu'j'aime pas me mélanger, mais disons... C'est pas qu'j'aime pas me mélanger, mais disons... C'est pas qu'j'aime pas me mélanger, mais disons Simplement qu'les aigles ne volent pas avec les pigeons, pigeons ! Ennemi juré du système, j'veux voir son string ficelle Sa chatte en Haute déf', 92 millions d'pixels J'veux des gros flingues, baiser des vidéos Vixen Toute la nuit, Duracell, Magnum XXL Elles disent qu'on est des salauds, sauf quand faut faire un chèque Mieux vaut avoir une bite dans l'cerveau, que le cerveau dans la schneck Mon son tourne au deu-blé, dans l'Seize et à la tess J'ai du tabac couleur Shrek pour oublier quand c'est la hass Kojak, fhartass, pilote faucon millénium Chaque sortie d'album, platine c'est l'minimum Entouré d'bombes Latines, pas besoin debaratiner Juste à sortir le bling bling, so fresh, so clean ! C'est pas qu'j'aime pas me mélanger, mais disons... C'est pas qu'j'aime pas me mélanger, mais disons... C'est pas qu'j'aime pas me mélanger, mais disons Simplement qu'les aigles ne volent pas avec les pigeons, pigeons ! C'est pas qu'j'aime pas me mélanger, mais disons... C'est pas qu'j'aime pas me mélanger, mais disons... C'est pas qu'j'aime pas me mélanger, mais disons Simplement qu'les aigles ne volent pas avec les pigeons, pigeons !3</t>
+          <t>Je suis un gangster, gangster Je m'arrêterai six pieds sous terre J'contrôle ce putain d'rap game, poto, j'lui mets la fessée Rien ne sert de courir, mieux vaut rouler en Féfé Toujours sur terre, malgré tant de péchés J'serai ton chat de gouttière, sois mon poisson séché Elle roule en Clio, elle a un piercing au clito Je lui crache dans les chicos, je marrache aussitôt Je carbure à l'hydro, appelez les gros tazzer Le rap français a.k.a. Chronique d'un vibromasseur Noublie jamais que depuis Le crime paie, c'est moi le master Pour fidèle c'est infidèle fais péter Ghetto Blaster Si tu me choppe dans une manif, je suis là en tant que casseur Mon poster dans sa breuch j'suis le rappeur préféré de ta soeur Je suis d'une autre planète, mon flow est venu d'ailleurs Comme le 9 3 tu peux pas test demande à Mac Tyer B.2.O.B.A sur le ter-ter, sur le flyer Toujours dans la raquette, Amaré Stoudemire J'ai peur de sonne-per, j'ai grandi sans repères Chez moi ça tourne à l'envers Je suis un gangster, gangster Je m'arrêterai six pieds sous terre Je ne sais pas quand me taire, j'ai tout de mes grands frères Je préfère crever d'une balle que d'un cancer Je suis un gangster, gangster Et personne ne peut rien y faire J'dois tout à mon équipe, on fait du biff en musique Appelle moi 92 I ou 92 U pour 92 Uzi Tu crois que j'ai la vie facile, négro il y a rien de izi Pour faire des millions, faites moi greffer un cur de Grizzly Sers moi un verre de Riesling tu crois que je me résigne Palmier dans le crâne j'aime bien la France, je préfère le Brésil Haineux je vais te tirer dessus t'auras pas besoins de faire de piercings Tu me transporte des Kilogrammes des kilos de drames sans faire de chichis Sanguinaire je te la glisse même quand t'as tes gle-rè Je te ferai rire, je te ferai pleurer Mes rimes sont que des lames de sabre samouraï que j'aiguise Pas de meilleur endroit pour te faire sodomiser que l'église Je fais pas dans la guimauves, c'est pas pour los niños Le bien contre le mal Actarus contre Minos L'oeil rouge comme rat albinos Vatos locos avec los negros maghrebinos J'ai peur de sonne-per, j'ai grandi sans repères Chez moi ça tourne à l'envers Je suis un gangster, gangster Je m'arrêterai six pieds sous terre Je ne sais pas quand me taire, j'ai tout de mes grands frères Je préfère crever d'une balle que d'un cancer Je suis un gangster, gangster Et personne ne peut rien y faire Gangster... Gangster... Écraser l'adversaire Je n'arrête pas d'y penser Violet Jaune Vert Je n'arrête pas d'y penser Le sang sur le ter-ter Rien ne peut leffacer Jamais sans mon revolver Rien ne sert d'y penser Sur scène ou dans la street, je suis à la hauteur Tueur né, j'suis le lleur-mé, fuck être avocat fuck être un docteur Je fus dealeur et voleur, je suis le bruit et l'odeur Grosse bagnole, mental espagnol, force et honneur Ils apprécient mes poèmes, demande à Benjamin Biolay Tignasse dans la paume, swagg bonobo je les fait miauler Tellement de Gent-ar je suis plus noir je deviens violet Plié meurt de faim gue-flin Audemars Piguet Weshh je suis là à frimer, t'es là à filmer Demande à Mokobé Les jaloux vont grir-mai Je veux faire des parfums Ünkut, je cherche un deal avec L'Oréal Je suis loin dans le futur Morray je roule en DeLorean J'ai peur de sonne-per, j'ai grandi sans repères Chez moi ça tourne à l'envers Je suis un gangster, gangster Je m'arrêterai six pieds sous terre Je ne sais pas quand me taire, j'ai tout de mes grands frères Je préfère crever d'une balle que d'un cancer Je suis un gangster, gangster Et personne ne peut rien y faire Écraser l'adversaire Je n'arrête pas d'y penser Violet Jaune Vert Je n'arrête pas d'y penser Le sang sur le ter-ter Rien ne peut leffacer Jamais sans mon revolver Rien ne sert d'y penser Écraser l'adversaire Je n'arrête pas d'y penser Violet Jaune Vert Je n'arrête pas d'y penser Le sang sur le ter-ter Rien ne peut leffacer Jamais sans mon revolver Rien ne sert d'y penser5</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Illégal</t>
+          <t>Rats des villes</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>J'me lave le pénis à l'eau bénite J'vais rentrer au pays, marier 4 grognasses qui m'obéissent Avant d'avoir le net, j'ai surfe sur un bizz J'ai été, j'suis malhonnête, ramène tes seufs sur la piste 92 soupapes dans le moteur, un peu de weed Dévasté par la mort de 2Pac, Malcolm, Apollo Creed Ma biche, c'est du lourd comme Bernard-Henri Lévy, bitch Bien sûr je parle anglais, je suis heavy, je suis rich Pour me battre, m'égaler il faudra que tu triches Sénégalais, j'ai plus d'une corde à mon arc, tu piges ?! J'vais t'présenter des fêlés qui eux n'passent pas à la télé Pour être dans le 92i, faut en avoir une grosse comme Makélélé Benny.B dit 92izi, dans le V.I.P, be happy Secoues ton bou-oule, ce soir j'suis B.I.G Tu veux détrôner le D.U.C, tu as trop d'imagination Regardes mon gun, j'suis fashion, sur YouTube, Dailymotion Je tourne en rond, je fume, je roule en ture-voi Pour trouver le sommeil Ma prof m'a dit Qu'est-ce tu veux faire quand tu seras grand renoi ? - Rien, je veux faire de l'oseille Toujours un peu plus difficile vu mon profil J'veux être le prince de la ville Malgré ça je fais mon possible, B2O il est àl Chiffrer, se lever le plus tard possible, réglo ou illégal Tu piges ? Chaque problème a sa solution, j'roule en 4x4, rien à foutre d'la pollution Le coût de la vie t'enlève goût de la vie, tu traines en meute, deviens loup de la ville Des chiffres et des chiffres, fuck les lettres et Patrice Laffont à fond Musique à fond, liasses d'oseille jusqu'au plafond Je suis prêt, j'ai les brevets, frais à en crever, viens chez moi, GHB dans ton revé 38 Spécial, Smith et Wesson, gilets par-balle si tu penses à me lever Bleus sont les gyros, rouges sont mes yeux, blanche est la colomb', Jack est mon sirop Personne est réglo, tous le monde se crève, où est le Maghreb, où sont mes négros ?! Ne me dis pas que je n'ai pas le droit, je dois m'en sortir man je n'ai pas le choix Je te prends en levrette, laisse moi mettre le doigt, Perpèt'? j'connais pas car j'ai Maître Lebras Mon cur est une bouteille de gaz J'm'endors sur du Wu-Tang 'avec une douzaine de tass Tous les jours c'est le week-end, moi j'traine avec Mala et Brams Négro j'te l'ai déjà dit j'suis pas une racaille de base Fais l'malin avec mon blé, j't'envoie une rafale de baffes J'ai pas le time de t'écouter moi j'ai des montagnes de taf Je tourne en rond, je fume, je roule en ture-voi Pour trouver le sommeil Ma prof m'a dit Qu'est-ce tu veux faire quand tu seras grand renoi ? - Rien, je veux faire de l'oseille Toujours un peu plus difficile vu mon profil J'veux être le prince de la ville Malgré ça je fais mon possible, B2O il est àl Chiffrer, se lever le plus tard possible, réglo ou illégal Tu sais où sont les mâles, on rentre dans la boite Tu cherches ma table, c'est celle où y a l'plus de Jack M.C. ! Protège mon back, j'suis un peu, paranoïaque Fais pas le frais derrière ta meuf, man fais-leur mal Bouteilles à moitié-pleines, à moitié-vides, les grosses coupures c'est ma devise Fous-toi des fiches de paye au cul, mes khos n'arrêteront pas le business Laisse-moi être B.O.S.S Accomplir mes rêves de G.O.S.S Je tourne en rond, je fume, je roule en ture-voi Pour trouver le sommeil Ma prof m'a dit Qu'est-ce tu veux faire quand tu seras grand renoi ? - Rien, je veux faire de l'oseille Toujours un peu plus difficile vu mon profil J'veux être le prince de la ville Malgré ça je fais mon possible, B2O il est àl Chiffrer, se lever le plus tard possible, réglo ou illégal4</t>
+          <t>J'regarde sur ma gauche R.A.S Sur ma droite des chiens d'la casse tenus en laisse Ils se disent Il a du pez, il faut qu'on lui enlève Les mecs, cherchez du business, arrêtez d'être en hass Les ennemis de mes amis ne sont pas mes amis, no ! Ouvre la bouche, pose ton front sur mes abdominaux Ce n'est pas qu'j'aime pas me mélanger mais disons Simplement qu'les aigles ne volent pas avec les pigeons J'suis arrivé par bateau, mon peuple a subi sévère Mes négros ont les idées claires qu'avec des billets verts Y'a pas qu'le pe-ra dans la vie, tu rappes à en devenir débile Une pensée pour les rappeurs disparus comme Sully Sefil Mi-gorille, mi-lion, 100 rat des villes La beurette là-bas m'trouve mignon, elle porte des bas résille J'ai goûté tous les cocktails à part celui de Russie J'affiche ma réussite, j'parcours le monde, ses chambres d'hôtels On rentre dans le club club, la musique est bonne bonne Mes négros sont frais on dirait qu'on pèse des tonnes Je marche sur le sol sol, le bitume s'allume On dit bonjour à tout le monde shalom, salam, salut Tu fais la deux tu fais la trois, je fais la une Tu fais le loup le chien tu aboies, je fais la lune Tu fais la rousse, la blonde et la brune On connais pas la lose, négro nous on fait la thune On rentre dans le club pour tout niquer, je ne sais pas ce que t'en penses Ramène pas ton équipe de trans sur la piste de danse Les keufs m'ont à lil, j'hésite à transporter mon gun Alors j'commande bouteille de Jack pour mieux t'éclater la gueule J'rappe comme une machine, j'le vis, tu imagines Leurs putes font ma lessive, les rimes fusent comme des missiles J'regarde dans mon rétro pas un négro dans mon sillon J'me fais chier dans ce rap game j'suis seul avec mes millions Océan Arctique, ours polaire en plein travaux pratique Izi charismatique, le move caresse ma trique Rappeur comme moi, jamais vu comme le Mollah Omar Connu chez les shtars, reconnu jusque dans l'Oklahoma On rentre dans le club club, la musique est bonne bonne Mes négros sont frais on dirait qu'on pèse des tonnes Je marche sur le sol sol, le bitume s'allume On dit bonjour à tout le monde shalom, salam, salut Tu fais la deux tu fais la trois, je fais la une Tu fais le loup le chien tu aboies, je fais la lune Tu fais la rousse, la blonde et la brune On connais pas la lose, négro nous on fait la thune Agresse ton boss pour augmentation Viens à ma table, armé, bien habillé, la réglementation On vient du bled sale bâtard pas du terroir Tu seras rebeu et black qu'avec un oeil au beurre noir Si tu veux pas t'faire enculer ne me donne pas tes fesses Les fans m'imitent, les condés surveillent mes faits et gestes Mais moi j'suis dans le club avec Yahia, Mazalaza Tu jettes des cailloux sur scène, serais-tu de la bande de Gaza ? Méfie toi de mon coup de boule négro de la droite de Brazza Rejoins le prince de la ville poupée à l'hôtel Plaza Je dribble te la mets au fond comme Shevchenko Je suis fresh for life, sorti de chez BoulbiCo On rentre dans le club club, la musique est bonne bonne Mes négros sont frais on dirait qu'on pèse des tonnes Je marche sur le sol sol, le bitume s'allume On dit bonjour à tout le monde shalom, salam, salut Tu fais la deux tu fais la trois, je fais la une Tu fais le loup le chien tu aboies, je fais la lune Tu fais la rousse, la blonde et la brune On connais pas la lose, négro nous on fait la thune3</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Tallac</t>
+          <t>Caesar Palace</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Bouba ! Bouba ! Heureusement des kilos d'shit' viennent de la côte Chez nous on dort plus, chez nous le marchand d'sable snif de la coke J'dépense mes dollars en sapes, me ballade en cab' Dépense mes dollars en chatte et renvoie ces connards d'MCs en stage Bientôt on s'tèj' à la plage du bled Faut pas fumer la pipe et la neige à la place du blunt Dire qu't'es du 9.2 à raconter que d'la merde, peul peul Ouvre grand tes oreilles et ferme ta gueule J'me mêle de mes millions, j'ai 30 millions d'ennemis Le taux de haine est fort, reste mignon, c'est B2O sur le sillon Demande à L.I.M. l'ovni est c'qu'il aime, les beats d'Animalsons Pisser sur les shmits du balcon C'est B2O t'as bien retenu la leçon, le son qui met la pression garçon On mord à tous les hameçons, fait notre gent-ar de n'importe quelle façon Les keufs, la taule passons, j'm'en bats les couilles d't'façon Passe moi la zeb et la boisson Négro nous énerve pas khro trop Lourde est la pression, ça fume à s'péter l'cerveau O.K, j'éclate mon bif' tant qu'il est al Pas d'idole, j'ai la zik', le 'zness comme idéal Des hauteurs du 100-8 zoo, auteur interprète Représente le bruit et l'odeur, flow condamné à perpette Moi, j'ai des piranhas dans l'bocal J'ai pas besoin d'un psy' mais d'un avocat Moi j'suis un griot, amateur d'voitures allemandes N'essaie pas d'mettre à l'amende, ou tu vas chier par un tuyau Imprévisible ma génération J'ai le verset qui bouleverse, ma diction est malédiction Le poids du bled sur les épaules déférés au parquet, j'suis en concert au dépôt, 9.2I kho J'arrive en balle sans péridurale j'fais mal Kiffe le son reste tranquille, fais pas le fan mythomane 9.2 I kho, t'auras pas d'bif' sans B2O J'casse les enceintes, passe du 45 au 6.35 Ouais gros c'est la B.S, B.O. et bim-bim T'as vu que les impacts éblouis par le bling bling Pont de Sèvres pour le cul le bif on s'lève On le tue le bif', on crève Négro, ou bien on rêve derrière des barreaux Du sang d'encre entre les carreaux À part, senti trahi dès le départ, une discipline un seul maître J'ai bicrave, j'ai forniqué j'suis un rat seul Dieu m'jugera, allez tous vous faire mettre Allez tous vous faire niquer d'abord Sur le bateau, personne ne va crier à bord Maintenant représente que nos codes postaux La vie nous tacle boom tchak j'envoie ton rap à l'hosto Et j'me suis mis à chanter B2O gravé en or sur mon dos argenté Le grand manitou a créé les animaux du mont de Tallac en leur donnant des formes différentes, et si on prend les ours par exemple, certains sont énormes mais se régalent en mangeant des fruits et du miel, alors que d'autres sont des bêtes féroces qui déciment les troupeaux... Si Bouba appartient au deuxième groupe, celui des bêtes féroces, il continuera à attaquer les troupeaux jusqu'à la fin de ses jours c'est certain, alors la seule chance pour lui de rester en vie c'est de s'exiler dans un endroit où les Hommes ne vont jamais et où il ne risquera pas d'être abattu comme une bête malfaisante7</t>
+          <t>Yeah, Hey yo, turn my mic on Booba Yo, the champ is here Yeah like that, the champ is here All you other motherfuckers, sit the fuck down Let's go ! You see, we don't give a fuck We don't give a fuck You are now rocking with the best Yeah ! We absolutly don't give a fuck A fuck, let's go, let's go ! Fuck you, fuck la France, fuck Domenech C'est pas du rap de fils de khaneze Dévisagé, montré du doigt toute ma jeunesse Marre d'toucher du bois, Smith Wess' pour toucher espèces T'es trop balèze, j'te mets une balle si tu fais du bodybuilding 9.2. Izi dans le fucking building Tu perds, I win Chauve souris sur le projo, j'arrive J'prends le beat en levrette, trop de flow J'suis pour de vrai, sont pour de faux Viens faire un tour sur la piste Dernière Lambo, semi-auto sur le tourne disque Je profite, avant que les porcs me congèlent Vis la nuit, car elle porte conseil Treillis militaire, places de concerts Au poste je préfère me taire, en ce qui me concerne Je profite, avant que les porcs me congèlent Vis la nuit, car elle porte conseil Treillis militaire, places de concerts Au poste je préfère me taire, en ce qui me concerne J'leurs mets au fond d'la gorge, à deux doigts de ber-ger En mode Bruce Lee, pompes sur deux doigts, pépère Lunatic c'est la zézère, je gère J'fais pas la guéguerre, je prend le coffre et la caissière J'achète pas Moncler, c'est pas assez cher Si je t'ai tué, c'est que tu l'a ché-cher, mon frère Tes albums sont de belles merdes, de jolis cacas Tu rappes la couille qui pendouille, comme Noritaka Tous démasqués à long terme B.2.O.B.A. fils du soleil, t'es fils de lanterne Grosse paire de pommes de terre, V.I.P. à la banque de sperme Le cul rempli de shit, c'est comme ça que je rentre de perm', izi Je profite, avant que les porcs me congèlent Vis la nuit, car elle porte conseil Treillis militaire, places de concerts Au poste je préfère me taire, en ce qui me concerne Je profite, avant que les porcs me congèlent Vis la nuit, car elle porte conseil Treillis militaire, places de concerts Au poste je préfère me taire, en ce qui me concerne Casquette Ünkut, veste Adidas J'suis à Little Havana, je mange des quesadillas J'me prépare pour le titre, au Cæsars Palace En cas de défaite sur le ring, j'ai gé-char le Kalash Je fais le hazalaza, comme Mazalaza Plus dans les faits divers, que dans Gazalaza Le poids des mots, le Glock des potos Négro sur le ter-ter, comme Samuel Eto'o Salade, tomates, oignons, je suis dans le que-tur Normal tu ne me vois pas re-noi, j'suis dans le futur J'appuie sur la gâchette, je ne parle pas Tu ferais mieux de baisser la tête, j'arrive par le bas Je profite, avant que les porcs me congèlent Vis la nuit, car elle porte conseil Treillis militaire, places de concerts Au poste je préfère me taire, en ce qui me concerne Je profite, avant que les porcs me congèlent Vis la nuit, car elle porte conseil Treillis militaire, places de concerts Au poste je préfère me taire, en ce qui me concerne3</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Jack Da</t>
+          <t>Grain de sable</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Verre en plastique, Jack Da', tu vois ce que je veux dire ou pas ? Film en streaming toi et moi, tu vois où je veux en venir ou pas ? Souverain dans mes souvenirs, j'ai bien taillé la barbe Le coup de rein la fera revenir, laisse tomber ta garde Jolie plastique tu as, tu vois ce que je veux dire ou pas ? Crois-moi, je suis pas ton négro lambda... Trop de fragiles, renoi tu vois ce que je veux dire ou pas ? Automatique, soldats, tu vois où je veux en venir ou pas ? Mais je m'en bats les couilles, j'en ai rien à foutre Talons de 22 kilomètres, jupe beaucoup trop courte ras la fouf J'ai juste envie de... Juste envie de... Jolie plastique tu as, tu vois ce que je veux dire ou pas ? Crois-moi, je suis pas ton négro lambda... J'ai juste envie de te posséder, faire de toi ma chienne toute la soirée Mon poto me dit que t'es cheum, mais j'suis alcoolisé Tu lâches ton number ou quoi, tu veux baiser ou pas ? Tout ce qui est petit est mignon, rien de mignon chez moi Tu rentres à pied comme Cendrillon de ma maison à 200 Millions Je rentre dans le club enfouraillé comme Léon, envoyez le Dom Pérignon ! Jolie plastique tu as, tu vois ce que je veux dire ou pas ? Crois-moi, je suis pas ton négro lambda... Jolie plastique tu as, tu vois ce que je veux dire ou pas ? Crois-moi, je suis pas ton négro lambda...10</t>
+          <t>Une soirée d'été, le goût du vent, l'velours de tes lèvres Que j'aimerai jamais assez J'aurais dû les tatouer peut-être J'rêve de te retrouver, rien qu'une fois, toi qui murmures Quelque chose que je s'rai la seule À chanter dans le futur J'ai fait un vu Les refrains qui s'cachent dans l'silence des étoiles Pas besoin d'être heureux Pour voir ton sourire qui vient, qui s'en va J'ai fait un vu Nos visages qui dansent au milieu de nulle part Suffisait d'être deux Pour voir la marée qui vient et qui s'en va Toutes ces merveilles avec toi, laissées derrière moi L'artère principale est touchée Je n'ai pas su garder le cap non La lune ne s'est plus jamais couchée Le soleil n'est plus sur la carte nulle part Est-ce que quelqu'un peut m'indiquer la vallée des reines sans roi ? Trop d'écume et de brume, j'ai dû voyager sans toi J'ai menti, je lui ai dit qu'on se retrouvera J'ai l'il crevé, une jambe de bois C'est plus long quand j'fais les 100 pas J'ai échoué sur la plage aux regrets J'ai pris des vagues impraticables C'est bientôt l'heure où tout se tait Même sérieusement amoché On retenterait bien le Diable le Diable J'ai fait un vu Nos visages qui dansent au milieu de nulle part Suffisait d'être deux Pour voir la marée qui vient et qui s'en va Toutes ces merveilles avec toi, laissées derrière moi J'ai échoué sur la plage aux regrets J'ai pris des vagues impraticables Devenir un rocher Le rêve d'un grain de sable8</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Kiname</t>
+          <t>Kayna</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Paris, Paris Paris, Paris Paris, Paris Paris, Paris Paris dort plus la nuit, on fait bouger la capitale La bonne musique africaine, on reste original J'ai des filles sexy assises à ma table Ce soir on s'enjaille, elles m'ont validé On dépense sans compter, on n'vit qu'une seule fois Sortez vos billets, les filles faut danser On dépense sans compter, on n'vit qu'une seule fois Sortez vos billets, les filles faut danser On est là pour faire danser tout Paname, tout Paname Y'a des femmes, du champagne Ici c'est Paname, c'est Paname On est venus faire danser tout Paname, tout Paname On est partis pour toute la night Je pose ma Kalash', je la fixe en insistant Elle aime que j'lui mette en l'insultant Coupé-décalé, Afghanistan, je frappe Respecte-moi c'est pas une affaire de rap Je serrerai pas Kim K. si je roule en Lada Si t'as pas de boule, t'as walou, nada quitte là-bas Il faudra tout avaler, ça va aller Piraterie ne s'arrêtera jamais Balle dans la tête n'est pas la meilleure répartie Mais la plus efficace Paris je t'aime, Zlatan est parti quand même J'ai pas eu ma dédicace Balle dans la tête n'est pas la meilleure répartie Mais la plus efficace Paris je t'aime, Zlatan est parti quand même J'ai pas eu ma dédicace On est là pour faire danser tout Paname, tout Paname Y'a des femmes, du champagne Ici c'est Paname, c'est Paname On est venus faire danser tout Paname, tout Paname On est partis pour toute la night Hum mama yeah hustler Hum mama yeah hustler Elengi eleki ngai mingi nazo tanga soyi Elengi eleki nga mingi nazo ganga kaka oh epasuka Balle dans la tête n'est pas la meilleure répartie Mais la plus efficace Paris je t'aime, Zlatan est parti quand même J'ai pas eu ma dédicace Balle dans la tête n'est pas la meilleure répartie Mais la plus efficace Paris je t'aime, Zlatan est parti quand même J'ai pas eu ma dédicace On est là pour faire danser tout Paname, tout Paname Y'a des femmes, du champagne Ici c'est Paname, c'est Paname On est venus faire danser tout Paname, tout Paname On est partis pour toute la night On est là pour faire danser tout Paname, tout Paname Y'a des femmes, du champagne Ici c'est Paname, c'est Paname On est venus faire danser tout Paname, tout Paname On est partis pour toute la night Paris, Paris Paris, Paris On vient de loin Na Kinshasa malebo Paris, Paris Paris, Paris El Mara appelle le Duc B2O2</t>
+          <t>Mourir au front J'suis dans l'fourgon rouge et noir, Barracuda, Hannibal Tout est pensé, pyramidal l'être humain, le pire animal Si j'avais su, j'aurais pas venu, j'aurais mis personne au monde Maintenant sont là, masha'Allah, on combat comme Yoda pas de tombe La guerre fait partie de la paix, la mort fait partie de la vie Pas l'un sans l'autre, on choisit pas, on l'fait, rate-pi, ma maladie Femme, enfants à l'abri, si on les perd, on perd tout Le matériel, c'est 3enneni, j'préfère l'honneur qu'ma Ferrari Lit superposé en cellule, commis en haut, le boss en bas Ville de riche ou pas, frérot, j'suis calibré Marcel Sembat, au KFC avec Braza, j'commande un seau, j'attends deux go' Le bon vieux temps, starfoullah, c'que j'vais leur faire à ces flocos J'suis noir et blanc donc je suis gris dans mon esprit, fait jamais beau B2O, les généraux, on peut remplir l'Atlético J'ai des armes de l'Est au cas où, Biélorussie, Monténégro Elle voudrait qu'j'l'emmène à Venise, moi, j'prie pour la montée des eaux Tout niquer, mourir au front, ma destinée, demande à Kayna Les seuls placements dproduit qu'j'ai fait, haschich, amné', cocaïna On partira drapeau hissé, canon vissé, en bon soldat Frérot, pleure pas, au fond des océans, on se retrouvera P'tit Haïti avec Gato sous l'projecteur des hélicos Plus Bamako qu'Hollywood, d'mande à 'sito c'est quoi le mood Fils du béton où y a pas d'arbre, où rien n'est stable, où y a pas d'sable Drapeau négro jusqu'à la muerte à Bora-Bora ou à Bagdad J'veux bien partager mon grec, j'couperai pas ma canette en deux La lumière qu'tu vois dans mes yeux vient seulement d'une planète en feu Elle m'parle de ses projets, qu'elle est amoureuse, j'suis sur le i12, au bout d'ma vie Elle veut un cunni', du Louis Vui', son seul avenir, c'est l'bus de nuit Chaque odyssée finit comme ça, rien n'y peut, rien ne changera Alloco, cailloux de crack, Mondéo, Akha la BAC T'as pas d'avis, je me méfie, si tu penses pas, c'est que t'es con J'descends des rois, j'descends des lions comme Gengis Khan, Napoléon Tout niquer, mourir au front, ma destinée, demande à Kayna Les seuls placements dproduit qu'j'ai fait, haschich, amné', cocaïna On partira drapeau hissé, canon vissé, en bon soldat Frérot, pleure pas, au fond des océans, on se retrouvera Tout niquer, mourir au front, ma destinée, demande à Kayna Mourir au front en bon soldat Eh, eh, eh, eh, eh4</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2787,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Jusqu’ici tout va bien</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Je suis pas là pour te faire un bouss, mec, ni faire un boost Rien à foutre que tous craignent, je suis né à 2 km doù je traîne Lyrical coup de crosse, coup bas Écoute Booba, donne-nous la patte, on tarrache tout le bras Je bosse pour mon peuple comme Hi-Fi, terrifie Crois-nous, va dans la rue, vérifie Ici les mêmes scènes, mêmes squats, même shit, les mêmes frites 2, 3 chiennes et 150 chaînes Jsuis dans leur mac, mais dans le coin dangereux Black Dangereuses taffes, pas de blagues, gars, dangereux tagga Moi je veux quon me paye moi écoute-moi 6 000 balles pour travailler tout le mois je men bats les couilles, moi Moi, je suis un rat comme Luciano Degré de parano rare comme un noir qui joue du piano Va dire aux porcs dalerter les autorités Moi je suis obligé dacheter ma liberté La vie cest dur mais, ici on sen remet Plus rien ne métonne jusquici tout va bien Je déconne, je sais, changer jessaie Plus rien ne métonne jusquici tout va bien Lor et les 'tasses fréquentent peu de gens clean Plus rien ne métonne jusquici tout va bien Les grosses bastos, négro, le crack lhéroïne Plus rien ne métonne jusquici tout va bien Mes négros en ont rien à chier, tous sont fichés Touche du bois, de lacier, fume tout, bois de la 16 Fais de la scène, pas de zèle, pas là si pas de zeb Aucun ninsiste je combats le 6.6.6 Tunique treillis khaki, unique MC Acquis la rime grâce au crew, sinon à qui ? 92 i, du son pour mes gens, du plomb dans les jambes Négro, du chrome sur les jantes, je brille Jai rien vu, rien entendu Les portes fermées, mon destin est propre à lautoprod Et si ya Mala, avec toute la smala, ya pas de hasard Cest qu'tout seul jy arriverais pas Je répète, tentends pas bien ou quoi ? Plus rien ne métonne jusquici tout va bien La vie cest dur mais, ici on sen remet Plus rien ne métonne jusquici tout va bien Je déconne, je sais, changer jessaie Plus rien ne métonne jusquici tout va bien Lor et les 'tasses fréquentent peu de gens clean Plus rien ne métonne jusquici tout va bien Les grosses bastos, négro, le crack lhéroïne Plus rien ne métonne jusquici tout va bien Tinquiète, bientôt on se barre Aux States ou en Tunisie ou autre part, dès quy aura de la thune ici Jamais affaibli, à New York, El Hadj, Arrach et Billy Cognac Alizé, beuh dans les Phillies Et tas réalisé que cétait fini Mon crew cest pur, violent, bizarre, indéfini MC's navrants, niveau trop bas Je crois que jvais me mettre à rapper avec le style davant Dans ce monde je respecte ceux qui my ont mis Regarde lÉtat dans quel état on la mis, mon ami Cest pas fini donc mets ta tenue verte, marron et beige On fait nos dièses, on sen bat les couilles, on les baise Tout baigne de pisse dans leur toubeï Leur vue baisse et je vois des couches dans leurs poubelles Précis, bouteille alcool avec un chiffon À fond en V6, du whisky dans la vessie L.U.N.A.T.I.C., ça sent la té-ci La paix ?! Ah, vas-y, on fait pas de manifs ici, sisi La vie cest dur mais, ici on sen remet Je déconne, je sais, changer jessaie Plus rien ne métonne jusquici tout va bien Lor et les 'tasses fréquentent peu de gens clean Les grosses bastos, négro, le crack lhéroïne Plus rien ne métonne jusquici tout va bien La vie cest dur mais, ici on sen remet Plus rien ne métonne jusquici tout va bien Je déconne, je sais, changer jessaie Plus rien ne métonne jusquici tout va bien Lor et les 'tasses fréquentent peu de gens clean Plus rien ne métonne jusquici tout va bien Les grosses bastos, négro, le crack lhéroïne Plus rien ne métonne jusquici tout va bien Wesh Omar, finis les cauchemars Je vis dans l'abus, dans ma bulle La vie cest dur mais, ici on sen remet Plus rien ne métonne jusquici tout va bien 924</t>
+          <t>The Punisher Chanchee Pas de Grammys, pas d'invit', sur l'bateau pirate mort ou vif D.U.C, shit au large de Pointe-à-Pitre, posé avec une MILF T'as pas d'histoire, t'as pas d'vécu, t'es trop gâté comme fils unique J'monte au mitard, du shit dans l'cul, fuck tes Victoires de la Musique Ça parle comme des conquistadors, de frappe qui s'tord et de zipette T'as pas d'couilles, t'as pas d'cerveau, pour toi, c'est mort ni d'queue ni d'tête Elle m'a liké, je l'ai souillée, elle m'a haï, ell a fouillé Je l'ai nextée dans la foulé, fais pas l'jnouné, j'vais t'agenouiller Sicario, sept carios, Kopp Antonio Banderas J'ai pas fini la school mais j'ai fini San Andreas San Andreas, San Andreas, San Andreas, San Andreas Elle m'a dit T'aimes mes boucles d'oreille ? J'lui dis J'aime rien, j'suis Parisien J'irai aux Restos du Cur quand 's auront deux étoiles Michelin J'respecte pas les nouveaux, ni les anciens, je suis l'ancêtre Sauvage comme l'ancienne RDA, la route pavée de traîtres J'me tue quand j'ai besoin de naître, j'ai multiplié les naissances Maintenant, on est trop, que des Fidel Castro Négro, je sais qu't'as chaud, j'ai eu des échos Négro, je sais qu't'as chaud, c'pas moi qui l'dit, c'est le fusil d'assaut J'préviens pas quand j'arrive, on met pas l'cligno' quand on double J'connais qu'Yalla, en avant toute, frérot, on fait rien quand on doute J'travaille sur un projet de paix, actuellement, j'suis en plein d'dans J'dois d'abord calculer le nombre de fils de putes par habitant Et maintenant, si y a qudes fils de putes, on fait comment ? J'ai peur de n'jamais y arriver, maman, les chiffres sont si impressionnants Victime de leur histoire, pur produit d'mon environnement Y a qu'sur l'bateau qu'c'est un pour tous, personne gagne en papillonnant Génération Ken le Survivant, berline allemande Rentré par la p'tite, mis à l'amende, j'suis sorti par la grande6</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Loin d’ici</t>
+          <t>Garcimore</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Partir, partir loin d'ici, partir loin d'ici Je me souviens, de partir loin d'ici, d'ici, d'ici... Le rap français est coupé en deux comme Porsche GT dans un tronc d'arbre J'suis sur Pluton, t'es sur France 2, fuck un greffier, fuck un gendarme Déployez plan épervier, je suis un gangster, fuck un vandale 92izi faut te méfier, j'ai un Uzi, fuck un Van Damme C'est l'histoire qui m'a choisi, m'a choisi Contre le désespoir un gros pétard, un Bacardi J'suis un Zlatan, un Qatari T'es qu'un tahan abâtardi, allez Paris ! Héééé, oui oui Partir loin d'ici, partir loin d'ici Oui oui, je ne le regretterai pas, pas Je ne le regretterai pas, je le sais déjà Non, je ne le regretterai pas J'aime toutes mes cicatrices J'fais de l'oseille, j'suis pas un artiste Mon parfum c'est anarchiste À mon déclin personne n'assiste Clic, clac, personne n'insiste Gros oid c'est mon insigne On a or noir comme on a l'shit Change de trottoir, c'est mieux ainsi C'est l'histoire qui m'a choisi, m'a choisi Contre le désespoir un gros pétard, un Bacardi J'suis un Zlatan, un Qatari T'es qu'un tahan abâtardi, allez Paris ! Héééé Partir loin d'ici, partir loin d'ici Oui oui, je ne le regretterai pas, je le sais déjà Non, je ne le regretterai pas, non, non, non C'est l'histoire qui m'a choisi, m'a choisi Contre le désespoir un gros pétard, un Bacardi J'suis un Zlatan, un Qatari T'es qu'un tahan abâtardi, allez Paris ! Je te comprends Partons loin d'ici Fais-moi souffrir pour qu'j'me souvienne Fais-moi souffrir pour qu'j'me souvienne Fais-moi souffrir pour qu'j'me souvienne Fais-moi souffrir pour qu'j'me souvienne Je vais partir loin d'ici Je ne le regretterai pas, non non Je veux partir loin d'ici, oui oui, si Je veux partir, je veux partir loin d'ici Oui oui, je vais partir loin16</t>
+          <t>B2o 92izi Ok ok, oh-ok, eh, eh, eh, eh Tous les jours je taffe dur, tous les jours je galère Tous les jours tu demandes combien il y a de zéros sur mon salaire Tous les jours je taffe dur, tous les jours je galère Tous les jours tu demandes combien il y a de zéros sur mon salaire Avant d'rentrer dans l'rap j'avais déjà plein d'ennemis Tous ces pédés m'ont regardé à la Star Academy J'suis hami j'effleure le ciel tu touches le RMI J'fuck la vie je vis la nuit j'fais plus de bruit qu'un deux et demi Tu m'as vu à la télé mais je n'suis pas ton ami Tu ferais mieux de reculer si tu veux mon avis À l'heure où je te parle j'suis peut-être à Miami Accompagné d'un 90 D à bord d'ma Ferrari J'peux finir au tarmi comme le célèbre Cheb Mami Sans dinde ni salami la la la chatte à ta mamie Je viens de là où tu ne peux pas aller Sur moi tu n'as aucun dossier tu n'peux pas parler chut Je viens de Paris 92 capitale Des dealeurs de came Hauts-de-Seine j'habite àl Rafale de bastos dans les amygdales J'suis là pour la gagne, ceci n'est pas un match amical C'est un pour la monnaie, deux pour la monnaie Trois pour la monnaie, quatre pour la monnaie Le rap est dead MC tu fumes trop d'herbe T'as pas de crédit sauf à la banque, t'es qu'une grosse merde Le son est lourd, qui sont les loups ? C'est nous, 92i crew, prédestinés à rien du tout Illicite c'est mon dada une pour les mecs à Guadada 972 HLM3 les mecs au hebs à Bois d'a-d'ar J'te souhaite la mort sans aucun souci, joue pas les gros bras Je suis Garcimore avec un uzi abracadabra Un faut mouv' le mouv te croque pazalaza pour s'azamuser De boulbi vient le Tsunami, ici. ressens-tu l'onde de choc ? Le son vient de la Benz le tien vient de la benne Couleur ébène plus le combat est dur plus la victoire est belle Ne joue pas avec la rue tu risques d'en payer le prix Combien sont morts ou handicapés ne s'en sont jamais remis6</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Indépendants</t>
+          <t>Écoute bien</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Donne-moi mon cash, kho De-spee, donne moi mon cash, kho Vite, donne-moi mon cash, kho Y a la vie, ses bons côtés, moi j'suis sur l'autre berge, boy J'suis en écoute à la Fnac et chez les RG Danger parce que j'l'ai fait en indé J'men bats la race de rentrer aux bains, négro j'suis blindé Au DD dès le début, mes conflits parentals dans l'cartable C'est l'EPO qu'on donne aux bébés Et dans le cartel on peut mourir wanted, criblés de balles Mais crédibles pour que tu t'rappelles Ma clique, pour elle que j'm'applique Et si j'hésite c'est qu'une boulette bloque l'automatique J'ai bu la Seine et tous ses cadavres Petit t'as les nouvelles Air Max fais pas d'garrot avec les lacets Pour eux, si t'es black, d'une cité ou d'une baraque T'iras pas loin, c'est vends du crack ou tir à 3 points J'ai vu l'passé kidnapper l'avenir Le présent sucer des bites et tous mes négros sur un navire Ah ouais ! Tu parles comme ça ? Alors avec une entaille dans les entrailles 3atay, tu pars comme ça On l'a fait tout seul, du sous-sol au toit sans boussole De la caresse au doigt dans l'boule Ça vient de Boulogne, tu vois la fougue dans nos yeux se lit Nourris au pes-stu, illicites jusqu'au pe-sli, du biz Autant d'morale qu'Adebisi, les vrais savent J'ai que mes tripes, mon hip hop et quelques principes Tu piges, ça fait huit piges, et les mythos pèsent crèvent aussitôt J'remplis les lyrical hôpitaux Quoi ? J'ai de la peine quand j'té-ma ce siècle Où les rafales de bastos réchauffent le climat Tu vois, c'est l'son des you-vois, timal Aujourd'hui j'suis àl, hier j'suis mort de 41 balles Trop coloré comme un faux scal-pa Génération Mad Max née dans le magma Ici on déjeune avec du shit, on meurt jeune Mauvais il, mauvaises ondes planent dans ma zone J'ai cru réussir On m'a dit qu'mon sous-marin venait d'Russie, qu'ici y avait du R'n'B d'rue J'ai besoin d'un casse-dalle, un clitoris, un pare-balle Trop d'pédés dans l'rap parlent mal Kho, check mon numéro 9.2 J'fais mal à part ça rien d'neuf que dalle On marque toujours des buts, shoot en lucarne, loupe Si j'te pardonne, écris les jours d'pleine lune Ma tribu s'couche à l'heure où tu taffes On est tous sur le terrain, d'une Vite arrache ton cul des tribunes deux, vas-y roule un gramme de beuh Tu connais ma ville j'ai vu ta plaque au bois d'Boulogne Bonhomme, on peut pas s'replier Deux trucs faux chez nous les puces SFR et les billets Envoie les MC 6 pieds sous terre Quand les lumières s'éteignent, c'est du Wu-Tang M'ont sous-estimé, temps d'sortir le méchant team Musique et crime pour les centimes J'crée l'émeute, mon feutre imbibé d'sang Pédé, j'te descends, du rouge à lèvres sur la beute Et c'est bandant d'être indépendant6</t>
+          <t>Rapprochez-vous et zoomez Constatez que c'est plus comme avant, depuis mes ventes et que le rap s'est fait goumer Des phases de fou depuis qu'mon joint s'est roulé Que j'ai roté mon poulet rôti et recraché deux îlotiers Audiophonique méchoui, si on est riches ? Ouais ! Puisque nos terres sont pétrole et rubis Tu sais qui j'suis l'automatique pour ceux qui fuient Mon putain d'arôme putain la route est longue de Boulogne à Rome Et j'dois sortir vainqueur d'une défaite C'lui qui veut pas passer l'hiver en marcel, c'est lui qu'on incarcère Bête de niquer sa vie sur un coup d'tête Trop le font, arrachent leurs croûtes avec un coupe-coupe Jette un il à droite, envoie la purée jusqu'à l'extrême C'est leur plancher, Eh négro ! C'est l'heure d'manger Brûler leur sperme en échantillon, souder leurs chattes On va pas s'calmer man, ça sert à rien qu'tu jactes Crois-en mon expérience Issu d'un peuple averti, c'est B2O, j'ai 423 ans Alors écoute bien, kho Hauts d'Seine département Tu veux stopper mon crew mais tu vas faire comment ? Alors écoute bien, mon nom stické sur tous les murs du 16 aux Halles Négro t'es sourd ou quoi ? On est àl Alors écoute bien, un rap insociable, instable Le son qui fait péter un câble Alors écoute bien, kho, on r'vient d'loin, écoute bien... J'aime pas m'battre comme un chiffon J'préfère t'abattre car ainsi font Les gens d'ma zone, 100-8 Zoo Les pieds dans l'or jusqu'à la gorge Vote pour emmener les porcs à la morgue Vite ici c'est mort dites-leur qu'ma race est maudite J'ai eu mon trône dans l'trôm J'suis hardcore comme tous ces mots dits Casquette baissée dans mon auto, parce qu'ils contrôlent, accusent à tort Mon logo, les joueurs d'polo, les alligators Molotov rime avec mairie, poste, pays Frime sans être boss, je fus un roi sans Z3, un rat sans aide En fuite, alors j'm'arrache en Z8, ma race au bled Alors écoute bien, kho Hauts d'Seine département Tu veux stopper mon crew mais tu vas faire comment ? Alors écoute bien, mon nom stické sur tous les murs du 16 aux Halles Négro t'es sourd ou quoi ? On est àl Alors écoute bien, un rap insociable, instable Le son qui fait péter un câble Alors écoute bien, kho, on r'vient d'loin, écoute bien... Mes raps en disent long, mes sapes en teflon Casse ta tête va faire l'amour avec un tesson sur un d'mes sons JB dans les tripes J'suis dans les boîtes, les gifles et dans les chiffres J'porte le kevlar du llage-vi Pourtant j'pense pas qu'ces clébards m'arrivent à la ch'ville À double tranchant, d'la délinquance dans l'sang J'arrive à fond dans les virages Vire dans l'rouge mais civilisé Né dans une cible, on a coupé mon cordon avec une scie Neuf mois dans un bunker, le majeur debout L'daron a craché dans un chargeur Mon sachet d'beuh dégrainée pour mieux dégainer Les putes chez l'kiné, les man en Guinée Dangereux phrasé Y'a encore d'la place dans mon casier, révolution dans l'élocution M.C. exécution sur mon son de batterie Rien à battre, ici c'est rime, crime, dibiterie Alors écoute bien, kho Hauts d'Seine département Tu veux stopper mon crew mais tu vas faire comment ? Alors écoute bien, mon nom stické sur tous les murs du 16 aux Halles Négro t'es sourd ou quoi ? On est àl Alors écoute bien, un rap insociable, instable Le son qui fait péter un câble Alors écoute bien, kho, on r'vient d'loin, écoute bien... Alors écoute bien, kho Hauts d'Seine département Tu veux stopper mon crew mais tu vas faire comment ? Alors écoute bien, mon nom stické sur tous les murs du 16 aux Halles Négro t'es sourd ou quoi ? On est àl Alors écoute bien, un rap insociable, instable Le son qui fait péter un câble Alors écoute bien, kho, on r'vient d'loin, écoute bien...6</t>
         </is>
       </c>
     </row>
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Gangster</t>
+          <t>G5 (Intro)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Je suis un gangster, gangster Je m'arrêterai six pieds sous terre J'contrôle ce putain d'rap game, poto, j'lui mets la fessée Rien ne sert de courir, mieux vaut rouler en Féfé Toujours sur terre, malgré tant de péchés J'serai ton chat de gouttière, sois mon poisson séché Elle roule en Clio, elle a un piercing au clito Je lui crache dans les chicos, je marrache aussitôt Je carbure à l'hydro, appelez les gros tazzer Le rap français a.k.a. Chronique d'un vibromasseur Noublie jamais que depuis Le crime paie, c'est moi le master Pour fidèle c'est infidèle fais péter Ghetto Blaster Si tu me choppe dans une manif, je suis là en tant que casseur Mon poster dans sa breuch j'suis le rappeur préféré de ta soeur Je suis d'une autre planète, mon flow est venu d'ailleurs Comme le 9 3 tu peux pas test demande à Mac Tyer B.2.O.B.A sur le ter-ter, sur le flyer Toujours dans la raquette, Amaré Stoudemire J'ai peur de sonne-per, j'ai grandi sans repères Chez moi ça tourne à l'envers Je suis un gangster, gangster Je m'arrêterai six pieds sous terre Je ne sais pas quand me taire, j'ai tout de mes grands frères Je préfère crever d'une balle que d'un cancer Je suis un gangster, gangster Et personne ne peut rien y faire J'dois tout à mon équipe, on fait du biff en musique Appelle moi 92 I ou 92 U pour 92 Uzi Tu crois que j'ai la vie facile, négro il y a rien de izi Pour faire des millions, faites moi greffer un cur de Grizzly Sers moi un verre de Riesling tu crois que je me résigne Palmier dans le crâne j'aime bien la France, je préfère le Brésil Haineux je vais te tirer dessus t'auras pas besoins de faire de piercings Tu me transporte des Kilogrammes des kilos de drames sans faire de chichis Sanguinaire je te la glisse même quand t'as tes gle-rè Je te ferai rire, je te ferai pleurer Mes rimes sont que des lames de sabre samouraï que j'aiguise Pas de meilleur endroit pour te faire sodomiser que l'église Je fais pas dans la guimauves, c'est pas pour los niños Le bien contre le mal Actarus contre Minos L'oeil rouge comme rat albinos Vatos locos avec los negros maghrebinos J'ai peur de sonne-per, j'ai grandi sans repères Chez moi ça tourne à l'envers Je suis un gangster, gangster Je m'arrêterai six pieds sous terre Je ne sais pas quand me taire, j'ai tout de mes grands frères Je préfère crever d'une balle que d'un cancer Je suis un gangster, gangster Et personne ne peut rien y faire Gangster... Gangster... Écraser l'adversaire Je n'arrête pas d'y penser Violet Jaune Vert Je n'arrête pas d'y penser Le sang sur le ter-ter Rien ne peut leffacer Jamais sans mon revolver Rien ne sert d'y penser Sur scène ou dans la street, je suis à la hauteur Tueur né, j'suis le lleur-mé, fuck être avocat fuck être un docteur Je fus dealeur et voleur, je suis le bruit et l'odeur Grosse bagnole, mental espagnol, force et honneur Ils apprécient mes poèmes, demande à Benjamin Biolay Tignasse dans la paume, swagg bonobo je les fait miauler Tellement de Gent-ar je suis plus noir je deviens violet Plié meurt de faim gue-flin Audemars Piguet Weshh je suis là à frimer, t'es là à filmer Demande à Mokobé Les jaloux vont grir-mai Je veux faire des parfums Ünkut, je cherche un deal avec L'Oréal Je suis loin dans le futur Morray je roule en DeLorean J'ai peur de sonne-per, j'ai grandi sans repères Chez moi ça tourne à l'envers Je suis un gangster, gangster Je m'arrêterai six pieds sous terre Je ne sais pas quand me taire, j'ai tout de mes grands frères Je préfère crever d'une balle que d'un cancer Je suis un gangster, gangster Et personne ne peut rien y faire Écraser l'adversaire Je n'arrête pas d'y penser Violet Jaune Vert Je n'arrête pas d'y penser Le sang sur le ter-ter Rien ne peut leffacer Jamais sans mon revolver Rien ne sert d'y penser Écraser l'adversaire Je n'arrête pas d'y penser Violet Jaune Vert Je n'arrête pas d'y penser Le sang sur le ter-ter Rien ne peut leffacer Jamais sans mon revolver Rien ne sert d'y penser5</t>
+          <t>Back to the Future Yeah Massif, âme de destruction massive Machine, c'est plus dur qu'tu l'imagines Et même si triste est la Matrice Mon ciel est bleu comme les Crips et les Mavericks Ils me donnent des coups que je n'sens pas Sur le champ d'bataille, dans mes veines coule du champagne Dans ma tête plein de billets font les cent pas On ne fait que me prêter de l'amour que je n'rends pas Je n'serai pas là sans mon public Regarde les faux MC de mon pupitre Neuf-Deux Izi Unit Se croient Maybach Music mais sont Morbac Music Contre vents et marées De quelques frères malheureusement j'suis séparé Évitons les sujets qui fâchent L'important c'est pas la chute mais latterrissage G-Five ! Back to the Future7</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Rats des villes</t>
+          <t>Moments gâchés</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>J'regarde sur ma gauche R.A.S Sur ma droite des chiens d'la casse tenus en laisse Ils se disent Il a du pez, il faut qu'on lui enlève Les mecs, cherchez du business, arrêtez d'être en hass Les ennemis de mes amis ne sont pas mes amis, no ! Ouvre la bouche, pose ton front sur mes abdominaux Ce n'est pas qu'j'aime pas me mélanger mais disons Simplement qu'les aigles ne volent pas avec les pigeons J'suis arrivé par bateau, mon peuple a subi sévère Mes négros ont les idées claires qu'avec des billets verts Y'a pas qu'le pe-ra dans la vie, tu rappes à en devenir débile Une pensée pour les rappeurs disparus comme Sully Sefil Mi-gorille, mi-lion, 100 rat des villes La beurette là-bas m'trouve mignon, elle porte des bas résille J'ai goûté tous les cocktails à part celui de Russie J'affiche ma réussite, j'parcours le monde, ses chambres d'hôtels On rentre dans le club club, la musique est bonne bonne Mes négros sont frais on dirait qu'on pèse des tonnes Je marche sur le sol sol, le bitume s'allume On dit bonjour à tout le monde shalom, salam, salut Tu fais la deux tu fais la trois, je fais la une Tu fais le loup le chien tu aboies, je fais la lune Tu fais la rousse, la blonde et la brune On connais pas la lose, négro nous on fait la thune On rentre dans le club pour tout niquer, je ne sais pas ce que t'en penses Ramène pas ton équipe de trans sur la piste de danse Les keufs m'ont à lil, j'hésite à transporter mon gun Alors j'commande bouteille de Jack pour mieux t'éclater la gueule J'rappe comme une machine, j'le vis, tu imagines Leurs putes font ma lessive, les rimes fusent comme des missiles J'regarde dans mon rétro pas un négro dans mon sillon J'me fais chier dans ce rap game j'suis seul avec mes millions Océan Arctique, ours polaire en plein travaux pratique Izi charismatique, le move caresse ma trique Rappeur comme moi, jamais vu comme le Mollah Omar Connu chez les shtars, reconnu jusque dans l'Oklahoma On rentre dans le club club, la musique est bonne bonne Mes négros sont frais on dirait qu'on pèse des tonnes Je marche sur le sol sol, le bitume s'allume On dit bonjour à tout le monde shalom, salam, salut Tu fais la deux tu fais la trois, je fais la une Tu fais le loup le chien tu aboies, je fais la lune Tu fais la rousse, la blonde et la brune On connais pas la lose, négro nous on fait la thune Agresse ton boss pour augmentation Viens à ma table, armé, bien habillé, la réglementation On vient du bled sale bâtard pas du terroir Tu seras rebeu et black qu'avec un oeil au beurre noir Si tu veux pas t'faire enculer ne me donne pas tes fesses Les fans m'imitent, les condés surveillent mes faits et gestes Mais moi j'suis dans le club avec Yahia, Mazalaza Tu jettes des cailloux sur scène, serais-tu de la bande de Gaza ? Méfie toi de mon coup de boule négro de la droite de Brazza Rejoins le prince de la ville poupée à l'hôtel Plaza Je dribble te la mets au fond comme Shevchenko Je suis fresh for life, sorti de chez BoulbiCo On rentre dans le club club, la musique est bonne bonne Mes négros sont frais on dirait qu'on pèse des tonnes Je marche sur le sol sol, le bitume s'allume On dit bonjour à tout le monde shalom, salam, salut Tu fais la deux tu fais la trois, je fais la une Tu fais le loup le chien tu aboies, je fais la lune Tu fais la rousse, la blonde et la brune On connais pas la lose, négro nous on fait la thune3</t>
+          <t>Shadow Bébé, dehors c'est la guerre mais je tiens le coup mais je tiens le coup hey J'rentrerai en vie pour prouver mon amour prouver mon amour hey Tu m'manques mais, une impression que tu me mens quand hey Tu m'dis qu'tu veux m'faire des enfants hey Bébé, es-tu prête à dev'nir maman ? Après les avoir tué, j'aime sentir leurs pouls En crime comme en amour, j'n'aime pas avoir de doutes J'suis né pour écraser qui va s'mettre sur ma route sku sku Sur la file de gauche, j'bombarde et je double sku sku J'laisse toujours de quoi manger aux vautours Toi, j'espère que tu repousses les mecs qui tournent autour Là, j't'écris une lettre du front comme Sefyu Pour t'annoncer que bientôt, j'fais mon grand retour Deux-trois verres, bébé j'suis fait Deux-trois joints, bébé j'suis flex La défonce commence à faire de l'effet J'rêve de plonger entre tes fesses Et toi, dis-moi c'est comment ? Repenses-tu à nos bons moments ? J'veux pas savoir la fin du roman Je sais juste que tu me manques Tu me manques, tu me manques, tu me manques, tu me manques Tu me manques, tu me manques, tu me manques, tu me manques Tu me manques, tu me manques, tu me manques, tu me manques Tu me manques, tu me manques, tu me manques, tu me manques Yeah, yeah, yeah Te voir sourire me manque, te voir pleurer me manque Entendre ta voix me manque, te faire l'amour me manque Te voir sourire me manque, te voir pleurer me manque Entendre ta voix me manque, te faire l'amour me manque Tu me manques quand tu n'es pas là hey Tu m'as marqué à vie comme une balafre hey Te revoir me motive à les hagar Ta voix m'accompagne pendant mes ballades Pour toi, j'écris cette chanson Entre chaque livre, sens-tu mes émotions ? Entre chaque verre, j'me pose la même question Es-tu amoureuse comme Véronique Sanson ? Es-tu toujours la même ? es-tu toujours la même ? Es-tu toujours mienne ? Pendant mon absence, dis-moi qu'tu t'es pas offerte à d'autres Jure-le sur la tête de ta mère J'ai les billets mauves, jaunes et verts pour me consoler si tu me la mets à l'envers Avec de la monnaie, la vie est moins amère Avec de l'amour, on y voit plus clair Deux-trois verres, bébé j'suis fait Deux-trois joints, bébé j'suis flex La défonce commence à faire de l'effet J'rêve de plonger entre tes fesses Et toi, dis-moi c'est comment ? Repenses-tu à nos bons moments ? J'veux pas savoir la fin du roman Je sais juste que tu me manques Tu me manques, tu me manques, tu me manques, tu me manques Tu me manques, tu me manques, tu me manques, tu me manques Tu me manques, tu me manques, tu me manques, tu me manques Tu me manques, tu me manques, tu me manques, tu me manques Yeah, yeah, yeah Te voir sourire me manque, te voir pleurer me manque Entendre ta voix me manque, te faire l'amour me manque Te voir sourire me manque, te voir pleurer me manque Entendre ta voix me manque, te faire l'amour me manque1</t>
         </is>
       </c>
     </row>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Caesar Palace</t>
+          <t>RATPI WORLD</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Yeah, Hey yo, turn my mic on Booba Yo, the champ is here Yeah like that, the champ is here All you other motherfuckers, sit the fuck down Let's go ! You see, we don't give a fuck We don't give a fuck You are now rocking with the best Yeah ! We absolutly don't give a fuck A fuck, let's go, let's go ! Fuck you, fuck la France, fuck Domenech C'est pas du rap de fils de khaneze Dévisagé, montré du doigt toute ma jeunesse Marre d'toucher du bois, Smith Wess' pour toucher espèces T'es trop balèze, j'te mets une balle si tu fais du bodybuilding 9.2. Izi dans le fucking building Tu perds, I win Chauve souris sur le projo, j'arrive J'prends le beat en levrette, trop de flow J'suis pour de vrai, sont pour de faux Viens faire un tour sur la piste Dernière Lambo, semi-auto sur le tourne disque Je profite, avant que les porcs me congèlent Vis la nuit, car elle porte conseil Treillis militaire, places de concerts Au poste je préfère me taire, en ce qui me concerne Je profite, avant que les porcs me congèlent Vis la nuit, car elle porte conseil Treillis militaire, places de concerts Au poste je préfère me taire, en ce qui me concerne J'leurs mets au fond d'la gorge, à deux doigts de ber-ger En mode Bruce Lee, pompes sur deux doigts, pépère Lunatic c'est la zézère, je gère J'fais pas la guéguerre, je prend le coffre et la caissière J'achète pas Moncler, c'est pas assez cher Si je t'ai tué, c'est que tu l'a ché-cher, mon frère Tes albums sont de belles merdes, de jolis cacas Tu rappes la couille qui pendouille, comme Noritaka Tous démasqués à long terme B.2.O.B.A. fils du soleil, t'es fils de lanterne Grosse paire de pommes de terre, V.I.P. à la banque de sperme Le cul rempli de shit, c'est comme ça que je rentre de perm', izi Je profite, avant que les porcs me congèlent Vis la nuit, car elle porte conseil Treillis militaire, places de concerts Au poste je préfère me taire, en ce qui me concerne Je profite, avant que les porcs me congèlent Vis la nuit, car elle porte conseil Treillis militaire, places de concerts Au poste je préfère me taire, en ce qui me concerne Casquette Ünkut, veste Adidas J'suis à Little Havana, je mange des quesadillas J'me prépare pour le titre, au Cæsars Palace En cas de défaite sur le ring, j'ai gé-char le Kalash Je fais le hazalaza, comme Mazalaza Plus dans les faits divers, que dans Gazalaza Le poids des mots, le Glock des potos Négro sur le ter-ter, comme Samuel Eto'o Salade, tomates, oignons, je suis dans le que-tur Normal tu ne me vois pas re-noi, j'suis dans le futur J'appuie sur la gâchette, je ne parle pas Tu ferais mieux de baisser la tête, j'arrive par le bas Je profite, avant que les porcs me congèlent Vis la nuit, car elle porte conseil Treillis militaire, places de concerts Au poste je préfère me taire, en ce qui me concerne Je profite, avant que les porcs me congèlent Vis la nuit, car elle porte conseil Treillis militaire, places de concerts Au poste je préfère me taire, en ce qui me concerne3</t>
+          <t>Armes automatiques, c'est fantastique C'est quoi les bails, ma gueule ? J'suis dans mon Ratpi World, eh Ils sont v'nus à six du mat', rangers, pas de bas résille Ils veulent nous faire comme rats des villes, encerclés comme en Palestine Le pare-chocs embrasse la vitrine, D.U.C pas d'la Cristalline Wallaye, j'suis sur toi comme un Djinn, c'est plus grave que tu l'imagines Gargouilles sur un toit béni, rate-pi patrouille jour et nuit Si tu sais pas qui j'suis, ton écran plat vient d'chez Momo Henni Tout est écrit mais j'aime pas lire, t'es faux, ta peau c'est pas du cuir Plein d'gens que j'aime mais j'aime pas l'dire, plein d'gens qu'je gêne veulent me détruire Qu'il en soit ainsi, j'ai toujours laissé le Diable me séduire Dans l'bureau à Tony, lance-grenades chargé, grosse cérémonie C'est dur, frérot, la pandémie, avance-moi un kil' et d'mi 9-2, Porte de Châtillon, Lamborghini, portes papillons j'suis trop gang, elle peut pas dire non C'est quoi les bails, ma gueule ? J'suis dans mon Ratpi World Armes automatiques, c'est fantastique C'est quoi les bails, ma gueule ? J'suis dans mon Ratpi World Divorçons à la mairie, faisons le hlel chez Chalghoumi Les dessouder jusqu'au dernier s'ra toujours une très bonne idée Si t'as pas d'camp, t'as pas d'avis, pas de navire, pas d'avenir En n'disant rien, on a tout dit donc ferme ta gueule et follow me Encore perdu mon Insta', mon truc à moi, c'est la musique J'essaye d'garder mon instinct, déboussolé par l'algorithme En fond d'sixième, j'vois mieux le ciel, beaucoup trop tard pour reculer Je lui ai dit Passe-moi du gel, pas pour mes mains, pour t'enculer J'suis plus proche du Rif que du Gif, t'es plus proche d'une balle que d'une gifle Ouais Du Rif Divorçons à la mairie3</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2889,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Grain de sable</t>
+          <t>Pourvu qu’elles m’aiment</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Une soirée d'été, le goût du vent, l'velours de tes lèvres Que j'aimerai jamais assez J'aurais dû les tatouer peut-être J'rêve de te retrouver, rien qu'une fois, toi qui murmures Quelque chose que je s'rai la seule À chanter dans le futur J'ai fait un vu Les refrains qui s'cachent dans l'silence des étoiles Pas besoin d'être heureux Pour voir ton sourire qui vient, qui s'en va J'ai fait un vu Nos visages qui dansent au milieu de nulle part Suffisait d'être deux Pour voir la marée qui vient et qui s'en va Toutes ces merveilles avec toi, laissées derrière moi L'artère principale est touchée Je n'ai pas su garder le cap non La lune ne s'est plus jamais couchée Le soleil n'est plus sur la carte nulle part Est-ce que quelqu'un peut m'indiquer la vallée des reines sans roi ? Trop d'écume et de brume, j'ai dû voyager sans toi J'ai menti, je lui ai dit qu'on se retrouvera J'ai l'il crevé, une jambe de bois C'est plus long quand j'fais les 100 pas J'ai échoué sur la plage aux regrets J'ai pris des vagues impraticables C'est bientôt l'heure où tout se tait Même sérieusement amoché On retenterait bien le Diable le Diable J'ai fait un vu Nos visages qui dansent au milieu de nulle part Suffisait d'être deux Pour voir la marée qui vient et qui s'en va Toutes ces merveilles avec toi, laissées derrière moi J'ai échoué sur la plage aux regrets J'ai pris des vagues impraticables Devenir un rocher Le rêve d'un grain de sable8</t>
+          <t>1-0-0 moins 8, Z double 0 1-0-0 moins 8, Z double 0 Yeah OK O-oK Izi Jambes croisées derrière ton bureau tu m'écoutes Décroises les jambes doucement, laisse couler quelques gouttes Tu sens que je suis dur, que j'ai fait de la route Tu crois que je suis tendre, mais tu as quelques doutes En effet je suis un thug, un drôle d'animal J'ai de quoi te siliconer si jamais tu vieillis mal Gangster et gentleman, c'est dans le mille que je tire Je fais mal mais je fais jouir si tu vois c'que j'veux dire Lâche-moi ton phone-tel, j'n'ai pas le temps de parler Qu'est-ce qu'elle est bonne elle J'ai ma suite au Hilton chez Paris, pourvu qu'elles viennent Peu importe qu'ils me haïssent, pourvu qu'elles m'aiment Prends mon phone et mon e-mail, j'ai du gel ou de la crème Je veux que tu viennes, tu veux que je revienne, ne me dis pas que tu m'aimes Notre amour est insensé, c'est juste une histoire de cul C'est malheureusement le cas, je n's'rai pas ton fiancé Cur brisé, le cul cassé, salue bien ton crustacé De la part du D.U.C, je ne fais que déguster J'ai fait l'école du crime, du vice et du X Prie pour le meilleur, sois prête pour le pire Lâche-moi ton phone-tel, j'n'ai pas le temps de parler Qu'est-ce qu'elle est bonne elle J'ai ma suite au Hilton chez Paris, pourvu qu'elles viennent Peu importe qu'ils me haïssent, pourvu qu'elles m'aiment Mes Lady font Mes soldats font Mes Lady font Ta démarche me fait peur, j'crois qu'j'vais appeler les keufs Que des big booty girls dans mon Blackberry Curve Visages pâles, africaines, quelques américaines Où tu vas en lune de miel, B20 y va en week-end Jolie gueule, joli boule, toi et wam ça s'rait cool Toujours dans les grosses caisses de ouf' je recherche quelque lourdes Si si, je suis frais, je sais, je te retourne le compliment Ton derrière a comme un drôle d'air de mon continent Lâche-moi ton phone-tel, j'n'ai pas le temps de parler Qu'est-ce qu'elle est bonne elle J'ai ma suite au Hilton chez Paris, pourvu qu'elles viennent Peu importe qu'ils me haïssent, pourvu qu'elles m'aiment Mes Lady font Mes soldats font Mes Lady font Lâche-moi ton phone-tel, j'n'ai pas le temps de parler Qu'est-ce qu'elle est bonne elle J'ai ma suite au Hilton chez Paris, pourvu qu'elles viennent Peu importe qu'ils me haïssent, pourvu qu'elles m'aiment3</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Kayna</t>
+          <t>Homme de l’ombre</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Mourir au front J'suis dans l'fourgon rouge et noir, Barracuda, Hannibal Tout est pensé, pyramidal l'être humain, le pire animal Si j'avais su, j'aurais pas venu, j'aurais mis personne au monde Maintenant sont là, masha'Allah, on combat comme Yoda pas de tombe La guerre fait partie de la paix, la mort fait partie de la vie Pas l'un sans l'autre, on choisit pas, on l'fait, rate-pi, ma maladie Femme, enfants à l'abri, si on les perd, on perd tout Le matériel, c'est 3enneni, j'préfère l'honneur qu'ma Ferrari Lit superposé en cellule, commis en haut, le boss en bas Ville de riche ou pas, frérot, j'suis calibré Marcel Sembat, au KFC avec Braza, j'commande un seau, j'attends deux go' Le bon vieux temps, starfoullah, c'que j'vais leur faire à ces flocos J'suis noir et blanc donc je suis gris dans mon esprit, fait jamais beau B2O, les généraux, on peut remplir l'Atlético J'ai des armes de l'Est au cas où, Biélorussie, Monténégro Elle voudrait qu'j'l'emmène à Venise, moi, j'prie pour la montée des eaux Tout niquer, mourir au front, ma destinée, demande à Kayna Les seuls placements dproduit qu'j'ai fait, haschich, amné', cocaïna On partira drapeau hissé, canon vissé, en bon soldat Frérot, pleure pas, au fond des océans, on se retrouvera P'tit Haïti avec Gato sous l'projecteur des hélicos Plus Bamako qu'Hollywood, d'mande à 'sito c'est quoi le mood Fils du béton où y a pas d'arbre, où rien n'est stable, où y a pas d'sable Drapeau négro jusqu'à la muerte à Bora-Bora ou à Bagdad J'veux bien partager mon grec, j'couperai pas ma canette en deux La lumière qu'tu vois dans mes yeux vient seulement d'une planète en feu Elle m'parle de ses projets, qu'elle est amoureuse, j'suis sur le i12, au bout d'ma vie Elle veut un cunni', du Louis Vui', son seul avenir, c'est l'bus de nuit Chaque odyssée finit comme ça, rien n'y peut, rien ne changera Alloco, cailloux de crack, Mondéo, Akha la BAC T'as pas d'avis, je me méfie, si tu penses pas, c'est que t'es con J'descends des rois, j'descends des lions comme Gengis Khan, Napoléon Tout niquer, mourir au front, ma destinée, demande à Kayna Les seuls placements dproduit qu'j'ai fait, haschich, amné', cocaïna On partira drapeau hissé, canon vissé, en bon soldat Frérot, pleure pas, au fond des océans, on se retrouvera Tout niquer, mourir au front, ma destinée, demande à Kayna Mourir au front en bon soldat Eh, eh, eh, eh, eh4</t>
+          <t>J'ai jamais eu la tête dans les classeur Ou dans les livres J'écrivais des rimes Au fond de la classe-euh Un avenir tout tracé Rappeur ? Nan, juste un gosse du bizz avec l'envie de tout casser Fan de Barcelone et de Malaga Cabronito réagissant aux sons de maracasse J'men bats les couilles du rap et de son concept Radio, interview en plus j'déteste faire des concerts Ce son tu peux l'appeler 'Cas Social' Si je parle peu, c'est pas que j'me la raconte, c'est que j'suis pas sociable C'est quieres meber benga como tu hermana No busco amigos, no te pregunto como te llamas ? J'rap pour l'argent, j'préfère être sincère J'ai pas vu mon avenir ni dans le rap ni dans un 3.5.7 J'fais que d'me repentir et que pecher Requin à la dérive en espérant que Dieu viendra me repêcher J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi Mon silence en dit long Si j'avais percer dans le foot ou la musique, j'me s'rai quand même lancé dans le pillon Bléssé comme après une cascade-euh J'viens du pays des castagnettes et de la castagne-euh A force d'en parler, j'pourrais corrompre tout le monde J'aime bien le seum, c'est vrai mais seulement dans tes poumons Ambitieux tout comme Marchena Toi t'es un thug ? Pshh arrête tes blagues et dégage de là Toujours la tête dans les petites affaires Mais sur la vie de ma mère J'assumerais pas de finir a Fresnes Avec le Diable, j'ai trop pactisé J'ai peur de personne mais j'ai bien peur que Dieu puisse me tromatisé Chez nous, y'a pas d'école Ça ce met à parler de coke Pister par les cops on court plus vite qu'Ashley Cole Soit disant, l'ordre est maintenu par les forces Mais j'veux pas finir au car-pla, j'aime pas le décor J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi Sa critique, j'ai l'habitude Les rageux sont tous née à la suite des contractions de leurs mères les petites putes Dépressif, j'golri et j'vis aussitôt mal Sponsorisé par Malboro, j'suis un toxicoman J'fûme tout même des roulées Jamais le sourire aux lèvres sauf quand le pillon est écoulé Dans ma tête, j'suis lunatique avec ou sans Booba Homme de l'ombre poto avec ou sans goule-ca La semaine, j'suis offishal, le week-end en claquettes J'aime pas l'odeur de l'herbe, j'aime celle des plaquettes J'te le répète ni voyou, ni philosophe Chacun sa place, j'ai vu la mienne dans un kilo de drogue Déréglé, le soleil me fait du mal J'me lève à 16 heures et me couche à 5 du mat Aussi à l'aise sur un X-max que dans un lit Tu veux savoir qui je suis pas besoin d'écrire un livre J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi</t>
         </is>
       </c>
     </row>
@@ -2923,12 +2923,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Civilisé (Version album)</t>
+          <t>Hommes de l’ombre</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>1984 XXXX Dominique Durand Daniel Boulogne collab. Hervé Jacob - Le Livre du mur peint art et technique XXXX Mister Fresh and The Supreme Rockers trad. Philippe Monnier - Tout sur la breakdance et la hip-hop culture Breakdancing Mr. Fresh and the Supreme Rickers Show You How XXXX Sidney - Hip-hop 1985 XX04 Denys Riout photogr. Dominique Gurdjian, Jean-Pierre Leroux Denys Riout - Le Livre du graffiti XX12 B.DE La Rue Faustin Linyekula - Bebson de la rue, rappeur 1987 XXXX François Dubet - La galère jeunes en survie 1990 XX10 Georges Lapassade Philippe Rousselot - Le rap ou la fureur de dire XXXX Michel Kokoreff - Le lisse et lincisif les tags dans le métro XXXX Patrick Louis Laurent Prinaz - Skinheads, Taggers, Zulus Co 1991 XX01 David Dufresne - Yo! révolution rap l'histoire, les groupes, le mouvement 1607 Yvan Tessier - Paris art libre dans la ville 1710 Farid Aïchoune - Nés en banlieue XXXX Tarek Ben Yakhlef Sylvain Doriath - Paris Tonkar 4 ans de graffiti XXXX Anne Giudicelli - La caillera XXXX Jean-Clarence Lambert Pierre Restany - Bernard Quentin. Des graffitis de 1947 aux monuments du 3e millénaire XXXX Gérard Mauger - Hippies, loubards, zoulous, jeunes marginaux de 1968 à aujourdhui 1992 XX09 Delacorta - Rap a babylone beach XXXX Sylvère-Henry Cissé Jean Callens photogr. de Mimi Brocas - Rap en Nord XXXX Adil Jazouli - Les années banlieues XXXX Frauke Hoekstra dir. trad. ? - Coming from the subway New York graffiti art, histoire et développement dun mouvement controversé XXXX Ouvrage collectif - Jean-Michel Basquiat une rétrospective catalogue d'exposition, Musée Cantini, Marseille, 4 juillet-20 septembre 1992, Musées de Marseille XXXX Richard Shusterman - Lart à létat vif, la pensée pragmatiste et lesthétique populaire XXXX Alain Vulbeau - Du tag au tag XXXX Michel Wieviorka - La France raciste 1993 XXXX Saïd Bouamama - De la galère à la citoyenneté, les jeunes, la cité, la société XXXX Fred Chéreau - Rap killer XXXX Desse SBG - Freestyle. Entretiens XXXX Martine Lani-Bayle - Du tag au graffart. Les messages de lexpression murale graffitée 1994 0109 Martha Cooper Joseph Sciorra - RIPNYC, requiescat in pace à New York city Bombages in memoriam 0609 Louis-Jean Calvet - Les voix dune ville. Introduction à la sociolinguistique urbaine XXXX Patrick Chauvet - L'éducation entre rap et tag XXXX Corinne Matheron Jacques Subileau - Jeunes, musiques et médiation XXXX Médiathèque de Nancy - Rap histoire d'une contre culture. Les origines, les influences, les différentes tendances, le devenir du mouvement XXXX Alain Vulbeau - La jeunesse et la rue 1995 XXXX Hugues Bazin - La culture hip-hop XXXX Jean-Marie Marconot dir. collab. Jean-Pierre Besombes-Vailhé, Claire Guinchat Eliana Gracia, photogr. Bruno Soyris - Le langage des murs du graffe au graffiti XXXX Jean-Pierre Saez dir. - Identités, cultures et territoires 1996 0106 Soraya Nini illustr. Farid Boudjellal - Hip-hop lexique illustré des figures de danse hip-hop XX09 José-Louis Bocquet Philippe Pierre-Adolphe - Rap ta France XX09 Didier Deroin Gilles Rof - IAM, le livre XXXX Sophie Body-Gendrot - Réagir dans les quartiers en crise. Dynamique américaine. Les empowerment zones XXXX Olivier Cachin - L'Offensive rap XXXX Alain Darre dir. - Musique et politique, les répertoires de lidentité XXXX Franck Darty François Menard - Entre lenseignement des danses hip-hop et le soutien scolaire la construction du sens des expériences dintégration de jeunes issus de limmigration maghrébine XXXX Boris Seguin Frédéric Teillard - Les Céfrans parlent aux Français, chronique de la langue des cités 1997 XX09 Hubert Herbreteau - Comprendre les cultures des jeunes du rap au journal intime XX11 Rapologie - Textes choisis et présentés par Philippe Pierre-Adolphe José-Louis Bocquet XXXX Gérôme Guibert - Les nouveaux courants musicaux simples produits des industries culturelles ? XXXX Anne-Marie Green dir. - Des jeunes et des musiques rock, rap, techno XXXX David Lepoutre - Cur de banlieue XXXX Clyde Puma - Le rap français XXXX Ouvrage collectif - Pratiques de production musicale chez les jeunes journée d'étude, 25 janvier 1997 XXXX Isabelle Galloni d'Istria dir. photogr. Frédéric Atlan, trad. Joshua Karson - Séquence d'une vie Collectif Mouv' XXXX Pierre Mayol - Les enfants de la liberté, étude sur lautonomie sociale et culturelle des jeunes en France, 1970-1996 1998 1103 Augustin Aubert, Marc-Casimiro de San Leandro Virginie Milliot - Je texte termine Anthologie de textes rap 1503 Jean Calio - Le Rap Une réponse des banlieues ? 2805 Denis-Constant Martin - Le gospel afro-américain des spirituals au rap religieux XX06 Antoine Garnier - Comprendre le rap XX11 Marie-Christine Vernay - La danse hip hop XXXX Olivier Cathus - Lâme sueur, Le funk et les musiques populaires du XXe siècle 1999 1203 Manuel Boucher préf. Hugues Bazin - Rap, expression des lascars. Significations et enjeux du rap dans la société française XX04 Vincent Martorella - Le petit inédit de MC Solaar XX04 Claudine Moïse collab. Philippe Mourrat, photogr. Anne Nordmann - Danseurs du défi rencontre avec le hip hop XX05 Médéric Gasquet-Cyrus, Guillaume Kosmicki Cécile Van Den Avenne dir. - Paroles et musiques à Marseille les voix d'une ville 0106 Alain Milon - L'étranger dans la ville du rap au graff mural XXXX Stéphane Tessier - A la recherche des enfants de la rue 2000 1002 Jean-Claude Perrier - Le rap français - Anthologie XX05 Ouvrage collectif - Les plus belles pages du rap français XX10 François Goalec - Rap ton tag XX11 Gautier Bischoff, ECR Julien Malland - Kapital, un an de graffiti à Paris XX11 Louis Genton - Le rap ou la révolte ? XXXX S.H. Fernando Jr trad. Arnaud Réveillon Jean-Philippe Henquel - The New Beats cultures, musique et attitudes hip-hop 2001 0106 Mathias Vicherat - Pour une analyse textuelle du rap français XXXX Gilles Boudinet - Pratiques tag vers la proposition d'une transe-culture XXXX Marie-Aude Murail - Tête à rap XXXX Colette Sabatier, Jorge Palacio, Hamida Namane Sandrine Collette - Savoirs et enjeux de l'interculturel nouvelles approches, nouvelles perspectives XXXX Béatrice Sberna - Une sociologie du rap à Marseille identité marginale 2002 XX08 Poschardt Ulf trad. Jean-Philippe Henquel Emmanuel Smouts - DJ culture XXXX Gilles Boudinet - Pratiques tag vers la proposition dune trance-culture XXXX Alain Vulbeau - Les inscriptions de la jeunesse 2003 XX03 Bouziane Daoudi Hadj Miliani - Beurs Melodies. Cent ans de chansons immigrées du blues berbère au rap beur 2907 Antoine Wave Garnier - Souffle au coeur de la génération hip hop, entre New York et Paris 0309 Nick Hasted trad. Géraldine Masson - Eminem la face obscure The dark story of Eminem 1611 Mathieu Kendrick Lionel Olives - La France d'en bas le graffiti dans le Sud XX12 Manuel Boucher Alain Vulbeau dir. - Émergences culturelles et jeunesse populaire. Turbulences ou médiations ? XXXX Christian Béthune - Le rap une esthétique hors-la-loi 2004 XX03 Abd al Malik - Qu'Allah bénisse la France ! XX03 Jean-Pierre Moulin - Une histoire de la chanson française des troubadours au rap XX05 Christian Béthune - Pour une esthétique du rap XX05 Anthony Bozza trad. Benjamin Julien Guérif - Eminem blanc comme le rap Whatever you say I am 1508 Claudine Moïse préf Jean-Paul Montanari, textes de Najib Guerfi Philippe Mourat, entretiens avec Kader Attou, Mohamed Belarbi, Hamid Benhami... - Danse hip-hop respect ! XXXX MPG Art - La rue aux artistes 2005 XX02 Pierre Evil - Gangsta rap XX02 Sylvia Faure Marie Carmen Garcia - Culture hip hop, jeunes des cités et politiques publiques XX03 Bruno Blum - Le ragga Reggae, rap, DJ XX04 Abdellali Hajjat - Immigration postcoloniale et mémoire 1305 Marie-Madeleine Bertucci Daniel Delas dir. - Français des banlieues français populaire ? 1512 Pierre-Antoine Marti - Rap 2 France les mots d'une rupture identitaire 2006 2301 Doc Gyneco - Un homme nature XX01 Nicholas Ganz trad. Marie Tillol - Planète graffiti version filles XX04 Franz Miceli - Les légendes du rap 2205 Joey Starr - Mauvaise réputation 2107 Antoine Wave Garnier - Les Suprêmes la révolution vibracutic 2308 Ace Atkins trad. Nathalie Mège - Dirty South Rap Dirty South XX09 Olivier Cachin préf. Joey Starr - Les 100 albums essentiels du Rap, Hip-Hop l'authentique histoire en 101 disques essentiels 0510 Nik Cohn trad. Bernard Hoepffner, collab. Catherine Goffaux - Triksta un écrivain blanc chez les rappeurs de la Nouvelle-Orléans Triksta 1410 Jean-Éric Perrin - Les 50 superstars du rap 1910 Morgan Jouvenet - Rap, techno, électro Le musicien entre travail artistique et critique sociale XXXX Jeff Chang trad. Héloïse Esquié - Can't Stop Won't Stop A History of the Hip-Hop Generation traduction de la 1ère édition, New York St. Martin's Press, 2005 2007 XX01 Jean-Paul Levet - Talkin' that talk le langage du blues, du jazz et du rap XX02 Doc Gyneco - Les grands esprits se rencontrent 0103 Joy Sorman - Du bruit XX05 Thomas Blondeau Fred Hanak préf. Olivier Cachin - Combat Rap 25 ans de hip-hop Entretiens 0106 Jean-Marie Seca, dir. - 2007, Musiques populaires underground et représentations du politique 2106 Olivier Cachin illustr. Alberto Vejarano - Le dictionnaire du rap, De A jusqu'à Z, Le grand remix du hip hop 0410 Alain Rey Disiz la Peste - Lexik des Cités 0810 Julie Magne - Diams La revanche du RAP 2510 Jerry Heller trad. Olivier Cachin, illustr. Gabriel Gay, collab. Gil Reavill - Gangsta rap attitude les impitoyables mémoires d'un Juif blanc devenu le plus grand manager du rap noir de Californie 2710 David O'Neill - Explicit toute la culture rap ou presque 2211 Sébastien Farran - Suprême NTM, l'intégrale XX11 Ouvrage collectif - De la révolte à la conscience 0112 Anthony Pecqueux - Voix du rap Essai de sociologie de laction musicale XXXX Didier Stiers - Flashback histoires de la danse hip hop en Belgique 2008 XX01 Sandy Lakdar - Looking for gangstaz carnets de route d'une Parisienne dans les ghettos 2802 Rémi Pépin - Hip-hop, R'n'B 2802 Edgar Sekloka - Coffee 1604 Matthieu Grimpret - Traité à l'usage de mes potes de droite qui ont du mal à kiffer la France de Diam's XX04 Olivier Cachin préf. Diams - Rap stories 2905 Shéyen Gamboa préf. Joeystarr, dir. Olivier Cachin - Hip hop l'histoire de la danse 1806 Isabelle Marc Martínez - Le rap français esthétique et poétique des textes, 1990-1995 1906 William T. Lhamon Jr. trad. Sophie Renaut, préf. Jacques Rancière - Peaux blanches, masques noirs performance du blackface, de Jim Crow à Michael Jackson Raising Cain blackface performance from Jim Crow to hip-hop 1708 Cyril Vettorato - Un monde où l'on clashe la joute verbale d'insultes dans la culture de rue 1809 Chuck Weiner trad. Karinne Michel - Eminem, la face cachée de Slim Shady traduction de Eminem talking Marshall Mathers in His Own Words XX09 Thomas Blondeau Fred Hanak - Combat Rap II 20 Ans de hip-hop en France Entretiens 0110 Christophe Genin - Miss.Tic, femme de l'être 0910 Loïc Lafargue de Grangeneuve - Politique du hip-hop Action publique et cultures urbaines 2310 Julien Barret - Le Rap ou l'artisanat de la rime XX10 Rost - Enfant des lieux bannis XXXX Ronin Ro trad. Nicolas Donato - Dr Dre 2009 2603 Oxmo Puccino - Mines de cristal XX04 Randall Sullivan trad. Benjamin Julien Guérif - L.A.byrinthe enquête sur les meurtres de 2Pac Shakur et Notorious B.I.G., sur l'implication de Suge Knight, le patron de Death Row Records, et sur les origines d'un des plus gros scandales a avoir éclaboussé la police de Los Angeles 1906 Anthony Pecqueux - Le Rap idées reçues sur le rap 3108 Serigne M'Baye Gueye Disiz La Peste - Les derniers de la rue Ponty 0309 Bruno Blum - Le rap est né en Jamaïque XX10 Stéphanie Molinero - Les publics du rap enquête sociologique XX12 Raphael Richard préf. Matt Black - L'histoire des DJ ... et de leur influence sur la musique XXXX Jean-Claude Perrier - Le rap français dix ans après anthologie 2010 1802 Abd al Malik préf. Juliette Gréco - La guerre des banlieues n'aura pas lieu 2202 Adeline Lajoinie - Rap stars les nouvelles icônes XX03 Steve Gadet préf. Gilbert Elbaz - La fusion de la culture hip-hop et du mouvement rastafari XX03 Sandy Lakdar - De Compton à Paris keep it Gangsta 0104 Akhenaton préf. Éric Mandel - La face B XX04 Denis-Constant Martin dir. - Quand le rap sort de sa bulle sociologie politique d'un succès populaire XX06 Sté Strausz Antoine Dole - Fly girls - Histoires du Hiphop féminin en France XX08 Steve Gadet - La culture hip-hop dans tous ses états XX10 Jean-Philippe Petesch dir. - L'intertextualité lyrique Recyclages littéraires et cinématographiques opérés par la chanson XX11 Claude Abron - Graffiti XX12 Banksy - Guerre et spray Wall and piece 2011 XX02 Florent Le Reste - Homeboy du quartier au hip-hop 2409 Ambre Viaud - Street art un musée à ciel ouvert 1310 Bill Adler Dan Charnas dir. Cey Adams, préf. Rick Rubin, Russel Simmons, Lyor Cohen, Kelefa Sanneh , trad. Olivier Cachin - Def Jam Recordings la saga du label rap mythique XX11 Edgar Sekloka - Adulte à présent XX12 Isabelle Calabre Théâtre de Suresnes - 1993-2012, Suresnes cités danse les 20 ans du festival XXXX Kader Attou, Mic Guillaumes, Georgiana Wierre-Gore... - Quel corps en jeu en danse hip hop ? actes de la table ronde du 22 mars 2011, organisée par le Centre chorégraphique national de La Rochelle 2012 1602 Abd al Malik préf. Mazarine Pingeot - Le Dernier Français 2002 Jean-Pierre Labarthe Charlie R. Braxton - Gangsta Gumbo, Une anthologie du rap sudiste US via Houston, Memphis, Atlanta, Miami, Jackson La Nouvelle-Orléans 0803 Disiz - René 1204 Thomas Gaetner - Hip hop le rap français des années 90 XX05 Marc Boudet Jay One Ramier photogr. Yoshi Omori, trad. Tristan Stansbury Anthony Ghilas - Mouvement du terrain vague au dance floor, 1984-1989 1406 Sylvain Bertot - Rap, Hip-hop Trente années en 150 albums de Kurtis Blow à Odd Future 0510 Kery James - 92-2012 20 ans d'écriture 1810 Médine et Pascal Boniface - Dont' Panik 2510 Valéry Debov préf. Christophe Rubin - Diko des rimes en verlan dans le rap français 2610 Paulin Arnaud Tilong Longla - Analyse sémio-pragmatique du rap politique camerounais 1810 Grand Corps Malade - Patients 0811 Roda N'no Alice Aterianus-Owanga - Akamayong-Nkemeyong Recueil de textes de rap en langue fang nzaman 2211 Karim Hammou préf. Howard Becker - Une histoire du rap en France 2013 1701 Jean Gab1 - Sur la tombe de ma mère 2102 Mathias Cardet dir. Florian Sanchez - L'effroyable imposture du rap 0103 Aline Tauzin - Littérature orale de Mauritanie de la fable au rap 2103 Passi Steeve Balende - Explication de textes 2103 Simon Reynolds trad. Charles Recoursé - Bring the noise 25 ans de rock et de hiphop 2603 Renaud Epstein - La Rénovation urbaine, Démolition-reconstruction de l'État XX06 Philippe Robert - Great black music Un parcours en 110 albums essentiels. Funk, soul, rap, jazz, reggae 1907 Mathieu Baleria - Je dérape autour du rap et ma plume s'envole XX09 Julien Valnet préf. Olivier Cachin, photogr. Jean-Pierre Maéro, couv. AKA - MARS histoires et légendes du hip-hop marseillais 1011 Étienne Kervella photogr. Aqua Toffana - Certifiées hip hop 55 portraits hip hop en région Pays de la Loire 1211 La Fouine, Karim Madani Christian Séranot - Drôle de parcours 1311 Sexion d'Assaut - Le Succès d'une amitié XX11 Christophe Génin - Le street art au tournant, reconnaissance dun genre. Les impressions nouvelles XX12 Kheops Olivier Cachin - Le funk et moi 2014 0101 Ludovic Villard - Notes prises dans le désert 1502 David Bérillon Thomas Ramires - Danse hip-hop 2003 Oxmo Puccino - 140 piles 0304 Kheira Belhadj-Ziane préf. Antigone Mouchtouris - Le rap underground un mythe actuel de la culture populaire 1304 Francis Métivier - Rap'n philo 905 Soprano - Mélancolique anonyme 0106 Jacques Denis photogr. Pierre Mérimée - Intifada rap 2206 Sylvain Bertot - Rap Indépendant, La vague hip-hop des années 19902000 en 30 scènes et 100 albums 0209 Mark Breddan - La face voilée du rap 0809 Jean-Philippe Denis - Introduction au hip-hop management 0810 Vincent Piolet préf. Dee Nasty - Regarde ta jeunesse dans les yeux - Naissance du hip hop français 1980-1990 0611 Laurent Bouneau - Le rap est la musique préférée des français 2015 2801 Alexandre Chirat - Booba, Poésie, musique et philosophie XX01 Michael Eric Dyson Sohail Daulatzai - Born to use mics Une lecture d'Illmatic de Nas 1604 Mehdi Maizi - Rap français Une exploration en 100 albums 1305 Élodie Bouffard dir. - Hip Hop, du Bronx aux rues arabes catalogue d'exposition, Paris, Institut du monde arabe, 28 avril-26 juillet 2015 1807 Fatou Kande Senghor - Wala Bok, une histoire orale du hip hop au Sénégal 1410 Maître Gims - Vise le soleil XXXX François Gautret Natacha Bernardin - Abcdaire de la danse hip-hop 2016 XX02 Freddy Marcin - Ouragan Katrina à la croisée des genres musicaux 2408 Gaël Faye - Petit Pays 0110 Rodolphe Sako Gagetta préf. Akhenaton - Quoi qu'il arrive 1010 Sylvain Freyburger Christophe Schmitt - Egotrip collectif. 25 ans de rap à Mulhouse 2010 Maxime Delcourt - 2pac, He against the world 2010 Bettina Ghio - Sans fautes de frappe, rap et littérature 2010 Oxmo Puccino Pierre-Luc Jamain - Au fil du chant 2710 Thomas Blondeau - Hip Hop, une histoire française 0411 Félix Jousserand - Rhapsodes Anthologie du rap français 0411 David Foster Wallace Mark Costello trad. Diniz Galhos - Rappeurs de sens Signifying Rappers 0811 Pat Thomas préf. Stanley Neslon, trad. France Nancy - Listen Whitey ! Sons images du Black Power 1965-1975 Listen, Whitey! The Sounds Of Black Power 1967 1974 25 11 Frank Ocean - Blonde Magazine Boys Don't Cry 3011 Shea Serrano trad. Lelo Jimmy Batista - Le Rap Book traduction de The Rap Year Book The Most Important Rap Song from Every Year Since 1979, Discussed, Debated, and Deconstructed 1512 Thierry Grone - Dicograff, Le monde du graffiti de A à Z 2017 0902 Frédéric Candian - Rap lyrics 2006-2016 Dix ans d'écriture et de musique 1102 Karim Madani - Jewish gangsta aux origines du mouvement Goon 1603 Pierre-Jean Cléraux - New York state of mind une anthologie du rap new-yorkais XX04 Jean-Marie Marconot - Le graffe, le rap et le slam société et culture... XX04 Ludovic Villard - Je demeure paisible au travers de leurs gorges 1805 Sylvain Bertot - Mixtapes un format musical au coeur du rap 0606 Bursty 2 Brazza - L'odyssée de la mix-tape en France 1006 Adam King - 2Pac Shakur, une légende du rap 2906 Trip Lee préf. John Piper, trad. Anne Worms - Lève-toi, vis ! Rise Get Up and Live in God's Great Story 0607 Adrien Grimmeau Benoît Quittelier dir. - Yo Brusssels hip-hop generations... catalogue d'exposition, Bruxelles, Bozar, Palais des beaux-arts de Bruxelles, 28 juin-17 septembre 2017 XX08 Alice Aterianus-Owanga - Le rap, ça vient d'ici ! Musiques, pouvoir et identités dans le Gabon contemporain 1209 Ouvrage collectif - Le rap français en 50 punchlines 0110 Valéry Debov préf. Christophe Rubin - Rimes de rap français Abréviations, sigles et acronymes 0510 Aurore Vincenti - Les mots du bitume De Rabelais aux rappeurs, petit dictionnaire de la langue de la rue 2010 David Delaplace préf. Dan de Ticaret - Le visage du rap 0211 Olivier Cachin - Naissance d'une nation hip hop, 50 ans de rap made in USA 0811 Hamé Ekoué La Rumeur - Il y a toujours un lendemain XX12 Wild Sketch Alkpote - Les Incroyables Aventures de John Hash 0112 Jean-Pierre Maéro - L'Odyssée Martienne 2018 0401 Fabien Brugière - Les voix de l'indépendance Carrières et prises de position artistiques aux marges de l'industrie du rap 1801 Brice Miclet - SAMPLE! Aux origines du son hip-hop 3003 Bursty 2 Brazza - Night Day, la grande époque du rap français indépendant 1605 Antoine Laurent - Les ovnis du rap XX05 Anonyme - Psaumes - Un sépulcre et toujours un nom 3105 Bursty 2 Brazza - L'odyssée de la mix-tape en France Vol. 2 2511 Singemongol - Le Pilote Chapitre 1 XX12 Ludovic Villard - La lune boit tout ce qu'elle peut mais laisse de généreux pourboires 2019 1203 Saf - La philosophie du rap 2208 Raphaël Malkin - Le Rugissant 1510 Rockin' Squat - Chronique d'une formule annoncée 2310 L'Abcdr du son - L'obsession rap 3010 Kamal Haussmann - Time Bomb 3110 Snoop Dogg - Ça fume en cuisine ! trad. Jeanne Robert Kevin Thevenet 2111 Sylvain Bertot - Ladies First - Une anthologie du rap au féminin 2811 Joey Starr Kool Shen - Suprême NTM XX12 David Delaplace - Les Offs XX12 Ludovic Villard - Il est cinq heures dans un monde civilisé, Pourquoi je lis Septentrion de Louis Calaferte XXXX Yung Lean - War Magazine 2020 2507 Karim Hammou Emmanuelle Carinos dir. - Perspectives esthétiques sur les musiques hip-hop 1709 Nicolas Rogès - Kendrick Lamar, De Compton à la Maison-Blanche 2011 Maxime Delcourt - The Neptunes Timbaland - Les beatmakers qui ont révolutionné la pop music fin d'année Livre de Manu Key Mafia K'1 Fry Date inconnue Singemongol - Le Pilote Chapitre 22</t>
+          <t>J'ai jamais eu la tête dans les classeur Ou dans les livres J'écrivais des rimes Au fond de la classe-euh Un avenir tout tracé Rappeur ? Nan, juste un gosse du bizz avec l'envie de tout casser Fan de Barcelone et de Malaga Cabronito réagissant aux sons de maracasse J'men bats les couilles du rap et de son concept Radio, interview en plus j'déteste faire des concerts Ce son tu peux l'appeler 'Cas Social' Si je parle peu, c'est pas que j'me la raconte, c'est que j'suis pas sociable C'est quieres meber benga como tu hermana No busco amigos, no te pregunto como te llamas ? J'rap pour l'argent, j'préfère être sincère J'ai pas vu mon avenir ni dans le rap ni dans un 3.5.7 J'fais que d'me repentir et que pecher Requin à la dérive en espérant que Dieu viendra me repêcher J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi Mon silence en dit long Si j'avais percer dans le foot ou la musique, j'me s'rai quand même lancé dans le pillon Bléssé comme après une cascade-euh J'viens du pays des castagnettes et de la castagne-euh A force d'en parler, j'pourrais corrompre tout le monde J'aime bien le seum, c'est vrai mais seulement dans tes poumons Ambitieux tout comme Marchena Toi t'es un thug ? Pshh arrête tes blagues et dégage de là Toujours la tête dans les petites affaires Mais sur la vie de ma mère J'assumerais pas de finir a Fresnes Avec le Diable, j'ai trop pactisé J'ai peur de personne mais j'ai bien peur que Dieu puisse me tromatisé Chez nous, y'a pas d'école Ça ce met à parler de coke Pister par les cops on court plus vite qu'Ashley Cole Soit disant, l'ordre est maintenu par les forces Mais j'veux pas finir au car-pla, j'aime pas le décor J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi Sa critique, j'ai l'habitude Les rageux sont tous née à la suite des contractions de leurs mères les petites putes Dépressif, j'golri et j'vis aussitôt mal Sponsorisé par Malboro, j'suis un toxicoman J'fûme tout même des roulées Jamais le sourire aux lèvres sauf quand le pillon est écoulé Dans ma tête, j'suis lunatique avec ou sans Booba Homme de l'ombre poto avec ou sans goule-ca La semaine, j'suis offishal, le week-end en claquettes J'aime pas l'odeur de l'herbe, j'aime celle des plaquettes J'te le répète ni voyou, ni philosophe Chacun sa place, j'ai vu la mienne dans un kilo de drogue Déréglé, le soleil me fait du mal J'me lève à 16 heures et me couche à 5 du mat Aussi à l'aise sur un X-max que dans un lit Tu veux savoir qui je suis pas besoin d'écrire un livre J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi</t>
         </is>
       </c>
     </row>
@@ -2940,12 +2940,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>Gun In Hand</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>The Punisher Chanchee Pas de Grammys, pas d'invit', sur l'bateau pirate mort ou vif D.U.C, shit au large de Pointe-à-Pitre, posé avec une MILF T'as pas d'histoire, t'as pas d'vécu, t'es trop gâté comme fils unique J'monte au mitard, du shit dans l'cul, fuck tes Victoires de la Musique Ça parle comme des conquistadors, de frappe qui s'tord et de zipette T'as pas d'couilles, t'as pas d'cerveau, pour toi, c'est mort ni d'queue ni d'tête Elle m'a liké, je l'ai souillée, elle m'a haï, ell a fouillé Je l'ai nextée dans la foulé, fais pas l'jnouné, j'vais t'agenouiller Sicario, sept carios, Kopp Antonio Banderas J'ai pas fini la school mais j'ai fini San Andreas San Andreas, San Andreas, San Andreas, San Andreas Elle m'a dit T'aimes mes boucles d'oreille ? J'lui dis J'aime rien, j'suis Parisien J'irai aux Restos du Cur quand 's auront deux étoiles Michelin J'respecte pas les nouveaux, ni les anciens, je suis l'ancêtre Sauvage comme l'ancienne RDA, la route pavée de traîtres J'me tue quand j'ai besoin de naître, j'ai multiplié les naissances Maintenant, on est trop, que des Fidel Castro Négro, je sais qu't'as chaud, j'ai eu des échos Négro, je sais qu't'as chaud, c'pas moi qui l'dit, c'est le fusil d'assaut J'préviens pas quand j'arrive, on met pas l'cligno' quand on double J'connais qu'Yalla, en avant toute, frérot, on fait rien quand on doute J'travaille sur un projet de paix, actuellement, j'suis en plein d'dans J'dois d'abord calculer le nombre de fils de putes par habitant Et maintenant, si y a qudes fils de putes, on fait comment ? J'ai peur de n'jamais y arriver, maman, les chiffres sont si impressionnants Victime de leur histoire, pur produit d'mon environnement Y a qu'sur l'bateau qu'c'est un pour tous, personne gagne en papillonnant Génération Ken le Survivant, berline allemande Rentré par la p'tite, mis à l'amende, j'suis sorti par la grande6</t>
+          <t>I find myself, wandering off the road with a gun in my hand Trynna' stay cool and be the bigger man Cause I dont think niggas nowadays understand That if you tempt me Ill put you under the sand Right away hey, right away oh, right away hey Ill put you under the sand Right away hey, right away oh, right away hey Ill put you under the sand Moi j'rappe avec le cur écoute ce couplet Si t'es criblé de douilles c'est que tu chantes comme un poulet Que tu rappes avec le boule T'approches pas de mon panier, plus de 3 secondes dans la raquette Et 92 bastos boum se dirige vers ta casquette La rue te fascine, la rue te prend, la rue te calcine Ma racine c'est l'argent facile Mon rap c'est une montée d'adrénaline, une mauvaise blague sur ta mère Pas besoin de la brigade canine, pour sentir que tu pues la merde MC t'as trop traîné ton cul sur les bancs de la fac Je vais faire un manteau de fourrure avec les poils de ta chatte Aahh ! D'un patron j'aime pas recevoir d'ordres Achète mon album à tes gosses ou j'leur vendrai de la drogue Elle est bonne elle sait chanter O.K. j'mise dessus Si j'perds un tête-à-tête j'te tire dessus Minimum 20 centimètres Marianne en serait ravie Tu veux surfer sur les ondes, mon tsunami te fera changer d'avis I find myself, wandering off the road with a gun in my hand Trynna' stay cool and be the bigger man Cause I dont think niggas nowadays understand That if you tempt me Ill put you under the sand Right away hey, right away oh, right away hey Ill put you under the sand Right away hey, right away oh, right away hey Ill put you under the sand Ça vient du Sénégal tu l'as bien compris Légal ou illégal on fait du rap des sapes et de la son-pri Suce ton succès tient à peu de choses C'est le nouveau B2O c'est trop frais les fans, frisent l'overdose Dans le bain depuis Colors, Boyz in the Hood Mon son te colle aux fesses biatch te recherche comme Sarah Connors Mon équipe te fait péter les plombs comme Disiz 92 izi c'est pour mes négros, mes bitches Le biz donne envie de vomir voilà ce que j'éprouve Des mythos suceurs de bite voilà ce que j'y trouve Raides dingues de mon flow il sont trop dèg' J'en-j'en-j'en-j'entends jurer des mecs que sur la Mecque on est dead Puisque les négros veulent ma peau, j'avance écorché vif Paraît que j'prends d'la CC, paraît qu'j'suis en prison, paraît qu'j'suis Juif Tu peux me croiser chez Maxime, tu peux me croiser au grec Mon cerveau j'le vaccine un joint d'seum collé au bec I find myself, wandering off the road with a gun in my hand Trynna' stay cool and be the bigger man Cause I dont think niggas nowadays understand That if you tempt me Ill put you under the sand Right away hey, right away oh, right away hey Ill put you under the sand Right away hey, right away oh, right away hey Ill put you under the sand Yeah, Konvict ! I'm on a whole another level, a whole another side A whole bunch of niggas that's down to get wild There is a whole lot of rebels, a whole forty cal The one that hesitate to put a hole in your mouth Cause if you got it best believe, I'm gonna get it I'm not the type to commit it and then go admit it You find yourself on a shelf somewhere through the city And tighten up with my belt two slugs to your fate I tried to warn these niggas but these fellas too slow It seems like motherfuckers they ain't never gon go Wont bother nobody unless you step on my toes And we don't let it go in case, your cash say no now J'passe sous les échelles, un flingue caché dans le Bescherelle Moi j'en ai rien foutre j'suis, ce genre de négro Que de la bonne came, on sait flairer l'oseille Ouais nous on roule en grosse gam' Et toi tu prends le métro Find yourself under the sand, ohoh Find yourself under the sand Akon and Booba, yeah I'm not that man, you will find yourself under the sand Oh oh oh oh, under the sand4</t>
         </is>
       </c>
     </row>
@@ -2957,12 +2957,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Garcimore</t>
+          <t>Dolce Vita</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>B2o 92izi Ok ok, oh-ok, eh, eh, eh, eh Tous les jours je taffe dur, tous les jours je galère Tous les jours tu demandes combien il y a de zéros sur mon salaire Tous les jours je taffe dur, tous les jours je galère Tous les jours tu demandes combien il y a de zéros sur mon salaire Avant d'rentrer dans l'rap j'avais déjà plein d'ennemis Tous ces pédés m'ont regardé à la Star Academy J'suis hami j'effleure le ciel tu touches le RMI J'fuck la vie je vis la nuit j'fais plus de bruit qu'un deux et demi Tu m'as vu à la télé mais je n'suis pas ton ami Tu ferais mieux de reculer si tu veux mon avis À l'heure où je te parle j'suis peut-être à Miami Accompagné d'un 90 D à bord d'ma Ferrari J'peux finir au tarmi comme le célèbre Cheb Mami Sans dinde ni salami la la la chatte à ta mamie Je viens de là où tu ne peux pas aller Sur moi tu n'as aucun dossier tu n'peux pas parler chut Je viens de Paris 92 capitale Des dealeurs de came Hauts-de-Seine j'habite àl Rafale de bastos dans les amygdales J'suis là pour la gagne, ceci n'est pas un match amical C'est un pour la monnaie, deux pour la monnaie Trois pour la monnaie, quatre pour la monnaie Le rap est dead MC tu fumes trop d'herbe T'as pas de crédit sauf à la banque, t'es qu'une grosse merde Le son est lourd, qui sont les loups ? C'est nous, 92i crew, prédestinés à rien du tout Illicite c'est mon dada une pour les mecs à Guadada 972 HLM3 les mecs au hebs à Bois d'a-d'ar J'te souhaite la mort sans aucun souci, joue pas les gros bras Je suis Garcimore avec un uzi abracadabra Un faut mouv' le mouv te croque pazalaza pour s'azamuser De boulbi vient le Tsunami, ici. ressens-tu l'onde de choc ? Le son vient de la Benz le tien vient de la benne Couleur ébène plus le combat est dur plus la victoire est belle Ne joue pas avec la rue tu risques d'en payer le prix Combien sont morts ou handicapés ne s'en sont jamais remis6</t>
+          <t>Ne m'appelle pas, ne m'appelle pas, nan Mucho La Dolce, la Dolce la Dolce, la Dolce Sany San Beats M'appelle pas, j'suis pas là j'suis pas là, j'aime rider la noche rider la noche J'fais brûler la salade brûler la salade, y a personne à côté personne à côté Flingue dans le caleçon dans le caleçon, j'ai pas mes ablutions non, j'ai pas Le bruit du moteur brr, brr fait la conversation conversation Un peu plus près des étoiles, je vois des aigles je vois des aigles Ne confonds pas sang de la veine de la veine et sang des règles le sang des règles Tu adhères ou tu niques ta mère ta mère, ce sont les règles À ses yeux, j'serai toujours le plus fort toujours le plus fort, ce sont des faibles ce sont des faibles Billets jaunes, verts, violets suffisent jamais Le genou sur la ge-gor, j'avais pas les mots Pourquoi tu hausses le ton ? T'as dû oublier à qui tu parlais à qui tu parlais Un négro de plus est un négro de trop On veut la dolce, la dolce vita dolce vita Ô kichta, mea culpa, ne me quitte pas La dolce, la dolce vita dolce vita Y a toutes les couleurs dans le cortège, c'est pas pour autant un arc-en-ciel Enlève tout, j'm'en fous de la dentelle j'm'en fous, balance ton misogyne à Angèle Covid-19 est arrivé, j'n'ai plus que ma feuille et mon crayon Je n'vois pas le bout du tunnel, j'en aperçois quelques rayons L'humain est tellement généreux tellement et à la fois tellement mauvais tellement J'espère que je les saurai heureux j'espère deux secondes avant de crever On ne pourra pas se libérer non, sang d'crâne humain sur le béret Ce soir, je n'vais pas très bien, je mélange du vert et du doré On va régler tout ça On a connu tout ça J'suis pas venu pour ça Regarde, on est tous là Billets jaunes, verts, violets suffisent jamais Le genou sur la ge-gor, j'avais pas les mots j'avais pas les mots Pourquoi tu hausses le ton ? T'as dû oublier à qui tu parlais Un négro de plus est un négro de trop On veut la dolce, la dolce vita dolce vita Ô kichta, mea culpa, ne me quitte pas La dolce, la dolce vita dolce vita M'appelle pas, j'suis pas là, j'aime rider la noche5</t>
         </is>
       </c>
     </row>
@@ -2974,12 +2974,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Les bidons veulent le guidon</t>
+          <t>6G</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>001. Rocé - On s'habitue 002. Scred Connexion - Scred Connexion Un nouveau nom dans ta collection 003. Oxmo Puccino - L'Amour est mort 004. OFX - Je n'ose y croire 005. Ideal J - Le Combat Continue 2 006. Beat de Boul - Dans la Sono 007. Suprême NTM - On est encore là 008. East - Straight From The Underground 009. MC Solaar - Samedi Soir Sur un Banc 010. IAM - Un bon son brut pour les truands 011. Zoxea - Rap, musique que j'aime 012. Sheryo - Ghetto-Trip 013. Triptik - Panam' 014. Vicelow feat. Akhenaton, Sako Rachel Claudio - Nouvel Automne remix 015. Hocus Pocus - Une Zone de Tensions 016. Doc Gyneco - L'Homme qui ne valait pas dix centimes 017. Fabe - Comme un Rat dans l'Coin 018. X-Men - Retour aux Pyramides 019. Kohndo - Un Idéal 020. Explicit Samouraï - X. Plicit Sentence 021. Akhenaton - Entrer dans la Légende 022. N.A.P. - Le Ghetto Pleure 023. Diam's - Premier Mandat 024. Passi feat. Akhenaton - Le Monde est à Moi 025. Mo'vez Lang feat. Zoxea - On vient de loin 026. Chiens de Paille - Comme un Aimant 027. Nakk feat. Les 10', Wallen - On se reverra là-haut 028. Lunatic - Introduction 029. Hocus Pocus - Seconde Formule 030. Koma - Et si chacun 031. Bambi Cruz - Ouvre les yeux 032. Haroun - La Routine 033. Mokless - Ca tourne pas rond 034. Morad - Un Point c'est Tout 035. Koma - Loin des Rêves 036. Fabe - Classique 037. Passi feat. Les Choeurs de l'Armée Rouge - Emeutes 038. Saïan Supa Crew - La Preuve par 3 039. MC Solaar - La Belle et le Bad Boy 040. La Cliqua - Tué dans la Rue 041. Ärsenik - L'Enfer remonte à la surface 042. Les Sages Poètes de la Rue - Bons Baisers du Poste 043. Lunatic - Le Crime Paie 044. IAM - Demain, c'est loin 045. Suprême NTM - Laisse pas traîner ton fils 046. X-Men - Pendez-les ! Bandez-les ! Descendez-les ! 047. Sir Doum's - Je lutte en rimant 048. Scred Connexion - Partis de Rien 049. Ideal J - Hardcore 050. Oxmo Puccino - L'Enfant Seul 051. Doc Gyneco - Dans ma Rue 052. Assassin - La Formule Secrète 053. Busta Flex - J'fais mon job à plein temps 054. Rocé - Plus d'Feeling 055. Too Leust - Le Roseau 056. Explicit Samouraï - Le Roseau 057. MC Solaar - Nouveau Western 058. Fabe - Excusez-nous 059. Fabe - Des Durs, des Boss des Dombis ! 060. Fabe - L'Impertinent 061. Fabe - Le Rap et Moi 062. Fabe - L'Emmerdeur Public n1 063. Rohff - Génération Sacrifiée 064. La Rumeur - L'oiseau fait sa cage 065. Ministère A.M.E.R - Sacrifice de Poulets 066. Ideal J - Si je rappe ici 067. Hocus Pocus - 7.fa.7 068. Saïan Supa Crew - KLR 069. Oxmo Puccino - LAmour est mort 070. Suprême NTM - Outro 071. Dicidens feat. Lunatic - De Larmes et de Sang 072. MC Solaar - Solaar Pleure II 073. OFX - France 074. Time Bomb - Explose 075. Time Bomb - Les Bidons veulent le Guidon 076. IAM - Petit Frère 077. Fonky Family - Art de Rue 078. Lunatic - Le Son qui met la Pression 079. Disiz la Peste - Jpète les plombs 080. ShurikN - Samourai 081. MC Solaar - Obsolète 082. Saïan Supa Crew - 14.02.2002 083. Les Sages Poètes de la Rue - Quest-ce qui fait marcher les Sages ? 084. MC Jean Gab1 - Jtemmerde 085. Mafia K1 Fry - Pour Ceux 086. Akhenaton - Jai pas de face 087. Oxmo Puccino - Mama Lova 088. Booba feat. Nessbeal - Sans Ratures 089. MC Solaar - Arkansas 090. Hocus Pocus - Panique au Saloon 091. Fabe - Aujourd'hui 092. Saïan Supa Crew - J'adore ça 093. Suprême NTM - Seine-Saint-Denis Style 094. Rohff - 94 095. Shurik'N feat. Akhenaton - Manifeste 096. Mo'vez Lang feat. Mala - C'est ça gars 097. Ministère A.M.E.R. - Plus vite que les balles 098. Ideal J feat. Demon One Rohff - L'Amour 099. La Clinique - On avance 100. Rocé - Pour l'Horizon 101. 11'30 contre les Lois Racistes 102. Booba - Repose en Paix 103. Oxmo Puccino - L'Amour est mort, mets... 104. KDD - Qui tu es ? 105. X-Men - J'attaque du Mike 106. IAM - Pharaon Reviens 107. Ärsenik - Boxe avec les mots 108. Expression Direkt - Dealer Pour Survivre 109. Passi - Les Flammes du Mal 110. Chiens de Paille - Maudits soient les yeux fermés 111. Suprême NTM - Le Monde de Demain 112. Oxmo Puccino feat. Booba - Pucc' Fiction 113. 113 - Les Princes de la Ville 114. Doc Gyneco - Nirvana 115. Akhenaton - Mon Texte, le Savon 116. Fabe - La Tête Haute Tenue 117. Saïan Supa Crew - G-Padpo 118. MC Solaar - Caroline 119. Casey - Dans nos Histoires 120. Keny Arkana - Victoria16</t>
+          <t>Méfie-toi de celui qui veut l'os Même de tes frères, demande à Pogba Sous champi' comme Mario Bros Fuck la princesse, j'la sauve pas J'la sauve pas J'te parle de dictature, tu m'parles de quinquennat Si j'dis qu'la mer est agitée, c'est qu'minimum c'est Katrina La condition sine qua non, drapeau pirate comme à Tampa Dans leurs cerveaux, y a d'la litière pour chat, c'est pour que ça sente pas Y a pas mort d'homme, 6G, nouvel album, y a pire comme attentat J'suis d'l'ancien monde, elle prend pas l'Ethereum, ma strippeuse d'Atlanta Si j'pense trop, vont m'enfermer, frérot, les cerveaux sont pris d'assaut Le canon est long, cylindré comme une tour des Pablo Picasso Qu'est-ce que t'attends ? Nique-lui sa mère la tchoin, c'est bon, vas-y, t'as l'go Dites à Pékin qu'on a de gros pépins, qu'on vient sans Hidalgo C'est pas la bohème qui m'inspire, gamin, c'est feu Arthur Rimbaud J'admire la fin, verre de lys plein dans un penthouse au Murano Ils te conseillent ce qu'on leur déconseille, la vie, lui tourne pas l'dos J'ai qu'une équipe, toujours la même, on est l'Brésil de Rivaldo J'veux pas crever sans m'battre, me plier en quatre Appelle-moi sur l'appli, on va parler en Jap' Regarde-moi tous ces zouaves, ils vont finir en G.A.V Finir en G.A.V On va creuser des trous pour boucher le gap Pour boucher le gap C'est pas toi qui décides Les vents s'lèvent, te feront changer de cap Changer de cap La vie est une salope Salope Comme Maeva Ghennam, elle doit changer de chatte Elle doit changer de chatte On me parle d'escrocs, on me parle de Blat' Blat' Les yeux levés au ciel Au ciel, j'attends juste la date Comme j'suis ni un clebs, ni un mouton Ni un clébard, j'sais pas donner la patte Y a qu'entre rates-pi qu'on s'fait tourner la carte On coule tous au final, peu importe, notre âme sera restée intacte Sacrifice humain, j'attends l'éclipse J'attends l'éclipse, le Soleil est très en colère Mon meilleur profil est en Égypte Égypte, sur les bâtiments triangulaires Tyrans de demain, tyrans d'hier, ils veulent tout, la Terre entière Ça détaille pour quitter le bétail, des larmes de métal quittent mon iris Des flammes de Sheitan sortent du Urus noir, son honneur ne tient qu'à un PayPal La kichta aux couleurs du maillot de Kobe, du taudis, à l'Audi au lobby N'aie pas le malheur de lui passer l'anneau Si elle demande le prix de l'anneau J'ai mon harem, ma chicha, mon thé, j'ai repris de l'agneau J'ai repris de l'agneau2</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Écoute bien</t>
+          <t>Game Over</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Rapprochez-vous et zoomez Constatez que c'est plus comme avant, depuis mes ventes et que le rap s'est fait goumer Des phases de fou depuis qu'mon joint s'est roulé Que j'ai roté mon poulet rôti et recraché deux îlotiers Audiophonique méchoui, si on est riches ? Ouais ! Puisque nos terres sont pétrole et rubis Tu sais qui j'suis l'automatique pour ceux qui fuient Mon putain d'arôme putain la route est longue de Boulogne à Rome Et j'dois sortir vainqueur d'une défaite C'lui qui veut pas passer l'hiver en marcel, c'est lui qu'on incarcère Bête de niquer sa vie sur un coup d'tête Trop le font, arrachent leurs croûtes avec un coupe-coupe Jette un il à droite, envoie la purée jusqu'à l'extrême C'est leur plancher, Eh négro ! C'est l'heure d'manger Brûler leur sperme en échantillon, souder leurs chattes On va pas s'calmer man, ça sert à rien qu'tu jactes Crois-en mon expérience Issu d'un peuple averti, c'est B2O, j'ai 423 ans Alors écoute bien, kho Hauts d'Seine département Tu veux stopper mon crew mais tu vas faire comment ? Alors écoute bien, mon nom stické sur tous les murs du 16 aux Halles Négro t'es sourd ou quoi ? On est àl Alors écoute bien, un rap insociable, instable Le son qui fait péter un câble Alors écoute bien, kho, on r'vient d'loin, écoute bien... J'aime pas m'battre comme un chiffon J'préfère t'abattre car ainsi font Les gens d'ma zone, 100-8 Zoo Les pieds dans l'or jusqu'à la gorge Vote pour emmener les porcs à la morgue Vite ici c'est mort dites-leur qu'ma race est maudite J'ai eu mon trône dans l'trôm J'suis hardcore comme tous ces mots dits Casquette baissée dans mon auto, parce qu'ils contrôlent, accusent à tort Mon logo, les joueurs d'polo, les alligators Molotov rime avec mairie, poste, pays Frime sans être boss, je fus un roi sans Z3, un rat sans aide En fuite, alors j'm'arrache en Z8, ma race au bled Alors écoute bien, kho Hauts d'Seine département Tu veux stopper mon crew mais tu vas faire comment ? Alors écoute bien, mon nom stické sur tous les murs du 16 aux Halles Négro t'es sourd ou quoi ? On est àl Alors écoute bien, un rap insociable, instable Le son qui fait péter un câble Alors écoute bien, kho, on r'vient d'loin, écoute bien... Mes raps en disent long, mes sapes en teflon Casse ta tête va faire l'amour avec un tesson sur un d'mes sons JB dans les tripes J'suis dans les boîtes, les gifles et dans les chiffres J'porte le kevlar du llage-vi Pourtant j'pense pas qu'ces clébards m'arrivent à la ch'ville À double tranchant, d'la délinquance dans l'sang J'arrive à fond dans les virages Vire dans l'rouge mais civilisé Né dans une cible, on a coupé mon cordon avec une scie Neuf mois dans un bunker, le majeur debout L'daron a craché dans un chargeur Mon sachet d'beuh dégrainée pour mieux dégainer Les putes chez l'kiné, les man en Guinée Dangereux phrasé Y'a encore d'la place dans mon casier, révolution dans l'élocution M.C. exécution sur mon son de batterie Rien à battre, ici c'est rime, crime, dibiterie Alors écoute bien, kho Hauts d'Seine département Tu veux stopper mon crew mais tu vas faire comment ? Alors écoute bien, mon nom stické sur tous les murs du 16 aux Halles Négro t'es sourd ou quoi ? On est àl Alors écoute bien, un rap insociable, instable Le son qui fait péter un câble Alors écoute bien, kho, on r'vient d'loin, écoute bien... Alors écoute bien, kho Hauts d'Seine département Tu veux stopper mon crew mais tu vas faire comment ? Alors écoute bien, mon nom stické sur tous les murs du 16 aux Halles Négro t'es sourd ou quoi ? On est àl Alors écoute bien, un rap insociable, instable Le son qui fait péter un câble Alors écoute bien, kho, on r'vient d'loin, écoute bien...6</t>
+          <t>On va les mettre game over, game-game over Game-Game over, game-game over-over Game over, game-game over-over Game over, game-game over-over Game over, game-game over Game-Game over, game-game over-over Game over, game-game over-over Game over, game-game over-over Ceci est une exclusivité OneShot Tallac Records Si, si Le crime et la Z.I.K., c'est ça qui me plaît Chaque jour que Dieu fait, du cash c'est ça que je fais J'suis frais, j'suis refait, t'es là, tu rappes en levrette Tu veux pas cher-lâ le steak, tu t'y crois pour de vrai J'ai du nouveau son prêt, je suis le grand sauveur J'ai mon ghetto blaster, j'suis dans mon Range Rover Les demoiselles ont le feu au cul car la planète se réchauffe 9.2 si tu veux pécho, 0.9 sur le réchaud Rendez-vous sous le porche, moi et mes assoc' les cas soc' Tatoués jusqu'au torse, 4 années de loyer en poche Ta grand-mère me reconnait car elle m'a vu à la Star Ac' J'suis un tisse-mé comme Bob man, je suis en stara Nous, tout ce qu'on veut c'est faire des sous, demande à 9.2 Ibou Reuf t'as la haine, j'sors de l'arène au volant d'une Mclaren neuve Fais tourner la beuh, le seau de Chicken Wings On débite les diam's à haut débit, demande à Tony Blings T'es game over, game-game over Game-Game over, game-game over-over Game over, game-game over-over Game over, game-game over-over J'descends à Saint-Tropez, avec mes potes qui pèsent Bikini obligatoire, pour monter dans la Lamborghini M.C, tends-moi la main pour que j'écrase mon mégot Putain de sono dans le coffre, plus de place pour y mettre un négro Les fans m'imitent, passent leur vie à m'épier Mes baskets sentent la schnek, trop de putes à mes pieds M'en sortir sans aucun piston j'suis professionnel J'redonne le sourire aux michtons et aux concessionnaires Ouest Side, Panthéon, Temps mort, si, si, tu connais Équipé Double Poney,je fais de la Izi Monnaie Tellement de diamants sur ma montre, je ne sais plus quelle heure il est 9 millimètres à la baraque posé sur le pare-balle gilet J'arrêterai quand il le faut, je ne ferai pas l'album de trop Tout le monde peut s'en sortir, aucune cité n'a de barreaux Et quand la vie va m'écraser, comme son pire adversaire Passe me voir au Colisée, je ne serai pas au cimetière Je serai game over, game-game over Game-Game over, game-game over-over Game over, game-game over-over Game over, game-game over-over 30 millions d'MCs dans l'estomac Premier round, K.O, négro t'es dans le coma Disque d'or mais tu n'en as pas l'air, tu pues la défaite Moi j'ai un putain de salaire, la putain de sa mère J'viens d'en bas, j'ai réussi comme toi, j'me lève pour faire des loves Donc j'ai des problèmes de riche et des problèmes de pauvres On me dit B2O, qu'est-ce que tu nous racontes de beau ? - J'ai toujours envie de baiser comme un singe bonobo Une fois qu'elles goûtent à mon pénis-nis, j'ai du mal à m'en débarrasser J'peux encore compter mon biff-biff, ça veut dire que j'en ai pas assez Sors pas le même jour que moi, tu vas te faire tabasser J'mets le feu, nappelle pas les pompiers, ils vont se faire caillasser Me détrôner, qui pourrait ? Tellement de numéros, je ne sais même plus qui fourrer Torse nu je n'ai pas de col V, Hennessy à grosses gorgées Mi-Micro dans la paume, j'ai de nombreux projets Tu seras game over, game-game over Game-Game over, game-game over-over Game over, game-game over-over Game over, game-game over-over Game over, game-game over Game-Game over, game-game over-over Game over, game-game over-over Game over, game-game over-over4</t>
         </is>
       </c>
     </row>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>G5 (Intro)</t>
+          <t>Après l’automne</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Back to the Future Yeah Massif, âme de destruction massive Machine, c'est plus dur qu'tu l'imagines Et même si triste est la Matrice Mon ciel est bleu comme les Crips et les Mavericks Ils me donnent des coups que je n'sens pas Sur le champ d'bataille, dans mes veines coule du champagne Dans ma tête plein de billets font les cent pas On ne fait que me prêter de l'amour que je n'rends pas Je n'serai pas là sans mon public Regarde les faux MC de mon pupitre Neuf-Deux Izi Unit Se croient Maybach Music mais sont Morbac Music Contre vents et marées De quelques frères malheureusement j'suis séparé Évitons les sujets qui fâchent L'important c'est pas la chute mais latterrissage G-Five ! Back to the Future7</t>
+          <t>Finders keepers Oooooh Listen, this is getting old Being braver than you Feels like I'm selling my soul Essence allumettes, Tu l'aimes pas ? T'as qu'à lui mettre Chez nous l'amour à distance n'est autre qu'un fusil à lunette La paix c'est comme ton porsche cayenne on l'a jamais vu On a attendu l'drapeau blanc mais ce pd n'est jamais v'nu Ultraviolents depuis le berceau frère si tu savais La défaite laisse un goût amer voilà pourquoi tes larmes sont salées Dans nos têtes y'a que 2 saisons vato l'hiver et l'automne J'vais te déclarer ma flamme avec un cocktail Molotov Tva kiffer ta raza nueve sur le brassard Fils de Fils de Fils de p t'es le Real j'suis le Barça Bref Bref Brefons toutes ces story sont pétées Si j'ai pas confiance en moi comment faire confiance à ces PD ?! J'arrive en bécane J'reste quelques mois sur Paris et je m'arrache comme Beckham Enfin bref oui c'est l'hiver je sens Plutôt que de chialer des lac de larmes je préfère chialer des rivières de sang A c'qu'il parait j'étais tendre Enfin il fut un temps J'te mets une patate en hiver vato tu t'réveilles au printemps A quoi bon sert de viser trop haut si t'atteins jamais le sommet J'ai des plaques mais sans Maybach dur de trouver le sommeil Poto tu fais pas d'argent, tu fais pas d'argent, tu critiques ma cote Si t'es pas content, Si t'es pas content bah ferme ta gueule et vends d'la cock ?! OK ! J'noircis des pages j'écris un flingue sur la tampe Mieux vaut courir après un rêve que passer son temps à l'attendre J'me sens comme un équilibriste sans le fil Parc'que j'suis pas le héros j'crois même que j'vais mourir dans le film Enfin parait-il et j'me demande pourquoi pas réti ? Les lunettes sont fumées j'ai trop de haine dans la rétine Smith et Wesson sous le bombardier Cramé comme un T-Max qui fait 30 fois l'tour de ton quartier On fait tous les fous mais on est tous perdus sans daronne Fais c'que t'as à faire Une action vaut mieux que 100 paroles 1</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Moments gâchés</t>
+          <t>Reste en chien</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Shadow Bébé, dehors c'est la guerre mais je tiens le coup mais je tiens le coup hey J'rentrerai en vie pour prouver mon amour prouver mon amour hey Tu m'manques mais, une impression que tu me mens quand hey Tu m'dis qu'tu veux m'faire des enfants hey Bébé, es-tu prête à dev'nir maman ? Après les avoir tué, j'aime sentir leurs pouls En crime comme en amour, j'n'aime pas avoir de doutes J'suis né pour écraser qui va s'mettre sur ma route sku sku Sur la file de gauche, j'bombarde et je double sku sku J'laisse toujours de quoi manger aux vautours Toi, j'espère que tu repousses les mecs qui tournent autour Là, j't'écris une lettre du front comme Sefyu Pour t'annoncer que bientôt, j'fais mon grand retour Deux-trois verres, bébé j'suis fait Deux-trois joints, bébé j'suis flex La défonce commence à faire de l'effet J'rêve de plonger entre tes fesses Et toi, dis-moi c'est comment ? Repenses-tu à nos bons moments ? J'veux pas savoir la fin du roman Je sais juste que tu me manques Tu me manques, tu me manques, tu me manques, tu me manques Tu me manques, tu me manques, tu me manques, tu me manques Tu me manques, tu me manques, tu me manques, tu me manques Tu me manques, tu me manques, tu me manques, tu me manques Yeah, yeah, yeah Te voir sourire me manque, te voir pleurer me manque Entendre ta voix me manque, te faire l'amour me manque Te voir sourire me manque, te voir pleurer me manque Entendre ta voix me manque, te faire l'amour me manque Tu me manques quand tu n'es pas là hey Tu m'as marqué à vie comme une balafre hey Te revoir me motive à les hagar Ta voix m'accompagne pendant mes ballades Pour toi, j'écris cette chanson Entre chaque livre, sens-tu mes émotions ? Entre chaque verre, j'me pose la même question Es-tu amoureuse comme Véronique Sanson ? Es-tu toujours la même ? es-tu toujours la même ? Es-tu toujours mienne ? Pendant mon absence, dis-moi qu'tu t'es pas offerte à d'autres Jure-le sur la tête de ta mère J'ai les billets mauves, jaunes et verts pour me consoler si tu me la mets à l'envers Avec de la monnaie, la vie est moins amère Avec de l'amour, on y voit plus clair Deux-trois verres, bébé j'suis fait Deux-trois joints, bébé j'suis flex La défonce commence à faire de l'effet J'rêve de plonger entre tes fesses Et toi, dis-moi c'est comment ? Repenses-tu à nos bons moments ? J'veux pas savoir la fin du roman Je sais juste que tu me manques Tu me manques, tu me manques, tu me manques, tu me manques Tu me manques, tu me manques, tu me manques, tu me manques Tu me manques, tu me manques, tu me manques, tu me manques Tu me manques, tu me manques, tu me manques, tu me manques Yeah, yeah, yeah Te voir sourire me manque, te voir pleurer me manque Entendre ta voix me manque, te faire l'amour me manque Te voir sourire me manque, te voir pleurer me manque Entendre ta voix me manque, te faire l'amour me manque1</t>
+          <t>Yeah, Paris Hey, bande d'enfoirés Viens pas tester la Ouest Side, la Ouest Side 78, oh ha ha... Yeah, La Fouine... ! Reste en chien ! Tu veux nous faire un chrom' mais tu connais personne ? Reste en chien ! Tu veux sortir le gamos, ta tass n'est pas bonne ? Reste en chien ! Tu veux rentrer au King, au V.I.P. et au Duplex ? Reste en chien ! T'as baisé cette crasseuse et l'a ken sans latex ? Reste en chien ! Bas les tass', bas les tass', pas de mandat, rarement en promenade, reste en chien ! Quand j'allume au Gomm-Cogne l'ahi comme héritage, reste en chien ! B2OBA, Fouine-La si t'as pas l'son dans ta gov, reste en chien ! Sur le fond d'écran d'ta tas', ma gueule, il y a ma tof, reste en chien ! Quoi tu veux siffler ma teille ? T'assoir à ma table ? Reste en chien ! Sniffer ma No-No, t'es pas un mec de Trappes ? Reste en chien ! T'as poucave touts tes potes, tous tes reufs, la taule t'as marqué, reste en chien ! Tu veux que j'décroche, t'appelles toujours en masqué, reste en chien ! Tu as pas le palmarès de Samuel Eto'o, reste en chien ! Tu t'es fait griller comme Tunis et Aketo, reste en chien ! T'as voulu clasher, j'ai brisé ta carrière, reste en chienne ! Pas d'deLorean, pas d'retour en arrière, reste en chien ! T'as pas d'contrat d'embauche, tu veux d'faire la semi ? Reste en chien ! Et tu fais plus de bruit qu'un putain d'deux et demi, reste en chien ! T'as jamais cru en moi et maintenant tu m'suces, reste en chien ! Tu changes de potes, comme de phone, comme de puce, reste en chien ! J'voulais sortir en perm, le procureur m'a dit Reste en chien ! J'voulais gérer cette tass sans thunes et elle m'a dit Reste en chien ! J'voulais taffer sans diplôme et le gars m'a dit Reste en chien ! Reste en chien, reste en chien, reste en chien ! J'voulais sortir en perm, le procureur m'a dit Reste en chien ! J'voulais gérer cette tass sans thunes et elle m'a dit Reste en chien ! J'voulais taffer sans diplôme et le gars m'a dit Reste en chien ! Reste en chien, reste en chien, reste en chien ! Banlieue to the La Fouine to the 7.8, c'est dangereux Banlieue to the La Fouine to the 7.8, c'est dangereux Banlieue to the La Fouine to the 7.8, c'est dangereux Banlieue to the La Fouine to the 7.8, c'est dangereux Trop d'bouffons dans l'industrie donc je n'me-me mélange pas Après minuit je baise ne m'appelle pas, ne me-me dérange pas Tu veux m'attraper dans tes chansons ? Bonhomme faut qu'on en parle Autour d'un 3.5.7 Magnum rempli de-de balles Reste en chien ! B2O je m'intitule, gangster est l'attitude Austère quand j'prends l'mic, ta pute a tous mes posters Auprès des jeunes j'ai de l'impact, j'te l'dis franchement Si tu passes à la barre, prononce pas mon blaze à ton jugement Bienvenue à Boulbi, on t'interpelle sur un coup d'fil Chez nous le profit n'a pas de profil J'te l'dis, j'ai vendu coke, shit... Pas b'soin d'lire entre les lignes Je ne, ne compare pas mes délits et Médellin Dans des gros bizs pour du gros biff', l'oseille n'est que d'passage J'en donne au prostituées, au salon d'massage J'arrête de fumer toutes les deux semaines Ouest Side Tu veux ma chaîne, ma liasse, ma chie-chienne, reste en chien Reste en chien ! J'voulais sortir en perm, le procureur m'a dit Reste en chien ! J'voulais gérer cette tass sans thunes et elle m'a dit Reste en chien ! J'voulais taffer sans diplôme et le gars m'a dit Reste en chien ! Reste en chien, reste en chien, reste en chien ! Tu voulais qu'on passe ton son chez Cut Killer ? Reste en chien ! Si t'es un keuf, un huissier, un inspecteur, reste en chien ! Tu veux monter sur scène mais tu mets pas l'feu ? Reste en chien ! En plus tu t'es fait r'caler chez Couvre-Feu, reste en chien ! T'entends pas où quoi ? Trop de flow, trop de tass', trop de keufs, toute la banlieue ouest au cul, reste en chien ! Tester mais no no non pas de ça chez nous, reste en chien ! Tu veux des gifles-gifles ? Man t'as pas d'équipe, reste en chien ! Tu veux serrer, t'sais pas parler, les meuf te tchippent, reste en chien ! T'es recherché, t'as fait des chroms, t'es dans la merde, reste en chien ! T'investis dans l'Sud avec des ki-kilos d'herbe, reste en chien ! Paris j'arrive, 78 voilà mon empire ! Reste en chien ! Tu veux tester man ? Une seule chose à dire Reste en chien ! Banlieue to the La Fouine to the 7.8, c'est dangereux Reste en chien ! Banlieue to the La Fouine to the 7.8, c'est dangereux Reste en chien ! Banlieue to the La Fouine to the 7.8, c'est dangereux Reste en chien ! Banlieue to the La Fouine to the 7.8, c'est dangereux Reste en chien ! Yeah Banlieue to the 9.2 to the 7.8, c'est dangereux Si, si Reste en chien sale chien Bi-Bi-Bi-Biatch !4</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3042,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>RATPI WORLD</t>
+          <t>Je sais (Freestyle Rihanna)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Armes automatiques, c'est fantastique C'est quoi les bails, ma gueule ? J'suis dans mon Ratpi World, eh Ils sont v'nus à six du mat', rangers, pas de bas résille Ils veulent nous faire comme rats des villes, encerclés comme en Palestine Le pare-chocs embrasse la vitrine, D.U.C pas d'la Cristalline Wallaye, j'suis sur toi comme un Djinn, c'est plus grave que tu l'imagines Gargouilles sur un toit béni, rate-pi patrouille jour et nuit Si tu sais pas qui j'suis, ton écran plat vient d'chez Momo Henni Tout est écrit mais j'aime pas lire, t'es faux, ta peau c'est pas du cuir Plein d'gens que j'aime mais j'aime pas l'dire, plein d'gens qu'je gêne veulent me détruire Qu'il en soit ainsi, j'ai toujours laissé le Diable me séduire Dans l'bureau à Tony, lance-grenades chargé, grosse cérémonie C'est dur, frérot, la pandémie, avance-moi un kil' et d'mi 9-2, Porte de Châtillon, Lamborghini, portes papillons j'suis trop gang, elle peut pas dire non C'est quoi les bails, ma gueule ? J'suis dans mon Ratpi World Armes automatiques, c'est fantastique C'est quoi les bails, ma gueule ? J'suis dans mon Ratpi World Divorçons à la mairie, faisons le hlel chez Chalghoumi Les dessouder jusqu'au dernier s'ra toujours une très bonne idée Si t'as pas d'camp, t'as pas d'avis, pas de navire, pas d'avenir En n'disant rien, on a tout dit donc ferme ta gueule et follow me Encore perdu mon Insta', mon truc à moi, c'est la musique J'essaye d'garder mon instinct, déboussolé par l'algorithme En fond d'sixième, j'vois mieux le ciel, beaucoup trop tard pour reculer Je lui ai dit Passe-moi du gel, pas pour mes mains, pour t'enculer J'suis plus proche du Rif que du Gif, t'es plus proche d'une balle que d'une gifle Ouais Du Rif Divorçons à la mairie3</t>
+          <t>Hé, hé Tout c'que je sais Au comptoir d'un titty bar, de l'or partout comme à Trinidad L'art de la guerre et du trépas coule dans les veines de la brigade Tu crois que je dérive, mais c'est toi qui divagues Ah si j'étais riche, prends ton kalash et on y va Je dis vrai, j'ai des Louis Bags, que des rat-pi, des Hooligans Dans mes bureaux de style il n'y a plus trop de style on ne fait que du design de fusillade De la coke dans le fuselage, je t'envoie Rocco pour dépucelage C'est ta rondelle qui te lâche, j'baise des grands-mères dès mon plus jeune âge Le Rap Français dans son cul je nage, va jusqu'au bout si tu menaces Héé, c'est tout c'que je sais Oui oui c'est tout, c'est tout c'que je sais Oui oui, c'est tout c'que je sais, sais Tout c'que je sais, tout ce que je sais Oui, oui18</t>
         </is>
       </c>
     </row>
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Pourvu qu’elles m’aiment</t>
+          <t>B2OBA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>1-0-0 moins 8, Z double 0 1-0-0 moins 8, Z double 0 Yeah OK O-oK Izi Jambes croisées derrière ton bureau tu m'écoutes Décroises les jambes doucement, laisse couler quelques gouttes Tu sens que je suis dur, que j'ai fait de la route Tu crois que je suis tendre, mais tu as quelques doutes En effet je suis un thug, un drôle d'animal J'ai de quoi te siliconer si jamais tu vieillis mal Gangster et gentleman, c'est dans le mille que je tire Je fais mal mais je fais jouir si tu vois c'que j'veux dire Lâche-moi ton phone-tel, j'n'ai pas le temps de parler Qu'est-ce qu'elle est bonne elle J'ai ma suite au Hilton chez Paris, pourvu qu'elles viennent Peu importe qu'ils me haïssent, pourvu qu'elles m'aiment Prends mon phone et mon e-mail, j'ai du gel ou de la crème Je veux que tu viennes, tu veux que je revienne, ne me dis pas que tu m'aimes Notre amour est insensé, c'est juste une histoire de cul C'est malheureusement le cas, je n's'rai pas ton fiancé Cur brisé, le cul cassé, salue bien ton crustacé De la part du D.U.C, je ne fais que déguster J'ai fait l'école du crime, du vice et du X Prie pour le meilleur, sois prête pour le pire Lâche-moi ton phone-tel, j'n'ai pas le temps de parler Qu'est-ce qu'elle est bonne elle J'ai ma suite au Hilton chez Paris, pourvu qu'elles viennent Peu importe qu'ils me haïssent, pourvu qu'elles m'aiment Mes Lady font Mes soldats font Mes Lady font Ta démarche me fait peur, j'crois qu'j'vais appeler les keufs Que des big booty girls dans mon Blackberry Curve Visages pâles, africaines, quelques américaines Où tu vas en lune de miel, B20 y va en week-end Jolie gueule, joli boule, toi et wam ça s'rait cool Toujours dans les grosses caisses de ouf' je recherche quelque lourdes Si si, je suis frais, je sais, je te retourne le compliment Ton derrière a comme un drôle d'air de mon continent Lâche-moi ton phone-tel, j'n'ai pas le temps de parler Qu'est-ce qu'elle est bonne elle J'ai ma suite au Hilton chez Paris, pourvu qu'elles viennent Peu importe qu'ils me haïssent, pourvu qu'elles m'aiment Mes Lady font Mes soldats font Mes Lady font Lâche-moi ton phone-tel, j'n'ai pas le temps de parler Qu'est-ce qu'elle est bonne elle J'ai ma suite au Hilton chez Paris, pourvu qu'elles viennent Peu importe qu'ils me haïssent, pourvu qu'elles m'aiment3</t>
+          <t>Qui remet ça ? Devine ! À l'horizon, toujours deux ou trois keufs en civil Négro, j'ai caché mon butin dans deux ou trois villes J'emmène deux ou trois putains dans deux ou trois îles Je n'me présente pas, tu sais qui je suis Je ne plaisante pas, tu sais qui me suit J'ai lu mon avenir dans un bol de riz B2OBA, 92I Si tu cherches un mec mortel, je suis sur Yahoo Y'a ceux qui sucent des bites, négro, et y'a nous Mon rap n'est pas trop dur, c'est toi qui es mou La meilleure cocaïne vient de chez nous Rappelle-toi l'époque où je cassais des porcs Quand je traînais au bloc, quand je faisais des loves Chaque fois qu'j'allais en boîte, je me mangeais des stops J'peux pas baisser mon froc, j'vais faire tomber mon Glock Qui remet ça ? Devine ! À l'horizon, toujours deux ou trois keufs en civil Négro, j'ai caché mon butin dans deux ou trois villes J'emmène deux ou trois putains dans deux ou trois îles À quoi sert d'être au tier-quar sans faire de cash ? Tu prends le micro, sans faire le taf J'suis dans les euros, pas dans les affaires de 'tasses Suce-moi dans ma Lambo sans faire de tache Je fais de l'argent, l'argent ne me fait pas Embrouille, je suis coté en bourse, Tarzan ne le sait pas Mon continent appelle à la rescousse, personne ne le répare Si ton polo c'est pas du Ünkut, négro, ne le mets pas 22, v'là les condés, mon Range Rover sent la beuh Ces pédés m'ont repéré et je ne vois que du bleu L'avaler toute entière, je crois bien que tu peux Une grosse voiture, une grosse queue c'est ça que tu veux Qui remet ça ? Devine ! À l'horizon, toujours deux ou trois keufs en civil Négro, j'ai caché mon butin dans deux ou trois villes J'emmène deux ou trois putains dans deux ou trois îles Je suis trop loin pour que tu fasses quelque chose Là où je passe, il se passe quelque chose Deviens ma femme pour que je t'offre quelques roses Quelques grammes, quelques boloss, Hauts-de-Seine, quelques doses Beaucoup partent en retraite anticipée L'important est de gagner, j'm'en tape de participer MC's échangent rondelles contre liquidités NTM, Solaar, IAM c'est de l'antiquité Trop de métisses, de noirs et de beurs L'industrie du disque est morte de peur La planète Terre est une triste demeure J'ai le 06 à Lucifer plus je vis, plus je meurs B2OBA, Boulbi, OK6</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Homme de l’ombre</t>
+          <t>HLM 3</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>J'ai jamais eu la tête dans les classeur Ou dans les livres J'écrivais des rimes Au fond de la classe-euh Un avenir tout tracé Rappeur ? Nan, juste un gosse du bizz avec l'envie de tout casser Fan de Barcelone et de Malaga Cabronito réagissant aux sons de maracasse J'men bats les couilles du rap et de son concept Radio, interview en plus j'déteste faire des concerts Ce son tu peux l'appeler 'Cas Social' Si je parle peu, c'est pas que j'me la raconte, c'est que j'suis pas sociable C'est quieres meber benga como tu hermana No busco amigos, no te pregunto como te llamas ? J'rap pour l'argent, j'préfère être sincère J'ai pas vu mon avenir ni dans le rap ni dans un 3.5.7 J'fais que d'me repentir et que pecher Requin à la dérive en espérant que Dieu viendra me repêcher J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi Mon silence en dit long Si j'avais percer dans le foot ou la musique, j'me s'rai quand même lancé dans le pillon Bléssé comme après une cascade-euh J'viens du pays des castagnettes et de la castagne-euh A force d'en parler, j'pourrais corrompre tout le monde J'aime bien le seum, c'est vrai mais seulement dans tes poumons Ambitieux tout comme Marchena Toi t'es un thug ? Pshh arrête tes blagues et dégage de là Toujours la tête dans les petites affaires Mais sur la vie de ma mère J'assumerais pas de finir a Fresnes Avec le Diable, j'ai trop pactisé J'ai peur de personne mais j'ai bien peur que Dieu puisse me tromatisé Chez nous, y'a pas d'école Ça ce met à parler de coke Pister par les cops on court plus vite qu'Ashley Cole Soit disant, l'ordre est maintenu par les forces Mais j'veux pas finir au car-pla, j'aime pas le décor J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi Sa critique, j'ai l'habitude Les rageux sont tous née à la suite des contractions de leurs mères les petites putes Dépressif, j'golri et j'vis aussitôt mal Sponsorisé par Malboro, j'suis un toxicoman J'fûme tout même des roulées Jamais le sourire aux lèvres sauf quand le pillon est écoulé Dans ma tête, j'suis lunatique avec ou sans Booba Homme de l'ombre poto avec ou sans goule-ca La semaine, j'suis offishal, le week-end en claquettes J'aime pas l'odeur de l'herbe, j'aime celle des plaquettes J'te le répète ni voyou, ni philosophe Chacun sa place, j'ai vu la mienne dans un kilo de drogue Déréglé, le soleil me fait du mal J'me lève à 16 heures et me couche à 5 du mat Aussi à l'aise sur un X-max que dans un lit Tu veux savoir qui je suis pas besoin d'écrire un livre J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi</t>
+          <t>Je vais te dire, je suis pas une star, pour mourir il faut qu'une balle Détesté, pour m'faire tuer il faut qu'une barre Même à crédit boum, le bruit de mon son Cool que dans ma base, roule que des gros joints de case On va tous revenir ici, bilaye Je vous l'avais dit que les vrais savent, Ousmane, HLM 3, je crois Les colons nous l'ont mise profond À l'envers on va leur faire, mate ici ce que les khos font Du dégoût pour mes fils de Kédougou et Rufisque C'est pour les rues de mon bled sur disque Dix sur dix mon pays, mon perso Et les toubabs veulent arracher l'fusil d'mon berceau J'ai un pied dans la merde, un pied dans la mosquée Bousille la rime au Uzi, 92i B.O, Banlieue Ouest, négro Des holsters avec des micros, ils croient qu'Paris c'est Sarajevo Pourquoi ça gaze autant ? Chez nous y a pas l'OTAN Alors si y a la guerre, ça va durer longtemps Je suis là pour représenter les gars qu'ont pas le temps de plaisanter Ali, Brahms, Mala, Shepe, la marijuana One five one, dingue est la dinde Kho, c'est du béton, c'est de la jungle Maintenant ils veulent nous stopper pour nos lyrics explicites Codées dans des raps illicites, stockées Dans nos albums que récitent nos jeunes, c'est de ça qu'ils flippent Que nos messages passent et que leurs mensonges s'effacent Place mes rêves, mes solutions Ma révolution, pas de trêve Chaque jour me lève avec la victoire pour résolution À celui qui la donne et la reprend va toute ma dévotion Pas de doute naturel MC Me fie à mon instinct, à mon émotion Dans un État où la justice manque d'équité Qu'ils retiennent que tout système a une faille, sang et chrysanthèmes dans les J.T Les images défilent Apocalypse dans les villes, y a pas que du calypso dans les îles Crack inhalé jusqu'à nos allées Les virus s'abritent dans la chair des bêtes L'esprit malin, dans la tête des hommes installé 667, 92i, 45 kho Qui a dit que la rue s'est adoucie ? Ici les putains veulent du rap doux T'auras qu'la boue qu'il y a sur mon doo-rag Du rap avec mon double, mon quartier, mon département 92 troublant, clan des man appartenant Je double, on est venu récupérer notre dû Dans vos rues on va faire couler votre pus Chaotique, des lyrics à la rythmique Le funky son qui met des front kicks Pour Oumar et le Dorse coincés au bloc, trafic, la vie oblige Dans les bacs, ma vie oblique tracée au Bic C'est ma nature, tout niquer sans faire de ratures Interdit aux bâtards, fait monter la température B.O, Banlieue Ouest, négro Des holsters avec des micros, ils croient qu'Paris c'est Sarajevo Pourquoi ça gaze autant ? Chez nous y a pas l'OTAN Alors si y a la guerre, ça va durer longtemps Je suis là pour représenter les gars qu'ont pas le temps de plaisanter Ali, Brahms, Mala, Shepe, la marijuana One five one, dingue est la dinde Kho, c'est du béton, c'est de la jungle On m'a dit il pour il, dent pour dent, j'ai répondu deuil pour deuil et sang pour sang, âme pour âme Mais j'ai puisé ma force dans le pardon A.L.I., ainsi est ma vie T'es des miens, en silence marchons Ce que je détiens t'appartient sauf les erreurs, passons Mon son la pression mes textes l'avertissement De ce monde, défie le mauvais il sans talisman Distant de tout ce qui pourrait pourrir mon existence Mon combat, ma lutte, ma cause, ma résistance Près de ceux qui refusent l'oppression De par ma parole diffuse ma vision, rimes sans poésie Rap, musique réelle Comme les bavures et les expulsions, ennemi public Dans la mire toujours la même silhouette Vengeance, ceux qui la souhaitent ne manquent pas Attends-toi à plus d'un attentat, ici la France Loin des ambiances pétards-14 juillet Quand c'est trop tard et qu'y a du sang à essuyer C'est sur le miens que les médias focalisent Apocalypse immédiat, ni basques, ni corses Ma clique revendique à visage découvert Microphones ouverts, et nos actions s'amorcent, féroces C'est pour mes gens aux instincts de fauves Lions de Judée et Black Panthers, faut que ça rugisse dans les cages Mérogis et 92 Nanterre A.L.I., Booba, Lunatic On t'serre, on t'saigne B.O, Banlieue Ouest, négro Des holsters avec des micros, ils croient qu'Paris c'est Sarajevo Pourquoi ça gaze autant ? Chez nous y a pas l'OTAN Alors si y a la guerre, ça va durer longtemps Je suis là pour représenter les gars qu'ont pas le temps de plaisanter Ali, Brahms, Mala, Shepe, la marijuana One five one, dingue est la dinde Kho, c'est du béton, c'est de la jungle</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Hommes de l’ombre</t>
+          <t>Cruella</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>J'ai jamais eu la tête dans les classeur Ou dans les livres J'écrivais des rimes Au fond de la classe-euh Un avenir tout tracé Rappeur ? Nan, juste un gosse du bizz avec l'envie de tout casser Fan de Barcelone et de Malaga Cabronito réagissant aux sons de maracasse J'men bats les couilles du rap et de son concept Radio, interview en plus j'déteste faire des concerts Ce son tu peux l'appeler 'Cas Social' Si je parle peu, c'est pas que j'me la raconte, c'est que j'suis pas sociable C'est quieres meber benga como tu hermana No busco amigos, no te pregunto como te llamas ? J'rap pour l'argent, j'préfère être sincère J'ai pas vu mon avenir ni dans le rap ni dans un 3.5.7 J'fais que d'me repentir et que pecher Requin à la dérive en espérant que Dieu viendra me repêcher J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi Mon silence en dit long Si j'avais percer dans le foot ou la musique, j'me s'rai quand même lancé dans le pillon Bléssé comme après une cascade-euh J'viens du pays des castagnettes et de la castagne-euh A force d'en parler, j'pourrais corrompre tout le monde J'aime bien le seum, c'est vrai mais seulement dans tes poumons Ambitieux tout comme Marchena Toi t'es un thug ? Pshh arrête tes blagues et dégage de là Toujours la tête dans les petites affaires Mais sur la vie de ma mère J'assumerais pas de finir a Fresnes Avec le Diable, j'ai trop pactisé J'ai peur de personne mais j'ai bien peur que Dieu puisse me tromatisé Chez nous, y'a pas d'école Ça ce met à parler de coke Pister par les cops on court plus vite qu'Ashley Cole Soit disant, l'ordre est maintenu par les forces Mais j'veux pas finir au car-pla, j'aime pas le décor J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi Sa critique, j'ai l'habitude Les rageux sont tous née à la suite des contractions de leurs mères les petites putes Dépressif, j'golri et j'vis aussitôt mal Sponsorisé par Malboro, j'suis un toxicoman J'fûme tout même des roulées Jamais le sourire aux lèvres sauf quand le pillon est écoulé Dans ma tête, j'suis lunatique avec ou sans Booba Homme de l'ombre poto avec ou sans goule-ca La semaine, j'suis offishal, le week-end en claquettes J'aime pas l'odeur de l'herbe, j'aime celle des plaquettes J'te le répète ni voyou, ni philosophe Chacun sa place, j'ai vu la mienne dans un kilo de drogue Déréglé, le soleil me fait du mal J'me lève à 16 heures et me couche à 5 du mat Aussi à l'aise sur un X-max que dans un lit Tu veux savoir qui je suis pas besoin d'écrire un livre J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi J'fais pas le thug poto j'fais de la musique J'ai pas le seum, c'est mieux que de finir à l'usine J'allucine, en chien t'es pas le seul Trop religieux pour passer de la prière à l'uzi</t>
+          <t>C'est sûrement Cruella. Ta chère compagne de classe, Cruella d'Enfer. C'est ça Izi money, izi life Oui tu nous connais, frais, izi nice Izi money, izi money Oui tu nous connais, frais, izi nice Yo liasse de 500 E, Oprah sur ces tasspés Beaucoup trop d'argent négro ce ne sera jamais assez Mes jeunes thugs ont la dalle, je te parle pas de Kinshasa Avec les briques qu'on blanchit je te refais la dar d'Obama Les employés sont SDF, tu les trouveras dans les rues Donc tu ne me verras pas, j'ai d'autres choses à faire qu'être vue Mental de paysanne, je suis concentrée sur ce blé J'appelle ton dealer Louboutin, il est à mes pieds Si tu fais le chien, je ferai la chinoise Il me faut mon show sur E, j'te refais le visage Lequel est le plus rapide, postuler ou braquer ? Hum...Le temps c'est de l'argent, j'ai du temps à gagner Izi money, izi life Oui tu nous connais, frais, izi nice Izi money, izi money Oui tu nous connais, frais, izi nice Liasses de 500 euros, les chiens de la BAC me guettent J'y retournerai 'ap comme R. De Niro, les négros veulent me uer't Ice Ice sur le poignet, salement accompagné Paye cash en ck-bla, Shay c'est le ze-bla J'dois rejoindre le renoi au paradizio Fuck les haineux Paf le chien, paf le physio Les négros se cachent pour mourrir, on y croit Winner nigger, j'ai l'oeil du tiger Rocky 3 Je connais pas Big Meech, ni Larry Hoover Dans mon quartier il y a pani baltringue, pani loser 92 izi négro gangster et gros fouffeurs Laisse les groupizi en pleurs la chatte en chou fleur Izi money, izi life Oui tu nous connais, frais, izi nice Izi money, izi money Oui tu nous connais, frais, izi nice Plutôt géométrie, les cops sont toujours carrés Africain est le ness-bi, noir est le marché Tellement internationale, mon passeport est trafiqué Mec il y a la rhass à Benjamin sur mes papiers Et des marques sur mon corps comme si j'étais l'ex à Chris C'est quoi le sex appeal d'un mec ? Hum sa Maserati Tous les thugs que je côtoie font du bénef Du biff dans la team, l'équipe à Tevez J'marche avec des négros qui tiennent leurs promesses 4-5 auto silencieux pour faire des prouesses Jouer avec moi c'est comme jouer avec sa life Cruella d'enfer j'fais la peau à tous ces bâtards Izi money, izi life Oui tu nous connais, frais, izi nice Izi money, izi money Oui tu nous connais, frais, izi nice</t>
         </is>
       </c>
     </row>
@@ -3110,12 +3110,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Gun In Hand</t>
+          <t>Boss du Rap Game</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>I find myself, wandering off the road with a gun in my hand Trynna' stay cool and be the bigger man Cause I dont think niggas nowadays understand That if you tempt me Ill put you under the sand Right away hey, right away oh, right away hey Ill put you under the sand Right away hey, right away oh, right away hey Ill put you under the sand Moi j'rappe avec le cur écoute ce couplet Si t'es criblé de douilles c'est que tu chantes comme un poulet Que tu rappes avec le boule T'approches pas de mon panier, plus de 3 secondes dans la raquette Et 92 bastos boum se dirige vers ta casquette La rue te fascine, la rue te prend, la rue te calcine Ma racine c'est l'argent facile Mon rap c'est une montée d'adrénaline, une mauvaise blague sur ta mère Pas besoin de la brigade canine, pour sentir que tu pues la merde MC t'as trop traîné ton cul sur les bancs de la fac Je vais faire un manteau de fourrure avec les poils de ta chatte Aahh ! D'un patron j'aime pas recevoir d'ordres Achète mon album à tes gosses ou j'leur vendrai de la drogue Elle est bonne elle sait chanter O.K. j'mise dessus Si j'perds un tête-à-tête j'te tire dessus Minimum 20 centimètres Marianne en serait ravie Tu veux surfer sur les ondes, mon tsunami te fera changer d'avis I find myself, wandering off the road with a gun in my hand Trynna' stay cool and be the bigger man Cause I dont think niggas nowadays understand That if you tempt me Ill put you under the sand Right away hey, right away oh, right away hey Ill put you under the sand Right away hey, right away oh, right away hey Ill put you under the sand Ça vient du Sénégal tu l'as bien compris Légal ou illégal on fait du rap des sapes et de la son-pri Suce ton succès tient à peu de choses C'est le nouveau B2O c'est trop frais les fans, frisent l'overdose Dans le bain depuis Colors, Boyz in the Hood Mon son te colle aux fesses biatch te recherche comme Sarah Connors Mon équipe te fait péter les plombs comme Disiz 92 izi c'est pour mes négros, mes bitches Le biz donne envie de vomir voilà ce que j'éprouve Des mythos suceurs de bite voilà ce que j'y trouve Raides dingues de mon flow il sont trop dèg' J'en-j'en-j'en-j'entends jurer des mecs que sur la Mecque on est dead Puisque les négros veulent ma peau, j'avance écorché vif Paraît que j'prends d'la CC, paraît qu'j'suis en prison, paraît qu'j'suis Juif Tu peux me croiser chez Maxime, tu peux me croiser au grec Mon cerveau j'le vaccine un joint d'seum collé au bec I find myself, wandering off the road with a gun in my hand Trynna' stay cool and be the bigger man Cause I dont think niggas nowadays understand That if you tempt me Ill put you under the sand Right away hey, right away oh, right away hey Ill put you under the sand Right away hey, right away oh, right away hey Ill put you under the sand Yeah, Konvict ! I'm on a whole another level, a whole another side A whole bunch of niggas that's down to get wild There is a whole lot of rebels, a whole forty cal The one that hesitate to put a hole in your mouth Cause if you got it best believe, I'm gonna get it I'm not the type to commit it and then go admit it You find yourself on a shelf somewhere through the city And tighten up with my belt two slugs to your fate I tried to warn these niggas but these fellas too slow It seems like motherfuckers they ain't never gon go Wont bother nobody unless you step on my toes And we don't let it go in case, your cash say no now J'passe sous les échelles, un flingue caché dans le Bescherelle Moi j'en ai rien foutre j'suis, ce genre de négro Que de la bonne came, on sait flairer l'oseille Ouais nous on roule en grosse gam' Et toi tu prends le métro Find yourself under the sand, ohoh Find yourself under the sand Akon and Booba, yeah I'm not that man, you will find yourself under the sand Oh oh oh oh, under the sand4</t>
+          <t>Wesh re-noi ? T'as j'veux dire ou t'as pas j'veux dire ? Hein Piraterie de haut standing 92izi dans le building 500 chevaux minimum, 340 à lessai Comment tu, co, comment, comment tu vas faire pour marrêter ? Si je tue pas le beat, le beat me tue Personne peut me signer, je cours plus vite que la sique-mu Ils te disent que tu ny arriveras pas, demande à Bertrand, ma gifle tue Monsieur lagent, la chatte à ta mère, qui siffles-tu ? Essaie de nous soigner avant que nos plaies vomissent le pus Comme un pitbull avant dte baiser, jte renifle le cul Du biff veux-tu ? Du biff tauras Il faudra quil fasse de largent, pas que le biff le tue Baise bien ta meuf avant quelle grossisse Jm'excuse pour celle-là, B.2.O.B.A. Brolics N Roses Saddam Hauts-de-Seine, 100-Ocho sur les ogives Jpasse à autre chose, flamme de Zippo sur les olives Naime pas seulement une go car elle est bonne et jolie Un gros cul de déesse nous ferait faire des folies, oh oui Cest comme ça quon vit, comme ça quon fait Avec des gros billets, comme ça quon paie Boss du rap game Hey, Boss du rap game Hey Boss du rap game Hey, Boss du rap game Hey 240 en moyenne, Porsche Cayenne Brolic dans lshort, chemise Hawaïenne, à Y-N Boss du rap game Hey, Boss du rap game Hey Boss du rap game Hey, Boss du rap game Hey Rappeur toi qui déb, débute Jvends des skeuds pour prendre congé, aller bronzer, baiser des, des putes Donne-moi la main gentiment Aujourdhui mon clan va tapprendre à nager dans le ciment Montagnes de coke à Bakel, slalom comme Diallo Ousmane Lautopsie nous prouve que ta rondelle est pas bulletproof man Doucement, doucement, cest moi qui donne lheure ici Suisse est le mouvement de Pont de Sèvres à Lauricisque Jm'en fous dta story fils, vas te faire droiter par Hollyfield Haut, haut les mains, Jordan 6, 46 dans lorifice Jsuis en mode Où suis-je ?, en mode Mollah Omar Mais cest moi qui les tue, jte connais as-p, jsuis en mode Qui es-tu ? Jai arrêté les études pour scorer comme Mickaël Pietrus Toujours número uno, fan mimi , naie pas dinquiétudes Jfais du biz sans marrêter, jn'ai pas de limites On ne fait pas déplacer Boulbi à moins de 10 000, de 10 000 Cest comme ça quon vit, comme ça quon fait Avec des gros billets, comme ça quon paie Boss du rap game Hey, Boss du rap game Hey Boss du rap game Hey, Boss du rap game Hey 240 en moyenne, Porsche Cayenne Brolic dans lshort, chemise Hawaïenne, à Y-N Boss du rap game Hey, Boss du rap game Hey Boss du rap game Hey, Boss du rap game Hey Jte rappelle Biggie et 2Pac Je ne crains aucun individu marchant sur deux pattes Ton rap montre ses fesses, nest pas pudique, jfais funérailles musique Jtue le beat par respect pour mon public Tire sur les fils de lâches par respect pour mon fusil 16 rimes en guise de hache, demande à Don Milouzi Jtue le biz à chaque projet, mouche à chaque crochet La vie nest pas un fleuve, tranquille négro, ça jconnais Jsuis partout dans les ondes, partout dans les autos Jpréfère avoir un ennemi que la moitié dun poto Ma pupille dans le viseur, aux vrais jlance un big up Mes hustlers, tricheurs, Ünkut sur le T-shirt, le T-shirt Jarrive à plus de Mach 3 Va clouer ta mère, laisse-moi porter ma croix Mal représentés renoi, jdois hausser la voix Fuck la télé çaise-fran, Roselmack et Magloire, izi Cest comme ça quon vit, comme ça quon fait Avec des gros billets, comme ça quon paie Boss du rap game Hey, Boss du rap game Hey Boss du rap game Hey, Boss du rap game Hey 240 en moyenne, Porsche Cayenne Brolic dans lshort, chemise Hawaïenne, à Y-N Boss du rap game Hey, Boss du rap game Hey Boss du rap game Hey, Boss du rap game Hey3</t>
         </is>
       </c>
     </row>
@@ -3127,12 +3127,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Dolce Vita</t>
+          <t>L’olivier</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Ne m'appelle pas, ne m'appelle pas, nan Mucho La Dolce, la Dolce la Dolce, la Dolce Sany San Beats M'appelle pas, j'suis pas là j'suis pas là, j'aime rider la noche rider la noche J'fais brûler la salade brûler la salade, y a personne à côté personne à côté Flingue dans le caleçon dans le caleçon, j'ai pas mes ablutions non, j'ai pas Le bruit du moteur brr, brr fait la conversation conversation Un peu plus près des étoiles, je vois des aigles je vois des aigles Ne confonds pas sang de la veine de la veine et sang des règles le sang des règles Tu adhères ou tu niques ta mère ta mère, ce sont les règles À ses yeux, j'serai toujours le plus fort toujours le plus fort, ce sont des faibles ce sont des faibles Billets jaunes, verts, violets suffisent jamais Le genou sur la ge-gor, j'avais pas les mots Pourquoi tu hausses le ton ? T'as dû oublier à qui tu parlais à qui tu parlais Un négro de plus est un négro de trop On veut la dolce, la dolce vita dolce vita Ô kichta, mea culpa, ne me quitte pas La dolce, la dolce vita dolce vita Y a toutes les couleurs dans le cortège, c'est pas pour autant un arc-en-ciel Enlève tout, j'm'en fous de la dentelle j'm'en fous, balance ton misogyne à Angèle Covid-19 est arrivé, j'n'ai plus que ma feuille et mon crayon Je n'vois pas le bout du tunnel, j'en aperçois quelques rayons L'humain est tellement généreux tellement et à la fois tellement mauvais tellement J'espère que je les saurai heureux j'espère deux secondes avant de crever On ne pourra pas se libérer non, sang d'crâne humain sur le béret Ce soir, je n'vais pas très bien, je mélange du vert et du doré On va régler tout ça On a connu tout ça J'suis pas venu pour ça Regarde, on est tous là Billets jaunes, verts, violets suffisent jamais Le genou sur la ge-gor, j'avais pas les mots j'avais pas les mots Pourquoi tu hausses le ton ? T'as dû oublier à qui tu parlais Un négro de plus est un négro de trop On veut la dolce, la dolce vita dolce vita Ô kichta, mea culpa, ne me quitte pas La dolce, la dolce vita dolce vita M'appelle pas, j'suis pas là, j'aime rider la noche5</t>
+          <t>Loin du bus, j'suis au volant de l'italienne Denza, Denza Woah Woah, oh, oh, oh Woah, oh, oh, oh Woah, oh, oh, oh Woah, oh, oh, oh Jamais mordu la main qui m'a nourri, normal, c'était la mienne J'suis pas un Gnakouri, j'suis un homme, c'pas la même Toujours dans l'tur-fu, j'obéis à loi martienne Elle veut qu'j'lui fasse un petit, elle veut un king, mon ADN Le terrain vient d'ouvrir, j'ai r'connu l'son du KTM J'suis pas au volant du bus, j'suis à gauche dans l'italienne Que j'perde ou gagne, c'est nique ta mère, quoi qu'il advienne Peu importe pour qui j'vote, le croque-mitaine ou Joe Biden J'ai un peu trop de haine, des fois ça mène dans les problèmes Que des numéros 10, sale fils de pute, t'es capitaine J'aime pas les hommes, que pour les gosses, j'ai de la peine L'histoire du 92i commence cité de la plaine commence cité de la plaine L'histoire du 92i commence cité de la plaine commence cité de la plaine C'est l'nouveau monde, j'roule un teh pour oublier Dites à Wallen personne replantera l'olivier Game ridicule, comme le DJ dans Validé On va reprendre les clés, c'qu'on va leur faire, t'as pas idée J'regrette l'époque des cabines, j'attendais qu'tchoin me rappelle Elle monte dans l'Lambo', je la ken, c'est une Citroën qui la ramène T'fais pas trop mal au crâne, ils nous l'ont mise à la one again Pour éteindre DSK, 's ont juste eu besoin d'une Guinéenne Jamais mordu la main qui m'a nourri, normal, c'était la mienne J'suis pas un Gnakouri, j'suis un homme, c'pas la même Toujours dans l'tur-fu, j'obéis à loi martienne Elle veut qu'j'lui fasse un petit, elle veut un king, mon ADN Mon ADN, mon ADN J'ai un peu trop de haine, c'est ça le problème C'est l'nouveau monde, j'roule un teh pour oublier Dites à Wallen, personne replantera l'olivier3</t>
         </is>
       </c>
     </row>
@@ -3144,12 +3144,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>6G</t>
+          <t>A.T.R</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Méfie-toi de celui qui veut l'os Même de tes frères, demande à Pogba Sous champi' comme Mario Bros Fuck la princesse, j'la sauve pas J'la sauve pas J'te parle de dictature, tu m'parles de quinquennat Si j'dis qu'la mer est agitée, c'est qu'minimum c'est Katrina La condition sine qua non, drapeau pirate comme à Tampa Dans leurs cerveaux, y a d'la litière pour chat, c'est pour que ça sente pas Y a pas mort d'homme, 6G, nouvel album, y a pire comme attentat J'suis d'l'ancien monde, elle prend pas l'Ethereum, ma strippeuse d'Atlanta Si j'pense trop, vont m'enfermer, frérot, les cerveaux sont pris d'assaut Le canon est long, cylindré comme une tour des Pablo Picasso Qu'est-ce que t'attends ? Nique-lui sa mère la tchoin, c'est bon, vas-y, t'as l'go Dites à Pékin qu'on a de gros pépins, qu'on vient sans Hidalgo C'est pas la bohème qui m'inspire, gamin, c'est feu Arthur Rimbaud J'admire la fin, verre de lys plein dans un penthouse au Murano Ils te conseillent ce qu'on leur déconseille, la vie, lui tourne pas l'dos J'ai qu'une équipe, toujours la même, on est l'Brésil de Rivaldo J'veux pas crever sans m'battre, me plier en quatre Appelle-moi sur l'appli, on va parler en Jap' Regarde-moi tous ces zouaves, ils vont finir en G.A.V Finir en G.A.V On va creuser des trous pour boucher le gap Pour boucher le gap C'est pas toi qui décides Les vents s'lèvent, te feront changer de cap Changer de cap La vie est une salope Salope Comme Maeva Ghennam, elle doit changer de chatte Elle doit changer de chatte On me parle d'escrocs, on me parle de Blat' Blat' Les yeux levés au ciel Au ciel, j'attends juste la date Comme j'suis ni un clebs, ni un mouton Ni un clébard, j'sais pas donner la patte Y a qu'entre rates-pi qu'on s'fait tourner la carte On coule tous au final, peu importe, notre âme sera restée intacte Sacrifice humain, j'attends l'éclipse J'attends l'éclipse, le Soleil est très en colère Mon meilleur profil est en Égypte Égypte, sur les bâtiments triangulaires Tyrans de demain, tyrans d'hier, ils veulent tout, la Terre entière Ça détaille pour quitter le bétail, des larmes de métal quittent mon iris Des flammes de Sheitan sortent du Urus noir, son honneur ne tient qu'à un PayPal La kichta aux couleurs du maillot de Kobe, du taudis, à l'Audi au lobby N'aie pas le malheur de lui passer l'anneau Si elle demande le prix de l'anneau J'ai mon harem, ma chicha, mon thé, j'ai repris de l'agneau J'ai repris de l'agneau2</t>
+          <t>Yeah you look so fly I'll buy that drink Yeah you look so real, yeah yeah I saw you from across the room Did you came alone, I'll buy your drink? I'm real, no lie Real niggas don't lie I pay your flight, you fly I say you fly Yeah, yeah Yeah, yeah Yeah, yeah Yeah, yeah I say you look so fly I say you look so fly, look so fly I'll buy that shit No lie, no lie, you fly I say you fly Yeah, yeah Yeah, yeah Yeah, yeah Oh yeah These niggas ain't real These niggas ain't got nothin' real Oh yeah J'me fais cer-su, j'fais un room-service J't'ai vue à travers la room'zer bitch Reviens m'voir, fais ton possible Gros bras, toutes les positions sont possibles Donne-moi du love que j'déverse ma haine Des lovés que je ice la chaîne Ta meuf en rêve, la mienne se l'achète Le rap français se lave la schnek J'les laisserai même pas lécher l'assiette Partagez-vous la miette, allez faire crier la muette Sur la route du Septième, y'a pas d'ralentisseur J'suis dans ton bretzel comme un envahisseur Ton string ficelle est plus qu'aguicheur J'suis dans l'textile mais j'vais t'donner plus qu'un t-shirt Smith Wess dans la va-go, c'est un fouineur Tout le monde dans la boîte, gros, t'es un p'tit joueur Quand j'débarque, 100-8 Zoo, y'en a qui pleurent 911 double-turbo, y'en a qui meurent Look so fly Look so fly, yeah, yeah Look so fly Look so fly, yeah, yeah I'll buy that shit No lie, no lie, you fly I say you fly Yeah, yeah Yeah, yeah Yeah, yeah I'll buy that drink Don't lie, I'll buy that drink Don't lie, I'll buy that drink Don't lie, I'll buy that drink Don't lie19</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Game Over</t>
+          <t>Baby</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>On va les mettre game over, game-game over Game-Game over, game-game over-over Game over, game-game over-over Game over, game-game over-over Game over, game-game over Game-Game over, game-game over-over Game over, game-game over-over Game over, game-game over-over Ceci est une exclusivité OneShot Tallac Records Si, si Le crime et la Z.I.K., c'est ça qui me plaît Chaque jour que Dieu fait, du cash c'est ça que je fais J'suis frais, j'suis refait, t'es là, tu rappes en levrette Tu veux pas cher-lâ le steak, tu t'y crois pour de vrai J'ai du nouveau son prêt, je suis le grand sauveur J'ai mon ghetto blaster, j'suis dans mon Range Rover Les demoiselles ont le feu au cul car la planète se réchauffe 9.2 si tu veux pécho, 0.9 sur le réchaud Rendez-vous sous le porche, moi et mes assoc' les cas soc' Tatoués jusqu'au torse, 4 années de loyer en poche Ta grand-mère me reconnait car elle m'a vu à la Star Ac' J'suis un tisse-mé comme Bob man, je suis en stara Nous, tout ce qu'on veut c'est faire des sous, demande à 9.2 Ibou Reuf t'as la haine, j'sors de l'arène au volant d'une Mclaren neuve Fais tourner la beuh, le seau de Chicken Wings On débite les diam's à haut débit, demande à Tony Blings T'es game over, game-game over Game-Game over, game-game over-over Game over, game-game over-over Game over, game-game over-over J'descends à Saint-Tropez, avec mes potes qui pèsent Bikini obligatoire, pour monter dans la Lamborghini M.C, tends-moi la main pour que j'écrase mon mégot Putain de sono dans le coffre, plus de place pour y mettre un négro Les fans m'imitent, passent leur vie à m'épier Mes baskets sentent la schnek, trop de putes à mes pieds M'en sortir sans aucun piston j'suis professionnel J'redonne le sourire aux michtons et aux concessionnaires Ouest Side, Panthéon, Temps mort, si, si, tu connais Équipé Double Poney,je fais de la Izi Monnaie Tellement de diamants sur ma montre, je ne sais plus quelle heure il est 9 millimètres à la baraque posé sur le pare-balle gilet J'arrêterai quand il le faut, je ne ferai pas l'album de trop Tout le monde peut s'en sortir, aucune cité n'a de barreaux Et quand la vie va m'écraser, comme son pire adversaire Passe me voir au Colisée, je ne serai pas au cimetière Je serai game over, game-game over Game-Game over, game-game over-over Game over, game-game over-over Game over, game-game over-over 30 millions d'MCs dans l'estomac Premier round, K.O, négro t'es dans le coma Disque d'or mais tu n'en as pas l'air, tu pues la défaite Moi j'ai un putain de salaire, la putain de sa mère J'viens d'en bas, j'ai réussi comme toi, j'me lève pour faire des loves Donc j'ai des problèmes de riche et des problèmes de pauvres On me dit B2O, qu'est-ce que tu nous racontes de beau ? - J'ai toujours envie de baiser comme un singe bonobo Une fois qu'elles goûtent à mon pénis-nis, j'ai du mal à m'en débarrasser J'peux encore compter mon biff-biff, ça veut dire que j'en ai pas assez Sors pas le même jour que moi, tu vas te faire tabasser J'mets le feu, nappelle pas les pompiers, ils vont se faire caillasser Me détrôner, qui pourrait ? Tellement de numéros, je ne sais même plus qui fourrer Torse nu je n'ai pas de col V, Hennessy à grosses gorgées Mi-Micro dans la paume, j'ai de nombreux projets Tu seras game over, game-game over Game-Game over, game-game over-over Game over, game-game over-over Game over, game-game over-over Game over, game-game over Game-Game over, game-game over-over Game over, game-game over-over Game over, game-game over-over4</t>
+          <t>Putain, putain Biatch, tu veux du biff OK, OK OK on va y aller tranquille, excusez-moi OK Hop, hop, hop OK J'mène une enquête sur ton boule à la Derrick Balance ton vieux mec trop cool à la dérive Tu veux du biff plein d'biff, c'est par ici Biatch faut qu'on baise vite, arrête ton ma-né-ci T'as bien le cul collé au rythme Selon la théorie tu mérites Boob's le météorite Entre les fesses t'as la puissance du RS4 Matraque de CRS, tu pars au 7 sans faire d'escale Grossier ou gentleman selon ton dossier Si t'as sucé tout l'quartier, faut pas t'la jouer Tu veux le faire sans capote, allaiter mon fiston Alors qu't'écartes les cuisses pour un filet-o-fish Non c'est dead, pose ton cul dans l'Mercedes Suce écarte bouge, n'me colle pas comme oncle Ben On m'a dit T'es che-lou toi, dès que tu les baises, tu les trouves re-lou Si t'es une chienne, j'suis un loup, moi Si t'es offensée, baby, on s'excuse, bah oui Poulette ton boule c'est d'la boulette j't'aime tant Baby V'nez toutes en même temps à la suite à la file Gentleman du ghetto moi et mon kho Nessbeal Si t'es offensée, baby, on s'excuse, bah oui Poulette ton boule c'est d'la boulette j't'aime tant Baby V'nez toutes en même temps à la suite à la file Gentleman du ghetto moi et mon kho Nessbeal Karima Karima kiffe les Baccara Y frotter son gros terma mais c'est fini la mascarade Si t'es fashion j'ai le seum qui fait faner les mascara Une rose qui pousse dans l'Sahara man, la rime 24 carats Y'a des hommes qui michetonnent, c'est des gros zemel Aime les tasses qui mythonnent, moi j'aime les gros b'zez 92i West Coast, Gentleman en Weston Grillé comme Lacoste, ya pas de constat quand je cartonne C'est Maroc sticky, moi je t'arrache ton string NE2S c'est qui ? Canon scié en featuring, laisse Laisse les voisins attendre des heures à l'étage Pendant que j'bloque l'ascenseur pour frotter les tasses Les baltringues scrutent ces arabes pour des grosses khanza Ya pas de thunes pour payer l'hôtel Sonacotra Plaza Cosa Nostra, ma zone, Casamance, Maza Hautes-Noues Peace ya pas de romance y'a que des gueules bizarres Si t'es offensée, baby, on s'excuse, bah oui Poulette ton boule c'est d'la boulette j't'aime tant Baby V'nez toutes en même temps à la suite à la file Gentleman du ghetto moi et mon kho Nessbeal Si t'es offensée, baby, on s'excuse, bah oui Poulette ton boule c'est d'la boulette j't'aime tant Baby V'nez toutes en même temps à la suite à la file Gentleman du ghetto moi et mon kho Nessbeal Tu veux du respect, deux-trois conseils efficaces Un dédicace pas ton cul à tous les chiens d'la classe Deux arrête de ber-flam si t'es une grosse pute Si tu mets des porte-jarretelles, j't'emmène dans un hôtel mortel Trois Lâche-moi ton bigo Fais c'que j'dis sans faire d'chichis même si j'roule en Twingo Princesse tu veux visiter le 100-8 Zoo Chez nous y'a pas d'tournantes qui mènent à Fleury Chérie, ni pute ni soumise, chipote pas quand j'te tripote Rendez-vous à la morgue pour identifier le hip-hop OK, OK Baby On fait le remake la prise d'la Bastille chaque soir pour manger une crêpe Sans tié-p', les pneus crissent sur Paris fait mouiller les ptites khel Fais mouiller les strings tièdes, baby C'est le spliff du casse-pipe pour digérer l'tièpe Trop près des perquise des princesses au regard triste Le 5.20 dans le vagin, le mari qui joue sa vie aux assises J'chante l'amour froidement une flaque de sang sur la banquise Dix piges, les jurés ont suivi la peine requise Khoya, elle aiment les mecs qui parlent trop dealer du ghetto Qui montre son biff elle lui met une équipe sur le dos Une brume d'aya, une jeunouya dans les abdos B2O, Panthéon, un son interdit pour les ados Si t'es offensée, baby, on s'excuse, bah oui Poulette ton boule c'est d'la boulette j't'aime tant Baby V'nez toutes en même temps à la suite à la file Gentleman du ghetto moi et mon kho Nessbeal Si t'es offensée, baby, on s'excuse, bah oui Poulette ton boule c'est d'la boulette j't'aime tant Baby V'nez toutes en même temps à la suite à la file Gentleman du ghetto moi et mon kho Nessbeal Si t'es offensée, baby, on s'excuse, bah oui Poulette ton boule c'est d'la boulette j't'aime tant Baby V'nez toutes en même temps à la suite à la file Gentleman du ghetto moi et mon kho Nessbeal Si t'es offensée, baby, moi j'm'en bats les qlawi Baby Moi et mon kho B2O Baby1</t>
         </is>
       </c>
     </row>
@@ -3178,12 +3178,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Après l’automne</t>
+          <t>Dernière fois</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Finders keepers Oooooh Listen, this is getting old Being braver than you Feels like I'm selling my soul Essence allumettes, Tu l'aimes pas ? T'as qu'à lui mettre Chez nous l'amour à distance n'est autre qu'un fusil à lunette La paix c'est comme ton porsche cayenne on l'a jamais vu On a attendu l'drapeau blanc mais ce pd n'est jamais v'nu Ultraviolents depuis le berceau frère si tu savais La défaite laisse un goût amer voilà pourquoi tes larmes sont salées Dans nos têtes y'a que 2 saisons vato l'hiver et l'automne J'vais te déclarer ma flamme avec un cocktail Molotov Tva kiffer ta raza nueve sur le brassard Fils de Fils de Fils de p t'es le Real j'suis le Barça Bref Bref Brefons toutes ces story sont pétées Si j'ai pas confiance en moi comment faire confiance à ces PD ?! J'arrive en bécane J'reste quelques mois sur Paris et je m'arrache comme Beckham Enfin bref oui c'est l'hiver je sens Plutôt que de chialer des lac de larmes je préfère chialer des rivières de sang A c'qu'il parait j'étais tendre Enfin il fut un temps J'te mets une patate en hiver vato tu t'réveilles au printemps A quoi bon sert de viser trop haut si t'atteins jamais le sommet J'ai des plaques mais sans Maybach dur de trouver le sommeil Poto tu fais pas d'argent, tu fais pas d'argent, tu critiques ma cote Si t'es pas content, Si t'es pas content bah ferme ta gueule et vends d'la cock ?! OK ! J'noircis des pages j'écris un flingue sur la tampe Mieux vaut courir après un rêve que passer son temps à l'attendre J'me sens comme un équilibriste sans le fil Parc'que j'suis pas le héros j'crois même que j'vais mourir dans le film Enfin parait-il et j'me demande pourquoi pas réti ? Les lunettes sont fumées j'ai trop de haine dans la rétine Smith et Wesson sous le bombardier Cramé comme un T-Max qui fait 30 fois l'tour de ton quartier On fait tous les fous mais on est tous perdus sans daronne Fais c'que t'as à faire Une action vaut mieux que 100 paroles 1</t>
+          <t>Laissez-moi penser qu'ils seront sauvés Prenez-moi si vous voulez, refermez derrière-moi Laissez-moi chanter la liberté Lillégalité une dernière fois 320 au compteur, la ligne blanche est discontinue Trop rapide pour son cur, elle ne me voit pas, je continue Je n'distingue plus les couleurs, j'vois tout en noir et blanc Jentends la voix du Führer, les rates-pi dans les camps Cur en ruines, comme une épave, han J'ai déjà donné trop d'amour, comprends que je t'aime peu On est plusieurs dans ma tête, on joue tous au même jeu Je casse sa garde en deux, elle se dévoile un peu Le cur rempli de bleus, des étoiles dans les yeux On a contrôlé la ne-zo, on a cru toucher les cieux On a fumé tout le ne-jau, ils nous ont fumé nos vieux Laissez-moi penser qu'ils seront sauvés Prenez-moi si vous voulez, refermez derrière-moi Laissez-moi chanter la liberté L'illégalité une dernière fois Oh, oh, oh, oh, oh, oh, une dernière fois Oh, oh, oh, oh, oh, oh, une dernière fois J'm'éloigne de la misère, plus de point sur lmis-per Jarriverai en retard car j'ai le cur accidenté On sconnait peu mais plus qu'hier, sentiments sur la civière C'est ton cur que j'dérobe, après minuit, les mains gantées Jpense à nous deux, j'suis solidaire Elle veut entendre mes décibels, savoir c'que j'vais manigancer Si tu veux m'voir, regarde le ciel J'me suis éloigné des faux pour voir la vie en vrai Je casse sa garde en deux, elle se dévoile un peu Le cur rempli de bleus, des étoiles dans les yeux On a contrôlé la ne-zo, on a cru toucher les cieux On a fumé tout le ne-jau, ils nous ont fumé nos vieux Laissez-moi penser qu'ils seront sauvés Prenez-moi si vous voulez, refermez derrière-moi Laissez-moi chanter la liberté L'illégalité une dernière fois On a contrôlé la ne-zo on a contrôlé la zone On a cru toucher les cieux oh, oh, oh, oh, oh, oh On a fumé tout le ne-jau oh, oh, oh, oh, oh Ils nous ont fumé nos vieux6</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Reste en chien</t>
+          <t>Mauvais œil</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Yeah, Paris Hey, bande d'enfoirés Viens pas tester la Ouest Side, la Ouest Side 78, oh ha ha... Yeah, La Fouine... ! Reste en chien ! Tu veux nous faire un chrom' mais tu connais personne ? Reste en chien ! Tu veux sortir le gamos, ta tass n'est pas bonne ? Reste en chien ! Tu veux rentrer au King, au V.I.P. et au Duplex ? Reste en chien ! T'as baisé cette crasseuse et l'a ken sans latex ? Reste en chien ! Bas les tass', bas les tass', pas de mandat, rarement en promenade, reste en chien ! Quand j'allume au Gomm-Cogne l'ahi comme héritage, reste en chien ! B2OBA, Fouine-La si t'as pas l'son dans ta gov, reste en chien ! Sur le fond d'écran d'ta tas', ma gueule, il y a ma tof, reste en chien ! Quoi tu veux siffler ma teille ? T'assoir à ma table ? Reste en chien ! Sniffer ma No-No, t'es pas un mec de Trappes ? Reste en chien ! T'as poucave touts tes potes, tous tes reufs, la taule t'as marqué, reste en chien ! Tu veux que j'décroche, t'appelles toujours en masqué, reste en chien ! Tu as pas le palmarès de Samuel Eto'o, reste en chien ! Tu t'es fait griller comme Tunis et Aketo, reste en chien ! T'as voulu clasher, j'ai brisé ta carrière, reste en chienne ! Pas d'deLorean, pas d'retour en arrière, reste en chien ! T'as pas d'contrat d'embauche, tu veux d'faire la semi ? Reste en chien ! Et tu fais plus de bruit qu'un putain d'deux et demi, reste en chien ! T'as jamais cru en moi et maintenant tu m'suces, reste en chien ! Tu changes de potes, comme de phone, comme de puce, reste en chien ! J'voulais sortir en perm, le procureur m'a dit Reste en chien ! J'voulais gérer cette tass sans thunes et elle m'a dit Reste en chien ! J'voulais taffer sans diplôme et le gars m'a dit Reste en chien ! Reste en chien, reste en chien, reste en chien ! J'voulais sortir en perm, le procureur m'a dit Reste en chien ! J'voulais gérer cette tass sans thunes et elle m'a dit Reste en chien ! J'voulais taffer sans diplôme et le gars m'a dit Reste en chien ! Reste en chien, reste en chien, reste en chien ! Banlieue to the La Fouine to the 7.8, c'est dangereux Banlieue to the La Fouine to the 7.8, c'est dangereux Banlieue to the La Fouine to the 7.8, c'est dangereux Banlieue to the La Fouine to the 7.8, c'est dangereux Trop d'bouffons dans l'industrie donc je n'me-me mélange pas Après minuit je baise ne m'appelle pas, ne me-me dérange pas Tu veux m'attraper dans tes chansons ? Bonhomme faut qu'on en parle Autour d'un 3.5.7 Magnum rempli de-de balles Reste en chien ! B2O je m'intitule, gangster est l'attitude Austère quand j'prends l'mic, ta pute a tous mes posters Auprès des jeunes j'ai de l'impact, j'te l'dis franchement Si tu passes à la barre, prononce pas mon blaze à ton jugement Bienvenue à Boulbi, on t'interpelle sur un coup d'fil Chez nous le profit n'a pas de profil J'te l'dis, j'ai vendu coke, shit... Pas b'soin d'lire entre les lignes Je ne, ne compare pas mes délits et Médellin Dans des gros bizs pour du gros biff', l'oseille n'est que d'passage J'en donne au prostituées, au salon d'massage J'arrête de fumer toutes les deux semaines Ouest Side Tu veux ma chaîne, ma liasse, ma chie-chienne, reste en chien Reste en chien ! J'voulais sortir en perm, le procureur m'a dit Reste en chien ! J'voulais gérer cette tass sans thunes et elle m'a dit Reste en chien ! J'voulais taffer sans diplôme et le gars m'a dit Reste en chien ! Reste en chien, reste en chien, reste en chien ! Tu voulais qu'on passe ton son chez Cut Killer ? Reste en chien ! Si t'es un keuf, un huissier, un inspecteur, reste en chien ! Tu veux monter sur scène mais tu mets pas l'feu ? Reste en chien ! En plus tu t'es fait r'caler chez Couvre-Feu, reste en chien ! T'entends pas où quoi ? Trop de flow, trop de tass', trop de keufs, toute la banlieue ouest au cul, reste en chien ! Tester mais no no non pas de ça chez nous, reste en chien ! Tu veux des gifles-gifles ? Man t'as pas d'équipe, reste en chien ! Tu veux serrer, t'sais pas parler, les meuf te tchippent, reste en chien ! T'es recherché, t'as fait des chroms, t'es dans la merde, reste en chien ! T'investis dans l'Sud avec des ki-kilos d'herbe, reste en chien ! Paris j'arrive, 78 voilà mon empire ! Reste en chien ! Tu veux tester man ? Une seule chose à dire Reste en chien ! Banlieue to the La Fouine to the 7.8, c'est dangereux Reste en chien ! Banlieue to the La Fouine to the 7.8, c'est dangereux Reste en chien ! Banlieue to the La Fouine to the 7.8, c'est dangereux Reste en chien ! Banlieue to the La Fouine to the 7.8, c'est dangereux Reste en chien ! Yeah Banlieue to the 9.2 to the 7.8, c'est dangereux Si, si Reste en chien sale chien Bi-Bi-Bi-Biatch !4</t>
+          <t>Han, yeah M.A.S.A.R 0.6 T'sais comment ça s'passe mec On fait les choses bien Moi-même à la prod Mic Force Prêt ou quoi ? Hey yo! j'ai fait mes classe partout où la vermine traîne Des cellules de Grasse au New York et Jersey jails Ils mon qualifier dcriminel car jtraîne un Casier judiciaire dpuis les conseilles disciplinaire Je n'suis qule produit de mon environnement Dvos cliques de faux types peut on en dire autant? Non Je ncrois pas, hey yo! moi jne blague pas Toi tu parle de rue mais j'te jure on nte vois pas et La troupe de pantins par laquelle tu tfais escorter quoi Jlai ai tous extorqué aucun d'eux n'a rétorqué Je nrespecte qusi peu dces MCs Nadresse aucune formes de politesse car je suis sans merci Comme tu a put le remarquer Je nviens pas juste de débarquer mec jai su me démarquer Hey! Jme fou dvos chiffres et dvos études de marché Du coût dvos clips ou dvos réput de quartier Donc arrête tla raconte pas Non mparle même pas dton contrat Les seul ronds que tu fra sront avec l'aide d'un compas Trop dsons fréquemment douteux Mais tu l'sais qu'depuis l'début mon départment fou l'feu Mon consort va sortir incessamment sous peu Rtrouve nous au contrôle d'un bolide méchamment coûteux Écoute ce flow purement délivrée Ceux à la strophe nullement maîtriser vont surment dénigrer Diron qumon succès n'est aucunement mérité Car leurs offres de bénévolat j'lai ai quoi? dûment décliné Masar pur sang pédigrée toute la baie le sais Bâtard plus ltemps d'hésiter maintenant paie le blé C'qui me plait je fait oui je reste frais O6 Mic Force vrai de vrai Maudit soit Donnie Brasco Tu m'parles, ne mendies pas trop Négro j'suis en mode Otis Dans le Audi quatro J'ai touché de la weed à quatre T'as touché de la weed à dix J'mendors devant Winamax Tu te lèves pour des Weetabix Depuis le boom bap, j'fais ma monnaie seule Fuck les rivaux, ça bouge pas J'ai le niveau d'Booba dans Mauvais Oeil Ouais j'ai le feeling zin File vite dans le 6 litres 5 Et le phillies est comme Philippe Il est plein La zeb est à 30, c'est d'la Maitre Gims Ma princesse veut d'la musique, j'vais lui mettre Prince Regarde leur table, cochon et sanglier Regarde ma table, pochon et cendrier Ton style est trop vieux pour m'épater Pour moi t'existes pas T'es comme Dieu pour un athée Et d'façon fuck l'agent, l'proc Pour qu'tes parents fassent le hajj Faut de l'argent propre J'entends sheitan faire Rappeur faire des wesh-wesh Dans ma ville ça canarde On dirait une guerre Est-Ouest Tout l'monde posté comme la douane d'vant le péage Dans cette pute on fait des burns Ca pue la gomme et l'embrayage Genou à terre, que pour un virage à la Et j'reconnais mes erreurs comme un visage à la morgue T'es là, on t'connait pas, on t'mate des pieds à la tête T'es à sept semaines de plot Mais sur tes pieds y'a pas de tête Mic Forcing, p'tit batard C'est les chants barbares qui nous bercèrent Va t'falloir un pare balles épais comme l'épée de Berserk Suffit d'une folie, genre carotte un 25 Pour qu'le ghetto vienne Et 25 brolicks Tirent en jouant la 5ème symphonie de Beethoven Yes we can ? No you can't Même si j'suis pas chaud j'vous ken Perfect à base de shoryuken</t>
         </is>
       </c>
     </row>
@@ -3212,12 +3212,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Je sais (Freestyle Rihanna)</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Hé, hé Tout c'que je sais Au comptoir d'un titty bar, de l'or partout comme à Trinidad L'art de la guerre et du trépas coule dans les veines de la brigade Tu crois que je dérive, mais c'est toi qui divagues Ah si j'étais riche, prends ton kalash et on y va Je dis vrai, j'ai des Louis Bags, que des rat-pi, des Hooligans Dans mes bureaux de style il n'y a plus trop de style on ne fait que du design de fusillade De la coke dans le fuselage, je t'envoie Rocco pour dépucelage C'est ta rondelle qui te lâche, j'baise des grands-mères dès mon plus jeune âge Le Rap Français dans son cul je nage, va jusqu'au bout si tu menaces Héé, c'est tout c'que je sais Oui oui c'est tout, c'est tout c'que je sais Oui oui, c'est tout c'que je sais, sais Tout c'que je sais, tout ce que je sais Oui, oui18</t>
+          <t>T'sais quoi ? J'ai d'la 0.9 Si, si D'la 0.9, hello D'la re-pu kho, Hauts-de-Seine Hoss, boloss 9 décembre, j'ai les mains froides La France veut m'embaucher, tenter d'me réchauffer Elle peut se mettre un oid, je ferai mon propre chemin Non à l'A.N.P.E, oui à la débauche, fuck demain Citations sans félicitations, de drame en drame Je n'fais pas bonne impression, je sais J'avance de gramme en gramme Mais j'ai choisi ce train d'vie, j'en assumerai les conséquences Des aléas d'la street, j'en ai pris connaissance Du hood à Hollywood, j'en rêve comme tous les autres Mais j'irai simplement d'une cellule à l'autre Jeune noir, rien à foutre, comme ça qu'j'me défini Rien n'a commencé, j'me dis qu'tout est fini Les mains sales j'écris mon récital De bataille est mon champ lexical, je n'suis qu'une racaille 0.9 dans la peau, les colombes sortent de mon chapeau Les colons ont mon drapeau J'ai des flashs de ségrégation Nelson mon co-détenu m'a aidé à tenir bon Mais je n'ai ni son calme, ni sa sagesse J'ai un Kalashnikov tout neuf, moi c'est 92 Ouest On m'a déjà tué deux fois, une fois à Memphis, une fois à Harlem Jamais deux sans trois, j'attends ces fils de pute, qu'ils viennent À 10 ans, j'ai vu Gorée depuis mes larmes sont éternelles Ma rage automatique, mes armes semi-automatiques Être hors-la-loi me soulage, j'me dis qu'ils ne m'auront pas Je vends d'la drogue aux jeunes, j'en vends à leurs rents-pa Peu importe tant que ma poche est pleine, ces chiens n'ont qu'à crever la bouche ouverte Moi j'ai besoin de cash, besoin de découvertes J'passe pas à table j'mets pas les couverts J'suis condamné à vivre, j'me f'rai jamais sauter l'couvercle B2OBA je m'appellerai, moitié Babtou En hommage à mon cousin Booba de Baobab L'ennui est le pire ennemi du banlieusard Le crime a payé parfois, beaucoup plus fort que ma foi Paquets de cocaïne, défie la brigade canine Respire mon sachet blanc, dure plus longtemps qu'Alcaline Rejoins moi dans ma suite au Lorraine Motel Je sors fumer une clope, je reviens tout d'suite En bas d'chez moi, j'ai repéré des taupes On se croit au dessus des lois, eux, se croient au-dessus des nôtres Et je sais que je vais plonger, ils sont sur mes cotes J'ai des frissons rien que d'y songer Ye-Ye-Ye-Yeah Le son qui sort à 0.9 net On a commencé minos, vomi nos tripes au mic Pas là pour plaire aux meufs, mec Tu veux d'la qualité, 0 bluff, 0 bluff, 0 bluff C'est de la 0.9, 0.9, 0.97</t>
         </is>
       </c>
     </row>
@@ -3229,12 +3229,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>B2OBA</t>
+          <t>Couleur ébène</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Qui remet ça ? Devine ! À l'horizon, toujours deux ou trois keufs en civil Négro, j'ai caché mon butin dans deux ou trois villes J'emmène deux ou trois putains dans deux ou trois îles Je n'me présente pas, tu sais qui je suis Je ne plaisante pas, tu sais qui me suit J'ai lu mon avenir dans un bol de riz B2OBA, 92I Si tu cherches un mec mortel, je suis sur Yahoo Y'a ceux qui sucent des bites, négro, et y'a nous Mon rap n'est pas trop dur, c'est toi qui es mou La meilleure cocaïne vient de chez nous Rappelle-toi l'époque où je cassais des porcs Quand je traînais au bloc, quand je faisais des loves Chaque fois qu'j'allais en boîte, je me mangeais des stops J'peux pas baisser mon froc, j'vais faire tomber mon Glock Qui remet ça ? Devine ! À l'horizon, toujours deux ou trois keufs en civil Négro, j'ai caché mon butin dans deux ou trois villes J'emmène deux ou trois putains dans deux ou trois îles À quoi sert d'être au tier-quar sans faire de cash ? Tu prends le micro, sans faire le taf J'suis dans les euros, pas dans les affaires de 'tasses Suce-moi dans ma Lambo sans faire de tache Je fais de l'argent, l'argent ne me fait pas Embrouille, je suis coté en bourse, Tarzan ne le sait pas Mon continent appelle à la rescousse, personne ne le répare Si ton polo c'est pas du Ünkut, négro, ne le mets pas 22, v'là les condés, mon Range Rover sent la beuh Ces pédés m'ont repéré et je ne vois que du bleu L'avaler toute entière, je crois bien que tu peux Une grosse voiture, une grosse queue c'est ça que tu veux Qui remet ça ? Devine ! À l'horizon, toujours deux ou trois keufs en civil Négro, j'ai caché mon butin dans deux ou trois villes J'emmène deux ou trois putains dans deux ou trois îles Je suis trop loin pour que tu fasses quelque chose Là où je passe, il se passe quelque chose Deviens ma femme pour que je t'offre quelques roses Quelques grammes, quelques boloss, Hauts-de-Seine, quelques doses Beaucoup partent en retraite anticipée L'important est de gagner, j'm'en tape de participer MC's échangent rondelles contre liquidités NTM, Solaar, IAM c'est de l'antiquité Trop de métisses, de noirs et de beurs L'industrie du disque est morte de peur La planète Terre est une triste demeure J'ai le 06 à Lucifer plus je vis, plus je meurs B2OBA, Boulbi, OK6</t>
+          <t>Couleur ébène, douleur et peine Un jour tu ris, un jour tu pleures Un jour tu vis, un jour tu meurs Couleur ébène, douleur et peine Noir et blanc, blanc et noir, mon pays d'accueil Applaudi, maudit, j'ai vomi sur ma feuille J'ai tout vu, j'ai rien dit, mi-bandit, mi-ange J'suis trop loin pour revenir, enfermé j'ai grandi Je veux l'être, j'vais l'devenir, aujourd'hui je n'prie pas c'est dimanche J'ai qu'une vie, j'ai la dalle, j'ai qu'une cible, j'ai qu'une balle Une parole, j'suis qu'un homme, j'suis qu'une flamme, j'ai qu'une femme PDG d'un label, négro j'ai l'sommeil léger Si ma life c'est d'la merde, crois pas qu'la tienne elle est mieux T'as pigé c'est 9.2, chez nous la haine elle est mieux Le ciel joue à cache cache, le destin se fait vieux Fume du hasch pour mourir, fume du hasch pour guérir Un jour tu ris, un jour tu pleures Un jour tu vis, un jour tu meurs Couleur ébène, douleur et peine Un jour tu ris, un jour tu pleures Un jour tu vis, un jour tu meurs Couleur ébène, douleur et peine Un coup d'shlass pour du cash, un coup d'fil pour 10 kils C'est le drame en cellule, on t'encule pour un gramme J'y ai cru quand j'ai vu, j'ai appris quand j'ai lu Promenade, parloir, comme un chien, comme un noir C'est la maille notre espoir, les vraies valeurs ne sont plus Ça n'fait pas le bonheur, ça n'fait pas l'malheur non plus Moi j'aime bien quand ça brille, quand ça tire quand ça deale La banlieue c'est dangereux, c'est pas marqué dans la Bible Un jour tu pleures, un jour tu ris B2O c'est mon blaze, personne n'ira où je vais Si t'as pas d'raison de vivre... Trouve une raison de crever J'veux que t'aies la haine car je brille, que tu viennes me le dire Que ta reine soit ma chienne, que tu craignes le pire Moi je rêve, j'accomplis même si je crève incompris J'ai du gloss sur la verge, de l'encre dans les veines Du pétrole sur les lèvres, ma vie est tristement belle Des averses de bonheur, des cyclones de douleur Un jour tu ris, un jour tu pleures Un jour tu vis, un jour tu meurs Couleur ébène, douleur et peine Un jour tu ris, un jour tu pleures Un jour tu vis, un jour tu meurs Couleur ébène7</t>
         </is>
       </c>
     </row>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>HLM 3</t>
+          <t>Pucc’ Fiction</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Je vais te dire, je suis pas une star, pour mourir il faut qu'une balle Détesté, pour m'faire tuer il faut qu'une barre Même à crédit boum, le bruit de mon son Cool que dans ma base, roule que des gros joints de case On va tous revenir ici, bilaye Je vous l'avais dit que les vrais savent, Ousmane, HLM 3, je crois Les colons nous l'ont mise profond À l'envers on va leur faire, mate ici ce que les khos font Du dégoût pour mes fils de Kédougou et Rufisque C'est pour les rues de mon bled sur disque Dix sur dix mon pays, mon perso Et les toubabs veulent arracher l'fusil d'mon berceau J'ai un pied dans la merde, un pied dans la mosquée Bousille la rime au Uzi, 92i B.O, Banlieue Ouest, négro Des holsters avec des micros, ils croient qu'Paris c'est Sarajevo Pourquoi ça gaze autant ? Chez nous y a pas l'OTAN Alors si y a la guerre, ça va durer longtemps Je suis là pour représenter les gars qu'ont pas le temps de plaisanter Ali, Brahms, Mala, Shepe, la marijuana One five one, dingue est la dinde Kho, c'est du béton, c'est de la jungle Maintenant ils veulent nous stopper pour nos lyrics explicites Codées dans des raps illicites, stockées Dans nos albums que récitent nos jeunes, c'est de ça qu'ils flippent Que nos messages passent et que leurs mensonges s'effacent Place mes rêves, mes solutions Ma révolution, pas de trêve Chaque jour me lève avec la victoire pour résolution À celui qui la donne et la reprend va toute ma dévotion Pas de doute naturel MC Me fie à mon instinct, à mon émotion Dans un État où la justice manque d'équité Qu'ils retiennent que tout système a une faille, sang et chrysanthèmes dans les J.T Les images défilent Apocalypse dans les villes, y a pas que du calypso dans les îles Crack inhalé jusqu'à nos allées Les virus s'abritent dans la chair des bêtes L'esprit malin, dans la tête des hommes installé 667, 92i, 45 kho Qui a dit que la rue s'est adoucie ? Ici les putains veulent du rap doux T'auras qu'la boue qu'il y a sur mon doo-rag Du rap avec mon double, mon quartier, mon département 92 troublant, clan des man appartenant Je double, on est venu récupérer notre dû Dans vos rues on va faire couler votre pus Chaotique, des lyrics à la rythmique Le funky son qui met des front kicks Pour Oumar et le Dorse coincés au bloc, trafic, la vie oblige Dans les bacs, ma vie oblique tracée au Bic C'est ma nature, tout niquer sans faire de ratures Interdit aux bâtards, fait monter la température B.O, Banlieue Ouest, négro Des holsters avec des micros, ils croient qu'Paris c'est Sarajevo Pourquoi ça gaze autant ? Chez nous y a pas l'OTAN Alors si y a la guerre, ça va durer longtemps Je suis là pour représenter les gars qu'ont pas le temps de plaisanter Ali, Brahms, Mala, Shepe, la marijuana One five one, dingue est la dinde Kho, c'est du béton, c'est de la jungle On m'a dit il pour il, dent pour dent, j'ai répondu deuil pour deuil et sang pour sang, âme pour âme Mais j'ai puisé ma force dans le pardon A.L.I., ainsi est ma vie T'es des miens, en silence marchons Ce que je détiens t'appartient sauf les erreurs, passons Mon son la pression mes textes l'avertissement De ce monde, défie le mauvais il sans talisman Distant de tout ce qui pourrait pourrir mon existence Mon combat, ma lutte, ma cause, ma résistance Près de ceux qui refusent l'oppression De par ma parole diffuse ma vision, rimes sans poésie Rap, musique réelle Comme les bavures et les expulsions, ennemi public Dans la mire toujours la même silhouette Vengeance, ceux qui la souhaitent ne manquent pas Attends-toi à plus d'un attentat, ici la France Loin des ambiances pétards-14 juillet Quand c'est trop tard et qu'y a du sang à essuyer C'est sur le miens que les médias focalisent Apocalypse immédiat, ni basques, ni corses Ma clique revendique à visage découvert Microphones ouverts, et nos actions s'amorcent, féroces C'est pour mes gens aux instincts de fauves Lions de Judée et Black Panthers, faut que ça rugisse dans les cages Mérogis et 92 Nanterre A.L.I., Booba, Lunatic On t'serre, on t'saigne B.O, Banlieue Ouest, négro Des holsters avec des micros, ils croient qu'Paris c'est Sarajevo Pourquoi ça gaze autant ? Chez nous y a pas l'OTAN Alors si y a la guerre, ça va durer longtemps Je suis là pour représenter les gars qu'ont pas le temps de plaisanter Ali, Brahms, Mala, Shepe, la marijuana One five one, dingue est la dinde Kho, c'est du béton, c'est de la jungle</t>
+          <t>Aéroport de Bogota, paré au top c'est Lunatic, Pit Départ dans 10 minutes en cas de doutes, planque la coke dans le cockpit Briquez les armes, voici le plouc, un doute, un souci ? Shootez tout ce qui bouge, on sretrouvera là où vous savez Tout de suite, le type il devient louche, sa sueur coule comme s'il s'était douché Tel tous les fous qui voulaient me doubler mes roubles Je le touche c'est quoi le gros, c'est quoi ton blème-pro ? Merde ! Fils de pute, t'as un micro ! Tes quun gros stup T'es trop stupide, bouge pas, j'vais t'buter, sale flic... Jviens de buter un sale flic, Pit couvre ma fuite, vite J'ai mon Bouygues d'où je puise toutes mes sources, jfouine Jfouille les rues et tombe sur mon pote Steve Il me demande qui je veux, se prive pas pour Poukave Bloopalooza, son petit neveu C'est Bloopalooza, c'est fou ça Ce coup-ci il saura ce qu'il en coûte d'avoir voulu souhaiter doubler ma Black Mafia ! Les seules lois auxquelles jcrois les miennes ! Chienne de vie, bois à la tienne et à la santé Black Mafia ! Jfinirai pas comme Scarface, percé de partout, blaze dans la coke Et criant Fuck you motherfucker Black Mafia ! Lève ton flingue, charge-le, sois dingue Vise dans le tas et n'hésite pas si on injurie Black Mafia ! La monnaie, Black Mafia ! Le sexe Black Mafia ! Les flingues, Black Mafia ! Oxmo Puccino Sur la route pour aller chez Bloopalooza Une luxueuse Lexus rouge vitres fumées me file de peu Stoppé au péage, les carreaux de la caisse en question coulissent On mitraille sec, les hommes sont masqués mon chauffeur encaisse Je mlaisse tomber Un ! laisse rouler Deux !, une grenade, sous les roues Des Booms Booms, beaucoup d'hommes en fumée J'arrive à pied, fatigué, un gars fait le guet à l'ascenseur Jle bute, je monte au 7 et jfais gaffe à Tony Et au 7, Tony m'intercepte, un 357 longue autonomie Les douilles tombent, l'ascenseur est niqué Tony se fige, panique, ce ripoux flippe, où suis-je ? Il spose la question qui peut buter Oxmo Puccino ? Grosse réponse pour Tony quand la porte explose L'ascenseur puait, j'avais choisi d'user mes Wallabees T'abuses, Tony t'as usé toutes tes balles Je sais que j'ai raison, ma ruse user ta vie, j'ai mon Uzi Je mretourne, Bloo, t'as fais une lourde bourde En bref, tu m'as donné aux keufs, j'ai peur pour toi Pourquoi tu mens ? Cesse ta farce parce que si c'est pas toi, mais qui ? Mais cesse de chialer tu souilles mes Clarks ! Alors trois gros trucs percutent son fils de putain de crâne Pour trois très grands trous grands comme mon crew Black Mafia ! Les seules lois auxquelles jcrois c'est les miennes Chienne de vie, bois à la tienne et à la santé Black Mafia ! Jfinirai pas comme Scarface, percé de partout, blaze dans la coke Et criant Fuck you motherfucker Black Mafia ! Lève ton flingue, charge-le, sois dingue Vise dans le tas et n'hésite pas si on injurie Black Mafia ! La monnaie, Black Mafia ! Le sexe Black Mafia ! Les flingues, Black Mafia ! Time Bomb Le lendemain 16 heures, je becte mes corn-flakes Et ce réflexe, je presse le ON de la TV, devine ce qu'elle dit ? Eh bien, que le type qui flippait dont le slip trempait plus Que celui des filles de clips exécuté était un sosie Et que le F.B.I. guette ma Black Mafia M'accuse de vouloir péter la tête du traître Me voilà fugitif, vite jprends mon fusil, vise J'entends quelqu'un té-mon, qui c'est ? On me répond C'est pour un emploi, jme présente On me dit que l'homme à tuer c'est Oxmo du 20 moins 1 Le black mafiosi Puccino, mon voisin du crime, chef des casinos Il me semble que c'est urgent, ce soir on verra les urgences Le contrat est sur toi Pucc, il faut qu'on s'organise Faire flipper la firme, qu'elle balise quand jverbalise Piège la valise du Boss, dynamite sa caisse, réuni la tèc' Et pour les dégâts, laisse-les, on sait déjà Bon, écoute Booba, je sais où Bloopalooza se la coule douce Si t'as un Land Cruiser, pousse bien, on est là-bas pour 12 heures Toc-Toc-Toc, salut Bloopalooza sale schnock T'as bien raison de flipper, je t'ai retrouvé, je suis équipé d'mon Glock Le macaque me sort son Magnum, ne blague pas Me nomme le mac mort, me braque et ne me manque pas Touché au bras gauche, fausse blessure Jmets un coup de pied dans la crosse et sors un surin de ma chaussure Je lui fous un coup de couteau sous son cou Tout son juice coule jusqu'à son poumon, ça c'était pour mon crew Enfoiré, tu croyais que t'allais me tuer ? Mais tu es fou ou quoi ? Autant évacuer la Chine en une nuit ! Et puis jvais pas te tuer, non, dis pas merci Booba, tue cette merde puante qu'on se casse d'ici J'entends des sirènes, c'est les keufs, oublie les keufs Pucc, prends ton pouchka Cache-le dans ta manche gauche, bougeons...! Passe moi le blouson, lâche ta cocaïne aux chiottes Et démarre la jeep qu'on se casse loin d'ici, Oxmo Puccino Puccino, Puccino Puccino, Puccino Puccino, Puccino Puccino7</t>
         </is>
       </c>
     </row>
@@ -3263,12 +3263,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Cruella</t>
+          <t>MQTB</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>C'est sûrement Cruella. Ta chère compagne de classe, Cruella d'Enfer. C'est ça Izi money, izi life Oui tu nous connais, frais, izi nice Izi money, izi money Oui tu nous connais, frais, izi nice Yo liasse de 500 E, Oprah sur ces tasspés Beaucoup trop d'argent négro ce ne sera jamais assez Mes jeunes thugs ont la dalle, je te parle pas de Kinshasa Avec les briques qu'on blanchit je te refais la dar d'Obama Les employés sont SDF, tu les trouveras dans les rues Donc tu ne me verras pas, j'ai d'autres choses à faire qu'être vue Mental de paysanne, je suis concentrée sur ce blé J'appelle ton dealer Louboutin, il est à mes pieds Si tu fais le chien, je ferai la chinoise Il me faut mon show sur E, j'te refais le visage Lequel est le plus rapide, postuler ou braquer ? Hum...Le temps c'est de l'argent, j'ai du temps à gagner Izi money, izi life Oui tu nous connais, frais, izi nice Izi money, izi money Oui tu nous connais, frais, izi nice Liasses de 500 euros, les chiens de la BAC me guettent J'y retournerai 'ap comme R. De Niro, les négros veulent me uer't Ice Ice sur le poignet, salement accompagné Paye cash en ck-bla, Shay c'est le ze-bla J'dois rejoindre le renoi au paradizio Fuck les haineux Paf le chien, paf le physio Les négros se cachent pour mourrir, on y croit Winner nigger, j'ai l'oeil du tiger Rocky 3 Je connais pas Big Meech, ni Larry Hoover Dans mon quartier il y a pani baltringue, pani loser 92 izi négro gangster et gros fouffeurs Laisse les groupizi en pleurs la chatte en chou fleur Izi money, izi life Oui tu nous connais, frais, izi nice Izi money, izi money Oui tu nous connais, frais, izi nice Plutôt géométrie, les cops sont toujours carrés Africain est le ness-bi, noir est le marché Tellement internationale, mon passeport est trafiqué Mec il y a la rhass à Benjamin sur mes papiers Et des marques sur mon corps comme si j'étais l'ex à Chris C'est quoi le sex appeal d'un mec ? Hum sa Maserati Tous les thugs que je côtoie font du bénef Du biff dans la team, l'équipe à Tevez J'marche avec des négros qui tiennent leurs promesses 4-5 auto silencieux pour faire des prouesses Jouer avec moi c'est comme jouer avec sa life Cruella d'enfer j'fais la peau à tous ces bâtards Izi money, izi life Oui tu nous connais, frais, izi nice Izi money, izi money Oui tu nous connais, frais, izi nice</t>
+          <t>The Danger Yeah Ce soir, j'fais l'tour de chaque boîte J'serre une 'tasse de chaque race Reconnaissant, m'souviens d'chaque passe Rancunier, m'souviens d'chaque crasse T'as un gros cul mais t'as pas d'classe J'fais l'cash, eux, ils jacassent On n'parle pas d'eux s'ils font pas d'clash On n'parle pas d'eux s'ils font pas d'clash Ce soir, j'fais l'tour de chaque boîte J'serre une 'tasse de chaque race Reconnaissant, m'souviens d'chaque passe Rancunier, m'souviens d'chaque crasse T'as un gros cul mais t'as pas d'classe J'fais l'cash, eux, ils jacassent On n'parle pas d'eux s'ils font pas d'clash On n'parle pas d'eux s'ils font pas d'clash Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? J'veux juste savoir, mais qui te baise ? J'veux juste savoir, mais qui te baise ? J'ai grandi sur du Demon One, j'parlais d'mon passé d'malhonnête T'as commencé l'rap derrière ton Mac, moi, à ton âge, j'étais au hebs On porte des grosses chaînes, on baise des grosses chiennes Que tu viennes du Bronx ou d'Saint-Étienne, fais pas des tiennes J'allais embarquer trois latinas, les gows ont Googlé mon se-bla Le cours de leurs schnecks a explosé, ça m'a couté dix bouteilles de rosé Aucune bien sûr fut engrossée, MQTB, d'mande à Dosseh Elle a mes enfants dans le gosier sur tout l'rap français, j'ai des dossiers J'la rappelle plus, elle a grossi Paris, c'est loin et moi aussi Si y a embrouille, on négocie pas, t'as pas d'quoi nourrir un Tamagotchi J'turn up dans ton cavu si j'te donne l'heure, tu perds la vue J'turn up dans ton cavu si j'te donne l'heure, tu perds la vue Trois mojitos, j'sors pepito, dame un besito, pute P'tit pont dans la schneck à Linda, hors jeu fort, j'vais droit au but Je fais chauffer les Barilla, j'garde la che-pê, j'fais des push-ups Nouveau Bentley, je vais pull-up, ta tchoin a ma cons' dans sa culotte Ce soir, j'fais l'tour de chaque boîte J'serre une 'tasse de chaque race Reconnaissant, m'souviens d'chaque passe Rancunier, m'souviens d'chaque crasse T'as un gros cul mais t'as pas d'classe J'fais l'cash, eux, ils jacassent On n'parle pas d'eux s'ils font pas d'clash On n'parle pas d'eux s'ils font pas d'clash Ce soir, j'fais l'tour de chaque boîte J'serre une 'tasse de chaque race Reconnaissant, m'souviens d'chaque passe Rancunier, m'souviens d'chaque crasse T'as un gros cul mais t'as pas d'classe J'fais l'cash, eux, ils jacassent On n'parle pas d'eux s'ils font pas d'clash On n'parle pas d'eux s'ils font pas d'clash Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? J'veux juste savoir, mais qui te baise ? J'veux juste savoir, mais qui te baise ? Yeah, les verres sont fumés pour cacher les cernes Eau de feu pour enflammer les scènes J'prends le pouvoir à la Boumédiène Tiep bou dien et j'suis prêt pour les ken Chaque jour, je prie pour que Dieu m'apaise Chaque jour, elle m'supplie pour que je la baise Le chassé du gauche est de Yaoundé Patate du droit est sénégalaise Vozodkaza dans le rreze-veze Pozote-caza dans steze-veze Swag d'enculé, flow de baisé J'emporterai rien quand j'vais crezeverzer J'suis plus Ashley Graham que Bella Hadid J'suis Game of Thrones, t'es Camping Paradis Tendre la main à des bras cassés C'est prendre les risques d'chopper leurs maladies Mon but, c'est de la mettre à l'abri Donc tant pis si je rends pas fière la mif J'rappe pour les lossas d'mon acabit J'crois qu'j'ai un bon fond mais tout est relatif Ces rappeurs sont pétés, c'est sidérant L'argent, c'est rien qu'un problème différent Peur de Dieu, comme Jerry Lorenzo J'me rappelle même plus où j'ai volé c'flow Ce soir, j'fais l'tour de chaque boîte J'serre une 'tasse de chaque race Reconnaissant, m'souviens d'chaque passe Rancunier, m'souviens d'chaque crasse T'as un gros cul mais t'as pas d'classe J'fais l'cash, eux, ils jacassent On n'parle pas d'eux s'ils font pas d'clash On n'parle pas d'eux s'ils font pas d'clash Ce soir, j'fais l'tour de chaque boîte J'serre une 'tasse de chaque race Reconnaissant, m'souviens d'chaque passe Rancunier, m'souviens d'chaque crasse T'as un gros cul mais t'as pas d'classe J'fais l'cash, eux, ils jacassent On n'parle pas d'eux s'ils font pas d'clash On n'parle pas d'eux s'ils font pas d'clash Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? J'veux juste savoir, mais qui te baise ? J'veux juste savoir, mais qui te baise ? The Danger2</t>
         </is>
       </c>
     </row>
@@ -3280,12 +3280,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Boss du Rap Game</t>
+          <t>Salade, tomates, oignons</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Wesh re-noi ? T'as j'veux dire ou t'as pas j'veux dire ? Hein Piraterie de haut standing 92izi dans le building 500 chevaux minimum, 340 à lessai Comment tu, co, comment, comment tu vas faire pour marrêter ? Si je tue pas le beat, le beat me tue Personne peut me signer, je cours plus vite que la sique-mu Ils te disent que tu ny arriveras pas, demande à Bertrand, ma gifle tue Monsieur lagent, la chatte à ta mère, qui siffles-tu ? Essaie de nous soigner avant que nos plaies vomissent le pus Comme un pitbull avant dte baiser, jte renifle le cul Du biff veux-tu ? Du biff tauras Il faudra quil fasse de largent, pas que le biff le tue Baise bien ta meuf avant quelle grossisse Jm'excuse pour celle-là, B.2.O.B.A. Brolics N Roses Saddam Hauts-de-Seine, 100-Ocho sur les ogives Jpasse à autre chose, flamme de Zippo sur les olives Naime pas seulement une go car elle est bonne et jolie Un gros cul de déesse nous ferait faire des folies, oh oui Cest comme ça quon vit, comme ça quon fait Avec des gros billets, comme ça quon paie Boss du rap game Hey, Boss du rap game Hey Boss du rap game Hey, Boss du rap game Hey 240 en moyenne, Porsche Cayenne Brolic dans lshort, chemise Hawaïenne, à Y-N Boss du rap game Hey, Boss du rap game Hey Boss du rap game Hey, Boss du rap game Hey Rappeur toi qui déb, débute Jvends des skeuds pour prendre congé, aller bronzer, baiser des, des putes Donne-moi la main gentiment Aujourdhui mon clan va tapprendre à nager dans le ciment Montagnes de coke à Bakel, slalom comme Diallo Ousmane Lautopsie nous prouve que ta rondelle est pas bulletproof man Doucement, doucement, cest moi qui donne lheure ici Suisse est le mouvement de Pont de Sèvres à Lauricisque Jm'en fous dta story fils, vas te faire droiter par Hollyfield Haut, haut les mains, Jordan 6, 46 dans lorifice Jsuis en mode Où suis-je ?, en mode Mollah Omar Mais cest moi qui les tue, jte connais as-p, jsuis en mode Qui es-tu ? Jai arrêté les études pour scorer comme Mickaël Pietrus Toujours número uno, fan mimi , naie pas dinquiétudes Jfais du biz sans marrêter, jn'ai pas de limites On ne fait pas déplacer Boulbi à moins de 10 000, de 10 000 Cest comme ça quon vit, comme ça quon fait Avec des gros billets, comme ça quon paie Boss du rap game Hey, Boss du rap game Hey Boss du rap game Hey, Boss du rap game Hey 240 en moyenne, Porsche Cayenne Brolic dans lshort, chemise Hawaïenne, à Y-N Boss du rap game Hey, Boss du rap game Hey Boss du rap game Hey, Boss du rap game Hey Jte rappelle Biggie et 2Pac Je ne crains aucun individu marchant sur deux pattes Ton rap montre ses fesses, nest pas pudique, jfais funérailles musique Jtue le beat par respect pour mon public Tire sur les fils de lâches par respect pour mon fusil 16 rimes en guise de hache, demande à Don Milouzi Jtue le biz à chaque projet, mouche à chaque crochet La vie nest pas un fleuve, tranquille négro, ça jconnais Jsuis partout dans les ondes, partout dans les autos Jpréfère avoir un ennemi que la moitié dun poto Ma pupille dans le viseur, aux vrais jlance un big up Mes hustlers, tricheurs, Ünkut sur le T-shirt, le T-shirt Jarrive à plus de Mach 3 Va clouer ta mère, laisse-moi porter ma croix Mal représentés renoi, jdois hausser la voix Fuck la télé çaise-fran, Roselmack et Magloire, izi Cest comme ça quon vit, comme ça quon fait Avec des gros billets, comme ça quon paie Boss du rap game Hey, Boss du rap game Hey Boss du rap game Hey, Boss du rap game Hey 240 en moyenne, Porsche Cayenne Brolic dans lshort, chemise Hawaïenne, à Y-N Boss du rap game Hey, Boss du rap game Hey Boss du rap game Hey, Boss du rap game Hey3</t>
+          <t>Au pays d'l'argent facile, combien sont morts en chemin? Fuck les APL, les transports en commun Poudre à canon dans les poumons, j'crache, les MC pètent les plombs J'marche seul avec mon Uzi man, 92izi man Gros numéro 10, avant qu'Iblis ne me choisisse Prie pour que les rivières du Styx se refroidissent J'descends au Ritz, tu baises ta grosse à l'hôtel Ibis Flow Testarossa, j'suis pas laise-ba grâce aux graphistes J't'encule, j'fais la reusta, zerma les dernières pe-sa T'en oublies qu'je rappe mieux qu'toi, tu regardes que ça Faudra me couper la langue pour que je crache Personne ne vend plus que oim' à c'que je sache Alors restez tranquille, je pars aux Bahamas J'te laisse donc crever ta race sur la banquise Suffit d'une phase pour les réduire en purée Tu sais pas qui je suis? Google-moi, enculé! Tu veux prendre des risques? Tu veux faire du cash? Faire dans l'illicite, avoir de grosses liasses Mais pour faire des millions, c'est de plus en plus dur Salades tomates oignons à vie, c'est de plus en plus sûr Tu veux prendre des risques? Tu veux faire du cash? Faire dans l'illicite, avoir de grosses liasses Mais pour faire des millions, c'est de plus en plus dur Salades tomates oignons à vie, c'est de plus en plus sûr Le sang s'répand comme une trainée de poudre, c'est elle que l'on fait jacasser Ra-Rarement à court les cloisons, les crânes fracassés Ravi de te tabasser, rien de cool à présager Ma côte en hausse, ma côte en hausse comme les 2 plus âgés Sans visa tu voyages, du sang de ton visage La volaille en vis-à-vis on reste que dans le paysage De massacrante humeur, massacrant de plume que des thunes Monnaie dans le crâne comme une putain de tumeur Quand on crève que dans le noir pour moi, c'est une putain de lueur Complètement schnouffés sont tes potes ce n'est pas une putain de rumeur C'est elle que l'on recèle, fais gonfler la recette 9.2, 0.9 ça shlingue le kérosène Blanches demoiselles, le profil reste détaxer Les murs déplacés pour profils de desaxés Tu t'chies dessus serait-ce la frousse ou le Manicol? Ressens la foudre, son de la brousse, Hauts-de-Seine école Tu veux prendre des risques? Tu veux faire du cash? Faire dans l'illicite, avoir de grosses liasses Mais pour faire des millions, c'est de plus en plus dur Salades tomates oignons à vie, c'est de plus en plus sûr Tu veux prendre des risques? Tu veux faire du cash? Faire dans l'illicite, avoir de grosses liasses Mais pour faire des millions, c'est de plus en plus dur Salades tomates oignons à vie, c'est de plus en plus sûr T'as travaillé pour c'bled ta vie entière, tu as cru bien faire Donne-moi la main d'ta fille, vieux con, j'vais vous sortir de la misère Un vrai duc, un vrai baron Violent depuis les couilles du daron J'rentre chez le concessionnaire, baskets, casquette à l'envers De Boulogne, Colombes, Asnières, Genn'-Genn' à Nanterre J'suis pas dans l'bling-bling, enculé j'suis diamantaire Plein de haine comme les rayures sur ma portière Payé comme au golf, deux putes m'attendent sur le sofa Dehors ma limousine, une troisième pute suce le chauffeur J'parle tout l'temps d'bif, car ici-bas, rien n'est offert Substances illicites, frère, payent les faux frais Ceux qui me connaissent savent que ma place est dans la fosse aux lions Harissa mayonnaise poto, Salades tomates oignons Mehdi Med à la sono, sers-moi mon Jack dans un seau d'eau MC j't'encule en chantant Do ré mi fa sol, la sodomie Tu veux prendre des risques? Tu veux faire du cash? Faire dans l'illicite, avoir de grosses liasses Mais pour faire des millions, c'est de plus en plus dur Salades tomates oignons à vie, c'est de plus en plus sûr Tu veux prendre des risques? Tu veux faire du cash? Faire dans l'illicite, avoir de grosses liasses Mais pour faire des millions, c'est de plus en plus dur Salades tomates oignons à vie, c'est de plus en plus sûr1</t>
         </is>
       </c>
     </row>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>L’olivier</t>
+          <t>Strass et paillettes</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Loin du bus, j'suis au volant de l'italienne Denza, Denza Woah Woah, oh, oh, oh Woah, oh, oh, oh Woah, oh, oh, oh Woah, oh, oh, oh Jamais mordu la main qui m'a nourri, normal, c'était la mienne J'suis pas un Gnakouri, j'suis un homme, c'pas la même Toujours dans l'tur-fu, j'obéis à loi martienne Elle veut qu'j'lui fasse un petit, elle veut un king, mon ADN Le terrain vient d'ouvrir, j'ai r'connu l'son du KTM J'suis pas au volant du bus, j'suis à gauche dans l'italienne Que j'perde ou gagne, c'est nique ta mère, quoi qu'il advienne Peu importe pour qui j'vote, le croque-mitaine ou Joe Biden J'ai un peu trop de haine, des fois ça mène dans les problèmes Que des numéros 10, sale fils de pute, t'es capitaine J'aime pas les hommes, que pour les gosses, j'ai de la peine L'histoire du 92i commence cité de la plaine commence cité de la plaine L'histoire du 92i commence cité de la plaine commence cité de la plaine C'est l'nouveau monde, j'roule un teh pour oublier Dites à Wallen personne replantera l'olivier Game ridicule, comme le DJ dans Validé On va reprendre les clés, c'qu'on va leur faire, t'as pas idée J'regrette l'époque des cabines, j'attendais qu'tchoin me rappelle Elle monte dans l'Lambo', je la ken, c'est une Citroën qui la ramène T'fais pas trop mal au crâne, ils nous l'ont mise à la one again Pour éteindre DSK, 's ont juste eu besoin d'une Guinéenne Jamais mordu la main qui m'a nourri, normal, c'était la mienne J'suis pas un Gnakouri, j'suis un homme, c'pas la même Toujours dans l'tur-fu, j'obéis à loi martienne Elle veut qu'j'lui fasse un petit, elle veut un king, mon ADN Mon ADN, mon ADN J'ai un peu trop de haine, c'est ça le problème C'est l'nouveau monde, j'roule un teh pour oublier Dites à Wallen, personne replantera l'olivier3</t>
+          <t>Eh les mecs Check Quartier Hauts-de-Seine Eh les mecs, arrêtez les cachetons, au quartier ça sent le Tranxen 500 Anti-shmits, fonskar au shit ça sent le SL 500 Wesh Booba ?! J'entends en passant Si tu veux tirer tire mais fais-le vite, compte pas régler tes comptes en m'clashant Majors, handek, j'vais faire monter les tarots Quand j'ai la clé j'm'en sers pour casser l'carreau Merde, y'a nos empreintes sur la hachette Laisse-nous passer pendant qu'les MCs s'font bouffer la chatte Check ! Toujours à la mode, j'mets toujours à l'amende à chaque set Cinq doigts sur un HF, Hérissés mes lyrics sortent de ma bouche de mon iris, ma vie un putain d'cul d'sac Eh ! Fils, écoute ça ouais nous on shoote ça Pas pu signer parce qu'on est suspects, nous on suce pas Trop d'soupapes, sous l'capot trop d'sous papa Nous défier t'es fou t'as bu t'es saoul bâtard J'me barre et j'ai pas yèp, nique le strass et les paillettes Inonde les ondes au fusil à pompe de Boulogne à Lafayette j'gronde Tu veux du taf pétasse t'as qu'à être blonde Tu veux mon cash négro ça va être long J'me barre et j'ai pas yèp, nique le strass et les paillettes Inonde les ondes au fusil à pompe de Boulogne à Lafayette j'gronde Tu veux du taf pétasse t'as qu'à être blonde Tu veux mon cash négro ça va être long Un bloc de shit un bloc-notes sur moi, j'prends l'périph Circulaire comme le canon d'un Glock Fuck le milieu mondain s'moque de mon putain d'train d'vie D'puis des années j'suis ivre en train d'vivre en train d'caner Si tu veux pas t'faire baiser, alors viens pas, chez nous Le slip entre la chatte et l'genou Parce que le monde est ainsi Infâme, j'suis l'étincelle, anti-insignes Chaîne en or qui pend sur l'marcel Chicots en or basse caisse claire, du shit encore connard c'est Lunatic Aie j'suis àl, l'art de la cellule, j'pratique Quelques techniques de Sellasié High Défouraille est la tac-tic, beaucoup d'estime pour le bling-bling centimes Strings, crime, putes en vitrine Fous le rap en pleine déprime La rue t'es en plein d'dans, serrez les dents les rangs pendant que j'm'exprime J'me barre et j'ai pas yèp, nique le strass et les paillettes Inonde les ondes au fusil à pompe de Boulogne à Lafayette j'gronde Tu veux du taf pétasse t'as qu'à être blonde Tu veux mon cash négro ça va être long J'me barre et j'ai pas yèp, nique le strass et les paillettes Inonde les ondes au fusil à pompe de Boulogne à Lafayette j'gronde Tu veux du taf pétasse t'as qu'à être blonde Tu veux mon cash négro ça va être long On ne meurt qu'une fois, d'ici-là laisse-moi placer pour ceux que j'aime sans me lasser Ma famille, mes gênes et mes gens massifs Que reste la blanche mafia à Gênes Ici les Hauts-d'Seine, mes nègres et crouilles au contrôle, actifs Indépendant l'kif Attends-toi à nous voir tout faire briller des disques aux pendentifs On a pas oublié L'or que le pape porte au cou est celui qui nous a été pillé Quel est le problème ? Tu veux savoir est-ce qu'A.L.I ment ? Autant demander est-ce qu'y a du porc dans mes aliments Ne rappe ni pour la gloire ni par passion J'n'attends d'ta part ni compliments ni ovations Quand bien même tu kiffes, fais-le avec modération Allah, à toi seul l'homme doit toute son adoration Les vrais savent, sérieux quand j'cause Ma narration depuis les blocs du Pont d'Sèvres et d'Issy pose Mon blaze sur mon époque, Lunatic, mon groupe imbrisable 92i, ma troupe un blizzard, glace le biz jusqu'à c'qu'il casse J'me barre et j'ai pas yèp, nique le strass et les paillettes Inonde les ondes au fusil à pompe de Boulogne à Lafayette j'gronde Tu veux du taf pétasse t'as qu'à être blonde Tu veux mon cash négro ça va être long J'me barre et j'ai pas yèp, nique le strass et les paillettes Inonde les ondes au fusil à pompe de Boulogne à Lafayette j'gronde Tu veux du taf pétasse t'as qu'à être blonde Tu veux mon cash négro ça va être long J'me barre et j'ai pas yèp... le strass... Inonde les ondes au fusil à pompe... Tu veux du taf pétasse t'as qu'à être blonde Tu veux mon cash négro ça va être long J'me barre et j'ai pas yèp, nique le strass et les paillettes Boulogne Issy4</t>
         </is>
       </c>
     </row>
@@ -3314,12 +3314,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>A.T.R</t>
+          <t>Sombre</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Yeah you look so fly I'll buy that drink Yeah you look so real, yeah yeah I saw you from across the room Did you came alone, I'll buy your drink? I'm real, no lie Real niggas don't lie I pay your flight, you fly I say you fly Yeah, yeah Yeah, yeah Yeah, yeah Yeah, yeah I say you look so fly I say you look so fly, look so fly I'll buy that shit No lie, no lie, you fly I say you fly Yeah, yeah Yeah, yeah Yeah, yeah Oh yeah These niggas ain't real These niggas ain't got nothin' real Oh yeah J'me fais cer-su, j'fais un room-service J't'ai vue à travers la room'zer bitch Reviens m'voir, fais ton possible Gros bras, toutes les positions sont possibles Donne-moi du love que j'déverse ma haine Des lovés que je ice la chaîne Ta meuf en rêve, la mienne se l'achète Le rap français se lave la schnek J'les laisserai même pas lécher l'assiette Partagez-vous la miette, allez faire crier la muette Sur la route du Septième, y'a pas d'ralentisseur J'suis dans ton bretzel comme un envahisseur Ton string ficelle est plus qu'aguicheur J'suis dans l'textile mais j'vais t'donner plus qu'un t-shirt Smith Wess dans la va-go, c'est un fouineur Tout le monde dans la boîte, gros, t'es un p'tit joueur Quand j'débarque, 100-8 Zoo, y'en a qui pleurent 911 double-turbo, y'en a qui meurent Look so fly Look so fly, yeah, yeah Look so fly Look so fly, yeah, yeah I'll buy that shit No lie, no lie, you fly I say you fly Yeah, yeah Yeah, yeah Yeah, yeah I'll buy that drink Don't lie, I'll buy that drink Don't lie, I'll buy that drink Don't lie, I'll buy that drink Don't lie19</t>
+          <t>WOOOOOOOOOO Lil Dreams What do I dream about, you ask? Well I like the booba, the booba, the boobs Who doesnt like the booba, the boobs I dream about them every night Its not a fright, its alright Someone help me get some booba I need to be less of a simp I need to be less of a weirdo I need BOOBA WOOOOOOOOOOO I like the booba, the booba, the boobs Who doesnt like the booba, the boobs I dream about them every night Its not a fright, its alright</t>
         </is>
       </c>
     </row>
@@ -3331,12 +3331,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Baby</t>
+          <t>45 Scientific</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Putain, putain Biatch, tu veux du biff OK, OK OK on va y aller tranquille, excusez-moi OK Hop, hop, hop OK J'mène une enquête sur ton boule à la Derrick Balance ton vieux mec trop cool à la dérive Tu veux du biff plein d'biff, c'est par ici Biatch faut qu'on baise vite, arrête ton ma-né-ci T'as bien le cul collé au rythme Selon la théorie tu mérites Boob's le météorite Entre les fesses t'as la puissance du RS4 Matraque de CRS, tu pars au 7 sans faire d'escale Grossier ou gentleman selon ton dossier Si t'as sucé tout l'quartier, faut pas t'la jouer Tu veux le faire sans capote, allaiter mon fiston Alors qu't'écartes les cuisses pour un filet-o-fish Non c'est dead, pose ton cul dans l'Mercedes Suce écarte bouge, n'me colle pas comme oncle Ben On m'a dit T'es che-lou toi, dès que tu les baises, tu les trouves re-lou Si t'es une chienne, j'suis un loup, moi Si t'es offensée, baby, on s'excuse, bah oui Poulette ton boule c'est d'la boulette j't'aime tant Baby V'nez toutes en même temps à la suite à la file Gentleman du ghetto moi et mon kho Nessbeal Si t'es offensée, baby, on s'excuse, bah oui Poulette ton boule c'est d'la boulette j't'aime tant Baby V'nez toutes en même temps à la suite à la file Gentleman du ghetto moi et mon kho Nessbeal Karima Karima kiffe les Baccara Y frotter son gros terma mais c'est fini la mascarade Si t'es fashion j'ai le seum qui fait faner les mascara Une rose qui pousse dans l'Sahara man, la rime 24 carats Y'a des hommes qui michetonnent, c'est des gros zemel Aime les tasses qui mythonnent, moi j'aime les gros b'zez 92i West Coast, Gentleman en Weston Grillé comme Lacoste, ya pas de constat quand je cartonne C'est Maroc sticky, moi je t'arrache ton string NE2S c'est qui ? Canon scié en featuring, laisse Laisse les voisins attendre des heures à l'étage Pendant que j'bloque l'ascenseur pour frotter les tasses Les baltringues scrutent ces arabes pour des grosses khanza Ya pas de thunes pour payer l'hôtel Sonacotra Plaza Cosa Nostra, ma zone, Casamance, Maza Hautes-Noues Peace ya pas de romance y'a que des gueules bizarres Si t'es offensée, baby, on s'excuse, bah oui Poulette ton boule c'est d'la boulette j't'aime tant Baby V'nez toutes en même temps à la suite à la file Gentleman du ghetto moi et mon kho Nessbeal Si t'es offensée, baby, on s'excuse, bah oui Poulette ton boule c'est d'la boulette j't'aime tant Baby V'nez toutes en même temps à la suite à la file Gentleman du ghetto moi et mon kho Nessbeal Tu veux du respect, deux-trois conseils efficaces Un dédicace pas ton cul à tous les chiens d'la classe Deux arrête de ber-flam si t'es une grosse pute Si tu mets des porte-jarretelles, j't'emmène dans un hôtel mortel Trois Lâche-moi ton bigo Fais c'que j'dis sans faire d'chichis même si j'roule en Twingo Princesse tu veux visiter le 100-8 Zoo Chez nous y'a pas d'tournantes qui mènent à Fleury Chérie, ni pute ni soumise, chipote pas quand j'te tripote Rendez-vous à la morgue pour identifier le hip-hop OK, OK Baby On fait le remake la prise d'la Bastille chaque soir pour manger une crêpe Sans tié-p', les pneus crissent sur Paris fait mouiller les ptites khel Fais mouiller les strings tièdes, baby C'est le spliff du casse-pipe pour digérer l'tièpe Trop près des perquise des princesses au regard triste Le 5.20 dans le vagin, le mari qui joue sa vie aux assises J'chante l'amour froidement une flaque de sang sur la banquise Dix piges, les jurés ont suivi la peine requise Khoya, elle aiment les mecs qui parlent trop dealer du ghetto Qui montre son biff elle lui met une équipe sur le dos Une brume d'aya, une jeunouya dans les abdos B2O, Panthéon, un son interdit pour les ados Si t'es offensée, baby, on s'excuse, bah oui Poulette ton boule c'est d'la boulette j't'aime tant Baby V'nez toutes en même temps à la suite à la file Gentleman du ghetto moi et mon kho Nessbeal Si t'es offensée, baby, on s'excuse, bah oui Poulette ton boule c'est d'la boulette j't'aime tant Baby V'nez toutes en même temps à la suite à la file Gentleman du ghetto moi et mon kho Nessbeal Si t'es offensée, baby, on s'excuse, bah oui Poulette ton boule c'est d'la boulette j't'aime tant Baby V'nez toutes en même temps à la suite à la file Gentleman du ghetto moi et mon kho Nessbeal Si t'es offensée, baby, moi j'm'en bats les qlawi Baby Moi et mon kho B2O Baby1</t>
+          <t>Tant pis si les mains sont sales tant que les Nike Air sont propres Chaque jour, c'est pour faire du biff, mettre à l'abri la mif C'est la mienne que tu sniffes, 92izi fait la diff' 45 Scientific, créé grâce au haschich À chaque ceau-mor, c'est à un crime que tu assistes J'viens pas aux practices, j'suis là que pour les finales Calibré comme le raid, tu testes, tu finis si mal T'as juste à tendre l'oreille pour savoir qui est le meilleur Kalashnikopp, B2O Mayweather MC à dix heures dans le viseur Le Glock sous l'oreiller, la coke est dans le freezer J'vais me faire péter comme un kholot Tu crois que t'es aud-ch ? Ferme ta gueule, t'es qu'un boloss Le psy de Bois d'Ar' m'a dit que j'étais schizophrénique Aussitôt ils me cherchent, aussitôt je les nique Droit au but, pas de timinik Enfin débarrassés de Pokora, Diam's et Sinik T'es fou ou quoi ? T'es sourd ou quoi ? 9.2, 9.3, Boulbi, Aulnay-sous-Bois 45, Dosseh Scientific Un flic est un gentil flic Parabellum chargé, j'anticipe Viens au parloir avec du shit si tu me rends visite Laisse-moi rouler ma bosse, j'te laisse rouler ta bille J'les prends dans tous les sens Priez pour que je me perde parce que dans le cas contraire, les fins de carrières seront nombreuses T'auras plus qu'à lancer des rumeurs sur ta propre mort pour t'récupérer ton buzz Sur la vie de ta mère que je n'ai jamais voulu faire de mal à qui que ce soit Si certains m'aiment, d'autres me haïssent, mais tous connaissent mes rimes mieux que moi Tu m'verras pas sucer de bites ni faire de courbettes pour se faire bien voir Ils ont tué le Christ, combattu le Prophète Donc moi, combien de fois j'les vois tous prêts à changer de sexe comme RuPaul pour rentrer en playlist Mais leur dernière vision ne sera qu'un petit blackos et un grand tisse-mé À part de caisse et peut-être de banquier Honnêtement, qu'est ce que tu penses qu'avec le rap je vais changer ? Les frères déboulonneront toujours des travelos dans les bois Et bicraveront toujours de la cess à la clientèle des soirées branchées J'suis moins posté au bloc mais en ce qui me concerne j'suis toujours un brave Tu me fais gole-ri quand tu me toises, ta destinée sera celle d'une groupie de concerts de base Tu vas ouvrir tes seufs, on va te ken, ché-cra puis one again Et le jour d'après, on aura déjà oublié ton blase T'es fou ou quoi ? T'es sourd ou quoi ? 9.2, 9.3, Boulbi, Aulnay-sous-Bois 45, Dosseh Scientific Un flic est un gentil flic Parabellum chargé, j'anticipe Viens au parloir avec du shit si tu me rends visite Laisse-moi rouler ma bosse, j'te laisse rouler ta bille J'les prends dans tous les sens, comme les rues de ma ville Quand se retournent les vestes, je leur ouvre les veines Négro j'suis trop haut, j'rappe depuis l'Everest J'rappe depuis l'Everest, tu rappes depuis tes fesses Frais sans faire exprès, vrais reconnaissent vrais Quand mon heure sonnera, personne ne me sauvera Prends ce que t'as à prendre car personne te le donnera J'suis sur le bateau, je rentre bientôt Ü sur le maillot, mon cul sur le magot J'ai toujours fait ce que vous ne vouliez pas que je fasse et demain je ferai ce que vous ne pouvez pas faire Je fanatise les foules comme Hitler ou Lucifer Ils croient connaître mon vrai visage ? Bosse comme un nois-chi, gère le nessbi comme un Juif C'est comme ça que je conçois je métissage T'as voulu test, ça te coûtera très cher comme la cavale d'un braqueur Mec, tes attaques sont prévisibles comme une overdose de crackers Frérot, j'suis dans un game qu'aucun de vous ne pourrait capter Si ce n'est pour en sortir, dites-moi à quoi sert le quartier ? T'es fou ou quoi ? T'es sourd ou quoi ? 9.2, 9.3, Boulbi, Aulnay-sous-Bois 45, Dosseh Scientific Un flic est un gentil flic Parabellum chargé, j'anticipe Viens au parloir avec du shit si tu me rends visite Laisse-moi rouler ma bosse, j'te laisse rouler ta bille J'les prends dans tous les sens, comme les rues de ma ville1</t>
         </is>
       </c>
     </row>
@@ -3348,12 +3348,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Dernière fois</t>
+          <t>Ratpis</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Laissez-moi penser qu'ils seront sauvés Prenez-moi si vous voulez, refermez derrière-moi Laissez-moi chanter la liberté Lillégalité une dernière fois 320 au compteur, la ligne blanche est discontinue Trop rapide pour son cur, elle ne me voit pas, je continue Je n'distingue plus les couleurs, j'vois tout en noir et blanc Jentends la voix du Führer, les rates-pi dans les camps Cur en ruines, comme une épave, han J'ai déjà donné trop d'amour, comprends que je t'aime peu On est plusieurs dans ma tête, on joue tous au même jeu Je casse sa garde en deux, elle se dévoile un peu Le cur rempli de bleus, des étoiles dans les yeux On a contrôlé la ne-zo, on a cru toucher les cieux On a fumé tout le ne-jau, ils nous ont fumé nos vieux Laissez-moi penser qu'ils seront sauvés Prenez-moi si vous voulez, refermez derrière-moi Laissez-moi chanter la liberté L'illégalité une dernière fois Oh, oh, oh, oh, oh, oh, une dernière fois Oh, oh, oh, oh, oh, oh, une dernière fois J'm'éloigne de la misère, plus de point sur lmis-per Jarriverai en retard car j'ai le cur accidenté On sconnait peu mais plus qu'hier, sentiments sur la civière C'est ton cur que j'dérobe, après minuit, les mains gantées Jpense à nous deux, j'suis solidaire Elle veut entendre mes décibels, savoir c'que j'vais manigancer Si tu veux m'voir, regarde le ciel J'me suis éloigné des faux pour voir la vie en vrai Je casse sa garde en deux, elle se dévoile un peu Le cur rempli de bleus, des étoiles dans les yeux On a contrôlé la ne-zo, on a cru toucher les cieux On a fumé tout le ne-jau, ils nous ont fumé nos vieux Laissez-moi penser qu'ils seront sauvés Prenez-moi si vous voulez, refermez derrière-moi Laissez-moi chanter la liberté L'illégalité une dernière fois On a contrôlé la ne-zo on a contrôlé la zone On a cru toucher les cieux oh, oh, oh, oh, oh, oh On a fumé tout le ne-jau oh, oh, oh, oh, oh Ils nous ont fumé nos vieux6</t>
+          <t>Lak so tun drak time Anyway! Ah! Gully! Yeah Parwaloudji Booba Début à la fin, j'suis dans le top, balle dans le crâne pour qu'on me stoppe Trop de came pour qu'on la stocke, à tes funérailles j'ai mon caméscope Que les vrais qui connaissent Kopp, je traite ta halal comme une escorte 92i à l'Enterprise, on vient de retrouver Spock Dans le 9.2, came, meilleur spot, dans le turfu avec tous mes potes 100.000 pour un te-fea, chaîne en ro-ro sur un te-pi C'est toujours la même merde, j'ai juste des nouvelles chiottes C'est toujours la même merde, j'ai juste des nouvelles chiottes Ils ne connaissent pas l'ampleur de ma flotte, dis-leur bien à ces fiottes Préparez-vous pour les gunshots, Ciroc, Jack, je sirote Aventador sur le goudron, 92 millions tout rond Ils y allaient, nous retournions, KO2P sombre surnom Money on my lips Bullets in my clips Imma gun dem off, we dont need permit Cant hear me! Booba, this is it! Pussy mi no touch, G ah pop Di want di place murk up Mi .45 hot, mi keep mi gun hot, so the grease dont cake up Any boi chat ah lose 'em in battle, now whole of 'em wake up Any boi chat ah lose 'em in battle, now whole of 'em wake up Touche, touche ta SACEM, achètes-toi une boîte de thon et un paquet de pâtes Chez nous personne ne t'aime, t'fais pas l'soulever à ton Planète Rap Tu l'as trompé, tu veux la couvrir d'or pour pas qu'elle parte La balance sera égorgée pour pas qu'elle jacte Depuis le CP je suis validé, j'braque, j'fais pas la charité Hauts-de-Seine j'ai la qualité, par un démon, habité Les portes sont fermées, je suis habitué, Maître Lebras acquitté Faudra te faire à l'idée, j'ai oseille pour l'éternité Fuck Liberté, Égalité, fuck Johnny Hallyday Tous mes négros sont calibrés, tous mes rates-pi sont validés Toujours 500 billets, tout bien équalisé Spartan, 300 négros armés, ont-ils réalisé ? Hé ! Money on my lips Bullets in my clips Imma gun dem off, we dont need permit Cant hear me! Booba, this is it! Pussy mi no touch, G ah pop Di want di place murk up Mi .45 hot, mi keep mi gun hot, so the grease dont cake up Any boi chat ah lose 'em in battle, now whole of 'em wake up Any boi chat ah lose 'em in battle, now whole of 'em wake up My racks Mi know I'mma shoot He, he-he-he-he! Gully! Ah lose 'em in battle, now whole of 'em wake up Booba!7</t>
         </is>
       </c>
     </row>
@@ -3365,12 +3365,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Mauvais œil</t>
+          <t>Avant de partir</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Han, yeah M.A.S.A.R 0.6 T'sais comment ça s'passe mec On fait les choses bien Moi-même à la prod Mic Force Prêt ou quoi ? Hey yo! j'ai fait mes classe partout où la vermine traîne Des cellules de Grasse au New York et Jersey jails Ils mon qualifier dcriminel car jtraîne un Casier judiciaire dpuis les conseilles disciplinaire Je n'suis qule produit de mon environnement Dvos cliques de faux types peut on en dire autant? Non Je ncrois pas, hey yo! moi jne blague pas Toi tu parle de rue mais j'te jure on nte vois pas et La troupe de pantins par laquelle tu tfais escorter quoi Jlai ai tous extorqué aucun d'eux n'a rétorqué Je nrespecte qusi peu dces MCs Nadresse aucune formes de politesse car je suis sans merci Comme tu a put le remarquer Je nviens pas juste de débarquer mec jai su me démarquer Hey! Jme fou dvos chiffres et dvos études de marché Du coût dvos clips ou dvos réput de quartier Donc arrête tla raconte pas Non mparle même pas dton contrat Les seul ronds que tu fra sront avec l'aide d'un compas Trop dsons fréquemment douteux Mais tu l'sais qu'depuis l'début mon départment fou l'feu Mon consort va sortir incessamment sous peu Rtrouve nous au contrôle d'un bolide méchamment coûteux Écoute ce flow purement délivrée Ceux à la strophe nullement maîtriser vont surment dénigrer Diron qumon succès n'est aucunement mérité Car leurs offres de bénévolat j'lai ai quoi? dûment décliné Masar pur sang pédigrée toute la baie le sais Bâtard plus ltemps d'hésiter maintenant paie le blé C'qui me plait je fait oui je reste frais O6 Mic Force vrai de vrai Maudit soit Donnie Brasco Tu m'parles, ne mendies pas trop Négro j'suis en mode Otis Dans le Audi quatro J'ai touché de la weed à quatre T'as touché de la weed à dix J'mendors devant Winamax Tu te lèves pour des Weetabix Depuis le boom bap, j'fais ma monnaie seule Fuck les rivaux, ça bouge pas J'ai le niveau d'Booba dans Mauvais Oeil Ouais j'ai le feeling zin File vite dans le 6 litres 5 Et le phillies est comme Philippe Il est plein La zeb est à 30, c'est d'la Maitre Gims Ma princesse veut d'la musique, j'vais lui mettre Prince Regarde leur table, cochon et sanglier Regarde ma table, pochon et cendrier Ton style est trop vieux pour m'épater Pour moi t'existes pas T'es comme Dieu pour un athée Et d'façon fuck l'agent, l'proc Pour qu'tes parents fassent le hajj Faut de l'argent propre J'entends sheitan faire Rappeur faire des wesh-wesh Dans ma ville ça canarde On dirait une guerre Est-Ouest Tout l'monde posté comme la douane d'vant le péage Dans cette pute on fait des burns Ca pue la gomme et l'embrayage Genou à terre, que pour un virage à la Et j'reconnais mes erreurs comme un visage à la morgue T'es là, on t'connait pas, on t'mate des pieds à la tête T'es à sept semaines de plot Mais sur tes pieds y'a pas de tête Mic Forcing, p'tit batard C'est les chants barbares qui nous bercèrent Va t'falloir un pare balles épais comme l'épée de Berserk Suffit d'une folie, genre carotte un 25 Pour qu'le ghetto vienne Et 25 brolicks Tirent en jouant la 5ème symphonie de Beethoven Yes we can ? No you can't Même si j'suis pas chaud j'vous ken Perfect à base de shoryuken</t>
+          <t>Guide-moi... La rue m'a pris autant qu'elle m'a appris Une fabrique de cadavres, dramatique est le macadam Noire est ma ceinture, au premier plan, un vautour Un flingue, un 45 tours Ta clique fait du lèche-vitrine Pendant qu'on va chercher nos disques de platine Calibrés jusqu'à la poitrine, unique en rap français Au volant d'la délinquance, j'avance et avancais en ML Donc me dis rien au phone-tel si tu veux pas griller ta puce Emcee, t'es pas hip-hop parce que tu portes des strings à capuche Toujours une patte levée, les oreilles droites Que les meufs stylées s'lèvent, qu'les zoulettes s'doigtent Guide-moi avant d'affronter ce monde Montre-moi la paix une fois rien qu'une fois Avant de quitter le monde, avant de partir Je n'y crois plus, des fois, tu sais Je tourne mal, j'imaginais Un autre monde Original, mélange de bien et d'mal Passe un Salaam à ceux dans l'din, ceux dans l'hram Repéré, trop tard, j'ai fais ma route sans coopérer Relaxé à la barre attendu à la base Prêt à opérer, faire des millions, des milliards Laisserai tout en pourboire au corbillard Le tout c'est d'vouloir y croire, porter l'foulard Maroc, Mali, Sénégal, Soninké Poular Fantastique est l'arsenal En V12, 92, les autres sont à cheval, c'est naze Pas autrement, c'est ça comme chez nous Du Martin Luther King et du Malcolm, c'est nous T'es toujours en train d'étendre ton slip J'suis toujours en train d'défendre mon titre Accroche-toi, c'est pas la fin Qu'est-ce qui nous pousse ? La gourmandise, pas la faim quoiqu'ils disent dans leur musique La nôtre est véridique, critiquée, authentique Juridique, nique leur opinion, j'm'en bats Traîner la vie par l'chignon, mon seul combat Avant de partir Guide-moi avant d'affronter ce monde Montre-moi la paix une fois rien qu'une fois Avant de quitter le monde, avant de partir Je n'y crois plus, des fois, tu sais Je tourne mal, j'imaginais Un autre monde Guide-moi avant d'affronter ce monde Montre-moi la paix une fois rien qu'une fois Avant de quitter le monde, avant de partir Je n'y crois plus, des fois, tu sais Je tourne mal, j'imaginais Un autre monde2</t>
         </is>
       </c>
     </row>
@@ -3382,12 +3382,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>Ouest Side</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>T'sais quoi ? J'ai d'la 0.9 Si, si D'la 0.9, hello D'la re-pu kho, Hauts-de-Seine Hoss, boloss 9 décembre, j'ai les mains froides La France veut m'embaucher, tenter d'me réchauffer Elle peut se mettre un oid, je ferai mon propre chemin Non à l'A.N.P.E, oui à la débauche, fuck demain Citations sans félicitations, de drame en drame Je n'fais pas bonne impression, je sais J'avance de gramme en gramme Mais j'ai choisi ce train d'vie, j'en assumerai les conséquences Des aléas d'la street, j'en ai pris connaissance Du hood à Hollywood, j'en rêve comme tous les autres Mais j'irai simplement d'une cellule à l'autre Jeune noir, rien à foutre, comme ça qu'j'me défini Rien n'a commencé, j'me dis qu'tout est fini Les mains sales j'écris mon récital De bataille est mon champ lexical, je n'suis qu'une racaille 0.9 dans la peau, les colombes sortent de mon chapeau Les colons ont mon drapeau J'ai des flashs de ségrégation Nelson mon co-détenu m'a aidé à tenir bon Mais je n'ai ni son calme, ni sa sagesse J'ai un Kalashnikov tout neuf, moi c'est 92 Ouest On m'a déjà tué deux fois, une fois à Memphis, une fois à Harlem Jamais deux sans trois, j'attends ces fils de pute, qu'ils viennent À 10 ans, j'ai vu Gorée depuis mes larmes sont éternelles Ma rage automatique, mes armes semi-automatiques Être hors-la-loi me soulage, j'me dis qu'ils ne m'auront pas Je vends d'la drogue aux jeunes, j'en vends à leurs rents-pa Peu importe tant que ma poche est pleine, ces chiens n'ont qu'à crever la bouche ouverte Moi j'ai besoin de cash, besoin de découvertes J'passe pas à table j'mets pas les couverts J'suis condamné à vivre, j'me f'rai jamais sauter l'couvercle B2OBA je m'appellerai, moitié Babtou En hommage à mon cousin Booba de Baobab L'ennui est le pire ennemi du banlieusard Le crime a payé parfois, beaucoup plus fort que ma foi Paquets de cocaïne, défie la brigade canine Respire mon sachet blanc, dure plus longtemps qu'Alcaline Rejoins moi dans ma suite au Lorraine Motel Je sors fumer une clope, je reviens tout d'suite En bas d'chez moi, j'ai repéré des taupes On se croit au dessus des lois, eux, se croient au-dessus des nôtres Et je sais que je vais plonger, ils sont sur mes cotes J'ai des frissons rien que d'y songer Ye-Ye-Ye-Yeah Le son qui sort à 0.9 net On a commencé minos, vomi nos tripes au mic Pas là pour plaire aux meufs, mec Tu veux d'la qualité, 0 bluff, 0 bluff, 0 bluff C'est de la 0.9, 0.9, 0.97</t>
+          <t>Je poursuis ma quête, impossible d'apprendre sans que je finisse maître Rien ne m'arrête à part du 9 millimètre Pas de triomphe sans pertes, je suis fier comme les Triades Paix rime avec respect, Jihad avec fusillade J'ai rien de conventionnel, je fais dans l'événementiel Je suis pas marié, pour moi l'hôtel c'est l'essentiel Me pose pas de questions, je te mentirai pas Avoir un job de 8 à 5 ici hors de question Alors je me démerde, j'arrive en vaisseau spatial Je suis dans la rue, en studio, avec mon 38 spécial Au quartier, on sennuie, on mate le boule des biatchs On ricoche, finit au trou, comme des boules de billard 92i kho, dans Popstars t'es Leandro Tu tiens pas la route, pé-ra avec un A collé dans le dos Certains croient qu'ils rivalisent, faudra qu'on les hospitalise Pour qu'ils nous respectent est-ce que tu réalises ? Au Nord, au Sud, à l'Est, à l'Ouest, biatch, viens pas tester la Ouest Side 92 kilogrammes dans l'zen, Hauts-de-Seine c'est la Ouest Side Majeur en l'air pour la O.S., argent du rap et argent sale Tu veux savoir qui te parle ? C'est la Ouest Side, Ouest Side ! Un Kalachnikov dans le boule, mon introduction Ouest Side, Ouest Side, 92 Injection Docteur, j'ai vu des flingues à l'échographie, un narcotrafic Dans les Hauts-de-Seine c'est géographique Hémorragie au cur du bitume, c'est dans la rue, c'est discographique D'Afrique on fait péter les rimes au plastic Je les ai vu au Pont-de-Sèvres dans les halls Mais que fait la police ? Faut les mettre en taule, dans des geôles Si tu parles comme ça, même si t'es personne âgée Ferme ta gueule, grosse pute, ou tu vas déménager Ouest Side, Ouest Side, violence à l'état pur Nicolas on te baise toi et ta pute Un Kalash dans le boule, mon introduction Ouest Side, Ouest Side, 92 Injection An 2000 premier impact, meurtrière est ma grammaire Bienvenue au cur de l'asphalte Au Nord, au Sud, à l'Est, à l'Ouest, biatch, viens pas tester la Ouest Side 92 kilogrammes dans l'zen, Hauts-de-Seine c'est la Ouest Side Majeur en l'air pour la O.S., argent du rap et argent sale Tu veux savoir qui te parle ? C'est la Ouest Side, Ouest Side ! Ouest Side, Ouest Side Mets-moi le Graal entre les mains je me sers un verre de sky Mayday, mayday les rappeurs se rebellent T'inquiète, les trois quarts sont des pédés, ici c'est Dakar Banlieue Ouest Side, wesh, Afrique de l'ouest, I2S, rap de tess Viens pas test tu vas te hacheum À cause de nous beaucoup de MC chôment Tu connais, leur dernière vision sera un gun et un chauve Moi, je ne suis pas une racaille de base Au tribunal j'ai rien à craindre j'ai maître Lebras La vie est brutale comme disait Alix Sénégal on veut du khaliss, du biff plein les valises Sans haine on s'endort, je domine la peur Qui fait avancer l'homme, kho, j'suis pas un chbeb comme Alexander Tu veux savoir ce que je suis ? Demande au FN Radio, 92i, commando FM Au Nord, au Sud, à l'Est, à l'Ouest, biatch, viens pas tester la Ouest Side 92 kilogrammes dans l'zen, Hauts-de-Seine c'est la Ouest Side Majeur en l'air pour la O.S., argent du rap et argent sale Tu veux savoir qui te parle ? C'est la Ouest Side, Ouest Side ! Au Nord, au Sud, viens pas tester la Ouest Side2</t>
         </is>
       </c>
     </row>
@@ -3399,12 +3399,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Couleur ébène</t>
+          <t>Call of Bitume</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Couleur ébène, douleur et peine Un jour tu ris, un jour tu pleures Un jour tu vis, un jour tu meurs Couleur ébène, douleur et peine Noir et blanc, blanc et noir, mon pays d'accueil Applaudi, maudit, j'ai vomi sur ma feuille J'ai tout vu, j'ai rien dit, mi-bandit, mi-ange J'suis trop loin pour revenir, enfermé j'ai grandi Je veux l'être, j'vais l'devenir, aujourd'hui je n'prie pas c'est dimanche J'ai qu'une vie, j'ai la dalle, j'ai qu'une cible, j'ai qu'une balle Une parole, j'suis qu'un homme, j'suis qu'une flamme, j'ai qu'une femme PDG d'un label, négro j'ai l'sommeil léger Si ma life c'est d'la merde, crois pas qu'la tienne elle est mieux T'as pigé c'est 9.2, chez nous la haine elle est mieux Le ciel joue à cache cache, le destin se fait vieux Fume du hasch pour mourir, fume du hasch pour guérir Un jour tu ris, un jour tu pleures Un jour tu vis, un jour tu meurs Couleur ébène, douleur et peine Un jour tu ris, un jour tu pleures Un jour tu vis, un jour tu meurs Couleur ébène, douleur et peine Un coup d'shlass pour du cash, un coup d'fil pour 10 kils C'est le drame en cellule, on t'encule pour un gramme J'y ai cru quand j'ai vu, j'ai appris quand j'ai lu Promenade, parloir, comme un chien, comme un noir C'est la maille notre espoir, les vraies valeurs ne sont plus Ça n'fait pas le bonheur, ça n'fait pas l'malheur non plus Moi j'aime bien quand ça brille, quand ça tire quand ça deale La banlieue c'est dangereux, c'est pas marqué dans la Bible Un jour tu pleures, un jour tu ris B2O c'est mon blaze, personne n'ira où je vais Si t'as pas d'raison de vivre... Trouve une raison de crever J'veux que t'aies la haine car je brille, que tu viennes me le dire Que ta reine soit ma chienne, que tu craignes le pire Moi je rêve, j'accomplis même si je crève incompris J'ai du gloss sur la verge, de l'encre dans les veines Du pétrole sur les lèvres, ma vie est tristement belle Des averses de bonheur, des cyclones de douleur Un jour tu ris, un jour tu pleures Un jour tu vis, un jour tu meurs Couleur ébène, douleur et peine Un jour tu ris, un jour tu pleures Un jour tu vis, un jour tu meurs Couleur ébène7</t>
+          <t>I.Z.I, yeah Izi ! yeah ! Dans mon cerveau c'est la hass comme à Khartoum Au lieu d'rayer ma caisse bâtard dis-moi bsahtkoum Les RG m'espionnent, de Miami à Corbeil-Essonnes Plus rien ne m'étonne, déterminé comme Pappy Mason On m'tire dessus au pompe, rien de bien folichon Nouveau son dans les bacs, négros en décomposition Bitch va m'faire un plat chaud, m'faut des forces pour kill un facho Avec dix kilos d'zeb, une colombienne j'peux m'plaire au cachot J'ai fait les 400 ouc', l'Allée du Forum à la Place Haute J'suis Sénégal Hood, Mali, Tchad, Burkina Faso J'ai beau temps, tu as temps sale, j'suis Ligue 1, t'es foot en salle J'voyage en jet, t'es en éco chez Lufthansa C'est pour mes Bafé Gomis, mes OG's, mes homies H24 sur le ter-ter, nique sa mère la Terre Promise Grosses cailles-ra, gros biz, tous mes scarlas unis Regarde les matchs en présidentielles avec Carla Bruni On parle de nous dans la presse Une capuche sur la tête, Labess, yeah On s'arrache de la tèc' on est durs, fiers On fait des braises, on brûle tous les casiers judiciaires On roule sous l'averse, les jantes tournent à l'envers Une capuche sur la tête, Labess, yeah On s'arrache de la tèc' on est durs, fiers On fait des braises, on brûle tous les casiers judiciaires Chef de famille... Du biff, du cannabis, en Panamera j'roule sur les disques Money money, Vitry, Royal, Kill Bizz Smith Wesson le partenaire, le studio c'est un container Condamné à quitter la ville dans un putain d'sac mortuaire Toujours gang et à la mode comme le foulard d'Arafat On n'apprend pas à un vitriot à s'grimer la face J'me suis brûlé les ailes, j'ai fait plus que le Paris-Dakar en YZ C'est pas avec des Jo-Jo qu'tu montes l'Everest J'viens d'Algérie, la p'tite Russie micro pe-pom gris anthracite Si tu veux faire rire un cain-fri parle lui d'démocratie Prêt pour un go fast fou P'tit détour par le habs Fast Life on vit tah les oufs On veut brancher la clim' d'l'Aston Martin Rapid Les p'tits du tièks ont la tête vide à force de s'cogner faire du grappling, faire du liquide Passe le volant, ru-rupture, Hauts-de-Seine, rue Camille Groult España, Hollanda, pour mes têtes de rhout qui r'montent la route On parle de nous dans la presse Une capuche sur la tête, Labess, yeah On s'arrache de la tèc' on est durs, fiers On fait des braises, on brûle tous les casiers judiciaires On roule sous l'averse, les jantes tournent à l'envers Une capuche sur la tête, Labess, yeah On s'arrache de la tèc' on est durs, fiers On fait des braises, on brûle tous les casiers judiciaires2</t>
         </is>
       </c>
     </row>
@@ -3416,12 +3416,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Pucc’ Fiction</t>
+          <t>Boîte vocale</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Aéroport de Bogota, paré au top c'est Lunatic, Pit Départ dans 10 minutes en cas de doutes, planque la coke dans le cockpit Briquez les armes, voici le plouc, un doute, un souci ? Shootez tout ce qui bouge, on sretrouvera là où vous savez Tout de suite, le type il devient louche, sa sueur coule comme s'il s'était douché Tel tous les fous qui voulaient me doubler mes roubles Je le touche c'est quoi le gros, c'est quoi ton blème-pro ? Merde ! Fils de pute, t'as un micro ! Tes quun gros stup T'es trop stupide, bouge pas, j'vais t'buter, sale flic... Jviens de buter un sale flic, Pit couvre ma fuite, vite J'ai mon Bouygues d'où je puise toutes mes sources, jfouine Jfouille les rues et tombe sur mon pote Steve Il me demande qui je veux, se prive pas pour Poukave Bloopalooza, son petit neveu C'est Bloopalooza, c'est fou ça Ce coup-ci il saura ce qu'il en coûte d'avoir voulu souhaiter doubler ma Black Mafia ! Les seules lois auxquelles jcrois les miennes ! Chienne de vie, bois à la tienne et à la santé Black Mafia ! Jfinirai pas comme Scarface, percé de partout, blaze dans la coke Et criant Fuck you motherfucker Black Mafia ! Lève ton flingue, charge-le, sois dingue Vise dans le tas et n'hésite pas si on injurie Black Mafia ! La monnaie, Black Mafia ! Le sexe Black Mafia ! Les flingues, Black Mafia ! Oxmo Puccino Sur la route pour aller chez Bloopalooza Une luxueuse Lexus rouge vitres fumées me file de peu Stoppé au péage, les carreaux de la caisse en question coulissent On mitraille sec, les hommes sont masqués mon chauffeur encaisse Je mlaisse tomber Un ! laisse rouler Deux !, une grenade, sous les roues Des Booms Booms, beaucoup d'hommes en fumée J'arrive à pied, fatigué, un gars fait le guet à l'ascenseur Jle bute, je monte au 7 et jfais gaffe à Tony Et au 7, Tony m'intercepte, un 357 longue autonomie Les douilles tombent, l'ascenseur est niqué Tony se fige, panique, ce ripoux flippe, où suis-je ? Il spose la question qui peut buter Oxmo Puccino ? Grosse réponse pour Tony quand la porte explose L'ascenseur puait, j'avais choisi d'user mes Wallabees T'abuses, Tony t'as usé toutes tes balles Je sais que j'ai raison, ma ruse user ta vie, j'ai mon Uzi Je mretourne, Bloo, t'as fais une lourde bourde En bref, tu m'as donné aux keufs, j'ai peur pour toi Pourquoi tu mens ? Cesse ta farce parce que si c'est pas toi, mais qui ? Mais cesse de chialer tu souilles mes Clarks ! Alors trois gros trucs percutent son fils de putain de crâne Pour trois très grands trous grands comme mon crew Black Mafia ! Les seules lois auxquelles jcrois c'est les miennes Chienne de vie, bois à la tienne et à la santé Black Mafia ! Jfinirai pas comme Scarface, percé de partout, blaze dans la coke Et criant Fuck you motherfucker Black Mafia ! Lève ton flingue, charge-le, sois dingue Vise dans le tas et n'hésite pas si on injurie Black Mafia ! La monnaie, Black Mafia ! Le sexe Black Mafia ! Les flingues, Black Mafia ! Time Bomb Le lendemain 16 heures, je becte mes corn-flakes Et ce réflexe, je presse le ON de la TV, devine ce qu'elle dit ? Eh bien, que le type qui flippait dont le slip trempait plus Que celui des filles de clips exécuté était un sosie Et que le F.B.I. guette ma Black Mafia M'accuse de vouloir péter la tête du traître Me voilà fugitif, vite jprends mon fusil, vise J'entends quelqu'un té-mon, qui c'est ? On me répond C'est pour un emploi, jme présente On me dit que l'homme à tuer c'est Oxmo du 20 moins 1 Le black mafiosi Puccino, mon voisin du crime, chef des casinos Il me semble que c'est urgent, ce soir on verra les urgences Le contrat est sur toi Pucc, il faut qu'on s'organise Faire flipper la firme, qu'elle balise quand jverbalise Piège la valise du Boss, dynamite sa caisse, réuni la tèc' Et pour les dégâts, laisse-les, on sait déjà Bon, écoute Booba, je sais où Bloopalooza se la coule douce Si t'as un Land Cruiser, pousse bien, on est là-bas pour 12 heures Toc-Toc-Toc, salut Bloopalooza sale schnock T'as bien raison de flipper, je t'ai retrouvé, je suis équipé d'mon Glock Le macaque me sort son Magnum, ne blague pas Me nomme le mac mort, me braque et ne me manque pas Touché au bras gauche, fausse blessure Jmets un coup de pied dans la crosse et sors un surin de ma chaussure Je lui fous un coup de couteau sous son cou Tout son juice coule jusqu'à son poumon, ça c'était pour mon crew Enfoiré, tu croyais que t'allais me tuer ? Mais tu es fou ou quoi ? Autant évacuer la Chine en une nuit ! Et puis jvais pas te tuer, non, dis pas merci Booba, tue cette merde puante qu'on se casse d'ici J'entends des sirènes, c'est les keufs, oublie les keufs Pucc, prends ton pouchka Cache-le dans ta manche gauche, bougeons...! Passe moi le blouson, lâche ta cocaïne aux chiottes Et démarre la jeep qu'on se casse loin d'ici, Oxmo Puccino Puccino, Puccino Puccino, Puccino Puccino, Puccino Puccino7</t>
+          <t>Un peu d'oseille change de thème pour la plupart Moi j'suis toujours le même 500.000 albums plus tard J'me pose toujours impeccable, mon flow arrive en bécane Tire, fuis, comme un coup franc de Beckham Le son qui sort à zéro neuf net On a commencé minots, vomi nos tripes au mic, pas là pour plaire aux meufs mec Que des braves sur la pelouse, tu piges on a le blues des esclaves 1m92 sans qu'on me cultive C'est Tallac Records au bout du fil Demande la peine de mort pour pointeurs et pédophiles J'suis qu'un fauve parmi les hommes Négro, négro plus rien ne m'étonne, plus rien ne me désole La concurrence tente l'impossible Ta gueule au fond d'une bassine d'acide, mon groupe assassine, t'es pris pour cible Envoyé pour piller villages, villes et campagnes Kho j'ai la tête dans les nuages, la bite dans le champagne J'suis à des miles du rap français, d'un Glock j'ai la démarche Ça passe ou ça casse ou je brasse ou je trépasse Beaucoup de brelica du 9.2 au 20 moins 1 Tester c'est délicat comme coffrer un 5-20 La faucheuse a la carte vitale, mon son dans les cervicales Paris voilà j'arrive underground comme Spaggiari Qu'on m'impressionne, les rappeurs sucent pour qu'on les pistonne Votre honneur le rap est dead, j'suis innocent comme OJ Simpson Alors tu t'demandes pourquoi j'continue Parce que j'sais rien faire d'autre, mise à l'amende discontinue Avant de partir je défouraillerai bien un ou deux keufs J'ai la couleur du martyr, ils ont mon seum dans les seufs Cellule, promenade, parloir, haine, C.P.P.N Un grand classique j'ai rendu magique les BPM Mais on laissera toujours des traces négros, partout où on passe Gin juice, B2O au micro j'te nique ta race, moi J'arrive au tribunal frais en Air Force, en Marithé Mc poursuivi pour rimes contre l'humanité J'vais sûrement prendre perpète, préparez les mandats Moi j'suis toujours au mauvais moment au mauvais endroit Gardez moi la meilleure cellule loin du bureau des hassas J'arrive avec un portable G4 et l'ADSL Je prends pas le mic pour que la banlieue se fâche J'suis là pour tout découper, B2OB AstéroHache ! Y'a des balances qui plaident, des coups de fusil qui s'perdent Des bons français qui s'plaignent, des familles qui saignent Alors j'opère en solo dans le chaos total N'ayez crainte j'suis pas dangereux, j'ai ni cravate ni barbe J'ai failli sauter sur une mine en regardant une carte postale J'veux débarrasser l'bitume, m'arracher sur une île Faire un peu de biff ailleurs, fermer le local Y'a plus personne ici d'ailleurs, crois-en ma boite vocale Biatch!10</t>
         </is>
       </c>
     </row>
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MQTB</t>
+          <t>92i</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>The Danger Yeah Ce soir, j'fais l'tour de chaque boîte J'serre une 'tasse de chaque race Reconnaissant, m'souviens d'chaque passe Rancunier, m'souviens d'chaque crasse T'as un gros cul mais t'as pas d'classe J'fais l'cash, eux, ils jacassent On n'parle pas d'eux s'ils font pas d'clash On n'parle pas d'eux s'ils font pas d'clash Ce soir, j'fais l'tour de chaque boîte J'serre une 'tasse de chaque race Reconnaissant, m'souviens d'chaque passe Rancunier, m'souviens d'chaque crasse T'as un gros cul mais t'as pas d'classe J'fais l'cash, eux, ils jacassent On n'parle pas d'eux s'ils font pas d'clash On n'parle pas d'eux s'ils font pas d'clash Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? J'veux juste savoir, mais qui te baise ? J'veux juste savoir, mais qui te baise ? J'ai grandi sur du Demon One, j'parlais d'mon passé d'malhonnête T'as commencé l'rap derrière ton Mac, moi, à ton âge, j'étais au hebs On porte des grosses chaînes, on baise des grosses chiennes Que tu viennes du Bronx ou d'Saint-Étienne, fais pas des tiennes J'allais embarquer trois latinas, les gows ont Googlé mon se-bla Le cours de leurs schnecks a explosé, ça m'a couté dix bouteilles de rosé Aucune bien sûr fut engrossée, MQTB, d'mande à Dosseh Elle a mes enfants dans le gosier sur tout l'rap français, j'ai des dossiers J'la rappelle plus, elle a grossi Paris, c'est loin et moi aussi Si y a embrouille, on négocie pas, t'as pas d'quoi nourrir un Tamagotchi J'turn up dans ton cavu si j'te donne l'heure, tu perds la vue J'turn up dans ton cavu si j'te donne l'heure, tu perds la vue Trois mojitos, j'sors pepito, dame un besito, pute P'tit pont dans la schneck à Linda, hors jeu fort, j'vais droit au but Je fais chauffer les Barilla, j'garde la che-pê, j'fais des push-ups Nouveau Bentley, je vais pull-up, ta tchoin a ma cons' dans sa culotte Ce soir, j'fais l'tour de chaque boîte J'serre une 'tasse de chaque race Reconnaissant, m'souviens d'chaque passe Rancunier, m'souviens d'chaque crasse T'as un gros cul mais t'as pas d'classe J'fais l'cash, eux, ils jacassent On n'parle pas d'eux s'ils font pas d'clash On n'parle pas d'eux s'ils font pas d'clash Ce soir, j'fais l'tour de chaque boîte J'serre une 'tasse de chaque race Reconnaissant, m'souviens d'chaque passe Rancunier, m'souviens d'chaque crasse T'as un gros cul mais t'as pas d'classe J'fais l'cash, eux, ils jacassent On n'parle pas d'eux s'ils font pas d'clash On n'parle pas d'eux s'ils font pas d'clash Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? J'veux juste savoir, mais qui te baise ? J'veux juste savoir, mais qui te baise ? Yeah, les verres sont fumés pour cacher les cernes Eau de feu pour enflammer les scènes J'prends le pouvoir à la Boumédiène Tiep bou dien et j'suis prêt pour les ken Chaque jour, je prie pour que Dieu m'apaise Chaque jour, elle m'supplie pour que je la baise Le chassé du gauche est de Yaoundé Patate du droit est sénégalaise Vozodkaza dans le rreze-veze Pozote-caza dans steze-veze Swag d'enculé, flow de baisé J'emporterai rien quand j'vais crezeverzer J'suis plus Ashley Graham que Bella Hadid J'suis Game of Thrones, t'es Camping Paradis Tendre la main à des bras cassés C'est prendre les risques d'chopper leurs maladies Mon but, c'est de la mettre à l'abri Donc tant pis si je rends pas fière la mif J'rappe pour les lossas d'mon acabit J'crois qu'j'ai un bon fond mais tout est relatif Ces rappeurs sont pétés, c'est sidérant L'argent, c'est rien qu'un problème différent Peur de Dieu, comme Jerry Lorenzo J'me rappelle même plus où j'ai volé c'flow Ce soir, j'fais l'tour de chaque boîte J'serre une 'tasse de chaque race Reconnaissant, m'souviens d'chaque passe Rancunier, m'souviens d'chaque crasse T'as un gros cul mais t'as pas d'classe J'fais l'cash, eux, ils jacassent On n'parle pas d'eux s'ils font pas d'clash On n'parle pas d'eux s'ils font pas d'clash Ce soir, j'fais l'tour de chaque boîte J'serre une 'tasse de chaque race Reconnaissant, m'souviens d'chaque passe Rancunier, m'souviens d'chaque crasse T'as un gros cul mais t'as pas d'classe J'fais l'cash, eux, ils jacassent On n'parle pas d'eux s'ils font pas d'clash On n'parle pas d'eux s'ils font pas d'clash Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? Qui te baise? J'veux juste savoir, mais qui te baise ? J'veux juste savoir, mais qui te baise ? The Danger2</t>
+          <t>Ya-Ya-Yaya on the track This is Freaky J'leur fais la totale Han, ces putes vendent pas d'albums J'mets toit sous mon parasole, les fumer, j'trouve ça banale Yeah, Mauvais en relation, fils de chien, j'sauverai la nation Click, pah, j'te fous sur l'paillasson, j'ai vendu été, hiver 2 balles sur ton corps, fuck les problèmes, bitch, j't'oublie, ton string, il me saoule De grosses quantités de Cali, j'tolère, Glock 17 pétasse quand je sors Je sais, tu peux pas comprendre ma colère, j'les bute au 47-AK Moi j'suis matrixé par ce sac d'oseille, fils de pute, on est sur la carte Yeah, deux cornes, une auréole, me parle pas de la sorte Six heures du mat', ça frappe à la porte, qu'une heure avant, j'craquais la capote Négro, toujours en opération, les kill', c'est banale 92i, VVS, Paname, eh On traîne très tôt, mytho, métaux, vie de chien, y a pas de véto J'ai tout investi, là il me reste tchi, j'ai payé la gov' en bédo Un métal froid, sur baba qu'ils ont chaud J'les laisse parler, c'est des putas, ils f'ront pas grand chose 92i, la frappe, ramène, wesh ient-cli, j'sais c'qui t'amène Tu nous dois tant, tu mets du temps, bang bang dans l'abdomen 92i, la frappe, ramène, wesh ient-cli, j'sais c'qui t'amène Tu nous dois tant, tu mets du temps, bang bang Nous devant, eux derrière, comme ça qu'j'ai tout agencé Des fois, j'vais trop loin, je sais, c'est mieux que d'ne pas avancer Tu cherches à être dans tous les curs, tu n'es même pas dans l'tiens Ton malheur fait mon bonheur, 700 HP, check engin Le ciel est noir et réclame sa part, les douleurs elles restent, les amis, ça part La tension quand les démons frappent à sa porte, un fils, ça fait la guerre et une mère, ça pleure La mort, la richesse, ne m'font plus d'effet, une fin universelle, on s'ra tous défunts Trente-trois ans l'âge de gloire, serais-je assez fort ? Dans la rue, peu d'bonhommes, guette, c'est tous des faibles Même au paradis, j'trouverai des défauts, c'est pour ça qu'j'suis conscient qu'j'suis le plat du feu Une cagoule, une équipe, tout est planifié, du sang dans tout l'salon et c'est pas du faux Si t'as d'la pure pas chère, c'est pas d'la re-pu, ici, c'est la France, c'est pas Medellin Aujourd'hui, quatre plaquettes, c'est un salaire brut, tu sais, les vacances, c'est pas mes délires Tu sais, les vacances, c'est pas mes délires Ouais, ouais, gros, paye-moi maintenant, j'laisse zéro délais Ouais, ouais Fini les carences, j'fais cinq-cents de l'heure, certif' après certif', j'suis le cours de l'or Arriba, arriba, arriba J'fais l'argent encore, on sait le blanchir Ouh, y a des ients-cli dehors, du pain sur la planche Ouh 92i, la frappe, le gang, il déchire, si tu cherches la concurrence, va chercher aux chiottes La money appartient à c'lui qui la veut, ils sont morts fauchés, ces cons, dites-moi à qui la faute ? C'est pas la mienne, nan, nan, nan, nan Nan, nan, nan, nan, nan, nan, nan, nan Nous devant, eux derrière, comme ça qu'j'ai tout agencé Des fois, j'vais trop loin, je sais, c'est mieux que d'ne pas avancer Tu cherches à être dans tous les curs, tu n'es même pas dans l'tien Ton malheur fait mon bonheur, 700 HP, check engin Ta-la-la-la-ta-ta-ta, ta-la-la-la-ta-ta-ta Ta-la-la-la-ta-ta-ta, ta-la-la-la-ta-ta-ta Ta-la-la-la-ta-ta-ta, ta-la-la-la-ta-ta-ta Ta-la-la-la-ta-ta-ta</t>
         </is>
       </c>
     </row>
@@ -3450,12 +3450,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Salade, tomates, oignons</t>
+          <t>Bonne journée</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Au pays d'l'argent facile, combien sont morts en chemin? Fuck les APL, les transports en commun Poudre à canon dans les poumons, j'crache, les MC pètent les plombs J'marche seul avec mon Uzi man, 92izi man Gros numéro 10, avant qu'Iblis ne me choisisse Prie pour que les rivières du Styx se refroidissent J'descends au Ritz, tu baises ta grosse à l'hôtel Ibis Flow Testarossa, j'suis pas laise-ba grâce aux graphistes J't'encule, j'fais la reusta, zerma les dernières pe-sa T'en oublies qu'je rappe mieux qu'toi, tu regardes que ça Faudra me couper la langue pour que je crache Personne ne vend plus que oim' à c'que je sache Alors restez tranquille, je pars aux Bahamas J'te laisse donc crever ta race sur la banquise Suffit d'une phase pour les réduire en purée Tu sais pas qui je suis? Google-moi, enculé! Tu veux prendre des risques? Tu veux faire du cash? Faire dans l'illicite, avoir de grosses liasses Mais pour faire des millions, c'est de plus en plus dur Salades tomates oignons à vie, c'est de plus en plus sûr Tu veux prendre des risques? Tu veux faire du cash? Faire dans l'illicite, avoir de grosses liasses Mais pour faire des millions, c'est de plus en plus dur Salades tomates oignons à vie, c'est de plus en plus sûr Le sang s'répand comme une trainée de poudre, c'est elle que l'on fait jacasser Ra-Rarement à court les cloisons, les crânes fracassés Ravi de te tabasser, rien de cool à présager Ma côte en hausse, ma côte en hausse comme les 2 plus âgés Sans visa tu voyages, du sang de ton visage La volaille en vis-à-vis on reste que dans le paysage De massacrante humeur, massacrant de plume que des thunes Monnaie dans le crâne comme une putain de tumeur Quand on crève que dans le noir pour moi, c'est une putain de lueur Complètement schnouffés sont tes potes ce n'est pas une putain de rumeur C'est elle que l'on recèle, fais gonfler la recette 9.2, 0.9 ça shlingue le kérosène Blanches demoiselles, le profil reste détaxer Les murs déplacés pour profils de desaxés Tu t'chies dessus serait-ce la frousse ou le Manicol? Ressens la foudre, son de la brousse, Hauts-de-Seine école Tu veux prendre des risques? Tu veux faire du cash? Faire dans l'illicite, avoir de grosses liasses Mais pour faire des millions, c'est de plus en plus dur Salades tomates oignons à vie, c'est de plus en plus sûr Tu veux prendre des risques? Tu veux faire du cash? Faire dans l'illicite, avoir de grosses liasses Mais pour faire des millions, c'est de plus en plus dur Salades tomates oignons à vie, c'est de plus en plus sûr T'as travaillé pour c'bled ta vie entière, tu as cru bien faire Donne-moi la main d'ta fille, vieux con, j'vais vous sortir de la misère Un vrai duc, un vrai baron Violent depuis les couilles du daron J'rentre chez le concessionnaire, baskets, casquette à l'envers De Boulogne, Colombes, Asnières, Genn'-Genn' à Nanterre J'suis pas dans l'bling-bling, enculé j'suis diamantaire Plein de haine comme les rayures sur ma portière Payé comme au golf, deux putes m'attendent sur le sofa Dehors ma limousine, une troisième pute suce le chauffeur J'parle tout l'temps d'bif, car ici-bas, rien n'est offert Substances illicites, frère, payent les faux frais Ceux qui me connaissent savent que ma place est dans la fosse aux lions Harissa mayonnaise poto, Salades tomates oignons Mehdi Med à la sono, sers-moi mon Jack dans un seau d'eau MC j't'encule en chantant Do ré mi fa sol, la sodomie Tu veux prendre des risques? Tu veux faire du cash? Faire dans l'illicite, avoir de grosses liasses Mais pour faire des millions, c'est de plus en plus dur Salades tomates oignons à vie, c'est de plus en plus sûr Tu veux prendre des risques? Tu veux faire du cash? Faire dans l'illicite, avoir de grosses liasses Mais pour faire des millions, c'est de plus en plus dur Salades tomates oignons à vie, c'est de plus en plus sûr1</t>
+          <t>Ouais, ouais, ouais This is a OG call, OG Ouais, ouais, ouais Un garçon, une fille, j'sais même pas comment j'ai fait Enfin, si mais tu m'comprends, à vingt-cinq ans, j'me voyais fait Calibré, rue D'La Paix, c'est dev'nu très mal fréquenté Très mal fréquenté Started from banc d'la G.A.V, j'ai les lacets défaits En Ferrari, tellement flashé, je frôle la crise d'épilepsie Avec des scies, on coupe du bois, avec des Omar Sy aussi Plus b'soin d'faire couler d'encre sauf quand la connexion est lente J'aime bien avoir mon camp, y a une bagarre, j'suis jamais entr Elle m'a dit J'suce, j'fais le ménag, j'suis jamais chiante Ton Uber est déjà dehors, tu t'es cru dans les années 30 ? Je n'comprends pas non plus toute cette haine qui m'alimente Qui m'alimente Vingt-cinq ans d'carrière, personne n'm'a eu mais vas-y, tente Vas-y, je n'ai qu'un seul gang, j'suis très mal entouré Dès le soleil levant, je commence à rouler Ils sont beaucoup plus nombreux mais j'dois y retourner Sur ce, sur ce, sur ce, nique ta mère, bonne journée Vas-y Je n'ai qu'un seul gang, j'suis très mal entouré Dès le soleil levant, je commence à rouler Ils sont beaucoup plus nombreux mais j'dois y retourner Sur ce, sur ce, sur ce, nique ta mère, bonne journée Ouais, ouais Ocho, j'suis l'dernier d'la classe dans un Classe C Ouh J'connais leurs vies, j'connais leurs passés Ouh, j'les butte comme O-Dog, j'repars avec la cassette J'repars avec la cassette Eh, la haine dans l'miroir, j'suis comme Cassel Ouh Elle viens, elle repart le cul cassé, moi, j'sors juste ma bite, mon se-bla fais la causette Arriba, arriba C'est comment ? C'est nous, là, on reprends les commandes Ouais, ouais Mon Glock et mes couilles sur la commode, si Faya te touche, minimum, c'est le coma Brah Dans le 92i, nga nakomi Ouh, je n'ai qu'un seul gang, gros, tu connais Ocho Intouchable Ocho, gros, tu connais, j'ai mis peine de cur au fond d'un verre de Cognac Ouais, ouais, ouais Et c'est bizarre pour eux Ouh, j'vais leur faire du pourri Wouh, j'suis en haut d'la Tourelle, mystique pour eux Ouh Gros, j'suis très mal entouré Woo, Moha et Vegas Touré, ouais, ouais Intouchable est le gang, gros Minimum, mille euros la journée Ouais, ouais, dans lcamp den face, y a des mecs jnounés C'est moi Allez niquer vos mères et bonne journée, ocho Ouh, ouh Vas-y, je n'ai qu'un seul gang, j'suis très mal entouré Dès le soleil levant, je commence à rouler Ils sont beaucoup plus nombreux mais j'dois y retourner Sur ce, sur ce, sur ce, nique ta mère, bonne journée Vas-y Je n'ai qu'un seul gang, j'suis très mal entouré Dès le soleil levant, je commence à rouler Ils sont beaucoup plus nombreux mais j'dois y retourner Sur ce, sur ce, sur ce, nique ta mère, bonne journée Vas-y</t>
         </is>
       </c>
     </row>
@@ -3467,12 +3467,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Strass et paillettes</t>
+          <t>Izi monnaie</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Eh les mecs Check Quartier Hauts-de-Seine Eh les mecs, arrêtez les cachetons, au quartier ça sent le Tranxen 500 Anti-shmits, fonskar au shit ça sent le SL 500 Wesh Booba ?! J'entends en passant Si tu veux tirer tire mais fais-le vite, compte pas régler tes comptes en m'clashant Majors, handek, j'vais faire monter les tarots Quand j'ai la clé j'm'en sers pour casser l'carreau Merde, y'a nos empreintes sur la hachette Laisse-nous passer pendant qu'les MCs s'font bouffer la chatte Check ! Toujours à la mode, j'mets toujours à l'amende à chaque set Cinq doigts sur un HF, Hérissés mes lyrics sortent de ma bouche de mon iris, ma vie un putain d'cul d'sac Eh ! Fils, écoute ça ouais nous on shoote ça Pas pu signer parce qu'on est suspects, nous on suce pas Trop d'soupapes, sous l'capot trop d'sous papa Nous défier t'es fou t'as bu t'es saoul bâtard J'me barre et j'ai pas yèp, nique le strass et les paillettes Inonde les ondes au fusil à pompe de Boulogne à Lafayette j'gronde Tu veux du taf pétasse t'as qu'à être blonde Tu veux mon cash négro ça va être long J'me barre et j'ai pas yèp, nique le strass et les paillettes Inonde les ondes au fusil à pompe de Boulogne à Lafayette j'gronde Tu veux du taf pétasse t'as qu'à être blonde Tu veux mon cash négro ça va être long Un bloc de shit un bloc-notes sur moi, j'prends l'périph Circulaire comme le canon d'un Glock Fuck le milieu mondain s'moque de mon putain d'train d'vie D'puis des années j'suis ivre en train d'vivre en train d'caner Si tu veux pas t'faire baiser, alors viens pas, chez nous Le slip entre la chatte et l'genou Parce que le monde est ainsi Infâme, j'suis l'étincelle, anti-insignes Chaîne en or qui pend sur l'marcel Chicots en or basse caisse claire, du shit encore connard c'est Lunatic Aie j'suis àl, l'art de la cellule, j'pratique Quelques techniques de Sellasié High Défouraille est la tac-tic, beaucoup d'estime pour le bling-bling centimes Strings, crime, putes en vitrine Fous le rap en pleine déprime La rue t'es en plein d'dans, serrez les dents les rangs pendant que j'm'exprime J'me barre et j'ai pas yèp, nique le strass et les paillettes Inonde les ondes au fusil à pompe de Boulogne à Lafayette j'gronde Tu veux du taf pétasse t'as qu'à être blonde Tu veux mon cash négro ça va être long J'me barre et j'ai pas yèp, nique le strass et les paillettes Inonde les ondes au fusil à pompe de Boulogne à Lafayette j'gronde Tu veux du taf pétasse t'as qu'à être blonde Tu veux mon cash négro ça va être long On ne meurt qu'une fois, d'ici-là laisse-moi placer pour ceux que j'aime sans me lasser Ma famille, mes gênes et mes gens massifs Que reste la blanche mafia à Gênes Ici les Hauts-d'Seine, mes nègres et crouilles au contrôle, actifs Indépendant l'kif Attends-toi à nous voir tout faire briller des disques aux pendentifs On a pas oublié L'or que le pape porte au cou est celui qui nous a été pillé Quel est le problème ? Tu veux savoir est-ce qu'A.L.I ment ? Autant demander est-ce qu'y a du porc dans mes aliments Ne rappe ni pour la gloire ni par passion J'n'attends d'ta part ni compliments ni ovations Quand bien même tu kiffes, fais-le avec modération Allah, à toi seul l'homme doit toute son adoration Les vrais savent, sérieux quand j'cause Ma narration depuis les blocs du Pont d'Sèvres et d'Issy pose Mon blaze sur mon époque, Lunatic, mon groupe imbrisable 92i, ma troupe un blizzard, glace le biz jusqu'à c'qu'il casse J'me barre et j'ai pas yèp, nique le strass et les paillettes Inonde les ondes au fusil à pompe de Boulogne à Lafayette j'gronde Tu veux du taf pétasse t'as qu'à être blonde Tu veux mon cash négro ça va être long J'me barre et j'ai pas yèp, nique le strass et les paillettes Inonde les ondes au fusil à pompe de Boulogne à Lafayette j'gronde Tu veux du taf pétasse t'as qu'à être blonde Tu veux mon cash négro ça va être long J'me barre et j'ai pas yèp... le strass... Inonde les ondes au fusil à pompe... Tu veux du taf pétasse t'as qu'à être blonde Tu veux mon cash négro ça va être long J'me barre et j'ai pas yèp, nique le strass et les paillettes Boulogne Issy4</t>
+          <t>Izi, j'fais de la Izi Monnaie Izi Monnaie, tu connais Rien d'idyllique, parcours peu agréable tout droit sorties du cul du diable Timal, je sais où tu as mal car je sais où je frappe Paname là où je squatte, pare-balles est sous l'imperméable J'ai fait couler le sang, j'ai fait couler le champagne T'es nouveau dans le game, j'suis riche depuis le franc man L'argent fait le bonheur, j'en reste convaincu Je suis venu, tranquille j'ai vu, j'ai vaincu Ne confonds pas le météore et les astéroïdes Sur les murs du comico ma clique est sur polaroïd Chaque fois que j'sors d'mon ascenseur j'effraie la voisine Drogue dealeur, double D mon tour de poitrine J'dois prendre le large, négro je prends de l'âge Elles me courent après, je cours après le cash On ne m'a jamais dit ce que j'allais devenir Que mes démons fuiraient mais qu'ils allaient revenir Viens dans mon département Faire de l'argent facile, pourquoi faire autrement ? J'ai vu des lingots d'or dans l'périscope, à bord d'un sous-marin Ma descendance est morte dans un rouleau de Sopalin J'ai fait la guerre pour habiter Rue de la Paix Je ne manque jamais à l'appel quand c'est le jour de la paye Quelques bugs dans mon cerveau j'imagine Une à une mes cases s'allument comme dans Billie Jean J'ai rêvé qu'j'étais dans le boule d'E.V.E Je la baisais sans pote-ca, j'avais le flow d'Eazy-E Garcimore avec un Uzi, Braza, Don Milouzi Stringer Bell, Marlo Stanfield, Izi monnaie 10 000 euros pour t'faire fumer, étrange devis Le beurre, l'argent du beurre pour tartiner mes tranches de vie Coup de coude, bienvenue dans mon Hood Ça sent la feuille de coca, le bicarbonate de soude Surveille bien le ghetto, sa météo Couvre-toi ou pars en coup de vent les pieds devant Nouvelle école j'donne ça à l'ancienne 92i enseigne à frapper l'ennemi jusqu'à c'que phalanges saignent Biatch3</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Sombre</t>
+          <t>Je me souviens</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>WOOOOOOOOOO Lil Dreams What do I dream about, you ask? Well I like the booba, the booba, the boobs Who doesnt like the booba, the boobs I dream about them every night Its not a fright, its alright Someone help me get some booba I need to be less of a simp I need to be less of a weirdo I need BOOBA WOOOOOOOOOOO I like the booba, the booba, the boobs Who doesnt like the booba, the boobs I dream about them every night Its not a fright, its alright</t>
+          <t>Hop hop hop, hey, tu t'en souviens ou pas ? Quand les négros n'étaient pas à la mode Ah, peux pas faire deux pas sans qu'on t'dévisage Impossible d'serrer une blonde, même avec un défrisage La zermi, hey ouais mon vieux B2O Avant Michael Jackson et l'arrivée de la drogue J'me souviens quand les négros n'étaient pas à la mode Parait qu'on puait, qu'on était pauvres, le zen' épaté J'me souviens des yen-cli d'coke, le zen éclaté A 10 ans en GAV, j'suis c'qu'ils appellent un vandale Un peu plus tard comme Joey Starr, j'serai un Boss of scandale 14 ans, mon premier joint, ma première foufoune 20 ans, j'suis en prison, mahliche, la roue tourne J'me souviens du mitard, de ceux qui s'ouvraient les veines Des Manouches, des Beurs, des Corses et des Ritals Mentale irritation, mon héritage, le cur vide les cojones pleines Le futur nique sa mère pourvu qu'ça paie en espèces Mon premier bolide R19, 16 soupapes Course poursuite avec les keufs, plaide coupable Ma première vitrine, ma première victime Destiné mon premier hit, single Desert Eagle J'me souviens d'l'allée du forum comme si c'était hier Quand y avait Dorse, Ali, La dinde, que Yahia f'sait pas la prière Tu voulais test ? Fallait pas, on te massacre T'aurais des flashs de quelques haches, quelques macaques Aujourd'hui, beaucoup parlent de la street J'ai fait ci, j'ai fait ça, ouais c'est ça ouais MC sincèrement tu fais pas l'poids, t'as jamais brillé Avant d'sortir un disque, nous on s'rappelle pas d'toi Te souviens-tu ta première gifle, ta première casquette ? Ton premier jugement, aller-retour en boite en taxis-basket ? Ton premier KO, premier 16 à l'assaut des ondes hertziennes ? Ta première go ta-ta-ta première chienne ? Ta première pote-ca, ta première rotte-ca ? Ta première Heineken ? Kennedy, B2O MC sincèrement tu fais pas l'poids, t'as jamais prié Avant d'sortir un disque, nous on s'rappel pas d'toi J'me souviens mon premier Lacoste Quand toute la France dansait le mia comme Akhenaton J'passe mon temps à m'bagarrer à l'époque Parc'que le soir mon daron cognait ma daronne, s'prenait pour Mike Tyson 12 piges, roule l'spliff, la vie a un gout d'pisse 16 ans, la rue a remplacé mes parents Capuche sur la tête j'traine dans les rues du 94 Je souris jamais jamais, la vie m'a mis des grosses claques J'me souviens la K'1 Fry Mafia, Mansa, Lasna Yézi l'escroc m'a fait croquer des scal-Pa Entre bagarres et gardav', la vie a fait d'moi une caillera J'ai eu un flingue avant d'avoir un portable Oh, j'ai vu la drogue ravager le quartier 18 ans, c't'année, 3 potes à moi se sont fait canner Comme chaque rabzouz et né-né-né-gro J'ai l'instinct de survie dans l'ghe-ghe-ghetto Au lycée, les surveillants viennent me voir pour pé-cho du popo Hé, prend ton shit et casses toi, boloss casse toi Entre poisse et galère, sa mère Des mains faites pour l'or et elles sont dans la merde4</t>
         </is>
       </c>
     </row>
@@ -3501,12 +3501,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>45 Scientific</t>
+          <t>Fœtus</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Tant pis si les mains sont sales tant que les Nike Air sont propres Chaque jour, c'est pour faire du biff, mettre à l'abri la mif C'est la mienne que tu sniffes, 92izi fait la diff' 45 Scientific, créé grâce au haschich À chaque ceau-mor, c'est à un crime que tu assistes J'viens pas aux practices, j'suis là que pour les finales Calibré comme le raid, tu testes, tu finis si mal T'as juste à tendre l'oreille pour savoir qui est le meilleur Kalashnikopp, B2O Mayweather MC à dix heures dans le viseur Le Glock sous l'oreiller, la coke est dans le freezer J'vais me faire péter comme un kholot Tu crois que t'es aud-ch ? Ferme ta gueule, t'es qu'un boloss Le psy de Bois d'Ar' m'a dit que j'étais schizophrénique Aussitôt ils me cherchent, aussitôt je les nique Droit au but, pas de timinik Enfin débarrassés de Pokora, Diam's et Sinik T'es fou ou quoi ? T'es sourd ou quoi ? 9.2, 9.3, Boulbi, Aulnay-sous-Bois 45, Dosseh Scientific Un flic est un gentil flic Parabellum chargé, j'anticipe Viens au parloir avec du shit si tu me rends visite Laisse-moi rouler ma bosse, j'te laisse rouler ta bille J'les prends dans tous les sens Priez pour que je me perde parce que dans le cas contraire, les fins de carrières seront nombreuses T'auras plus qu'à lancer des rumeurs sur ta propre mort pour t'récupérer ton buzz Sur la vie de ta mère que je n'ai jamais voulu faire de mal à qui que ce soit Si certains m'aiment, d'autres me haïssent, mais tous connaissent mes rimes mieux que moi Tu m'verras pas sucer de bites ni faire de courbettes pour se faire bien voir Ils ont tué le Christ, combattu le Prophète Donc moi, combien de fois j'les vois tous prêts à changer de sexe comme RuPaul pour rentrer en playlist Mais leur dernière vision ne sera qu'un petit blackos et un grand tisse-mé À part de caisse et peut-être de banquier Honnêtement, qu'est ce que tu penses qu'avec le rap je vais changer ? Les frères déboulonneront toujours des travelos dans les bois Et bicraveront toujours de la cess à la clientèle des soirées branchées J'suis moins posté au bloc mais en ce qui me concerne j'suis toujours un brave Tu me fais gole-ri quand tu me toises, ta destinée sera celle d'une groupie de concerts de base Tu vas ouvrir tes seufs, on va te ken, ché-cra puis one again Et le jour d'après, on aura déjà oublié ton blase T'es fou ou quoi ? T'es sourd ou quoi ? 9.2, 9.3, Boulbi, Aulnay-sous-Bois 45, Dosseh Scientific Un flic est un gentil flic Parabellum chargé, j'anticipe Viens au parloir avec du shit si tu me rends visite Laisse-moi rouler ma bosse, j'te laisse rouler ta bille J'les prends dans tous les sens, comme les rues de ma ville Quand se retournent les vestes, je leur ouvre les veines Négro j'suis trop haut, j'rappe depuis l'Everest J'rappe depuis l'Everest, tu rappes depuis tes fesses Frais sans faire exprès, vrais reconnaissent vrais Quand mon heure sonnera, personne ne me sauvera Prends ce que t'as à prendre car personne te le donnera J'suis sur le bateau, je rentre bientôt Ü sur le maillot, mon cul sur le magot J'ai toujours fait ce que vous ne vouliez pas que je fasse et demain je ferai ce que vous ne pouvez pas faire Je fanatise les foules comme Hitler ou Lucifer Ils croient connaître mon vrai visage ? Bosse comme un nois-chi, gère le nessbi comme un Juif C'est comme ça que je conçois je métissage T'as voulu test, ça te coûtera très cher comme la cavale d'un braqueur Mec, tes attaques sont prévisibles comme une overdose de crackers Frérot, j'suis dans un game qu'aucun de vous ne pourrait capter Si ce n'est pour en sortir, dites-moi à quoi sert le quartier ? T'es fou ou quoi ? T'es sourd ou quoi ? 9.2, 9.3, Boulbi, Aulnay-sous-Bois 45, Dosseh Scientific Un flic est un gentil flic Parabellum chargé, j'anticipe Viens au parloir avec du shit si tu me rends visite Laisse-moi rouler ma bosse, j'te laisse rouler ta bille J'les prends dans tous les sens, comme les rues de ma ville1</t>
+          <t>Ftus je défierai quiconque Beaucoup plus grosses que des balles de ping-pong Je me frappe le torse comme King Kong Charge comme Mohamed, Tyson, dès le ding-dong Parti du testicule droit, plus rapide que Michael Phelps 9 mois plus tard, pas de place pour les faibles J'irai en prison à 20 ans Pour l'instant je suis violet comme un billet de 500 J'ai des faux flingues je te tire dessus En maternelle je mange du sable, je me pisse dessus J'apprends à chasser comme un petit lionceau Plus tard tu viendras me voir pour ta conso Encore trop jeune pour qu'on me traite de sale renoi Je me sens proche des negros plus noirs que moi École primaire, élève de classe moyenne Pour être au top je deviendrai mi-homme mi-hyène J'ai peur du noir, du croque-mitaine J'ai la trique devant les clips de Farmer Mylène Je vois l'Afrique à la télévision Elle meurt peu à peu, disent ils dans leurs chansons Ftus je défierai quiconque Beaucoup plus grosses que des balles de ping-pong Je me frappe le torse comme King Kong Charge comme Mohamed, Tyson, dès le ding-dong Très tôt je pars au bled, je reviens marqué Blessé, je rentre en France pour les maquer Public Enemy la sonorité Je ne tolère ni uniforme, ni autorité Ils ont Canal en décrypté Je fais mes courses aux puces, je suis dans la street à kritker Pas de relation stable, elles viennent je les baise Je dois rester focus, je monte sur tous les dièses Les plus sages me disent de me ranger Mais je suis déter' sur le ter-ter, pas prêt de changer Mylène Farmer ne me fait plus bander Mc Hammer ne me fait plus danser Par contre la rue me fera chanter Elle me détruirera, me le dira, m'y fera penser Je ne sais que mordre, on m'a interdit de lécher Je veux pas de ton poisson, je veux que tu m'apprennes à pêcher Ftus je défierai quiconque Beaucoup plus grosses que des balles de ping-pong Je me frappe le torse comme King Kong Charge comme Mohamed, Tyson, dès le ding-dong 100-8 Zoo, les négros veulent B2O Flow de grizzli, je rappe so easily Meneur, leader, black entrepreneur Inspiré par Martin Luther et Shawn Carter La street mon premier amour J'ai du la tromper, mais je l'aimerai toujours Je me devais de communiquer Ma self-education, ma rage de guerrier soninké Des bancs de la school, au port de la cagoule Des crayons de couleurs, aux uzis mitrailleurs Flash back ! Du landeau à la Maybach Du premier esclave au premier président black J'ai souffert, d'autres ont souffert beaucoup plus Pour eux je dechaîne l'enfer, les degrés Celsius A César j'esquisse un rictus Incline-toi devant le Purple Ftus3</t>
         </is>
       </c>
     </row>
@@ -3518,12 +3518,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ratpis</t>
+          <t>Du biff</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Lak so tun drak time Anyway! Ah! Gully! Yeah Parwaloudji Booba Début à la fin, j'suis dans le top, balle dans le crâne pour qu'on me stoppe Trop de came pour qu'on la stocke, à tes funérailles j'ai mon caméscope Que les vrais qui connaissent Kopp, je traite ta halal comme une escorte 92i à l'Enterprise, on vient de retrouver Spock Dans le 9.2, came, meilleur spot, dans le turfu avec tous mes potes 100.000 pour un te-fea, chaîne en ro-ro sur un te-pi C'est toujours la même merde, j'ai juste des nouvelles chiottes C'est toujours la même merde, j'ai juste des nouvelles chiottes Ils ne connaissent pas l'ampleur de ma flotte, dis-leur bien à ces fiottes Préparez-vous pour les gunshots, Ciroc, Jack, je sirote Aventador sur le goudron, 92 millions tout rond Ils y allaient, nous retournions, KO2P sombre surnom Money on my lips Bullets in my clips Imma gun dem off, we dont need permit Cant hear me! Booba, this is it! Pussy mi no touch, G ah pop Di want di place murk up Mi .45 hot, mi keep mi gun hot, so the grease dont cake up Any boi chat ah lose 'em in battle, now whole of 'em wake up Any boi chat ah lose 'em in battle, now whole of 'em wake up Touche, touche ta SACEM, achètes-toi une boîte de thon et un paquet de pâtes Chez nous personne ne t'aime, t'fais pas l'soulever à ton Planète Rap Tu l'as trompé, tu veux la couvrir d'or pour pas qu'elle parte La balance sera égorgée pour pas qu'elle jacte Depuis le CP je suis validé, j'braque, j'fais pas la charité Hauts-de-Seine j'ai la qualité, par un démon, habité Les portes sont fermées, je suis habitué, Maître Lebras acquitté Faudra te faire à l'idée, j'ai oseille pour l'éternité Fuck Liberté, Égalité, fuck Johnny Hallyday Tous mes négros sont calibrés, tous mes rates-pi sont validés Toujours 500 billets, tout bien équalisé Spartan, 300 négros armés, ont-ils réalisé ? Hé ! Money on my lips Bullets in my clips Imma gun dem off, we dont need permit Cant hear me! Booba, this is it! Pussy mi no touch, G ah pop Di want di place murk up Mi .45 hot, mi keep mi gun hot, so the grease dont cake up Any boi chat ah lose 'em in battle, now whole of 'em wake up Any boi chat ah lose 'em in battle, now whole of 'em wake up My racks Mi know I'mma shoot He, he-he-he-he! Gully! Ah lose 'em in battle, now whole of 'em wake up Booba!7</t>
+          <t>Refrain Le rap ça sert à rien Le rap ça sert à rien Couplet 1 Le rap ça sert à rien, sauf à faire du biff comme Booba A tfaire tchiiip si tu tbouges pas et même rire si técoutes ça Le rap ça sert à rien si tu penses affaires et coups bas Si tes amère, ou loux-ja mais Cest utile si taimes les casses têtes, les outrages On me dit souvent qule rap ça sert à rien Mais dans ce cas en musique ya une facette quest toute naze Moi jtrouve pas ça malin que le rap ne serve à rien nan Ca veut dire quabject est mon ouvrage A peine jcomprend les rouages, tout devient flou tel un nuage Un tel me dit quil y a du bourrage de crâne Je mévade roulant un bout dhasch en balle Ca me soulage me calme, me donne du courage me lasse Dentendre qule rap ça sert à rien donc jreste Anonyme comme Lucas Hood Tu mapplaudis jvaux pas quatre sous Ca thorrifies quje sois casse coups ? Jpeux même être casse couilles mais nme dit pas qule rap ça sert à rien Refrain Couplet 2 Si le rap ça sert à rien, dis moi ou tu places Oxmo et Busta ? Tu passes à autre chose mais quest ce tas ? Moi jfais mon job à plein temps jme fiche dcque pensent leurs instances Tant que mes textes sont plein dsens et pas cliquant Jviens chante parfois cinglant, un brin cancre mais pas grinçant Moi Beedy-Bonz jarrive étincelant et jinstaure Quon a pas le temps dimporter vos critiques Sur linutilité du rap, allez critiquez, nous on sait que cest durable Et quça vous séduira un jour ou lautre, on vous éduquera Jbalance 7-8 phrases personne ne sait où donner de la tête Et javoue cest drôle à regarder donc on sentête Avec un air fédérateur, de tout temps on a fait des ratures Ca nous empêche pas dêtre optimum Et cest cque jdirai aux ptits mômes qui commencent à nous écouter Comment ça ? Nan cest pas lheure de douter allez coupez ! Qu'est c'qu'il y a ptit? Tu penses qu'le rap ne sert à rien c'est qu'tu n'a pas appris la leçon ouais, tu fais le malin mais ne dis pas qu'le rap ça sert à rien nan !</t>
         </is>
       </c>
     </row>
@@ -3535,12 +3535,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Avant de partir</t>
+          <t>Groupe sanguin</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Guide-moi... La rue m'a pris autant qu'elle m'a appris Une fabrique de cadavres, dramatique est le macadam Noire est ma ceinture, au premier plan, un vautour Un flingue, un 45 tours Ta clique fait du lèche-vitrine Pendant qu'on va chercher nos disques de platine Calibrés jusqu'à la poitrine, unique en rap français Au volant d'la délinquance, j'avance et avancais en ML Donc me dis rien au phone-tel si tu veux pas griller ta puce Emcee, t'es pas hip-hop parce que tu portes des strings à capuche Toujours une patte levée, les oreilles droites Que les meufs stylées s'lèvent, qu'les zoulettes s'doigtent Guide-moi avant d'affronter ce monde Montre-moi la paix une fois rien qu'une fois Avant de quitter le monde, avant de partir Je n'y crois plus, des fois, tu sais Je tourne mal, j'imaginais Un autre monde Original, mélange de bien et d'mal Passe un Salaam à ceux dans l'din, ceux dans l'hram Repéré, trop tard, j'ai fais ma route sans coopérer Relaxé à la barre attendu à la base Prêt à opérer, faire des millions, des milliards Laisserai tout en pourboire au corbillard Le tout c'est d'vouloir y croire, porter l'foulard Maroc, Mali, Sénégal, Soninké Poular Fantastique est l'arsenal En V12, 92, les autres sont à cheval, c'est naze Pas autrement, c'est ça comme chez nous Du Martin Luther King et du Malcolm, c'est nous T'es toujours en train d'étendre ton slip J'suis toujours en train d'défendre mon titre Accroche-toi, c'est pas la fin Qu'est-ce qui nous pousse ? La gourmandise, pas la faim quoiqu'ils disent dans leur musique La nôtre est véridique, critiquée, authentique Juridique, nique leur opinion, j'm'en bats Traîner la vie par l'chignon, mon seul combat Avant de partir Guide-moi avant d'affronter ce monde Montre-moi la paix une fois rien qu'une fois Avant de quitter le monde, avant de partir Je n'y crois plus, des fois, tu sais Je tourne mal, j'imaginais Un autre monde Guide-moi avant d'affronter ce monde Montre-moi la paix une fois rien qu'une fois Avant de quitter le monde, avant de partir Je n'y crois plus, des fois, tu sais Je tourne mal, j'imaginais Un autre monde2</t>
+          <t>On n'est pas du même groupe sanguin, pas du même crew Cousin la même haine, Hauts-de-Seine, Hauts-de-Seine Illégal comme les armes et la cocaïne, Lunatic Hauts-de-Seine, Hauts-de-Seine J'suis d'ces gosses à problèmes, qu'attendent rien du système, vivent à 200 Quand j'en ai marre j'fais mon argent dans la marge Avec, Ali Booba, l'flingue et son chargeur, j'chante raide défoncé Et j'm'en bats les couilles d'tes conseils Y en a qui se shootent, moi c'est le shit et sauce arachide L'échec c'est banal j'tape ma galère à la machine Des xeus et rohypnols chez les rejetons, qui viennent te dire Que la Terre est belle, ronde comme un Cacheton Y a des forts et des faibles, hard-core et des fabe L'héro c'est fabuleux mais quand t'arrêtes faut redécorer La vie c'est dur, ça fait mal dès qu'ça commence Pour ça qu'on pleure tous à la naissance Et en plus ils veulent qu'on dégage Après ces fils de putes s'étonnent quand y a des clous dans les bouteilles d'gaz Tellement d'merdes et si peu d'toilettes Le 9 mare de sang, avec ALI mon soss' à trois lettres La came parle et cette baltringue te fait des murmures Cousin mets ton gilet pare-seringue, car si tu meurs, j'meurs One LOVE, j'veux pas t'voir mort au raclo Négro mélange ta coke à d'l'eau On n'est pas du même groupe sanguin, pas du même crew Cousin la même haine, Hauts-de-Seine, Hauts-de-Seine Illégal comme les armes et la cocaïne, Lunatic Hauts-de-Seine, Hauts-de-Seine Pas mon groupe sanguin, pas du même crew Cousin la même haine, Hauts-de-Seine, Hauts-de-Seine Illégal comme les armes et la cocaïne, Lunatic Hauts-de-Seine, Hauts-de-Seine La vie est un long test, plus on avance et plus les épreuves viennent Là que les vraies têtes retiennent Les liens et que les traîtres font en sorte que l'unité Ne reste qu'un mot, une idée, peu importe que tu sois seul Ou en comité, on finira tous sous l'sol Pour l'instant, au-dessus, insiste à faire les choses bien Le but final est céleste, cause pour les miens soldat universel Vivant dans un environnement funeste Néfaste, le béton est comme une tombe pour les faibles Beaucoup de bouffons veulent bluffer Vivent de fables, jactent, trop agir ou mourir est la règle Accro de violence Les faits divers s'alternent comme le jour et la nuit La rue materne, la délinquance, le crime paie Loin d'arriver à son terme International langage, celui des armes Du ministère de la Défense aux mini-stars vendeurs de défonce Tue pour des intérêts, la mort n'est pas un mystère Le sang désaltère la soif de vengeance, tire et enterre Qui est l'homme ? Celui qui prend la vie ou la donne Celui qui s'élève pour le paradis béni Ou celui qui s'enfonce vers l'enfer damné Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine On n'est pas du même groupe sanguin, pas du même crew Cousin la même haine, Hauts-de-Seine, Hauts-de-Seine Illégal comme les armes et la cocaïne, Lunatic Hauts-de-Seine, Hauts-de-Seine Pas mon groupe sanguin, pas du même crew Cousin la même haine, Hauts-de-Seine, Hauts-de-Seine Illégal comme les armes et la cocaïne, Lunatic Hauts-de-Seine, Hauts-de-Seine Pas mon groupe sanguin, pas du même crew Cousin la même haine, Hauts-de-Seine, Hauts-de-Seine Illégal comme les armes et la cocaïne, Lunatic Hauts-de-Seine, Hauts-de-Seine Pas mon groupe sanguin, pas du même crew Cousin la même haine, Hauts-de-Seine, Hauts-de-Seine Illégal comme les armes et la cocaïne, Lunatic Hauts-de-Seine, Hauts-de-Seine Groupe illégal, groupe sanguin légal On t'serre, on t'saigne Hauts-de-Seine1</t>
         </is>
       </c>
     </row>
@@ -3552,12 +3552,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ouest Side</t>
+          <t>Carton rose</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Je poursuis ma quête, impossible d'apprendre sans que je finisse maître Rien ne m'arrête à part du 9 millimètre Pas de triomphe sans pertes, je suis fier comme les Triades Paix rime avec respect, Jihad avec fusillade J'ai rien de conventionnel, je fais dans l'événementiel Je suis pas marié, pour moi l'hôtel c'est l'essentiel Me pose pas de questions, je te mentirai pas Avoir un job de 8 à 5 ici hors de question Alors je me démerde, j'arrive en vaisseau spatial Je suis dans la rue, en studio, avec mon 38 spécial Au quartier, on sennuie, on mate le boule des biatchs On ricoche, finit au trou, comme des boules de billard 92i kho, dans Popstars t'es Leandro Tu tiens pas la route, pé-ra avec un A collé dans le dos Certains croient qu'ils rivalisent, faudra qu'on les hospitalise Pour qu'ils nous respectent est-ce que tu réalises ? Au Nord, au Sud, à l'Est, à l'Ouest, biatch, viens pas tester la Ouest Side 92 kilogrammes dans l'zen, Hauts-de-Seine c'est la Ouest Side Majeur en l'air pour la O.S., argent du rap et argent sale Tu veux savoir qui te parle ? C'est la Ouest Side, Ouest Side ! Un Kalachnikov dans le boule, mon introduction Ouest Side, Ouest Side, 92 Injection Docteur, j'ai vu des flingues à l'échographie, un narcotrafic Dans les Hauts-de-Seine c'est géographique Hémorragie au cur du bitume, c'est dans la rue, c'est discographique D'Afrique on fait péter les rimes au plastic Je les ai vu au Pont-de-Sèvres dans les halls Mais que fait la police ? Faut les mettre en taule, dans des geôles Si tu parles comme ça, même si t'es personne âgée Ferme ta gueule, grosse pute, ou tu vas déménager Ouest Side, Ouest Side, violence à l'état pur Nicolas on te baise toi et ta pute Un Kalash dans le boule, mon introduction Ouest Side, Ouest Side, 92 Injection An 2000 premier impact, meurtrière est ma grammaire Bienvenue au cur de l'asphalte Au Nord, au Sud, à l'Est, à l'Ouest, biatch, viens pas tester la Ouest Side 92 kilogrammes dans l'zen, Hauts-de-Seine c'est la Ouest Side Majeur en l'air pour la O.S., argent du rap et argent sale Tu veux savoir qui te parle ? C'est la Ouest Side, Ouest Side ! Ouest Side, Ouest Side Mets-moi le Graal entre les mains je me sers un verre de sky Mayday, mayday les rappeurs se rebellent T'inquiète, les trois quarts sont des pédés, ici c'est Dakar Banlieue Ouest Side, wesh, Afrique de l'ouest, I2S, rap de tess Viens pas test tu vas te hacheum À cause de nous beaucoup de MC chôment Tu connais, leur dernière vision sera un gun et un chauve Moi, je ne suis pas une racaille de base Au tribunal j'ai rien à craindre j'ai maître Lebras La vie est brutale comme disait Alix Sénégal on veut du khaliss, du biff plein les valises Sans haine on s'endort, je domine la peur Qui fait avancer l'homme, kho, j'suis pas un chbeb comme Alexander Tu veux savoir ce que je suis ? Demande au FN Radio, 92i, commando FM Au Nord, au Sud, à l'Est, à l'Ouest, biatch, viens pas tester la Ouest Side 92 kilogrammes dans l'zen, Hauts-de-Seine c'est la Ouest Side Majeur en l'air pour la O.S., argent du rap et argent sale Tu veux savoir qui te parle ? C'est la Ouest Side, Ouest Side ! Au Nord, au Sud, viens pas tester la Ouest Side2</t>
+          <t>S.I.N.I.K bah bah bah ouais sale chien Tu t'es pris pour un arbitre ou quoi ? Carton jaune, carton rouge Moi j'distribue les cartons roses Si si Pour les grosses baltringues 92izi, 92izi 92izi, B2OBA Tu veux détrôner le duc, tu vas t'la prendre dans le uc' Départements reconnu dans le trafic de stup Tu veux d'la qualité, quitter la réalité Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine Toujours opé moi et le mic c'est chimique Les négros sont déclassés par Pokora Diam's et Sinik La honte négro tu te rends compte négro Moi j'me casse, 0 à 100 en 4 secondes négro Je n'suis pas des leurs en diesel ils ne peuvent me semer Vu qu'j'suis le meilleur j'partirais peut-être le premier J'me rapproche du FMI, à chaque anniversaire J'ai tellement d'ennemis si peu d'adversaires Ma réponse n'a rien d'ethnique, ne vous méprenez pas L'homme à abattre n'est qu'un medley, de toutes mes techniques Tu es mon premier fan, Booba Keita me l'a dit Les vrais gars sont dans mon camp tu n'connais rien de la vie Tefa Masta Six-O-Nine, toute ton équipe de lâches Trau-matiser, dératiser négro j'm'occupe de aç Tu crois qu'tu as la rage, tu viens défier les grands Je ne te clash pas car tu es blanc mais j'vais te niquer ta race Pour toi je sors le carton rose, ton flow sent la vanille T'auras pas besoin d'appeler les keufs, ils font partie de ta famille Je t'ai croisé à l'Olympia, j'ai eu l'intention de te saigner Mais j'ai vu sur ton visage que dans la pisse tu t'es baigné Je n'm'attaque pas aux faibles, je n'me bats qu'avec les hommes Thomas remercie moi crois moi tu as eu chaud aux fesses Ton nom rime avec clinique chimique Honda Civic T'es des Ulis comme Titi j'espère que tu cours aussi vite Dans mon cerveau le 9mm est prédominant Je ne tolère pas la défaite je suis un mâle dominant Tu n'as aucun classique, tu suces au quotidien Ton meilleur clip, c'est celui à lhôpital l'endroit te va si bien 1, 2, 3, 4, 1, 2, 3, 4, 1, 2, 3, 4, 5, 6 Avec tes deux tatouages factices et ta chaine en plastique 92.I c'est pas la Dolce Vita Sinik ton équipe c'est Diam's et Cheetah Pardon je voulais dire Diam's et Vitaa, gagner est inévitable Fais moi la peau si tu veux du cuir véritable Bah ouais tu m'attaques je réponds Sale victime Quant au disc jockey, gros porc aka Don Kore-nichon aka Gros Kore Malade Grosse biatch, biatch arrêtez vos bêtises les mecs, vous allez vous blesser 92izi, 92izi B2OBA, carton rose, le prochain il est noir !! OK, OK5</t>
         </is>
       </c>
     </row>
@@ -3569,12 +3569,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Call of Bitume</t>
+          <t>Danjé</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>I.Z.I, yeah Izi ! yeah ! Dans mon cerveau c'est la hass comme à Khartoum Au lieu d'rayer ma caisse bâtard dis-moi bsahtkoum Les RG m'espionnent, de Miami à Corbeil-Essonnes Plus rien ne m'étonne, déterminé comme Pappy Mason On m'tire dessus au pompe, rien de bien folichon Nouveau son dans les bacs, négros en décomposition Bitch va m'faire un plat chaud, m'faut des forces pour kill un facho Avec dix kilos d'zeb, une colombienne j'peux m'plaire au cachot J'ai fait les 400 ouc', l'Allée du Forum à la Place Haute J'suis Sénégal Hood, Mali, Tchad, Burkina Faso J'ai beau temps, tu as temps sale, j'suis Ligue 1, t'es foot en salle J'voyage en jet, t'es en éco chez Lufthansa C'est pour mes Bafé Gomis, mes OG's, mes homies H24 sur le ter-ter, nique sa mère la Terre Promise Grosses cailles-ra, gros biz, tous mes scarlas unis Regarde les matchs en présidentielles avec Carla Bruni On parle de nous dans la presse Une capuche sur la tête, Labess, yeah On s'arrache de la tèc' on est durs, fiers On fait des braises, on brûle tous les casiers judiciaires On roule sous l'averse, les jantes tournent à l'envers Une capuche sur la tête, Labess, yeah On s'arrache de la tèc' on est durs, fiers On fait des braises, on brûle tous les casiers judiciaires Chef de famille... Du biff, du cannabis, en Panamera j'roule sur les disques Money money, Vitry, Royal, Kill Bizz Smith Wesson le partenaire, le studio c'est un container Condamné à quitter la ville dans un putain d'sac mortuaire Toujours gang et à la mode comme le foulard d'Arafat On n'apprend pas à un vitriot à s'grimer la face J'me suis brûlé les ailes, j'ai fait plus que le Paris-Dakar en YZ C'est pas avec des Jo-Jo qu'tu montes l'Everest J'viens d'Algérie, la p'tite Russie micro pe-pom gris anthracite Si tu veux faire rire un cain-fri parle lui d'démocratie Prêt pour un go fast fou P'tit détour par le habs Fast Life on vit tah les oufs On veut brancher la clim' d'l'Aston Martin Rapid Les p'tits du tièks ont la tête vide à force de s'cogner faire du grappling, faire du liquide Passe le volant, ru-rupture, Hauts-de-Seine, rue Camille Groult España, Hollanda, pour mes têtes de rhout qui r'montent la route On parle de nous dans la presse Une capuche sur la tête, Labess, yeah On s'arrache de la tèc' on est durs, fiers On fait des braises, on brûle tous les casiers judiciaires On roule sous l'averse, les jantes tournent à l'envers Une capuche sur la tête, Labess, yeah On s'arrache de la tèc' on est durs, fiers On fait des braises, on brûle tous les casiers judiciaires2</t>
+          <t>Wicked a, wicked, junglist massive Wicked a, wicked, junglist massive Wicked a, wicked a, junglist massive Wicked a, original Well big up All the original junglist massive The original dancehall junglist deyah General Levy alongside the M-Beat The world is in trouble Ah wah wi tell dem murdera It goes I am the a, incred- a, incred- a Incredible General Sensational wah dem call me Incred- a, incred- a, incredible Gene- Select, selec-lect- Yo Mad de whole ah dem I spin dem like a windmill New talk fi dem Gwarn tell dem a we got the skill Dance cyan nice unless we name pon de bill And the girls hear we voices like dem dreams get fulfill me-ni-me-ni me-ni-me-ni me-ni-me-ni chill we nah sekkle we nah ill-ah Wah de want come see us say , unuh must be sick, unuh must be ill Test the daddy M-Beat unuh better go write your will Come down! Lord have mercy Lord have mercy Lord have mercy Lord have mercy Lord have mercy So wah, booyaka, booyaka, when the General ah pass Booyaka, booyaka, M-Beat run the dance Booyaka, booyaka, we nah tek back nah talk Booyaka, booyaka Incredible Me stylee fi pon de mic, the fi di general Get pon brock a inna me style Wicked a original a Me-ni-me-ni brock a Me-ni-me-ni skin Me nah a a or chat Me-ni-me-ni nah ramp fi send ah a a DJ to dem funeral General Le-- a me-ni-me-ni-me nah pet a Or a pam-- a --per a When we come in dancehall mi hold pon de mic To de pinnacle Looky looky DJ chat in me face me ah go a a bare chat Cah we ah get dem critical, critical, critical Come down Select, selec-lect-- Select, selec-lect a a a Sensational Wah dem call me Select, selec-lect-- Select, selec-lect a a a Sensational Incredible Unstoppable Unbeatable Invincible As beneficial Respected by man And loved by gyal Come me a a inna de place we get dem hysterical Cah me a a style is o original Junglist massive Hear dis So wah a a icky icky a a mmm M-Beat him come fi mad dem a a icky icky a a mmm General him ah come fi mad dem Yo Mad de whole ah dem I spin dem like a windmill New talk fi dem Gwarn tell dem a we got the skill Dance cyan nice unless we name pon de bill And the girls hear we voices like dem dreams get fulfill me-ni-me-ni me-ni-me-ni me-ni-me-ni chill we nah sekkle we nah Wah de want come see us say , unuh must be sick, unuh must be ill Test the General unuh better go write your will, becah a a icky icky a a mmm Wicked, wicked a Bo, bo, bo a a icky icky a a mmm Wicked, a wicked wicked wicked bo bo bo I am the a, incred a, incred a Incredible Gene-- Booyaka Select, selec-lect a a a Sensational wah dem call me I am the a Incred a Incred a Incredible Gene-- Booyaka Select, selec-lect a a a Sensational so wah Select, select, select, select Select, select, select, select Select, select, select, select Select, select, select, select Watch out Talking about General Unuh must be sick, unuh must be fraud Dis de General Unuh better pack up and brock Talking about ya hot You ah cold like salad When de M-Beat come Unuh better cock up and brock Stop play tune Word pon farm yard Stand up and we drop it like Between people cars You diss We ah still two teachers Dis de General You get the critical ward a icky icky a a mmm Wicked, M-Beat ya come fi mad dem wicked Me nah come fi ramp With the riddim and the riddim ah ramp Nah ramp with de riddim at all Come General General Levy wit de computer tongue Wah me do Talk to de boys anna talk to de girls Anna talk to de woman anna talk to de men Talk to de bredren anna talk to de young generation I give them sound wicked, wicked And I suck it in wicked, wicked Phenomenon one General system wit de computer tongue Wah me do wicked, wicked wicked, wicked Some of dem ah wee and Some of dem ah tall Some of dem ah jook Some of dem ah chump Some of dem ah addict for the coke and ah bawl fi the crack And ah cry for the opium, wah me do Select, selec-lect a a a2</t>
         </is>
       </c>
     </row>
@@ -3586,12 +3586,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Boîte vocale</t>
+          <t>Je sais</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Un peu d'oseille change de thème pour la plupart Moi j'suis toujours le même 500.000 albums plus tard J'me pose toujours impeccable, mon flow arrive en bécane Tire, fuis, comme un coup franc de Beckham Le son qui sort à zéro neuf net On a commencé minots, vomi nos tripes au mic, pas là pour plaire aux meufs mec Que des braves sur la pelouse, tu piges on a le blues des esclaves 1m92 sans qu'on me cultive C'est Tallac Records au bout du fil Demande la peine de mort pour pointeurs et pédophiles J'suis qu'un fauve parmi les hommes Négro, négro plus rien ne m'étonne, plus rien ne me désole La concurrence tente l'impossible Ta gueule au fond d'une bassine d'acide, mon groupe assassine, t'es pris pour cible Envoyé pour piller villages, villes et campagnes Kho j'ai la tête dans les nuages, la bite dans le champagne J'suis à des miles du rap français, d'un Glock j'ai la démarche Ça passe ou ça casse ou je brasse ou je trépasse Beaucoup de brelica du 9.2 au 20 moins 1 Tester c'est délicat comme coffrer un 5-20 La faucheuse a la carte vitale, mon son dans les cervicales Paris voilà j'arrive underground comme Spaggiari Qu'on m'impressionne, les rappeurs sucent pour qu'on les pistonne Votre honneur le rap est dead, j'suis innocent comme OJ Simpson Alors tu t'demandes pourquoi j'continue Parce que j'sais rien faire d'autre, mise à l'amende discontinue Avant de partir je défouraillerai bien un ou deux keufs J'ai la couleur du martyr, ils ont mon seum dans les seufs Cellule, promenade, parloir, haine, C.P.P.N Un grand classique j'ai rendu magique les BPM Mais on laissera toujours des traces négros, partout où on passe Gin juice, B2O au micro j'te nique ta race, moi J'arrive au tribunal frais en Air Force, en Marithé Mc poursuivi pour rimes contre l'humanité J'vais sûrement prendre perpète, préparez les mandats Moi j'suis toujours au mauvais moment au mauvais endroit Gardez moi la meilleure cellule loin du bureau des hassas J'arrive avec un portable G4 et l'ADSL Je prends pas le mic pour que la banlieue se fâche J'suis là pour tout découper, B2OB AstéroHache ! Y'a des balances qui plaident, des coups de fusil qui s'perdent Des bons français qui s'plaignent, des familles qui saignent Alors j'opère en solo dans le chaos total N'ayez crainte j'suis pas dangereux, j'ai ni cravate ni barbe J'ai failli sauter sur une mine en regardant une carte postale J'veux débarrasser l'bitume, m'arracher sur une île Faire un peu de biff ailleurs, fermer le local Y'a plus personne ici d'ailleurs, crois-en ma boite vocale Biatch!10</t>
+          <t>Ouh, ouh, ouh, ouh Ce que je sais Ouh, ouh, ouh, ouh Eh, eh Au comptoir d'un titty bar, de l'or partout comme à Trinidad L'art de la guerre et du trépas coule dans les veines de la brigade Tu crois que je dérive mais c'est toi qui divagues Ah si j'étais riche, prends ton Kalash' et on y va Je dis vrai, j'ai des Louis Bags, que des rates-pi, des Hooligans Dans mes bureaux de style, on ne fait plus de style, on ne fait que du design de fusillade D la coke dans le fuselag, j't'envoie Rocco pour dépucelage C'est ta rondelle qui te lâche, j'baise le rap game dès mon plus jeune âge J'en ai connu des plus tenaces, va jusqu'au bout si tu menaces Oh, oh, oh C'est tout c'que je sais Oui, oui c'est tout, re-noi, c'est tout c'que je sais Oui, oui, j'ai toujours beaucoup de boulot La rue, ça appauvrit le cur dès que tu mets les pieds dedans Mais au final, qu'est-c'qu'un cur ? Ça fait juste circuler le sang Calibré mais je suis courtois, j'joue que les finales pas de tournois La direction, c'est toujours tout droit, y a pas de mais, y a pas de pourquoi ? Je n'suis que le Top Singles, et le cours de l'euro Y a qu'le cul qui l'intéresse, elle a gardé le haut Elle voulait qu'j'change mes habitudes, du coup, j'ai changé de go Ça m'étonnerait qu'elle encaisse, elle va bomber le dos Si j'ai cédé, c'est qu'ils m'ont au moins brisé les côtes Personne m'a aidé, dès que j'ai pu, j'ai aidé les autres Demain, c'est loin, sur mon terrain Y a personne pour siffler les fautes2</t>
         </is>
       </c>
     </row>
@@ -3603,12 +3603,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>92i</t>
+          <t>Réel</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Ya-Ya-Yaya on the track This is Freaky J'leur fais la totale Han, ces putes vendent pas d'albums J'mets toit sous mon parasole, les fumer, j'trouve ça banale Yeah, Mauvais en relation, fils de chien, j'sauverai la nation Click, pah, j'te fous sur l'paillasson, j'ai vendu été, hiver 2 balles sur ton corps, fuck les problèmes, bitch, j't'oublie, ton string, il me saoule De grosses quantités de Cali, j'tolère, Glock 17 pétasse quand je sors Je sais, tu peux pas comprendre ma colère, j'les bute au 47-AK Moi j'suis matrixé par ce sac d'oseille, fils de pute, on est sur la carte Yeah, deux cornes, une auréole, me parle pas de la sorte Six heures du mat', ça frappe à la porte, qu'une heure avant, j'craquais la capote Négro, toujours en opération, les kill', c'est banale 92i, VVS, Paname, eh On traîne très tôt, mytho, métaux, vie de chien, y a pas de véto J'ai tout investi, là il me reste tchi, j'ai payé la gov' en bédo Un métal froid, sur baba qu'ils ont chaud J'les laisse parler, c'est des putas, ils f'ront pas grand chose 92i, la frappe, ramène, wesh ient-cli, j'sais c'qui t'amène Tu nous dois tant, tu mets du temps, bang bang dans l'abdomen 92i, la frappe, ramène, wesh ient-cli, j'sais c'qui t'amène Tu nous dois tant, tu mets du temps, bang bang Nous devant, eux derrière, comme ça qu'j'ai tout agencé Des fois, j'vais trop loin, je sais, c'est mieux que d'ne pas avancer Tu cherches à être dans tous les curs, tu n'es même pas dans l'tiens Ton malheur fait mon bonheur, 700 HP, check engin Le ciel est noir et réclame sa part, les douleurs elles restent, les amis, ça part La tension quand les démons frappent à sa porte, un fils, ça fait la guerre et une mère, ça pleure La mort, la richesse, ne m'font plus d'effet, une fin universelle, on s'ra tous défunts Trente-trois ans l'âge de gloire, serais-je assez fort ? Dans la rue, peu d'bonhommes, guette, c'est tous des faibles Même au paradis, j'trouverai des défauts, c'est pour ça qu'j'suis conscient qu'j'suis le plat du feu Une cagoule, une équipe, tout est planifié, du sang dans tout l'salon et c'est pas du faux Si t'as d'la pure pas chère, c'est pas d'la re-pu, ici, c'est la France, c'est pas Medellin Aujourd'hui, quatre plaquettes, c'est un salaire brut, tu sais, les vacances, c'est pas mes délires Tu sais, les vacances, c'est pas mes délires Ouais, ouais, gros, paye-moi maintenant, j'laisse zéro délais Ouais, ouais Fini les carences, j'fais cinq-cents de l'heure, certif' après certif', j'suis le cours de l'or Arriba, arriba, arriba J'fais l'argent encore, on sait le blanchir Ouh, y a des ients-cli dehors, du pain sur la planche Ouh 92i, la frappe, le gang, il déchire, si tu cherches la concurrence, va chercher aux chiottes La money appartient à c'lui qui la veut, ils sont morts fauchés, ces cons, dites-moi à qui la faute ? C'est pas la mienne, nan, nan, nan, nan Nan, nan, nan, nan, nan, nan, nan, nan Nous devant, eux derrière, comme ça qu'j'ai tout agencé Des fois, j'vais trop loin, je sais, c'est mieux que d'ne pas avancer Tu cherches à être dans tous les curs, tu n'es même pas dans l'tien Ton malheur fait mon bonheur, 700 HP, check engin Ta-la-la-la-ta-ta-ta, ta-la-la-la-ta-ta-ta Ta-la-la-la-ta-ta-ta, ta-la-la-la-ta-ta-ta Ta-la-la-la-ta-ta-ta, ta-la-la-la-ta-ta-ta Ta-la-la-la-ta-ta-ta</t>
+          <t>J'attaque au bélier, je n'attends pas le pont-levis On ne t'a jamais cru, ce dont je parle, je le vis Tu cherches B2O, il est parti, n'est pas ici Faisons du biff', il n'y a qu'un T entre Haïti et Tahiti Oui, Messieurs j'ai la haine du S.E.N.E.G.A.L 501 cartonné, Glock, gilet pare-B.A.L Djembé ou derbouka pour accompagner mes proses Négocier au bazooka, crois-moi ça simplifie les choses Écoute mes sons en boucle, apprends à me connaître Regarde là où je suis car je suis là où il faut être Les mecs sont haineux, mais laisse-les Ils n'ont pas de couilles, ils ne peuvent que rayer ma Bentley Réel You ain't doing nothing, I do everything I'm on all the time, better listen to what I say And they say When I get older, I will be stronger They'll call him Booba, just like a waving flag And then I lean back, up in my Cadillac Now, how you like that ? And they say When I get older, I will be stronger They'll call him Booba, just like a waving flag Ils ont cassé tout mon bled, on essaie de rafistoler N'obtenant aucune aide, pistonnés par un pistolet Shit dans l'cul au parloir, impression de se faire violer J'veux l'or des Conquistadores, c'est mieux que les billets violets J'rappe pas pour les gonz' mais les gonzesses m'aiment bien Fuck une médaille de bronze, c'est l'or qu'les gonzesses aiment bien R1 dans le veau-cer, j'm'arrache au Lumpini Porte-avions dans le holster, 600 veaux-che à l'arrière du Lamborghini J'y crois quand les autres pensent que tout est fini Une paille dans mon vin, du piment dans mes fettuccine Calibré, j'ai pas l'oix-ch La barbe est bien taillée, le gamos sort du car-wash You ain't doing nothing, I do everything I'm on all the time, better listen to what I say And they say When I get older, I will be stronger They'll call him Booba, just like a waving flag And then I lean back, up in my Cadillac Now, how you like that ? And they say When I get older, I will be stronger They'll call him Booba, just like a waving flag Hey, as I get older As I get older The game is getting colder Is getting colder That's why I get stronger Ooh they can't stop me now And they say ha ha ha ha ha ha ha ha ha ha ha ha Ooh they can't stop me now De l'enfer j'vais devoir en faire, réel comme 10 ans ferme Tu deviendras un homme, mon fils ne m'a pas dit mon père Braza, Mala, mes compères, partenaires en crime Retrouve ton rappeur préféré paralysé de la tête aux lombaires La vie n'est pas un film, ni pause ni marche arrière Rien ne vaut mon honneur, ni mes euros ni ma carrière C'est bon de voyager, s'arracher, se sentir libre Besoin de traverser le monde pour le sentir vivre Izi You ain't doing nothing, I do everything I'm on all the time, better listen to what I say And they say When I get older, I will be stronger They'll call him Booba, just like a waving flag And then I lean back, up in my Cadillac Now, how you like that ? And they say When I get older, I will be stronger They'll call him Booba, just like a waving flag And then I lean back, up in my Cadillac Now, how you like that ? And they say When I get older, I will be stronger They'll call him Booba, just like a waving flag</t>
         </is>
       </c>
     </row>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Bonne journée</t>
+          <t>Même tarif</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Ouais, ouais, ouais This is a OG call, OG Ouais, ouais, ouais Un garçon, une fille, j'sais même pas comment j'ai fait Enfin, si mais tu m'comprends, à vingt-cinq ans, j'me voyais fait Calibré, rue D'La Paix, c'est dev'nu très mal fréquenté Très mal fréquenté Started from banc d'la G.A.V, j'ai les lacets défaits En Ferrari, tellement flashé, je frôle la crise d'épilepsie Avec des scies, on coupe du bois, avec des Omar Sy aussi Plus b'soin d'faire couler d'encre sauf quand la connexion est lente J'aime bien avoir mon camp, y a une bagarre, j'suis jamais entr Elle m'a dit J'suce, j'fais le ménag, j'suis jamais chiante Ton Uber est déjà dehors, tu t'es cru dans les années 30 ? Je n'comprends pas non plus toute cette haine qui m'alimente Qui m'alimente Vingt-cinq ans d'carrière, personne n'm'a eu mais vas-y, tente Vas-y, je n'ai qu'un seul gang, j'suis très mal entouré Dès le soleil levant, je commence à rouler Ils sont beaucoup plus nombreux mais j'dois y retourner Sur ce, sur ce, sur ce, nique ta mère, bonne journée Vas-y Je n'ai qu'un seul gang, j'suis très mal entouré Dès le soleil levant, je commence à rouler Ils sont beaucoup plus nombreux mais j'dois y retourner Sur ce, sur ce, sur ce, nique ta mère, bonne journée Ouais, ouais Ocho, j'suis l'dernier d'la classe dans un Classe C Ouh J'connais leurs vies, j'connais leurs passés Ouh, j'les butte comme O-Dog, j'repars avec la cassette J'repars avec la cassette Eh, la haine dans l'miroir, j'suis comme Cassel Ouh Elle viens, elle repart le cul cassé, moi, j'sors juste ma bite, mon se-bla fais la causette Arriba, arriba C'est comment ? C'est nous, là, on reprends les commandes Ouais, ouais Mon Glock et mes couilles sur la commode, si Faya te touche, minimum, c'est le coma Brah Dans le 92i, nga nakomi Ouh, je n'ai qu'un seul gang, gros, tu connais Ocho Intouchable Ocho, gros, tu connais, j'ai mis peine de cur au fond d'un verre de Cognac Ouais, ouais, ouais Et c'est bizarre pour eux Ouh, j'vais leur faire du pourri Wouh, j'suis en haut d'la Tourelle, mystique pour eux Ouh Gros, j'suis très mal entouré Woo, Moha et Vegas Touré, ouais, ouais Intouchable est le gang, gros Minimum, mille euros la journée Ouais, ouais, dans lcamp den face, y a des mecs jnounés C'est moi Allez niquer vos mères et bonne journée, ocho Ouh, ouh Vas-y, je n'ai qu'un seul gang, j'suis très mal entouré Dès le soleil levant, je commence à rouler Ils sont beaucoup plus nombreux mais j'dois y retourner Sur ce, sur ce, sur ce, nique ta mère, bonne journée Vas-y Je n'ai qu'un seul gang, j'suis très mal entouré Dès le soleil levant, je commence à rouler Ils sont beaucoup plus nombreux mais j'dois y retourner Sur ce, sur ce, sur ce, nique ta mère, bonne journée Vas-y</t>
+          <t>Un deux, un deux, un deux, un deux, nerveux Un deux, test Mets pas la doudoune, mets le gilet pare-balles Bienvenue à Marseille te dit ton GPS Si tu fais la balance, rafale Tu payes pas, tu dépenses, rafale Machine à sous, délinquant sous écrou Tu mérites yekh tfou si tu nous regardes mal Cocaïne dans le naso MickJagger Trop de haschich dans les réseaux, guetteur Téléphone Bic, tu m'appelles d'un fixe Tu vas cramer la salope qui théberge en deux heures Parle moi en como, y'a les pin-pon Vaffanculo ! Y'a les pin-pon Sacoche Vuitton, bifton, chichons, canons Kodo, y'a les pin-pon Muslim donc je peux graille casher J'prends tout euros, dollars, sheikel 15 ans de rap sans baisser le Diesel A 15 ans, j'savais que j'allais tout baiser Elles aiment la couleur de ma quenelle Christian Dior ou Chanel J'suis tellement quartier qu'la marque sponsorise toutes mes femelles Cartel, Marlo fait feat avec Barksdale J'brille, plus qu'le grand échafaudage que vous appelez la Tour Eiffel Voiture volée en Italie, Fiorano plus de Pirelli Et avant d'te fusiller laisse-moi finir mes fusilli Rackets, braquages, vols, prison khey, c'est le même tarif Comores, Marseille, Paname, Sénégal c'est le même tarif Bruyant, grossiste, balance, nourrice ouais, c'est le même tarif Rappeur, rappeuse, tu parles, tu clashes C'est le même tarif, c'est le même tarif C'est le même tarif, c'est le même tarif, c'est le même tarif C'est le même tarif, c'est le même tarif, c'est le même tarif C'est le même tarif, c'est le même tarif, c'est le même tarif C'est le même tarif, c'est le même, c'est le même, c'est le même, c'est Sombre nouvelle, M.A.R.S Bientôt mes sacs poubelles seront des Hermès T'as pas d'oseille ? L'air de t'faire ièch' J'ai l'arme chimique avec la cervelle d'un CRS J'suis dans un douze étoiles à Marrakech J'suis cargo chinois, t'es canne à pêche J'suis dans les hautes herbes des hautes sphères Rendez-vous dans quelques mansions 20 ou 30 caisses Ils veulent mon trône, rien n'm'en empêche Sa mère être une icône, paie-moi en espèces Ils veulent mon trône, rien n'm'en empêche Leur faire un cul en hexagone, Sénégal, côte ouest Ta meuf est d'occasion tu l'as prise sur eBay Je m'en fous de vendre, le but c'est de tous les enterrer Tu fais le beau, ta go c'est une atrocité Tu fais le beau, ta go c'est une calamité Ne commence pas une guerre si t'es pas sûr de la gagner Comme tout hegoune c'est une kahba qui te fera tomber Pour t'oublier, attends je passe un coup de fil L'attachement c'est pour les fragiles 16</t>
         </is>
       </c>
     </row>
@@ -3637,12 +3637,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Izi monnaie</t>
+          <t>R.A.S</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Izi, j'fais de la Izi Monnaie Izi Monnaie, tu connais Rien d'idyllique, parcours peu agréable tout droit sorties du cul du diable Timal, je sais où tu as mal car je sais où je frappe Paname là où je squatte, pare-balles est sous l'imperméable J'ai fait couler le sang, j'ai fait couler le champagne T'es nouveau dans le game, j'suis riche depuis le franc man L'argent fait le bonheur, j'en reste convaincu Je suis venu, tranquille j'ai vu, j'ai vaincu Ne confonds pas le météore et les astéroïdes Sur les murs du comico ma clique est sur polaroïd Chaque fois que j'sors d'mon ascenseur j'effraie la voisine Drogue dealeur, double D mon tour de poitrine J'dois prendre le large, négro je prends de l'âge Elles me courent après, je cours après le cash On ne m'a jamais dit ce que j'allais devenir Que mes démons fuiraient mais qu'ils allaient revenir Viens dans mon département Faire de l'argent facile, pourquoi faire autrement ? J'ai vu des lingots d'or dans l'périscope, à bord d'un sous-marin Ma descendance est morte dans un rouleau de Sopalin J'ai fait la guerre pour habiter Rue de la Paix Je ne manque jamais à l'appel quand c'est le jour de la paye Quelques bugs dans mon cerveau j'imagine Une à une mes cases s'allument comme dans Billie Jean J'ai rêvé qu'j'étais dans le boule d'E.V.E Je la baisais sans pote-ca, j'avais le flow d'Eazy-E Garcimore avec un Uzi, Braza, Don Milouzi Stringer Bell, Marlo Stanfield, Izi monnaie 10 000 euros pour t'faire fumer, étrange devis Le beurre, l'argent du beurre pour tartiner mes tranches de vie Coup de coude, bienvenue dans mon Hood Ça sent la feuille de coca, le bicarbonate de soude Surveille bien le ghetto, sa météo Couvre-toi ou pars en coup de vent les pieds devant Nouvelle école j'donne ça à l'ancienne 92i enseigne à frapper l'ennemi jusqu'à c'que phalanges saignent Biatch3</t>
+          <t>Ne me dis pas qui je suis, ne me juge pas le ciel le fait déjà déjà Tant d'ennemis qui me fuient, 92i ne leur laisse pas le choix J'suis sur l'avenue en gros gamos normal Les keufs me connaissent, ne m'arrêtent plus c'est de la balle Je ne fumerai pas sur ton joint c'est de la comm', au volant je mets la gomme Je frappais dur avec Ali tu te disais Ces deux-là cognent Quand je parle, c'est d'homme à homme, quand je joue, je parie gros Si t'en veux j'ai de la bonne, cent pour cent parigot J'me tape de leurs allocations, j'suis heureux à l'occasion Je suis mon propre Boss, je ne dirai jamais Allô patron Dans ce milieu tu n'es qu'une figurine Tu me serres la main, tu crois déjà au featuring J'ai toute la vie devant moi, la mort me guette au loin Ici-bas, égal un jour de plus, égal un jour de moins Je me faufile, croque cette chienne de vie à pleines chicots Rats des villes, U tréma sur mes tricots je brille Parait qu'j'suis sur écoute, sous coke, le nez qui coule J'suis sur un yacht, sur la côte, et je m'en bats les couilles ! Ne me dis pas qui je suis, ne me juge pas le ciel le fait déjà déjà Tant d'ennemis qui me fuient, 92i ne leur laisse pas le choix Rien à signaler, R.A.S, R.A.S, R.A.S Rien à signaler R.A.S, R.A.S, R.A.S Beau gosse, 22 pouces sur le carrosse J'ai dans les poches une griffe de rhinocéros Petite gamelle au Costes Je n'me laisse jamais aller négro, oui je suis le boss Viens pas tester la Ouest, reste en chien, reste en hass Venu exterminer le coin, du moins ce qu'il en reste Les haineux veulent me maquer mais ils ne peuvent pas Si on parle de t'arroser, prie pour qu'il ne pleuve pas Je suis frais donc on me surclasse, discret comme un coup de schlass Bien élevé, bien allaité, seul un uzi peut m'arrêter J'assure mes arrières, protège mes intérêts Flambe aujourd'hui, demain t'es raide, négro rien d'ça ne m'intéresse J'roule un pet salut, ciao, à plus J'ai pas changé, j'mange des grecs dans mes voitures de luxe Sinon rien d'neuf dans ma vie, à part que je pèse Toujours pas de petite amie, que des meufs que je baise Ne me dis pas qui je suis, ne me juge pas le ciel le fait déjà déjà Tant d'ennemis qui me fuient, 92i ne leur laisse pas le choix Rien à signaler, R.A.S, R.A.S, R.A.S Rien à signaler R.A.S, R.A.S, R.A.S J'ai taclé l'époque des vaches maigres, c'est bien du rap de sale nègre Même si j'n'suis qu'à demi-black, aujourd'hui je compte les plaques Et les macaques d'en face jactent mal Trop d'bitch dans la Maybach, call me ba-back, je capte mal J'fais dans la chanson Arme au point, casquette baissée jusqu'au menton, fais attention Le milieu hip-hop est ma salope, voilà ma conviction Écran plasma dans les chiottes, voilà ma condition Nouveau riche je n'ai jamais eu honte, j'ai pleuré de la fonte Rendez-vous en Suisse bâtard, si tu veux m'régler mon compte Moi j'suis al pour que la street kiffe, j'suis là pour faire du biff J'en ai sur les doigts, t'en as dans le pif, arrête de taper du vice On me menace de mort au téléphone, appelle d'un Millenium Si j't'attrape tu seras cloué au sol, couvert d'aluminium Je suis le tsunami qui te la met, j'ai le flow de la mer J'ai menti au juge, au commissaire, sur la vie de ma mère Ne me dis pas qui je suis, ne me juge pas le ciel le fait déjà déjà Tant d'ennemis qui me fuient, 92i ne leur laisse pas le choix Rien à signaler, R.A.S, R.A.S, R.A.S Rien à signaler R.A.S, R.A.S, R.A.S Ne me dis pas qui je suis, ne me juge pas le ciel le fait déjà déjà Tant d'ennemis qui me fuient, 92i ne leur laisse pas le choix Rien à signaler, R.A.S, R.A.S, R.A.S Rien à signaler R.A.S, R.A.S, R.A.S2</t>
         </is>
       </c>
     </row>
@@ -3654,12 +3654,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Avertisseurs</t>
+          <t>Mauvais garçon</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
+          <t>J'entends des bruits sur mon téléphone sans fil Sous coke comme Tony M., tes balles je me les enfile Parti de que dalle, j'ai jamais voulu taffer J'ai grandi avec la daronne, enfermé, libéré sur parole Pour me refaire, j'ai fait c'qu'il fallait Du bien, du mal, j'ai commencé l'rap a 17 balais Depuis mes débuts, gagner j'ai l'habitude Ma putain d'attitude, j'arrête pas d'prendre de l'altitude Alors, je suis mes négros et mes négros me suivent Rafale de balles dans les amygdales, les faux négros me fuient Reflet de mon époque moi et mon Glock et mes potes Aucune confiance en leur justice et si le proc m'insulte comme une vulgaire salope de film de uc Obligé d'tirer sur ce fils de pute J'veux une cellule individuelle, avant qu'on s'entretue La vie d'rue a fait de nous de dangereux individus Dis bonjour au mauvais garçon, regarde les flammes dans mon iris Que la nation brûle sous mes lyrics Ma cour de récréation fait son gen-ar dans n'importe quelle voie Renoi passe moi la zeb et la sson-boi1</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3671,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Je me souviens</t>
+          <t>Inédit</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Hop hop hop, hey, tu t'en souviens ou pas ? Quand les négros n'étaient pas à la mode Ah, peux pas faire deux pas sans qu'on t'dévisage Impossible d'serrer une blonde, même avec un défrisage La zermi, hey ouais mon vieux B2O Avant Michael Jackson et l'arrivée de la drogue J'me souviens quand les négros n'étaient pas à la mode Parait qu'on puait, qu'on était pauvres, le zen' épaté J'me souviens des yen-cli d'coke, le zen éclaté A 10 ans en GAV, j'suis c'qu'ils appellent un vandale Un peu plus tard comme Joey Starr, j'serai un Boss of scandale 14 ans, mon premier joint, ma première foufoune 20 ans, j'suis en prison, mahliche, la roue tourne J'me souviens du mitard, de ceux qui s'ouvraient les veines Des Manouches, des Beurs, des Corses et des Ritals Mentale irritation, mon héritage, le cur vide les cojones pleines Le futur nique sa mère pourvu qu'ça paie en espèces Mon premier bolide R19, 16 soupapes Course poursuite avec les keufs, plaide coupable Ma première vitrine, ma première victime Destiné mon premier hit, single Desert Eagle J'me souviens d'l'allée du forum comme si c'était hier Quand y avait Dorse, Ali, La dinde, que Yahia f'sait pas la prière Tu voulais test ? Fallait pas, on te massacre T'aurais des flashs de quelques haches, quelques macaques Aujourd'hui, beaucoup parlent de la street J'ai fait ci, j'ai fait ça, ouais c'est ça ouais MC sincèrement tu fais pas l'poids, t'as jamais brillé Avant d'sortir un disque, nous on s'rappelle pas d'toi Te souviens-tu ta première gifle, ta première casquette ? Ton premier jugement, aller-retour en boite en taxis-basket ? Ton premier KO, premier 16 à l'assaut des ondes hertziennes ? Ta première go ta-ta-ta première chienne ? Ta première pote-ca, ta première rotte-ca ? Ta première Heineken ? Kennedy, B2O MC sincèrement tu fais pas l'poids, t'as jamais prié Avant d'sortir un disque, nous on s'rappel pas d'toi J'me souviens mon premier Lacoste Quand toute la France dansait le mia comme Akhenaton J'passe mon temps à m'bagarrer à l'époque Parc'que le soir mon daron cognait ma daronne, s'prenait pour Mike Tyson 12 piges, roule l'spliff, la vie a un gout d'pisse 16 ans, la rue a remplacé mes parents Capuche sur la tête j'traine dans les rues du 94 Je souris jamais jamais, la vie m'a mis des grosses claques J'me souviens la K'1 Fry Mafia, Mansa, Lasna Yézi l'escroc m'a fait croquer des scal-Pa Entre bagarres et gardav', la vie a fait d'moi une caillera J'ai eu un flingue avant d'avoir un portable Oh, j'ai vu la drogue ravager le quartier 18 ans, c't'année, 3 potes à moi se sont fait canner Comme chaque rabzouz et né-né-né-gro J'ai l'instinct de survie dans l'ghe-ghe-ghetto Au lycée, les surveillants viennent me voir pour pé-cho du popo Hé, prend ton shit et casses toi, boloss casse toi Entre poisse et galère, sa mère Des mains faites pour l'or et elles sont dans la merde4</t>
+          <t>Qui a dit que j'y arriverais pas, m'a pas cru, m'a pas aidé C'est B2O, tu te rappelles de moi pédé... Laisse les boycotter mon son, on a leur cul dans le sonar Fais attention, les porcs sont partis chasser le mollah Omar Petit, mélange pas la F1 et le karting On n'est pas back dans les bacs parce qu'on n'est jamais parti La politique, c'est qu'une partouze de chiens errants Du néant sort un géant, je suis la bonne et la mauvaise news Le son vient de la Benz, le tien de la benne, tu le sais C'est 92, le son du Q.G Ivre en écoutant mon son, ma chanson tu veux la vivre Tu veux tester Paris, wesh ma gueule qu'est ce qui t'arrive La banlieue c'est dangereux, t'as raison de te chier dessus Ta police n'y peut rien, le monde part en cette-su Moi je sors des Cds quand je veux, vesqui, m'arrache en jet, resquille C'est Lunatic, Doum's, M.O. clique Et si ton marmot, mélange pas sa coke à de l'eau C'est ni la faute à B-2-O, ni la faute à Pablo Sur ma tête, ils veulent utiliser ma technique, doucement me la mettre C'est pour ceux qu'ont révisé, pour ceux qu'ont visé la tête Sans pilote, sans king, guette j'arrive au top sans clim Dur de concevoir la vie sans crime, team, des milliards de centimes Un rap imité, plagié, rendu cool Du coup, beaucoup d'faux M.C saignèrent du cou C'était du lourd, y'aurait de l'or a dit le bout-mara Pour les mecs du bitume, la plume des trous à rats On m'a dit ce qui compte c'est le geste, des fois je veux arrêter Ok, je reste pour les empêcher de croquer Je blesse, en biz avec un croque mort dans le show-business Tu sors de taule ? Ouais, c'est cool, fais moi la bise mec Lis pas la guest-list, laisse moi passer fils Les putes dans la Porche, les flingues dans la poche Petite vieille, tiens bien ta sacoche, je vais faire un sale gosse Résiste pas, tu kiffes ma banlieue ouest sista Et si ton mec a bac 10 Moi tu me connais, je ne suis bon qu'à pé-ra, à fourrer le trou de balle de la justice Tout à coup l'indépendance bat des records Putain, tout à coup, mon hardcore est devenu or N'ai aucun doute sur le département, récolte ce que tu sèmes Moi, c'est la haine que je t'enseigne, quartier Hauts-de-Seine Qui m'a pas cru, m'a pas aidé ? C'est B-2-o, tu te rappelles de moi pédé ? Sur ma tête, ils veulent utiliser ma technique, doucement me la mettre C'est pour ceux qu'ont révisé, pour ceux qu'ont visé la tête Sans pilote, sans king, guette j'arrive au top sans clim Dur de concevoir la vie sans crime, team, des milliards de centimes Un rap imité, plagié, rendu cool Du coup, beaucoup d'MC saignèrent du cou C'était du lourd, y'aurait de l'or a dit le bout-mara Pour les mecs du bitume, la plume des trous à rats J'ai attrapé le crime en plein vol, la rage au ventre Sors pas armé d'un paint-ball, chez nous, on vole ensuite on vend Moi, j'ai quitté l'école pour la taule, je caresse en cognant Mes frères, ils rentrent et sortent en grognant Mon rap sent le pognon, les pâtes à l'oignon De toute manière, moi, je suis celui qui a dit Non, va niquer ta mère Du whisky sous les aisselles, regardant vers le ciel en pissant Je fais des tunes réfléchissant au CL 600 Nouvelle coque, c'est Kopp au micro Négro, c'est nouveau style, nouvelle école, nouvelle époque, nouveau deal Ala belleck, nouveau missile, mec, nouvel homicide Balance les billets sales dans la bassine vite Je serais cachère si je meurs égorgé Frères, sortez les seringues de vos artères, crever les pneus du charter... Qui m'a pas cru, m'a pas aidé ? C'est B.2.O., tu te rappelles de moi pédé ? Sur ma tête, ils veulent utiliser ma technique, doucement me la mettre C'est pour ceux qu'ont révisé, pour ceux qu'ont visé la tête Sans pilote, sans king, guette j'arrive au top sans clim Dur de concevoir la vie sans crime, team, des milliards de centimes Un rap imité, plagié, rendu cool Du coup, beaucoup d'MC saignèrent du cou C'était du lourd, y'aurait de l'or a dit le bout-mara Pour les mecs du bitume, la plume des trous à rats1</t>
         </is>
       </c>
     </row>
@@ -3688,12 +3688,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Fœtus</t>
+          <t>Le D.U.C.</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Ftus je défierai quiconque Beaucoup plus grosses que des balles de ping-pong Je me frappe le torse comme King Kong Charge comme Mohamed, Tyson, dès le ding-dong Parti du testicule droit, plus rapide que Michael Phelps 9 mois plus tard, pas de place pour les faibles J'irai en prison à 20 ans Pour l'instant je suis violet comme un billet de 500 J'ai des faux flingues je te tire dessus En maternelle je mange du sable, je me pisse dessus J'apprends à chasser comme un petit lionceau Plus tard tu viendras me voir pour ta conso Encore trop jeune pour qu'on me traite de sale renoi Je me sens proche des negros plus noirs que moi École primaire, élève de classe moyenne Pour être au top je deviendrai mi-homme mi-hyène J'ai peur du noir, du croque-mitaine J'ai la trique devant les clips de Farmer Mylène Je vois l'Afrique à la télévision Elle meurt peu à peu, disent ils dans leurs chansons Ftus je défierai quiconque Beaucoup plus grosses que des balles de ping-pong Je me frappe le torse comme King Kong Charge comme Mohamed, Tyson, dès le ding-dong Très tôt je pars au bled, je reviens marqué Blessé, je rentre en France pour les maquer Public Enemy la sonorité Je ne tolère ni uniforme, ni autorité Ils ont Canal en décrypté Je fais mes courses aux puces, je suis dans la street à kritker Pas de relation stable, elles viennent je les baise Je dois rester focus, je monte sur tous les dièses Les plus sages me disent de me ranger Mais je suis déter' sur le ter-ter, pas prêt de changer Mylène Farmer ne me fait plus bander Mc Hammer ne me fait plus danser Par contre la rue me fera chanter Elle me détruirera, me le dira, m'y fera penser Je ne sais que mordre, on m'a interdit de lécher Je veux pas de ton poisson, je veux que tu m'apprennes à pêcher Ftus je défierai quiconque Beaucoup plus grosses que des balles de ping-pong Je me frappe le torse comme King Kong Charge comme Mohamed, Tyson, dès le ding-dong 100-8 Zoo, les négros veulent B2O Flow de grizzli, je rappe so easily Meneur, leader, black entrepreneur Inspiré par Martin Luther et Shawn Carter La street mon premier amour J'ai du la tromper, mais je l'aimerai toujours Je me devais de communiquer Ma self-education, ma rage de guerrier soninké Des bancs de la school, au port de la cagoule Des crayons de couleurs, aux uzis mitrailleurs Flash back ! Du landeau à la Maybach Du premier esclave au premier président black J'ai souffert, d'autres ont souffert beaucoup plus Pour eux je dechaîne l'enfer, les degrés Celsius A César j'esquisse un rictus Incline-toi devant le Purple Ftus3</t>
+          <t>Tu veux détrôner le Duc ? Tu vas t'la prendre dans l'uc Département reconnu pour le trafic de stup' Tu veux d'la qualité, quitter la réalité ? Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine Ton son passe pas en boîte, le mien déb-déboîte Reste à l'écoute, mon son déc-découpe, le tien dég-dégoûte J'te l'répète au cas où tu aurais des doutes, c'est les Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine Mon bling-bling de chez Tony Blings drogué comme ODB Flow haut débit , deuspi comme Tony P Tout tout et tout de suite, c'est très très dur depuis Sarko' Mais qui Tu Croyais Baiser, ho ?! Garde la che-ze-pê-zê kho ! Toujours opé , moi et le mic c'est chimique Les négros sont déclassés par Pokora, Diam's et Sinik La honte négro ! Tu T'rends compte négro ? Moi J'me casse de 0 à 100 en 4 secondes Négro On me compare à Fifty avec son A.R Fifteen Alors que moi c'est B2O on ne compte plus mes victimes J'suis un rat qui fait du R.A.P., sponso' par New Era Dans les trucs de pédérastes jamais tu nous verras Nos armes et les tiennes, c'est pas la même C'est nous les pitbulls, C'est toi la chienne Klick Brahh ! Entre les deux yeux, la France est trop guez Danse au milieu des M16 dans La Cité De Dieu Tu veux détrôner le Duc ? Tu vas t'la prendre dans l'uc Département reconnu pour le trafic de stup' Tu veux d'la qualité, quitter la réalité ? Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine Ton son passe pas en boîte, le mien déb-déboîte Reste à l'écoute, mon son déc-découpe, le tien dég-dégoûte J'te l'répète au cas où tu aurais des doutes, c'est les Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine Wesh Re-noi , n'ai pas la haine Quand tu nous vois passer en Benz, Benz, Benz Tu as l'air en chien, tu fais de la peine En tout cas mon 92 izi Lui pèse pèse pèse Aveuglé par mes bijoux Imprévisible comme un coup d'boule de Zizou Me test est difficile, J'suis du genre à mourir par balle, à crever en moto J'fais toujours la différence entre une pétasse et un poto Faudrait que j'arrête de bédav, Que j'arrête de piav Je veux des lingots d'or, des liasses de biatch Métissé je me sens Noir comme une carte de crédit Disque de platine un jour, je ne l'aurais jamais prédit Alors arrête de béflan sinon Je t'arrache ton tissage.. La banlieue Ouest en mode Dirty South J'crois pas à la chance mais à la chatte , ma tchatche te met à l'amende Ce qu'on a à vendre sent pas la lavande, OK ! Tu veux détrôner le Duc ? Tu vas t'la prendre dans l'uc Département reconnu pour le trafic de stup' Tu veux d'la qualité, quitter la réalité ? Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine Ton son passe pas en boîte, le mien déb-déboîte Reste à l'écoute, mon son déc-découpe, le tien dég-dégoûte J'te l'répète au cas où tu aurais des doutes, c'est les Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine J'fais presque deux mètres, J'aimerais bien te la mettre.. Chez les grands tout est grand, serre les dents, pris Amen Ca défouraille sec comme l'ex à Amel Nouveau tube nouveau classique, nouveau clip d'Armen J'rappe à la 2Pac, regarde mais ne me touche pas Lâche Moi Ton Phone, garde la pêche si tu ne couches pas! Le Ciel ne répond pas Sheitan a fait le premier pas Les traitres et ma chaine en roro me tirent vers le bas Mais J'aime la vie car c'est une chienne, j'arrête pas d'en baiser Pectoraux gonflés à bloque, muscu' et poulets braisés Les Flics me prennent en photo mais fuck leur estime Au Mic J'assassine, frime, rime musique et crime Le Savoir est une arme mais je n'ai pas fait d'études Alors j'ai un gros brolic tout près de mes thunes J'suis Toujours à la page, négro j'ai la rage Au micro j'arrache M.C va niquer ta race La honte, négro, tu t'rends compte, négro ? La-la honte, négro, tu t'rends compte, négro ? La-la-la honte, négro, tu t'rends compte, négro ? Tu-tu-tu t'rends compte, négro ?1</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Du biff</t>
+          <t>All Set</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Refrain Le rap ça sert à rien Le rap ça sert à rien Couplet 1 Le rap ça sert à rien, sauf à faire du biff comme Booba A tfaire tchiiip si tu tbouges pas et même rire si técoutes ça Le rap ça sert à rien si tu penses affaires et coups bas Si tes amère, ou loux-ja mais Cest utile si taimes les casses têtes, les outrages On me dit souvent qule rap ça sert à rien Mais dans ce cas en musique ya une facette quest toute naze Moi jtrouve pas ça malin que le rap ne serve à rien nan Ca veut dire quabject est mon ouvrage A peine jcomprend les rouages, tout devient flou tel un nuage Un tel me dit quil y a du bourrage de crâne Je mévade roulant un bout dhasch en balle Ca me soulage me calme, me donne du courage me lasse Dentendre qule rap ça sert à rien donc jreste Anonyme comme Lucas Hood Tu mapplaudis jvaux pas quatre sous Ca thorrifies quje sois casse coups ? Jpeux même être casse couilles mais nme dit pas qule rap ça sert à rien Refrain Couplet 2 Si le rap ça sert à rien, dis moi ou tu places Oxmo et Busta ? Tu passes à autre chose mais quest ce tas ? Moi jfais mon job à plein temps jme fiche dcque pensent leurs instances Tant que mes textes sont plein dsens et pas cliquant Jviens chante parfois cinglant, un brin cancre mais pas grinçant Moi Beedy-Bonz jarrive étincelant et jinstaure Quon a pas le temps dimporter vos critiques Sur linutilité du rap, allez critiquez, nous on sait que cest durable Et quça vous séduira un jour ou lautre, on vous éduquera Jbalance 7-8 phrases personne ne sait où donner de la tête Et javoue cest drôle à regarder donc on sentête Avec un air fédérateur, de tout temps on a fait des ratures Ca nous empêche pas dêtre optimum Et cest cque jdirai aux ptits mômes qui commencent à nous écouter Comment ça ? Nan cest pas lheure de douter allez coupez ! Qu'est c'qu'il y a ptit? Tu penses qu'le rap ne sert à rien c'est qu'tu n'a pas appris la leçon ouais, tu fais le malin mais ne dis pas qu'le rap ça sert à rien nan !</t>
+          <t>Drapeau de Yoda le long de la grille Marche ou trépasse, le nom de ma vie Pour moi le monde c'est une petite ville J'ai des soucis, j'ai du bonheur, j'ai une petite fille Négro, pour toi c'est les tickets restos, mets pas le nez dans mon tajine J'baise la propriétaire, tu lèches la chatte à la voisine Vade retro, fils de putain des bois, tu veux quoi ? Que j't'assassine ? J'aurais du naître à l'époque des rois Mudjahidin J'ai voulu palper dans la farine Pourquoi m'enterrer avec du 24 carats dans les narines ? AK-47 adossés à chaque mur de la cabine Y'a des couteaux, des carabines, y'a de la 5amja, de la chabine Yeah, why these haters worried about what I'm sitting on Just know what I'm sitting, shitting on Pull up on a man, motherfucker, fully loaded We the only ones up 'til the early morning, we the only ones up 'til the early morning Anything going on, my niggas on it There's a lot of money out here and we really want it Yeah Remember when I once said Whatever we want, we put that work in and we gon' get it? 'Cause me and my niggas, we all set Monday to Sunday, 24 hours, no need to punch in Taureau sur l'écusson, érection comme en détention La seule solution que je les baise comme dans mes chansons Triste est le game, j'suis sur une single list Calibré jusqu'au menton tah Middle East J'suis el mucho, t'es little bit La prochaine fois qu'ils passent, vous leur dites dites Qu'ils ne feront pas long feu Moi le rap jeu, j'en fais ce que je veux Yeah, why these haters worried about what I'm sitting on Just know what I'm sitting, shitting on Pull up on a man, motherfucker, fully loaded We the only ones up 'til the early morning, we the only ones up 'til the early morning Anything going on, my niggas on it There's a lot of money out here and we really want it Yeah Remember when I once said Whatever we want, we put that work in and we gon' get it? 'Cause me and my niggas, we all set Monday to Sunday, 24 hours, no need to punch in5</t>
         </is>
       </c>
     </row>
@@ -3722,12 +3722,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Groupe sanguin</t>
+          <t>Roulé fort</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>On n'est pas du même groupe sanguin, pas du même crew Cousin la même haine, Hauts-de-Seine, Hauts-de-Seine Illégal comme les armes et la cocaïne, Lunatic Hauts-de-Seine, Hauts-de-Seine J'suis d'ces gosses à problèmes, qu'attendent rien du système, vivent à 200 Quand j'en ai marre j'fais mon argent dans la marge Avec, Ali Booba, l'flingue et son chargeur, j'chante raide défoncé Et j'm'en bats les couilles d'tes conseils Y en a qui se shootent, moi c'est le shit et sauce arachide L'échec c'est banal j'tape ma galère à la machine Des xeus et rohypnols chez les rejetons, qui viennent te dire Que la Terre est belle, ronde comme un Cacheton Y a des forts et des faibles, hard-core et des fabe L'héro c'est fabuleux mais quand t'arrêtes faut redécorer La vie c'est dur, ça fait mal dès qu'ça commence Pour ça qu'on pleure tous à la naissance Et en plus ils veulent qu'on dégage Après ces fils de putes s'étonnent quand y a des clous dans les bouteilles d'gaz Tellement d'merdes et si peu d'toilettes Le 9 mare de sang, avec ALI mon soss' à trois lettres La came parle et cette baltringue te fait des murmures Cousin mets ton gilet pare-seringue, car si tu meurs, j'meurs One LOVE, j'veux pas t'voir mort au raclo Négro mélange ta coke à d'l'eau On n'est pas du même groupe sanguin, pas du même crew Cousin la même haine, Hauts-de-Seine, Hauts-de-Seine Illégal comme les armes et la cocaïne, Lunatic Hauts-de-Seine, Hauts-de-Seine Pas mon groupe sanguin, pas du même crew Cousin la même haine, Hauts-de-Seine, Hauts-de-Seine Illégal comme les armes et la cocaïne, Lunatic Hauts-de-Seine, Hauts-de-Seine La vie est un long test, plus on avance et plus les épreuves viennent Là que les vraies têtes retiennent Les liens et que les traîtres font en sorte que l'unité Ne reste qu'un mot, une idée, peu importe que tu sois seul Ou en comité, on finira tous sous l'sol Pour l'instant, au-dessus, insiste à faire les choses bien Le but final est céleste, cause pour les miens soldat universel Vivant dans un environnement funeste Néfaste, le béton est comme une tombe pour les faibles Beaucoup de bouffons veulent bluffer Vivent de fables, jactent, trop agir ou mourir est la règle Accro de violence Les faits divers s'alternent comme le jour et la nuit La rue materne, la délinquance, le crime paie Loin d'arriver à son terme International langage, celui des armes Du ministère de la Défense aux mini-stars vendeurs de défonce Tue pour des intérêts, la mort n'est pas un mystère Le sang désaltère la soif de vengeance, tire et enterre Qui est l'homme ? Celui qui prend la vie ou la donne Celui qui s'élève pour le paradis béni Ou celui qui s'enfonce vers l'enfer damné Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine On n'est pas du même groupe sanguin, pas du même crew Cousin la même haine, Hauts-de-Seine, Hauts-de-Seine Illégal comme les armes et la cocaïne, Lunatic Hauts-de-Seine, Hauts-de-Seine Pas mon groupe sanguin, pas du même crew Cousin la même haine, Hauts-de-Seine, Hauts-de-Seine Illégal comme les armes et la cocaïne, Lunatic Hauts-de-Seine, Hauts-de-Seine Pas mon groupe sanguin, pas du même crew Cousin la même haine, Hauts-de-Seine, Hauts-de-Seine Illégal comme les armes et la cocaïne, Lunatic Hauts-de-Seine, Hauts-de-Seine Pas mon groupe sanguin, pas du même crew Cousin la même haine, Hauts-de-Seine, Hauts-de-Seine Illégal comme les armes et la cocaïne, Lunatic Hauts-de-Seine, Hauts-de-Seine Groupe illégal, groupe sanguin légal On t'serre, on t'saigne Hauts-de-Seine1</t>
+          <t>Yo vlé manjé mwen Moun yo vlé manjé'm lan kay la Yo vlé tié mwen Moun yo vlé manjé'm lan kay la Yo vlé manjé mwen, moun yo vlé manjé mwen Moun yo vlé manjé'm lan kay la Lambo, vanilla Ünkut, Chinchilla Maillot blanc, Coca, Bakel city... No negocia Nèg pa'm, yo tout sé pirat 9.2, map tiré pou sa Bloodclat, Wap tombé vite la Arrete ! Sispenn palé la Ou di ou ka fè li kan sa Posé, di boss ou m'di sa Bouzin, ou pa yan mafia kotex Wap acheté pou rad, sac... Next! Mouri pou chak patné Wap voyé caca Lan get ! M'pat konnen ou kan sa Silence, lé nou entré La puissance, yo wé fos nou la Alèze, lé ou wè m'ap fè sa Bel fanm, yo rinmin vi sa Jack nwa, fimin chicha Diamant lé ou cleopatra Le monde, sé pou les pirates Cresson, m'ap vann yo sa Pigeon démaské kò ou la Je suis un pirate validé Chak jou m'lévé, m'calibré Bouzin soti, fout alé Nèg yo rayi'm, ki mélé'm? Diamant vièj' pa chanjè'm Opérasion, fakilté'm Double R, Rosalie Little Haïti nou pa joué Le sac nwa c'est roulé, roulé Roulé fort, roulé fort, roulé fort Le sac nwa c'est roulé roulé Roulé fort, roulé fort, roulé fort Je les baise en mode étalon, Gato Bato, sa ka fèt Swag noir et marron, match le AK-47 Kolon get, kolon get, grosse chienne que l'on yèt J'ai beaucoup d'espèces levrette, colombe, hyène T'arrives le torse gonflé, tu repars en chaise J'suis entre quarante dièses, t'es entre parenthèses J'suis dans la surface pas dans les tribunes Noires sont mes tribulations Joint au bec'zer, or à chaque articulation Ma mère dit que j'suis joli garçon Quand j'sors d'ton fion, t'as l'fion en colimaçon Fuck leurs trophées, leurs nominations J'ouvre le coffre'zer, ils ont illuminations Le sac nwa c'est roulé, roulé Roulé fort, roulé fort, roulé fort Le sac nwa c'est roulé roulé Roulé fort, roulé fort, roulé fort Rolex, Delgado ! 9.2 Picasso Ünkut, magnifique, exotique, numéro uno Bouzin yo rinmin lé'm frapé'l c'est Kamasutra Nèg yo pa rinmin jan'm fè li, sé problèm pa yo Chak fwa yo wè mwen désenn, sé an lôt nouvo auto Nimpot' koté moun yo wè'm yo di Gato Bato Patnè ou déja fout konnen, mwen lan an lôt nivo Gangstè pa viv' lan Yo di sé pou ou démontré yo Koté'm sôti lan péyi'm gin' lò pou tout nèg yo Bandit kap fimin haschich lan la ri a kap vann yo Uzi mwen toujou avè'm mwen pa ka janm fout let go Bakel City entrépriz sé sèlmen euro euro Je suis un pirate validé Chak jou m'lévé, m'calibré Bouzin soti, fout alé Nèg yo rayi'm, ki mélé'm? Diamant vièj' pa chanjè'm Opérasion, fakilté'm Double R, Rosalie Little Haïti nou pa joué Le sac nwa c'est roulé, roulé Roulé fort, roulé fort, roulé fort Le sac nwa c'est roulé roulé Roulé fort, roulé fort, roulé fort10</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Carton rose</t>
+          <t>CAVALIERO</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>S.I.N.I.K bah bah bah ouais sale chien Tu t'es pris pour un arbitre ou quoi ? Carton jaune, carton rouge Moi j'distribue les cartons roses Si si Pour les grosses baltringues 92izi, 92izi 92izi, B2OBA Tu veux détrôner le duc, tu vas t'la prendre dans le uc' Départements reconnu dans le trafic de stup Tu veux d'la qualité, quitter la réalité Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine Toujours opé moi et le mic c'est chimique Les négros sont déclassés par Pokora Diam's et Sinik La honte négro tu te rends compte négro Moi j'me casse, 0 à 100 en 4 secondes négro Je n'suis pas des leurs en diesel ils ne peuvent me semer Vu qu'j'suis le meilleur j'partirais peut-être le premier J'me rapproche du FMI, à chaque anniversaire J'ai tellement d'ennemis si peu d'adversaires Ma réponse n'a rien d'ethnique, ne vous méprenez pas L'homme à abattre n'est qu'un medley, de toutes mes techniques Tu es mon premier fan, Booba Keita me l'a dit Les vrais gars sont dans mon camp tu n'connais rien de la vie Tefa Masta Six-O-Nine, toute ton équipe de lâches Trau-matiser, dératiser négro j'm'occupe de aç Tu crois qu'tu as la rage, tu viens défier les grands Je ne te clash pas car tu es blanc mais j'vais te niquer ta race Pour toi je sors le carton rose, ton flow sent la vanille T'auras pas besoin d'appeler les keufs, ils font partie de ta famille Je t'ai croisé à l'Olympia, j'ai eu l'intention de te saigner Mais j'ai vu sur ton visage que dans la pisse tu t'es baigné Je n'm'attaque pas aux faibles, je n'me bats qu'avec les hommes Thomas remercie moi crois moi tu as eu chaud aux fesses Ton nom rime avec clinique chimique Honda Civic T'es des Ulis comme Titi j'espère que tu cours aussi vite Dans mon cerveau le 9mm est prédominant Je ne tolère pas la défaite je suis un mâle dominant Tu n'as aucun classique, tu suces au quotidien Ton meilleur clip, c'est celui à lhôpital l'endroit te va si bien 1, 2, 3, 4, 1, 2, 3, 4, 1, 2, 3, 4, 5, 6 Avec tes deux tatouages factices et ta chaine en plastique 92.I c'est pas la Dolce Vita Sinik ton équipe c'est Diam's et Cheetah Pardon je voulais dire Diam's et Vitaa, gagner est inévitable Fais moi la peau si tu veux du cuir véritable Bah ouais tu m'attaques je réponds Sale victime Quant au disc jockey, gros porc aka Don Kore-nichon aka Gros Kore Malade Grosse biatch, biatch arrêtez vos bêtises les mecs, vous allez vous blesser 92izi, 92izi B2OBA, carton rose, le prochain il est noir !! OK, OK5</t>
+          <t>Rim's on the b- J'ai souvent été trahi J'ai souvent été tra- Rim's on the b- J'ai souvent été tra- The beat J'ai souvent été trahi, en vrai, rien de nouveau Te dire à quel point je l'ai haï, frérot, j'ai pas les mots pas les mots Sois ma reine, je serai ton cavaliero J'ai fait que quelques millions c'tte année, j'ai l'moral à zéro J'vous laisse être amour, je suis la haine, jai détruit ton étoile, je suis la mienne Palace mieux que mansion, Fleury mieux que Fresnes Même si t'es calibré, vaut mieux que j'vienne J'suis au four, au moulin moulin, moulin Au moulin, ma tchoin saute le caramel, PGP branché, je te rappelle, coño J'suis sur des zones parallèles parallèles, ils ne nous invitent plus, ils disent qu'on va gâcher la fête Pourtant, c'est eux qui ont créé la bête, quelques sociétés, quelques dettes Elle croit qu'j'vais la rappeler, qu'est-c'qu'elle est bête T'as capté J'ai souvent été trahi, en vrai, rien de nouveau Te dire à quel point je l'ai haï, frérot, j'ai pas les mots j'ai pas les mots Sois ma reine, je serai ton cavaliero J'ai fait que quelques millions c'tte année, j'ai l'moral à zéro Si tu n'viens pas quand c'est la hess, tu n'viendras pas au Ritz Ne te plains pas de comment ta vie sonne si tu n'viens pas au mix t'as capté Prêt pour la troisième guerre, prêt pour l'épidémie Rafale de billets verts annonce une pluie d'ennemis Si t'es pas tombée love, t'as pas de goût Tchoin bat jamais l'boss de la fin du premier coup T'as pas l'bras long, ils t'fumeront au balcon, vont pas t'rater Potentiellement, j'peux toutes les hou-oh J'ai pas trop d'types, gros, t'as capté T'as capté J'ai souvent été trahi, en vrai, rien de nouveau Te dire à quel point je l'ai haï, frérot, j'ai pas les mots j'ai pas les mots Sois ma reine, je serai ton cavaliero J'ai fait que quelques millions c'tte année, j'ai l'moral à zéro2</t>
         </is>
       </c>
     </row>
@@ -3756,12 +3756,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Danjé</t>
+          <t>Interlude</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Wicked a, wicked, junglist massive Wicked a, wicked, junglist massive Wicked a, wicked a, junglist massive Wicked a, original Well big up All the original junglist massive The original dancehall junglist deyah General Levy alongside the M-Beat The world is in trouble Ah wah wi tell dem murdera It goes I am the a, incred- a, incred- a Incredible General Sensational wah dem call me Incred- a, incred- a, incredible Gene- Select, selec-lect- Yo Mad de whole ah dem I spin dem like a windmill New talk fi dem Gwarn tell dem a we got the skill Dance cyan nice unless we name pon de bill And the girls hear we voices like dem dreams get fulfill me-ni-me-ni me-ni-me-ni me-ni-me-ni chill we nah sekkle we nah ill-ah Wah de want come see us say , unuh must be sick, unuh must be ill Test the daddy M-Beat unuh better go write your will Come down! Lord have mercy Lord have mercy Lord have mercy Lord have mercy Lord have mercy So wah, booyaka, booyaka, when the General ah pass Booyaka, booyaka, M-Beat run the dance Booyaka, booyaka, we nah tek back nah talk Booyaka, booyaka Incredible Me stylee fi pon de mic, the fi di general Get pon brock a inna me style Wicked a original a Me-ni-me-ni brock a Me-ni-me-ni skin Me nah a a or chat Me-ni-me-ni nah ramp fi send ah a a DJ to dem funeral General Le-- a me-ni-me-ni-me nah pet a Or a pam-- a --per a When we come in dancehall mi hold pon de mic To de pinnacle Looky looky DJ chat in me face me ah go a a bare chat Cah we ah get dem critical, critical, critical Come down Select, selec-lect-- Select, selec-lect a a a Sensational Wah dem call me Select, selec-lect-- Select, selec-lect a a a Sensational Incredible Unstoppable Unbeatable Invincible As beneficial Respected by man And loved by gyal Come me a a inna de place we get dem hysterical Cah me a a style is o original Junglist massive Hear dis So wah a a icky icky a a mmm M-Beat him come fi mad dem a a icky icky a a mmm General him ah come fi mad dem Yo Mad de whole ah dem I spin dem like a windmill New talk fi dem Gwarn tell dem a we got the skill Dance cyan nice unless we name pon de bill And the girls hear we voices like dem dreams get fulfill me-ni-me-ni me-ni-me-ni me-ni-me-ni chill we nah sekkle we nah Wah de want come see us say , unuh must be sick, unuh must be ill Test the General unuh better go write your will, becah a a icky icky a a mmm Wicked, wicked a Bo, bo, bo a a icky icky a a mmm Wicked, a wicked wicked wicked bo bo bo I am the a, incred a, incred a Incredible Gene-- Booyaka Select, selec-lect a a a Sensational wah dem call me I am the a Incred a Incred a Incredible Gene-- Booyaka Select, selec-lect a a a Sensational so wah Select, select, select, select Select, select, select, select Select, select, select, select Select, select, select, select Watch out Talking about General Unuh must be sick, unuh must be fraud Dis de General Unuh better pack up and brock Talking about ya hot You ah cold like salad When de M-Beat come Unuh better cock up and brock Stop play tune Word pon farm yard Stand up and we drop it like Between people cars You diss We ah still two teachers Dis de General You get the critical ward a icky icky a a mmm Wicked, M-Beat ya come fi mad dem wicked Me nah come fi ramp With the riddim and the riddim ah ramp Nah ramp with de riddim at all Come General General Levy wit de computer tongue Wah me do Talk to de boys anna talk to de girls Anna talk to de woman anna talk to de men Talk to de bredren anna talk to de young generation I give them sound wicked, wicked And I suck it in wicked, wicked Phenomenon one General system wit de computer tongue Wah me do wicked, wicked wicked, wicked Some of dem ah wee and Some of dem ah tall Some of dem ah jook Some of dem ah chump Some of dem ah addict for the coke and ah bawl fi the crack And ah cry for the opium, wah me do Select, selec-lect a a a2</t>
+          <t>La maturité, j'en ai peut-être peu J'm'en bats les couilles si t'aimes pas, en tout cas moi j'lui nique sa mère au tempo Sur scène ils s'dandinent, vivent pas comme des hommes Moi j'rime sans états d'âme j'défouraille comme dans Doom Animal galeux du Sénégal J'suis pas venu pour couiner, 92 100 pour ruiner Ma vie, c'est que des anomalies Pour ça que j'agis anormalement, trop haï mais VRAI J'suis un rat d'la jungle, j'danse sous la soukous et l'raï Sans cur avec les putes quand j'baise, leurs foufounes rayent Des nègres ont des clitos, certains c'est sûr, y a trop de mythos Nous, c'est violent, rap sous bédo Sans pitié comme l'amitié Incontesté, rap au Subutex et c'est comme ça quand on a gesté Les faux parlent des faux, putain leur mouvement est trop marrant Quand on représente, nous, c'est les frères beurs ou marrons Y a trop de belhani, ça met la haine, rien que ça couine C'est naze et quand j'arrive, ça sent la 3wina8</t>
         </is>
       </c>
     </row>
@@ -3773,12 +3773,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Je sais</t>
+          <t>La faucheuse</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Ouh, ouh, ouh, ouh Ce que je sais Ouh, ouh, ouh, ouh Eh, eh Au comptoir d'un titty bar, de l'or partout comme à Trinidad L'art de la guerre et du trépas coule dans les veines de la brigade Tu crois que je dérive mais c'est toi qui divagues Ah si j'étais riche, prends ton Kalash' et on y va Je dis vrai, j'ai des Louis Bags, que des rates-pi, des Hooligans Dans mes bureaux de style, on ne fait plus de style, on ne fait que du design de fusillade D la coke dans le fuselag, j't'envoie Rocco pour dépucelage C'est ta rondelle qui te lâche, j'baise le rap game dès mon plus jeune âge J'en ai connu des plus tenaces, va jusqu'au bout si tu menaces Oh, oh, oh C'est tout c'que je sais Oui, oui c'est tout, re-noi, c'est tout c'que je sais Oui, oui, j'ai toujours beaucoup de boulot La rue, ça appauvrit le cur dès que tu mets les pieds dedans Mais au final, qu'est-c'qu'un cur ? Ça fait juste circuler le sang Calibré mais je suis courtois, j'joue que les finales pas de tournois La direction, c'est toujours tout droit, y a pas de mais, y a pas de pourquoi ? Je n'suis que le Top Singles, et le cours de l'euro Y a qu'le cul qui l'intéresse, elle a gardé le haut Elle voulait qu'j'change mes habitudes, du coup, j'ai changé de go Ça m'étonnerait qu'elle encaisse, elle va bomber le dos Si j'ai cédé, c'est qu'ils m'ont au moins brisé les côtes Personne m'a aidé, dès que j'ai pu, j'ai aidé les autres Demain, c'est loin, sur mon terrain Y a personne pour siffler les fautes2</t>
+          <t>Ouais kho j'te préviens Les vrais le savent très bien Viens j'te mets bien Tu te dis au top moi je crois que t'as du plomb dans l'aile Nous c'est du son halal pas égorgé au Gillette Mach 3 Ya toujours de quoi payer le baveux moyenâgeux, matrice numéro 22.1.20.02 Hauts de Seine grande classe Avant que le beat te tabasse, MC arrache-toi la putain de ta race On fait du biff nous Vous, sortez les mouchoirs, on vient fumer les spliffs et les mouchards Q.H.S... le rap c'est le carnaval oula wesh ? Y'a ceux qui lèchent et ceux qui avalent On sait pas jouer à part avec le feu Engagés on a la haine le flow AMG 9.2 MC t'es pas convaincu J'reste invaincu, indomptable tel un Camer T'es nul à chier, tu dégoutes sa mère Temps mort t'es venu l'acheter, tu suces mal mais t'as du goût Fissa mets du sky dans ma chicha Dans la jungle Booba a Jane donc Tarzan encule Cheetha Fais tourner l'disque, fais tourner l'shit Vite, en légitime défense dans l'illicite fils Les écus faut les mériter Dans c'biz tout l'monde se baise chacun a la bite dans l'cul en vérité Pas comme Nelly j'suis vraiment blessé Quand j'vois un frère le baggy baissé Au premier essai mince les pinces me gravent sur leur PC J'voudrais remercier mon EP, nique sa mère mon B.E.P Tu veux pas goûter nos bastos kho j'te préviens 9.2 qu'du bon matos les vrais le savent très bien Tu veux du hardcore ? Viens j'te mets bien À ceux qui sont morts ceux que j'aimais, ceux que j'aimais bien... Tu veux pas goûter nos bastos kho j'te préviens 9.2 qu'du bon matos les vrais le savent très bien Tu veux du hardcore ? Viens j'te mets bien À ceux qui sont morts ceux que j'aimais, ceux que j'aimais bien... J'écris des textes crus, fais peur au médecin légiste On est exclus, on existe pas, on résiste, nous C'est la rage qui nous mène en bateau J'prends l'industrie à quatre pattes, crache dans leur gâteau Pas de flashes pour nos clichés nous on s'lève juste pour pisser Le passé est masqué, l'avenir sera postiché Personne ne bouge, personne n'est blessé Prêt à agresser pour percer à la Jamel Debouzze Tu reconnais mon flow devant tant d'impostures Négro c'est nous on fait l'show, file de gauche côté obscur On va parchoquer la roue car elle ne tourne pas, c'est l'heure du partage Nique sa mère faire son paquetage Ne joue pas avec la rue car elle ne joue pas Où j'passe la zeb ne repousse pas J'ai glissé ma peine et mon insomnie dans la feuille à rouler Cagoulés on baise les poules et les poulets Le son qui fout les boules déboule en coupé sport tu peux pas t'louper Assieds-toi sur la boite six poupée Ma réalité tue, la fuir pue l'homosexualité Viens pécho dans l'9.2. si tu veux d'la qualité Tu veux pas goûter nos bastos kho j'te préviens 9.2 qu'du bon matos les vrais le savent très bien Tu veux du hardcore ? Viens j'te mets bien À ceux qui sont morts ceux que j'aimais, ceux que j'aimais bien... Tu veux pas goûter nos bastos kho j'te préviens 9.2. qu'du bon matos tout le monde le sait très bien Tu veux du hardcore ? Viens j'te mets bien La Faucheuse me donne des rencards mais j'suis toujours en retard J'en ai pas marre, la famille, les potes, les putes le gent-ar Moi j'rentre dans l'tas, pas dans l'train mais dans l'M3 Tu veux m'arrêter moi ? C'que tu vas déclencher ça craint On va t'péter le foie, les reins à chaque fois J'passe en caravane les chiens aboient mais ne mordent pas M'demande pas quel ange m'escorte, trop fort c'qu'y a dans l'mélange J'essaie d'mentir au désenchantement mais souvent c'est encore pire J'tire une autre taffe quand j'vois l'score On s'met dans la merde pour en sortir c'est hardcore B2O dans tes oreilles, qualité oseille Vis dans l'inégalité triste réalité Agis ça sert à rien d'lé-par Moi j'suis toujours en train d'bé-bar c'pays d'clébards Écoute mon son, prend ton pied avec la faucheuse Laisse rappeurs et rappeuses désossés sur la chaussée Tu veux pas goûter nos bastos kho j'te préviens 9.2 qu'du bon matos les vrais le savent très bien Tu veux du hardcore ? Viens j'te mets bien À ceux qui sont morts ceux que j'aimais, ceux que j'aimais bien... Tu veux pas goûter nos bastos kho j'te préviens 9.2 qu'du bon matos les vrais le savent très bien Tu veux du hardcore ? Viens j'te mets bien À ceux qui sont morts ceux que j'aimais, ceux que j'aimais bien... Kho j'te préviens, la faucheuse kho Si si, les vrai le savent très bien Panthéon kho, 92i injection Le son qui met la pression Les vrais le savent très bien3</t>
         </is>
       </c>
     </row>
@@ -3790,12 +3790,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Réel</t>
+          <t>Kojak</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>J'attaque au bélier, je n'attends pas le pont-levis On ne t'a jamais cru, ce dont je parle, je le vis Tu cherches B2O, il est parti, n'est pas ici Faisons du biff', il n'y a qu'un T entre Haïti et Tahiti Oui, Messieurs j'ai la haine du S.E.N.E.G.A.L 501 cartonné, Glock, gilet pare-B.A.L Djembé ou derbouka pour accompagner mes proses Négocier au bazooka, crois-moi ça simplifie les choses Écoute mes sons en boucle, apprends à me connaître Regarde là où je suis car je suis là où il faut être Les mecs sont haineux, mais laisse-les Ils n'ont pas de couilles, ils ne peuvent que rayer ma Bentley Réel You ain't doing nothing, I do everything I'm on all the time, better listen to what I say And they say When I get older, I will be stronger They'll call him Booba, just like a waving flag And then I lean back, up in my Cadillac Now, how you like that ? And they say When I get older, I will be stronger They'll call him Booba, just like a waving flag Ils ont cassé tout mon bled, on essaie de rafistoler N'obtenant aucune aide, pistonnés par un pistolet Shit dans l'cul au parloir, impression de se faire violer J'veux l'or des Conquistadores, c'est mieux que les billets violets J'rappe pas pour les gonz' mais les gonzesses m'aiment bien Fuck une médaille de bronze, c'est l'or qu'les gonzesses aiment bien R1 dans le veau-cer, j'm'arrache au Lumpini Porte-avions dans le holster, 600 veaux-che à l'arrière du Lamborghini J'y crois quand les autres pensent que tout est fini Une paille dans mon vin, du piment dans mes fettuccine Calibré, j'ai pas l'oix-ch La barbe est bien taillée, le gamos sort du car-wash You ain't doing nothing, I do everything I'm on all the time, better listen to what I say And they say When I get older, I will be stronger They'll call him Booba, just like a waving flag And then I lean back, up in my Cadillac Now, how you like that ? And they say When I get older, I will be stronger They'll call him Booba, just like a waving flag Hey, as I get older As I get older The game is getting colder Is getting colder That's why I get stronger Ooh they can't stop me now And they say ha ha ha ha ha ha ha ha ha ha ha ha Ooh they can't stop me now De l'enfer j'vais devoir en faire, réel comme 10 ans ferme Tu deviendras un homme, mon fils ne m'a pas dit mon père Braza, Mala, mes compères, partenaires en crime Retrouve ton rappeur préféré paralysé de la tête aux lombaires La vie n'est pas un film, ni pause ni marche arrière Rien ne vaut mon honneur, ni mes euros ni ma carrière C'est bon de voyager, s'arracher, se sentir libre Besoin de traverser le monde pour le sentir vivre Izi You ain't doing nothing, I do everything I'm on all the time, better listen to what I say And they say When I get older, I will be stronger They'll call him Booba, just like a waving flag And then I lean back, up in my Cadillac Now, how you like that ? And they say When I get older, I will be stronger They'll call him Booba, just like a waving flag And then I lean back, up in my Cadillac Now, how you like that ? And they say When I get older, I will be stronger They'll call him Booba, just like a waving flag</t>
+          <t>Hé, tu vois c'que j'veux dire ou pas ? Saddam Hauts-de-Seine, B2O Kojak, tu vois c'que j'veux dire ou pas ? Izi J'refroidis le game pour ces négros, j'ai flow glacial Les mains sales, j'suis trop bestial, trop bestial J'fais du gros, pas du détail J'arrive en vaisseau spatial, j'suis so special, so special Trois glaçons dans le verre de cognac Le caillou bien rasé à faire pâlir la mère de Kojak Brazza fume un cigare, Mala fume un six feuilles Je bouge la tête de haut en bas sur un air de G-Funk Frais depuis la ky-fun, pull Old River Cocktail Molotov dans la tronche du videur Putain de race humaine, gros taux de fils de putains Donc à proximité, j'ai toujours un flingue ou un surin J'aime bien régler mes comptes vite, fuck les dates ultérieures Sénégalais, convict, Dieu est mon supérieur Qui me réduira en cendres me transformera en phénix Loin des yeux, loin du cur, près des yeux, près de mon pénis On t'a vu arriver de-spee avec ton vice d'épicier Tu ferais mieux de glisser, mes officiers n'ont aucune pitié Tu peux te la jouer là-bas, mais te la raconte pas ici C'est pour mes négros de Boulbi à Little Haiti Pose le micro, ton droit de rapper a expiré Suce le cul du show-biz dix minutes sans respirer On sait que tu en es capable, négro tu peux le faire Ne t'en fais pas, miséricordieux est Dieu le Père Je n'avais aucune chance mais je l'ai saisie quand même 92 hardcore, souviens-toi de mes poèmes J'suis pas là pour chialer, te parler de mes problèmes No pain, no gain, j'me la fais belle au soleil Négro j'suis à-l J'suis à-l, ténébreux récital J'drague à Miami Beach, tu dragues à la piscine municipale Quand j'écris, j'fais mieux que Besson Originaire des Hauts-de-Seine, du son qui met la pression Tu perds ton temps à jouer à la console, poser des questions Va faire un tour dehors, chercher l'argent de la récession T'as j'veux dire ou pas ? J'aime pas travailler, même faire ma putain de promo' Puzzle de mots et de pensées dans ta putain de sono Ta copine est vraiment nne-bo, dis-lui que je suis chaud Dis-lui que j'suis tellement chaud que j'descends d'un singe bonobo Tu m'as vu au commico ou chez Michel Denisot Quand y'a plus rien à la radio, B.2.O. relève le niveau Tout ça pour dire pas grand-chose mais dis-toi que j'm'en bats les reins Tu kiffes pas, nique ta race, j'm'en bats le foie, le pancréas Sur ce, je m'arrache vers des jours meilleurs J'te refais le visage au cutter, t'as l'swag d'un agriculteur T'as pas de biff', t'as pas de gamos, t'as pas le câble Ici c'est Los Alamos, va te faire enculer par le diable Mes débuts dans des cavernes, le mouv' me regarde de travers Que le hip-hop français repose en paix, la chatte à sa mère J'refroidis le game pour ces négros, j'ai flow glacial Les mains sales, j'suis trop bestial, trop bestial J'fais du gros, pas du détail J'arrive en vaisseau spatial, j'suis so special, so special Trois glaçons dans le verre de cognac Le caillou bien rasé à faire pâlir la mère de Kojak3</t>
         </is>
       </c>
     </row>
@@ -3807,12 +3807,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Même tarif</t>
+          <t>Fast Life</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Un deux, un deux, un deux, un deux, nerveux Un deux, test Mets pas la doudoune, mets le gilet pare-balles Bienvenue à Marseille te dit ton GPS Si tu fais la balance, rafale Tu payes pas, tu dépenses, rafale Machine à sous, délinquant sous écrou Tu mérites yekh tfou si tu nous regardes mal Cocaïne dans le naso MickJagger Trop de haschich dans les réseaux, guetteur Téléphone Bic, tu m'appelles d'un fixe Tu vas cramer la salope qui théberge en deux heures Parle moi en como, y'a les pin-pon Vaffanculo ! Y'a les pin-pon Sacoche Vuitton, bifton, chichons, canons Kodo, y'a les pin-pon Muslim donc je peux graille casher J'prends tout euros, dollars, sheikel 15 ans de rap sans baisser le Diesel A 15 ans, j'savais que j'allais tout baiser Elles aiment la couleur de ma quenelle Christian Dior ou Chanel J'suis tellement quartier qu'la marque sponsorise toutes mes femelles Cartel, Marlo fait feat avec Barksdale J'brille, plus qu'le grand échafaudage que vous appelez la Tour Eiffel Voiture volée en Italie, Fiorano plus de Pirelli Et avant d'te fusiller laisse-moi finir mes fusilli Rackets, braquages, vols, prison khey, c'est le même tarif Comores, Marseille, Paname, Sénégal c'est le même tarif Bruyant, grossiste, balance, nourrice ouais, c'est le même tarif Rappeur, rappeuse, tu parles, tu clashes C'est le même tarif, c'est le même tarif C'est le même tarif, c'est le même tarif, c'est le même tarif C'est le même tarif, c'est le même tarif, c'est le même tarif C'est le même tarif, c'est le même tarif, c'est le même tarif C'est le même tarif, c'est le même, c'est le même, c'est le même, c'est Sombre nouvelle, M.A.R.S Bientôt mes sacs poubelles seront des Hermès T'as pas d'oseille ? L'air de t'faire ièch' J'ai l'arme chimique avec la cervelle d'un CRS J'suis dans un douze étoiles à Marrakech J'suis cargo chinois, t'es canne à pêche J'suis dans les hautes herbes des hautes sphères Rendez-vous dans quelques mansions 20 ou 30 caisses Ils veulent mon trône, rien n'm'en empêche Sa mère être une icône, paie-moi en espèces Ils veulent mon trône, rien n'm'en empêche Leur faire un cul en hexagone, Sénégal, côte ouest Ta meuf est d'occasion tu l'as prise sur eBay Je m'en fous de vendre, le but c'est de tous les enterrer Tu fais le beau, ta go c'est une atrocité Tu fais le beau, ta go c'est une calamité Ne commence pas une guerre si t'es pas sûr de la gagner Comme tout hegoune c'est une kahba qui te fera tomber Pour t'oublier, attends je passe un coup de fil L'attachement c'est pour les fragiles 16</t>
+          <t>Izi, fast life T'as j'veux dire ou pas? 100-Ocho dans le building Héroïne, crack dans mon compte en banque, je pèse quelques kilos J'aime les gros derrières, c'est la faute à J.Lo Traîne avec mes gangsters, de Paname à Rio Fier, je sais pas quand me taire, poing levé aux JO Je fume que du bon bédo, jusqu'au mégot Ne porte que de vrais métaux, je suis un vrai négro J'écrivais mes textes dans le métro Les gyros à mes fesses dans le rétro 9.2 viens per-cho Ghetto millionnaire izi est ma Yayo 1, 2, 3 pour le seille-o Tournée mondiale comme Ryan et Ne-Yo Sorti de la street avec brio Mélodie des briques, je suis un griot 'Criminel' titre de ma bio Trouve-moi sur un yacht, me et ma biatch When your back's againt the wall Dos au mur Do you give up or keep going ? 100-Ocho If you never try it all Si t'essayes pas... Then you end up never knowing Tu vois c'que j'veux dire ou pas? Fast life La concurrence est dans le journal, mourante à l'hôpital As comme Frank Lucas, je prends la place aux Ritals Double poney dans le futal Mieux vaut m'avoir en photo que dans le vu-ca Aussi méchant est-il, pourquoi ? Maître Yoda, celle-ci est pour toi Hustler jusqu'à Que Marine Le Pen porte la burqa À quoi sert d'avoir vécu sans avoir vaincu ? Sorti de calèche, j'suis balèze comme ma sécu' J'erre dans les rues de Boulbi Chante l'été, fais du biff', j'suis cigale et fourmi Derrière lunettes Vuitton Louis J'ai tout vu rien ne m'éblouit Mais qui sont-ils vraiment, vous êtes qui ? B2O, Ryan Leslie, Izi When your back's againt the wall Dos au mur Do you give up or keep going ? 100-Ocho If you never try it all Si t'essayes pas... Then you end up never knowing Tu vois c'que j'veux dire ou pas? Fast life Hustling slow, trying to get the dough That's the way it go when you're living the fast life Yeah, yeah, yeah ! I said we hustling slow, trying to get the dough That's the way it go when you're living the fast life Yeah, yeah, yeah ! Aéroport de Miami, paré au top, c'est Lunatic fils Ma team ne compte plus ses victimes Mes ennemis tombent comme des quilles, bowling Un million cash, Vegas, all in Balling, gros bolides Bsahtou, partout je rentre en jogging Fast life, je fais le taff Je roule avec des pirates, faites gaffe When your back's againt the wall Dos au mur Do you give up or keep going ? 100-Ocho If you never try it all Si t'essayes pas... Then you end up never knowing Tu vois c'que j'veux dire ou pas? Fast life Fast life, fast cars Everywhere we go, they know who we are Savent qui on est Hood bitch, hood stars Ducking five-oh on the boulevard Si, si Fast life, fast cars Everywhere we go, they know who we are Hood bitch, hood stars Ducking five-oh on the boulevard Harlem, 100-Ocho4</t>
         </is>
       </c>
     </row>
@@ -3824,12 +3824,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>R.A.S</t>
+          <t>Le météore</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Ne me dis pas qui je suis, ne me juge pas le ciel le fait déjà déjà Tant d'ennemis qui me fuient, 92i ne leur laisse pas le choix J'suis sur l'avenue en gros gamos normal Les keufs me connaissent, ne m'arrêtent plus c'est de la balle Je ne fumerai pas sur ton joint c'est de la comm', au volant je mets la gomme Je frappais dur avec Ali tu te disais Ces deux-là cognent Quand je parle, c'est d'homme à homme, quand je joue, je parie gros Si t'en veux j'ai de la bonne, cent pour cent parigot J'me tape de leurs allocations, j'suis heureux à l'occasion Je suis mon propre Boss, je ne dirai jamais Allô patron Dans ce milieu tu n'es qu'une figurine Tu me serres la main, tu crois déjà au featuring J'ai toute la vie devant moi, la mort me guette au loin Ici-bas, égal un jour de plus, égal un jour de moins Je me faufile, croque cette chienne de vie à pleines chicots Rats des villes, U tréma sur mes tricots je brille Parait qu'j'suis sur écoute, sous coke, le nez qui coule J'suis sur un yacht, sur la côte, et je m'en bats les couilles ! Ne me dis pas qui je suis, ne me juge pas le ciel le fait déjà déjà Tant d'ennemis qui me fuient, 92i ne leur laisse pas le choix Rien à signaler, R.A.S, R.A.S, R.A.S Rien à signaler R.A.S, R.A.S, R.A.S Beau gosse, 22 pouces sur le carrosse J'ai dans les poches une griffe de rhinocéros Petite gamelle au Costes Je n'me laisse jamais aller négro, oui je suis le boss Viens pas tester la Ouest, reste en chien, reste en hass Venu exterminer le coin, du moins ce qu'il en reste Les haineux veulent me maquer mais ils ne peuvent pas Si on parle de t'arroser, prie pour qu'il ne pleuve pas Je suis frais donc on me surclasse, discret comme un coup de schlass Bien élevé, bien allaité, seul un uzi peut m'arrêter J'assure mes arrières, protège mes intérêts Flambe aujourd'hui, demain t'es raide, négro rien d'ça ne m'intéresse J'roule un pet salut, ciao, à plus J'ai pas changé, j'mange des grecs dans mes voitures de luxe Sinon rien d'neuf dans ma vie, à part que je pèse Toujours pas de petite amie, que des meufs que je baise Ne me dis pas qui je suis, ne me juge pas le ciel le fait déjà déjà Tant d'ennemis qui me fuient, 92i ne leur laisse pas le choix Rien à signaler, R.A.S, R.A.S, R.A.S Rien à signaler R.A.S, R.A.S, R.A.S J'ai taclé l'époque des vaches maigres, c'est bien du rap de sale nègre Même si j'n'suis qu'à demi-black, aujourd'hui je compte les plaques Et les macaques d'en face jactent mal Trop d'bitch dans la Maybach, call me ba-back, je capte mal J'fais dans la chanson Arme au point, casquette baissée jusqu'au menton, fais attention Le milieu hip-hop est ma salope, voilà ma conviction Écran plasma dans les chiottes, voilà ma condition Nouveau riche je n'ai jamais eu honte, j'ai pleuré de la fonte Rendez-vous en Suisse bâtard, si tu veux m'régler mon compte Moi j'suis al pour que la street kiffe, j'suis là pour faire du biff J'en ai sur les doigts, t'en as dans le pif, arrête de taper du vice On me menace de mort au téléphone, appelle d'un Millenium Si j't'attrape tu seras cloué au sol, couvert d'aluminium Je suis le tsunami qui te la met, j'ai le flow de la mer J'ai menti au juge, au commissaire, sur la vie de ma mère Ne me dis pas qui je suis, ne me juge pas le ciel le fait déjà déjà Tant d'ennemis qui me fuient, 92i ne leur laisse pas le choix Rien à signaler, R.A.S, R.A.S, R.A.S Rien à signaler R.A.S, R.A.S, R.A.S Ne me dis pas qui je suis, ne me juge pas le ciel le fait déjà déjà Tant d'ennemis qui me fuient, 92i ne leur laisse pas le choix Rien à signaler, R.A.S, R.A.S, R.A.S Rien à signaler R.A.S, R.A.S, R.A.S2</t>
+          <t>Du biff, du-du biff B.2 F.L.O.W nouvelle génération B2O, des milliers d'euros, ma rémunération Du biff, du-du biff Hein hein À l'affut du moindre écu, mon frère Si y'avait des bites par terre y'en a qui marcheraient sur le cul Prends mes lyrics par intraveineuse, escroc par habitude Paralysé par le bitume, toujours avec les khos Bleu blanc rouge triste décor Paris, la nuit les haineux, ma clique rien ne les émeut Ma clique rien ne les blesse, bâtard, mon son n'est jamais fouillé Quand il pleut on s'mouille, quand ça tire tu t'fais douiller, drah Y'en a qui trouve ça malheureux, ma parole ils comprennent pas C'est oeil pour oeil, ici l'aveugle est roi Quiconque me défie peu se méfie Au MIC tu fais flipper, mortel, t'es vilain comme N'Diefi Flingue à la ceinture le baggy tombe bien Alors négro tu fais moins le malin, 2, 3 balles dans les vértèbres hein Rouge est mon histoire, courte est l'existence Noires sont mes larmes, respiratoire est l'assistance Alerte au météorite c'est torride A peine entré dans l'atmosphère j'opère c'est horrible Alors les porcs voudraient me faire taire Menottes dans le dos genoux à terre, parce que j'milite, irrite, mes lyrics sont militaires OH F.L.O.W nouvelle génération B2O des milliers d'euros, ma rémunération Ni bronze, ni argent que de l'or, négro Dehors la météo affiche Boob's le météore Météorite en visu, panique dans le ciel De mon vivant j'verrai pas de négros aux présidentielles J'crois plus en grand chose, sans foi ni bif ma vie est fichue, osez M'enlever ces deux là sur la Bible, j'vais tout exploser Hé passe moi le micro, les clés du coupé Que j'parte au bout du monde chanter ma couleur, la France j'vais pas la louper En direct live de ma douleur, moi j'suis d'ceux qui en bavent 92i déambule entre cadavres et blessés grave J'arrête pas de pleurer mon peuple, la haine ça se cultive J'ai pas le choix, tu veux que je te dise l'esclavage, pire que la Shoah Faire couler des larmes de plomb, moi j'y arrive Nager le crawl parmi les grands blanc, loin de la rive Avant ils disaient que j'étais le diable, aujourd'hui j'suis populaire Un sagittaire avec un gun, je dépend d'un autre système lunaire Minuit c'est l'heure du crime, j'te baise comme Émile Louis Demande à Maza AKA Don Milouzi Alerte au météorite c'est torride A peine entrer dans l'atmosphere j'opère cest horrible Alors les porcs voudraient me faire taire Menottes dans le dos genoux à terre, parce que j'milite, irrite, mes lyrics sont militaires OH F.L.O.W nouvelle génération B2O. des milliers d'euros ma rémunération Ni Bronze, ni Argent que de l'Or, négro Dehors la météo affiche boob's le météore Tu connais la musique tu m'écoutes pas si tu m'aimes pas Tu te la pètes, fais de la peine, nous on te calcule même pas Numéro 10 on marque des buts Ils rêvent de ma chute fi-fi-fi-fi-fi-fi-fils de pute F.L.O.W nouvelle génération B2O des milliers d'euros ma rémunération Ni bronze, ni argent, que de l'or, négro Dehors la météo affiche boob's le météore Kho, C'est tout ce qu'il mérite Biatch Boob's le météorite 9.2 Si, si Alerte au météorite c'est torride A peine entrer dans l'atmosphere j'opère cest horrible Alors les porcs voudraient me faire taire Menottes dans le dos genoux à terre, parce que j'milite, irrite, mes lyrics sont militaires OH F.L.OW nouvelle génération B2O des milliers d'euros ma rémunération Ni Bronze, ni Argent que de l'Or, négro Dehors la météo affiche boob's le météore1</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Mauvais garçon</t>
+          <t>Si tu savais</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>J'entends des bruits sur mon téléphone sans fil Sous coke comme Tony M., tes balles je me les enfile Parti de que dalle, j'ai jamais voulu taffer J'ai grandi avec la daronne, enfermé, libéré sur parole Pour me refaire, j'ai fait c'qu'il fallait Du bien, du mal, j'ai commencé l'rap a 17 balais Depuis mes débuts, gagner j'ai l'habitude Ma putain d'attitude, j'arrête pas d'prendre de l'altitude Alors, je suis mes négros et mes négros me suivent Rafale de balles dans les amygdales, les faux négros me fuient Reflet de mon époque moi et mon Glock et mes potes Aucune confiance en leur justice et si le proc m'insulte comme une vulgaire salope de film de uc Obligé d'tirer sur ce fils de pute J'veux une cellule individuelle, avant qu'on s'entretue La vie d'rue a fait de nous de dangereux individus Dis bonjour au mauvais garçon, regarde les flammes dans mon iris Que la nation brûle sous mes lyrics Ma cour de récréation fait son gen-ar dans n'importe quelle voie Renoi passe moi la zeb et la sson-boi1</t>
+          <t>100 moins ocho Tout ce que j'ai, je l'ai chié, j'ai taffé hard comme à l'usine Même au tard-mi, j'pète pas un fusible Dur comme un rocher, difficile à battre comme un gaucher Rap de boucher, résidus de crack dans la cuisine Hôtel de luxe, limousine Chez nous y a pas de mains aux fesses ni de wesh, wesh cousine J'parle beaucoup mais j'peux l'assumer Le seul moyen de perdre un ennemi est de le fumer Le finir au sol, bien l'enculer Pour ça qu'j'essaie de me retenir car lancé, j'peux plus reculer L.U.N.A.T.I.C, album écrit au placard Ça sent la Stan Smith, le trois-quart Rimes de haggar, flow de bâtard À l'écoute, tu sais qu'on traîne dans les halls, squatte à la gare On t'effraie, tu longes les murs, tu fais le crabe Au fond tu sais qu'on est frais mais tu fais s'hab Si tu savais, si tu savais Si tu savais, savais Si tu savais, si tu savais Si tu savais, savais Rares, mes res-frè sont mis en cause Oui, j'aimais errer dans maisons closes, distribuer mes doses Faire le tour de la coupole, bourbonné comme personne À part toi, qui le sait ? Personne ! Ma izi monnaie man, ma vie, c'est monnaie man Cherche pas l'homme, j'ai pas le temps, j'suis trop busy man Ils valent pas mieux qu'Averell, Jack, William, Joe Foireuse équipe de Dalton, laissez passer les mans pros, OK Tu reconnais ma zone, rappelle tes drones Que l'on converse en one-one, man J'suis ego trip, pas assez dans ton trip Lequel ? Je sais pas avant tu faisais déjà dans ton slip, pute J'suis authentique, toi tu jongles avec ta bite, pute T'es comme les flics, toi tu sais où j'habite, pute Si y a tminik, jiâana, ben toute ta clique pue Nous, c'est Brazza, B2O, Maza dans la zik chut Si tu savais, si tu savais Si tu savais, savais Si tu savais, si tu savais Si tu savais, savais Tellement c'est technique, tellement c'est technique Tellement elle est technique, tu ne sens même plus ta Gardons de bons rapports, j'suis physicien et physique J'prends les plus forts en corps à corps, les musiciens en musique En jachère, on te laisse le ter-ter Techniques de gangsters si jamais tu nous ché-cher C'est les ministères, c'est les militaires C'est pas la mer qui prend l'homme, c'est la guerre Tu m'as vu éméché, obligé t'hallucines Je garde la pêche, pas les péchés et ne courbe jamais l'échine J'fais comme en Palestine, comme les frères qu'on assassine Un peu d'Ovomaltine et c'est de la dynamite Arrête la zik, MC tu n'as pas d'équipe Ton flow est pathétique, MC tu n'as pas d'éthique On te re-nique, MC n'appelle pas les flics Si tu savais, si tu savais Si tu savais, si tu savais Si tu savais, savais Si tu savais, si tu savais Si tu savais, savais</t>
         </is>
       </c>
     </row>
@@ -3858,12 +3858,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Mucho Dinero</t>
+          <t>Plaza Athénée</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Discographie - Damso Album Studio - 20160708 Damso - Batterie faible - 20170428 Damso - Ipséité - 20180615 Damso - Lithopédion - 20200918 Damso - QALF - 20210429 Damso - QALF infinity Mixtape - 20140829 Damso - Salle d'attente Compilation - 20181214 Damso - Intégrale - 20190809 Damso - Ipséité Lithopédion Single - 20120328 Damso - Freestyle Portes Ouvertes FPO - 20121001 Damso - Brouillard - 20140308 Damso - EGO - 20140328 Damso - Publie Partage Promo - 20140818 Damso - On n'est jamais mieux compris que par soi-même - 20140829 Damso - Le talent ne suffit pas - 20140928 Damso - IVG - 20141220 Damso - Tout oublier - 20141220 Damso - BANG BANG - 20150808 Damso - Comment faire un tube - 20151118 Damso - Ma putain - 20151119 Damso - Colis - 20151120 Damso - Poséidon - 20151217 Damso - Mi Amor - 20160122 Damso - Débrouillard - 20160427 Damso - Autotune - 20160527 Damso - BruxellesVie - 20160621 Damso - Peur d'être sobre - 20160624 Damso - Périscope - 20160708 Damso - Graine de sablier - 20160718 Damso - Paris c'est loin - 20161107 Damso - Amnésie - 20160919 Damso - Débrouillard Remix - 20160928 Damso - Freestyle Deezr - 20170118 Damso - Smeagol - 20170220 Damso - CQFD - 20170403 Damso - Mort - 20170428 Damso - N. J Respect R - 20170428 Damso - . Nwaar Is Th New Black - 20170525 Damso - TieksVie - 20170706 Damso - . Macarena - 20170714 Damso - Quotidien de baisé - 20170901 Damso - Mucho Dinero - 20170903 Damso - C'est toujours Dems Le vrai - 20171027 Damso - Seultou - 20171027 Damso - Fais-moi un Vie - 20171110 Damso - Je nous mens - 20171201 Damso - Tueurs - 20180316 Damso - . Mosaïque solitaire - 20180428 Damso - Ipséité - 20180605 Damso - . Ouzbek - 20180613 Damso - Smog - 20180801 Damso - Surcôté - 20200124 Damso - veillé - 20200328 Damso - - 20210107 Damso - 911 - 20210406 Damso - J'avais juste envie décrire - 20221218 Damso - Cur de pirate Featuring - 2008 Dolfa - Cyclone - 20151112 LeBoy Krisy'B - Studio Remix - 20151204 Booba - Pinocchio - 2016 Siboy - Paradis - 20160410 Krisy - Real - 20160611 Booba - Freestyle Couvre Feu OKLM - 20160624 Hamza - Slow - 20170120 Vald - Vitrine - 20170331 Benash - Ivre - 20170630 Siboy - Mobali - 20171006 Kalash - Mwaka Moon - 20171117 Lacrim - Noche - 20171201 Booba - 113 - 20171213 Kalash - Mwaka Moon Felckin Remix - 20180518 Kalash - Mwaka Moon Sfera Ebbasta Remix - 20181114 OrelSan - Rêves bizarres - 20181207 404Billy - RVRE - 20190606 Nekfeu - Tricheur - 20190628 D.A.V - ParoVie - 20190712 Vegedream - Personne - 20190726 Kalash - JTC - 20190726 Kalash - Praliné - 20190927 Ikaz Boi - SOLITERRIEN - 20191118 Dadju - Robe - 20191219 Hamza - God Bless - 20200307 Ninho - Promo - 20201015 Innoss'B - Best - 20201016 Kalash Criminel - But en or - 20210305 ElGrandeToto - Étranger - 20210702 Dinos - Du mal à te dire - 20210716 Laylow - R9R-LINE - 20211203 Angèle - Démons - 20220301 Angèle - Démons Live Orchestral - 20220309 Aya Nakamura - Dégaine - 20220317 Disiz - RENCONTRE - 20220325 Selah Sue - Wanted You to Know - 20220429 Kalash - I Love You - 20220429 Kobo - .FUMÉE.ÉPAISSE - 20220701 Gazo - BODIES - 20220923 Kalash - Malpolis - 20221111 Lous and The Yakuza - Lubie - 20230217 Hamza - Nocif Discographie complémentaire - Discographie - OPG</t>
+          <t>Eh, oh, oh, oh Noxious, Noxious, Noxious Oh, oh Oh, oh, oh, oh J'rêve dun perso filtré mille fois dans le désert d'Essaouira d'Essaouira Baveux ma dit Ferme-la et ça ira Ça ira J'ai la mélo' facile comme Zaïrois Zaïrois T'es TF1, j'suis Al Jazeera Jazeera J'voulais faire un enfant à Elvira Elvira Cette pute prend trop de coke, on n'y arrive pas arrive pas En GT2 à fond sous sativa sativa Je représente, me représente comme Kabila Ils m'ont dit quavec le temps, haine et douleur allaient satténuer, ah ah Les yeux fermés, c'st le même noir au mitard quau Plaza Athénée, han, han han, han S'il y a un homm bien sur cette Terre, j'espère que tu l'rencontreras rencontreras Si tu es dans son cur même sil est dur, il te le montrera montrera Tequila sec comme El Chapo, pour elle, une grande margherita margherita J'envoie des piques de AstraZeneca Zeneca 's ont tout essayé, ça marche pas marche pas Y a qu'en fauteuil roulant qu'on marche droit Tu crois que rien ne va, rassure-toi rassure-toi, y a pas que toi pas que toi Qui vit au-d'ssus des lois n'a pas de roi pas de roi Violent que si j'n'ai pas le choix pas le choix Confonds pas Gomorra, La Jonquera Ils m'ont dit qu'avec le temps, haine et douleur allaient s'atténuer s'atténuer, ah ah Les yeux fermés, c'est le même noir au mitard qu'au Plaza Athénée, han, han han, han S'il y a un homme bien sur cette Terre, j'espère que tu l'rencontreras rencontreras Si tu es dans son cur même s'il est dur, il te le montrera montrera Ils m'ont dit qu'avec le temps que les douleurs allaient s'atténuer, s'atténuer, s'atténuer2</t>
         </is>
       </c>
     </row>
@@ -3875,12 +3875,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Inédit</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Qui a dit que j'y arriverais pas, m'a pas cru, m'a pas aidé C'est B2O, tu te rappelles de moi pédé... Laisse les boycotter mon son, on a leur cul dans le sonar Fais attention, les porcs sont partis chasser le mollah Omar Petit, mélange pas la F1 et le karting On n'est pas back dans les bacs parce qu'on n'est jamais parti La politique, c'est qu'une partouze de chiens errants Du néant sort un géant, je suis la bonne et la mauvaise news Le son vient de la Benz, le tien de la benne, tu le sais C'est 92, le son du Q.G Ivre en écoutant mon son, ma chanson tu veux la vivre Tu veux tester Paris, wesh ma gueule qu'est ce qui t'arrive La banlieue c'est dangereux, t'as raison de te chier dessus Ta police n'y peut rien, le monde part en cette-su Moi je sors des Cds quand je veux, vesqui, m'arrache en jet, resquille C'est Lunatic, Doum's, M.O. clique Et si ton marmot, mélange pas sa coke à de l'eau C'est ni la faute à B-2-O, ni la faute à Pablo Sur ma tête, ils veulent utiliser ma technique, doucement me la mettre C'est pour ceux qu'ont révisé, pour ceux qu'ont visé la tête Sans pilote, sans king, guette j'arrive au top sans clim Dur de concevoir la vie sans crime, team, des milliards de centimes Un rap imité, plagié, rendu cool Du coup, beaucoup d'faux M.C saignèrent du cou C'était du lourd, y'aurait de l'or a dit le bout-mara Pour les mecs du bitume, la plume des trous à rats On m'a dit ce qui compte c'est le geste, des fois je veux arrêter Ok, je reste pour les empêcher de croquer Je blesse, en biz avec un croque mort dans le show-business Tu sors de taule ? Ouais, c'est cool, fais moi la bise mec Lis pas la guest-list, laisse moi passer fils Les putes dans la Porche, les flingues dans la poche Petite vieille, tiens bien ta sacoche, je vais faire un sale gosse Résiste pas, tu kiffes ma banlieue ouest sista Et si ton mec a bac 10 Moi tu me connais, je ne suis bon qu'à pé-ra, à fourrer le trou de balle de la justice Tout à coup l'indépendance bat des records Putain, tout à coup, mon hardcore est devenu or N'ai aucun doute sur le département, récolte ce que tu sèmes Moi, c'est la haine que je t'enseigne, quartier Hauts-de-Seine Qui m'a pas cru, m'a pas aidé ? C'est B-2-o, tu te rappelles de moi pédé ? Sur ma tête, ils veulent utiliser ma technique, doucement me la mettre C'est pour ceux qu'ont révisé, pour ceux qu'ont visé la tête Sans pilote, sans king, guette j'arrive au top sans clim Dur de concevoir la vie sans crime, team, des milliards de centimes Un rap imité, plagié, rendu cool Du coup, beaucoup d'MC saignèrent du cou C'était du lourd, y'aurait de l'or a dit le bout-mara Pour les mecs du bitume, la plume des trous à rats J'ai attrapé le crime en plein vol, la rage au ventre Sors pas armé d'un paint-ball, chez nous, on vole ensuite on vend Moi, j'ai quitté l'école pour la taule, je caresse en cognant Mes frères, ils rentrent et sortent en grognant Mon rap sent le pognon, les pâtes à l'oignon De toute manière, moi, je suis celui qui a dit Non, va niquer ta mère Du whisky sous les aisselles, regardant vers le ciel en pissant Je fais des tunes réfléchissant au CL 600 Nouvelle coque, c'est Kopp au micro Négro, c'est nouveau style, nouvelle école, nouvelle époque, nouveau deal Ala belleck, nouveau missile, mec, nouvel homicide Balance les billets sales dans la bassine vite Je serais cachère si je meurs égorgé Frères, sortez les seringues de vos artères, crever les pneus du charter... Qui m'a pas cru, m'a pas aidé ? C'est B.2.O., tu te rappelles de moi pédé ? Sur ma tête, ils veulent utiliser ma technique, doucement me la mettre C'est pour ceux qu'ont révisé, pour ceux qu'ont visé la tête Sans pilote, sans king, guette j'arrive au top sans clim Dur de concevoir la vie sans crime, team, des milliards de centimes Un rap imité, plagié, rendu cool Du coup, beaucoup d'MC saignèrent du cou C'était du lourd, y'aurait de l'or a dit le bout-mara Pour les mecs du bitume, la plume des trous à rats1</t>
+          <t>Glock .17, j'en prends soin Glock .17, j'en prends soin Ça s'voit qu't'es une grosse putain, que t'es clitoridien Toujours sur mon 31, le sale, mon quotidien J'ai matché avec tchoin, tchoin, tchoin, j'ai swipé sur la gauche, eh Glock .17, j'en prends soin, j'ai ridé toute la noche Combien d'bouteilles à la mer échouées dans des eaux mortes ? Ça va, ça va pas, pas du genre à frapper aux portes non, non Attiré par le vide si je restais au bord Ils m'ont attrapé en Afrique, m'ont forcé à marcher au Nord C'navire n'est pas sûr de rentrer, t'ferais mieux d'rester au port Comprends qu'c'est pas un jeu quand tu peux plus r'monter au score Tu vas rien faire, tu peux rien faire, cousin, tu sais très bien Niquez-vos-grands-mères.fr, tiens, c'est le lien J'vais pas tarder à y aller, attendu par les Raëliens Grigris sénégalais, quelques drones israéliens Remballez, remballez, remballez, eh, vous n'valez rien Remballez, remballez, remballez let's go Ça s'voit qu't'es une grosse putain, que t'es clitoridien Toujours sur mon 31, le sale mon quotidien J'ai matché avec tchoin, tchoin, tchoin, j'ai swipé sur la gauche, eh Glock .17, j'en prends soin, j'ai ridé toute la noche Niggas claiming to be saal, but they don't know the nwaar Started with a fourchette in the traphouse cooking raw Bitch, I'm from Fontamara, I never knew my dad, hey That mean I'm a bastard, I will kill you when I'm hungry My bouzin say I fuck good, but I'm better with the AK Girls, I'm in the Chevy, hunnid right next to me posey Kolan get manman'w, Lil bouzin, to me you know danger Leave holes in your face, your chest, your back, 'cause I don't shoot straight Niggas always talkin' shit, I pay that shit no mind Always on the grind, start to focus, it's to stack it up stack it up An alé, an alé, an alé, an al fè kob let's get it Go get it, go get it, go get it, bitch Don't be no duck Ça s'voit qu't'es une grosse putain, que t'es clitoridien ça s'voit Toujours sur mon 31, le sale mon quotidien toujours, oh J'ai matché avec tchoin, tchoin, tchoin, j'ai swipé sur la gauche, eh swipe Glock .17, j'en prends soin, j'ai ridé toute la noche Fly, toute la noche J'vais rider toute la noche Fly, toute la noche Fly, fly, fly Glock .17, j'en prends soin En fait, c'est quoi qu'tu piges pas ? Va niquer tous tes morts Surfe sur des vagues de kichta comme à Hossegor3</t>
         </is>
       </c>
     </row>
@@ -3892,12 +3892,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Le D.U.C.</t>
+          <t>Izi Life</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Tu veux détrôner le Duc ? Tu vas t'la prendre dans l'uc Département reconnu pour le trafic de stup' Tu veux d'la qualité, quitter la réalité ? Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine Ton son passe pas en boîte, le mien déb-déboîte Reste à l'écoute, mon son déc-découpe, le tien dég-dégoûte J'te l'répète au cas où tu aurais des doutes, c'est les Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine Mon bling-bling de chez Tony Blings drogué comme ODB Flow haut débit , deuspi comme Tony P Tout tout et tout de suite, c'est très très dur depuis Sarko' Mais qui Tu Croyais Baiser, ho ?! Garde la che-ze-pê-zê kho ! Toujours opé , moi et le mic c'est chimique Les négros sont déclassés par Pokora, Diam's et Sinik La honte négro ! Tu T'rends compte négro ? Moi J'me casse de 0 à 100 en 4 secondes Négro On me compare à Fifty avec son A.R Fifteen Alors que moi c'est B2O on ne compte plus mes victimes J'suis un rat qui fait du R.A.P., sponso' par New Era Dans les trucs de pédérastes jamais tu nous verras Nos armes et les tiennes, c'est pas la même C'est nous les pitbulls, C'est toi la chienne Klick Brahh ! Entre les deux yeux, la France est trop guez Danse au milieu des M16 dans La Cité De Dieu Tu veux détrôner le Duc ? Tu vas t'la prendre dans l'uc Département reconnu pour le trafic de stup' Tu veux d'la qualité, quitter la réalité ? Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine Ton son passe pas en boîte, le mien déb-déboîte Reste à l'écoute, mon son déc-découpe, le tien dég-dégoûte J'te l'répète au cas où tu aurais des doutes, c'est les Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine Wesh Re-noi , n'ai pas la haine Quand tu nous vois passer en Benz, Benz, Benz Tu as l'air en chien, tu fais de la peine En tout cas mon 92 izi Lui pèse pèse pèse Aveuglé par mes bijoux Imprévisible comme un coup d'boule de Zizou Me test est difficile, J'suis du genre à mourir par balle, à crever en moto J'fais toujours la différence entre une pétasse et un poto Faudrait que j'arrête de bédav, Que j'arrête de piav Je veux des lingots d'or, des liasses de biatch Métissé je me sens Noir comme une carte de crédit Disque de platine un jour, je ne l'aurais jamais prédit Alors arrête de béflan sinon Je t'arrache ton tissage.. La banlieue Ouest en mode Dirty South J'crois pas à la chance mais à la chatte , ma tchatche te met à l'amende Ce qu'on a à vendre sent pas la lavande, OK ! Tu veux détrôner le Duc ? Tu vas t'la prendre dans l'uc Département reconnu pour le trafic de stup' Tu veux d'la qualité, quitter la réalité ? Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine Ton son passe pas en boîte, le mien déb-déboîte Reste à l'écoute, mon son déc-découpe, le tien dég-dégoûte J'te l'répète au cas où tu aurais des doutes, c'est les Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine, Hauts-de-Seine J'fais presque deux mètres, J'aimerais bien te la mettre.. Chez les grands tout est grand, serre les dents, pris Amen Ca défouraille sec comme l'ex à Amel Nouveau tube nouveau classique, nouveau clip d'Armen J'rappe à la 2Pac, regarde mais ne me touche pas Lâche Moi Ton Phone, garde la pêche si tu ne couches pas! Le Ciel ne répond pas Sheitan a fait le premier pas Les traitres et ma chaine en roro me tirent vers le bas Mais J'aime la vie car c'est une chienne, j'arrête pas d'en baiser Pectoraux gonflés à bloque, muscu' et poulets braisés Les Flics me prennent en photo mais fuck leur estime Au Mic J'assassine, frime, rime musique et crime Le Savoir est une arme mais je n'ai pas fait d'études Alors j'ai un gros brolic tout près de mes thunes J'suis Toujours à la page, négro j'ai la rage Au micro j'arrache M.C va niquer ta race La honte, négro, tu t'rends compte, négro ? La-la honte, négro, tu t'rends compte, négro ? La-la-la honte, négro, tu t'rends compte, négro ? Tu-tu-tu t'rends compte, négro ?1</t>
+          <t>This ain't a rap song, this is my life This ain't a rap song, this is my life This ain't a rap song, this is my life My life, my life, my life This ain't a rap song, this is my life This ain't a rap song, this is my life This ain't a rap song, this is my life My life, my life, my life Paris a du flouze, ses rappeurs ont le blues Izi à laise dans le 92, parce quon les baise tous Négro tu déconnes, on fait du biff, ten fais des tonnes Viens par ici jai-jai de la bonne, de celle qui nous blesse tous On vit tous dans l'illégal, alors passe-moi mon cash avant la fin du bal Si c'que tu nous caches est rectal, écarte les fesses, tousse Venez tous ça mest égal, cqui vous pousse vous, cest la dalle Nous on est àl et on se les enfile tes balles Arrête de frimer Ton existence sera courte, si tu mpousses à la faute Jsuis obligé dprier Jai la vie sur écoute et Yahia sur les côtes Allez tous vous faire mettre Un 16 et j'fais le tour de la Terre, j'vous baise tous À l'aise Tu vas faire klawi, t'es trop guez et tu veux jouer les balaises, pousse ! This ain't a rap song, this is my life This ain't a rap song, this is my life This ain't a rap song, this is my life My life, my life, my life This ain't a rap song, this is my life This ain't a rap song, this is my life This ain't a rap song, this is my life My life, my life, my life Je suis dans un snuff movie, kho Je me vois caner en regardant mes yeux la sur a vu la, la mort parler Jveux être le plus vieux des papas gangsters Papi gangster, Arrière-Papi gangster En arrière fils de pute, j'suis prêt a tirer Agréé, a géré cest prématuré, kho Cest pas du rap man, là je texplique ma vie Cest vrai pour des marmots de frelons de kho moi je donne ma vie Peu importe le flacon pourvu que jen ai livresse Ma fe-meu, mes garçons, religion, ma délivrance Je sais qu'tu penses à m'haan, à m'jeter cette putain de France Tu doutes d'ma chance, t'es tributaire de la santé d'mon crew Les roses ce nest pas pour nous, nous cest izi neuf ze-dou Tes chichis sont relous, ici ça danse sur nos sons de loup Izi neuf ze-dou, zizi Don Milou', kho Mazalaza Sta ! This ain't a rap song, this is my life This ain't a rap song, this is my life This ain't a rap song, this is my life My life, my life, my life This ain't a rap song, this is my life This ain't a rap song, this is my life This ain't a rap song, this is my life My life, my life, my life Mesdames, messieurs, le show peut commencer Ce qui veut dire que le pe-ra français repose en paix Le game est truqué, les douilles sont prêtes oh lheure est grave J'mets mes couilles sur la table comme sel et poivre Je ne crois pas au mythe, croise nombreuses cliques de sodomites Droit au but augmente comme le baril de brut En direct live de la casse, de mon chenil de luxe Coté obscur, descendent de la famille de Luke La sape vient de Boulbi Co', jamais de matches amicaux Les déplacements se font en hélico, les soins sont paramédicaux Ton rap music vient pas des ténèbres, c'est lège Mes négros sont de mauvais élèves, célèbres Jsuis de la bombe, tu nas plus quà mallumer Jai le stress dun voyou plus un poil sur le caillou, hé Vouloir me fumer, niggas c'n'est vraiment pas gentil Calmez-vous jarrête bientôt le rap je vous le garantis This ain't a rap song, this is my life This ain't a rap song, this is my life This ain't a rap song, this is my life My life, my life, my life This ain't a rap song, this is my life This ain't a rap song, this is my life This ain't a rap song, this is my life My life, my life, my life1</t>
         </is>
       </c>
     </row>
@@ -3909,12 +3909,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>All Set</t>
+          <t>Haï</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Drapeau de Yoda le long de la grille Marche ou trépasse, le nom de ma vie Pour moi le monde c'est une petite ville J'ai des soucis, j'ai du bonheur, j'ai une petite fille Négro, pour toi c'est les tickets restos, mets pas le nez dans mon tajine J'baise la propriétaire, tu lèches la chatte à la voisine Vade retro, fils de putain des bois, tu veux quoi ? Que j't'assassine ? J'aurais du naître à l'époque des rois Mudjahidin J'ai voulu palper dans la farine Pourquoi m'enterrer avec du 24 carats dans les narines ? AK-47 adossés à chaque mur de la cabine Y'a des couteaux, des carabines, y'a de la 5amja, de la chabine Yeah, why these haters worried about what I'm sitting on Just know what I'm sitting, shitting on Pull up on a man, motherfucker, fully loaded We the only ones up 'til the early morning, we the only ones up 'til the early morning Anything going on, my niggas on it There's a lot of money out here and we really want it Yeah Remember when I once said Whatever we want, we put that work in and we gon' get it? 'Cause me and my niggas, we all set Monday to Sunday, 24 hours, no need to punch in Taureau sur l'écusson, érection comme en détention La seule solution que je les baise comme dans mes chansons Triste est le game, j'suis sur une single list Calibré jusqu'au menton tah Middle East J'suis el mucho, t'es little bit La prochaine fois qu'ils passent, vous leur dites dites Qu'ils ne feront pas long feu Moi le rap jeu, j'en fais ce que je veux Yeah, why these haters worried about what I'm sitting on Just know what I'm sitting, shitting on Pull up on a man, motherfucker, fully loaded We the only ones up 'til the early morning, we the only ones up 'til the early morning Anything going on, my niggas on it There's a lot of money out here and we really want it Yeah Remember when I once said Whatever we want, we put that work in and we gon' get it? 'Cause me and my niggas, we all set Monday to Sunday, 24 hours, no need to punch in5</t>
+          <t>Dubaï, Phuket, 47, pare-balles Attaque soviet, kolan get manmanw Machette Haïti, la vie est mal faite Faux cul, faux seins, tu es si parfaite Dieu merci, j'ai pris de l'âge, combien ont dead avant ? Grand Boucan, Bizoton, Chambellan, Marfranc Je dis je t'aime qu'à mes enfants, sinon j'le dis qu'rarement Tu veux mon cur, quel cur ? On va faire comment ? Gran nèg kap vòlè nan peyi m' jan yo vle Malere di yo grangou yo pran baton Jèn gason fini lekòl li ret chita Paskel' pat ka jwenn on kote poul' travay Jèn fi entre nan vann kò yo pou lajan M' tande yap konyen dyaspora san kapòt Se kòmsi mo SIDA pa menm fè yo pè Tèlman n'ap pase mizè nou vin pa kyè Lavi nou an danje Peyi nou AP koule Koko santi yo chita yap e ranse Pandan se tan , se pèp la ka pe soufri Se frè ak sè nou yo ka pe mouri Lamerik kanpe yo pa di yon mo Aprè y'ap vin di peyi nou se kaka Y'ap ban nou anbago y'ap ban nou dope Y'ap ban nou koudeta ban nou zoklo Y'ap trete nou kòmsi nou se bèt Yo konnen byen pami nou gen trèt Anpil nan nèg sa yo pa la pou pèp la N'ap reflechi konbyen yo vòlè la Pa vin dim' se nèg anba kap fè krim yo Tout moun konnen se nèg anwo ki boss yo Mache boule, Gaz station pran dife Rele ponpye pa gen dlo pou ponpe Dubaï, Phuket, 47, pare-balles Attaque soviet, kolan get manmanw Machette Haïti, la vie est mal faite Faux cul, faux seins, tu es si parfaite Dieu merci, j'ai pris de l'âge, combien ont dead avant ? Grand Boucan, Bizoton, Chambellan, Marfranc Je dis je t'aime qu'à mes enfants, sinon j'le dis rarement Tu veux mon cur, quel cur ? On va faire comment ? M' tande gen pale y'ap fout lonmen non mwen Bouzen santi yo paka fout fèm' anyen Zoeland s'on lame ou deja fout konnen Mantalitem' tout nèg avèm' se ginen Kote yo paka ale se la m' roule Katye sa gen danje se la poum' ale M' tande gen bandi nan zòn lan saaaaal Sèl sa nou wè se senatè k'ap fè zak Rale mikro nan bouch lòt fè makak Aprè sa se yo k'ap palem' de chanjman Vokabilè m' fè tèt yo fè yo mal Yo pi vit dim' soti nan gang lan Lwa ki sou mwen an li pa rezonab Mwen tande y'ap manjem' mwen di se domaj Sa ki sou mwen an li natif natal Edikasyon, fòmasyon nèg lakay Yo kitem' antre andan jwèt la saaaaaal Map najé map konye ma get la saaaaal Koko yo fache yo paka konprann mwen M' tande y'ap mete 20 000 sou tèt mwen Poukisa mezanmi sa m' fè nèg yo? Jalouzi y'ap fè, gyèt manman yo Menm siw' wè bagay yo tèt anba Mwen gen espwa yo pap rete konsa Je ne les aime vraiment pas, crois-moi, j'ai mille et une raisons Ni l'Amérique, ni la France, le sale mon lieu d'prédilection Je n'ai pas vu de panneau chance, d'abord, y a trop d'circulation Si rien n'a de sens, je vais dans toutes les directions Je vais dans toutes les directions Crois-moi, j'ai mille et une raisons La vie est mal faite Tu es si parfaite La vie est mal faite1</t>
         </is>
       </c>
     </row>
@@ -3926,12 +3926,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Roulé fort</t>
+          <t>Les derniers seront les premiers</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Yo vlé manjé mwen Moun yo vlé manjé'm lan kay la Yo vlé tié mwen Moun yo vlé manjé'm lan kay la Yo vlé manjé mwen, moun yo vlé manjé mwen Moun yo vlé manjé'm lan kay la Lambo, vanilla Ünkut, Chinchilla Maillot blanc, Coca, Bakel city... No negocia Nèg pa'm, yo tout sé pirat 9.2, map tiré pou sa Bloodclat, Wap tombé vite la Arrete ! Sispenn palé la Ou di ou ka fè li kan sa Posé, di boss ou m'di sa Bouzin, ou pa yan mafia kotex Wap acheté pou rad, sac... Next! Mouri pou chak patné Wap voyé caca Lan get ! M'pat konnen ou kan sa Silence, lé nou entré La puissance, yo wé fos nou la Alèze, lé ou wè m'ap fè sa Bel fanm, yo rinmin vi sa Jack nwa, fimin chicha Diamant lé ou cleopatra Le monde, sé pou les pirates Cresson, m'ap vann yo sa Pigeon démaské kò ou la Je suis un pirate validé Chak jou m'lévé, m'calibré Bouzin soti, fout alé Nèg yo rayi'm, ki mélé'm? Diamant vièj' pa chanjè'm Opérasion, fakilté'm Double R, Rosalie Little Haïti nou pa joué Le sac nwa c'est roulé, roulé Roulé fort, roulé fort, roulé fort Le sac nwa c'est roulé roulé Roulé fort, roulé fort, roulé fort Je les baise en mode étalon, Gato Bato, sa ka fèt Swag noir et marron, match le AK-47 Kolon get, kolon get, grosse chienne que l'on yèt J'ai beaucoup d'espèces levrette, colombe, hyène T'arrives le torse gonflé, tu repars en chaise J'suis entre quarante dièses, t'es entre parenthèses J'suis dans la surface pas dans les tribunes Noires sont mes tribulations Joint au bec'zer, or à chaque articulation Ma mère dit que j'suis joli garçon Quand j'sors d'ton fion, t'as l'fion en colimaçon Fuck leurs trophées, leurs nominations J'ouvre le coffre'zer, ils ont illuminations Le sac nwa c'est roulé, roulé Roulé fort, roulé fort, roulé fort Le sac nwa c'est roulé roulé Roulé fort, roulé fort, roulé fort Rolex, Delgado ! 9.2 Picasso Ünkut, magnifique, exotique, numéro uno Bouzin yo rinmin lé'm frapé'l c'est Kamasutra Nèg yo pa rinmin jan'm fè li, sé problèm pa yo Chak fwa yo wè mwen désenn, sé an lôt nouvo auto Nimpot' koté moun yo wè'm yo di Gato Bato Patnè ou déja fout konnen, mwen lan an lôt nivo Gangstè pa viv' lan Yo di sé pou ou démontré yo Koté'm sôti lan péyi'm gin' lò pou tout nèg yo Bandit kap fimin haschich lan la ri a kap vann yo Uzi mwen toujou avè'm mwen pa ka janm fout let go Bakel City entrépriz sé sèlmen euro euro Je suis un pirate validé Chak jou m'lévé, m'calibré Bouzin soti, fout alé Nèg yo rayi'm, ki mélé'm? Diamant vièj' pa chanjè'm Opérasion, fakilté'm Double R, Rosalie Little Haïti nou pa joué Le sac nwa c'est roulé, roulé Roulé fort, roulé fort, roulé fort Le sac nwa c'est roulé roulé Roulé fort, roulé fort, roulé fort10</t>
+          <t>Déchaîne les enfers... Aucun diplôme valable À ceux qui ssont faits tout seul dans les rues de leur ville, jpasse le salam Habitués au haram, ils ne se rappellent plus de leurs crimes Fuck les victimes, ils ne se rappellent plus de leurs cris Leurs valeurs ne sachètent pas, ils ne se rappellent plus de leurs prix Dans le 92, Hauts-de-Seine, beaucoup de lers-dea On a la meilleure camelote, mon pote, à ce que lon dit Le rejet, le mépris des colonies, cest ce que lon vit Ça laisse un goût amer, j'noublierai jamais Regarde-nous de travers et on t'nique ta mère Violent et vulgaire, nique sa mère Jai rien vu, rien entendu sur la vie d'ma mère Météore, jfais des cratères Dakar dans les artères Interdit aux bâtards, sur les traces de Shawn Carter Paire de Reebok Pump, mousqueton, blouson Starter Jeune délinquant, RER C, jmonte sur Châtelet Jugés pour des faits graves, moi et mes shabs on est més-cra On les brise, on les brûle, on les terrorise, on les fume, on les écrase Et les vrais négros le savent Concerts à guichet fermé sur bateau desclaves Faut bien que vous compreniez Javance rien à foutre, jai la tête pleine de billets Canon scié pour les numéros 1, fuyez, fuyez ! Les derniers seront les premiers2</t>
         </is>
       </c>
     </row>
@@ -3943,12 +3943,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>CAVALIERO</t>
+          <t>Le son qui met la pression</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Rim's on the b- J'ai souvent été trahi J'ai souvent été tra- Rim's on the b- J'ai souvent été tra- The beat J'ai souvent été trahi, en vrai, rien de nouveau Te dire à quel point je l'ai haï, frérot, j'ai pas les mots pas les mots Sois ma reine, je serai ton cavaliero J'ai fait que quelques millions c'tte année, j'ai l'moral à zéro J'vous laisse être amour, je suis la haine, jai détruit ton étoile, je suis la mienne Palace mieux que mansion, Fleury mieux que Fresnes Même si t'es calibré, vaut mieux que j'vienne J'suis au four, au moulin moulin, moulin Au moulin, ma tchoin saute le caramel, PGP branché, je te rappelle, coño J'suis sur des zones parallèles parallèles, ils ne nous invitent plus, ils disent qu'on va gâcher la fête Pourtant, c'est eux qui ont créé la bête, quelques sociétés, quelques dettes Elle croit qu'j'vais la rappeler, qu'est-c'qu'elle est bête T'as capté J'ai souvent été trahi, en vrai, rien de nouveau Te dire à quel point je l'ai haï, frérot, j'ai pas les mots j'ai pas les mots Sois ma reine, je serai ton cavaliero J'ai fait que quelques millions c'tte année, j'ai l'moral à zéro Si tu n'viens pas quand c'est la hess, tu n'viendras pas au Ritz Ne te plains pas de comment ta vie sonne si tu n'viens pas au mix t'as capté Prêt pour la troisième guerre, prêt pour l'épidémie Rafale de billets verts annonce une pluie d'ennemis Si t'es pas tombée love, t'as pas de goût Tchoin bat jamais l'boss de la fin du premier coup T'as pas l'bras long, ils t'fumeront au balcon, vont pas t'rater Potentiellement, j'peux toutes les hou-oh J'ai pas trop d'types, gros, t'as capté T'as capté J'ai souvent été trahi, en vrai, rien de nouveau Te dire à quel point je l'ai haï, frérot, j'ai pas les mots j'ai pas les mots Sois ma reine, je serai ton cavaliero J'ai fait que quelques millions c'tte année, j'ai l'moral à zéro2</t>
+          <t>Le son qui met la pression, garçon C'est l'oppressé contre la répression Y a plus d'maître ici, plus d'MC's Le son qui met la pression, garçon C'est l'oppressé contre la répression Ya plus d'maître ici, plus d' MCs Plus d'saisons, tant de raison dans mes récits Notre histoire au moins, j'espère qu'elle est pas trop triste à la fin Dans mon crew y'a foule et c'est la folie Qui l'emporte ouais, on dit, fait souvent n'importe quoi Du bruit comme un R1 sans pot, suis impoli J'nie devant l'daron, vis la nuit, ris devant le parrain C'est pas rose mais nique sa mère ici c'est Paris Pisse devant la barre, Hauts-de-Seine est mon nombril C'est la seule cicatrice qui mérite un nom Mériter d'être un homme avoir la force du nombre et faire qu'un Si tu en tues un tu sais bien qu'il en reste un Trop de tracas, offensives C'est le chant des civières, du 18 carats sur les gencives Le son qui met la pression, garçon C'est l'oppressé contre la répression Ya plus d'maître ici, plus d' MCs Plus d'saisons, tant de raison dans mes récits Le son qui met la pression, garçon C'est l'oppressé contre la répression Ya plus d'maître ici, plus d' MCs Plus d'saisons, tant de raison dans mes récits Alors comme cela on veut racailler Ma présence une menace pour les khattayes, mental de muay-thaï Guerrier en paix avec moi même, là où règne le KO La maille en a asservi plus d'un Coupables les fils de putes ne cessent de plaider Veulent salir nos pseudonymes, A-l-i, Booba Disent que Lunatic et criminalité sont synonymes Grillés pour une histoire de traits et de mélanine On nous endort mais ma croyance en l'au delà me réanime Ramène ma force pour ma famille, ma team, mes intimes 92 Infanterie Tous enfantés entre joies et douleurs Vois le monde comme une mauvaise plaisanterie, plaies, sang et corps meurtris Champs des sirènes, émeutes Cris et civières, civilisés On a l'art de la guerre et nos troupes mobilisés Des avants aux arrières soldats, nés pour mourir Rien ne sert de courir pendant le repos Me souviens des instants paumés Marche lame de rasoir à la mâchoire souvent dans l'trom Agresse avec le sourire, prêt à partir en martyr Faut qu' les bourreaux apprennent à souffrir C'est l'oppressé contre la répression Lunatic, Révolution Le son qui met la pression, garçon C'est l'oppressé contre la répression Ya plus d'maître ici, plus d' MCs Plus d'saisons, tant de raison dans mes récits Le son qui met la pression, garçon C'est l'oppressé contre la répression Ya plus d'maître ici, plus d' MCs Plus d'saisons, tant de raison dans mes récits Des raps sales comme mon argent et mon pécule à la que-ban Pour taffer ou pour dealer, partout y a la queue Vie crue, un vécu d'poissard Parmi les saï-saïs, les brassards, mon destin écrit sur du P.Q Anti-Pédés, pages entières pour une mort violente garantie Frères, ici c'est de-spee Horrifié parce que je récite l'illicite Kho Je suis une cuillère, du feu, une seringue et du citron Arrêtez de jacter, t'es un vrai gars, ouais Depuis hier, moi depuis mon premier K-way Tu t'adresses à qui ? À moi, Brahms ou Issakha ? À qui, moi ? Quand je suis né j'étais kaki Le son qui met la pression Ce soir, c'est pour Ferber, Pont-de-Sèvres et le Square2</t>
         </is>
       </c>
     </row>
@@ -3960,12 +3960,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Interlude</t>
+          <t>On m’a dit</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>La maturité, j'en ai peut-être peu J'm'en bats les couilles si t'aimes pas, en tout cas moi j'lui nique sa mère au tempo Sur scène ils s'dandinent, vivent pas comme des hommes Moi j'rime sans états d'âme j'défouraille comme dans Doom Animal galeux du Sénégal J'suis pas venu pour couiner, 92 100 pour ruiner Ma vie, c'est que des anomalies Pour ça que j'agis anormalement, trop haï mais VRAI J'suis un rat d'la jungle, j'danse sous la soukous et l'raï Sans cur avec les putes quand j'baise, leurs foufounes rayent Des nègres ont des clitos, certains c'est sûr, y a trop de mythos Nous, c'est violent, rap sous bédo Sans pitié comme l'amitié Incontesté, rap au Subutex et c'est comme ça quand on a gesté Les faux parlent des faux, putain leur mouvement est trop marrant Quand on représente, nous, c'est les frères beurs ou marrons Y a trop de belhani, ça met la haine, rien que ça couine C'est naze et quand j'arrive, ça sent la 3wina8</t>
+          <t>On m'a dit ton rap est fort, ton crew est dangereux Selmek on m'a dit pars, ici c'est dead mec J'suis venu pour l'titre, pour l'chèque Pour l'meilleur et pour l'pire, pas là pour rire Intouchable, tu peux qu'arracher mes stickers Et le style a bien la gueule d'un missile Stinger On m'a dit que j'avais le vice et la vertu Et que j'aurais peu d'ouvertures sans maison de disque Bouge pas ! On m'a dit rampe, joue pas les cro-ma J'suis venu en paix un 44 contre l'estomac On m'a dit qu'y avait de l'or et des lauriers Dehors la météo affiche Boob's le météore J's'rai pas la putain d'l'Etat, négro bientôt J'ouvrirai même plus leurs putains d'lettres On m'a dit d'changer des mots pour pas qu'les petits me suivent Pas grâce à moi qu'ils pensent à Tony devant leurs petits suisses On m'a dit oh ! T'es bon qu'à squatter les halls Et leur dernière vision sera un gun et un chauve On m'a dit pars pas sans leur montrer de quoi t'es capable, fais attention On m'a dit que lui, c'est un chaud On m'a dit oh ! Regarde ce qu'on fait pour de l'argent Mais ferme ta gueule m'a dit l'agent On m'a dit non, c'est trop sombre ça nous ressemble pas Mais quand j'arrive ils crient tous tout bas Booba On m'a dit rentre pas trop tard et fais tes devoirs J'ai dit ouais ouais, c'est la levrette qu'elles préfèrent, que le crime Paie frère Dans les oreilles 20 000 watts, le pays a mal Chirac m'a dit arrête pourtant j'lui ai que mis l'oigt-d On m'a dit Qu'est-ce tu veux faire quand tu seras grand ? Sans hésiter, je me suis retourné, j'ai dit Ben j'veux tout niquer Pourquoi j'suis mal chroniqué Eh oh ! j'ai les crocs, négro, j'suis venu faire mal, parole de Soninké Vous auriez dû m'laisser mes chaînes J'remplis chèques, barillés, bacs, schnecks, heureux si j'atteins la trentaine On a failli m'dire chien voilà ta paie On m'a dit je t'aime et je saigne j'ai dit je sais Artisanal C4 pour le D4, on m'a dit range-toi, fais des mômes, change On m'l'a dit cent fois On m'a dit d'changer des mots pour pas qu'les petits me suivent Pas grâce à moi qu'y pensent à Tony devant leurs petits suisses On m'a dit oh ! T'es bon qu'à squatter les halls Et leur dernière vision sera un gun et un chauve On m'a dit pars pas sans leur montrer de quoi t'es capable, fais attention On m'a dit que lui, c'est un chaud On m'a dit oh ! Regarde ce qu'on fait pour de l'argent Mais ferme ta gueule m'a dit l'agent On m'a dit non, c'est trop sombre ça nous ressemble pas Mais quand j'arrive ils crient tous tout bas Booba On m'a dit qu'c'était cain-ri, mais ça vient d'Paris des grands ensembles Du sang près des enceintes, un rap sans encens Un p'tit peu dansant, truc à l'arrache pour les scarlas Ancien ou pas, négro t'as l'âge de bouffer l'carrelage On m'a dit Ok si tu t'autocensures Nique ta mère ici c'est noir amer comme un café sans sucre J'm'infiltre, j'suis c'putain d'négro sans filtre Et j'téléphone sans fil, réveillonne sans huîtres On m'a dit d'passer du gramme au kilo à la tonne Fils de rester un bonhomme du berceau à la tombe Et on m'a dit c'soir c's'ra pas possible Ici c'est privé, vous êtes pas VIP vous faites tous flipper On m'a dit t'es che-lou dès qu'tu les baises tu les trouves re-lous C'est B2O du 9 ze-dou zoo On m'a dit d'changer des mots pour pas qu'les petits me suivent Pas grâce à moi qu'y pensent à Tony devant leurs petits suisses On m'a dit oh ! T'es bon qu'à squatter les halls Et leur dernière vision sera un gun et un chauve On m'a dit pars pas sans leur montrer de quoi t'es capable, fais attention On m'a dit que lui, c'est un chaud On m'a dit oh ! Regarde ce qu'on fait pour de l'argent Mais ferme ta gueule m'a dit l'agent On m'a dit non, c'est trop sombre ça nous ressemble pas Mais quand j'arrive ils crient tous tout bas Booba2</t>
         </is>
       </c>
     </row>
@@ -3977,12 +3977,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>La faucheuse</t>
+          <t>Mode avion</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Ouais kho j'te préviens Les vrais le savent très bien Viens j'te mets bien Tu te dis au top moi je crois que t'as du plomb dans l'aile Nous c'est du son halal pas égorgé au Gillette Mach 3 Ya toujours de quoi payer le baveux moyenâgeux, matrice numéro 22.1.20.02 Hauts de Seine grande classe Avant que le beat te tabasse, MC arrache-toi la putain de ta race On fait du biff nous Vous, sortez les mouchoirs, on vient fumer les spliffs et les mouchards Q.H.S... le rap c'est le carnaval oula wesh ? Y'a ceux qui lèchent et ceux qui avalent On sait pas jouer à part avec le feu Engagés on a la haine le flow AMG 9.2 MC t'es pas convaincu J'reste invaincu, indomptable tel un Camer T'es nul à chier, tu dégoutes sa mère Temps mort t'es venu l'acheter, tu suces mal mais t'as du goût Fissa mets du sky dans ma chicha Dans la jungle Booba a Jane donc Tarzan encule Cheetha Fais tourner l'disque, fais tourner l'shit Vite, en légitime défense dans l'illicite fils Les écus faut les mériter Dans c'biz tout l'monde se baise chacun a la bite dans l'cul en vérité Pas comme Nelly j'suis vraiment blessé Quand j'vois un frère le baggy baissé Au premier essai mince les pinces me gravent sur leur PC J'voudrais remercier mon EP, nique sa mère mon B.E.P Tu veux pas goûter nos bastos kho j'te préviens 9.2 qu'du bon matos les vrais le savent très bien Tu veux du hardcore ? Viens j'te mets bien À ceux qui sont morts ceux que j'aimais, ceux que j'aimais bien... Tu veux pas goûter nos bastos kho j'te préviens 9.2 qu'du bon matos les vrais le savent très bien Tu veux du hardcore ? Viens j'te mets bien À ceux qui sont morts ceux que j'aimais, ceux que j'aimais bien... J'écris des textes crus, fais peur au médecin légiste On est exclus, on existe pas, on résiste, nous C'est la rage qui nous mène en bateau J'prends l'industrie à quatre pattes, crache dans leur gâteau Pas de flashes pour nos clichés nous on s'lève juste pour pisser Le passé est masqué, l'avenir sera postiché Personne ne bouge, personne n'est blessé Prêt à agresser pour percer à la Jamel Debouzze Tu reconnais mon flow devant tant d'impostures Négro c'est nous on fait l'show, file de gauche côté obscur On va parchoquer la roue car elle ne tourne pas, c'est l'heure du partage Nique sa mère faire son paquetage Ne joue pas avec la rue car elle ne joue pas Où j'passe la zeb ne repousse pas J'ai glissé ma peine et mon insomnie dans la feuille à rouler Cagoulés on baise les poules et les poulets Le son qui fout les boules déboule en coupé sport tu peux pas t'louper Assieds-toi sur la boite six poupée Ma réalité tue, la fuir pue l'homosexualité Viens pécho dans l'9.2. si tu veux d'la qualité Tu veux pas goûter nos bastos kho j'te préviens 9.2 qu'du bon matos les vrais le savent très bien Tu veux du hardcore ? Viens j'te mets bien À ceux qui sont morts ceux que j'aimais, ceux que j'aimais bien... Tu veux pas goûter nos bastos kho j'te préviens 9.2. qu'du bon matos tout le monde le sait très bien Tu veux du hardcore ? Viens j'te mets bien La Faucheuse me donne des rencards mais j'suis toujours en retard J'en ai pas marre, la famille, les potes, les putes le gent-ar Moi j'rentre dans l'tas, pas dans l'train mais dans l'M3 Tu veux m'arrêter moi ? C'que tu vas déclencher ça craint On va t'péter le foie, les reins à chaque fois J'passe en caravane les chiens aboient mais ne mordent pas M'demande pas quel ange m'escorte, trop fort c'qu'y a dans l'mélange J'essaie d'mentir au désenchantement mais souvent c'est encore pire J'tire une autre taffe quand j'vois l'score On s'met dans la merde pour en sortir c'est hardcore B2O dans tes oreilles, qualité oseille Vis dans l'inégalité triste réalité Agis ça sert à rien d'lé-par Moi j'suis toujours en train d'bé-bar c'pays d'clébards Écoute mon son, prend ton pied avec la faucheuse Laisse rappeurs et rappeuses désossés sur la chaussée Tu veux pas goûter nos bastos kho j'te préviens 9.2 qu'du bon matos les vrais le savent très bien Tu veux du hardcore ? Viens j'te mets bien À ceux qui sont morts ceux que j'aimais, ceux que j'aimais bien... Tu veux pas goûter nos bastos kho j'te préviens 9.2 qu'du bon matos les vrais le savent très bien Tu veux du hardcore ? Viens j'te mets bien À ceux qui sont morts ceux que j'aimais, ceux que j'aimais bien... Kho j'te préviens, la faucheuse kho Si si, les vrai le savent très bien Panthéon kho, 92i injection Le son qui met la pression Les vrais le savent très bien3</t>
+          <t>La critical est bonne bonne bonne bonne bonne C'est mon médicament J'dois recompter la somme somme somme somme somme J'suis dans le bâtiment Je n'répond plus au folle folle folle folle folle J'suis en mode avion J'dois détourner des tonnes tonnes tonnes tonnes tonnes Comme un gros trafiquant J'ai mis le game à quatre pattes Ah ouais ! J'ai bosser comme un pakpak Ah ouais ! Ils manquait sur la puenta Ah ouais ! J'ai balafré le comptable Ah ouais ! La marchandise est caché dans le coffre de mon bolide allemand On vend la mort en sachet on fait le business pas propre ou illégalement Quand on tire on vise à distance Ah ouais ! Tu m'as trahi je suis distant Ah ouais ! J'ai toujours gardé la prestance Ah ouais ! Sur YouTube je suis en tendance Ah ouais ! J'fume la frappe j'écoute un son de Bob Marley, les schmitts sont de passage sa crie Ouais Ouais Ouais ! Le guetteur cire Arrah il faut cavalé, j'emballe le cellophané j'me barre à Kavalé La critical est bonne bonne bonne bonne bonne C'est mon médicament J'dois recompter la somme somme somme somme somme J'suis dans le bâtiment Je n'répond plus au folle folle folle folle folle J'suis en mode avion J'dois détourner des tonnes tonnes tonnes tonnes tonnes Comme un gros trafiquant Manque d'oseille maison dehors j'fait partir des savons J'étais pas un savant, j'étais pas fort au ballon On connais la chanson mais ils veulent m'emboucané J'fume un pétard avec chinoir, à la rue décaler Faut que je trouve un petit pour l'envoyé en mission J'vais pas bouger d'ici, j'suis entrain de ravitailler Le client me rend fou, j'ai envie de le baffer Le gérant à l'affut j'le vois pisté affolé J'ai pris le num d'une folle askip elle veut papoté Elle m'appelle pour le shit ou les billets colorés C'est peut être une condé, parano j'ai des idées Si demain j'me fait péter, j'vais prendre plus que 6 années Dans l'RS7 j'accélère les flics au cul J'écrit sur l'iPhone X un morceau et une instru Plaquette Arena, blindé que j'marche dans la rue Oh trou du cul, tu l'as fumé jusqu'au cul La critical est bonne bonne bonne bonne bonne C'est mon médicament, c'est m'ont médicament J'dois recompter la somme somme somme somme somme J'suis dans le bâtiment, et j'brasse à mort Je n'répond plus au folle folle folle folle folle J'suis en mode avion, j'fait que bombardé J'dois détourner des tonnes tonnes tonnes tonnes tonnes Comme un gros trafiquant, narcotrafiquanté</t>
         </is>
       </c>
     </row>
@@ -3994,12 +3994,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Kojak</t>
+          <t>POMPEII</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Hé, tu vois c'que j'veux dire ou pas ? Saddam Hauts-de-Seine, B2O Kojak, tu vois c'que j'veux dire ou pas ? Izi J'refroidis le game pour ces négros, j'ai flow glacial Les mains sales, j'suis trop bestial, trop bestial J'fais du gros, pas du détail J'arrive en vaisseau spatial, j'suis so special, so special Trois glaçons dans le verre de cognac Le caillou bien rasé à faire pâlir la mère de Kojak Brazza fume un cigare, Mala fume un six feuilles Je bouge la tête de haut en bas sur un air de G-Funk Frais depuis la ky-fun, pull Old River Cocktail Molotov dans la tronche du videur Putain de race humaine, gros taux de fils de putains Donc à proximité, j'ai toujours un flingue ou un surin J'aime bien régler mes comptes vite, fuck les dates ultérieures Sénégalais, convict, Dieu est mon supérieur Qui me réduira en cendres me transformera en phénix Loin des yeux, loin du cur, près des yeux, près de mon pénis On t'a vu arriver de-spee avec ton vice d'épicier Tu ferais mieux de glisser, mes officiers n'ont aucune pitié Tu peux te la jouer là-bas, mais te la raconte pas ici C'est pour mes négros de Boulbi à Little Haiti Pose le micro, ton droit de rapper a expiré Suce le cul du show-biz dix minutes sans respirer On sait que tu en es capable, négro tu peux le faire Ne t'en fais pas, miséricordieux est Dieu le Père Je n'avais aucune chance mais je l'ai saisie quand même 92 hardcore, souviens-toi de mes poèmes J'suis pas là pour chialer, te parler de mes problèmes No pain, no gain, j'me la fais belle au soleil Négro j'suis à-l J'suis à-l, ténébreux récital J'drague à Miami Beach, tu dragues à la piscine municipale Quand j'écris, j'fais mieux que Besson Originaire des Hauts-de-Seine, du son qui met la pression Tu perds ton temps à jouer à la console, poser des questions Va faire un tour dehors, chercher l'argent de la récession T'as j'veux dire ou pas ? J'aime pas travailler, même faire ma putain de promo' Puzzle de mots et de pensées dans ta putain de sono Ta copine est vraiment nne-bo, dis-lui que je suis chaud Dis-lui que j'suis tellement chaud que j'descends d'un singe bonobo Tu m'as vu au commico ou chez Michel Denisot Quand y'a plus rien à la radio, B.2.O. relève le niveau Tout ça pour dire pas grand-chose mais dis-toi que j'm'en bats les reins Tu kiffes pas, nique ta race, j'm'en bats le foie, le pancréas Sur ce, je m'arrache vers des jours meilleurs J'te refais le visage au cutter, t'as l'swag d'un agriculteur T'as pas de biff', t'as pas de gamos, t'as pas le câble Ici c'est Los Alamos, va te faire enculer par le diable Mes débuts dans des cavernes, le mouv' me regarde de travers Que le hip-hop français repose en paix, la chatte à sa mère J'refroidis le game pour ces négros, j'ai flow glacial Les mains sales, j'suis trop bestial, trop bestial J'fais du gros, pas du détail J'arrive en vaisseau spatial, j'suis so special, so special Trois glaçons dans le verre de cognac Le caillou bien rasé à faire pâlir la mère de Kojak3</t>
+          <t>Ah, DUC, DUC Ah, ah, ah, ah Jai d'jà assisté à la scène j'ai rien vu, rien entendu Jles laisserai tous morts dans la Seine j'ai rien vu, rien entendu Jécris la nuit, ça d'vient de lor devient de l'or Cur de rate-pi, j'me suis fait seul dehors seul dehors, ouh, ouh Et puisque la vie est une chienne est une chienne Et que le monde court à sa perte perte J'me lève sous weed, je fais le mort mort, mort Je canalise, laisse-les m'jeter des sorts sorts, sorts, sorts Le soleil, la promenade, les maudits, les bénis les maudits, les bénis J'suis couvert de ciment, Pompéi mon pays Pompéi mon pays Faut juste laccepter c'est tout, tu sais tu sais, un jour tout va sarrêter de tourner s'arrêter de tourner C'que j'retiens de Charlemagne de Charlemagne, du Débarquement du Débarquement C'est avertissement, travail avertissement, travail et comportement et comportement J'ai envie de mêler des grands-mères des grands-mères, leur faire du n'importe comment du n'importe comment Mes sentiments dans le désordre dans le désordre, pour elle, j'n'ai pas le temps pas le temps Les ténèbres ont pris le rrain-te, chez nous, le Diable fait des rodéos Incognito, vitres teintées, j'esquive les balles et la Mondéo En bordel, tout l'temps, je dois bombarder Calibré au volant d'mon navire piou, piou, piou, piou Les salopes ne font que plainter, alors qu'ça like toutes nos vidéos On baise ta mère depuis l'indé', avis d'tempête à la météo, eh Ils veulent ma vie, ils ont pas tort, j'allume mon spliff Calibré au volant d'mon navire Le soleil, la promenade, les maudits, les bénis les maudits, les bénis J'suis couvert de ciment, Pompéi mon pays Pompéi mon pays Faut juste laccepter c'est tout, tu sais tu sais, un jour tout va sarrêter de tourner s'arrêter de tourner C'que j'retiens de Charlemagne de Charlemagne, du Débarquement du Débarquement C'est avertissement, travail avertissement, travail et comportement et comportement J'ai envie de mêler des grands-mères des grands-mères, leur faire du n'importe comment du n'importe comment Mes sentiments dans le désordre dans le désordre, pour elle, j'n'ai pas le temps pas le temps J'finis par même dire que c'est la vie Capuché, j'ai fait l'tour du monde de ma ville de ma, de ma, de ma Nouvelle paire, je pars en guerre, c'est nous l'av'nir poc, poc, poc Calibré au volant d'mon navire poc, poc, poc, bye C'est la, c'est la vie J'ai fait l'time, j'l'ai fait Bye, bye, bye Faut juste te donner, tu le sais Un jour, tout va s'arrêter de tourner Comme au, comme au, volant, volant d'mon navire C'est la, c'est la vie3</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4011,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Fast Life</t>
+          <t>Sans ratures</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Izi, fast life T'as j'veux dire ou pas? 100-Ocho dans le building Héroïne, crack dans mon compte en banque, je pèse quelques kilos J'aime les gros derrières, c'est la faute à J.Lo Traîne avec mes gangsters, de Paname à Rio Fier, je sais pas quand me taire, poing levé aux JO Je fume que du bon bédo, jusqu'au mégot Ne porte que de vrais métaux, je suis un vrai négro J'écrivais mes textes dans le métro Les gyros à mes fesses dans le rétro 9.2 viens per-cho Ghetto millionnaire izi est ma Yayo 1, 2, 3 pour le seille-o Tournée mondiale comme Ryan et Ne-Yo Sorti de la street avec brio Mélodie des briques, je suis un griot 'Criminel' titre de ma bio Trouve-moi sur un yacht, me et ma biatch When your back's againt the wall Dos au mur Do you give up or keep going ? 100-Ocho If you never try it all Si t'essayes pas... Then you end up never knowing Tu vois c'que j'veux dire ou pas? Fast life La concurrence est dans le journal, mourante à l'hôpital As comme Frank Lucas, je prends la place aux Ritals Double poney dans le futal Mieux vaut m'avoir en photo que dans le vu-ca Aussi méchant est-il, pourquoi ? Maître Yoda, celle-ci est pour toi Hustler jusqu'à Que Marine Le Pen porte la burqa À quoi sert d'avoir vécu sans avoir vaincu ? Sorti de calèche, j'suis balèze comme ma sécu' J'erre dans les rues de Boulbi Chante l'été, fais du biff', j'suis cigale et fourmi Derrière lunettes Vuitton Louis J'ai tout vu rien ne m'éblouit Mais qui sont-ils vraiment, vous êtes qui ? B2O, Ryan Leslie, Izi When your back's againt the wall Dos au mur Do you give up or keep going ? 100-Ocho If you never try it all Si t'essayes pas... Then you end up never knowing Tu vois c'que j'veux dire ou pas? Fast life Hustling slow, trying to get the dough That's the way it go when you're living the fast life Yeah, yeah, yeah ! I said we hustling slow, trying to get the dough That's the way it go when you're living the fast life Yeah, yeah, yeah ! Aéroport de Miami, paré au top, c'est Lunatic fils Ma team ne compte plus ses victimes Mes ennemis tombent comme des quilles, bowling Un million cash, Vegas, all in Balling, gros bolides Bsahtou, partout je rentre en jogging Fast life, je fais le taff Je roule avec des pirates, faites gaffe When your back's againt the wall Dos au mur Do you give up or keep going ? 100-Ocho If you never try it all Si t'essayes pas... Then you end up never knowing Tu vois c'que j'veux dire ou pas? Fast life Fast life, fast cars Everywhere we go, they know who we are Savent qui on est Hood bitch, hood stars Ducking five-oh on the boulevard Si, si Fast life, fast cars Everywhere we go, they know who we are Hood bitch, hood stars Ducking five-oh on the boulevard Harlem, 100-Ocho4</t>
+          <t>Juste au micro, je te fais la misère Voici la pègre avec à bord mec, un nègre avec un beur Je tassure quon peut faire des battes avec d'la sciure Certifié sans ratures ni fausses blessures Oublie que tes un homme, mets-toi à genoux, tousse, écarte ton rectum Les pires humiliations, cest comme ça que lEtat nous sectionne Jaffectionne beat sanglant sans ratures ni fausses blessures Cest qui cet insolent ? Tétanos, Ness est la morsure Signer pour plaire, laisse pas ton cul en exemplaire Dicidens, Lunatic, cest Verbal Brolik posé sur le sampler Laisse leurs mères en pleurs, ya trop de sang sur nos vètes-sur Si ça prend de lampleur, qui paie les factures si je fais trop de fractures ? De cette époque où les jours se ressemblent Où pour monter faut que je leur ressemble, je ferai pas un succès sur ce genre de sample Moi je te réponds quon sait pas sucer Juste arracher la Sicile aux Italiens car mon compte courant part en sucette Et mes hassanets se barrent en courant Mon courrier écrit au bar, cest pour mes scélérats sous scellés De rouge, de noir et de vert Je suis fait de larmes de gloire et de fer, pas le temps pour les regrets, frère 10 degrés de plus si fallait le refaire Ta plaque nous fait ni chaud ni froid, jai ni frein, ni refrain, moi Je tassure quon peut faire des battes avec d'la sciure Dicidens, sans ratures ni fausses blessures Juste au micro, je t'fais la misère Nessbi Dicidens, sans ratures ni fausses blessures Je tassure quon peut faire des battes avec d'la sciure Certifié sans ratures ni fausses blessures Juste au micro, je t'fais la misère Nessbi Dicidens, sans ratures ni fausses blessures Jai c'putain de vécu qui tous les jours me colle à la peau Et on veut que je crache dessus comme si jallais me torcher le cul Changer de camp pour des écus, fous le camp ! Moi je fous le boucan, entre crépuscule et aube lair devient suffoquant Jentends Booba dire non, Nessbeal fait pas l'con Ça fout le bad, la daronne ma vu fumer des joints au balcon Rien de personnel à part quy a trop de zemels À 15 piges, pendant quinze mois, à cause dune pute, jai mangé la gamelle Rappeur criminel, sursis, les gosses sont comme Attila Ne pensent quà dealer, taffer impossible, nos mains sont comme mutilées 2000, jai vu même les pédés tirer au pistolet Curés pédophiles, faut les étrangler avec leurs chapelets Rien à faire à part pondre des textes sombres comme le temps Malgré le surnombre les miens encombrent la taule, ça devient inquiétant Scanner, capte la fréquence, fais-le sans faire de plaisanteries Sanguinaire délinquance, Famas pour braquer une bijouterie Ils ont dévalisé lAfrique, j'vais piner la France, rek La vie est franche, mec, dure, pas de demi-mesure La mélodie des briques que je débite en vrac fait peur Magie oblige, kho pour que ça se passe pépère Rue dans la peau Cest comme sil avait croqué deux pommes depuis que jai le mic dans la paume Mon Q.G. Boulogne, dôme de la boucherie Du coup jai beaucoup trop de crimes dans la bouche, kho Juste au micro, je te fais la misère Ya que pour pointer que je me lève à 10 h et mes nerfs sont restés coincés Entre le cerveau et lindex sur la gâchette Alors achète mon skeud que je marrache, retire mes billets à la machette Il a beaucoup neigé, décembre 1.9.7.6 Des flocons de coke sur leurs Duffle-coats, écoute celle-ci Juste au micro, je te fais la misère Nessbeal Dicidens, sans ratures ni fausses blessures Je tassure quon peut faire des battes avec d'la sciure Certifié sans ratures ni fausses blessures Juste au micro, je te fais la misère Nessbeal Dicidens Je tassure quon peut faire des battes avec d'la sciure Certifié sans ratures ni fausses blessures Nessbeal 3.12.942</t>
         </is>
       </c>
     </row>
@@ -4028,12 +4028,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Le météore</t>
+          <t>E.T.</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Du biff, du-du biff B.2 F.L.O.W nouvelle génération B2O, des milliers d'euros, ma rémunération Du biff, du-du biff Hein hein À l'affut du moindre écu, mon frère Si y'avait des bites par terre y'en a qui marcheraient sur le cul Prends mes lyrics par intraveineuse, escroc par habitude Paralysé par le bitume, toujours avec les khos Bleu blanc rouge triste décor Paris, la nuit les haineux, ma clique rien ne les émeut Ma clique rien ne les blesse, bâtard, mon son n'est jamais fouillé Quand il pleut on s'mouille, quand ça tire tu t'fais douiller, drah Y'en a qui trouve ça malheureux, ma parole ils comprennent pas C'est oeil pour oeil, ici l'aveugle est roi Quiconque me défie peu se méfie Au MIC tu fais flipper, mortel, t'es vilain comme N'Diefi Flingue à la ceinture le baggy tombe bien Alors négro tu fais moins le malin, 2, 3 balles dans les vértèbres hein Rouge est mon histoire, courte est l'existence Noires sont mes larmes, respiratoire est l'assistance Alerte au météorite c'est torride A peine entré dans l'atmosphère j'opère c'est horrible Alors les porcs voudraient me faire taire Menottes dans le dos genoux à terre, parce que j'milite, irrite, mes lyrics sont militaires OH F.L.O.W nouvelle génération B2O des milliers d'euros, ma rémunération Ni bronze, ni argent que de l'or, négro Dehors la météo affiche Boob's le météore Météorite en visu, panique dans le ciel De mon vivant j'verrai pas de négros aux présidentielles J'crois plus en grand chose, sans foi ni bif ma vie est fichue, osez M'enlever ces deux là sur la Bible, j'vais tout exploser Hé passe moi le micro, les clés du coupé Que j'parte au bout du monde chanter ma couleur, la France j'vais pas la louper En direct live de ma douleur, moi j'suis d'ceux qui en bavent 92i déambule entre cadavres et blessés grave J'arrête pas de pleurer mon peuple, la haine ça se cultive J'ai pas le choix, tu veux que je te dise l'esclavage, pire que la Shoah Faire couler des larmes de plomb, moi j'y arrive Nager le crawl parmi les grands blanc, loin de la rive Avant ils disaient que j'étais le diable, aujourd'hui j'suis populaire Un sagittaire avec un gun, je dépend d'un autre système lunaire Minuit c'est l'heure du crime, j'te baise comme Émile Louis Demande à Maza AKA Don Milouzi Alerte au météorite c'est torride A peine entrer dans l'atmosphere j'opère cest horrible Alors les porcs voudraient me faire taire Menottes dans le dos genoux à terre, parce que j'milite, irrite, mes lyrics sont militaires OH F.L.O.W nouvelle génération B2O. des milliers d'euros ma rémunération Ni Bronze, ni Argent que de l'Or, négro Dehors la météo affiche boob's le météore Tu connais la musique tu m'écoutes pas si tu m'aimes pas Tu te la pètes, fais de la peine, nous on te calcule même pas Numéro 10 on marque des buts Ils rêvent de ma chute fi-fi-fi-fi-fi-fi-fils de pute F.L.O.W nouvelle génération B2O des milliers d'euros ma rémunération Ni bronze, ni argent, que de l'or, négro Dehors la météo affiche boob's le météore Kho, C'est tout ce qu'il mérite Biatch Boob's le météorite 9.2 Si, si Alerte au météorite c'est torride A peine entrer dans l'atmosphere j'opère cest horrible Alors les porcs voudraient me faire taire Menottes dans le dos genoux à terre, parce que j'milite, irrite, mes lyrics sont militaires OH F.L.OW nouvelle génération B2O des milliers d'euros ma rémunération Ni Bronze, ni Argent que de l'Or, négro Dehors la météo affiche boob's le météore1</t>
+          <t>J'ai jamais fait la coupole, je connais les coupes gorge Les hall qui se transforment en Woodstock Les bavures, les keufs qui mettent des coups de crosse Du rap qui transpire la haine, sort d'un phone Un spliff, un fond de flash ma daronne A accouché d'un fils indomptable Sous ma capuche, c'est la grisaille, les petits parlent de flingue 16 ans j'écoute Flaque de Samples, je rêve d'une PW80 J'ai plus le temps ni l'envie de traîner dans mon tié-quar Faire le million avec le zetla c'est comme voir Diabi en G-Star C'est à l'ancienne, on y pense plus trop Tout comme les rêves brisés Surtout quand je vais mal, les soirs où je fais que tiser C'est pas qu'une impression, les études m'ont bien eu Pourtant dans mon vécu, y'a l'amour, la musique avant la rue Si ça sent le soufre, c'est que je connais les daronnes au parlu' Je vais pas te raconter mes conneries Ouais que mes parents n'ont pas su Pas de message pour mes surs, juste de l'alcool dans le foie J'emmerde le monde, donc ramène ta cité devant moi Je vais tous me les faire, je rappe comme personne J'attend pas de billets verts, mais en concert Ma voix c'est un compèt', j'ai pas déçu les frères Quelques potos en HP, quelques potos en zonzon Enfoiré j'suis l'enfant seul j'aurais pu gouter la pension Connerie sur connerie, j'suis many comme j'suis tony Si tu connais l'rap bah tu m'connais J'suis le plus connu des inconnu Comme Koma, j'rappe la rue, j'rap la vraie L'amertume qu'on va soigner au Jack Daniels Ha bah ouais, tu croyais quoi les alcooliques mélancoliques C'est la détresse du samedi soir Comme la jeunesse qui crame son shit Dans un petit square, on s'appauvrit On refait l'monde sous quelques bières On pleure nos frères, toujours en retard de la faute aux RER Y'a les potos qui d'viennent pères, les enterrements c'est embêtant Tu pleures le soir, plus lunatique qu'Ali et Booba en même temps Et le 7 janvier 2015 la France s'indigne Un jour ou l'autre ça va péter telles des grosses fesses dans un legging Et si les poulets m'questionnent, j'leurs dirai que je suis pour la paix Même si j'ai cramé la France lors de ma tournée d'automne Ça t'étonne j'parais sage mais passe à Paris Nord Respecté par les grands et par les braves Dans un phone mon son raisonne Demande à Askaan, H24 sur l'asphalte, on a fait l'tour du periph' De la funk à la radio, pas d'ceux qui basent la coke dans l'lavabo J'suis pas d'ceux drogué, paralysés, ouais qu'y en devienne parano Qui sont seuls avec leurs dettes, et qui s'font soulevé par la rue Ça t'amuse, mais c'est pas drôle On peut t'massé jusquà ce que t'appelles le SAMU J'passe le salut aux miens qui viennent me voir en concert J'fini Bleu Noir et les autres vont prendre l'eau Nager jusqu'en Angleterre, qu'est ce t'en dis ? J'fais du bon rap j'reste le même et j'suis gentil Ouais j'suis vrai dans mes paroles, indépendant comme Gandhi Sanka m'épaule, Laura et Flav sont pas très loin Ça fait 1 pour ma province, donc 2 pour mes parisiens Et on m'dit nique ça, envoie des rime sales J'ai toujours autant la dalle que quand j'péra avec Annisa ou Limsa J'passe au PM et j'mets un billet sur Bazire Car dans mes poches c'est l'bazar Et faut se mettre bien pour l'avenir Toujours une pensée pour Mickey au placard Ramener mon phrasé sur les ondes J'viens infiltré vos réseaux, n'ai-je pas raison ? Rapper mon malheur c'est mon domaine Dans la tristesse j'suis un taulier Mais j'suis qu'un homme, j'suis pas parfait Me parle jamais d'apogée Si tu participes à Bleu Noir tu fais avancer l'mouvement C'est la victoire de la musique, c'est pas qu'une histoire d'argent En gros, vous êtes mes producteurs C'est pour vous, c'est pour en bas C'est du bon rap qui restera toujours populaire Beaucoup trop de mesures de rage, et j'suis loin d'tourner la page Retourne à la rime au dessus Bleu Noir j'le ferai avec le cur, motherfucker ! Retourne à la rime au dessus Bleu Noir j'le ferai avec le cur...14</t>
         </is>
       </c>
     </row>
@@ -4045,12 +4045,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Si tu savais</t>
+          <t>Nouvelle école</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>100 moins ocho Tout ce que j'ai, je l'ai chié, j'ai taffé hard comme à l'usine Même au tard-mi, j'pète pas un fusible Dur comme un rocher, difficile à battre comme un gaucher Rap de boucher, résidus de crack dans la cuisine Hôtel de luxe, limousine Chez nous y a pas de mains aux fesses ni de wesh, wesh cousine J'parle beaucoup mais j'peux l'assumer Le seul moyen de perdre un ennemi est de le fumer Le finir au sol, bien l'enculer Pour ça qu'j'essaie de me retenir car lancé, j'peux plus reculer L.U.N.A.T.I.C, album écrit au placard Ça sent la Stan Smith, le trois-quart Rimes de haggar, flow de bâtard À l'écoute, tu sais qu'on traîne dans les halls, squatte à la gare On t'effraie, tu longes les murs, tu fais le crabe Au fond tu sais qu'on est frais mais tu fais s'hab Si tu savais, si tu savais Si tu savais, savais Si tu savais, si tu savais Si tu savais, savais Rares, mes res-frè sont mis en cause Oui, j'aimais errer dans maisons closes, distribuer mes doses Faire le tour de la coupole, bourbonné comme personne À part toi, qui le sait ? Personne ! Ma izi monnaie man, ma vie, c'est monnaie man Cherche pas l'homme, j'ai pas le temps, j'suis trop busy man Ils valent pas mieux qu'Averell, Jack, William, Joe Foireuse équipe de Dalton, laissez passer les mans pros, OK Tu reconnais ma zone, rappelle tes drones Que l'on converse en one-one, man J'suis ego trip, pas assez dans ton trip Lequel ? Je sais pas avant tu faisais déjà dans ton slip, pute J'suis authentique, toi tu jongles avec ta bite, pute T'es comme les flics, toi tu sais où j'habite, pute Si y a tminik, jiâana, ben toute ta clique pue Nous, c'est Brazza, B2O, Maza dans la zik chut Si tu savais, si tu savais Si tu savais, savais Si tu savais, si tu savais Si tu savais, savais Tellement c'est technique, tellement c'est technique Tellement elle est technique, tu ne sens même plus ta Gardons de bons rapports, j'suis physicien et physique J'prends les plus forts en corps à corps, les musiciens en musique En jachère, on te laisse le ter-ter Techniques de gangsters si jamais tu nous ché-cher C'est les ministères, c'est les militaires C'est pas la mer qui prend l'homme, c'est la guerre Tu m'as vu éméché, obligé t'hallucines Je garde la pêche, pas les péchés et ne courbe jamais l'échine J'fais comme en Palestine, comme les frères qu'on assassine Un peu d'Ovomaltine et c'est de la dynamite Arrête la zik, MC tu n'as pas d'équipe Ton flow est pathétique, MC tu n'as pas d'éthique On te re-nique, MC n'appelle pas les flics Si tu savais, si tu savais Si tu savais, si tu savais Si tu savais, savais Si tu savais, si tu savais Si tu savais, savais</t>
+          <t>Wesh Omar ! Finit les cauchemars DJ Bellek Ouais, ouais Eh yo ! moi j'rappe depuis peu, pour certains, j'suis encore p'tit J'peux t'dire que sur c'beat, j'commets des crimes La crim' dessine ta silhouette à la craie vrai mes rimes déciment Celui que personne ne console 1 000 et 1 kil de hi on consomme fuck c'qu'on nous destine Peu d'estime faut qu'j'kill dans tous les styles 1 000 et 1 plavants en avant toujours les mêmes J'parle plus, j'crache ma putain d'fumée par l'zen Qu'on m'épargne toute psychologie Un faux départ, une victoire, laisse-moi faire mon apologie Parti de zéro, sans toucher ni crack, ni héroïne Black j'ai vu c'que ça fait négro C'est mafé style, faut pas stagner Dis-leur qu'on taille, que la volaille n'est pas d'taille Mon initiale sur ma bague puis sur ta joue Parce que t'es naze et tu perces et tu t'la joues Mon rap t'attrape par l'col, nouvelle école Mes frères déconnent, nouvelle école Passe-moi la beuh qu'j'décolle, nouvelle école Mon rap t'attrape par l'col, nouvelle école Mes frères déconnent, nouvelle école Passe-moi la beuh qu'j'décolle, nouvelle école Je change tout, de cours, de classe, j'garde les mêmes fous Fous autant la merde jusqu'à New york zoo Mazalaza s'dit intello d'sa B.O. kho J'fais d'la bio rapologique comme B2O Faut qu'la nouvelle décolle Y'a une nouvelle école, plein d'vrais Bien frais, pour t'régler en français J'monte en scène, t'es offensé car même défoncé j'saigne J'ai l'rap 5 et j'suis plus zen Et vois plus de feintes de ceux qui m'sucent J'peine plus pour aller où j'veux, où j'peux Grâce à mon école mon neveu J'tiens les murs man, ma nouvelle école du 9.2. kho Mazalaza, malekal mon prof Mon rap t'attrape par l'col, nouvelle école Mes frères déconnent, nouvelle école Passe-moi la beuh qu'j'décolle, nouvelle école Mon rap t'attrape par l'col, nouvelle école Mes frères déconnent, nouvelle école Passe-moi la beuh qu'j'décolle, nouvelle école Ah vas-y ! Excuse ma courtoisie J'ai dû braquer l'hip hop, le move personne ne m'ouvre Essaie pas d'changer l'optique Tasse-pé joue mon son après minuit, oublie pas d'changer le p'tit Dans ma banlieue ça étudie, ça joue au foot un peu J't'ai pas tout dit, ça rappe, deale, se shoote un peu Faut les mettre, trop d'putes dans l'périmètre Pour les MCs périmés faut les mettres dans l'9mm C'est Lunatic, c'est catastrophique Ici c'est barillet, résine et bas-résille... J'rappe pas pour les p'tits, j't'avertis J'suis déconseillé comme avorter Et quand j'entends les sirènes, j'me rappelle que j'suis la cible J'repense au thon, à ma cage, aux films de la 6 C'est 1 pour la basse, 2 j'tabasse J'suis pas une légende moi j'traîne seul ou en bande J'vis en noir et blanc, j'en ai vu d'toutes les couleurs moi Donne l'or noir, beurs, noirs v'nus flinguer leurs lois J'dors pas, j'défouraille sans aboyer Nouvelle école Mon rap t'attrape par l'col, nouvelle école Mes frères déconnent, nouvelle école Passe-moi la beuh qu'j'décolle, nouvelle école Mon rap t'attrape par l'col, nouvelle école Mes frères déconnent, nouvelle école Passe-moi la beuh qu'j'décolle, nouvelle école Ha ha, ha ha ha, ha ha...! Attention! Nouvelle album, hiver 2005 Disponible chez ton armurier B2OBA, biatch ! Los halamos 9.2 Hauts-de-Seine, Hauts-de-Seine1</t>
         </is>
       </c>
     </row>
@@ -4062,12 +4062,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Plaza Athénée</t>
+          <t>Commis d’office</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Eh, oh, oh, oh Noxious, Noxious, Noxious Oh, oh Oh, oh, oh, oh J'rêve dun perso filtré mille fois dans le désert d'Essaouira d'Essaouira Baveux ma dit Ferme-la et ça ira Ça ira J'ai la mélo' facile comme Zaïrois Zaïrois T'es TF1, j'suis Al Jazeera Jazeera J'voulais faire un enfant à Elvira Elvira Cette pute prend trop de coke, on n'y arrive pas arrive pas En GT2 à fond sous sativa sativa Je représente, me représente comme Kabila Ils m'ont dit quavec le temps, haine et douleur allaient satténuer, ah ah Les yeux fermés, c'st le même noir au mitard quau Plaza Athénée, han, han han, han S'il y a un homm bien sur cette Terre, j'espère que tu l'rencontreras rencontreras Si tu es dans son cur même sil est dur, il te le montrera montrera Tequila sec comme El Chapo, pour elle, une grande margherita margherita J'envoie des piques de AstraZeneca Zeneca 's ont tout essayé, ça marche pas marche pas Y a qu'en fauteuil roulant qu'on marche droit Tu crois que rien ne va, rassure-toi rassure-toi, y a pas que toi pas que toi Qui vit au-d'ssus des lois n'a pas de roi pas de roi Violent que si j'n'ai pas le choix pas le choix Confonds pas Gomorra, La Jonquera Ils m'ont dit qu'avec le temps, haine et douleur allaient s'atténuer s'atténuer, ah ah Les yeux fermés, c'est le même noir au mitard qu'au Plaza Athénée, han, han han, han S'il y a un homme bien sur cette Terre, j'espère que tu l'rencontreras rencontreras Si tu es dans son cur même s'il est dur, il te le montrera montrera Ils m'ont dit qu'avec le temps que les douleurs allaient s'atténuer, s'atténuer, s'atténuer2</t>
+          <t>ZalazaSta, kho click ! B2O BA, kho click ! Kho ! Kho ! B2O Click, BA, click ! Yo ! Pour tous ces mal appris, moi la zik j'l'aime à la vie J'ai pas de mal à lui donner, après chaque maladie, y aura exil en Malaisie Malashnikov, en main cocktail malatov T'as 20 secondes pour prendre ce que Mala t'offre Pas de cadeau m'a fait la vie J'aurai bien voulu bouger au Guatemala ou en Asie J'ai la maladie du biz ! Du biff il en faut plus que dans mon saladier, tu kiffes, qu'on se le dise ! Comme tout le monde le summum j'vise Brise ceux qui m'privent de ma cerise, j'contrôle l'analyse Pas le temps de jouer faut qu'on se casse Kho ! Mais donne mon dû avant que je trace Kho ! Mo click ! MazalazaStatic ! Ils veulent tous percer, trop peu aiguisent leurs lames Maitrisent leurs armes, trop déguisent leur âme Au dessus des lois, violent à ma guise kho Que Marianne me suce la bite qu'elle ne me fasse pas la bise kho J'écris mes textes les doigts dans la prise Petit, cherche pas à savoir si j'prie ou si j'tise Trop frelon, 400 ans c'est trop long C'est pas la mer qui prend l'Homme, c'est Christophe Colomb Comme dans le cul à J-Lo, ces fils de putains nous l'ont mises kho Quand la première galère a pris l'eau J'atteste qu'il est unique, que ma race sert de crash-test Déraciné, ma terre est sous mes baskets Hein, le sujet me tient à cur Mets du coco dans la fusée, j'emmène mes frères et surs Dépouillés en toute impunité, trop abusés kho Alors on fait du fric sale essaie de s'amuser J'ai la nuque du rap sous mon aisselle Le biz est plié on l'étouffe allez tous vous rhabiller Monte à bord du B-52, touche pas au klaxon J'consomme, pose mon 16 avant que le me-se m'assomme Mon son n'a rien de banal Négro j'ai peur de venir à ta radio, glisser sur une peau d'banane M'ouvrir le crâne sur le bitume, timal L'important c'est pas la chute, mais les thunes qu'il y a au final Je sais que t'aimerais me descendre, tends l'oreille pour me détendre Claque de l'oseille, j'attaque pour me défendre Monsieur l'agent c'est qu'un malentendu Parait que ça a tiré mais j'ai rien entendu moi, j'ai la voix grave car on m'a pendu Négro personne n'a attendu leur aide, si tu t'es vendu, t'es dead, on est al y'a pas de hasard La brousse comme édifice B2O, commis d'office et Mazalaza Que Dieu me pardonne Ça ferait désordre si sans ça je quittais ce monde de fous Et oui on s'arme comme tous ces connards zonent On est livrés au spliff Seul notre art trône À la plus haute place et les rats grognent Comme des pitts enragés de nous voir tous manger, rangés Enfin vengés d'histoires plein de danger Jamais tranché par une foufoune aux mèches branchées mon crew Que l'on nous pardonne, d'avoir la pêche au mic Faire pleurer le faux au point qu'il faut qu'il sèche ses Nike Wesh wesh, parait que mon flow te laisse en dèche mec Faut que tu me pardonnes, je suis là juste pour la fraîche et le stress On teste ma trique comme le reste de ma clique Faut qu'on s'offre le clac clac et les soi disant blacks s'évanouissent Combien nous suivent parce qu'on est plus quand on glisse ? C'est VIP style, faut qu'on nous le pardonne de destruction massive, j'me Kho ! présente Kho !, j'assure B2O, mort à la suite de mes blessures Le son qui passe aux assises Dur plein aux as, grosse caution, grosse benz grosses liasses C'est la patate, sous l'durag et l'bandeau Me serre pas dans tes bras, j'ai les couteaux de boucher dans le dos On sort un skeud et ça se bouscule, c'est de la came pèse-la La vie est une grosse pute alors baise-la Ha ha ! Big hit pourtant j'ai ralenti le shit 1.0.0 moins 8, Z double zéro Commis d'office, Cruel On fait du nessbi, du textuel, beaucoup d'MC naissent bissexuels B2O...Mazalaza...BA B2O... kho click ! ...BA Commis d'office Khaza, Mazalaza Static !,beaucoup d'MC naissent bissexuels Kho ! Je sais que t'aimerais me descendre, tends l'oreille pour me détendre Claque de l'oseille, j'attaque pour me défendre Kho ! Monsieur l'agent c'est qu'un malentendu Parait que ça a tiré mais j'ai rien entendu moi, j'ai la voix grave car on m'a pendu Négro personne n'a attendu leur aide, si tu t'es vendu, t'es dead, on est al y'a pas de hasard La brousse comme édifice B2O, commis d'office et Mazalaza Cli-Cli-Cli...Click ! Tiekson ! B...2OBA, kho click ! ZalazaSta Za... khaza... kho, BA, Big! Big ! Big ! Kho ! Kho !2</t>
         </is>
       </c>
     </row>
@@ -4079,12 +4079,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>92 Izi</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Glock .17, j'en prends soin Glock .17, j'en prends soin Ça s'voit qu't'es une grosse putain, que t'es clitoridien Toujours sur mon 31, le sale, mon quotidien J'ai matché avec tchoin, tchoin, tchoin, j'ai swipé sur la gauche, eh Glock .17, j'en prends soin, j'ai ridé toute la noche Combien d'bouteilles à la mer échouées dans des eaux mortes ? Ça va, ça va pas, pas du genre à frapper aux portes non, non Attiré par le vide si je restais au bord Ils m'ont attrapé en Afrique, m'ont forcé à marcher au Nord C'navire n'est pas sûr de rentrer, t'ferais mieux d'rester au port Comprends qu'c'est pas un jeu quand tu peux plus r'monter au score Tu vas rien faire, tu peux rien faire, cousin, tu sais très bien Niquez-vos-grands-mères.fr, tiens, c'est le lien J'vais pas tarder à y aller, attendu par les Raëliens Grigris sénégalais, quelques drones israéliens Remballez, remballez, remballez, eh, vous n'valez rien Remballez, remballez, remballez let's go Ça s'voit qu't'es une grosse putain, que t'es clitoridien Toujours sur mon 31, le sale mon quotidien J'ai matché avec tchoin, tchoin, tchoin, j'ai swipé sur la gauche, eh Glock .17, j'en prends soin, j'ai ridé toute la noche Niggas claiming to be saal, but they don't know the nwaar Started with a fourchette in the traphouse cooking raw Bitch, I'm from Fontamara, I never knew my dad, hey That mean I'm a bastard, I will kill you when I'm hungry My bouzin say I fuck good, but I'm better with the AK Girls, I'm in the Chevy, hunnid right next to me posey Kolan get manman'w, Lil bouzin, to me you know danger Leave holes in your face, your chest, your back, 'cause I don't shoot straight Niggas always talkin' shit, I pay that shit no mind Always on the grind, start to focus, it's to stack it up stack it up An alé, an alé, an alé, an al fè kob let's get it Go get it, go get it, go get it, bitch Don't be no duck Ça s'voit qu't'es une grosse putain, que t'es clitoridien ça s'voit Toujours sur mon 31, le sale mon quotidien toujours, oh J'ai matché avec tchoin, tchoin, tchoin, j'ai swipé sur la gauche, eh swipe Glock .17, j'en prends soin, j'ai ridé toute la noche Fly, toute la noche J'vais rider toute la noche Fly, toute la noche Fly, fly, fly Glock .17, j'en prends soin En fait, c'est quoi qu'tu piges pas ? Va niquer tous tes morts Surfe sur des vagues de kichta comme à Hossegor3</t>
+          <t>Ouais, ouais Si, si Tout le monde s'écarte, je dé-dé-débarque 9.2 dramatique barque, j'distritribue des-des baffes Contrôle d'identité montre-montre nous tes fafs La-La-La chatte à ta grand mère, la g-la grosse biatch C'est 92izi, on s'en bat les couilles du rap Tiens ta langue, man, take it easy Y a pas de balance ici, né-né-négro Hauts-de-Seine illicite, on veut pas voir la police ici C'est 92izi, on s'en bat les couilles du rap Tiens ta langue, man, take it easy Y a pas de balance ici, né-né-négro Hauts-de-Seine illicite, on veut pas voir la police ici Mon-Mon 92izi Kho nos techniques sont trop frénèzes, M.C. tu veux pas clam's comme Eazy-E Attendez que ma clique vous baise, mais n'attends pas que les flics te lèvent Mets toi à l'aise kho, vas-y vite, prend ton biff, baise ailleurs car ici c'est trop guez-mer Touche pas à mon 9.2 bizi, ici c'est 92izi Pour les reufs de téci, Maza maitrise le uzi Bousille sans soucis, se rempli le gosier pour eux Envois les faux sous terre pour eux, pour moi il faut se taire renoi Balance ta maille, ton spliff ou ton verre de sky Tous tes fans sont mythomans, rien à voir avec nos hooligans Tu recherches la qualité dans le 9.2 c'est izi Touches pas a leur putain de cam, écoutes dans mon 9.2 uzi Izi, izi, izi Featuring los halamos pour leurs femmes hein ? Tu veux venir teste à la source dans le 9.2 ? C'est izi D'mand' Maza, I2S, B2O ou Brazamizi Allez quitte ici man ! Arrête tes chichi man ! Ta cha-chatte mouille quand je groove sur la zi-zik man ! Sois pas si pathétique, file, nous on aime pas tes tics Malaza black mythique, fumeur de flashs et d'sticks En vrac 92izi, je vois que t'as compris Ici c'est les Simpsons OJ rempli de sunsilk Qui se pointent à l'abordage, bordel les caves ils sont trop nazes Ça suinte fils il est temps de tourner la page C'est 92izi, on s'en bat les couilles du rap Tiens ta langue, man, take it easy Y a pas de balance ici, né-né-négro Hauts-de-Seine illicite, on veut pas voir la police ici C'est 92izi, on s'en bat les couilles du rap Tiens ta langue, man, take it easy Y a pas de balance ici, né-né-négro Hauts-de-Seine illicite, on veut pas voir la police ici J'organise un casting pour tous les rappeurs pour faire un film de boules Laisse tomber la paix KO2P te laisse KO debout Depuis mes débuts les MCs sont trop sexy je les excise Pour qu'ils arrêtent de jouir, n'arrêtent jamais de fuir Dans mon équipe jamais de fuites, n'estime jamais de flics Enfer sur terre, paradis fiscal, ma rage est vitale Selon mes calculs si j't'encule bien, c'est minimum l'hernie discale Musicale overdose j'vois la vie en rose dans mon verre de cristal Retiens bien mes initiales le 9, le 2, izi Tiens ta langue man, take it izi Officiel toujours en biz mon logiciel a buggé trop tôt Ma devise depuis Adam et Eve poto c'est marche ou crève Izi, izi, izi Izi, izi, izi, izi Izi, izi, izi Izi, izi, izi, izi C'est qu'on connait rien, nous, nous tôt dans l'echec on sombre Je crois que c'est clair dans les études ou dans les stups, on tombe Souvent des ffons-bou qu tiennent les diez du bon bout Dans les halls et si ça cesse, sans aucun doute finissent au bois de Boulogne Ici l'homme 92i2S, si, si Izi hors normes, y'a que des bonhommes comme Brazamizi Nous signer sur ton label serait une saisie énorme 92 Injection, mon illicite semi-remorque Les remords suscitent le suicide Dans le cul je mords alors sans me poser de question en restant lucide Auteur de méfaits que jamais ils n'élucident Nocifs on nous arrose de balles comme du pesticide C'est 92izi, on s'en bat les couilles du rap Tiens ta langue, man, take it easy Y a pas de balance ici, né-né-négro Hauts-de-Seine illicite, on veut pas voir la police ici Kho ! Laquelle de ces MC a voulu tester Eh les mecs ! Si vous aimez pas, allez vous faire enculer2</t>
         </is>
       </c>
     </row>
@@ -4096,12 +4096,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Izi Life</t>
+          <t>Ouais ouais</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>This ain't a rap song, this is my life This ain't a rap song, this is my life This ain't a rap song, this is my life My life, my life, my life This ain't a rap song, this is my life This ain't a rap song, this is my life This ain't a rap song, this is my life My life, my life, my life Paris a du flouze, ses rappeurs ont le blues Izi à laise dans le 92, parce quon les baise tous Négro tu déconnes, on fait du biff, ten fais des tonnes Viens par ici jai-jai de la bonne, de celle qui nous blesse tous On vit tous dans l'illégal, alors passe-moi mon cash avant la fin du bal Si c'que tu nous caches est rectal, écarte les fesses, tousse Venez tous ça mest égal, cqui vous pousse vous, cest la dalle Nous on est àl et on se les enfile tes balles Arrête de frimer Ton existence sera courte, si tu mpousses à la faute Jsuis obligé dprier Jai la vie sur écoute et Yahia sur les côtes Allez tous vous faire mettre Un 16 et j'fais le tour de la Terre, j'vous baise tous À l'aise Tu vas faire klawi, t'es trop guez et tu veux jouer les balaises, pousse ! This ain't a rap song, this is my life This ain't a rap song, this is my life This ain't a rap song, this is my life My life, my life, my life This ain't a rap song, this is my life This ain't a rap song, this is my life This ain't a rap song, this is my life My life, my life, my life Je suis dans un snuff movie, kho Je me vois caner en regardant mes yeux la sur a vu la, la mort parler Jveux être le plus vieux des papas gangsters Papi gangster, Arrière-Papi gangster En arrière fils de pute, j'suis prêt a tirer Agréé, a géré cest prématuré, kho Cest pas du rap man, là je texplique ma vie Cest vrai pour des marmots de frelons de kho moi je donne ma vie Peu importe le flacon pourvu que jen ai livresse Ma fe-meu, mes garçons, religion, ma délivrance Je sais qu'tu penses à m'haan, à m'jeter cette putain de France Tu doutes d'ma chance, t'es tributaire de la santé d'mon crew Les roses ce nest pas pour nous, nous cest izi neuf ze-dou Tes chichis sont relous, ici ça danse sur nos sons de loup Izi neuf ze-dou, zizi Don Milou', kho Mazalaza Sta ! This ain't a rap song, this is my life This ain't a rap song, this is my life This ain't a rap song, this is my life My life, my life, my life This ain't a rap song, this is my life This ain't a rap song, this is my life This ain't a rap song, this is my life My life, my life, my life Mesdames, messieurs, le show peut commencer Ce qui veut dire que le pe-ra français repose en paix Le game est truqué, les douilles sont prêtes oh lheure est grave J'mets mes couilles sur la table comme sel et poivre Je ne crois pas au mythe, croise nombreuses cliques de sodomites Droit au but augmente comme le baril de brut En direct live de la casse, de mon chenil de luxe Coté obscur, descendent de la famille de Luke La sape vient de Boulbi Co', jamais de matches amicaux Les déplacements se font en hélico, les soins sont paramédicaux Ton rap music vient pas des ténèbres, c'est lège Mes négros sont de mauvais élèves, célèbres Jsuis de la bombe, tu nas plus quà mallumer Jai le stress dun voyou plus un poil sur le caillou, hé Vouloir me fumer, niggas c'n'est vraiment pas gentil Calmez-vous jarrête bientôt le rap je vous le garantis This ain't a rap song, this is my life This ain't a rap song, this is my life This ain't a rap song, this is my life My life, my life, my life This ain't a rap song, this is my life This ain't a rap song, this is my life This ain't a rap song, this is my life My life, my life, my life1</t>
+          <t>Chaque fois qu'on passe devant ton bloc, dis-moi pourquoi tu louches ? Ouais ouais Tu parleras moins avec un Glock dans la bouche Ouais ouais Glock dans la bouche Glo-Glo-Glo-Glock dans la bouche Je sais pourquoi t'as peur re-noi, c'est des grosses tunes que tu me dois Ouais ouais En plus t'es sur messagerie depuis des mois Ouais ouais Messagerie depuis des mois Ouais ouais Me-me-me-messagerie depuis des mois On vit en marge parmi le crack, le hash, on veut du gros cash On prend le train en marche, on t'mets des grosses baffes Aucune attache à part les bracelets en totale paranoïa J'ai rêvé d'buts de kilos d'coke comme Maradona Tout ça pour t'dire, que le rap c'est mon domaine, man J'ai les dents longues, poils hérissés comme un doberman Dis à la République qu'elle peut se mettre des doigts, ah J'ai pour habitude le non-respect des lois J'ai demandé ma route au mur, il m'a dit d'aller tout droit Si un sale flic bafoue mes droits, click, je le foudroie Si un jour j'devais égorger un porc, j'mettrais des gants par hygiène Molotov sont les cocktails, ceinture de feu Parisienne Tout le plaisir est pour moi quand ça défouraille sec Quelques fois la victoire est fatale au vainqueur de la bataille, frère Les désespérés n'ont pas de seconde chance frérot B2O-Tyer unis comme l'otarie face aux requins blancs Les keufs nous aiment pas, comme le pilon caché dans les chaussettes Vraiment cons ces chiens qui trouvent pas un nichon dans un pipe-show, OK, c'est chose faite Mais j'ai l'droit à mon coup d'fil comme dans les films Le baveux débarque, me sort d'ici et j'm'arrache devant les vils-ci OK, j'trouve mon inspi' dans c'que t'essaie de fuir OK, M.C. trop vrai pour que j'me travestisse Tire pas dans le gilet si tu souhaite pas que j'me r'lève Mes cicatrices me rappellent que mon passé n'est pas un rêve Chaque fois qu'on passe devant ton bloc, dis-moi pourquoi tu louches ? Ouais ouais Tu parleras moins avec un Glock dans la bouche Ouais ouais Glock dans la bouche Glo-Glo-Glo-Glock dans la bouche Je sais pourquoi t'as peur re-noi, c'est des grosses tunes que tu me dois Ouais ouais En plus t'es sur messagerie depuis des mois Ouais ouais Messagerie depuis des mois Ouais ouais Me-me-me-messagerie depuis des mois De toute ma vie devant les buts à attendre la passe décisive Menotté, dé-menotté, multi-récidiviste En interview ou sur scène, B2O toujours soigné Les négros ont la haine, j'ai le prix d'une Clio sur le poignet Si t'as l'espoir de me fâcher, de me clasher Dieu te pardonne J'ai un gros Smith Wesson tout noir prêt à cracher Tout l'monde prend le micro, s'prend pour Capone J'te jure, ils ont juste arraché quelques vieilles, brûlés quelques voitures Les rancunes ne meurent jamais, elles sont juste endormies Je ramène le cauchemar des colonies pour du cash monnaie Ah ouais Ils descendent casqués pour gazer la squée-mo Fallait p't-être agir en brûlant l'véhicule à Sarko' Mais rien à foutre d'eux, c'est le Bled qui... Gros, pour ceux qu'avoue, guette la recette go, scavoot sur la béquille Traités comme des meurtriers sans remise de peine La seule chose qu'ils aient pu descendre, c'est p't-être nos poubelles Chaque fois qu'on passe devant ton bloc, dis-moi pourquoi tu louches ? Ouais ouais Tu parleras moins avec un Glock dans la bouche Ouais ouais Glock dans la bouche Glo-Glo-Glo-Glock dans la bouche Je sais pourquoi t'as peur re-noi, c'est des grosses tunes que tu me dois Ouais ouais En plus t'es sur messagerie depuis des mois Ouais ouais Messagerie depuis des mois Ouais ouais Me-me-me-messagerie depuis des mois Maintenant que t'as banane, me dis pas que tu balnave T'es tricard sur tout Paname, mais tu crois te la faire pénard, gros J'ai rien d'un veinard, chez, nous tout est vénal On s'casse de la scène du crime, à daveux sur un V-Max Ouais ouais, c'est bien du rap de sale nègre Welcome to the jungle QHS notre planète Boulets aux pieds Izi j'remonte la pente J'incante la street ses disciples, j'rentre direct dans l'top 50 Ouais ouais Oui oui si si Bi bi biatch Ha ha Tu parleras moins avec un Glock dans la bouche Glo-Glo-Glo-Glock dans la bouche1</t>
         </is>
       </c>
     </row>
@@ -4113,12 +4113,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Haï</t>
+          <t>100-8 Zoo</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Dubaï, Phuket, 47, pare-balles Attaque soviet, kolan get manmanw Machette Haïti, la vie est mal faite Faux cul, faux seins, tu es si parfaite Dieu merci, j'ai pris de l'âge, combien ont dead avant ? Grand Boucan, Bizoton, Chambellan, Marfranc Je dis je t'aime qu'à mes enfants, sinon j'le dis qu'rarement Tu veux mon cur, quel cur ? On va faire comment ? Gran nèg kap vòlè nan peyi m' jan yo vle Malere di yo grangou yo pran baton Jèn gason fini lekòl li ret chita Paskel' pat ka jwenn on kote poul' travay Jèn fi entre nan vann kò yo pou lajan M' tande yap konyen dyaspora san kapòt Se kòmsi mo SIDA pa menm fè yo pè Tèlman n'ap pase mizè nou vin pa kyè Lavi nou an danje Peyi nou AP koule Koko santi yo chita yap e ranse Pandan se tan , se pèp la ka pe soufri Se frè ak sè nou yo ka pe mouri Lamerik kanpe yo pa di yon mo Aprè y'ap vin di peyi nou se kaka Y'ap ban nou anbago y'ap ban nou dope Y'ap ban nou koudeta ban nou zoklo Y'ap trete nou kòmsi nou se bèt Yo konnen byen pami nou gen trèt Anpil nan nèg sa yo pa la pou pèp la N'ap reflechi konbyen yo vòlè la Pa vin dim' se nèg anba kap fè krim yo Tout moun konnen se nèg anwo ki boss yo Mache boule, Gaz station pran dife Rele ponpye pa gen dlo pou ponpe Dubaï, Phuket, 47, pare-balles Attaque soviet, kolan get manmanw Machette Haïti, la vie est mal faite Faux cul, faux seins, tu es si parfaite Dieu merci, j'ai pris de l'âge, combien ont dead avant ? Grand Boucan, Bizoton, Chambellan, Marfranc Je dis je t'aime qu'à mes enfants, sinon j'le dis rarement Tu veux mon cur, quel cur ? On va faire comment ? M' tande gen pale y'ap fout lonmen non mwen Bouzen santi yo paka fout fèm' anyen Zoeland s'on lame ou deja fout konnen Mantalitem' tout nèg avèm' se ginen Kote yo paka ale se la m' roule Katye sa gen danje se la poum' ale M' tande gen bandi nan zòn lan saaaaal Sèl sa nou wè se senatè k'ap fè zak Rale mikro nan bouch lòt fè makak Aprè sa se yo k'ap palem' de chanjman Vokabilè m' fè tèt yo fè yo mal Yo pi vit dim' soti nan gang lan Lwa ki sou mwen an li pa rezonab Mwen tande y'ap manjem' mwen di se domaj Sa ki sou mwen an li natif natal Edikasyon, fòmasyon nèg lakay Yo kitem' antre andan jwèt la saaaaaal Map najé map konye ma get la saaaaal Koko yo fache yo paka konprann mwen M' tande y'ap mete 20 000 sou tèt mwen Poukisa mezanmi sa m' fè nèg yo? Jalouzi y'ap fè, gyèt manman yo Menm siw' wè bagay yo tèt anba Mwen gen espwa yo pap rete konsa Je ne les aime vraiment pas, crois-moi, j'ai mille et une raisons Ni l'Amérique, ni la France, le sale mon lieu d'prédilection Je n'ai pas vu de panneau chance, d'abord, y a trop d'circulation Si rien n'a de sens, je vais dans toutes les directions Je vais dans toutes les directions Crois-moi, j'ai mille et une raisons La vie est mal faite Tu es si parfaite La vie est mal faite1</t>
+          <t>J'écris pas d'douceurs, p't'être parc'que j'vis dans la haine Même si j'y mets tout mon cur, sans veine, trop d'peine Trop d'traîne, d'engraine, un flow d'graines de merde Et pendant les étrennes j'm'emmerde, mon groupe assassine Les faux s'entraînent, s'entraident, sans trêve Sans star guette mon armée Et l'art armé grave, y'a d'quoi s'alarmer Comme si y savaient pas où j'crèche Tout l'monde s'pointe quand y veut, mon groupe assassine Pour un joint ou pour m'joindre, t'as qu'à v'nir dans ma Limousine Les têtes d'affiches, c'est pas c'qui manque, mon groupe assassine Si y'a problème, on sort les ... au fond planqués, mon groupe a ça aussi Mon groupe assassine tah à l'ancienne, pose dix barres, t'auras un bain d'sang Et j'ai c'qui t'faut dans l'coffre si t'as un plan Mais faut qu'ça paye parc'qu'on est plein Y'a plus d'un man et pas d'mannequins dans mon clan, jamais en chien parc'qu'on est grands Si tu t'plains, on t'fait la misère comme pas possible Aucun remord, onsensible, même si ton cul m'sert de cible Malekal Morte 92 I Kho Ici les gosses ont tous les crocs mais y'a qu'les gros qu'on engraisse, négro L'temps presse et passe trop vite, c'est la classe quand t'as la place du boss Plus rien à faire, si ça s'corse, protège ton torse Ou tu s'ras blessé, c'est la merde, demande à Dorse, faut m'laisser Malekal Morte, ouais c'est Boulogne ici Mon groupe assassine comme la CC rase les bâtards à la racine Rime sous 100 G qu'j'prends l'micro on m'appelle Danger Mes troupes sont rangées qu'des étrangers Lunatic réseau On vient du 100-8 Zoo Eazy au mic Kho Dans la banlieue c'est l'Moyen-âge Y'a pas d'maille et sur l'droit ch'min y'a un péage Négro c'est l'Bronx avec dix ans d'retard au moins Y'en a qui rêvent que d'grandir avec me-ar aux mains Et moi, j'regarde le monde s'écrouler doucement, où on en s'rait D'vrait y avoir plus de filles comme Florence Rey Apocalyptique y'a pas d'issues, trop d'décès j'vais pas m'tuer C'est la merde j'suis habitué Quelque part en moi vit un guépard depuis tit-pe, d'l'amour, mon cur en produit peu Peut-être parc'que j'suis 9.2 prototype Nous tester qui peut ? Chaque soir on boit d'l'eau d'feu, et quand l'flic nous arrête au feu Qu'on descend la nêtre-fe, une grosse envie d'faire feu Affamé comme tous les gosses des rues mal famées, où la nuit ça ré-ti Ma plume s'trempe dans l'encre ou s'plante dans ta rétine 9.2 la vraie team, on s'fout d'ta iv, kiffe les films à la Heat mais fête l'Aïd Mon groupe t'assassine comme la rue quand t'es naïf C'est pour nos racines, pour ceux qui d'vant l'insigne font ce même signe Qui rêvent assis, fument sur un joint à six ou partagent un micro à six Boulogne Issy c'est pire qu'la Croatie, nos flows sont trop acides Mes Khos assistent à tout quand j'troue ma cible Tu vends ton shit, ta dope, fais tapiner tes putes au bois d'Bou Laisse-moi faire mon zness-bi bouge Tu m'dis la France un pays libre Attends mes détenus, attends-toi à bouffer du calibre Quoi ?! Tu m'dis la France c'est mieux qu'l'Afrique Mais n'oublie pas, pédale, que tout leur fric c'est de nos morts Toujours en guerre, son sans trêve J'suis 92i cru 73 J'rêve de loger dans la tête d'un flic une balle de G.L.O.C.K C'est pour les Khos qu'y nous ont enlevés eux, et pour mon groupe j'assassine Prends mon 92i inhalation de rail de CC Mon groupe assassine Mon groupe assassine Mon groupe assassine Mon groupe assassine, mon groupe assassine1</t>
         </is>
       </c>
     </row>
@@ -4130,12 +4130,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Les derniers seront les premiers</t>
+          <t>La vie en rouge</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Déchaîne les enfers... Aucun diplôme valable À ceux qui ssont faits tout seul dans les rues de leur ville, jpasse le salam Habitués au haram, ils ne se rappellent plus de leurs crimes Fuck les victimes, ils ne se rappellent plus de leurs cris Leurs valeurs ne sachètent pas, ils ne se rappellent plus de leurs prix Dans le 92, Hauts-de-Seine, beaucoup de lers-dea On a la meilleure camelote, mon pote, à ce que lon dit Le rejet, le mépris des colonies, cest ce que lon vit Ça laisse un goût amer, j'noublierai jamais Regarde-nous de travers et on t'nique ta mère Violent et vulgaire, nique sa mère Jai rien vu, rien entendu sur la vie d'ma mère Météore, jfais des cratères Dakar dans les artères Interdit aux bâtards, sur les traces de Shawn Carter Paire de Reebok Pump, mousqueton, blouson Starter Jeune délinquant, RER C, jmonte sur Châtelet Jugés pour des faits graves, moi et mes shabs on est més-cra On les brise, on les brûle, on les terrorise, on les fume, on les écrase Et les vrais négros le savent Concerts à guichet fermé sur bateau desclaves Faut bien que vous compreniez Javance rien à foutre, jai la tête pleine de billets Canon scié pour les numéros 1, fuyez, fuyez ! Les derniers seront les premiers2</t>
+          <t>Je n'ai jamais travaillé, je suis jamais allé au bureau Je me lève pour aller pousser avec mes négros des Mureaux Je ne sais rien faire de mes mains à part sécher mes larmes Je suis flammes, déflagrations, armes, un drame national Mère en stress car enfant menotté à tous les coups Maîtresse ne peut me noter car absent à tous les cours Du coup je n'ai aucun diplôme, j'ai que dalle, sa mère M'en sortir sans l'illicite, je n'y arriverai jamais J'ai pensé à tout, même à séquestrer le Pape Tu penses à sortir un album, je pense à arrêter le Rap La race aryenne ne m'aime pas car je suis un bon à rien Défoncé, je plane, je fais des raids aériens Aujourd'hui, c'est peut-être la dernière fois que je souris Aujourd'hui, je crois que je vais me rendre, j'en ai marre de courir Aujourd'hui, aujourd'hui, aujourd'hui, aujourd'hui Aujourd'hui, majeur en l'air, j'aurai mon dernier fou rire Dur de sauver de l'argent, pourtant l'argent nous sauve En banlieue je suis devenu fauve, sauvage devenu chauve Drogué jusqu'aux os dans mon 100-8 Zoo Dan-dangereux jusqu'au flow, tu sais où me trouver si t'es chaud Tu sais où venir per-cho, 0.9 sur le réchaud Un verre de Damoiseau, le rap tapine sur les Maréchaux Je ne suis qu'un parasite évadé du collège Tu vas devenir raciste quand je vais te braquer ta Rolex T'en parleras à tes collègues qui vont le devenir aussi Mais moi je m'en bats les couilles, je donnerai l'heure à tout mon possee Une spéciale dédicace à tous mes frères sur le billard Je vois la vie en rouge, mon ciel est bleu comme Tookie Williams Aujourd'hui, c'est peut-être la dernière fois que je souris Aujourd'hui, je crois que je vais me rendre, j'en ai marre de courir Aujourd'hui, aujourd'hui, aujourd'hui, aujourd'hui Aujourd'hui, majeur en l'air, j'aurai mon dernier fou rire Aujourd'hui1</t>
         </is>
       </c>
     </row>
@@ -4147,12 +4147,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Le son qui met la pression</t>
+          <t>Sport Billy</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Le son qui met la pression, garçon C'est l'oppressé contre la répression Y a plus d'maître ici, plus d'MC's Le son qui met la pression, garçon C'est l'oppressé contre la répression Ya plus d'maître ici, plus d' MCs Plus d'saisons, tant de raison dans mes récits Notre histoire au moins, j'espère qu'elle est pas trop triste à la fin Dans mon crew y'a foule et c'est la folie Qui l'emporte ouais, on dit, fait souvent n'importe quoi Du bruit comme un R1 sans pot, suis impoli J'nie devant l'daron, vis la nuit, ris devant le parrain C'est pas rose mais nique sa mère ici c'est Paris Pisse devant la barre, Hauts-de-Seine est mon nombril C'est la seule cicatrice qui mérite un nom Mériter d'être un homme avoir la force du nombre et faire qu'un Si tu en tues un tu sais bien qu'il en reste un Trop de tracas, offensives C'est le chant des civières, du 18 carats sur les gencives Le son qui met la pression, garçon C'est l'oppressé contre la répression Ya plus d'maître ici, plus d' MCs Plus d'saisons, tant de raison dans mes récits Le son qui met la pression, garçon C'est l'oppressé contre la répression Ya plus d'maître ici, plus d' MCs Plus d'saisons, tant de raison dans mes récits Alors comme cela on veut racailler Ma présence une menace pour les khattayes, mental de muay-thaï Guerrier en paix avec moi même, là où règne le KO La maille en a asservi plus d'un Coupables les fils de putes ne cessent de plaider Veulent salir nos pseudonymes, A-l-i, Booba Disent que Lunatic et criminalité sont synonymes Grillés pour une histoire de traits et de mélanine On nous endort mais ma croyance en l'au delà me réanime Ramène ma force pour ma famille, ma team, mes intimes 92 Infanterie Tous enfantés entre joies et douleurs Vois le monde comme une mauvaise plaisanterie, plaies, sang et corps meurtris Champs des sirènes, émeutes Cris et civières, civilisés On a l'art de la guerre et nos troupes mobilisés Des avants aux arrières soldats, nés pour mourir Rien ne sert de courir pendant le repos Me souviens des instants paumés Marche lame de rasoir à la mâchoire souvent dans l'trom Agresse avec le sourire, prêt à partir en martyr Faut qu' les bourreaux apprennent à souffrir C'est l'oppressé contre la répression Lunatic, Révolution Le son qui met la pression, garçon C'est l'oppressé contre la répression Ya plus d'maître ici, plus d' MCs Plus d'saisons, tant de raison dans mes récits Le son qui met la pression, garçon C'est l'oppressé contre la répression Ya plus d'maître ici, plus d' MCs Plus d'saisons, tant de raison dans mes récits Des raps sales comme mon argent et mon pécule à la que-ban Pour taffer ou pour dealer, partout y a la queue Vie crue, un vécu d'poissard Parmi les saï-saïs, les brassards, mon destin écrit sur du P.Q Anti-Pédés, pages entières pour une mort violente garantie Frères, ici c'est de-spee Horrifié parce que je récite l'illicite Kho Je suis une cuillère, du feu, une seringue et du citron Arrêtez de jacter, t'es un vrai gars, ouais Depuis hier, moi depuis mon premier K-way Tu t'adresses à qui ? À moi, Brahms ou Issakha ? À qui, moi ? Quand je suis né j'étais kaki Le son qui met la pression Ce soir, c'est pour Ferber, Pont-de-Sèvres et le Square2</t>
+          <t>Yacine smoke the track I-Z-I Rapocalyptique, mon but, c'était bédave et bavardages Petit ou grand, on t'éteint, puto, à moi, tu m'parles pas d'âge On est trop sur la planète Trop, j'en déduis qu'ils vont tous nous tuer Tous nous tuer Mes enfants n'diront jamais Papa où t'es ? Papa où t'es ? J'ai caché mes armes dans le sac à Sport Billy Sport Billy Cercle fermé comme le canon du 9 milli' 9 milli' Ils n'vivront pas deux cents ans Ils n'vivront pas deux cents ans Ils ne remonteront pas le temps Jamais La fin est proche, Alléluia, c'est écrit dans la Torah, le Coran Nul n'arrêtera ls éléments, glaive à la main, le Valhalla nous attnd Le but, c'est qu'personne se relève, gaz sarin pour petits et grands Petits et grands S'il faut tirer pour s'en tirer, les chargeurs sont pleins, y a plus qu'à appuyer Y a plus qu'à appuyer Sur la détente, PNC aux portes, on prépare la descente On prépare la descente Me parle pas de phénix, moi, j'renais pas, c'est pas nous dans les cendres Dans les cendres J'brûlerai qu'une fois, c'est suffisant, qui peut m'arrêter, pas Vald Sullyvan Non Ni son daron le facho Facho, j'reste au pouvoir comme Sassou Femme, va m'faire un plat chaud, 100 moins 8 zoo, très loin de Damso Marre de votre fausse égalité, quand ça va péter, il faudra des hommes Pas d'auréoles, il faudra des cornes, mental et bouclier de Björn J'suis Africain comme Fior de Bior, boule à zéro comme Voldemort Notre technique on t'baise tes morts, y a que le bigleux qui jette des sorts Sûrement Sicario qu'a ton briquet, économie parallèle Économie parallèle Sans cash, frérot, c'est compliqué, tu prépares l'lendemain pour la veille Pour la veille T'es mort dans le movie T'es mort dans le movie Pas de fruits dans le smoothie Pas de fruits dans le smoothie Qui mange du thon, rêve de sushi Rêve de sushi On règle un souci par un souci Par un souci J'en déduis qu'ils vont tous nous tuer Tous nous tuer Haraï2</t>
         </is>
       </c>
     </row>
@@ -4164,12 +4164,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>On m’a dit</t>
+          <t>La zone</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>On m'a dit ton rap est fort, ton crew est dangereux Selmek on m'a dit pars, ici c'est dead mec J'suis venu pour l'titre, pour l'chèque Pour l'meilleur et pour l'pire, pas là pour rire Intouchable, tu peux qu'arracher mes stickers Et le style a bien la gueule d'un missile Stinger On m'a dit que j'avais le vice et la vertu Et que j'aurais peu d'ouvertures sans maison de disque Bouge pas ! On m'a dit rampe, joue pas les cro-ma J'suis venu en paix un 44 contre l'estomac On m'a dit qu'y avait de l'or et des lauriers Dehors la météo affiche Boob's le météore J's'rai pas la putain d'l'Etat, négro bientôt J'ouvrirai même plus leurs putains d'lettres On m'a dit d'changer des mots pour pas qu'les petits me suivent Pas grâce à moi qu'ils pensent à Tony devant leurs petits suisses On m'a dit oh ! T'es bon qu'à squatter les halls Et leur dernière vision sera un gun et un chauve On m'a dit pars pas sans leur montrer de quoi t'es capable, fais attention On m'a dit que lui, c'est un chaud On m'a dit oh ! Regarde ce qu'on fait pour de l'argent Mais ferme ta gueule m'a dit l'agent On m'a dit non, c'est trop sombre ça nous ressemble pas Mais quand j'arrive ils crient tous tout bas Booba On m'a dit rentre pas trop tard et fais tes devoirs J'ai dit ouais ouais, c'est la levrette qu'elles préfèrent, que le crime Paie frère Dans les oreilles 20 000 watts, le pays a mal Chirac m'a dit arrête pourtant j'lui ai que mis l'oigt-d On m'a dit Qu'est-ce tu veux faire quand tu seras grand ? Sans hésiter, je me suis retourné, j'ai dit Ben j'veux tout niquer Pourquoi j'suis mal chroniqué Eh oh ! j'ai les crocs, négro, j'suis venu faire mal, parole de Soninké Vous auriez dû m'laisser mes chaînes J'remplis chèques, barillés, bacs, schnecks, heureux si j'atteins la trentaine On a failli m'dire chien voilà ta paie On m'a dit je t'aime et je saigne j'ai dit je sais Artisanal C4 pour le D4, on m'a dit range-toi, fais des mômes, change On m'l'a dit cent fois On m'a dit d'changer des mots pour pas qu'les petits me suivent Pas grâce à moi qu'y pensent à Tony devant leurs petits suisses On m'a dit oh ! T'es bon qu'à squatter les halls Et leur dernière vision sera un gun et un chauve On m'a dit pars pas sans leur montrer de quoi t'es capable, fais attention On m'a dit que lui, c'est un chaud On m'a dit oh ! Regarde ce qu'on fait pour de l'argent Mais ferme ta gueule m'a dit l'agent On m'a dit non, c'est trop sombre ça nous ressemble pas Mais quand j'arrive ils crient tous tout bas Booba On m'a dit qu'c'était cain-ri, mais ça vient d'Paris des grands ensembles Du sang près des enceintes, un rap sans encens Un p'tit peu dansant, truc à l'arrache pour les scarlas Ancien ou pas, négro t'as l'âge de bouffer l'carrelage On m'a dit Ok si tu t'autocensures Nique ta mère ici c'est noir amer comme un café sans sucre J'm'infiltre, j'suis c'putain d'négro sans filtre Et j'téléphone sans fil, réveillonne sans huîtres On m'a dit d'passer du gramme au kilo à la tonne Fils de rester un bonhomme du berceau à la tombe Et on m'a dit c'soir c's'ra pas possible Ici c'est privé, vous êtes pas VIP vous faites tous flipper On m'a dit t'es che-lou dès qu'tu les baises tu les trouves re-lous C'est B2O du 9 ze-dou zoo On m'a dit d'changer des mots pour pas qu'les petits me suivent Pas grâce à moi qu'y pensent à Tony devant leurs petits suisses On m'a dit oh ! T'es bon qu'à squatter les halls Et leur dernière vision sera un gun et un chauve On m'a dit pars pas sans leur montrer de quoi t'es capable, fais attention On m'a dit que lui, c'est un chaud On m'a dit oh ! Regarde ce qu'on fait pour de l'argent Mais ferme ta gueule m'a dit l'agent On m'a dit non, c'est trop sombre ça nous ressemble pas Mais quand j'arrive ils crient tous tout bas Booba2</t>
+          <t>SDM SDM, cent moins ocho Cent moins ocho Histoire de ronds, moi, j'aime bien quand c'est carré C'est carré Eh Eh, eh Eh Histoire de ronds, moi, j'aime bien quand c'est carré C'est carré, mon neuf millimètres brise des carrières Piou-piou-piouh Faut un Lambo', un Range et une 'rrari, une Patek avec vingt-deux carats Ouh J'sors le Toka', ils connaissent bien la choré' Brah, j'annonce qu'ils sont morts après l'Carême Bouh Vrai pour de vrai, j'fais pas crari, mon fusil à pompe fait des caries Ouh, ouh, ouh, ouh, ouh Cent moins huit, c'est le gang, intouchable est le gang Ocho, maintenant, c'est nous les grands On s'est assagis mais tu connais, tu manques de respect, on remet le casque et les gants Vroum, vroum, vroum, vroum Tous les jours dans le sale, midi-minuit, on moussala Ouh, on revend le choco, la salade J'visser comme Salah Sur l'terrain comme Salah, soit t'es mon gars, soit on s'allume, bengua, Johnny passe le salam Brr Si j'réussis pas dans l'rap, que j'baise pas tout, bah, ça s'ra d'ma faute Ça s'ra d'ma faute J'remercie le ciel encore, j'remercie m'ma, j'remercie la zone J'remercie la zone C'est soit on avance, on stagne, soit on meurt comme les autres J'remercie le ciel encore, j'remercie m'ma, j'remercie la zone J'ai quitté l'bâtiment, quitté le hall Quitté le hall, la rue, j'la connais, tu l'vois sur moi, j'joue pas un rôle J'joue pas un rôle Eh, millions d'dollars ou millions d'euros Millions d'euros, j'en veux quand même, même si j'emporterais rien dans ma tombe Dans ma tombe J'ai quitté la zone Quitté la zone, j'ai jeté mon pare-balles Jeté mon pare-balles Mais la zone m'a pas quitté, la police écoute sur mon portable Eh, sur mon portable J'ai quitté la zone Quitté la zone, j'ai jeté mon pare-balles Jeté mon pare-balles Mais la zone m'a pas quitté, la police écoute sur mon portable Ba-ba-ba-bah Quand j'arrêterais d'rouler en gros gamos, le ciel s'ra étoilé, Kim K, j'aurais pu la niquer, j'me suis fait les croisés J'suis attendu en bas du jet privé, j'passe même pas les douaniers, elle commence à m'texter qu'elle est bien rentrée, je préfère m'éloigner Si ils disent que j'ai touché le fond, c'est qu'une chatte a témoigné Mes plaies s'refermeront jamais mais je préfère les soigner J'aurai pu t'faire un million d'enfants mais t'as tout avalé, on reste muets, ni crime, ni musulmane, ne sera dévoilé On m'a dit Kopp, toi aussi, laisse les gens, faut les laisser parler J'ai dit Non, c'est des grands fils de pute, j'm'en charge, ça va aller Cette tchoin s'est crûe au Moyen-Âge, elle veut un cavalier J'ai su qu'il ne mordrait jamais dès qu'j'l'ai vu aboyer J'ai quitté l'bâtiment, quitté le hall Quitté le hall, la rue, j'la connais, tu l'vois sur moi, j'joue pas un rôle J'joue pas un rôle Eh, millions d'dollars ou millions d'euros Millions d'euros, j'en veux quand même, même si j'emporterais rien dans ma tombe Dans ma tombe J'ai quitté la zone Quitté la zone, j'ai jeté mon pare-balles Jeté mon pare-balles Mais la zone m'a pas quitté, la police écoute sur mon portable Eh, sur mon portable J'ai quitté la zone Quitté la zone, j'ai jeté mon pare-balles Jeté mon pare-balles Mais la zone m'a pas quitté, la police écoute sur mon portable Ba-ba-ba-bah Quitté la zone Quitté la zone, jeté mon pare-balles Jeté mon pare-balles Libérez Dédé Dédé, ouais, libérez Befa Befa J'vais quitté la zone Zone, zone, j'ai jeté mon pare-balles Pare-balles Ah, pah, pah, pah, pah Pah, pah, pah</t>
         </is>
       </c>
     </row>
@@ -4181,12 +4181,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Mode avion</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>La critical est bonne bonne bonne bonne bonne C'est mon médicament J'dois recompter la somme somme somme somme somme J'suis dans le bâtiment Je n'répond plus au folle folle folle folle folle J'suis en mode avion J'dois détourner des tonnes tonnes tonnes tonnes tonnes Comme un gros trafiquant J'ai mis le game à quatre pattes Ah ouais ! J'ai bosser comme un pakpak Ah ouais ! Ils manquait sur la puenta Ah ouais ! J'ai balafré le comptable Ah ouais ! La marchandise est caché dans le coffre de mon bolide allemand On vend la mort en sachet on fait le business pas propre ou illégalement Quand on tire on vise à distance Ah ouais ! Tu m'as trahi je suis distant Ah ouais ! J'ai toujours gardé la prestance Ah ouais ! Sur YouTube je suis en tendance Ah ouais ! J'fume la frappe j'écoute un son de Bob Marley, les schmitts sont de passage sa crie Ouais Ouais Ouais ! Le guetteur cire Arrah il faut cavalé, j'emballe le cellophané j'me barre à Kavalé La critical est bonne bonne bonne bonne bonne C'est mon médicament J'dois recompter la somme somme somme somme somme J'suis dans le bâtiment Je n'répond plus au folle folle folle folle folle J'suis en mode avion J'dois détourner des tonnes tonnes tonnes tonnes tonnes Comme un gros trafiquant Manque d'oseille maison dehors j'fait partir des savons J'étais pas un savant, j'étais pas fort au ballon On connais la chanson mais ils veulent m'emboucané J'fume un pétard avec chinoir, à la rue décaler Faut que je trouve un petit pour l'envoyé en mission J'vais pas bouger d'ici, j'suis entrain de ravitailler Le client me rend fou, j'ai envie de le baffer Le gérant à l'affut j'le vois pisté affolé J'ai pris le num d'une folle askip elle veut papoté Elle m'appelle pour le shit ou les billets colorés C'est peut être une condé, parano j'ai des idées Si demain j'me fait péter, j'vais prendre plus que 6 années Dans l'RS7 j'accélère les flics au cul J'écrit sur l'iPhone X un morceau et une instru Plaquette Arena, blindé que j'marche dans la rue Oh trou du cul, tu l'as fumé jusqu'au cul La critical est bonne bonne bonne bonne bonne C'est mon médicament, c'est m'ont médicament J'dois recompter la somme somme somme somme somme J'suis dans le bâtiment, et j'brasse à mort Je n'répond plus au folle folle folle folle folle J'suis en mode avion, j'fait que bombardé J'dois détourner des tonnes tonnes tonnes tonnes tonnes Comme un gros trafiquant, narcotrafiquanté</t>
+          <t>J'ne fais pas partie du troupeau, jégorge les gardes-champêtres Prends les armes avec moi si tes mon poto Animal galeux j'vais pas chez le docteur, j'vais chez le véto Jai les couilles en or, jpasse pas les détecteurs d'métaux Sans le génie le sport, largent facile, cétait mon ghetto Jamais je ne plierai, jamais je ne serai un bon négro Enculé je vais te fumer, jvais prendre 10 piges, j'serai plus le king de la city Énervé dans le 92izi car fouetté dans le Mississipi Pimp mon gamos chez Xzibit, suce moi la bite sans faire dchichis B2OBA, on sembrouille là-bas je tenterre ici Lunatic depuis la naissance, sisi Avec du sang desclave jécris cette missive, mon blase gravé sur l'missile Tant que jserai sur la piste, rapper sera un métier à haut risques Essaye daccorder tes choristes au chant dune météorite Hey ho de quoi tu parles ? Cest violent depuis le préau Big boss, je tire les pénos, Rolls Royce je fais des créneaux Cest KO2P qui joue, pourquoi tu demandes cest qui qui mène ? Négro est-ce moi qui aime loseille ou lui qui maime ? Il men a fallu, il men faut, il men faudra Pour pas rouler en Skoda, n'pas décevoir maître Yoda Descendant de terres dAfrique, quand je baise ça sent le musc Cerveau en très bon état, 95 kilos de muscles4</t>
         </is>
       </c>
     </row>
@@ -4198,12 +4198,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Mwaka Story</t>
+          <t>Laisse-moi te sauver</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Sorties de janvierDjadja Dinaz - Souviens-toi KeBlack - Premier étage Marwa Loud - Temps perdu Sofiane - Tout l'monde s'en fout Vald - Vitrine ft. Damso Vegedream - La fuite ft. DJ Leska Sorties de févrierAbou Debeing - Tombé sur elle ft. Dadju Dadju - Déjà trouvé Dadju - Intuition Djadja Dinaz - Déstabilisé Kalash - Friendzone ft. Still Fresh Lacrim - Grande armée Lacrim - Traîtres MHD - Afro Trap, Pt. 8 Never Médine - Grand Paris ft. Alivor, Lartiste, Lino, Ninho, Seth Gueko, Sofiane Youssoupha Ridsa - Avancer Sorties de marsAlonzo - Feu d'artifice ft. MHD Benash - Ghetto ft. Booba Benash - Ivre ft. Damso Shay Dadju - J'ai dit non Deen Burbigo - Tu rêves ft. Nekfeu Djadja Dinaz - C'est la même Djadja Dinaz - Catalogués bandits Djadja Dinaz - Dans la cité Djadja Dinaz - Mauvais comportement Lacrim - 20 bouteilles Lacrim - 2Pac Lacrim - Colonel Carrillo Lacrim - La dolce vita Lacrim - Oh bah oui ft. Booba Lacrim - Tristi ft. Ghali Lorenzo - Le son qui fait plaiz Naza - La Débauche Niska - B.O.C KeDuSal 1 Ridsa - Mamamia Roméo Elvis - Drôle de question Roméo Elvis - J'ai vu ft. Angèle Sadek - Petit prince Scridge - Pour Walou Sorties d'avrilBMYE - Pourquoi Chérie Ft. DJ Myst, Hiro, Jaymax, KeBlack, Naza Youssoupha Columbine - Temps électrique DTF - 100 Rêves Damso - . Nwaar Is The New Black Damso - B. QuedusaalVie Damso - . Dieu ne ment jamais Damso - . Signaler Damso - . Gova Damso - . Peur dêtre père ft. Youri Botterman Damso - . Kin la belle Damso - . Noob Saibot Damso - N. J Respect R Damso - . Mosaïque solitaire Damso - . Macarena Damso - . Lové Damso - . Une âme pour deux Damso - . Kietu Mister V - Top Album Ninho - Roro Niska - Chasse à lhomme Niska - Jsuis dans lbaye KeDuSal 1.5Sofiane - Mon p'tit loup Sofiane - Toka Sorties de maiBigflo Oli - Alors alors Dadju - Reine Kalash Criminel - Je ne comprends pas ft. JuL Kalash Criminel - Piano sombre L'Algérino - Les menottes Lartiste - Pardonner Mister V - Space Jam ft. Hayce Lemsi Volts Face Naps - Ciao Naps - Elvira Naps - Vroum vroum Naps - À part ça Naza - A Gogo SCH - Comme si SCH - J'attends SCH - Mac 11 SCH - Poupée russe Sadek - Dans la lune Sofiane - Marion Maréchal Still Fresh - Collision Sorties de juinAsh Kidd - Lolita Bigflo Oli - Dommage Bigflo Oli - Papa ft. Fabian Ordonez Bigflo Oli - Personne DJ Hamida - C'est une frappe ft. Lartiste DJ Sem - Mi Corazón ft. Marwa Loud Eddy de Pretto - Fête de trop Fally Ipupa - Bad Boy ft. Aya Nakamura JuL - Ma jolie Lomepal - 70 Lomepal - Bécane ft. Superpoze Lomepal - Danse ft. Camélia Jordana Lomepal - Palpal Lomepal - Yeux disent Siboy - Mobali ft. Benash Damso Sorties de juilletAlonzo - Bagarre Alonzo - Suis-moi Booba - Nougat Djadja Dinaz - Maléfique ft. DJ Babs Jordan Dosseh - PDCV Pas dans cette vie Hornet La Frappe - Je pense à toi Lacrim - Ce soir ne sors pas ft. Gims MMZ - Ma bulle Naza - MMM Ninho - Mamacita Niro - Sors de ma tête Niska - Réseaux Sadek - En leuleu ft. Niska Timal - Vatos Sorties d'aoûtAlonzo - Papa Allo Lorenzo - Fume à fond Ninho - Chino Sadek - La vache Sorties de septembre4Keus - O'Kartier C'est La Hess Hornet La Frappe - Dead ça Hornet La Frappe - Maghrébin JuL - Drôle de dame Lacrim - Judy Moncada MC Solaar - Sonotone Marwa Loud - Mehdi Naza - Sac à dos Ninho - Caramelo Ninho - Carbozo Ninho - Ce soir ft. Alonzo Ninho - Comme prévu Ninho - De l'autre côté ft. Nekfeu Ninho - Dita ft. Hös Copperfield Ninho - Elle m'a eu Ninho - HLM ou Palace Ninho - Laisse pas traîner ton fils ft. Sofiane Ninho - Lové ft. Gradur Ninho - Pourquoi Ninho - Rose Niska - Ah bon ? Niska - Amour X Niska - Favelas ft. Skaodi Niska - HM Niska - La wewer Niska - Medellín Niska - Salé Niska - Snapchat Niska - Story X Niska - Tuba Life ft. Booba Niska - Twerk dans l'binks Niska - Versus ft. MHD OrelSan - Basique Sadek - Madre Mia ft. Ninho Soprano - Mon précieux Vald - Trophée Sorties d'octobreEddy de Pretto - Fête de trop Dadju - Ma fierté ft. Alonzo Gims Hamza - Life Hamza - Vibes JuL - La tête dans les nuages Kaaris - Je suis gninnin, je suis bien Kalash - Koussi koussa ft. Niska Kalash - Mwaka Moon ft. Damso Lacrim - Tous les mêmes Lartiste - Catchu catchu OrelSan - Bonne meuf OrelSan - Christophe ft. Gims OrelSan - Dans ma ville, on traîne OrelSan - Défaite de famille OrelSan - La fête est finie OrelSan - La lumière OrelSan - La pluie ft. Stromae OrelSan - Notes pour trop tard ft. Ibeyi OrelSan - Paradis OrelSan - Quand est-ce que ça s'arrête OrelSan - San OrelSan - Tout va bien OrelSan - Zone ft. Dizzee Rascal Nekfeu Sorties de novembreAbou Debeing - C'est pas bon ft. Dadju Columbine - Pierre, feuille, papier, ciseaux Dadju - Bob Marley Dadju - Comme si de rien n'était Dadju - Django ft. Franglish Dadju - Intuition Dadju - Oublie-le Dadju - Par amour ft. Gims Dadju - Seconde chance Dadju - Sous contrôle ft. Niska JuL - Henrico Kaaris - Bling bling ft. Kalash Criminel Sofiane Kaaris - Diarabi Lacrim - Gericault Lacrim - Intocable ft. Mister You Lacrim - Noche ft. Damso Lacrim - Veux-tu ? ft. Ninho Lomepal - Club Sorties de décembreBooba - 113 ft. Damso Booba - Bouyon ft. Gato Booba - Centurion Booba - Drapeau noir Booba - Friday Booba - Magnifique Booba - Petite fille Booba - Ridin' Booba - Terrain Booba - Trône Booba - À la folie Booba - Ça va aller ft. Niska Sidiki Diabaté Dadju - Par amour Ft. Gims Dadju - Lionne Damso - Tueurs Gims - Caméléon Hayce Lemsi - Havana JuL - Délicieuse JuL - Je vais t'oublier ft. Marwa Loud Marwa Loud - Fallait pas</t>
+          <t>Grünt 57, nous y voilà Olalalala Han, yeah J'fais dix rêves pour trois-cents cauchemars, bellek si la gauche part Quand j'aurai l'oseille à Samuel, j'prendrai le huit à Oscar Tous vos rappeurs les pornstars qui suceraient pour des pochtars J'ai un ami sous la terre, un dans la merde, et deux au shtar L'amour, ça demande trop d'taff, la haine, ça fait mettre trop d'baffes J'les graille, on dirait qu'j'ai les canines d'un gros Staff', wouh, wouh, wouh Grosse baffe, je sens le vent, les Audemars Gros, r'garde pour moi, c'est bientôt pour eux, c'est trop tard, han Ils commencent à sucer à s'en casser les cervicales J'découpe mieux qu'eux, c'est dans longtemps qu'ils pourront m'faire vivre mal Jay-Jay Okocha, j'leur fais un festival La droite part de la gauche et revient à la verticale Du dry sur du dry, j'roule dans une Toyota Corolla J'baise leurs mères devant un Coppola, c'est trop beau là J'écris des thèses, c'est plus des textes, c'est juste un doctorat Les labels signent de la merde et ils se vantent d'avoir de l'odorat J't'attaque, on les troue, pas d'flaque YZ, pas d'plaque, où sont les sous ? Qu'j'n'ai plus à sentir l'odeur d'la pisse dans la 4 Réussir, à part si on r'met les pieds à la fac La SACEM à Zazie combinée à celle d'Arafat Balle après balle, j'suis juste en train d'les carabiner Ton mec fait l'dur avec les mes-ar, mais il est kawaïné Ils ont vidé leurs chargeurs, j'ai pas un poil vacillé J'égorge des prods, aujourd'hui, j'ai changé quatre fois d'tablier Grünt 57, on a l'bon numéro Ça sent l'crime et les produits illégaux Au même âge en U12 pendant qu'je signais pro Ta meuf chez une copine, après l'concert, je lui ai signé l'dos J'ai essayé l'Hip Hop, pour fumer des cigares, et baiser des idiotes M.A.I.R le légendaire valide Wallace et c'est réciproque Oui, maintenant, j'suis avec une meuf raffinée, on mange du buf mariné, l'bébé dans l'uf C'soir, j'suis comme une Ford Fiesta et le soir, j'suis fort festif Avec un texte pareil, c'est normal que j'me sente spécial Je repars pour sauver l'monde, je rentre, je change mes sapes C'est bien moi qui transmets ça, donc entends c'message, han J'touche pas encore ma SACEM donc la prod', j'lui fais un boulot Mais j'lui fais un taff au black, pour l'instant Comme si j'voulais m'marier et qu'j'dois m'suffire du coup d'un soir, pour l'instant Comme si j'ai faim, elle m'donne à boire, pour l'instant Des hommes en noir, comme des SWAT Un baril d'huile, un entonnoir, et je vous gave comme des oies Moi, j'rap comme un zinzin, ça a toujours été simple, sin-c' On n'est pas deux et d'mi, les doigts d'la main, c'est toujours cinq, sin-c' Ah oui, let's go Yeah, yeah Henri Bleu Grünt 57 So PR à la prod, so Wallace Let's go Yeah, yeah, yeah Y a des couleurs, y a des tunnels, des bouts d'mon cur dans les ruelles Y a les odeurs de mon passé, y a même des fleurs, des eaux glacées Dis-moi qu'tu viendras m'aider, j'attends l'ciel, j'attends l'aide, et Y a des bêtes qui m'embêtaient, dis pas Je t'aime, j'suis entêté Crystal bleu et transparent, y a des yeux glacés d'argent Faut qu'je speedrun, j'ai pas l'temps, nous, c'est quand on tombe qu'on apprend Moi, j'ai tellement d'bleus sur les g'noux, qu'je sais plus si j'prie ou j'attends Yeah Jamais, jamais, eh J'vois des images, y a des nuages et les nuages sont sous mes pieds Y a des rumeurs dans les couloirs, l'bruit des gouttes d'eau au fond d'l'évier J'fais des cauchemars, j'fais des cauchemars qui f'raient peur à Freddy Krueger Même à Freddy Krueger, eh J'suis tout en bas, j'ai des hauts-l'cur, les deux yeux d'un stalker Des zombies, des croqueurs, j'ai l'cur plein, genre un six tonnes La vie, c'est ironique comme la mort de Paul Walker La vie, c'est pas une sitcom, même d'en bas, j'prends d'la hauteur, okay Kingoss t'es en feu là ? Hein, ok ok ok , han han Yeah, so Wallace, let's go Han han, woh, han J'te r'garde dans les yeux et j'vois déjà qu't'es une hoe Me parle pas d'game, car à part mes frères en R2, ça joue pas trop, han han Demain c'est pas loin, à neuf cents mètres Le cocorico t'fait les poches, le pied d'biche t'laisse aux abois Le chien qui renifle la forte, j'porte les cernes de mes proches, quoi ? Ok, ok Tell'ment trix-ma par l'digital, tu pourrais même baiser un bot J'ai jamais baissé mon short, à part pour t'montrer l'Tom Ford Y en a qui s'font schlasser l'ventre, puis vont taffer leurs abdos Qu'est-ce que tu m'parles, sin-c' ? Bientôt quand j'monte sur ma kichta, j'fais un mètre quatre-vingt-quinze J'veux sortir d'une Maybach, voir le logo sur le sol Pas die à cinquante, à cause d'un baille signé sur le sang Le diable, c'est une skinny bitch, toujours fin dans ses moves Laisse-moi faire les dièses, toi, j'te laisse faire le ouf Quand ça va pop, j'irai revendre tous mes masters Car chaque choses ont un prix, sors ta C.C, fais ça faster On y va poto dis leur, ok, ok Eh, eh Shout out Wallace, shout out Grünt Mais qui m'a dit d'mettre cent cinquante sur Gakpo buteur ? wAllah, j'suis trop con, frère Eh, eh, eh J'ai mis un cent cinquante sur Gakpo Et l'ingé' son, c'est un jeune baptou Toujours dans l'bloc, comme si j'tais salarié En un seul regard, frérot, on capte tout Ton dernier projet, c'est un big flop Guetteur est pas focus, il fait des TikTok Et ouais, maboul, l'époque est fucked up Ton meilleur pote il met des crop top même les SDF veulent du buzz Animal de compagnie, c'est des rats, des cafards J'viens juste pour casser le petit cul du Grünt J'viens juste pour casser le petit cul du Grünt J'sais pas pourquoi j'pense encore à percer J'ai encore un demi kil' à faire partir Soixante quinzième session a des poèmes qui brûlent Laisse le micro, tu possèdes aucune magie Il m'manque un trois cent G', frère, un mercato Et j'aurais dû être méd'cin On s'connaît, baisse le prix sur l'demi d'gelato J'ai qu'un seul mode, j'peux que cracher les balles Des missiles dans la bouche, des cailloux dans les poches Des missiles dans la bouche, des cailloux dans les poches Booba en 2002 ou Conor McGregor J'viens poser un billet sur ma tête, j'vais rester courtois, mais c'est pas dur ta merde J'suis là pour la culture, aussi pour t'la mettre, aussi vrai qu'après la rupture, t'as l'blues sa mère Il fait froid, d'janvier à décembre, j'fais qu'monter, parce que j'me prépare à la descente Fils de tain-p', tu crois, c'est facile, tu crois qu'cette vie t'laisse le choix d'pas être méchant Ou d'rester assis, vas-y, avec mes reufs, on décale La prochaine fois, vends ton album 'vec une bassine J'suis l'meilleur, y a zéro débats, enar, Selug, Mr. Robot, Elliot et Pam J'ai l'cur froid, mais l'rap puissant qui calcine et l'passé qui fait qu'j'peux rester impassible Des vrais frères, y en a peu au départ, y a des hauts et des bas, mais le temps, ça les vaccine J'apparais, j'disparais comme la Lune, mon démon m'demande d'ralentir dans la Maybach J'suis pas dans leur neige, j'pas dans la luge, j'regarde le sun, j'me dis Maybe, on débarque J'apparais, j'disparais comme la Lune, mon démon m'demande d'ralentir dans la Maybach J'suis pas dans leur neige, j'pas dans la luge, j'regarde le sun, j'me dis Maybe on débarque Maybe on débarque, Maybe on débarque Han, Maybe on débarque, maybe on débarque, Maybe on débarque Han, Maybe on débarque, han, Grünt 5.7, Maybe on débarque Maybe on débarque Nion, nion, j'pull-up comme si j'tais en Maybach Grünt 5.7, Maybe on débarque, Maybe on débarque, han Nion, nion, si j'arrive en Maybach J'arrive en Maybach J'arrive en Maybach, j'arrive en Maybach J'arrive en Maybach, j'arrive en Maybach Grünt 5.7, Grünt 5.7, j'arrive en Maybach Wah wah, yeah, j'arrive en Maybach, Grünt 5.7, W jusqu'à l'infini Wah, j'suis quelque part, yeah, j'suis quelque part, yeah J'suis quelque part entre mère proche et père distant Le premier contact et le dernier avertiss'ment Quelque part entre un compte vide et les combines des ouï-dire et des non-dits Quelque part entre un trou d'mémoire et un vortex, la bague à l'annulaire ou l'étiquette à l'orteil J'voulais un sourire en or jaune, j'suis r'parti avec un cur en Gore-Tex Ma musique fait pas rigoler, j'ai fait des efforts de malade J'attends plus rien du rap, à part un disque d'or de Wallace et Ultraviolet dans l'cabriolet Toujours sur la défense, j'ai comme l'impression d'être Frank Lampard Elle m'dit qu'elle veut d'un homme comme moi Puis, quelques larmes plus tard, elle finira maquillée comme Lomepal, y aura pas d'come back Mon cur, un punching ball, j'suis dans un cauchemar de Junji It On s'reparl'ra quand j's'rai à deux trois grammes, un soir soûl au gi-in to' J'me rassure en m'disant que si j'ai tort, j'ai de bonnes raisons, j'me pose trop d'questions Silencieux car j'ai pas grandi avec des Je t'aime comme des mots d'liaison Vingt-sept ans, y a rien qui bouge, y a des gens qui partent, j'regarde l'temps qui passe J'croque la vie, j'ai une dent qui casse, si tu la vois en rose, t'as une lentille sale J'abandonne vite, je te raconte ce qui précède un saut dans l'vide, oh merde Merde Elle est jamais aussi belle qu'avant qu'on s'quitte Faut qu'j'arrête de m'plaindre, surtout qu'j'dois faire le beurre, je parle avec les mains, je chante avec le cur Plus le temps passe, moins je fais d'efforts, dans la glace, je crache sur le reflet d'mon époque Fuck, je fais l'bilan d'ma carrière en faisant cuire mes raviolis pesto Giovanni Rana Y a l'futur dans ma liste d'amis, j'écoute Wallace Cleaver, j'écoute anNie .Adda J'suis au cur de l'action comme un processeur Est-ce que j'viens t'casser les couilles, moi ? Viens pas m'casser les couilles, zehma t'es le chef, t'es le professeur Tu sais rien du tout, t'es un fossile qu'a mis tout son oseille dans un bolide J'sais faut parler bien aux grandes personnes, donc va niquer ton gros père le connaisseur Que la vulgarité, j'suis en roue libre, t'es pas content, c'est l'cadet d'mes soucis Y a des jours, j'ai pas envie d'être consensuel, donc va niquer ta grosse sur la toubib Fuck J'peux le faire sans insulter ta daronne, elle a d'jà beaucoup d'boulot, ta daronne Fuck Entre son beauf de mec et sa conne de fille, elle a pas mal de mérite, ta daronne La chatte à la grand-mère de ta daronne Fuck qui fait du ski nautique dans la Garonne Sale Y a des édentés qui traînent en bas d'chez moi, qui f'raient bien un boulot à ta daronne Bon, bon Bon Le seum que j'ai, c'est comme une avalanche Avalanche, rafale de FAMAS sur le goudron frais Goudron Tu vas t'casser les deux bes-j' en cavalant, 7.5 Bah oui ! Bah oui ! Ouh oui ! Le Shel', le tueur Fort, fort, fort Han, on va péter ça j'crois, han Hâte de voir, lessgui Han, yeah, han, han Depuis 2013, rien n'a changé, on a perdu plus de potes Et l'père Noël, lui, bah, il fume juste plus de clopes Moins tu m'ouvres les portes, mon frérot, et puis plus je toque Mon moi d'enfant grelotte, son cur fait plus de bruit que deux glocks J'l'ai croisé dans une rue, j'lui ai dit Tue-les, de sorte Qu'ils n'viennent plus l'ouvrir, d'façon à ne plus faire hurler le rott' Parle d'sortir les guitares, à croire que la rue, c'est le rock Le shit d'SLN vient du Maroc, va jusqu'à Sevran Beaudottes Fahrenheit, trente-deux degrés Fahrenheit L'av'nir est sombre, le ciel devait nous ram'ner quelques lights Yeah Y a qu'quand j'les lave que j'vois les trous dans l'dos d'mes vestes Nike Yeah Tell'ment les crocs qu'j'pourrais même mordre le chien d'Take A Mic Yeah On roule à deux cents dans la fumée, j'ai vu craquer l'pare-brise R.A.F du trône, R.A.F d'être un artiste Oh Si vous voulez m'tuer, faudra qu'vous veniez par dix Mes jnouns me backent, j'demande donc à l'ingé' d'rajouter quatre pistes Yeah Allô, Lewis, on les baise, il m'a dit Si, si, si J'vais leur rendre la monnaie, donc faudrait pas qu'je lubrifie Elle m'a dit Je t'aime, je sais plus c'que ça signifie Mes preuves d'amour, lui dire qu'les pneus, ils crissent ici Qu'on laiss'ra pas traîner notre fils ici On a en mis, on en a pris des coups d'lattes, pour trouver un d'tes sons bon, il faudrait qu'j'en écoute quatre J'vois des tas d'débris d'joues, parce que j'mets beaucoup d'claques M'ont mis des coups d'pute donc même l'ange à ma droite, j'l'écoute as-p Yeah, yeah, yeah, Grünt 57, le retour Premier couplet d'la première Grünt Dix ans après, on est là, comme le Highlander, ils ont voulu nous tuer, j'suis comme Highlander Yeah, yeah, let's go, Wallace Cleaver Eh, eh, j'ai mis beaucoup d'énergie dans cette merde toujours Eh, eh, eh, eh Yeah J'ai mis beaucoup d'énergie dans cette merde, qu'est-ce qu'on m'a rendu ? Que dalle et je continue à voir cligner la pendule Promis, j'voulais pas commencer d'manière amère, mais bon On s'rapproche de la guerre des mondes, au moment d'payer, personne qui gère les comptes Han Couplet sur le fil, step-up obligatoire, mais c'est pas simple J'me suis lassé de nager dans l'petit bassin Immobile au fond d'l'impasse, je voulais pas ça Efface les lignes de c'qui est tracé, je vois l'or derrière les gravats Pendant longtemps, j'étais stressé, à r'mettre tout en question pour des résultats médiocres Aujourd'hui, rien qui m'surprend, rien qui m'impressionne J'ai même pas la haine, j'suis en état d'grâce Les voix de l'au-delà sont en train d'terminer ma phrase Tiens la barraque comme m'sieur Sheffield Wouh M sur le front comme Végéta et Matthieu Chedid Loin d'être chétif, au poste à l'heure, derrière la part Je garde le cap, pourquoi tu t'échines, à vouloir m'faire dévier ? Seul sur l'autoroute que je suis en train d'frayer Pas de pause, j'fais que m'entraîner, j'élimine ce côté statique J'considère que j'ai trop freiné, mais ça donne la dalle, c'est pratique J'vais pas refaire tout mon parcours, redescendre du haut du panier Mix de talent et de bravoure, un peu d'chance pour m'accompagner, lessgui Lessguili, lessguili, lessguili, hey Lessguili, lessguili, lessguili, hey Lessguili, lessguili, lessguili, hey Yeah, yeah, le Sto Yeah, Sto, Sto, Sto, Sto, Sto Big up à Wallace 5.9, TNF, LCG, brotherhood jusqu'à l'infini, tu connais déjà Yeah Han, han J'entends les sirènes, c'est pas les bonnes, j'avance dans la city, y a bien trop de misère Tout mon cur, je donne, tu m'l'enlèveras jamais, cette voix qui résonne Les poumons encrassés par Rotterdam Han Les poumons encrassés par Rotterdam, let's go, yeah Yeah J'entends les sirènes, c'est pas les bonnes, j'avance dans la city, y a bien trop de misère Yeah Tout mon cur, je donne, tu m'l'enlèveras jamais, cette voix qui résonne Les poumons encrassés par Rotterdam, policiers néerlandais voudraient qu'on s'tape La musique ou les stup', on ramène la came, faut investir dans un stud' à la campagne TTP, c'est la guilde, le chemin est bre-som, j'ai pas pris d'guide, mais j'avance Les algorithmes, les avances, c'était pas ça notre rêve J'voulais juste kiffer avec tous mes frères mais dans l'gâteau, y a dix parts et qu'une seule fève P't-être que c'est éphémère, j'écris mes souvenirs, par peur de les perdre De notre côté, les nuages sont gris, révise pas c'qu'on nous a appris La parole de l'Homme, moi j'm'en méfie, j'écoute toujours celui qu'je crit' Pour être libre, des E, il en faut plein, sur la route, pas d'quoi faire un plein À coup sûr, il faut qu'j'arrête de m'plaindre, j'vois déjà l'tableau avant d'le peindre J'ai le nez dehors, yeah, parce que j'cherche encore Putain, rendez moi mon cur, hein, pour tout l'or du monde J'ai vu l'espoir, mon reflet dans l'eau, mes yeux rivés vers le haut Pas de magie, juste du temps, pas de magie, juste du temps Ils m'ont vu marcher sur l'eau, ils ont crié Fata Morgana C'est du travail, pas de blabla, j'compte pas un miracle deux fois J'dois quitter mon bloca-bloca, tu sais, j'peux pas perdre la foi Donne moi 1-0-0 je le transforme en 100K Fuck être un caméléon, moi j'suis un putain de chien J'ai vu ma mère s'casser l'dos, pour d'la graille dans nos gamelles Gamin, j'ai observé, maint'nant, j'ai bien capté Tu peux rester acharné si tu sais qu't'as pas tout donné, chien ! Gang, gang, gang Oui monsieur ! Let's go, merci Wallace, le sang Han han, yeah, okay ok ok SLI, SLI, woh, let's go Colis surspect, colis piégé, han han SLI, parigot, PSG J'marche, je drible, je goûte, han han J'marche, je goûte comme maître nageur Nageur J'paye pas stud' pour rec' un clash J'paye pas stup' pour rec' un diss' Ok No prix, no clash, no beef No promo pour la bêtise, han han, lets'go Faut qu'le produit s'écoule, c'est clair C'est clair Dans ma Lewando', j'roule les R Les R Faut que les pointeurs coulent, c'est clair C'est clair J'fais ça comme un , quoi, ok Woh, la famille, on dit Quoi, ok Fuck une présentation ok Ok J'arrive en impoli, gars, ok Ok , Paris Hilton, let's go Y a des chicks qui taffent pas dans l'hôtel'rie Mais bon, elles bossent au Hilton Grand homme a b'soin d'sa p'tite somme P'tite somme P'tit con a b'soin d'sa p'tite conne Big homme a b'soin d'son Bitcoin Sale Pas en major, mais j'fais mon Capitol, han han Oui ! Let's go Yeah, bleu, yeah On a grandi à deux cent, j'ai plus une goutte d'essence J'ai rêvé du heaven, j'ai presque vu les anges J'ai presque touché son cur, le tableau d'Michel-Ange Ma tête elle est hantée, j'vois plus de fantômes qu'une cellule de la santé J'vois les bougies qui dansent, le ciel tout gris, j'suis tout p'tit ou le reste est immense ? J'connais plus les dimanches, j'suis avec Freddy, mes rêves j'les ai hmm ils m'manquent Là, j'suis dans la descente et j'traine pas dans leurs fêtes, j'suis condamné L'silence, j'l'entendrai plus jamais, y a trop d'souvenirs qui m'hantent et mêmes ses yeux ils mentent J'crois bien, j'en ai zéro, j'ai aucun sentiment, aucun sentiment Mais reste là jusqu'à l'aube, ma richesse plus qu'la vôtre Déteste moi, qu'j'sois vivant, j'remplacerai tous mes mots, par des notes de piano Oui Des notes de piano, yeah Par des notes de piano, yeah J'remplac'rai les nôtres par des notes de piano Par des notes de piano, tous mes mots Par des notes de piano Par des notes de piano Par des notes, par des notes, par des notes, toutou-tou ! W Arrache-moi ça Neurones cramées par l'effet d'serre, yeah Yeah, yeah, yeah, yeah Hey, hey, hey, hey Neurones cramées par l'effet d'serre, résultat du vingt-et-unième siècle T'attends qu'un miracle intervienne, connard, ça m'étonnerait fort que la Terre tienne Pas beaucoup d'gens qui se battent pour aider les pauvres, c'est notre problème à tous Des impôts qui financent l'arrosage d'une pelouse d'un terrain d'foot, qu'est-ce tu veux qu'j'te dise ? Barz Pour les baiser, j'ai mon livre de r'cettes, capsule d'anthrax dans la dent, sur pivot Troisième doigt vers ton équipe de chbeb, j'y peux r', encore une putain d'rime de faite C'est mon job, donc j'le prends à cur, j'récupère les lauriers, j'le fais sans attendre J'mets les pieds où j'veux, souvent dans la gueule, j'tire les balles où j'veux, souvent dans la tempe J'écoute vos mensonges, obligé de n'penser qu'au prestige, couilles sous atmosphère protectrice Stop ta condescendance, putain j'trouve le temps long Tu ris sans nom, tu peux faire le 112, impossible que l'vent tourne, c'est trop tard, le futur est en route Pompe sur pompe, plus de double menton, plusieurs coups de crampons, j'te découpe le tendon J'ai laissé les problèmes en soute, maint'nant, j'ai trop d'aisance C'est une longue construction, d'puis l'adolescence J'commence à voir l'sommet de l'arborescence Intervention plus que délicate, séminaire Yeah, j'me positionne sur ta réserve héréditaire, tu captes pas, faut qu'je réitère Jette l'allumette dans le jerrican, seul survivant comme dans Many Men, instru laissée inerte Au top niveau, printemps, automne, été, hiver, pluggé comme Péritel Moindre faux pas tu le payes cash, c'est bien sur ta tête que la 'teille casse J'lance le regarde noir de C17, concu' docile comme un Teddy Bear Y est fou c'man, c'est c'qu'elle m'a dit la dirlo, mes inspis' c'était Gucci Diplo Vendeur de shit, mon seul diplôme, j'volais tout-par, puis j'mettais sur Depop, let's go Guette la stamina, j'inhale beuh magique, un 10K qui tape On y va, l'projet est solide, j'suis en one, one, one, one Running lacets crades, j'me suis assez crack J'viens pas d'Birmingham, mais j'ai des p'tites lames Sourire du Joker comme dans Batman Hémoglobine, adrénaline, c'est pas leurs bails d'adrénochrome 2-0, vingt-trois, fin du game, c'qu'ils font en un an, j'le fais en un On peut t'rentrer en entier dans un vulgaire caba, il m'faut la money, le canap' Ikea, vite On doit glow up, maîtriser l'art, il d'viendrait fou Emile Zola Big fumée, je n'fais que tousser, et OG J'suis d'vant l'azerty, on fait plus d'passe dé', les p'tits maint'nant s'prennent pour des PDG, yeah Force à mes gars d'en bas, ceux qui s'butent Han han Toujours assidus, dans l'business comme dans les stups, peu d'études, mais beaucoup d'maille, ok Force à mes gars d'en bas ceux, qui s'butent Han han Toujours assidus, dans l'business comme dans les stups, peu d'études, mais beaucoup d'maille, let's go Sto, Sto, 5.9, TNF, LCG Classique Attention à ça yeah, p't'être ça va, ça peut partir à tout moment Ça drop n'importe quand Han, est-ce que j'l'aime ? Han Yeah, yeah Ne raconte pas ta vie, nous on regarde que la notre, j'ai entendu une belle voix qui venait d'là-haut J'lève les yeux et ma grand mère me fait un clin d'il, en me chuchotant qu'des des femmes, y en avait plein d'autres Les flammes, les yeux, la pluie derrière les carreaux, j'roule à deux cents, j'vois des fleurs en d'ssous des panneaux J'ai même pas pu lui donner un bisou, j'croyais qu'ces choses là n'arrivaient qu'à l'autre Et dans l'fond, les gens qui doutent, on aime ça, on a l'même tour, peut-être on a pas le même sac Et oui, j'ai un peu plus de talent, mon frérot, même si sur l'papier on a juste le même bac, sa mère Front Crook et la ch'ville craque sa mère, des anneaux sous l'capot, j'en veux au moins quatre, sa mère J'ai attendu mes jnouns derrière la porte, si l'av'nir veut pas s'battre, je réglerai le cas d'sa mère Hein, j'rêve de reprendre les mains qu'j'ai rattrapées, qu'j'ai lâchées Un vrai amour est celui avec lequel on a pas l'courage de s'fâcher J'ai grandi à un endroit où, en fait, y avait même pas d'train Où ça hurlait si sur la table, moi et ma sur on r'tournait pas l'pain J'écoute Quand je s'rai grand et j'écoute L'amour est mort, mais J'voulais parler aux étoiles, j'ai vu quelles dormaient J'ai d'mandé à Dieu comment on peuple un désert, pas d'réponse, il paraît que le silence est d'or, mais Dans l'église de la haine, j'ai pas regardé les vitraux, l'amour en un point, il faut juste cacher les vitaux Dans l'truc j'égorge des prods, on en a changé des vies tôt, dix ans qu'j'ai perdu mon p'tit cur, j'ai pas trouvé c'qui équivaut Et si j'suis là, c'est gage de qualité, j'me casse, j'suis fatigué On rêve trop, chez nous, c'est rare de graviter, tout peut s'envoler, la vie, c'est comme le cash de Halliday Ou ta jambe, si j'lâche le canidé, j'vis, j'pense, crève, moralité Après la tempête, la flaque sera vidée, mets cent briques sur la table, tu verras mes eyes se raviver W, ils pourront jamais test J'attends de ramener l'pez, les gens, c'est comme les fesses, y en des tas qu'j'aime et des tas qu'j'déteste W, ils pourront jamais test, j'attends de ramener l'pez, regarde c'que j'leur fais avant de m'parler d'sexe Wouf Attention, belek Yeah, yeah, wow Wah wah, yeah Mon dernier album, shesh Wah, wah, wah Mon dernier album s'appellera Larsen J'veux réussir mon départ à défaut d'être arrivé Nique leur carré VIP, leurs chiffres sont faux, mon art est vrai Quinze ans, j'rêve d'être un rappeur, vingt-cinq ans j'suis un rappeur qu'arrive plus à rêver J'veux finir près d'la mère loin du square Tous mes sons ressemblent à des outros, car j'me souviens qu'des fins d'histoire Guess who's back J'ai une carrière qui boite comme l'usual suspect J'voulais une maison sur la côte, j'ai qu'un requin sur l'pec' Ouais, allô j'écoute, encore un artiste qui pense pouvoir mieux réussir en écrasant ses potes Encore un label qui t'baise en faisant croire qu'l'avance est haute Encore un journaliste qui oublie trop souvent qu'il mange grâce au talent des autres sur mes textes mais ils comprennent rien Sur scène je chante ma tristesse, font des pogos sur mes plaies Quelque part entre le maquis, la toundra, les amis, les coups bas, les j'arrive, les bouge pas Baki et Rakim, Salif et Fally Ipupa Ali et Booba J'regarde les gros titres et toi tu t'demandes c'qui m'effraie Ma mère a les traits tirés tandis qu'moi je tire des traits Pourquoi j'pense à ça tout l'temps ? J'voulais l'emmener à la plage, j'me suis retrouvé dans des sables mouvants, yeah J'vais leur prendre l'oseille, nique leur tendre l'oreille J'bosse l'album intemporel, puis adios Ciao, ciao J'ouvre une radio, j'organise un festival comme Jean Morel Donc me d'mande pas si j'ai l'temps pour elles Yeah Han, han, yeah yeah, yeah, han, han Les yeux rouges pas à cause du chlore, en c'moment, j'pense trop à la mort Mime l'Extendo avec mes doigts, j'en veux un vrai pour m'y croire L'arme à feu pour prendre du recul, flemme de rentrer dans leurs murs Nous on kiffe c'qui sort du cur, chez eux, ça sort par le cul Connaît l'gouffre, les rooftops, le goût d'la rage et de la vie D'puis p'tit, j'ai les mêmes envies, j'ai pas changé, j'fume juste des clopes Y a des jours où j'dis qu'j'vais le faire, puis d'autres jours où j'le fais juste J'suis comme une fausse note qui sonne juste, donc ils me proposent tous de l'aide Mais moi, j'veux pas changer, rester qui je suis, pas honte de c'que j'étais J'étudie l'Homme, de jour en jour et je n'veux point lui ressembler J'ai vu des darons frapper leurs mômes comme si c'était des ennemis Plus proches de animaux et d'leur instinct, que d'mon portefeuille Perdu l'innocence dans les yeux, j'avance, j'fais semblant d'aller mieux L'insolence quand je suis sur scène, l'humilité quand j'change de lieu Jamais, jamais dire Jamais, donc j'aurai jamais c'que j'veux J'crois qu'j'ai plus d'feu dans les yeux, l'autre moi l'ravive comme il peut Réveillé par un trou d'mémoire, c'est vite le brouillard Débrouillard, même plongé dans un trou noir, hein Instinct de survie, la vie un combat donc je combats, chien La vie un combat donc je combats, let's go Chien La vie un combat donc je combats La vie un combat donc je combats, oui monsieur Han, yeah, han, W J'ai croisé l'diable, ce fils de pute ne portait pas d'Prada Tête à tête contre l'av'nir, mais bon, y a quatre gars là Pensent être meilleurs que moi, visiblement, c'est pas l'cas, là Pas d'casquette, si j'avais honte comme eux, j's'rais sous Balaclava J'vois plus grand chose dans la pièce, j'attends l'éclaircie Merci, même si j'lui dis Je t'aime, elle m'dit J'ai l'esprit J'ai donné mon cur à ma tête, ma tête au ness-bi J'peux leur apprendre les vrais placements, pas leur donner la modestie Un Yamaha d'compét', v'là d'vérifs J'crois qu'il pleut, l'ciel veut pas qu'j'guérisse À SLN, y a rien, y a qu'moi, pas d'périph' J'peux tout niquer et même pas palper d'biff ? Quatorze, quatre-vingt-dix-neuf, j'tais d'jà plus fort à dix-neuf Sous M1 Pro, veulent rivaliser, ils n'ont même pas l'i9 Fer est neuf, j'me d'mande qui s'ra bientôt le vrai Keyzer Tell'ment chaud qu'même si ils voulaient, ils auraient même pas pris l'eu-f, han W jusqu'à l'infini, j'leur mets tempête, un tour d'avance et j'me prépare à filer Leur flow est pas raffiné et leur shit est paraffiné, qui s'ressemble, s'assemble, donc j'invite un FAMAS à dîner, han W jusqu'à l'infini, moi, j'invite un FAMAS à dîner W jusqu'à l'infini, moi, j'invite un FAMAS à dîner J'suis dans l'magma, j'crée un torrent, j'suis en flux tendu d'insolence J'ai déjà vu l'film, y a un cowboy qui tue un comanche Face cachée d'la Lune, j'envoie l'unité d'engins volants Pour te montrer comment j'commande, d'en-haut d'la tour, eh Électrique lady, j'ai des skills terribles, genre déplacer des mondes anciens via la télékinésie J'suis fait de plasma, vaisseau de classe A, vengeance de Casca God Hand 4, code eight, Lune noire, code name, survivant comme Ken Bon, j'arrive en vitesse de distorsion, j'suis en finesse T'arrives en Claude, t'arrives en ivresse, han Venu pour distribuer le vrai shit, j'zigzag entre les équinoxes, ça m'donne le vertige, han J'prends aucun plaisir à les tordre, j'me sens différent, c'était déjà l'cas à l'école, bon, bon, eh Dystopie des drapeaux, nique diviser pour mieux régner, non, j'suis pas aussi mégalo Ce monde projette un reflet, on d'vrait s'en servir de repère afin d'gommer les différences entre les lions et les crapauds Ahahah, 7.5, monsieur Yeah, yeah, yeah So le Sheldon, so tout l'monde, shh-shh-shh So Big Pierre, toujours hein, toujours Les mots sont pas plus beaux même une fois mis sur des toiles Pas sous drogue, j'suis soûl l'soir, des fois, même, j'suis sous étoiles J'parle tell'ment d'mes démons, j'me convaincs même p't'être d'les voir Ça fait longtemps qu'j'bats des ailes Fais le vide vite, fais le vite vite J'suis derrière l'mat'las, j'record mes cauchemars, ils participent Depuis dix piges, j'suis chez moi, l'enfer, j'le touche d'ici J'vois l'invisible, j'suis dans l'partage, prends même un bout d'ma peine Y a pas d'label au bout d'l'appelle, oh wow, non Pourquoi la belle a l'goût d'la bête, y a ma tombe au bout d'la pelle, oh wow Si elle s'attache, j'm'arrache d'ici, j'ai du Chanel, pas du DC Mais j'vois tell'ment d'fantômes et j'suis tell'ment hanté, j'suis en leasing J'suis dans leaving, j'suis dans la room, elle a mon cur dans les mains, mon cerveau dans la bouche J'connais des gars louches, hum, ils parlent avec les poings et c'est pas du morse, nan nan Même pas du braille, non non, si demain j'die, non non Merci pour tout, maman, merci pour tout, maman, merci pour tout, maman J'suis avec W, Pierre, anNie, on s'est pas fait les dents, on s'est fait les canines Y a des corps sous l'étang, des tonnes de Fentanyl, avec Lewis et quand on clip, on tue le temps Élaborer des plans qui f'raient rougir Staline, yeah On parle beaucoup d'argent, rêver des kichtas grandes comme Mimie Mathy J'passe l'hiver à Berlin, après, j'vais en Pologne comme Lil Yachty, yeah Gang On les blesse, on les blesse, kichtas et gouttes de sang épaisses Méfaits durs quand j'connais trop pas la hess L'ascenseur en panne, la daronne qui stress, qui nous parle de son pagne Trente-et-un ou trente-et-un, pop champagne, c'est ça la vie en vrai C'est ça la vraie, j'demande au reufton Sers-moi la fraîche Le est hot rap, on dirait j'prêche, j'vais die comme un prêtre La vie, c'est un prêt comme ta putain d'toxine, avec des comme un putain d' J'te vois de loin, j'te sers la main, j'vois dans tes yeux, Dos argenté, plante-moi ton cut, il va pas rentrer Mes PTSD font mes mauvais réflexes, , , jamais d'te-trai Hein, hein, yes, négro, on les blesse, négro S'ils veulent nous faire, on les blesse, négro PTSD, c'qui a dans l'crâne, négro, se démerder avant qu'on canne, négro Yes, baby, on est wet, baby, Man Of The Year, j'suis le best baby Crack baby, quatre-vingt-dix, viens boy, y a v'là les indices Han, han, ok ok ok ok, so big Wallace, let's go Yeah, yeah, Grünt 57, On les casse, baby, on les casse, baby, hey Grünt 57, yeah yeah, toujours, yeah, hey, hum, hum Hey hey hey, Grünt 57, Grünt, Grünt, Grünt 57, han, yeah Faut calmer l'ambiance, un peu, biensûr Yeah yeah, yeah, ok, ok Eh, yeah Litrons d'essence dans la potion, j'ai vu disparaître toutes mes options Les nerfs sont tendus donc plus très loin d'l'implosion J'ai fait une croix sur l'chèque de caution, debout tous les jours, c'est juste la veille que nous r'copions Les craintes se dissipent dans la fumée népalaise Rafales me poussent vers les falaises, dis-moi comment faire pour être à l'aise Plus j'avance, plus j'suis dans l'déni, eh Ce monde est fucked up comme dans Resident Evil, yeah J'la connais par cur, j'ignorance l'évidence terrible Pas beaucoup d'espoir que mes journées s'embellissent Sur le circuit, je mets plus de temps qu'prévu, attentif seul'ment quand j'mets ma vie en péril Trop hypnotisé, ça m'fait tourner la tête Comme seul objectif de ravaler ma peine, mais comment profiter si j'ai pas les mains pleines ? Plutôt bon signe j'apprends toujours d'mes erreurs, j'compte pas m'attarder sur le tarmac Pas dans vos faux plans, j'préfère soigner mon karma, trop peur qu'il me brise comme du carr'lage, eh C'est pas les mêmes thèmes, non, pas les mêmes projets, j'suis en pleine course, pas envie d'me faire faucher B'soin d'être loin mec, j'ai besoin d'être posé, b'soin d'être loin mec, j'suis prêt à exploser Souvent absent de vos soirées dansantes, m'en voulez pas, c'est comme ça, c'est dans l'sang Toujours dans l'vrai, dans la finesse et j'fais du sur place sans hapiness J'sais pas quoi faire de ma vie si j'fais pas ça, dans l'eau glacée, j'fais comme si elle est bonne T'aimes lancer des pics comme les rascasses, pour t'ves-qui, j'</t>
         </is>
       </c>
     </row>
@@ -4215,12 +4215,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>POMPEII</t>
+          <t>Mon son</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Ah, DUC, DUC Ah, ah, ah, ah Jai d'jà assisté à la scène j'ai rien vu, rien entendu Jles laisserai tous morts dans la Seine j'ai rien vu, rien entendu Jécris la nuit, ça d'vient de lor devient de l'or Cur de rate-pi, j'me suis fait seul dehors seul dehors, ouh, ouh Et puisque la vie est une chienne est une chienne Et que le monde court à sa perte perte J'me lève sous weed, je fais le mort mort, mort Je canalise, laisse-les m'jeter des sorts sorts, sorts, sorts Le soleil, la promenade, les maudits, les bénis les maudits, les bénis J'suis couvert de ciment, Pompéi mon pays Pompéi mon pays Faut juste laccepter c'est tout, tu sais tu sais, un jour tout va sarrêter de tourner s'arrêter de tourner C'que j'retiens de Charlemagne de Charlemagne, du Débarquement du Débarquement C'est avertissement, travail avertissement, travail et comportement et comportement J'ai envie de mêler des grands-mères des grands-mères, leur faire du n'importe comment du n'importe comment Mes sentiments dans le désordre dans le désordre, pour elle, j'n'ai pas le temps pas le temps Les ténèbres ont pris le rrain-te, chez nous, le Diable fait des rodéos Incognito, vitres teintées, j'esquive les balles et la Mondéo En bordel, tout l'temps, je dois bombarder Calibré au volant d'mon navire piou, piou, piou, piou Les salopes ne font que plainter, alors qu'ça like toutes nos vidéos On baise ta mère depuis l'indé', avis d'tempête à la météo, eh Ils veulent ma vie, ils ont pas tort, j'allume mon spliff Calibré au volant d'mon navire Le soleil, la promenade, les maudits, les bénis les maudits, les bénis J'suis couvert de ciment, Pompéi mon pays Pompéi mon pays Faut juste laccepter c'est tout, tu sais tu sais, un jour tout va sarrêter de tourner s'arrêter de tourner C'que j'retiens de Charlemagne de Charlemagne, du Débarquement du Débarquement C'est avertissement, travail avertissement, travail et comportement et comportement J'ai envie de mêler des grands-mères des grands-mères, leur faire du n'importe comment du n'importe comment Mes sentiments dans le désordre dans le désordre, pour elle, j'n'ai pas le temps pas le temps J'finis par même dire que c'est la vie Capuché, j'ai fait l'tour du monde de ma ville de ma, de ma, de ma Nouvelle paire, je pars en guerre, c'est nous l'av'nir poc, poc, poc Calibré au volant d'mon navire poc, poc, poc, bye C'est la, c'est la vie J'ai fait l'time, j'l'ai fait Bye, bye, bye Faut juste te donner, tu le sais Un jour, tout va s'arrêter de tourner Comme au, comme au, volant, volant d'mon navire C'est la, c'est la vie3</t>
+          <t>Mon son s'balade en ville avec un brelic Il s'écoute à la morgue, il fume de la drogue Déconseillé aux moins d'seize numéro uno 92100 à l'aise avec ou sans Laurent Bouneau À c'qu'il parait qu'on dit qu'il s'la pète, n'a pas de talon d'Achille Belek !, 'parait que son interprète a la gâchette facile Il devrait passer sur B.E.T., Cherche pas la street credibility, il veut juste s'barrer d'ici Il est vulgaire, devant rien ne recule Frappe la tête et les rotules, il a les RG au cul Il a les RG au cul, il s'en bat les reins Ils ont cru qu'il valait rien, qu'il baisserait son peau d'pêche Mais wesh toujours opé car il est dopé Bête de reur-ti a pris du poids car il est sorti Mon son, il s'écoute à fond dans les gros gamos Premier en E.P.S, d'la pire espèce, DPS comme Carlos Mon son Mon son Mon-Mon son Attention voilà mon S.O.N, MC lance un S.O.S La critique est sévère, il se fait péter au pieu Boulet au pied, il s'élève, dangereusement célèbre Il rapporte des sous, rend les gens fous On l'écoute d'Osny à Fresnes, il règne en Amazonie Il crache pas dans la pe-sou, squatte le ter-ter Met les MC genoux à terre, le nez dans la fe-chnou Dangereux comme EJM, un king sous chaque carte Pense qu'au crime, à la chatte, roule en 4x4 Les Mc s'méfient quand il est là J'te jure j'ai vu les juges et les jurés vouloir épurer l'budget Mon son il est mieux qu'le tien Kho, c'est prouvé À l'instant même où tu l'écoutes, redoute la prochaine couvée Alors je le protège car il est wanted, hardcore T'as tort de l'tester, mon son remet tout l'monde d'accord Son régiment, un triste cortège malsain Décrit son malaise, sans Martin Scorcese à l'aise Mon son Mon son Mon-Mon son Attention voilà mon S.O.N, MC lance un S.O.S Il change de flow comme de chemise, pire qu'une descente de schmits Il est rapide, lapide Marine et la pine tranquille Il est toujours fonce-dé pour une meilleure approche Eh ouais mon pote, il est violent Les MC s'méfient quand il est al, mon son, c'est King Kong Parle lui, il avance à grands pas sans sucer quiconque C'est pas un gagne petit, venu au monde On lui a dit arrête de geindre petit, ici c'est la jungle, B2oba son daron Black blanche beurre t'es bienvenue si t'as le boule à Christine Arron Plein de rancur, d'liqueur ensanglantée Gravé dans la roche au marteau piqueur Mon S.O.N, Jack l'éventreur c'est son parent proche Arrive en RER C, repart en Porsche Viens pas test mon son Attention voilà mon S.O.N, MC lance un S.O.S5</t>
         </is>
       </c>
     </row>
@@ -4232,12 +4232,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Sans ratures</t>
+          <t>Cauchemar</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Juste au micro, je te fais la misère Voici la pègre avec à bord mec, un nègre avec un beur Je tassure quon peut faire des battes avec d'la sciure Certifié sans ratures ni fausses blessures Oublie que tes un homme, mets-toi à genoux, tousse, écarte ton rectum Les pires humiliations, cest comme ça que lEtat nous sectionne Jaffectionne beat sanglant sans ratures ni fausses blessures Cest qui cet insolent ? Tétanos, Ness est la morsure Signer pour plaire, laisse pas ton cul en exemplaire Dicidens, Lunatic, cest Verbal Brolik posé sur le sampler Laisse leurs mères en pleurs, ya trop de sang sur nos vètes-sur Si ça prend de lampleur, qui paie les factures si je fais trop de fractures ? De cette époque où les jours se ressemblent Où pour monter faut que je leur ressemble, je ferai pas un succès sur ce genre de sample Moi je te réponds quon sait pas sucer Juste arracher la Sicile aux Italiens car mon compte courant part en sucette Et mes hassanets se barrent en courant Mon courrier écrit au bar, cest pour mes scélérats sous scellés De rouge, de noir et de vert Je suis fait de larmes de gloire et de fer, pas le temps pour les regrets, frère 10 degrés de plus si fallait le refaire Ta plaque nous fait ni chaud ni froid, jai ni frein, ni refrain, moi Je tassure quon peut faire des battes avec d'la sciure Dicidens, sans ratures ni fausses blessures Juste au micro, je t'fais la misère Nessbi Dicidens, sans ratures ni fausses blessures Je tassure quon peut faire des battes avec d'la sciure Certifié sans ratures ni fausses blessures Juste au micro, je t'fais la misère Nessbi Dicidens, sans ratures ni fausses blessures Jai c'putain de vécu qui tous les jours me colle à la peau Et on veut que je crache dessus comme si jallais me torcher le cul Changer de camp pour des écus, fous le camp ! Moi je fous le boucan, entre crépuscule et aube lair devient suffoquant Jentends Booba dire non, Nessbeal fait pas l'con Ça fout le bad, la daronne ma vu fumer des joints au balcon Rien de personnel à part quy a trop de zemels À 15 piges, pendant quinze mois, à cause dune pute, jai mangé la gamelle Rappeur criminel, sursis, les gosses sont comme Attila Ne pensent quà dealer, taffer impossible, nos mains sont comme mutilées 2000, jai vu même les pédés tirer au pistolet Curés pédophiles, faut les étrangler avec leurs chapelets Rien à faire à part pondre des textes sombres comme le temps Malgré le surnombre les miens encombrent la taule, ça devient inquiétant Scanner, capte la fréquence, fais-le sans faire de plaisanteries Sanguinaire délinquance, Famas pour braquer une bijouterie Ils ont dévalisé lAfrique, j'vais piner la France, rek La vie est franche, mec, dure, pas de demi-mesure La mélodie des briques que je débite en vrac fait peur Magie oblige, kho pour que ça se passe pépère Rue dans la peau Cest comme sil avait croqué deux pommes depuis que jai le mic dans la paume Mon Q.G. Boulogne, dôme de la boucherie Du coup jai beaucoup trop de crimes dans la bouche, kho Juste au micro, je te fais la misère Ya que pour pointer que je me lève à 10 h et mes nerfs sont restés coincés Entre le cerveau et lindex sur la gâchette Alors achète mon skeud que je marrache, retire mes billets à la machette Il a beaucoup neigé, décembre 1.9.7.6 Des flocons de coke sur leurs Duffle-coats, écoute celle-ci Juste au micro, je te fais la misère Nessbeal Dicidens, sans ratures ni fausses blessures Je tassure quon peut faire des battes avec d'la sciure Certifié sans ratures ni fausses blessures Juste au micro, je te fais la misère Nessbeal Dicidens Je tassure quon peut faire des battes avec d'la sciure Certifié sans ratures ni fausses blessures Nessbeal 3.12.942</t>
+          <t>Qu'est ce que t'as T'es trop nerveux Laisse moi dormir Qu'est ce que t'as T'es trop nerveux Laisse moi dormir Je le sens que tu trembles Que tu transpires Qu'est ce que t'as Qu'est ce que tu veux Parle pas de malheur Tu vois pas que j'en rêve Il est quelle heure Qu'est ce que t'as t'es trop sérieux Ca me fait pas rire Il est temps que je parte Que je me retire Laisse moi te fuir un peu Tu me fais peur Laisse moi fermer les yeux Sur tes malheurs J'veux pas y croire A ton histoire J'veux pas y croire J'veux pas l'savoir J'veux pas y croire A ton histoire J'veux pas y croire A ton cauchemar Laisse moi passer De l'autre côté Laisse moi tomber J'suis fatigué Qu'est ce que t'as T'es trop nerveux Laisse moi dormir Je le sens que tu troubles Que tu transpires Tu le sais j'suis fragile Toi t'es trop dur Laisse moi sous ma pile De couvertures Laisse moi dans le noir La nuit entière Je ne veux plus voir Eteins la lumière J'veux pas y croire A ton histoire J'veux pas y croire J'veux pas l'savoir J'veux pas y croire A ton histoire J'veux pas y croire A ton cauchemar Laisse moi passer De l'autre côté Laisse moi tomber J'suis fatigué</t>
         </is>
       </c>
     </row>
@@ -4249,12 +4249,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>E.T.</t>
+          <t>Corner</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>J'ai jamais fait la coupole, je connais les coupes gorge Les hall qui se transforment en Woodstock Les bavures, les keufs qui mettent des coups de crosse Du rap qui transpire la haine, sort d'un phone Un spliff, un fond de flash ma daronne A accouché d'un fils indomptable Sous ma capuche, c'est la grisaille, les petits parlent de flingue 16 ans j'écoute Flaque de Samples, je rêve d'une PW80 J'ai plus le temps ni l'envie de traîner dans mon tié-quar Faire le million avec le zetla c'est comme voir Diabi en G-Star C'est à l'ancienne, on y pense plus trop Tout comme les rêves brisés Surtout quand je vais mal, les soirs où je fais que tiser C'est pas qu'une impression, les études m'ont bien eu Pourtant dans mon vécu, y'a l'amour, la musique avant la rue Si ça sent le soufre, c'est que je connais les daronnes au parlu' Je vais pas te raconter mes conneries Ouais que mes parents n'ont pas su Pas de message pour mes surs, juste de l'alcool dans le foie J'emmerde le monde, donc ramène ta cité devant moi Je vais tous me les faire, je rappe comme personne J'attend pas de billets verts, mais en concert Ma voix c'est un compèt', j'ai pas déçu les frères Quelques potos en HP, quelques potos en zonzon Enfoiré j'suis l'enfant seul j'aurais pu gouter la pension Connerie sur connerie, j'suis many comme j'suis tony Si tu connais l'rap bah tu m'connais J'suis le plus connu des inconnu Comme Koma, j'rappe la rue, j'rap la vraie L'amertume qu'on va soigner au Jack Daniels Ha bah ouais, tu croyais quoi les alcooliques mélancoliques C'est la détresse du samedi soir Comme la jeunesse qui crame son shit Dans un petit square, on s'appauvrit On refait l'monde sous quelques bières On pleure nos frères, toujours en retard de la faute aux RER Y'a les potos qui d'viennent pères, les enterrements c'est embêtant Tu pleures le soir, plus lunatique qu'Ali et Booba en même temps Et le 7 janvier 2015 la France s'indigne Un jour ou l'autre ça va péter telles des grosses fesses dans un legging Et si les poulets m'questionnent, j'leurs dirai que je suis pour la paix Même si j'ai cramé la France lors de ma tournée d'automne Ça t'étonne j'parais sage mais passe à Paris Nord Respecté par les grands et par les braves Dans un phone mon son raisonne Demande à Askaan, H24 sur l'asphalte, on a fait l'tour du periph' De la funk à la radio, pas d'ceux qui basent la coke dans l'lavabo J'suis pas d'ceux drogué, paralysés, ouais qu'y en devienne parano Qui sont seuls avec leurs dettes, et qui s'font soulevé par la rue Ça t'amuse, mais c'est pas drôle On peut t'massé jusquà ce que t'appelles le SAMU J'passe le salut aux miens qui viennent me voir en concert J'fini Bleu Noir et les autres vont prendre l'eau Nager jusqu'en Angleterre, qu'est ce t'en dis ? J'fais du bon rap j'reste le même et j'suis gentil Ouais j'suis vrai dans mes paroles, indépendant comme Gandhi Sanka m'épaule, Laura et Flav sont pas très loin Ça fait 1 pour ma province, donc 2 pour mes parisiens Et on m'dit nique ça, envoie des rime sales J'ai toujours autant la dalle que quand j'péra avec Annisa ou Limsa J'passe au PM et j'mets un billet sur Bazire Car dans mes poches c'est l'bazar Et faut se mettre bien pour l'avenir Toujours une pensée pour Mickey au placard Ramener mon phrasé sur les ondes J'viens infiltré vos réseaux, n'ai-je pas raison ? Rapper mon malheur c'est mon domaine Dans la tristesse j'suis un taulier Mais j'suis qu'un homme, j'suis pas parfait Me parle jamais d'apogée Si tu participes à Bleu Noir tu fais avancer l'mouvement C'est la victoire de la musique, c'est pas qu'une histoire d'argent En gros, vous êtes mes producteurs C'est pour vous, c'est pour en bas C'est du bon rap qui restera toujours populaire Beaucoup trop de mesures de rage, et j'suis loin d'tourner la page Retourne à la rime au dessus Bleu Noir j'le ferai avec le cur, motherfucker ! Retourne à la rime au dessus Bleu Noir j'le ferai avec le cur...14</t>
+          <t>Han, anmwé Ou té ja konnen, ou té ja fout konnen, han Haaan International Zoe, bouzen kitèm palè Corner a se kay mwen, chak matin mwen balè'l La ri a se pou nou, ansyen nèg yo fachè 44 yo flashè, kolanguet yo chirè Gato keep it Bato, Booba keep it izi Posted futuristic, please put on your 3D We are on some new shit, smokin' on that seeweed Higher than the moon, bitch, you stars cannot see we We some guapy, guapy, guapper guappers, You a copy, copy motherfucker Wait ! Don't you baby me, Don't goo-goo, post a goo-goo gaga Gaga goo-go post a mail, I'm surfin' thru my Yahoo mail I ain't on that gang tip, But I'm damu gale Shoutout to the females! We be gettin' females She said all yo' niggas broke, Pockets on e-mail That's some spam shit, And y'all be goin' ham' Pussy-Ass Motherfuckers, Y'all be going HAAm bitch ! Ridin' to that pocket popper, Sippin' on that swagger water Toujours got me mile high, smokin' on that Colorado Jesus Pieces, keep these quarter pieces on my meter They scared to feature post'em when its Philly that murder feature I see hoes and the cops see low, Mani leather with a oxy flow ... You got me, bro? Swagger on prime time, watch me bring that quarterback And I'm comin' for that sack, Little Haiti warrants that..... International Zoe, bouzen kitèm palè Corner a se kay mwen, chak matin mwen balè'l La ri a se pou nou, ansyen nèg yo fachè 44 yo flashè, kolanguet yo chirè Gato keep it Bato, Booba keep it izi Posted futuristic, please put on your 3D We are on some new shit, smokin' on that seeweed Higher than the moon, bitch, you stars cannot see we Haïtizi, 92izi, j'suis sur le corner, j'prends numéro d'Colombiennes Mexicaines, Haïtiennes, j'te laisse Yvette Horner Monsieur Double Poney, les experts à Miami sont formels C'est la Hass, le crime se vend en cornet Nous ? R.A.S, tape pas dans la coke, mais dans la caisse Baise comme un val-cheu, piqure de tésto dans la fesse J'en ai vu d'toutes les couleurs, comme dans sachet de MM's Donne-moi ton number, j'tenvoie l'bre-chi par MMS Dis-moi si tu kiffes grosse tache, j'suis dans Autopsie comme J'suis dans, j'suis dans Autopsie comme Grosdash On fait du gros cash, menace météorite a dit le broadcast 1.0.0 moins ocho, c'est le mot d'passe J'suis sur le corner avec Poe et Gato Tire sur le blunt, sors des flow extraordinaires Pris en photo tous les dix mètres Le buzz est dans la street, fuck lapplaudimètre International Zoe, bouzen kitèm palè Corner a se kay mwen, chak matin mwen balè'l La ri a se pou nou, ansyen nèg yo fachè 44 yo flashè, kolanguet yo chirè Gato keep it Bato, Booba keep it izi Posted futuristic, please put on your 3D We are on some new shit, smokin' on that seeweed Higher than the moon, bitch, you stars cannot see we Pas gin plus bon base que base mwen, Federation graine sec Lé haut lady 54, Diplimatic citoyen Chaine lan cou bel bijou Ou Gwos lévi linett noi' Benz full option 22', intérieur blanc volant noir Chaque matin m'kampé la, Sa map fé la , , N'impote sa wap cheché, I'm the man I two ta, vinn demin, Anvant 9 heur di matin Si ou oué ou machine Qui pas kep ret kampé la, retourner Hennessy ak Jack Daniel, Bouteille noir, glass Cognac 3 Bouzzin des latino, Pendant yo plin travail Poko vlé kem vlé a do, La ri a di glissé kesyon Bizis la sa pas mem gen encor, Kou yo pren une yap baye yo lote Machine yo ac kaye yo, Machteyo ac my boss flow</t>
         </is>
       </c>
     </row>
@@ -4266,12 +4266,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Nouvelle école</t>
+          <t>KOA</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Wesh Omar ! Finit les cauchemars DJ Bellek Ouais, ouais Eh yo ! moi j'rappe depuis peu, pour certains, j'suis encore p'tit J'peux t'dire que sur c'beat, j'commets des crimes La crim' dessine ta silhouette à la craie vrai mes rimes déciment Celui que personne ne console 1 000 et 1 kil de hi on consomme fuck c'qu'on nous destine Peu d'estime faut qu'j'kill dans tous les styles 1 000 et 1 plavants en avant toujours les mêmes J'parle plus, j'crache ma putain d'fumée par l'zen Qu'on m'épargne toute psychologie Un faux départ, une victoire, laisse-moi faire mon apologie Parti de zéro, sans toucher ni crack, ni héroïne Black j'ai vu c'que ça fait négro C'est mafé style, faut pas stagner Dis-leur qu'on taille, que la volaille n'est pas d'taille Mon initiale sur ma bague puis sur ta joue Parce que t'es naze et tu perces et tu t'la joues Mon rap t'attrape par l'col, nouvelle école Mes frères déconnent, nouvelle école Passe-moi la beuh qu'j'décolle, nouvelle école Mon rap t'attrape par l'col, nouvelle école Mes frères déconnent, nouvelle école Passe-moi la beuh qu'j'décolle, nouvelle école Je change tout, de cours, de classe, j'garde les mêmes fous Fous autant la merde jusqu'à New york zoo Mazalaza s'dit intello d'sa B.O. kho J'fais d'la bio rapologique comme B2O Faut qu'la nouvelle décolle Y'a une nouvelle école, plein d'vrais Bien frais, pour t'régler en français J'monte en scène, t'es offensé car même défoncé j'saigne J'ai l'rap 5 et j'suis plus zen Et vois plus de feintes de ceux qui m'sucent J'peine plus pour aller où j'veux, où j'peux Grâce à mon école mon neveu J'tiens les murs man, ma nouvelle école du 9.2. kho Mazalaza, malekal mon prof Mon rap t'attrape par l'col, nouvelle école Mes frères déconnent, nouvelle école Passe-moi la beuh qu'j'décolle, nouvelle école Mon rap t'attrape par l'col, nouvelle école Mes frères déconnent, nouvelle école Passe-moi la beuh qu'j'décolle, nouvelle école Ah vas-y ! Excuse ma courtoisie J'ai dû braquer l'hip hop, le move personne ne m'ouvre Essaie pas d'changer l'optique Tasse-pé joue mon son après minuit, oublie pas d'changer le p'tit Dans ma banlieue ça étudie, ça joue au foot un peu J't'ai pas tout dit, ça rappe, deale, se shoote un peu Faut les mettre, trop d'putes dans l'périmètre Pour les MCs périmés faut les mettres dans l'9mm C'est Lunatic, c'est catastrophique Ici c'est barillet, résine et bas-résille... J'rappe pas pour les p'tits, j't'avertis J'suis déconseillé comme avorter Et quand j'entends les sirènes, j'me rappelle que j'suis la cible J'repense au thon, à ma cage, aux films de la 6 C'est 1 pour la basse, 2 j'tabasse J'suis pas une légende moi j'traîne seul ou en bande J'vis en noir et blanc, j'en ai vu d'toutes les couleurs moi Donne l'or noir, beurs, noirs v'nus flinguer leurs lois J'dors pas, j'défouraille sans aboyer Nouvelle école Mon rap t'attrape par l'col, nouvelle école Mes frères déconnent, nouvelle école Passe-moi la beuh qu'j'décolle, nouvelle école Mon rap t'attrape par l'col, nouvelle école Mes frères déconnent, nouvelle école Passe-moi la beuh qu'j'décolle, nouvelle école Ha ha, ha ha ha, ha ha...! Attention! Nouvelle album, hiver 2005 Disponible chez ton armurier B2OBA, biatch ! Los halamos 9.2 Hauts-de-Seine, Hauts-de-Seine1</t>
+          <t>Leur seule victoire, c'est ma chute, chaque fois qu'j'suis tombé, j'me suis relevé Température du cur, c'est froid, ça descend en-d'ssous d'zéro degré Le code promo, c'est TOC-TOC-TOC, tout l'monde à plat ventre, prie ton Dieu Prie ton Dieu De pire en pire, chez nous, ça veut dire De mieux en mieux De mieux en mieux Dans ma tête, y a d'la drogue, des femmes, c'est un cartel colombien Cartel colombien Si tu veux, je te dépose dans les flammes, c'est sur mon ch'min Tous les jours, j'suis zehef, j'allume un réglisse sur la route Puis, Omar me sourit et là, je me dis J'ai fait fausse route Fait fausse route J'vais tout assumer, j'suis v'nu en solo, j'repars en solo J'aurai t'nu comme Mobutu Let's go Pirates soudés, victoire assurée, comme le R et Golozer Faudra aller au bout, entre en guerre avec nous, t'as touché l'gros lot Dans ma tête, y a d'la drogue, des femmes, c'est un cartel colombien Cartel colombien Si tu veux, je te dépose dans les flammes, c'est sur mon ch'min Tous ces menteurs sont certifiés, j'comprends plus rien J'comprends plus rien Pas eux les jefe, plus j'connais les faits, plus j'aime mon chien Plus j'aime mon chien Fin du monde sur un prélude de Bach, c'était eux l'attentat L'attentat I am a legend, outils dans l'sac, mon malinois Malinois Ils diront que le déluge est là, que l'Arche n'attend pas N'attend pas C'est même peut-être plus safe de rester avec moi Avec moi J'avance à grands pas, cartons, petits ponts et ma ganja Et ma ganja T'as fait ci, t'as fait ça, t'sais qu'non, d'mande à Mansa Filtrée, cropée, folle, j'veux que son cul, pas son avis Pas son avis J'connais ni son prénom, ni son 'phone, que son IG Que son IG J'ai mon blouson en cuir, mes principes, Kopp of Anarchy Of Anarchy Il a aidé la France pendant la guerre, c'est un harki Un harki Il les aidera encore, un vaut rien comme bien mal acquis Mal acquis Coup d'boule en finale, Zidane, ma thérapie Ma thérapie T'es sixième dan, une balle et t'es parti Et t'es parti Non-binaire, végétarienne est sa Barbie Sa Barbie Ils demandent le pardon, demandent protection, j'demande un glaive J'demande un glaive Tu rentres par une chatte, tu sors par une chatte, demande à Waze Demande à Waze Dans ma tête, y a d'la drogue, des femmes, c'est un cartel colombien Cartel colombien Si tu veux, je te dépose dans les flammes, c'est sur mon ch'min Tous ces menteurs sont certifiés, j'comprends plus rien J'comprends plus rien Pas eux les jefe, plus j'connais les faits, plus j'aime mon chien Plus j'aime mon chien Fin du monde sur un prélude de Bach, c'était eux l'attentat L'attentat I am a legend, outils dans l'sac, mon malinois Malinois Ils diront que le déluge est là, que l'Arche n'attend pas N'attend pas C'est même peut-être plus safe de rester avec moi Avec moi1</t>
         </is>
       </c>
     </row>
@@ -4283,12 +4283,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Commis d’office</t>
+          <t>L’effort de paix</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>ZalazaSta, kho click ! B2O BA, kho click ! Kho ! Kho ! B2O Click, BA, click ! Yo ! Pour tous ces mal appris, moi la zik j'l'aime à la vie J'ai pas de mal à lui donner, après chaque maladie, y aura exil en Malaisie Malashnikov, en main cocktail malatov T'as 20 secondes pour prendre ce que Mala t'offre Pas de cadeau m'a fait la vie J'aurai bien voulu bouger au Guatemala ou en Asie J'ai la maladie du biz ! Du biff il en faut plus que dans mon saladier, tu kiffes, qu'on se le dise ! Comme tout le monde le summum j'vise Brise ceux qui m'privent de ma cerise, j'contrôle l'analyse Pas le temps de jouer faut qu'on se casse Kho ! Mais donne mon dû avant que je trace Kho ! Mo click ! MazalazaStatic ! Ils veulent tous percer, trop peu aiguisent leurs lames Maitrisent leurs armes, trop déguisent leur âme Au dessus des lois, violent à ma guise kho Que Marianne me suce la bite qu'elle ne me fasse pas la bise kho J'écris mes textes les doigts dans la prise Petit, cherche pas à savoir si j'prie ou si j'tise Trop frelon, 400 ans c'est trop long C'est pas la mer qui prend l'Homme, c'est Christophe Colomb Comme dans le cul à J-Lo, ces fils de putains nous l'ont mises kho Quand la première galère a pris l'eau J'atteste qu'il est unique, que ma race sert de crash-test Déraciné, ma terre est sous mes baskets Hein, le sujet me tient à cur Mets du coco dans la fusée, j'emmène mes frères et surs Dépouillés en toute impunité, trop abusés kho Alors on fait du fric sale essaie de s'amuser J'ai la nuque du rap sous mon aisselle Le biz est plié on l'étouffe allez tous vous rhabiller Monte à bord du B-52, touche pas au klaxon J'consomme, pose mon 16 avant que le me-se m'assomme Mon son n'a rien de banal Négro j'ai peur de venir à ta radio, glisser sur une peau d'banane M'ouvrir le crâne sur le bitume, timal L'important c'est pas la chute, mais les thunes qu'il y a au final Je sais que t'aimerais me descendre, tends l'oreille pour me détendre Claque de l'oseille, j'attaque pour me défendre Monsieur l'agent c'est qu'un malentendu Parait que ça a tiré mais j'ai rien entendu moi, j'ai la voix grave car on m'a pendu Négro personne n'a attendu leur aide, si tu t'es vendu, t'es dead, on est al y'a pas de hasard La brousse comme édifice B2O, commis d'office et Mazalaza Que Dieu me pardonne Ça ferait désordre si sans ça je quittais ce monde de fous Et oui on s'arme comme tous ces connards zonent On est livrés au spliff Seul notre art trône À la plus haute place et les rats grognent Comme des pitts enragés de nous voir tous manger, rangés Enfin vengés d'histoires plein de danger Jamais tranché par une foufoune aux mèches branchées mon crew Que l'on nous pardonne, d'avoir la pêche au mic Faire pleurer le faux au point qu'il faut qu'il sèche ses Nike Wesh wesh, parait que mon flow te laisse en dèche mec Faut que tu me pardonnes, je suis là juste pour la fraîche et le stress On teste ma trique comme le reste de ma clique Faut qu'on s'offre le clac clac et les soi disant blacks s'évanouissent Combien nous suivent parce qu'on est plus quand on glisse ? C'est VIP style, faut qu'on nous le pardonne de destruction massive, j'me Kho ! présente Kho !, j'assure B2O, mort à la suite de mes blessures Le son qui passe aux assises Dur plein aux as, grosse caution, grosse benz grosses liasses C'est la patate, sous l'durag et l'bandeau Me serre pas dans tes bras, j'ai les couteaux de boucher dans le dos On sort un skeud et ça se bouscule, c'est de la came pèse-la La vie est une grosse pute alors baise-la Ha ha ! Big hit pourtant j'ai ralenti le shit 1.0.0 moins 8, Z double zéro Commis d'office, Cruel On fait du nessbi, du textuel, beaucoup d'MC naissent bissexuels B2O...Mazalaza...BA B2O... kho click ! ...BA Commis d'office Khaza, Mazalaza Static !,beaucoup d'MC naissent bissexuels Kho ! Je sais que t'aimerais me descendre, tends l'oreille pour me détendre Claque de l'oseille, j'attaque pour me défendre Kho ! Monsieur l'agent c'est qu'un malentendu Parait que ça a tiré mais j'ai rien entendu moi, j'ai la voix grave car on m'a pendu Négro personne n'a attendu leur aide, si tu t'es vendu, t'es dead, on est al y'a pas de hasard La brousse comme édifice B2O, commis d'office et Mazalaza Cli-Cli-Cli...Click ! Tiekson ! B...2OBA, kho click ! ZalazaSta Za... khaza... kho, BA, Big! Big ! Big ! Kho ! Kho !2</t>
+          <t>J'suis venu en paix, pour faire la guerre aux bâtards B2OBA j'traîne tard évitant les endroits takh Fresnes Malsaine est ma vie Parce que j'veux pas r'partir les mains vides, c'est pour les khos d'ma ville Défilent, des billets des filles, des bolides 92 Et pour les gros harkos, des grosses bastos J'suis venu en paix cousin pour faire la chasse aux CLK 230 Chante pour que les porcs rampent P.A.I.X. tu parles Y'a plein d'J.X. tout-par ça sent la hin tu flippes Atmosphère de guerre du hall à la gare, et vice-versa J'm'étonne pas d'voir nos fils faire ça Torse bombé, un peu corse, pense qu'à poser des bombes La dinde et les autres qui sont tombés Et ils veulent tous rapper, comme s'ils avaient quelque chose à dire Mais laisse-moi t'rappeler où c'est J'dois faire l'effort de paix J'dois faire l'effort de péra, Sir Doum's, Ali, Booba Accords de paix rares, frères quand allez-vous voir? Qu'j'tue l'beat sans alibi man et j'verse-tra la scène Pendant qu'mon son t'regarde de vers-tra Effort de péra, Sir Doum's, Ali, Booba Accords de paix rares, frères quand allez-vous voir? Qu'j'tue l'beat sans alibi man et j'verse-tra la scène Pendant qu'mon son t'regarde de vers-tra Ici y'a pas d'blé, mais rien qu'des voraces venant du bled Et sur mon palier, ça sent que l'maffé, le couscous ou l'tiep En tout cas pas l'porc ou bien l'cassoulet, comme chez les gens chez qui j'vais cagoulé Puis m'taille avant qu'les poulets s'mettent à débouler C'est grave comme ils veulent me cé-coin ces caves Ils kiffent quand à 6 heures ils m'captent au pieu en çon-cale ou en slip S'emparent de mon shit, sont quatre pour m'mettre les menottes dans l'dos Pendant qu'mon père fait l'odo car j'entends l'eau du lavabo J'leur veux la guerre, donc laisse-moi en paix frère S'il faut je ramperai, dans les hautes herbes, comme un Serbe qui observe Vous tremblez car on a besoin d'blé, on vend du shit aux blancs Imitant les noirs en jouant du djembé dans les squares Cinglés sont mes scarlas l'soir quand la hiya s'pointe En plus chez nous les joints ça s'blinde à la Dinde J'ai pas d'lampe d'Aladin dans ma bre-ch', le matin j'ai qu'ma beute sous la main Que j'frotte en pensant au tapin d'hier derrière un sapin J'suis un d'ces sales types, fuyant les flics, qu'on prend pas en stop ou en taxi Même quand j'ai du fric, y'a des timinics Mais j'fais l'effort de paix, nique les sons sans respect, mes phrases de coups d'épées Quand j'me trouve sous Déspé J'dois faire l'effort de péra, Sir Doum's, Ali, Booba Accords de paix rares, frères quand allez-vous voir? Qu'j'tue l'beat sans alibi man et j'verse-tra la scène Pendant qu'mon son t'regarde de vers-tra Effort de péra, Sir Doum's, Ali, Booba Accords de paix rares, frères quand allez-vous voir? Qu'j'tue l'beat sans alibi man et j'verse-tra la scène Pendant qu'mon son t'regarde de vers-tra La vie est ainsi pour que la paix s'apprécie Faut passer les combats, la sueur et la pression Des Moulineaux Issy, PDS cité Ici c'est soit tu fais ou soit tu t'tais A.L.I Hardcore sessions Et les bidons s'posent des questions, explosions Partout dans l'globe Pendant qu'à Paris ça s'tape pour des tasses à la sortie d'clubs Des guerres fratricides on a hérités Ceux qui divisent restent irrités Par l'utopie d'nos textes, Éthiopie et Érythrée La paix est sacrée, en son nom j'lutte Fournis les efforts pour que le repos s'mérite Quitter l'Europe pour retourner en Afrique Avant qu'nos esprits quittent nos corps redeviennent poussière Entretiens l'endurance et le cran pour linsurrection Préserve la paix pour la résurrection Lunatic J'dois faire l'effort de péra, Sir Doum's Ali Booba Accords de paix rares, frères quand allez-vous voir? Qu'j'tue l'beat sans alibi man et j'verse-tra la scène Pendant qu'mon son t'regarde de vers-tra Effort de péra, Sir Doum's, Ali, Booba Accords de paix rares, frères quand allez-vous voir? Qu'j'tue l'beat sans alibi man et j'verse-tra la scène Pendant qu'mon son t'regarde de vers-tra Effort de péra, Sir Doum's, Ali, Booba Accords de paix rares, frères quand allez-vous voir? Qu'j'tue l'beat sans alibi man et j'verse-tra la scène Pendant qu'mon son t'regarde de vers-tra1</t>
         </is>
       </c>
     </row>
@@ -4300,12 +4300,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>92 Izi</t>
+          <t>Têtes brûlées</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Ouais, ouais Si, si Tout le monde s'écarte, je dé-dé-débarque 9.2 dramatique barque, j'distritribue des-des baffes Contrôle d'identité montre-montre nous tes fafs La-La-La chatte à ta grand mère, la g-la grosse biatch C'est 92izi, on s'en bat les couilles du rap Tiens ta langue, man, take it easy Y a pas de balance ici, né-né-négro Hauts-de-Seine illicite, on veut pas voir la police ici C'est 92izi, on s'en bat les couilles du rap Tiens ta langue, man, take it easy Y a pas de balance ici, né-né-négro Hauts-de-Seine illicite, on veut pas voir la police ici Mon-Mon 92izi Kho nos techniques sont trop frénèzes, M.C. tu veux pas clam's comme Eazy-E Attendez que ma clique vous baise, mais n'attends pas que les flics te lèvent Mets toi à l'aise kho, vas-y vite, prend ton biff, baise ailleurs car ici c'est trop guez-mer Touche pas à mon 9.2 bizi, ici c'est 92izi Pour les reufs de téci, Maza maitrise le uzi Bousille sans soucis, se rempli le gosier pour eux Envois les faux sous terre pour eux, pour moi il faut se taire renoi Balance ta maille, ton spliff ou ton verre de sky Tous tes fans sont mythomans, rien à voir avec nos hooligans Tu recherches la qualité dans le 9.2 c'est izi Touches pas a leur putain de cam, écoutes dans mon 9.2 uzi Izi, izi, izi Featuring los halamos pour leurs femmes hein ? Tu veux venir teste à la source dans le 9.2 ? C'est izi D'mand' Maza, I2S, B2O ou Brazamizi Allez quitte ici man ! Arrête tes chichi man ! Ta cha-chatte mouille quand je groove sur la zi-zik man ! Sois pas si pathétique, file, nous on aime pas tes tics Malaza black mythique, fumeur de flashs et d'sticks En vrac 92izi, je vois que t'as compris Ici c'est les Simpsons OJ rempli de sunsilk Qui se pointent à l'abordage, bordel les caves ils sont trop nazes Ça suinte fils il est temps de tourner la page C'est 92izi, on s'en bat les couilles du rap Tiens ta langue, man, take it easy Y a pas de balance ici, né-né-négro Hauts-de-Seine illicite, on veut pas voir la police ici C'est 92izi, on s'en bat les couilles du rap Tiens ta langue, man, take it easy Y a pas de balance ici, né-né-négro Hauts-de-Seine illicite, on veut pas voir la police ici J'organise un casting pour tous les rappeurs pour faire un film de boules Laisse tomber la paix KO2P te laisse KO debout Depuis mes débuts les MCs sont trop sexy je les excise Pour qu'ils arrêtent de jouir, n'arrêtent jamais de fuir Dans mon équipe jamais de fuites, n'estime jamais de flics Enfer sur terre, paradis fiscal, ma rage est vitale Selon mes calculs si j't'encule bien, c'est minimum l'hernie discale Musicale overdose j'vois la vie en rose dans mon verre de cristal Retiens bien mes initiales le 9, le 2, izi Tiens ta langue man, take it izi Officiel toujours en biz mon logiciel a buggé trop tôt Ma devise depuis Adam et Eve poto c'est marche ou crève Izi, izi, izi Izi, izi, izi, izi Izi, izi, izi Izi, izi, izi, izi C'est qu'on connait rien, nous, nous tôt dans l'echec on sombre Je crois que c'est clair dans les études ou dans les stups, on tombe Souvent des ffons-bou qu tiennent les diez du bon bout Dans les halls et si ça cesse, sans aucun doute finissent au bois de Boulogne Ici l'homme 92i2S, si, si Izi hors normes, y'a que des bonhommes comme Brazamizi Nous signer sur ton label serait une saisie énorme 92 Injection, mon illicite semi-remorque Les remords suscitent le suicide Dans le cul je mords alors sans me poser de question en restant lucide Auteur de méfaits que jamais ils n'élucident Nocifs on nous arrose de balles comme du pesticide C'est 92izi, on s'en bat les couilles du rap Tiens ta langue, man, take it easy Y a pas de balance ici, né-né-négro Hauts-de-Seine illicite, on veut pas voir la police ici Kho ! Laquelle de ces MC a voulu tester Eh les mecs ! Si vous aimez pas, allez vous faire enculer2</t>
+          <t>92, Hauts-de-Seine Alors comme ça on veut racailler ? Ali, c'est rare de m'entendre rapper Rare de voir ma poire en temps d'paix Garde ma paranoïa près de moi Booba, tu sais pour qui j'plaide Pas pour ceux qui saignent et qui s'plaignent Pour les visages plein d'plaies qui gardent le silence Blessés Pour le blé c'est Des c.p. du J.9. au P.C Ici y'a pas l'temps faut m'laisser Ici y'a pas d'tantes Ici y'a rien d'tendre, rien à comprendre Pas de mauvaise entente ni de faux dans mon ethnie Éduqué aux vices du ghetto On veut ma peau pour c'qui sort d'mon Bic, ou la taille d'ma bite Là où j'habite, la qualité d'mon shit La facilité plaît aux macs et leurs putes simulent à chaque passe Pistent le luxe Ça existe pas dans mon district Nos lois sont dures Écarte les baltringues de c'qu'on nous destine Bouge ou c'est rouge sang, 92 grand C'est pour les têtes brûlées, les purs, les durs, les... Fous qu'aiment écouter la police hurler têtes brûlées Ceux qui mollissent pas Très haut j'emmène les frères en réa Car c'est violent depuis le préau C'est pour les têtes brûlées, les purs, les durs, les... Fous qu'aiment écouter la police hurler têtes brûlées Ceux qui mollissent pas Très haut j'emmène les frères en réa Car c'est violent depuis le préau Dans mon crew Y'a pas d'pédés Trop d'I.T.T J'peux pas t'expliquer, tu comprendrais si t'y étais Dédicacé Aux ZAC Aux ZUP Ceux qui braquent la BAC et les stups Paris c'est plein d'chattes et d'boîtes de nuit Y'a rien qu'des conflits c'est flippant Les p'tits arrachent les sacs et les jupes Mon rap remplit pas les prisons, c'est l'juge Droit chemin en travaux, ravages dès l'âge de marcher Rien à cacher Tout c'quon a se sait vu c'qu'on possède peu Avec le shit, la beuh on s'aide Tousse le stress Crache nos soucis La rage en suspens jusqu'au lendemain On fait nos diez dans des ruches J'ai besoin d'un coup d'main Frère faut qu'j'fasse du rendement C'est pour les têtes brûlées, les purs, les durs, les... Fous qu'aiment écouter la police hurler têtes brûlées Ceux qui mollissent pas Très haut j'emmène les frères en réa Car c'est violent depuis le préau C'est pour les têtes brûlées, les purs, les durs, les... Fous qu'aiment écouter la police hurler têtes brûlées Ceux qui mollissent pas Très haut j'emmène les frères en réa Car c'est violent depuis le préau Chez nous y'a pas les solutions qu'l'OTAN injecte On rêve de s'faire sucer en pilotant un jet Et tailler, tous fatigués de racailler J'ai fait des choses bien J'sais pas combien et c'est ça l'blème Et c'est pour ça qu'on purge de sales peines en cage Pour ça qu'faut qu'tu m'payes en cash On compare pas les hommes d'honneur et les donneuses Le stress et la sérénité La brise et l'tonnerre Ceux qui aboient et ceux qui mordent Ceux qui assurent ou qui merdent Et ceux qui mentent Les traîtres et ceux qui manquent ...Nos textes aux vôtres C'est pour les têtes brûlées, les purs, les durs, les... Fous qu'aiment écouter la police hurler têtes brûlées Ceux qui mollissent pas Très haut j'emmène les frères en réa Car c'est violent depuis le préau C'est pour les têtes brûlées, les purs, les durs, es... Fous qu'aiment écouter la police hurler têtes brûlées Ceux qui mollissent pas Très haut j'emmène les frères en réa Car c'est violent depuis le préau C'est pour les têtes brûlées, les purs, les durs, les... Fous qu'aiment écouter la police hurler têtes brûlées Ceux qui mollissent pas Très haut j'emmène les frères en réa Car c'est violent depuis le préau C'est pour les têtes brûlées, les purs, les durs, les... Fous qu'aiment écouter la police hurler Ceux qui mollissent pas Très haut j'emmène les frères en réa Car c'est violent depuis le préau</t>
         </is>
       </c>
     </row>
@@ -4317,12 +4317,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Ouais ouais</t>
+          <t>Les vrais savent</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Chaque fois qu'on passe devant ton bloc, dis-moi pourquoi tu louches ? Ouais ouais Tu parleras moins avec un Glock dans la bouche Ouais ouais Glock dans la bouche Glo-Glo-Glo-Glock dans la bouche Je sais pourquoi t'as peur re-noi, c'est des grosses tunes que tu me dois Ouais ouais En plus t'es sur messagerie depuis des mois Ouais ouais Messagerie depuis des mois Ouais ouais Me-me-me-messagerie depuis des mois On vit en marge parmi le crack, le hash, on veut du gros cash On prend le train en marche, on t'mets des grosses baffes Aucune attache à part les bracelets en totale paranoïa J'ai rêvé d'buts de kilos d'coke comme Maradona Tout ça pour t'dire, que le rap c'est mon domaine, man J'ai les dents longues, poils hérissés comme un doberman Dis à la République qu'elle peut se mettre des doigts, ah J'ai pour habitude le non-respect des lois J'ai demandé ma route au mur, il m'a dit d'aller tout droit Si un sale flic bafoue mes droits, click, je le foudroie Si un jour j'devais égorger un porc, j'mettrais des gants par hygiène Molotov sont les cocktails, ceinture de feu Parisienne Tout le plaisir est pour moi quand ça défouraille sec Quelques fois la victoire est fatale au vainqueur de la bataille, frère Les désespérés n'ont pas de seconde chance frérot B2O-Tyer unis comme l'otarie face aux requins blancs Les keufs nous aiment pas, comme le pilon caché dans les chaussettes Vraiment cons ces chiens qui trouvent pas un nichon dans un pipe-show, OK, c'est chose faite Mais j'ai l'droit à mon coup d'fil comme dans les films Le baveux débarque, me sort d'ici et j'm'arrache devant les vils-ci OK, j'trouve mon inspi' dans c'que t'essaie de fuir OK, M.C. trop vrai pour que j'me travestisse Tire pas dans le gilet si tu souhaite pas que j'me r'lève Mes cicatrices me rappellent que mon passé n'est pas un rêve Chaque fois qu'on passe devant ton bloc, dis-moi pourquoi tu louches ? Ouais ouais Tu parleras moins avec un Glock dans la bouche Ouais ouais Glock dans la bouche Glo-Glo-Glo-Glock dans la bouche Je sais pourquoi t'as peur re-noi, c'est des grosses tunes que tu me dois Ouais ouais En plus t'es sur messagerie depuis des mois Ouais ouais Messagerie depuis des mois Ouais ouais Me-me-me-messagerie depuis des mois De toute ma vie devant les buts à attendre la passe décisive Menotté, dé-menotté, multi-récidiviste En interview ou sur scène, B2O toujours soigné Les négros ont la haine, j'ai le prix d'une Clio sur le poignet Si t'as l'espoir de me fâcher, de me clasher Dieu te pardonne J'ai un gros Smith Wesson tout noir prêt à cracher Tout l'monde prend le micro, s'prend pour Capone J'te jure, ils ont juste arraché quelques vieilles, brûlés quelques voitures Les rancunes ne meurent jamais, elles sont juste endormies Je ramène le cauchemar des colonies pour du cash monnaie Ah ouais Ils descendent casqués pour gazer la squée-mo Fallait p't-être agir en brûlant l'véhicule à Sarko' Mais rien à foutre d'eux, c'est le Bled qui... Gros, pour ceux qu'avoue, guette la recette go, scavoot sur la béquille Traités comme des meurtriers sans remise de peine La seule chose qu'ils aient pu descendre, c'est p't-être nos poubelles Chaque fois qu'on passe devant ton bloc, dis-moi pourquoi tu louches ? Ouais ouais Tu parleras moins avec un Glock dans la bouche Ouais ouais Glock dans la bouche Glo-Glo-Glo-Glock dans la bouche Je sais pourquoi t'as peur re-noi, c'est des grosses tunes que tu me dois Ouais ouais En plus t'es sur messagerie depuis des mois Ouais ouais Messagerie depuis des mois Ouais ouais Me-me-me-messagerie depuis des mois Maintenant que t'as banane, me dis pas que tu balnave T'es tricard sur tout Paname, mais tu crois te la faire pénard, gros J'ai rien d'un veinard, chez, nous tout est vénal On s'casse de la scène du crime, à daveux sur un V-Max Ouais ouais, c'est bien du rap de sale nègre Welcome to the jungle QHS notre planète Boulets aux pieds Izi j'remonte la pente J'incante la street ses disciples, j'rentre direct dans l'top 50 Ouais ouais Oui oui si si Bi bi biatch Ha ha Tu parleras moins avec un Glock dans la bouche Glo-Glo-Glo-Glock dans la bouche1</t>
+          <t>Décidément je suis trop nerveux, j'arrive plus à écrire autre chose Vie de rue bien vécue, du cran avant de ver-cre Vie crûe, personne m'a dit que c'était du tout cuit En plus je suis condamné à percer sans donner mes fesses Et si ça marche, cool, sinon nique sa mère, je rapperai que pour mes frères Je roulerai pas en Lexus, fils, je peux rien y faire Je serai pas connu des bourgeois, ils verseront pas de cash pour moi Mais bref, je rappe pour mes reufs, pour mes reuss Ali mon double ou moi le sien, Lunatic jamais en chien Inch'Allah on s'en sortira bien Nos proches aussi, merci aux pieux, leurs prophéties Aux gens biens, aux moins biens, dans le mauvais y'a du bon aussi Je prends du recul, élargis mon champ de vision Booba et moi puisons nos textes de nos vécus Épuisés de cette vie de chien où les vaincus sont restés les mêmes Respect aux miens, couleur d'acajou, couleur d'ébène Douleur et peine depuis des décennies Je prends en main mes commandements comme Moïse sur le Mont Sinaï Pourquoi je suis violent dans mes rimes, friand de crime dans mes textes ? Les vrais savent que c'est peut-être la vie que j'ai Ils veulent nos têtes, nous voir en bas, niquer nos sectes La vie nous rejette, fils, mais t'inquiète pas La roue tourne, les billets changent de main La douleur cesse, ma couleur blesse cette vie de chien Stoppe le flot de sang, ce sang c'est le votre, faut prendre le leur Les vrais savent, préviens les autres Pour foutre le feu y a pas que l'essence, laisse les faux en convalescence Triste adolescence, cherche la maille dans tous les sens Mate ce que mes frères font, veulent pas de cette vie-là J'aimerais revaloriser les miens comme le franc CFA Les murs moites d'une prison c'est pas mon but Ma carrière a commencé déjà 20 piges en arrière Tous unis comme Benetton, on est plus de 11 Tous bronzés, les cheveux je les ai crépus comme Jésus Les miens se foutent des 7 vertus, les 7 pêchés prennent le dessus Le monde est déchu, le bien sous le mal est vêtu J'ai pas attendu qu'on me tende la main J'ai pas attendu les avertissements des anciens Pour avancer la tête haute, la tête haute Je représente la vie de rue, à qui la faute si mes gens ils semblent frustrés Monnaie et sexe Voilà de quoi illustrer le genre d'illusions qui planent dans mes environs Là où certains diront Quil y a pas besoin d'avoir fait Math' Sup' pour savoir couper un ze-dou Arrête ou les jaloux vont jacter Laisse les putains parler pendant ce temps je passe à l'acte et Représente les vrais car eux seuls savent Pourquoi je suis violent dans mes rimes, friand de crime dans mes textes ? Les vrais savent que c'est peut-être la vie que j'ai Ils veulent nos têtes, nous voir en bas, niquer nos sectes La vie nous rejette, fils, mais t'inquiète pas La roue tourne, les billets changent de main La douleur cesse, ma couleur blesse cette vie de chien Stoppe le flot de sang, ce sang c'est le votre, faut prendre le leur Les vrais savent, préviens les autres J'ai du stress en liasses, pas de cash, marre des tassepèche aux tresses Crache du liquide blanchi par la cèce et le shit Laisse le beat, chut ! Goûte mon langage de rue La tess crie son vécu, sa haine, son besoin d'écu Mais ça saignait déjà avant qu'on se plaigne tous fils Donc nique sa race faut tout niquer avant qu'on crève tous Je veux pas finir comme 2Pac shooté par un mec tout sec Du genre CRS, keuf, képi ou teur-inspect J'incite personne, juste ce que pensent certains Je suis ici de passage je dis ce que j'ai en tête même si c'est grave Je pourrais gagner des barres mais c'est toujours les faux qu'on nourrit en France Mon rap paie peu et pas de sous ça pourrit l'enfance Celle de mes fils, celle des tiens Dis-toi bien fiston qu'ils nous ont mis en chien mais ils savent pas ce qu'ils font Les pauvres, quand ça va péter mort à celui qui les sauve Leur dernière vision sera un gun et un chauve Tu me diras pourquoi autant de haine, cousin Regarde autour de toi, ici tout est malsain Le mal s'installe à chaque coin de rue Loin des HLM du 16ème, mon 6ème sens me guide Je suis pas un vendu, je représente les gens du Nord, Sud, Est, Ouest, tant qu'ils restent vrais, nique le reste Tendue est l'ambiance Quand je pense qu'en France, certains donneraient cher pour nous voir pendus Comme les X-Men j'ai la vision, oublie tes bijoux et ton vison Surveille ta maison, la plupart des frères perdent la raison Que vas-tu faire ? Armageddon arrive, Armageddon arrive, fils... Pourquoi je suis violent dans mes rimes, friand de crime dans mes textes ? Les vrais savent que c'est peut-être la vie que j'ai Ils veulent nos têtes, nous voir en bas, niquer nos sectes La vie nous rejette, fils, mais t'inquiète pas La roue tourne, les billets changent de main La douleur cesse, ma couleur blesse cette vie de chien Stoppe le flot de sang, ce sang c'est le votre, faut prendre le leur Les vrais savent, préviens les autres Friand de crime dans mes textes ? Les vrais savent que c'est peut-être la vie que j'ai 92 Nous voir en bas, niquer nos sectes La vie nous rejette, fils, mais t'inquiète pas La roue tourne, les billets changent de main La douleur cesse, ma couleur blesse cette vie de chien Lunatic Stoppe le flot de sang, ce sang c'est le votre Malekal Morte Les vrais savent, préviens les autres Je suis violent dans mes rimes, friand de crime dans mes textes ? Les vrais savent que c'est peut-être la vie que j'ai Ils veulent nos têtes, niquer nos sectes La vie nous rejette, fils, mais t'inquiète pas La roue tourne, les billets changent de main La douleur cesse, ma couleur blesse cette vie de chien Stoppe le flot de sang, faut prendre le leur Les vrais savent, préviens les autres1</t>
         </is>
       </c>
     </row>
@@ -4334,12 +4334,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>100-8 Zoo</t>
+          <t>Iste</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>J'écris pas d'douceurs, p't'être parc'que j'vis dans la haine Même si j'y mets tout mon cur, sans veine, trop d'peine Trop d'traîne, d'engraine, un flow d'graines de merde Et pendant les étrennes j'm'emmerde, mon groupe assassine Les faux s'entraînent, s'entraident, sans trêve Sans star guette mon armée Et l'art armé grave, y'a d'quoi s'alarmer Comme si y savaient pas où j'crèche Tout l'monde s'pointe quand y veut, mon groupe assassine Pour un joint ou pour m'joindre, t'as qu'à v'nir dans ma Limousine Les têtes d'affiches, c'est pas c'qui manque, mon groupe assassine Si y'a problème, on sort les ... au fond planqués, mon groupe a ça aussi Mon groupe assassine tah à l'ancienne, pose dix barres, t'auras un bain d'sang Et j'ai c'qui t'faut dans l'coffre si t'as un plan Mais faut qu'ça paye parc'qu'on est plein Y'a plus d'un man et pas d'mannequins dans mon clan, jamais en chien parc'qu'on est grands Si tu t'plains, on t'fait la misère comme pas possible Aucun remord, onsensible, même si ton cul m'sert de cible Malekal Morte 92 I Kho Ici les gosses ont tous les crocs mais y'a qu'les gros qu'on engraisse, négro L'temps presse et passe trop vite, c'est la classe quand t'as la place du boss Plus rien à faire, si ça s'corse, protège ton torse Ou tu s'ras blessé, c'est la merde, demande à Dorse, faut m'laisser Malekal Morte, ouais c'est Boulogne ici Mon groupe assassine comme la CC rase les bâtards à la racine Rime sous 100 G qu'j'prends l'micro on m'appelle Danger Mes troupes sont rangées qu'des étrangers Lunatic réseau On vient du 100-8 Zoo Eazy au mic Kho Dans la banlieue c'est l'Moyen-âge Y'a pas d'maille et sur l'droit ch'min y'a un péage Négro c'est l'Bronx avec dix ans d'retard au moins Y'en a qui rêvent que d'grandir avec me-ar aux mains Et moi, j'regarde le monde s'écrouler doucement, où on en s'rait D'vrait y avoir plus de filles comme Florence Rey Apocalyptique y'a pas d'issues, trop d'décès j'vais pas m'tuer C'est la merde j'suis habitué Quelque part en moi vit un guépard depuis tit-pe, d'l'amour, mon cur en produit peu Peut-être parc'que j'suis 9.2 prototype Nous tester qui peut ? Chaque soir on boit d'l'eau d'feu, et quand l'flic nous arrête au feu Qu'on descend la nêtre-fe, une grosse envie d'faire feu Affamé comme tous les gosses des rues mal famées, où la nuit ça ré-ti Ma plume s'trempe dans l'encre ou s'plante dans ta rétine 9.2 la vraie team, on s'fout d'ta iv, kiffe les films à la Heat mais fête l'Aïd Mon groupe t'assassine comme la rue quand t'es naïf C'est pour nos racines, pour ceux qui d'vant l'insigne font ce même signe Qui rêvent assis, fument sur un joint à six ou partagent un micro à six Boulogne Issy c'est pire qu'la Croatie, nos flows sont trop acides Mes Khos assistent à tout quand j'troue ma cible Tu vends ton shit, ta dope, fais tapiner tes putes au bois d'Bou Laisse-moi faire mon zness-bi bouge Tu m'dis la France un pays libre Attends mes détenus, attends-toi à bouffer du calibre Quoi ?! Tu m'dis la France c'est mieux qu'l'Afrique Mais n'oublie pas, pédale, que tout leur fric c'est de nos morts Toujours en guerre, son sans trêve J'suis 92i cru 73 J'rêve de loger dans la tête d'un flic une balle de G.L.O.C.K C'est pour les Khos qu'y nous ont enlevés eux, et pour mon groupe j'assassine Prends mon 92i inhalation de rail de CC Mon groupe assassine Mon groupe assassine Mon groupe assassine Mon groupe assassine, mon groupe assassine1</t>
+          <t>AFox Beats 700 ch'vaux sur Rivoli, parano comme Ray Liotta Ses chaussures viennent d'Italie, ses fesses viennent de Bogota Toutes nos richesses sont les leurs, toutes leurs richesses viennent d'Africa On va pas r'faire l'monde, hein, d'abord, on en parle qu'à la chicha Problèmes sont trop profonds, je n'saurais que faire d'un coup d'pouce Tu sais très bien quand on r'part au front, le trésor est toujours au fond Pas d'zéro neuf sans skis alpins, mon vin et l'tien n'ont pas l'même âge L'égalité des sexes, c'est bien, mais B2O n'fait pas l'ménage Féministe, colonialiste, viens pas si ça finit en iste Au pire des cas, on meurt, nos proches s'ront tristes, c'est tout c'qu'on risque Si j'arrive vite et calibré, peut-on dire qu'j'arrive en balle ? Mes ennemis, tous, je les déteste, je n'peux en dire que du mal1</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4351,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>La vie en rouge</t>
+          <t>Geronimo</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Je n'ai jamais travaillé, je suis jamais allé au bureau Je me lève pour aller pousser avec mes négros des Mureaux Je ne sais rien faire de mes mains à part sécher mes larmes Je suis flammes, déflagrations, armes, un drame national Mère en stress car enfant menotté à tous les coups Maîtresse ne peut me noter car absent à tous les cours Du coup je n'ai aucun diplôme, j'ai que dalle, sa mère M'en sortir sans l'illicite, je n'y arriverai jamais J'ai pensé à tout, même à séquestrer le Pape Tu penses à sortir un album, je pense à arrêter le Rap La race aryenne ne m'aime pas car je suis un bon à rien Défoncé, je plane, je fais des raids aériens Aujourd'hui, c'est peut-être la dernière fois que je souris Aujourd'hui, je crois que je vais me rendre, j'en ai marre de courir Aujourd'hui, aujourd'hui, aujourd'hui, aujourd'hui Aujourd'hui, majeur en l'air, j'aurai mon dernier fou rire Dur de sauver de l'argent, pourtant l'argent nous sauve En banlieue je suis devenu fauve, sauvage devenu chauve Drogué jusqu'aux os dans mon 100-8 Zoo Dan-dangereux jusqu'au flow, tu sais où me trouver si t'es chaud Tu sais où venir per-cho, 0.9 sur le réchaud Un verre de Damoiseau, le rap tapine sur les Maréchaux Je ne suis qu'un parasite évadé du collège Tu vas devenir raciste quand je vais te braquer ta Rolex T'en parleras à tes collègues qui vont le devenir aussi Mais moi je m'en bats les couilles, je donnerai l'heure à tout mon possee Une spéciale dédicace à tous mes frères sur le billard Je vois la vie en rouge, mon ciel est bleu comme Tookie Williams Aujourd'hui, c'est peut-être la dernière fois que je souris Aujourd'hui, je crois que je vais me rendre, j'en ai marre de courir Aujourd'hui, aujourd'hui, aujourd'hui, aujourd'hui Aujourd'hui, majeur en l'air, j'aurai mon dernier fou rire Aujourd'hui1</t>
+          <t>Black top Relation avec toi Ani on the track C'est un problème Plus l'temps Elle sent quand ça va pas, on baise pas comme il faut Cupidon fait pas l'poids face à Geronimo Dans la street toute la journée, j'aimerais succéder à Marlo J'me fais cramer sans m'excuser, j'suis un fumier, j'suis un salaud Qu'est-ce que tu fais de beau de l'autre côté de l'Atlantique ? T'as inspiré ma mélo', portrait de toi en argentique J'm'en fous d'ta Ferrari, j't'aimerais si t'étais à vélo C'est pas comme ça la vie, recommençons à zéro Rlation avec toi ne fera jamais d vieux os Nous deux, c'est l'calme plat, ces chiennes s'sont passées le mot Une bimbo à chaque bras, dès qu'j'aurai tourné le dos Abracadabra, t'es au studio, plus de réseau Va falloir qu'tu m'expliques, tout ce harem, ces numéros On n'est plus en Rome antique, faut ralentir le bédo C'est à ton âme que j'veux accéder, fuck la couleur de ta CB Pas ta crypto', pas ta moula, pas tes euros, j'veux ton bébé Elle sent quand ça va pas, on baise pas comme il faut Cupidon fait pas l'poids face à Geronimo Dans la street toute la journée, j'aimerais succéder à Marlo J'me fais cramer sans m'excuser, j'suis un fumier, j'suis un salaud Qu'est-ce que tu fais de beau de l'autre côté de l'Atlantique ? T'as inspiré ma mélo', portrait de toi en argentique J'm'en fous d'ta Ferrari, j't'aimerais si t'étais à vélo C'est pas comme ça la vie, recommençons à zéro Elle veut qu'j'sois romantique, mais j'suis d'jà dans le Viano J'lui mens comme chez les flics, elle tombera plus dans l'panneau Aucun chemin n'mène à mon cur, évidemment, c'est déroutant J'lui dis d'un air moqueur L'amour, c'est pour les débutants Elle veut venir me voir jusqu'aux États-Unis J'vais au parloir, j'crois que j'viens d'croiser Carla Bruni Face à Geronimo</t>
         </is>
       </c>
     </row>
@@ -4368,12 +4368,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Sport Billy</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Yacine smoke the track I-Z-I Rapocalyptique, mon but, c'était bédave et bavardages Petit ou grand, on t'éteint, puto, à moi, tu m'parles pas d'âge On est trop sur la planète Trop, j'en déduis qu'ils vont tous nous tuer Tous nous tuer Mes enfants n'diront jamais Papa où t'es ? Papa où t'es ? J'ai caché mes armes dans le sac à Sport Billy Sport Billy Cercle fermé comme le canon du 9 milli' 9 milli' Ils n'vivront pas deux cents ans Ils n'vivront pas deux cents ans Ils ne remonteront pas le temps Jamais La fin est proche, Alléluia, c'est écrit dans la Torah, le Coran Nul n'arrêtera ls éléments, glaive à la main, le Valhalla nous attnd Le but, c'est qu'personne se relève, gaz sarin pour petits et grands Petits et grands S'il faut tirer pour s'en tirer, les chargeurs sont pleins, y a plus qu'à appuyer Y a plus qu'à appuyer Sur la détente, PNC aux portes, on prépare la descente On prépare la descente Me parle pas de phénix, moi, j'renais pas, c'est pas nous dans les cendres Dans les cendres J'brûlerai qu'une fois, c'est suffisant, qui peut m'arrêter, pas Vald Sullyvan Non Ni son daron le facho Facho, j'reste au pouvoir comme Sassou Femme, va m'faire un plat chaud, 100 moins 8 zoo, très loin de Damso Marre de votre fausse égalité, quand ça va péter, il faudra des hommes Pas d'auréoles, il faudra des cornes, mental et bouclier de Björn J'suis Africain comme Fior de Bior, boule à zéro comme Voldemort Notre technique on t'baise tes morts, y a que le bigleux qui jette des sorts Sûrement Sicario qu'a ton briquet, économie parallèle Économie parallèle Sans cash, frérot, c'est compliqué, tu prépares l'lendemain pour la veille Pour la veille T'es mort dans le movie T'es mort dans le movie Pas de fruits dans le smoothie Pas de fruits dans le smoothie Qui mange du thon, rêve de sushi Rêve de sushi On règle un souci par un souci Par un souci J'en déduis qu'ils vont tous nous tuer Tous nous tuer Haraï2</t>
+          <t>Dans le cadre de l'état d'urgence sanitaire mondiale et en application de la loi martiale en vigueur, tous les citoyens sont tenus de se présenter à visage découvert à l'approche des checkpoints de sécurité, et de garder en tout temps leur puce sanitaire accessible en cas de contrôle. En cas de refus d'obtempérr ou de résistances aux injonctions des forcs de l'ordre, les agents ainsi que les membres du corps militaire sont autorisés par la circulaire numéro 8189 à faire l'usage d'armes légales afin de... The future is back Les signes de fin sont là, moi, je suis prêt J'ai sorti les TN, mille deux par mois, autant niquer des naines Des apparitions audacieuses à bord d'autos ténébreuses D'humeur souvent orageuse, D.U.C, pas de l'eau gazeuse J't'aime pas, j'te souhaite la mort, bah ouais, logique, meurt J'roulerai toujours en gamos, même aveugle avec Alzheimer Écrire l'histoire ou pas, peu importe car nous sommes R Rien d'négatif chez moi à part mon test PCR Une question me taraude, j'aimerais vraiment y voir plus clair Est-ce que le coup d'boule dans ta grand-mère est un geste barrière ? Surveille les mouvements coloniaux, les influenceurs à Dubaï Squelette sans âme sur l'kimono, j'descends de Eve et d'Abdoulaye Concu' comme le riz thaïlandais, vous vous auto-cuisez L'ange de droit est passé à gauche, c'est quoi c'bordel ? Laisse-moi m'autoriser J't'ai dit j'ai que des khos, viens pas m'potoiser m'potoiser Sont tous déguisés, flockoisés flockoisés T'es vacciné donc t'es localisé t'es localisé Plus rien n'a d'goût, juste aromatisé S'disent au-d'ssus d'l'animal, j'dis inférieur, tout est robotisé J'perdrai contre l'Empire, le foie percé, milieu du Colisée En bas, ça répond toujours en haut, walou eh J'laisse toujours la porte des ténèbres ouverte juste au cas où Ils m'ont laissé aucune option donc pas le choix qu'être en indé' En route, en route vers d'nouvelles guerres, s'tu m'cherches, j'suis avec Thiek, j'suis dans l'blindé Convoi militaire, ça fait pa-pa-pah, pas comme Gambi Prix Nobel de la paix, tendre l'autre joue, c'est pour Gandhi Pour voir sa réaction, j'l'emmène magasiner chez HM puis j'la mets aux fourneaux Face à la mort, j'lui demande un thiéboudiène, bien sûr, elle a échoué Mama, y en a plus des comme toi, j'reste solitaire dans mes cages, criblé d'balles comme Thibault Courtois Thibault Courtois Quand j'leur donne l'heure, c'est l'heure de leur décès Rappeur-Youtubeur, d'puis quand l'rrain-te fait des périodes d'essai ? Concu' comme le riz thaïlandais, vous vous auto-cuisez L'ange de droit est passé à gauche, c'est quoi c'bordel ? Laisse-moi m'autoriser J't'ai dit j'ai que des khos, viens pas m'potoiser m'potoiser Sont tous déguisés, flockoisés flockoisés T'es vacciné donc t'es localisé t'es localisé Plus rien n'a d'goût, juste aromatisé S'disent au-d'ssus d'l'animal, j'dis inférieur, tout est robotisé J'perdrai contre l'Empire, le foie percé, milieu du Colisée Toutes les communications avec le district 322 ont été perdues. Redirection du protocole vers le district 1776. Déploiement de système d'urgence...2</t>
         </is>
       </c>
     </row>
@@ -4385,12 +4385,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>La zone</t>
+          <t>N.W.A.</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>SDM SDM, cent moins ocho Cent moins ocho Histoire de ronds, moi, j'aime bien quand c'est carré C'est carré Eh Eh, eh Eh Histoire de ronds, moi, j'aime bien quand c'est carré C'est carré, mon neuf millimètres brise des carrières Piou-piou-piouh Faut un Lambo', un Range et une 'rrari, une Patek avec vingt-deux carats Ouh J'sors le Toka', ils connaissent bien la choré' Brah, j'annonce qu'ils sont morts après l'Carême Bouh Vrai pour de vrai, j'fais pas crari, mon fusil à pompe fait des caries Ouh, ouh, ouh, ouh, ouh Cent moins huit, c'est le gang, intouchable est le gang Ocho, maintenant, c'est nous les grands On s'est assagis mais tu connais, tu manques de respect, on remet le casque et les gants Vroum, vroum, vroum, vroum Tous les jours dans le sale, midi-minuit, on moussala Ouh, on revend le choco, la salade J'visser comme Salah Sur l'terrain comme Salah, soit t'es mon gars, soit on s'allume, bengua, Johnny passe le salam Brr Si j'réussis pas dans l'rap, que j'baise pas tout, bah, ça s'ra d'ma faute Ça s'ra d'ma faute J'remercie le ciel encore, j'remercie m'ma, j'remercie la zone J'remercie la zone C'est soit on avance, on stagne, soit on meurt comme les autres J'remercie le ciel encore, j'remercie m'ma, j'remercie la zone J'ai quitté l'bâtiment, quitté le hall Quitté le hall, la rue, j'la connais, tu l'vois sur moi, j'joue pas un rôle J'joue pas un rôle Eh, millions d'dollars ou millions d'euros Millions d'euros, j'en veux quand même, même si j'emporterais rien dans ma tombe Dans ma tombe J'ai quitté la zone Quitté la zone, j'ai jeté mon pare-balles Jeté mon pare-balles Mais la zone m'a pas quitté, la police écoute sur mon portable Eh, sur mon portable J'ai quitté la zone Quitté la zone, j'ai jeté mon pare-balles Jeté mon pare-balles Mais la zone m'a pas quitté, la police écoute sur mon portable Ba-ba-ba-bah Quand j'arrêterais d'rouler en gros gamos, le ciel s'ra étoilé, Kim K, j'aurais pu la niquer, j'me suis fait les croisés J'suis attendu en bas du jet privé, j'passe même pas les douaniers, elle commence à m'texter qu'elle est bien rentrée, je préfère m'éloigner Si ils disent que j'ai touché le fond, c'est qu'une chatte a témoigné Mes plaies s'refermeront jamais mais je préfère les soigner J'aurai pu t'faire un million d'enfants mais t'as tout avalé, on reste muets, ni crime, ni musulmane, ne sera dévoilé On m'a dit Kopp, toi aussi, laisse les gens, faut les laisser parler J'ai dit Non, c'est des grands fils de pute, j'm'en charge, ça va aller Cette tchoin s'est crûe au Moyen-Âge, elle veut un cavalier J'ai su qu'il ne mordrait jamais dès qu'j'l'ai vu aboyer J'ai quitté l'bâtiment, quitté le hall Quitté le hall, la rue, j'la connais, tu l'vois sur moi, j'joue pas un rôle J'joue pas un rôle Eh, millions d'dollars ou millions d'euros Millions d'euros, j'en veux quand même, même si j'emporterais rien dans ma tombe Dans ma tombe J'ai quitté la zone Quitté la zone, j'ai jeté mon pare-balles Jeté mon pare-balles Mais la zone m'a pas quitté, la police écoute sur mon portable Eh, sur mon portable J'ai quitté la zone Quitté la zone, j'ai jeté mon pare-balles Jeté mon pare-balles Mais la zone m'a pas quitté, la police écoute sur mon portable Ba-ba-ba-bah Quitté la zone Quitté la zone, jeté mon pare-balles Jeté mon pare-balles Libérez Dédé Dédé, ouais, libérez Befa Befa J'vais quitté la zone Zone, zone, j'ai jeté mon pare-balles Pare-balles Ah, pah, pah, pah, pah Pah, pah, pah</t>
+          <t>General Crew, 92i Dépi gran boné man ka lévé pou fé sou Hiè o swé mwen bwé telmen man ka wé flou Champagne, vodka, Hennessy, Barbancourt Manman ja di mwen stop, tou sa kè rend mwen fou Ouh-ouh ouh-ouh, baby j'suis high Ouh-ouh ouh-ouh, ou ka viv' sal Ouh-ouh ouh-ouh, yen ki fé yo mal Ouh-ouh ouh-ouh Yo, Jerry turn up An ka bwè rhum èvè sik adan Ou konèt son la bien évidemment Antillais assoiffé ne veut pas de ton eau Premier single j'parle créole dans mon bando Police la bizwen maré nou jailtime Il fait froid dans le dépôt, pâtes tomate, j'ai la dalle A ce que dit le préfet j'ai fait du sale, ils ont pris arrêt de travail J'n'ai rien fait, j'n'ai rien fait, j'n'ai rien fait, ma phrase favorite au tribunal Ils sont choqués, mon avocat parle ma langue, oh oui on s'comprend Petit mwaka dans ta sono, antillais est le magnum Ils voudraient me condamner, les miens n'ont pas lâché Mafia les poings levés, j'fais la guerre pour vivre en paix Dépi gran boné man ka lévé pou fé sou Hiè o swé mwen bwé telmen man ka wé flou Champagne, vodka, Hennessy, Barbancourt Manman ja di mwen stop, tou sa kè rend mwen fou Ouh-ouh ouh-ouh, baby j'suis high Ouh-ouh ouh-ouh, ou ka viv' sal Ouh-ouh ouh-ouh, yen ki fé yo mal Ouh-ouh ouh-ouh Sale négro avec attitude Compton Kalash, B2O, négritude DomTom Je ne parle qu'arme de guerre Je n'comprends pas le gome cogne La haine que je couve n'est pas soudaine Demande à Brenda et Brandon J'ai Gorée dans le cur et dans le chargeur Jamais j'n'abandonne Traite moi de sale négro c'est flatteur Mafia n'oublie pas mais pardonne Défibrillateur pour eux tous Où vrai négro passe rien ne repousse J'suis vendeur pas utilisateur J't'offre une overdose de kush Jugé à cause de ma couleur J'regarde la fenêtre Menottée à ton radiateur Reconnaîtras-tu la comète ? Le ciel est plus beau vu de là bas J'entends la voix de mes ancêtres Mon fils vivra comme un roi J'aurais tenu toutes mes promesses Dépi gran boné man ka lévé pou fé sou Hiè o swé mwen bwé telmen man ka wé flou Champagne, vodka, Hennessy, Barbancourt Manman ja di mwen stop, tou sa kè rend mwen fou Ouh-ouh ouh-ouh, baby j'suis high Ouh-ouh ouh-ouh, ou ka viv' sal Ouh-ouh ouh-ouh, yen ki fé yo mal Ouh-ouh ouh-ouh Hin-Hin... Straight !5</t>
         </is>
       </c>
     </row>
@@ -4402,12 +4402,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>Soldats</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>J'ne fais pas partie du troupeau, jégorge les gardes-champêtres Prends les armes avec moi si tes mon poto Animal galeux j'vais pas chez le docteur, j'vais chez le véto Jai les couilles en or, jpasse pas les détecteurs d'métaux Sans le génie le sport, largent facile, cétait mon ghetto Jamais je ne plierai, jamais je ne serai un bon négro Enculé je vais te fumer, jvais prendre 10 piges, j'serai plus le king de la city Énervé dans le 92izi car fouetté dans le Mississipi Pimp mon gamos chez Xzibit, suce moi la bite sans faire dchichis B2OBA, on sembrouille là-bas je tenterre ici Lunatic depuis la naissance, sisi Avec du sang desclave jécris cette missive, mon blase gravé sur l'missile Tant que jserai sur la piste, rapper sera un métier à haut risques Essaye daccorder tes choristes au chant dune météorite Hey ho de quoi tu parles ? Cest violent depuis le préau Big boss, je tire les pénos, Rolls Royce je fais des créneaux Cest KO2P qui joue, pourquoi tu demandes cest qui qui mène ? Négro est-ce moi qui aime loseille ou lui qui maime ? Il men a fallu, il men faut, il men faudra Pour pas rouler en Skoda, n'pas décevoir maître Yoda Descendant de terres dAfrique, quand je baise ça sent le musc Cerveau en très bon état, 95 kilos de muscles4</t>
+          <t>Mi-chien galeux, mi-chat de gouttière N'ayant aucune chance, j'ai mis une main aux fesses à la croupière Les blondes et brunes qui veulent de nous sont dans les verres d'bière Réussir c'est faire un costume d'une serpillière J'prends ma revanche au volant d'une Italienne Porche d'immeuble devient Porsche Cayenne Ils s'étouffent dans le foie gras, c'est dans le riz qu'on flâne C'est dans l'béton qu'on pousse, c'est à Fleury qu'on fane J'ai tout vu, plus rien n'm'atteint Et plus j'connais les hommes, plus j'aime mon chien On m'a dit d'garder espoir matin, midi et soir Je n'espère pas moi, je fonce dans le tas, moi Pour toi, pour moi Les choses sont plus dures, je n'sais pas pourquoi Mais très clair j'y vois J'ai du lourd à l'arrière, t'inquiète pas pour moi Casquette à l'envers, je bois, je n'danse pas Après quelques verres, j'ai envie d'tirer dans l'tas Quelques billets verts, quelques soldats J'ai du lourd à l'arrière, t'inquiète pas pour moi Le daron n'était pas là, mais je lui pardonne T'inquiète je m'occupe bien d'la daronne Je suis brave, j'ai quelques valeurs et des codes, c'qui fait de moi un homme L'appétit, la force d'un esclave, c'qui fait de moi un ogre Des barbelés sur les postcards, nos anges ont des coquards Surfent sur des tsunamis d'whisky-Coca J'ai un collier en diams, ils m'passent aucune laisse Quant tu m'frappes, regarde-moi dans les yeux ta force c'est ma faiblesse J'ai mon propre format, B2O contre Foreman J'fais dans l'paranormal J'vis dans un micro-climat, explose l'audimat J'fais Mike-Alpha-Lima Du blues, de la soul musique, vient le groove Tague mon blase au musée du Louvre Fuck l'anonymat... B2OBA J'essaye encore et encore Pour toi, pour moi Les choses sont plus dures, je n'sais pas pourquoi Mais très clair j'y vois J'ai du lourd à l'arrière, t'inquiète pas pour moi Casquette à l'envers, je bois, je n'danse pas Après quelques verres, j'ai envie d'tirer dans l'tas Quelques billets verts, quelques soldats J'ai du lourd à l'arrière, t'inquiète pas pour moi2</t>
         </is>
       </c>
     </row>
@@ -4419,12 +4419,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Laisse-moi te sauver</t>
+          <t>Rebel</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Grünt 57, nous y voilà Olalalala Han, yeah J'fais dix rêves pour trois-cents cauchemars, bellek si la gauche part Quand j'aurai l'oseille à Samuel, j'prendrai le huit à Oscar Tous vos rappeurs les pornstars qui suceraient pour des pochtars J'ai un ami sous la terre, un dans la merde, et deux au shtar L'amour, ça demande trop d'taff, la haine, ça fait mettre trop d'baffes J'les graille, on dirait qu'j'ai les canines d'un gros Staff', wouh, wouh, wouh Grosse baffe, je sens le vent, les Audemars Gros, r'garde pour moi, c'est bientôt pour eux, c'est trop tard, han Ils commencent à sucer à s'en casser les cervicales J'découpe mieux qu'eux, c'est dans longtemps qu'ils pourront m'faire vivre mal Jay-Jay Okocha, j'leur fais un festival La droite part de la gauche et revient à la verticale Du dry sur du dry, j'roule dans une Toyota Corolla J'baise leurs mères devant un Coppola, c'est trop beau là J'écris des thèses, c'est plus des textes, c'est juste un doctorat Les labels signent de la merde et ils se vantent d'avoir de l'odorat J't'attaque, on les troue, pas d'flaque YZ, pas d'plaque, où sont les sous ? Qu'j'n'ai plus à sentir l'odeur d'la pisse dans la 4 Réussir, à part si on r'met les pieds à la fac La SACEM à Zazie combinée à celle d'Arafat Balle après balle, j'suis juste en train d'les carabiner Ton mec fait l'dur avec les mes-ar, mais il est kawaïné Ils ont vidé leurs chargeurs, j'ai pas un poil vacillé J'égorge des prods, aujourd'hui, j'ai changé quatre fois d'tablier Grünt 57, on a l'bon numéro Ça sent l'crime et les produits illégaux Au même âge en U12 pendant qu'je signais pro Ta meuf chez une copine, après l'concert, je lui ai signé l'dos J'ai essayé l'Hip Hop, pour fumer des cigares, et baiser des idiotes M.A.I.R le légendaire valide Wallace et c'est réciproque Oui, maintenant, j'suis avec une meuf raffinée, on mange du buf mariné, l'bébé dans l'uf C'soir, j'suis comme une Ford Fiesta et le soir, j'suis fort festif Avec un texte pareil, c'est normal que j'me sente spécial Je repars pour sauver l'monde, je rentre, je change mes sapes C'est bien moi qui transmets ça, donc entends c'message, han J'touche pas encore ma SACEM donc la prod', j'lui fais un boulot Mais j'lui fais un taff au black, pour l'instant Comme si j'voulais m'marier et qu'j'dois m'suffire du coup d'un soir, pour l'instant Comme si j'ai faim, elle m'donne à boire, pour l'instant Des hommes en noir, comme des SWAT Un baril d'huile, un entonnoir, et je vous gave comme des oies Moi, j'rap comme un zinzin, ça a toujours été simple, sin-c' On n'est pas deux et d'mi, les doigts d'la main, c'est toujours cinq, sin-c' Ah oui, let's go Yeah, yeah Henri Bleu Grünt 57 So PR à la prod, so Wallace Let's go Yeah, yeah, yeah Y a des couleurs, y a des tunnels, des bouts d'mon cur dans les ruelles Y a les odeurs de mon passé, y a même des fleurs, des eaux glacées Dis-moi qu'tu viendras m'aider, j'attends l'ciel, j'attends l'aide, et Y a des bêtes qui m'embêtaient, dis pas Je t'aime, j'suis entêté Crystal bleu et transparent, y a des yeux glacés d'argent Faut qu'je speedrun, j'ai pas l'temps, nous, c'est quand on tombe qu'on apprend Moi, j'ai tellement d'bleus sur les g'noux, qu'je sais plus si j'prie ou j'attends Yeah Jamais, jamais, eh J'vois des images, y a des nuages et les nuages sont sous mes pieds Y a des rumeurs dans les couloirs, l'bruit des gouttes d'eau au fond d'l'évier J'fais des cauchemars, j'fais des cauchemars qui f'raient peur à Freddy Krueger Même à Freddy Krueger, eh J'suis tout en bas, j'ai des hauts-l'cur, les deux yeux d'un stalker Des zombies, des croqueurs, j'ai l'cur plein, genre un six tonnes La vie, c'est ironique comme la mort de Paul Walker La vie, c'est pas une sitcom, même d'en bas, j'prends d'la hauteur, okay Kingoss t'es en feu là ? Hein, ok ok ok , han han Yeah, so Wallace, let's go Han han, woh, han J'te r'garde dans les yeux et j'vois déjà qu't'es une hoe Me parle pas d'game, car à part mes frères en R2, ça joue pas trop, han han Demain c'est pas loin, à neuf cents mètres Le cocorico t'fait les poches, le pied d'biche t'laisse aux abois Le chien qui renifle la forte, j'porte les cernes de mes proches, quoi ? Ok, ok Tell'ment trix-ma par l'digital, tu pourrais même baiser un bot J'ai jamais baissé mon short, à part pour t'montrer l'Tom Ford Y en a qui s'font schlasser l'ventre, puis vont taffer leurs abdos Qu'est-ce que tu m'parles, sin-c' ? Bientôt quand j'monte sur ma kichta, j'fais un mètre quatre-vingt-quinze J'veux sortir d'une Maybach, voir le logo sur le sol Pas die à cinquante, à cause d'un baille signé sur le sang Le diable, c'est une skinny bitch, toujours fin dans ses moves Laisse-moi faire les dièses, toi, j'te laisse faire le ouf Quand ça va pop, j'irai revendre tous mes masters Car chaque choses ont un prix, sors ta C.C, fais ça faster On y va poto dis leur, ok, ok Eh, eh Shout out Wallace, shout out Grünt Mais qui m'a dit d'mettre cent cinquante sur Gakpo buteur ? wAllah, j'suis trop con, frère Eh, eh, eh J'ai mis un cent cinquante sur Gakpo Et l'ingé' son, c'est un jeune baptou Toujours dans l'bloc, comme si j'tais salarié En un seul regard, frérot, on capte tout Ton dernier projet, c'est un big flop Guetteur est pas focus, il fait des TikTok Et ouais, maboul, l'époque est fucked up Ton meilleur pote il met des crop top même les SDF veulent du buzz Animal de compagnie, c'est des rats, des cafards J'viens juste pour casser le petit cul du Grünt J'viens juste pour casser le petit cul du Grünt J'sais pas pourquoi j'pense encore à percer J'ai encore un demi kil' à faire partir Soixante quinzième session a des poèmes qui brûlent Laisse le micro, tu possèdes aucune magie Il m'manque un trois cent G', frère, un mercato Et j'aurais dû être méd'cin On s'connaît, baisse le prix sur l'demi d'gelato J'ai qu'un seul mode, j'peux que cracher les balles Des missiles dans la bouche, des cailloux dans les poches Des missiles dans la bouche, des cailloux dans les poches Booba en 2002 ou Conor McGregor J'viens poser un billet sur ma tête, j'vais rester courtois, mais c'est pas dur ta merde J'suis là pour la culture, aussi pour t'la mettre, aussi vrai qu'après la rupture, t'as l'blues sa mère Il fait froid, d'janvier à décembre, j'fais qu'monter, parce que j'me prépare à la descente Fils de tain-p', tu crois, c'est facile, tu crois qu'cette vie t'laisse le choix d'pas être méchant Ou d'rester assis, vas-y, avec mes reufs, on décale La prochaine fois, vends ton album 'vec une bassine J'suis l'meilleur, y a zéro débats, enar, Selug, Mr. Robot, Elliot et Pam J'ai l'cur froid, mais l'rap puissant qui calcine et l'passé qui fait qu'j'peux rester impassible Des vrais frères, y en a peu au départ, y a des hauts et des bas, mais le temps, ça les vaccine J'apparais, j'disparais comme la Lune, mon démon m'demande d'ralentir dans la Maybach J'suis pas dans leur neige, j'pas dans la luge, j'regarde le sun, j'me dis Maybe, on débarque J'apparais, j'disparais comme la Lune, mon démon m'demande d'ralentir dans la Maybach J'suis pas dans leur neige, j'pas dans la luge, j'regarde le sun, j'me dis Maybe on débarque Maybe on débarque, Maybe on débarque Han, Maybe on débarque, maybe on débarque, Maybe on débarque Han, Maybe on débarque, han, Grünt 5.7, Maybe on débarque Maybe on débarque Nion, nion, j'pull-up comme si j'tais en Maybach Grünt 5.7, Maybe on débarque, Maybe on débarque, han Nion, nion, si j'arrive en Maybach J'arrive en Maybach J'arrive en Maybach, j'arrive en Maybach J'arrive en Maybach, j'arrive en Maybach Grünt 5.7, Grünt 5.7, j'arrive en Maybach Wah wah, yeah, j'arrive en Maybach, Grünt 5.7, W jusqu'à l'infini Wah, j'suis quelque part, yeah, j'suis quelque part, yeah J'suis quelque part entre mère proche et père distant Le premier contact et le dernier avertiss'ment Quelque part entre un compte vide et les combines des ouï-dire et des non-dits Quelque part entre un trou d'mémoire et un vortex, la bague à l'annulaire ou l'étiquette à l'orteil J'voulais un sourire en or jaune, j'suis r'parti avec un cur en Gore-Tex Ma musique fait pas rigoler, j'ai fait des efforts de malade J'attends plus rien du rap, à part un disque d'or de Wallace et Ultraviolet dans l'cabriolet Toujours sur la défense, j'ai comme l'impression d'être Frank Lampard Elle m'dit qu'elle veut d'un homme comme moi Puis, quelques larmes plus tard, elle finira maquillée comme Lomepal, y aura pas d'come back Mon cur, un punching ball, j'suis dans un cauchemar de Junji It On s'reparl'ra quand j's'rai à deux trois grammes, un soir soûl au gi-in to' J'me rassure en m'disant que si j'ai tort, j'ai de bonnes raisons, j'me pose trop d'questions Silencieux car j'ai pas grandi avec des Je t'aime comme des mots d'liaison Vingt-sept ans, y a rien qui bouge, y a des gens qui partent, j'regarde l'temps qui passe J'croque la vie, j'ai une dent qui casse, si tu la vois en rose, t'as une lentille sale J'abandonne vite, je te raconte ce qui précède un saut dans l'vide, oh merde Merde Elle est jamais aussi belle qu'avant qu'on s'quitte Faut qu'j'arrête de m'plaindre, surtout qu'j'dois faire le beurre, je parle avec les mains, je chante avec le cur Plus le temps passe, moins je fais d'efforts, dans la glace, je crache sur le reflet d'mon époque Fuck, je fais l'bilan d'ma carrière en faisant cuire mes raviolis pesto Giovanni Rana Y a l'futur dans ma liste d'amis, j'écoute Wallace Cleaver, j'écoute anNie .Adda J'suis au cur de l'action comme un processeur Est-ce que j'viens t'casser les couilles, moi ? Viens pas m'casser les couilles, zehma t'es le chef, t'es le professeur Tu sais rien du tout, t'es un fossile qu'a mis tout son oseille dans un bolide J'sais faut parler bien aux grandes personnes, donc va niquer ton gros père le connaisseur Que la vulgarité, j'suis en roue libre, t'es pas content, c'est l'cadet d'mes soucis Y a des jours, j'ai pas envie d'être consensuel, donc va niquer ta grosse sur la toubib Fuck J'peux le faire sans insulter ta daronne, elle a d'jà beaucoup d'boulot, ta daronne Fuck Entre son beauf de mec et sa conne de fille, elle a pas mal de mérite, ta daronne La chatte à la grand-mère de ta daronne Fuck qui fait du ski nautique dans la Garonne Sale Y a des édentés qui traînent en bas d'chez moi, qui f'raient bien un boulot à ta daronne Bon, bon Bon Le seum que j'ai, c'est comme une avalanche Avalanche, rafale de FAMAS sur le goudron frais Goudron Tu vas t'casser les deux bes-j' en cavalant, 7.5 Bah oui ! Bah oui ! Ouh oui ! Le Shel', le tueur Fort, fort, fort Han, on va péter ça j'crois, han Hâte de voir, lessgui Han, yeah, han, han Depuis 2013, rien n'a changé, on a perdu plus de potes Et l'père Noël, lui, bah, il fume juste plus de clopes Moins tu m'ouvres les portes, mon frérot, et puis plus je toque Mon moi d'enfant grelotte, son cur fait plus de bruit que deux glocks J'l'ai croisé dans une rue, j'lui ai dit Tue-les, de sorte Qu'ils n'viennent plus l'ouvrir, d'façon à ne plus faire hurler le rott' Parle d'sortir les guitares, à croire que la rue, c'est le rock Le shit d'SLN vient du Maroc, va jusqu'à Sevran Beaudottes Fahrenheit, trente-deux degrés Fahrenheit L'av'nir est sombre, le ciel devait nous ram'ner quelques lights Yeah Y a qu'quand j'les lave que j'vois les trous dans l'dos d'mes vestes Nike Yeah Tell'ment les crocs qu'j'pourrais même mordre le chien d'Take A Mic Yeah On roule à deux cents dans la fumée, j'ai vu craquer l'pare-brise R.A.F du trône, R.A.F d'être un artiste Oh Si vous voulez m'tuer, faudra qu'vous veniez par dix Mes jnouns me backent, j'demande donc à l'ingé' d'rajouter quatre pistes Yeah Allô, Lewis, on les baise, il m'a dit Si, si, si J'vais leur rendre la monnaie, donc faudrait pas qu'je lubrifie Elle m'a dit Je t'aime, je sais plus c'que ça signifie Mes preuves d'amour, lui dire qu'les pneus, ils crissent ici Qu'on laiss'ra pas traîner notre fils ici On a en mis, on en a pris des coups d'lattes, pour trouver un d'tes sons bon, il faudrait qu'j'en écoute quatre J'vois des tas d'débris d'joues, parce que j'mets beaucoup d'claques M'ont mis des coups d'pute donc même l'ange à ma droite, j'l'écoute as-p Yeah, yeah, yeah, Grünt 57, le retour Premier couplet d'la première Grünt Dix ans après, on est là, comme le Highlander, ils ont voulu nous tuer, j'suis comme Highlander Yeah, yeah, let's go, Wallace Cleaver Eh, eh, j'ai mis beaucoup d'énergie dans cette merde toujours Eh, eh, eh, eh Yeah J'ai mis beaucoup d'énergie dans cette merde, qu'est-ce qu'on m'a rendu ? Que dalle et je continue à voir cligner la pendule Promis, j'voulais pas commencer d'manière amère, mais bon On s'rapproche de la guerre des mondes, au moment d'payer, personne qui gère les comptes Han Couplet sur le fil, step-up obligatoire, mais c'est pas simple J'me suis lassé de nager dans l'petit bassin Immobile au fond d'l'impasse, je voulais pas ça Efface les lignes de c'qui est tracé, je vois l'or derrière les gravats Pendant longtemps, j'étais stressé, à r'mettre tout en question pour des résultats médiocres Aujourd'hui, rien qui m'surprend, rien qui m'impressionne J'ai même pas la haine, j'suis en état d'grâce Les voix de l'au-delà sont en train d'terminer ma phrase Tiens la barraque comme m'sieur Sheffield Wouh M sur le front comme Végéta et Matthieu Chedid Loin d'être chétif, au poste à l'heure, derrière la part Je garde le cap, pourquoi tu t'échines, à vouloir m'faire dévier ? Seul sur l'autoroute que je suis en train d'frayer Pas de pause, j'fais que m'entraîner, j'élimine ce côté statique J'considère que j'ai trop freiné, mais ça donne la dalle, c'est pratique J'vais pas refaire tout mon parcours, redescendre du haut du panier Mix de talent et de bravoure, un peu d'chance pour m'accompagner, lessgui Lessguili, lessguili, lessguili, hey Lessguili, lessguili, lessguili, hey Lessguili, lessguili, lessguili, hey Yeah, yeah, le Sto Yeah, Sto, Sto, Sto, Sto, Sto Big up à Wallace 5.9, TNF, LCG, brotherhood jusqu'à l'infini, tu connais déjà Yeah Han, han J'entends les sirènes, c'est pas les bonnes, j'avance dans la city, y a bien trop de misère Tout mon cur, je donne, tu m'l'enlèveras jamais, cette voix qui résonne Les poumons encrassés par Rotterdam Han Les poumons encrassés par Rotterdam, let's go, yeah Yeah J'entends les sirènes, c'est pas les bonnes, j'avance dans la city, y a bien trop de misère Yeah Tout mon cur, je donne, tu m'l'enlèveras jamais, cette voix qui résonne Les poumons encrassés par Rotterdam, policiers néerlandais voudraient qu'on s'tape La musique ou les stup', on ramène la came, faut investir dans un stud' à la campagne TTP, c'est la guilde, le chemin est bre-som, j'ai pas pris d'guide, mais j'avance Les algorithmes, les avances, c'était pas ça notre rêve J'voulais juste kiffer avec tous mes frères mais dans l'gâteau, y a dix parts et qu'une seule fève P't-être que c'est éphémère, j'écris mes souvenirs, par peur de les perdre De notre côté, les nuages sont gris, révise pas c'qu'on nous a appris La parole de l'Homme, moi j'm'en méfie, j'écoute toujours celui qu'je crit' Pour être libre, des E, il en faut plein, sur la route, pas d'quoi faire un plein À coup sûr, il faut qu'j'arrête de m'plaindre, j'vois déjà l'tableau avant d'le peindre J'ai le nez dehors, yeah, parce que j'cherche encore Putain, rendez moi mon cur, hein, pour tout l'or du monde J'ai vu l'espoir, mon reflet dans l'eau, mes yeux rivés vers le haut Pas de magie, juste du temps, pas de magie, juste du temps Ils m'ont vu marcher sur l'eau, ils ont crié Fata Morgana C'est du travail, pas de blabla, j'compte pas un miracle deux fois J'dois quitter mon bloca-bloca, tu sais, j'peux pas perdre la foi Donne moi 1-0-0 je le transforme en 100K Fuck être un caméléon, moi j'suis un putain de chien J'ai vu ma mère s'casser l'dos, pour d'la graille dans nos gamelles Gamin, j'ai observé, maint'nant, j'ai bien capté Tu peux rester acharné si tu sais qu't'as pas tout donné, chien ! Gang, gang, gang Oui monsieur ! Let's go, merci Wallace, le sang Han han, yeah, okay ok ok SLI, SLI, woh, let's go Colis surspect, colis piégé, han han SLI, parigot, PSG J'marche, je drible, je goûte, han han J'marche, je goûte comme maître nageur Nageur J'paye pas stud' pour rec' un clash J'paye pas stup' pour rec' un diss' Ok No prix, no clash, no beef No promo pour la bêtise, han han, lets'go Faut qu'le produit s'écoule, c'est clair C'est clair Dans ma Lewando', j'roule les R Les R Faut que les pointeurs coulent, c'est clair C'est clair J'fais ça comme un , quoi, ok Woh, la famille, on dit Quoi, ok Fuck une présentation ok Ok J'arrive en impoli, gars, ok Ok , Paris Hilton, let's go Y a des chicks qui taffent pas dans l'hôtel'rie Mais bon, elles bossent au Hilton Grand homme a b'soin d'sa p'tite somme P'tite somme P'tit con a b'soin d'sa p'tite conne Big homme a b'soin d'son Bitcoin Sale Pas en major, mais j'fais mon Capitol, han han Oui ! Let's go Yeah, bleu, yeah On a grandi à deux cent, j'ai plus une goutte d'essence J'ai rêvé du heaven, j'ai presque vu les anges J'ai presque touché son cur, le tableau d'Michel-Ange Ma tête elle est hantée, j'vois plus de fantômes qu'une cellule de la santé J'vois les bougies qui dansent, le ciel tout gris, j'suis tout p'tit ou le reste est immense ? J'connais plus les dimanches, j'suis avec Freddy, mes rêves j'les ai hmm ils m'manquent Là, j'suis dans la descente et j'traine pas dans leurs fêtes, j'suis condamné L'silence, j'l'entendrai plus jamais, y a trop d'souvenirs qui m'hantent et mêmes ses yeux ils mentent J'crois bien, j'en ai zéro, j'ai aucun sentiment, aucun sentiment Mais reste là jusqu'à l'aube, ma richesse plus qu'la vôtre Déteste moi, qu'j'sois vivant, j'remplacerai tous mes mots, par des notes de piano Oui Des notes de piano, yeah Par des notes de piano, yeah J'remplac'rai les nôtres par des notes de piano Par des notes de piano, tous mes mots Par des notes de piano Par des notes de piano Par des notes, par des notes, par des notes, toutou-tou ! W Arrache-moi ça Neurones cramées par l'effet d'serre, yeah Yeah, yeah, yeah, yeah Hey, hey, hey, hey Neurones cramées par l'effet d'serre, résultat du vingt-et-unième siècle T'attends qu'un miracle intervienne, connard, ça m'étonnerait fort que la Terre tienne Pas beaucoup d'gens qui se battent pour aider les pauvres, c'est notre problème à tous Des impôts qui financent l'arrosage d'une pelouse d'un terrain d'foot, qu'est-ce tu veux qu'j'te dise ? Barz Pour les baiser, j'ai mon livre de r'cettes, capsule d'anthrax dans la dent, sur pivot Troisième doigt vers ton équipe de chbeb, j'y peux r', encore une putain d'rime de faite C'est mon job, donc j'le prends à cur, j'récupère les lauriers, j'le fais sans attendre J'mets les pieds où j'veux, souvent dans la gueule, j'tire les balles où j'veux, souvent dans la tempe J'écoute vos mensonges, obligé de n'penser qu'au prestige, couilles sous atmosphère protectrice Stop ta condescendance, putain j'trouve le temps long Tu ris sans nom, tu peux faire le 112, impossible que l'vent tourne, c'est trop tard, le futur est en route Pompe sur pompe, plus de double menton, plusieurs coups de crampons, j'te découpe le tendon J'ai laissé les problèmes en soute, maint'nant, j'ai trop d'aisance C'est une longue construction, d'puis l'adolescence J'commence à voir l'sommet de l'arborescence Intervention plus que délicate, séminaire Yeah, j'me positionne sur ta réserve héréditaire, tu captes pas, faut qu'je réitère Jette l'allumette dans le jerrican, seul survivant comme dans Many Men, instru laissée inerte Au top niveau, printemps, automne, été, hiver, pluggé comme Péritel Moindre faux pas tu le payes cash, c'est bien sur ta tête que la 'teille casse J'lance le regarde noir de C17, concu' docile comme un Teddy Bear Y est fou c'man, c'est c'qu'elle m'a dit la dirlo, mes inspis' c'était Gucci Diplo Vendeur de shit, mon seul diplôme, j'volais tout-par, puis j'mettais sur Depop, let's go Guette la stamina, j'inhale beuh magique, un 10K qui tape On y va, l'projet est solide, j'suis en one, one, one, one Running lacets crades, j'me suis assez crack J'viens pas d'Birmingham, mais j'ai des p'tites lames Sourire du Joker comme dans Batman Hémoglobine, adrénaline, c'est pas leurs bails d'adrénochrome 2-0, vingt-trois, fin du game, c'qu'ils font en un an, j'le fais en un On peut t'rentrer en entier dans un vulgaire caba, il m'faut la money, le canap' Ikea, vite On doit glow up, maîtriser l'art, il d'viendrait fou Emile Zola Big fumée, je n'fais que tousser, et OG J'suis d'vant l'azerty, on fait plus d'passe dé', les p'tits maint'nant s'prennent pour des PDG, yeah Force à mes gars d'en bas, ceux qui s'butent Han han Toujours assidus, dans l'business comme dans les stups, peu d'études, mais beaucoup d'maille, ok Force à mes gars d'en bas ceux, qui s'butent Han han Toujours assidus, dans l'business comme dans les stups, peu d'études, mais beaucoup d'maille, let's go Sto, Sto, 5.9, TNF, LCG Classique Attention à ça yeah, p't'être ça va, ça peut partir à tout moment Ça drop n'importe quand Han, est-ce que j'l'aime ? Han Yeah, yeah Ne raconte pas ta vie, nous on regarde que la notre, j'ai entendu une belle voix qui venait d'là-haut J'lève les yeux et ma grand mère me fait un clin d'il, en me chuchotant qu'des des femmes, y en avait plein d'autres Les flammes, les yeux, la pluie derrière les carreaux, j'roule à deux cents, j'vois des fleurs en d'ssous des panneaux J'ai même pas pu lui donner un bisou, j'croyais qu'ces choses là n'arrivaient qu'à l'autre Et dans l'fond, les gens qui doutent, on aime ça, on a l'même tour, peut-être on a pas le même sac Et oui, j'ai un peu plus de talent, mon frérot, même si sur l'papier on a juste le même bac, sa mère Front Crook et la ch'ville craque sa mère, des anneaux sous l'capot, j'en veux au moins quatre, sa mère J'ai attendu mes jnouns derrière la porte, si l'av'nir veut pas s'battre, je réglerai le cas d'sa mère Hein, j'rêve de reprendre les mains qu'j'ai rattrapées, qu'j'ai lâchées Un vrai amour est celui avec lequel on a pas l'courage de s'fâcher J'ai grandi à un endroit où, en fait, y avait même pas d'train Où ça hurlait si sur la table, moi et ma sur on r'tournait pas l'pain J'écoute Quand je s'rai grand et j'écoute L'amour est mort, mais J'voulais parler aux étoiles, j'ai vu quelles dormaient J'ai d'mandé à Dieu comment on peuple un désert, pas d'réponse, il paraît que le silence est d'or, mais Dans l'église de la haine, j'ai pas regardé les vitraux, l'amour en un point, il faut juste cacher les vitaux Dans l'truc j'égorge des prods, on en a changé des vies tôt, dix ans qu'j'ai perdu mon p'tit cur, j'ai pas trouvé c'qui équivaut Et si j'suis là, c'est gage de qualité, j'me casse, j'suis fatigué On rêve trop, chez nous, c'est rare de graviter, tout peut s'envoler, la vie, c'est comme le cash de Halliday Ou ta jambe, si j'lâche le canidé, j'vis, j'pense, crève, moralité Après la tempête, la flaque sera vidée, mets cent briques sur la table, tu verras mes eyes se raviver W, ils pourront jamais test J'attends de ramener l'pez, les gens, c'est comme les fesses, y en des tas qu'j'aime et des tas qu'j'déteste W, ils pourront jamais test, j'attends de ramener l'pez, regarde c'que j'leur fais avant de m'parler d'sexe Wouf Attention, belek Yeah, yeah, wow Wah wah, yeah Mon dernier album, shesh Wah, wah, wah Mon dernier album s'appellera Larsen J'veux réussir mon départ à défaut d'être arrivé Nique leur carré VIP, leurs chiffres sont faux, mon art est vrai Quinze ans, j'rêve d'être un rappeur, vingt-cinq ans j'suis un rappeur qu'arrive plus à rêver J'veux finir près d'la mère loin du square Tous mes sons ressemblent à des outros, car j'me souviens qu'des fins d'histoire Guess who's back J'ai une carrière qui boite comme l'usual suspect J'voulais une maison sur la côte, j'ai qu'un requin sur l'pec' Ouais, allô j'écoute, encore un artiste qui pense pouvoir mieux réussir en écrasant ses potes Encore un label qui t'baise en faisant croire qu'l'avance est haute Encore un journaliste qui oublie trop souvent qu'il mange grâce au talent des autres sur mes textes mais ils comprennent rien Sur scène je chante ma tristesse, font des pogos sur mes plaies Quelque part entre le maquis, la toundra, les amis, les coups bas, les j'arrive, les bouge pas Baki et Rakim, Salif et Fally Ipupa Ali et Booba J'regarde les gros titres et toi tu t'demandes c'qui m'effraie Ma mère a les traits tirés tandis qu'moi je tire des traits Pourquoi j'pense à ça tout l'temps ? J'voulais l'emmener à la plage, j'me suis retrouvé dans des sables mouvants, yeah J'vais leur prendre l'oseille, nique leur tendre l'oreille J'bosse l'album intemporel, puis adios Ciao, ciao J'ouvre une radio, j'organise un festival comme Jean Morel Donc me d'mande pas si j'ai l'temps pour elles Yeah Han, han, yeah yeah, yeah, han, han Les yeux rouges pas à cause du chlore, en c'moment, j'pense trop à la mort Mime l'Extendo avec mes doigts, j'en veux un vrai pour m'y croire L'arme à feu pour prendre du recul, flemme de rentrer dans leurs murs Nous on kiffe c'qui sort du cur, chez eux, ça sort par le cul Connaît l'gouffre, les rooftops, le goût d'la rage et de la vie D'puis p'tit, j'ai les mêmes envies, j'ai pas changé, j'fume juste des clopes Y a des jours où j'dis qu'j'vais le faire, puis d'autres jours où j'le fais juste J'suis comme une fausse note qui sonne juste, donc ils me proposent tous de l'aide Mais moi, j'veux pas changer, rester qui je suis, pas honte de c'que j'étais J'étudie l'Homme, de jour en jour et je n'veux point lui ressembler J'ai vu des darons frapper leurs mômes comme si c'était des ennemis Plus proches de animaux et d'leur instinct, que d'mon portefeuille Perdu l'innocence dans les yeux, j'avance, j'fais semblant d'aller mieux L'insolence quand je suis sur scène, l'humilité quand j'change de lieu Jamais, jamais dire Jamais, donc j'aurai jamais c'que j'veux J'crois qu'j'ai plus d'feu dans les yeux, l'autre moi l'ravive comme il peut Réveillé par un trou d'mémoire, c'est vite le brouillard Débrouillard, même plongé dans un trou noir, hein Instinct de survie, la vie un combat donc je combats, chien La vie un combat donc je combats, let's go Chien La vie un combat donc je combats La vie un combat donc je combats, oui monsieur Han, yeah, han, W J'ai croisé l'diable, ce fils de pute ne portait pas d'Prada Tête à tête contre l'av'nir, mais bon, y a quatre gars là Pensent être meilleurs que moi, visiblement, c'est pas l'cas, là Pas d'casquette, si j'avais honte comme eux, j's'rais sous Balaclava J'vois plus grand chose dans la pièce, j'attends l'éclaircie Merci, même si j'lui dis Je t'aime, elle m'dit J'ai l'esprit J'ai donné mon cur à ma tête, ma tête au ness-bi J'peux leur apprendre les vrais placements, pas leur donner la modestie Un Yamaha d'compét', v'là d'vérifs J'crois qu'il pleut, l'ciel veut pas qu'j'guérisse À SLN, y a rien, y a qu'moi, pas d'périph' J'peux tout niquer et même pas palper d'biff ? Quatorze, quatre-vingt-dix-neuf, j'tais d'jà plus fort à dix-neuf Sous M1 Pro, veulent rivaliser, ils n'ont même pas l'i9 Fer est neuf, j'me d'mande qui s'ra bientôt le vrai Keyzer Tell'ment chaud qu'même si ils voulaient, ils auraient même pas pris l'eu-f, han W jusqu'à l'infini, j'leur mets tempête, un tour d'avance et j'me prépare à filer Leur flow est pas raffiné et leur shit est paraffiné, qui s'ressemble, s'assemble, donc j'invite un FAMAS à dîner, han W jusqu'à l'infini, moi, j'invite un FAMAS à dîner W jusqu'à l'infini, moi, j'invite un FAMAS à dîner J'suis dans l'magma, j'crée un torrent, j'suis en flux tendu d'insolence J'ai déjà vu l'film, y a un cowboy qui tue un comanche Face cachée d'la Lune, j'envoie l'unité d'engins volants Pour te montrer comment j'commande, d'en-haut d'la tour, eh Électrique lady, j'ai des skills terribles, genre déplacer des mondes anciens via la télékinésie J'suis fait de plasma, vaisseau de classe A, vengeance de Casca God Hand 4, code eight, Lune noire, code name, survivant comme Ken Bon, j'arrive en vitesse de distorsion, j'suis en finesse T'arrives en Claude, t'arrives en ivresse, han Venu pour distribuer le vrai shit, j'zigzag entre les équinoxes, ça m'donne le vertige, han J'prends aucun plaisir à les tordre, j'me sens différent, c'était déjà l'cas à l'école, bon, bon, eh Dystopie des drapeaux, nique diviser pour mieux régner, non, j'suis pas aussi mégalo Ce monde projette un reflet, on d'vrait s'en servir de repère afin d'gommer les différences entre les lions et les crapauds Ahahah, 7.5, monsieur Yeah, yeah, yeah So le Sheldon, so tout l'monde, shh-shh-shh So Big Pierre, toujours hein, toujours Les mots sont pas plus beaux même une fois mis sur des toiles Pas sous drogue, j'suis soûl l'soir, des fois, même, j'suis sous étoiles J'parle tell'ment d'mes démons, j'me convaincs même p't'être d'les voir Ça fait longtemps qu'j'bats des ailes Fais le vide vite, fais le vite vite J'suis derrière l'mat'las, j'record mes cauchemars, ils participent Depuis dix piges, j'suis chez moi, l'enfer, j'le touche d'ici J'vois l'invisible, j'suis dans l'partage, prends même un bout d'ma peine Y a pas d'label au bout d'l'appelle, oh wow, non Pourquoi la belle a l'goût d'la bête, y a ma tombe au bout d'la pelle, oh wow Si elle s'attache, j'm'arrache d'ici, j'ai du Chanel, pas du DC Mais j'vois tell'ment d'fantômes et j'suis tell'ment hanté, j'suis en leasing J'suis dans leaving, j'suis dans la room, elle a mon cur dans les mains, mon cerveau dans la bouche J'connais des gars louches, hum, ils parlent avec les poings et c'est pas du morse, nan nan Même pas du braille, non non, si demain j'die, non non Merci pour tout, maman, merci pour tout, maman, merci pour tout, maman J'suis avec W, Pierre, anNie, on s'est pas fait les dents, on s'est fait les canines Y a des corps sous l'étang, des tonnes de Fentanyl, avec Lewis et quand on clip, on tue le temps Élaborer des plans qui f'raient rougir Staline, yeah On parle beaucoup d'argent, rêver des kichtas grandes comme Mimie Mathy J'passe l'hiver à Berlin, après, j'vais en Pologne comme Lil Yachty, yeah Gang On les blesse, on les blesse, kichtas et gouttes de sang épaisses Méfaits durs quand j'connais trop pas la hess L'ascenseur en panne, la daronne qui stress, qui nous parle de son pagne Trente-et-un ou trente-et-un, pop champagne, c'est ça la vie en vrai C'est ça la vraie, j'demande au reufton Sers-moi la fraîche Le est hot rap, on dirait j'prêche, j'vais die comme un prêtre La vie, c'est un prêt comme ta putain d'toxine, avec des comme un putain d' J'te vois de loin, j'te sers la main, j'vois dans tes yeux, Dos argenté, plante-moi ton cut, il va pas rentrer Mes PTSD font mes mauvais réflexes, , , jamais d'te-trai Hein, hein, yes, négro, on les blesse, négro S'ils veulent nous faire, on les blesse, négro PTSD, c'qui a dans l'crâne, négro, se démerder avant qu'on canne, négro Yes, baby, on est wet, baby, Man Of The Year, j'suis le best baby Crack baby, quatre-vingt-dix, viens boy, y a v'là les indices Han, han, ok ok ok ok, so big Wallace, let's go Yeah, yeah, Grünt 57, On les casse, baby, on les casse, baby, hey Grünt 57, yeah yeah, toujours, yeah, hey, hum, hum Hey hey hey, Grünt 57, Grünt, Grünt, Grünt 57, han, yeah Faut calmer l'ambiance, un peu, biensûr Yeah yeah, yeah, ok, ok Eh, yeah Litrons d'essence dans la potion, j'ai vu disparaître toutes mes options Les nerfs sont tendus donc plus très loin d'l'implosion J'ai fait une croix sur l'chèque de caution, debout tous les jours, c'est juste la veille que nous r'copions Les craintes se dissipent dans la fumée népalaise Rafales me poussent vers les falaises, dis-moi comment faire pour être à l'aise Plus j'avance, plus j'suis dans l'déni, eh Ce monde est fucked up comme dans Resident Evil, yeah J'la connais par cur, j'ignorance l'évidence terrible Pas beaucoup d'espoir que mes journées s'embellissent Sur le circuit, je mets plus de temps qu'prévu, attentif seul'ment quand j'mets ma vie en péril Trop hypnotisé, ça m'fait tourner la tête Comme seul objectif de ravaler ma peine, mais comment profiter si j'ai pas les mains pleines ? Plutôt bon signe j'apprends toujours d'mes erreurs, j'compte pas m'attarder sur le tarmac Pas dans vos faux plans, j'préfère soigner mon karma, trop peur qu'il me brise comme du carr'lage, eh C'est pas les mêmes thèmes, non, pas les mêmes projets, j'suis en pleine course, pas envie d'me faire faucher B'soin d'être loin mec, j'ai besoin d'être posé, b'soin d'être loin mec, j'suis prêt à exploser Souvent absent de vos soirées dansantes, m'en voulez pas, c'est comme ça, c'est dans l'sang Toujours dans l'vrai, dans la finesse et j'fais du sur place sans hapiness J'sais pas quoi faire de ma vie si j'fais pas ça, dans l'eau glacée, j'fais comme si elle est bonne T'aimes lancer des pics comme les rascasses, pour t'ves-qui, j'</t>
+          <t>Herb...herb is a plant ! I mean...herbs are good for everything Why...why these people who want to do so much good for everyone, who call themselves governments and this and that... Why them say you must not use the herb? You see...it make you rebel. Tout passe par la force, rien n'est acquis de droit Le ciel m'écrit en morse, on dirait qu'il me voit Tu m'dis qu'ces vagues sont imprenables, ai-je vraiment l choix ? Que des emballags sans contenu, que des Dua Lipa High-kick, middle-kick, Sawadikap J'ai confiance en personne, du coup on m'trahit pas À un moment donné faut prendre les armes, suffit pas d'y croire À un moment donné faut rendre les armes, c'est là qu's'écrit l'histoire Sénégalais chaud comme Haalpulaar C'que j'dis c'est tellement noir, tu crois au canular J'veux pas leur or, juste leurs têtes me suffira J'suis craint comme Voldemort, d'mande à Linda, elle t'le dira 45 Scientific, l'escroc s'appelait Géraldo Flip la cocaïne, whip la Gelato Crochet d'Lomachenko, tout devient noir comme Mamadou Sakho Holá, dónde está el producto, Paquito? J'suis avec une pute de Liège, même si y a pas d'neige elle aime bien slalomer Pour une poignée d'euros, elles s'assoient sur ton bâtonnet Mon pote m'présente sa femme, ah jsuis goute-dé, j'la connais Le rap français c'est oi-m, ils devraient tous m'appeler Papounet Tout passe par la force, rien n'est acquis de droit Le ciel m'écrit en morse, on dirait qu'il me voit Tu m'dis qu'ces vagues sont imprenables, ai-je vraiment le choix ?</t>
         </is>
       </c>
     </row>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Mon son</t>
+          <t>Snitch</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Mon son s'balade en ville avec un brelic Il s'écoute à la morgue, il fume de la drogue Déconseillé aux moins d'seize numéro uno 92100 à l'aise avec ou sans Laurent Bouneau À c'qu'il parait qu'on dit qu'il s'la pète, n'a pas de talon d'Achille Belek !, 'parait que son interprète a la gâchette facile Il devrait passer sur B.E.T., Cherche pas la street credibility, il veut juste s'barrer d'ici Il est vulgaire, devant rien ne recule Frappe la tête et les rotules, il a les RG au cul Il a les RG au cul, il s'en bat les reins Ils ont cru qu'il valait rien, qu'il baisserait son peau d'pêche Mais wesh toujours opé car il est dopé Bête de reur-ti a pris du poids car il est sorti Mon son, il s'écoute à fond dans les gros gamos Premier en E.P.S, d'la pire espèce, DPS comme Carlos Mon son Mon son Mon-Mon son Attention voilà mon S.O.N, MC lance un S.O.S La critique est sévère, il se fait péter au pieu Boulet au pied, il s'élève, dangereusement célèbre Il rapporte des sous, rend les gens fous On l'écoute d'Osny à Fresnes, il règne en Amazonie Il crache pas dans la pe-sou, squatte le ter-ter Met les MC genoux à terre, le nez dans la fe-chnou Dangereux comme EJM, un king sous chaque carte Pense qu'au crime, à la chatte, roule en 4x4 Les Mc s'méfient quand il est là J'te jure j'ai vu les juges et les jurés vouloir épurer l'budget Mon son il est mieux qu'le tien Kho, c'est prouvé À l'instant même où tu l'écoutes, redoute la prochaine couvée Alors je le protège car il est wanted, hardcore T'as tort de l'tester, mon son remet tout l'monde d'accord Son régiment, un triste cortège malsain Décrit son malaise, sans Martin Scorcese à l'aise Mon son Mon son Mon-Mon son Attention voilà mon S.O.N, MC lance un S.O.S Il change de flow comme de chemise, pire qu'une descente de schmits Il est rapide, lapide Marine et la pine tranquille Il est toujours fonce-dé pour une meilleure approche Eh ouais mon pote, il est violent Les MC s'méfient quand il est al, mon son, c'est King Kong Parle lui, il avance à grands pas sans sucer quiconque C'est pas un gagne petit, venu au monde On lui a dit arrête de geindre petit, ici c'est la jungle, B2oba son daron Black blanche beurre t'es bienvenue si t'as le boule à Christine Arron Plein de rancur, d'liqueur ensanglantée Gravé dans la roche au marteau piqueur Mon S.O.N, Jack l'éventreur c'est son parent proche Arrive en RER C, repart en Porsche Viens pas test mon son Attention voilà mon S.O.N, MC lance un S.O.S5</t>
+          <t>La-la, la-la, la-la, la, la-la, la La-la, la-la, la, la-la-la-la Ey Drei Uhr nachts und ich bleib' nicht mehr lang hier Blickkontakt und ich weiß nicht, was passiert Dreißig Grad, es wird noch wärmer mit dir Komm mit mir, was haben wir zu verlier'n? Wir hab'n nicht mehr lang, uns bleibt nur heut Nacht Ich war fucked up und ohne Plan Hab' es nicht geahnt, doch du machst mich schwach Frag' mich, wo du warst Baby, bleib noch was hier Lass mich nicht los Nimm meine Hand Oh, komm mit mir, Baby Bleib noch bei mir Frag nicht, wieso Egal, wo lang, ich geh' mit dir La-la, la-la, la-la, la, la-la, la La-la, la-la, la, la-la-la-la-la La-la, la-la, la, la-la, la La-la, la-la, la, la-la-la-la Baby Mhh, zeig mir deine Wahrheit und ich face sie Hah Blink in dei'm Eye, wenn du mein Face siehst Cute little lady mit 'nem Fac-Beam, flirty so wie Daisy Waist to snatch, Boobs sind slatty Bitches bad, black-girl magic Drinks on ic, Glas voll Henny, ah One for the night Wir hab'n nicht mehr lang, uns bleibt nur heut Nacht Ich war fucked up und ohne Plan Hab' es nicht geahnt, doch du machst mich schwach Frag' mich, wo du warst Baby, bleib noch was hier Lass mich nicht los Nimm meine Hand Oh, komm mit mir, Baby Bleib noch bei mir Frag nicht, wieso Egal, wo lang, ich geh' mit dir La-la, la-la, la-la, la, la-la, la La-la, la-la, la, la-la-la-la-la La-la, la-la, la, la-la, la La-la, la-la, la, la-la-la-la Bleib heut bei mir, fühl dich frei, mach dir keine Sorgen Was soll passier'n? Nichts ist falsch, was dir guttut Bleib heut bei mir, fühl dich frei und denk nicht an morgen Du musst riskier'n, um zu finden, was du suchst La-la, la-la, la-la, la, la-la, la La-la, la-la, la, la-la-la-la-la La-la, la-la, la, la-la, la La-la, la-la, la, la-la-la-la</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Cauchemar</t>
+          <t>Hors-saison</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Qu'est ce que t'as T'es trop nerveux Laisse moi dormir Qu'est ce que t'as T'es trop nerveux Laisse moi dormir Je le sens que tu trembles Que tu transpires Qu'est ce que t'as Qu'est ce que tu veux Parle pas de malheur Tu vois pas que j'en rêve Il est quelle heure Qu'est ce que t'as t'es trop sérieux Ca me fait pas rire Il est temps que je parte Que je me retire Laisse moi te fuir un peu Tu me fais peur Laisse moi fermer les yeux Sur tes malheurs J'veux pas y croire A ton histoire J'veux pas y croire J'veux pas l'savoir J'veux pas y croire A ton histoire J'veux pas y croire A ton cauchemar Laisse moi passer De l'autre côté Laisse moi tomber J'suis fatigué Qu'est ce que t'as T'es trop nerveux Laisse moi dormir Je le sens que tu troubles Que tu transpires Tu le sais j'suis fragile Toi t'es trop dur Laisse moi sous ma pile De couvertures Laisse moi dans le noir La nuit entière Je ne veux plus voir Eteins la lumière J'veux pas y croire A ton histoire J'veux pas y croire J'veux pas l'savoir J'veux pas y croire A ton histoire J'veux pas y croire A ton cauchemar Laisse moi passer De l'autre côté Laisse moi tomber J'suis fatigué</t>
+          <t>Fair-play dans les coups bas J'pourrais écrire tes textes avec le trou d'balle, t'ouvrir l'esprit à coups de batte Si j'suis al c'est pas un coup d'chatte OK, compris j'ai qu'un seul joker, si je m'en sers ça pue la son-pri Spécialisé sans Princesse Aniès B2O AKA le génie sorti d'une teille de Jack Daniel's Ils nient mais leur technique de dopage Laisse des traces de sperme de toutes les ethnies dans l'sophage Alcoolisé donc plein d'alcool, dard-dard Les porcs ont mit des radars jusqu'aux portes du Colisée Le zoo, B2O, vous connaissez, mais vous nous aimez pas trop Parce que c'est hami, ça fait flipper les mômes et les mamies Notre piste de danse un tatami, EnnemidÉtat.com Blesse, laisse parler en mauvais état L'instrumental est plié, lutter est inutile Soit sur qu'on va tout niquer, douter est inutile Dans leurs têtes y'a trop de silicone, moi j'colle pas dans leurs registres Hors saison, j'existe dans lil du cyclone J'suis pas venu seul à la fête, donc plusieurs cartouches T'inquiètes j'assure la be-flam, les courses et les couches Restez tous dans la salle jusqu'à la fin du générique Elle est belle, cruelle, triste, elle est brutale La mélodie des briques fait mal, mon son n'est pas une icône Hors saison, j'existe dans lil du cyclone Passe-moi du seille que j'décolle, change de décor Gentiment j'donne l'heure en diams, demande-la poliment Original et féroce, j'sais pas ce qu'ils inhalent Baisse ta garde et ton gosse va naître à l'orphelinat J'irais jusqu'en finale, frais même en été Vrai, je le resterai, je l'ai toujours été Le temps est assassin, pour ceux qui me connaissent pas J'fais que d'remplir des chèques je m'en bas les steaks du C.S.A J'ai pas l'droit à l'erreur sinon mon contrat saute Du Forum à la Place Haute, mon gang balance la sauce Les mecs sont haineux, les go sont charmées Ils veulent nous crever les pneus, évidemment j'suis armé La plupart devraient capituler, mon flow les immatricule Le Desert Eagle les désarticule Petit mes galères j'en rigole, mais j'veux pas être ton idole C'est les Hauts-de-Seine sur l'instru tah Snoop Doggy Dog Dans leurs têtes y'a trop de silicone, moi j'colle pas dans leurs registres Hors saison, j'existe dans lil du cyclone J'suis pas venu seul à la fête, donc plusieurs cartouches T'inquiètes j'assure la be-flam, les courses et les couches Restez tous dans la salle jusqu'à la fin du générique Elle est belle, cruelle, triste, elle est brutale La mélodie des briques fait mal, mon son n'est pas une icône Hors saison, j'existe dans lil du cyclone Si Kopp figure au top, crois pas qu'il retourne sa veste Réel, du nord au sud négro, de l'est à l'ouest J'ai acheté du GHB pour être sur de t'mettre à l'aise Une pour ceux qui m'écoutent en direct live de la calèche Poto, j'ai vu ta photo dans les fais divers, c'est cheum Qu'on tombe aussi bas, t'y retourne dès qu'on te libère Moi j'suis un rat des villes Toujours prêt à faire un truc de débile si tu veux m'voler mes billes kho Couleur ébène, la rondelle bien isolée Plus le défi est grand plus la victoire est belle Hors saison j'existe, persiste et signe Moins d'shit dans la cargaison aucun son ne me résiste Animal-Animalsons Original et féroces, décroche Tallac Records à l'appareil, lève les bras qu'j'te fasse les poches Dans leurs têtes y'a trop de silicone, moi j'colle pas dans leurs registres Hors saison, j'existe dans lil du cyclone J'suis pas venu seul à la fête, donc plusieurs cartouches T'inquiètes j'assure la be-flam, les courses et les couches Restez tous dans la salle jusqu'à la fin du générique Elle est belle, cruelle, triste, elle est brutale La mélodie des briques fait mal, mon son n'est pas une icône Hors saison, j'existe dans lil du cyclone Dans leurs têtes y'a trop de silicone, moi j'colle pas dans leurs registres Hors saison, j'existe dans lil du cyclone J'suis pas venu seul à la fête, donc plusieurs cartouches T'inquiètes j'assure la be-flam, les courses et les couches Restez tous dans la salle jusqu'à la fin du générique Elle est belle, cruelle, triste, elle est brutale La mélodie des briques fait mal, mon son n'est pas une icône Hors saison, j'existe dans lil du cyclone Kho Hors saison, dans lil du cyclone Brrr ! Tallac Records à l'appareil, lève les bras qu'j'te fasse les poches1</t>
         </is>
       </c>
     </row>
@@ -4470,12 +4470,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Corner</t>
+          <t>Sang d’encre</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Han, anmwé Ou té ja konnen, ou té ja fout konnen, han Haaan International Zoe, bouzen kitèm palè Corner a se kay mwen, chak matin mwen balè'l La ri a se pou nou, ansyen nèg yo fachè 44 yo flashè, kolanguet yo chirè Gato keep it Bato, Booba keep it izi Posted futuristic, please put on your 3D We are on some new shit, smokin' on that seeweed Higher than the moon, bitch, you stars cannot see we We some guapy, guapy, guapper guappers, You a copy, copy motherfucker Wait ! Don't you baby me, Don't goo-goo, post a goo-goo gaga Gaga goo-go post a mail, I'm surfin' thru my Yahoo mail I ain't on that gang tip, But I'm damu gale Shoutout to the females! We be gettin' females She said all yo' niggas broke, Pockets on e-mail That's some spam shit, And y'all be goin' ham' Pussy-Ass Motherfuckers, Y'all be going HAAm bitch ! Ridin' to that pocket popper, Sippin' on that swagger water Toujours got me mile high, smokin' on that Colorado Jesus Pieces, keep these quarter pieces on my meter They scared to feature post'em when its Philly that murder feature I see hoes and the cops see low, Mani leather with a oxy flow ... You got me, bro? Swagger on prime time, watch me bring that quarterback And I'm comin' for that sack, Little Haiti warrants that..... International Zoe, bouzen kitèm palè Corner a se kay mwen, chak matin mwen balè'l La ri a se pou nou, ansyen nèg yo fachè 44 yo flashè, kolanguet yo chirè Gato keep it Bato, Booba keep it izi Posted futuristic, please put on your 3D We are on some new shit, smokin' on that seeweed Higher than the moon, bitch, you stars cannot see we Haïtizi, 92izi, j'suis sur le corner, j'prends numéro d'Colombiennes Mexicaines, Haïtiennes, j'te laisse Yvette Horner Monsieur Double Poney, les experts à Miami sont formels C'est la Hass, le crime se vend en cornet Nous ? R.A.S, tape pas dans la coke, mais dans la caisse Baise comme un val-cheu, piqure de tésto dans la fesse J'en ai vu d'toutes les couleurs, comme dans sachet de MM's Donne-moi ton number, j'tenvoie l'bre-chi par MMS Dis-moi si tu kiffes grosse tache, j'suis dans Autopsie comme J'suis dans, j'suis dans Autopsie comme Grosdash On fait du gros cash, menace météorite a dit le broadcast 1.0.0 moins ocho, c'est le mot d'passe J'suis sur le corner avec Poe et Gato Tire sur le blunt, sors des flow extraordinaires Pris en photo tous les dix mètres Le buzz est dans la street, fuck lapplaudimètre International Zoe, bouzen kitèm palè Corner a se kay mwen, chak matin mwen balè'l La ri a se pou nou, ansyen nèg yo fachè 44 yo flashè, kolanguet yo chirè Gato keep it Bato, Booba keep it izi Posted futuristic, please put on your 3D We are on some new shit, smokin' on that seeweed Higher than the moon, bitch, you stars cannot see we Pas gin plus bon base que base mwen, Federation graine sec Lé haut lady 54, Diplimatic citoyen Chaine lan cou bel bijou Ou Gwos lévi linett noi' Benz full option 22', intérieur blanc volant noir Chaque matin m'kampé la, Sa map fé la , , N'impote sa wap cheché, I'm the man I two ta, vinn demin, Anvant 9 heur di matin Si ou oué ou machine Qui pas kep ret kampé la, retourner Hennessy ak Jack Daniel, Bouteille noir, glass Cognac 3 Bouzzin des latino, Pendant yo plin travail Poko vlé kem vlé a do, La ri a di glissé kesyon Bizis la sa pas mem gen encor, Kou yo pren une yap baye yo lote Machine yo ac kaye yo, Machteyo ac my boss flow</t>
+          <t>Janvier 2101 Dany Dan - Spécial Dany Dan, vol. 2 2601 Pit Baccardi - Classic Mix-Tape street CD Février 0202 Artistes multiples - Neochrome 3 compilation 0302 Antilope Sa - L'Encre en guise de larmes 0902 Anfalsh - Que d'la haine 2 Mars 0203 Abd Al Malik - Le Face à face des curs 1503 Casus Belli - Street-tape volume 2 street tape 1603 Ol'Kainry - Les Chemins de la dignité 2203 Passi - Odyssée 2903 Nuttea - Urban Voodoo Avril 0204 Expression direkt - X Sessions - 1304 Oxmo Puccino - Le Cactus de Sibérie 2004 Rohff - 10 ans d'avance Mixtape 2204 Al Peco - Bled hard concept volume 1 2304 Kery James - Savoir et vivre ensemble 3004 Fatale Clique - Zone Interdite - xx04 O.P.A.K. - L'arme à l'il Mai - 1105 Booba - Panthéon 1205 Octobre Rouge - Son, Sex Skunk 2005 Artistes multiples LIM - Double violences urbaines - Le Chant De La Rue - 2505 Chiens de paille - Sincèrement 2805 Rim'K - L'enfant du pays Juin 0806 Zoxea - Dans la lumière 1006 Dany Dan - Flashback Mixtape 2001 Cette Année-Là... 1006 Tandem - Tandematique modèle vol.1 mixtape 1506 Casus Belli - Street-tape volume 3 street tape - 1506 Sinik - En attendant l'album 1606 La Swija - Des racines et des ailes - 1606 Bouchées Doubles - Matière grise 1806 Grems - Algèbre - 2106 La Rumeur - Pourquoi on resterait calme ? maxi - 2106 Rohff - La Fierté des nôtres 2106 Veust - Coup de Théâtre 3006 Artistes multiples - Talents fâchés 2 compilation Juillet 0407 Sëar Lui-Même DJ Manifest - S'il ne doit en rester qu'1 - 1307 Seth Gueko - Mains sales maxi Août 0208 45 Scientific - Sang d'encre - Haut Débit Septembre - 0709 Klub des Loosers - Sous le signe du V maxi - 1109 Médine - 11 Septembre, Récit du 11ème Jour 1509 LTA - Ma Mélodie Criminelle 2109 Relic - Légende urbaine 2809 L'Skadrille - Extazik Bizness Octobre - 1810 La Rumeur - Regain de tension - 2010 Psykick Lyrikah - Des lumières sous la pluie 2510 TTC - Bâtards sensibles 2410 Octobre Rouge - Là où ça fait mal 2610 La Fouine - Planète Trappes volume 1 mixtape 2910 Dosseh - Bolide Vol. 1 Novembre 0111 Diam's - Ma vie, mon live live - 0111 Klub des Loosers - Vive la vie 0211 Dicidens - H.L.M. rezidants 0211 Disiz - Itinéraire d'un enfant bronzé Sérigne M'Baye 0911 Manu Key - Prolifique - 1411 Kool Shen - Dernier Round 1511 Alibi Montana - 1260 Jours 1511 Rockin' Squat - Libre vs Démocratie Fasciste 1611 1korruptibles - 1korruptibles 1611 Mafia K'1 Fry - Street Lourd Hall Stars compilation 1611 Projet Facteur X - Le Bon, la Brute et le Truand - 2311 IAM - Anthologie 1991-2004 compilation 2411 Mysa - Lyricisme, Actes et Propagande Décembre 0712 BOSS - Boss Opus 3 0712 La Boussole - Le savoir est une arme Dates non connues Casseurs Flowters - Fantasy Mixtape - IAM La Saga EP5</t>
         </is>
       </c>
     </row>
@@ -4487,12 +4487,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>KOA</t>
+          <t>Saga</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Leur seule victoire, c'est ma chute, chaque fois qu'j'suis tombé, j'me suis relevé Température du cur, c'est froid, ça descend en-d'ssous d'zéro degré Le code promo, c'est TOC-TOC-TOC, tout l'monde à plat ventre, prie ton Dieu Prie ton Dieu De pire en pire, chez nous, ça veut dire De mieux en mieux De mieux en mieux Dans ma tête, y a d'la drogue, des femmes, c'est un cartel colombien Cartel colombien Si tu veux, je te dépose dans les flammes, c'est sur mon ch'min Tous les jours, j'suis zehef, j'allume un réglisse sur la route Puis, Omar me sourit et là, je me dis J'ai fait fausse route Fait fausse route J'vais tout assumer, j'suis v'nu en solo, j'repars en solo J'aurai t'nu comme Mobutu Let's go Pirates soudés, victoire assurée, comme le R et Golozer Faudra aller au bout, entre en guerre avec nous, t'as touché l'gros lot Dans ma tête, y a d'la drogue, des femmes, c'est un cartel colombien Cartel colombien Si tu veux, je te dépose dans les flammes, c'est sur mon ch'min Tous ces menteurs sont certifiés, j'comprends plus rien J'comprends plus rien Pas eux les jefe, plus j'connais les faits, plus j'aime mon chien Plus j'aime mon chien Fin du monde sur un prélude de Bach, c'était eux l'attentat L'attentat I am a legend, outils dans l'sac, mon malinois Malinois Ils diront que le déluge est là, que l'Arche n'attend pas N'attend pas C'est même peut-être plus safe de rester avec moi Avec moi J'avance à grands pas, cartons, petits ponts et ma ganja Et ma ganja T'as fait ci, t'as fait ça, t'sais qu'non, d'mande à Mansa Filtrée, cropée, folle, j'veux que son cul, pas son avis Pas son avis J'connais ni son prénom, ni son 'phone, que son IG Que son IG J'ai mon blouson en cuir, mes principes, Kopp of Anarchy Of Anarchy Il a aidé la France pendant la guerre, c'est un harki Un harki Il les aidera encore, un vaut rien comme bien mal acquis Mal acquis Coup d'boule en finale, Zidane, ma thérapie Ma thérapie T'es sixième dan, une balle et t'es parti Et t'es parti Non-binaire, végétarienne est sa Barbie Sa Barbie Ils demandent le pardon, demandent protection, j'demande un glaive J'demande un glaive Tu rentres par une chatte, tu sors par une chatte, demande à Waze Demande à Waze Dans ma tête, y a d'la drogue, des femmes, c'est un cartel colombien Cartel colombien Si tu veux, je te dépose dans les flammes, c'est sur mon ch'min Tous ces menteurs sont certifiés, j'comprends plus rien J'comprends plus rien Pas eux les jefe, plus j'connais les faits, plus j'aime mon chien Plus j'aime mon chien Fin du monde sur un prélude de Bach, c'était eux l'attentat L'attentat I am a legend, outils dans l'sac, mon malinois Malinois Ils diront que le déluge est là, que l'Arche n'attend pas N'attend pas C'est même peut-être plus safe de rester avec moi Avec moi1</t>
+          <t>Toujours entouré de mannequins Toujours entouré de mannequins Eh, eh Toujours entouré de mannequins, je fais mouche avec mon baratin Et elles s'en iront dès le matin, j'vais pas t'mentir Tu n'es vêtue que de Balmain, espèce protégée en sac à main Le monde est mien comme Tony le Cubain, j'vais pas m'enfuir J'ai pas d'place pour toi dans mon cur, j'serai jamais à la hauteur J'ai une vie trop douloureuse pour toi Mon navire traversera la peur, trois cent quarante au compteur J'ai une vie trop dangereuse pour toi J'vais pas t'mentir J'ai fait couler litres de sang et litres de mascara Si tu penses que j'suis à toi, tu peux partir Notre histoire n'était qu'un strike, n'en fais pas une saga Toi tu réchauffes les curs, j'les fais refroidir J'ai la haine d'un orphelin, la dalle d'un harraga Si tu savais comme ces haineux m'souhaitent le pire Je compte plus mes billets comme grossiste de Malaga Ah-ah-ah-ah Femme indépendante, elle est fière, la vie c'est dure, Paris c'est pas donné Elle montre son cul et ses pieds, c'est sûr, vu son nombre d'abonnés Traite la comme si tu la voulais, pas comme si tu l'avais Elle m'dit Pourquoi t'as toutes ces bouteilles, tant d'oseille, tu souris jamais ? J'ai pas d'place pour toi dans mon cur, j'serai jamais à la hauteur J'ai une vie trop douloureuse pour toi Mon navire traversera la peur, trois cent quarante au compteur J'ai une vie trop dangereuse pour toi J'vais pas t'mentir J'ai fait couler litres de sang et litres de mascara Si tu penses que j'suis à toi, tu peux partir Notre histoire n'était qu'un strike, n'en fais pas une saga Toi tu réchauffes les curs, j'les fais refroidir J'ai la haine d'un orphelin, la dalle d'un harraga Si tu savais comme ces haineux m'souhaitent le pire Je compte plus mes billets comme grossiste de Malaga Ah-ah-ah-ah Si belle et si vicieuse, trop dangereuse pour moi Surtout ne jamais la marier, à vie tu souffriras La route est tellement sinueuse, ses courbes n'en finissent pas Elle n'a pas besoin de me parler, son regard suffira</t>
         </is>
       </c>
     </row>
@@ -4504,12 +4504,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>L’effort de paix</t>
+          <t>Swiss Francs (Remix)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>J'suis venu en paix, pour faire la guerre aux bâtards B2OBA j'traîne tard évitant les endroits takh Fresnes Malsaine est ma vie Parce que j'veux pas r'partir les mains vides, c'est pour les khos d'ma ville Défilent, des billets des filles, des bolides 92 Et pour les gros harkos, des grosses bastos J'suis venu en paix cousin pour faire la chasse aux CLK 230 Chante pour que les porcs rampent P.A.I.X. tu parles Y'a plein d'J.X. tout-par ça sent la hin tu flippes Atmosphère de guerre du hall à la gare, et vice-versa J'm'étonne pas d'voir nos fils faire ça Torse bombé, un peu corse, pense qu'à poser des bombes La dinde et les autres qui sont tombés Et ils veulent tous rapper, comme s'ils avaient quelque chose à dire Mais laisse-moi t'rappeler où c'est J'dois faire l'effort de paix J'dois faire l'effort de péra, Sir Doum's, Ali, Booba Accords de paix rares, frères quand allez-vous voir? Qu'j'tue l'beat sans alibi man et j'verse-tra la scène Pendant qu'mon son t'regarde de vers-tra Effort de péra, Sir Doum's, Ali, Booba Accords de paix rares, frères quand allez-vous voir? Qu'j'tue l'beat sans alibi man et j'verse-tra la scène Pendant qu'mon son t'regarde de vers-tra Ici y'a pas d'blé, mais rien qu'des voraces venant du bled Et sur mon palier, ça sent que l'maffé, le couscous ou l'tiep En tout cas pas l'porc ou bien l'cassoulet, comme chez les gens chez qui j'vais cagoulé Puis m'taille avant qu'les poulets s'mettent à débouler C'est grave comme ils veulent me cé-coin ces caves Ils kiffent quand à 6 heures ils m'captent au pieu en çon-cale ou en slip S'emparent de mon shit, sont quatre pour m'mettre les menottes dans l'dos Pendant qu'mon père fait l'odo car j'entends l'eau du lavabo J'leur veux la guerre, donc laisse-moi en paix frère S'il faut je ramperai, dans les hautes herbes, comme un Serbe qui observe Vous tremblez car on a besoin d'blé, on vend du shit aux blancs Imitant les noirs en jouant du djembé dans les squares Cinglés sont mes scarlas l'soir quand la hiya s'pointe En plus chez nous les joints ça s'blinde à la Dinde J'ai pas d'lampe d'Aladin dans ma bre-ch', le matin j'ai qu'ma beute sous la main Que j'frotte en pensant au tapin d'hier derrière un sapin J'suis un d'ces sales types, fuyant les flics, qu'on prend pas en stop ou en taxi Même quand j'ai du fric, y'a des timinics Mais j'fais l'effort de paix, nique les sons sans respect, mes phrases de coups d'épées Quand j'me trouve sous Déspé J'dois faire l'effort de péra, Sir Doum's, Ali, Booba Accords de paix rares, frères quand allez-vous voir? Qu'j'tue l'beat sans alibi man et j'verse-tra la scène Pendant qu'mon son t'regarde de vers-tra Effort de péra, Sir Doum's, Ali, Booba Accords de paix rares, frères quand allez-vous voir? Qu'j'tue l'beat sans alibi man et j'verse-tra la scène Pendant qu'mon son t'regarde de vers-tra La vie est ainsi pour que la paix s'apprécie Faut passer les combats, la sueur et la pression Des Moulineaux Issy, PDS cité Ici c'est soit tu fais ou soit tu t'tais A.L.I Hardcore sessions Et les bidons s'posent des questions, explosions Partout dans l'globe Pendant qu'à Paris ça s'tape pour des tasses à la sortie d'clubs Des guerres fratricides on a hérités Ceux qui divisent restent irrités Par l'utopie d'nos textes, Éthiopie et Érythrée La paix est sacrée, en son nom j'lutte Fournis les efforts pour que le repos s'mérite Quitter l'Europe pour retourner en Afrique Avant qu'nos esprits quittent nos corps redeviennent poussière Entretiens l'endurance et le cran pour linsurrection Préserve la paix pour la résurrection Lunatic J'dois faire l'effort de péra, Sir Doum's Ali Booba Accords de paix rares, frères quand allez-vous voir? Qu'j'tue l'beat sans alibi man et j'verse-tra la scène Pendant qu'mon son t'regarde de vers-tra Effort de péra, Sir Doum's, Ali, Booba Accords de paix rares, frères quand allez-vous voir? Qu'j'tue l'beat sans alibi man et j'verse-tra la scène Pendant qu'mon son t'regarde de vers-tra Effort de péra, Sir Doum's, Ali, Booba Accords de paix rares, frères quand allez-vous voir? Qu'j'tue l'beat sans alibi man et j'verse-tra la scène Pendant qu'mon son t'regarde de vers-tra1</t>
+          <t>x2 Bills foreign, Swiss Francs Before I die I need my money in a Swiss Bank I can see right through these haters Fishtanks Plus they frowning at my watch like my wrist stinks Banque suisse, tranquille J'y mets euros, dollars, Benjamin Franklin J'dépense encore des Marie Curie Kalashnikov, lingot d'or, logo d'mon écurie I.z.i, Ryan Leslie, B2O, qui êtes vous ? Dernier round, du sang de partout, tu sais qui est d'bout ! Quand j'parle Bentley, Lamborghini c'est que j'en conduis Toi on t'as jamais vu avec, tu mens, ce que j'en déduis Grosse merde ! Tu vends dans cage d'escaliers Au maximum tu roules en cos-Mer tu crois que ça y est Ça y est pas du tout, chaîne énorme, mal au cou Morray on va t'prendre à poil, BANG ! LaureManaudou J'reverse à la daronne, j'suis Gmail, t'es Wanadoo Envoie huissier à Rome, redonne à Mamadou Des balances confirmées veulent prendre la relève J'ai du Cialis pour toi, j'ai mon khaliss à Genève x2 Un million, deux million, trois millions, quatre Plus a crib out in Geneva so I can avoid the tax Got a mill' from Universal I ain't had to pay it back Throw my money in the air and you suckers is playing catch huh Lunatic album blasting through a pair of Beats B2O, my connection through the Paris streets Black Beethoven flow, call it Für Elise NextSelection embroidered in Panamera seats Check the luggage, it's vintage Pierre Cardin Got a hundred stacks buried in the Jardin Anglais on the south shore of lake Geneva Love my money like my honey so I hate to leave her Voice activated safe need a mot de passe Sick flow - translate it flow dégueulasse Watching money come and go, I learned to make it last As I get it, spend it slow and generate it fast x43</t>
         </is>
       </c>
     </row>
@@ -4521,12 +4521,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Têtes brûlées</t>
+          <t>Au fond de la classe</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>92, Hauts-de-Seine Alors comme ça on veut racailler ? Ali, c'est rare de m'entendre rapper Rare de voir ma poire en temps d'paix Garde ma paranoïa près de moi Booba, tu sais pour qui j'plaide Pas pour ceux qui saignent et qui s'plaignent Pour les visages plein d'plaies qui gardent le silence Blessés Pour le blé c'est Des c.p. du J.9. au P.C Ici y'a pas l'temps faut m'laisser Ici y'a pas d'tantes Ici y'a rien d'tendre, rien à comprendre Pas de mauvaise entente ni de faux dans mon ethnie Éduqué aux vices du ghetto On veut ma peau pour c'qui sort d'mon Bic, ou la taille d'ma bite Là où j'habite, la qualité d'mon shit La facilité plaît aux macs et leurs putes simulent à chaque passe Pistent le luxe Ça existe pas dans mon district Nos lois sont dures Écarte les baltringues de c'qu'on nous destine Bouge ou c'est rouge sang, 92 grand C'est pour les têtes brûlées, les purs, les durs, les... Fous qu'aiment écouter la police hurler têtes brûlées Ceux qui mollissent pas Très haut j'emmène les frères en réa Car c'est violent depuis le préau C'est pour les têtes brûlées, les purs, les durs, les... Fous qu'aiment écouter la police hurler têtes brûlées Ceux qui mollissent pas Très haut j'emmène les frères en réa Car c'est violent depuis le préau Dans mon crew Y'a pas d'pédés Trop d'I.T.T J'peux pas t'expliquer, tu comprendrais si t'y étais Dédicacé Aux ZAC Aux ZUP Ceux qui braquent la BAC et les stups Paris c'est plein d'chattes et d'boîtes de nuit Y'a rien qu'des conflits c'est flippant Les p'tits arrachent les sacs et les jupes Mon rap remplit pas les prisons, c'est l'juge Droit chemin en travaux, ravages dès l'âge de marcher Rien à cacher Tout c'quon a se sait vu c'qu'on possède peu Avec le shit, la beuh on s'aide Tousse le stress Crache nos soucis La rage en suspens jusqu'au lendemain On fait nos diez dans des ruches J'ai besoin d'un coup d'main Frère faut qu'j'fasse du rendement C'est pour les têtes brûlées, les purs, les durs, les... Fous qu'aiment écouter la police hurler têtes brûlées Ceux qui mollissent pas Très haut j'emmène les frères en réa Car c'est violent depuis le préau C'est pour les têtes brûlées, les purs, les durs, les... Fous qu'aiment écouter la police hurler têtes brûlées Ceux qui mollissent pas Très haut j'emmène les frères en réa Car c'est violent depuis le préau Chez nous y'a pas les solutions qu'l'OTAN injecte On rêve de s'faire sucer en pilotant un jet Et tailler, tous fatigués de racailler J'ai fait des choses bien J'sais pas combien et c'est ça l'blème Et c'est pour ça qu'on purge de sales peines en cage Pour ça qu'faut qu'tu m'payes en cash On compare pas les hommes d'honneur et les donneuses Le stress et la sérénité La brise et l'tonnerre Ceux qui aboient et ceux qui mordent Ceux qui assurent ou qui merdent Et ceux qui mentent Les traîtres et ceux qui manquent ...Nos textes aux vôtres C'est pour les têtes brûlées, les purs, les durs, les... Fous qu'aiment écouter la police hurler têtes brûlées Ceux qui mollissent pas Très haut j'emmène les frères en réa Car c'est violent depuis le préau C'est pour les têtes brûlées, les purs, les durs, es... Fous qu'aiment écouter la police hurler têtes brûlées Ceux qui mollissent pas Très haut j'emmène les frères en réa Car c'est violent depuis le préau C'est pour les têtes brûlées, les purs, les durs, les... Fous qu'aiment écouter la police hurler têtes brûlées Ceux qui mollissent pas Très haut j'emmène les frères en réa Car c'est violent depuis le préau C'est pour les têtes brûlées, les purs, les durs, les... Fous qu'aiment écouter la police hurler Ceux qui mollissent pas Très haut j'emmène les frères en réa Car c'est violent depuis le préau</t>
+          <t>Hahaha, mmmm, viens au fond d'la classe là Laisse les autres travailler devant là On est pépère là, on fait rien, on est tranquille Ouais gros, ouais gros, ouais gros, ouais gros Ouais gros, ouais gros, ouais gros, ouais gros Ouais gros, ouais gros, ouais gros, ouais 92, le 94 Mais qui j'suis ? L'type au pur style impeccable Le mystérieux et stylé, du type non réplicable Le marginal, dit criminel lyrical Détrône en masse les vaginales MCs, dans les bacs tous à fond d'cale D.R.Y dit le pur sang, j'épure Nique sa mère le rap cè-fran, 100 Issu de la banlieue sud Là où ça t'bute avec ou sans micro et ça seulement par habitude Magnitude 9,4 sur les ondes Attitude adéquate, j'veux mes plaques, baise la BAC qui fait sa ronde Thunes abondent autant qu'la mort, plus à chaque saison L'heure de l'homicide sonne toutes les heures, les vitres t'aveuglent, s'efface l'horizon, mission Atteindre les cimes du rap car la mort nous décime Ancré dans le ciment, la joie hostile aux hommes entraine le crime Le doigt en l'air pour ces shbebs en bleu marine Booba-Intouchable tu bandes mais t'en fous pas plein les narines J'm'assois au fond d'la classe direct avec Démon, D.R.Y Dissipés, défoncés, peux mieux faire, peux mieux faire Ouais gros, ouais gros, ouais gros, ouais gros Ouais gros, ouais gros, ouais gros Pour toi c'est difficile, tu rappes c'est inutile Ça sent le bas résille, on aime pas trop ton style C'est facile pour nous, tragique pour vous Nous les flingues et les tass on aime les faire crier pour vous Six pieds sous terre, j'suis à la SICAP, le monde est stone ont dit les Psy4 Il faut qu'j'en parle avec ma bouteille de Jack J'suis au micro, c'est trop michto, ghetto c'est promis Ordure, attaquant hors-pair, attachant comme une drogue dure Ma vie, mon rap son frère siamois Faut m'en mettre une dans la cervelle si tu veux t'la faire belle, crois moi Se pourrait-il que le crime soit dans nos gènes ? Mes lyrics te font pleurer, j'ai la rime lacrymogène Trop facile pour B2O, prends celle-ci dans les gencives On risque la préventive pour avoir l'biff d'un joueur de Chelsea Nos réalités sont leurs cauchemars Ils veulent éduquer nos fils, applaudissent les colons dans leurs poèmes Flingue dans la bouche du prof, poing levé à la Jessie Owens J'suis allergique au shmits, pas au pollen Mon rap est froid comme un épaulard Laisse moi me défoncer au cognac, Hennessy sans Coca-Cola J'm'assois au fond d'la classe direct avec Démon, D.R.Y Dissipés, défoncés, peux mieux faire, peux mieux faire Ouais gros, ouais gros, ouais gros, ouais gros Ouais gros, ouais gros, ouais gros ah Pour toi c'est difficile, tu rappes c'est inutile Ça sent le bas résille, on aime pas trop ton style Qu'est-ce que tu veux faire, qu'est-ce que tu peux faire, frère ? Intouchable et Booba, y'a rien à faire, y'a rien à faire, frère Comment t'exprimer c'qu'on ressent, quand t'es jeune tu dors dehors Squattes les caves la où ça pue, ça sent l'symptôme d'une vie hardcore Quand t'as faim, pas un joint, aux yeux des gens t'es rien T'as rien, pour rien tu pourrais tuer en fait tu d'viens comme tous ces gens Que gamin tu méprisais, en combattant des enculés Tu peux dev'nir sans t'en rendre compte toi-même le pire des enculés Ma vie un film d'horreur, de drame, de guerre, de bals Mon corps s'emballe, au cur j'ai mal, trop d'potes à moi sont tombés sous les balles Au final j'en porte les marques mais dans les unes des autres s'démarquent Du ghetto j'en ai sa marque, ses halls, son dépôt et la BAC Le béton gris m'a endurci, gros m'a rendu plus féroce Élevé au sky, au splifs, dans ma tess j'ai vu des scènes atroces Faut pas grand chose, juste un mot, un regard, tu peux t'en prendre une Dans l'contrat y'a aucune clause qui dit qu'on fume pas pour des thunes Le jour où j'partirais, une part du ghetto s'en ira Dis aux marmots de la cité qu'un vrai démon, ouais ne meurt pas Ouais gros, ouais gros, ouais gros, ouais gros Ouais gros, ouais gros, ouais gros ah Ouais gros, ouais gros, ouais gros, ouais gros Ouais gros, ouais gros, ouais gros ah Intouchable, Booba, click paaah2</t>
         </is>
       </c>
     </row>
@@ -4538,12 +4538,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Les vrais savent</t>
+          <t>FREESTYLE PIRATE</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Décidément je suis trop nerveux, j'arrive plus à écrire autre chose Vie de rue bien vécue, du cran avant de ver-cre Vie crûe, personne m'a dit que c'était du tout cuit En plus je suis condamné à percer sans donner mes fesses Et si ça marche, cool, sinon nique sa mère, je rapperai que pour mes frères Je roulerai pas en Lexus, fils, je peux rien y faire Je serai pas connu des bourgeois, ils verseront pas de cash pour moi Mais bref, je rappe pour mes reufs, pour mes reuss Ali mon double ou moi le sien, Lunatic jamais en chien Inch'Allah on s'en sortira bien Nos proches aussi, merci aux pieux, leurs prophéties Aux gens biens, aux moins biens, dans le mauvais y'a du bon aussi Je prends du recul, élargis mon champ de vision Booba et moi puisons nos textes de nos vécus Épuisés de cette vie de chien où les vaincus sont restés les mêmes Respect aux miens, couleur d'acajou, couleur d'ébène Douleur et peine depuis des décennies Je prends en main mes commandements comme Moïse sur le Mont Sinaï Pourquoi je suis violent dans mes rimes, friand de crime dans mes textes ? Les vrais savent que c'est peut-être la vie que j'ai Ils veulent nos têtes, nous voir en bas, niquer nos sectes La vie nous rejette, fils, mais t'inquiète pas La roue tourne, les billets changent de main La douleur cesse, ma couleur blesse cette vie de chien Stoppe le flot de sang, ce sang c'est le votre, faut prendre le leur Les vrais savent, préviens les autres Pour foutre le feu y a pas que l'essence, laisse les faux en convalescence Triste adolescence, cherche la maille dans tous les sens Mate ce que mes frères font, veulent pas de cette vie-là J'aimerais revaloriser les miens comme le franc CFA Les murs moites d'une prison c'est pas mon but Ma carrière a commencé déjà 20 piges en arrière Tous unis comme Benetton, on est plus de 11 Tous bronzés, les cheveux je les ai crépus comme Jésus Les miens se foutent des 7 vertus, les 7 pêchés prennent le dessus Le monde est déchu, le bien sous le mal est vêtu J'ai pas attendu qu'on me tende la main J'ai pas attendu les avertissements des anciens Pour avancer la tête haute, la tête haute Je représente la vie de rue, à qui la faute si mes gens ils semblent frustrés Monnaie et sexe Voilà de quoi illustrer le genre d'illusions qui planent dans mes environs Là où certains diront Quil y a pas besoin d'avoir fait Math' Sup' pour savoir couper un ze-dou Arrête ou les jaloux vont jacter Laisse les putains parler pendant ce temps je passe à l'acte et Représente les vrais car eux seuls savent Pourquoi je suis violent dans mes rimes, friand de crime dans mes textes ? Les vrais savent que c'est peut-être la vie que j'ai Ils veulent nos têtes, nous voir en bas, niquer nos sectes La vie nous rejette, fils, mais t'inquiète pas La roue tourne, les billets changent de main La douleur cesse, ma couleur blesse cette vie de chien Stoppe le flot de sang, ce sang c'est le votre, faut prendre le leur Les vrais savent, préviens les autres J'ai du stress en liasses, pas de cash, marre des tassepèche aux tresses Crache du liquide blanchi par la cèce et le shit Laisse le beat, chut ! Goûte mon langage de rue La tess crie son vécu, sa haine, son besoin d'écu Mais ça saignait déjà avant qu'on se plaigne tous fils Donc nique sa race faut tout niquer avant qu'on crève tous Je veux pas finir comme 2Pac shooté par un mec tout sec Du genre CRS, keuf, képi ou teur-inspect J'incite personne, juste ce que pensent certains Je suis ici de passage je dis ce que j'ai en tête même si c'est grave Je pourrais gagner des barres mais c'est toujours les faux qu'on nourrit en France Mon rap paie peu et pas de sous ça pourrit l'enfance Celle de mes fils, celle des tiens Dis-toi bien fiston qu'ils nous ont mis en chien mais ils savent pas ce qu'ils font Les pauvres, quand ça va péter mort à celui qui les sauve Leur dernière vision sera un gun et un chauve Tu me diras pourquoi autant de haine, cousin Regarde autour de toi, ici tout est malsain Le mal s'installe à chaque coin de rue Loin des HLM du 16ème, mon 6ème sens me guide Je suis pas un vendu, je représente les gens du Nord, Sud, Est, Ouest, tant qu'ils restent vrais, nique le reste Tendue est l'ambiance Quand je pense qu'en France, certains donneraient cher pour nous voir pendus Comme les X-Men j'ai la vision, oublie tes bijoux et ton vison Surveille ta maison, la plupart des frères perdent la raison Que vas-tu faire ? Armageddon arrive, Armageddon arrive, fils... Pourquoi je suis violent dans mes rimes, friand de crime dans mes textes ? Les vrais savent que c'est peut-être la vie que j'ai Ils veulent nos têtes, nous voir en bas, niquer nos sectes La vie nous rejette, fils, mais t'inquiète pas La roue tourne, les billets changent de main La douleur cesse, ma couleur blesse cette vie de chien Stoppe le flot de sang, ce sang c'est le votre, faut prendre le leur Les vrais savent, préviens les autres Friand de crime dans mes textes ? Les vrais savent que c'est peut-être la vie que j'ai 92 Nous voir en bas, niquer nos sectes La vie nous rejette, fils, mais t'inquiète pas La roue tourne, les billets changent de main La douleur cesse, ma couleur blesse cette vie de chien Lunatic Stoppe le flot de sang, ce sang c'est le votre Malekal Morte Les vrais savent, préviens les autres Je suis violent dans mes rimes, friand de crime dans mes textes ? Les vrais savent que c'est peut-être la vie que j'ai Ils veulent nos têtes, niquer nos sectes La vie nous rejette, fils, mais t'inquiète pas La roue tourne, les billets changent de main La douleur cesse, ma couleur blesse cette vie de chien Stoppe le flot de sang, faut prendre le leur Les vrais savent, préviens les autres1</t>
+          <t>Ne crois-tu pas qu'je sais c'que j'fais? Ne crois-tu pas quje sais cque jfais? Tellement longtemps que jfais la guerre Le prochain cest Damso, mfais pas jurer la vie dma mère Chacun sa croix, chacun sa Elvira La paix sra toute nouvelle peut être quon lappréciera Je crois en Dieu à ma manière, sûrement pas Jésus qui me guide Un demi-siècle qujsuis au pouvoir, peut-on parler de génocide? Tu préfères le raconter, moi, je préfère le vivre Jai du réécrire tous ces livres, jdois faire le plein pour faire le vide 9.2, cest lélite, pas dur découler tous ces litres Je nsrai jamais un mythe, jai bien griffonné tous ces titres Liasses de billets si hautes, wallaye bilaye, jperds léquilibre Sur écoute à droite à gauche, jai dû faire sauter toutes les lignes Elle ma cherché dans tout létage, elle a frappé à toutes les suites Y'a quDidier quon n'aime pas, jpasse le salam à toute léquipe1</t>
         </is>
       </c>
     </row>
@@ -4555,12 +4555,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Iste</t>
+          <t>Dragon</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>AFox Beats 700 ch'vaux sur Rivoli, parano comme Ray Liotta Ses chaussures viennent d'Italie, ses fesses viennent de Bogota Toutes nos richesses sont les leurs, toutes leurs richesses viennent d'Africa On va pas r'faire l'monde, hein, d'abord, on en parle qu'à la chicha Problèmes sont trop profonds, je n'saurais que faire d'un coup d'pouce Tu sais très bien quand on r'part au front, le trésor est toujours au fond Pas d'zéro neuf sans skis alpins, mon vin et l'tien n'ont pas l'même âge L'égalité des sexes, c'est bien, mais B2O n'fait pas l'ménage Féministe, colonialiste, viens pas si ça finit en iste Au pire des cas, on meurt, nos proches s'ront tristes, c'est tout c'qu'on risque Si j'arrive vite et calibré, peut-on dire qu'j'arrive en balle ? Mes ennemis, tous, je les déteste, je n'peux en dire que du mal1</t>
+          <t>Oh, oh, oh, oh Oh, oh, oh, oh Ludafrick prod, bébé Izi Pour pas souffrir, j'apprends à ne pas aimer Tomber, me relever, j'ai pas arrêté J'suis resté vrai même si j'me suis ereinté J'préfère le R1T qu'être en TT On perd, on win, on apprend on apprend Le futur s'ra douloureux, j's'rai tout devant J'repeindrai ta vie en bleu en bleu Bien sûr, je tombe amoureux mais pas longtemps Je prends tous les virages comme Valentino Rossi Tous habillés en noir, armés, la méthodologie Rien n'est jamais assez bon, rien ne suffit Elle veut dompter le dragon, c'est Khaleesi La mélo' vient du village, le braco que j'envisage, j'en parle pas J'dois rejoindre l'équipage, j'ouvre plus ses messages, blablabla Elle aime le moteur et la carrosserie Dès qu'elle s'attache, le négro fout le camp Elle pense à moi, c'est comme une maladie Instable en amour, j'suis comme un enfant Laisse-moi plus de temps Laisse-moi plus de temps Laisse-moi plus de temps Laisse-moi plus de temps Titulaire n'connaît pas le banc, reculer, jamais ou très rarement Ça s'voit t'as pas vraiment d'argent T'as les sièges chauffants qu'à l'avant On a qu'une life, pas d'réédition Si Diallo pas sa moula, c'est malédiction Tout noir, tout droit c'est la direction Débrouille-toi, fiston, ma bénédiction Elle m'parle d'égalité, c'est moi qui paye l'addition J'fais mes dineros en chantant Plein d'questions à la con comme chez Thierry Ardisson Rates-pi s'ront là dans cent ans La mélo' vient du village, le braco que j'envisage, j'en parle pas J'dois rejoindre l'équipage, j'ouvre plus ses messages, blablabla Elle aime le moteur et la carrosserie Dès qu'elle s'attache, le négro fout le camp Elle pense à moi, c'est comme une maladie Instable en amour, j'suis comme un enfant Laisse-moi plus de temps Laisse-moi plus de temps Laisse-moi plus de temps Laisse-moi plus de temps Elle aime le moteur et la carrosserie Dès qu'elle s'attache, le négro fout le camp Elle pense à moi, c'est comme une maladie Instable en amour, j'suis comme un enfant Laisse-moi plus de temps Laisse-moi plus de temps1</t>
         </is>
       </c>
     </row>
@@ -4572,12 +4572,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Geronimo</t>
+          <t>Animals</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Black top Relation avec toi Ani on the track C'est un problème Plus l'temps Elle sent quand ça va pas, on baise pas comme il faut Cupidon fait pas l'poids face à Geronimo Dans la street toute la journée, j'aimerais succéder à Marlo J'me fais cramer sans m'excuser, j'suis un fumier, j'suis un salaud Qu'est-ce que tu fais de beau de l'autre côté de l'Atlantique ? T'as inspiré ma mélo', portrait de toi en argentique J'm'en fous d'ta Ferrari, j't'aimerais si t'étais à vélo C'est pas comme ça la vie, recommençons à zéro Rlation avec toi ne fera jamais d vieux os Nous deux, c'est l'calme plat, ces chiennes s'sont passées le mot Une bimbo à chaque bras, dès qu'j'aurai tourné le dos Abracadabra, t'es au studio, plus de réseau Va falloir qu'tu m'expliques, tout ce harem, ces numéros On n'est plus en Rome antique, faut ralentir le bédo C'est à ton âme que j'veux accéder, fuck la couleur de ta CB Pas ta crypto', pas ta moula, pas tes euros, j'veux ton bébé Elle sent quand ça va pas, on baise pas comme il faut Cupidon fait pas l'poids face à Geronimo Dans la street toute la journée, j'aimerais succéder à Marlo J'me fais cramer sans m'excuser, j'suis un fumier, j'suis un salaud Qu'est-ce que tu fais de beau de l'autre côté de l'Atlantique ? T'as inspiré ma mélo', portrait de toi en argentique J'm'en fous d'ta Ferrari, j't'aimerais si t'étais à vélo C'est pas comme ça la vie, recommençons à zéro Elle veut qu'j'sois romantique, mais j'suis d'jà dans le Viano J'lui mens comme chez les flics, elle tombera plus dans l'panneau Aucun chemin n'mène à mon cur, évidemment, c'est déroutant J'lui dis d'un air moqueur L'amour, c'est pour les débutants Elle veut venir me voir jusqu'aux États-Unis J'vais au parloir, j'crois que j'viens d'croiser Carla Bruni Face à Geronimo</t>
+          <t>J'aurais voulu être un artiste Mais je suis illicite, lyrics explicites, puriste fonskar au shit, anti-lepeniste Explosif, gore comme tous ces terroristes Porc, suce-moi la bite pour mon ghetto français Qui abrite mes potes hardcore, ceux qui se lèvent juste pour pisser Dans cette jungle urbaine, c'est dingue mais dans ma ur, man Les petits shootent sur des seringues et tombent pour un Calvin Klein Envahir, voilà de quoi m'accuse le FN Pourtant j'ai beau leur dire que je désire qu'un 12 et un pack d'Heinekein Donc j'engraine les chiens, chiennes à s'unir Afin de punir leur empire dans lequel on n'a pas d'avenir À part pourrir en taule à cause d'un kilo de teush Ou à cause d'un îlotier se prenant pour Starsky et Hutch Voici le crew qui pé-ra, rime, viole, et cetera Tu connais, à des milliers de bornes tu nous verras Paye en liquide et tu nous auras tasse-pé Tu nous aimeras si t'aimes le liquide comme Lil' Kim Flow Beretta vendu avec une barrette Le son qui te frappe dans la tête avec une barre c'est dar Et quelques putes veulent cohabiter dans le son avec moi ou ma clique Mais tout ce que tu vas faire, c'est un featuring avec ma bite Je récite le chant des civières Cet hiver c'est la merde, je vois tous les crews lestés au fond d'une rivière Moi j'ai pas une voix de miel, j'ai pas d'e-mail Je torpille l'industrie, je pille, fonctionne à la Master-P Au nom de mes animals, je crée le scandale, en fait je pollue comme Total Tous ces élus à deux balles Car on aura que-dalle, autant transporter de la dope dans le cul d'un cheval Pour réinvestir dans le hip hop Animals, je crée le scandale, en fait je pollue comme Total Tous ces élus à deux balles Car on aura que-dalle, autant transporter de la dope dans le cul d'un cheval Pour réinvestir dans le hip hop J'veux tout niquer dans l'industrie du disque avec des lyrics dits stricts Kicker l'arbitre, récupérer tous les titres Dealer ça m'intéresse ap, je préfère me faire du fric dans le rap Sans baisser mon froc vu que des baltringues y'en a en vrac J'ai pas envie qu'une bande de tainps me braquent Pour mon fric ou les lyrics que j'éclate Je veux que mon rap se vende à 4 millions d'exemplaires Et mettre official Mass, Ibrahim, Jean-Pierre Il me faut de la maille avant qu'on m'enterre J'ai pas envie qu'une bande de bouffons me fassent leurs putains de commentaires J'ai que 16 piges, je suis juste un môme Qui veut voir la concurrence avec de putains de gros hématomes Eh ouais c'est ça, on va tout péter C'est pour les frères qui toute l'année se mettent à criqueter, Illicites dans mon quartier À tous ces porcinets, ces garçonnets qui comme au ciné Dégainent leurs guns pour pouvoir te canner Et ils se prennent pour des gros bonnets mais moi je leur pisse dessus Et après avoir pilonné, man, je viens tamponner LIM sur leurs faces de fions Car c'est violent comme le Front Russe donc handek à ton gros ventre rond Y paraît que Paris sature, trop de sons, beaucoup trop sont 92i caricature mais je suis beaucoup trop sombre Écoute la chanson, fiston, je mutile rien d'inutile Moi je gagne, amateur de champagne, arracheur de pagnes Je suis arrivé dans le son, retrace la guerre dans mes morceaux Et si je me fais canner, pas besoin d'en faire une chanson Déconseillé aux gens dits sensibles Voyou tu peux sé-dan sur mon son ou celui des dissidents Pas d'ici, enfants du ciment, pas besoin de te faire un dessin Par les décibels on décime Un truc à la Mesrine ghetto genre grand Dakar ou la médina Khoya balance un peu de chichon dans ma chicha J'écris des 12, des 16, beaucoup décèdent, garçon ! Donne-moi à boire, j'veux la gloire sans la rançon Au nom de mes animals, je crée le scandale, en fait je pollue comme Total Tous ces élus à deux balles Car on aura que-dalle, autant transporter de la dope dans le cul d'un cheval Pour réinvestir dans le hip hop Animals, je crée le scandale, en fait je pollue comme Total Tous ces élus à deux balles Car on aura que-dalle, autant transporter de la dope dans le cul d'un cheval Pour réinvestir dans le hip hop Animals, je crée le scandale, en fait je pollue comme Total Tous ces élus à deux balles Car on aura que-dalle, autant transporter de la dope dans le cul d'un cheval Pour réinvestir dans le hip hop Animals, je crée le scandale, en fait je pollue comme Total Tous ces élus à deux balles Car on aura que-dalle, autant transporter de la dope dans le cul d'un cheval Pour réinvestir dans le hip hop Ouais, c'est pour mes frères de la rue Malekal Morte, Lunatic, Moussa, hein L.I.M, autant transporter d'la dope dans le cul d'un cheval1</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>De larmes et de sang</t>
+          <t>Tatouages de Booba</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>001. Rocé - On s'habitue 002. Scred Connexion - Scred Connexion Un nouveau nom dans ta collection 003. Oxmo Puccino - L'Amour est mort 004. OFX - Je n'ose y croire 005. Ideal J - Le Combat Continue 2 006. Beat de Boul - Dans la Sono 007. Suprême NTM - On est encore là 008. East - Straight From The Underground 009. MC Solaar - Samedi Soir Sur un Banc 010. IAM - Un bon son brut pour les truands 011. Zoxea - Rap, musique que j'aime 012. Sheryo - Ghetto-Trip 013. Triptik - Panam' 014. Vicelow feat. Akhenaton, Sako Rachel Claudio - Nouvel Automne remix 015. Hocus Pocus - Une Zone de Tensions 016. Doc Gyneco - L'Homme qui ne valait pas dix centimes 017. Fabe - Comme un Rat dans l'Coin 018. X-Men - Retour aux Pyramides 019. Kohndo - Un Idéal 020. Explicit Samouraï - X. Plicit Sentence 021. Akhenaton - Entrer dans la Légende 022. N.A.P. - Le Ghetto Pleure 023. Diam's - Premier Mandat 024. Passi feat. Akhenaton - Le Monde est à Moi 025. Mo'vez Lang feat. Zoxea - On vient de loin 026. Chiens de Paille - Comme un Aimant 027. Nakk feat. Les 10', Wallen - On se reverra là-haut 028. Lunatic - Introduction 029. Hocus Pocus - Seconde Formule 030. Koma - Et si chacun 031. Bambi Cruz - Ouvre les yeux 032. Haroun - La Routine 033. Mokless - Ca tourne pas rond 034. Morad - Un Point c'est Tout 035. Koma - Loin des Rêves 036. Fabe - Classique 037. Passi feat. Les Choeurs de l'Armée Rouge - Emeutes 038. Saïan Supa Crew - La Preuve par 3 039. MC Solaar - La Belle et le Bad Boy 040. La Cliqua - Tué dans la Rue 041. Ärsenik - L'Enfer remonte à la surface 042. Les Sages Poètes de la Rue - Bons Baisers du Poste 043. Lunatic - Le Crime Paie 044. IAM - Demain, c'est loin 045. Suprême NTM - Laisse pas traîner ton fils 046. X-Men - Pendez-les ! Bandez-les ! Descendez-les ! 047. Sir Doum's - Je lutte en rimant 048. Scred Connexion - Partis de Rien 049. Ideal J - Hardcore 050. Oxmo Puccino - L'Enfant Seul 051. Doc Gyneco - Dans ma Rue 052. Assassin - La Formule Secrète 053. Busta Flex - J'fais mon job à plein temps 054. Rocé - Plus d'Feeling 055. Too Leust - Le Roseau 056. Explicit Samouraï - Le Roseau 057. MC Solaar - Nouveau Western 058. Fabe - Excusez-nous 059. Fabe - Des Durs, des Boss des Dombis ! 060. Fabe - L'Impertinent 061. Fabe - Le Rap et Moi 062. Fabe - L'Emmerdeur Public n1 063. Rohff - Génération Sacrifiée 064. La Rumeur - L'oiseau fait sa cage 065. Ministère A.M.E.R - Sacrifice de Poulets 066. Ideal J - Si je rappe ici 067. Hocus Pocus - 7.fa.7 068. Saïan Supa Crew - KLR 069. Oxmo Puccino - LAmour est mort 070. Suprême NTM - Outro 071. Dicidens feat. Lunatic - De Larmes et de Sang 072. MC Solaar - Solaar Pleure II 073. OFX - France 074. Time Bomb - Explose 075. Time Bomb - Les Bidons veulent le Guidon 076. IAM - Petit Frère 077. Fonky Family - Art de Rue 078. Lunatic - Le Son qui met la Pression 079. Disiz la Peste - Jpète les plombs 080. ShurikN - Samourai 081. MC Solaar - Obsolète 082. Saïan Supa Crew - 14.02.2002 083. Les Sages Poètes de la Rue - Quest-ce qui fait marcher les Sages ? 084. MC Jean Gab1 - Jtemmerde 085. Mafia K1 Fry - Pour Ceux 086. Akhenaton - Jai pas de face 087. Oxmo Puccino - Mama Lova 088. Booba feat. Nessbeal - Sans Ratures 089. MC Solaar - Arkansas 090. Hocus Pocus - Panique au Saloon 091. Fabe - Aujourd'hui 092. Saïan Supa Crew - J'adore ça 093. Suprême NTM - Seine-Saint-Denis Style 094. Rohff - 94 095. Shurik'N feat. Akhenaton - Manifeste 096. Mo'vez Lang feat. Mala - C'est ça gars 097. Ministère A.M.E.R. - Plus vite que les balles 098. Ideal J feat. Demon One Rohff - L'Amour 099. La Clinique - On avance 100. Rocé - Pour l'Horizon 101. 11'30 contre les Lois Racistes 102. Booba - Repose en Paix 103. Oxmo Puccino - L'Amour est mort, mets... 104. KDD - Qui tu es ? 105. X-Men - J'attaque du Mike 106. IAM - Pharaon Reviens 107. Ärsenik - Boxe avec les mots 108. Expression Direkt - Dealer Pour Survivre 109. Passi - Les Flammes du Mal 110. Chiens de Paille - Maudits soient les yeux fermés 111. Suprême NTM - Le Monde de Demain 112. Oxmo Puccino feat. Booba - Pucc' Fiction 113. 113 - Les Princes de la Ville 114. Doc Gyneco - Nirvana 115. Akhenaton - Mon Texte, le Savon 116. Fabe - La Tête Haute Tenue 117. Saïan Supa Crew - G-Padpo 118. MC Solaar - Caroline 119. Casey - Dans nos Histoires 120. Keny Arkana - Victoria16</t>
+          <t>Visage 7Cou 45 Poing levéTorseAbdomen Lion de Juda Bakel City Logo Lamborghini Marche ou crève 0.9 PortraitBras Gauche Drapeau If you can't find something to live for, find something to die for IZI LIFE RatBras Droit Tête de lion Seringue B2 Zoo PureDos 21 Century Pendu Panthéon Tête de mortMains Maître Yoda Fast Life6</t>
         </is>
       </c>
     </row>
@@ -4606,12 +4606,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Téléphone</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Dans le cadre de l'état d'urgence sanitaire mondiale et en application de la loi martiale en vigueur, tous les citoyens sont tenus de se présenter à visage découvert à l'approche des checkpoints de sécurité, et de garder en tout temps leur puce sanitaire accessible en cas de contrôle. En cas de refus d'obtempérr ou de résistances aux injonctions des forcs de l'ordre, les agents ainsi que les membres du corps militaire sont autorisés par la circulaire numéro 8189 à faire l'usage d'armes légales afin de... The future is back Les signes de fin sont là, moi, je suis prêt J'ai sorti les TN, mille deux par mois, autant niquer des naines Des apparitions audacieuses à bord d'autos ténébreuses D'humeur souvent orageuse, D.U.C, pas de l'eau gazeuse J't'aime pas, j'te souhaite la mort, bah ouais, logique, meurt J'roulerai toujours en gamos, même aveugle avec Alzheimer Écrire l'histoire ou pas, peu importe car nous sommes R Rien d'négatif chez moi à part mon test PCR Une question me taraude, j'aimerais vraiment y voir plus clair Est-ce que le coup d'boule dans ta grand-mère est un geste barrière ? Surveille les mouvements coloniaux, les influenceurs à Dubaï Squelette sans âme sur l'kimono, j'descends de Eve et d'Abdoulaye Concu' comme le riz thaïlandais, vous vous auto-cuisez L'ange de droit est passé à gauche, c'est quoi c'bordel ? Laisse-moi m'autoriser J't'ai dit j'ai que des khos, viens pas m'potoiser m'potoiser Sont tous déguisés, flockoisés flockoisés T'es vacciné donc t'es localisé t'es localisé Plus rien n'a d'goût, juste aromatisé S'disent au-d'ssus d'l'animal, j'dis inférieur, tout est robotisé J'perdrai contre l'Empire, le foie percé, milieu du Colisée En bas, ça répond toujours en haut, walou eh J'laisse toujours la porte des ténèbres ouverte juste au cas où Ils m'ont laissé aucune option donc pas le choix qu'être en indé' En route, en route vers d'nouvelles guerres, s'tu m'cherches, j'suis avec Thiek, j'suis dans l'blindé Convoi militaire, ça fait pa-pa-pah, pas comme Gambi Prix Nobel de la paix, tendre l'autre joue, c'est pour Gandhi Pour voir sa réaction, j'l'emmène magasiner chez HM puis j'la mets aux fourneaux Face à la mort, j'lui demande un thiéboudiène, bien sûr, elle a échoué Mama, y en a plus des comme toi, j'reste solitaire dans mes cages, criblé d'balles comme Thibault Courtois Thibault Courtois Quand j'leur donne l'heure, c'est l'heure de leur décès Rappeur-Youtubeur, d'puis quand l'rrain-te fait des périodes d'essai ? Concu' comme le riz thaïlandais, vous vous auto-cuisez L'ange de droit est passé à gauche, c'est quoi c'bordel ? Laisse-moi m'autoriser J't'ai dit j'ai que des khos, viens pas m'potoiser m'potoiser Sont tous déguisés, flockoisés flockoisés T'es vacciné donc t'es localisé t'es localisé Plus rien n'a d'goût, juste aromatisé S'disent au-d'ssus d'l'animal, j'dis inférieur, tout est robotisé J'perdrai contre l'Empire, le foie percé, milieu du Colisée Toutes les communications avec le district 322 ont été perdues. Redirection du protocole vers le district 1776. Déploiement de système d'urgence...2</t>
+          <t>Oh-oh-oh, oh-oh-oh-oh Oh-oh-oh, oh-oh-oh-oh Oh-oh-oh, oh-oh-oh-oh Money Gang Oh-oh-oh, oh-oh-oh-oh Quando correvamo nel blocco Grr, quando sognavamo 'sti soldi Grr-grr Mi sa che eri ancora un marmocchio Eh, ancora guardavi i cartoni Per nessuno mi sono mai messo in ginocchio No, no, però ho la tua tipa a carponi Che mi dice Sei te che voglio Grr, questi qua non hanno i coglioni Tu-tu-tu-tu Non ho raccontato una storia, nah, eh, sai che passeremo alla storia Grr, ah, eh Duecento all'ora nella rotatoria, il mio fra' vola su una ruota sola Troppo famoso, mi serve la scorta, devo stare all'occhio, mi vogliono morto 'sti figli di troia Pss, pss Ti porto su Marte, so che non ci sei mai stata Non ho grammi nelle scarpe, ma ho ancora le scarpe per strada Lei mi tira dalla collana Io non so fare piano, no, non so fare altro In giro alle tre, dal Moncler squilla il téléphone Via dalla cité su una Range o un'Aventador Lei ripete a me Sono persi quelli come voi Io so solo che soldi e donne vanno e vengono In giro alle tre, dal Moncler squilla il téléphone Via dalla cité su una Range o un'Aventador Skrrt, skrrt, skrrt, skrrt Lei ripete a me Sono persi quelli come voi Io so solo che soldi e donne vanno e vengono Eh, eh Tu marqueras pas ici, d'mande à Luigi Buffon J'suis au strip club, make it rain en bitcoin Dans la Fe'-Fe', j'disparais comme Spaggiari Passagères Greta Garbo, Mata Hari Elle est trop love, elle est folle, ciao puta, yo me voy Le game m'appartient, j'ai la couronne, mon allié italien au téléphone Bruit d'gaz, grenade hilarante, libère peroxyde d'azote Quand ça f'ra toc-toc-toc, Glock sur tempe, on verra qui radote Le gars n'est pas content, il dit que le sang m'va à merveille Si tu continues, dans pas longtemps, on verra ta cervelle Aucun enfant d'putain, parle pas glaive à la main, on commémore Si y a la p'tite bête dans le bail, wallaye, on est morts J'l'ai emmené s'faire les ongles, j'crois bien qu'j'suis tombé love d'l'esthéticienne Au lieu d'refaire ton cul, tu d'vrais refaire ton cur artificiel In giro alle tre, dal Moncler squilla il téléphone Via dalla cité su una Range o un'Aventador Lei ripete a me Sono persi quelli come voi Io so solo che soldi e donne vanno e vengono In giro alle tre, dal Moncler squilla il téléphone Via dalla cité su una Range o un'Aventador Skrrt, skrrt, skrrt, skrrt Lei ripete a me Sono persi quelli come voi No, no Io so solo che soldi e donne vanno e vengono3</t>
         </is>
       </c>
     </row>
@@ -4623,12 +4623,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>N.W.A.</t>
+          <t>Signé</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>General Crew, 92i Dépi gran boné man ka lévé pou fé sou Hiè o swé mwen bwé telmen man ka wé flou Champagne, vodka, Hennessy, Barbancourt Manman ja di mwen stop, tou sa kè rend mwen fou Ouh-ouh ouh-ouh, baby j'suis high Ouh-ouh ouh-ouh, ou ka viv' sal Ouh-ouh ouh-ouh, yen ki fé yo mal Ouh-ouh ouh-ouh Yo, Jerry turn up An ka bwè rhum èvè sik adan Ou konèt son la bien évidemment Antillais assoiffé ne veut pas de ton eau Premier single j'parle créole dans mon bando Police la bizwen maré nou jailtime Il fait froid dans le dépôt, pâtes tomate, j'ai la dalle A ce que dit le préfet j'ai fait du sale, ils ont pris arrêt de travail J'n'ai rien fait, j'n'ai rien fait, j'n'ai rien fait, ma phrase favorite au tribunal Ils sont choqués, mon avocat parle ma langue, oh oui on s'comprend Petit mwaka dans ta sono, antillais est le magnum Ils voudraient me condamner, les miens n'ont pas lâché Mafia les poings levés, j'fais la guerre pour vivre en paix Dépi gran boné man ka lévé pou fé sou Hiè o swé mwen bwé telmen man ka wé flou Champagne, vodka, Hennessy, Barbancourt Manman ja di mwen stop, tou sa kè rend mwen fou Ouh-ouh ouh-ouh, baby j'suis high Ouh-ouh ouh-ouh, ou ka viv' sal Ouh-ouh ouh-ouh, yen ki fé yo mal Ouh-ouh ouh-ouh Sale négro avec attitude Compton Kalash, B2O, négritude DomTom Je ne parle qu'arme de guerre Je n'comprends pas le gome cogne La haine que je couve n'est pas soudaine Demande à Brenda et Brandon J'ai Gorée dans le cur et dans le chargeur Jamais j'n'abandonne Traite moi de sale négro c'est flatteur Mafia n'oublie pas mais pardonne Défibrillateur pour eux tous Où vrai négro passe rien ne repousse J'suis vendeur pas utilisateur J't'offre une overdose de kush Jugé à cause de ma couleur J'regarde la fenêtre Menottée à ton radiateur Reconnaîtras-tu la comète ? Le ciel est plus beau vu de là bas J'entends la voix de mes ancêtres Mon fils vivra comme un roi J'aurais tenu toutes mes promesses Dépi gran boné man ka lévé pou fé sou Hiè o swé mwen bwé telmen man ka wé flou Champagne, vodka, Hennessy, Barbancourt Manman ja di mwen stop, tou sa kè rend mwen fou Ouh-ouh ouh-ouh, baby j'suis high Ouh-ouh ouh-ouh, ou ka viv' sal Ouh-ouh ouh-ouh, yen ki fé yo mal Ouh-ouh ouh-ouh Hin-Hin... Straight !5</t>
+          <t>C'est pas l'rrain-té qui m'quitte L'rrain-té qui m'quitte Denza C'est pas l'rrain-té qui m'quitte C'est pas l'rrain-té qui m'quitte, c'est moi, j'quitte le terrain J'quitte le terrain T'as cru t'étais quelqu'un ? T'as cru t'étais quelqu'un ? T'allumes, on t'éteint T'allumes, on t'éteint On arrive en 'ghini On arrive en 'ghini, on revient du D1 On revient du D1 Les grands tuent les petits Les grands tuent les petits, comme Abel et Caïn Comme Abel t Caïn J'suis sur l'Prometheus J'suis sur l'Promethus, pas l'tapis d'Aladin Pas l'tapis d'Aladin Neuf mois dans l'utérus, dans l'cerceuil à la fin Renoi surdoué Surdoué, j'ai rien d'mandé J'ai rien d'mandé Point A, point B Point A, point B, j'suis dans l'blindé J'suis dans l'blindé Ni plata ni plomo Ni plata ni plomo, 's ont fait que parler 's ont fait que parler J'pèse comme Coco J'pèse comme Coco, Gad Elmaleh Gad Elmaleh Solo à vie Solo, jamais marié Jamais, jamais La monogamie La monogamie, c'est quand t'es fauché Pas récompensé comme un tirailleur, ce qui est dû n'se réclame pas On m'a toujours dit d'aller voir ailleurs, j'suis revenu vainqueur à chaque fois Pas récompensé comme un tirailleur, ce qui est dû n'se réclame pas On m'a toujours dit d'aller voir ailleurs, où mon passé ne repose pas C'est signé, c'est signé C'est signé C'est signé, c'est signé C'est signé C'est signé, c'est signé C'est signé C'est signé, c'est signé C'est signé Tire pas sans gants Tire pas sans gants, pas vu, pas pris Pas vu, pas pris Baise-les avant Baise-les avant c'qu'on m'a appris C'qu'on m'a appris J'te laisse ma place La place au Paradis Au Paradis Moi, j'reste ici Ouais, j'reste, une vie m'suffit M'suffit J'ai pas d'plan B, j'peux pas m'planter M'planter Drapeau levé Levé, j'peux pas rentrer Dos argenté Dos argenté, lien d'parenté Parenté Ounga, ounga, c'est pour de vrai C'est pour de vrai Beaucoup d'bourbiers, souvent risqué Si j'en parle pas Si j'en parle pas, y a pas d'combat Nan, nan Tous équipés Tous, tous, mes coéquipiers Coéquipiers On reviendra pas, c'est dans l'contrat Pas récompensé comme un tirailleur, ce qui est dû n'se réclame pas On m'a toujours dit d'aller voir ailleurs, j'suis revenu vainqueur à chaque fois Pas récompensé comme un tirailleur, ce qui est dû n'se réclame pas On m'a toujours dit d'aller voir ailleurs, où mon passé ne repose pas C'est signé, c'est signé C'est signé C'est signé, c'est signé C'est signé C'est signé, c'est signé C'est signé C'est signé, c'est signé C'est signé C'est signé, c'est signé C'est signé, c'est signé C'est signé6</t>
         </is>
       </c>
     </row>
@@ -4640,12 +4640,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Soldats</t>
+          <t>À jamais</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Mi-chien galeux, mi-chat de gouttière N'ayant aucune chance, j'ai mis une main aux fesses à la croupière Les blondes et brunes qui veulent de nous sont dans les verres d'bière Réussir c'est faire un costume d'une serpillière J'prends ma revanche au volant d'une Italienne Porche d'immeuble devient Porsche Cayenne Ils s'étouffent dans le foie gras, c'est dans le riz qu'on flâne C'est dans l'béton qu'on pousse, c'est à Fleury qu'on fane J'ai tout vu, plus rien n'm'atteint Et plus j'connais les hommes, plus j'aime mon chien On m'a dit d'garder espoir matin, midi et soir Je n'espère pas moi, je fonce dans le tas, moi Pour toi, pour moi Les choses sont plus dures, je n'sais pas pourquoi Mais très clair j'y vois J'ai du lourd à l'arrière, t'inquiète pas pour moi Casquette à l'envers, je bois, je n'danse pas Après quelques verres, j'ai envie d'tirer dans l'tas Quelques billets verts, quelques soldats J'ai du lourd à l'arrière, t'inquiète pas pour moi Le daron n'était pas là, mais je lui pardonne T'inquiète je m'occupe bien d'la daronne Je suis brave, j'ai quelques valeurs et des codes, c'qui fait de moi un homme L'appétit, la force d'un esclave, c'qui fait de moi un ogre Des barbelés sur les postcards, nos anges ont des coquards Surfent sur des tsunamis d'whisky-Coca J'ai un collier en diams, ils m'passent aucune laisse Quant tu m'frappes, regarde-moi dans les yeux ta force c'est ma faiblesse J'ai mon propre format, B2O contre Foreman J'fais dans l'paranormal J'vis dans un micro-climat, explose l'audimat J'fais Mike-Alpha-Lima Du blues, de la soul musique, vient le groove Tague mon blase au musée du Louvre Fuck l'anonymat... B2OBA J'essaye encore et encore Pour toi, pour moi Les choses sont plus dures, je n'sais pas pourquoi Mais très clair j'y vois J'ai du lourd à l'arrière, t'inquiète pas pour moi Casquette à l'envers, je bois, je n'danse pas Après quelques verres, j'ai envie d'tirer dans l'tas Quelques billets verts, quelques soldats J'ai du lourd à l'arrière, t'inquiète pas pour moi2</t>
+          <t>J'fais partie des zéro zéro zéro zéro zéro zéro zéro zéro Un pour-cent à jamais rapper comme Boob' et Ill Jamais j'obéis mais, Disiz, où est-il ? Jarrache des mères en haut débit, font des gags comme Boule Bill Appelle-moi Flow-zilla, ou m'appelle pas, j'm'en bats les couilles Tu vas la sentir passer comme la main pendant la fouille Hum-hum, léthal est le touché rectal Disiz La Peste fut et le game s'infecta J'suis un kaïju échoué vers Okinawa Un tard-bâ blancorenoi, comme ma copine Awa Depuis le Walkman Aiwa, toujours gagné mes one à one Vous serez toujours mes Padawans, tu m'la feras jamais, à oi-m Je sais quand on me pompe, j'ai repéré tous tes flows Tu les fais tous douter fort, mais tu sais que tout est faux Dans le on-s, j'suis un monstre, ils ont tout l'temps leurs menstru' Quand j'enfante l'instru', je suis monstrueux Et je tue depuis des lustres, ma balistique est russe Passé d'enfant des rues, mère seule vêtue de frusques Enfant de foyer, choyé par une vie brute Gosse irradié par la rue dans la zone du secteur sud Tout ça a fait de moi un mutant Akira Un mélange explosif, je suis Disizilla Je suis Disizilla Disizilla Zilla, zilla, zilla, zilla Zilla, zilla, zilla, zilla Disiz-zilla, zilla, zilla Disiz-zilla, zilla, zilla Sorti des océans, mutant sans pitié Ma rage est incommensurable, j'ai littéralement tout niqué Sorti des océans, mutant sans pitié Monstre froid, hun, mentalité J'ai écrit deux romans, dis-moi, qu'est-ce que vaut un seize ? Vous voulez tous niquer vos mères, les rappeurs sont dans l'inceste Cent pour-cent Disiz La Peste, c'est moi l'plus fou dans la pièce Respect éternel, jamais mendié à la tess' J'ai joué Othello, dis-moi, qu'est-ce que vaut ton clip ? J'ai écrit douze albums, dis-moi, qu'est-ce que vaut ton feat', bitch ? Fuck ton feedback, gros, personne me valide J'ai pas eu d'père, pas de padre, j'ai encore moins de king J'n'ai qu'un Dieu et une mère, deux princes et trois princesses C'est que ma rage et mes textes qui m'ont sorti de la hess J'suis un dragon puissant, orgueilleux, j'perds jamais la face Et, si j'dois me venger, woullah, j'perds jamais ta trace Redoutable, impossible à abattre le temps, c'est mon srab Bien sûr que je suis beau, j'fais même pas mon âge, c'est de l'art Fuck l'humilité, vu qu'vous n'la respectez pas J'vais t'montrer comment on fait, vas-y, mets-toi derrière moi Tous impressionnés par la largeur de mes pas Le sol tremble quand je chante, la foule dans tous ses états J'suis le kraken Cthulhu, la concu' a la berlue Si jamais j'te loupe, MC, cache-toi dans les Bermudes J'te nique en interlude, en interview j'te termine Lèche ma Moby-dick et, votre game, on dirait Interville Renoi qui colonise renoi, et pire qu'Hitler Bande de Compaoré, le zgeg à King Kong dans vos mères J'suis sorti des mers, des abysses, des océans Où les tests furent nucléaires, des missiles entre les dents J'suis un mutant, enfant irradié Godzilla Produit d'mon environnement, appelle-moi Disizilla Zilla, zilla, zilla, zilla Zilla, zilla, zilla, zilla Disiz-zilla, zilla, zilla Disiz-zilla, zilla, zilla Je suis Disizilla</t>
         </is>
       </c>
     </row>
@@ -4657,12 +4657,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Rebel</t>
+          <t>Leo Messi</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Herb...herb is a plant ! I mean...herbs are good for everything Why...why these people who want to do so much good for everyone, who call themselves governments and this and that... Why them say you must not use the herb? You see...it make you rebel. Tout passe par la force, rien n'est acquis de droit Le ciel m'écrit en morse, on dirait qu'il me voit Tu m'dis qu'ces vagues sont imprenables, ai-je vraiment l choix ? Que des emballags sans contenu, que des Dua Lipa High-kick, middle-kick, Sawadikap J'ai confiance en personne, du coup on m'trahit pas À un moment donné faut prendre les armes, suffit pas d'y croire À un moment donné faut rendre les armes, c'est là qu's'écrit l'histoire Sénégalais chaud comme Haalpulaar C'que j'dis c'est tellement noir, tu crois au canular J'veux pas leur or, juste leurs têtes me suffira J'suis craint comme Voldemort, d'mande à Linda, elle t'le dira 45 Scientific, l'escroc s'appelait Géraldo Flip la cocaïne, whip la Gelato Crochet d'Lomachenko, tout devient noir comme Mamadou Sakho Holá, dónde está el producto, Paquito? J'suis avec une pute de Liège, même si y a pas d'neige elle aime bien slalomer Pour une poignée d'euros, elles s'assoient sur ton bâtonnet Mon pote m'présente sa femme, ah jsuis goute-dé, j'la connais Le rap français c'est oi-m, ils devraient tous m'appeler Papounet Tout passe par la force, rien n'est acquis de droit Le ciel m'écrit en morse, on dirait qu'il me voit Tu m'dis qu'ces vagues sont imprenables, ai-je vraiment le choix ?</t>
+          <t>Enzo Beats, Beats, Beats Faites rentrer Leo Messi Quand on n'aime pas, on tue quand on aime, on châtie Souviens-toi des vrais quand ils seront partis Pas de signal, j'suis dans l'Serengeti, règne animal le seul réel défi Le monde est fini disent les génies mais ici, c'est Paris, on a Leo Messi Donc qu'est-ce que le monde ? Je vous le demande, la chatte au big-bang, c'st carré dans l'triangle Noir et blanc comme cs p'tites notes de piano pleines de tristesse, non-binaire est l'agente La piste est noire, j'descends pas, j'reste là-haut, parle pas de tire-fesses, de remonter la pente Bienvenue en eaux troubles, t'es en plein d'dans, la barbe est noire, quelques poils blancs On fleurit en hiver, fuck le printemps, F.U.T.U.R, demain, c'est maintenant Gorée, c'est l'île, chien au chenil, maître pendu, pavillon noir, que des papillons, pas l'temps pour les chenilles Snappe pas ta bite, caleçon sur les chevilles J'vais les crever en silence, demande à Maka, j'vais les dynamiter sans dire Allah u akbar Dans mon frigo, que du jus de bagarre, mon ciel est bleu comme les yeux de Ragnar Rate-pi chez les DZ jusqu'à Dubaï, Aulnay, Phuket, Kao Pad Thai J'appelle DBZ, Tao Pai Pai, t'as pas ton pare-balles, ciao, bye, bye Lionel Messi Ici, c'est Paris</t>
         </is>
       </c>
     </row>
@@ -4674,12 +4674,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>C’est toujours Dems (Le vrai)</t>
+          <t>Me-Ca</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Discographie - Damso Album Studio - 20160708 Damso - Batterie faible - 20170428 Damso - Ipséité - 20180615 Damso - Lithopédion - 20200918 Damso - QALF - 20210429 Damso - QALF infinity Mixtape - 20140829 Damso - Salle d'attente Compilation - 20181214 Damso - Intégrale - 20190809 Damso - Ipséité Lithopédion Single - 20120328 Damso - Freestyle Portes Ouvertes FPO - 20121001 Damso - Brouillard - 20140308 Damso - EGO - 20140328 Damso - Publie Partage Promo - 20140818 Damso - On n'est jamais mieux compris que par soi-même - 20140829 Damso - Le talent ne suffit pas - 20140928 Damso - IVG - 20141220 Damso - Tout oublier - 20141220 Damso - BANG BANG - 20150808 Damso - Comment faire un tube - 20151118 Damso - Ma putain - 20151119 Damso - Colis - 20151120 Damso - Poséidon - 20151217 Damso - Mi Amor - 20160122 Damso - Débrouillard - 20160427 Damso - Autotune - 20160527 Damso - BruxellesVie - 20160621 Damso - Peur d'être sobre - 20160624 Damso - Périscope - 20160708 Damso - Graine de sablier - 20160718 Damso - Paris c'est loin - 20161107 Damso - Amnésie - 20160919 Damso - Débrouillard Remix - 20160928 Damso - Freestyle Deezr - 20170118 Damso - Smeagol - 20170220 Damso - CQFD - 20170403 Damso - Mort - 20170428 Damso - N. J Respect R - 20170428 Damso - . Nwaar Is Th New Black - 20170525 Damso - TieksVie - 20170706 Damso - . Macarena - 20170714 Damso - Quotidien de baisé - 20170901 Damso - Mucho Dinero - 20170903 Damso - C'est toujours Dems Le vrai - 20171027 Damso - Seultou - 20171027 Damso - Fais-moi un Vie - 20171110 Damso - Je nous mens - 20171201 Damso - Tueurs - 20180316 Damso - . Mosaïque solitaire - 20180428 Damso - Ipséité - 20180605 Damso - . Ouzbek - 20180613 Damso - Smog - 20180801 Damso - Surcôté - 20200124 Damso - veillé - 20200328 Damso - - 20210107 Damso - 911 - 20210406 Damso - J'avais juste envie décrire - 20221218 Damso - Cur de pirate Featuring - 2008 Dolfa - Cyclone - 20151112 LeBoy Krisy'B - Studio Remix - 20151204 Booba - Pinocchio - 2016 Siboy - Paradis - 20160410 Krisy - Real - 20160611 Booba - Freestyle Couvre Feu OKLM - 20160624 Hamza - Slow - 20170120 Vald - Vitrine - 20170331 Benash - Ivre - 20170630 Siboy - Mobali - 20171006 Kalash - Mwaka Moon - 20171117 Lacrim - Noche - 20171201 Booba - 113 - 20171213 Kalash - Mwaka Moon Felckin Remix - 20180518 Kalash - Mwaka Moon Sfera Ebbasta Remix - 20181114 OrelSan - Rêves bizarres - 20181207 404Billy - RVRE - 20190606 Nekfeu - Tricheur - 20190628 D.A.V - ParoVie - 20190712 Vegedream - Personne - 20190726 Kalash - JTC - 20190726 Kalash - Praliné - 20190927 Ikaz Boi - SOLITERRIEN - 20191118 Dadju - Robe - 20191219 Hamza - God Bless - 20200307 Ninho - Promo - 20201015 Innoss'B - Best - 20201016 Kalash Criminel - But en or - 20210305 ElGrandeToto - Étranger - 20210702 Dinos - Du mal à te dire - 20210716 Laylow - R9R-LINE - 20211203 Angèle - Démons - 20220301 Angèle - Démons Live Orchestral - 20220309 Aya Nakamura - Dégaine - 20220317 Disiz - RENCONTRE - 20220325 Selah Sue - Wanted You to Know - 20220429 Kalash - I Love You - 20220429 Kobo - .FUMÉE.ÉPAISSE - 20220701 Gazo - BODIES - 20220923 Kalash - Malpolis - 20221111 Lous and The Yakuza - Lubie - 20230217 Hamza - Nocif Discographie complémentaire - Discographie - OPG</t>
+          <t>Animalsons On met les bolosses sur orbite Djé, Kopp dans le cockpit On croque biff', tu croques bites Tu vois c'que j'veux dire ou pas ? 92100, Dealer Capital Peu de trêves, que des luttes Grosse be-teu, grosse meute, peu de rêves, que des buts J'casse la baraque taâ la barre, c'est Hauts-de-Seine parasite Haschisch sans paraffine, 9.2.I. apparatchik apparatchizi Flow en titane pour twenty ten Le crâne dur, même après 5 ou 6 peines On vit la night, répond aux mots par un acte Obnubilés par la maille, 92 degrés Fahrenheit On paye nos bourdes cher, souffre, mange de lourdes peines Rois des coups bas, pour nos bouts de gras, arrache bouts de chaire C'est le hood, chef, Hauts-de-Seine bootlegs La délivrance coûte cher, on dispatche bouts de schmères B2OBA, escroc et scélérat Là d'où l'on vient, il n'y a ni photos ni caméras Personne ne vient à part pour per-cho de la me-ca On est més-cra, on ne prend que du she-ca On fait ce qu'on peut, on fait ce qu'on veut J'veux tout sans rien branler négro, tel est mon vu Et je fais de mon mieux, je fais de mon mieux Je fais de mon mieux, je fais de mon mieux Doigt sur le trigger, on ne m'approche pas comme un pit' Grosse bague en diamant sur le finger comme un pimp Malins comme des chimpanzés, heavy à la pesée Poulet braisé, personne défrisé dans ma clique Meufs à poil, weed, rails de CC dans ma suite Quand t'en auras marre de sucer biatch, prends la fuite 100-8 Zoo, ça va très vite Fast life pour les bicraveurs d'élite, izi Derrière les thunes, quoi qu'ils en disent, à vendre la mort comme un fumier Assassinent la rue, signent l'homicide des gosses que nous fûmes hier Farineuses montagnes, faramineux montants À ces baratineuses, n'associe pas mon clan Mon clan La réalité, son cinéaste La drogue pour parcourir le monde comme Phileas Comme Phileas J'sors de mes gonds dès le gong Hauts-de-Seine, camp de base, venu pour piller puis pour plier liasses B2OBA, escroc et scélérat Là d'où l'on vient, il n'y a ni photos ni caméras Personne ne vient à part pour per-cho de la me-ca On est més-cra, on ne prend que du she-ca On fait ce qu'on peut, on fait ce qu'on veut J'veux tout sans rien branler négro, tel est mon vu Et je fais de mon mieux, je fais de mon mieux Je fais de mon mieux, je fais de mon mieux Ça bibibibi, à Boulbi, Boulbi Seule source de revenus, ma race dans l'oubli, l'oubli J'suis Coulibaly, Sow, Diallo, Mendy Vuitton Louis, Gucci, Smalto, Fendi J'viole ton ouïe, eux ne sont pas frais, nous, oui Double-décimèzère et la femmezer jouit T'as rien compris, bienvenue dans ma zone Primaire, C.A.P, son-pri, comme ça dans ma zone J'lis rien dans ma paume, une blouse noir, j'suis au labo' Ma 0.9 est prête, messages codés dans la peau On ne sort pas des eaux troubles, même si ailerons de requin Meilleurs avocats, kilos de me-ca dans la ve-ca B2OBA, escroc et scélérat Là d'où l'on vient, il n'y a ni photos ni caméras Personne ne vient à part pour per-cho de la me-ca On est més-cra, on ne prend que du she-ca On fait ce qu'on peut, on fait ce qu'on veut J'veux tout sans rien branler négro, tel est mon vu Et je fais de mon mieux, je fais de mon mieux Je fais de mon mieux, je fais de mon mieux Dealer capitale, Hauts-de-Seine 9.2.1.Double zéro3</t>
         </is>
       </c>
     </row>
@@ -4691,12 +4691,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Snitch</t>
+          <t>Daddy</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>La-la, la-la, la-la, la, la-la, la La-la, la-la, la, la-la-la-la Ey Drei Uhr nachts und ich bleib' nicht mehr lang hier Blickkontakt und ich weiß nicht, was passiert Dreißig Grad, es wird noch wärmer mit dir Komm mit mir, was haben wir zu verlier'n? Wir hab'n nicht mehr lang, uns bleibt nur heut Nacht Ich war fucked up und ohne Plan Hab' es nicht geahnt, doch du machst mich schwach Frag' mich, wo du warst Baby, bleib noch was hier Lass mich nicht los Nimm meine Hand Oh, komm mit mir, Baby Bleib noch bei mir Frag nicht, wieso Egal, wo lang, ich geh' mit dir La-la, la-la, la-la, la, la-la, la La-la, la-la, la, la-la-la-la-la La-la, la-la, la, la-la, la La-la, la-la, la, la-la-la-la Baby Mhh, zeig mir deine Wahrheit und ich face sie Hah Blink in dei'm Eye, wenn du mein Face siehst Cute little lady mit 'nem Fac-Beam, flirty so wie Daisy Waist to snatch, Boobs sind slatty Bitches bad, black-girl magic Drinks on ic, Glas voll Henny, ah One for the night Wir hab'n nicht mehr lang, uns bleibt nur heut Nacht Ich war fucked up und ohne Plan Hab' es nicht geahnt, doch du machst mich schwach Frag' mich, wo du warst Baby, bleib noch was hier Lass mich nicht los Nimm meine Hand Oh, komm mit mir, Baby Bleib noch bei mir Frag nicht, wieso Egal, wo lang, ich geh' mit dir La-la, la-la, la-la, la, la-la, la La-la, la-la, la, la-la-la-la-la La-la, la-la, la, la-la, la La-la, la-la, la, la-la-la-la Bleib heut bei mir, fühl dich frei, mach dir keine Sorgen Was soll passier'n? Nichts ist falsch, was dir guttut Bleib heut bei mir, fühl dich frei und denk nicht an morgen Du musst riskier'n, um zu finden, was du suchst La-la, la-la, la-la, la, la-la, la La-la, la-la, la, la-la-la-la-la La-la, la-la, la, la-la, la La-la, la-la, la, la-la-la-la</t>
+          <t>Oh, oh, oh, oh, oh, oh Elle m'appelle Daddy, elle croit que j'vais lui passer l'anneau Mais jamais d'la vie, la 0.9 est sur le bateau Elle m'appelle Daddy, elle croit que j'vais lui passer l'anneau, la faire monter dans l'quatre anneaux, nan Mais jamais d'la vie, elle peut dead pour le négro, j'tiens son p'tit cur dans la mano Elle a l'cul d'un poney, des seins siliconés Mais j'l'ai barrée, gros, tu connais, j'tape des khaptas sous Jack Honey Bloquée sur mon portable, pourtant, ell est potable Mais j'pens qu'à faire de la monnaie, cent moins huit, gros, tu nous connais Mais elle m'appelle Daddy comme si j'allais la doter, comme si pour elle, j'avais l'temps Et jamais d'la vie, tes c'verre corsé que j'peux pas siroter Siroter T'es un avion d'chasse que j'veux pas piloter Elle m'appelle Daddy, elle croit que j'vais lui passer l'anneau Mais jamais d'la vie, la 0.9 est sur le bateau Vingt-deux, akha, dix-huit carats, cent moins ocho, c'est les travaux Vingt-deux, akha, dix-huit carats, négocie pas, c'est les tarots Sans parachute, t'as sauté, va voir ailleurs, un mec comme moi te nique la santé Rien que j'l'envoie chier mais histoire d'amour, elle veut tenter Elle a vu qu'j'avais l'numéro de Kopp et d'Dany Synthé J'suis son fond d'écran, la petite est fêlée, elle embrasse son écran quand elle me voit à la télé Elle m'suce dans la gova, j'l'ai jamais ramenée au tel-hô Négocie pas, c'est les tarots, chef de chantier, j'gère les travaux Mais elle m'appelle Daddy comme si j'allais la doter, comme si pour elle, j'avais l'temps Et jamais d'la vie, tes c'verre corsé que j'peux pas siroter Siroter T'es un avion d'chasse que j'veux pas piloter Elle m'appelle Daddy, elle croit que j'vais lui passer l'anneau Mais jamais d'la vie, la 0.9 est sur le bateau Vingt-deux, akha, dix-huit carats, cent moins ocho, c'est les travaux Vingt-deux, akha, dix-huit carats, négocie pas, c'est les tarots Toujours sur le chantier, les travaux Ocho dans le bend', dans la zone Toujours sur le chantier, les travaux Vingt-deux</t>
         </is>
       </c>
     </row>
@@ -4708,12 +4708,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Hors-saison</t>
+          <t>On contrôle la zone</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Fair-play dans les coups bas J'pourrais écrire tes textes avec le trou d'balle, t'ouvrir l'esprit à coups de batte Si j'suis al c'est pas un coup d'chatte OK, compris j'ai qu'un seul joker, si je m'en sers ça pue la son-pri Spécialisé sans Princesse Aniès B2O AKA le génie sorti d'une teille de Jack Daniel's Ils nient mais leur technique de dopage Laisse des traces de sperme de toutes les ethnies dans l'sophage Alcoolisé donc plein d'alcool, dard-dard Les porcs ont mit des radars jusqu'aux portes du Colisée Le zoo, B2O, vous connaissez, mais vous nous aimez pas trop Parce que c'est hami, ça fait flipper les mômes et les mamies Notre piste de danse un tatami, EnnemidÉtat.com Blesse, laisse parler en mauvais état L'instrumental est plié, lutter est inutile Soit sur qu'on va tout niquer, douter est inutile Dans leurs têtes y'a trop de silicone, moi j'colle pas dans leurs registres Hors saison, j'existe dans lil du cyclone J'suis pas venu seul à la fête, donc plusieurs cartouches T'inquiètes j'assure la be-flam, les courses et les couches Restez tous dans la salle jusqu'à la fin du générique Elle est belle, cruelle, triste, elle est brutale La mélodie des briques fait mal, mon son n'est pas une icône Hors saison, j'existe dans lil du cyclone Passe-moi du seille que j'décolle, change de décor Gentiment j'donne l'heure en diams, demande-la poliment Original et féroce, j'sais pas ce qu'ils inhalent Baisse ta garde et ton gosse va naître à l'orphelinat J'irais jusqu'en finale, frais même en été Vrai, je le resterai, je l'ai toujours été Le temps est assassin, pour ceux qui me connaissent pas J'fais que d'remplir des chèques je m'en bas les steaks du C.S.A J'ai pas l'droit à l'erreur sinon mon contrat saute Du Forum à la Place Haute, mon gang balance la sauce Les mecs sont haineux, les go sont charmées Ils veulent nous crever les pneus, évidemment j'suis armé La plupart devraient capituler, mon flow les immatricule Le Desert Eagle les désarticule Petit mes galères j'en rigole, mais j'veux pas être ton idole C'est les Hauts-de-Seine sur l'instru tah Snoop Doggy Dog Dans leurs têtes y'a trop de silicone, moi j'colle pas dans leurs registres Hors saison, j'existe dans lil du cyclone J'suis pas venu seul à la fête, donc plusieurs cartouches T'inquiètes j'assure la be-flam, les courses et les couches Restez tous dans la salle jusqu'à la fin du générique Elle est belle, cruelle, triste, elle est brutale La mélodie des briques fait mal, mon son n'est pas une icône Hors saison, j'existe dans lil du cyclone Si Kopp figure au top, crois pas qu'il retourne sa veste Réel, du nord au sud négro, de l'est à l'ouest J'ai acheté du GHB pour être sur de t'mettre à l'aise Une pour ceux qui m'écoutent en direct live de la calèche Poto, j'ai vu ta photo dans les fais divers, c'est cheum Qu'on tombe aussi bas, t'y retourne dès qu'on te libère Moi j'suis un rat des villes Toujours prêt à faire un truc de débile si tu veux m'voler mes billes kho Couleur ébène, la rondelle bien isolée Plus le défi est grand plus la victoire est belle Hors saison j'existe, persiste et signe Moins d'shit dans la cargaison aucun son ne me résiste Animal-Animalsons Original et féroces, décroche Tallac Records à l'appareil, lève les bras qu'j'te fasse les poches Dans leurs têtes y'a trop de silicone, moi j'colle pas dans leurs registres Hors saison, j'existe dans lil du cyclone J'suis pas venu seul à la fête, donc plusieurs cartouches T'inquiètes j'assure la be-flam, les courses et les couches Restez tous dans la salle jusqu'à la fin du générique Elle est belle, cruelle, triste, elle est brutale La mélodie des briques fait mal, mon son n'est pas une icône Hors saison, j'existe dans lil du cyclone Dans leurs têtes y'a trop de silicone, moi j'colle pas dans leurs registres Hors saison, j'existe dans lil du cyclone J'suis pas venu seul à la fête, donc plusieurs cartouches T'inquiètes j'assure la be-flam, les courses et les couches Restez tous dans la salle jusqu'à la fin du générique Elle est belle, cruelle, triste, elle est brutale La mélodie des briques fait mal, mon son n'est pas une icône Hors saison, j'existe dans lil du cyclone Kho Hors saison, dans lil du cyclone Brrr ! Tallac Records à l'appareil, lève les bras qu'j'te fasse les poches1</t>
+          <t>OK, Hauts-de-Seine vatos Comme Roger flirt avec les lignes c'est Hauts-de-Seine Matos Hauts-de-Seine la dose pardonne du com, ce qu'on doit à la street Le crack comme terrain d'chasse regarde comme jeunesse ingurgite Tom Ford sur le blaze, bandana comme un masque à gaz Faut des loves, flow de haut vol, j'suis chaud dès l'aube Diam's dans les lobes, chaud quand il faut qu'jles pigeonne Crois-en la crosse dépassant du True Religion Trop d'sang sur le terrain quand ma team à la balle Trop d'sang sur le chemin de la mine à la bac N'ont qu'à remplir leur geôle crade Du gramme au quintal dramatique quête du Graal On contrôle la zone, la zone On contrôle la zone, on contrôle la zone On contrôle la zone, la zone On contrôle la zone, on contrôle la zone Tout, tout tout me casse les couilles Le taf, les pétasses qui déboulent J'suis pas l'chef de la tess, les mecs tapent dans la céce Ça m'zehef mais laissez-moi nehess Chez nous ça passe ou ça douille Miboune c'est pour vous qu'le monde est cool J'ai trop d'vices dans la cabess, mes hassanets c'est la dèche Mon Dieu ne m'laissez pas en hess J'vous remercie, j'suis j'suis pas homeless J'les baise même en chien on ne m'tient pas en laisse Toujours bandits de-spee Brazzi prie pour nourrir son esprit J'ai fait du bien du haram de la son-pri J'suis hami je vous l'ai dit mais vous n'lavez pas compris J'en ai sur les doigts et tu m'as pris pour un junky Ta go m'as vu en Merco elle m'as pris pour un geon-pi Cross dans la paume tu vois briller le chrome Fout moi l'seum t'en verras des vertes et des jaunes Chromosomes en Air Max Bactérie Zone J'écris mes versets sur l'dernier BlackBerry Bold On fait du bizz, de la taule Ressort d'chez l'éducateur avec de gros hématomes Tout mon département sur l'trône, sur l'trône Je contrôle ma zone je contrôle ma zone... On contrôle la zone, la zone On contrôle la zone, on contrôle la zone On contrôle la zone, la zone On contrôle la zone, on contrôle la zone Tu t'rappelles ? J'suis l'mec du 92 L'homme que tu voudrais niquer à plus d'12 Alors salope t'es toujours de retour A critiquer mes sons en bas de tes tours Autopsie tlata, peut-être la dernière Avec plus de harr qu'une mechouïa seleta Ouais, salope tu vaux même pas le détour T'es pas fait pour tourner dans ma tour Tu veux du seum 92izi on est là Quelques keums hyper busy, on est là Si-Si, MazalazaSta 92izi, Si-Si kho On contrôle la zone, la zone On contrôle la zone, on contrôle la zone On contrôle la zone, la zone On contrôle la zone, on contrôle la zone On contrôle la zone, la zone La zone, on contrôle la zone2</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Sang d’encre</t>
+          <t>Intro (Mauvais œil)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Janvier 2101 Dany Dan - Spécial Dany Dan, vol. 2 2601 Pit Baccardi - Classic Mix-Tape street CD Février 0202 Artistes multiples - Neochrome 3 compilation 0302 Antilope Sa - L'Encre en guise de larmes 0902 Anfalsh - Que d'la haine 2 Mars 0203 Abd Al Malik - Le Face à face des curs 1503 Casus Belli - Street-tape volume 2 street tape 1603 Ol'Kainry - Les Chemins de la dignité 2203 Passi - Odyssée 2903 Nuttea - Urban Voodoo Avril 0204 Expression direkt - X Sessions - 1304 Oxmo Puccino - Le Cactus de Sibérie 2004 Rohff - 10 ans d'avance Mixtape 2204 Al Peco - Bled hard concept volume 1 2304 Kery James - Savoir et vivre ensemble 3004 Fatale Clique - Zone Interdite - xx04 O.P.A.K. - L'arme à l'il Mai - 1105 Booba - Panthéon 1205 Octobre Rouge - Son, Sex Skunk 2005 Artistes multiples LIM - Double violences urbaines - Le Chant De La Rue - 2505 Chiens de paille - Sincèrement 2805 Rim'K - L'enfant du pays Juin 0806 Zoxea - Dans la lumière 1006 Dany Dan - Flashback Mixtape 2001 Cette Année-Là... 1006 Tandem - Tandematique modèle vol.1 mixtape 1506 Casus Belli - Street-tape volume 3 street tape - 1506 Sinik - En attendant l'album 1606 La Swija - Des racines et des ailes - 1606 Bouchées Doubles - Matière grise 1806 Grems - Algèbre - 2106 La Rumeur - Pourquoi on resterait calme ? maxi - 2106 Rohff - La Fierté des nôtres 2106 Veust - Coup de Théâtre 3006 Artistes multiples - Talents fâchés 2 compilation Juillet 0407 Sëar Lui-Même DJ Manifest - S'il ne doit en rester qu'1 - 1307 Seth Gueko - Mains sales maxi Août 0208 45 Scientific - Sang d'encre - Haut Débit Septembre - 0709 Klub des Loosers - Sous le signe du V maxi - 1109 Médine - 11 Septembre, Récit du 11ème Jour 1509 LTA - Ma Mélodie Criminelle 2109 Relic - Légende urbaine 2809 L'Skadrille - Extazik Bizness Octobre - 1810 La Rumeur - Regain de tension - 2010 Psykick Lyrikah - Des lumières sous la pluie 2510 TTC - Bâtards sensibles 2410 Octobre Rouge - Là où ça fait mal 2610 La Fouine - Planète Trappes volume 1 mixtape 2910 Dosseh - Bolide Vol. 1 Novembre 0111 Diam's - Ma vie, mon live live - 0111 Klub des Loosers - Vive la vie 0211 Dicidens - H.L.M. rezidants 0211 Disiz - Itinéraire d'un enfant bronzé Sérigne M'Baye 0911 Manu Key - Prolifique - 1411 Kool Shen - Dernier Round 1511 Alibi Montana - 1260 Jours 1511 Rockin' Squat - Libre vs Démocratie Fasciste 1611 1korruptibles - 1korruptibles 1611 Mafia K'1 Fry - Street Lourd Hall Stars compilation 1611 Projet Facteur X - Le Bon, la Brute et le Truand - 2311 IAM - Anthologie 1991-2004 compilation 2411 Mysa - Lyricisme, Actes et Propagande Décembre 0712 BOSS - Boss Opus 3 0712 La Boussole - Le savoir est une arme Dates non connues Casseurs Flowters - Fantasy Mixtape - IAM La Saga EP5</t>
+          <t>2004Banlieue Ouest ft. VF Gang Autobiographie2005L'unité ft. J-Mi Sissoko Quelque chose de spécial ft. Eilijah2006On s'en bat les couilles État des lieux2007Qui peut me stopper ? Reste en chien ft. Booba Banlieue sale ft. Gued'1 Kennedy Tombé pour elle ft. Amel Bent Dignity ft. Matchstick2008Cherche la monnaie Ça fait mal Remix ft. Sefyu Soprano2009Tous les mêmes Du ferme Hamdoulah ça va ft. Canardo Krav Maga Banlieue Sale Music ft. Nessbeal Krav Maga Remix ft. Canardo, Green Money, Gued'1 MLC2010Nés pour briller ft. Canardo, Green Money MLC Le mauvais il ft. Green Money Passe-leur le salam ft. Rohff Caillra for life ft. Game2011Ça fait mal live Veni Vidi Vici Les soleils de minuit Papa Mathusalem Fouiny Gamos Interlude-One Shot Caillra for life studio Elle venait du ciel ft. Zaho Bafana Bafana Remix ft. Admiral T, Canardo, Nessbeal, Seth Gueko Soprano Nhar sheitan click D'où l'on vient Toute la night Vntm.com ft. DJ Khaled Vécu ft. Kamelancien J'arrive en balle ft. Fababy Ben Laden C'est bien de... ft. Fababy Rollin' like a boss ft. Mackenson T-Pain Rappelle-toi ft. M.A.S Jalousie ft. Fababy, Leck Six Coups MC2012Capitale du crime 3 ft. 3010 Sneazzy West Paname Boss ft. Canardo, Niro, Sniper, Fababy, Sultan Youssoupha J'avais pas les mots2013Il se passe quelque chose ft. Youssoupha Ma meilleure ft. Zaho Quand je partirai La Fête des Mères Essaie encore2014Saha Fais les 2 ft. Kozi Intro CDC 4 Va Bene ft. Reda Taliani Crick Crick ft. Ixzo Lové N.D.M Cry ft. Omarion Il y aura des blessés3</t>
         </is>
       </c>
     </row>
@@ -4742,12 +4742,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Saga</t>
+          <t>Loin d’ici (Twinsmatic Remix)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Toujours entouré de mannequins Toujours entouré de mannequins Eh, eh Toujours entouré de mannequins, je fais mouche avec mon baratin Et elles s'en iront dès le matin, j'vais pas t'mentir Tu n'es vêtue que de Balmain, espèce protégée en sac à main Le monde est mien comme Tony le Cubain, j'vais pas m'enfuir J'ai pas d'place pour toi dans mon cur, j'serai jamais à la hauteur J'ai une vie trop douloureuse pour toi Mon navire traversera la peur, trois cent quarante au compteur J'ai une vie trop dangereuse pour toi J'vais pas t'mentir J'ai fait couler litres de sang et litres de mascara Si tu penses que j'suis à toi, tu peux partir Notre histoire n'était qu'un strike, n'en fais pas une saga Toi tu réchauffes les curs, j'les fais refroidir J'ai la haine d'un orphelin, la dalle d'un harraga Si tu savais comme ces haineux m'souhaitent le pire Je compte plus mes billets comme grossiste de Malaga Ah-ah-ah-ah Femme indépendante, elle est fière, la vie c'est dure, Paris c'est pas donné Elle montre son cul et ses pieds, c'est sûr, vu son nombre d'abonnés Traite la comme si tu la voulais, pas comme si tu l'avais Elle m'dit Pourquoi t'as toutes ces bouteilles, tant d'oseille, tu souris jamais ? J'ai pas d'place pour toi dans mon cur, j'serai jamais à la hauteur J'ai une vie trop douloureuse pour toi Mon navire traversera la peur, trois cent quarante au compteur J'ai une vie trop dangereuse pour toi J'vais pas t'mentir J'ai fait couler litres de sang et litres de mascara Si tu penses que j'suis à toi, tu peux partir Notre histoire n'était qu'un strike, n'en fais pas une saga Toi tu réchauffes les curs, j'les fais refroidir J'ai la haine d'un orphelin, la dalle d'un harraga Si tu savais comme ces haineux m'souhaitent le pire Je compte plus mes billets comme grossiste de Malaga Ah-ah-ah-ah Si belle et si vicieuse, trop dangereuse pour moi Surtout ne jamais la marier, à vie tu souffriras La route est tellement sinueuse, ses courbes n'en finissent pas Elle n'a pas besoin de me parler, son regard suffira</t>
+          <t>Le rap français coupé en deux Comme Porsche GT dans un tronc d'arbre J'suis sur Pluton, t'es sur France 2 Fuck un greffier, fuck un gendarme Déployez le plan épervier. Je suis un gangster, fuck un vandale ! 92izi faut te méfier, j'ai un Uzi, fuck un Van Damme 92izi faut te méfier, j'ai un Uzi, fuck un Van Damme Ici c'est le bitume, on ne fait rien sans se défier 92izi faut te méfier, j'ai un Uzi, fuck un Van Damme Ici c'est le bitume, ici c'est le bitume ! J'aime toutes mes cicatrices J'fais de l'oseille, j'suis pas un artiste Mon parfum c'est Anarchiste À mon déclin, personne n'assiste Clic, clac, personne n'insiste Gros oid c'est mon insigne On a or noir comme on a le shit Change de trottoir, c'est mieux ainsi C'est l'Histoire qui m'a choisi, m'a choisi Contre le désespoir un gros pétard, un Bacardi J'suis un Zlatan, un Qatari T'es qu'un tahan abâtardi, allez Paris ! J'aime toutes mes cicatrices J'fais de l'oseille, j'suis pas un artiste Drôle comme une blague raciste A leur déclin, je y assiste Mon casier ? Plus que douteux ! J'ai une Féfé, je ne rêve pas Tu vois que des muscles, un Ü tréma T'as pas capté toutes les roles-pa Ta poule'zer se fait toute belle Quand ton sang coule, c'est là que tout baigne Fais-moi souffrir pour que j'me souvienne J'ai mon baby, j'ai ma souveraine Fin de carrière, soudaine A.C Milan, demande à Constant Mon marabout est un Tchétchène J'aide ceux que j'aime depuis longtemps C'est l'Histoire qui m'a choisi, m'a choisi Contre le désespoir un gros pétard, un Bacardi J'suis un Zlatan, un Qatari T'es qu'un tahan abâtardi, allez Paris ! Méfiant, défiant un de nous finira par crever J'suis gravé dans la roche'zer, j'fais des millions, j'ai que le Brevet Bressom est le projet, Tyson est le crochet J'ai grandi, mis de côté Drapeau rate-pi, île de Gorée Stevie Wonder quand je dépense L'élégance-même plaide l'allégeance Négros ennemis détériorés Moi je commande, toi tu quémandes C'est l'Histoire qui m'a choisi B2OBA, KO Double P, 92i1</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Swiss Francs (Remix)</t>
+          <t>Abidal</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>x2 Bills foreign, Swiss Francs Before I die I need my money in a Swiss Bank I can see right through these haters Fishtanks Plus they frowning at my watch like my wrist stinks Banque suisse, tranquille J'y mets euros, dollars, Benjamin Franklin J'dépense encore des Marie Curie Kalashnikov, lingot d'or, logo d'mon écurie I.z.i, Ryan Leslie, B2O, qui êtes vous ? Dernier round, du sang de partout, tu sais qui est d'bout ! Quand j'parle Bentley, Lamborghini c'est que j'en conduis Toi on t'as jamais vu avec, tu mens, ce que j'en déduis Grosse merde ! Tu vends dans cage d'escaliers Au maximum tu roules en cos-Mer tu crois que ça y est Ça y est pas du tout, chaîne énorme, mal au cou Morray on va t'prendre à poil, BANG ! LaureManaudou J'reverse à la daronne, j'suis Gmail, t'es Wanadoo Envoie huissier à Rome, redonne à Mamadou Des balances confirmées veulent prendre la relève J'ai du Cialis pour toi, j'ai mon khaliss à Genève x2 Un million, deux million, trois millions, quatre Plus a crib out in Geneva so I can avoid the tax Got a mill' from Universal I ain't had to pay it back Throw my money in the air and you suckers is playing catch huh Lunatic album blasting through a pair of Beats B2O, my connection through the Paris streets Black Beethoven flow, call it Für Elise NextSelection embroidered in Panamera seats Check the luggage, it's vintage Pierre Cardin Got a hundred stacks buried in the Jardin Anglais on the south shore of lake Geneva Love my money like my honey so I hate to leave her Voice activated safe need a mot de passe Sick flow - translate it flow dégueulasse Watching money come and go, I learned to make it last As I get it, spend it slow and generate it fast x43</t>
+          <t>T'as perdu l'goût et l'odorat, frérot, l'odorat, c'est l'instinct L'homme prend tout par la force, car en vrai, rien n'lui appartient On trouve la haine partout, l'amour, quand on s'y attend l'moins Tout est écrit là-haut, si ça tombe mal c'est qu'ça tombe bien Ma foi est mal en point, j'essaie d'transformer l'mal en bien La mental' est trop loyale au moins comme un dogue Argentin J'entends la cargaison des Cayo Large des plages du Lamentin J'dors sur l'ile de Gorée, dans un cinq étoiles Saoudien Un salade d'entraves au mnu, serveur me dit qu'c'est ça ou rien Ils décident de notre défaite, on rit, se reserve du vin J'préfère descendre du singe que d'ce chien d'homo erectus Quand tu seras seul, déprimé l'soir, demande à Alexa si elle suce J'suis dans l'vaisseau amiral, j'attends le signa-a-a-a-a-al Ils sont surcoté de fou, comme Kylia-a-a-a-a-an J'vais sûrement t'faire du sale, si t'es mon riva-a-a-a-a-al Bien sûr je trompe ma femme, j'suis comme Abida-a-a-a-a-al Dakar, Marrakech, Miami Beach, Châtelet-Les Ha-a-alles T'es Luigi Buffon, t'arrêtes les pénos, pas les ba-a-alles C'est bientôt la fin, pour ça qu'j'en pa-a-arle Dans l'film de leur vie, j'ai l'rôle principa-a-al Dans les quatre coins du monde, des animaux qui tournent, des châtiments qui tombent comme des bombes tsar Les pieux sont pions et de plus en plus de Chalgoumis sur les ondes star Le vice et le pêché dans chaque langue, laisse pas trainer ton fils chez Jack Lang Que des rafales, aucun renfort Brr, zéro dérapage, la foi renforce On a grandit sans père, sans père, sans Danette On sait pas où on va mais on s'en bat les c' On connait leur jeux, j'ai plus d'cent manettes, ils imaginent le sauveur en sandalettes Les anciens prédisent la fin, les infos précisent l'inverse Leurs méfaits produisent l'enfer, les enfants président la fête Des offrandes de plus à faire Merde, dis-moi pourquoi l'humain adore la vache Du sang par litre pour lancer la machine Wouh Tout devient facile quand on fait d'la magie Wouh Ils diront qu'maladie sera livrée par la Chine Wouh C'est pas les voitures mais les humains qui volent On a peur de Dieu quand toi t'as peur du voile Ils ont trop la rage, on fera jamais c'qu'ils veulent Eh-eh, brr-brr J'suis dans l'vaisseau amiral, j'attends le signa-a-a-a-a-al Ils sont surcoté de fou, comme Kylia-a-a-a-a-an J'vais sûrement t'faire du sale, si t'es mon riva-a-a-a-a-al Bien sûr je trompe ma femme, j'suis comme Abida-a-a-a-a-al Dakar, Marrakech, Miami Beach, Châtelet-Les Ha-a-alles T'es Luigi Buffon, t'arrêtes les pénos, pas les ba-a-alles C'est bientôt la fin, pour ça qu'j'en pa-a-arle Dans l'film de leur vie, j'ai l'rôle principa-a-al</t>
         </is>
       </c>
     </row>
@@ -4776,12 +4776,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Au fond de la classe</t>
+          <t>Civilisé</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Hahaha, mmmm, viens au fond d'la classe là Laisse les autres travailler devant là On est pépère là, on fait rien, on est tranquille Ouais gros, ouais gros, ouais gros, ouais gros Ouais gros, ouais gros, ouais gros, ouais gros Ouais gros, ouais gros, ouais gros, ouais 92, le 94 Mais qui j'suis ? L'type au pur style impeccable Le mystérieux et stylé, du type non réplicable Le marginal, dit criminel lyrical Détrône en masse les vaginales MCs, dans les bacs tous à fond d'cale D.R.Y dit le pur sang, j'épure Nique sa mère le rap cè-fran, 100 Issu de la banlieue sud Là où ça t'bute avec ou sans micro et ça seulement par habitude Magnitude 9,4 sur les ondes Attitude adéquate, j'veux mes plaques, baise la BAC qui fait sa ronde Thunes abondent autant qu'la mort, plus à chaque saison L'heure de l'homicide sonne toutes les heures, les vitres t'aveuglent, s'efface l'horizon, mission Atteindre les cimes du rap car la mort nous décime Ancré dans le ciment, la joie hostile aux hommes entraine le crime Le doigt en l'air pour ces shbebs en bleu marine Booba-Intouchable tu bandes mais t'en fous pas plein les narines J'm'assois au fond d'la classe direct avec Démon, D.R.Y Dissipés, défoncés, peux mieux faire, peux mieux faire Ouais gros, ouais gros, ouais gros, ouais gros Ouais gros, ouais gros, ouais gros Pour toi c'est difficile, tu rappes c'est inutile Ça sent le bas résille, on aime pas trop ton style C'est facile pour nous, tragique pour vous Nous les flingues et les tass on aime les faire crier pour vous Six pieds sous terre, j'suis à la SICAP, le monde est stone ont dit les Psy4 Il faut qu'j'en parle avec ma bouteille de Jack J'suis au micro, c'est trop michto, ghetto c'est promis Ordure, attaquant hors-pair, attachant comme une drogue dure Ma vie, mon rap son frère siamois Faut m'en mettre une dans la cervelle si tu veux t'la faire belle, crois moi Se pourrait-il que le crime soit dans nos gènes ? Mes lyrics te font pleurer, j'ai la rime lacrymogène Trop facile pour B2O, prends celle-ci dans les gencives On risque la préventive pour avoir l'biff d'un joueur de Chelsea Nos réalités sont leurs cauchemars Ils veulent éduquer nos fils, applaudissent les colons dans leurs poèmes Flingue dans la bouche du prof, poing levé à la Jessie Owens J'suis allergique au shmits, pas au pollen Mon rap est froid comme un épaulard Laisse moi me défoncer au cognac, Hennessy sans Coca-Cola J'm'assois au fond d'la classe direct avec Démon, D.R.Y Dissipés, défoncés, peux mieux faire, peux mieux faire Ouais gros, ouais gros, ouais gros, ouais gros Ouais gros, ouais gros, ouais gros ah Pour toi c'est difficile, tu rappes c'est inutile Ça sent le bas résille, on aime pas trop ton style Qu'est-ce que tu veux faire, qu'est-ce que tu peux faire, frère ? Intouchable et Booba, y'a rien à faire, y'a rien à faire, frère Comment t'exprimer c'qu'on ressent, quand t'es jeune tu dors dehors Squattes les caves la où ça pue, ça sent l'symptôme d'une vie hardcore Quand t'as faim, pas un joint, aux yeux des gens t'es rien T'as rien, pour rien tu pourrais tuer en fait tu d'viens comme tous ces gens Que gamin tu méprisais, en combattant des enculés Tu peux dev'nir sans t'en rendre compte toi-même le pire des enculés Ma vie un film d'horreur, de drame, de guerre, de bals Mon corps s'emballe, au cur j'ai mal, trop d'potes à moi sont tombés sous les balles Au final j'en porte les marques mais dans les unes des autres s'démarquent Du ghetto j'en ai sa marque, ses halls, son dépôt et la BAC Le béton gris m'a endurci, gros m'a rendu plus féroce Élevé au sky, au splifs, dans ma tess j'ai vu des scènes atroces Faut pas grand chose, juste un mot, un regard, tu peux t'en prendre une Dans l'contrat y'a aucune clause qui dit qu'on fume pas pour des thunes Le jour où j'partirais, une part du ghetto s'en ira Dis aux marmots de la cité qu'un vrai démon, ouais ne meurt pas Ouais gros, ouais gros, ouais gros, ouais gros Ouais gros, ouais gros, ouais gros ah Ouais gros, ouais gros, ouais gros, ouais gros Ouais gros, ouais gros, ouais gros ah Intouchable, Booba, click paaah2</t>
+          <t>O grupo já não existe mais. Porém, o Lunatic, formado por Ali e Booba, deixou como legado um dos melhores trabalhos já lançados na França Com o fim do duo, os MCs tomaram rumos totalmente diferentes na carreira. Enquanto Ali seguiu em uma jornada mais discreta, Booba deu seus passos para se tornar o maior rapper francês da atualidade, elevou sua carreira a um nível espetacular, se reinventou, se aproximou do mainstream, chegou a colaborar com grandes nomes da cena estadunidense como 2 Chainz, Akon e Rick Ross, o rapper é o campeão de downloads da cena francesa. Conquistou milhares de fãs, amigos, e muitos, muitos inimigos. Pelo sucesso atingido, Booba é atualmente considerado uma espécie de Drake francês Formado em Boulogne-Billancourt subúrbio de Paris no ano de 1994. O grupo já tinha passado por uma enorme frustração em 1996, por causa de desentendimentos com um produtor, foram impedidos de lançar o álbum Sortis de l'ombre, depois de estar com o trabalho gravado que perrengue hein!. Mas todos esperavam um grande projeto do duo parisiense, então, restava ao Lunatic apostar todas as suas fichas em um trabalho que revelaria todo o potencial do grupo, foi aí que, em 2000, lançaram o magnífico álbum Mauvais il Mau Olhado Mauvais il se tornou um clássico, para alguns é o melhor álbum do rap francês. Sem dúvidas frequenta o Top 5 de 99 dos admiradores da cena. Um trabalho rústico, mas ao mesmo tempo genial, com letras que narram o cotidiano sombrio nos distritos e banlieues da Paris do início do século, os problemas políticos e sociais da França, racismo, injustiça, drogas, mas também uma celebração ao ego. Uma lírica envolvente, repleta de metáforas inteligentes, mas sem perder a agressividade característica do rap. O álbum possui uma excelente produção instrumental, beats pesados, rústicos, agressivos no estilo boom bap e uma vasta utilização de samples no quesito instrumentação, é impossível não notar a semelhança com as peças de Havoc O duo Booba e Ali se completam perfeitamente em um sincronismo exato que faz deste álbum um trabalho tão especial, homogêneo. Mauvais il é frequentemente comparado ao álbum The Infamous do duo nova-iorquino Mobb Deep Algumas canções de Mauvais il se tornaram verdadeiros clássicos do rap francês, como Pas L'temps Pour Les Regrets Não é tempo para arrependimentos. Uma faixa bem reflexiva, La Lettre A Carta é uma incrível crônica, Booba personifica um cara que enviou uma carta contando o seu cotidiano na prisão, enquanto Ali personifica o destinatário da carta. Le Silence N'est Pas Un Oubli O Silêncio não é um esquecimento. Faixa pesada, com um beat sinistro, metáforas sobre o cotidiano e um incrível verso de Ali. A última track do álbum, Civilisé Civilizado, é muito notória, apresenta um Booba sinistro, mandando umas punchlines monstruosas e um Ali um pouco mais civilizado. Mauvais il é o típico álbum que entra na playlist de quem curte a cena, para nunca mais sair, um excelente disco que marcou o extinto grupo Lunatic na história do rap francês, além de evidenciar o potencial lírico de Booba, o cara que nos dias de hoje é considerado simplesmente o melhor rapper da atual cena francesa NOTA</t>
         </is>
       </c>
     </row>
@@ -4793,12 +4793,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>FREESTYLE PIRATE</t>
+          <t>I Will Be There</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Ne crois-tu pas qu'je sais c'que j'fais? Ne crois-tu pas quje sais cque jfais? Tellement longtemps que jfais la guerre Le prochain cest Damso, mfais pas jurer la vie dma mère Chacun sa croix, chacun sa Elvira La paix sra toute nouvelle peut être quon lappréciera Je crois en Dieu à ma manière, sûrement pas Jésus qui me guide Un demi-siècle qujsuis au pouvoir, peut-on parler de génocide? Tu préfères le raconter, moi, je préfère le vivre Jai du réécrire tous ces livres, jdois faire le plein pour faire le vide 9.2, cest lélite, pas dur découler tous ces litres Je nsrai jamais un mythe, jai bien griffonné tous ces titres Liasses de billets si hautes, wallaye bilaye, jperds léquilibre Sur écoute à droite à gauche, jai dû faire sauter toutes les lignes Elle ma cherché dans tout létage, elle a frappé à toutes les suites Y'a quDidier quon n'aime pas, jpasse le salam à toute léquipe1</t>
+          <t>VIZ By Akil First bar of the night if I don't rock a fella then my ethers will Smith a flow cadence no Jaden icon my genes instill A fear in rappers pen game so its best served on a cold stake Revenge ain't me unless I come to buy love and you sold hate I shoulder pain the weight snappin my clavicles I'm capping knees I kunta average whack MC's I hit them fast like kashus be Neath the masses is half of me humble and sittin back as the Other half up in orbit with satellites near where Saturn be This Harvey Dent flip coin the beat enjoy the girls anatomy An attitude that's half of me Id grab a boo and clap sum wait Now grab a plate and snatch a seat I snatch the waist like maggots be I magically flip acronyms vocab the same I scratch the page if that ain't great You snap my brain if cats ain't made from my creation Stuck in past with massive hate But Beef is bad it clogs your veins So run it back eat succotash You suck at rap I'm runnin laps I watched the back of course I'm stabbed But talent breeds some hateful mass I get it If you wanna change up you see now We can go and do that together Just know I will be there be closer Because I Damn you got caught up in wrong places at wrong times Times Fly as shit like its 911 but call the number you ignore me like feds do Feds jump to say we monsters when smacking a broad true But if roles reversed she ain't equally harshly charged But wheres that equal rights shit I been on my boobay vibe Sous chef soufflé pseudo name is true great naz I give two face palms when I hear your crew straight fire If I gotta prove even in my throwaways that it's my time I shine life while I loosen go stupid contusions is tumor sized Dubs this for when I was quiet back in my highschooler times Moving right I'm driven you in the back like a uber drive Sumo lines mic foul notebook full I'm a night owl Bet your bottom butler buddy backin me is an anomaly until my lights Sound And my fight style call my mike now Take a head count imma snipe now Never Wesley kinda messy But my best heats when my life's down But a blessed me can detest even the best rhymes even like now If you wanna change up you see now We can go and do that together Just know I will be there be closer Because I love you so</t>
         </is>
       </c>
     </row>
@@ -4810,12 +4810,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>Cash Flow</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Oh, oh, oh, oh Oh, oh, oh, oh Ludafrick prod, bébé Izi Pour pas souffrir, j'apprends à ne pas aimer Tomber, me relever, j'ai pas arrêté J'suis resté vrai même si j'me suis ereinté J'préfère le R1T qu'être en TT On perd, on win, on apprend on apprend Le futur s'ra douloureux, j's'rai tout devant J'repeindrai ta vie en bleu en bleu Bien sûr, je tombe amoureux mais pas longtemps Je prends tous les virages comme Valentino Rossi Tous habillés en noir, armés, la méthodologie Rien n'est jamais assez bon, rien ne suffit Elle veut dompter le dragon, c'est Khaleesi La mélo' vient du village, le braco que j'envisage, j'en parle pas J'dois rejoindre l'équipage, j'ouvre plus ses messages, blablabla Elle aime le moteur et la carrosserie Dès qu'elle s'attache, le négro fout le camp Elle pense à moi, c'est comme une maladie Instable en amour, j'suis comme un enfant Laisse-moi plus de temps Laisse-moi plus de temps Laisse-moi plus de temps Laisse-moi plus de temps Titulaire n'connaît pas le banc, reculer, jamais ou très rarement Ça s'voit t'as pas vraiment d'argent T'as les sièges chauffants qu'à l'avant On a qu'une life, pas d'réédition Si Diallo pas sa moula, c'est malédiction Tout noir, tout droit c'est la direction Débrouille-toi, fiston, ma bénédiction Elle m'parle d'égalité, c'est moi qui paye l'addition J'fais mes dineros en chantant Plein d'questions à la con comme chez Thierry Ardisson Rates-pi s'ront là dans cent ans La mélo' vient du village, le braco que j'envisage, j'en parle pas J'dois rejoindre l'équipage, j'ouvre plus ses messages, blablabla Elle aime le moteur et la carrosserie Dès qu'elle s'attache, le négro fout le camp Elle pense à moi, c'est comme une maladie Instable en amour, j'suis comme un enfant Laisse-moi plus de temps Laisse-moi plus de temps Laisse-moi plus de temps Laisse-moi plus de temps Elle aime le moteur et la carrosserie Dès qu'elle s'attache, le négro fout le camp Elle pense à moi, c'est comme une maladie Instable en amour, j'suis comme un enfant Laisse-moi plus de temps Laisse-moi plus de temps1</t>
+          <t>NITETIME Yo, ouais, Malga Yo, ouais, hey Pull up et je perds la tête Pull up ils se trompent de tempo Jsuis dans la city yes skwa Jsuis dans les adlibs woha Ouais je sais quils nous méprisent Fais le donc ouais ouais pour voir Si le taf éteint mon esprit Le rap a un vrai pouvoir Yo Malgani maz je rappe comme avant T'sais pas TF cest les meilleurs ah bon Abonne toi si tu veux savoir Fais pas style que tes pas au courant Quon est hostile au gouvernement Dernière heure de ta vie Malgani je suprvise le sniper qui t vise Violeur ministre Violence maquillée dans la rue Rien à changé depuis Temps Mort Depuis lépoque de Booba Cash Flow Sur Spotify pour le braquage Reste pas sur scène ou tu bé-tom Jarrive toujours le dernier Et je repars en premier J'suis au coup franc, cest en lucarne Et je fais même pas de célébration Y a 3 zér a laffichage et tu retournes au rond central Et tu mettras un filet entre les jambes pour les petits ponts J'suis promu, tas des promesses Tes relégué, je suis renégocié Cult Si je claque soon Les médics rattraperont mon âme au lasso Ouais, ce monde est lassdeg Loyal comme Lassie mon G Je pull up dans back dacide Pour ceux que jestime en bas de la street Hell no, claquer un SMIC dans des fake streams Fact, ta musique est factice Live by yo rep, je fais pas de diss si je dis que je dislike ton délire Jdrink ces Mc's comme Fanta Tu nes quun junkie sous fantanyl Cest fun je review ta clique, jsuis Fantano Ton antonyme, accroche toi à ta ventoline Jvais te faire courir, jsuis coach sportif Quand j'kick, les vitres se brisent Askip cest bon de ventiler Faut aspirer la concurrence Le Cult est magnanime Cette shit est rare comme feater avec Malgani Je crois que je perds la tête Je crois que je perds la tête Je crois que je perds la tête Pull up et je perds la tête Pull up ils se trompent de tempo Jsuis dans la city yes Jsuis dans les adlibs woha Ouais je sais quils nous méprisent Fais le donc ouais ouais pour voir Si le taf éteint mon esprit Le rap a un vrai pouvoir Pull up et je perds la tête Pull up ils se trompent de tempo Jsuis dans la city yes Jsuis dans les adlibs woha Ouais je sais quils nous méprisent Fais le donc ouais ouais pour voir Si le taf éteint mon esprit Le rap a un vrai pouvoir</t>
         </is>
       </c>
     </row>
@@ -4827,12 +4827,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Animals</t>
+          <t>De mauvaise augure</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>J'aurais voulu être un artiste Mais je suis illicite, lyrics explicites, puriste fonskar au shit, anti-lepeniste Explosif, gore comme tous ces terroristes Porc, suce-moi la bite pour mon ghetto français Qui abrite mes potes hardcore, ceux qui se lèvent juste pour pisser Dans cette jungle urbaine, c'est dingue mais dans ma ur, man Les petits shootent sur des seringues et tombent pour un Calvin Klein Envahir, voilà de quoi m'accuse le FN Pourtant j'ai beau leur dire que je désire qu'un 12 et un pack d'Heinekein Donc j'engraine les chiens, chiennes à s'unir Afin de punir leur empire dans lequel on n'a pas d'avenir À part pourrir en taule à cause d'un kilo de teush Ou à cause d'un îlotier se prenant pour Starsky et Hutch Voici le crew qui pé-ra, rime, viole, et cetera Tu connais, à des milliers de bornes tu nous verras Paye en liquide et tu nous auras tasse-pé Tu nous aimeras si t'aimes le liquide comme Lil' Kim Flow Beretta vendu avec une barrette Le son qui te frappe dans la tête avec une barre c'est dar Et quelques putes veulent cohabiter dans le son avec moi ou ma clique Mais tout ce que tu vas faire, c'est un featuring avec ma bite Je récite le chant des civières Cet hiver c'est la merde, je vois tous les crews lestés au fond d'une rivière Moi j'ai pas une voix de miel, j'ai pas d'e-mail Je torpille l'industrie, je pille, fonctionne à la Master-P Au nom de mes animals, je crée le scandale, en fait je pollue comme Total Tous ces élus à deux balles Car on aura que-dalle, autant transporter de la dope dans le cul d'un cheval Pour réinvestir dans le hip hop Animals, je crée le scandale, en fait je pollue comme Total Tous ces élus à deux balles Car on aura que-dalle, autant transporter de la dope dans le cul d'un cheval Pour réinvestir dans le hip hop J'veux tout niquer dans l'industrie du disque avec des lyrics dits stricts Kicker l'arbitre, récupérer tous les titres Dealer ça m'intéresse ap, je préfère me faire du fric dans le rap Sans baisser mon froc vu que des baltringues y'en a en vrac J'ai pas envie qu'une bande de tainps me braquent Pour mon fric ou les lyrics que j'éclate Je veux que mon rap se vende à 4 millions d'exemplaires Et mettre official Mass, Ibrahim, Jean-Pierre Il me faut de la maille avant qu'on m'enterre J'ai pas envie qu'une bande de bouffons me fassent leurs putains de commentaires J'ai que 16 piges, je suis juste un môme Qui veut voir la concurrence avec de putains de gros hématomes Eh ouais c'est ça, on va tout péter C'est pour les frères qui toute l'année se mettent à criqueter, Illicites dans mon quartier À tous ces porcinets, ces garçonnets qui comme au ciné Dégainent leurs guns pour pouvoir te canner Et ils se prennent pour des gros bonnets mais moi je leur pisse dessus Et après avoir pilonné, man, je viens tamponner LIM sur leurs faces de fions Car c'est violent comme le Front Russe donc handek à ton gros ventre rond Y paraît que Paris sature, trop de sons, beaucoup trop sont 92i caricature mais je suis beaucoup trop sombre Écoute la chanson, fiston, je mutile rien d'inutile Moi je gagne, amateur de champagne, arracheur de pagnes Je suis arrivé dans le son, retrace la guerre dans mes morceaux Et si je me fais canner, pas besoin d'en faire une chanson Déconseillé aux gens dits sensibles Voyou tu peux sé-dan sur mon son ou celui des dissidents Pas d'ici, enfants du ciment, pas besoin de te faire un dessin Par les décibels on décime Un truc à la Mesrine ghetto genre grand Dakar ou la médina Khoya balance un peu de chichon dans ma chicha J'écris des 12, des 16, beaucoup décèdent, garçon ! Donne-moi à boire, j'veux la gloire sans la rançon Au nom de mes animals, je crée le scandale, en fait je pollue comme Total Tous ces élus à deux balles Car on aura que-dalle, autant transporter de la dope dans le cul d'un cheval Pour réinvestir dans le hip hop Animals, je crée le scandale, en fait je pollue comme Total Tous ces élus à deux balles Car on aura que-dalle, autant transporter de la dope dans le cul d'un cheval Pour réinvestir dans le hip hop Animals, je crée le scandale, en fait je pollue comme Total Tous ces élus à deux balles Car on aura que-dalle, autant transporter de la dope dans le cul d'un cheval Pour réinvestir dans le hip hop Animals, je crée le scandale, en fait je pollue comme Total Tous ces élus à deux balles Car on aura que-dalle, autant transporter de la dope dans le cul d'un cheval Pour réinvestir dans le hip hop Ouais, c'est pour mes frères de la rue Malekal Morte, Lunatic, Moussa, hein L.I.M, autant transporter d'la dope dans le cul d'un cheval1</t>
+          <t>Les négros veulent prendre ma place, ma tek, mes rimes au plasma Mec on est àl quoi wesh arrête de m'check Le choc débute et y'aura pas qu'moi, mac les putes à chaque beat J'déboule et puis ça chuchote comme au parloir 92 pour le fief, I pour injection Ma génération, shit, violence et sexe Les lois, les droits, j'me les donne, pour m'aider, j'demande à sonne-per B20BA02R À part aux frères qui shootent les harkis Veulent avancer, squattent le parking, s'méfient des s'ringues vides Ç'sra la tabaski si tu m'invites j'repars jamais les mains vides Official depuis les premiers Starsky J'suis différent, premier qu'en sport et en chant Délinquant, rentre à l'heure où les oiseaux chantent Pas méchant mais nocif, franchis pas nos sites Évite un génocide, on rate jamais nos cibles Mon arrivée, violemment annoncée Du zoo, de la zone arrive un poison T'inaugures ma verge au cul, sur les nerfs de mauvaise augure J'm'endors avec ces putains d'oiseaux J'te raconte que c'que je connais, ça va du bled à ma queue T'étonne pas si c'est la même Si c'est la merde, avec un peu ou beaucoup d'pesos La même chose, loin d'être parfait, ne jamais cracher dans mon mafé Fais c'que tu sais faire, fermer ta gueule, parler dans mon dos Essayer d'prendre les commandes en suçant mon commando Usé par les mauvaises langues mais rusé j'use De la risée pour t'arroser si tu veux juger bouge J'suis l'MC scolarisé, change mon instruction en polar Et tu savais qu'j'arrivais depuis qu'tu suçais l'pouce Bon écoute, j'avoue si j'pouvais tout r'faire J'niquerais les girophares, Yaye j'essuierais tes joues J'porte le fer, j'change de flow, j'change de putes, j'change de puces J'change de conso, donc change de but Mets pas ton string dans ma sauce, putain on mange pas l'même riz Essuie le sang l'urine et descends du ring J'suis différent, premier qu'en sport et en chant Délinquant, rentre à l'heure où les oiseaux chantent Pas méchant mais nocif, franchis pas nos sites Évite un génocide, on rate jamais nos cibles Mon arrivée, violemment annoncée Du zoo, de la zone arrive un poison T'inaugures ma verge au cul, sur les nerfs de mauvaise augure J'm'endors avec ces putains d'oiseaux J'suis différent, premier qu'en sport et en chant Délinquant, rentre à l'heure où les oiseaux chantent Pas méchant mais nocif, franchis pas nos sites Évite un génocide, on rate jamais nos cibles Mon arrivée, violemment annoncée Du zoo, de la zone arrive un poison T'inaugures ma verge au cul, sur les nerfs de mauvaise augure J'm'endors avec ces putains d'oiseaux2</t>
         </is>
       </c>
     </row>
@@ -4844,12 +4844,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Tatouages de Booba</t>
+          <t>B.O (Banlieue Ouest)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Visage 7Cou 45 Poing levéTorseAbdomen Lion de Juda Bakel City Logo Lamborghini Marche ou crève 0.9 PortraitBras Gauche Drapeau If you can't find something to live for, find something to die for IZI LIFE RatBras Droit Tête de lion Seringue B2 Zoo PureDos 21 Century Pendu Panthéon Tête de mortMains Maître Yoda Fast Life6</t>
+          <t>Je vais te dire, je suis pas une star, pour mourir il faut qu'une balle Détesté, pour m'faire tuer il faut qu'une barre Même à crédit boum, le bruit de mon son Cool que dans ma base, roule que des gros joints de case On va tous revenir ici, bilaye Je vous l'avais dit que les vrais savent, Ousmane, HLM 3, je crois Les colons nous l'ont mise profond À l'envers on va leur faire, mate ici ce que les khos font Du dégoût pour mes fils de Kédougou et Rufisque C'est pour les rues de mon bled sur disque Dix sur dix mon pays, mon perso Et les toubabs veulent arracher l'fusil d'mon berceau J'ai un pied dans la merde, un pied dans la mosquée Bousille la rime au Uzi, 92i B.O, Banlieue Ouest, négro Des holsters avec des micros, ils croient qu'Paris c'est Sarajevo Pourquoi ça gaze autant ? Chez nous y a pas l'OTAN Alors si y a la guerre, ça va durer longtemps Je suis là pour représenter les gars qu'ont pas le temps de plaisanter Ali, Brahms, Mala, Shepe, la marijuana One five one, dingue est la dinde Kho, c'est du béton, c'est de la jungle Maintenant ils veulent nous stopper pour nos lyrics explicites Codées dans des raps illicites, stockées Dans nos albums que récitent nos jeunes, c'est de ça qu'ils flippent Que nos messages passent et que leurs mensonges s'effacent Place mes rêves, mes solutions Ma révolution, pas de trêve Chaque jour me lève avec la victoire pour résolution À celui qui la donne et la reprend va toute ma dévotion Pas de doute naturel MC Me fie à mon instinct, à mon émotion Dans un État où la justice manque d'équité Qu'ils retiennent que tout système a une faille, sang et chrysanthèmes dans les J.T Les images défilent Apocalypse dans les villes, y a pas que du calypso dans les îles Crack inhalé jusqu'à nos allées Les virus s'abritent dans la chair des bêtes L'esprit malin, dans la tête des hommes installé 667, 92i, 45 kho Qui a dit que la rue s'est adoucie ? Ici les putains veulent du rap doux T'auras qu'la boue qu'il y a sur mon doo-rag Du rap avec mon double, mon quartier, mon département 92 troublant, clan des man appartenant Je double, on est venu récupérer notre dû Dans vos rues on va faire couler votre pus Chaotique, des lyrics à la rythmique Le funky son qui met des front kicks Pour Oumar et le Dorse coincés au bloc, trafic, la vie oblige Dans les bacs, ma vie oblique tracée au Bic C'est ma nature, tout niquer sans faire de ratures Interdit aux bâtards, fait monter la température B.O, Banlieue Ouest, négro Des holsters avec des micros, ils croient qu'Paris c'est Sarajevo Pourquoi ça gaze autant ? Chez nous y a pas l'OTAN Alors si y a la guerre, ça va durer longtemps Je suis là pour représenter les gars qu'ont pas le temps de plaisanter Ali, Brahms, Mala, Shepe, la marijuana One five one, dingue est la dinde Kho, c'est du béton, c'est de la jungle On m'a dit il pour il, dent pour dent, j'ai répondu deuil pour deuil et sang pour sang, âme pour âme Mais j'ai puisé ma force dans le pardon A.L.I., ainsi est ma vie T'es des miens, en silence marchons Ce que je détiens t'appartient sauf les erreurs, passons Mon son la pression mes textes l'avertissement De ce monde, défie le mauvais il sans talisman Distant de tout ce qui pourrait pourrir mon existence Mon combat, ma lutte, ma cause, ma résistance Près de ceux qui refusent l'oppression De par ma parole diffuse ma vision, rimes sans poésie Rap, musique réelle Comme les bavures et les expulsions, ennemi public Dans la mire toujours la même silhouette Vengeance, ceux qui la souhaitent ne manquent pas Attends-toi à plus d'un attentat, ici la France Loin des ambiances pétards-14 juillet Quand c'est trop tard et qu'y a du sang à essuyer C'est sur le miens que les médias focalisent Apocalypse immédiat, ni basques, ni corses Ma clique revendique à visage découvert Microphones ouverts, et nos actions s'amorcent, féroces C'est pour mes gens aux instincts de fauves Lions de Judée et Black Panthers, faut que ça rugisse dans les cages Mérogis et 92 Nanterre A.L.I., Booba, Lunatic On t'serre, on t'saigne B.O, Banlieue Ouest, négro Des holsters avec des micros, ils croient qu'Paris c'est Sarajevo Pourquoi ça gaze autant ? Chez nous y a pas l'OTAN Alors si y a la guerre, ça va durer longtemps Je suis là pour représenter les gars qu'ont pas le temps de plaisanter Ali, Brahms, Mala, Shepe, la marijuana One five one, dingue est la dinde Kho, c'est du béton, c'est de la jungle</t>
         </is>
       </c>
     </row>
@@ -4861,12 +4861,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Téléphone</t>
+          <t>Banlieue</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Oh-oh-oh, oh-oh-oh-oh Oh-oh-oh, oh-oh-oh-oh Oh-oh-oh, oh-oh-oh-oh Money Gang Oh-oh-oh, oh-oh-oh-oh Quando correvamo nel blocco Grr, quando sognavamo 'sti soldi Grr-grr Mi sa che eri ancora un marmocchio Eh, ancora guardavi i cartoni Per nessuno mi sono mai messo in ginocchio No, no, però ho la tua tipa a carponi Che mi dice Sei te che voglio Grr, questi qua non hanno i coglioni Tu-tu-tu-tu Non ho raccontato una storia, nah, eh, sai che passeremo alla storia Grr, ah, eh Duecento all'ora nella rotatoria, il mio fra' vola su una ruota sola Troppo famoso, mi serve la scorta, devo stare all'occhio, mi vogliono morto 'sti figli di troia Pss, pss Ti porto su Marte, so che non ci sei mai stata Non ho grammi nelle scarpe, ma ho ancora le scarpe per strada Lei mi tira dalla collana Io non so fare piano, no, non so fare altro In giro alle tre, dal Moncler squilla il téléphone Via dalla cité su una Range o un'Aventador Lei ripete a me Sono persi quelli come voi Io so solo che soldi e donne vanno e vengono In giro alle tre, dal Moncler squilla il téléphone Via dalla cité su una Range o un'Aventador Skrrt, skrrt, skrrt, skrrt Lei ripete a me Sono persi quelli come voi Io so solo che soldi e donne vanno e vengono Eh, eh Tu marqueras pas ici, d'mande à Luigi Buffon J'suis au strip club, make it rain en bitcoin Dans la Fe'-Fe', j'disparais comme Spaggiari Passagères Greta Garbo, Mata Hari Elle est trop love, elle est folle, ciao puta, yo me voy Le game m'appartient, j'ai la couronne, mon allié italien au téléphone Bruit d'gaz, grenade hilarante, libère peroxyde d'azote Quand ça f'ra toc-toc-toc, Glock sur tempe, on verra qui radote Le gars n'est pas content, il dit que le sang m'va à merveille Si tu continues, dans pas longtemps, on verra ta cervelle Aucun enfant d'putain, parle pas glaive à la main, on commémore Si y a la p'tite bête dans le bail, wallaye, on est morts J'l'ai emmené s'faire les ongles, j'crois bien qu'j'suis tombé love d'l'esthéticienne Au lieu d'refaire ton cul, tu d'vrais refaire ton cur artificiel In giro alle tre, dal Moncler squilla il téléphone Via dalla cité su una Range o un'Aventador Lei ripete a me Sono persi quelli come voi Io so solo che soldi e donne vanno e vengono In giro alle tre, dal Moncler squilla il téléphone Via dalla cité su una Range o un'Aventador Skrrt, skrrt, skrrt, skrrt Lei ripete a me Sono persi quelli come voi No, no Io so solo che soldi e donne vanno e vengono3</t>
+          <t>Ramène d'la pure ou casse-toi ! Viens pas vendre ta came ici B2oba gravé sur le missile Afrika Bambataa m'cherche pour homicide, écoute pendant qu'ton string sèche Fluide est mon clan, l'insigne je pine sans temps d'arrêt ! Je vis sur le cran d'arrêt, me demande pas à quoi sert une maison d'arrêt Les jaloux disent qu'on meurt bientôt à ce qu'il parait Ma vie, de nombreux périples Je prends le fric des MC qui à chaque sortie du périphérique Appel à tous les gorilles faut qu'on s'alourdisse Je prépare des trucs horribles dans ma catégorie On veut me tester sur mon terrain sans aucune décence Écrase pas ton joint à la pompe à essence Il est toujours minuit à ma montre et mes lyrics puent le tiers monde, kho C'est B2O ne représente pas ceux qui plaisantent De la banlieue on connait les ficelles, les strings ficelles Mafia K1fry 94 official ici il n'y a pas d'fashion Victime on t'arrose le khosss à la cityne Rabzouz avec des grosses coronès, c'est la B.S c'est bim bim Les stupéfiants c'est à Dam, un double casse place Vendôme C'est évident comme de la coke dans le blaze à Van Damme S'en prendre à l'oseille de lÉtat, collé un pain de plastique sur un fourgon On fête ça le soir au bourbon à la Smirnoff Fait tourner un semi remorque, on a la flemme d'aller au boulot Comme les chard-clo parano dans le narco On baise tous Sarko, Camille, Bourgogne, Balzac, Le square La commune, Lucien, les combattants et couzi 113 c'est pas le chiffre d'un compte bloqué en sse-Sui Depuis qu'on a la khrouna, tous rongés par les soucis ! Tu croirais qu'on sort d'un camp roumain, regarde nos chicots cousines ! Je suis juste la relève tu as sûrement dû voir les anciens de ma tèce dans Ronin ! On se bousille on a trop chinés, chicanés neutralisés les gueulards Les sacoches de touristes bourrés de dollars ! La banlieue c'est dangereux t'as raison de te chier dessus T'es dead, KO Mafia k1fry 100-8 zoo On a quitté l'école trop tôt, poto, on arrive avec nos bites et nos couteaux ! C'est la B.S B.O Ça se passe de l'autre côté de la rue, celle-là c'est pour Sarko Si le ghetto a des bras c'est pour faire des Bracos Fiché stéréotype en mono stéréo, négro C'est pour les têtes brûlées ghettoïsé depuis le préau Contrôlé à chaque feu pas déguisé pour rentrer en boîte 9 millimétrés pour rentrer entier, petit la rue c'est fatal ! Bloque pas sur les ondes hatai ! Ça passe sur Sky ou pas c'est 100 racaille Vitry 94 tard le soir on smoke, tu ne me crois pas soit tard on moque C'est pour les fous du volant comme Mahmoud ! Un gros doigt pour les rassèss d'l'État pour ceux qui sont au hebs Aux auxis, au proxo au p'tit frelon qui aime boxer, mettre des crochets Au toxo qu'ont pas encore décroché, mesure le taux de risques Hall 13 y'a pas drouchette, vidéo amateur X KX avec des gros pots de compète Mon nom traine dans les enquêtes, on traque les sons de bootlegs 9.4 9.2 la Fnac encerclé comme Arafat Nos lyrics n'ont pas de règles, les tiens saignent de la chatte ! Ta carrière tient au fil d'un tampax qu'est-ce qui t'a pris ? On a le son qui met la pression, tu as le son qui tapine ! Hé gros fais pas le con si tu as pris ta kalash Respect aux frères qui font la salat, O.P. depuis les premiers Scal-Pa Booba Rim'K vivent dans une escalade de violence En banlieue, dans le rap, et même en bas de chez toi on se balade La banlieue c'est dangereux t'as raison de te chier dessus T'es dead, KO Mafia k1fry 100-8 zoo On a quitté l'école trop tôt, poto, on arrive avec nos bites et nos couteaux ! C'est la B.S B.O La banlieue c'est dangereux t'as raison de te chier dessus T'es dead, KO Mafia k1fry 100-8 zoo On a quitté l'école trop tôt, poto, on arrive avec nos bites et nos couteaux ! C'est la B.S B.O1</t>
         </is>
       </c>
     </row>
@@ -4878,12 +4878,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Signé</t>
+          <t>Marche ou crève</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>C'est pas l'rrain-té qui m'quitte L'rrain-té qui m'quitte Denza C'est pas l'rrain-té qui m'quitte C'est pas l'rrain-té qui m'quitte, c'est moi, j'quitte le terrain J'quitte le terrain T'as cru t'étais quelqu'un ? T'as cru t'étais quelqu'un ? T'allumes, on t'éteint T'allumes, on t'éteint On arrive en 'ghini On arrive en 'ghini, on revient du D1 On revient du D1 Les grands tuent les petits Les grands tuent les petits, comme Abel et Caïn Comme Abel t Caïn J'suis sur l'Prometheus J'suis sur l'Promethus, pas l'tapis d'Aladin Pas l'tapis d'Aladin Neuf mois dans l'utérus, dans l'cerceuil à la fin Renoi surdoué Surdoué, j'ai rien d'mandé J'ai rien d'mandé Point A, point B Point A, point B, j'suis dans l'blindé J'suis dans l'blindé Ni plata ni plomo Ni plata ni plomo, 's ont fait que parler 's ont fait que parler J'pèse comme Coco J'pèse comme Coco, Gad Elmaleh Gad Elmaleh Solo à vie Solo, jamais marié Jamais, jamais La monogamie La monogamie, c'est quand t'es fauché Pas récompensé comme un tirailleur, ce qui est dû n'se réclame pas On m'a toujours dit d'aller voir ailleurs, j'suis revenu vainqueur à chaque fois Pas récompensé comme un tirailleur, ce qui est dû n'se réclame pas On m'a toujours dit d'aller voir ailleurs, où mon passé ne repose pas C'est signé, c'est signé C'est signé C'est signé, c'est signé C'est signé C'est signé, c'est signé C'est signé C'est signé, c'est signé C'est signé Tire pas sans gants Tire pas sans gants, pas vu, pas pris Pas vu, pas pris Baise-les avant Baise-les avant c'qu'on m'a appris C'qu'on m'a appris J'te laisse ma place La place au Paradis Au Paradis Moi, j'reste ici Ouais, j'reste, une vie m'suffit M'suffit J'ai pas d'plan B, j'peux pas m'planter M'planter Drapeau levé Levé, j'peux pas rentrer Dos argenté Dos argenté, lien d'parenté Parenté Ounga, ounga, c'est pour de vrai C'est pour de vrai Beaucoup d'bourbiers, souvent risqué Si j'en parle pas Si j'en parle pas, y a pas d'combat Nan, nan Tous équipés Tous, tous, mes coéquipiers Coéquipiers On reviendra pas, c'est dans l'contrat Pas récompensé comme un tirailleur, ce qui est dû n'se réclame pas On m'a toujours dit d'aller voir ailleurs, j'suis revenu vainqueur à chaque fois Pas récompensé comme un tirailleur, ce qui est dû n'se réclame pas On m'a toujours dit d'aller voir ailleurs, où mon passé ne repose pas C'est signé, c'est signé C'est signé C'est signé, c'est signé C'est signé C'est signé, c'est signé C'est signé C'est signé, c'est signé C'est signé C'est signé, c'est signé C'est signé, c'est signé C'est signé6</t>
+          <t>Yeah... Tu veux ma Air force limitée? Passe à Boulbi je t'arrange Drapeau du Galséné et les semelles transparentes Cuir rouge comme les Bloods de L.A Yoda te le dira Mieux que la tienne elle est Y a pas photo, Au micro Yaffa Elie Super violent, je rappelle aux vétérans la Tchétchénie La vie est une chienne... j'ai un pit dans le veau-cer J'suis international... t'es number one à Auxerre Marche ou crève, créé pour le bitume Ma force te met dans le zef Mes khos font du Jujitsu pour avoir les clefs Passe à mon store j'ai les plus beaux tissus J'monte sur le ring, dilate tes pupilles Tout le monde en string, 92izi dans le building J'monte sur le ring, dilate tes pupilles Tout le monde en string, 92i est dans le building Marche ou crève, gagne ou sois vaincu Marche ou crève, gagne ou sois vaincu Ma-Marche ou crève, gagne ou sois vaincu Sombre est l'attitude, sombre est l'individu Marche ou crève, gagne ou sois vaincu Marche ou crève, gagne ou sois vaincu Ma-Marche ou crève, gagne ou sois vaincu Sombre est l'attitude, sombre est l'individu J'marche à Macys aux Galeries Lafayette sous fat laces Milliers d'euros en poche, faut-il vraiment que je te le précise? J'frappe le Japon, la terre est mon boloss West Coast, locos, holocauste intramuros Je laisse le ter-ter en jachère Toujours propre car nettoyé au Kärcher Marche ou crève, gagne ou soit vaincu Sombre est l'attitude, sombre est l'individu Frais de la casquette aux baskets J'vais sur les Champs, acquière paire de Nike Air Je mange du ferme, tu manges au Quick K1fry patriotique distribue chaotique low kick J'ai le meilleur coton à force d'être dans le champs Je suis sur le peloton, alcool brun dans le sang Faut que les rappeurs arrêtent d'émettre Ils ont laissé des gouttes de pisse sur le trône comme dans les toilettes des mecs... Biatch! Marche ou crève, gagne ou sois vaincu Marche ou crève, gagne ou sois vaincu Ma-Marche ou crève, gagne ou sois vaincu Sombre est l'attitude, sombre est l'individu Marche ou crève, gagne ou sois vaincu Marche ou crève, gagne ou sois vaincu Ma-Marche ou crève, gagne ou sois vaincu Sombre est l'attitude, sombre est l'individu T'as le cul cloué à la cité et tu voudrais qu'on partage J'ai pris mon flingue et mon gilet négro j'ai fais mon paquetage J'arrive toujours équipé lourd comme ça j'ai pas besoin dêtre aimable Rendez vous au 2eme sous sol pour qu'on s'arrange à l'amiable C'est K.O.2P, K pour le O pour le 2 pour le P Ça fait K pour le O pour le 2 pour le P Ça fait K pour le O pour le 2 pour le P Ça fait K pour le O pour le 2 pour le P Ça fait.... Yeah... Ed Banger, Tallac Records, B2OBA 92izi, Izi-Plizi, ha ha si si Marche ou crève.. Marche ou crève... Ma-Marche ou crève.. Sombre est l'attitude, sombre est l'individu... K1fry patriotique distribue chaotique low kick...3</t>
         </is>
       </c>
     </row>
@@ -4895,12 +4895,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>À jamais</t>
+          <t>God Knows</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>J'fais partie des zéro zéro zéro zéro zéro zéro zéro zéro Un pour-cent à jamais rapper comme Boob' et Ill Jamais j'obéis mais, Disiz, où est-il ? Jarrache des mères en haut débit, font des gags comme Boule Bill Appelle-moi Flow-zilla, ou m'appelle pas, j'm'en bats les couilles Tu vas la sentir passer comme la main pendant la fouille Hum-hum, léthal est le touché rectal Disiz La Peste fut et le game s'infecta J'suis un kaïju échoué vers Okinawa Un tard-bâ blancorenoi, comme ma copine Awa Depuis le Walkman Aiwa, toujours gagné mes one à one Vous serez toujours mes Padawans, tu m'la feras jamais, à oi-m Je sais quand on me pompe, j'ai repéré tous tes flows Tu les fais tous douter fort, mais tu sais que tout est faux Dans le on-s, j'suis un monstre, ils ont tout l'temps leurs menstru' Quand j'enfante l'instru', je suis monstrueux Et je tue depuis des lustres, ma balistique est russe Passé d'enfant des rues, mère seule vêtue de frusques Enfant de foyer, choyé par une vie brute Gosse irradié par la rue dans la zone du secteur sud Tout ça a fait de moi un mutant Akira Un mélange explosif, je suis Disizilla Je suis Disizilla Disizilla Zilla, zilla, zilla, zilla Zilla, zilla, zilla, zilla Disiz-zilla, zilla, zilla Disiz-zilla, zilla, zilla Sorti des océans, mutant sans pitié Ma rage est incommensurable, j'ai littéralement tout niqué Sorti des océans, mutant sans pitié Monstre froid, hun, mentalité J'ai écrit deux romans, dis-moi, qu'est-ce que vaut un seize ? Vous voulez tous niquer vos mères, les rappeurs sont dans l'inceste Cent pour-cent Disiz La Peste, c'est moi l'plus fou dans la pièce Respect éternel, jamais mendié à la tess' J'ai joué Othello, dis-moi, qu'est-ce que vaut ton clip ? J'ai écrit douze albums, dis-moi, qu'est-ce que vaut ton feat', bitch ? Fuck ton feedback, gros, personne me valide J'ai pas eu d'père, pas de padre, j'ai encore moins de king J'n'ai qu'un Dieu et une mère, deux princes et trois princesses C'est que ma rage et mes textes qui m'ont sorti de la hess J'suis un dragon puissant, orgueilleux, j'perds jamais la face Et, si j'dois me venger, woullah, j'perds jamais ta trace Redoutable, impossible à abattre le temps, c'est mon srab Bien sûr que je suis beau, j'fais même pas mon âge, c'est de l'art Fuck l'humilité, vu qu'vous n'la respectez pas J'vais t'montrer comment on fait, vas-y, mets-toi derrière moi Tous impressionnés par la largeur de mes pas Le sol tremble quand je chante, la foule dans tous ses états J'suis le kraken Cthulhu, la concu' a la berlue Si jamais j'te loupe, MC, cache-toi dans les Bermudes J'te nique en interlude, en interview j'te termine Lèche ma Moby-dick et, votre game, on dirait Interville Renoi qui colonise renoi, et pire qu'Hitler Bande de Compaoré, le zgeg à King Kong dans vos mères J'suis sorti des mers, des abysses, des océans Où les tests furent nucléaires, des missiles entre les dents J'suis un mutant, enfant irradié Godzilla Produit d'mon environnement, appelle-moi Disizilla Zilla, zilla, zilla, zilla Zilla, zilla, zilla, zilla Disiz-zilla, zilla, zilla Disiz-zilla, zilla, zilla Je suis Disizilla</t>
+          <t>Yeah M.A.I.R Yeah, huh I too wanted to be like them Plate of pasta, backpack, back to shoplifting one Rap Mag When I'm out, I remember to be on the look out, how crazy I was told You have to adapt, I didn't get that I just filled the Boule Noire, only God knows what awaits According to rumors, I could blew up next I help my mates so I play my ace I'm this close to pull, so close to the trigger but keep calm My palm on each mics, legendary like Shaq Mike I was told Be pragmatic, I didn't get it Right there, that's illegal music, he pumps this guy vacuums I always gave love but thy waste it I said I listen to the has-beens, th same who revolutionize The moon's children flying over the sun At the moment, I make music all day long I gotta get bread, à la Roc Nation before I fall off Stop with your if, fusses, add six decimals huh I do maths and suck at drawing Ok thanks for the support and thanks if you a fiend thanks Bravo Mairo and congratulation ok I listen to rappers and use quotations This shitty world will show you one thing If they extend their hand, that's with reluctance But if you got grants or are out of jail And you're a lost soul, come here we'll welcome you Come here let's get you a seat We'll show you, teach you everything I'm not even at 30 Yeah, han yeah Yeah Life is a punchline, death another one Free world and piracy, I think they didn't get our approach I rap and I'm popular, you won't my ass Shit's simple like ABCDE, I won't lower my eyes We'll soon evade and lighten the game It's always the same story, prolly one black guy that gave birth to rap huh And white people are pimping it Heart is hurt but the tacos was au gratin So I'm great as long as all of us stuff our face Witches scare me like Chewbacca Like L and Booba because to each their fears and the DJ plays my shit With my dad I acted stubborn, I didn't listen, I took a slap But his war memories, I did listen, I took a slap I'll move my ass for Eritrea before I'll enroll against the melting of the ice caps I'm the student sitting in the back, it's better they move out the way fast The time for my advent has come and they won't be able to ruin it</t>
         </is>
       </c>
     </row>
@@ -4912,12 +4912,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Leo Messi</t>
+          <t>C’est nous la rue</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Enzo Beats, Beats, Beats Faites rentrer Leo Messi Quand on n'aime pas, on tue quand on aime, on châtie Souviens-toi des vrais quand ils seront partis Pas de signal, j'suis dans l'Serengeti, règne animal le seul réel défi Le monde est fini disent les génies mais ici, c'est Paris, on a Leo Messi Donc qu'est-ce que le monde ? Je vous le demande, la chatte au big-bang, c'st carré dans l'triangle Noir et blanc comme cs p'tites notes de piano pleines de tristesse, non-binaire est l'agente La piste est noire, j'descends pas, j'reste là-haut, parle pas de tire-fesses, de remonter la pente Bienvenue en eaux troubles, t'es en plein d'dans, la barbe est noire, quelques poils blancs On fleurit en hiver, fuck le printemps, F.U.T.U.R, demain, c'est maintenant Gorée, c'est l'île, chien au chenil, maître pendu, pavillon noir, que des papillons, pas l'temps pour les chenilles Snappe pas ta bite, caleçon sur les chevilles J'vais les crever en silence, demande à Maka, j'vais les dynamiter sans dire Allah u akbar Dans mon frigo, que du jus de bagarre, mon ciel est bleu comme les yeux de Ragnar Rate-pi chez les DZ jusqu'à Dubaï, Aulnay, Phuket, Kao Pad Thai J'appelle DBZ, Tao Pai Pai, t'as pas ton pare-balles, ciao, bye, bye Lionel Messi Ici, c'est Paris</t>
+          <t>Pour ceux qui s'torchent avec la main gauche et d'l'eau Pour ceux qui s'torchent avec la main gauche et d'l'eau Pour ceux qui s'torchent avec la main gauche et d'l'eau Ouais gros, c'est cru, pour les braves réglos En direct du 92, 94 cousin Envoie ton pit à l'hosto, black roloto Wesh poto! Holocauste dans nos locaux J'vole, vends du tos-ma parce que j'perds au loto La banlieue c'est dangereux, t'as raison d'te chier d'ssus La police n'y peut rien, le rap part en cette-su Moi j'sors des CD's quand j'veux, vesqui, marrache en jet, resquille C'est Lunatic, cru, 45 Scientific J'suis un V10 à mon compteur, spliff, furtif Comme une bastos en VR6, le moteur siffle Mon avenue c'est couloir d'la mort, Vitry Histoire de drogues ou d'fêlés qui sort les outils Warriors rap local, histoire entre gros, handek J'ai un spliff et un gun chargé comme un 504 break Postiché à mort comme dans Point Break Le loyer c'est 30 barrettes, nous c'est bétonné a mort Dans mon équipe y'a qu'des te-traî Même moi j'me méfie, alors frime pas avec moi, reste en retrait Pas le temps de passer des extraits, c'est tout d'un coup À demander si on a pas fait exprès d'mettre tout dans l'trou Couleur rouge vif, tomates concentrées comme le de Chouara Chouara ton cuir le bouffe sous tes yeux ouais j'suis un rat Au micro un putain de calibre trop lourd pour un bras Un canon scié incorporé tah la Cobra Pour ceux qui s'torchent avec la main gauche et d'l'eau Pour ceux qui s'torchent avec la main gauche et d'l'eau Pour ceux qui s'torchent avec la main gauche et d'l'eau Ouais gros, c'est cru, pour les braves réglos Eh poto, comment ça ils viennent de la rue ? C'est nous la rue ! Kho c'est nous qu'on arrose, c'est nous la ruse Comment ça on rentre pas ? C'est nous qu'on flingue C'est nous qu'on écoute, c'est eux les baltringues Le rêve américain, rien à foutre, africain jusqu'au trou d'balle International, comme la one et l'trafic d'organes En balade avec Marie-Jeanne et Jack Physical music mais ça reste oral, ça en reste au rap Coupe le souffle comme un gauche-droite dans l'thorax Au bord des larmes comme lors dun décès ou après la lecture d'une sourate Gamberge bonhomme, c'est la rillette ou l'vice Avec nos albums on fait chuter l'cours du cannabis On t'découpe, on dessoude, pour des sous En découdre avec la justice, messieurs d'la cour, j'vous baise tous Dernier couplet sorti d'ma cave, mon usine Que des faits réels genre attaque de fourgon au uzi Gros foulek de Camille, j'aime pas m'hachem, c'est d'famille Ramène la technique comme Pelé ou comme Manu, mani Repars la queue entre les jambes Comme quand la police rentre chez les gens, on les sait tous peu intelligents Une tragédie, de la hiya dans la cabeza J'peux pas baisser mon jean, y'en a qu'aiment ça J'suis la corde et la poudre, y'en a qu'un qu'on vénère J'attire la foudre, j'fais pas trop d'concerts en plein air Pas d'Tchernobyl hein, c'est cru t'as vu, c'est la rue Prends l'escalier, moi j'suis l'bug de l'an 2001 C'est racailleux, y'a des skeuds des scuds, dans mon cahier hameçon Canon scié dans mon caleçon, c'est mort, ça y est Rim'k, Rohff, Booba, mets-toi un doigt, un p'tit négro défie l'État Et puisqu'ils vérifient les teints, jsuis baisé Alors j'étends mon plan dans les temps Pour tout péter d'automne en été Tu verras notre Merco dans ton rétro, des coups, des pleurs, et des cris Qu'on serait trop c'était écrit kho Jsuis des les charts, les chars, et dans les chattes bâtard On met des lames de rasoir dans ton écharpe Y'a que des mâles dominants, violence normale J'suis du parfum dans une grenade, c'est Boulogne tornade Ah c'est cru comme ton corps épluché, cas social fiché Tah les clichés d'banlieue à la télé en train d's'afficher Cracher sur l'éducateur, mon bavon endort le juge comme l'éther À travers les temps tranquille pépère, jsuis à des années-lumières J'vous entends crier, incendier les porcs sur l'bûcher, grillés À mon tour d'briller on doit s'fier à ma gueule dans le barillet Casse le délire comme la racaille à ton anniversaire Mais va t'faire baiser, j'suis trop lourd à la pesée, ton futur c'est mon passé Fais sourire les connaisseurs, pas besoin d'couronne, ni d'trône Ni peu, ni trop, fais sauter comme la nitro C'est pour les kahlouches, les arbouches, les manouches, les gars louches Hardcore meme quand ça galoche J'viens de la où les jeunes vont plus au placard qu'au jemma Hachek au parloir le shit, coffré dans l'zemah Une force de daron, fais saigner du nez avec une pêche dans le front InchAllah l'âme sur, toujours derrière moi même quand j'ai pété et qu'ça chlingue Vas-y j'contrôle, protégé contre l'sehour J'arrive sur scène avec une intro qui t'marche dessus en sautillant, en faisant le crawl Pour ceux qui s'torchent avec la main gauche et d'l'eau Pour ceux qui s'torchent avec la main gauche et d'l'eau Pour ceux qui s'torchent avec la main gauche et d'l'eau Ouais gros, c'est cru, pour les braves réglos Eh poto, comment ça ils viennent de la rue ? C'est nous la rue ! Kho c'est nous qu'on arrose, c'est nous la ruse Comment ça on rentre pas ? C'est nous qu'on flingue C'est nous qu'on écoute, c'est eux les baltringues C'est nous qu'on flingue C'est nous qu'on écoute, c'est eux les baltringues Pour ceux qui expliquent avec la main droite, aide-nous !</t>
         </is>
       </c>
     </row>
@@ -4929,12 +4929,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Me-Ca</t>
+          <t>Danse pour moi</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Animalsons On met les bolosses sur orbite Djé, Kopp dans le cockpit On croque biff', tu croques bites Tu vois c'que j'veux dire ou pas ? 92100, Dealer Capital Peu de trêves, que des luttes Grosse be-teu, grosse meute, peu de rêves, que des buts J'casse la baraque taâ la barre, c'est Hauts-de-Seine parasite Haschisch sans paraffine, 9.2.I. apparatchik apparatchizi Flow en titane pour twenty ten Le crâne dur, même après 5 ou 6 peines On vit la night, répond aux mots par un acte Obnubilés par la maille, 92 degrés Fahrenheit On paye nos bourdes cher, souffre, mange de lourdes peines Rois des coups bas, pour nos bouts de gras, arrache bouts de chaire C'est le hood, chef, Hauts-de-Seine bootlegs La délivrance coûte cher, on dispatche bouts de schmères B2OBA, escroc et scélérat Là d'où l'on vient, il n'y a ni photos ni caméras Personne ne vient à part pour per-cho de la me-ca On est més-cra, on ne prend que du she-ca On fait ce qu'on peut, on fait ce qu'on veut J'veux tout sans rien branler négro, tel est mon vu Et je fais de mon mieux, je fais de mon mieux Je fais de mon mieux, je fais de mon mieux Doigt sur le trigger, on ne m'approche pas comme un pit' Grosse bague en diamant sur le finger comme un pimp Malins comme des chimpanzés, heavy à la pesée Poulet braisé, personne défrisé dans ma clique Meufs à poil, weed, rails de CC dans ma suite Quand t'en auras marre de sucer biatch, prends la fuite 100-8 Zoo, ça va très vite Fast life pour les bicraveurs d'élite, izi Derrière les thunes, quoi qu'ils en disent, à vendre la mort comme un fumier Assassinent la rue, signent l'homicide des gosses que nous fûmes hier Farineuses montagnes, faramineux montants À ces baratineuses, n'associe pas mon clan Mon clan La réalité, son cinéaste La drogue pour parcourir le monde comme Phileas Comme Phileas J'sors de mes gonds dès le gong Hauts-de-Seine, camp de base, venu pour piller puis pour plier liasses B2OBA, escroc et scélérat Là d'où l'on vient, il n'y a ni photos ni caméras Personne ne vient à part pour per-cho de la me-ca On est més-cra, on ne prend que du she-ca On fait ce qu'on peut, on fait ce qu'on veut J'veux tout sans rien branler négro, tel est mon vu Et je fais de mon mieux, je fais de mon mieux Je fais de mon mieux, je fais de mon mieux Ça bibibibi, à Boulbi, Boulbi Seule source de revenus, ma race dans l'oubli, l'oubli J'suis Coulibaly, Sow, Diallo, Mendy Vuitton Louis, Gucci, Smalto, Fendi J'viole ton ouïe, eux ne sont pas frais, nous, oui Double-décimèzère et la femmezer jouit T'as rien compris, bienvenue dans ma zone Primaire, C.A.P, son-pri, comme ça dans ma zone J'lis rien dans ma paume, une blouse noir, j'suis au labo' Ma 0.9 est prête, messages codés dans la peau On ne sort pas des eaux troubles, même si ailerons de requin Meilleurs avocats, kilos de me-ca dans la ve-ca B2OBA, escroc et scélérat Là d'où l'on vient, il n'y a ni photos ni caméras Personne ne vient à part pour per-cho de la me-ca On est més-cra, on ne prend que du she-ca On fait ce qu'on peut, on fait ce qu'on veut J'veux tout sans rien branler négro, tel est mon vu Et je fais de mon mieux, je fais de mon mieux Je fais de mon mieux, je fais de mon mieux Dealer capitale, Hauts-de-Seine 9.2.1.Double zéro3</t>
+          <t>Ow ! Yeah! Kho ! Izipliz Izi ! Izipliz Ah Izipliz Kho ! Danse pour moi, izi Wesh Milou, izi Danse pour moi, izi Izi, si si Et sois sexy, sur le son flexible Sur la vibes, excite-toi à en perdre ton lexique Cest Don Miloudzi lambianceur rarement ambiancé Souvent adossé au mur, verre à la main, dans Highlander, je serai le guetteur Pendant des heures sans m'épuiser, sans regretter, je pourrai te guetter Te prêter à aucun des ces pédés, à moi t'es la Belle, jai tué la te-bê C'est ça, danse pour moi, ce soir tes la ne-rei Moi, le roi du haut de sa tour près du bar toujours beurré Cest ça Lady, fais toi plaisir Sur le son du 92izi, sexy-sexy baby Dans la rythmique et le booty, OK ! Sexy lady Sexy-Sexy lady, OK ! Sexy lady Danse pour moi, izi kho! Danse pour moi Ah ! Danse pour moi, izi Kho Danse pour moi, izi Oh, yeah Regarde ma liasse, danse pour moi biatch Quoi ? Tu nen es pas une ? Oh, au temps pour moi biatch ! Tire sur mon bang, sauvée par le gong Big Boss depuis le Big Bang, monte le son, monte monte, tu feras le tour du monde Ma montre brille, illumine tes grosses fesses Ton mec travaille à Monoprix, viens ici, ne sois pas grotesque Allons rejoindre Milou A.K.A. Don Miloudzi Oublie tous ces soucis, t'as la classe de Monica Bellucci Izi Danse pour moi, izi Danse... pour moi Danse pour moi, izi Oh danse... Sois à l'aise et sous tise, soutif Ton spliff ? Range ton biff ! J'te lai déjà dis, cest pour Maza Ton corps s'lève en catalepsie quand il parle à Mala le psy Tu rends folles les nanas mais chut sexy sexy lady Danse sur lambiance du 9 Zedou Ton équipe, ton ami, sa fe-meu, je veux voir les tops, les seufs gé-bou, c'est pour Don Miloudzi Réfléchis pas, vas danser, rafraîchis-toi à ma santé Fais-toi zizir sexy sexy lady Danse pour moi, izi Danse... pour moi Danse pour moi Oh danse... Danse pour moi, izi Pour moi, danse... Danse pour moi, izi Izi Danse... pour moi Oh danse... Pour moi, danse... Izi6</t>
         </is>
       </c>
     </row>
@@ -4946,12 +4946,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Daddy</t>
+          <t>Bâtiment C</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Oh, oh, oh, oh, oh, oh Elle m'appelle Daddy, elle croit que j'vais lui passer l'anneau Mais jamais d'la vie, la 0.9 est sur le bateau Elle m'appelle Daddy, elle croit que j'vais lui passer l'anneau, la faire monter dans l'quatre anneaux, nan Mais jamais d'la vie, elle peut dead pour le négro, j'tiens son p'tit cur dans la mano Elle a l'cul d'un poney, des seins siliconés Mais j'l'ai barrée, gros, tu connais, j'tape des khaptas sous Jack Honey Bloquée sur mon portable, pourtant, ell est potable Mais j'pens qu'à faire de la monnaie, cent moins huit, gros, tu nous connais Mais elle m'appelle Daddy comme si j'allais la doter, comme si pour elle, j'avais l'temps Et jamais d'la vie, tes c'verre corsé que j'peux pas siroter Siroter T'es un avion d'chasse que j'veux pas piloter Elle m'appelle Daddy, elle croit que j'vais lui passer l'anneau Mais jamais d'la vie, la 0.9 est sur le bateau Vingt-deux, akha, dix-huit carats, cent moins ocho, c'est les travaux Vingt-deux, akha, dix-huit carats, négocie pas, c'est les tarots Sans parachute, t'as sauté, va voir ailleurs, un mec comme moi te nique la santé Rien que j'l'envoie chier mais histoire d'amour, elle veut tenter Elle a vu qu'j'avais l'numéro de Kopp et d'Dany Synthé J'suis son fond d'écran, la petite est fêlée, elle embrasse son écran quand elle me voit à la télé Elle m'suce dans la gova, j'l'ai jamais ramenée au tel-hô Négocie pas, c'est les tarots, chef de chantier, j'gère les travaux Mais elle m'appelle Daddy comme si j'allais la doter, comme si pour elle, j'avais l'temps Et jamais d'la vie, tes c'verre corsé que j'peux pas siroter Siroter T'es un avion d'chasse que j'veux pas piloter Elle m'appelle Daddy, elle croit que j'vais lui passer l'anneau Mais jamais d'la vie, la 0.9 est sur le bateau Vingt-deux, akha, dix-huit carats, cent moins ocho, c'est les travaux Vingt-deux, akha, dix-huit carats, négocie pas, c'est les tarots Toujours sur le chantier, les travaux Ocho dans le bend', dans la zone Toujours sur le chantier, les travaux Vingt-deux</t>
+          <t>De la crèche au placard, j'ai trop roulé ma bille J'te baise bâtard, viens-nous sucer la bite Procureurs, juges et flics ne m'feront pas changer d'avis Pour m'arrêter, faudra m'enlever la vie Ouvrez les portes du pénitencier Maison d'arrêt des Hauts-de-Seine, Bâtiment C Ok, j'suis au ste-po, ok j'suis dans le cam'tar Ok, j'suis au dépot, ok j'suis au chtar Tout passe mais rien ne s'efface, vos mères les grosses garces Voilà ma déposition, porc je te la dédicace Dos au mur la position, Lebraz' la solution on le culbute, il mérite juste qu'on l'électrocute Écroué, innocent comme d'hab' Mon son aux arrivants, mais y'a du shit comme d'hab Du seum de la Hiya, du Pont de Sèvres à Nanterre Le rap français, on le ressuscite, le ré-enterre Ma place est dans la nature Si j'marche droit trop longtemps, j'vais m'enculer dans l'mur J'suis hors-la-loi, une cure de liberté n'nous fait pas reculer L'Histoire et le système nous font basculer Animaux dangereux placés en correctionnelle Criminel au M.I.C., phrasé non-conventionnel De la crèche au placard, j'ai trop roulé ma bille J'te baise bâtard, viens-nous sucer la bite Procureurs, juges et flics ne m'feront pas changer d'avis Pour m'arrêter, faudra m'enlever la vie Ouvrez les portes du pénitencier Maison d'arrêt des Hauts-de-Seine, Bâtiment C Ton rap sent la fouf, le nôtre sent la schnouf de ouf, tout droit sortis du gnouf Moi j'suis dans ton poste comme le hasch dans ton Porsche J'perds mon temps et mon cash, kho, en direct live de mon cachot Quand le chat n'est pas là, les MCs font du smurf, truc de malade Pendant qu'ici c'est les meufs et chez Mala Dure est la chute, vide est ma flûte Steuplaît madame la , relâche-moi sale pute J'ai du gent-ar à faire, plein de comptes à régler Pris dans le vice de la matrice, j'peux plus marrêter J'risque encore d'y passer l'été, il en faut plus pour m'impressionner Négro la rue m'a sélectionné Suspect idéal, cru et sincère Monsieur l'agent, dans ton seule ma se réinsère J'écoute leur réquisitoire et 8.8.2 Ici on confond teu-teu et suppositoires B2OBA, moi j'suis une vraie histoire, pas un fantasme Official depuis la Préhistoire Ouvrez les portes du pénitencier Maison d'arrêt des Hauts-de-Seine, bâtiment C De la crèche au placard, j'ai trop roulé ma bille J'te baise bâtard, viens-nous sucer la bite Procureurs, juges et flics ne m'feront pas changer d'avis Pour m'arrêter, faudra m'enlever la vie Ouvrez les portes du pénitencier Maison d'arrêt des Hauts-de-Seine, Bâtiment C</t>
         </is>
       </c>
     </row>
@@ -4963,12 +4963,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>On contrôle la zone</t>
+          <t>King</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>OK, Hauts-de-Seine vatos Comme Roger flirt avec les lignes c'est Hauts-de-Seine Matos Hauts-de-Seine la dose pardonne du com, ce qu'on doit à la street Le crack comme terrain d'chasse regarde comme jeunesse ingurgite Tom Ford sur le blaze, bandana comme un masque à gaz Faut des loves, flow de haut vol, j'suis chaud dès l'aube Diam's dans les lobes, chaud quand il faut qu'jles pigeonne Crois-en la crosse dépassant du True Religion Trop d'sang sur le terrain quand ma team à la balle Trop d'sang sur le chemin de la mine à la bac N'ont qu'à remplir leur geôle crade Du gramme au quintal dramatique quête du Graal On contrôle la zone, la zone On contrôle la zone, on contrôle la zone On contrôle la zone, la zone On contrôle la zone, on contrôle la zone Tout, tout tout me casse les couilles Le taf, les pétasses qui déboulent J'suis pas l'chef de la tess, les mecs tapent dans la céce Ça m'zehef mais laissez-moi nehess Chez nous ça passe ou ça douille Miboune c'est pour vous qu'le monde est cool J'ai trop d'vices dans la cabess, mes hassanets c'est la dèche Mon Dieu ne m'laissez pas en hess J'vous remercie, j'suis j'suis pas homeless J'les baise même en chien on ne m'tient pas en laisse Toujours bandits de-spee Brazzi prie pour nourrir son esprit J'ai fait du bien du haram de la son-pri J'suis hami je vous l'ai dit mais vous n'lavez pas compris J'en ai sur les doigts et tu m'as pris pour un junky Ta go m'as vu en Merco elle m'as pris pour un geon-pi Cross dans la paume tu vois briller le chrome Fout moi l'seum t'en verras des vertes et des jaunes Chromosomes en Air Max Bactérie Zone J'écris mes versets sur l'dernier BlackBerry Bold On fait du bizz, de la taule Ressort d'chez l'éducateur avec de gros hématomes Tout mon département sur l'trône, sur l'trône Je contrôle ma zone je contrôle ma zone... On contrôle la zone, la zone On contrôle la zone, on contrôle la zone On contrôle la zone, la zone On contrôle la zone, on contrôle la zone Tu t'rappelles ? J'suis l'mec du 92 L'homme que tu voudrais niquer à plus d'12 Alors salope t'es toujours de retour A critiquer mes sons en bas de tes tours Autopsie tlata, peut-être la dernière Avec plus de harr qu'une mechouïa seleta Ouais, salope tu vaux même pas le détour T'es pas fait pour tourner dans ma tour Tu veux du seum 92izi on est là Quelques keums hyper busy, on est là Si-Si, MazalazaSta 92izi, Si-Si kho On contrôle la zone, la zone On contrôle la zone, on contrôle la zone On contrôle la zone, la zone On contrôle la zone, on contrôle la zone On contrôle la zone, la zone La zone, on contrôle la zone2</t>
+          <t>Booba! 92i! Si, si J Production Rock City Right about now J'écris ce que personne ne peint, défouraille en cas de pépin J'ai les neurones pleins, cent quarante euros le plein La défaite est en toi, la victoire est en nous Renoi détends-toi, reste en chien, reste en loup En période de crise naissent de violents izi-business Trop lent pour le Guiness, tu veux test ? Mais t'es qui wesh ? Tu cherches la teuf, où est-ce ? T'entends des feats US T'es bon qu'à te gratter les sseufs, ta clique elle bluffe, pleine de rouille J'suis le King de la city, Izi Business Yeah You don't want the beef cause it will be last time you see Last time your are Take it from me, you don't want the war Cause I'm the king of the city So you better proceed with caution Before I blow you away Mi keep on keyz to the street when mi wonder Mi can a get out of sail yeah, yeah, yeah T'es ni dans mes pompes, ni sous ma casquette, négro t'as pas mes rêves Donc, fusil à pompe à mes ièp', n'interromps pas mes rêves Izi-business la team, je suis précis je place les coups J'ai mon blaze sur disque de platine et plaque dégouts Sombre est le gang, je terrasse mes confrères Je suis trop frais, je suis venu au monde dans un coffret Chez nous il neige en mai, t'es bonne bien cambrée Tu m'as vu à la télé mais tu me préfères en vrai Laisse pas de message sur la messagerie du Duc Ma Queen le consulte, elle a piraté mon PIN la pute Pendant ce temps-là je lutte, représente du Pont de Sèvres au Luth Transporte la came par oléoduc Izi You don't want the beef cause it will be last time you see Last time your are Take it from me, you don't want the war Cause I'm the king of the city So you better proceed with caution Before I blow you away Mi keep on keyz to the street when mi wonder Mi can a get out of sail yeah, yeah, yeah Je n'ai pas le temps de t'écouter Tu n'as sûrement rien à dire, tu veux juste frimer Je souris peu c'est vrai, pourtant je suis filmé Rebelle, moderne, j'en ai rien à foutre du 8 mai Oh yeah, B2O tu sais qui il est Tu veux nous faire la guerre, direct tu peux te rhabiller Sa mère au maire, j'ai la haine, tu sais quelle heure il est Temps mort t'a mis d'accord, en or était le sablier See we dem brusher, de lamshottas And we fresh a from St-Thomas And you know we made a promise Cos dem pussies can't stop us When we with de pon di shotta Then you know it is a lot Then so you don't you ever miss with them We run 'till the end with them A Rock City, we no fucking around A you know we the king of the town Together we are shutting it down And we telling them right about now You don't want the beef cause it will be last time you see Last time your are Take it from me, you don't want the war Cause I'm the king of the city So you better proceed with caution Before I blow you away Mi keep on keyz to the street when mi wonder Mi can a get out of sail yeah, yeah, yeah You don't want the beef cause it will be last time you see Last time your are Take it from me, you don't want the war Cause I'm the king of the city So you better proceed with caution Before I blow you away Mi keep on keyz to the street when mi wonder Cause I'm the king of the city1</t>
         </is>
       </c>
     </row>
@@ -4980,12 +4980,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Intro (Mauvais œil)</t>
+          <t>Bad Boy Street</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>2004Banlieue Ouest ft. VF Gang Autobiographie2005L'unité ft. J-Mi Sissoko Quelque chose de spécial ft. Eilijah2006On s'en bat les couilles État des lieux2007Qui peut me stopper ? Reste en chien ft. Booba Banlieue sale ft. Gued'1 Kennedy Tombé pour elle ft. Amel Bent Dignity ft. Matchstick2008Cherche la monnaie Ça fait mal Remix ft. Sefyu Soprano2009Tous les mêmes Du ferme Hamdoulah ça va ft. Canardo Krav Maga Banlieue Sale Music ft. Nessbeal Krav Maga Remix ft. Canardo, Green Money, Gued'1 MLC2010Nés pour briller ft. Canardo, Green Money MLC Le mauvais il ft. Green Money Passe-leur le salam ft. Rohff Caillra for life ft. Game2011Ça fait mal live Veni Vidi Vici Les soleils de minuit Papa Mathusalem Fouiny Gamos Interlude-One Shot Caillra for life studio Elle venait du ciel ft. Zaho Bafana Bafana Remix ft. Admiral T, Canardo, Nessbeal, Seth Gueko Soprano Nhar sheitan click D'où l'on vient Toute la night Vntm.com ft. DJ Khaled Vécu ft. Kamelancien J'arrive en balle ft. Fababy Ben Laden C'est bien de... ft. Fababy Rollin' like a boss ft. Mackenson T-Pain Rappelle-toi ft. M.A.S Jalousie ft. Fababy, Leck Six Coups MC2012Capitale du crime 3 ft. 3010 Sneazzy West Paname Boss ft. Canardo, Niro, Sniper, Fababy, Sultan Youssoupha J'avais pas les mots2013Il se passe quelque chose ft. Youssoupha Ma meilleure ft. Zaho Quand je partirai La Fête des Mères Essaie encore2014Saha Fais les 2 ft. Kozi Intro CDC 4 Va Bene ft. Reda Taliani Crick Crick ft. Ixzo Lové N.D.M Cry ft. Omarion Il y aura des blessés3</t>
+          <t>Yeah Yeah, yeah Demarco Yeah Rude boy town Rude boy town Bad boy town Officers strapped Kill me nah In a rude boy town, in a bad boy street Da tops dem strapper and a free da police Boy violate and amentate de beast Tops dem strapper and a free da police I saw dem rolling, de mandem bowling Dem will take you slowly, cah dem fear na rude boy I saw dem rolling, de mandem bowling Dem will take you slowly, cah dem fear na rude boy Fatwa sur les balances, leurs chicots sur les phalanges Tatoué comme les triades, j'pars en musical Jihad Armé comme un G.I, comme T.I Rien ne peut nous arrêter, violent comme l'histoire l'a été Je m'éteindrai en brillant, t'extermine en riant, Disque de diamant, lourd est le bilan j'ai de fidèles clients Bakel City ma patrie Parlons peu, coupe ton portable, enlève la puce et la batterie Yeah Forvige me'a people, dem se detta de Liz Dem ods drugs out, dem wit de guns and Liz De war and violence, mi say dats officers Wa-wat for wyle and peace In a rude boy town, in a bad boy street Da tops dem strapper and a free da police Boy violate and amentate de beast Tops dem strapper and a free da police I saw dem rolling, de mandem bowling Dem will take you slowly, cah dem fear na rude boy I saw dem rolling, de mandem bowling Dem will take you slowly, cah dem fear na rude boy J'suis sur l'avenue, OK. J'regarde les keufs défiler Roule un joint d'seum, dans la foulée, OK Hors-de-portée, mort de rire, sans remord Quand j'écoute les menaces de mort des forces de l'ordre Nos vies n'ont pas de prix, les leurs ne sont pas trop chères Nous lions et dos argentés, eux cochons et phacochères J'ai vu cette blanche, gros cul p'tites hanches Je pense qu'elle va prendre cher, j'aime comment elle se déhanche Coup de sifflet tacle à la ge-gor direct Les tchoins en redemandent, elles kiffent le double décimètre Réfléchir avant d'agir, c'est vrai je devrais m'y mettre J'aime aller en boîte de nuit avec mon 9mm In a rude boy town, in a bad boy street Da tops dem strapper and a free da police Boy violate and amentate de beast Tops dem strapper and a free da police I saw dem rolling, de mandem bowling Dem will take you slowly, cah dem fear na rude boy I saw dem rolling, de mandem bowling Dem will take you slowly, cah dem fear na rude boy Grosse paire de couilles, toujours prêt à tirer cartouche J'baise en solo, j'suis partout sauf dans les partouzes Smith Wesson fait partie du staff Ma couronne sur le ter-ter, j'fais l'taff comme Ronny Turiaf On est moins chers que les Farcs Mon département n'arrive plus à compter les shlags J'suis un sale négro car maman a épousé un black Occupe-toi des verres et de la glace, je ramène le Jack le Jack Hold yourself and don't lose If you feel you untouchable sa Life , you abuse it Neva right or wrong road, de shot will get you And you, so de lamb road me choose it In a rude boy town, in a bad boy street Da tops dem strapper and a free da police Boy violate and amentate de beast Tops dem strapper and a free da police I saw dem rolling, de mandem bowling Dem will take you slowly, cah dem fear na rude boy I saw dem rolling, de mandem bowling Dem will take you slowly, cah dem fear na rude boy 9.2 1.0.0 moins 8, Z double 0 Animalsons Yeah Bad Boy Street Bakel City Gang, biatch ! B2O IziMarco, 92izi1</t>
         </is>
       </c>
     </row>
@@ -4997,12 +4997,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>I Wanna Be Loved</t>
+          <t>Le mal par le mal</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>71 beabadoobee - Ever Seen DUSTY LOCANE - NO PROBLEM FCG Heem - All I Need 72 3 Jessica Mauboy - Won't Stop AJ Tracey - Bubble Bath Childish Gambino - Lithonia Eminem - Tobey ft. Big Sean BabyTron 73 Jay Fizzle - Hot N Ready Kimbra - Stuff I Don't Need ft. BANKS Quavo Lana Del Rey - Tough Thomas Rhett - Feelin' Country YTB Fatt, Lil Baby Rylo Rodriquez - Pretty Brown 74 Babyfxce E - PTP Kesha - JOYRIDE Lainey Wilson - 4x4xU Mello Buckzz G Herbo - hmm...BD Morgan Wallen - Lies Lies Lies OneRepublic - Hurt Tones and I, Young Franco CHAII - Can't Get You Off My Mind 75 aandrq - inescapable Brevin Kim - Boys Night charlieonnafriday - When It Rains DaBaby - NAN Ella Henderson Switch Disco - Under the Sun Luca Schreiner Remix ft. Alok Felix Jaehn - Ready For Your Love ft. Sophie Ellis-Bextor Forrest Frank JVKE - Never Get Used To This Heembeezy Skilla Baby - They Wanna See Me Hot Chelle Rae - Tonight Tonight Foínix Rolipso Remix Lil Skies - PAIN Louis The Child, aszewo pluko - Slow Luca Turilli - Aqua Emotional Piano Onsight Deeda TBoss - SNA Shordie Shordie 03 Greedo - Ride With You Sigala, Trevor Daniel 24kGoldn - It's A Feeling Soulja Boy - Ran It Up The Astronomers sammy rash - limelight' YG Teck - Say Yes ft. Hunxho Zeddy Will - Can't Go Broke ft. Babyfxce E 76 IRIS - Goliath's Throne Rethroned 77 Fetty Wap - Still Here 78 DaBoii Babyfxce E - Get The Drop 79 Ben Böhmer - Hiding ft. Lykke Li KATO2X - B23 ft. Knows The wave YG, Lil Yachty Babyface Ray - STUPID 710 41, TaTa Bay Swag - Sundress BossMan Dlow - ION WANNA HEAR IT BossMan Dlow Lil Baby - PJ Conner Smith - Steal My Thunder ft. Tucker Wetmore Jeremy Lee MIRROR HKG TOXIC! Mac Critter - Ion Like MOTHICA - Mirage Rachel Platten - I Know Sleepy Hallow - Yes Freestyle ft. Sheff G 711 BabyDrill - Bang Bizzy Banks - Back In The Mix Katy Perry - WOMAN'S WORLD Kylie Minogue - My Oh My ft. Bebe Rexha Tove Lo 712 310Babii - pink whitney aandrq - vertigo Alesso Nate Smith - I Like It Alexandra Stan - Înapoi Babyface Ray Peezy - Ghetto Boyz Ben Rector - Wreck Cash Kidd - She Sleep Chikoruss - RaRa Chloe Hotline - Sip No More Consequence Kanye West - No Apologies Dasha - Didn't I David Guetta Armin Van Buuren - In The Dark ft. Aldae Ella Henderson Switch Disco - Under the Sun Acoustic El Snappo - Dickies Lavins Elusin - .410 Finesse2Tymes - Pretty Ricky Fredo Bang - Outta There Gabbie Hanna - My Sun Icewear Vezzo - Drive Slow John Summit Paige Cavell - Tears Kylie Minogue, Bebe Rexha Tove Lo My Oh My Maren Morris i hope i never fall in love Miranda Lambert - Ain't in Kansas Anymore Nelly Furtado Bomba Estéreo Corazón NoCap - Yacht Party Orville Peck Beck - Death Valley High Paul Russell Slippin' ft. Meghan Trainor Quin NFN - Just Getting By, Pt. 2 Ralo - P.R.E. Russell Dickerson - Bones SCY Jimm - 2 Choices SG Lewis Loods - Paradise Smash Mouth - Sunshine Day ft. Barry Williams Strick Future - RECIPE FOR LOVE Teddy Swims Funeral Thomas Rhett Overdrive Tre Loaded - Wanna Be P Tyga Sabrina Claudio - No Question Veeze Rylo Rodriquez - Fucked A Fan WARGASM - 70 Dead ft. Corey Taylor zxmra - december Yungeen Ace - Ready To Die 715 Li Rye - BODIES Nate Dookie - You Sam Barber - Tear Us Apart Sasha Haydn - Phlip Fone 716 Childish Gambino - In The Night Jay Fizzle - Letter To My Demon Wyatt Flores Jake Kohn - Before I Do 717 03 Greedo - Kill Me 03 Greedo - Still Feel Loaded Anson Lo - Hey Hey OK! BiC Fizzle - Late Night Dylan Gossett - Stronger Than a Storm JADE - Angel Of My Dreams FOR THE CLUB 718 Jelly Roll - Dead End Road Lucas Estrada Lost Ways Rose Garden 719 adore - if u want me ft. Daiela Benson Boone - Death Wish Love Beach Weather - Hottest Summer on Record Big Sean - Yes Bre Kennedy - The Vase Stripped Brett Young - Goodnight Into Good Morning Cash Kidd - Maya Angelou ft. Icewear Vezzo Cole Swindell - One Day Connor Price Walker Hayes - Smoke CHASE WRIGHT - Memory David Archuleta - Rather Be Lonely David Cook - Dead Weight Dua Lipa - Illusion Logic1000 Remix Fetty Wap - Barlito G Herbo Skilla Baby - Shoot HUGEL, Topic Arash - I Adore You ft. Daecolm Icewear Vezzo - Shifter James Bay - Up All Night ft. Noah Kahan The Lumineers James Carter, Leony Sam Fischer - Summer of Love Jesse McCartney - Silver Spoon Unplugged Joe Bonamassa Train - Hold On Loosely Jonas Blue Eyelar - 100 Lives Josh Ross Julia Michaels - Want This Beer Joy Oladokun - Drugs Lil Yachty - Let's Get On Dey Ass Logic - Mission Control ft. T Man The Wizard Luca Turilli - Indigo Skies Mabel - Female Intuition Madison Beer - 15 Minutes Martin Garrix - Smile ft. Carolina Liar Neon Trees - El Diablo Pyrex - Wat im On R3 DA Chilliman - Stop Acting Regard - Call on Me Rob49 Cardi B - On Dat Money RIELL - I'd Rather Lose You Than My Mind Shane Codd - Exit Lights ft. Lilly Ahlberg Smith Thell Wrabel - At Least I Tried SPINALL, Omah Lay Tyla - One Call The Script - At Your Feet 720 G.T. Icewear Vezzo - No Hat Taleban Dooda - Truth Hurts 722 Larry June - Like a Mack Lil Zay - Numb 723 Soulja Boy - Drop It Down 724 Alison Goldfrapp - I Wanna Be Loved Just a Little Better Brezden - No Mistakes Cordae - Saturday Mornings ft. Lil Wayne Evil - d099 ft. liplock Holly Macve - San Fran Honey Mac Critter - Stayed Down For This Pixies -Chicken 725 Christ Dillinger, DJ Smokey Ayesha Erotica - She Got a Sugar Daddy Diamond Platnumz Jason Derulo - Komasava Comment Ça Va ft. Khalil Harrison Chley Miranda Lambert - Alimony Nicky Romero, Öwnboss Oaks Love You for the Summer The Fray - Time Well Wasted Tiësto Alana Springsteen - Hot Honey 726 American Authors ROZES Something Amazing Amy Shark - My Only Friend ft. Tom DeLonge Babyface Ray - Rubberband Man Becky Hill LIZOT - Multiply LIZOT Remix Bôa - Whiplash Brian Kelley - Make America Great Again Cody Simpson - Fly Darla Dean Lewis - Millions David Garrett - Titanium David Garrett Edition DDG - copy my drip Don Diablo, Lufthaus, Sofiya Nzau Robbie Williams - Where Do We Come From Dolly Parton, Maddie Tae, Jessie James Decker Callie Twisselman - Gonna Be You Nashville Donald Lawrence - Words Dua Lipa - Illusion Creepy Nuts Remix Echosmith - Feminine Rage Echosmith - Jaded Ella Henderson Switch Disco - Under The Sun Switch Disco VIP Mix Fredo Bang Big Homiie G - Fast'n Furious Galantis 5 Seconds of Summer Lighter Acoustic Version Gucci Mane - Chanel Bag ft. JT Halsey - Lucky Jdot Breezy - Overwhelming Jordan Davis - I Ain't Sayin' Kris Allen - More Than Ever Lil Darius - Intentions ft. Hunxho Luh Tyler - 2 Slippery ft. BossMan Dlow Matthew West - Chosen Matoma Rufus - I Love You, Bye Maty Noyes Spencer Ludwig - Hotel Dream Girl mgk Jelly Roll - Lonely Road Muni Long - Ruined Me Neil Young Crazy Horse - Bright Sunny Day Nick Karcher We the Kings - BIOTU Oliver Heldens, David Guetta FAST BOY - Chills Feel My Love Paris Hilton Meghan Trainor - Chasin' Perrie - Tears Live Piano Session Ralo - What's Goin On Solya - Take Me Sonny Fodera, Jazzy D.O.D Somedays WILD - Only Going Up from Here YTB Fatt Lil Durk - Conspiracy V2 728 Chloe Hotline - Allclear Sasha Haydn - Shower Thoughts 730 BigWalkDog - Do It 731 Alan Walker - Wake Up ft. MRD Big Homiie G YTB Fatt - Us Pt. 2 MOTHICA - Afterlife NAV - Rexdale1</t>
+          <t>Jréponds au mal par le mal kho, fais cque tu veux Tes équipé ? Nous aussi, hein, quest-ce que tu veux ? Moi jveux du gen-ar, jfais cque jpeux Trop dlarmes pour que le tier-quar cesse le feu B2O, souvent équipé Akademiks Bienvenue à la star du Ghetto Academy Beaucoup dennemis, on va les égorger halal Jour et nuit comme JoeyStarr, Francis Lalanne Quand jme trompe dans mon parcours Jfais péter lposte à la fenêtre pour les fauves qui pompent dans la cour Les matones matent ces sauvages qui bandent malgré le bromure Dos au mur, les clés dans la chatte On ne sait que charcler Inédit, Panthéon débarque chez Eddie Barclay Pas-Pas le droit à l'erreur, Verbal Brolik dans les chro... ...pourquoi vouloir tester B2OB ?... ...9-9.2 comme d'hab'-d'hab' , I comme d'hab'... d'hab'... ...d'hab'... d'hab'... Dehors la météo affiche Boobs le météore sur la capitale Vu des Baumettes, on dirait juste une comète Personne dans lhabitacle Jvoudrais quon parle de moi aux nymphomanes, pas aux infos Jdois rien à personne, juste un peu aux impôts Jgronde, mimpose la France ma mis au monde, la pauvre Cest clair que le succès cest cool Jusquà cque jen prenne une dans lbuffet, mécroule Au lieu d'serrer les coudes, on ramasse les douilles Parce que quand tu nous jacasses mal ça casse les couilles Jai dans le crâne un marteau, négro, cest 2004 Qui va tenir le coup, qui sra le clou du spectacle ? Tout niquer ma directive Palme dor du défouraillage au napalm pour la rétrospective Pas-Pas le droit à l'erreur, Verbal Brolik dans les chro... ...pourquoi vouloir tester B2OB ?...1</t>
         </is>
       </c>
     </row>
@@ -5014,12 +5014,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Loin d’ici (Twinsmatic Remix)</t>
+          <t>Danger*</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Le rap français coupé en deux Comme Porsche GT dans un tronc d'arbre J'suis sur Pluton, t'es sur France 2 Fuck un greffier, fuck un gendarme Déployez le plan épervier. Je suis un gangster, fuck un vandale ! 92izi faut te méfier, j'ai un Uzi, fuck un Van Damme 92izi faut te méfier, j'ai un Uzi, fuck un Van Damme Ici c'est le bitume, on ne fait rien sans se défier 92izi faut te méfier, j'ai un Uzi, fuck un Van Damme Ici c'est le bitume, ici c'est le bitume ! J'aime toutes mes cicatrices J'fais de l'oseille, j'suis pas un artiste Mon parfum c'est Anarchiste À mon déclin, personne n'assiste Clic, clac, personne n'insiste Gros oid c'est mon insigne On a or noir comme on a le shit Change de trottoir, c'est mieux ainsi C'est l'Histoire qui m'a choisi, m'a choisi Contre le désespoir un gros pétard, un Bacardi J'suis un Zlatan, un Qatari T'es qu'un tahan abâtardi, allez Paris ! J'aime toutes mes cicatrices J'fais de l'oseille, j'suis pas un artiste Drôle comme une blague raciste A leur déclin, je y assiste Mon casier ? Plus que douteux ! J'ai une Féfé, je ne rêve pas Tu vois que des muscles, un Ü tréma T'as pas capté toutes les roles-pa Ta poule'zer se fait toute belle Quand ton sang coule, c'est là que tout baigne Fais-moi souffrir pour que j'me souvienne J'ai mon baby, j'ai ma souveraine Fin de carrière, soudaine A.C Milan, demande à Constant Mon marabout est un Tchétchène J'aide ceux que j'aime depuis longtemps C'est l'Histoire qui m'a choisi, m'a choisi Contre le désespoir un gros pétard, un Bacardi J'suis un Zlatan, un Qatari T'es qu'un tahan abâtardi, allez Paris ! Méfiant, défiant un de nous finira par crever J'suis gravé dans la roche'zer, j'fais des millions, j'ai que le Brevet Bressom est le projet, Tyson est le crochet J'ai grandi, mis de côté Drapeau rate-pi, île de Gorée Stevie Wonder quand je dépense L'élégance-même plaide l'allégeance Négros ennemis détériorés Moi je commande, toi tu quémandes C'est l'Histoire qui m'a choisi B2OBA, KO Double P, 92i1</t>
+          <t>X-Plosive Je crois beaucoup aux chiffres La moula, la fucking moula Je crois beaucoup aux chiffres, je n'fais pas beaucoup de prédictions Elle m'dit qu'j'suis un fumier, qu'j'l'aimerai jamais, quelle déduction Les nudes sont validés, elle a passé les détections Les kurdes sont arrivés, qui dit kurdes dit munitions J'lui ai dit J'fais des t-shirts, j'ai une chaîne de télévision Elle s'est crue dans un film de boules, rien qu'elle veut changer de positions Satisfait ou pas, la street ne fait pas de réduction Le crack sera-t-il meilleur cuit sur leur plaque à induction ? Tous les éliminer garantit la pôle position À moins d'six zéros, j'réponds pas, j'attends donc ta proposition J'viens d'en bas, j'ai quand même peur d'toucher le fond Je veux toucher le ciel, toi, tu veux lui toucher le fion À qui est-ce que tu parles en c'moment ? Qui est-ce que tu crois qu'je suis ? Nan, t'as pas compris... Tu n'sais pas à qui tu parles alors laisse-moi t'expliquer je n'suis pas en danger, Skyler. C'est moi, le danger. Si quelqu'un ouvre sa porte et s'fait descendre, tu crois qu'ce sera moi ? Nan, je suis l'homme qui frappe à la porte. J'dors que d'un il comme si jétais dans la cellule d'Adebisi Elle a un plus gros cul que toi, notre aventure sarrête ici Je ne compte que sur les miens, quelques fumiers dans toutes les zones Les voitures de demain n'auront sûrement plus d'gilets jaunes Quitter le trône veut dire voir haineux jubiler J'paie mes impôts pour qu'ils repeignent les murs sur lesquels j'urinais Le mariage, le célibat, ça reste qu'une histoire de fesses Arme de l'Est dans tous les débats, ennemi n'parle plus qu'en petits gestes T'as encore merdé quelque part, tu changeras pas donc elle te laisse Tout le monde croyait qu'c'était la bonne, moi, j'dis qu'la bonne c'est celle qui reste Toujours un pistolet chargé, le num' de trois tigresses Y a qu'si j'buvais du sang qu'j'serais vraiment en état d'ivresse - Dites mon nom. - T'es Heisenberg... - Et comment qu'c'est moi !</t>
         </is>
       </c>
     </row>
@@ -5031,12 +5031,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Abidal</t>
+          <t>Bienvenue Dans Le Texas</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>T'as perdu l'goût et l'odorat, frérot, l'odorat, c'est l'instinct L'homme prend tout par la force, car en vrai, rien n'lui appartient On trouve la haine partout, l'amour, quand on s'y attend l'moins Tout est écrit là-haut, si ça tombe mal c'est qu'ça tombe bien Ma foi est mal en point, j'essaie d'transformer l'mal en bien La mental' est trop loyale au moins comme un dogue Argentin J'entends la cargaison des Cayo Large des plages du Lamentin J'dors sur l'ile de Gorée, dans un cinq étoiles Saoudien Un salade d'entraves au mnu, serveur me dit qu'c'est ça ou rien Ils décident de notre défaite, on rit, se reserve du vin J'préfère descendre du singe que d'ce chien d'homo erectus Quand tu seras seul, déprimé l'soir, demande à Alexa si elle suce J'suis dans l'vaisseau amiral, j'attends le signa-a-a-a-a-al Ils sont surcoté de fou, comme Kylia-a-a-a-a-an J'vais sûrement t'faire du sale, si t'es mon riva-a-a-a-a-al Bien sûr je trompe ma femme, j'suis comme Abida-a-a-a-a-al Dakar, Marrakech, Miami Beach, Châtelet-Les Ha-a-alles T'es Luigi Buffon, t'arrêtes les pénos, pas les ba-a-alles C'est bientôt la fin, pour ça qu'j'en pa-a-arle Dans l'film de leur vie, j'ai l'rôle principa-a-al Dans les quatre coins du monde, des animaux qui tournent, des châtiments qui tombent comme des bombes tsar Les pieux sont pions et de plus en plus de Chalgoumis sur les ondes star Le vice et le pêché dans chaque langue, laisse pas trainer ton fils chez Jack Lang Que des rafales, aucun renfort Brr, zéro dérapage, la foi renforce On a grandit sans père, sans père, sans Danette On sait pas où on va mais on s'en bat les c' On connait leur jeux, j'ai plus d'cent manettes, ils imaginent le sauveur en sandalettes Les anciens prédisent la fin, les infos précisent l'inverse Leurs méfaits produisent l'enfer, les enfants président la fête Des offrandes de plus à faire Merde, dis-moi pourquoi l'humain adore la vache Du sang par litre pour lancer la machine Wouh Tout devient facile quand on fait d'la magie Wouh Ils diront qu'maladie sera livrée par la Chine Wouh C'est pas les voitures mais les humains qui volent On a peur de Dieu quand toi t'as peur du voile Ils ont trop la rage, on fera jamais c'qu'ils veulent Eh-eh, brr-brr J'suis dans l'vaisseau amiral, j'attends le signa-a-a-a-a-al Ils sont surcoté de fou, comme Kylia-a-a-a-a-an J'vais sûrement t'faire du sale, si t'es mon riva-a-a-a-a-al Bien sûr je trompe ma femme, j'suis comme Abida-a-a-a-a-al Dakar, Marrakech, Miami Beach, Châtelet-Les Ha-a-alles T'es Luigi Buffon, t'arrêtes les pénos, pas les ba-a-alles C'est bientôt la fin, pour ça qu'j'en pa-a-arle Dans l'film de leur vie, j'ai l'rôle principa-a-al</t>
+          <t>Pas besoin d'pimper ma ride ni d'avoir des dents en roro J'représente le Sud Forever comme un tatoo sur les abdos Viens faire un tour dans ma ville de l'Alamodome au SBC On ira manger des steaks grands comme la Croatie Boire des margaritas au bords de la pi-piscine Tout se fait en grand, les toilettes c'est ta limousine Je ne suis pas un pimp, classé Top Fifty Mon numéro d'phone, mystère comme la mort de Kennedy Cent degrés Fahrenheit à l'ombre Ici les filles sont sensuelles jusqu'au bout des bouts des ongles Ja-j'arrive comme un O.V.N.I. dans le transistor Flow saccadé, style décalé, tu peux chialer, le biz' est carré Or, Argent, bronze, les trois places du podium pour cette musique Crunk T-P Family la bombe Bienvenue dans le Texas dans le Texas Bienvenue dans le Texas dans le Texas Bienvenue dans le Texas dans le Texas Ferme les yeux et imagine la foule en furie pour le finish Une seconde avant le buzzer, je tire dans le mille, t'entends le Switch Pas possible darrêter les Spurs, c'est mon équipe Le sixième homme c'est le public, on collectionne les titres Ovation Je mets les pieds dans le club Zéro sécu', en guise de bodyguards quelques latino-girls Chez nous on danse pas, on remue les épaules On démarre la moto comme Young Joc, tu verras c'est drôle Pas de stress dans la grisaille de Paris Je rédige et je raconte le Texas et son style de vie Tous les jours en claquettes, casquette, short et Whity La limonade que je sirote a un gout d'paradis La musique s'écoute de Dallas à Houston Les jantes de l'Escalade sont celles d'un 36 tonnes San Antonio est soudé comme un seul homme Voici ma pierre à l'édifice en hommage au Hip-Hop Bienvenue dans le Texas dans le Texas Bienvenue dans le Texas dans le Texas Bienvenue dans le Texas dans le Texas Tête de mort mon logo, semi-remorque, 92 tonnes Le flow de la peine de mort, le son de Houston Au réveil cent pompes, un bol de céréales Une grosse pipe et j'pars au charbon, chausse mes Nike Air Sénégal Du sang dans les bacs, j'débarque j'suis le ma-mac Le savoir est une arme ? Moi j'ai un flingue, j'ai pas le ba-bac Né dans le magma, jt'attends sur le tarmac Larguez les putes et les amarres, sortez les hamacs Zerma tu pèses, zerma t'es auch Les vrais savent qui sont les vrais, demande à Matéos Tu veux test ? Tu crois qu'tu y es presque Que je te blesse comme Connan, tu n'es qu'un dos d'âne face à lEverest Un jour j'aurai le salaire de Tony P O.G. style, haut débit Jamais les fesses à l'air, je ne fais que passer parmi les grands d'en bas Bien élevé, bien allaité, 11.43 pour m'arrêter Bienvenue dans le Texas dans le Texas Bienvenue dans le Texas dans le Texas Bienvenue dans le Texas dans le Texas1</t>
         </is>
       </c>
     </row>
@@ -5048,12 +5048,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Civilisé</t>
+          <t>Gipsy King Kong</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>O grupo já não existe mais. Porém, o Lunatic, formado por Ali e Booba, deixou como legado um dos melhores trabalhos já lançados na França Com o fim do duo, os MCs tomaram rumos totalmente diferentes na carreira. Enquanto Ali seguiu em uma jornada mais discreta, Booba deu seus passos para se tornar o maior rapper francês da atualidade, elevou sua carreira a um nível espetacular, se reinventou, se aproximou do mainstream, chegou a colaborar com grandes nomes da cena estadunidense como 2 Chainz, Akon e Rick Ross, o rapper é o campeão de downloads da cena francesa. Conquistou milhares de fãs, amigos, e muitos, muitos inimigos. Pelo sucesso atingido, Booba é atualmente considerado uma espécie de Drake francês Formado em Boulogne-Billancourt subúrbio de Paris no ano de 1994. O grupo já tinha passado por uma enorme frustração em 1996, por causa de desentendimentos com um produtor, foram impedidos de lançar o álbum Sortis de l'ombre, depois de estar com o trabalho gravado que perrengue hein!. Mas todos esperavam um grande projeto do duo parisiense, então, restava ao Lunatic apostar todas as suas fichas em um trabalho que revelaria todo o potencial do grupo, foi aí que, em 2000, lançaram o magnífico álbum Mauvais il Mau Olhado Mauvais il se tornou um clássico, para alguns é o melhor álbum do rap francês. Sem dúvidas frequenta o Top 5 de 99 dos admiradores da cena. Um trabalho rústico, mas ao mesmo tempo genial, com letras que narram o cotidiano sombrio nos distritos e banlieues da Paris do início do século, os problemas políticos e sociais da França, racismo, injustiça, drogas, mas também uma celebração ao ego. Uma lírica envolvente, repleta de metáforas inteligentes, mas sem perder a agressividade característica do rap. O álbum possui uma excelente produção instrumental, beats pesados, rústicos, agressivos no estilo boom bap e uma vasta utilização de samples no quesito instrumentação, é impossível não notar a semelhança com as peças de Havoc O duo Booba e Ali se completam perfeitamente em um sincronismo exato que faz deste álbum um trabalho tão especial, homogêneo. Mauvais il é frequentemente comparado ao álbum The Infamous do duo nova-iorquino Mobb Deep Algumas canções de Mauvais il se tornaram verdadeiros clássicos do rap francês, como Pas L'temps Pour Les Regrets Não é tempo para arrependimentos. Uma faixa bem reflexiva, La Lettre A Carta é uma incrível crônica, Booba personifica um cara que enviou uma carta contando o seu cotidiano na prisão, enquanto Ali personifica o destinatário da carta. Le Silence N'est Pas Un Oubli O Silêncio não é um esquecimento. Faixa pesada, com um beat sinistro, metáforas sobre o cotidiano e um incrível verso de Ali. A última track do álbum, Civilisé Civilizado, é muito notória, apresenta um Booba sinistro, mandando umas punchlines monstruosas e um Ali um pouco mais civilizado. Mauvais il é o típico álbum que entra na playlist de quem curte a cena, para nunca mais sair, um excelente disco que marcou o extinto grupo Lunatic na história do rap francês, além de evidenciar o potencial lírico de Booba, o cara que nos dias de hoje é considerado simplesmente o melhor rapper da atual cena francesa NOTA</t>
+          <t>Hey, St Ouen lAumône - Boulbi, t'vois ce que j'veux dire ou pas ? IZI Lève ton majeur en l'ai-l'ai-l'air Je suis un magnum comme Seléléck Drive by en s-s-l-l-l-r Tvois j'veux dire ou pas frère, fais belelelek On t'renverra ton string par Fed-de-de-dex Lève ta bécane en I fais bé-bé-bé-béx Les MCs puent d'la schneneneck Saddam Haut d'Seine, Seth Guexxx ça fait zdededex Ma couillasse t'as fait le ramdam bsahtek J'te souhaite l'Aïd mabrouk Si j'ai pas d'flingue marlich, j'enlève ma ceinture Gucci Et j'te fouette avec la boucle C'est le retour du gipsy king kong, ta mère la pioute Si tu baises pas j't'enlève de mon Facebook C'est comme les pizzas, j'enlève la croute Ouh karaï j'ai les yeux couleurs bleus d'travail J'cantine New Look Même au shtar les meufs volent ta maille, ouais Du biff faut qu'j'en gagne, qu'j'marrache à Dubaï J'pisse du champagne viens boire à la bouteille Et même si je t'arrache une a une les molaires Tu suceras jamais aussi bien que ta mère Lève ton majeur en l'ai-l'ai-l'air Je suis un magnum comme Seléléck Drive by en s-s-l-l-l-r Tvois j'veux dire ou pas frère, fais belelelek On t'renverra ton string par Fed-de-de-dex Lève ta bécane en I fais bé-bé-bé-béx Les MCs puent d'la schneneneck Saddam Haut d'Seine, Seth Guexxx ça fait zdededex Rien d'amical, schlass sur les amygdales J'cours vite j'frappe fort comme Abidal Toute ta clique à l'hôpital, Nhar Sheitan Duc de Boulbi, King de la capital Auprès des demoiselles j'ai une sale image Peu d'sentiment j'préfère baiser comme un animal Le monde m'appartient j'suis matinal Gros boulard à coté de oi-m, grosse barre de bamboula Kilo d'coke dans l'double fond de la poussette J'pars en Q7 tu pars en sucette Tu kill la musique des bals musette, bois la vie cul-sec Négro j'te connais a-p mais rien qu'tu checkes Gâchette Index Kopp Seth Guex J'fais froid dans l'dos comme mon pote Sergueï La coke a pris la place au shit Champion de barres pas halal crois-tu que j'ai ma place au cirque ? Lève ton majeur en l'ai-l'ai-l'air Je suis un magnum comme Seléléck Drive by en s-s-l-l-l-r Tvois j'veux dire ou pas frère, fais belelelek On t'renverra ton string par Fed-de-de-dex Lève ta bécane en I fais bé-bé-bé-béx Les MCs puent d'la schneneneck Saddam Haut d'Seine, Seth Guexxx Non d'une pipe en Bois de Boulogne Ratatatax, j'ai la kalash à Al Pacc' J'ai la ganache à Poelvoorde Tu m'fous en rogne jtétripe le ventre D'abord un coup d'casserole, puis un coup de pic de tente Boom j'crache mes rimes, j'ai les couilles dJacques Mesrine Prochain coup marketing j'sors ma bite et j'triple mes ventes Tu laisses ta caisse on t'pique tes jantes ou l'autoradio Mon gadjo on débarque caravane au cul du Lambo En gardave j'fais des pompes, j'lis les tags j'suis claustro J'me replis sur moi-même comme le bras du Scorpio J'représente tout le monde, des roulottes au roloto On met des pneus d'tracteur sur nos roues de moto Lève ton majeur en l'ai-l'ai-l'air Je suis un magnum comme Seléléck Drive by en s-s-l-l-l-r Tvois j'veux dire ou pas frère, fais belelelek On t'renverra ton string par Fed-de-de-dex Lève ta bécane en I fais bé-bé-bé-béx Les MCs puent d'la schneneneck Saddam Haut d'Seine, Seth Guexxx ça fait zdededex</t>
         </is>
       </c>
     </row>
@@ -5065,12 +5065,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>I Will Be There</t>
+          <t>Best Friend</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>VIZ By Akil First bar of the night if I don't rock a fella then my ethers will Smith a flow cadence no Jaden icon my genes instill A fear in rappers pen game so its best served on a cold stake Revenge ain't me unless I come to buy love and you sold hate I shoulder pain the weight snappin my clavicles I'm capping knees I kunta average whack MC's I hit them fast like kashus be Neath the masses is half of me humble and sittin back as the Other half up in orbit with satellites near where Saturn be This Harvey Dent flip coin the beat enjoy the girls anatomy An attitude that's half of me Id grab a boo and clap sum wait Now grab a plate and snatch a seat I snatch the waist like maggots be I magically flip acronyms vocab the same I scratch the page if that ain't great You snap my brain if cats ain't made from my creation Stuck in past with massive hate But Beef is bad it clogs your veins So run it back eat succotash You suck at rap I'm runnin laps I watched the back of course I'm stabbed But talent breeds some hateful mass I get it If you wanna change up you see now We can go and do that together Just know I will be there be closer Because I Damn you got caught up in wrong places at wrong times Times Fly as shit like its 911 but call the number you ignore me like feds do Feds jump to say we monsters when smacking a broad true But if roles reversed she ain't equally harshly charged But wheres that equal rights shit I been on my boobay vibe Sous chef soufflé pseudo name is true great naz I give two face palms when I hear your crew straight fire If I gotta prove even in my throwaways that it's my time I shine life while I loosen go stupid contusions is tumor sized Dubs this for when I was quiet back in my highschooler times Moving right I'm driven you in the back like a uber drive Sumo lines mic foul notebook full I'm a night owl Bet your bottom butler buddy backin me is an anomaly until my lights Sound And my fight style call my mike now Take a head count imma snipe now Never Wesley kinda messy But my best heats when my life's down But a blessed me can detest even the best rhymes even like now If you wanna change up you see now We can go and do that together Just know I will be there be closer Because I love you so</t>
+          <t>Yeah Arms locked in our matching Juicy tracksuits Used your lip gloss, I don't even got to ask you Still young, we've got years to keep on bein' a mess Ah You're the best, oh Strippin' at the bus station Talkin' 'bout our aspirations How the hell are we getting home now? We only got cocaine and kandi bracelets Used to be so innocent, but now we're hot like cinnamon We're born to sin, yeah, you and me Yeah, we're what others dream to be My best friend, my best friend My best friend, my best friend My best friend My best friend High tops, dancin' crazy on the concrete And if you're drivin', then you know I'm always front seat Ice cream and tequila, always makin' a mess You're the best, oh Strippin' at the bus station Talkin' 'bout our aspirations How the hell are we getting home now? We only got cocaine and kandi bracelets Used to be so innocent, but now we're hot like cinnamon We're born to sin, yeah, you and me Yeah, we're what others dream to be My best friend, my best friend My best friend, my best friend My best friend My best friend Best of 'em than all the rest of 'em You are the season one Lauren to my Heidi Baby, you are the best of 'em than all the rest of 'em And wherever you go, you know I'll be Yeah Strippin' at the bus station Talkin' 'bout our aspirations How the hell are we getting home now? We only got cocaine and kandi bracelets Used to be so innocent, but now we're hot like cinnamon We're born to sin, yeah, you and me Yeah, we're what others dream to be My best friend, my best friend My best friend, my best friend My best friend My best friend1</t>
         </is>
       </c>
     </row>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Cash Flow</t>
+          <t>Platine o Plomo</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>NITETIME Yo, ouais, Malga Yo, ouais, hey Pull up et je perds la tête Pull up ils se trompent de tempo Jsuis dans la city yes skwa Jsuis dans les adlibs woha Ouais je sais quils nous méprisent Fais le donc ouais ouais pour voir Si le taf éteint mon esprit Le rap a un vrai pouvoir Yo Malgani maz je rappe comme avant T'sais pas TF cest les meilleurs ah bon Abonne toi si tu veux savoir Fais pas style que tes pas au courant Quon est hostile au gouvernement Dernière heure de ta vie Malgani je suprvise le sniper qui t vise Violeur ministre Violence maquillée dans la rue Rien à changé depuis Temps Mort Depuis lépoque de Booba Cash Flow Sur Spotify pour le braquage Reste pas sur scène ou tu bé-tom Jarrive toujours le dernier Et je repars en premier J'suis au coup franc, cest en lucarne Et je fais même pas de célébration Y a 3 zér a laffichage et tu retournes au rond central Et tu mettras un filet entre les jambes pour les petits ponts J'suis promu, tas des promesses Tes relégué, je suis renégocié Cult Si je claque soon Les médics rattraperont mon âme au lasso Ouais, ce monde est lassdeg Loyal comme Lassie mon G Je pull up dans back dacide Pour ceux que jestime en bas de la street Hell no, claquer un SMIC dans des fake streams Fact, ta musique est factice Live by yo rep, je fais pas de diss si je dis que je dislike ton délire Jdrink ces Mc's comme Fanta Tu nes quun junkie sous fantanyl Cest fun je review ta clique, jsuis Fantano Ton antonyme, accroche toi à ta ventoline Jvais te faire courir, jsuis coach sportif Quand j'kick, les vitres se brisent Askip cest bon de ventiler Faut aspirer la concurrence Le Cult est magnanime Cette shit est rare comme feater avec Malgani Je crois que je perds la tête Je crois que je perds la tête Je crois que je perds la tête Pull up et je perds la tête Pull up ils se trompent de tempo Jsuis dans la city yes Jsuis dans les adlibs woha Ouais je sais quils nous méprisent Fais le donc ouais ouais pour voir Si le taf éteint mon esprit Le rap a un vrai pouvoir Pull up et je perds la tête Pull up ils se trompent de tempo Jsuis dans la city yes Jsuis dans les adlibs woha Ouais je sais quils nous méprisent Fais le donc ouais ouais pour voir Si le taf éteint mon esprit Le rap a un vrai pouvoir</t>
+          <t>Platine o plomo, amigo Que pasa puto? On va tous vous niquer vos mères, y aura pas d'cas par cas Dos argenté dans les ovaires, tout droit pas de 4-4-3 J'ai pas fait longtemps sur le terrain, croyant pouvoir égaler Pablo Ravitaillant en écailles à Orgemont, la gow là fait pas de cadeaux On s'envoie tout en signaux, c'est pas pour sauver l'Amazonie Rafale dans ta mère la MILF, tous à l'agonie, c'est quoi ce honey ? Passe par Feuneu si ça t'amuse, passe par vran-Se pour le grabuge J'suis premier sur l'rap avant Fred Musa, d'la tête aux pieds, j'ai la méduse Jamais, jamais je ne décota, libérez-moi madame la juge Si j'suis plus là, le rap français, c'est plus AMG, c'est plus Brabus Ivre de vengeance, toujours en état d'ébriété Par les armes et le sang qu'on obtient vraiment sa liberté Le brava sort de la caisse grrah, ça tire dans les cuisses pah Bonbonne de coke dans la veste grrah, c'est mieux qu'j'prenne la fuite Trois heures du mat' sur le parking, j'commence par qui ? Poh, poh Neuf heures du mat' dans la sécu, j'commence par l'king poh, poh Le chemin est long chez certains entre la parole et l'acte J'sais plus faire la part des choses, quand j'suis sous pilon mes yeux se dilatent J'suis balafré ça en dit long, j'ai l'itinéraire et le filon J'ai tellement d'amour pour ma fille, en même temps tellement de haine contre eux Tout le monde à les pastilles, le Uzi, laisse-les faire les mafieux J'peux t'envoyer mes filleuls, on connaît la zone de Creil aux Tilleuls Ça vend la frappe à Ziyech, on bé-tom pour gue-dro, pas pour viol Fais pas la ppe-fra, t'es vilaine, petit j'attirais plus vieilles Té-ma le Merco AMG hey, hey, j'attends mes finances AFG hey, hey Beaudottes, été enneigé hey, hey, trois cent mille ventes en léger hey, hey Le brava sort de la caisse grrah, ça tire dans les cuisses pah Bonbonne de coke dans la veste grrah, c'est mieux qu'j'prenne la fuite Trois heures du mat' sur le parking, j'commence par qui ? Poh, poh Neuf heures du mat' dans la sécu, j'commence par l'king poh, poh Le sang c'est le sang, j'peux pas changer de camp Platine o plomo, amigo, pas là pour chauffer le banc T'as fait si, t'as fait ça, t'es qui d'jà ? J'me rappelle pas Mamadou, Moustafa, oui c'est ça, on vous rappellera allô ? Les Derniers Salopards, Réelle vie 3.0 Ah bah ouais Bersa1</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>De mauvaise augure</t>
+          <t>Piccolo</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Les négros veulent prendre ma place, ma tek, mes rimes au plasma Mec on est àl quoi wesh arrête de m'check Le choc débute et y'aura pas qu'moi, mac les putes à chaque beat J'déboule et puis ça chuchote comme au parloir 92 pour le fief, I pour injection Ma génération, shit, violence et sexe Les lois, les droits, j'me les donne, pour m'aider, j'demande à sonne-per B20BA02R À part aux frères qui shootent les harkis Veulent avancer, squattent le parking, s'méfient des s'ringues vides Ç'sra la tabaski si tu m'invites j'repars jamais les mains vides Official depuis les premiers Starsky J'suis différent, premier qu'en sport et en chant Délinquant, rentre à l'heure où les oiseaux chantent Pas méchant mais nocif, franchis pas nos sites Évite un génocide, on rate jamais nos cibles Mon arrivée, violemment annoncée Du zoo, de la zone arrive un poison T'inaugures ma verge au cul, sur les nerfs de mauvaise augure J'm'endors avec ces putains d'oiseaux J'te raconte que c'que je connais, ça va du bled à ma queue T'étonne pas si c'est la même Si c'est la merde, avec un peu ou beaucoup d'pesos La même chose, loin d'être parfait, ne jamais cracher dans mon mafé Fais c'que tu sais faire, fermer ta gueule, parler dans mon dos Essayer d'prendre les commandes en suçant mon commando Usé par les mauvaises langues mais rusé j'use De la risée pour t'arroser si tu veux juger bouge J'suis l'MC scolarisé, change mon instruction en polar Et tu savais qu'j'arrivais depuis qu'tu suçais l'pouce Bon écoute, j'avoue si j'pouvais tout r'faire J'niquerais les girophares, Yaye j'essuierais tes joues J'porte le fer, j'change de flow, j'change de putes, j'change de puces J'change de conso, donc change de but Mets pas ton string dans ma sauce, putain on mange pas l'même riz Essuie le sang l'urine et descends du ring J'suis différent, premier qu'en sport et en chant Délinquant, rentre à l'heure où les oiseaux chantent Pas méchant mais nocif, franchis pas nos sites Évite un génocide, on rate jamais nos cibles Mon arrivée, violemment annoncée Du zoo, de la zone arrive un poison T'inaugures ma verge au cul, sur les nerfs de mauvaise augure J'm'endors avec ces putains d'oiseaux J'suis différent, premier qu'en sport et en chant Délinquant, rentre à l'heure où les oiseaux chantent Pas méchant mais nocif, franchis pas nos sites Évite un génocide, on rate jamais nos cibles Mon arrivée, violemment annoncée Du zoo, de la zone arrive un poison T'inaugures ma verge au cul, sur les nerfs de mauvaise augure J'm'endors avec ces putains d'oiseaux2</t>
+          <t>Comme on dit dans l'6-9 Comme on dit Comme on dit Comme on dit Comme on dit Sencey ReedZ on the track baby Izi Comme on dit dans l'69, t'es un vilain pélo pélo On va jamais s'en sortir, l'humain est un fléau est un fléau T'as sniffé toute la coke avec le nez de Pinocchio Pinocchio Fusil sur la nuque, le visage dans le pillow, oh pillow, oh Never, never we gon' let these niggas win never I can't sleep at night, dreamin' of my sins I can't My momma cried to me, she found my shoe box full with dope Oh Check under my bed, sh find a rifle with a scope No When I'm in th streets, I got the sun on me On me 'Cause you never know who's gonna tryna to take your vie Lost a lot of zanmi, I can't even fuckin' compter Drive-by's all the time, done honey bow hood fuckin' chauffer I just got a text from my old lady, she says sal Those that said they loved you barely know you, that shit cap Just because they smart, they say they like you, don't be fooled Keep that Uzi on you, fuck these niggas, don't be cool, yo Comme on dit dans l'69, t'es un vilain pélo pélo On va jamais s'en sortir, l'humain est un fléau est un fléau T'as sniffé toute la coke avec le nez de Pinocchio Pinocchio Fusil sur la nuque, le visage dans le pillow, oh pillow, oh Comment ça j'te dois des sous ? C'est quoi ce miel ? ce miel Humeur sénégalaise, humeur comorienne Tout est noir, du flingue à la ceinture au kimono Que l'avenir baise ses morts, j'roule un gros joint de Piccolo J'suis Michel, fuck la police, chez nous, y a pas d'comédie Taille 46 d'une Dominicaine, on s'check après minuit M'appelle plus jamais, bitch, brr, réponds tard On parle pas srilankais, toi et moi, y a pas d'saison 2 ouh J'veux la carrière d'Zinedine la carrière d'Zinedine Cur qui saigne, laisse des traces indélébiles oh, oh, oh J'ai vu ses formes, ses hanches, sous ma paire de 4 saisons Elle m'dit Brams', ça fait longtemps qu'j'te baise, pour moi, c'est bon J'ai beaucoup d'rêves mais peu d'espoir, la mentale noire, on vise l'exploit La piraterie n'est jamais finie la piraterie n'est jamais finie, les lossas n's'arrêteront donc jamais tu connais déjà Comme on dit dans l'69, t'es un vilain pélo pélo On va jamais s'en sortir, l'humain est un fléau est un fléau T'as sniffé toute la coke avec le nez de Pinocchio Pinocchio Fusil sur la nuque, le visage dans le pillow, oh pillow, oh Comment ça j'te dois des sous ? C'est quoi ce miel ? ce miel Humeur sénégalaise, humeur comorienne Tout est noir, du flingue à la ceinture au kimono Que l'avenir baise ses morts, j'roule un gros joint de Piccolo</t>
         </is>
       </c>
     </row>
@@ -5116,12 +5116,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>B.O (Banlieue Ouest)</t>
+          <t>16 rimes</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Je vais te dire, je suis pas une star, pour mourir il faut qu'une balle Détesté, pour m'faire tuer il faut qu'une barre Même à crédit boum, le bruit de mon son Cool que dans ma base, roule que des gros joints de case On va tous revenir ici, bilaye Je vous l'avais dit que les vrais savent, Ousmane, HLM 3, je crois Les colons nous l'ont mise profond À l'envers on va leur faire, mate ici ce que les khos font Du dégoût pour mes fils de Kédougou et Rufisque C'est pour les rues de mon bled sur disque Dix sur dix mon pays, mon perso Et les toubabs veulent arracher l'fusil d'mon berceau J'ai un pied dans la merde, un pied dans la mosquée Bousille la rime au Uzi, 92i B.O, Banlieue Ouest, négro Des holsters avec des micros, ils croient qu'Paris c'est Sarajevo Pourquoi ça gaze autant ? Chez nous y a pas l'OTAN Alors si y a la guerre, ça va durer longtemps Je suis là pour représenter les gars qu'ont pas le temps de plaisanter Ali, Brahms, Mala, Shepe, la marijuana One five one, dingue est la dinde Kho, c'est du béton, c'est de la jungle Maintenant ils veulent nous stopper pour nos lyrics explicites Codées dans des raps illicites, stockées Dans nos albums que récitent nos jeunes, c'est de ça qu'ils flippent Que nos messages passent et que leurs mensonges s'effacent Place mes rêves, mes solutions Ma révolution, pas de trêve Chaque jour me lève avec la victoire pour résolution À celui qui la donne et la reprend va toute ma dévotion Pas de doute naturel MC Me fie à mon instinct, à mon émotion Dans un État où la justice manque d'équité Qu'ils retiennent que tout système a une faille, sang et chrysanthèmes dans les J.T Les images défilent Apocalypse dans les villes, y a pas que du calypso dans les îles Crack inhalé jusqu'à nos allées Les virus s'abritent dans la chair des bêtes L'esprit malin, dans la tête des hommes installé 667, 92i, 45 kho Qui a dit que la rue s'est adoucie ? Ici les putains veulent du rap doux T'auras qu'la boue qu'il y a sur mon doo-rag Du rap avec mon double, mon quartier, mon département 92 troublant, clan des man appartenant Je double, on est venu récupérer notre dû Dans vos rues on va faire couler votre pus Chaotique, des lyrics à la rythmique Le funky son qui met des front kicks Pour Oumar et le Dorse coincés au bloc, trafic, la vie oblige Dans les bacs, ma vie oblique tracée au Bic C'est ma nature, tout niquer sans faire de ratures Interdit aux bâtards, fait monter la température B.O, Banlieue Ouest, négro Des holsters avec des micros, ils croient qu'Paris c'est Sarajevo Pourquoi ça gaze autant ? Chez nous y a pas l'OTAN Alors si y a la guerre, ça va durer longtemps Je suis là pour représenter les gars qu'ont pas le temps de plaisanter Ali, Brahms, Mala, Shepe, la marijuana One five one, dingue est la dinde Kho, c'est du béton, c'est de la jungle On m'a dit il pour il, dent pour dent, j'ai répondu deuil pour deuil et sang pour sang, âme pour âme Mais j'ai puisé ma force dans le pardon A.L.I., ainsi est ma vie T'es des miens, en silence marchons Ce que je détiens t'appartient sauf les erreurs, passons Mon son la pression mes textes l'avertissement De ce monde, défie le mauvais il sans talisman Distant de tout ce qui pourrait pourrir mon existence Mon combat, ma lutte, ma cause, ma résistance Près de ceux qui refusent l'oppression De par ma parole diffuse ma vision, rimes sans poésie Rap, musique réelle Comme les bavures et les expulsions, ennemi public Dans la mire toujours la même silhouette Vengeance, ceux qui la souhaitent ne manquent pas Attends-toi à plus d'un attentat, ici la France Loin des ambiances pétards-14 juillet Quand c'est trop tard et qu'y a du sang à essuyer C'est sur le miens que les médias focalisent Apocalypse immédiat, ni basques, ni corses Ma clique revendique à visage découvert Microphones ouverts, et nos actions s'amorcent, féroces C'est pour mes gens aux instincts de fauves Lions de Judée et Black Panthers, faut que ça rugisse dans les cages Mérogis et 92 Nanterre A.L.I., Booba, Lunatic On t'serre, on t'saigne B.O, Banlieue Ouest, négro Des holsters avec des micros, ils croient qu'Paris c'est Sarajevo Pourquoi ça gaze autant ? Chez nous y a pas l'OTAN Alors si y a la guerre, ça va durer longtemps Je suis là pour représenter les gars qu'ont pas le temps de plaisanter Ali, Brahms, Mala, Shepe, la marijuana One five one, dingue est la dinde Kho, c'est du béton, c'est de la jungle</t>
+          <t>NavigationCette annotation contient des redictions vers chaque lettres, ce qui permettent de naviguer plus facilement sur la page !Un 16 Un 16 est un texte de 16 mesures, soit, pour simplifier, 16 lignes de textes, ou 16 rimes Ce nombre de lignes correspond à la taille habituelle d'un couplet standard, mais il existe des 8, des 32, des 64 et bien d'autres types de texte...BBarre Une barre veut dire une mesure, soit une ligne de texte, un texte de 8 lignes peut être appelé un huit barres Battle Un battle c'est une joute verbale, le but étant de décrédibiliserridiculiser l'adversaire Il peut être préparé à l'avance, ou bien improvisé, avec ou sans instrumentale Beat Le beat vient de battement en anglais, un beat signifie le plus souvent une instrumentale, c'est la musique sur laquelle le rappeur va poser son texte Le seul docteur que je connaisse fait des piqûres pas des beats. Sinik - Dans le vif Beatboxing Discipline où le corps, notamment la bouche, sert dinstrument. Le terme human beatbox signifie littéralement boîte à rythmes humaine Beatmaker Un beatmaker littéralement un fabriquant de beat est celui qui compose et qui crée les beats, les instrumentales, on peut citer DJ Premier, Skread, DJ Mehdi... Juste besoin d'un contrat, d'un flow, d'un beatmaker Booba - Pigeons Break dance CClash Un clash c'est un règlement de comptes opposant deux rappeurs, il peut se faire en musique mais aussi par déclarations ou en face à face Cloud music La cloud music désigne un type d'instrumentales très planantes sur des beats lents Choker Verbe utilisé en battle et qui veut dire oublier son texte, avoir un trou de mémoire hein, crouler sous la pression Crew Groupe dartistes de rue réunissant rappeurs, graffeurs, DJs, breakdancers... tout ce qui touche à la culture Hip Hop Couv' La couv' est un diminutif de couverture et désigne la une des magazinesDDJ DJ sont les initiales de disc-jockey et désigne la personne qui tient les platines, qui sélectionne et passe la musiqueEEgotrip Un texte est dit egotrip s'il a pour but de flatter son propre ego, de se vanter Sa forme est souvent plus travaillée que son fond car un texte egotrip est rarement à prendre au premier degré Ces textes sont souvent constitués de punchlines EP Un 'Extended play' est un format musical plus long qu'un single mais plus court qu'un album. Il s'oppose au 'LP', qui correspond au format d'un album completFFat laces Les fat laces sont des lacets larges et colorés. Ces accessoires permettent d'ajouter du style à ses baskets ou chaussures Flow Le flow est le terme servant à définir la façon dont un rappeur pose les syllabes par rapport au rythme À ne pas confondre avec le débit, souvent, les gens confondent la rapidité et le flow Bien que ce flow ne soit pas quantifiable, en réalité, dire qu'Eminem a plus de flow que Nas ne veut rien dire, on utilise tout de même ce mot comme si on pouvait le compter J'ai trop de flow On appréciera un MC à son flow, ce qui correspond au groove en musique Freestyle Un freestyle est un texte posé a capella ou en musique, il sert souvent de carte de visite, et peut être effectué en groupe Le texte peut être inédit, issu d'un morceau, ou sans aucune ligne directrice. Il peut s'agir d'une improvisation mais un freestyle, par définition, n'est pas forcément une improvisationGGame Le Rap Game désigne la compétition fictive et interminable menant au titre de boss du Rap Game Le but d'un rappeur dans le game est de vendre un max et d'être le maître de l'égotrip Genius Un Genius est un personne dont le Q.I. élevé lui permet de comprendre une rime ou un morceau plus facilement qu'un individu lambda Le rap étant lyricalement la plus belle musique de loin de nos jours, il va de soi que les premiers Genius sont amateurs de rap, bien que des Genius dans le Rock et le Reggae se soient aussi distingués aux États-Unis Par ailleurs, il n'est pas rare de voir un Genius citer une punch' en pleine discussion, se mettre à kicker, ou encore se vanter de son gros RAP IQ ! Certains Genius s'exercent aussi à la punchline rapologique sur Twitter Graff' Le Graff désigne la discipline du graffiti dans son ensembleHHey yo ! Hey yo ! est une interjection usuelle pour attirer l'attention et interpeller l'auditeur ou l'adversaire quand on est au micro ! Yo étant une prononciation argotique de you, la formule se traduirait en français par Eh, toi !IIndépendant Un rappeur est dit indépendant si son label n'est pas sous-traitant d'une majorKKickeur Un kickeur est un bon rappeur, un rappeur technique On dit qu'il kick, porté sur la forme, rimes richesLLyrics est le mot anglais pour dire Paroles de chansonsMMajor Les majors du disque sont les trois grandes maisons de disques MC De l'anglais Master of Ceremonies, en gros le maître de cérémonie c'est celui qui anime la soirée avec son micro, donc ça inclue les rappeurs Mic Le MIC c'est une abréviation du Microphone prononcé avec l'accent US Mixtape Compilation regroupant plusieurs chansons provenant de plusieurs artistes ou d'un seul artiste. Cette compilation est mixée par un ou plusieurs DJs et généralement distribuée de main en main, souvent dans un but promotionnel Mouv' Le mouv' est un diminutif pour désigner le mouvement culturel et musical du hip-hop dans son ensembleNNew Old School La new old school est une nouveau courant de rap qui a fait son apparition mi-2011 avec l'envie de certains rappeurs de la new school de faire du son comme à l'époque old school, avec des beats d'époque, des lyrics d'époque Ils veulent donc créer une musique actuelle, mais avec les bases du rap old school. Ce retour aux sources se fait notamment en évoluant en indépendant, en collaborant avec des figures du rap old school... New school La New School à l'inverse de la Old School se caractérise par des textes moins sensés, plus portés egotrip, sur des beats plus street et beaucoup moins soulOOld school Rap dit à l'ancienne , c'est très subjectif, on ne peut donc pas dater précisément, bien que pour beaucoup cela correspond à tout ce qui s'est fait avant 2000PPhase Une ligne de texte, un passage, ou une séquence d'un morceau Posse Synonyme de crew Punchline Une punchline c'est littéralement une phrase coup de poing , le genre de phrase bien formulée qui laisse sans voix, souvent de belles métaphores, ou des jeux de mots grinçants A noter que les punchlines sont souvent utilisées dans les morceaux egotrip Ex J'ai plus de flow qu'une femme fontaine Booba - Abracadabra Les punchlines peuvent se trouver partout, BD, chanson française, cinéma, la télé, etc... Ex J'ai des mains faites pour l'or et elles sont dans la merde Tony Montana - Scarface Mais le rap reste la plus grosse usine à punchlines ! Pull-up Indication utilisés en live, quand le rappeur demande à son DJ de couper le son. Les raisons d'un pull-up sont variées l'artiste rate son live ou un problème survient et l'artiste doit couper son morceau ...RRap De lacronyme 'Rythm and poetry' en français Poésie et rythme Le Rap est un style de musique composé principalement d'un texte scandé, improvisé ou non et rythmé par un beat ou une instrumentale Rap alternatif Alternatif aux thèmes et façons de faire souvent récurrentes. Le Rap alternatif désigne également une fusion entre rap et diverses rythmiques souvent électroniques Rap conscient Un rap conscient est un rap qui parle de problèmes politiques etou de société, un rap engagé en sommeSSample Échantillon sonore emprunté à une bande sonore pour former le beat. Le procédé est le sampling et la machine est le sampler Il y a le sample utilisé pour le beat , et les autres samples, utilisés pour illustrer des propos Scratch Bruitage effectué, par le DJ, grâce à la manipulation en avant et en arrière du disque vinyle Skeud Skeud est le verlan de Disque Skit Intermède entre deux morceaux, souvent constitué de dialogues, qui peuvent être extrait d'un film, d'un sketch, d'un discours ou d'une autre chanson. Parfois le dialogue est fait par l'artiste lui-même pour replacer le morceau dans le contexte dans lequel il a été enregistré Swag Le swag c'est en quelques sorte le Style Ceci dit, il peut être utilisé comme un verbe ou une interjectionTTag Le tag est une branche du graffiti qui consiste à poser sa signature représentée par un court lettrage stylistique au feutre large ou au Poska marque de feutre peinture un peu partout sur des endroits de passage et de visibilité stratégiques, afin de diffuser son nom de tagger et celui de son crew collectif Trap music La trap music est est un sous-courant musical issu du rap et de la rueUUnderground De l'anglais signifiant littéralement souterrain Adjectif désignant les artistes travaillant hors des circuits commerciaux production indépendante, aucun recourt à la promotion, etc. Désigne aussi plus généralement un style moins accessible, par opposition au mainstreamWWack MC De l'anglais 'weak' qui signifie 'faible', un Wack MC ou un MC Wack, ou même un Wack est un rappeur qui craint, qui est mauvais, mais qui se vante d'être bon Ceux à qui on reproche un manque de créativité, d'authenticité, ou ceux qui ne disent que des trucs stupides dans leurs textes18</t>
         </is>
       </c>
     </row>
@@ -5133,12 +5133,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Banlieue</t>
+          <t>GDC</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Ramène d'la pure ou casse-toi ! Viens pas vendre ta came ici B2oba gravé sur le missile Afrika Bambataa m'cherche pour homicide, écoute pendant qu'ton string sèche Fluide est mon clan, l'insigne je pine sans temps d'arrêt ! Je vis sur le cran d'arrêt, me demande pas à quoi sert une maison d'arrêt Les jaloux disent qu'on meurt bientôt à ce qu'il parait Ma vie, de nombreux périples Je prends le fric des MC qui à chaque sortie du périphérique Appel à tous les gorilles faut qu'on s'alourdisse Je prépare des trucs horribles dans ma catégorie On veut me tester sur mon terrain sans aucune décence Écrase pas ton joint à la pompe à essence Il est toujours minuit à ma montre et mes lyrics puent le tiers monde, kho C'est B2O ne représente pas ceux qui plaisantent De la banlieue on connait les ficelles, les strings ficelles Mafia K1fry 94 official ici il n'y a pas d'fashion Victime on t'arrose le khosss à la cityne Rabzouz avec des grosses coronès, c'est la B.S c'est bim bim Les stupéfiants c'est à Dam, un double casse place Vendôme C'est évident comme de la coke dans le blaze à Van Damme S'en prendre à l'oseille de lÉtat, collé un pain de plastique sur un fourgon On fête ça le soir au bourbon à la Smirnoff Fait tourner un semi remorque, on a la flemme d'aller au boulot Comme les chard-clo parano dans le narco On baise tous Sarko, Camille, Bourgogne, Balzac, Le square La commune, Lucien, les combattants et couzi 113 c'est pas le chiffre d'un compte bloqué en sse-Sui Depuis qu'on a la khrouna, tous rongés par les soucis ! Tu croirais qu'on sort d'un camp roumain, regarde nos chicots cousines ! Je suis juste la relève tu as sûrement dû voir les anciens de ma tèce dans Ronin ! On se bousille on a trop chinés, chicanés neutralisés les gueulards Les sacoches de touristes bourrés de dollars ! La banlieue c'est dangereux t'as raison de te chier dessus T'es dead, KO Mafia k1fry 100-8 zoo On a quitté l'école trop tôt, poto, on arrive avec nos bites et nos couteaux ! C'est la B.S B.O Ça se passe de l'autre côté de la rue, celle-là c'est pour Sarko Si le ghetto a des bras c'est pour faire des Bracos Fiché stéréotype en mono stéréo, négro C'est pour les têtes brûlées ghettoïsé depuis le préau Contrôlé à chaque feu pas déguisé pour rentrer en boîte 9 millimétrés pour rentrer entier, petit la rue c'est fatal ! Bloque pas sur les ondes hatai ! Ça passe sur Sky ou pas c'est 100 racaille Vitry 94 tard le soir on smoke, tu ne me crois pas soit tard on moque C'est pour les fous du volant comme Mahmoud ! Un gros doigt pour les rassèss d'l'État pour ceux qui sont au hebs Aux auxis, au proxo au p'tit frelon qui aime boxer, mettre des crochets Au toxo qu'ont pas encore décroché, mesure le taux de risques Hall 13 y'a pas drouchette, vidéo amateur X KX avec des gros pots de compète Mon nom traine dans les enquêtes, on traque les sons de bootlegs 9.4 9.2 la Fnac encerclé comme Arafat Nos lyrics n'ont pas de règles, les tiens saignent de la chatte ! Ta carrière tient au fil d'un tampax qu'est-ce qui t'a pris ? On a le son qui met la pression, tu as le son qui tapine ! Hé gros fais pas le con si tu as pris ta kalash Respect aux frères qui font la salat, O.P. depuis les premiers Scal-Pa Booba Rim'K vivent dans une escalade de violence En banlieue, dans le rap, et même en bas de chez toi on se balade La banlieue c'est dangereux t'as raison de te chier dessus T'es dead, KO Mafia k1fry 100-8 zoo On a quitté l'école trop tôt, poto, on arrive avec nos bites et nos couteaux ! C'est la B.S B.O La banlieue c'est dangereux t'as raison de te chier dessus T'es dead, KO Mafia k1fry 100-8 zoo On a quitté l'école trop tôt, poto, on arrive avec nos bites et nos couteaux ! C'est la B.S B.O1</t>
+          <t>Laks Production J'te l'dis I.Z.I Bientôt Bientôt, tout va faner au printemps, j'saigne mais ils peindront le ciel de rose Bientôt, métavers et avatars, flemme, fini la fête des Vosges J'suis obligatoire, petit bâtard, saigne, comme la deuxième dose J'hésite pas à sortir le yoga flame pour avoir gain de cause T'as pas d'crypto, c'est la hess, ressaisis-toi wesh, adios les mauves Cartel, B2O, Tavares, d'mande à Maes, à Dios' et Moz On t'éteint, pas d'abracadabra, un seul message, une seule idée La chatte à Stella Kamagras, kilométrage illimité Dans la vallée des morts, j'fais du buggy, de l'aube à l'aurore, envie d'tout niquer Rachète pas l'Urus à Meugui, c'est Abdou Motors, il est pipé Légende vivante comme Akim, K.O.F.F.I Olomidé Comme la promenade du CJD, la mer est bien trop agitée Tu crois pouvoir faire comme le Duc, avoir compris le truc, t'as pas idée Le vide derrière moi m'empêche de r'culer, j'sais pas léviter Je paye en euros, en ETH, alcool, pas de l'eau dit le PH J'préfère t'niquer ta mère, j'aime pas débattre, j'arrive en double R chez le pédiatre Bientôt, tout va faner au printemps, j'saigne mais ils peindront le ciel de rose Bientôt, métavers et avatars, flemme, fini la fête des Vosges J'suis obligatoire, petit bâtard, saigne, comme la deuxième dose J'hésite pas à sortir le yoga flame pour avoir gain de cause Piraterie, liberté, c'est le thème, c'est sur ça qu'elle repose Si j'meurs au combat sur mon glaive, faites graver ces quelques proses Elle croit qu'je l'aime mais je l'aime pas quand même, je laisse le doute planer Bientôt, les chinois vont tout contrôler, moi, je suis prêt à manger des nems toute l'année Ça vient du Pont d'Sèvres, enculé, quand ça voulait, encore dire quelque chose T'es même pas connu à la SNEP, 7echek, comment tu oses ?</t>
         </is>
       </c>
     </row>
@@ -5150,12 +5150,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Marche ou crève</t>
+          <t>Kayna (Remix)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Yeah... Tu veux ma Air force limitée? Passe à Boulbi je t'arrange Drapeau du Galséné et les semelles transparentes Cuir rouge comme les Bloods de L.A Yoda te le dira Mieux que la tienne elle est Y a pas photo, Au micro Yaffa Elie Super violent, je rappelle aux vétérans la Tchétchénie La vie est une chienne... j'ai un pit dans le veau-cer J'suis international... t'es number one à Auxerre Marche ou crève, créé pour le bitume Ma force te met dans le zef Mes khos font du Jujitsu pour avoir les clefs Passe à mon store j'ai les plus beaux tissus J'monte sur le ring, dilate tes pupilles Tout le monde en string, 92izi dans le building J'monte sur le ring, dilate tes pupilles Tout le monde en string, 92i est dans le building Marche ou crève, gagne ou sois vaincu Marche ou crève, gagne ou sois vaincu Ma-Marche ou crève, gagne ou sois vaincu Sombre est l'attitude, sombre est l'individu Marche ou crève, gagne ou sois vaincu Marche ou crève, gagne ou sois vaincu Ma-Marche ou crève, gagne ou sois vaincu Sombre est l'attitude, sombre est l'individu J'marche à Macys aux Galeries Lafayette sous fat laces Milliers d'euros en poche, faut-il vraiment que je te le précise? J'frappe le Japon, la terre est mon boloss West Coast, locos, holocauste intramuros Je laisse le ter-ter en jachère Toujours propre car nettoyé au Kärcher Marche ou crève, gagne ou soit vaincu Sombre est l'attitude, sombre est l'individu Frais de la casquette aux baskets J'vais sur les Champs, acquière paire de Nike Air Je mange du ferme, tu manges au Quick K1fry patriotique distribue chaotique low kick J'ai le meilleur coton à force d'être dans le champs Je suis sur le peloton, alcool brun dans le sang Faut que les rappeurs arrêtent d'émettre Ils ont laissé des gouttes de pisse sur le trône comme dans les toilettes des mecs... Biatch! Marche ou crève, gagne ou sois vaincu Marche ou crève, gagne ou sois vaincu Ma-Marche ou crève, gagne ou sois vaincu Sombre est l'attitude, sombre est l'individu Marche ou crève, gagne ou sois vaincu Marche ou crève, gagne ou sois vaincu Ma-Marche ou crève, gagne ou sois vaincu Sombre est l'attitude, sombre est l'individu T'as le cul cloué à la cité et tu voudrais qu'on partage J'ai pris mon flingue et mon gilet négro j'ai fais mon paquetage J'arrive toujours équipé lourd comme ça j'ai pas besoin dêtre aimable Rendez vous au 2eme sous sol pour qu'on s'arrange à l'amiable C'est K.O.2P, K pour le O pour le 2 pour le P Ça fait K pour le O pour le 2 pour le P Ça fait K pour le O pour le 2 pour le P Ça fait K pour le O pour le 2 pour le P Ça fait.... Yeah... Ed Banger, Tallac Records, B2OBA 92izi, Izi-Plizi, ha ha si si Marche ou crève.. Marche ou crève... Ma-Marche ou crève.. Sombre est l'attitude, sombre est l'individu... K1fry patriotique distribue chaotique low kick...3</t>
+          <t>Tu peux pas contrôler ma destinée Oh, oh, oh, oh, oh Validée par la cité, pas par la série Je suis la voix de la calle, du fin fond de l'Algérie Ils croyaient m'arrêter en détournant le regard Comme drapeau d'mes origines, j'suis partout, de toute part J'étais là avant, j's'rai là après, fais belek si t'es pas prêt À balles réelles et j'suis précise, y aura des dommages et des blessés Et j'suis précise, ah, ah Ma destinée était écrite par le bitume avec un plume Ma voix résonne avec mon nom, numéro un sur iTuns J'ai l'regard vide, l'esprit tourné vers la prochaine bataille J'suis comme boxeur sur le ring, j'sais déjà qu'faudra m'pousser dans l'vide Ça s'ra eux ou moi, ma destinée est écrite, demande à Booba Tout niquer, mourir au front ma destinée, ma destinée, d'mande à Kayna Jusqu'à la mort comme soldat sur le rrain-te, haschich, amné', cocaïna Tout niquer, mourir au front ma destinée, ma destinée, d'mande à Kayna C'est la mentale, chez nous la guerre s'arrête jamais, c'est pour mes soss et khos, on se retrouvera J'marie aucune de ces pétasses, elles ont toutes le cur en strass Le crime khalass mais hélas, j'ai vue sur la cellule d'en-face Guerre avec lui, guerre avec moi, comme dirait tre-l'au Mathafack Ils vont tout détruire à la fois le cash money, le mâle alpha Laisse le love dans tes Air Max, là où on va, t'en n'as pas b'soin Chef de guerre comme Kadyrov, fuck le maire, le maire adjoint J'fais un go-fast, j'me fais péter, j'leur dis qu'j'étais chauffeur-livreur Petit, j'rêvais d'être dictateur, aucun sentier n'mène à mon cur Ma destinée était écrite par le bitume avec une plume Ma voix résonne avec mon nom, numéro un sur iTunes J'ai l'regard vide, l'esprit tourné vers la prochaine bataille J'suis comme boxeur sur le ring, j'sais déjà qu'faudra m'pousser dans l'vide Ça s'ra eux ou moi, ma destinée est écrite, demande à Booba</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5167,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>God Knows</t>
+          <t>I Can See Why</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Yeah M.A.I.R Yeah, huh I too wanted to be like them Plate of pasta, backpack, back to shoplifting one Rap Mag When I'm out, I remember to be on the look out, how crazy I was told You have to adapt, I didn't get that I just filled the Boule Noire, only God knows what awaits According to rumors, I could blew up next I help my mates so I play my ace I'm this close to pull, so close to the trigger but keep calm My palm on each mics, legendary like Shaq Mike I was told Be pragmatic, I didn't get it Right there, that's illegal music, he pumps this guy vacuums I always gave love but thy waste it I said I listen to the has-beens, th same who revolutionize The moon's children flying over the sun At the moment, I make music all day long I gotta get bread, à la Roc Nation before I fall off Stop with your if, fusses, add six decimals huh I do maths and suck at drawing Ok thanks for the support and thanks if you a fiend thanks Bravo Mairo and congratulation ok I listen to rappers and use quotations This shitty world will show you one thing If they extend their hand, that's with reluctance But if you got grants or are out of jail And you're a lost soul, come here we'll welcome you Come here let's get you a seat We'll show you, teach you everything I'm not even at 30 Yeah, han yeah Yeah Life is a punchline, death another one Free world and piracy, I think they didn't get our approach I rap and I'm popular, you won't my ass Shit's simple like ABCDE, I won't lower my eyes We'll soon evade and lighten the game It's always the same story, prolly one black guy that gave birth to rap huh And white people are pimping it Heart is hurt but the tacos was au gratin So I'm great as long as all of us stuff our face Witches scare me like Chewbacca Like L and Booba because to each their fears and the DJ plays my shit With my dad I acted stubborn, I didn't listen, I took a slap But his war memories, I did listen, I took a slap I'll move my ass for Eritrea before I'll enroll against the melting of the ice caps I'm the student sitting in the back, it's better they move out the way fast The time for my advent has come and they won't be able to ruin it</t>
+          <t>We interrupt you to bring you a scheduling program and we're bringing you the special report from WBAD news Hurricane Starang has just been sighted off the coast of the Hudson River Since its materialization, this entity is responsible for the littoral erosion of various sites in the east coast Though forewarned, niggas wasn't ready Absurd amounts of shorties with reports of eradicated backdoors are coming in from sites varied from D.C. to downtown Brooklyn Seamen to harness the power obtained from each chaotic occurrence and now threatens to spark utter chaos along the western hemisphere Im Duck Down staff even when Im by myself Im Boot Camp Clik even when Im by myself Im Fab 5 even when Im by myself Im O.G.C. even when Im by myself Husk! Storm Husk! Storm Husk! Hang that ass up like a poster Got niggas out in Genosha who be screaming, Eshkoshka! They dont know ya, so I cant see why they wanna start ya Its a shame, Strang got more aim than an archer MP Rock, please prepare my ship for departure Beat these young boys ass and make em run and get their father Niggas get dropped from the hip-hop culture Its the ultra emcee, fly like a vulture One, two, I come through on the humble Beast from the East, call me king of the jungle Beast from the East, beast from the East Beast from the East, beast from the East Strang coming like a hurricane licking shots Strang coming like a hurricane licking shots Strang coming like a hurricane licking shots When I roar like a grizzly, they say, Damn, he gets busy I be Grand like Puba, but Ill move smooth with Dru Ha Puts the B in booyah, Starang coming to do ya Scream hallelujah, but it still wont help ya Run from O.G.C. and get caught by Heltah Skeltah Jet to the other side, run for cover, hide Niggas still wouldnt be safe even if I let em slide But this aint baseball, Ill waste yall, ask no question Get attacked from the back by the black Smif-N-Wessun I be rubbishing any crew that claims that they be bubbling Get that ass capped like them niggas when theyre handling My publishing I be loving when fake rappers Question my status when my crew be the fattest At this, and you could ask my man the Big Kahuna Ka-plow now make you say yow like Junior Youve been warned Da Storms in the atmosphere Move over, make room Gunn Clappaz here Cause its ill how I kick lyrical skills with the force No joke when I leave you choking off of the exhaust Of course, who else could it be but Mr. Strangle? Hit that ass from every angle they dont really wanna tangle Strang coming like a hurricane licking shots Strang coming like a hurricane licking shots Strang coming like a hurricane licking shots The original ay caramba Starang Wondah Continuing on its destructive path, Hurricane Starang has just been labelled as the cause of the severe tree shortage in and around the tri-state area Ish is getting hot Citizens are advised to renounce all fronting and practices if they hope to survive the storm Rock Ayo, Starang Starang Wondah Sup, son? Rock Ayo, you should let em know exactly why you be Numba One, I dont think they understand First of all, Starang comes first and foremost My first instinct would be to burn yall wack raps like toast Fuck the first day of school, Im on 1st Ave At the First National Bank so I could fly first class Ask about it and I be the first in line Crack that ass before I even get to kick my first rhyme Im in the Hall like Aaron, puffing Ls all day My first commandment is to keep the fat broads away Fresh, fly, O.G.C. be the best buy Puff lye with my nigga Tek out in Bed-Stuy Then I come through with the wickedness Who be kicking this? Starang, I light shit up like Christmas Strang coming like a hurricane licking shots Strang coming like a hurricane licking shots Strang coming like a hurricane licking shots Gunn Clappa Number One with my niggas O.G.C And the aftermath of Hurricane Starang's damage reports are staggering Billions of injuries and wide spread case of amnesia and nausea Conditions are a code red danger. I repeat A code red danger3</t>
         </is>
       </c>
     </row>
@@ -5184,12 +5184,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>C’est nous la rue</t>
+          <t>Bénigni</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Pour ceux qui s'torchent avec la main gauche et d'l'eau Pour ceux qui s'torchent avec la main gauche et d'l'eau Pour ceux qui s'torchent avec la main gauche et d'l'eau Ouais gros, c'est cru, pour les braves réglos En direct du 92, 94 cousin Envoie ton pit à l'hosto, black roloto Wesh poto! Holocauste dans nos locaux J'vole, vends du tos-ma parce que j'perds au loto La banlieue c'est dangereux, t'as raison d'te chier d'ssus La police n'y peut rien, le rap part en cette-su Moi j'sors des CD's quand j'veux, vesqui, marrache en jet, resquille C'est Lunatic, cru, 45 Scientific J'suis un V10 à mon compteur, spliff, furtif Comme une bastos en VR6, le moteur siffle Mon avenue c'est couloir d'la mort, Vitry Histoire de drogues ou d'fêlés qui sort les outils Warriors rap local, histoire entre gros, handek J'ai un spliff et un gun chargé comme un 504 break Postiché à mort comme dans Point Break Le loyer c'est 30 barrettes, nous c'est bétonné a mort Dans mon équipe y'a qu'des te-traî Même moi j'me méfie, alors frime pas avec moi, reste en retrait Pas le temps de passer des extraits, c'est tout d'un coup À demander si on a pas fait exprès d'mettre tout dans l'trou Couleur rouge vif, tomates concentrées comme le de Chouara Chouara ton cuir le bouffe sous tes yeux ouais j'suis un rat Au micro un putain de calibre trop lourd pour un bras Un canon scié incorporé tah la Cobra Pour ceux qui s'torchent avec la main gauche et d'l'eau Pour ceux qui s'torchent avec la main gauche et d'l'eau Pour ceux qui s'torchent avec la main gauche et d'l'eau Ouais gros, c'est cru, pour les braves réglos Eh poto, comment ça ils viennent de la rue ? C'est nous la rue ! Kho c'est nous qu'on arrose, c'est nous la ruse Comment ça on rentre pas ? C'est nous qu'on flingue C'est nous qu'on écoute, c'est eux les baltringues Le rêve américain, rien à foutre, africain jusqu'au trou d'balle International, comme la one et l'trafic d'organes En balade avec Marie-Jeanne et Jack Physical music mais ça reste oral, ça en reste au rap Coupe le souffle comme un gauche-droite dans l'thorax Au bord des larmes comme lors dun décès ou après la lecture d'une sourate Gamberge bonhomme, c'est la rillette ou l'vice Avec nos albums on fait chuter l'cours du cannabis On t'découpe, on dessoude, pour des sous En découdre avec la justice, messieurs d'la cour, j'vous baise tous Dernier couplet sorti d'ma cave, mon usine Que des faits réels genre attaque de fourgon au uzi Gros foulek de Camille, j'aime pas m'hachem, c'est d'famille Ramène la technique comme Pelé ou comme Manu, mani Repars la queue entre les jambes Comme quand la police rentre chez les gens, on les sait tous peu intelligents Une tragédie, de la hiya dans la cabeza J'peux pas baisser mon jean, y'en a qu'aiment ça J'suis la corde et la poudre, y'en a qu'un qu'on vénère J'attire la foudre, j'fais pas trop d'concerts en plein air Pas d'Tchernobyl hein, c'est cru t'as vu, c'est la rue Prends l'escalier, moi j'suis l'bug de l'an 2001 C'est racailleux, y'a des skeuds des scuds, dans mon cahier hameçon Canon scié dans mon caleçon, c'est mort, ça y est Rim'k, Rohff, Booba, mets-toi un doigt, un p'tit négro défie l'État Et puisqu'ils vérifient les teints, jsuis baisé Alors j'étends mon plan dans les temps Pour tout péter d'automne en été Tu verras notre Merco dans ton rétro, des coups, des pleurs, et des cris Qu'on serait trop c'était écrit kho Jsuis des les charts, les chars, et dans les chattes bâtard On met des lames de rasoir dans ton écharpe Y'a que des mâles dominants, violence normale J'suis du parfum dans une grenade, c'est Boulogne tornade Ah c'est cru comme ton corps épluché, cas social fiché Tah les clichés d'banlieue à la télé en train d's'afficher Cracher sur l'éducateur, mon bavon endort le juge comme l'éther À travers les temps tranquille pépère, jsuis à des années-lumières J'vous entends crier, incendier les porcs sur l'bûcher, grillés À mon tour d'briller on doit s'fier à ma gueule dans le barillet Casse le délire comme la racaille à ton anniversaire Mais va t'faire baiser, j'suis trop lourd à la pesée, ton futur c'est mon passé Fais sourire les connaisseurs, pas besoin d'couronne, ni d'trône Ni peu, ni trop, fais sauter comme la nitro C'est pour les kahlouches, les arbouches, les manouches, les gars louches Hardcore meme quand ça galoche J'viens de la où les jeunes vont plus au placard qu'au jemma Hachek au parloir le shit, coffré dans l'zemah Une force de daron, fais saigner du nez avec une pêche dans le front InchAllah l'âme sur, toujours derrière moi même quand j'ai pété et qu'ça chlingue Vas-y j'contrôle, protégé contre l'sehour J'arrive sur scène avec une intro qui t'marche dessus en sautillant, en faisant le crawl Pour ceux qui s'torchent avec la main gauche et d'l'eau Pour ceux qui s'torchent avec la main gauche et d'l'eau Pour ceux qui s'torchent avec la main gauche et d'l'eau Ouais gros, c'est cru, pour les braves réglos Eh poto, comment ça ils viennent de la rue ? C'est nous la rue ! Kho c'est nous qu'on arrose, c'est nous la ruse Comment ça on rentre pas ? C'est nous qu'on flingue C'est nous qu'on écoute, c'est eux les baltringues C'est nous qu'on flingue C'est nous qu'on écoute, c'est eux les baltringues Pour ceux qui expliquent avec la main droite, aide-nous !</t>
+          <t>Avant, j'voulais la plus sexy, maintenant j'veux celle qui m'casse le moins la tête J'ai les deux doigts dans la prise, les trois autres sont dans sa schneck, dis-moi rien d'autre au personnel Graines d'amertume que j'ai parsemé, cerveau en vrac, j'sais plus c'est quel jour d'la semaine J't'ai donné ma confiance, me l'rendre, tu l'as pas fait, j'ai dû briser ton cur en porcelaine Le temps remet chaqu clown dans son cirque, le temps rmet chaque roi sur son trône, ouais, ouais, ouais J'entends le chant des sirènes, le bruit d'un .45 qui fait Bang, bang, bang Ils camouflent leurs médiocrités avec des prod' qui tapent, des feats derrières leur Givenchy J'ai pas su lui dicter mes règles, lui dire que la vie est belle comme Roberto Benigni Ce soir, je ride seul dans la ville et je me sens habité J'ai craché mon seum dans la fumée, déçu mais habitué Ils trouvent que j'suis trop dur à pister, qu'j'ai plusieurs entités Ces mauvais réflexes qui me guidaient, j'n'ai pas su les quitter Ce soir, je ride seul dans la ville et je me sens habité J'ai craché mon seum dans la fumée, déçu mais habitué Ils trouvent que j'suis trop dur à pister, qu'j'ai plusieurs entités Ces mauvais réflexes qui me guidaient, j'n'ai pas su les quitter J'ai jamais voté, y a qu'des fumiers, des écrans de fumée Y a pas pire que l'Homme, c'est confirmé, plutôt mort que confiné Le savoir est une arme mais le problème, j'pense plus sans mon I.A Parisien, j'perds même avec Lionel, j'danserai pas le Mia J'entends l'surveillant dans le couloir, dans mon poste, y a du Mac Tyer Fidèle à ma couleur, le négro, qui n'en est pas une d'ailleurs Ce soir je ride seul dans la ville, j'suis fonce-dé, j'suis armé J'rejoins Keno, Mala sur Belleville, j'vais aux tchoins pour me calmer Plus tard, je deviendrai célèbre, coup de théâtre, j'croise un prof haineux au feu rouge, il regarde la Fé-Fé de sa Seat Ma mère voulait qu'j'aille voir un psychiatre, j'ai appelé Soprano J'ai gardé ma folie au chaud, ma fille au salon joue du piano Ce soir, je ride seul dans la ville et je me sens habité J'ai craché mon seum dans la fumée, déçu mais habitué Ils trouvent que j'suis trop dur à pister, qu'j'ai plusieurs entités Ces mauvais réflexes qui me guidaient, j'n'ai pas su les quitter Ce soir, je ride seul dans la ville et je me sens habité J'ai craché mon seum dans la fumée, déçu mais habitué Ils trouvent que j'suis trop dur à pister, qu'j'ai plusieurs entités Ces mauvais réflexes qui me guidaient, j'n'ai pas su les quitter Pas su les quitter Pas su les quitter Pas su les quitter1</t>
         </is>
       </c>
     </row>
@@ -5201,12 +5201,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Danse pour moi</t>
+          <t>Pazalaza pour sazamuser</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Ow ! Yeah! Kho ! Izipliz Izi ! Izipliz Ah Izipliz Kho ! Danse pour moi, izi Wesh Milou, izi Danse pour moi, izi Izi, si si Et sois sexy, sur le son flexible Sur la vibes, excite-toi à en perdre ton lexique Cest Don Miloudzi lambianceur rarement ambiancé Souvent adossé au mur, verre à la main, dans Highlander, je serai le guetteur Pendant des heures sans m'épuiser, sans regretter, je pourrai te guetter Te prêter à aucun des ces pédés, à moi t'es la Belle, jai tué la te-bê C'est ça, danse pour moi, ce soir tes la ne-rei Moi, le roi du haut de sa tour près du bar toujours beurré Cest ça Lady, fais toi plaisir Sur le son du 92izi, sexy-sexy baby Dans la rythmique et le booty, OK ! Sexy lady Sexy-Sexy lady, OK ! Sexy lady Danse pour moi, izi kho! Danse pour moi Ah ! Danse pour moi, izi Kho Danse pour moi, izi Oh, yeah Regarde ma liasse, danse pour moi biatch Quoi ? Tu nen es pas une ? Oh, au temps pour moi biatch ! Tire sur mon bang, sauvée par le gong Big Boss depuis le Big Bang, monte le son, monte monte, tu feras le tour du monde Ma montre brille, illumine tes grosses fesses Ton mec travaille à Monoprix, viens ici, ne sois pas grotesque Allons rejoindre Milou A.K.A. Don Miloudzi Oublie tous ces soucis, t'as la classe de Monica Bellucci Izi Danse pour moi, izi Danse... pour moi Danse pour moi, izi Oh danse... Sois à l'aise et sous tise, soutif Ton spliff ? Range ton biff ! J'te lai déjà dis, cest pour Maza Ton corps s'lève en catalepsie quand il parle à Mala le psy Tu rends folles les nanas mais chut sexy sexy lady Danse sur lambiance du 9 Zedou Ton équipe, ton ami, sa fe-meu, je veux voir les tops, les seufs gé-bou, c'est pour Don Miloudzi Réfléchis pas, vas danser, rafraîchis-toi à ma santé Fais-toi zizir sexy sexy lady Danse pour moi, izi Danse... pour moi Danse pour moi Oh danse... Danse pour moi, izi Pour moi, danse... Danse pour moi, izi Izi Danse... pour moi Oh danse... Pour moi, danse... Izi6</t>
+          <t>Kho, m'laisse pas en chien si y'a plus d'thunes sur le pécule J't'appelle de mon cellulaire et de ma cellule Aucune bague à l'annulaire, mon doigt dans leur cul D'humeur bestiale d'un froid caniculaire Et tu mouilles comme Roll-K face à l'équipe Préconise le port d'armes à tes soldats Pas de timinik dans la clique, deep dans la street Nous les tristes héritiers de la vérité stricte C'est Bush aux platines, le Mollah Omar au mic Négro j't'ai mis dans le coma, la musique à fond, la routine Cro-ma du cro-mi, crois-moi, crois-y Kho, celle-ci, c'est pour le 93, Sazamyzy, pazalaza pour sazamuser Laisse la concurrence fendue en deux sur le boulevard des vendus Kho, he he ! Pazalaza pour sazamuser Chezepêze rezenégaza Des le début on m'avait dit que y'avait haja Mets les les buts et prends ton argent Plus l'temps, ça fait dix ans qu'j'suis free agent Si la vie n'est qu'une page, faut que j'la tourne Alors moi j'ai rempli ma marge de ratures Illicite mais maintenant j'sature 92 I attache ta ceinture Et si on fonce dans le mur, que sur le coup on meurt Au pied du mur les miens entendent murmurer la mort Moi et les miens on deale à mort pour s'nourrir Ici c'est moi l'gangster et j'mets tout le monde d'accord OK et j'viens ici estampillé kho 9.2 récupéré du roro pillé Ha ! Ha ! Ha !... Pazalaza pour sazamuser Kho, tout l'monde est beau, demande à Zazie Après un crime à la té-ci, demande aux soces, tout l'monde ici te sors un sosie T'as saisi ils sont tous borgnes pour nous, les keufs ont des cornes Et leur justice est deux fois plus Osborne que Ozzy Y'a pas d'morale dans nos récits, kho, et crois pas que la vie est rose Qu'elle passe de Oz la série au magicien d'Oz Préviens Sarko ça va exploser Blasé j'passe à autre chose comme tout baiser avant de m'poser quand j'aurais eu ma dose J'suis pas le king ni le Kaïser comme Sözé Moi c'est Braza pour les intimes, jamais cocu j'ai épousé ma team Les flics au cul tu poses les armes, t'as plus qu'à serrer les fesses Si tu parles mal, tu vas faire quoi seulement avec ta lame ? T'es trop guèze c'est abusé Tu veux un dièse, du buzz pour t'amuser mais rien qu'on te baise à la base Ne laisse pas les haineux se tasser mais laisse passer les tass Évite les condés ou ma clique si tu veux clamser façon classique Kho ! Kho ! Pazalaza pour sazamuser</t>
         </is>
       </c>
     </row>
@@ -5218,12 +5218,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Bâtiment C</t>
+          <t>Locked Up (French Remix)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>De la crèche au placard, j'ai trop roulé ma bille J'te baise bâtard, viens-nous sucer la bite Procureurs, juges et flics ne m'feront pas changer d'avis Pour m'arrêter, faudra m'enlever la vie Ouvrez les portes du pénitencier Maison d'arrêt des Hauts-de-Seine, Bâtiment C Ok, j'suis au ste-po, ok j'suis dans le cam'tar Ok, j'suis au dépot, ok j'suis au chtar Tout passe mais rien ne s'efface, vos mères les grosses garces Voilà ma déposition, porc je te la dédicace Dos au mur la position, Lebraz' la solution on le culbute, il mérite juste qu'on l'électrocute Écroué, innocent comme d'hab' Mon son aux arrivants, mais y'a du shit comme d'hab Du seum de la Hiya, du Pont de Sèvres à Nanterre Le rap français, on le ressuscite, le ré-enterre Ma place est dans la nature Si j'marche droit trop longtemps, j'vais m'enculer dans l'mur J'suis hors-la-loi, une cure de liberté n'nous fait pas reculer L'Histoire et le système nous font basculer Animaux dangereux placés en correctionnelle Criminel au M.I.C., phrasé non-conventionnel De la crèche au placard, j'ai trop roulé ma bille J'te baise bâtard, viens-nous sucer la bite Procureurs, juges et flics ne m'feront pas changer d'avis Pour m'arrêter, faudra m'enlever la vie Ouvrez les portes du pénitencier Maison d'arrêt des Hauts-de-Seine, Bâtiment C Ton rap sent la fouf, le nôtre sent la schnouf de ouf, tout droit sortis du gnouf Moi j'suis dans ton poste comme le hasch dans ton Porsche J'perds mon temps et mon cash, kho, en direct live de mon cachot Quand le chat n'est pas là, les MCs font du smurf, truc de malade Pendant qu'ici c'est les meufs et chez Mala Dure est la chute, vide est ma flûte Steuplaît madame la , relâche-moi sale pute J'ai du gent-ar à faire, plein de comptes à régler Pris dans le vice de la matrice, j'peux plus marrêter J'risque encore d'y passer l'été, il en faut plus pour m'impressionner Négro la rue m'a sélectionné Suspect idéal, cru et sincère Monsieur l'agent, dans ton seule ma se réinsère J'écoute leur réquisitoire et 8.8.2 Ici on confond teu-teu et suppositoires B2OBA, moi j'suis une vraie histoire, pas un fantasme Official depuis la Préhistoire Ouvrez les portes du pénitencier Maison d'arrêt des Hauts-de-Seine, bâtiment C De la crèche au placard, j'ai trop roulé ma bille J'te baise bâtard, viens-nous sucer la bite Procureurs, juges et flics ne m'feront pas changer d'avis Pour m'arrêter, faudra m'enlever la vie Ouvrez les portes du pénitencier Maison d'arrêt des Hauts-de-Seine, Bâtiment C</t>
+          <t>J'me suis fait coffrer comme un naze, en gard'av' comme un trophée J'déambule en ien-ch dans ma cellule Négro j'repense au Sénégal, à l'île de Gorée 41 balles pour un contrôle, le roi de la pop décoloré Tout l'monde y est allergique Certains craquent, tremblent, certains se coupent les veines,certains s'pendent pour être à l'air libre Bosser pour survivre, dealer pour vivre Pour que tu kiffes sur l'habillage, que ta biatch kiffe l'équipe La rue t'attends la rue te regarde Dans mes rêves y a que des putes, hélicoptères échelles grenades Sûr d'aller en calèche, d'y faire un p'tit stage C'est pas du ma-nec', la taule les halls les tours de manèges Certains figurent dans le Guinness pour leurs aller-retours Premier sa-medi du mois ton A.D.N. dans un Kleenex Sinon dans ma cellule, j'fais des pompes j'écris des textes, j'taf Et sur les murs j'ai des photos d'tass' I'm steady trynna find a motive Why do what I do ? The freedom ain't gettin' no closer No matter how far I go My car is stolen, no registration Cops patrollin', and now they done stop me And I get locked up They won't let me out, they won't let me out I'm locked up They won't let me out no, they won't let me out I'm locked up They won't let me out, they won't let me out I'm locked up They won't let me out no, they won't let me out Headin' uptown to re-up Back with a couple keys The corner block's on fire Undercovers dressed as fiends Makin' so much money Ride up smooth and fast Put away the stash And as I sold the last bag fucked around And got locked up They won't let me out, they won't let me out My nigga I'm locked up They won't let me out no, they won't let me out I got locked up They won't let me out, they won't let me out Baby girl I'm locked up They won't let me out no, they won't let me out Sur terre, j'ai pû compter sur ma parole, la drogue et la daronne 745i, 9.2. izi Tous les chemins mènent à Rome ou à Washington Sisi j'enfile un passe-montagne, démons et anges m'accompagnent T'es dans le coffre de la bagnole, tu payes sans faire d'chichis Moi j'suis à Cuba, sirote un sky à la piscine Un peu de biff la rue est bleu ciel Prises 22 voilà les kissdés, le crime paie jusqu'à la perquis' Cause visitation no longer comes by Seems like they forgot about me Commissary is getting empty My cellmates getting food without me Can't wait to get out and move forward with my life Got a family that loves me and wants me to do right But instead I'm here locked up They won't let me out, they won't let me out Oh I'm locked up They won't let me out no, they won't let me out My nigga I'm locked up They won't let me out, they won't let me out I'm locked up They won't let me out , they won't let me out Cause I'm locked up2</t>
         </is>
       </c>
     </row>
@@ -5235,12 +5235,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Booba! 92i! Si, si J Production Rock City Right about now J'écris ce que personne ne peint, défouraille en cas de pépin J'ai les neurones pleins, cent quarante euros le plein La défaite est en toi, la victoire est en nous Renoi détends-toi, reste en chien, reste en loup En période de crise naissent de violents izi-business Trop lent pour le Guiness, tu veux test ? Mais t'es qui wesh ? Tu cherches la teuf, où est-ce ? T'entends des feats US T'es bon qu'à te gratter les sseufs, ta clique elle bluffe, pleine de rouille J'suis le King de la city, Izi Business Yeah You don't want the beef cause it will be last time you see Last time your are Take it from me, you don't want the war Cause I'm the king of the city So you better proceed with caution Before I blow you away Mi keep on keyz to the street when mi wonder Mi can a get out of sail yeah, yeah, yeah T'es ni dans mes pompes, ni sous ma casquette, négro t'as pas mes rêves Donc, fusil à pompe à mes ièp', n'interromps pas mes rêves Izi-business la team, je suis précis je place les coups J'ai mon blaze sur disque de platine et plaque dégouts Sombre est le gang, je terrasse mes confrères Je suis trop frais, je suis venu au monde dans un coffret Chez nous il neige en mai, t'es bonne bien cambrée Tu m'as vu à la télé mais tu me préfères en vrai Laisse pas de message sur la messagerie du Duc Ma Queen le consulte, elle a piraté mon PIN la pute Pendant ce temps-là je lutte, représente du Pont de Sèvres au Luth Transporte la came par oléoduc Izi You don't want the beef cause it will be last time you see Last time your are Take it from me, you don't want the war Cause I'm the king of the city So you better proceed with caution Before I blow you away Mi keep on keyz to the street when mi wonder Mi can a get out of sail yeah, yeah, yeah Je n'ai pas le temps de t'écouter Tu n'as sûrement rien à dire, tu veux juste frimer Je souris peu c'est vrai, pourtant je suis filmé Rebelle, moderne, j'en ai rien à foutre du 8 mai Oh yeah, B2O tu sais qui il est Tu veux nous faire la guerre, direct tu peux te rhabiller Sa mère au maire, j'ai la haine, tu sais quelle heure il est Temps mort t'a mis d'accord, en or était le sablier See we dem brusher, de lamshottas And we fresh a from St-Thomas And you know we made a promise Cos dem pussies can't stop us When we with de pon di shotta Then you know it is a lot Then so you don't you ever miss with them We run 'till the end with them A Rock City, we no fucking around A you know we the king of the town Together we are shutting it down And we telling them right about now You don't want the beef cause it will be last time you see Last time your are Take it from me, you don't want the war Cause I'm the king of the city So you better proceed with caution Before I blow you away Mi keep on keyz to the street when mi wonder Mi can a get out of sail yeah, yeah, yeah You don't want the beef cause it will be last time you see Last time your are Take it from me, you don't want the war Cause I'm the king of the city So you better proceed with caution Before I blow you away Mi keep on keyz to the street when mi wonder Cause I'm the king of the city1</t>
+          <t>Allô ? Cerveau ? Plus d'réseau Ton Dieu m'aime pas, le mien n't'aime pas non plus, on s'ra jamais d'accord New York, L.A, Dubaï, Honolulu, c'est qu'elle tapine à mort Trois téléphones, quatre voitures, deux femmes, et alors ? Écailles de poissons toutes fraîches, en el congelator hein Tout l'été au quartier sur un 700 Raptor vroum Une métisse double D monte dans l'Aventador J'crois pas aux contes de fées, j'crois en nos disques d'or baw Plus qu'tes yeux pour pleurr, c'est mort face à El Matador Chez Jawad, p'tit barbcue, j'finis d'régler l'détonator Elle m'dit J'suis un tapin la nuit, le jour j'suis realtor quoi ? Trou d'boulette, casquette, baskets, full alligator classique Huit numéros, trente-deux chicots, elle s'doute que j'vends la mort T'avais raison mais j'ai l'flingue sur ta tempe, maintenant, t'as tort Pas d'pénurie si d'Colombie vient l'réassort Balle dans la tronche, fuck l'UFC, fuck Bellator Je hais cette plèbe, l'arène et le toréador Tu t'es fait rafaler, malgré l'bébé à bord Cette pute croit pas en Dieu, j'te l'dis, y a que Dior qu'elle adore En vrai, j'dis ça, en vrai, j'm'en bats les couilles d'abord C'est la vie qu'j'étudie, j'ai bien compris c'qu'était la mort Demande à Jules César, toute victoire s'élabore Chez nous, on joue pas en ligne à Medal of Honor Pas d'tralala, pas d'Arcadia sans Albator On ne survivra qu'en gang comme à El Salvador Les langues de pute n'assument plus leurs quatre vérités Le chargeur est plein pour allumer tout l'comité rrah J'suis sur un plav' à sept chiffres, il faut m'éviter J'm'arrache avec ta sorcière, le soir, j'la fais léviter J'leur mets mon pied au cul sans beurre de karité J'suis pour l'extinction, pas dans la charité Marc Landers, j'suis sur le rrain-te le rrain-te J'ai appris à niquer des mères devant l'Club Dorothée Dorothée J'suis dans ma grotte, j'recharge le GT j'recharge le GT Un contrat sur ta ganache, la faucheuse arrive en GP arrive en GP On vise la lune ou ta te-tê Coup d'poker, on t'a coqué, j'sors l'RS4 et t'fais cocu, ah ah1</t>
         </is>
       </c>
     </row>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Bad Boy Street</t>
+          <t>Outro (Ouest Side)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Yeah Yeah, yeah Demarco Yeah Rude boy town Rude boy town Bad boy town Officers strapped Kill me nah In a rude boy town, in a bad boy street Da tops dem strapper and a free da police Boy violate and amentate de beast Tops dem strapper and a free da police I saw dem rolling, de mandem bowling Dem will take you slowly, cah dem fear na rude boy I saw dem rolling, de mandem bowling Dem will take you slowly, cah dem fear na rude boy Fatwa sur les balances, leurs chicots sur les phalanges Tatoué comme les triades, j'pars en musical Jihad Armé comme un G.I, comme T.I Rien ne peut nous arrêter, violent comme l'histoire l'a été Je m'éteindrai en brillant, t'extermine en riant, Disque de diamant, lourd est le bilan j'ai de fidèles clients Bakel City ma patrie Parlons peu, coupe ton portable, enlève la puce et la batterie Yeah Forvige me'a people, dem se detta de Liz Dem ods drugs out, dem wit de guns and Liz De war and violence, mi say dats officers Wa-wat for wyle and peace In a rude boy town, in a bad boy street Da tops dem strapper and a free da police Boy violate and amentate de beast Tops dem strapper and a free da police I saw dem rolling, de mandem bowling Dem will take you slowly, cah dem fear na rude boy I saw dem rolling, de mandem bowling Dem will take you slowly, cah dem fear na rude boy J'suis sur l'avenue, OK. J'regarde les keufs défiler Roule un joint d'seum, dans la foulée, OK Hors-de-portée, mort de rire, sans remord Quand j'écoute les menaces de mort des forces de l'ordre Nos vies n'ont pas de prix, les leurs ne sont pas trop chères Nous lions et dos argentés, eux cochons et phacochères J'ai vu cette blanche, gros cul p'tites hanches Je pense qu'elle va prendre cher, j'aime comment elle se déhanche Coup de sifflet tacle à la ge-gor direct Les tchoins en redemandent, elles kiffent le double décimètre Réfléchir avant d'agir, c'est vrai je devrais m'y mettre J'aime aller en boîte de nuit avec mon 9mm In a rude boy town, in a bad boy street Da tops dem strapper and a free da police Boy violate and amentate de beast Tops dem strapper and a free da police I saw dem rolling, de mandem bowling Dem will take you slowly, cah dem fear na rude boy I saw dem rolling, de mandem bowling Dem will take you slowly, cah dem fear na rude boy Grosse paire de couilles, toujours prêt à tirer cartouche J'baise en solo, j'suis partout sauf dans les partouzes Smith Wesson fait partie du staff Ma couronne sur le ter-ter, j'fais l'taff comme Ronny Turiaf On est moins chers que les Farcs Mon département n'arrive plus à compter les shlags J'suis un sale négro car maman a épousé un black Occupe-toi des verres et de la glace, je ramène le Jack le Jack Hold yourself and don't lose If you feel you untouchable sa Life , you abuse it Neva right or wrong road, de shot will get you And you, so de lamb road me choose it In a rude boy town, in a bad boy street Da tops dem strapper and a free da police Boy violate and amentate de beast Tops dem strapper and a free da police I saw dem rolling, de mandem bowling Dem will take you slowly, cah dem fear na rude boy I saw dem rolling, de mandem bowling Dem will take you slowly, cah dem fear na rude boy 9.2 1.0.0 moins 8, Z double 0 Animalsons Yeah Bad Boy Street Bakel City Gang, biatch ! B2O IziMarco, 92izi1</t>
+          <t>Les derniers seront les premiers Oh... Ouest Side ! International hustler, nègre de la pègre ! Zéro, nos concurrents sont deads, se ramassent à la pelle Tu veux test mais quand le chrome parle, tu nous parles de la Mecque Noire est la messe, brève est la fête, biatch courte est la mèche Hors-la-loi, j'suis chez oi-m sur la planète entière Bêta Oméga diplômé d'Etat à la pénitentiaire Zéro point sur le permis j'roule comme une vieille dans mon Land Cruiser J'vois trop souvent les hyènes dans mon rétroviseur Faire du rap j'en ai jamais rêvé, j'prends le mic c'est la Bosnie Les strings sont mouillés, au scalpel rouillé s'fait l'autopsie Volume 1 disponible chez ton armurier Ouest side ! On veut voir du pays, on veut des visas On vend de la chnouf, on ne s'achète pas de BM en livrant des pizzas Terminus tout le monde descend 92i kho Les-Les Hauts d'Seine sur l'instru Booba ! Tallac Records à l'appareil Oh kho j'te préviens, Pont d'Sèvre à Nanterre Hauts-Hauts...Hauts-Hauts-Hauts-Hauts d'Seine grande classe, 9-9.2-2 Hauts...Hauts d'Seine grande classe, 9-9-9...9-9...9-9.2-2 Booba ! De-Dealer de rimes, ki-killer de MCs De..De-De-Dealer de rimes, ki-ki-ki...ki-ki-killer de MCs 9-9-9...9-9...9-9...9-9.2-2, 9-9...9-9... 9-9-9-9...9-9-9-9-9-9.2-2</t>
         </is>
       </c>
     </row>
@@ -5269,12 +5269,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Le mal par le mal</t>
+          <t>Me &amp; U (French Remix)</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Jréponds au mal par le mal kho, fais cque tu veux Tes équipé ? Nous aussi, hein, quest-ce que tu veux ? Moi jveux du gen-ar, jfais cque jpeux Trop dlarmes pour que le tier-quar cesse le feu B2O, souvent équipé Akademiks Bienvenue à la star du Ghetto Academy Beaucoup dennemis, on va les égorger halal Jour et nuit comme JoeyStarr, Francis Lalanne Quand jme trompe dans mon parcours Jfais péter lposte à la fenêtre pour les fauves qui pompent dans la cour Les matones matent ces sauvages qui bandent malgré le bromure Dos au mur, les clés dans la chatte On ne sait que charcler Inédit, Panthéon débarque chez Eddie Barclay Pas-Pas le droit à l'erreur, Verbal Brolik dans les chro... ...pourquoi vouloir tester B2OB ?... ...9-9.2 comme d'hab'-d'hab' , I comme d'hab'... d'hab'... ...d'hab'... d'hab'... Dehors la météo affiche Boobs le météore sur la capitale Vu des Baumettes, on dirait juste une comète Personne dans lhabitacle Jvoudrais quon parle de moi aux nymphomanes, pas aux infos Jdois rien à personne, juste un peu aux impôts Jgronde, mimpose la France ma mis au monde, la pauvre Cest clair que le succès cest cool Jusquà cque jen prenne une dans lbuffet, mécroule Au lieu d'serrer les coudes, on ramasse les douilles Parce que quand tu nous jacasses mal ça casse les couilles Jai dans le crâne un marteau, négro, cest 2004 Qui va tenir le coup, qui sra le clou du spectacle ? Tout niquer ma directive Palme dor du défouraillage au napalm pour la rétrospective Pas-Pas le droit à l'erreur, Verbal Brolik dans les chro... ...pourquoi vouloir tester B2OB ?...1</t>
+          <t>You've been waiting so long I'm here to answer your call I know that I shouldn't have had you waiting at all I've been so busy. but I've been thinking about What I wanna do with you I know them other guys, they've been talking about The way I do what I do They heard I was good, they wanna see if it's true They know you're the one I wanna give it to I can see you want me too Now it's me and you It's me and you now I've been waiting I think I'm gonna make that move. Now Baby tell me if you like it It's me and you, now Uh, I've been waiting I think I'm gonna make that move, now Baby, tell me if you like it Enchanté, gentleman du ghetto, B2O Tu donnes ça comme un bonobo, paraît que t'es trop nne-bo Sois ma meuf et ma maîtresse Moi, j'suis un mec du 9.2, j'suis pas là qu'pour tes sses-f', mais presque Touche ton bas-ventre. Guette la taille des jantes J'suis leur épouvante, toujours en tête des ventes À l'aise, laisse-moi ton 06 Trop d'sexe avec moi, miss, t'auras un gros malaise J'ai l'son qui tourne dans les boîtes J'fais deux-trois tubes en claquant des oigts-d C'est le bon son de Boulbi J'sais reconnaître une dame d'une groupie Quand j't'ai vue sur la piste J'ai arrêté de tiser, j'ai gardé du biff Pour un palace chez moi dans les hauts-d'seine Monte dans la Bentley, princesse, on nous observe Baby i'll love you all the way down Get you right where you like it I promise you'll like it I swear Just relax and let me make that move It's our secret babe We'll keep it between me and you It's me and you, now Uh, I've been waiting I think I'm gonna make that move, now Baby, tell me if you like it tell me if you like it It's me and you, now Uh, I've been waiting I think I'm gonna make that move, now Baby tell me if you like it tell me if you like it2</t>
         </is>
       </c>
     </row>
@@ -5286,12 +5286,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Danger*</t>
+          <t>Die Art, wie wir leben</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>X-Plosive Je crois beaucoup aux chiffres La moula, la fucking moula Je crois beaucoup aux chiffres, je n'fais pas beaucoup de prédictions Elle m'dit qu'j'suis un fumier, qu'j'l'aimerai jamais, quelle déduction Les nudes sont validés, elle a passé les détections Les kurdes sont arrivés, qui dit kurdes dit munitions J'lui ai dit J'fais des t-shirts, j'ai une chaîne de télévision Elle s'est crue dans un film de boules, rien qu'elle veut changer de positions Satisfait ou pas, la street ne fait pas de réduction Le crack sera-t-il meilleur cuit sur leur plaque à induction ? Tous les éliminer garantit la pôle position À moins d'six zéros, j'réponds pas, j'attends donc ta proposition J'viens d'en bas, j'ai quand même peur d'toucher le fond Je veux toucher le ciel, toi, tu veux lui toucher le fion À qui est-ce que tu parles en c'moment ? Qui est-ce que tu crois qu'je suis ? Nan, t'as pas compris... Tu n'sais pas à qui tu parles alors laisse-moi t'expliquer je n'suis pas en danger, Skyler. C'est moi, le danger. Si quelqu'un ouvre sa porte et s'fait descendre, tu crois qu'ce sera moi ? Nan, je suis l'homme qui frappe à la porte. J'dors que d'un il comme si jétais dans la cellule d'Adebisi Elle a un plus gros cul que toi, notre aventure sarrête ici Je ne compte que sur les miens, quelques fumiers dans toutes les zones Les voitures de demain n'auront sûrement plus d'gilets jaunes Quitter le trône veut dire voir haineux jubiler J'paie mes impôts pour qu'ils repeignent les murs sur lesquels j'urinais Le mariage, le célibat, ça reste qu'une histoire de fesses Arme de l'Est dans tous les débats, ennemi n'parle plus qu'en petits gestes T'as encore merdé quelque part, tu changeras pas donc elle te laisse Tout le monde croyait qu'c'était la bonne, moi, j'dis qu'la bonne c'est celle qui reste Toujours un pistolet chargé, le num' de trois tigresses Y a qu'si j'buvais du sang qu'j'serais vraiment en état d'ivresse - Dites mon nom. - T'es Heisenberg... - Et comment qu'c'est moi !</t>
+          <t>Hey ! 92izi dans le bunker Bushido, B2O 100-8 Zoo Gear ! Algérien, ke-Tur, Albanais, Sénégalais Manie la langue de Voltaire, j'suis connu, communautaire Cornes et auréoles somnolent au-dessus de nos têtes Veulent tremper nos plumes dans l'formol, refusent nos textes On persévère pour nous quand c'est rouge, c'est vert Dénigré, immigré de pères et mères J'fais mes dièses à ma sauce, stylo et flingue à ma droite Ange du mal à ma gauche, Neuf-Deux guérilleros L'Union fait la Force dit le drapeau haïtien Le swag est américain, le négro est parisien Peau de macaque ne craint pas les coups de matraque Viens avec arme nuclé-izère si tu m'attaques Die Art wie wir reden, wie wir uns bewegen Unsere scheiß Probleme regeln Du passt nicht in unsere Gegend Sieh es ein du fällst auf -klick klick-Geld raus ! Verdammt ich sagte Geld raus !-klick klick- Und jetzt lauf ! Das Leben ist hier selbst mit deutschem Pass nicht einfach Was ich über Nacht erreicht hab Gab meinen Brüdern Hoffnung doch viele sind im Knast gescheitert Gastarbeiter, Großfamilien Habens nicht geschafft sich zu integrieren Und sind jetzt mit Koks am dealen Was denkst du was uns unsere Zukunft bringt? Deutschland tut mir gut bestimmt, doch ich muss mit ansehn Wie mein Heimatland im Blut versinkt Traurig anzusehn doch die Kehrseiten der Medaille Sind Politiker mit Dankesreden, man kann eben keinem trauen Mein Bezirk hast du hier Lust vorbeizuschauen ?! Die Jugend fühlt sich ausgegrenzt und Merkel gibt uns einfach auf Scheiß mal drauf! Genau deshalb wünsch ich jedem ohne Abschluss Dass er ne Millionen macht und nie wieder in den Knast muss Dieser Ascheregen färbt die Straßen grau-schwarz Ich glaub, dass ich observiert werde also aufs Gas Und eure Regeln ich verletze sie grad Bushido, Booba Morgen wird ein besserer Tag Die Art wie wir reden, wie wir uns bewegen Unsere scheiß Probleme regeln Du passt nicht in unsere Gegend Sieh es ein du fällst auf -klick klick-Geld raus ! Verdammt ich sagte Geld raus !-klick klick- Und jetzt lauf ! Bushido B2O Klick Klick4</t>
         </is>
       </c>
     </row>
@@ -5303,12 +5303,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Bienvenue Dans Le Texas</t>
+          <t>Alter Ego</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Pas besoin d'pimper ma ride ni d'avoir des dents en roro J'représente le Sud Forever comme un tatoo sur les abdos Viens faire un tour dans ma ville de l'Alamodome au SBC On ira manger des steaks grands comme la Croatie Boire des margaritas au bords de la pi-piscine Tout se fait en grand, les toilettes c'est ta limousine Je ne suis pas un pimp, classé Top Fifty Mon numéro d'phone, mystère comme la mort de Kennedy Cent degrés Fahrenheit à l'ombre Ici les filles sont sensuelles jusqu'au bout des bouts des ongles Ja-j'arrive comme un O.V.N.I. dans le transistor Flow saccadé, style décalé, tu peux chialer, le biz' est carré Or, Argent, bronze, les trois places du podium pour cette musique Crunk T-P Family la bombe Bienvenue dans le Texas dans le Texas Bienvenue dans le Texas dans le Texas Bienvenue dans le Texas dans le Texas Ferme les yeux et imagine la foule en furie pour le finish Une seconde avant le buzzer, je tire dans le mille, t'entends le Switch Pas possible darrêter les Spurs, c'est mon équipe Le sixième homme c'est le public, on collectionne les titres Ovation Je mets les pieds dans le club Zéro sécu', en guise de bodyguards quelques latino-girls Chez nous on danse pas, on remue les épaules On démarre la moto comme Young Joc, tu verras c'est drôle Pas de stress dans la grisaille de Paris Je rédige et je raconte le Texas et son style de vie Tous les jours en claquettes, casquette, short et Whity La limonade que je sirote a un gout d'paradis La musique s'écoute de Dallas à Houston Les jantes de l'Escalade sont celles d'un 36 tonnes San Antonio est soudé comme un seul homme Voici ma pierre à l'édifice en hommage au Hip-Hop Bienvenue dans le Texas dans le Texas Bienvenue dans le Texas dans le Texas Bienvenue dans le Texas dans le Texas Tête de mort mon logo, semi-remorque, 92 tonnes Le flow de la peine de mort, le son de Houston Au réveil cent pompes, un bol de céréales Une grosse pipe et j'pars au charbon, chausse mes Nike Air Sénégal Du sang dans les bacs, j'débarque j'suis le ma-mac Le savoir est une arme ? Moi j'ai un flingue, j'ai pas le ba-bac Né dans le magma, jt'attends sur le tarmac Larguez les putes et les amarres, sortez les hamacs Zerma tu pèses, zerma t'es auch Les vrais savent qui sont les vrais, demande à Matéos Tu veux test ? Tu crois qu'tu y es presque Que je te blesse comme Connan, tu n'es qu'un dos d'âne face à lEverest Un jour j'aurai le salaire de Tony P O.G. style, haut débit Jamais les fesses à l'air, je ne fais que passer parmi les grands d'en bas Bien élevé, bien allaité, 11.43 pour m'arrêter Bienvenue dans le Texas dans le Texas Bienvenue dans le Texas dans le Texas Bienvenue dans le Texas dans le Texas1</t>
+          <t>No, no, no, no No, no, no, no, no Hey, hey No, no, no, no No, no, no, no, no Hey, hey J'ai commencé ma carriere en chien, sans aucun but Reconnu derriere la vitre sans teint, sans aucun doute Le grand black en vet'-sur qui m'a visé Dès qu'j'en vois un comme lui j'me chie dessus j'suis traumatisé J'demande une minute de dancehall pour toutes nos victimes J'adoucis les murs au C4, pour les cains-fri les big team Bienvenue dans ma zone où les khos s'entretuent Pour des thunes des chiennes, les mauvais rôles s'entretiennent Quand j'déchaine les enfers comme Maximus J'distribue la haine, la colombienne dans chaque sinus Flippe car on ne mâche pas nos mots, on met les pitts avant la charrette Mon son ne marche pas, négro, il court ou il sarrête S'tu kiffes pas tu remballes vite Ta voix sans danger et moi tu sais j'comprends pas l'beat De ceux qu'ils n'respectaient aucune règle, explose comme à Gaza ou Tel-Aviv À part Attila aucun modèle à suivre Player hating 'cause them name nah mention Rude boys, pass me the extension Seek body, buss it inna dem direction We buck them up, apply the pressure and tension See, and now them run gone a station Di MAC-11, it nah 'fraid fi blaze man Clear the entrance, 'cause you're taking up space, man Wayne Wonder and Booba inna combination, now Des mc's comme nous, y'en aura pas d'aussi tôt J'débite si violemment qu'j'pourrais en perdre une chicot Fais vite, passe moi l'magot, l'argent les rends coquines J'ai tué Caliméro d'une bastos dans la coquille Le crime est vocal radical Rempli l'jerrican d'essence, envoie la concurrence au médical Du mal à contrôler mes pulsions comme Doum's Quand le chien frappe la culasse, brah' pas l'temps d'dire ouf Comme Nino Brown et G-Money, je ne rêve que d'assassinat De cérémonie à tout moment le rêve détalle Demande à Michael, l'appétit vient en mangeant Ou en crevant la dalle ma gueule En pleine exercice de mes fonctions 92i, l'armée des 6, j'te parle de larmes et de chiffres De gros chiffres, j'te parle de nous du quartier D'nos hiéroglyphes, si y'a fautes personne ne siffle Oh! They can't stop our flow they can't stop our flow So I gotta let you know Know, know, know, know, know They can't get us down So I gotta let you know no No, no, no, no No, no, no, no, no Dakar ou Marrakech, tuerie Mc de la pire espèce a.k.a le flow qui surine Ceux à qui le mal sourit, frappe chez lui, chez elle C'est 92i qui débarque ou le G.I.G.N ? Tu t'demandes encore qui déflore les Genelec Sur scène avec DJ Kore ou DJ Belleck On les fait monter et descendre un peu comme Otis On fait nos peines sur une jambe, ressort en 4 roues motrices Don't you try to take what's rightfully mine's bwoy, mine's bwoy Disrespect, and I'll introduce you personally to my nine's bwoy, nine's bwoy hey Wayne Wonder! Booba! Combination I'm like a bomb ready to explode Booba inna di place and all of a bawl out...</t>
         </is>
       </c>
     </row>
@@ -5320,12 +5320,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Gipsy King Kong</t>
+          <t>Ne me parle pas de rue</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Hey, St Ouen lAumône - Boulbi, t'vois ce que j'veux dire ou pas ? IZI Lève ton majeur en l'ai-l'ai-l'air Je suis un magnum comme Seléléck Drive by en s-s-l-l-l-r Tvois j'veux dire ou pas frère, fais belelelek On t'renverra ton string par Fed-de-de-dex Lève ta bécane en I fais bé-bé-bé-béx Les MCs puent d'la schneneneck Saddam Haut d'Seine, Seth Guexxx ça fait zdededex Ma couillasse t'as fait le ramdam bsahtek J'te souhaite l'Aïd mabrouk Si j'ai pas d'flingue marlich, j'enlève ma ceinture Gucci Et j'te fouette avec la boucle C'est le retour du gipsy king kong, ta mère la pioute Si tu baises pas j't'enlève de mon Facebook C'est comme les pizzas, j'enlève la croute Ouh karaï j'ai les yeux couleurs bleus d'travail J'cantine New Look Même au shtar les meufs volent ta maille, ouais Du biff faut qu'j'en gagne, qu'j'marrache à Dubaï J'pisse du champagne viens boire à la bouteille Et même si je t'arrache une a une les molaires Tu suceras jamais aussi bien que ta mère Lève ton majeur en l'ai-l'ai-l'air Je suis un magnum comme Seléléck Drive by en s-s-l-l-l-r Tvois j'veux dire ou pas frère, fais belelelek On t'renverra ton string par Fed-de-de-dex Lève ta bécane en I fais bé-bé-bé-béx Les MCs puent d'la schneneneck Saddam Haut d'Seine, Seth Guexxx ça fait zdededex Rien d'amical, schlass sur les amygdales J'cours vite j'frappe fort comme Abidal Toute ta clique à l'hôpital, Nhar Sheitan Duc de Boulbi, King de la capital Auprès des demoiselles j'ai une sale image Peu d'sentiment j'préfère baiser comme un animal Le monde m'appartient j'suis matinal Gros boulard à coté de oi-m, grosse barre de bamboula Kilo d'coke dans l'double fond de la poussette J'pars en Q7 tu pars en sucette Tu kill la musique des bals musette, bois la vie cul-sec Négro j'te connais a-p mais rien qu'tu checkes Gâchette Index Kopp Seth Guex J'fais froid dans l'dos comme mon pote Sergueï La coke a pris la place au shit Champion de barres pas halal crois-tu que j'ai ma place au cirque ? Lève ton majeur en l'ai-l'ai-l'air Je suis un magnum comme Seléléck Drive by en s-s-l-l-l-r Tvois j'veux dire ou pas frère, fais belelelek On t'renverra ton string par Fed-de-de-dex Lève ta bécane en I fais bé-bé-bé-béx Les MCs puent d'la schneneneck Saddam Haut d'Seine, Seth Guexxx Non d'une pipe en Bois de Boulogne Ratatatax, j'ai la kalash à Al Pacc' J'ai la ganache à Poelvoorde Tu m'fous en rogne jtétripe le ventre D'abord un coup d'casserole, puis un coup de pic de tente Boom j'crache mes rimes, j'ai les couilles dJacques Mesrine Prochain coup marketing j'sors ma bite et j'triple mes ventes Tu laisses ta caisse on t'pique tes jantes ou l'autoradio Mon gadjo on débarque caravane au cul du Lambo En gardave j'fais des pompes, j'lis les tags j'suis claustro J'me replis sur moi-même comme le bras du Scorpio J'représente tout le monde, des roulottes au roloto On met des pneus d'tracteur sur nos roues de moto Lève ton majeur en l'ai-l'ai-l'air Je suis un magnum comme Seléléck Drive by en s-s-l-l-l-r Tvois j'veux dire ou pas frère, fais belelelek On t'renverra ton string par Fed-de-de-dex Lève ta bécane en I fais bé-bé-bé-béx Les MCs puent d'la schneneneck Saddam Haut d'Seine, Seth Guexxx ça fait zdededex</t>
+          <t>Featuring coup de crosse de hockey, on leur met façon double poney Rouleau de 500 dans la pocket, concentré sur ma monnaie Rajoute du poulet dans mon bucket, la dalle on connaît Une pour Ibou Amar on va tout cramer comme à Aulnay J'suis sur le périph', à donf entre deux flashs Préservatif sur le pénis, me glisse entre deux tass, oh Voilà le Duc de Boulbi Fais le 18 ou vite, préviens le toubib Je ne porte pas de toc, j'dors mal sans mon Glock Je rentre à five o'clock, les keufs me suivent quand je sors du bloc Ne me parle pas de rue, de c'que tu as vécu Ce n'est pas vrai, tout est faux, on ne t'a jamais cru C'est B.2.O.B.A, dernier flow, dernier cru À-À chaud on te fait un deuxième trou du cul Pendant que ça chauffe dans le 7.8 ou à Grigny J'mets la capote sur ma bite et sur ma Lamborghini Ne me parle pas de rue, ne me parle pas de rue Ce n'est pas vrai, tout est faux, on ne t'a jamais cru Gros tu veux ré-ti les coups francs ? Faut bien savoir viser le cadre Ne dévisse pas la traject-jectoire sous la pression du stade Le suspect numéro un a changé depuis Mesrine Mon rap est une scène de meurtre maquillée en suicide En mode baltringues, les chiens se mettent à miauler Deux mecs sur une bécane, ça fait peur ou pleurer La devise c'est meurs ou mérite de souffrir, bref J'en connais autant sur toi que sur mon neuf millimètres Si j'ai l'échec au bout du fil, je lui raccroche au nez Faut marcher droit parce que le marchand de sable est calibré La France est une garce qu'on ramène à tel-hô parce qu'elle provoque Grosse paire de couilles dans mon froc, reste près de ton block, block La B.A.C. ou Lucifer Trop tard pour un pull-up !, je sens déjà les menottes qui se serrent Tu peux rien faire négro face à ma clique de sauvages La rue c'est chaud et dans la tess on est comme dans un sauna Ne me parle pas de rue, ne me parle pas de rue Ce n'est pas vrai, tout est faux, on ne t'a jamais cru J'gagne plus que le quinté, plus que le rrain-té Tu vas t'esquinter la vue, tu n'me vois pas j'ai les vitres teintées Qui aurait cru que Kopp allait niquer le biz ? Tout sec, assis dans le grec, en tête-à-tête avec un Double Cheese J'regarde les culs dans la street quand j'roule dans ma Lambo Un seul coup de fil, j'me fais livrer tout de suite le flingue à Rambo Macabre symphonie sur la ville de Paris, faut qu'elle craque J'regarde pas les infos sans Harry Roselmack À la vue du pouvoir je défouraille sur l'adversaire J'suis pas comme cette vieille pute prête à tout pour vous plaire Jamais content de c'que j'ai parce je viens d'Auber' Je pa-pars en couilles despi comme une rafale sur ta mère Reste près de ton brolic, j'adore le dirty-dirty Dans tous les nightclubs c'est tout le monde qui check son body On aurait pas dit mais j'ai l'flow Armani Versace Tu liras suce ma bite sur mon procès verbal Ne me parle pas de rue, ne me parle pas de rue Ce n'est pas vrai, tout est faux, on ne t'a jamais cru Paroles rédigées et expliquées par la communauté RapGenius France2</t>
         </is>
       </c>
     </row>
@@ -5337,12 +5337,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Best Friend</t>
+          <t>She loves me</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Yeah Arms locked in our matching Juicy tracksuits Used your lip gloss, I don't even got to ask you Still young, we've got years to keep on bein' a mess Ah You're the best, oh Strippin' at the bus station Talkin' 'bout our aspirations How the hell are we getting home now? We only got cocaine and kandi bracelets Used to be so innocent, but now we're hot like cinnamon We're born to sin, yeah, you and me Yeah, we're what others dream to be My best friend, my best friend My best friend, my best friend My best friend My best friend High tops, dancin' crazy on the concrete And if you're drivin', then you know I'm always front seat Ice cream and tequila, always makin' a mess You're the best, oh Strippin' at the bus station Talkin' 'bout our aspirations How the hell are we getting home now? We only got cocaine and kandi bracelets Used to be so innocent, but now we're hot like cinnamon We're born to sin, yeah, you and me Yeah, we're what others dream to be My best friend, my best friend My best friend, my best friend My best friend My best friend Best of 'em than all the rest of 'em You are the season one Lauren to my Heidi Baby, you are the best of 'em than all the rest of 'em And wherever you go, you know I'll be Yeah Strippin' at the bus station Talkin' 'bout our aspirations How the hell are we getting home now? We only got cocaine and kandi bracelets Used to be so innocent, but now we're hot like cinnamon We're born to sin, yeah, you and me Yeah, we're what others dream to be My best friend, my best friend My best friend, my best friend My best friend My best friend1</t>
+          <t>Now dis girl got me all up Ooh-ooh-ooh-ooh Waan good love, a me she call up You know what it is Shaggy, Rayvon Ah-ah You have me going 'round in circles, girl, I can't think straight When she love me, when she love me And when you love me like you do, I can't concentrate When she love me, when she love me You got me going 'round in circles, girl, I can't think straight Oh When she love me, when she love me 'Cause when you love me like you do, I can't concentrate When she love me, when she love me Whenever she loves me Ba-da-da-dang-deng When my baby loves me She ribbi bomb-skeng Oh, when she loves me Ba-da-da-dang-deng All the pressure get released 'cause my baby is a beast When she loves me Ba-da-da-dang-deng When my baby loves me She ribbi bomb-skeng And she's so lovely Ba-da-da-dang-deng My happiness increase everytime she give me peace, hey I give her loving on the sofa Kissing and we sipping on mimosa Caress her as she hold me closer Love a drive her mad and Mr. Lover is di chauffeur I put it on an mek she lose it Uh Put her on her knees an mek she bruise it No missionary, she refuse it I take her to my boulevard of love an mek her cruise it Cho Shawty nuh like it when it small She tell me seh she prefer when it tall I like it when di neighbors have to call 'cause everyting a fall An furnitures a knock against di wall Whenever she loves me Ba-da-da-dang-deng When my baby love me She ribbi bomb-skeng Oh, when she loves me Ba-da-da-dang-deng All the pressure get released 'cause my baby is a beast When she loves me Uh When my baby loves me Oh, she's so lovely Ba-da-da-dang-deng My happiness increase everytime she give me peace, hey Turn off di TV, lock off mi telephone 'Cause nothing else matters when we're alone Only the occasional Ooh an di occasional Ah An Kenny G playing in di background Ah-ah-ah Yuh nuh see my baby got my heart so I'm letting it be known Uh She is di queen dat's sitting on my throne Right Hey, I might flirt a lot of times and even share a cone Jus know that I'll be going back home I'm Mr. Lover, overachiever And when I'm with her, she give me fever She pulling all strings, she pull my lever Wah She got me so hooked, I'm a believer Whenever she loves me Ba-da-da-dang-deng When my baby love me She ribbi bomb-skeng Oh, when she loves me Ba-da-da-dang-deng All the pressure get released 'cause my baby is a beast When she loves me She love me like dat Oh, when my baby loves me Oh, when she love me like dat Oh, when she loves me She love me like dat My happiness increase everytime she give me peace, hey You had me kinda crazy, girl You had me kinda crazy In your topsy-turvy wo-o-orld You're the only one for me 'Cause when you hold me close, I'm just lost in your lo-o-ove You had me kinda crazy, girl You had me kinda crazy, girl In your topsy-turvy wo-o-orld You're the only one for me 'Cause when you hold me close, I'm just lost in your lo-o-ove Whenever she loves me When my baby love me Oh, when she loves me All the pressure get released 'cause my baby is a beast When she loves me She love me like dat Oh, when my baby loves me Oh, when she love me like dat Oh, she's so lovely She love me like dat My happiness increase everytime she give me peace, hey Ooh-ooh-ooh Ooh-ooh-ooh-ooh Ah-ah-ah Ooh-ooh-ooh Ooh-ooh-ooh-ooh Ah-ah-ah</t>
         </is>
       </c>
     </row>
@@ -5354,12 +5354,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Platine o Plomo</t>
+          <t>Charbon</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Platine o plomo, amigo Que pasa puto? On va tous vous niquer vos mères, y aura pas d'cas par cas Dos argenté dans les ovaires, tout droit pas de 4-4-3 J'ai pas fait longtemps sur le terrain, croyant pouvoir égaler Pablo Ravitaillant en écailles à Orgemont, la gow là fait pas de cadeaux On s'envoie tout en signaux, c'est pas pour sauver l'Amazonie Rafale dans ta mère la MILF, tous à l'agonie, c'est quoi ce honey ? Passe par Feuneu si ça t'amuse, passe par vran-Se pour le grabuge J'suis premier sur l'rap avant Fred Musa, d'la tête aux pieds, j'ai la méduse Jamais, jamais je ne décota, libérez-moi madame la juge Si j'suis plus là, le rap français, c'est plus AMG, c'est plus Brabus Ivre de vengeance, toujours en état d'ébriété Par les armes et le sang qu'on obtient vraiment sa liberté Le brava sort de la caisse grrah, ça tire dans les cuisses pah Bonbonne de coke dans la veste grrah, c'est mieux qu'j'prenne la fuite Trois heures du mat' sur le parking, j'commence par qui ? Poh, poh Neuf heures du mat' dans la sécu, j'commence par l'king poh, poh Le chemin est long chez certains entre la parole et l'acte J'sais plus faire la part des choses, quand j'suis sous pilon mes yeux se dilatent J'suis balafré ça en dit long, j'ai l'itinéraire et le filon J'ai tellement d'amour pour ma fille, en même temps tellement de haine contre eux Tout le monde à les pastilles, le Uzi, laisse-les faire les mafieux J'peux t'envoyer mes filleuls, on connaît la zone de Creil aux Tilleuls Ça vend la frappe à Ziyech, on bé-tom pour gue-dro, pas pour viol Fais pas la ppe-fra, t'es vilaine, petit j'attirais plus vieilles Té-ma le Merco AMG hey, hey, j'attends mes finances AFG hey, hey Beaudottes, été enneigé hey, hey, trois cent mille ventes en léger hey, hey Le brava sort de la caisse grrah, ça tire dans les cuisses pah Bonbonne de coke dans la veste grrah, c'est mieux qu'j'prenne la fuite Trois heures du mat' sur le parking, j'commence par qui ? Poh, poh Neuf heures du mat' dans la sécu, j'commence par l'king poh, poh Le sang c'est le sang, j'peux pas changer de camp Platine o plomo, amigo, pas là pour chauffer le banc T'as fait si, t'as fait ça, t'es qui d'jà ? J'me rappelle pas Mamadou, Moustafa, oui c'est ça, on vous rappellera allô ? Les Derniers Salopards, Réelle vie 3.0 Ah bah ouais Bersa1</t>
+          <t>CashMoneyAP! 3.6.5 Tu veux ta mula ? 3.6.5, C.H.A.R.B.O.N 3.6.5 Tu veux ta mula ? Juste ça Juste ça, juste ça Toute la journée dans la street Tu fais ta mula, tu t'en fous du reste T'as réussi, personne te félicite Les geush veulent de la kush Les porcs en bleu cherchent leur souche La mule avale ses bonbonnes, goût du latex sur la bouche Fume le middleman, multiplie l'bénef' à la source Tu l'as à la ceinture H, leur arme est dans la housse Ton arme est dans la Goose Accroupi aux arrivants, tu tousses Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Taureau sur le capot, peu d'négros sont dans la course Tu fais dans la coco, personne a l'temps pour la douce Pas l'time pour masoko, aucune chatte cotée en bourse Pétasse bring mon Jack, passe-moi l'4.7 AK en douce Laisse-les compter les roubles, tu coupes du kush, tu fais le double Coup d'spray pas assassinat, devant toi, il a fait le bougre Glock, cocaïna, les deux font parler la poudre Mental Totò Riina, loin du commandant Massoud Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Tu viens d'sortir du placard, négro l'rrain-té bat de l'aile Armé, jus de bagarre, bang bang bang, refais le game Ta mère a bien compris que son fils s'rait plus le même Dans l'crime comme Joaquín, verras-tu le bout du tunnel ? L'emprisonnement est réel, liberté conditionnelle Tu peux t'faire fumer demain, tu pars d'un prévisionnel Regarder derrière sur l'terrain, c'est ça être visionnaire Prendre en levrette, missionnaire, le commissaire divisionnaire Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Charbonner, charbonner 3.6.5 Charbonner, charbonner C.H.A.R.B.O.N, 3.6.5 Tu fais ta mula Rien d'autre Juste ça, juste ça5</t>
         </is>
       </c>
     </row>
@@ -5371,12 +5371,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Piccolo</t>
+          <t>Diamond</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Comme on dit dans l'6-9 Comme on dit Comme on dit Comme on dit Comme on dit Sencey ReedZ on the track baby Izi Comme on dit dans l'69, t'es un vilain pélo pélo On va jamais s'en sortir, l'humain est un fléau est un fléau T'as sniffé toute la coke avec le nez de Pinocchio Pinocchio Fusil sur la nuque, le visage dans le pillow, oh pillow, oh Never, never we gon' let these niggas win never I can't sleep at night, dreamin' of my sins I can't My momma cried to me, she found my shoe box full with dope Oh Check under my bed, sh find a rifle with a scope No When I'm in th streets, I got the sun on me On me 'Cause you never know who's gonna tryna to take your vie Lost a lot of zanmi, I can't even fuckin' compter Drive-by's all the time, done honey bow hood fuckin' chauffer I just got a text from my old lady, she says sal Those that said they loved you barely know you, that shit cap Just because they smart, they say they like you, don't be fooled Keep that Uzi on you, fuck these niggas, don't be cool, yo Comme on dit dans l'69, t'es un vilain pélo pélo On va jamais s'en sortir, l'humain est un fléau est un fléau T'as sniffé toute la coke avec le nez de Pinocchio Pinocchio Fusil sur la nuque, le visage dans le pillow, oh pillow, oh Comment ça j'te dois des sous ? C'est quoi ce miel ? ce miel Humeur sénégalaise, humeur comorienne Tout est noir, du flingue à la ceinture au kimono Que l'avenir baise ses morts, j'roule un gros joint de Piccolo J'suis Michel, fuck la police, chez nous, y a pas d'comédie Taille 46 d'une Dominicaine, on s'check après minuit M'appelle plus jamais, bitch, brr, réponds tard On parle pas srilankais, toi et moi, y a pas d'saison 2 ouh J'veux la carrière d'Zinedine la carrière d'Zinedine Cur qui saigne, laisse des traces indélébiles oh, oh, oh J'ai vu ses formes, ses hanches, sous ma paire de 4 saisons Elle m'dit Brams', ça fait longtemps qu'j'te baise, pour moi, c'est bon J'ai beaucoup d'rêves mais peu d'espoir, la mentale noire, on vise l'exploit La piraterie n'est jamais finie la piraterie n'est jamais finie, les lossas n's'arrêteront donc jamais tu connais déjà Comme on dit dans l'69, t'es un vilain pélo pélo On va jamais s'en sortir, l'humain est un fléau est un fléau T'as sniffé toute la coke avec le nez de Pinocchio Pinocchio Fusil sur la nuque, le visage dans le pillow, oh pillow, oh Comment ça j'te dois des sous ? C'est quoi ce miel ? ce miel Humeur sénégalaise, humeur comorienne Tout est noir, du flingue à la ceinture au kimono Que l'avenir baise ses morts, j'roule un gros joint de Piccolo</t>
+          <t>Yeah They tried to put me in the box ! It's impossible ! R. Les ! Oh yeah And this time it's all or nothing I said it's real B2o, Izi Diamond Girl, je t'apprécie beaucoup J'aimerais te prendre dans mes bras mais aussi tirer mon coup B2O, toi, you, tu fais battre mon pouls Je vais te mettre à mon doigt puis autour de mon cou Je regarde en l'air, tu illumines le système solaire Bouh ! Sois mon igloo, je serais ton ours polaire Tu me coupes le souffle Je suis frais, tu penses à moi, c'est pour ça que ton couple souffre Si je m'aperçois qu'en fait tu n'as aucune classe Baby, je redeviens un chien de la casse Autrement, personne peut prendre ta place Cupidon s'est fait fumer, ce n'est plus l'heure de la chasse Dieu merci, j'ai réussi Personne ne crie famine ici, il me manque juste une famille J'ai la plume de Léonard de Vinci Je te kiffe, j'ai l'instinct mafieux et tu viens de Russie</t>
         </is>
       </c>
     </row>
@@ -5388,12 +5388,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>16 rimes</t>
+          <t>92i</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>NavigationCette annotation contient des redictions vers chaque lettres, ce qui permettent de naviguer plus facilement sur la page !Un 16 Un 16 est un texte de 16 mesures, soit, pour simplifier, 16 lignes de textes, ou 16 rimes Ce nombre de lignes correspond à la taille habituelle d'un couplet standard, mais il existe des 8, des 32, des 64 et bien d'autres types de texte...BBarre Une barre veut dire une mesure, soit une ligne de texte, un texte de 8 lignes peut être appelé un huit barres Battle Un battle c'est une joute verbale, le but étant de décrédibiliserridiculiser l'adversaire Il peut être préparé à l'avance, ou bien improvisé, avec ou sans instrumentale Beat Le beat vient de battement en anglais, un beat signifie le plus souvent une instrumentale, c'est la musique sur laquelle le rappeur va poser son texte Le seul docteur que je connaisse fait des piqûres pas des beats. Sinik - Dans le vif Beatboxing Discipline où le corps, notamment la bouche, sert dinstrument. Le terme human beatbox signifie littéralement boîte à rythmes humaine Beatmaker Un beatmaker littéralement un fabriquant de beat est celui qui compose et qui crée les beats, les instrumentales, on peut citer DJ Premier, Skread, DJ Mehdi... Juste besoin d'un contrat, d'un flow, d'un beatmaker Booba - Pigeons Break dance CClash Un clash c'est un règlement de comptes opposant deux rappeurs, il peut se faire en musique mais aussi par déclarations ou en face à face Cloud music La cloud music désigne un type d'instrumentales très planantes sur des beats lents Choker Verbe utilisé en battle et qui veut dire oublier son texte, avoir un trou de mémoire hein, crouler sous la pression Crew Groupe dartistes de rue réunissant rappeurs, graffeurs, DJs, breakdancers... tout ce qui touche à la culture Hip Hop Couv' La couv' est un diminutif de couverture et désigne la une des magazinesDDJ DJ sont les initiales de disc-jockey et désigne la personne qui tient les platines, qui sélectionne et passe la musiqueEEgotrip Un texte est dit egotrip s'il a pour but de flatter son propre ego, de se vanter Sa forme est souvent plus travaillée que son fond car un texte egotrip est rarement à prendre au premier degré Ces textes sont souvent constitués de punchlines EP Un 'Extended play' est un format musical plus long qu'un single mais plus court qu'un album. Il s'oppose au 'LP', qui correspond au format d'un album completFFat laces Les fat laces sont des lacets larges et colorés. Ces accessoires permettent d'ajouter du style à ses baskets ou chaussures Flow Le flow est le terme servant à définir la façon dont un rappeur pose les syllabes par rapport au rythme À ne pas confondre avec le débit, souvent, les gens confondent la rapidité et le flow Bien que ce flow ne soit pas quantifiable, en réalité, dire qu'Eminem a plus de flow que Nas ne veut rien dire, on utilise tout de même ce mot comme si on pouvait le compter J'ai trop de flow On appréciera un MC à son flow, ce qui correspond au groove en musique Freestyle Un freestyle est un texte posé a capella ou en musique, il sert souvent de carte de visite, et peut être effectué en groupe Le texte peut être inédit, issu d'un morceau, ou sans aucune ligne directrice. Il peut s'agir d'une improvisation mais un freestyle, par définition, n'est pas forcément une improvisationGGame Le Rap Game désigne la compétition fictive et interminable menant au titre de boss du Rap Game Le but d'un rappeur dans le game est de vendre un max et d'être le maître de l'égotrip Genius Un Genius est un personne dont le Q.I. élevé lui permet de comprendre une rime ou un morceau plus facilement qu'un individu lambda Le rap étant lyricalement la plus belle musique de loin de nos jours, il va de soi que les premiers Genius sont amateurs de rap, bien que des Genius dans le Rock et le Reggae se soient aussi distingués aux États-Unis Par ailleurs, il n'est pas rare de voir un Genius citer une punch' en pleine discussion, se mettre à kicker, ou encore se vanter de son gros RAP IQ ! Certains Genius s'exercent aussi à la punchline rapologique sur Twitter Graff' Le Graff désigne la discipline du graffiti dans son ensembleHHey yo ! Hey yo ! est une interjection usuelle pour attirer l'attention et interpeller l'auditeur ou l'adversaire quand on est au micro ! Yo étant une prononciation argotique de you, la formule se traduirait en français par Eh, toi !IIndépendant Un rappeur est dit indépendant si son label n'est pas sous-traitant d'une majorKKickeur Un kickeur est un bon rappeur, un rappeur technique On dit qu'il kick, porté sur la forme, rimes richesLLyrics est le mot anglais pour dire Paroles de chansonsMMajor Les majors du disque sont les trois grandes maisons de disques MC De l'anglais Master of Ceremonies, en gros le maître de cérémonie c'est celui qui anime la soirée avec son micro, donc ça inclue les rappeurs Mic Le MIC c'est une abréviation du Microphone prononcé avec l'accent US Mixtape Compilation regroupant plusieurs chansons provenant de plusieurs artistes ou d'un seul artiste. Cette compilation est mixée par un ou plusieurs DJs et généralement distribuée de main en main, souvent dans un but promotionnel Mouv' Le mouv' est un diminutif pour désigner le mouvement culturel et musical du hip-hop dans son ensembleNNew Old School La new old school est une nouveau courant de rap qui a fait son apparition mi-2011 avec l'envie de certains rappeurs de la new school de faire du son comme à l'époque old school, avec des beats d'époque, des lyrics d'époque Ils veulent donc créer une musique actuelle, mais avec les bases du rap old school. Ce retour aux sources se fait notamment en évoluant en indépendant, en collaborant avec des figures du rap old school... New school La New School à l'inverse de la Old School se caractérise par des textes moins sensés, plus portés egotrip, sur des beats plus street et beaucoup moins soulOOld school Rap dit à l'ancienne , c'est très subjectif, on ne peut donc pas dater précisément, bien que pour beaucoup cela correspond à tout ce qui s'est fait avant 2000PPhase Une ligne de texte, un passage, ou une séquence d'un morceau Posse Synonyme de crew Punchline Une punchline c'est littéralement une phrase coup de poing , le genre de phrase bien formulée qui laisse sans voix, souvent de belles métaphores, ou des jeux de mots grinçants A noter que les punchlines sont souvent utilisées dans les morceaux egotrip Ex J'ai plus de flow qu'une femme fontaine Booba - Abracadabra Les punchlines peuvent se trouver partout, BD, chanson française, cinéma, la télé, etc... Ex J'ai des mains faites pour l'or et elles sont dans la merde Tony Montana - Scarface Mais le rap reste la plus grosse usine à punchlines ! Pull-up Indication utilisés en live, quand le rappeur demande à son DJ de couper le son. Les raisons d'un pull-up sont variées l'artiste rate son live ou un problème survient et l'artiste doit couper son morceau ...RRap De lacronyme 'Rythm and poetry' en français Poésie et rythme Le Rap est un style de musique composé principalement d'un texte scandé, improvisé ou non et rythmé par un beat ou une instrumentale Rap alternatif Alternatif aux thèmes et façons de faire souvent récurrentes. Le Rap alternatif désigne également une fusion entre rap et diverses rythmiques souvent électroniques Rap conscient Un rap conscient est un rap qui parle de problèmes politiques etou de société, un rap engagé en sommeSSample Échantillon sonore emprunté à une bande sonore pour former le beat. Le procédé est le sampling et la machine est le sampler Il y a le sample utilisé pour le beat , et les autres samples, utilisés pour illustrer des propos Scratch Bruitage effectué, par le DJ, grâce à la manipulation en avant et en arrière du disque vinyle Skeud Skeud est le verlan de Disque Skit Intermède entre deux morceaux, souvent constitué de dialogues, qui peuvent être extrait d'un film, d'un sketch, d'un discours ou d'une autre chanson. Parfois le dialogue est fait par l'artiste lui-même pour replacer le morceau dans le contexte dans lequel il a été enregistré Swag Le swag c'est en quelques sorte le Style Ceci dit, il peut être utilisé comme un verbe ou une interjectionTTag Le tag est une branche du graffiti qui consiste à poser sa signature représentée par un court lettrage stylistique au feutre large ou au Poska marque de feutre peinture un peu partout sur des endroits de passage et de visibilité stratégiques, afin de diffuser son nom de tagger et celui de son crew collectif Trap music La trap music est est un sous-courant musical issu du rap et de la rueUUnderground De l'anglais signifiant littéralement souterrain Adjectif désignant les artistes travaillant hors des circuits commerciaux production indépendante, aucun recourt à la promotion, etc. Désigne aussi plus généralement un style moins accessible, par opposition au mainstreamWWack MC De l'anglais 'weak' qui signifie 'faible', un Wack MC ou un MC Wack, ou même un Wack est un rappeur qui craint, qui est mauvais, mais qui se vante d'être bon Ceux à qui on reproche un manque de créativité, d'authenticité, ou ceux qui ne disent que des trucs stupides dans leurs textes18</t>
+          <t>Ya-Ya-Yaya on the track This is Freaky J'leur fais la totale Han, ces putes vendent pas d'albums J'mets toit sous mon parasole, les fumer, j'trouve ça banale Yeah, Mauvais en relation, fils de chien, j'sauverai la nation Click, pah, j'te fous sur l'paillasson, j'ai vendu été, hiver 2 balles sur ton corps, fuck les problèmes, bitch, j't'oublie, ton string, il me saoule De grosses quantités de Cali, j'tolère, Glock 17 pétasse quand je sors Je sais, tu peux pas comprendre ma colère, j'les bute au 47-AK Moi j'suis matrixé par ce sac d'oseille, fils de pute, on est sur la carte Yeah, deux cornes, une auréole, me parle pas de la sorte Six heures du mat', ça frappe à la porte, qu'une heure avant, j'craquais la capote Négro, toujours en opération, les kill', c'est banale 92i, VVS, Paname, eh On traîne très tôt, mytho, métaux, vie de chien, y a pas de véto J'ai tout investi, là il me reste tchi, j'ai payé la gov' en bédo Un métal froid, sur baba qu'ils ont chaud J'les laisse parler, c'est des putas, ils f'ront pas grand chose 92i, la frappe, ramène, wesh ient-cli, j'sais c'qui t'amène Tu nous dois tant, tu mets du temps, bang bang dans l'abdomen 92i, la frappe, ramène, wesh ient-cli, j'sais c'qui t'amène Tu nous dois tant, tu mets du temps, bang bang Nous devant, eux derrière, comme ça qu'j'ai tout agencé Des fois, j'vais trop loin, je sais, c'est mieux que d'ne pas avancer Tu cherches à être dans tous les curs, tu n'es même pas dans l'tiens Ton malheur fait mon bonheur, 700 HP, check engin Le ciel est noir et réclame sa part, les douleurs elles restent, les amis, ça part La tension quand les démons frappent à sa porte, un fils, ça fait la guerre et une mère, ça pleure La mort, la richesse, ne m'font plus d'effet, une fin universelle, on s'ra tous défunts Trente-trois ans l'âge de gloire, serais-je assez fort ? Dans la rue, peu d'bonhommes, guette, c'est tous des faibles Même au paradis, j'trouverai des défauts, c'est pour ça qu'j'suis conscient qu'j'suis le plat du feu Une cagoule, une équipe, tout est planifié, du sang dans tout l'salon et c'est pas du faux Si t'as d'la pure pas chère, c'est pas d'la re-pu, ici, c'est la France, c'est pas Medellin Aujourd'hui, quatre plaquettes, c'est un salaire brut, tu sais, les vacances, c'est pas mes délires Tu sais, les vacances, c'est pas mes délires Ouais, ouais, gros, paye-moi maintenant, j'laisse zéro délais Ouais, ouais Fini les carences, j'fais cinq-cents de l'heure, certif' après certif', j'suis le cours de l'or Arriba, arriba, arriba J'fais l'argent encore, on sait le blanchir Ouh, y a des ients-cli dehors, du pain sur la planche Ouh 92i, la frappe, le gang, il déchire, si tu cherches la concurrence, va chercher aux chiottes La money appartient à c'lui qui la veut, ils sont morts fauchés, ces cons, dites-moi à qui la faute ? C'est pas la mienne, nan, nan, nan, nan Nan, nan, nan, nan, nan, nan, nan, nan Nous devant, eux derrière, comme ça qu'j'ai tout agencé Des fois, j'vais trop loin, je sais, c'est mieux que d'ne pas avancer Tu cherches à être dans tous les curs, tu n'es même pas dans l'tien Ton malheur fait mon bonheur, 700 HP, check engin Ta-la-la-la-ta-ta-ta, ta-la-la-la-ta-ta-ta Ta-la-la-la-ta-ta-ta, ta-la-la-la-ta-ta-ta Ta-la-la-la-ta-ta-ta, ta-la-la-la-ta-ta-ta Ta-la-la-la-ta-ta-ta</t>
         </is>
       </c>
     </row>
@@ -5405,12 +5405,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>GDC</t>
+          <t>Chicha menthe</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Laks Production J'te l'dis I.Z.I Bientôt Bientôt, tout va faner au printemps, j'saigne mais ils peindront le ciel de rose Bientôt, métavers et avatars, flemme, fini la fête des Vosges J'suis obligatoire, petit bâtard, saigne, comme la deuxième dose J'hésite pas à sortir le yoga flame pour avoir gain de cause T'as pas d'crypto, c'est la hess, ressaisis-toi wesh, adios les mauves Cartel, B2O, Tavares, d'mande à Maes, à Dios' et Moz On t'éteint, pas d'abracadabra, un seul message, une seule idée La chatte à Stella Kamagras, kilométrage illimité Dans la vallée des morts, j'fais du buggy, de l'aube à l'aurore, envie d'tout niquer Rachète pas l'Urus à Meugui, c'est Abdou Motors, il est pipé Légende vivante comme Akim, K.O.F.F.I Olomidé Comme la promenade du CJD, la mer est bien trop agitée Tu crois pouvoir faire comme le Duc, avoir compris le truc, t'as pas idée Le vide derrière moi m'empêche de r'culer, j'sais pas léviter Je paye en euros, en ETH, alcool, pas de l'eau dit le PH J'préfère t'niquer ta mère, j'aime pas débattre, j'arrive en double R chez le pédiatre Bientôt, tout va faner au printemps, j'saigne mais ils peindront le ciel de rose Bientôt, métavers et avatars, flemme, fini la fête des Vosges J'suis obligatoire, petit bâtard, saigne, comme la deuxième dose J'hésite pas à sortir le yoga flame pour avoir gain de cause Piraterie, liberté, c'est le thème, c'est sur ça qu'elle repose Si j'meurs au combat sur mon glaive, faites graver ces quelques proses Elle croit qu'je l'aime mais je l'aime pas quand même, je laisse le doute planer Bientôt, les chinois vont tout contrôler, moi, je suis prêt à manger des nems toute l'année Ça vient du Pont d'Sèvres, enculé, quand ça voulait, encore dire quelque chose T'es même pas connu à la SNEP, 7echek, comment tu oses ?</t>
+          <t>On a démarré a démarré, a démarré B.I.L, c'est carré B.I.L, c'est carré Ma rue, c'est Gotham, que des rates-pi qui font du sale dans l'ombre Bah, c'est rentable, ça t'enlève ton âme, juste à coup de portable J'fais du bizz en parallèle, nique les folles, c'est pas par rapport à elles que j'me suis mis à rapper Un peu parano, j'suis pas parrainé, j'aide les p'tits en chien, c'est mon rôle d'aîné dans le dél', t'as capté Gros bolide, appel de phares, allez, faut s'écarter, le veto, c'est l'cartel Que des têtes cabossées qui le Nous on vient dans ton quartier, on fait pas de battle, j'fume la beuh couleur turtle J'oublie tout, d'où je viens et comment je m'appelle, quand les condés m'interpellent Sale époque, peu de potes, une équipe armée, soudée comme la Cosa Dans le bloc, fait les comptes, fait le con, dépôt, arrivants, tu finis au bâtiment A Dom Pé', Veuve Clicquot, des grosses chiennes, des chichas menthe Tu sers à R, on sert les toxicos, Haut-d'-Seine la plaque tournante B.I.L feat le DUC, spectaculaire comme un but d'Neymar Déjà qu't'es une grosse pute, au moins, sois une pute aimable Y a une différence entre le faire et le penser, y a une différence entre vouloir et pouvoir On allait voler, eux, ils allaient pioncer donc l'ancien, garde tes conseils pour oi-t Y avait personne pour moi quand, en bas, j'galérais, personne pour moi, dans les moments durs, gros Personne pour moi quand j'me faisais péter, personne pour moi quand j'vendais la pure, gros Personne, j'étais tout seul dans l'noir, la solitude une habitude J'marche avec le cur, y en a pas mille comme moi, j'le vois juste à leur attitude AK-47 pour la bagarre, les têtes, ça n'existe plus Tous les bons sont au placard, dehors, y a qu'des fils de putes Dom Pé', Veuve Clicquot, des grosses chiennes, des chichas menthe Tu sers à R, on sert les toxicos, Haut-d'-Seine la plaque tournante B.I.L feat le DUC, spectaculaire comme un but d'Neymar Déjà qu't'es une grosse pute, au moins, sois une pute aimable Dis-moi, tu veux payer tout d'suite ou bien tout d'suite, qu'est-ce qui t'arrange ? Ils disent que le hijab, c'est le Diable, j'suis pas sortable, c'est ça la France Un ient-cli par seconde, c'est la cadence, double majeur en l'air, je bombe, c'est ça ma danse Il va falloir le faire va falloir, le dire, ça suffit pas, t'as frappé aux portes de l'enfer, j'espère qu'ça ouvre pas Bougies d'anniversaire chez l'commissaire, on souffle pas Soit je vis, soit je meurs, nique sa mère, je souffre pas Changement d'destination, j'les envoie vers l'Triangle des Bermudes Dans l'sale à toute allure, j'suis rien sur Terre, qu'une interlude B.I.L Des filles charmantes, des chichas menthe 9.2</t>
         </is>
       </c>
     </row>
@@ -5422,12 +5422,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Kayna (Remix)</t>
+          <t>GTA</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Tu peux pas contrôler ma destinée Oh, oh, oh, oh, oh Validée par la cité, pas par la série Je suis la voix de la calle, du fin fond de l'Algérie Ils croyaient m'arrêter en détournant le regard Comme drapeau d'mes origines, j'suis partout, de toute part J'étais là avant, j's'rai là après, fais belek si t'es pas prêt À balles réelles et j'suis précise, y aura des dommages et des blessés Et j'suis précise, ah, ah Ma destinée était écrite par le bitume avec un plume Ma voix résonne avec mon nom, numéro un sur iTuns J'ai l'regard vide, l'esprit tourné vers la prochaine bataille J'suis comme boxeur sur le ring, j'sais déjà qu'faudra m'pousser dans l'vide Ça s'ra eux ou moi, ma destinée est écrite, demande à Booba Tout niquer, mourir au front ma destinée, ma destinée, d'mande à Kayna Jusqu'à la mort comme soldat sur le rrain-te, haschich, amné', cocaïna Tout niquer, mourir au front ma destinée, ma destinée, d'mande à Kayna C'est la mentale, chez nous la guerre s'arrête jamais, c'est pour mes soss et khos, on se retrouvera J'marie aucune de ces pétasses, elles ont toutes le cur en strass Le crime khalass mais hélas, j'ai vue sur la cellule d'en-face Guerre avec lui, guerre avec moi, comme dirait tre-l'au Mathafack Ils vont tout détruire à la fois le cash money, le mâle alpha Laisse le love dans tes Air Max, là où on va, t'en n'as pas b'soin Chef de guerre comme Kadyrov, fuck le maire, le maire adjoint J'fais un go-fast, j'me fais péter, j'leur dis qu'j'étais chauffeur-livreur Petit, j'rêvais d'être dictateur, aucun sentier n'mène à mon cur Ma destinée était écrite par le bitume avec une plume Ma voix résonne avec mon nom, numéro un sur iTunes J'ai l'regard vide, l'esprit tourné vers la prochaine bataille J'suis comme boxeur sur le ring, j'sais déjà qu'faudra m'pousser dans l'vide Ça s'ra eux ou moi, ma destinée est écrite, demande à Booba</t>
+          <t>Oh, oh Oh, oh, oh, oh oh, oh Oh, oh, oh, oh oh, oh Oh, oh, oh, oh oh,oh Ah, ah, I surprised you, didn't I ? Je m'en voudrai toute ma mort si je dois vous laisser-là Le monde parfait pour moi San Andreas, GTA Toujours là quand j'étais mal, j'ai le métal, j'ai les balles Plus proches d'la Sonacotra, au Diable leur cathédrale J'me lève aux aurores, cauchemars et visions d'horreur Dis-leur, dis-leur, la grenade est dégoupillée pah Pas d'baroud d'honneur, on t'achète toi et tes alliés hey, hey Calomnié, des couteaux dans mon dos, j'avance les mains liées gang Ça va chier, j'vous baise sans prendr la peine de vous rhabillr hey, hey On n'est pas en Colombie, quand tu t'fais péter, y a pas de caution J'pensais à la sale époque quand on galérait sous potion On en perd la notion du temps, on en perd la notion du temps On nous enfermait depuis longtemps Pirates à bord, igo, ça vend la mort, on fait pleurer vos mères comme à la guerre On a cramé nos têtes, regarde les faits divers eh J'ai charbonné sa mère, les lovés on sait les faire mmh La piraterie n'est jamais finie, Grizily, Grizily gang gang Je m'en voudrai toute ma mort si je dois vous laisser-là Le monde parfait pour moi San Andreas, GTA Toujours là quand j'étais mal, j'ai le métal, j'ai les balles Plus proches d'la Sonacotra, au Diable leur cathédrale CD dans lecteur Hannibal, devant dans l'vaisseau amiral, primitif animal Sans toi, sans vous, c'est l'idéal, j'suis l'gauche de Rafael Nadal Drapeau levé, j'ai mis les voiles, les yeux rivés vers mille étoiles Zipette sur la pesette, cailloux sous pochette, la mort devient attachante gang, gang Y a heja, on devient attachants, j'ai juré qu'on va t'attacher ouh J'ai rejoint les tranchées, des ges-gor à trancher, vitres teintées, pieds au plancher Doigt sur la gâchette, le pe-pom prêt à cracher, visage découvert, rien à cacher Pas l'temps d'mettre des crochets, rate-pi, j'finirai jamais fauché, qu'ils crèvent sur un bûcher Pas d'pitié, j'veux mon cachet, on va quer-bra ta grand-mère si on attend au guichet On m'a dit Faut les coucher, j'dors plus la noche hey, hey, ah, ah Ça filoche en caméra cachée, ces salopes veulent voir ma vie gâchée T'arrive aux arrivants aux arrivants, tu vas rester combien de temps ? combien de temps T'arrives aux arrivants, t'as jamais connu le hebs auparavant grrah Tu fais du mitard, comment tuer l'temps ? tuer l'temps J'suis bientôt libérable, ça fait déjà trois nouvel ans Je m'en voudrai toute ma mort si je dois vous laisser-là Le monde parfait pour moi San Andreas, GTA Toujours là quand j'étais mal, j'ai le métal, j'ai les balles Plus proches d'la Sonacotra, au Diable leur cathédrale CD dans lecteur Hannibal, devant dans l'vaisseau amiral, primitif animal Sans toi, sans vous, c'est l'idéal, j'suis l'gauche de Rafael Nadal Drapeau levé, j'ai mis les voiles, les yeux rivés vers mille étoiles sait faire les choses Qui veut sa dose ? Primitif animal1</t>
         </is>
       </c>
     </row>
@@ -5439,12 +5439,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>I Can See Why</t>
+          <t>Lourd son</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>We interrupt you to bring you a scheduling program and we're bringing you the special report from WBAD news Hurricane Starang has just been sighted off the coast of the Hudson River Since its materialization, this entity is responsible for the littoral erosion of various sites in the east coast Though forewarned, niggas wasn't ready Absurd amounts of shorties with reports of eradicated backdoors are coming in from sites varied from D.C. to downtown Brooklyn Seamen to harness the power obtained from each chaotic occurrence and now threatens to spark utter chaos along the western hemisphere Im Duck Down staff even when Im by myself Im Boot Camp Clik even when Im by myself Im Fab 5 even when Im by myself Im O.G.C. even when Im by myself Husk! Storm Husk! Storm Husk! Hang that ass up like a poster Got niggas out in Genosha who be screaming, Eshkoshka! They dont know ya, so I cant see why they wanna start ya Its a shame, Strang got more aim than an archer MP Rock, please prepare my ship for departure Beat these young boys ass and make em run and get their father Niggas get dropped from the hip-hop culture Its the ultra emcee, fly like a vulture One, two, I come through on the humble Beast from the East, call me king of the jungle Beast from the East, beast from the East Beast from the East, beast from the East Strang coming like a hurricane licking shots Strang coming like a hurricane licking shots Strang coming like a hurricane licking shots When I roar like a grizzly, they say, Damn, he gets busy I be Grand like Puba, but Ill move smooth with Dru Ha Puts the B in booyah, Starang coming to do ya Scream hallelujah, but it still wont help ya Run from O.G.C. and get caught by Heltah Skeltah Jet to the other side, run for cover, hide Niggas still wouldnt be safe even if I let em slide But this aint baseball, Ill waste yall, ask no question Get attacked from the back by the black Smif-N-Wessun I be rubbishing any crew that claims that they be bubbling Get that ass capped like them niggas when theyre handling My publishing I be loving when fake rappers Question my status when my crew be the fattest At this, and you could ask my man the Big Kahuna Ka-plow now make you say yow like Junior Youve been warned Da Storms in the atmosphere Move over, make room Gunn Clappaz here Cause its ill how I kick lyrical skills with the force No joke when I leave you choking off of the exhaust Of course, who else could it be but Mr. Strangle? Hit that ass from every angle they dont really wanna tangle Strang coming like a hurricane licking shots Strang coming like a hurricane licking shots Strang coming like a hurricane licking shots The original ay caramba Starang Wondah Continuing on its destructive path, Hurricane Starang has just been labelled as the cause of the severe tree shortage in and around the tri-state area Ish is getting hot Citizens are advised to renounce all fronting and practices if they hope to survive the storm Rock Ayo, Starang Starang Wondah Sup, son? Rock Ayo, you should let em know exactly why you be Numba One, I dont think they understand First of all, Starang comes first and foremost My first instinct would be to burn yall wack raps like toast Fuck the first day of school, Im on 1st Ave At the First National Bank so I could fly first class Ask about it and I be the first in line Crack that ass before I even get to kick my first rhyme Im in the Hall like Aaron, puffing Ls all day My first commandment is to keep the fat broads away Fresh, fly, O.G.C. be the best buy Puff lye with my nigga Tek out in Bed-Stuy Then I come through with the wickedness Who be kicking this? Starang, I light shit up like Christmas Strang coming like a hurricane licking shots Strang coming like a hurricane licking shots Strang coming like a hurricane licking shots Gunn Clappa Number One with my niggas O.G.C And the aftermath of Hurricane Starang's damage reports are staggering Billions of injuries and wide spread case of amnesia and nausea Conditions are a code red danger. I repeat A code red danger3</t>
+          <t>Pourquoi vouloir tester B2OB ? Mon art est martial, sois de ma classe pour mieux clasher Essaye pas de flasher un vaisseau spatial J'suis vulgaire, niquer toujours à l'aube d'une guerre Bon qu'à faire du son lourd et des criquets B2OBA a.k.a l'Ourson Tu vas retourner braquer, bouffon Avec ton blaze qui pue la défaite Personne écoute ton rap de poucave tout naze C'est pour les têtes brûlées, les purs, les durs, les... Fous qu'aiment écouter la police hurler Tu parles beaucoup trop à mon goût J't'emmerde, ton rap de merde, tout le monde s'en bat les yeu-cou C'est 9 ze-dou, j'ai vu ton clip hilarant ! Torse-nu, des barres, t'es trop marrant ! L'ourson qui met la pression ! Pourquoi vouloir tester B2OB ? Tu ferais mieux de te détendre, de prendre un verre ou de gober Ta gueule ! J'écris des textes crus, fais peur au médecin légiste On est exclus, on existe pas, on résiste, nous C'est la rage qui nous mène en bateau J'prends l'industrie à quatre pattes, crache dans leur gâteau Pas de flashes pour nos clichés nous on s'lève juste pour pisser Le passé est masqué, l'avenir sera postiché Personne ne bouge, personne n'est blessé Prêt à agresser pour percer à la Jamel Debouzze Tu reconnais mon flow devant tant d'impostures Négro c'est nous on fait l'show, file de gauche côté obscur On va parchoquer la roue car elle ne tourne pas, c'est l'heure du partage Nique sa mère faire son paquetage Ne joue pas avec la rue car elle ne joue pas Où j'passe la zeb ne repousse pas J'ai glissé ma peine et mon insomnie dans la feuille à rouler Cagoulés on baise les poules et les poulets Le son qui fout les boules déboule en coupé sport tu peux pas t'louper Assieds-toi sur la boite six poupée Ma réalité tue, la fuir pue l'homosexualité Viens pécho dans l'9.2. si tu veux d'la qualité</t>
         </is>
       </c>
     </row>
@@ -5456,12 +5456,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Bénigni</t>
+          <t>Time Bomb explose !</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Avant, j'voulais la plus sexy, maintenant j'veux celle qui m'casse le moins la tête J'ai les deux doigts dans la prise, les trois autres sont dans sa schneck, dis-moi rien d'autre au personnel Graines d'amertume que j'ai parsemé, cerveau en vrac, j'sais plus c'est quel jour d'la semaine J't'ai donné ma confiance, me l'rendre, tu l'as pas fait, j'ai dû briser ton cur en porcelaine Le temps remet chaqu clown dans son cirque, le temps rmet chaque roi sur son trône, ouais, ouais, ouais J'entends le chant des sirènes, le bruit d'un .45 qui fait Bang, bang, bang Ils camouflent leurs médiocrités avec des prod' qui tapent, des feats derrières leur Givenchy J'ai pas su lui dicter mes règles, lui dire que la vie est belle comme Roberto Benigni Ce soir, je ride seul dans la ville et je me sens habité J'ai craché mon seum dans la fumée, déçu mais habitué Ils trouvent que j'suis trop dur à pister, qu'j'ai plusieurs entités Ces mauvais réflexes qui me guidaient, j'n'ai pas su les quitter Ce soir, je ride seul dans la ville et je me sens habité J'ai craché mon seum dans la fumée, déçu mais habitué Ils trouvent que j'suis trop dur à pister, qu'j'ai plusieurs entités Ces mauvais réflexes qui me guidaient, j'n'ai pas su les quitter J'ai jamais voté, y a qu'des fumiers, des écrans de fumée Y a pas pire que l'Homme, c'est confirmé, plutôt mort que confiné Le savoir est une arme mais le problème, j'pense plus sans mon I.A Parisien, j'perds même avec Lionel, j'danserai pas le Mia J'entends l'surveillant dans le couloir, dans mon poste, y a du Mac Tyer Fidèle à ma couleur, le négro, qui n'en est pas une d'ailleurs Ce soir je ride seul dans la ville, j'suis fonce-dé, j'suis armé J'rejoins Keno, Mala sur Belleville, j'vais aux tchoins pour me calmer Plus tard, je deviendrai célèbre, coup de théâtre, j'croise un prof haineux au feu rouge, il regarde la Fé-Fé de sa Seat Ma mère voulait qu'j'aille voir un psychiatre, j'ai appelé Soprano J'ai gardé ma folie au chaud, ma fille au salon joue du piano Ce soir, je ride seul dans la ville et je me sens habité J'ai craché mon seum dans la fumée, déçu mais habitué Ils trouvent que j'suis trop dur à pister, qu'j'ai plusieurs entités Ces mauvais réflexes qui me guidaient, j'n'ai pas su les quitter Ce soir, je ride seul dans la ville et je me sens habité J'ai craché mon seum dans la fumée, déçu mais habitué Ils trouvent que j'suis trop dur à pister, qu'j'ai plusieurs entités Ces mauvais réflexes qui me guidaient, j'n'ai pas su les quitter Pas su les quitter Pas su les quitter Pas su les quitter1</t>
+          <t>Je n'suis pas un C.O.N, N.O.N ce n'est pas la peine De penser c'la de moi, en effet c'n'est pas B.O.N Je vous avoue de vous à moi Pas de timinik ici, sinon je fais appel à mon Posse Tous pour un et un pour tous La devise des boss Pas de pitié pour ceux qui veulent jouer les sales gosses Beaucoup de gens veulent m'offenser Sous pretexte que nous n'avons pas les mêmes pensées Je balance un missile Scud sur leurs têtes Espèce de bête J'ai pas le temps de me prendre la tête avec toi Ou bien tes idées mal placées Sâche que nos pensées sont pas compatibles Eh yo Jedi, lève le doigt y a quoi ? S'présente devant toi pourquoi Seul toi négro le sait, que la force soit avec toi Il faut, car les bon mcs n'épargnent pas les Mogwaï sans flow, moi et ma clique c'est chaud Pit brûle l'instru pour le m.i.c il faut, la technique de mal-Ka sur le beat y a pas de dégât Fonce, gronde, les faux ma clique on défonce tous les don-bi Ecoute moi ce LP Pleure sur Paris fiston Vise ma clique marque un point frère Je casse les watt, je passe Passe le mic à Sim fait peur donc trace vite Vite comme K2000, Pit a plus de tour qu'un vinyle dans son sac, sur le freestyle Eh yo papy laisse, l'union fait la force Donc prêts on dresse les guignols avec adresse folle Simsky Jedi, les Mogwaï y en a ras le bol freestyle Ecoute ce qu'on dit Time bomb gronde t'es tombé d'dans fils Time bomb explose! Combien de blessés fils? 10 MC's pour le 9.6 Time bomb explose! Combien de blessés fils? Difficile à dire mais des têtes vont tomber... Attention mon garçon j'espère qu'ton mental est vrai Comme Krylon mon esprit spray dans l'underground je vais C'est funkalistik, t'as changé d'niveau négro, mon design est parti dans ton cerveau Il y a 6 millions de façons de perdre la vie, une pour m'obtenir Tu l'as trouvé dghee, c'est mon maxi Mars à la caisse, j'ai la voix le texte remède pour lutter contre ton stress, ma brigade encaisse 9.6, dans le rap mon style est né comme la 8.6, destiné pour brûler aux degrés Hé fils, les rappeurs restent stoïques diront pas que je suis vrai hein, j'ai mon identité 1.9.9.6, B.2.O.B.A.L.I fils Partenaires en vice, dans le bain depuis 86 Les années passent et je continue à semer la zizanie La haine a mis en moi la maladie envers mes ennemis Trop de bluff comme au cinéma La jalousie colle à la peau des miens comme de l'eczéma Mais est-ce moi, ou est-ce toi qui fait le faux qui guète le dos de l'autre ? Si mon flow te gêne, rien à foutre de toi Lunatic sur la Time bomb Les plaies se tracent et les têtes tombent, et les têtes tombent C'est les Lunatic connard écoute les bitchs crier Booba A.L.I, microphone premier Trier les bons sur Time Bomb, les faux sont mis d'côté C'est d'la bombe boy, peut pas boycotter Superstar comme Group home, nique le trom Claque une Mercedes injection, 16s, couleur chrome Bad boy qu'est ce qu'on dit quoi Quand y a les condés Shoot ! Car j'ai la migraine, dès qu'j'entends les sirènes gronder Route, trace la vite, ou tu pourrais perdre ta famille Camille, Sébastien, les gosses et ton chien Vanille Time bomb, Lunatic, nouveau dans les rangs, un nouveau clan Pas racistes, même si y a pas d'blanc Au fait, j'ai eu d'la peine d'apprendre T'étais pas au courant depuis l'temps, bref, tu sais maintenant Cassidy des X en piste, teste les mcs Qui s'disent préparés pour balancer des lyrics neuf pour 9.6 Dans l'brouillard de Paris on s'confond Ainsi s'fondent les X Pour guer-lar des funk feelings façon Master Flex c'est X Qui vous remercie, Paris s'consume mais ne consomme que du X-men J'consomme autant de vibes qu'un Boeing du kérosène Tout les chemins mènent au pays du Kung-fu aie, c'est là que jaillit l'autre X pour te shawayi Un peu d'Hifi beaucoup d'effet, en fret j'fais ma course J'te livre un colis de flow, mille rimes bien ficelées En 20 secondes chrono, tu redoutes ma troupe Hill-G, Cassidy à qui je casse-dédi Te casse tes dix doigts, si ta tass' te dit de pas pé-cho le maxi Et qu'tu l'écoutes goûte, au caoutchouc des semelles de mes Timberland boots Jedi, Kamal, Pit, Simsky les flipettes se taillent dès qu'ils en ont l'occasion J'suis le faux con, c'est toi le vrai, paye cash et sans délai Les faux descendez-les, bandez-les puis pendez-les T'es laid comme un Mogwaï, d'ici à Hawaii un gremlin Un gremlin jusqu'au Kremlin, Hill-G traque le bati boy J'ai pas besoin de gens sah ou presque pour que mon fric aie l'flow J'compresse plus de disques qu'Elvis Presley n'a de graisse Garçon Sans raison, jlâche des flacons dflocon dflow sur les faux 12 mois 4 saisons Tattaques ? ah ouais ? Ton flow cest des gouttes deau sur mon K-way</t>
         </is>
       </c>
     </row>
@@ -5473,12 +5473,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Pazalaza pour sazamuser</t>
+          <t>Bad Like Me</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Kho, m'laisse pas en chien si y'a plus d'thunes sur le pécule J't'appelle de mon cellulaire et de ma cellule Aucune bague à l'annulaire, mon doigt dans leur cul D'humeur bestiale d'un froid caniculaire Et tu mouilles comme Roll-K face à l'équipe Préconise le port d'armes à tes soldats Pas de timinik dans la clique, deep dans la street Nous les tristes héritiers de la vérité stricte C'est Bush aux platines, le Mollah Omar au mic Négro j't'ai mis dans le coma, la musique à fond, la routine Cro-ma du cro-mi, crois-moi, crois-y Kho, celle-ci, c'est pour le 93, Sazamyzy, pazalaza pour sazamuser Laisse la concurrence fendue en deux sur le boulevard des vendus Kho, he he ! Pazalaza pour sazamuser Chezepêze rezenégaza Des le début on m'avait dit que y'avait haja Mets les les buts et prends ton argent Plus l'temps, ça fait dix ans qu'j'suis free agent Si la vie n'est qu'une page, faut que j'la tourne Alors moi j'ai rempli ma marge de ratures Illicite mais maintenant j'sature 92 I attache ta ceinture Et si on fonce dans le mur, que sur le coup on meurt Au pied du mur les miens entendent murmurer la mort Moi et les miens on deale à mort pour s'nourrir Ici c'est moi l'gangster et j'mets tout le monde d'accord OK et j'viens ici estampillé kho 9.2 récupéré du roro pillé Ha ! Ha ! Ha !... Pazalaza pour sazamuser Kho, tout l'monde est beau, demande à Zazie Après un crime à la té-ci, demande aux soces, tout l'monde ici te sors un sosie T'as saisi ils sont tous borgnes pour nous, les keufs ont des cornes Et leur justice est deux fois plus Osborne que Ozzy Y'a pas d'morale dans nos récits, kho, et crois pas que la vie est rose Qu'elle passe de Oz la série au magicien d'Oz Préviens Sarko ça va exploser Blasé j'passe à autre chose comme tout baiser avant de m'poser quand j'aurais eu ma dose J'suis pas le king ni le Kaïser comme Sözé Moi c'est Braza pour les intimes, jamais cocu j'ai épousé ma team Les flics au cul tu poses les armes, t'as plus qu'à serrer les fesses Si tu parles mal, tu vas faire quoi seulement avec ta lame ? T'es trop guèze c'est abusé Tu veux un dièse, du buzz pour t'amuser mais rien qu'on te baise à la base Ne laisse pas les haineux se tasser mais laisse passer les tass Évite les condés ou ma clique si tu veux clamser façon classique Kho ! Kho ! Pazalaza pour sazamuser</t>
+          <t>Everybody's uptight Everybody's uptight Trying to get their money right Trying to get their money right Jocko, Jocko where have ya been? I rapped with Reagan, now I'm back again When you can't find a job you're in a hell of a fix Reagan-omics got you in a bag of tricks Things are bad, no relief in sight Everybody's uptight trying to get their money right Inflation, got the nation When it comes to the rap a dab dab I want you to know I'm the best at that You gotta keep on rappin' through the budget cuts RAP when the government kicks your butt Holler loud, holler clear, holler if you need some help out there HELP! HELP! HELP! HELP! Whole lotta people need a whole lot of help No if ands or buts, the government is kickin' our butts To all this panic you might as well know It ain't no better in Puerto Rico Detroit was hit hardest by far Many people ain't buyin' the American car Employment lines are from here to there There ain't no good jobs anywhere Foods all gone, the rents past due I can't hack it and neither can you Chicka boom chicka boom chicka bombidy dare Say a little prayer keep a-hanging in there Things are bad, no relief in sight Everybody's uptight trying to get their money right You're out there struttin' try to make it some way The junkies schemin' how to taketh away While your working hard they breakin' your back are you mad You get a guard dog, that's the thing to do Damn if the junkies are stealing them too Say ho, ho, chow, chow, they even got your bow wow Tough deal, its for real, never met a junkie that didn't steal Ain't no solution to the junkie revolution So now this game is going that's where its at Stakes getting over like a big fat cat If you really don't wanna go hungry Don't blow all your money on the lottery Hey Liz! What it is, I'm obligated to tell it like it is Hey dude, yeah, is your name Bob? Your girlfriend split when you lost your job She met a cat with some money and a shiny car Can't separate them with a crow bar She boogaloos downtown likes to hug and kiss Put you out of her mind like you didn't exists Jocko this ain't no joke, I don't need no dude that's broke Hey Sonny, that's me, you can lose your honey when the money gets funny Say ho, ho, shout, shout! Ain't no more love when your money runs out Forget way no place to be everyone I see is doing bad like me Can't take it can't make it through another day Gotta get my head together find a better way Chicky boom chicky boom chicky boom biddy boom Got my things all packed and I'm splitin' real soon Hey yall let me make this clear I gotta, gotta, gotta gotta get outa here Things are bad, no relief in sight, everybody's uptight trying to get their money right Rap up the job mr Vietnam vet Rap a dab dab when you missed your number bet Rap, when you ain't got cash I can rap better than Grand Master Flash Rap up some love your car is parked Rap when if mugger catches you in the dark Chicky boom chicky boom chick boomity dact You can't get pulled over when your rappin' white Take a look at that girl she's 13 They nick named her the street queen Hooked on drugs she needs the loot God help her she's nothin but a prostitute This pitiful girl is just a tot The pusher gets every dime she's got Hey Pearl, what a world, gotta find a way to help that girl Ain't no solution to the junkie revolution Gonna rap, through the arms race Every nation in the world wants to be in first place Spend billions on bombs thats a lot of dough With a nuclear war everybody's gotta go If they push for the button for the bombs release The world been shot through the grease Say oh oh, oh oh, sorry to tell you that's the way they go No if ands or buts the government is kickin' our butts They got a master plan throughout the land It started with that Reagan man The rich stay rich, the poor stay poor Then they lock every door just to make sure Hey lift, I'm about to have a fit That's about the size of it Inflation got the nation No time for, celebration Celebration time, no way! Jocko Jocko where ya been? I've caught hell out there Now I'm back again Chicky boom chicky boom chickity boomity boom Got my things all packed and I'm splitting real soon Hey y'all let me make this clear I gotta gotta gotta get outta here Chicky boom chicky boom chicky boom biddy boom Got my things all packed and I'm splitting real soon Hey y'all let me make this clear...</t>
         </is>
       </c>
     </row>
@@ -5490,12 +5490,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Locked Up (French Remix)</t>
+          <t>System</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>J'me suis fait coffrer comme un naze, en gard'av' comme un trophée J'déambule en ien-ch dans ma cellule Négro j'repense au Sénégal, à l'île de Gorée 41 balles pour un contrôle, le roi de la pop décoloré Tout l'monde y est allergique Certains craquent, tremblent, certains se coupent les veines,certains s'pendent pour être à l'air libre Bosser pour survivre, dealer pour vivre Pour que tu kiffes sur l'habillage, que ta biatch kiffe l'équipe La rue t'attends la rue te regarde Dans mes rêves y a que des putes, hélicoptères échelles grenades Sûr d'aller en calèche, d'y faire un p'tit stage C'est pas du ma-nec', la taule les halls les tours de manèges Certains figurent dans le Guinness pour leurs aller-retours Premier sa-medi du mois ton A.D.N. dans un Kleenex Sinon dans ma cellule, j'fais des pompes j'écris des textes, j'taf Et sur les murs j'ai des photos d'tass' I'm steady trynna find a motive Why do what I do ? The freedom ain't gettin' no closer No matter how far I go My car is stolen, no registration Cops patrollin', and now they done stop me And I get locked up They won't let me out, they won't let me out I'm locked up They won't let me out no, they won't let me out I'm locked up They won't let me out, they won't let me out I'm locked up They won't let me out no, they won't let me out Headin' uptown to re-up Back with a couple keys The corner block's on fire Undercovers dressed as fiends Makin' so much money Ride up smooth and fast Put away the stash And as I sold the last bag fucked around And got locked up They won't let me out, they won't let me out My nigga I'm locked up They won't let me out no, they won't let me out I got locked up They won't let me out, they won't let me out Baby girl I'm locked up They won't let me out no, they won't let me out Sur terre, j'ai pû compter sur ma parole, la drogue et la daronne 745i, 9.2. izi Tous les chemins mènent à Rome ou à Washington Sisi j'enfile un passe-montagne, démons et anges m'accompagnent T'es dans le coffre de la bagnole, tu payes sans faire d'chichis Moi j'suis à Cuba, sirote un sky à la piscine Un peu de biff la rue est bleu ciel Prises 22 voilà les kissdés, le crime paie jusqu'à la perquis' Cause visitation no longer comes by Seems like they forgot about me Commissary is getting empty My cellmates getting food without me Can't wait to get out and move forward with my life Got a family that loves me and wants me to do right But instead I'm here locked up They won't let me out, they won't let me out Oh I'm locked up They won't let me out no, they won't let me out My nigga I'm locked up They won't let me out, they won't let me out I'm locked up They won't let me out , they won't let me out Cause I'm locked up2</t>
+          <t>Du kannst dich beschweren doch es ist nicht schwer, du willst es sehr Aber egal welchen Film du fährst, oder wie sehr du deine Sinne schärfst Es bringt nichts mehr, du entkommst nicht den hin und her Ich dachte ich pack's irgendwas fällt mir ein, doch das hin und her hält mich klein Jetzt komm und raste nicht aus, ich hatte doch diesen Traum Wo ist er hin sag wo ist er hin, da wo ich nicht mehr bin Irgendwann ist Schluss denn ein Mann muss tuen was ein Mann tuen muss Ich kann deine Wunden nicht heilen, sie sind zu tief Kann keine Noten lesen aber bin Musik, intuitiv Beschreib' ich das Bild in meinem Kopf, bist du's siehst Denk zwar nach doch handel impulsiv, es ist simpel gib Mir meine Freiheit sperr mich nicht ein, entweder ich sterb oder werd mich befreien sag Merkel ich weiß was zu tuen ist, komm gerne vorbei Zeig wie man Hilfe macht, Fehler verteilt Da ist nicht mehr viel Zeit, doch lass mich raten da wird eh nichts drauß Weil sie weiß wessen Ideen sie braucht, aber falls sie sich traut Sorg ich dafür dass sie wenigstens ein Mal durch meine Augen auf's Elend schaut Ist ihre Gänsehaut echt oder nur filmreif? Manchmal vertreiben Tränen einen die Blindheit Ich bring mein Kram bis ihr den Sinn peilt, Man kann nicht jedem helfen sagt der Herzlose und hilft keinem Ich dachte ich pack's irgendwas fällt mir ein, doch das doch das hin und her hält mich klein Jetzt komm und raste nicht aus, ich hatte doch diesen Traum Wo ist er hin sag wo ist er hin, da wo ich nicht mehr bin Irgendwann ist Schluss denn ein Mann muss tuen was ein Mann tuen muss Sie stellen Stoppschilder auf, du gibst mit der Zeit für Sicherheit Hoffnungen auf Quälst dich täglich selber mit einem Job den du brauchst, aber nie machen wolltest Hattest doch diesen Traum, ich bitte dich Kann schon sein dass es bitter klingt, doch du hast ihn verkauft für einen Platz im unteren Teil der Mittelschicht Ich weiß sie zwingen dich, versehen dein Weg alle fünf Meter mit 'nem Hindernis Und das zu nehmen, schwierig wenn du Kinder kriegst Hier geht es nicht nur um dich stimmt's? Familie weckt bei 'nem Mann Beschützerinstikt Du handelst aufopfernt, ehrenwert und selbslos, und lässt für ihre Träume gerne selbst los ah So ist die Welt Sohn, jetzt geh und mach mich stolz Doch wer weiß vielleicht beginnt es ja nochmal von vorn Das ist dieses System beobachtet und schätzt uns ein Macht es uns schwierig, hält uns klein Ich dachte ich pack's irgendwas fällt mir ein, doch das doch das hin und her hält mich klein Jetzt komm und raste nicht aus, ich hatte doch diesen Traum Wo ist er hin sag wo ist er hin, da wo ich nicht mehr bin Irgendwann ist Schluss denn ein Mann muss tuen was ein Mann tuen muss</t>
         </is>
       </c>
     </row>
@@ -5507,12 +5507,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>Nu Lajan</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Allô ? Cerveau ? Plus d'réseau Ton Dieu m'aime pas, le mien n't'aime pas non plus, on s'ra jamais d'accord New York, L.A, Dubaï, Honolulu, c'est qu'elle tapine à mort Trois téléphones, quatre voitures, deux femmes, et alors ? Écailles de poissons toutes fraîches, en el congelator hein Tout l'été au quartier sur un 700 Raptor vroum Une métisse double D monte dans l'Aventador J'crois pas aux contes de fées, j'crois en nos disques d'or baw Plus qu'tes yeux pour pleurr, c'est mort face à El Matador Chez Jawad, p'tit barbcue, j'finis d'régler l'détonator Elle m'dit J'suis un tapin la nuit, le jour j'suis realtor quoi ? Trou d'boulette, casquette, baskets, full alligator classique Huit numéros, trente-deux chicots, elle s'doute que j'vends la mort T'avais raison mais j'ai l'flingue sur ta tempe, maintenant, t'as tort Pas d'pénurie si d'Colombie vient l'réassort Balle dans la tronche, fuck l'UFC, fuck Bellator Je hais cette plèbe, l'arène et le toréador Tu t'es fait rafaler, malgré l'bébé à bord Cette pute croit pas en Dieu, j'te l'dis, y a que Dior qu'elle adore En vrai, j'dis ça, en vrai, j'm'en bats les couilles d'abord C'est la vie qu'j'étudie, j'ai bien compris c'qu'était la mort Demande à Jules César, toute victoire s'élabore Chez nous, on joue pas en ligne à Medal of Honor Pas d'tralala, pas d'Arcadia sans Albator On ne survivra qu'en gang comme à El Salvador Les langues de pute n'assument plus leurs quatre vérités Le chargeur est plein pour allumer tout l'comité rrah J'suis sur un plav' à sept chiffres, il faut m'éviter J'm'arrache avec ta sorcière, le soir, j'la fais léviter J'leur mets mon pied au cul sans beurre de karité J'suis pour l'extinction, pas dans la charité Marc Landers, j'suis sur le rrain-te le rrain-te J'ai appris à niquer des mères devant l'Club Dorothée Dorothée J'suis dans ma grotte, j'recharge le GT j'recharge le GT Un contrat sur ta ganache, la faucheuse arrive en GP arrive en GP On vise la lune ou ta te-tê Coup d'poker, on t'a coqué, j'sors l'RS4 et t'fais cocu, ah ah1</t>
+          <t>Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan m'van neg sa yo kal poision Okipasyon se Christina Aguilera ak mari jean Little Haiti vagabon toujou ladan'l men'm si'l gen san Pou mwen se le sa li pi bon le lap vin nan tout direksyon Si ta gon moun ki pata vle poum vann moun sa se poul mouri 24 ouzi kanpe ave'm men boujoli se bon zanmim Nan ge nou fes neg tounen fi le'm pagen lajan paka ri Son figi di se brase li jete on ti dlo avan'w bat li Mete'l chita pou'l ka seche avan'w koupe'l se pou'w teke'l Le li fini lap vann tet li nenpot kote'w mete'l l'ap vann Gen moun ki di yo renmen'l mou pi bon toujou le'l ka naje Gen neg se nen se ti poudre tout sak nan roch se glas boule Makak sa yo fize neg yo nan kou nan tet neg yo se tou Yap jwenn enpe yo pap jwenn tout plen tou kashe ki fout plen moun Nan miami ti haiti a Paris de New York city di jehova pitye pou li Tout sa konnien se kwit li di Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan A2SA2SIN Fuck les happy ending drug deal et grosses chi-ennes 92izi Team dans le maki quelques gamos sur le parking Mon silence est d'or négro ma parole est de platine Mieux vaut qu'tu recules, ghetto jusqu'aux rotules Un pour l'argent nouveau, eh ! Deux pour les gros culs Représente Boulbi, Little Haitizi Fais l'plein d'euros malsains m'arrache à Tahitizi Gato, sakapfet la jamais en hesla Brrraahh ça tire ça tire ap, t'inquiète poto on reste là On est partout où tu passes nous repassons Requin noir Benz noir handek à la queue de poisson Sniffé écaille de poiscaille lion d'Judah sur le poitrail Nous l'argent nous colle aux pinces, fait trembler comme à Port au Prince Mon swagg nombreux n'y survivent pas Bouquets de chrysanthèmes que ceux qui m'aiment ne me suivent pas Izi Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan New York yankee fitted chapo'm vire sou kote Boz mwen fimen fe'm monte alize fe'm poze Melanje ak henessy lajan'm vini plastifye San pale yo ka tande astansyon yap siveye'w Vin jwen'n mwen pou'm ka montre'w kisa yo rele poison Kisa yo rele bijou kisa yo rele poizon Anba lavi m'anvi mouri avek yon kondisyon Sim retounen si yo banm chance pap gen divizyon Dlo sa'm bwe li gode sa li santi lavi pa'm diffisile Sakrifis pou benji Massarati Lamborghini Enemi asyien zanmi ak zam silens yo sevi Kon'w glise y'ap ba'w sevis Jou'w pale w'ap tou la manda'w la pou mouri San fanmi ke yo di gad figi yon la patri Bel zouti pri se fri koneksyon lavi fasil Lnan mitan danje chita pou'm montre neg yo li izi gato Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan Chak jou se pou'm fe lajan nu lajan nu lajan2</t>
         </is>
       </c>
     </row>
@@ -5524,12 +5524,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Outro (Ouest Side)</t>
+          <t>Le Code</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Les derniers seront les premiers Oh... Ouest Side ! International hustler, nègre de la pègre ! Zéro, nos concurrents sont deads, se ramassent à la pelle Tu veux test mais quand le chrome parle, tu nous parles de la Mecque Noire est la messe, brève est la fête, biatch courte est la mèche Hors-la-loi, j'suis chez oi-m sur la planète entière Bêta Oméga diplômé d'Etat à la pénitentiaire Zéro point sur le permis j'roule comme une vieille dans mon Land Cruiser J'vois trop souvent les hyènes dans mon rétroviseur Faire du rap j'en ai jamais rêvé, j'prends le mic c'est la Bosnie Les strings sont mouillés, au scalpel rouillé s'fait l'autopsie Volume 1 disponible chez ton armurier Ouest side ! On veut voir du pays, on veut des visas On vend de la chnouf, on ne s'achète pas de BM en livrant des pizzas Terminus tout le monde descend 92i kho Les-Les Hauts d'Seine sur l'instru Booba ! Tallac Records à l'appareil Oh kho j'te préviens, Pont d'Sèvre à Nanterre Hauts-Hauts...Hauts-Hauts-Hauts-Hauts d'Seine grande classe, 9-9.2-2 Hauts...Hauts d'Seine grande classe, 9-9-9...9-9...9-9.2-2 Booba ! De-Dealer de rimes, ki-killer de MCs De..De-De-Dealer de rimes, ki-ki-ki...ki-ki-killer de MCs 9-9-9...9-9...9-9...9-9.2-2, 9-9...9-9... 9-9-9-9...9-9-9-9-9-9.2-2</t>
+          <t>Sénégal DKR WA Et j'dis dans mes textes c'qu'on dit pas à l'école La grand-mère à Colbert, la grand-mère au Code Les victimes du collège qui deviennent des cops J'pense pas qu'à moi, j'pense aussi à mes poches Mes enfants apprendront l'histoire sur YouTube Pas dans les manuels d'histoire-géographie J'ai fait des thunes pas grâce à mes études J'suis d'jà en train d'écrire mon autobiographie Ohhh Dans ma tête gros j'ai creusé comme un enfant dans la min Grand comme le monde t la taille de mes projets Les mains vers le ciel, quand je finis j'dis Amin J'représente un pays, pas qu'un département J'suis obligé de gagner, j'peux pas faire autrement Trop parano, mon comptable c'est ma mère Au moins j'suis sûr de dormir paisiblement 92i c'est solide, j'suis avec Papa Zelé dans un bolide Le futur c'est moi tout en haut sur une colline J'ai bu la potion préparée par ldruide han Bercé par Salif Keita, par Ismaël Lô, Faada Freddy Mes ennemis j'les connais déjà vaut mieux surveiller mes amis Ohhh Pas peur de la guerre, j'ai peur de la paix, j'aime pas quand c'est calme j'aime pas quand c'est calme J'ai posé mon front sur le tapis Pas l'genou à terre, j'me relève en balle Di-direct Ils sentent qu'on a grave pris du poids Ces negros m'appellent pour qu'on se réconcilie Allô Allô ? On n'emporte rien avec soi, j'vais laisser sur terre 2-3 Lamborghini Pas peur de la guerre, j'ai peur de la paix, j'aime pas quand c'est calme J'ai posé mon front sur le tapis Pas l'genou à terre, j'me relève en balle Ils sentent qu'on a grave pris du poids Ces negros m'appellent pour qu'on se réconcilie Allô ? On n'emporte rien avec soi, j'vais laisser sur terre 2-3 Lamborghini Bientôt l'Homme ne s'ra plus qu'un oubli T'attends l'Christ, j'attends les Hannounakis Jai des facettes à 100k et oui C'est pas les ratiches à Marco Mouly La vie est trop courte, c'est une partie d'échecs, ils veulent jouer contre Karpov ces tarés On veut le permis à 8 ans, forniquer à 10, la retraite à 14, c'est carré Fuck réfléchir j'ai ChatGPT Y a que 2 genres sauf chez LGBT On est soudés comme Golo le R, j'ai lWhatsApp à Xi, à Bruno le Maire Les paparazzis d'vant ldouble R Le monde appartient à ceux qui se lèvent pour Al Fajr Clasher un soninké truc à npas faire La caravane passa les chiens aboyèrent Pas peur de la guerre, j'ai peur de la paix, j'aime pas quand c'est calme J'aime pas quand c'est calme J'ai posé mon front sur le tapis Pas l'genou à terre, j'me relève en balle Di-direct Ils sentent qu'on a grave pris du poids Ces negros m'appellent pour qu'on se réconcilie Allô Allô ? On n'emporte rien avec soi, j'vais laisser sur terre 2-3 Lamborghini</t>
         </is>
       </c>
     </row>
@@ -5541,12 +5541,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Me &amp; U (French Remix)</t>
+          <t>SEQUOIA</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>You've been waiting so long I'm here to answer your call I know that I shouldn't have had you waiting at all I've been so busy. but I've been thinking about What I wanna do with you I know them other guys, they've been talking about The way I do what I do They heard I was good, they wanna see if it's true They know you're the one I wanna give it to I can see you want me too Now it's me and you It's me and you now I've been waiting I think I'm gonna make that move. Now Baby tell me if you like it It's me and you, now Uh, I've been waiting I think I'm gonna make that move, now Baby, tell me if you like it Enchanté, gentleman du ghetto, B2O Tu donnes ça comme un bonobo, paraît que t'es trop nne-bo Sois ma meuf et ma maîtresse Moi, j'suis un mec du 9.2, j'suis pas là qu'pour tes sses-f', mais presque Touche ton bas-ventre. Guette la taille des jantes J'suis leur épouvante, toujours en tête des ventes À l'aise, laisse-moi ton 06 Trop d'sexe avec moi, miss, t'auras un gros malaise J'ai l'son qui tourne dans les boîtes J'fais deux-trois tubes en claquant des oigts-d C'est le bon son de Boulbi J'sais reconnaître une dame d'une groupie Quand j't'ai vue sur la piste J'ai arrêté de tiser, j'ai gardé du biff Pour un palace chez moi dans les hauts-d'seine Monte dans la Bentley, princesse, on nous observe Baby i'll love you all the way down Get you right where you like it I promise you'll like it I swear Just relax and let me make that move It's our secret babe We'll keep it between me and you It's me and you, now Uh, I've been waiting I think I'm gonna make that move, now Baby, tell me if you like it tell me if you like it It's me and you, now Uh, I've been waiting I think I'm gonna make that move, now Baby tell me if you like it tell me if you like it2</t>
+          <t>Ok Schiaffeggio rapper con la Manita di Fatima Dagli 'sto 10 al mio amico, lui capirà La mia gente gira da una vita Cinicittà Capi chini sui cocchini Cappellini e cappottini fighi Cappottati sui gradini di qualche locale I grammi li ha portati Halbanos, che lo dico a fare Barba come Harden, come un talebano Quadrate le mie palle Con due canne da parte Samba giù, come acqua Samba giù, come acqua Samba giù, come acqua Samba giù, come acqua Salta giù dalla giostra Vieni nella vita vera Mando giù dalla boccia Tutta la bottiglia intera 'Sti rapper che lasciano il tempo che trovano Il tempo che provano ed hanno già smesso Il tempo che rosicano, rosicano, rosicano Sto fumando rose che ho rollato Sul mio tavolozzo in mogano, seh Esco quattro passi e fra son già al benzinaio Gli passo solo davanti che tanto sono appiedato Sì, sono solo ologrammi Sta gente che sto incrociando Di gola volano grammi Di noia sopra drammi Di noi Foldino Ye, disegni di Goya Noi degni di gloria Sul corpo pegni di vita Ma contornati a cesoie, sì Solo pegno in Colombia Ma circondato da troie Se è un forno a legna sta bomba Fumo soltanto sequoia Chiunque che ho incontrato C'ha una storia sul groppone Tipo buchi di moccini sul giaccone Allora prendo il tempo e scrivo strofe sul cotone Se la vita è una finestra son seduto sul cordone Pa-paracetamolo con pillole del perdono Si affrontano le questioni Lei persa che cerca il molo Va a chiedere a un pescatore Dove si specchia il sole Sì è quella la direzione Esco quattro passi e bevo un Quattro Bianchi Sopra il testo schiaccia sassi, guida fuori Troppo classic, crazy taxi Il vento sbaglia sempre verso la mia Panda, no Parli bene, ti ci vedo a Ballarò Se hai da dire parla mo Che nessuno qui ci salvà, fra come i Marò Ye, rappo e dici madò Siete principianti, noi stiamo nel principato Hai versi riciclati, io scrivo più spiritato E non che mi ricatti e poi dici che t'ho invitato M'hanno indicato la direzione ma non l'ho seguita Andavo spesso in direzione per la mia condotta Se mancano due tiri, cazzo che non è finita Lasciala fumare a me tanto sono in carogna Sono alla gogna, stringo la cinghia Quale vergnogna e quale sconfitta Con i sogni chiusi in soffitta Coi bisogni moltiplicati I versi fortificati Il resto, ma chi mi caga I miei fra, mortificati Yey Ya, ya, ya Halbetti, Foldino Hey Ayo Retraz</t>
         </is>
       </c>
     </row>
@@ -5558,12 +5558,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Die Art, wie wir leben</t>
+          <t>Chacun sa manière</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Hey ! 92izi dans le bunker Bushido, B2O 100-8 Zoo Gear ! Algérien, ke-Tur, Albanais, Sénégalais Manie la langue de Voltaire, j'suis connu, communautaire Cornes et auréoles somnolent au-dessus de nos têtes Veulent tremper nos plumes dans l'formol, refusent nos textes On persévère pour nous quand c'est rouge, c'est vert Dénigré, immigré de pères et mères J'fais mes dièses à ma sauce, stylo et flingue à ma droite Ange du mal à ma gauche, Neuf-Deux guérilleros L'Union fait la Force dit le drapeau haïtien Le swag est américain, le négro est parisien Peau de macaque ne craint pas les coups de matraque Viens avec arme nuclé-izère si tu m'attaques Die Art wie wir reden, wie wir uns bewegen Unsere scheiß Probleme regeln Du passt nicht in unsere Gegend Sieh es ein du fällst auf -klick klick-Geld raus ! Verdammt ich sagte Geld raus !-klick klick- Und jetzt lauf ! Das Leben ist hier selbst mit deutschem Pass nicht einfach Was ich über Nacht erreicht hab Gab meinen Brüdern Hoffnung doch viele sind im Knast gescheitert Gastarbeiter, Großfamilien Habens nicht geschafft sich zu integrieren Und sind jetzt mit Koks am dealen Was denkst du was uns unsere Zukunft bringt? Deutschland tut mir gut bestimmt, doch ich muss mit ansehn Wie mein Heimatland im Blut versinkt Traurig anzusehn doch die Kehrseiten der Medaille Sind Politiker mit Dankesreden, man kann eben keinem trauen Mein Bezirk hast du hier Lust vorbeizuschauen ?! Die Jugend fühlt sich ausgegrenzt und Merkel gibt uns einfach auf Scheiß mal drauf! Genau deshalb wünsch ich jedem ohne Abschluss Dass er ne Millionen macht und nie wieder in den Knast muss Dieser Ascheregen färbt die Straßen grau-schwarz Ich glaub, dass ich observiert werde also aufs Gas Und eure Regeln ich verletze sie grad Bushido, Booba Morgen wird ein besserer Tag Die Art wie wir reden, wie wir uns bewegen Unsere scheiß Probleme regeln Du passt nicht in unsere Gegend Sieh es ein du fällst auf -klick klick-Geld raus ! Verdammt ich sagte Geld raus !-klick klick- Und jetzt lauf ! Bushido B2O Klick Klick4</t>
+          <t>Chacun pratique le rap à sa manière Chacun sa voix, son drapeau, sa bannière Voila une combinaison qui les étonne C'est sur Street Lourd et ça pèse des tonnes Chacun pratique le rap à sa manière Chacun sa voix, son drapeau, sa bannière Voila une combinaison qui les étonne C'est sur Street Lourd et ça pèse des tonnes Mec meurs, appuie sur REC, entends Entre nous tu rappes trop longtemps, tu chopes Alzheimer direct L'autorité une grosse guez-mer, ma gorge un gros geyser Cousin ton flow pue la deze-mezer 100-8-Zoo, l'amour manque à l'appel Donne moi une pine, un coeur en plastique ma belle B2O comme ça qu'on m'appelle Decembre 1.9.7.6 laisse-moi purger ma peine Et j'me demande comment s'fait-il que les tains-pu s'mettent à rapper ? Hein ? Crache leur venin mieux qu'un reptile Pas d'blème ton corps au fond de la Seine ira jusqu'à la mer Nous tu nous connais c'est hardcore jusqu'à la mort Des fois on me dit que j'devrai m'assagir pour les p'tits qui m'écoutent Mais en vrai tout est écrit, si tu perces c'est le Mektoub J'suis responsable de mes paroles, pas de tes actes Que du lourd dans les bacs, un vautour parmi les charognes Chacun pratique le rap à sa manière Chacun sa voix, son drapeau, sa bannière Freestyle historique, combinaison symbolique Controversé comme Ideal et Lunatic Chacun pratique le rap à sa manière Chacun sa voix, son drapeau, sa bannière Freestyle historique, combinaison symbolique Controversé comme Ideal et Lunatic Ma position dans le rap est celle d'un homme responsable Mes frères savent que j'viens d'un passé instable J'ai survécu parmi les Lions Indomptables qui lâchent tôt le cartable Et ce, qu'ils soient noirs, arabes ou toubabs Pendant que le gouverneur fait passer des dessous de tables En costard par millions dans des mallettes portables Mes frères s'assassinent même pour un portable Accusent une situation qu'ils désignent inconfortable Pourtant on n'est pas dans la Bande de Gaza Et les Français nous enferment pas dans des chambres à gaz Mes frères sont tués, espérants devenir riches ou célèbres Mais n'augmentent que le chiffre d'affaires des pompes funèbres Alors les consciences je les ai éle-le-le-levées Le drapeau de la paix je l'ai le-le-le-levé À la désinformation y'a pas de le-le-le-levier Vu qu'aux faux j'ai opposé désormais le-le-le vrai À votre avis parmi les MC's... Qui dérange le plus les RG ? Mon rap à le gout de la-la-la vérité Mon combat celui de la-la-la témérité Donc lè-lè-lève ton bras si t'es down avec ça Donc lè-lè-lève ton bras si t'es down avec ça Chacun pratique le rap à sa manière Chacun sa voix, son drapeau, sa bannière Freestyle historique, combinaison symbolique Controversé comme Ideal et Lunatic Chacun pratique le rap à sa manière Chacun sa voix, son drapeau, sa bannière Freestyle historique, combinaison symbolique Controversé comme Ideal et Lunatic Chacun pratique le rap à sa manière Chacun sa voix, son drapeau, sa bannière Voila une combinaison qui les étonne C'est sur Street Lourd et ça pèse des tonnes Chacun pratique le rap à sa manière Chacun sa voix, son drapeau, sa bannière1</t>
         </is>
       </c>
     </row>
@@ -5575,12 +5575,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Alter Ego</t>
+          <t>Hustlin’ (French Remix)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>No, no, no, no No, no, no, no, no Hey, hey No, no, no, no No, no, no, no, no Hey, hey J'ai commencé ma carriere en chien, sans aucun but Reconnu derriere la vitre sans teint, sans aucun doute Le grand black en vet'-sur qui m'a visé Dès qu'j'en vois un comme lui j'me chie dessus j'suis traumatisé J'demande une minute de dancehall pour toutes nos victimes J'adoucis les murs au C4, pour les cains-fri les big team Bienvenue dans ma zone où les khos s'entretuent Pour des thunes des chiennes, les mauvais rôles s'entretiennent Quand j'déchaine les enfers comme Maximus J'distribue la haine, la colombienne dans chaque sinus Flippe car on ne mâche pas nos mots, on met les pitts avant la charrette Mon son ne marche pas, négro, il court ou il sarrête S'tu kiffes pas tu remballes vite Ta voix sans danger et moi tu sais j'comprends pas l'beat De ceux qu'ils n'respectaient aucune règle, explose comme à Gaza ou Tel-Aviv À part Attila aucun modèle à suivre Player hating 'cause them name nah mention Rude boys, pass me the extension Seek body, buss it inna dem direction We buck them up, apply the pressure and tension See, and now them run gone a station Di MAC-11, it nah 'fraid fi blaze man Clear the entrance, 'cause you're taking up space, man Wayne Wonder and Booba inna combination, now Des mc's comme nous, y'en aura pas d'aussi tôt J'débite si violemment qu'j'pourrais en perdre une chicot Fais vite, passe moi l'magot, l'argent les rends coquines J'ai tué Caliméro d'une bastos dans la coquille Le crime est vocal radical Rempli l'jerrican d'essence, envoie la concurrence au médical Du mal à contrôler mes pulsions comme Doum's Quand le chien frappe la culasse, brah' pas l'temps d'dire ouf Comme Nino Brown et G-Money, je ne rêve que d'assassinat De cérémonie à tout moment le rêve détalle Demande à Michael, l'appétit vient en mangeant Ou en crevant la dalle ma gueule En pleine exercice de mes fonctions 92i, l'armée des 6, j'te parle de larmes et de chiffres De gros chiffres, j'te parle de nous du quartier D'nos hiéroglyphes, si y'a fautes personne ne siffle Oh! They can't stop our flow they can't stop our flow So I gotta let you know Know, know, know, know, know They can't get us down So I gotta let you know no No, no, no, no No, no, no, no, no Dakar ou Marrakech, tuerie Mc de la pire espèce a.k.a le flow qui surine Ceux à qui le mal sourit, frappe chez lui, chez elle C'est 92i qui débarque ou le G.I.G.N ? Tu t'demandes encore qui déflore les Genelec Sur scène avec DJ Kore ou DJ Belleck On les fait monter et descendre un peu comme Otis On fait nos peines sur une jambe, ressort en 4 roues motrices Don't you try to take what's rightfully mine's bwoy, mine's bwoy Disrespect, and I'll introduce you personally to my nine's bwoy, nine's bwoy hey Wayne Wonder! Booba! Combination I'm like a bomb ready to explode Booba inna di place and all of a bawl out...</t>
+          <t>Everyday I'm hustlin' hustlin' Hustle, hustlin' hustlin' Hustle, hustlin' hustlin' Hustle, hustlin' hustlin' Everyday I'm hustlin', everyday I'm hustlin' Everyday I'm hustlin', everyday I'm hustlin' Everyday I'm hustlin', everyday I'm hustlin' Everyday I'm hustlin', everyday I'm hustlin' Everyday I'm hustlin', everyday I'm hustlin' Everyday I'm hustlin', everyday I'm hustlin' Everyday I'm hustlin', everyday I'm hustlin' Everyday I'm hustlin', everyday I'm hustlin' Qui veut tester négro les Hauts-De-Seine c'est mon réseau Bentley noire, jantes en 22 c'est B2o Le drapeau du Sénégal comme talisman J'ai les couilles pleines de liquide de refroidissement Du berceau à la cellule au gros gamos véhicule Moi je chie des putains d'euro sur mon pécule Passe le salam au rap francais, de la part de mes testicules J'aperçois des gouttes de sperme pendant que tu articules Et on trouve ça bizarre alors on se dit que c'est peut-être le shiznit Et on croit bien que tu suces des biznites Je suis déçu, mes khos eux en étaient sûrs, en es-tu sûr ? Hennessy pur, on the rocks guérit mes blessures Tous les tous les tous les jours je taffe dur, tous les jours je galère Tous les jours tu demandes combien y'a de zéros sur mon salaire Everyday I'm hustlin', ev-everyday I'm hustlin' Everyday I'm hustlin', ev-everyday I'm hustlin' Everyday I'm hustlin', everyday I'm hustlin' Everyday I'm hustlin', everyday I'm, everyday I'm We never steal cars, but we deal hard Whip it real hard whip it whip it real hard I caught a charge, I caught a charge Whip it real hard, whip it whip it real hard Ain't bout no funny shit still bitches and business I'm on my money shit still whippin' them Benz Major league who catchin' because I'm pitchin' Jose Canseco just snitchin' because he's finish I feed 'em steroids to strengthen up all my chickens They flyin' over Pacific to be specific Triple C's you know it's back we holdin' sacks So nigga go on rat, run and tell 'em that Mo' cars, mo' hoes Mo' clothes, mo blows Everyday I'm hustlin', ev-everyday I'm hustlin' Everyday I'm hustlin', ev-everyday I'm hustlin' Everyday I'm hustlin', everyday I'm hustlin' Everyday I'm hustlin', everyday I'm, everyday I'm It's time to spend my thrills, custom spinnin' wheels I ain't drove in a week them bitches spinnin' still Talk about me because these suckers scared to talk about me Killers talkin' bout me, it ain't no talk about me It ain't no walkin' 'round me, see all these killers 'round me Lot of drug dealin' 'round me goin' down in Dade County Don't tote no twenty-twos, Magnum cost me twenty-two Sat it on them twenty-twos, birds go for twenty-two Lil' mama super thick, she say she twenty-two She seen them twenty-twos, we in room two twenty-two I touch work like I'm convertible Burt I got distribution so I'm convertin' the work In the M-I-A-YO them niggas rich off that YAYO Steady slangin' YAYO, my Chevy bangin' Yayo ------------------------------------------------------------- Paroles rédigées et expliquées par la communauté RapGenius France2</t>
         </is>
       </c>
     </row>
@@ -5592,12 +5592,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Ne me parle pas de rue</t>
+          <t>Maman dort</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Featuring coup de crosse de hockey, on leur met façon double poney Rouleau de 500 dans la pocket, concentré sur ma monnaie Rajoute du poulet dans mon bucket, la dalle on connaît Une pour Ibou Amar on va tout cramer comme à Aulnay J'suis sur le périph', à donf entre deux flashs Préservatif sur le pénis, me glisse entre deux tass, oh Voilà le Duc de Boulbi Fais le 18 ou vite, préviens le toubib Je ne porte pas de toc, j'dors mal sans mon Glock Je rentre à five o'clock, les keufs me suivent quand je sors du bloc Ne me parle pas de rue, de c'que tu as vécu Ce n'est pas vrai, tout est faux, on ne t'a jamais cru C'est B.2.O.B.A, dernier flow, dernier cru À-À chaud on te fait un deuxième trou du cul Pendant que ça chauffe dans le 7.8 ou à Grigny J'mets la capote sur ma bite et sur ma Lamborghini Ne me parle pas de rue, ne me parle pas de rue Ce n'est pas vrai, tout est faux, on ne t'a jamais cru Gros tu veux ré-ti les coups francs ? Faut bien savoir viser le cadre Ne dévisse pas la traject-jectoire sous la pression du stade Le suspect numéro un a changé depuis Mesrine Mon rap est une scène de meurtre maquillée en suicide En mode baltringues, les chiens se mettent à miauler Deux mecs sur une bécane, ça fait peur ou pleurer La devise c'est meurs ou mérite de souffrir, bref J'en connais autant sur toi que sur mon neuf millimètres Si j'ai l'échec au bout du fil, je lui raccroche au nez Faut marcher droit parce que le marchand de sable est calibré La France est une garce qu'on ramène à tel-hô parce qu'elle provoque Grosse paire de couilles dans mon froc, reste près de ton block, block La B.A.C. ou Lucifer Trop tard pour un pull-up !, je sens déjà les menottes qui se serrent Tu peux rien faire négro face à ma clique de sauvages La rue c'est chaud et dans la tess on est comme dans un sauna Ne me parle pas de rue, ne me parle pas de rue Ce n'est pas vrai, tout est faux, on ne t'a jamais cru J'gagne plus que le quinté, plus que le rrain-té Tu vas t'esquinter la vue, tu n'me vois pas j'ai les vitres teintées Qui aurait cru que Kopp allait niquer le biz ? Tout sec, assis dans le grec, en tête-à-tête avec un Double Cheese J'regarde les culs dans la street quand j'roule dans ma Lambo Un seul coup de fil, j'me fais livrer tout de suite le flingue à Rambo Macabre symphonie sur la ville de Paris, faut qu'elle craque J'regarde pas les infos sans Harry Roselmack À la vue du pouvoir je défouraille sur l'adversaire J'suis pas comme cette vieille pute prête à tout pour vous plaire Jamais content de c'que j'ai parce je viens d'Auber' Je pa-pars en couilles despi comme une rafale sur ta mère Reste près de ton brolic, j'adore le dirty-dirty Dans tous les nightclubs c'est tout le monde qui check son body On aurait pas dit mais j'ai l'flow Armani Versace Tu liras suce ma bite sur mon procès verbal Ne me parle pas de rue, ne me parle pas de rue Ce n'est pas vrai, tout est faux, on ne t'a jamais cru Paroles rédigées et expliquées par la communauté RapGenius France2</t>
+          <t>Maman dort Maman dort Maman a mal depuis le jour où sur lîle de Gorée Elle a vu partir beaucoup de ses enfants adorés Puis toutes ses richesses lui ont été volées Cest dur à dire, mais maman sest fait Depuis cette époque ou elle est tombée malade Elle a besoin dêtre soignée mais le monde la balade Maman crie à laide, elle na plus que sa main à tendre Mais ses voisins du Nord ne veulent rien entendre Maman est triste car ses enfants se sont perdus Aux quatre coins du monde, certains se souviennent même plus De quoi elle a lair, alors maman pleure maman pleure Une mère séparée de ses enfants avant lheure Quant à ceux qui sont restés auprès delle Elle leur montre que malgré tout ce qui spasse, la vie est belle Et ses chants chaleureux leur redonnent le sourire Lépoque où elle était reine est loin dans ses souvenirs Maman Dors, maman Maman dort d'un sommeil léger Je dois la réveiller Je dois lui dire de fuir ces PDGs Et j'ai pleuré dès que j'ai touché l'île de Gorée Assiégées sont tes richesses, mon assiette de riz est piégée Dix piges dans tes bras, je rêve dans tes draps Je vis dans tes drames, je me lave dans tes larmes Maman réveille toi tes filles et fils vont crever Faut réparer car tes ancêtres ont retourné leurs ste-vé Je suis fils d'immigré, papa aussi t'a quitté Il court après le biff que Christophe lui a piqué Dakar à Balaki, 46 la taille du front kick Je les ai vus comme David Vincent pas comme Francky Ca y est, je crois que maman dort Cette fois les Hommes y ont été trop fort Ils lui ont volé ses colliers de diamants et d'ivoire Et le reste du monde fait semblant de ne rien y voir Vous ne savez pas combien je déteste les gens Qui osent dire que maman leur doit de l'argent Maman tu pleures car tu sens qu'ils te méprisent Maman tu cries car tu sens qu'ils te maîtrisent Moi et les autres on ne t'a jamais oublié On fait parti d'une mafia qui porte ton nom Mais tu sais que chaque été j'aime venir te rendre visite Et faire des concerts chez toi, c'est comme ca que je milite Aî terre mère africaine, ils n'ont jamais su comprendre Pourtant de toi ils ont tant de chose à apprendre Terre mère africaine, ils ont tant de chose à te rendre Et c'est chez toi que je veux qu'on disperse mes cendres Le berceau de lhumanité, Afrique, un continent en or, écoute bien Quelque part, on est tous Africains Cest delà que tout est parti, cest la que tout a commencé En Afrique, tu peux pas l'nier Restons positifs, faisons avancer les choses Lions ce qui nous divise les couleurs et les cultures, les origines peu importe Maman dort Maman dort Maman Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -5609,12 +5609,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>She loves me</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Now dis girl got me all up Ooh-ooh-ooh-ooh Waan good love, a me she call up You know what it is Shaggy, Rayvon Ah-ah You have me going 'round in circles, girl, I can't think straight When she love me, when she love me And when you love me like you do, I can't concentrate When she love me, when she love me You got me going 'round in circles, girl, I can't think straight Oh When she love me, when she love me 'Cause when you love me like you do, I can't concentrate When she love me, when she love me Whenever she loves me Ba-da-da-dang-deng When my baby loves me She ribbi bomb-skeng Oh, when she loves me Ba-da-da-dang-deng All the pressure get released 'cause my baby is a beast When she loves me Ba-da-da-dang-deng When my baby loves me She ribbi bomb-skeng And she's so lovely Ba-da-da-dang-deng My happiness increase everytime she give me peace, hey I give her loving on the sofa Kissing and we sipping on mimosa Caress her as she hold me closer Love a drive her mad and Mr. Lover is di chauffeur I put it on an mek she lose it Uh Put her on her knees an mek she bruise it No missionary, she refuse it I take her to my boulevard of love an mek her cruise it Cho Shawty nuh like it when it small She tell me seh she prefer when it tall I like it when di neighbors have to call 'cause everyting a fall An furnitures a knock against di wall Whenever she loves me Ba-da-da-dang-deng When my baby love me She ribbi bomb-skeng Oh, when she loves me Ba-da-da-dang-deng All the pressure get released 'cause my baby is a beast When she loves me Uh When my baby loves me Oh, she's so lovely Ba-da-da-dang-deng My happiness increase everytime she give me peace, hey Turn off di TV, lock off mi telephone 'Cause nothing else matters when we're alone Only the occasional Ooh an di occasional Ah An Kenny G playing in di background Ah-ah-ah Yuh nuh see my baby got my heart so I'm letting it be known Uh She is di queen dat's sitting on my throne Right Hey, I might flirt a lot of times and even share a cone Jus know that I'll be going back home I'm Mr. Lover, overachiever And when I'm with her, she give me fever She pulling all strings, she pull my lever Wah She got me so hooked, I'm a believer Whenever she loves me Ba-da-da-dang-deng When my baby love me She ribbi bomb-skeng Oh, when she loves me Ba-da-da-dang-deng All the pressure get released 'cause my baby is a beast When she loves me She love me like dat Oh, when my baby loves me Oh, when she love me like dat Oh, when she loves me She love me like dat My happiness increase everytime she give me peace, hey You had me kinda crazy, girl You had me kinda crazy In your topsy-turvy wo-o-orld You're the only one for me 'Cause when you hold me close, I'm just lost in your lo-o-ove You had me kinda crazy, girl You had me kinda crazy, girl In your topsy-turvy wo-o-orld You're the only one for me 'Cause when you hold me close, I'm just lost in your lo-o-ove Whenever she loves me When my baby love me Oh, when she loves me All the pressure get released 'cause my baby is a beast When she loves me She love me like dat Oh, when my baby loves me Oh, when she love me like dat Oh, she's so lovely She love me like dat My happiness increase everytime she give me peace, hey Ooh-ooh-ooh Ooh-ooh-ooh-ooh Ah-ah-ah Ooh-ooh-ooh Ooh-ooh-ooh-ooh Ah-ah-ah</t>
+          <t>MA2S Prod, ah-ah Oh-oh Tu crois qu'on a l'temps ou quoi ? I.Z.I Oh-oh T'impressionneras pas Daenerys avec dragon de Komodo Rafale en plein barbecue, pas l'temps d'retourner l'tournedos Baisser les bras au combat final, jamais, oh no, no, no Des fois, la formation passe mal, j'ai l'semi-auto dans l'auto Génération Hill, impact de balle forme mon logo Tu t'es réveillé en enfer, t'es mort pendant qu'tu faisais dodo Si j'lui offre trop de sacs Chanel, cette chienne m'appellera Mon coco Bannir l'nom Mohamed, c'est insulter tout l'Morocco Starting from trafic to cash enough for life I never give up, keep my dreams alive I know some haters, they want me to die But its all good though, cause they not gonna sly I know the shorty that come with the bread Now I get head without asking for head She say Im cute but I used to be laid Sal lajan, now they callin me belle Bitch I got it, come and get it Dont just lick it, get up on it Sal-exclusive, white explosives Pour that liquor, light the swisher For young haitians in a Chevy With dreams to get bigger paper For young haitians rollin' With sticks searching for the caper The money, the coke and the gang Oh-oh She fuck and she sucking for fame And I love it, and I'm willing to pay just to fuck her brain You know they say that cash is king She told me I can do my thing I dropped her ass off to the hood So the homies can do their thing Bitch T'impressionneras pas Daenerys avec dragon de Komodo No Rafale en plein barbecue, pas l'temps d'retourner l'tournedos 'nedos Baisser les bras au combat final, jamais, oh no, no, no No, no, no Des fois, la formation passe mal, j'ai l'semi-auto dans l'auto Génération Hill, impact de balle forme mon logo Tu t'es réveillé en enfer, t'es mort pendant qu'tu faisais dodo Si j'lui offre trop de sacs Chanel, cette chienne m'appellera Mon coco Bannir l'nom Mohamed, c'est insulter tout l'Morocco Drags Bitch, I was in the streets with a green card, thuggin you Think I give a fuck about the cops? If they watchin? They gon do their job, Im gon do mine They gon need a warrant, to come inside Im gon get ghost, take a trip to Morocco Lay low for six months then come back with more dope New name, new block, with a new ZIP code New house, new car, with a new freak hoe Im a gangsta and I dont love her Thought I told you on my last song She keep callin my phone Im not gonna pick up for that bouzin Im a pirate on a mission, ready to kill the competition Im a bastard with a MAC We could not get him, we whacked his cousin These niggas be stealin' my slang They claimin they Sal, when they're not Stupid bitch runnin her mouth until I fed it up with white This little nigga actin hard, they claimin Sal, they claimin Wa But when he died, there was only his momma cryin by his side T'impressionneras pas Daenerys avec dragon de Komodo Rafale en plein barbecue, pas l'temps d'retourner l'tournedos Baisser les bras au combat final, jamais, oh no, no, no Des fois, la formation passe mal, j'ai l'semi-auto dans l'auto Génération Hill, impact de balle forme mon logo Tu t'es réveillé en enfer, t'es mort pendant qu'tu faisais dodo Si j'lui offre trop de sacs Chanel, cette chienne m'appellera Mon coco Bannir l'nom Mohamed, c'est insulter tout l'Morocco</t>
         </is>
       </c>
     </row>
@@ -5626,12 +5626,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Charbon</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>CashMoneyAP! 3.6.5 Tu veux ta mula ? 3.6.5, C.H.A.R.B.O.N 3.6.5 Tu veux ta mula ? Juste ça Juste ça, juste ça Toute la journée dans la street Tu fais ta mula, tu t'en fous du reste T'as réussi, personne te félicite Les geush veulent de la kush Les porcs en bleu cherchent leur souche La mule avale ses bonbonnes, goût du latex sur la bouche Fume le middleman, multiplie l'bénef' à la source Tu l'as à la ceinture H, leur arme est dans la housse Ton arme est dans la Goose Accroupi aux arrivants, tu tousses Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Taureau sur le capot, peu d'négros sont dans la course Tu fais dans la coco, personne a l'temps pour la douce Pas l'time pour masoko, aucune chatte cotée en bourse Pétasse bring mon Jack, passe-moi l'4.7 AK en douce Laisse-les compter les roubles, tu coupes du kush, tu fais le double Coup d'spray pas assassinat, devant toi, il a fait le bougre Glock, cocaïna, les deux font parler la poudre Mental Totò Riina, loin du commandant Massoud Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Tu viens d'sortir du placard, négro l'rrain-té bat de l'aile Armé, jus de bagarre, bang bang bang, refais le game Ta mère a bien compris que son fils s'rait plus le même Dans l'crime comme Joaquín, verras-tu le bout du tunnel ? L'emprisonnement est réel, liberté conditionnelle Tu peux t'faire fumer demain, tu pars d'un prévisionnel Regarder derrière sur l'terrain, c'est ça être visionnaire Prendre en levrette, missionnaire, le commissaire divisionnaire Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Charbonner, charbonner Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Je suis au charbon, je suis au charbon Charbonner, charbonner 3.6.5 Charbonner, charbonner C.H.A.R.B.O.N, 3.6.5 Tu fais ta mula Rien d'autre Juste ça, juste ça5</t>
+          <t>Tu vas khle3 Da Over à la track, mec On va la chanter cette putain d'fin Oh, crois-moi, on va la chanter Ennemi est beaucoup trop fort, on va l'attenter L'histoire du rate-pi qui dit Non, la seule à raconter Prison mentale, pas d'meilleur bagne Dieu est grand, droit devant, que l'meilleur gagne J'ai pas peur de la cage tant qu'y a pas Kamaru Usman J'aimerais trop qu'mon nom soit El Chapo Guzman Foutue maladie, docteur, j'en ai trop marre Crâne entre la main et l'crocht, j'suis au bar À c'rythme-là, bientôt, on va r'tourner au shtar J'ai trop la hain, en vrai, c'est d'jà trop tard C'est d'jà trop tard Des tonnes de courriers sous un lustre Couronne de lauriers sur un buste RSA, Clio 3, ceinture en daim, Ted Lapidus J'préfère être momifié comme les négros sur l'papyrus Oh, crois-moi, on va la chanter L'ennemi est beaucoup trop fort, on va l'attenter Quand même Depuis day one, c'est bidon, j'm'étais pas trompé L'histoire du rate-pi qui dit Non, la seule à raconter À raconter, à raconter, à raconter, à raconter, à raconter, piou-piou-piou-piouh Sors pas un brolique si y a pas les balles, c'est aud-ch, j't'ai dit Piouh J'visser crackers sales comme hackers, libérez H Puppy Free Pirate me-cri et botanique, plavon et gros ffe-bi Hein J'nnais-co la grotte, coup d'poêle Tefal, de quoi tu causes, petit ? Squa Bouteille carrée, l'ourson grésille, d'un coup, plus d'son, l'image grésille Plus aucune soluce possible, bécane, drive-by, noir fusil Noir fusil Ils m'ont rendu visite Gang, l'ennemi est visible J'accompagne le premier qui résiste, le prix d'une vie chez la nourrice Squa T'as cassé un Brink's, la retraite est paisible Dix Nom cain-'fri floqué sur maillot du Brésil Il paye dans les temps, ça fait plaisir, les tits-pe ont traîné la caissière C'est moi qui fais, moi qui décide mais au futur, les choses se dessinent Les choses se dessinent, les choses se dessinent Oh, crois-moi, on va la chanter L'ennemi est beaucoup trop fort, on va l'attenter Depuis day one, c'est bidon, j'm'étais pas trompé L'histoire du rate-pi qui dit Non, la seule à raconter À raconter, à raconter, à raconter, à raconter, à raconter1</t>
         </is>
       </c>
     </row>
@@ -5643,12 +5643,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Diamond</t>
+          <t>Movezide</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Yeah They tried to put me in the box ! It's impossible ! R. Les ! Oh yeah And this time it's all or nothing I said it's real B2o, Izi Diamond Girl, je t'apprécie beaucoup J'aimerais te prendre dans mes bras mais aussi tirer mon coup B2O, toi, you, tu fais battre mon pouls Je vais te mettre à mon doigt puis autour de mon cou Je regarde en l'air, tu illumines le système solaire Bouh ! Sois mon igloo, je serais ton ours polaire Tu me coupes le souffle Je suis frais, tu penses à moi, c'est pour ça que ton couple souffre Si je m'aperçois qu'en fait tu n'as aucune classe Baby, je redeviens un chien de la casse Autrement, personne peut prendre ta place Cupidon s'est fait fumer, ce n'est plus l'heure de la chasse Dieu merci, j'ai réussi Personne ne crie famine ici, il me manque juste une famille J'ai la plume de Léonard de Vinci Je te kiffe, j'ai l'instinct mafieux et tu viens de Russie</t>
+          <t>Hypnotic Design narcotic Fut snobii, falsi nobili Melodic esti OFF-TOPIC Fut ofu tau utopic Sunteti toti copii Aduc potopu' Pun pe primu' plan tot Hip Hop-u' MC-ii subnutriti vin la kilogram Cum poti sa fii mai greu ca mine cand am un chintal pe cantar? Sunt prea stresat! N-am trac Ca un dac beat te fac praf Ca sa te trag pe nas Intact tactic Gata de atac Impact antic Banii lu tati, da-i! N-am timp! Tre' sa iau din nou ostatici Sa n-ai dubii! Sarim ca lupii! Sute de lupte duse ca-n ultimul scrutin Nu am nimic cu tine Va urasc pe toti, sincer! Vreau sa va vad venind Sa va vand venin Sa va vindec Ignoranta sterge vise Esti un om liber, dar traiesti intr-un cadran dintr-un milion de pixeli Homar suspect batand din usa in usa Vei afla ca cel mai tare drog e propria ta cenusa Si fericirea ta, tacerea nefricirii Inventezi scuze, ca crestinii cand le mor parintii Stim amandoi cum e sa n-ai, si sa vrei, si sa ceri, si sa iei, si sa speri si sa pierzi Prieteni is dezamagire E ca un dealer care spune ca n-are nimic pentru tine Eram nebun cand voiam fericire Am dezamorsat in mine o mie de sinucideri! Ma, Ma, Mai zi odata sa inteleg Care sunt artistii Mereu sunt in fata parca as fi un ghid turistic Ooo, bulevardier pesimist Nu stiu ce vreau dar vreau sa stiu ca scap de aici, ooo Definitiv nu vreau sa-mi beau cafeaua in frig Voi afla in timp Ooo, bulevardier efemer Vin si plec, totul a ramas la fel. ooo Fara sa vreau am devenit un pasager in infernul modern Fiind srac lipit ca un abibild Devii mai întunecat decât un bec fr fitil Pltete statului datoriile Eti mai mrunt decât monezile de-o mie Ii numeri zilele Când pierzi totul, realizezi ce mult aveai Când n-aveai bani nu-i permiteai, mcar râdeai De asta zic defapt Persoanele din jurul tu meritau acest sfat Întreab-te mcar Cine se aseaman, se adun Tu ai sczut în ochii tuturor Încercând s gseti o suma Când totul e complicat ca un DEX Când orice loc de munc e un epitet Tu ce esti? Mcar ii c eti în labirint Sau i-ai tapetat pereii comuni ai vre-unei cldiri Înnebunind în infernul modern Închis în tine fr chei, creier sau idei, ce sa mai vrei? La ce s mai speri? i unde s pleci? Când televizorul frige i caloriferele sunt reci Un stundent srac ar trebui sa tie Iadul sunt ceilali, Hip-Hop e ce ii place ie! Am mai multe probleme decat o carte matematica Vin de fiecare data printr-o poarta cuantica Calm ca o bomba, nu stii sa te porti Esti mai rupt ca o fotografie dupa divort Orgoliu tau nebun poate face ravagii Dar atata timp cat nimeni nu-si da interesu' e tragic Multi inca vad lumini prin capatul tunelului Dar multi se intorc de acolo rupti de farul trenului Dar incet incet incep sa incerc sa cercetez ce nu-i cert in acext context Prea multi cai putere, io am 1000 centrimetri cubi de creier, singura avere Tie mintea-ti sta pe loc precum seful statului Paradoxal, Dumnezeu e-un tip dat dracului Cred ca e al 6-lea caiet, daca nu voi deveni mc Macar o sa am ce sa fumez Dar lasa asta acum, uita-te la tine Taci ca pestele ca ai trait in pestera copile Media minte, presa reclame si afise E ca un tatuaj facut peste-o cicatrice Se face din orice cacat spectacol Cred ca un Iisus modern ar cere taxa de miracol N-am incredere in nimeni Deci dupa ce-mi iau bani nu trag linie, trag in tine Doi zero zero sase, din nou Kazi Ploae Telepatic, apatic, intact tactic Atac ca-n antichitate, impact antic La microfon sunt letal Ai putea la fel de bine sa ii dai unui irakian un tanc Sunt schematic, prea elastic, intergalactic, vin de departe Imi pierzi urma cand dau duma Tu esti un baiat istet, poate d'aia tragi numa' huma Prima grenada aruncata in multime Sunt ca dragostea oarba de la prima privire Sunt ca un milion de gloante pentru doua vorbe Sunt ca zambetul ironic de pe gluga unei cobre Sunt ca prima grenada aruncata in in multime Sunt ca dragostea oarba de la prima privire Sunt ca un milion de gloante pentru doua vorbe Sunt ca zambetul ironic de pe gluga unei cobre Metamorfoza te face sa devi salbatic Imediat ce dai, vrei, dar te zidesti altfel Totul e amuzant pana ti se intampla tie Tie, banii n-aduc fericirea nu stiu dami-i mie Un topor, doua topoare, 3 topoare, patru Imi pierd mintile in noptile in care le caut Si acum traiesc confuzii Caci am luat o supradoza de iluzii Dar eu sunt ca prima grenada aruncata in multime Sunt ca dragostea oarba de la prima privire Sunt ca un milion de gloante pentru doua vorbe Sunt ca zambetul ironic de pe gluga unei cobre Sunt ca prima grenada aruncata in multime Sunt ca dragostea oarba de la prima privire Sunt ca un milion de gloante pentru doua vorbe Sunt ca zambetul ironic de pe gluga unei cobre</t>
         </is>
       </c>
     </row>
@@ -5660,12 +5660,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>92i</t>
+          <t>Le code noir</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Ya-Ya-Yaya on the track This is Freaky J'leur fais la totale Han, ces putes vendent pas d'albums J'mets toit sous mon parasole, les fumer, j'trouve ça banale Yeah, Mauvais en relation, fils de chien, j'sauverai la nation Click, pah, j'te fous sur l'paillasson, j'ai vendu été, hiver 2 balles sur ton corps, fuck les problèmes, bitch, j't'oublie, ton string, il me saoule De grosses quantités de Cali, j'tolère, Glock 17 pétasse quand je sors Je sais, tu peux pas comprendre ma colère, j'les bute au 47-AK Moi j'suis matrixé par ce sac d'oseille, fils de pute, on est sur la carte Yeah, deux cornes, une auréole, me parle pas de la sorte Six heures du mat', ça frappe à la porte, qu'une heure avant, j'craquais la capote Négro, toujours en opération, les kill', c'est banale 92i, VVS, Paname, eh On traîne très tôt, mytho, métaux, vie de chien, y a pas de véto J'ai tout investi, là il me reste tchi, j'ai payé la gov' en bédo Un métal froid, sur baba qu'ils ont chaud J'les laisse parler, c'est des putas, ils f'ront pas grand chose 92i, la frappe, ramène, wesh ient-cli, j'sais c'qui t'amène Tu nous dois tant, tu mets du temps, bang bang dans l'abdomen 92i, la frappe, ramène, wesh ient-cli, j'sais c'qui t'amène Tu nous dois tant, tu mets du temps, bang bang Nous devant, eux derrière, comme ça qu'j'ai tout agencé Des fois, j'vais trop loin, je sais, c'est mieux que d'ne pas avancer Tu cherches à être dans tous les curs, tu n'es même pas dans l'tiens Ton malheur fait mon bonheur, 700 HP, check engin Le ciel est noir et réclame sa part, les douleurs elles restent, les amis, ça part La tension quand les démons frappent à sa porte, un fils, ça fait la guerre et une mère, ça pleure La mort, la richesse, ne m'font plus d'effet, une fin universelle, on s'ra tous défunts Trente-trois ans l'âge de gloire, serais-je assez fort ? Dans la rue, peu d'bonhommes, guette, c'est tous des faibles Même au paradis, j'trouverai des défauts, c'est pour ça qu'j'suis conscient qu'j'suis le plat du feu Une cagoule, une équipe, tout est planifié, du sang dans tout l'salon et c'est pas du faux Si t'as d'la pure pas chère, c'est pas d'la re-pu, ici, c'est la France, c'est pas Medellin Aujourd'hui, quatre plaquettes, c'est un salaire brut, tu sais, les vacances, c'est pas mes délires Tu sais, les vacances, c'est pas mes délires Ouais, ouais, gros, paye-moi maintenant, j'laisse zéro délais Ouais, ouais Fini les carences, j'fais cinq-cents de l'heure, certif' après certif', j'suis le cours de l'or Arriba, arriba, arriba J'fais l'argent encore, on sait le blanchir Ouh, y a des ients-cli dehors, du pain sur la planche Ouh 92i, la frappe, le gang, il déchire, si tu cherches la concurrence, va chercher aux chiottes La money appartient à c'lui qui la veut, ils sont morts fauchés, ces cons, dites-moi à qui la faute ? C'est pas la mienne, nan, nan, nan, nan Nan, nan, nan, nan, nan, nan, nan, nan Nous devant, eux derrière, comme ça qu'j'ai tout agencé Des fois, j'vais trop loin, je sais, c'est mieux que d'ne pas avancer Tu cherches à être dans tous les curs, tu n'es même pas dans l'tien Ton malheur fait mon bonheur, 700 HP, check engin Ta-la-la-la-ta-ta-ta, ta-la-la-la-ta-ta-ta Ta-la-la-la-ta-ta-ta, ta-la-la-la-ta-ta-ta Ta-la-la-la-ta-ta-ta, ta-la-la-la-ta-ta-ta Ta-la-la-la-ta-ta-ta</t>
+          <t>Vivre, mourir, pas eu le temps de réfléchir. Pour ma pomme et ceux qui sont tombés dans mon panier, cest survivre le projet. Survivre ici, dans les caves aménagées de leurs palais. Dans ces camps dextermination dnotre dignité. Sans histoire, sans avenir, fermer ta bouche, accepter ! Ouais Croire en cquon tdit, obtempérer ! Cest ça, obtempère ! Obtempère au nom du Père ! Au nom du fils, au nom de leur satané Saint-Esprit ! Tu dois obtempérer Et avoir foi. Avoir foi et croire en Dieu. Prier et rester tranquille en testimant heureux Heureux dêtre simplement en vie ! Voilà les règles du jeu ! Les règles du jeu Elles sont conciliées dans un manuel Le manuel du Roi Soleil. Celui quon appelait Dieudonné. Si cétait son blaze Cest à la Cour de Versailles que les règles sont nées. Et pour le Code Noir, jveux tous vous voir au ciné ! Ma seule arme cest lsavoir, jveux voir le Code Noir ! Jveux connaître mon histoire, jveux voir le Code Noir ! Tous les lascars dmon tier-quar, veulent voir le Code Noir ! Arrête dme cacher lhistoire, jveux voir le Code Noir ! Jai le pousse pousse pousse, pour le Code Noir ! Bougez-tous tous tous, pour le Code Noir ! Réveille-toi, sois pas en retard, va voir le Code Noir ! Je sais où jmets mon gent-ar, pour le Code Noir ! Pour quon nous parle du colon comme on nous a parlé du SS Les millions dcoups de fouet, du champ de coton à la tess Ca passe aux ma-né-ci, cest loin dêtre un film Ma race ils veulent la fumer, pourtant jai pas la gueule dune garette-ci De larmes et de sang, mon arme est le chant Si tu me coupes la langue, mon ga-ga-gang te braque sur le champ ! Issu dun peuple que personne ne comprend Lassé de voir les négros en éternel second plan Cest une première quyait un film sur la traite négrière Ton passé débarque, reste pas acculé sur cette putain de pierre Lhistoire de tes ancêtres et cquils disaient dtes maîtres Cque la France nous a caché, on tle donne sur grand écran 400 ans condensés en une heure trente, cest peu Aujourd'hui on peut plus spermettre dfermer les yeux Jai retrouvé la Porte du non-Retour seul Sil manque un black il manquera toujours une pièce dans lpuzzle Enfin un film qui retrace notre histoire On va enfin connaître la vérité, cquil advenait de tous les Noirs Et quon se ldise, cest mon, cest ton, cest notre histoire Nos enfants enfin sauront pourquoi fort est le Peuple Noir Vendus comme de la marchandise, traités comme du bétail Cest pas trop tôt quon nous le dise, we have to tell them so Le genre humain et sa bêtise, le Roi Soleil et Sarkozy Même bitin même bagaille, à foutre dans lmême bateau Ma seule arme cest lsavoir, jveux voir le Code Noir ! Jveux connaître mon histoire, jveux voir le Code Noir ! Tous les lascars dmon tier-quar, veulent voir le Code Noir ! Arrête dme cacher lhistoire, jveux voir le Code Noir ! Jai le pousse pousse pousse, pour le Code Noir ! Bougez-tous tous tous, pour le Code Noir ! Réveille-toi, sois pas en retard, va voir le Code Noir ! Je sais où jmets mon gent-ar, pour le Code Noir ! Jai une fleur de Lys tatouée dans lcrâne Envie ddynamiter Versailles et Le Louvre, appelle-moi terroriste black Walaye j'veux voir Abdoulaye chier dans lchâteau dVersailles Ces pédés dpoudrés en perruque nous ont pris trop dmaille Trop dapartheid, cinématographique Cette France me fout la gale, cest catastrophique Jai pendu mon prof dhistoire, jlai caché dans la cave Comme la France cache son passé, et tous ses esclaves Avec nos strophes on rééduque parce que les profs sont des trous du uc Ceux qui ont craché sur ldos dDieu veulent crucifier Dieudo Le Roi Soleil nous a mis à lombre Nous les fils de Cham à la peau sombre Jvais aller aux Champs Elysées, et voir le Code Noir Chérie faut pas baliser si jte mets un Code Noir Fais tourner lpop-corn pour le film qui tient ldiable par les cornes Mon Ministère A.M.E.R. crève la France du Porc Combien savent, bravent, les manigances gouvernementales ? Sujet tabou au niveau mondial le babtou Politiquement correct élimine qui pointe du doigt ces rackets dans lhistoire De Louis le Monarque à Sarkozy La femme noire sexy, lhomme noir jamais assez clean 2005 on vote des lois qui positivent les colonies Ma seule arme cest lsavoir, jveux voir le Code Noir ! Jveux connaître mon histoire, jveux voir le Code Noir ! Tous les lascars dmon tier-quar, veulent voir le Code Noir ! Arrête dme cacher lhistoire, jveux voir le Code Noir ! Jai le pousse pousse pousse, pour le Code Noir ! Bougez-tous tous tous, pour le Code Noir ! Réveille-toi, sois pas en retard, va voir le Code Noir ! Je sais où jmets mon gent-ar, pour le Code Noir ! Noir est le Code Quand sur mon histoire on pisse, Bors pose sur la prod J'suis complice si jla boucle, mets lson dans lIpod Mec, jai pas dputain dbandeau sur la bouche Pour une exode vers le vrai, pousse le volume sur ma vie Je vois graver dans les bouquins de ma ville Holocauste Noir quand rien névolue, leurs lois sdribblent Ils disent quDieu la voulu, paraît qucest dans la Bible Jsuis français originaire dAfrique du Nord Donc Africain en quête de son histoire pour jamais perdre le nord Le poids dla discrimination étant frisé on lressent Et on cherche le sens des vies quils ont embrasées à lessence Jveux connaître cqui pousse l'homme à être Cruel envers son hôte sachant qula race humaine ne forme quun seul être Une seule couleur dans les veines, rouge pour tous Le sang qui a coulé, remonté pour faire le Code Noir Tant dtemps quils nous la mettent, aujourd'hui Cest à nous de restaurer lhistoire, bourrés despoir Le Code Noir, cest la réponse du fouet trop loin du colon un soir Pris lpouvoir, on vient remettre au 7e Art à la page La page, honorer nos ancêtres, dénoncer la traite Aggraver la suite quils croient écrire pour nous après avoir brûlé nos bibliothèques Mec respecte lhommage, apprécie limage Puis fais passer le message ! Ma seule arme cest lsavoir, jveux voir le Code Noir ! Jveux connaître mon histoire, jveux voir le Code Noir ! Tous les lascars dmon tier-quar, veulent voir le Code Noir ! Arrête dme cacher lhistoire, jveux voir le Code Noir ! Jai le pousse pousse pousse, pour le Code Noir ! Bougez-tous tous tous, pour le Code Noir ! Réveille-toi, sois pas en retard, va voir le Code Noir ! Je sais où jmets mon gent-ar, pour le Code Noir ! De Louis XIV à Sarkozy quest-ce qui a changé ? Les chaînes aux pieds se sont simplement déplacées. Lautre feu du visage pâle nous a anesthésiés complètement. Il nous a fait danser. Allez vas-y négro ! Continue à taper sur des bambous, tfaçon tu sras jamais numéro 1 ! Continue à voter pour ton maître, continue à réciter que tes ancêtres étaient Gaulois ! Hein, pourquoi pas Vikings ?! Hahaha Beh si ! Allez, vas-y lâche toi tu peux même tengager dans larmée ! Hein négro ! Et partir bombarder la Côte dIvoire ou lTogo ! Par contre viens pas pleurer hein Quand ton gamin sra au chômage, ou trouvera pas de logement Ah non ! Faudra pas miauler. Faudra pas tplaindre de la bavure dun policier sur ton enfant ! Bah tu devras fermer ta gueule ! Voilà ! Et dire merci même ! Et ptet même baisser ton froque ! Ouais Sil ten reste un ! Pov collabo va ! Jte plains mec parce que Je sais quils te finiront comme un chien Noublie pas quils ont écrit un code Un code Son nom LE CODE NOIR ! Paroles rédigées et expliquées par la communauté RapGenius France2</t>
         </is>
       </c>
     </row>
@@ -5677,12 +5677,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Chicha menthe</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>On a démarré a démarré, a démarré B.I.L, c'est carré B.I.L, c'est carré Ma rue, c'est Gotham, que des rates-pi qui font du sale dans l'ombre Bah, c'est rentable, ça t'enlève ton âme, juste à coup de portable J'fais du bizz en parallèle, nique les folles, c'est pas par rapport à elles que j'me suis mis à rapper Un peu parano, j'suis pas parrainé, j'aide les p'tits en chien, c'est mon rôle d'aîné dans le dél', t'as capté Gros bolide, appel de phares, allez, faut s'écarter, le veto, c'est l'cartel Que des têtes cabossées qui le Nous on vient dans ton quartier, on fait pas de battle, j'fume la beuh couleur turtle J'oublie tout, d'où je viens et comment je m'appelle, quand les condés m'interpellent Sale époque, peu de potes, une équipe armée, soudée comme la Cosa Dans le bloc, fait les comptes, fait le con, dépôt, arrivants, tu finis au bâtiment A Dom Pé', Veuve Clicquot, des grosses chiennes, des chichas menthe Tu sers à R, on sert les toxicos, Haut-d'-Seine la plaque tournante B.I.L feat le DUC, spectaculaire comme un but d'Neymar Déjà qu't'es une grosse pute, au moins, sois une pute aimable Y a une différence entre le faire et le penser, y a une différence entre vouloir et pouvoir On allait voler, eux, ils allaient pioncer donc l'ancien, garde tes conseils pour oi-t Y avait personne pour moi quand, en bas, j'galérais, personne pour moi, dans les moments durs, gros Personne pour moi quand j'me faisais péter, personne pour moi quand j'vendais la pure, gros Personne, j'étais tout seul dans l'noir, la solitude une habitude J'marche avec le cur, y en a pas mille comme moi, j'le vois juste à leur attitude AK-47 pour la bagarre, les têtes, ça n'existe plus Tous les bons sont au placard, dehors, y a qu'des fils de putes Dom Pé', Veuve Clicquot, des grosses chiennes, des chichas menthe Tu sers à R, on sert les toxicos, Haut-d'-Seine la plaque tournante B.I.L feat le DUC, spectaculaire comme un but d'Neymar Déjà qu't'es une grosse pute, au moins, sois une pute aimable Dis-moi, tu veux payer tout d'suite ou bien tout d'suite, qu'est-ce qui t'arrange ? Ils disent que le hijab, c'est le Diable, j'suis pas sortable, c'est ça la France Un ient-cli par seconde, c'est la cadence, double majeur en l'air, je bombe, c'est ça ma danse Il va falloir le faire va falloir, le dire, ça suffit pas, t'as frappé aux portes de l'enfer, j'espère qu'ça ouvre pas Bougies d'anniversaire chez l'commissaire, on souffle pas Soit je vis, soit je meurs, nique sa mère, je souffre pas Changement d'destination, j'les envoie vers l'Triangle des Bermudes Dans l'sale à toute allure, j'suis rien sur Terre, qu'une interlude B.I.L Des filles charmantes, des chichas menthe 9.2</t>
+          <t>Ou pa'a wè ki lèss la ki la, an Patate maman'w Gyèt manman, counia manmanw Haha Gyèt manman, counia manmanw Counia gyèt mamanw Gyèt manman, counia manmanw Gato Evil, Devil Gyèt manmanw Come on Gyèt manmanw Counia gyèt mamanw Sa trop puissant baw pa minyin sa Nah Man té ja diw Man ka binyin dans le sal Sal Man ja koké manmanw an fois, deux fois, trois fois yo sé dit ou inmin sa ! Haha, haha Sav sa, anlè mwen, ayin pa key brinnin A moins que ou bêtement envie sinyin Skull, skull Man epi des pirates la an ja ginyin démon an puissant ou pé pa frinnin sa Grrah-grrah-grrah L'agent an ka fèt vite Fèt vite Mais tou lé jou sa pa festif Douvan Glock pa ni Schwarzy pa ni Jet Li Man di Booba Man key yin ki visé tête li Grrah Moun a demi an pale sa Naah, ou pa adan siw ou pa assé investi Sale Bitch la di mwen I pa lé Valé sa i inmin lè sa ka coulé di fess li Salope Ice codé zié mwen coulè lenfè Skrr Man super defoncé an fait Ou key fai gato krazé an bagay an djel ou Siw comprenn ou key fai ti bagay en traite Nah 97.1,2,3,4, nou an mèt Sale, sale, sal, sale Man inmin wai yo begayé douvan neg Pa fai l con Man key baw li an tête, an landget manmanw Gyèt manmanw Eh-eh, counia manmanw Eh-eh Gyèt manmanw Eh-eh, counia manmanw Grrah, grrah, grrah Gyèt manmanw Eh-eh, counia manmanw Eh-eh Gyèt manmanw Eh-eh, counia manmanw Salope Gato, Evil, Devil, c'qu'elles veulent c'est du dirham See you in heaven, pas pour moi, see you au Seven-Eleven Peau neuve, Brésil, python Python, Courneuve, résine, litron J'sais pas réciter trois sourates, je m'éteins au filtré trois fois Mucho gusto elle m'dit Elle m'dit, mais c'est un tapin d'l'ennemi L'ennemi L'étau s'resserre, tout est faux, va dormir d'main tu t'lèves tôt Le bruit, l'odeur, le chantier, rafale au marteau piqueur Piqueur Cyrano viole ta p'tite sur P'tite sur, ça fume la satan en p'tit cur J'vais t'mettre deux grandes calottes Calottes Jusqu'à c'que tu soit d'mon avis J'connais qu'des grandes salopes Salopes Je n'ai donc pas d'petite amie J'vais t'mettre deux grandes calottes Calottes Jusqu'à c'que tu soit d'mon avis J'connais qu'des grandes salopes Salopes Je n'ai donc pas d'petite amie Gyèt manmanw Eh-eh, counia manmanw Eh-eh Gyèt manmanw Eh-eh, counia manmanw Grrah, grrah, grrah Gyèt manmanw Eh-eh, counia manmanw Sale Gyèt manmanw Eh-eh, counia manmanw Salope I put this shit on my life, on my kids Gyèt manmanw, they can't fuck with the P Ah Gyèt manmanw, they can't fuck with the Z Gyèt Gyèt manmanw, they can't fuck with my team Eh I'm from Lil' Haïti, they know what I mean Big steak on me, shake 'em with a beam Don't trick local, I fuck overseas Bitches ain't loyal, they know I want pussy Ha I get the money, the bag, the check The check Bitch, don't swallow, bitch, no bread Ah Standin' on business, ain't hard to see H